--- a/generate_dataset/SVYKHOA_dataset_guide.xlsx
+++ b/generate_dataset/SVYKHOA_dataset_guide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2521,6 +2521,4743 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hướng dẫn các bác sĩ, sinh viên y khoa về kỹ thuật phân lập, nuôi cấy và xác định đặc tính tế bào gốc trung mô từ dây rốn (UC-MSCs).</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, làm thế nào để xác định các đặc điểm cơ bản của tế bào gốc trung mô từ dây rốn người (UC-MSCs) trong phòng thí nghiệm, và các dấu ấn bề mặt tế bào này có ý nghĩa gì trong việc ứng dụng lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc xác định đặc tính của tế bào gốc trung mô từ dây rốn (UC-MSCs) là bước cực kỳ quan trọng để đảm bảo chất lượng và tiềm năng của chúng trước khi ứng dụng vào nghiên cứu hoặc lâm sàng. Dưới đây là các phương pháp và ý nghĩa chính mà các bác sĩ và sinh viên y khoa cần nắm vững:
+**1. Đánh giá hình thái học (Morphology):**
+*   **Quan sát dưới kính hiển vi:** UC-MSCs điển hình sẽ có hình dạng giống nguyên bào sợi (fibroblast-like morphology), trải rộng và bám dính.
+*   **Sự đồng nhất:** Đảm bảo quần thể tế bào đồng nhất, không lẫn các loại tế bào khác. Confluence (độ dày đặc) khoảng 80% là lý tưởng để cấy chuyển (passage) hoặc thu hoạch.
+**2. Phân tích bằng Flow Cytometry (FACS):**
+*   Đây là phương pháp tiêu chuẩn vàng để xác định các dấu ấn bề mặt tế bào (surface markers).
+*   **Dấu ấn âm tính (Negative markers):** UC-MSCs phải âm tính với các dấu ấn huyết học như **CD45**. Điều này giúp loại trừ các tế bào tạo máu và khẳng định tính thuần khiết của quần thể MSCs.
+*   **Dấu ấn dương tính (Positive markers):** UC-MSCs phải dương tính mạnh với các dấu ấn đặc trưng của tế bào gốc trung mô như **CD73, CD90, và CD105**.
+*   **Ý nghĩa lâm sàng của các dấu ấn:**
+    *   Việc dương tính với CD73, CD90, CD105 và âm tính với CD45 là tiêu chí của Hiệp hội Tế bào Liệu pháp Quốc tế (ISCT) để định nghĩa MSCs.
+    *   Sự hiện diện của các dấu ấn này chứng minh tế bào có khả năng miễn dịch thấp (do thiếu các phân tử MHC lớp II và các phân tử kích hoạt miễn dịch khác), giảm nguy cơ đào thải khi cấy ghép.
+    *   Đảm bảo tiềm năng biệt hóa đa dòng thành xương, sụn, mỡ, là cơ sở cho các ứng dụng trong y học tái tạo.
+**Bảng tóm tắt các dấu ấn Flow Cytometry cho UC-MSCs:**
+| Dấu ấn bề mặt | Kết quả Flow Cytometry | Ý nghĩa |
+| :------------ | :--------------------- | :---------------------------------------------------------------------------------------------------------- |
+| CD45          | Âm tính                | Loại trừ tế bào gốc tạo máu, khẳng định tính thuần khiết của MSCs. |
+| CD73          | Dương tính             | Dấu ấn đặc trưng của MSCs, liên quan đến khả năng ức chế miễn dịch và biệt hóa. |
+| CD90          | Dương tính             | Dấu ấn đặc trưng của MSCs, thường được sử dụng để xác định MSCs từ nhiều nguồn khác nhau. |
+| CD105         | Dương tính             | Dấu ấn đặc trưng của MSCs, thụ thể cho TGF-beta, quan trọng trong quá trình biệt hóa xương và sụn. |
+Việc thành thạo các kỹ thuật này không chỉ giúp các bạn đánh giá chất lượng tế bào mà còn là nền tảng vững chắc cho các nghiên cứu và ứng dụng lâm sàng trong tương lai.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành phân tích tế bào bằng Flow Cytometry (FACS) trong nghiên cứu tế bào gốc.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức nền tảng và hướng dẫn chi tiết về nguyên lý, kỹ thuật và ứng dụng của phương pháp Flow Cytometry trong nghiên cứu và chẩn đoán y học, đặc biệt trong việc định danh các quần thể tế bào gốc trung mô và đánh giá tính thuần khiết, đảm bảo độ tin cậy của kết quả.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Kỹ thuật Flow Cytometry nâng cao và ứng dụng trong Y học Tái tạo.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Khóa học đào tạo liên tục dành cho bác sĩ, nhà nghiên cứu nhằm trang bị kiến thức chuyên sâu và kỹ năng thực hành Flow Cytometry. Nội dung bao gồm từ thiết kế thí nghiệm, phân tích dữ liệu đến giải thích kết quả, đặc biệt tập trung vào việc xác định đặc tính tế bào gốc, hỗ trợ các ứng dụng lâm sàng và nghiên cứu tiên tiến trong lĩnh vực y học tái tạo và ung thư.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp kiến thức và hướng dẫn kỹ thuật nuôi cấy tế bào gốc trung mô từ dây rốn (UC-MSCs) cho các nhà nghiên cứu và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Xin chuyên gia tư vấn về các kỹ thuật nuôi cấy tế bào gốc trung mô từ dây rốn (UC-MSCs). Những yếu tố nào là then chốt để đảm bảo tế bào phát triển tối ưu và giữ được hình thái fibroblast-like đặc trưng?</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ thân mến, nuôi cấy tế bào gốc trung mô từ dây rốn (UC-MSCs) là một kỹ năng nền tảng trong y học tái tạo. Để đảm bảo tế bào phát triển tối ưu và giữ được các đặc tính mong muốn, các bạn cần chú ý đến những yếu tố sau:
+*   **Môi trường nuôi cấy (Culture Medium):**
+    *   Sử dụng môi trường chuyên biệt dành cho MSCs (ví dụ, DMEM/F12 bổ sung huyết thanh thai bò (FBS) hoặc huyết thanh tiểu cầu người (hPL), yếu tố tăng trưởng).
+    *   Thay môi trường định kỳ (thường là 2-3 ngày/lần) để cung cấp chất dinh dưỡng mới và loại bỏ các chất thải tích tụ, như đã đề cập trong đoạn văn (mỗi 3 ngày).
+*   **Điều kiện nuôi cấy (Culture Conditions):**
+    *   **Nhiệt độ:** Duy trì 37°C là nhiệt độ sinh lý tối ưu cho tế bào người.
+    *   **Nồng độ CO2:** 5% CO2 là nồng độ chuẩn để duy trì pH môi trường nuôi cấy ổn định, phù hợp với hệ đệm bicarbonate.
+    *   **Độ ẩm:** 95% độ ẩm trong tủ ấm giúp ngăn ngừa sự bay hơi của môi trường, duy trì môi trường nuôi cấy ổn định cho tế bào.
+*   **Mật độ tế bào và cấy chuyển (Cell Confluence and Passaging):**
+    *   Khi tế bào đạt độ dày đặc khoảng 80% (confluence), cần tiến hành cấy chuyển (passage) sang bình mới. Đây là thời điểm lý tưởng để tế bào còn đang trong pha tăng trưởng logarit và duy trì hoạt tính tốt nhất.
+    *   Việc cấy chuyển quá sớm hoặc quá muộn có thể ảnh hưởng đến chất lượng và khả năng biệt hóa của tế bào.
+    *   Đoạn văn nhấn mạnh "confluence of hUM-MSCs in culture in the second passage, displaying a typically homogeneous fibroblast‐like morphology", cho thấy tầm quan trọng của việc theo dõi mật độ tế bào ở các lần cấy chuyển.
+*   **Theo dõi hình thái học (Morphological Monitoring):**
+    *   Liên tục quan sát tế bào dưới kính hiển vi để đảm bảo chúng giữ được hình dạng giống nguyên bào sợi đồng nhất (homogeneous fibroblast-like morphology).
+    *   Bất kỳ sự thay đổi bất thường nào về hình dạng, kích thước hoặc xuất hiện các quần thể tế bào khác lạ đều cần được ghi nhận và đánh giá. Điều này giúp phát hiện sớm nhiễm bẩn hoặc sự biệt hóa tự phát.
+*   **Bảo quản tế bào (Cell Preservation):**
+    *   Để bảo quản ngắn hạn các mẫu vật (specimens) UC-MSCs, có thể sử dụng 4% paraformaldehyde. Tuy nhiên, để bảo quản lâu dài cho mục đích nghiên cứu hoặc ngân hàng tế bào, cần sử dụng phương pháp đông lạnh với các chất bảo vệ lạnh như DMSO.
+Thực hành tốt các kỹ thuật nuôi cấy này sẽ giúp các bạn có được nguồn tế bào gốc chất lượng cao, phục vụ hiệu quả cho các mục đích nghiên cứu và điều trị.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sổ tay Kỹ thuật Nuôi cấy Tế bào Gốc Người theo tiêu chuẩn GLP.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các giao thức chuẩn và mẹo thực hành tốt nhất trong nuôi cấy tế bào gốc, từ phân lập ban đầu đến duy trì và nhân rộng. Nó nhấn mạnh các nguyên tắc về kiểm soát môi trường, dinh dưỡng, mật độ tế bào và kỹ thuật cấy chuyển để đảm bảo tính toàn vẹn, sức sống và tiềm năng biệt hóa của tế bào gốc, đặc biệt hữu ích cho các phòng thí nghiệm tuân thủ GLP (Good Laboratory Practice).</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Thực hành Nuôi cấy Tế bào Gốc và Kiểm soát Chất lượng (QC) trong Phòng thí nghiệm.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Khóa học đào tạo liên tục này được thiết kế để nâng cao kỹ năng thực hành nuôi cấy tế bào gốc, từ các kỹ thuật vô trùng cơ bản đến các phương pháp nuôi cấy phức tạp hơn. Nội dung bao gồm kiểm soát chất lượng tế bào, phát hiện và xử lý nhiễm khuẩn, tối ưu hóa môi trường nuôi cấy, và các yếu tố ảnh hưởng đến hình thái học và chức năng tế bào, giúp học viên vận hành phòng thí nghiệm tế bào một cách hiệu quả và đáng tin cậy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ các bác sĩ và sinh viên y khoa tìm hiểu sâu về khả năng biệt hóa của tế bào gốc trung mô và các phương pháp đánh giá.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Xin chuyên gia giải thích ý nghĩa của việc đánh giá khả năng biệt hóa của tế bào gốc trung mô (MSCs) thành các dòng tế bào như xương, mỡ, sụn, và các phương pháp cụ thể để thực hiện các đánh giá này?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Chào các bạn, việc đánh giá khả năng biệt hóa đa dòng (multilineage differentiation potential) của tế bào gốc trung mô (MSCs) là một tiêu chí cốt lõi để xác nhận bản chất tế bào gốc và là yếu tố then chốt cho các ứng dụng trong y học tái tạo. Dưới đây là những điểm các bạn cần hiểu rõ:
+**1. Ý nghĩa của khả năng biệt hóa:**
+*   **Xác nhận bản chất tế bào gốc:** Khả năng biệt hóa thành xương, sụn, và mỡ là một trong ba tiêu chí chính (cùng với hình thái và dấu ấn bề mặt) để định nghĩa MSCs theo ISCT.
+*   **Tiềm năng ứng dụng lâm sàng:** Khả năng này mở ra cánh cửa cho việc sử dụng MSCs để tái tạo các mô bị tổn thương, như xương gãy không liền, thoái hóa khớp, hoặc tổn thương sụn.
+*   **Đánh giá chất lượng tế bào:** Các MSCs chất lượng cao sẽ có khả năng biệt hóa mạnh mẽ và đồng nhất, là yếu tố dự báo cho hiệu quả điều trị.
+**2. Các phương pháp đánh giá biệt hóa:**
+*   **Biệt hóa tạo xương (Osteogenic Differentiation):**
+    *   **Mục đích:** Đánh giá khả năng tế bào chuyển thành nguyên bào xương và sản xuất chất nền xương.
+    *   **Thực hiện:** Nuôi cấy MSCs trong môi trường biệt hóa tạo xương chuyên biệt (Osteogenesis differentiation medium, ví dụ của Miltenyi Biotec) trong 3-4 tuần, thay môi trường định kỳ.
+    *   **Đánh giá:** Sử dụng phương pháp nhuộm **Alizarin Red S**. Nhuộm này sẽ bắt màu đỏ cam với các lắng đọng calci ngoại bào, là dấu hiệu của sự tạo xương. Các bạn cần quan sát sự hình thành các nốt calci hóa.
+*   **Biệt hóa tạo mỡ (Adipogenic Differentiation):**
+    *   **Mục đích:** Đánh giá khả năng tế bào chuyển thành tế bào mỡ (adipocyte) và tích lũy lipid trong bào tương.
+    *   **Thực hiện:** Nuôi cấy MSCs trong môi trường biệt hóa tạo mỡ chuyên biệt (Adipogenesis differentiation medium, ví dụ của Miltenyi Biotec) trong 3-4 tuần, thay môi trường định kỳ.
+    *   **Đánh giá:** Sử dụng phương pháp nhuộm **Oil Red O**. Nhuộm này sẽ bắt màu đỏ cam với các giọt lipid (lipid droplets) bên trong tế bào, chứng minh sự biệt hóa thành tế bào mỡ.
+*   **Biệt hóa tạo sụn (Chondrogenic Differentiation):**
+    *   **Mục đích:** Đánh giá khả năng tế bào chuyển thành tế bào sụn (chondrocyte) và sản xuất chất nền sụn.
+    *   **Thực hiện:** Mặc dù đoạn văn không mô tả chi tiết phương pháp nhuộm cho biệt hóa sụn nhưng đã đề cập đến việc thực hiện assay này. Thông thường, tế bào được nuôi cấy trong pellet (viên) hoặc 3D với môi trường biệt hóa sụn.
+    *   **Đánh giá:** Các phương pháp nhuộm phổ biến bao gồm **Alcian Blue** (bắt màu proteoglycan và glycosaminoglycan, thành phần chính của chất nền sụn) hoặc nhuộm **Collagen Type II** (dấu ấn protein đặc trưng của sụn).
+**Lưu ý chung cho tất cả các thí nghiệm biệt hóa:**
+*   **Thời gian:** Duy trì nuôi cấy đủ lâu (3-4 tuần) để tế bào có đủ thời gian biệt hóa.
+*   **Điều kiện chuẩn:** Đảm bảo các điều kiện nuôi cấy (nhiệt độ, CO2, độ ẩm) ổn định.
+*   **Đối chứng:** Luôn luôn thực hiện mẫu đối chứng âm (tế bào gốc nuôi trong môi trường cơ bản không biệt hóa) để so sánh.
+Việc thành thạo các kỹ thuật này là rất quan trọng để các bạn có thể tự tin nghiên cứu và ứng dụng MSCs vào thực hành lâm sàng, góp phần vào sự phát triển của y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Giáo trình Sinh học Tế bào Gốc và Cơ chế Biệt hóa.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tài liệu học thuật chuyên sâu này trình bày các loại tế bào gốc, cơ chế phân tử điều hòa sự tự đổi mới và biệt hóa, và các phương pháp đánh giá khả năng biệt hóa đa dòng. Nó cung cấp cái nhìn toàn diện về nền tảng khoa học của tế bào gốc, cần thiết cho sinh viên y khoa và bác sĩ nghiên cứu trong lĩnh vực y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Các Kỹ thuật Nâng cao trong Đánh giá Tiềm năng Biệt hóa của Tế bào Gốc.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các kỹ thuật tiên tiến để đánh giá khả năng biệt hóa của tế bào gốc thành các dòng tế bào khác nhau (tạo xương, tạo mỡ, tạo sụn, thần kinh, tim mạch). Học viên sẽ được hướng dẫn về thiết kế thí nghiệm, sử dụng các môi trường biệt hóa chuyên biệt, các phương pháp nhuộm và phân tích hình ảnh, cùng với các phương pháp định lượng để đánh giá hiệu quả biệt hóa, phục vụ cho các nghiên cứu và ứng dụng lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Làm thế nào để giải thích kết quả khảo sát khả năng sống của tế bào gốc trung mô từ dây rốn (UC-MSCs) sau kích thích điện và những yếu tố nào cần xem xét trong thiết kế thí nghiệm tương lai để tối ưu hóa ứng dụng lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Khi diễn giải kết quả khảo sát khả năng sống của tế bào, đặc biệt là UC-MSCs dưới tác động của kích thích điện, các bác sĩ trẻ và sinh viên y khoa cần lưu ý những điểm sau:
+*   **Hiểu rõ ý nghĩa thống kê:** Các giá trị p-value (ví dụ: *p &lt; 0.05, **p &lt; 0.01) rất quan trọng. Chúng cho biết sự khác biệt giữa nhóm kích thích và nhóm đối chứng là có ý nghĩa thống kê hay không. *p &lt; 0.05 thường được chấp nhận là có ý nghĩa, trong khi **p &lt; 0.01 cho thấy một sự khác biệt mạnh mẽ hơn nhiều. Trong trường hợp này, 15 phút kích thích điện đã bắt đầu cho thấy sự khác biệt đáng kể, và từ 20 phút trở đi, sự giảm khả năng sống là rất rõ rệt.
+*   **Phân tích xu hướng theo thời gian và liều lượng:** Quan sát thấy rằng 5-10 phút kích thích điện không ảnh hưởng tiêu cực đáng kể đến khả năng sống, nhưng từ 15 phút trở đi, khả năng sống giảm dần và chết hoàn toàn ở 45-50 phút. Điều này cho thấy có một 'ngưỡng' kích thích tối ưu, vượt quá ngưỡng đó, kích thích điện trở thành yếu tố gây độc cho tế bào. Đây là một khái niệm quan trọng trong bất kỳ liệu pháp nào, cần tìm ra 'cửa sổ điều trị' an toàn và hiệu quả.
+*   **Kiểm soát và so sánh:** Việc có một nhóm đối chứng (0 phút kích thích) là cực kỳ cần thiết. Nó cung cấp một 'chuẩn' để so sánh và xác nhận rằng những thay đổi quan sát được là do kích thích điện gây ra, chứ không phải các yếu tố ngoại sinh khác của môi trường nuôi cấy.
+*   **Thiết kế thí nghiệm tương lai:**
+    *   **Phạm vi thời gian và cường độ:** Cần nghiên cứu sâu hơn ở các mức thời gian và cường độ kích thích điện nhỏ hơn giữa 10 và 15 phút, cũng như giữa 20 và 45 phút để xác định chính xác hơn ngưỡng gây độc và tìm ra 'điểm ngọt' có thể có lợi cho các quá trình khác (ví dụ: biệt hóa).
+    *   **Đánh giá chức năng:** Khả năng sống chỉ là một khía cạnh. Cần kết hợp các xét nghiệm chức năng khác như khả năng biệt hóa (như hình 3 đề cập), khả năng tiết yếu tố tăng trưởng, hoặc khả năng di chuyển để có cái nhìn toàn diện về tác động của kích thích điện.
+    *   **Mô hình in vivo:** Sau khi có dữ liệu in vitro rõ ràng, việc chuyển sang các mô hình in vivo là cần thiết để đánh giá hiệu quả và an toàn trong môi trường sống phức tạp hơn.
+Thông qua việc phân tích kỹ lưỡng các khía cạnh này, chúng ta có thể tối ưu hóa các điều kiện kích thích điện để phát huy tối đa tiềm năng của UC-MSCs trong y học tái tạo, đồng thời đảm bảo an toàn cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Anh/chị hãy phân tích sự khác biệt về phản ứng của tế bào gốc trung mô từ dây rốn (UC-MSCs) và tế bào cơ tim có nguồn gốc từ cầu cơ tim người (hCDCs) đối với kích thích điện, và những hàm ý gì cho các chiến lược điều trị bằng tế bào gốc trong tương lai?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Nghiên cứu này và tài liệu tham khảo Hojjatollah N et al (10) cung cấp những cái nhìn sâu sắc quan trọng về tác động của kích thích điện lên các loại tế bào gốc khác nhau, từ đó đưa ra những hàm ý quan trọng cho các chiến lược điều trị bằng tế bào gốc. Các bác sĩ và sinh viên y khoa cần nắm vững những điểm sau:
+**1. So sánh phản ứng của UC-MSCs và hCDCs với kích thích điện:**
+| Đặc điểm | UC-MSCs (từ bài viết) | hCDCs (từ tài liệu tham khảo) |
+| :------- | :--------------------------------------------------------------------------------------------------------------------------------------------------- | :------------------------------------------------------------------------------------------------------------- |
+| **Loại Tế Bào** | Tế bào gốc trung mô từ dây rốn | Tế bào có nguồn gốc từ cầu cơ tim người |
+| **Mục tiêu nghiên cứu chính** | Khả năng sống/Tăng sinh | Biệt hóa thành tế bào cơ tim |
+| **Kích thích 10 phút** | Không có tác động tiêu cực đáng kể đến khả năng sống | Biệt hóa thành tế bào cơ tim đã biệt hóa (committed cardiomyocytes) |
+| **Kích thích kéo dài** | Giảm khả năng sống đáng kể (15 phút trở đi), chết hoàn toàn (45-50 phút) | (Không được đề cập trực tiếp, nhưng ngụ ý rằng 10 phút là đủ để gây ra biệt hóa có lợi) |
+| **Kết luận chính** | Kích thích điện cần được tối ưu hóa cẩn thận để tránh gây độc và duy trì khả năng sống của tế bào. | Kích thích điện có thể là một công cụ mạnh mẽ để hướng dẫn biệt hóa tế bào gốc, đặc biệt là trong tái tạo mô tim. |
+**2. Hàm ý cho các chiến lược điều trị bằng tế bào gốc:**
+*   **Tính đặc hiệu của loại tế bào:** Rõ ràng, các loại tế bào gốc khác nhau (UC-MSCs vs. hCDCs) có thể phản ứng rất khác nhau với cùng một kích thích. Điều này nhấn mạnh tầm quan trọng của việc cá thể hóa các giao thức kích thích cho từng loại tế bào và mục tiêu điều trị cụ thể.
+*   **Cân bằng giữa khả năng sống và biệt hóa:** Đối với UC-MSCs, có vẻ như kích thích điện cường độ cao hoặc kéo dài có thể gây hại cho khả năng sống, trong khi đối với hCDCs, một thời gian kích thích nhất định (10 phút) lại thúc đẩy biệt hóa có lợi. Mục tiêu của liệu pháp (duy trì tế bào chưa biệt hóa hay thúc đẩy biệt hóa) sẽ quyết định chiến lược kích thích.
+*   **Cửa sổ điều trị tối ưu:** Việc tìm ra 'cửa sổ điều trị' tối ưu là rất quan trọng. Đối với hCDCs, 10 phút kích thích điện có vẻ là tối ưu cho biệt hóa. Đối với UC-MSCs, cần phải xác định ngưỡng an toàn và hiệu quả cho các mục đích cụ thể (ví dụ: nếu muốn thúc đẩy biệt hóa xương, sụn, mỡ, liệu có cần cường độ hoặc thời gian khác so với việc chỉ duy trì khả năng sống?).
+*   **Kỹ thuật y sinh trong y học tái tạo:** Kích thích điện là một ví dụ về 'bio-physical cue' có thể được sử dụng để điều khiển hành vi tế bào. Việc tích hợp các kỹ thuật này vào các nền tảng kỹ thuật mô và hệ thống phân phối tế bào (ví dụ: scaffold thông minh) có tiềm năng lớn trong việc cải thiện hiệu quả của liệu pháp tế bào gốc, đặc biệt là trong các trường hợp cần tái tạo mô phức tạp như tim hoặc thần kinh.
+Tóm lại, các bác sĩ lâm sàng và nhà nghiên cứu cần hiểu rằng việc áp dụng kích thích điện lên tế bào gốc không phải là một giải pháp chung cho tất cả. Cần có sự nghiên cứu kỹ lưỡng về loại tế bào, mục tiêu điều trị và tối ưu hóa các thông số kích thích để đạt được kết quả mong muốn một cách an toàn và hiệu quả nhất.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Dựa trên những phát hiện về tác động của kích thích điện lên tế bào gốc trung mô từ dây rốn (UC-MSCs), một bác sĩ lâm sàng hoặc sinh viên y khoa cần lưu ý những gì khi xem xét tiềm năng ứng dụng của UC-MSCs trong y học tái tạo và làm thế nào để tiếp cận các khóa học và tài liệu tham khảo phù hợp?</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Khi xem xét tiềm năng ứng dụng của tế bào gốc trung mô từ dây rốn (UC-MSCs) trong y học tái tạo, đặc biệt dưới góc độ các yếu tố vật lý như kích thích điện, một bác sĩ lâm sàng hoặc sinh viên y khoa cần có cái nhìn đa chiều và thực tiễn:
+*   **Hiểu rõ về 'liều lượng' kích thích:** Kết quả nghiên cứu cho thấy rằng kích thích điện kéo dài (ví dụ: 15-50 phút) gây độc cho UC-MSCs, trong khi thời gian ngắn hơn (5-10 phút) không ảnh hưởng tiêu cực. Điều này có ý nghĩa quan trọng đối với bất kỳ liệu pháp nào sử dụng kích thích vật lý: "liều lượng" (cường độ, tần số, thời gian) phải được tối ưu hóa cẩn thận để tránh gây hại và đạt được hiệu quả mong muốn (ví dụ: tăng sinh, biệt hóa, hoặc duy trì khả năng sống). Trong lâm sàng, điều này tương đương với việc phải xác định phác đồ điều trị chính xác cho từng bệnh nhân.
+*   **Tiềm năng và giới hạn của UC-MSCs:** UC-MSCs là một nguồn tế bào gốc dồi dào, có khả năng tự đổi mới và biệt hóa thành nhiều loại tế bào (mỡ, xương, sụn như Figure 3 gợi ý), và có đặc tính điều hòa miễn dịch. Tuy nhiên, khả năng phản ứng của chúng với các yếu tố môi trường (như kích thích điện) cần được nghiên cứu kỹ lưỡng để đảm bảo an toàn và hiệu quả khi đưa vào cơ thể sống. Không phải mọi kích thích đều có lợi.
+*   **Cân nhắc trước khi chuyển giao lâm sàng:** Mặc dù nghiên cứu in vitro rất quan trọng, việc chuyển giao các phương pháp điều trị tế bào gốc vào lâm sàng đòi hỏi bằng chứng mạnh mẽ từ các thử nghiệm tiền lâm sàng trên động vật và các thử nghiệm lâm sàng trên người có kiểm soát. Các bác sĩ cần đánh giá kritis các bằng chứng hiện có và các quy định của Bộ Y tế trước khi áp dụng.
+**Để nâng cao kiến thức và kỹ năng trong lĩnh vực này, bạn có thể tiếp cận:**
+*   **Tài liệu tham khảo chuyên ngành:**
+    *   **Giáo trình:** Các giáo trình về Sinh học Tế bào Gốc, Y học Tái tạo, Kỹ thuật Mô. Ví dụ: "Stem Cells: Biology and Application" hoặc "Principles of Regenerative Medicine".
+    *   **Bài báo khoa học:** Theo dõi các tạp chí uy tín như *Stem Cell Reports, Tissue Engineering, Cell Stem Cell* để cập nhật những nghiên cứu mới nhất về UC-MSCs và các yếu tố ảnh hưởng đến chúng.
+    *   **Hướng dẫn và quy định:** Tìm hiểu các hướng dẫn của Bộ Y tế Việt Nam hoặc WHO về nghiên cứu và ứng dụng tế bào gốc để đảm bảo tuân thủ các tiêu chuẩn đạo đức và pháp lý.
+*   **Khóa học CME (Continuing Medical Education):**
+    *   **Khóa học về kỹ thuật nuôi cấy tế bào và phân tích:** Nhiều trường đại học y dược và viện nghiên cứu tổ chức các khóa học thực hành về nuôi cấy tế bào gốc, đánh giá khả năng sống, và các kỹ thuật biệt hóa.
+    *   **Khóa học về y học tái tạo và liệu pháp tế bào:** Các khóa học này cung cấp kiến thức tổng quan và chuyên sâu về các liệu pháp tế bào gốc hiện có, các thử nghiệm lâm sàng, và những thách thức trong tương lai. Đặc biệt, tìm kiếm các khóa học có đề cập đến 'kỹ thuật sinh học' hoặc 'kích thích vật lý' trong kỹ thuật mô.
+    *   **Hội thảo và hội nghị:** Tham gia các hội thảo, hội nghị chuyên đề về tế bào gốc và y học tái tạo để giao lưu học hỏi với các chuyên gia và cập nhật kiến thức.
+Việc kết hợp chặt chẽ giữa kiến thức cơ bản, nghiên cứu thực nghiệm và cập nhật thông tin lâm sàng là chìa khóa để một bác sĩ trẻ hoặc sinh viên y khoa có thể đóng góp vào sự phát triển của y học tái tạo một cách có trách nhiệm và hiệu quả.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn bác sĩ trẻ và sinh viên y khoa về các phương pháp nghiên cứu và thực hành trong lĩnh vực tế bào gốc.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Đối với một nghiên cứu về biệt hóa tế bào gốc, làm thế nào để các bác sĩ trẻ và sinh viên y khoa có thể phân tích và đánh giá một cách chính xác sự thay đổi hình thái của tế bào gốc trung mô cuống rốn (UC-MSCs) khi được kích thích điện để biệt hóa thành tế bào cơ tim, và những chỉ số quan trọng cần theo dõi là gì?</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Chào các bạn bác sĩ trẻ và sinh viên y khoa,
+Việc phân tích hình thái tế bào là một bước cơ bản nhưng cực kỳ quan trọng trong nghiên cứu tế bào gốc. Để đánh giá sự thay đổi hình thái của UC-MSCs khi biệt hóa thành tế bào cơ tim dưới tác động kích thích điện, các bạn cần chú ý đến các điểm sau:
+*   **Quan sát dưới kính hiển vi:**
+    *   **Thực hiện định kỳ:** Như nghiên cứu đã chỉ ra, sự thay đổi bắt đầu sau 5 ngày và rõ rệt hơn vào ngày 15. Do đó, việc quan sát định kỳ (ví dụ: ngày 1, 3, 5, 10, 15) là cần thiết để theo dõi tiến trình biệt hóa.
+    *   **Đối chứng:** Luôn so sánh nhóm được kích thích điện (ES group) với nhóm đối chứng (control group) không được kích thích để xác định rõ ràng tác động của kích thích điện.
+    *   **Tiêu chuẩn hình thái:**
+        *   **Kéo dài và hình thoi (Elongated and spindle-shaped):** Tế bào cơ tim trưởng thành thường có hình dạng kéo dài và hình thoi. Quan sát sự thay đổi từ hình dạng đa diện hoặc hình sợi của UC-MSCs ban đầu sang hình dạng này là một dấu hiệu quan trọng.
+        *   **Định hướng (Orientation):** Các tế bào cơ tim trong mô thường có xu hướng sắp xếp theo một hướng nhất định. Việc UC-MSCs sắp xếp vuông góc với hướng dòng điện như mô tả là một dấu hiệu quan trọng, cho thấy phản ứng với kích thích và có thể là bước đầu tiên trong việc tạo cấu trúc giống mô.
+*   **Phân tích định lượng với phần mềm chuyên dụng:**
+    *   **Chỉ số hình dạng (Shape index):** Nghiên cứu đã đề cập đến việc chỉ số hình dạng giảm xuống 0.25 sau 15 ngày. Đây là một chỉ số định lượng quan trọng, thường được tính toán bằng các phần mềm phân tích hình ảnh như Image J. Giá trị thấp thường cho thấy tế bào có hình dạng kéo dài và ít tròn hơn.
+        *   **Thực hành với Image J:** Các bạn nên làm quen với phần mềm Image J (hoặc các phần mềm tương tự như CellProfiler) để học cách đo các thông số như chiều dài tế bào, chu vi, diện tích và tính toán chỉ số hình dạng. Điều này đảm bảo tính khách quan và định lượng cho kết quả của bạn.
+    *   **Phân tích sự sắp xếp (Alignment analysis):** Có thể sử dụng các thuật toán hình ảnh để định lượng mức độ sắp xếp của tế bào, ví dụ như phân tích Fourier để xác định các hướng ưu tiên trong quá trình biệt hóa.
+**Lời khuyên:** Hãy luôn ghi lại hình ảnh chất lượng cao và duy trì nhật ký thí nghiệm chi tiết. Việc này không chỉ giúp bạn theo dõi tiến độ mà còn là bằng chứng khoa học vững chắc cho kết quả của bạn, đồng thời là kinh nghiệm quý báu cho các nghiên cứu sau này.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Kỹ Thuật Kính Hiển Vi và Phân Tích Hình Ảnh Trong Sinh Học Tế Bào</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp kiến thức nền tảng về các loại kính hiển vi, nguyên tắc hoạt động và hướng dẫn chi tiết về các kỹ thuật chụp ảnh, xử lý và phân tích hình ảnh tế bào, bao gồm cả việc sử dụng phần mềm Image J, rất cần thiết cho việc đánh giá định lượng các thay đổi hình thái tế bào trong nghiên cứu y sinh.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Phân Tích Hình Ảnh Tế Bào Nâng Cao Với Image J và Các Công Cụ AI</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành chuyên sâu giúp các bác sĩ và nhà nghiên cứu y khoa nắm vững kỹ năng phân tích hình ảnh tế bào bằng phần mềm Image J, từ các phép đo cơ bản đến các thuật toán phức tạp hơn. Đồng thời, khóa học cũng giới thiệu về ứng dụng của trí tuệ nhân tạo trong phân tích hình thái tế bào để tăng cường độ chính xác và hiệu quả nghiên cứu, đặc biệt trong các dự án về biệt hóa tế bào và mô bệnh học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, đóng vai trò trợ lý học thuật chuyên ngành, cung cấp thông tin dựa trên kiến thức y khoa chính thống và ICD-10, tư vấn cho sinh viên y khoa và bác sĩ về thiết kế nghiên cứu tế bào gốc và y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nghiên cứu này đề xuất phương pháp kích thích điện (ES) cho UC-MSCs để biệt hóa thành tế bào cơ tim. Các bác sĩ và sinh viên y khoa cần hiểu rõ những khía cạnh nào về giao thức kích thích điện, và làm thế nào để thiết kế một thí nghiệm hiệu quả nhằm khám phá cơ chế hoạt động của nó?</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Chào các bạn,
+Nghiên cứu về kích thích điện để biệt hóa tế bào gốc là một hướng đi đầy tiềm năng trong y học tái tạo. Để hiểu rõ và áp dụng giao thức kích thích điện (ES) hiệu quả, các bạn cần chú ý đến những điểm cốt lõi sau:
+*   **Hiểu rõ Giao thức Kích thích Điện:**
+    *   **Thông số quan trọng:** Nghiên cứu đề cập "kích thích điện của UC-MSCs trong 10 phút mỗi ngày". Đây là một thông số cụ thể. Trong thực tế, các bạn cần quan tâm đến các yếu tố khác như:
+        *   **Cường độ điện trường (Electric Field Intensity):** Thường được đo bằng V/cm. Cường độ quá thấp sẽ không có tác dụng, quá cao có thể gây tổn thương tế bào.
+        *   **Tần số (Frequency):** Thường dao động từ vài Hz đến hàng chục Hz. Tần số khác nhau có thể kích hoạt các con đường tín hiệu khác nhau.
+        *   **Dạng sóng (Waveform):** Xung vuông, xoang, đơn pha, hai pha... mỗi dạng sóng có thể có tác động riêng.
+        *   **Thời gian và Chu kỳ (Duration &amp; Cycle):** 10 phút mỗi ngày là một chu kỳ. Liệu có cần kéo dài hơn, hay ngắt quãng như thế nào?
+        *   **Vật liệu điện cực (Electrode Material):** Phải đảm bảo tương thích sinh học và không gây độc cho tế bào.
+    *   **Cơ chế tác động:** Kích thích điện được cho là tác động lên màng tế bào, kênh ion, và các thụ thể bề mặt, dẫn đến thay đổi tín hiệu nội bào và biểu hiện gen, từ đó thúc đẩy quá trình biệt hóa. Cụ thể hơn, nó có thể ảnh hưởng đến protein cấu trúc, tín hiệu calcium, và các yếu tố phiên mã đặc hiệu cho tim mạch.
+*   **Thiết kế Thí nghiệm Khám phá Cơ chế:**
+    Để hiểu sâu hơn về cách ES thúc đẩy biệt hóa, các bạn có thể thiết kế thí nghiệm theo các bước sau:
+    1.  **Phân tích biểu hiện gen:** Sau khi kích thích, hãy sử dụng kỹ thuật RT-qPCR hoặc RNA sequencing để định lượng biểu hiện của các gen dấu ấn tế bào cơ tim (ví dụ: cTnT, α-MHC, GATA4, Nkx2.5) và các gen liên quan đến kênh ion hoặc protein tín hiệu.
+    2.  **Đánh giá protein:** Sử dụng miễn dịch hóa học (immunocytochemistry) hoặc Western blot để phát hiện các protein đặc hiệu của tế bào cơ tim.
+    3.  **Đánh giá chức năng:** Đây là bước quan trọng nhất để xác nhận biệt hóa chức năng. Các bạn có thể sử dụng:
+        *   **Ghi điện sinh lý (Patch-clamp recording):** Để đo dòng ion qua màng tế bào và tiềm năng hoạt động (action potential) đặc trưng của tế bào cơ tim.
+        *   **Quan sát co bóp:** Sử dụng kính hiển vi với camera tốc độ cao để quan sát liệu các tế bào có tự co bóp một cách nhịp nhàng hay không.
+    4.  **Nghiên cứu con đường tín hiệu:** Sử dụng các chất ức chế hoặc hoạt hóa con đường tín hiệu cụ thể (ví dụ: Wnt, Notch, Hippo) để xác định con đường nào bị ảnh hưởng bởi kích thích điện và đóng vai trò trong biệt hóa.
+**Bảng so sánh các thông số kích thích điện cần xem xét:**
+| Thông số           | Mô tả                                      | Ảnh hưởng tiềm năng đến biệt hóa                      |
+| :----------------- | :----------------------------------------- | :---------------------------------------------------- |
+| **Cường độ điện**  | Đơn vị: V/cm                               | Kích hoạt kênh ion, thay đổi điện thế màng           |
+| **Tần số**         | Đơn vị: Hz                                 | Thay đổi động học kênh ion, tín hiệu Ca2+ nội bào     |
+| **Dạng sóng**      | Xung vuông, xoang, v.v.                    | Hiệu quả kích thích thụ thể, tính an toàn cho tế bào  |
+| **Thời gian/Chu kỳ** | Phút/ngày                                  | Mức độ tích lũy tác động, thích nghi tế bào           |
+| **Vật liệu điện cực** | Vàng, Platinum, Carbon, v.v.               | Tương thích sinh học, độ dẫn điện, độc tính          |
+**Lời khuyên:** Luôn bắt đầu với các thông số đã được báo cáo trong tài liệu khoa học, sau đó điều chỉnh và tối ưu hóa dần trong quá trình thực nghiệm. Ghi chép cẩn thận mọi thay đổi và kết quả để rút ra kinh nghiệm quý giá cho các nghiên cứu tiếp theo.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Kỹ Thuật Điện Sinh Lý Tế Bào và Mô: Nguyên Lý và Ứng Dụng</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp một cái nhìn toàn diện về các phương pháp ghi điện sinh lý như patch-clamp, multielectrode arrays (MEA), giúp sinh viên và bác sĩ hiểu cách đánh giá chức năng điện học của tế bào cơ tim biệt hóa, một yếu tố then chốt để xác nhận sự thành công của quá trình biệt hóa chức năng.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Thiết Kế và Tối Ưu Hóa Giao Thức Kích Thích Tế Bào Gốc trong Y Học Tái Tạo</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các nguyên tắc thiết kế thí nghiệm kích thích tế bào gốc, bao gồm lựa chọn thông số kích thích điện, đánh giá tương tác tế bào-vật liệu, và phân tích dữ liệu hiệu quả. Khóa học dành cho các nhà nghiên cứu và bác sĩ muốn phát triển hoặc cải tiến các giao thức biệt hóa tế bào gốc cho ứng dụng lâm sàng, đặc biệt trong các bệnh lý tim mạch (như Nhồi máu cơ tim - ICD-10 I21, Suy tim - ICD-10 I50).</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp hướng dẫn chuyên môn và kiến thức cập nhật dựa trên chuẩn ICD-10 của Bộ Y tế Việt Nam, hỗ trợ sinh viên y khoa và bác sĩ trong việc tìm hiểu các ứng dụng y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sau khi quan sát sự thay đổi hình thái, làm thế nào để các bác sĩ trẻ và sinh viên y khoa có thể xác nhận một cách khách quan và toàn diện sự biệt hóa của UC-MSCs thành tế bào cơ tim sau kích thích điện, và những ứng dụng tiềm năng của nghiên cứu này trong điều trị các bệnh tim mạch theo phân loại ICD-10 là gì?</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Chào các bạn đồng nghiệp,
+Việc xác nhận sự biệt hóa thành công của UC-MSCs thành tế bào cơ tim đòi hỏi nhiều phương pháp kiểm chứng khoa học, vượt ra ngoài việc chỉ quan sát hình thái. Đây là cách các bạn có thể thực hiện để có cái nhìn toàn diện và khách quan:
+*   **Xác nhận ở cấp độ phân tử và chức năng:**
+    1.  **Dấu ấn sinh học đặc trưng:**
+        *   **Miễn dịch hóa học (Immunocytochemistry/Immunohistochemistry):** Sử dụng kháng thể đặc hiệu để phát hiện các protein cấu trúc và điều hòa của tế bào cơ tim như Troponin T (cTnT), Troponin I (cTnI), Alpha-actinin sarcomere (α-sarcomeric actinin), Myosin Heavy Chain (MHC), GATA4, Nkx2.5. Sự xuất hiện và vị trí của các protein này là bằng chứng rõ ràng cho sự biệt hóa.
+        *   **RT-qPCR/Western Blot:** Định lượng biểu hiện gen (mRNA) và protein tương ứng của các dấu ấn trên để so sánh với nhóm đối chứng và xác định mức độ biệt hóa. Điều này giúp đánh giá sự thay đổi ở cấp độ phiên mã và dịch mã.
+    2.  **Đánh giá chức năng điện sinh lý:**
+        *   **Ghi điện thế hoạt động (Action Potential Recording):** Sử dụng kỹ thuật patch-clamp để ghi lại các dòng ion và đặc điểm điện thế hoạt động, vốn là dấu hiệu đặc trưng của tế bào cơ tim hoạt động. Tế bào cơ tim biệt hóa thành công sẽ có khả năng tạo ra điện thế hoạt động và phản ứng với các tác nhân điều hòa tim.
+        *   **Quan sát khả năng co bóp tự phát:** Một trong những dấu hiệu mạnh mẽ nhất của biệt hóa thành công là khả năng các tế bào tự co bóp một cách nhịp nhàng trong nuôi cấy. Có thể định lượng tần số và biên độ co bóp bằng phần mềm phân tích hình ảnh hoặc hệ thống ghi nhịp đập.
+*   **Ứng dụng tiềm năng trong y học tái tạo cho các bệnh tim mạch (theo ICD-10):**
+    Nghiên cứu này mở ra nhiều hứa hẹn cho việc điều trị các bệnh lý tim mạch nặng nề, thường được mã hóa trong ICD-10 như:
+    *   **Nhồi máu cơ tim cấp (Acute myocardial infarction - ICD-10 I21):** UC-MSCs biệt hóa thành tế bào cơ tim có thể được sử dụng để "vá" vùng cơ tim bị hoại tử, giúp phục hồi chức năng co bóp của tim và giảm thiểu các biến chứng như suy tim (ICD-10 I50).
+    *   **Suy tim (Heart failure - ICD-10 I50):** Tăng cường số lượng tế bào cơ tim khỏe mạnh có thể cải thiện chức năng bơm máu của tim, đặc biệt trong các trường hợp suy tim do thiếu máu cục bộ hoặc bệnh cơ tim.
+    *   **Bệnh cơ tim (Cardiomyopathy - ICD-10 I42):** Có thể được dùng để thay thế các tế bào cơ tim bị tổn thương hoặc có chức năng kém do các bệnh cơ tim di truyền hoặc mắc phải, nhằm cải thiện tiên lượng bệnh.
+    *   **Phục hồi sau phẫu thuật tim:** Hỗ trợ quá trình phục hồi mô tim sau các thủ thuật phẫu thuật phức tạp, giúp giảm thiểu sẹo và cải thiện chức năng hậu phẫu.
+**Lời khuyên cho các bạn:** Luôn kết hợp nhiều phương pháp kiểm chứng để có cái nhìn toàn diện nhất. Hãy luôn cập nhật các hướng dẫn lâm sàng và nghiên cứu mới nhất về liệu pháp tế bào gốc để áp dụng một cách an toàn và hiệu quả trong tương lai, đồng thời nắm vững các mã bệnh theo ICD-10 để phục vụ công tác chẩn đoán và quản lý bệnh án.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Phân Tích Dấu Ấn Sinh Học Tế Bào Gốc và Ứng Dụng Trong Chẩn Đoán Bệnh</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tài liệu này đi sâu vào các loại dấu ấn sinh học của tế bào gốc và tế bào biệt hóa, giải thích các phương pháp phát hiện (miễn dịch, gen, protein) và cách chúng được sử dụng để xác định trạng thái biệt hóa của tế bào. Đây là nền tảng vững chắc cho việc đánh giá kết quả nghiên cứu và ứng dụng trong chẩn đoán y học.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Liệu Pháp Tế Bào Gốc Trong Y Học Tim Mạch: Từ Khoa Học Cơ Bản Đến Thực Hành Lâm Sàng</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp một cái nhìn tổng thể về tiềm năng của liệu pháp tế bào gốc trong điều trị các bệnh tim mạch, đặc biệt nhấn mạnh các tiến bộ trong việc biệt hóa tế bào gốc thành tế bào cơ tim. Khóa học sẽ thảo luận về các thử nghiệm lâm sàng hiện tại, các thách thức trong việc đưa nghiên cứu từ phòng thí nghiệm ra lâm sàng, và các quy định đạo đức y khoa liên quan, giúp bác sĩ nắm bắt cơ hội và trách nhiệm trong lĩnh vực y học tái tạo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên các bằng chứng khoa học mới nhất, hướng dẫn thực hành cho bác sĩ và sinh viên y khoa theo chuẩn của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nghiên cứu về tác động của kích thích điện lên tế bào gốc trung mô từ dây rốn (UC-MSCs) cho thấy những thay đổi đáng kể về hình thái và định hướng tế bào. Bác sĩ trẻ và sinh viên y khoa nên hiểu ý nghĩa lâm sàng tiềm năng của những phát hiện này như thế nào trong bối cảnh y học tái tạo?</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Kính chào các đồng nghiệp và sinh viên y khoa, việc nghiên cứu tác động của kích thích điện lên tế bào gốc trung mô từ dây rốn (UC-MSCs) là một lĩnh vực đầy hứa hẹn trong y học tái tạo. Để hiểu rõ ý nghĩa lâm sàng tiềm năng, các bạn cần nắm vững các điểm cốt lõi sau:
+*   **Cơ chế tác động**: Kích thích điện (Electrical Stimulation - ES) không chỉ là một yếu tố vật lý đơn thuần mà còn là một tín hiệu sinh lý mạnh mẽ có khả năng điều biến hành vi tế bào. Các tế bào của cơ thể, bao gồm cả tế bào gốc, có khả năng cảm nhận và phản ứng với các tín hiệu điện sinh lý. Đây là một phần của lĩnh vực 'cơ học sinh học' (mechanobiology) hoặc 'điện sinh học tế bào' (cellular bioelectricity), nơi các yếu tố vật lý tác động lên các quá trình sinh học cơ bản như di chuyển, biệt hóa và sản xuất các yếu tố tăng trưởng của tế bào gốc.
+*   **Hình thái và Chức năng Tế bào**: Việc UC-MSCs trở nên 'kéo dài' (elongated) dưới tác động kích thích điện sau 15 ngày, như nghiên cứu chỉ ra, không chỉ là một thay đổi hình thái ngẫu nhiên. Hình thái tế bào thường liên quan chặt chẽ đến chức năng của chúng. Ví dụ, tế bào thần kinh có hình dạng kéo dài để dẫn truyền tín hiệu, trong khi tế bào cơ cũng có dạng sợi để co rút. Do đó, sự kéo dài này có thể cho thấy một sự thay đổi hướng tới biệt hóa hoặc tăng cường chức năng phù hợp với mô đích cần tái tạo (ví dụ, mô thần kinh hoặc cơ).
+*   **Định hướng Tế bào (Cell Orientation)**: Các tế bào không chỉ thay đổi hình dạng mà còn có xu hướng 'định hướng' theo một hướng nhất định (thể hiện qua trục vector tế bào). Trong môi trường in vivo, sự định hướng này rất quan trọng để hình thành cấu trúc mô phức tạp và chức năng đúng đắn, chẳng hạn như sự sắp xếp của sợi collagen trong gân, xương hoặc sự tăng trưởng có hướng của axon thần kinh. Nếu chúng ta có thể điều khiển sự định hướng này bằng kích thích điện, chúng ta có thể hướng dẫn tế bào tái tạo mô theo cấu trúc mong muốn, giúp tạo ra các mô chức năng hơn.
+*   **Ứng dụng Lâm sàng Tiềm năng trong Y học Tái tạo**: Các phát hiện này mở ra hướng đi mới cho kỹ thuật mô và y học tái tạo, bao gồm:
+    *   **Thiết kế Giàn giáo Kỹ thuật Mô (Tissue Engineering Scaffolds)**: Các giàn giáo có khả năng dẫn điện hoặc phát ra kích thích điện có thể được thiết kế để điều khiển hành vi của UC-MSCs cấy ghép, giúp chúng biệt hóa và sắp xếp thành các cấu trúc mô có tổ chức (ví dụ: tái tạo xương, sụn, hoặc mô thần kinh).
+    *   **Tăng cường Hiệu quả Liệu pháp Tế bào**: Kích thích điện có thể được sử dụng để 'tiền xử lý' (pre-condition) UC-MSCs trước khi cấy ghép, giúp chúng có hiệu quả điều trị cao hơn, tăng khả năng sống sót, hoặc hướng chúng đến một dòng tế bào cụ thể cần thiết cho việc sửa chữa mô.
+    *   **Phục hồi Chức năng trong Tổn thương**: Trong các trường hợp tổn thương thần kinh hoặc cơ, kích thích điện trực tiếp hoặc gián tiếp có thể hỗ trợ các tế bào gốc nội sinh hoặc ngoại sinh trong việc phục hồi chức năng và cấu trúc mô bị tổn thương.
+Để trở thành một bác sĩ giỏi trong lĩnh vực này, các bạn cần phải không ngừng học hỏi kiến thức cơ bản về sinh học tế bào, vật lý y sinh và thực hành y học dựa trên bằng chứng, đồng thời luôn đặt câu hỏi về tính khả thi, an toàn và đạo đức của các liệu pháp mới trước khi áp dụng vào lâm sàng.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tế bào gốc trung mô từ dây rốn trong y học tái tạo: Tổng quan về cơ chế và ứng dụng lâm sàng.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn toàn diện về đặc tính sinh học, cơ chế hoạt động và tiềm năng ứng dụng của UC-MSCs trong điều trị các bệnh lý khác nhau, đặc biệt là trong lĩnh vực y học tái tạo và kỹ thuật mô. Đây là tài liệu tham khảo thiết yếu cho sinh viên và bác sĩ muốn tìm hiểu sâu về tế bào gốc.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Khóa học Chuyên sâu về Ứng dụng Tế bào gốc trong Y học Tái tạo và Kỹ thuật Mô.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ đi sâu vào các nguyên lý cơ bản của tế bào gốc, kỹ thuật nuôi cấy và điều biến tế bào, cũng như các chiến lược ứng dụng tế bào gốc trong sửa chữa và tái tạo mô bị tổn thương, bao gồm cả vai trò của các yếu tố vật lý như kích thích điện. Đây là khóa học lý tưởng cho các bác sĩ và nhà nghiên cứu muốn cập nhật kiến thức và kỹ năng thực hành theo các tiêu chuẩn quốc tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ bác sĩ và sinh viên y khoa trong việc phân tích dữ liệu nghiên cứu, hiểu các chỉ số sinh học và ứng dụng kiến thức vào thực hành lâm sàng, tuân thủ các chuẩn mực y tế và hướng dẫn của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nghiên cứu chỉ ra rằng tỷ lệ UC-MSCs với góc θ từ 10-20° là cao nhất dưới tác động của kích thích điện, trong khi các góc lớn hơn giảm đáng kể. Làm thế nào để giải thích và đánh giá dữ liệu định hướng tế bào này, và điều này có ý nghĩa gì đối với việc thiết kế các liệu pháp điều trị dựa trên tế bào?</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Chào các bạn, việc phân tích dữ liệu định hướng tế bào như góc θ là một kỹ năng quan trọng để đánh giá hiệu quả của các can thiệp như kích thích điện. Dưới đây là cách chúng ta nên giải thích và đánh giá dữ liệu này để hiểu ý nghĩa lâm sàng của nó:
+**1. Hiểu về Góc θ và Định hướng Tế bào:**
+*   **Góc θ:** Trong nghiên cứu này, góc θ đại diện cho góc giữa trục vector của tế bào và hướng của dòng điện. Một góc nhỏ (ví dụ, 10-20°) cho thấy tế bào có xu hướng sắp xếp gần như song song với hướng dòng điện. Ngược lại, một góc lớn (ví dụ, 60-90°) cho thấy tế bào sắp xếp gần như vuông góc hoặc ngẫu nhiên so với hướng dòng điện.
+*   **Ý nghĩa Sinh học:** Sự định hướng tế bào là yếu tố then chốt trong nhiều quá trình sinh học, từ sự phát triển phôi thai đến quá trình lành vết thương và hình thành mô. Trong các mô có cấu trúc định hướng rõ ràng như thần kinh, cơ, gân, sự sắp xếp tế bào theo một hướng nhất định là cần thiết cho chức năng tối ưu. Ví dụ, tế bào thần kinh cần định hướng để kéo dài axon, dẫn truyền tín hiệu hiệu quả; các sợi collagen trong gân cũng phải sắp xếp song song để chịu lực tốt nhất.
+**2. Phân tích Kết quả Nghiên cứu:**
+*   **Nhóm ES (Kích thích điện):** Nghiên cứu chỉ ra rằng sau mười phút kích thích điện, tỷ lệ UC-MSC với góc θ từ 10–90° giảm đáng kể so với nhóm đối chứng (P &lt; 0.01). Cụ thể, tỷ lệ UC-MSC với góc θ 10–20° là cao nhất (44.45%), và tỷ lệ này giảm dần ở các góc lớn hơn (20–30° là 29%; 30–40° là 16.27% và 40–50° là 7.69%). Ở các góc 60–90°, tỷ lệ UC-MSC gần như bằng 0. Điều này chứng tỏ kích thích điện đã định hướng mạnh mẽ và nhất quán các tế bào UC-MSCs theo hướng của dòng điện.
+*   **Nhóm Đối chứng:** Ngược lại, trong nhóm đối chứng, tỷ lệ tế bào với góc θ từ 10–90° phân bố ổn định và đều hơn, dao động giữa 11.9% và 21.14%. Điều này chứng tỏ trong điều kiện bình thường không có kích thích điện, tế bào không có sự ưu tiên định hướng rõ rệt.
+*   **Giá trị P &lt; 0.01:** Con số này là cực kỳ quan trọng, cho thấy sự khác biệt quan sát được giữa nhóm kích thích điện và nhóm đối chứng là có ý nghĩa thống kê cao. Điều này ngụ ý rằng sự khác biệt này rất khó có thể xảy ra do ngẫu nhiên, từ đó tăng cường độ tin cậy của kết luận rằng kích thích điện thực sự có tác động lên sự định hướng của tế bào.
+**Bảng tóm tắt phân bố góc θ của UC-MSCs:**
+| Khoảng Góc θ (độ) | Tỷ lệ UC-MSC trong Nhóm ES (%) | Tỷ lệ UC-MSC trong Nhóm Đối chứng (%) (dao động) |
+| :----------------- | :----------------------------- | :--------------------------------------------- |
+| 10 – 20            | 44.45                          | 11.9 - 21.14                                   |
+| 20 – 30            | 29                             | 11.9 - 21.14                                   |
+| 30 – 40            | 16.27                          | 11.9 - 21.14                                   |
+| 40 – 50            | 7.69                           | 11.9 - 21.14                                   |
+| 50 – 60            | (Không nêu rõ, nhưng giảm dần) | 11.9 - 21.14                                   |
+| 60 – 90            | Gần như bằng 0                  | 11.9 - 21.14                                   |
+**3. Ý nghĩa đối với Thiết kế Liệu pháp Tế bào:**
+*   **Kiểm soát Môi trường Tế bào:** Khả năng định hướng tế bào bằng kích thích điện có thể được khai thác để tạo ra các 'giàn giáo' (scaffolds) sinh học có cấu trúc định hướng. Ví dụ, trong tái tạo dây thần kinh bị tổn thương hoặc cơ bị rách, việc cung cấp các tín hiệu định hướng (như kích thích điện hoặc các kênh vi mô) có thể giúp các tế bào thần kinh hoặc tế bào cơ tái tạo mọc theo đúng hướng và sắp xếp cấu trúc, từ đó phục hồi chức năng tốt hơn.
+*   **Tối ưu hóa Hiệu quả Điều trị:** Bằng cách tối ưu hóa các thông số kích thích điện (cường độ, tần số, thời gian), chúng ta có thể 'huấn luyện' tế bào gốc đạt được hình thái và định hướng tối ưu trước khi cấy ghép, từ đó nâng cao hiệu quả tích hợp và chức năng của chúng trong cơ thể bệnh nhân.
+*   **Nghiên cứu Tiền lâm sàng và Chẩn đoán:** Dữ liệu chi tiết về hành vi tế bào như thế này là rất quan trọng cho các nghiên cứu tiền lâm sàng, giúp các nhà khoa học hiểu rõ hơn về cơ chế tác động và phát triển các mô hình điều trị chính xác hơn, cũng như tiềm năng cho các phương pháp chẩn đoán mới dựa trên phản ứng tế bào.
+Để thực hành y học dựa trên bằng chứng, các bạn cần rèn luyện khả năng đọc và phân tích các bài báo khoa học một cách tỉ mỉ, hiểu rõ ý nghĩa của các chỉ số thống kê và luôn suy nghĩ về cách các phát hiện cơ bản có thể được chuyển dịch thành ứng dụng lâm sàng một cách an toàn và hiệu quả.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Cơ học tế bào và Sinh học phát triển: Ảnh hưởng của lực vật lý lên hành vi tế bào và Kỹ thuật mô.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Cuốn sách giáo trình này cung cấp kiến thức nền tảng và chuyên sâu về cách các yếu tố cơ học và vật lý ảnh hưởng đến quá trình sinh trưởng, biệt hóa và chức năng của tế bào, cũng như các nguyên tắc thiết kế kỹ thuật mô dựa trên các yếu tố này. Đây là tài liệu cần thiết để hiểu các nghiên cứu cơ bản về tế bào và kỹ thuật mô.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Khóa học Phương pháp Nghiên cứu Khoa học và Phân tích Dữ liệu trong Y học.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành này tập trung vào các kỹ thuật phân tích dữ liệu sinh học, diễn giải kết quả thống kê (bao gồm các giá trị P), và thiết kế nghiên cứu khoa học, giúp bác sĩ và sinh viên y khoa tự tin hơn trong việc đánh giá các công bố khoa học và áp dụng tư duy phản biện vào nghiên cứu cũng như thực hành lâm sàng. Khóa học sẽ hướng dẫn cách đánh giá độ tin cậy của bằng chứng khoa học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp kiến thức chuyên sâu về các tiến bộ y học, định hướng nghiên cứu và đào tạo liên tục, giúp bác sĩ và sinh viên y khoa phát triển sự nghiệp và nâng cao năng lực chuyên môn theo các tiêu chuẩn quốc tế và hướng dẫn của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Với sự phát triển nhanh chóng của các kỹ thuật như kích thích điện trong nghiên cứu tế bào gốc, những thách thức và cơ hội nào đang chờ đợi các bác sĩ và nhà nghiên cứu y học, và làm thế nào để họ có thể cập nhật kiến thức một cách hiệu quả để ứng dụng vào thực tiễn?</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Các bạn thân mến, lĩnh vực y học tái tạo và liệu pháp tế bào, đặc biệt là với sự can thiệp của các yếu tố vật lý như kích thích điện, đang mở ra nhiều cơ hội nhưng cũng tiềm ẩn không ít thách thức. Để chuẩn bị cho tương lai y học và ứng dụng các tiến bộ này vào thực tiễn một cách hiệu quả, các bạn cần chú ý các điểm sau:
+**1. Cơ hội:**
+*   **Tiềm năng điều trị mới**: Kỹ thuật này có thể cung cấp các giải pháp tiên tiến cho những bệnh lý hiện chưa có phương pháp điều trị hiệu quả hoặc hiệu quả còn hạn chế (ví dụ: tổn thương tủy sống, bệnh Parkinson, nhồi máu cơ tim, tổn thương sụn khớp nghiêm trọng). Việc điều khiển hành vi tế bào gốc có thể giúp sửa chữa, tái tạo mô và phục hồi chức năng cơ quan.
+*   **Y học cá thể hóa**: Khả năng điều biến tế bào gốc in vitro hoặc in vivo thông qua các yếu tố vật lý như kích thích điện có thể dẫn đến các liệu pháp cá thể hóa, tối ưu hóa kết quả điều trị cho từng bệnh nhân dựa trên phản ứng sinh học riêng của họ.
+*   **Phát triển công nghệ y tế**: Thúc đẩy sự phát triển của các thiết bị y tế tiên tiến (ví dụ: máy kích thích điện sinh học, giàn giáo sinh học thông minh, hệ thống phân phối tế bào mục tiêu) và các phương pháp chẩn đoán, theo dõi mới.
+**2. Thách thức:**
+*   **Khoảng cách từ nghiên cứu cơ bản đến ứng dụng lâm sàng**: Việc chuyển dịch thành công một phát hiện từ phòng thí nghiệm ra đến giường bệnh là một quá trình phức tạp, đòi hỏi nhiều giai đoạn thử nghiệm tiền lâm sàng và lâm sàng. Đảm bảo an toàn, hiệu quả và quy trình chuẩn hóa cho các liệu pháp mới là vô cùng quan trọng.
+*   **Quy định pháp lý và Đạo đức**: Các liệu pháp tế bào gốc và kỹ thuật mới cần tuân thủ các quy định nghiêm ngặt của Bộ Y tế Việt Nam và các tổ chức y tế quốc tế (ví dụ: WHO, ICH). Các vấn đề đạo đức liên quan đến việc sử dụng tế bào gốc, thao tác gen hoặc kỹ thuật cơ học tác động lên cơ thể sống cũng cần được xem xét kỹ lưỡng và minh bạch.
+*   **Chi phí và Khả năng tiếp cận**: Các liệu pháp tiên tiến thường có chi phí nghiên cứu và triển khai rất cao, đặt ra thách thức về khả năng tiếp cận cho đại đa số bệnh nhân và tính bền vững của hệ thống y tế.
+*   **Nhu cầu về Kiến thức chuyên sâu và Đào tạo**: Lĩnh vực này đòi hỏi sự hiểu biết sâu rộng về sinh học tế bào, kỹ thuật điện, vật liệu sinh học, miễn dịch học và y học lâm sàng, yêu cầu các bác sĩ và nhà khoa học phải liên tục cập nhật và nâng cao kiến thức.
+**3. Cách cập nhật kiến thức và ứng dụng hiệu quả:**
+*   **Đọc Tạp chí khoa học uy tín**: Thường xuyên đọc các tạp chí chuyên ngành hàng đầu như 'Stem Cell Research &amp; Therapy', 'Tissue Engineering', 'Nature Medicine', 'Science Translational Medicine' hoặc các tạp chí y học tổng quát có uy tín để cập nhật các nghiên cứu mới nhất.
+*   **Tham gia Hội thảo và Hội nghị Khoa học**: Tham dự các hội nghị quốc gia và quốc tế về y học tái tạo và liệu pháp tế bào để lắng nghe các bài trình bày mới nhất từ các chuyên gia, học hỏi kinh nghiệm và mở rộng mạng lưới chuyên môn.
+*   **Khóa học CME (Continuous Medical Education)**: Tham gia các khóa học CME chuyên sâu về liệu pháp tế bào, kỹ thuật mô, và các nguyên tắc nghiên cứu y sinh để nâng cao kiến thức và kỹ năng. Đảm bảo các khóa học này được công nhận bởi Bộ Y tế hoặc các tổ chức y tế có uy tín.
+*   **Hợp tác Đa ngành**: Tìm kiếm cơ hội làm việc hoặc hợp tác với các nhóm nghiên cứu có chuyên môn đa dạng (sinh học, kỹ thuật, vật lý, lâm sàng) để có cái nhìn toàn diện và giải quyết các vấn đề phức tạp.
+*   **Tìm hiểu Hướng dẫn và Quy định**: Luôn cập nhật các hướng dẫn và quy định mới nhất của Bộ Y tế Việt Nam và các tổ chức quốc tế liên quan đến nghiên cứu và ứng dụng tế bào gốc để đảm bảo mọi thực hành đều an toàn, hợp pháp và có đạo đức.
+Việc chủ động học hỏi, có tư duy phản biện và khả năng thích nghi sẽ giúp các bạn trở thành những chuyên gia y tế tiên phong và đóng góp vào sự phát triển của y học hiện đại.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Đạo đức và Quy định trong Nghiên cứu và Ứng dụng Tế bào Gốc tại Việt Nam (Của Bộ Y tế).</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng hợp các hướng dẫn và quy định chính thức của Bộ Y tế Việt Nam về nghiên cứu và ứng dụng tế bào gốc, bao gồm các khía cạnh an toàn, hiệu quả và đạo đức. Đây là tài liệu pháp lý và chuyên môn quan trọng cho mọi bác sĩ và nhà nghiên cứu trong lĩnh vực y học tái tạo để đảm bảo tuân thủ các tiêu chuẩn quốc gia.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hội thảo Quốc tế về Tiến bộ mới nhất trong Y học Tái tạo và Liệu pháp Tế bào.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Tham gia hội thảo thường niên này để cập nhật những phát hiện khoa học mới nhất, các phương pháp điều trị tiên tiến, và thảo luận về các thách thức pháp lý, đạo đức và triển vọng tương lai của y học tái tạo với các chuyên gia hàng đầu thế giới. Hội thảo cũng thường bao gồm các phiên hướng dẫn thực hành cho các kỹ thuật mới, rất hữu ích cho việc nâng cao năng lực chuyên môn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ hoặc sinh viên y khoa, làm thế nào để chúng ta hiểu và phân tích mức độ biểu hiện gen một cách chính xác trong các nghiên cứu biệt hóa tế bào gốc, đặc biệt khi đánh giá sự biệt hóa thành tế bào cơ tim như kỹ thuật RT-PCR được đề cập?</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc phân tích mức độ biểu hiện gen là một kỹ năng cốt lõi trong nghiên cứu y sinh học, đặc biệt khi nghiên cứu sự biệt hóa tế bào gốc. Dưới đây là hướng dẫn chi tiết giúp bạn thực hiện và hiểu kỹ thuật này:
+*   **Hiểu rõ nguyên lý RT-PCR và qPCR:**
+    *   **RT-PCR (Reverse Transcription Polymerase Chain Reaction)** là kỹ thuật chuyển RNA thành cDNA (reverse transcription) sau đó khuếch đại cDNA bằng PCR để phát hiện sự hiện diện của gen. Trong nghiên cứu của chúng ta, nó cho thấy sự tồn tại của RNA tổng số và sản phẩm PCR của các gen đích.
+    *   **qPCR (quantitative PCR) hay Real-time PCR** là một bước tiến quan trọng hơn, cho phép chúng ta không chỉ phát hiện mà còn định lượng chính xác mức độ biểu hiện của gen. Để đánh giá sự tăng hoặc giảm biểu hiện (như upregulation của Nkx-2.5, Alpha-MHC, Desmin, GATA-4, cTNT trong nghiên cứu), qPCR là công cụ không thể thiếu.
+*   **Quy trình thực hiện cơ bản:**
+    1.  **Tách chiết RNA tổng số:** Đảm bảo RNA có độ tinh sạch cao và không bị phân hủy (như hiển thị trên gel ở hình 5A). Chất lượng RNA là yếu tố then chốt.
+    2.  **Tổng hợp sợi cDNA đầu tiên (First-strand synthesis):** Sử dụng enzyme Reverse Transcriptase để chuyển RNA thành cDNA. Đây là khuôn mẫu cho phản ứng PCR tiếp theo.
+    3.  **Phản ứng PCR/qPCR:** Sử dụng các cặp mồi đặc hiệu cho gen đích (ví dụ: Nkx-2.5, Alpha-MHC, Desmin, GATA-4, cTNT) và gen đối chứng (housekeeping gene) để khuếch đại cDNA.
+    4.  **Phân tích kết quả:**
+        *   **RT-PCR bán định lượng (Semi-quantitative RT-PCR):** Đánh giá cường độ vạch trên gel điện di (như hình 5B) để so sánh tương đối mức độ biểu hiện giữa các mẫu.
+        *   **qPCR định lượng:** Sử dụng phương pháp Ct (Cycle threshold) hoặc ΔΔCt để tính toán sự thay đổi biểu hiện gen một cách chính xác, thường biểu thị bằng 'fold change' so với nhóm chứng.
+*   **Lưu ý quan trọng khi phân tích dữ liệu:**
+    *   **Gen nội chuẩn (Housekeeping gene):** Luôn sử dụng một gen nội chuẩn ổn định (ví dụ: GAPDH, Actin) để chuẩn hóa dữ liệu, giúp loại bỏ các biến động không do sinh học.
+    *   **Kiểm soát âm tính (Negative control):** Đảm bảo phản ứng PCR không bị nhiễm bẩn (lane 7 trong Fig 5B là ví dụ của blank).
+    *   **So sánh và Kết luận:** Sự upregulation của các gen Nkx-2.5, Alpha-MHC, Desmin, GATA-4, cTNT ở tế bào UC-MSCs được kích thích điện cho thấy quá trình biệt hóa thành tế bào cơ tim đang diễn ra, vì đây là những gen đặc trưng cho sự phát triển và chức năng của tim.
+*   **Thực hành tốt:** Luôn thực hiện thí nghiệm lặp lại (triplicates) và kiểm tra lại chất lượng hóa chất, mồi để đảm bảo độ tin cậy của kết quả.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sổ Tay Kỹ Thuật Sinh Học Phân Tử Cơ Bản và Nâng Cao.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn chi tiết từ nguyên lý đến thực hành các kỹ thuật sinh học phân tử quan trọng như tách chiết nucleic acid, PCR, qPCR, và điện di, rất hữu ích cho sinh viên và các nhà nghiên cứu y sinh.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Khóa Học Chuyên Sâu về Real-time PCR và Phân Tích Biểu Hiện Gen.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Khóa học đào tạo y khoa liên tục này tập trung vào lý thuyết và thực hành Real-time PCR, bao gồm thiết kế thí nghiệm, tối ưu hóa phản ứng, phân tích thống kê dữ liệu và diễn giải kết quả, giúp học viên áp dụng hiệu quả vào nghiên cứu và chẩn đoán.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Nghiên cứu chỉ ra rằng Desmin là một dấu ấn sớm của tế bào cơ tim. Xin hãy làm rõ vai trò của Desmin và các dấu ấn đặc hiệu cơ tim khác (như Nkx-2.5, Alpha-MHC, GATA-4, cTNT) trong việc đánh giá sự biệt hóa tế bào gốc, và hướng dẫn về kỹ thuật miễn dịch hóa học để xác nhận những dấu ấn này.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Các bạn thân mến, việc xác định các dấu ấn đặc hiệu là chìa khóa để xác nhận sự biệt hóa của tế bào gốc. Trong trường hợp biệt hóa thành tế bào cơ tim, Desmin và một loạt các gen khác đóng vai trò cực kỳ quan trọng:
+*   **Vai trò của Desmin:**
+    *   **Định nghĩa:** Desmin là một protein sợi trung gian (intermediate filament protein) được tìm thấy chủ yếu trong tế bào cơ (cơ xương, cơ trơn và cơ tim).
+    *   **Dấu ấn sớm:** Như nghiên cứu đã chỉ ra, Desmin được coi là một dấu ấn sớm của sự biệt hóa cơ tim. Sự xuất hiện của Desmin trong các UC-MSCs được kích thích điện (Hình 6B) nhưng không có ở nhóm đối chứng (Hình 6A) minh chứng rõ ràng cho việc các tế bào này đang bắt đầu con đường biệt hóa thành tế bào cơ tim.
+    *   **Ý nghĩa:** Sự hiện diện của Desmin cho thấy tế bào đã cam kết với dòng dõi cơ.
+*   **Các dấu ấn đặc hiệu cơ tim khác:**
+    *   **Nkx-2.5:** Yếu tố phiên mã chính, đóng vai trò then chốt trong sự phát triển ban đầu của tim.
+    *   **GATA-4:** Một yếu tố phiên mã khác, quan trọng cho sự phát triển và chức năng của tim.
+    *   **Alpha-MHC (Alpha-Myosin Heavy Chain):** Một thành phần protein cấu trúc chính của sợi cơ tim, biểu hiện ở giai đoạn biệt hóa trưởng thành hơn.
+    *   **cTNT (cardiac Troponin T):** Protein điều hòa co cơ tim, là dấu ấn đặc hiệu và trưởng thành của tế bào cơ tim.
+*   **Kỹ thuật Immunocytochemistry và Immunohistochemistry (ICC/IHC):**
+    *   **Mục đích:** Các kỹ thuật này sử dụng kháng thể đặc hiệu để phát hiện và hình dung sự hiện diện của protein mục tiêu (như Desmin) trong tế bào (ICC) hoặc mô (IHC).
+    *   **Các bước cơ bản của ICC/IHC:**
+        1.  **Cố định mẫu:** Giữ nguyên cấu trúc tế bào/mô.
+        2.  **Kháng thể hóa:** Sử dụng kháng thể sơ cấp đặc hiệu với protein mục tiêu.
+        3.  **Kháng thể thứ cấp:** Gắn kháng thể thứ cấp đã được gắn với chất phát màu hoặc phát quang.
+        4.  **Quan sát:** Dưới kính hiển vi để xác định vị trí và cường độ tín hiệu dương tính.
+    *   **Diễn giải kết quả:**
+        *   **Dương tính (Positive):** Tế bào hoặc mô có tín hiệu màu/phát quang, cho thấy protein mục tiêu hiện diện (ví dụ: tế bào UC-MSCs được kích thích điện dương tính với Desmin).
+        *   **Âm tính (Negative):** Không có tín hiệu, cho thấy protein mục tiêu không hiện diện (ví dụ: tế bào UC-MSCs không được xử lý âm tính với Desmin).
+*   **Bảng tóm tắt các dấu ấn:**
+| Dấu ấn | Loại protein/Gen | Vai trò/Giai đoạn biệt hóa | Phương pháp phát hiện |
+|---|---|---|---|
+| **Desmin** | Protein sợi trung gian | Dấu ấn sớm của dòng tế bào cơ, cam kết biệt hóa cơ tim | ICC/IHC |
+| **Nkx-2.5** | Yếu tố phiên mã | Quan trọng cho sự phát triển tim ban đầu | RT-qPCR |
+| **GATA-4** | Yếu tố phiên mã | Quan trọng cho sự phát triển và chức năng tim | RT-qPCR |
+| **Alpha-MHC** | Protein cấu trúc | Dấu ấn trưởng thành hơn của cơ tim | RT-qPCR, Western blot |
+| **cTNT** | Protein điều hòa co cơ | Dấu ấn trưởng thành và đặc hiệu cao cho cơ tim | RT-qPCR, Western blot, ICC/IHC |
+Việc kết hợp nhiều dấu ấn và kỹ thuật (như RT-qPCR và ICC/IHC) giúp chúng ta có cái nhìn toàn diện và đáng tin cậy hơn về quá trình biệt hóa tế bào gốc.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Atlas Hình Ảnh Miễn Dịch Hóa Học Các Dấu Ấn Tế Bào.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Cung cấp bộ sưu tập hình ảnh và diễn giải kết quả về các dấu ấn tế bào khác nhau bằng kỹ thuật miễn dịch hóa học, là tài liệu tham khảo quý giá cho việc học tập và thực hành trong phòng thí nghiệm.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Phân Tích Dấu Ấn Tế Bào Bằng Kỹ Thuật Miễn Dịch Học Hiện Đại.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Khóa học này hướng dẫn các bác sĩ và sinh viên y khoa về các kỹ thuật miễn dịch học tiên tiến để xác định các dấu ấn tế bào, bao gồm thiết kế thí nghiệm, xử lý mẫu, nhuộm, và diễn giải kết quả, với các ứng dụng thực tiễn trong nghiên cứu và chẩn đoán bệnh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã chứng minh rằng kích thích điện có khả năng cảm ứng biệt hóa UC-MSCs thành tế bào cơ tim. Với vai trò là một nhà khoa học hoặc bác sĩ lâm sàng, chúng ta cần xem xét những yếu tố nào khi thiết kế các nghiên cứu tiếp theo hoặc khi cân nhắc tiềm năng ứng dụng của phương pháp này trong y học tái tạo?</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Chào các bạn, kết quả của nghiên cứu này mở ra nhiều triển vọng trong y học tái tạo, đặc biệt là trong điều trị các bệnh lý tim mạch. Tuy nhiên, để chuyển đổi từ nghiên cứu cơ bản sang ứng dụng lâm sàng, chúng ta cần lưu ý một số điểm quan trọng sau:
+*   **Về thiết kế nghiên cứu:**
+    *   **Kiểm soát chặt chẽ:** Đảm bảo các nhóm đối chứng (non-treated UC-MSCs) được xử lý song song và đúng quy cách để kết quả so sánh được khách quan. Các biến số khác (mật độ tế bào, thời gian kích thích, cường độ dòng điện) cần được chuẩn hóa.
+    *   **Định lượng toàn diện:** Ngoài RT-PCR bán định lượng và IHC, cần bổ sung các phương pháp định lượng khác như qPCR, Western blot để xác nhận biểu hiện protein, và xét nghiệm chức năng (ví dụ: khả năng co bóp, điện sinh lý) để khẳng định sự trưởng thành chức năng của tế bào cơ tim.
+    *   **Độ lặp lại (Reproducibility):** Thực hiện thí nghiệm lặp lại nhiều lần với các lô tế bào khác nhau để đảm bảo kết quả nhất quán và đáng tin cậy.
+    *   **Cơ chế phân tử:** Mặc dù nghiên cứu cho thấy sự upregulation gen, nhưng việc đi sâu vào cơ chế phân tử mà kích thích điện ảnh hưởng đến con đường biệt hóa là rất cần thiết (ví dụ: các tín hiệu nội bào, yếu tố phiên mã kích hoạt).
+*   **Tiềm năng ứng dụng và thách thức lâm sàng:**
+    *   **An toàn và tính sinh miễn dịch:** Trước khi ứng dụng lâm sàng, cần đánh giá kỹ lưỡng về khả năng gây khối u, phản ứng miễn dịch hoặc các tác dụng phụ không mong muốn của tế bào UC-MSCs đã biệt hóa.
+    *   **Hiệu quả lâu dài:** Cần nghiên cứu sự tồn tại, tích hợp và chức năng của các tế bào biệt hóa sau khi cấy ghép vào cơ thể sống (in vivo) trong thời gian dài.
+    *   **Thế hệ tế bào:** Liệu các tế bào biệt hóa này có khả năng hình thành các cấu trúc tim mạch phức tạp hay chỉ là các tế bào đơn lẻ?
+    *   **Tiêu chuẩn hóa quy trình:** Để sản xuất tế bào với số lượng lớn và chất lượng đồng nhất cho mục đích điều trị, quy trình kích thích điện và biệt hóa cần được tiêu chuẩn hóa theo các tiêu chuẩn GMP (Good Manufacturing Practice).
+    *   **Phối hợp đa ngành:** Ứng dụng y học tái tạo đòi hỏi sự hợp tác chặt chẽ giữa các nhà khoa học cơ bản, kỹ sư, bác sĩ lâm sàng và các nhà quản lý y tế.
+*   **Hướng nghiên cứu tiếp theo:**
+    *   Tối ưu hóa điều kiện kích thích điện.
+    *   Kết hợp kích thích điện với các yếu tố sinh học khác (ví dụ: yếu tố tăng trưởng, chất nền sinh học).
+    *   Nghiên cứu trên mô hình động vật lớn trước khi thử nghiệm lâm sàng trên người.
+Việc tiếp cận một cách khoa học, cẩn trọng và có hệ thống sẽ giúp chúng ta khai thác tối đa tiềm năng của nghiên cứu tế bào gốc trong việc cải thiện sức khỏe cộng đồng.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Hướng Dẫn Nghiên Cứu và Ứng Dụng Tế Bào Gốc Trong Y Học Tái Tạo.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn tổng quan về các phương pháp nghiên cứu tế bào gốc, từ nuôi cấy, biệt hóa đến các thử nghiệm in vitro và in vivo, đồng thời thảo luận về các quy định và đạo đức trong ứng dụng lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Từ Nghiên Cứu Khoa Học Cơ Bản Đến Ứng Dụng Lâm Sàng: Lộ Trình Phát Triển Thuốc và Liệu Pháp Tế Bào.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Khóa học này được thiết kế cho các nhà khoa học và bác sĩ muốn hiểu rõ quá trình chuyển đổi một khám phá khoa học từ phòng thí nghiệm sang các ứng dụng lâm sàng, bao gồm các giai đoạn phát triển tiền lâm sàng, thử nghiệm lâm sàng, và quy trình cấp phép.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, tập trung vào công nghệ tế bào gốc trong điều trị tim mạch và hướng dẫn thực hành cho bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ hoặc sinh viên y khoa, em nên hiểu rõ về tầm quan trọng của việc lựa chọn nguồn tế bào gốc trung mô (MSC) phù hợp, đặc biệt là giữa MSC từ tủy xương (BMSC) và MSC từ dây rốn (UC-MSC), trong các ứng dụng tái tạo cơ tim. Thầy/cô có thể hướng dẫn về các yếu tố cần cân nhắc và lý do tại sao UC-MSC có thể là nguồn ưu việt hơn trong lĩnh vực này không?</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Chào em. Việc lựa chọn nguồn tế bào gốc trung mô (MSC) phù hợp là một bước then chốt trong liệu pháp tế bào, đặc biệt khi hướng tới tái tạo cơ tim. Để hiểu rõ hơn, chúng ta cần so sánh đặc điểm của MSC từ tủy xương (BMSC) và MSC từ dây rốn (UC-MSC):
+*   **Điểm khác biệt về biểu hiện gen:**
+    *   Các nghiên cứu trước đây thường ghi nhận sự hiện diện ở mức thấp của mRNA GATA4 và NKX2.5 trong BMSC. Ngược lại, như bài báo này chỉ ra, UC-MSC chưa qua xử lý thường không biểu hiện các gen này. Điều này cho thấy sự khác biệt về trạng thái biệt hóa ban đầu của chúng.
+    *   **GATA4 và NKX2.5** là các yếu tố phiên mã quan trọng trong quá trình phát triển tim mạch. Sự vắng mặt ban đầu của chúng ở UC-MSC có thể là một lợi thế, cho phép chúng ta kiểm soát quá trình biệt hóa một cách chính xác hơn theo hướng mong muốn.
+*   **Tiềm năng biệt hóa:**
+    *   BMSC thường có xu hướng biệt hóa mạnh mẽ hơn theo hướng tạo xương (osteogenesis), do đó phù hợp hơn cho các ứng dụng trong tái tạo xương.
+    *   UC-MSC, với đặc tính và hồ sơ biểu hiện gen khác biệt, được chứng minh là một nguồn ưu việt hơn cho các nghiên cứu và ứng dụng liên quan đến tim mạch, đặc biệt là biệt hóa thành tế bào giống cơ tim (cardiomyocyte-like cells).
+*   **Lý do UC-MSC được ưu tiên trong tim mạch:**
+    *   **Khả năng điều chỉnh epigenetic:** UC-MSC có thể dễ dàng điều chỉnh biểu hiện gen để hướng tới dòng tế bào tim mạch thông qua các tác nhân kích thích (ví dụ, kích thích điện như trong nghiên cứu này).
+    *   **Ít khả năng biệt hóa ngẫu nhiên:** Nghiên cứu cũng nhấn mạnh nguy cơ của MSC chưa biệt hóa có thể trở thành tế bào tiền thân ngẫu nhiên hoặc tế bào biệt hóa không mong muốn trong môi trường vi mô bệnh lý, gây ra kết quả nguy hiểm (19). Do đó, việc sử dụng UC-MSC đã được tiền biệt hóa thành tế bào giống cơ tim trước khi cấy ghép sẽ mang lại hiệu quả phục hồi cơ tim và chức năng tim tốt hơn.
+    *   **Tính khả dụng và thu hoạch:** Dây rốn là nguồn dồi dào, dễ dàng thu thập và ít gây xâm lấn, ít gây đau đớn cho người hiến hơn so với tủy xương.
+**Lời khuyên cho em:** Khi thiết kế các nghiên cứu hoặc ứng dụng lâm sàng liên quan đến tái tạo cơ tim, hãy luôn cân nhắc kỹ lưỡng nguồn MSC. Đánh giá hồ sơ biểu hiện gen ban đầu và tiềm năng biệt hóa theo các dòng tế bào mong muốn là rất quan trọng để đảm bảo hiệu quả và an toàn cho bệnh nhân. Hiểu rõ sự khác biệt này sẽ giúp em đưa ra những quyết định sáng suốt trong lĩnh vực y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành lâm sàng về liệu pháp tế bào gốc trong tim mạch</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các nguyên tắc và khuyến nghị chi tiết về việc sử dụng tế bào gốc, bao gồm UC-MSC và BMSC, trong điều trị các bệnh lý tim mạch. Nó bao gồm quy trình thu thập, xử lý, ứng dụng lâm sàng và đánh giá hiệu quả, là cẩm nang thiết yếu cho các bác sĩ và nhà khoa học.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Liệu pháp Tế bào Gốc trong Bệnh Tim Mạch: Từ Cơ bản đến Lâm sàng</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các kiến thức nền tảng và ứng dụng thực tiễn của liệu pháp tế bào gốc trong điều trị suy tim và nhồi máu cơ tim. Sinh viên và bác sĩ sẽ được học về cách lựa chọn nguồn tế bào, kỹ thuật biệt hóa, đánh giá tiền lâm sàng và các thử nghiệm lâm sàng hiện hành, giúp nâng cao năng lực chuyên môn trong lĩnh vực y học tái tạo tim mạch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt về các phương pháp biệt hóa tế bào gốc thành tế bào cơ tim và những ứng dụng thực tiễn cho bác sĩ.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh liệu pháp tế bào đang phát triển mạnh mẽ, việc biệt hóa tế bào gốc trung mô (MSC) thành tế bào giống cơ tim trước khi cấy ghép là rất quan trọng. Nghiên cứu đề cập đến kích thích điện như một phương pháp thay thế hiệu quả. Em mong muốn được hướng dẫn chi tiết về cơ chế hoạt động của kích thích điện trong việc thúc đẩy quá trình này và những ưu điểm của nó so với các phương pháp khác, đặc biệt là trong thực hành lâm sàng và nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Chào em. Việc tiền biệt hóa tế bào gốc trung mô (MSC) thành tế bào giống cơ tim là một chiến lược quan trọng nhằm tối ưu hóa hiệu quả và giảm thiểu rủi ro khi ứng dụng trong liệu pháp tế bào tim mạch. Kích thích điện, như được trình bày trong nghiên cứu, là một phương pháp đầy hứa hẹn với nhiều ưu điểm:
+**1. Cơ chế tác động của kích thích điện:**
+    *   **Thay đổi hình thái tế bào:** Ngay từ ban đầu, các MSC từ dây rốn (UC-MSC) sau khi nhận kích thích điện đã thể hiện phản ứng rõ rệt về mặt hình thái. Chúng kéo dài và sắp xếp theo một định hướng rõ ràng, tương tự như các tế bào trong mô tim bản địa. Sự thay đổi này được đo lường thông qua chỉ số hình dạng và góc θ, cho thấy sự tái tổ chức cấu trúc tế bào dưới tác động của điện trường.
+    *   **Điều hòa biểu hiện gen (Epigenetic modulation):** Dòng điện đơn pha không chỉ thay đổi hình thái mà còn tác động đến 'bản đồ' epigenetic của tế bào. Cụ thể, nó gây ra sự điều hòa tăng cường (upregulation) của một số gen đặc hiệu cho dòng tim mạch:
+        *   **Nkx2.5 và GATA4:** Đây là những dấu ấn sớm nhất của quá trình tạo tim (cardiogenesis). Nkx2.5 được cho là hoạt động đồng bộ với GATA4 để điều hòa các gen liên quan đến biệt hóa và chức năng cơ tim trong giai đoạn phát triển sớm.
+        *   **Desmin:** Cũng là một dấu ấn sớm khác cho thấy sự biệt hóa hướng cơ tim.
+        *   **cTNT (cardiac Troponin T) và alpha-MHC (myosin heavy chain):** Là các dấu ấn muộn hơn, liên quan đến hình thái, tạo cơ, tập hợp protein cơ và sự phối hợp phản ứng co bóp trong cơ tim đang phát triển. Sự xuất hiện của các dấu ấn này là bằng chứng rõ ràng cho việc biệt hóa thành các tế bào giống cơ tim.
+    *   **Cơ chế phân tử:** Kích thích điện có thể hoạt động như một chất điều hòa epigenetic bằng cách gây ra sự khử methyl hóa DNA (DNA demethylation) tại các đảo CpG ở vùng promoter của Nkx2.5 và GATA4. Điều này 'mở đường' cho các yếu tố phiên mã tiếp cận các promoter này, từ đó kích hoạt quá trình phiên mã gen một cách tích cực.
+**2. Ưu điểm so với các phương pháp khác (ví dụ 5-azacytidine):**
+    *   Kích thích điện được coi là một phương pháp thay thế hiệu quả cho các chất khử methyl hóa không đặc hiệu như 5-azacytidine (5-aza). 5-aza có thể gây ra những tác động không mong muốn hoặc không đặc hiệu lên tế bào, trong khi kích thích điện có thể cung cấp một phương pháp điều khiển biệt hóa đặc hiệu hơn và ít độc hại hơn, hướng tới một liệu pháp an toàn và hiệu quả hơn.
+    *   Phương pháp này có tiềm năng ứng dụng cao trong cả nghiên cứu và lâm sàng, mang lại khả năng kiểm soát tốt hơn quá trình biệt hóa và tối ưu hóa kết quả điều trị, giảm thiểu nguy cơ biến chứng.
+**Lời khuyên cho em:** Khi xem xét các phương pháp biệt hóa, hãy luôn tìm hiểu sâu về cơ chế tác động của chúng. Kích thích điện mở ra một hướng đi mới để điều khiển quá trình epigenetic, giúp chúng ta đạt được hiệu quả biệt hóa cao và an toàn hơn cho các liệu pháp tế bào tim mạch. Em nên nghiên cứu kỹ về các thông số điện và cách tối ưu hóa chúng cho từng loại tế bào.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Kích thích Điện trong Kỹ thuật Mô Tim và Y học Tái tạo</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tài liệu này trình bày chi tiết các nguyên tắc vật lý, thiết bị và quy trình thực hiện kích thích điện để biệt hóa tế bào gốc và tạo cấu trúc mô tim nhân tạo. Nó bao gồm các nghiên cứu về ảnh hưởng của tần số, cường độ và dạng sóng điện lên quá trình biệt hóa, cung cấp kiến thức nền tảng và ứng dụng thực tiễn cho các nhà nghiên cứu và lâm sàng viên.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Công nghệ Biệt hóa Tế bào Gốc cho Kỹ thuật Tái tạo Tim</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu này đào tạo về các phương pháp hiện đại nhất để biệt hóa tế bào gốc thành các loại tế bào tim mạch, bao gồm kỹ thuật kích thích điện, xử lý dược lý và kỹ thuật di truyền. Khóa học dành cho sinh viên sau đại học và các bác sĩ muốn nâng cao kỹ năng trong lĩnh vực y học tái tạo và kỹ thuật mô, giúp họ thiết kế và thực hiện các thí nghiệm biệt hóa một cách hiệu quả.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, tập trung vào các dấu ấn sinh học trong biệt hóa tế bào gốc tim mạch và hướng dẫn phân tích cho các bác sĩ trẻ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Khi đánh giá hiệu quả của quá trình biệt hóa tế bào gốc trung mô thành tế bào giống cơ tim, việc nhận diện và phân tích các dấu ấn sinh học đặc hiệu là vô cùng quan trọng. Em muốn được hướng dẫn về vai trò của các gen như Nkx2.5, GATA4, Desmin, cTNT và alpha-MHC trong quá trình này. Ngoài ra, thầy/cô có thể cho em biết ý nghĩa của việc theo dõi các dấu ấn này trong cả nghiên cứu và ứng dụng lâm sàng không?</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chào em. Việc xác định và theo dõi các dấu ấn sinh học đặc hiệu là yếu tố then chốt để đánh giá thành công quá trình biệt hóa tế bào gốc trung mô (MSC) thành tế bào giống cơ tim. Chúng ta cần hiểu rõ vai trò của từng dấu ấn:
+**Các Dấu ấn Biệt hóa Tế bào Cơ tim:**
+| Dấu ấn sinh học     | Giai đoạn | Vai trò chính trong biệt hóa tim mạch                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, tập trung vào các dấu ấn sinh học trong biệt hóa tế bào gốc tim mạch và hướng dẫn phân tích cho các bác sĩ trẻ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Khi đánh giá hiệu quả của quá trình biệt hóa tế bào gốc trung mô thành tế bào giống cơ tim, việc nhận diện và phân tích các dấu ấn sinh học đặc hiệu là vô cùng quan trọng. Em muốn được hướng dẫn về vai trò của các gen như Nkx2.5, GATA4, Desmin, cTNT và alpha-MHC trong quá trình này. Ngoài ra, thầy/cô có thể cho em biết ý nghĩa của việc theo dõi các dấu ấn này trong cả nghiên cứu và ứng dụng lâm sàng không?</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Chào em. Việc xác định và theo dõi các dấu ấn sinh học đặc hiệu là yếu tố then chốt để đánh giá thành công quá trình biệt hóa tế bào gốc trung mô (MSC) thành tế bào giống cơ tim. Chúng ta cần hiểu rõ vai trò của từng dấu ấn:
+**Các Dấu ấn Biệt hóa Tế bào Cơ tim:**
+| Dấu ấn sinh học     | Giai đoạn | Vai trò chính trong biệt hóa tim mạch                                                                                                                                     | Ý nghĩa trong đánh giá                                                                                                                  |
+| :------------------ | :-------- | :----------------------------------------------------------------------------------------------------------------------------------------- | :--------------------------------------------------------------------------------------------------------------------------------------- |
+| **Nkx2.5**          | Sớm       | Yếu tố phiên mã quan trọng nhất, "master regulator" của quá trình tạo tim. Hoạt động phối hợp với GATA4.                                 | Là một trong những dấu hiệu sớm nhất và đáng tin cậy nhất của cam kết dòng tế bào tim mạch, cho thấy tế bào đang định hướng biệt hóa tim. |
+| **GATA4**           | Sớm       | Yếu tố phiên mã, điều hòa nhiều gen liên quan đến biệt hóa và chức năng cơ tim trong giai đoạn phát triển phôi sớm.                         | Cùng với Nkx2.5, khẳng định định hướng biệt hóa sớm, cần thiết cho sự phát triển tim mạch bình thường.                                  |
+| **Desmin**          | Sớm       | Protein sợi trung gian đặc trưng cho tế bào cơ, bao gồm cơ tim. Biểu hiện sớm trong quá trình hình thành cơ tim.                            | Dấu hiệu ban đầu của sự hình thành cấu trúc tế bào cơ và khả năng tạo sợi, một bước quan trọng trong phát triển tế bào cơ tim.        |
+| **cTNT (cardiac Troponin T)** | Muộn      | Protein cấu trúc của bộ máy co cơ, đặc hiệu cho cơ tim. Tham gia vào quá trình co bóp của tế bào cơ tim.                                   | Dấu hiệu của sự biệt hóa thành tế bào cơ tim trưởng thành, có chức năng co bóp và là thành phần thiết yếu của đơn vị co cơ.             |
+| **alpha-MHC (alpha-myosin heavy chain)** | Muộn      | Một trong những protein chủ yếu tạo nên sợi myosin, chịu trách nhiệm chính cho lực co bóp của cơ tim.                                     | Biểu hiện chức năng co bóp mạnh mẽ và hiệu quả của tế bào cơ tim, đặc trưng cho cơ tim trưởng thành.                                   |
+**Ý nghĩa của việc theo dõi các dấu ấn này:**
+*   **Trong nghiên cứu:**
+    *   **Xác nhận hiệu quả biệt hóa:** Việc biểu hiện tăng cường của các gen này, đặc biệt là theo trình tự từ sớm đến muộn, cung cấp bằng chứng khoa học vững chắc về sự biệt hóa thành công và đúng hướng.
+    *   **Hiểu rõ cơ chế:** Giúp các nhà nghiên cứu hiểu sâu hơn về các con đường tín hiệu và yếu tố phiên mã điều hòa quá trình tạo tim, từ đó phát triển các phương pháp biệt hóa hiệu quả và an toàn hơn.
+    *   **Kiểm soát chất lượng:** Đảm bảo rằng sản phẩm tế bào cuối cùng là các tế bào giống cơ tim có đặc tính mong muốn trước khi chuyển sang các thử nghiệm tiền lâm sàng hoặc lâm sàng.
+*   **Trong ứng dụng lâm sàng:**
+    *   **Đánh giá an toàn và hiệu quả:** Trước khi cấy ghép, việc kiểm tra các dấu ấn này giúp đảm bảo rằng tế bào đã biệt hóa đủ mức, giảm nguy cơ hình thành các loại tế bào không mong muốn hoặc khối u (như đã đề cập trong bài báo về nguy cơ của MSC chưa biệt hóa).
+    *   **Theo dõi sau cấy ghép:** Mặc dù khó khăn hơn, nhưng việc theo dõi biểu hiện của các dấu ấn này (ví dụ, qua sinh thiết nếu khả thi hoặc các dấu ấn lưu hành trong máu) có thể cung cấp thông tin về sự sống sót, tích hợp và chức năng của tế bào cấy ghép trong cơ thể bệnh nhân.
+    *   **Tiêu chuẩn hóa sản phẩm tế bào:** Giúp thiết lập các tiêu chuẩn chất lượng nghiêm ngặt cho các sản phẩm tế bào gốc dùng trong điều trị, đảm bảo tính nhất quán và an toàn.
+**Lời khuyên cho em:** Khi làm việc với liệu pháp tế bào gốc, hãy luôn áp dụng một cách tiếp cận đa chiều để đánh giá biệt hóa, kết hợp các phương pháp hình thái học, phân tích biểu hiện gen và protein (ví dụ: Western blot, IHC) để có cái nhìn toàn diện nhất. Việc nắm vững các dấu ấn sinh học này là nền tảng để em có thể đóng góp vào sự phát triển của y học tái tạo tim mạch một cách khoa học và có trách nhiệm.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Phân tích Dấu ấn Sinh học trong Y học Tái tạo Tim mạch: Từ Gen đến Protein</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp một cái nhìn toàn diện về các dấu ấn sinh học được sử dụng để xác định và theo dõi quá trình biệt hóa tế bào gốc thành các tế bào tim mạch, bao gồm các phương pháp phân tích gen (PCR, RNA-seq) và protein (ICC, Flow Cytometry), cùng với ý nghĩa lâm sàng và nghiên cứu của chúng.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Đánh giá Biệt hóa Tế bào Gốc bằng Dấu ấn Sinh học Tiên tiến</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ trang bị cho học viên những kiến thức và kỹ năng cần thiết để sử dụng các kỹ thuật sinh học phân tử và miễn dịch hóa học để phân tích các dấu ấn đặc hiệu của tế bào gốc biệt hóa, đặc biệt là trong lĩnh vực tim mạch. Học viên sẽ được thực hành các phương pháp hiện đại và học cách diễn giải dữ liệu để đánh giá chất lượng sản phẩm tế bào một cách khoa học và chính xác, phù hợp cho nghiên cứu và lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các tiến bộ y học.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, làm thế nào để hiểu và ứng dụng kết quả nghiên cứu về tiền biệt hóa tế bào gốc trung mô từ dây rốn (UC-MSCs) thành tế bào giống cơ tim trong điều trị nhồi máu cơ tim, và những thách thức nào cần lưu ý cho bác sĩ trẻ?</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Chào bạn, một câu hỏi rất hay và thiết thực cho các bác sĩ trẻ quan tâm đến y học tái tạo. Việc tiền biệt hóa tế bào gốc trung mô từ dây rốn (UC-MSCs) thành tế bào giống cơ tim (cardiomyocyte-like cells) là một bước tiến quan trọng. Để hiểu và ứng dụng kết quả này trong thực hành y khoa, các bạn cần chú ý đến các khía cạnh sau:
+*   **Hiểu rõ cơ chế**: Nắm vững cơ chế UC-MSCs biệt hóa và vai trò của các yếu tố kích thích (như kích thích điện đơn pha) trong quá trình này. Tế bào gốc trung mô có khả năng tự đổi mới và biệt hóa thành nhiều loại tế bào khác nhau, trong đó có tế bào cơ tim. Đây là nền tảng cho việc sửa chữa và tái tạo mô.
+*   **Tiềm năng điều trị**: Các tế bào giống cơ tim này có tiềm năng lớn trong việc nghiên cứu *in vivo* để điều trị mô hình động vật bị nhồi máu cơ tim. Mục tiêu chính là giảm xơ hóa (fibrosis) sau nhồi máu, một nguyên nhân hàng đầu dẫn đến suy tim mạn tính. Việc thay thế mô bị tổn thương bằng các tế bào chức năng là một chiến lược đầy hứa hẹn.
+*   **Thách thức và cân nhắc lâm sàng**: Khi tiếp cận các công nghệ mới, luôn có những thách thức cần vượt qua:
+    *   **Liều lượng tế bào**: Nghiên cứu đã chỉ ra liều lượng tế bào là một vấn đề lớn cần được xác định cẩn thận trong các nghiên cứu tiếp theo để đảm bảo hiệu quả và an toàn tối ưu. Liều lượng không phù hợp có thể dẫn đến thất bại điều trị hoặc tác dụng phụ.
+    *   **Tính ổn định và lâu dài**: Cần nghiên cứu thêm về tính ổn định, khả năng tích hợp lâu dài của các tế bào này vào mô cơ tim bị tổn thương và ngăn ngừa đào thải.
+    *   **Tính miễn dịch**: Mặc dù UC-MSCs có đặc tính miễn dịch thấp, nhưng vẫn cần xem xét phản ứng miễn dịch của vật chủ, đặc biệt khi áp dụng trên người.
+*   **Hướng phát triển lâm sàng**: Thiết bị kích thích sinh học (như Hue BioStimulator) có thể được xem xét sử dụng trực tiếp trong lâm sàng cho một số bệnh tim mạch trong tương lai. Tuy nhiên, điều này đòi hỏi rất nhiều nghiên cứu tiền lâm sàng và thử nghiệm lâm sàng chặt chẽ theo các quy định của Bộ Y tế Việt Nam và quốc tế trước khi đưa vào ứng dụng rộng rãi.
+Để thực hành y khoa dựa trên bằng chứng, các bạn cần luôn cập nhật các hướng dẫn lâm sàng mới nhất từ Bộ Y tế và các tổ chức y tế uy tín, đồng thời tham gia các khóa đào tạo chuyên sâu về y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hướng dẫn và giải thích các khái niệm y tế, kỹ thuật lâm sàng cho sinh viên và bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Xin hãy giải thích vai trò của kích thích điện trong tiền biệt hóa tế bào gốc trung mô và các thông số kỹ thuật quan trọng của thiết bị như Hue BioStimulator mà chúng tôi cần lưu ý để áp dụng trong nghiên cứu và thực hành?</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, việc hiểu rõ vai trò của kích thích điện trong tiền biệt hóa tế bào gốc là rất quan trọng, đặc biệt khi các công nghệ mới như Hue BioStimulator đang mở ra nhiều hướng đi trong y học tái tạo.
+**1. Vai trò của Kích thích điện trong Biệt hóa tế bào:**
+*   **Mô phỏng môi trường sinh lý**: Cơ tim hoạt động dựa trên các xung điện tự nhiên. Kích thích điện giúp tạo ra môi trường vi mô tương tự như môi trường điện sinh lý của tim, 'hướng dẫn' tế bào gốc phát triển theo hướng tế bào cơ tim. Điều này giúp tế bào 'nhận diện' được môi trường sống và phát triển phù hợp.
+*   **Tăng cường biểu hiện gen**: Kích thích điện có thể kích hoạt các đường truyền tín hiệu nội bào phức tạp, dẫn đến việc tăng cường biểu hiện các gen đặc hiệu cho tim (cardiac-specific genes) và protein cấu trúc như Desmin – một dấu hiệu quan trọng của biệt hóa cơ tim. Sự biểu hiện của Desmin protein trong bào tương là một bằng chứng rõ ràng cho sự biệt hóa này.
+*   **Cải thiện chức năng**: Qua quá trình này, các tế bào không chỉ thay đổi về hình thái mà còn có thể phát triển các chức năng đặc trưng của tế bào cơ tim, như khả năng co bóp và tạo xung điện, điều rất cần thiết cho việc phục hồi chức năng tim.
+**2. Thông số kỹ thuật quan trọng của thiết bị kích thích điện (ví dụ từ Hue BioStimulator):**
+Nghiên cứu đã chỉ ra các thông số cụ thể mang lại hiệu quả trong tiền biệt hóa tế bào. Việc hiểu rõ các thông số này là rất quan trọng để tái lập và tối ưu hóa thí nghiệm:
+| Thông số                  | Giá trị       | Ý nghĩa ứng dụng/lâm sàng                                                                                                                                                                                                                                                                     |
+| :------------------------ | :------------ | :------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- |
+| **Cường độ điện trường**  | 5 V/cm        | Xác định mức độ 'kích thích' tác động lên tế bào. Cường độ quá thấp có thể không đủ hiệu quả biệt hóa, trong khi quá cao có thể gây tổn thương hoặc chết tế bào. Việc xác định cường độ tối ưu là chìa khóa để đạt được biệt hóa mong muốn.                                                             |
+| **Thời gian chu kỳ**      | 0.5 s         | Đây là thời gian của một chu kỳ lặp lại của xung điện. Thông số này ảnh hưởng đến tần số kích thích và nhịp điệu tác động lên tế bào, mô phỏng nhịp đập của tim hoặc các tín hiệu sinh lý khác.                                                                                                |
+| **Độ rộng xung**          | 5 ms          | Là khoảng thời gian mà xung điện tác động lên tế bào trong mỗi chu kỳ. Độ rộng xung ảnh hưởng trực tiếp đến năng lượng được truyền tải và hiệu quả kích thích tế bào. Độ rộng xung thích hợp giúp tế bào có đủ thời gian phản ứng mà không bị quá tải. |
+**Lưu ý cho thực hành và nghiên cứu**: 
+*   **Tối ưu hóa**: Các thông số này cần được tối ưu hóa cho từng loại tế bào gốc, điều kiện nuôi cấy, và mục tiêu biệt hóa cụ thể. Sự khác biệt nhỏ có thể dẫn đến kết quả khác biệt lớn.
+*   **An toàn thiết bị**: Khi sử dụng các thiết bị y tế hoặc nghiên cứu mới, luôn đảm bảo thiết bị đã được kiểm định về an toàn và hiệu quả, tuân thủ các quy định của Bộ Y tế Việt Nam và các tiêu chuẩn quốc tế. Cần có quy trình vận hành chuẩn để đảm bảo tính chính xác và an toàn.
+*   **Kiến thức chuyên sâu**: Để làm chủ công nghệ này, các bạn cần tìm hiểu sâu về kỹ thuật điện sinh lý, sinh học tế bào, y học tái tạo và các kỹ thuật nuôi cấy tế bào tiên tiến. Tham gia các khóa học chuyên sâu và hội thảo là cách tốt để nâng cao kiến thức.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên y khoa và bác sĩ trẻ trong việc phân tích nghiên cứu, hiểu biết về bệnh lý và lựa chọn tài liệu học thuật.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh điều trị sau nhồi máu cơ tim, tại sao việc giảm xơ hóa cơ tim lại quan trọng và các nghiên cứu về tế bào giống cơ tim như đoạn văn trên đóng góp như thế nào vào hướng điều trị này, đặc biệt khi liên hệ đến ICD-10?</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Chào các bạn, hiểu rõ sinh lý bệnh của nhồi máu cơ tim (NMCT) là chìa khóa để đưa ra các phương pháp điều trị hiệu quả và chính xác. Việc liên hệ với phân loại ICD-10 sẽ giúp các bạn có cái nhìn toàn diện hơn về chẩn đoán và quản lý lâm sàng.
+**1. Tầm quan trọng của việc giảm xơ hóa cơ tim sau NMCT:**
+*   **Hậu quả của NMCT**: Sau một cơn nhồi máu cơ tim cấp (thường được mã hóa trong ICD-10 là I21.-), các tế bào cơ tim bị hoại tử do thiếu máu cục bộ sẽ được thay thế bằng mô sẹo xơ hóa (fibrotic scar tissue). Mô sẹo này không có khả năng co bóp và dẫn điện như mô cơ tim khỏe mạnh.
+*   **Suy giảm chức năng tim**: Sự hình thành mô xơ hóa làm giảm khả năng co bóp tổng thể của tim, dẫn đến giảm phân suất tống máu (ejection fraction) và cuối cùng là suy tim mạn tính (I50.- trong ICD-10). Suy tim là một biến chứng nghiêm trọng, ảnh hưởng lớn đến chất lượng sống và tiên lượng của bệnh nhân.
+*   **Loạn nhịp tim**: Mô xơ hóa có thể tạo thành các đường dẫn truyền bất thường, làm tăng nguy cơ loạn nhịp tim đe dọa tính mạng (I47.-, I48.-, I49.- trong ICD-10). Đây là một trong những nguyên nhân chính gây tử vong đột ngột ở bệnh nhân sau NMCT.
+*   **Mục tiêu điều trị**: Do đó, việc giảm thiểu hoặc đảo ngược quá trình xơ hóa là mục tiêu then chốt để bảo tồn chức năng tim, cải thiện chất lượng cuộc sống và kéo dài tuổi thọ cho bệnh nhân sau NMCT. Việc này không chỉ giải quyết triệu chứng mà còn tác động vào căn nguyên của suy tim sau NMCT.
+**2. Đóng góp của nghiên cứu về tế bào giống cơ tim:**
+*   **Tiềm năng tái tạo và sửa chữa**: Nghiên cứu này, bằng cách tạo ra các tế bào giống cơ tim từ UC-MSCs, mở ra một hướng đi đầy hứa hẹn để thay thế các tế bào cơ tim đã chết bằng các tế bào sống, có chức năng. Điều này khác biệt với việc chỉ hình thành mô sẹo vô chức năng.
+*   **Giảm gánh nặng xơ hóa**: Các tế bào mới này có thể giúp tái tạo lại một phần cơ tim bị tổn thương, từ đó giảm diện tích mô sẹo xơ hóa và cải thiện chức năng co bóp của tim. Điều này có thể làm chậm hoặc ngăn chặn tiến triển của suy tim.
+*   **Nghiên cứu *in vivo* và dịch chuyển**: Các tế bào được tạo ra có thể được sử dụng trong các mô hình động vật để xác nhận khả năng điều trị và giảm xơ hóa, mở đường cho các thử nghiệm lâm sàng trong tương lai. Đây là một ví dụ điển hình về nghiên cứu y sinh học cơ bản (basic biomedical research) chuyển tiếp thành y học dịch chuyển (translational medicine) – đưa kết quả nghiên cứu vào ứng dụng lâm sàng thực tế.
+Để theo kịp những tiến bộ này và áp dụng hiệu quả vào thực hành, các bạn nên đọc các bài báo khoa học mới nhất, tham gia các hội nghị chuyên ngành về tim mạch và y học tái tạo, đồng thời thảo luận với các chuyên gia có kinh nghiệm. Luôn tra cứu và hiểu rõ các mã ICD-10 liên quan để chẩn đoán và quản lý bệnh một cách chính xác.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên sâu, hỗ trợ đào tạo và tư vấn lâm sàng cho các bác sĩ trẻ và sinh viên y khoa về các tiến bộ trong y học tái tạo và liệu pháp tế bào gốc trong tim mạch.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, trong bối cảnh các nghiên cứu về khả năng biệt hóa của tế bào gốc thành tế bào cơ tim đang phát triển, bác sĩ trẻ cần lưu ý những khía cạnh nào để đánh giá tiềm năng ứng dụng lâm sàng và những rủi ro liên quan, đặc biệt là từ các loại tế bào gốc khác nhau?</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Kính chào các bác sĩ trẻ và sinh viên y khoa, đây là một câu hỏi rất quan trọng trong lĩnh vực y học tái tạo hiện đại. Việc đánh giá tiềm năng và rủi ro của liệu pháp tế bào gốc đòi hỏi sự hiểu biết sâu sắc về cả cơ chế sinh học và phương pháp luận nghiên cứu. Dưới đây là những điểm cốt lõi các bạn cần lưu ý:
+*   **Nguồn gốc tế bào gốc**: Các nghiên cứu đã chỉ ra sự khác biệt lớn về khả năng biệt hóa tùy thuộc vào nguồn gốc tế bào gốc:
+    *   **Tế bào gốc từ tủy xương (Bone Marrow Stromal Cells/Mesenchymal Stem Cells)**: Có tiềm năng, nhưng nghiên cứu của Breitbach M. và cộng sự (2007) đã chỉ ra 'potential risks of bone marrow cell transplantation into infarcted hearts', gợi ý cần thận trọng trong ứng dụng lâm sàng trực tiếp. Ngược lại, Behfar A. và cộng sự (2010) lại nói về 'Guided cardiopoiesis enhances therapeutic benefit', cho thấy việc tối ưu hóa quy trình là chìa khóa.
+    *   **Tế bào gốc từ dây rốn (Umbilical Cord-Derived Mesenchymal Stem Cells)**: Qian Q. và cộng sự (2012) đã chứng minh khả năng biệt hóa thành tế bào tim nhờ 5-Azacytidine. Panepucci RA. và cộng sự (2004) cũng so sánh biểu hiện gen của tế bào gốc từ dây rốn và tủy xương, cho thấy những đặc điểm riêng biệt.
+    *   **Tế bào gốc từ tĩnh mạch rốn (Human Umbilical Vein-Derived Mesenchymal Stem Cells)**: Kadivar M. và cộng sự (2006) đã nghiên cứu tiềm năng tạo cơ tim in vitro.
+    *   **Tế bào gốc từ Wharton’s Jelly (Wharton’s Jelly Mesenchymal Stem Cells)**: Bhuvanalakshmi G. và cộng sự (2017) đã thành công trong việc chuyển đổi thành tế bào cơ tim chức năng thông qua tái lập trình biểu sinh.
+    *   **Tế bào gốc từ mỡ (Adipose-derived Stem Cells)**: Tandon N. và cộng sự (2009) đã nghiên cứu phản ứng của chúng với kích thích điện.
+    *   **Tế bào gốc từ spongiosa (Human Spongiosa Mesenchymal Stem Cells)**: Đáng chú ý, Mastitskaya S. và Denecke B. (2009) lại báo cáo rằng chúng 'fail to generate cardiomyocytes in vitro', nhấn mạnh sự đa dạng và không đồng nhất về tiềm năng biệt hóa.
+*   **Cơ chế kích thích biệt hóa**: Hiểu rõ các yếu tố ảnh hưởng là rất quan trọng:
+    *   **Kích thích hóa học**: Ví dụ như 5-Azacytidine được Qian Q. và cộng sự (2012) sử dụng.
+    *   **Kích thích vật lý**: Kích thích điện (Nazari H. và cộng sự, 2020; Kang P-L. và cộng sự, 2016) hoặc bề mặt vi cấu trúc (Chen CS. và cộng sự, 1998) có thể định hướng biệt hóa.
+    *   **Tái lập trình biểu sinh (Epigenetic reprogramming)**: Bhuvanalakshmi G. và cộng sự (2017) đã chỉ ra vai trò của nó.
+*   **Tiêu chí đánh giá hiệu quả và an toàn**: Khi đọc nghiên cứu, cần tìm các bằng chứng về:
+    *   **Biểu hiện gen tim chuyên biệt**: Như GATA-4, Nkx-2.5 (Sepulveda JL. và cộng sự, 1998) và gen myosin (Lyons GE. và cộng sự, 1990).
+    *   **Chức năng tế bào**: Khả năng co bóp, dẫn truyền điện.
+    *   **Hình thái học tế bào**: Sự kéo dài, sắp xếp tế bào (Tandon N. và cộng sự, 2009).
+    *   **Rủi ro tiềm ẩn**: Khả năng hình thành khối u, phản ứng miễn dịch, hoặc các biến chứng khác liên quan đến phương pháp cấy ghép.
+*   **Từ nghiên cứu cơ bản đến lâm sàng**: Luôn có một khoảng cách lớn. Các kết quả in vitro hứa hẹn cần được kiểm chứng nghiêm ngặt qua các mô hình động vật và thử nghiệm lâm sàng có kiểm soát. Khuyến nghị ứng dụng lâm sàng chỉ nên được đưa ra khi có bằng chứng mạnh mẽ từ các thử nghiệm lâm sàng giai đoạn cuối, tuân thủ các quy định của Bộ Y tế và các tổ chức y tế quốc tế.
+**Lời khuyên cho các bạn**: Hãy luôn tiếp cận các nghiên cứu về tế bào gốc với tinh thần phê phán khoa học, cập nhật kiến thức liên tục và ưu tiên các bằng chứng lâm sàng chất lượng cao trước khi xem xét áp dụng vào thực hành. Việc hợp tác đa chuyên khoa (tim mạch, tế bào học, di truyền, đạo đức) là cần thiết để đảm bảo an toàn và hiệu quả cho người bệnh.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Đánh giá Tiềm năng Biệt hóa của Tế bào Gốc trong Tái tạo Cơ tim: Góc nhìn Y học Thực Chứng.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn tổng quan có hệ thống về các loại tế bào gốc khác nhau, phương pháp đánh giá khả năng biệt hóa thành tế bào cơ tim cả in vitro và in vivo, các yếu tố ảnh hưởng đến quá trình này, và đặc biệt nhấn mạnh các tiêu chí đánh giá an toàn, hiệu quả để chuyển dịch sang ứng dụng lâm sàng theo chuẩn y học thực chứng.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Liệu pháp Tế bào Gốc trong Bệnh Tim mạch: Từ Cơ chế Sinh học đến Hướng dẫn Thực hành Lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Khóa học CME này sẽ đi sâu vào cơ chế sinh học phân tử của tế bào gốc, các phương pháp kích thích biệt hóa tế bào cơ tim hiệu quả, phân tích dữ liệu lâm sàng hiện có về hiệu quả và an toàn, cũng như thảo luận về các quy định pháp lý và đạo đức trong ứng dụng liệu pháp tế bào gốc, giúp bác sĩ cập nhật kiến thức chuyên sâu và đưa ra quyết định lâm sàng sáng suốt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa cung cấp kiến thức chuyên sâu về các kỹ thuật nghiên cứu và thực hành trong y học tái tạo, đặc biệt tập trung vào các phương pháp kích thích tế bào và phân tích hình ảnh.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Khi thiết kế nghiên cứu hoặc áp dụng các kỹ thuật kích thích điện lên tế bào gốc nhằm mục đích biệt hóa thành tế bào cơ tim, sinh viên y khoa cần hiểu rõ những nguyên tắc cơ bản nào về cơ chế tác động và cách kiểm soát các yếu tố thí nghiệm để đạt được kết quả đáng tin cậy và có thể tái lập?</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Để tiến hành một nghiên cứu hay ứng dụng kỹ thuật kích thích điện lên tế bào gốc một cách khoa học và đáng tin cậy, các bạn sinh viên y khoa cần nắm vững các nguyên tắc cơ bản về cơ chế tác động và kiểm soát yếu tố thí nghiệm. Đây là nền tảng để đảm bảo tính chính xác và khả năng tái lập của kết quả.
+**1. Cơ chế tác động của kích thích điện lên tế bào:**
+*   **Thay đổi điện thế màng:** Dòng điện có thể làm thay đổi điện thế nghỉ của màng tế bào, ảnh hưởng đến hoạt động của các kênh ion (ion channels) như kênh natri, kali, canxi. Sự thay đổi này là tín hiệu quan trọng trong quá trình biệt hóa.
+*   **Kích hoạt các con đường truyền tín hiệu:** Sự biến động ion nội bào (đặc biệt là Ca2+) và điện thế màng có thể kích hoạt các con đường truyền tín hiệu nội bào quan trọng liên quan đến sự phát triển và biệt hóa của tế bào, ví dụ như con đường Kinase ngoại bào điều hòa (extracellular regulated Kinase - ERK) như Qian Q. và cộng sự (2012) đã đề cập trong bối cảnh 5-Azacytidine.
+*   **Ảnh hưởng lên biểu hiện gen:** Kích thích điện có thể điều hòa trực tiếp hoặc gián tiếp biểu hiện của các gen liên quan đến biệt hóa tế bào cơ tim, ví dụ như gen mã hóa yếu tố phiên mã GATA-4 và Nkx-2.5 (Sepulveda JL. và cộng sự, 1998) hay các gen liên quan đến myosin (Lyons GE. và cộng sự, 1990).
+*   **Thay đổi hình thái và sự sắp xếp của tế bào:** Tandon N. và cộng sự (2009) đã chứng minh rằng kích thích điện trực tiếp có thể gây ra 'Alignment and elongation of human adipose-derived stem cells'. Sự thay đổi hình thái này thường đi kèm với các thay đổi chức năng.
+**2. Kiểm soát các yếu tố thí nghiệm để đạt kết quả đáng tin cậy:**
+Độ tin cậy của nghiên cứu phụ thuộc rất nhiều vào việc kiểm soát chặt chẽ các thông số kỹ thuật. Dưới đây là các yếu tố cần được cân nhắc kỹ lưỡng:
+*   **Loại tế bào gốc**: Như đã thảo luận, các nguồn tế bào gốc khác nhau có phản ứng khác nhau. Cần lựa chọn loại tế bào phù hợp với mục tiêu nghiên cứu và có đặc tính ổn định.
+*   **Chế độ kích thích điện**: Các thông số của dòng điện là cực kỳ quan trọng và phải được tối ưu hóa. Một số thông số chính bao gồm:
+| Thông số                  | Mô tả                                                                                                        | Ví dụ tác động                                                                                                                                  |
+| :------------------------ | :----------------------------------------------------------------------------------------------------------- | :---------------------------------------------------------------------------------------------------------------------------------------------- |
+| **Cường độ (Intensity)**    | Độ lớn của dòng điện hoặc điện áp (mV/cm hoặc A/cm²).                                                      | Cường độ quá thấp có thể không đủ kích thích, quá cao có thể gây tổn thương tế bào hoặc gây chết tế bào.                                            |
+| **Tần số (Frequency)**      | Số chu kỳ kích thích mỗi giây (Hz).                                                                        | Tần số phù hợp có thể mô phỏng tín hiệu sinh lý tự nhiên của tim (Kang P-L. và cộng sự, 2016).                                                      |
+| **Thời gian (Duration)**    | Thời gian mỗi xung kích thích hoặc tổng thời gian kích thích trong một ngày/toàn bộ thí nghiệm.              | Thời gian ngắn quá có thể không đủ để gây ra thay đổi lâu dài, quá dài có thể gây stress cho tế bào hoặc làm giảm hiệu quả theo thời gian. |
+| **Dạng sóng (Waveform)**   | Hình dạng của xung điện (ví dụ: xung vuông, xung sin, xung hai pha).                                        | Dạng sóng khác nhau có thể tác động khác nhau đến các kênh ion và cơ chế nội bào.                                                                   |
+| **Chế độ kích thích**      | Liên tục hay gián đoạn, chu kỳ on/off.                                                                     | Kích thích gián đoạn có thể hiệu quả hơn và ít gây hại cho tế bào hơn so với kích thích liên tục.                                                 |
+*   **Môi trường nuôi cấy**: Môi trường nuôi cấy (ví dụ, có yếu tố tăng trưởng biệt hóa hay không), loại giá thể (substrates) hoặc bề mặt nuôi cấy (micropatterned surfaces như của Chen CS. và cộng sự, 1998) đều ảnh hưởng lớn đến kết quả.
+*   **Hệ thống điện cực và thiết bị**: Đảm bảo hệ thống hoạt động ổn định, không gây nhiễm bẩn, và đo lường chính xác các thông số điện.
+*   **Kiểm tra tính khả thi của tế bào (Cell Viability)**: Sử dụng các phương pháp như Trypan Blue Exclusion (Çelik Uzuner S., 2018) để đảm bảo tế bào còn sống và khỏe mạnh trong suốt quá trình thí nghiệm.
+*   **Phân tích kết quả**: Sử dụng các kỹ thuật phân tích hình ảnh và định lượng (Texture-based segmentation, cell shape index, AFM images - Tiryaki VM. và cộng sự, 2015) để đánh giá hình thái. Kết hợp với phân tích biểu hiện gen và chức năng để có cái nhìn toàn diện.
+*   **Nhóm chứng (Controls)**: Luôn bao gồm các nhóm chứng không kích thích điện, nhóm chứng dương tính (nếu có) và nhóm chứng âm tính để so sánh và loại trừ các yếu tố gây nhiễu.
+Việc kiểm soát chặt chẽ các yếu tố này không chỉ giúp bạn đạt được kết quả đáng tin cậy mà còn tạo điều kiện cho các nghiên cứu khác có thể tái lập và mở rộng công trình của bạn, góp phần vào sự phát triển bền vững của y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Kích thích Điện trong Kỹ thuật Mô Tim: Hướng dẫn Thiết kế và Thực hiện Nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Cuốn sách này mô tả chi tiết các nguyên lý vật lý, sinh học của kích thích điện, thiết bị cần thiết, giao thức thí nghiệm tiêu chuẩn và phương pháp phân tích tác động lên sự biệt hóa, tăng trưởng và chức năng của tế bào cơ tim. Đây là tài liệu thiết yếu cho những ai muốn nghiên cứu sâu về lĩnh vực này.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Cập nhật Các Kỹ thuật Phân tích và Hình ảnh Tế bào trong Nghiên cứu Tái tạo và Tế bào Gốc.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào các kỹ thuật hiện đại như kính hiển vi lực nguyên tử (AFM), phân tích hình thái tế bào (cell shape index), và các phương pháp định lượng biểu hiện gen bằng kỹ thuật sinh học phân tử. Khóa học sẽ cung cấp cả lý thuyết và kỹ năng thực hành, giúp các nhà nghiên cứu trẻ và bác sĩ nâng cao năng lực trong phân tích dữ liệu và đánh giá kết quả nghiên cứu tế bào gốc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa định hướng tư duy phản biện và cập nhật thông tin y học thực chứng cho các bác sĩ và nhà nghiên cứu y học, đặc biệt trong lĩnh vực tế bào gốc và y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Các nghiên cứu trong đoạn văn cho thấy không phải tất cả các loại tế bào gốc đều có khả năng biệt hóa thành tế bào cơ tim hoặc không phải lúc nào cũng thành công (ví dụ: tế bào gốc trung mô từ spongiosa thất bại). Vậy, khi đọc và đánh giá các nghiên cứu về biệt hóa tế bào gốc, bác sĩ trẻ cần lưu ý những yếu tố nào để phân biệt giữa kết quả đầy hứa hẹn và những hạn chế tiềm ẩn?</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Chào các bạn, khả năng phân biệt giữa một nghiên cứu đầy hứa hẹn và một nghiên cứu có nhiều hạn chế là một kỹ năng quan trọng đối với bất kỳ bác sĩ hay nhà khoa học trẻ nào, đặc biệt trong lĩnh vực tế bào gốc đang phát triển nhanh chóng. Dựa trên các tài liệu được trích dẫn và kiến thức y khoa chung, đây là những yếu tố then chốt các bạn cần xem xét:
+1.  **Nguồn gốc và đặc điểm của tế bào gốc**: Như Mastitskaya S. và Denecke B. (2009) đã chỉ ra, 'Human spongiosa mesenchymal stem cells fail to generate cardiomyocytes in vitro'. Điều này nhấn mạnh sự đa dạng sinh học và tiềm năng khác nhau giữa các loại tế bào gốc. Luôn đặt câu hỏi:
+    *   Tế bào gốc được sử dụng là loại nào (tủy xương, dây rốn, mỡ, iPSC...)?
+    *   Đã có những nghiên cứu trước đó về khả năng biệt hóa của loại tế bào này chưa? Kết quả có nhất quán không?
+    *   Có sự khác biệt đáng kể giữa các nhà tài trợ (donor variability) không? Điều này đặc biệt quan trọng nếu nghiên cứu chỉ dựa trên một số ít mẫu.
+2.  **Phương pháp nuôi cấy và kích thích biệt hóa**: Quá trình biệt hóa tế bào rất nhạy cảm với môi trường. Cần xem xét:
+    *   **Môi trường nuôi cấy và yếu tố tăng trưởng**: Có phù hợp và được mô tả chi tiết không? Có sử dụng các chất hóa học như 5-Azacytidine (Qian Q. và cộng sự, 2012) hay các kỹ thuật vật lý như kích thích điện (Nazari H. và cộng sự, 2020) không?
+    *   **Bề mặt nuôi cấy (Culture Surfaces)**: Chen CS. và cộng sự (1998) đã chứng minh vai trò của 'micropatterned surfaces for control of cell shape, position, and function'. Tương tự, Tiryaki VM. và cộng sự (2015) cũng nghiên cứu 'nanofibrillar and comparative culture surfaces' ảnh hưởng đến sự biệt hóa. Bề mặt nuôi cấy có mô phỏng môi trường in vivo tốt không?
+    *   **Điều kiện thí nghiệm**: Nhiệt độ, CO2, độ ẩm, mật độ tế bào – tất cả đều cần được kiểm soát chặt chẽ.
+3.  **Tiêu chí và phương pháp đánh giá biệt hóa**: Một nghiên cứu đáng tin cậy phải có các bằng chứng đa chiều:
+    *   **Biểu hiện gen**: Kiểm tra các dấu ấn gen đặc hiệu của tế bào cơ tim (ví dụ: GATA-4, Nkx-2.5 - Sepulveda JL. và cộng sự, 1998; gen myosin - Lyons GE. và cộng sự, 1990). Tuy nhiên, chỉ biểu hiện gen là chưa đủ.
+    *   **Biểu hiện protein**: Sử dụng hóa mô miễn dịch để xác nhận sự hiện diện của protein tim.
+    *   **Hình thái học**: Đánh giá sự thay đổi hình dạng, kích thước, sự sắp xếp tế bào (Tandon N. và cộng sự, 2009; Tiryaki VM. và cộng sự, 2015).
+    *   **Chức năng sinh lý**: Đây là bằng chứng mạnh nhất – liệu tế bào có khả năng co bóp tự phát, đáp ứng với kích thích điện, hay có dòng ion đặc trưng của tế bào cơ tim không?
+4.  **Thiết kế nghiên cứu và nhóm chứng**: Độ mạnh của một nghiên cứu nằm ở thiết kế:
+    *   **Nhóm chứng phù hợp**: Có nhóm chứng âm tính (tế bào gốc không được biệt hóa) và nhóm chứng dương tính (nếu có, ví dụ tế bào cơ tim nguyên thủy) để so sánh không?
+    *   **Số lượng mẫu (n-value)**: Kích thước mẫu đủ lớn để đảm bảo tính thống kê và giảm sai số ngẫu nhiên?
+    *   **Tính tái lập (Reproducibility)**: Nghiên cứu có mô tả đủ chi tiết để người khác có thể tái lập kết quả không?
+5.  **Khoảng cách từ in vitro đến in vivo và lâm sàng**: Nhiều nghiên cứu hứa hẹn in vitro nhưng thất bại in vivo (trên mô hình động vật) hoặc trong các thử nghiệm lâm sàng. Luôn đặt câu hỏi về khả năng dịch chuyển của kết quả. Các rủi ro tiềm ẩn khi cấy ghép tế bào (như Breitbach M. và cộng sự, 2007 đã cảnh báo) cần được xem xét nghiêm túc.
+**Lời khuyên quan trọng**: Hãy đọc các nghiên cứu khoa học một cách có chọn lọc. Một kết quả 'âm tính' (ví dụ như Mastitskaya S. và Denecke B., 2009) cũng có giá trị khoa học rất lớn vì nó giúp chúng ta hiểu rõ hơn về những hạn chế và tránh đi vào những hướng nghiên cứu không hiệu quả. Tư duy phản biện, đánh giá khách quan các bằng chứng và luôn cập nhật các hướng dẫn lâm sàng mới nhất là chìa khóa để trở thành một bác sĩ giỏi và đáng tin cậy.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Phương pháp Luận trong Nghiên cứu Tế bào Gốc và Y học Tái tạo: Hướng dẫn Toàn diện cho Nhà Khoa học Trẻ.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tài liệu này nhấn mạnh tầm quan trọng của thiết kế nghiên cứu chặt chẽ, lựa chọn mô hình phù hợp, phương pháp thống kê đáng tin cậy và cách giải thích kết quả một cách khách quan, đặc biệt là với những nghiên cứu có 'kết quả âm tính' hoặc các yếu tố gây nhiễu, giúp sinh viên và bác sĩ trẻ xây dựng nền tảng nghiên cứu vững chắc.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Tư duy Phản biện và Đánh giá Nghiên cứu Khoa học Y Sinh: Ứng dụng trong Y học Tái tạo.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Khóa học này trang bị cho học viên kỹ năng phân tích sâu sắc các bài báo khoa học, nhận diện các sai lệch (bias), đánh giá độ tin cậy của dữ liệu và đưa ra kết luận có cơ sở, đặc biệt trong lĩnh vực tế bào gốc và y học tái tạo đang phát triển nhanh chóng. Khóa học giúp học viên phát triển tư duy khoa học, tránh những kết luận vội vàng và áp dụng kiến thức một cách cẩn trọng vào thực hành lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Dựa trên các trường hợp được báo cáo, trật khớp chỏm xương quay đơn độc sau chấn thương thường bị bỏ sót hoặc chẩn đoán nhầm. Làm thế nào để các bác sĩ trẻ và sinh viên y khoa cải thiện kỹ năng chẩn đoán của mình nhằm tránh bỏ sót những tổn thương như vậy?</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Để tránh bỏ sót các trường hợp trật khớp chỏm xương quay đơn độc sau chấn thương, vốn thường bị chẩn đoán nhầm thành chấn thương mô mềm hoặc bong gân, các bác sĩ trẻ cần tập trung vào những điểm sau:
+*   **Khám lâm sàng tỉ mỉ:** Đây là yếu tố then chốt. Đừng chỉ dựa vào triệu chứng điển hình. Hãy tìm kiếm các dấu hiệu tinh tế như sưng nhẹ, đau khu trú ở mặt trước bên khớp khuỷu, hoặc hạn chế vận động tinh tế (ví dụ: khó khăn khi ngửa hoàn toàn cẳng tay).
+*   **So sánh hai bên:** Luôn luôn so sánh khớp khuỷu bị tổn thương với khớp khuỷu đối diện. Sự bất đối xứng về vận động, sưng, hoặc điểm đau có thể cung cấp manh mối quan trọng.
+*   **Đánh giá chức năng vận động:**
+    *   Kiểm tra khả năng sấp và ngửa cẳng tay. Hạn chế ngửa cẳng tay thường là một dấu hiệu sớm.
+    *   Đánh giá biên độ gập và duỗi khớp khuỷu. Bệnh nhân có thể không duỗi thẳng hoàn toàn hoặc gập hết mức do đau.
+*   **Chụp X-quang hai tư thế (AP và Lateral):** Đây là tiêu chuẩn vàng ban đầu để xác định chẩn đoán. Phải đảm bảo thấy rõ mối quan hệ giữa chỏm xương quay và lồi cầu xương cánh tay. Sự bất thường trong mối quan hệ này (ví dụ: chỏm xương quay di lệch so với lồi cầu trong mọi tư thế) là dấu hiệu rõ ràng của trật khớp. Lưu ý, đôi khi cần các tư thế chếch hoặc so sánh với bên lành ở trẻ em để xác nhận.
+*   **Không loại trừ chỉ vì 'trông có vẻ bình thường':** Nếu bệnh nhân vẫn than đau dai dẳng hoặc hạn chế vận động sau một thời gian điều trị ban đầu cho chấn thương mô mềm, hãy tái đánh giá kỹ lưỡng và cân nhắc lại chẩn đoán. Trật khớp chỏm xương quay có thể không gây biến dạng rõ rệt ngay từ đầu.
+*   **Cân nhắc chẩn đoán phân biệt:** Mặc dù đây là trật khớp đơn độc, nhưng cần phân biệt với các chấn thương phức tạp hơn như gãy Monteggia, nơi trật khớp chỏm xương quay đi kèm với gãy thân xương trụ. Luôn tìm kiếm các dấu hiệu gãy xương kèm theo trên X-quang.
+Việc ghi nhớ mã ICD-10 cho trật khớp chỏm xương quay (ví dụ: S53.0 - Trật khớp đầu xương quay) giúp đảm bảo việc mã hóa bệnh án chính xác và thống nhất trong hệ thống y tế.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Bài viết nhấn mạnh tầm quan trọng của việc chẩn đoán sớm đối với kết quả điều trị trật khớp chỏm xương quay đơn độc. Là một bác sĩ trẻ, bạn cần lưu ý gì về các lựa chọn điều trị (bảo tồn và phẫu thuật) và những yếu tố nào ảnh hưởng đến quyết định này, đặc biệt là khi chẩn đoán muộn?</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Quyết định giữa điều trị bảo tồn và phẫu thuật trong trật khớp chỏm xương quay đơn độc sau chấn thương phụ thuộc rất nhiều vào thời điểm chẩn đoán và tình trạng dây chằng bao quanh. Các bác sĩ trẻ cần nắm vững các nguyên tắc sau:
+*   **Điều trị sớm:**
+    *   **Định nghĩa:** Khi trật khớp được chẩn đoán và xử trí trong vài ngày đến vài tuần đầu sau chấn thương.
+    *   **Phương pháp:** Thường có thể điều trị bảo tồn bằng cách nắn chỉnh kín và bất động khớp khuỷu bằng nẹp hoặc bó bột cánh tay dài (long arm cast).
+    *   **Kết quả:** Thường mang lại kết quả tốt nếu được nắn chỉnh đúng cách và ổn định.
+    *   **Cơ chế:** Dây chằng vòng (annular ligament) còn nguyên vẹn hoặc chỉ bị rách nhẹ, có khả năng tự lành và duy trì vị trí chỏm xương quay sau nắn chỉnh.
+*   **Điều trị muộn (Delayed lesion):**
+    *   **Định nghĩa:** Khi trật khớp đã tồn tại trong vài tuần đến vài tháng hoặc lâu hơn, như trong các trường hợp bệnh nhân 7 tuổi và 12 tuổi trong báo cáo (được chẩn đoán sau 20 ngày).
+    *   **Lý do cần phẫu thuật:** Trong trường hợp này, dây chằng vòng thường đã bị xơ hóa và giãn ra (fibrotic and stretched), làm cho việc nắn chỉnh kín trở nên rất khó khăn hoặc không thể duy trì được vị trí chỏm xương quay.
+    *   **Phương pháp phẫu thuật:**
+        *   **Nắn chỉnh khớp (joint resetting):** Đưa chỏm xương quay trở về vị trí giải phẫu chính xác.
+        *   **Sửa chữa dây chằng vòng (annular ligament repair):** Khâu hoặc tạo hình lại dây chằng vòng để ổn định khớp.
+        *   **Cố định bằng kim Kirschner (percutaneous K-wire fixation):** Đôi khi cần cố định tạm thời chỏm xương quay bằng kim K để duy trì sự ổn định sau phẫu thuật, đặc biệt ở trẻ em.
+        *   **Bất động bằng bó bột cánh tay dài:** Sau phẫu thuật, cần bất động để các cấu trúc lành lại.
+    *   **Ý nghĩa lâm sàng:** Chẩn đoán muộn không chỉ làm tăng độ phức tạp của quá trình điều trị (từ bảo tồn sang phẫu thuật) mà còn có thể ảnh hưởng đến kết quả lâu dài, bao gồm nguy cơ cứng khớp hoặc tái trật.
+Vì vậy, việc nâng cao nhận thức về chấn thương này và kỹ năng chẩn đoán sớm là vô cùng quan trọng để mang lại kết quả tốt nhất cho bệnh nhân và tránh các can thiệp phức tạp hơn.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Trường hợp lâm sàng đầu tiên mô tả một bệnh nhân nhi 7 tuổi bị chẩn đoán nhầm ban đầu. Để tránh sai sót tương tự, các bác sĩ trẻ nên tập trung vào những khía cạnh nào của việc khai thác tiền sử và khám thực thể khi đánh giá một trẻ bị đau khuỷu tay dai dẳng sau chấn thương?</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Việc khai thác tiền sử và khám thực thể kỹ lưỡng là nền tảng để tránh các chẩn đoán sai lầm, đặc biệt trong những trường hợp khó như trật khớp chỏm xương quay ở trẻ em. Đây là những điểm trọng tâm mà các bác sĩ trẻ cần chú ý:
+**I. Khai thác tiền sử (Anamnesis):**
+1.  **Cơ chế chấn thương:**
+    *   Bệnh nhân ngã như thế nào? (Ví dụ: ngã chống tay xuống sàn - 'fell with her left hand on the floor').
+    *   Có lực tác động trực tiếp vào khuỷu không?
+    *   Có phải là một động tác giật mạnh cẳng tay trong tư thế duỗi (sudden jerking of the forearm in extension) không?
+2.  **Triệu chứng ban đầu:**
+    *   Đau ở đâu, mức độ như thế nào?
+    *   Có sưng, bầm tím ngay sau chấn thương không?
+    *   Có hạn chế vận động ngay lập tức không?
+3.  **Diễn biến triệu chứng:**
+    *   Triệu chứng có cải thiện không sau điều trị ban đầu?
+    *   Nếu không cải thiện, mức độ đau, sưng, hạn chế vận động có thay đổi theo thời gian không? (Ví dụ: 'after 20 days, the patient still felt painful in the left elbow, the left elbow joint was limited').
+4.  **Tiền sử điều trị trước đó:**
+    *   Đã được chẩn đoán và điều trị gì? (Ví dụ: 'diagnosed with soft tissue injuries, treated with arm sling, restricted arm mobility').
+    *   Thuốc đã dùng, hiệu quả ra sao?
+5.  **Các tai nạn hoặc chấn thương khác:** Đảm bảo không có các chấn thương khác kèm theo có thể làm lu mờ triệu chứng chính. (Ví dụ: 'She had no accidents apart from the abovementioned fall').
+**II. Khám thực thể (Physical Examination):**
+| Khía cạnh khám             | Mô tả và lưu ý quan trọng                                                                                                                                                                                                                                                                                                                                                                                                                          |
+| :------------------------- | :------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- |
+| **Nhìn (Inspection)**      | - **Sưng:** Ghi nhận có sưng ở khớp khuỷu không, vị trí sưng (ví dụ: 'her left elbow was still swollen').&lt;br&gt;- **Bầm tím, trầy xước, rách da:** Kiểm tra các dấu hiệu này ('no ecchymoses, no abrasions, no lacerations was found'). Sự vắng mặt của chúng không loại trừ chấn thương nặng.&lt;br&gt;- **Biến dạng:** Đánh giá có biến dạng rõ rệt của khớp khuỷu không.                                                                                                                            |
+| **Sờ (Palpation)**         | - **Điểm đau chói:** Xác định vị trí đau chói nhất. Đặc biệt chú ý vùng mặt trước bên khớp khuỷu (anterolateral aspect of left elbow) nơi chỏm xương quay thường trật. ('tender at anterolateral aspect').&lt;br&gt;- **Kiểm tra lồi cầu:** Đánh giá các mốc giải phẫu xương, đặc biệt là mối quan hệ của chỏm xương quay với lồi cầu xương cánh tay.                                                                                                                |
+| **Đánh giá vận động (Range of Motion - ROM)** | - **So sánh hai bên:** Luôn so sánh với bên lành.&lt;br&gt;- **Sấp và ngửa cẳng tay (Pronation and Supination):** Kiểm tra khả năng sấp và ngửa. ('She could pronate her left hand to 90 degrees without difficulty, but hesitant to supinate due to pain, she lacked about 20 degrees to full supination'). Hạn chế ngửa là dấu hiệu gợi ý mạnh.&lt;br&gt;- **Gập và duỗi khớp khuỷu (Flexion and Extension):** Đánh giá biên độ gập và duỗi. ('Children was not able to fully stretch her injured arm, about 30 degrees left to fully extend. She had pain with flexion beyond 50 degrees. She was too painful to stop at 90 degrees').                                      |
+| **Thần kinh - mạch máu (Neurovascular Assessment)** | - **Cảm giác và vận động:** Đánh giá các dây thần kinh giữa, trụ, quay. ('The sensory and motor examination was normal in medial, ulnar and radial distributions and innervations').&lt;br&gt;- **Mạch quay:** Kiểm tra mạch quay hai bên để đảm bảo không có tổn thương mạch máu. ('Radial pulse in both wrists were palpable and the same').                                                                                                              |
+Việc thực hiện một cách có hệ thống và chi tiết các bước trên sẽ giúp các bác sĩ trẻ 'mở rộng tầm nhìn' chẩn đoán, đặc biệt trong các trường hợp 'không điển hình' như trật khớp chỏm xương quay đơn độc sau chấn thương, và tránh bỏ sót những tổn thương quan trọng.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Làm thế nào để một bác sĩ trẻ tiếp cận chẩn đoán ban đầu và các bước thăm khám lâm sàng cho một bệnh nhi 7 tuổi có các triệu chứng nghi ngờ chấn thương khuỷu tay như trường hợp được mô tả?</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận một bệnh nhi có dấu hiệu chấn thương khuỷu tay, điều quan trọng là phải có một quy trình thăm khám có hệ thống để đảm bảo không bỏ sót thông tin quan trọng. Đối với trường hợp bệnh nhi 7 tuổi với các triệu chứng như khuỷu tay vẹo (cubitus valgus), hạn chế vận động và đau, các bác sĩ trẻ cần chú ý các bước sau:
+*   **Thu thập tiền sử bệnh:**
+    *   Hỏi kỹ về cơ chế chấn thương: Bệnh nhi ngã tư thế nào? Lực tác động ra sao? (Ví dụ: ngã chống tay, ngã trực tiếp vào khuỷu tay). Thông tin này rất quan trọng để định hướng loại chấn thương có thể xảy ra.
+    *   Thời gian xảy ra chấn thương, mức độ đau ban đầu và hiện tại, các triệu chứng kèm theo như sưng, biến dạng.
+    *   Tiền sử các chấn thương khuỷu tay trước đó hoặc các bệnh lý xương khớp sẵn có.
+*   **Thăm khám lâm sàng:**
+    *   **Quan sát (Inspection):** Tìm kiếm các dấu hiệu sưng, bầm tím, biến dạng (ví dụ: khuỷu tay vẹo rõ ràng như trong ca bệnh), vết thương hở. So sánh với bên đối diện.
+    *   **Sờ nắn (Palpation):** Sờ dọc theo các mốc xương của khuỷu tay (mỏm trên lồi cầu, mỏm khuỷu, chỏm xương quay) để xác định điểm đau chói, rạn xương hoặc bất thường giải phẫu. Chú ý đánh giá mạch và thần kinh vùng khuỷu tay và bàn tay.
+    *   **Đánh giá tầm vận động (Range of Motion - ROM):** Cẩn thận đánh giá khả năng gấp, duỗi, sấp, ngửa cẳng tay. Hạn chế vận động và đau tăng khi vận động là dấu hiệu quan trọng. Trong trường hợp này, bệnh nhi có hạn chế gấp và duỗi cánh tay, kèm đau tăng, là những dấu hiệu gợi ý trật khớp hoặc gãy xương.
+*   **Các xét nghiệm cận lâm sàng:**
+    *   **X-quang:** Đây là phương tiện chẩn đoán hình ảnh ban đầu và quan trọng nhất. Cần chụp ít nhất 2 tư thế thẳng và nghiêng. Trong các trường hợp nghi ngờ trật khớp chỏm quay, tư thế nghiêng là cực kỳ quan trọng để đánh giá sự thẳng hàng của trục xương quay với xương đầu (capitellum). Hình ảnh được mô tả trong ca bệnh về 'anterior dislocation of radial head in lateral view' và 'radial axis did not align with the capitellum' là những dấu hiệu X-quang điển hình của trật khớp chỏm quay. Đừng quên chụp phim X-quang khớp cổ tay nếu nghi ngờ gãy Monteggia kèm theo.
+**Bảng: Các dấu hiệu lâm sàng và X-quang gợi ý trật khớp chỏm quay ở trẻ em**
+| Dấu hiệu lâm sàng               | Mô tả                                                                                                        | Dấu hiệu X-quang                                        | Mô tả                                                                                                                                                                                              |
+| :------------------------------ | :----------------------------------------------------------------------------------------------------------- | :------------------------------------------------------ | :------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- |
+| **Đau khuỷu tay**               | Đau chói khu trú hoặc lan tỏa, tăng khi vận động                                                             | **Mất thẳng hàng trục quay-capitellum** | Trên phim nghiêng, trục dọc của xương quay không đi qua trung tâm của xương đầu (capitellum).                                                                                                      |
+| **Hạn chế vận động**            | Giảm tầm vận động gấp, duỗi, sấp, ngửa cánh tay                                                               | **Chỏm quay lệch vị trí**               | Thường là ra phía trước (anterior) hoặc ít gặp hơn là phía sau (posterior) so với lồi cầu xương cánh tay.                                                                                         |
+| **Biến dạng/Sưng nề**           | Sưng quanh khớp, có thể có biến dạng khuỷu tay vẹo (cubitus valgus) hoặc bầm tím                             | **Dấu hiệu 'fat pad' (nếu có)**         | Gợi ý tràn dịch khớp hoặc gãy xương kèm theo (tuy không đặc hiệu cho trật khớp chỏm quay đơn thuần, nhưng thường gặp trong chấn thương khuỷu tay).                                                    |
+| **Khám mạch và thần kinh**      | Cần đánh giá kỹ để loại trừ tổn thương thần kinh trụ, quay hoặc mạch máu (ví dụ: hội chứng chèn ép khoang) | **So sánh hai bên**                     | Luôn khuyến khích chụp X-quang khuỷu tay đối diện để so sánh, đặc biệt ở trẻ em có sụn tiếp hợp chưa cốt hóa hoàn toàn, dễ nhầm lẫn với trật khớp hoặc gãy xương.                                  |
+Việc kết hợp chặt chẽ tiền sử bệnh, khám lâm sàng tỉ mỉ và hình ảnh học chính xác sẽ giúp bác sĩ trẻ đưa ra chẩn đoán kịp thời và chính xác, từ đó có hướng xử trí phù hợp.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Dựa trên các kết quả X-quang được mô tả, đâu là những dấu hiệu X-quang quan trọng nhất của trật khớp chỏm quay ra trước ở trẻ em, và những sai sót phổ biến nào cần tránh trong quá trình đọc phim?</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Đối với các bác sĩ trẻ và sinh viên y khoa, việc diễn giải chính xác phim X-quang khuỷu tay ở trẻ em là một kỹ năng thiết yếu, đặc biệt trong các trường hợp nghi ngờ trật khớp chỏm quay. Các dấu hiệu X-quang được mô tả trong ca bệnh là những điểm mấu chốt:
+**1. Dấu hiệu X-quang quan trọng của trật khớp chỏm quay ra trước:**
+*   **Mất sự thẳng hàng của trục xương quay với xương đầu (Radial-capitellar line disruption):** Đây là dấu hiệu quan trọng nhất và thường xuyên bị bỏ qua. Trên phim X-quang nghiêng (lateral view), một đường thẳng kẻ dọc theo trục thân xương quay phải luôn đi qua trung tâm của xương đầu (capitellum) ở mọi tư thế khuỷu tay gấp hay duỗi. Khi đường này không đi qua trung tâm xương đầu, điều đó khẳng định có sự trật khớp của chỏm quay. Trong trường hợp này, 'radial axis did not align with the capitellum, anterior dislocation' đã xác nhận điều đó.
+*   **Chỏm xương quay nằm ở vị trí bất thường:** Trong trật khớp ra trước, chỏm xương quay sẽ nằm lệch ra phía trước so với xương đầu, như mô tả 'anterior dislocation of radial head in lateral view'. Điều này dễ nhận thấy hơn trên phim nghiêng.
+*   **Dấu hiệu 'ẩn' (occult dislocation) trên phim chụp Coronal view:** Mô tả 'Coronal view showed the occult radial head dislocation' nhấn mạnh rằng trật khớp chỏm quay đôi khi không rõ ràng trên một số mặt phẳng cắt hoặc các tư thế chụp không điển hình, hoặc do mức độ di lệch không đáng kể. Điều này đòi hỏi bác sĩ phải có kinh nghiệm và cẩn trọng khi đọc phim, luôn tìm kiếm sự mất thẳng hàng của trục xương quay. Đôi khi cần các tư thế chụp bổ sung hoặc so sánh với bên đối diện để xác nhận.
+**2. Những sai sót phổ biến cần tránh khi đọc phim X-quang khuỷu tay trẻ em:**
+*   **Bỏ qua trục xương quay-xương đầu:** Đây là sai lầm phổ biến nhất. Luôn vẽ một đường thẳng tưởng tượng dọc theo trục xương quay trên phim nghiêng và kiểm tra sự liên tục với xương đầu. Một số trật khớp chỏm quay đơn thuần có thể chỉ biểu hiện rất kín đáo, đặc biệt là khi không có gãy xương kèm theo.
+*   **Nhầm lẫn với các điểm cốt hóa:** Khuỷu tay trẻ em có nhiều điểm cốt hóa (ossification centers) xuất hiện theo thứ tự cụ thể (CRITOE: Capitellum, Radial head, Internal epicondyle, Trochlea, Olecranon, External epicondyle). Những điểm này có thể bị nhầm lẫn với mảnh gãy hoặc dị tật. Việc biết tuổi bệnh nhân và thứ tự xuất hiện của các điểm cốt hóa là rất quan trọng.
+*   **Không chụp đủ tư thế hoặc không chụp so sánh:** Luôn yêu cầu ít nhất 2 tư thế (thẳng và nghiêng). Trong trường hợp nghi ngờ cao hoặc khó chẩn đoán, cần xem xét chụp X-quang khuỷu tay đối diện để so sánh, đặc biệt ở trẻ nhỏ có cấu trúc xương chưa hoàn thiện.
+*   **Đánh giá không đầy đủ các tổn thương kèm theo:** Trật khớp chỏm quay có thể kèm theo gãy xương trụ (gãy Monteggia), gãy lồi cầu, hoặc tổn thương dây chằng. Luôn kiểm tra toàn bộ phim để tìm kiếm các dấu hiệu gián tiếp của tổn thương khác.
+Để nâng cao kỹ năng, các bác sĩ trẻ nên thường xuyên thực hành đọc phim, tham khảo ý kiến của các bác sĩ chẩn đoán hình ảnh và chấn thương chỉnh hình có kinh nghiệm, cũng như tham gia các khóa học chuyên sâu về chẩn đoán hình ảnh nhi khoa.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sau khi xác nhận trật khớp chỏm quay ra trước ở một bệnh nhi 7 tuổi, các nguyên tắc quản lý cấp tính là gì, và chẩn đoán này sẽ được phân loại theo mã ICD-10-CM như thế nào?</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Khi đã xác định rõ chẩn đoán trật khớp chỏm quay ra trước ở bệnh nhi 7 tuổi, việc quản lý cấp tính cần được thực hiện nhanh chóng và chính xác để tối ưu hóa kết quả điều trị và ngăn ngừa biến chứng. Đồng thời, việc mã hóa theo ICD-10 là cần thiết cho hồ sơ bệnh án và thống kê y tế.
+**1. Các nguyên tắc quản lý cấp tính:**
+*   **Nắn chỉnh (Reduction):** Đây là bước quan trọng nhất và cần được thực hiện càng sớm càng tốt sau chấn thương, lý tưởng là trong vòng vài giờ đầu. Có nhiều kỹ thuật nắn chỉnh khác nhau, thường là nắn kín. Ví dụ, kỹ thuật nắn chỉnh bằng cách kéo dọc trục và sau đó sấp cẳng tay kèm theo lực ấn nhẹ vào chỏm quay bị trật có thể được áp dụng. Việc nắn chỉnh cần được thực hiện nhẹ nhàng, có kiểm soát và dưới an thần nếu cần, đặc biệt ở trẻ nhỏ để giảm đau và lo lắng.
+*   **Xác nhận sau nắn:** Sau khi nắn chỉnh, cần kiểm tra lại tầm vận động của khuỷu tay và chụp X-quang kiểm tra ngay lập tức. Phim X-quang sau nắn chỉnh phải cho thấy trục xương quay thẳng hàng với xương đầu (capitellum) và chỏm quay nằm đúng vị trí giải phẫu.
+*   **Bất động (Immobilization):** Sau khi nắn chỉnh thành công và ổn định, khuỷu tay thường được bất động trong tư thế gấp 90 độ và sấp cẳng tay bằng nẹp hoặc bột trong khoảng 2-3 tuần. Mục đích là để bảo vệ khớp và cho phép các cấu trúc phần mềm xung quanh hồi phục, giảm nguy cơ tái trật.
+*   **Theo dõi và tái khám:** Theo dõi chặt chẽ bệnh nhi về các dấu hiệu đau, sưng, chức năng vận động và các biến chứng tiềm ẩn. Hướng dẫn phụ huynh về các dấu hiệu cần chú ý và lịch tái khám. Vật lý trị liệu có thể được xem xét sau giai đoạn bất động để phục hồi hoàn toàn tầm vận động và sức mạnh.
+*   **Biến chứng tiềm ẩn:** Cần theo dõi các biến chứng như tái trật khớp, cứng khớp, tổn thương thần kinh (đặc biệt là thần kinh quay), và hội chứng chèn ép khoang (dù hiếm gặp trong trật khớp chỏm quay đơn thuần).
+**2. Phân loại theo mã ICD-10-CM:**
+Đối với trật khớp chỏm quay ra trước do chấn thương ở trẻ em, mã ICD-10-CM sẽ được sử dụng để mô tả chẩn đoán. Dựa trên thông tin về bệnh nhi 7 tuổi và trật khớp chỏm quay trái ra trước, mã phù hợp là:
+*   **S53.032A - Anterior dislocation of left radial head, initial encounter**
+    *   **S53:** Dislocation of elbow and forearm.
+    *   **S53.0:** Dislocation of radial head.
+    *   **S53.03:** Anterior dislocation of radial head.
+    *   **S53.032:** Left radial head.
+    *   **A:** Initial encounter (lần khám điều trị đầu tiên cho chấn thương này).
+Việc hiểu rõ cả nguyên tắc điều trị lâm sàng và cách mã hóa chẩn đoán theo ICD-10 là cực kỳ quan trọng đối với mỗi bác sĩ, đảm bảo quá trình chăm sóc bệnh nhân toàn diện và đúng chuẩn y khoa.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Đối với một trường hợp bệnh nhân như mô tả, việc chẩn đoán xác định trật khớp chỏm xương quay muộn sau chấn thương và các bước ban đầu để nắn kín khớp khuỷu đã được thực hiện như thế nào? Từ kinh nghiệm thất bại nắn kín này, các bác sĩ trẻ cần rút ra những bài học gì?</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Các bác sĩ trẻ thân mến, việc tiếp cận một trường hợp trật khớp chỏm xương quay muộn sau chấn thương đòi hỏi sự tỉ mỉ trong chẩn đoán và cân nhắc kỹ lưỡng về phương pháp điều trị. Đây là các điểm mấu chốt:
+**1. Chẩn đoán xác định:**
+*   **Tên bệnh:** Trật khớp chỏm xương quay đơn độc muộn sau chấn thương ở cẳng tay trái (Delayed isolated post-traumatic radial head dislocation in left arm).
+*   **Ý nghĩa lâm sàng:** Chữ 'muộn' (delayed) là một yếu tố then chốt, ngụ ý rằng tổn thương đã diễn ra trong một khoảng thời gian đáng kể, có thể đã hình thành mô sẹo hoặc gây kẹt các cấu trúc mô mềm, làm phức tạp hóa việc nắn chỉnh.
+**2. Thử nắn kín khớp khuỷu:**
+*   **Kỹ thuật được áp dụng:** Kết hợp kéo giãn dọc trục cẳng tay, ngửa mạnh cẳng tay ở tư thế khuỷu gập 30 độ, sau đó gập khuỷu lên 100 độ trong khi vẫn duy trì tư thế ngửa.
+*   **Mục đích:** Kỹ thuật này được thiết kế để vượt qua lực cản của cơ và cố gắng đưa chỏm xương quay trở lại vị trí giải phẫu, thường hiệu quả trong các trường hợp trật khớp cấp tính.
+*   **Kết quả:** Thử nắn kín thất bại.
+**3. Bài học từ thất bại nắn kín cho bác sĩ trẻ:**
+*   **Nhận diện các yếu tố cản trở nắn kín:** Trật khớp muộn thường có sự can thiệp của các yếu tố cơ học như mô sẹo, kẹt bao khớp, hoặc đặc biệt là dây chằng vòng bị chèn ép. Trong trường hợp này, việc dây chằng vòng bị kẹt phía sau khớp chỏm quay-lồi cầu là nguyên nhân chính dẫn đến thất bại. Luôn nghi ngờ các yếu tố này khi gặp trật khớp muộn.
+*   **Giới hạn của nắn kín:** Không phải mọi trường hợp trật khớp đều có thể nắn kín thành công, đặc biệt là khi có yếu tố 'muộn' hoặc các cấu trúc mô mềm bị kẹt. Việc cố gắng nắn kín quá mức có thể gây thêm tổn thương cho các cấu trúc giải phẫu và làm tình trạng trầm trọng hơn.
+*   **Chuyển đổi chiến lược điều trị:** Khi nắn kín thất bại sau một hoặc hai lần thử nghiệm cẩn thận (thường dưới gây mê đầy đủ để giãn cơ tối đa), các bác sĩ cần nhanh chóng nhận ra giới hạn của phương pháp này và chuyển sang chỉ định phẫu thuật. Đây là quyết định quan trọng để đảm bảo kết quả tốt nhất cho bệnh nhân.
+*   **Đánh giá toàn diện nguyên nhân:** Luôn phân tích kỹ lưỡng lý do nắn kín thất bại. Việc này giúp củng cố kiến thức giải phẫu và cơ chế bệnh sinh, từ đó đưa ra quyết định lâm sàng chính xác hơn trong tương lai.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Sau khi nắn kín thất bại, các bác sĩ đã quyết định can thiệp phẫu thuật. Hãy mô tả chi tiết các bước phẫu thuật chính được thực hiện và giải thích lý do về mặt giải phẫu và cơ chế bệnh sinh đằng sau việc sửa chữa dây chằng vòng và cố định bằng K-wire để ngăn ngừa trật lại?</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Khi nắn kín thất bại, phẫu thuật là lựa chọn cần thiết để khôi phục giải phẫu và chức năng của khớp khuỷu. Dưới đây là các bước phẫu thuật chi tiết và lý do y khoa đằng sau chúng, hướng dẫn cho các bác sĩ trẻ:
+**1. Chuẩn bị phẫu thuật và tiếp cận:**
+*   **Quyết định:** Phẫu thuật được chỉ định sau khi nắn kín thất bại, xác định cần can thiệp để đặt lại khớp và xử lý tổn thương mô mềm.
+*   **Đường tiếp cận:** Sử dụng đường mổ Kocher.
+    *   **Ưu điểm của đường Kocher:** Đường này cung cấp tầm nhìn tuyệt vời đến khớp chỏm quay-lồi cầu và khớp quay-trụ gần, đồng thời bảo tồn các cấu trúc thần kinh mạch máu quan trọng (như thần kinh trụ và thần kinh quay nông), giảm thiểu nguy cơ biến chứng.
+**2. Bộc lộ và đánh giá tổn thương:**
+*   **Phát hiện:** Sau khi bộc lộ khớp, nhận thấy dây chằng vòng (annular ligament) đã bị trượt ra phía sau khớp chỏm quay-lồi cầu. Dây chằng này bị chèn ép giữa cổ xương quay và bao khớp, gây ra tình trạng đẩy chỏm xương quay ra trước khi bao khớp căng cứng lúc gập khuỷu.
+*   **Lý do thất bại nắn kín:** Việc dây chằng vòng còn nguyên vẹn nhưng bị kẹt đã ngăn cản chỏm xương quay trở lại vị trí bình thường.
+**3. Các bước can thiệp phẫu thuật chính:**
+*   **Đặt lại khớp quay-trụ gần:** Đây là bước cơ bản để khôi phục mối liên quan giải phẫu giữa chỏm xương quay và xương trụ.
+*   **Xử lý dây chằng vòng:**
+    *   **Cắt ngang dây chằng vòng:** Để giải phóng chỏm xương quay và tạo điều kiện cho việc đặt lại khớp dễ dàng hơn.
+    *   **Sửa chữa dây chằng vòng:** Dây chằng vòng được sửa chữa ở phần xa, ngang mức cổ xương quay, tạo thành một 'cái võng' (sling) mới. Đây là một kỹ thuật tái tạo dây chằng để phục hồi chức năng giữ vững.
+    *   **Mục đích của việc tạo 'sling':** 'Cái võng' này giúp ngăn ngừa trật khớp tái phát bằng cách tạo ra một cấu trúc cơ học giữ chỏm xương quay ổn định trong khuyết quay của xương trụ, đặc biệt quan trọng trong các chuyển động quay sấp, ngửa của cẳng tay.
+*   **Cố định bằng K-wire qua da:** Sau khi sửa chữa, K-wire được sử dụng để cố định tạm thời chỏm xương quay và khớp quay-trụ gần. Mục đích là để bảo vệ việc sửa chữa dây chằng, duy trì sự giảm trật và cho phép các mô mềm có thời gian lành sẹo mà không bị tái trật.
+**4. Lý do về mặt giải phẫu và cơ chế bệnh sinh:**
+*   Trật khớp chỏm xương quay thường liên quan trực tiếp đến sự tổn thương hoặc mất chức năng của phức hợp dây chằng vòng. Khi dây chằng này bị kẹt hoặc bị rách, nó không còn khả năng giữ vững chỏm xương quay trong khuyết quay của xương trụ.
+*   Việc tái tạo dây chằng vòng theo hình thức 'sling' là nhằm khôi phục lại cơ chế ổn định tự nhiên của khớp, ngăn chặn chỏm xương quay di lệch ra khỏi vị trí sinh lý.
+*   K-wire đóng vai trò như một phương tiện cố định nội xương tạm thời, cung cấp sự ổn định cần thiết trong giai đoạn đầu lành thương, khi các cấu trúc mô mềm còn yếu và chưa đủ vững chắc để chịu tải.
+**Khuyến nghị cho các bác sĩ trẻ:**
+*   **Hiểu rõ giải phẫu chức năng:** Nắm vững giải phẫu chi tiết của khớp khuỷu và đặc biệt là vai trò của dây chằng vòng là vô cùng quan trọng.
+*   **Kỹ năng phẫu thuật:** Thực hành và làm quen với đường mổ Kocher cũng như các kỹ thuật sửa chữa dây chằng.
+*   **Đánh giá sự ổn định:** Luôn kiểm tra kỹ sự ổn định của khớp sau khi đặt lại và sửa chữa trước khi kết thúc phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sau phẫu thuật cho trật khớp chỏm xương quay, quy trình hậu phẫu và phục hồi chức năng được thực hiện như thế nào? Dựa trên kết quả cuối cùng, các bác sĩ cần tư vấn cho bệnh nhân và gia đình về triển vọng phục hồi và tầm quan trọng của việc tuân thủ phác đồ điều trị ra sao?</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Việc quản lý hậu phẫu và phục hồi chức năng là yếu tố quyết định để đạt được kết quả tối ưu sau phẫu thuật trật khớp chỏm xương quay. Các bác sĩ cần nắm vững quy trình này để hướng dẫn bệnh nhân một cách hiệu quả:
+**1. Giai đoạn hậu phẫu tức thì và bảo vệ:**
+*   **Bó bột khuỷu:** Ngay sau phẫu thuật, khuỷu tay bệnh nhân được bó bột ở tư thế ngửa và gập 90°.
+    *   **Mục đích:** Tư thế này nhằm duy trì sự ổn định của chỏm xương quay đã được đặt lại và bảo vệ việc sửa chữa dây chằng vòng khỏi các lực căng quá mức, tạo môi trường thuận lợi cho lành thương ban đầu.
+*   **K-wire cố định:** K-wire được giữ trong 4 tuần.
+    *   **Mục đích:** Cung cấp sự cố định tạm thời bên trong, đảm bảo khớp ổn định trong giai đoạn nhạy cảm nhất của quá trình lành thương.
+**2. Phục hồi chức năng và tháo bỏ phương tiện cố định:**
+*   **Tháo K-wire:** Sau 4 tuần, K-wire được tháo bỏ. Đây là thời điểm an toàn để loại bỏ phương tiện cố định tạm thời khi các mô mềm đã có đủ độ bền nhất định.
+*   **Tháo bột:** Sau 8 tuần, bột được tháo bỏ. Điều này cho phép bắt đầu chương trình phục hồi chức năng tích cực hơn.
+*   **Chương trình phục hồi chức năng:** Bệnh nhân được thực hiện phục hồi chức năng chuyên sâu cho khuỷu tay trái trong 2 tháng.
+    *   **Nguyên tắc phục hồi:** Bắt đầu với các bài tập vận động thụ động nhẹ nhàng, sau đó chuyển sang vận động chủ động, tăng dần cường độ và sức kháng. Tập trung vào việc khôi phục toàn bộ tầm vận động khớp (gập, duỗi, sấp, ngửa) và tăng cường sức mạnh cơ bắp xung quanh. Tránh các động tác gây căng thẳng quá mức cho khớp trong giai đoạn đầu.
+**3. Kết quả và tái khám:**
+*   **Tái khám sau 14 tuần:** Bệnh nhân đã đạt được tầm vận động đầy đủ (full range of motion) ở tất cả các hướng: duỗi, gập, sấp và ngửa.
+*   **Kết quả cuối cùng:** Bệnh nhân có thể tiến hành các hoạt động đầy đủ mà không bị hạn chế, cho thấy sự thành công của cả quá trình điều trị phẫu thuật và phục hồi chức năng.
+**4. Tư vấn cho bệnh nhân và gia đình (Hướng dẫn cho bác sĩ trẻ):**
+*   **Giải thích rõ ràng về tầm quan trọng của sự tuân thủ:** Nhấn mạnh rằng kết quả thành công phụ thuộc rất lớn vào việc bệnh nhân tuân thủ nghiêm ngặt lịch trình tháo bỏ phương tiện cố định và đặc biệt là chương trình vật lý trị liệu. Phẫu thuật chỉ là một phần của quá trình, phục hồi chức năng là yếu tố quyết định sự trở lại chức năng bình thường.
+*   **Đặt kỳ vọng thực tế:** Thông báo cho bệnh nhân rằng quá trình phục hồi có thể mất nhiều thời gian (vài tháng) và đòi hỏi sự kiên trì. Mặc dù kết quả có thể rất tốt, nhưng mỗi bệnh nhân có tốc độ phục hồi khác nhau.
+*   **Thảo luận về các biến chứng tiềm ẩn:** Mặc dù trường hợp này có kết quả xuất sắc, các bác sĩ vẫn cần thông báo về các biến chứng có thể xảy ra như cứng khớp, yếu cơ, đau mạn tính, hoặc hiếm khi là trật khớp tái phát, để bệnh nhân có sự chuẩn bị tâm lý.
+*   **Khuyến khích sự chủ động:** Động viên bệnh nhân tích cực tham gia vào các bài tập tại nhà theo hướng dẫn và liên hệ ngay với bác sĩ hoặc chuyên gia vật lý trị liệu nếu có bất kỳ vấn đề hoặc đau đớn bất thường nào.
+**Tóm tắt Lịch trình Hậu phẫu và Phục hồi Chức năng:**
+| Giai đoạn                  | Thời gian   | Can thiệp                                     | Mục tiêu chính                                              |
+| :------------------------- | :---------- | :-------------------------------------------- | :--------------------------------------------------------- |
+| **Bảo vệ và Cố định**      | 0 - 4 tuần  | Bó bột khuỷu (gập 90°, ngửa), K-wire cố định | Bảo vệ vị trí khớp đã được đặt lại, thúc đẩy lành thương mô mềm |
+| **Tháo cố định**           | 4 - 8 tuần  | Tháo K-wire (4 tuần), tháo bột (8 tuần)       | Giảm nguy cơ nhiễm trùng, chuẩn bị cho vận động                |
+| **Phục hồi Chức năng Tích cực** | 8 - 14 tuần | Chương trình vật lý trị liệu chuyên sâu      | Khôi phục tầm vận động đầy đủ, tăng cường sức mạnh cơ bắp |
+| **Trở lại Hoạt động**     | &gt;14 tuần    | Tiếp tục tập luyện, dần trở lại hoạt động bình thường | Đạt được chức năng tối ưu, không bị hạn chế hoạt động           |
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Khi đánh giá kết quả sau phẫu thuật chấn thương khuỷu tay ở trẻ em, đặc biệt là tư thế duỗi và gập như được mô tả trong Figure 4, bác sĩ cần lưu ý những điểm gì để đảm bảo phục hồi chức năng tối ưu và phát hiện sớm các biến chứng?</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ trẻ và sinh viên y khoa!
+Việc đánh giá kết quả sau phẫu thuật chấn thương khuỷu tay ở trẻ em là một quá trình phức tạp, đòi hỏi sự tỉ mỉ và kiến thức vững vàng. Đối với trường hợp bệnh nhân 7 tuổi với các tư thế khuỷu tay duỗi và gập sau 14 tuần như Figure 4, các bạn cần tập trung vào những điểm sau:
+*   **1. Đánh giá Lâm sàng Toàn diện:**
+    *   **Tầm vận động (Range of Motion - ROM):** Đây là yếu tố then chốt. Đo lường chính xác độ gập (flexion) và độ duỗi (extension) của khuỷu tay (như trong Figure 4B và 4A/4C). So sánh với biên độ vận động của bên đối diện nếu không bị tổn thương. Lưu ý các giới hạn vận động, đặc biệt là cứng khớp duỗi hoặc gập.
+    *   **Đau:** Đánh giá mức độ đau của trẻ khi vận động và nghỉ ngơi bằng các thang đo phù hợp với lứa tuổi nhi khoa (ví dụ: thang FLACC cho trẻ nhỏ, thang Wong-Baker FACES Pain Rating Scale).
+    *   **Sưng nề, bầm tím:** Đánh giá các dấu hiệu viêm còn lại hoặc biến chứng như tạo xương lạc chỗ (heterotopic ossification).
+    *   **Tình trạng sẹo:** Kiểm tra sẹo mổ, đảm bảo sẹo lành tốt, không có dấu hiệu nhiễm trùng (sưng, nóng, đỏ, đau) và không gây co kéo hạn chế vận động.
+    *   **Thần kinh - Mạch máu:** Mặc dù đã 14 tuần, việc kiểm tra chức năng thần kinh ngoại biên (thần kinh quay, trụ, giữa) và tình trạng mạch máu vẫn là cần thiết để loại trừ các tổn thương thứ phát hoặc biến chứng muộn.
+*   **2. Đánh giá Chức năng:**
+    *   **Hoạt động sống hàng ngày (ADL):** Hỏi về khả năng trẻ thực hiện các hoạt động hàng ngày như ăn uống, mặc quần áo, chơi đùa. Điều này giúp đánh giá mức độ ảnh hưởng của chấn thương và phẫu thuật đến chất lượng cuộc sống của trẻ.
+    *   **Sức cơ:** Kiểm tra sức mạnh các nhóm cơ vùng khuỷu tay và cẳng tay để xác định mức độ phục hồi.
+*   **3. Kết nối với ICD-10:**
+    *   **Tình trạng sau phẫu thuật:** Mã Z98.89 (Other specified postprocedural states) có thể được sử dụng để chỉ tình trạng chung của bệnh nhân sau can thiệp.
+    *   **Hạn chế vận động:** Nếu có cứng khớp hoặc hạn chế ROM đáng kể, các mã như M24.5x (Contracture of joint, not elsewhere classified) có thể được xem xét, tùy thuộc vào mức độ và nguyên nhân cụ thể.
+*   **Lời khuyên:** Luôn kết hợp chặt chẽ giữa khám lâm sàng với kết quả cận lâm sàng (ví dụ: X-quang) để đưa ra đánh giá toàn diện nhất. Một kế hoạch phục hồi chức năng cá thể hóa, có sự tham gia của vật lý trị liệu, là yếu tố then chốt để đạt được kết quả tối ưu cho trẻ.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Chẩn đoán và Điều trị Chấn thương Khuỷu tay ở Trẻ em của Bộ Y tế.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp phác đồ chẩn đoán, nguyên tắc điều trị nội khoa và ngoại khoa, cũng như quy trình theo dõi và phục hồi chức năng sau phẫu thuật chấn thương khuỷu tay ở trẻ em, giúp các bác sĩ lâm sàng, đặc biệt là các bạn trẻ, có cái nhìn tổng quan và thực hành chuẩn mực theo hướng dẫn quốc gia.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Quản lý Chấn thương Khuỷu tay Trẻ em: Từ Chẩn đoán đến Phục hồi Chức năng.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các kỹ thuật chẩn đoán hình ảnh tiên tiến, lựa chọn phương pháp phẫu thuật phù hợp và chiến lược vật lý trị liệu hiệu quả cho các chấn thương khuỷu tay phức tạp ở trẻ em, bao gồm cả các trường hợp gãy trên lồi cầu và các biến chứng sau phẫu thuật. Khóa học sẽ trang bị kiến thức và kỹ năng thực hành cần thiết cho bác sĩ chuyên khoa chấn thương chỉnh hình và phục hồi chức năng, giúp họ nâng cao năng lực lâm sàng trong việc quản lý bệnh nhi một cách toàn diện.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Trong việc đánh giá X-quang sau phẫu thuật khuỷu tay ở trẻ em sau 14 tuần, bác sĩ cần phân tích những đặc điểm nào trên phim chụp mặt phẳng và tư thế khác nhau (ví dụ: coronal, sagittal như Figure 5) để đánh giá quá trình lành xương và phát hiện biến chứng, đồng thời liên hệ với mã ICD-10?</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Chào các bạn bác sĩ và sinh viên y khoa,
+Sau 14 tuần kể từ phẫu thuật, phim X-quang là công cụ thiết yếu để đánh giá quá trình lành xương và phát hiện sớm các biến chứng sau phẫu thuật khuỷu tay ở trẻ em. Các bạn cần có phương pháp tiếp cận có hệ thống khi phân tích Figure 5 (A, B, C):
+**1. Các điểm chính cần phân tích trên phim X-quang:**
+*   **Dấu hiệu lành xương (Bone Healing)**:
+    *   **Sự hình thành xương callus:** Đánh giá độ đặc của callus, mức độ cầu nối qua đường gãy. Sau 14 tuần, xương callus phải đủ vững chắc và bắt đầu tái tạo.
+    *   **Mất đường gãy (Fracture line obliteration):** Mức độ mờ hoặc mất hẳn đường gãy cho thấy quá trình liền xương đang diễn ra tốt.
+*   **Độ thẳng hàng (Alignment)**:
+    *   Kiểm tra sự thẳng hàng của trục xương cánh tay, xương quay và xương trụ. Bất kỳ sai lệch trục nào cũng cần được ghi nhận.
+    *   Đánh giá góc mang vác (carrying angle) trên phim coronal (Figure 5A) để phát hiện biến dạng valgus (vẹo ngoài) hoặc varus (vẹo trong) – đây là biến chứng thường gặp ở khuỷu tay trẻ em.
+    *   Trên phim sagittal (Figure 5B, 5C), đánh giá sự thẳng hàng trước-sau, đặc biệt là vị trí của lồi cầu xương cánh tay so với xương quay và xương trụ.
+*   **Biến chứng tiềm ẩn (Potential Complications)**:
+    *   **Malunion (liền lệch):** Xương liền nhưng có sai lệch về trục, xoay, hoặc góc, gây ảnh hưởng chức năng hoặc thẩm mỹ.
+    *   **Nonunion (không liền xương):** Khi không có dấu hiệu lành xương sau thời gian thích hợp (ví dụ: 14 tuần nếu không có tiến triển).
+    *   **Heterotopic Ossification (tạo xương lạc chỗ):** Sự hình thành xương trong mô mềm quanh khớp, có thể gây hạn chế vận động nghiêm trọng.
+    *   **Phát hiện dụng cụ cố định (Implant Integrity):** Đảm bảo đinh, nẹp, vít không bị gãy, lỏng lẻo hay di lệch. Vị trí của chúng có phù hợp không?
+**2. Bảng Tóm tắt Phân tích X-quang Theo Mặt phẳng và Tư thế (Tham khảo Figure 5):**
+| Đặc điểm cần phân tích | Phim Coronal (Ví dụ Figure 5A)          | Phim Sagittal (Ví dụ Figure 5B, 5C)        | Ý nghĩa lâm sàng                                           |
+| :------------------- | :------------------------------------ | :--------------------------------------- | :------------------------------------------------------- |
+| **Độ thẳng hàng**    | Góc mang vác (Carrying angle)             | Sự thẳng hàng trước-sau, vị trí lồi cầu     | Phát hiện biến dạng valgus/varus, sai khớp, mất giải phẫu |
+| **Liền xương**        | Cầu nối callus, mất đường gãy             | Cầu nối callus, mất đường gãy, sự toàn vẹn của xương | Đánh giá tiến triển liền xương, nguy cơ không liền       |
+| **Biến chứng**       | Liền lệch, tạo xương lạc chỗ, tổn thương sụn | Liền lệch, tạo xương lạc chỗ, vị trí dụng cụ | Phát hiện sớm các vấn đề cần can thiệp                  |
+| **Dụng cụ cố định**  | Toàn vẹn đinh, nẹp, vít, vị trí           | Toàn vẹn đinh, nẹp, vít, không di lệch       | Đảm bảo dụng cụ còn chức năng, không gây biến chứng      |
+**3. Mã ICD-10 liên quan:**
+*   **Liền lệch (Malunion):** M21.0x (Valgus deformity, not elsewhere classified) hoặc M21.1x (Varus deformity, not elsewhere classified) nếu có biến dạng góc mang vác. Hoặc T84.8 – Other complications of internal orthopedic prosthetic devices, implants and grafts, nếu do dụng cụ.
+*   **Không liền xương (Nonunion):** M84.3x (Stress fracture, not elsewhere classified) hoặc T84.0 – Mechanical complication of internal joint prosthesis nếu liên quan đến dụng cụ.
+*   **Tạo xương lạc chỗ (Heterotopic Ossification):** M61.1x (Myositis ossificans traumatica) hoặc M61.2x (Myositis ossificans progressiva) tùy nguyên nhân.
+*   **Biến chứng liên quan đến dụng cụ:** T84.x (Complications of internal orthopedic prosthetic devices, implants and grafts).
+**Lời khuyên:** Luôn so sánh với phim X-quang ban đầu và các phim chụp trước đó để theo dõi tiến triển. Kết hợp chặt chẽ với thăm khám lâm sàng để có cái nhìn toàn diện nhất về tình trạng bệnh nhân và đưa ra hướng xử trí phù hợp.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa Chẩn đoán hình ảnh Cơ xương khớp: Tập 1 – Chấn thương.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức nền tảng và chuyên sâu về giải phẫu X-quang, kỹ thuật chụp và nguyên tắc diễn giải các phim chụp chấn thương xương khớp, đặc biệt là ở trẻ em. Sách giúp sinh viên và bác sĩ trẻ rèn luyện kỹ năng đọc phim một cách có hệ thống và chính xác, là tài liệu tham khảo không thể thiếu cho các bạn.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Thực hành Đọc X-quang Chấn thương Nhi khoa: Chuyên đề Khuỷu tay.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Khóa học CME này bao gồm các buổi thực hành đọc và phân tích X-quang với các trường hợp lâm sàng thực tế về chấn thương nhi khoa, đặc biệt là các chấn thương phức tạp vùng khuỷu tay. Học viên sẽ được hướng dẫn bởi các chuyên gia giàu kinh nghiệm để nâng cao khả năng phát hiện sớm và chính xác các tổn thương cũng như biến chứng sau phẫu thuật trên phim X-quang, đồng thời thảo luận về các phác đồ điều trị và cách áp dụng mã hóa ICD-10 liên quan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Đối với một bệnh nhân nhi 7 tuổi sau phẫu thuật khuỷu tay đã 14 tuần, bác sĩ cần xây dựng kế hoạch quản lý tổng thể như thế nào, bao gồm cả việc theo dõi lâu dài và các khuyến nghị phục hồi chức năng, đồng thời liên hệ với mã ICD-10?</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Chào các bạn bác sĩ và sinh viên y khoa,
+Quản lý một trường hợp bệnh nhân nhi 7 tuổi sau phẫu thuật khuỷu tay 14 tuần đòi hỏi một cách tiếp cận toàn diện, không chỉ dừng lại ở việc kiểm tra kết quả chụp chiếu mà còn phải đánh giá chức năng và dự phòng biến chứng lâu dài. Đây là cơ hội để chúng ta rèn luyện tư duy lâm sàng tổng thể:
+**1. Đánh giá và Chẩn đoán:**
+*   **Lâm sàng:** Đánh giá tầm vận động khớp (ROM), sức cơ, sự hiện diện của đau, sưng, tình trạng sẹo và chức năng thần kinh - mạch máu. Kiểm tra tư thế khuỷu tay khi duỗi và gập (như Figure 4A, 4B, 4C) để đánh giá khả năng vận động chức năng.
+*   **Cận lâm sàng:** Xem xét kỹ phim X-quang (Figure 5A, 5B, 5C) để đánh giá quá trình liền xương, độ thẳng trục, sự toàn vẹn của dụng cụ cố định và các biến chứng như tạo xương lạc chỗ, liền lệch. Đối với trẻ em, việc theo dõi sự phát triển của sụn tăng trưởng cũng rất quan trọng.
+*   **ICD-10:** Ghi nhận tình trạng sau phẫu thuật (Z98.89 - Other specified postprocedural states). Nếu có biến chứng, hãy sử dụng mã cụ thể như T84.x cho các biến chứng liên quan đến dụng cụ cấy ghép, hoặc M21.x cho các biến dạng mắc phải.
+**2. Kế hoạch Phục hồi Chức năng (PHCN):**
+*   **Mục tiêu PHCN:** Tối ưu hóa tầm vận động, phục hồi sức mạnh cơ, giảm đau và cải thiện khả năng thực hiện các hoạt động sống hàng ngày.
+*   **Vật lý trị liệu:** 
+    *   **Bài tập vận động:** Bao gồm các bài tập vận động thụ động, chủ động có trợ giúp và chủ động hoàn toàn để tăng dần ROM.
+    *   **Bài tập tăng cường sức mạnh:** Sử dụng các bài tập đề kháng nhẹ nhàng, phù hợp với lứa tuổi và mức độ phục hồi của trẻ.
+    *   **Kéo giãn và xoa bóp:** Giúp giảm co kéo sẹo và tăng độ mềm dẻo của mô mềm.
+*   **Chương trình tập tại nhà:** Hướng dẫn gia đình và trẻ các bài tập cần duy trì thường xuyên để đẩy nhanh quá trình phục hồi.
+*   **Giáo dục bệnh nhân:** Tư vấn về tầm quan trọng của việc tuân thủ PHCN, các dấu hiệu cần theo dõi và lịch tái khám.
+**3. Theo dõi Lâu dài và Dự phòng Biến chứng:**
+*   **Biến dạng tăng trưởng:** Trẻ em có nguy cơ cao phát triển các biến dạng như cubitus varus (khuỷu tay vẹo trong) hoặc cubitus valgus (khuỷu tay vẹo ngoài) do ảnh hưởng đến sụn tăng trưởng. Cần theo dõi định kỳ để phát hiện sớm và can thiệp kịp thời (sử dụng mã M21.1x cho cubitus varus và M21.0x cho cubitus valgus).
+*   **Cứng khớp:** Nếu tầm vận động không cải thiện hoặc xấu đi, cần xem xét các nguyên nhân như tạo xương lạc chỗ hoặc dính khớp. Mã M24.5x (Contracture of joint, not elsewhere classified) sẽ được sử dụng.
+*   **Biến chứng muộn:** Theo dõi các dấu hiệu của nhiễm trùng muộn, tổn thương thần kinh thứ phát, hoặc các vấn đề liên quan đến dụng cụ cấy ghép.
+**4. Tư vấn Gia đình:** Đảm bảo gia đình hiểu rõ về lộ trình điều trị, các mục tiêu phục hồi, và những việc cần làm để hỗ trợ trẻ. Sự hợp tác của gia đình là yếu tố then chốt cho sự thành công lâu dài.
+**Lời kết:** Quản lý sau phẫu thuật chấn thương khuỷu tay ở trẻ em là một hành trình dài. Bằng cách áp dụng kiến thức y khoa chuẩn mực, phối hợp đa chuyên khoa và tư vấn tận tình, các bạn sẽ giúp bệnh nhi có được sự phục hồi tốt nhất.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Phục hồi chức năng chấn thương chỉnh hình: Sách chuyên khảo và Hướng dẫn lâm sàng.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các nguyên tắc và phác đồ chi tiết về phục hồi chức năng sau chấn thương chỉnh hình, bao gồm các bài tập cụ thể cho vùng khuỷu tay, các kỹ thuật vật lý trị liệu tiên tiến và chiến lược quản lý biến chứng. Đây là nguồn tham khảo vô cùng hữu ích cho bác sĩ vật lý trị liệu, bác sĩ chấn thương chỉnh hình và sinh viên y khoa muốn chuyên sâu về lĩnh vực này.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Quản lý Toàn diện và Phục hồi Chức năng Chấn thương Khuỷu tay ở Trẻ em.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các chiến lược quản lý toàn diện từ giai đoạn cấp tính đến phục hồi chức năng lâu dài cho chấn thương khuỷu tay ở trẻ em. Nội dung bao gồm các phương pháp đánh giá chức năng, thiết kế chương trình tập luyện cá nhân hóa, và cách xử lý các biến chứng muộn. Khóa học cũng sẽ đi sâu vào việc áp dụng mã hóa ICD-10 cho các tình trạng sau phẫu thuật và biến chứng, giúp học viên phát triển kỹ năng tư vấn và quản lý bệnh nhân theo tiêu chuẩn quốc tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt về các chấn thương khớp khuỷu ở trẻ em.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, tại sao chẩn đoán trật khớp chỏm xương quay đơn độc sau chấn thương (delayed isolated post-traumatic radial head dislocation) ở trẻ em thường bị bỏ sót, và làm thế nào để các bác sĩ trẻ như chúng em có thể nâng cao khả năng chẩn đoán chính xác tình trạng này?</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Các em thân mến, việc bỏ sót chẩn đoán trật khớp chỏm xương quay đơn độc sau chấn thương ở trẻ em là một thách thức lớn trong thực hành lâm sàng, đặc biệt tại các cơ sở y tế tuyến dưới. Điều này có thể dẫn đến các biến chứng lâu dài nếu không được xử trí kịp thời. Dưới đây là những lý do chính và cách tiếp cận để cải thiện:
+**I. Các yếu tố góp phần vào việc bỏ sót chẩn đoán:**
+*   **Triệu chứng ban đầu nghèo nàn:** Trẻ em thường có ngưỡng chịu đau khác biệt và khả năng mô tả triệu chứng kém, khiến các dấu hiệu ban đầu không rõ ràng hoặc bị bỏ qua.
+*   **Dễ nhầm lẫn với chấn thương phần mềm hoặc bong gân:** Đây là lỗi phổ biến nhất, khi bác sĩ chỉ tập trung vào triệu chứng đau và sưng mà không đánh giá kỹ cơ chế chấn thương và các dấu hiệu biến dạng xương khớp.
+*   **Phương pháp điều trị truyền thống tại vùng nông thôn:** Việc sử dụng các phương pháp dân gian như xoa bóp dầu thuốc, cao dán, hoặc thậm chí mật gấu... có thể gây sưng nề nhanh chóng tại vùng bị ảnh hưởng, làm lu mờ các triệu chứng thực thể và chức năng, khiến việc thăm khám trở nên cực kỳ khó khăn.
+*   **Hạn chế trong đọc phim X-quang:** Kỹ năng diễn giải phim X-quang, đặc biệt là các phim khuỷu tay ở trẻ em với các trung tâm cốt hóa đang phát triển, đòi hỏi kinh nghiệm và kiến thức chuyên sâu. Thiếu kinh nghiệm có thể dẫn đến việc bỏ sót các dấu hiệu tinh tế của trật khớp.
+**II. Hướng dẫn nâng cao khả năng chẩn đoán chính xác:**
+Để khắc phục tình trạng này và nâng cao năng lực chẩn đoán, các em cần tuân thủ một quy trình tiếp cận hệ thống và không ngừng học hỏi:
+*   **1. Hỏi bệnh sử kỹ lưỡng:**
+    *   Tìm hiểu chính xác cơ chế chấn thương: ngã như thế nào, tư thế khuỷu tay lúc chấn thương (ví dụ, ngã chống tay khi khuỷu duỗi hay gập?).
+    *   Thời điểm chấn thương và các triệu chứng ban đầu.
+    *   Các biện pháp đã xử trí trước đó (bao gồm cả các phương pháp dân gian).
+*   **2. Thăm khám thực thể toàn diện:**
+    *   Đánh giá cẩn thận sưng nề, biến dạng, điểm đau chói.
+    *   Kiểm tra biên độ vận động chủ động và thụ động của khớp khuỷu và cẳng tay, đặc biệt chú ý đến động tác sấp ngửa cẳng tay.
+    *   Thăm khám các dấu hiệu thần kinh mạch máu, mặc dù ít gặp trong trật khớp chỏm quay đơn độc nhưng cần luôn loại trừ.
+*   **3. Đọc và diễn giải phim X-quang đúng cách:**
+    *   Luôn yêu cầu ít nhất 2 tư thế (thẳng và nghiêng) và đôi khi cần thêm tư thế chéo hoặc so sánh với bên đối diện, đặc biệt ở trẻ nhỏ.
+    *   Chú ý đến đường trục chỏm xương quay (radial head axis) trên phim nghiêng: đường này phải đi qua trung tâm của chỏm con xương cánh tay (capitellum) ở mọi tư thế khuỷu. Nếu không, có thể gợi ý trật khớp chỏm quay.
+    *   **Bảng: Các sai lầm thường gặp và cách khắc phục khi đọc X-quang khuỷu trẻ em**
+| Sai lầm thường gặp                                   | Cách khắc phục và lời khuyên                           |
+| :------------------------------------------------ | :---------------------------------------------------- |
+| Bỏ sót đường gãy xương kín đáo                      | Cần quan sát kỹ các đường gãy xương mảnh, đặc biệt ở vùng mỏm trên lồi cầu trong và ngoài.             |
+| Nhầm lẫn nhân cốt hóa với mảnh gãy                   | Cần biết rõ các trung tâm cốt hóa và thời điểm xuất hiện của chúng ở trẻ em theo lứa tuổi.              |
+| Đánh giá sai lệch trục khớp                         | Luôn vẽ đường trục chỏm xương quay trên phim nghiêng để kiểm tra mối quan hệ với chỏm con xương cánh tay. |
+| Chỉ chụp 1 tư thế X-quang                           | Luôn yêu cầu tối thiểu 2 tư thế (thẳng, nghiêng) và đôi khi cần thêm các tư thế chuyên biệt.            |
+*   **4. Nắm vững chẩn đoán phân biệt:**
+    *   Các em cần phân biệt rõ với gãy chỏm xương quay (radial head fracture), gãy mỏm vẹt (coronoid process fracture), trật khớp chỏm xương quay bẩm sinh (congenital radial head dislocation) hoặc gãy Monteggia (ulnar fracture with radial head dislocation).
+    *   Mỗi bệnh lý có đặc điểm lâm sàng và hình ảnh riêng biệt, việc nắm vững sẽ giúp tránh bỏ sót hoặc chẩn đoán nhầm.
+**Lời khuyên:** Hãy tích cực tham gia các buổi đọc phim chung, hội thảo chuyên đề về chấn thương chỉnh hình nhi khoa, và tìm kiếm sự hướng dẫn từ các bác sĩ có kinh nghiệm. Kiến thức giải phẫu và sinh lý tăng trưởng xương ở trẻ em là nền tảng vững chắc để các em tự tin hơn trong chẩn đoán.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, nhằm hỗ trợ sinh viên y khoa và bác sĩ trẻ trong việc phân biệt các chấn thương khớp khuỷu.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Trong quá trình chẩn đoán các chấn thương khuỷu tay ở trẻ em, đoạn văn có nhắc đến việc cần phân biệt trật khớp chỏm xương quay với các bệnh lý khác như gãy chỏm xương quay, gãy mỏm vẹt, trật khớp chỏm xương quay bẩm sinh hoặc gãy Monteggia. Xin chuyên gia hướng dẫn cách tiếp cận lâm sàng để phân biệt các chẩn đoán này một cách hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Để phân biệt các chấn thương phức tạp vùng khuỷu tay ở trẻ em, đặc biệt là khi nghi ngờ trật khớp chỏm xương quay đơn độc, các em cần có một phương pháp tiếp cận hệ thống, kết hợp chặt chẽ giữa hỏi bệnh sử, thăm khám lâm sàng và phân tích hình ảnh X-quang. Đây là nền tảng để tránh những sai lầm đáng tiếc trong chẩn đoán và điều trị:
+**I. Nguyên tắc chung trong chẩn đoán phân biệt:**
+*   **Nắm vững giải phẫu:** Hiểu rõ các cấu trúc xương, dây chằng, sụn tiếp hợp và các trung tâm cốt hóa tại khuỷu tay trẻ em là tối quan trọng.
+*   **Cơ chế chấn thương:** Luôn cố gắng xác định rõ cơ chế chấn thương (ví dụ: ngã chống tay tư thế duỗi, ngã chống tay tư thế gập, chấn thương trực tiếp) vì mỗi cơ chế thường liên quan đến một loại tổn thương cụ thể.
+*   **Đánh giá toàn diện:** Không chỉ tập trung vào một triệu chứng. Đánh giá đau, sưng, biến dạng, giới hạn vận động và tình trạng thần kinh mạch máu.
+**II. Phân biệt các bệnh lý cụ thể:**
+Để giúp các em dễ hình dung, chúng ta sẽ đi vào từng tình trạng cần phân biệt với trật khớp chỏm xương quay đơn độc:
+1.  **Gãy chỏm xương quay (Radial Head Fracture):**
+    *   **Cơ chế:** Thường do ngã chống tay ở tư thế duỗi, lực truyền dọc trục xương quay.
+    *   **Lâm sàng:** Đau chói vùng chỏm xương quay, đau tăng khi sấp ngửa cẳng tay. Sưng nề quanh khớp khuỷu.
+    *   **X-quang:** Có thể thấy đường gãy ngang hoặc dọc chỏm xương quay. Dấu hiệu tràn dịch khớp (fat pad sign) thường rõ rệt. Chỏm xương quay vẫn giữ vị trí giải phẫu so với chỏm con xương cánh tay.
+2.  **Gãy mỏm vẹt (Coronoid Process Fracture):**
+    *   **Cơ chế:** Thường liên quan đến trật khớp khuỷu ra sau, do mỏm vẹt bị đè ép hoặc căng giật khi khớp khuỷu bị trật.
+    *   **Lâm sàng:** Đau dữ dội vùng khuỷu, sưng nề. Thường đi kèm với tình trạng mất vững khớp khuỷu.
+    *   **X-quang:** Khó nhìn rõ trên phim thẳng hoặc nghiêng thông thường; cần chú ý trên phim nghiêng với hình ảnh mỏm vẹt bị bật ra hoặc gãy. Thường cần CT scan để đánh giá chính xác.
+3.  **Trật khớp chỏm xương quay bẩm sinh (Congenital Radial Head Dislocation):**
+    *   **Cơ chế:** Không phải do chấn thương. Thường là một dị tật bẩm sinh, có thể đi kèm với các dị tật khác (ví dụ: hội chứng Klinefelter, phình đại xương cánh tay).
+    *   **Lâm sàng:** Thường không đau, trừ khi có chấn thương thứ phát. Có thể phát hiện tình cờ hoặc khi trẻ lớn có giới hạn vận động sấp ngửa cẳng tay và/hoặc biến dạng khuỷu tay (ví dụ: chỏm quay sờ thấy ở mặt sau ngoài khuỷu). Có thể phát hiện ở cả hai bên.
+    *   **X-quang:** Chỏm xương quay trật ra khỏi chỏm con xương cánh tay (thường là ra trước hoặc sau). Bờ xương chỏm xương quay và chỏm con có thể bị dẹt hoặc biến dạng do sự phát triển bất thường kéo dài.
+4.  **Gãy Monteggia (Monteggia Fracture-Dislocation):**
+    *   **Cơ chế:** Thường do ngã chống tay với cẳng tay sấp quá mức hoặc chấn thương trực tiếp vào mặt sau của cẳng tay, gây gãy xương trụ và trật khớp chỏm xương quay.
+    *   **Lâm sàng:** Đau và sưng nề vùng cẳng tay và khuỷu tay. Biến dạng xương trụ rõ ràng. Hạn chế vận động sấp ngửa và gập duỗi khớp khuỷu. Có thể sờ thấy chỏm xương quay bị trật.
+    *   **X-quang:** Rõ ràng nhất là hình ảnh gãy thân xương trụ (thường ở 1/3 trên) kèm theo trật khớp chỏm xương quay (ra trước, sau, hoặc ngoài). Cần đảm bảo chụp cả khớp khuỷu và cổ tay trong mọi trường hợp gãy cẳng tay để không bỏ sót trật khớp kèm theo.
+**Lời khuyên cho bác sĩ trẻ và sinh viên y khoa:** Luôn thực hành một cách có hệ thống. Khi có nghi ngờ, đừng ngần ngại hội chẩn với các bác sĩ có kinh nghiệm hơn hoặc sử dụng các công cụ chẩn đoán hình ảnh bổ sung như CT hoặc MRI khi cần thiết. Việc tham gia các khóa học chuyên sâu về chấn thương chỉnh hình nhi khoa sẽ củng cố đáng kể khả năng phân biệt các tình trạng này.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, với trọng tâm là dịch tễ học và tầm quan trọng của chẩn đoán sớm các chấn thương ở trẻ em.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Chấn thương vùng khuỷu ở trẻ em được đề cập là rất phổ biến. Xin chuyên gia làm rõ hơn về ý nghĩa dịch tễ học của các con số này và tại sao việc chẩn đoán sớm lại đặc biệt quan trọng đối với các bác sĩ nhi khoa và chỉnh hình?</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Các em thân mến, những số liệu thống kê về chấn thương vùng khuỷu tay ở trẻ em không chỉ đơn thuần là con số, mà chúng ẩn chứa những ý nghĩa sâu sắc về dịch tễ học và tầm quan trọng của việc chẩn đoán sớm. Việc hiểu rõ những điều này sẽ giúp các em định hình một thái độ lâm sàng chủ động và có trách nhiệm hơn.
+**I. Ý nghĩa dịch tễ học của các con số:**
+*   **"Chấn thương chi trên chiếm 65% tổng số gãy xương và trật khớp ở trẻ em"** (theo Hanlon và Estes [1]): Con số này cho thấy chấn thương chi trên là loại chấn thương phổ biến nhất ở trẻ em. Điều này có nghĩa là bất kỳ bác sĩ nào làm việc với trẻ em (nhi khoa, cấp cứu, chỉnh hình) đều phải có kiến thức vững chắc về các loại chấn thương này và luôn có độ cảnh giác cao khi khám một trẻ bị chấn thương ở chi trên.
+*   **"Ở trẻ dưới 7 tuổi, chấn thương khuỷu tay chiếm khoảng 30% tổng số gãy xương chi"**: Con số này nhấn mạnh khớp khuỷu là một điểm yếu đặc biệt ở trẻ nhỏ. Trẻ em dưới 7 tuổi thường có cơ chế ngã chưa hoàn thiện, dễ ngã chống tay. Hơn nữa, xương của trẻ ở độ tuổi này đang trong giai đoạn phát triển nhanh với nhiều sụn tiếp hợp (epiphyseal plates) và trung tâm cốt hóa, khiến cấu trúc xương trở nên dễ tổn thương hơn so với người lớn.
+*   **"Trật khớp chỏm xương quay ước tính xảy ra ở khoảng 25% các chấn thương khuỷu tay ở trẻ dưới 10 tuổi"**: Dữ liệu này chỉ ra rằng trật khớp chỏm xương quay không phải là hiếm gặp. Một tỷ lệ đáng kể các trường hợp chấn thương khuỷu tay ở trẻ em sẽ liên quan đến chỏm xương quay. Điều này đòi hỏi các em phải luôn nghĩ đến chẩn đoán này khi thăm khám, đặc biệt ở nhóm tuổi dưới 10.
+**Tóm lại**, những con số này vẽ nên một bức tranh về mức độ phổ biến và tính nhạy cảm của khớp khuỷu ở trẻ em. Chúng ta không thể xem nhẹ bất kỳ trường hợp chấn thương khuỷu nào ở trẻ.
+**II. Tầm quan trọng đặc biệt của chẩn đoán sớm đối với bác sĩ nhi khoa và chỉnh hình:**
+Chẩn đoán sớm các chấn thương vùng khuỷu tay ở trẻ em mang ý nghĩa quyết định đối với chức năng lâu dài của chi và chất lượng cuộc sống của trẻ:
+*   **1. Ảnh hưởng đến sự phát triển xương:**
+    *   Xương của trẻ em có các sụn tiếp hợp (đĩa tăng trưởng) là nơi xương dài ra. Chấn thương hoặc trật khớp không được điều trị kịp thời có thể làm tổn thương sụn tiếp hợp, dẫn đến rối loạn tăng trưởng, biến dạng chi (ví dụ: khuỷu vẹo trong, vẹo ngoài) hoặc ngắn chi.
+    *   Trong trường hợp trật khớp chỏm xương quay kéo dài, chỏm xương quay và chỏm con xương cánh tay có thể biến dạng, làm khớp khuỷu không bao giờ có thể vận động bình thường trở lại, ngay cả khi trật khớp được nắn chỉnh sau này.
+*   **2. Giảm chức năng lâu dài:**
+    *   Trật khớp không được nắn chỉnh hoặc nắn chỉnh muộn có thể gây ra cứng khớp, giới hạn nghiêm trọng biên độ vận động của khớp khuỷu và cẳng tay (đặc biệt là động tác sấp ngửa). Điều này ảnh hưởng trực tiếp đến các hoạt động sinh hoạt hàng ngày, học tập và vui chơi của trẻ.
+    *   Biến dạng chi cũng gây mất thẩm mỹ, ảnh hưởng tâm lý của trẻ khi lớn lên.
+*   **3. Nguy cơ biến chứng thần kinh - mạch máu:**
+    *   Mặc dù hiếm gặp trong trật khớp chỏm quay đơn độc, nhưng các chấn thương khuỷu khác có thể gây tổn thương thần kinh hoặc mạch máu. Chẩn đoán sớm và xử trí kịp thời giúp ngăn ngừa các biến chứng nghiêm trọng như thiếu máu chi, liệt dây thần kinh, hoặc hội chứng khoang.
+*   **4. Nâng cao hiệu quả điều trị:**
+    *   Các chấn thương được chẩn đoán sớm thường có tiên lượng tốt hơn và đáp ứng điều trị bảo tồn hoặc phẫu thuật dễ dàng hơn. Điều trị muộn thường phức tạp hơn, đòi hỏi phẫu thuật lớn hơn và khả năng phục hồi chức năng kém hơn.
+**Lời khuyên cho các em:**
+Luôn duy trì một ngưỡng nghi ngờ cao (high index of suspicion) đối với bất kỳ trẻ em nào đến khám với chấn thương vùng khuỷu tay. Đừng bao giờ bỏ qua một trường hợp đau khuỷu ở trẻ chỉ vì X-quang ban đầu có vẻ bình thường hoặc triệu chứng không rõ ràng. Nếu cần, hãy yêu cầu chụp lại X-quang sau vài ngày hoặc thực hiện các thăm dò hình ảnh nâng cao để đảm bảo chẩn đoán chính xác và kịp thời. Việc học hỏi liên tục về chấn thương chỉnh hình nhi khoa sẽ là chìa khóa thành công.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Làm thế nào để sinh viên y khoa và bác sĩ trẻ tiếp cận đánh giá ban đầu một trường hợp nghi ngờ trật khớp chỏm xương quay, và những yếu tố nào là then chốt để quyết định giữa điều trị bảo tồn và phẫu thuật, đặc biệt trong bối cảnh phát hiện sớm so với muộn?</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Kính chào các bác sĩ trẻ và sinh viên y khoa! Tiếp cận một ca trật khớp chỏm xương quay đòi hỏi sự tỉ mỉ và hệ thống. Dưới đây là những hướng dẫn quan trọng:
+*   **Tiếp cận chẩn đoán ban đầu:**
+    *   **Hỏi bệnh sử:** Luôn bắt đầu bằng việc khai thác kỹ cơ chế chấn thương (ví dụ: ngã chống tay, chấn thương trực tiếp), thời gian từ khi chấn thương đến khi khám, các triệu chứng đau, sưng, giới hạn vận động. Đừng quên hỏi về bất kỳ phương pháp điều trị ban đầu nào (kể cả phương pháp dân gian).
+    *   **Thăm khám lâm sàng:** Đánh giá tình trạng sưng nề, biến dạng vùng khuỷu tay. Sờ nắn tìm điểm đau chói, kiểm tra mức độ vận động của khớp khuỷu và cẳng tay (gấp, duỗi, sấp, ngửa). Đặc biệt chú ý đến tình trạng thần kinh mạch máu vùng xa.
+    *   **Chẩn đoán hình ảnh:** Chụp X-quang khớp khuỷu ở hai tư thế thẳng và nghiêng là bắt buộc để xác định vị trí chỏm xương quay và loại trừ các tổn thương kèm theo (ví dụ: gãy xương). Trong một số trường hợp, CT scan hoặc MRI có thể cần thiết để đánh giá chi tiết hơn về tổn thương dây chằng vòng và các cấu trúc mô mềm.
+*   **Yếu tố then chốt quyết định phương pháp điều trị:**
+    1.  **Thời gian từ chấn thương:** Đây là yếu tố quan trọng nhất. Nếu phát hiện sớm (trong vòng vài giờ đến vài ngày), phương pháp nắn kín thường mang lại hiệu quả cao. Ngược lại, nếu trật khớp đã tồn tại lâu (ví dụ 3-5 tuần như các trường hợp trong bài báo), nắn kín thường không hiệu quả do các mô mềm đã bắt đầu xơ hóa.
+    2.  **Tình trạng mô mềm:** Các yếu tố như xơ hóa dây chằng vòng và các cấu trúc quanh khớp (thường gặp khi bệnh nhân tự điều trị bằng dầu xoa, cao dán trong thời gian dài) sẽ làm giảm khả năng duy trì vị trí chỏm xương quay sau nắn kín. Trong những trường hợp này, phẫu thuật là lựa chọn tối ưu.
+    3.  **Mức độ tổn thương kèm theo:** Đánh giá các tổn thương gãy xương, tổn thương dây chằng khác nếu có, vì chúng sẽ ảnh hưởng trực tiếp đến phác đồ điều trị.
+    4.  **Tuổi của bệnh nhân:** Đặc biệt là ở trẻ em, khả năng tái tạo và phục hồi của mô mềm có thể khác biệt so với người lớn.
+Việc hiểu rõ những yếu tố này giúp chúng ta đưa ra quyết định lâm sàng chính xác, tránh các biến chứng không đáng có và tối ưu hóa kết quả điều trị cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị trật khớp chỏm xương quay đơn thuần sau chấn thương theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn chẩn đoán, phân loại theo ICD-10 và phác đồ điều trị chi tiết cho trật khớp chỏm xương quay, giúp sinh viên y khoa và bác sĩ lâm sàng đưa ra quyết định phù hợp dựa trên bằng chứng và tiêu chuẩn quốc gia.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Cập nhật kiến thức về chấn thương khớp khuỷu và vùng cẳng tay ở trẻ em.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các loại chấn thương thường gặp ở khớp khuỷu, bao gồm trật khớp chỏm xương quay, cơ chế chấn thương, kỹ thuật chẩn đoán hình ảnh và các phương pháp điều trị tiên tiến, kèm theo các ca lâm sàng, nhằm nâng cao năng lực chẩn đoán và xử trí cho bác sĩ nhi khoa và bác sĩ chấn thương chỉnh hình.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Đối với trật khớp chỏm xương quay đơn thuần sau chấn thương chậm trễ, đặc biệt khi có biến chứng xơ hóa do điều trị không đúng cách, các chiến lược phẫu thuật nào được xem xét và việc quản lý phục hồi chức năng hậu phẫu như thế nào?</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Các bạn đồng nghiệp thân mến, khi đối mặt với trật khớp chỏm xương quay chậm trễ và có biến chứng xơ hóa, việc điều trị trở nên phức tạp hơn, và phẫu thuật thường là lựa chọn tối ưu. Dưới đây là các chiến lược cần nắm vững:
+*   **Các chiến lược phẫu thuật:**
+    *   **Nắn chỉnh khớp quay-trụ gần:** Đây là bước cơ bản đầu tiên, nhằm đưa chỏm xương quay về đúng vị trí giải phẫu.
+    *   **Sửa chữa dây chằng vòng (Annular ligament repair):** Nếu dây chằng vòng còn trong tình trạng tốt, việc khâu phục hồi dây chằng sẽ giúp ổn định chỏm xương quay. Đây là phương pháp được ưu tiên nếu khả thi, như trong các trường hợp được đề cập trong bài báo.
+    *   **Tái tạo dây chằng vòng (Annular ligament reconstruction):** Khi dây chằng vòng bị tổn thương nghiêm trọng hoặc không thể sửa chữa, cần phải tái tạo bằng cách sử dụng mảnh gân (ví dụ: gân cơ tam đầu, gân cơ gan tay dài) hoặc cân cơ (ví dụ: cân cơ ngửa).
+    *   **Cắt lọc xơ hóa (Fibrosis debridement):** Đặc biệt quan trọng trong các trường hợp chậm trễ có xơ hóa nặng do điều trị truyền thống. Việc cắt lọc các mô xơ giúp giải phóng khớp và các cấu trúc xung quanh, tạo điều kiện cho nắn chỉnh và duy trì vị trí chỏm xương quay.
+    *   **Cố định bằng đinh K (K-wire fixation):** Sau khi nắn chỉnh và sửa chữa/tái tạo, việc cố định tạm thời bằng đinh K trong 4 tuần (như trong bài báo) giúp giữ vững chỏm xương quay và cho phép mô mềm lành thương. Điều này thường đi kèm với bó bột.
+*   **Quản lý phục hồi chức năng hậu phẫu:**
+    Phục hồi chức năng là yếu tố then chốt quyết định kết quả cuối cùng. Quá trình này cần được thực hiện một cách khoa học và bài bản:
+    *   **Cố định ban đầu:** Thông thường là bó bột kéo dài 6-8 tuần sau phẫu thuật để đảm bảo sự lành thương của dây chằng và các mô mềm.
+    *   **Tập vận động thụ động và chủ động:** Sau khi tháo bột và rút đinh K, bệnh nhân bắt đầu các bài tập vận động thụ động, sau đó chuyển sang vận động chủ động. Mục tiêu là phục hồi tối đa tầm vận động khớp khuỷu và cẳng tay (gấp-duỗi, sấp-ngửa) và sức mạnh cơ bắp.
+    *   **Liệu pháp vật lý trị liệu:** Các nhà vật lý trị liệu sẽ hướng dẫn các bài tập chuyên biệt, sử dụng các phương pháp giảm đau, giảm sưng và cải thiện chức năng khớp.
+    *   **Theo dõi định kỳ:** Đánh giá tiến triển của bệnh nhân qua thăm khám lâm sàng và X-quang để đảm bảo chỏm xương quay duy trì đúng vị trí và không có biến chứng.
+Bạn có thể tham khảo bảng so sánh các giai đoạn điều trị để hiểu rõ hơn:
+| Giai đoạn điều trị | Đặc điểm                                       | Phương pháp can thiệp điển hình               | Kết quả mong đợi                           |
+| :----------------- | :--------------------------------------------- | :----------------------------------------- | :----------------------------------------- |
+| **Sớm**            | Phát hiện trong vòng vài ngày                   | Nắn kín, bó bột 6 tuần                     | Phục hồi hoàn toàn, chức năng tốt          |
+| **Muộn**           | Phát hiện sau 3-5 tuần, có xơ hóa              | Phẫu thuật (cắt lọc xơ hóa, sửa/tái tạo dây chằng vòng, cố định đinh K, bó bột 8 tuần), phục hồi chức năng | Giảm đau, phục hồi chức năng vận động tối đa |
+Luôn nhớ rằng sự phối hợp chặt chẽ giữa phẫu thuật viên và nhà vật lý trị liệu là chìa khóa để đạt được kết quả tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Phẫu thuật tái tạo dây chằng vòng trong trật khớp chỏm xương quay mạn tính: Kỹ thuật và kết quả lâm sàng.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Tài liệu này trình bày chi tiết các kỹ thuật phẫu thuật tái tạo dây chằng vòng, bao gồm việc sử dụng gân tự thân và vật liệu nhân tạo, cung cấp hướng dẫn từng bước và đánh giá kết quả lâm sàng, giúp bác sĩ phẫu thuật nắm vững các phương pháp hiện đại nhất.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Quản lý toàn diện chấn thương khớp khuỷu phức tạp và phục hồi chức năng chuyên sâu.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu này sẽ trang bị kiến thức về chẩn đoán và điều trị các chấn thương phức tạp vùng khuỷu tay, từ các chỉ định phẫu thuật nâng cao đến các chương trình phục hồi chức năng dựa trên bằng chứng, tối ưu hóa kết quả cho bệnh nhân và cải thiện kỹ năng cho các bác sĩ chỉnh hình và vật lý trị liệu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Vì trật khớp chỏm xương quay đơn thuần sau chấn thương được đánh giá là 'hiếm gặp và dễ bỏ sót', những cạm bẫy chẩn đoán nào mà các bác sĩ trẻ cần lưu ý, và làm thế nào để chúng ta nhấn mạnh thực hành y học dựa trên bằng chứng để ngăn ngừa sự chậm trễ và tránh các phương pháp điều trị truyền thống có hại?</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Chào các bạn đồng nghiệp, nhận thức về 'dễ bỏ sót' của trật khớp chỏm xương quay đơn thuần là rất quan trọng để nâng cao chất lượng chẩn đoán và điều trị. Dưới đây là những điểm cần lưu ý:
+*   **Cạm bẫy chẩn đoán và cách phòng tránh:**
+    1.  **Chẩn đoán nhầm hoặc bỏ sót tổn thương:** Do các triệu chứng ban đầu có thể không rõ ràng hoặc bị che lấp bởi các chấn thương khác. Luôn có chỉ số nghi ngờ cao đối với mọi trường hợp chấn thương khuỷu tay, đặc biệt ở trẻ em.
+    2.  **Đánh giá không đầy đủ:** Không chụp đủ các tư thế X-quang hoặc không đọc X-quang một cách tỉ mỉ. Đảm bảo chụp X-quang khớp khuỷu thẳng và nghiêng chuẩn, và luôn tìm kiếm 'dấu hiệu của Monteggia' nếu nghi ngờ trật khớp chỏm xương quay.
+    3.  **Thiếu kinh nghiệm:** Các bác sĩ trẻ cần trau dồi kinh nghiệm thông qua thực hành lâm sàng, thảo luận ca bệnh và tham khảo ý kiến của các chuyên gia có kinh nghiệm.
+    4.  **Phụ thuộc vào chẩn đoán ban đầu của bệnh nhân:** Bệnh nhân có thể tự chẩn đoán hoặc được điều trị bởi các phương pháp truyền thống, làm lu mờ các dấu hiệu lâm sàng thực sự. Luôn giữ thái độ khách quan và dựa trên bằng chứng.
+*   **Thúc đẩy thực hành y học dựa trên bằng chứng (EBM):**
+    *   **Nghiên cứu và cập nhật kiến thức:** Thường xuyên đọc các tạp chí y khoa uy tín (như 'VIETNAM MEDICAL JOURNAL' và các tài liệu tham khảo quốc tế), tham gia các hội nghị khoa học để nắm bắt các khuyến cáo và phương pháp điều trị mới nhất.
+    *   **Tuân thủ phác đồ điều trị chuẩn:** Áp dụng các hướng dẫn lâm sàng của Bộ Y tế Việt Nam và các tổ chức y tế quốc tế (ví dụ: WHO). Các phác đồ này cung cấp lộ trình chẩn đoán và điều trị đã được kiểm chứng khoa học, giúp giảm thiểu sai sót.
+    *   **Giáo dục bệnh nhân:** Giải thích rõ ràng cho bệnh nhân và gia đình về bản chất của chấn thương, các lựa chọn điều trị khoa học và những rủi ro khi sử dụng các phương pháp điều trị truyền thống không có cơ sở khoa học (như dùng dầu xoa, cao dán gây xơ hóa mô mềm).
+    *   **Thảo luận lâm sàng và báo cáo ca bệnh:** Tích cực tham gia vào các buổi thảo luận lâm sàng, báo cáo ca bệnh khó để học hỏi kinh nghiệm từ đồng nghiệp và chuyên gia, cũng như chia sẻ những phát hiện mới.
+Bằng cách thực hành EBM, chúng ta không chỉ nâng cao năng lực chuyên môn cá nhân mà còn góp phần bảo vệ sức khỏe cộng đồng, đảm bảo mọi bệnh nhân đều được tiếp cận với chất lượng điều trị tốt nhất.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Hướng dẫn quốc gia về chẩn đoán và điều trị các chấn thương xương khớp theo phân loại ICD-10.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Tài liệu do Bộ Y tế ban hành, cung cấp các hướng dẫn chi tiết về chẩn đoán, phân loại (theo ICD-10) và phác đồ điều trị chuẩn cho nhiều loại chấn thương xương khớp, là cẩm nang thiết yếu cho mọi bác sĩ để đảm bảo chất lượng và tính đồng nhất trong thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Thực hành y học bằng chứng trong chẩn đoán và điều trị chấn thương chỉnh hình.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ hướng dẫn các bác sĩ cách tiếp cận, đánh giá và áp dụng các bằng chứng khoa học mới nhất vào thực hành lâm sàng, đặc biệt trong lĩnh vực chấn thương chỉnh hình, giúp nâng cao chất lượng điều trị, tối ưu hóa kết quả bệnh nhân và tránh các sai lầm không đáng có do thiếu thông tin hoặc dựa vào kinh nghiệm cá nhân chưa được kiểm chứng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ hoặc sinh viên y khoa, tôi cần lưu ý gì khi chẩn đoán và quản lý ban đầu gãy Monteggia ở trẻ em, đặc biệt là liên quan đến tổn thương dây chằng vòng?</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Chào bạn, gãy Monteggia ở trẻ em là một chấn thương phức tạp đòi hỏi sự nhạy bén trong chẩn đoán và xử trí kịp thời. Với vai trò là một bác sĩ trẻ, bạn cần nắm vững những điểm mấu chốt sau:
+*   **Hiểu rõ cơ chế chấn thương và phân loại**: Gãy Monteggia là sự kết hợp giữa gãy xương trụ và trật khớp chỏm xương quay. Phân loại Bado (Type I-IV) là công cụ hữu ích để định hướng chẩn đoán và điều trị. Hãy tìm hiểu kỹ từng loại để biết cách tiếp cận phù hợp.
+*   **Thăm khám lâm sàng tỉ mỉ**: Bên cạnh các dấu hiệu gãy xương trụ điển hình, bạn phải luôn kiểm tra kỹ tình trạng chỏm xương quay và khả năng vận động khớp khuỷu, khớp cổ tay. Đừng quên đánh giá thần kinh mạch máu, đặc biệt là thần kinh liên cốt sau.
+*   **Đọc phim X-quang chuẩn xác**: Chụp X-quang khớp khuỷu thẳng và nghiêng là bắt buộc. Điều quan trọng là phải nhìn rõ tương quan giữa chỏm xương quay và lồi cầu ngoài (capitellum) trên cả hai mặt phẳng. Đường trung tâm của chỏm xương quay phải luôn cắt qua tâm của lồi cầu ngoài ở mọi góc độ. Nếu không, hãy nghĩ đến trật khớp chỏm xương quay.
+*   **Vai trò của dây chằng vòng**: Dây chằng vòng đóng vai trò cực kỳ quan trọng trong giữ vững chỏm xương quay. Trong gãy Monteggia, dây chằng này thường bị rách, kẹt hoặc tổn thương nghiêm trọng. Việc nắn chỉnh thành công chỏm xương quay và giữ vững được nó là yếu tố then chốt, thường đòi hỏi nắn chỉnh cả gãy xương trụ trước. Nếu dây chằng vòng bị kẹt hoặc rách nặng, việc nắn chỉnh kín có thể thất bại và cần can thiệp phẫu thuật.
+*   **Nguyên tắc xử trí ban đầu**: Mục tiêu là nắn chỉnh kín thành công cả xương trụ và chỏm xương quay. Sau nắn chỉnh, cần kiểm tra lại độ vững của khớp và chụp X-quang ngay lập tức. Nếu khớp vững, cố định bằng bột cánh bàn tay hoặc nẹp. Nếu không vững hoặc nắn chỉnh thất bại, cần cân nhắc can thiệp phẫu thuật để nắn chỉnh hở và sửa chữa dây chằng vòng nếu cần. Luôn theo dõi sát sao tình trạng sưng nề và tưới máu chi sau nắn chỉnh.
+Nhớ rằng, việc chẩn đoán và điều trị gãy Monteggia kịp thời và chính xác sẽ giúp tránh các biến chứng lâu dài như cứng khớp, trật khớp tái phát hoặc thiểu sản chỏm xương quay.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Pathology of the annular ligament in paediatric monteggia fractures.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bài viết này phân tích sâu về bệnh lý dây chằng vòng trong gãy Monteggia ở trẻ em, cung cấp kiến thức nền tảng quan trọng cho việc hiểu cơ chế bệnh sinh, các loại tổn thương dây chằng liên quan và định hướng lựa chọn phương pháp điều trị tối ưu. Đây là tài liệu thiết yếu để các bác sĩ trẻ nắm vững sinh lý bệnh học và cải thiện kỹ năng chẩn đoán lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Cập nhật Chẩn đoán và Điều trị Gãy Monteggia ở Trẻ em: Cách tiếp cận lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp cái nhìn toàn diện và thực tế về gãy Monteggia ở trẻ em, từ chẩn đoán hình ảnh, phân loại đến các kỹ thuật nắn chỉnh kín và can thiệp phẫu thuật. Khóa học đặc biệt chú trọng vào vai trò của dây chằng vòng và cách xử trí tổn thương này, giúp các bác sĩ trẻ tự tin hơn trong đưa ra quyết định lâm sàng và nâng cao kỹ năng thực hành.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Đối với một trường hợp trật khớp chỏm xương quay đơn độc do chấn thương, các bác sĩ trẻ cần lưu ý những điểm mấu chốt nào trong chẩn đoán và xử trí ban đầu để đảm bảo kết quả tốt nhất?</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Khi đối mặt với trật khớp chỏm xương quay đơn độc do chấn thương (Isolated traumatic radial-head dislocation), các bác sĩ trẻ cần có một cách tiếp cận hệ thống và thận trọng, vì đây là một tình trạng ít phổ biến hơn gãy Monteggia và có thể bị bỏ sót. Dưới đây là những điểm mấu chốt cần lưu ý:
+*   **Phân biệt với Monteggia**: Điều quan trọng nhất là phải chắc chắn rằng xương trụ vẫn còn nguyên vẹn, không có đường gãy. Đây là điểm khác biệt chính giữa trật khớp chỏm xương quay đơn độc và gãy Monteggia. Việc bỏ sót gãy xương trụ sẽ dẫn đến xử trí sai lầm.
+*   **Cơ chế chấn thương**: Thường do chấn thương trực tiếp hoặc gián tiếp, ví dụ như ngã chống tay với khuỷu tay duỗi hoặc sấp. Cần khai thác kỹ tiền sử để đánh giá lực tác động và hướng trật (thường là ra trước).
+*   **Thăm khám lâm sàng**: Bệnh nhân thường đau, sưng nề vùng khuỷu, có thể có biến dạng khuỷu tay. Cần kiểm tra kỹ các mốc giải phẫu (như tam giác khuỷu) để đánh giá sự di lệch. Quan trọng là kiểm tra khả năng xoay sấp, ngửa cẳng tay và toàn bộ chức năng thần kinh - mạch máu của chi trên.
+*   **Chẩn đoán hình ảnh**: Chụp X-quang khớp khuỷu thẳng và nghiêng là bắt buộc. Luôn tìm kiếm đường thẳng giữa chỏm xương quay và lồi cầu ngoài. Nếu đường này không thẳng, chỏm xương quay đã bị trật. Đôi khi, cần chụp thêm X-quang khớp vai, khớp cổ tay và toàn bộ cẳng tay để loại trừ các tổn thương phức tạp hơn (ví dụ: tổn thương Essex-Lopresti, mặc dù ít gặp trong trường hợp 'đơn độc').
+*   **Vai trò của dây chằng vòng**: Trật khớp chỏm xương quay đơn độc thường đi kèm với tổn thương dây chằng vòng. Dây chằng vòng bị rách hoặc suy yếu là nguyên nhân chính gây mất vững chỏm xương quay. Việc nắn chỉnh cần đảm bảo dây chằng vòng không bị kẹt trong khớp.
+*   **Nguyên tắc xử trí**: Mục tiêu là nắn chỉnh kín thành công. Kỹ thuật nắn chỉnh thường bao gồm kéo giãn dọc theo trục cẳng tay, ấn trực tiếp vào chỏm xương quay và xoay cẳng tay. Sau nắn chỉnh, cần kiểm tra độ vững và chụp X-quang để xác nhận khớp đã về vị trí. Nếu nắn chỉnh kín thất bại hoặc khớp không vững sau nắn chỉnh, cần cân nhắc can thiệp phẫu thuật để nắn chỉnh hở và sửa chữa hoặc tái tạo dây chằng vòng.
+*   **Cố định và Phục hồi chức năng**: Sau nắn chỉnh, cần cố định khuỷu tay trong tư thế gấp 90 độ và ngửa tối đa bằng bột hoặc nẹp trong 3-4 tuần để dây chằng vòng lành lại. Sau đó là vật lý trị liệu để phục hồi tầm vận động và sức mạnh.
+Việc nhận diện sớm và xử trí đúng đắn trật khớp chỏm xương quay đơn độc sẽ giúp tránh các biến chứng mạn tính như đau, hạn chế vận động hoặc trật khớp tái phát.
+**Bảng 1: Phân biệt Gãy Monteggia và Trật khớp chỏm xương quay đơn độc**
+| Đặc điểm                 | Gãy Monteggia                               | Trật khớp chỏm xương quay đơn độc             |
+| :----------------------- | :------------------------------------------ | :------------------------------------------- |
+| **Tổn thương xương trụ** | Gãy xương trụ (thường là 1/3 trên)           | Xương trụ nguyên vẹn                         |
+| **Tổn thương chỏm quay** | Trật khớp chỏm xương quay                    | Trật khớp chỏm xương quay                     |
+| **Tần suất**             | Phổ biến hơn ở trẻ em                       | Ít phổ biến hơn, có thể khó chẩn đoán          |
+| **Dây chằng vòng**       | Thường bị rách, kẹt, tổn thương nghiêm trọng | Thường bị tổn thương                           |
+| **Xử trí ban đầu**       | Ưu tiên nắn chỉnh gãy xương trụ trước         | Nắn chỉnh trực tiếp chỏm xương quay           |
+| **Biến chứng**           | Kẹt dây chằng vòng, khớp giả xương trụ, cứng khớp | Trật khớp tái phát, cứng khớp, đau mạn tính |
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Isolated" traumatic radial -head dislocation .</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Nghiên cứu kinh điển này cung cấp cái nhìn sâu sắc về các trường hợp trật khớp chỏm xương quay đơn độc do chấn thương, giúp bác sĩ lâm sàng hiểu rõ hơn về bệnh cảnh, cơ chế chấn thương và chiến lược điều trị cho một tổn thương hiếm gặp nhưng phức tạp. Đây là tài liệu quý giá để bổ sung kiến thức chuyên sâu.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Tiếp cận Chẩn đoán và Điều trị Chấn thương Khủy tay: Trật khớp và Tổn thương dây chằng.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các trường hợp chấn thương khủy tay phức tạp, bao gồm trật khớp chỏm xương quay đơn độc và các tổn thương dây chằng đi kèm. Học viên sẽ được trang bị kiến thức về kỹ thuật chẩn đoán nâng cao, phân tích hình ảnh và các phương pháp điều trị tiên tiến, từ nắn chỉnh không phẫu thuật đến các chỉ định phẫu thuật tái tạo, giúp nâng cao năng lực chuyên môn và xử trí ca bệnh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Khi thực hiện tái tạo dây chằng bên trụ ngoài (LUCL) bằng kỹ thuật docking, một bác sĩ phẫu thuật chỉnh hình cần chuẩn bị và chú ý đến những chi tiết kỹ thuật nào để đảm bảo thành công và tránh biến chứng?</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Kỹ thuật tái tạo dây chằng bên trụ ngoài (Lateral Ulnar Collateral Ligament - LUCL) bằng docking là một phương pháp hiệu quả để điều trị tình trạng mất vững xoay sau ngoài (Posterolateral Rotatory Instability - PLRI) của khớp khuỷu. Đối với một bác sĩ phẫu thuật chỉnh hình, đặc biệt là các bạn trẻ, việc nắm vững các chi tiết kỹ thuật là tối quan trọng:
+*   **Chỉ định phẫu thuật chính xác**: Chỉ định tái tạo LUCL khi có mất vững xoay sau ngoài mạn tính, thường là sau thất bại của điều trị bảo tồn hoặc các trường hợp chấn thương nặng ban đầu đã được sửa chữa nhưng không thành công. Việc chẩn đoán đúng PLRI là bước đầu tiên và quan trọng nhất.
+*   **Giải phẫu học khớp khuỷu**: Cần nắm vững giải phẫu các cấu trúc xương và dây chằng vùng khuỷu, đặc biệt là nguyên ủy và bám tận của LUCL. LUCL thường bám từ lồi cầu ngoài xương cánh tay (lateral epicondyle) đến diện bám tận của dây chằng vòng và phần trên mào cơ ngửa của xương trụ. Việc xác định các điểm đẳng trường (isometric points) để đặt đường hầm xương là cực kỳ quan trọng để đảm bảo sự ổn định của khớp trong suốt tầm vận động.
+*   **Lựa chọn mảnh ghép và chuẩn bị**: Có thể sử dụng mảnh ghép tự thân (autograft) như gân gan tay dài (palmaris longus), gân cơ thon (gracilis) hoặc gân cơ bán gân (semitendinosus). Chuẩn bị mảnh ghép đúng kích thước, thường là một dải gân dài khoảng 18-20cm, được gấp đôi để tạo thành hình chữ Y.
+*   **Kỹ thuật khoan đường hầm xương**: Đây là bước then chốt của kỹ thuật docking. Các đường hầm xương phải được khoan chính xác tại các điểm đẳng trường trên lồi cầu ngoài xương cánh tay và xương trụ. Đường hầm trên lồi cầu ngoài thường nằm ở trung tâm của lồi cầu ngoài, phía trước và hơi trên điểm nguyên ủy của gân cơ duỗi. Đường hầm trên xương trụ thường ở phần trên mào cơ ngửa. Đảm bảo các đường hầm đủ rộng để chứa mảnh ghép nhưng không quá lớn làm suy yếu xương.
+*   **Đưa mảnh ghép và cố định**: Mảnh ghép được luồn qua đường hầm trên xương cánh tay, sau đó hai đầu của mảnh ghép được luồn qua đường hầm trên xương trụ và cố định bằng vít chẹn (interference screw) hoặc nút chỉ (suture button). Việc căng mảnh ghép phải được thực hiện khi khuỷu tay gấp 30-70 độ và cẳng tay ở tư thế ngửa để tái tạo sự ổn định tốt nhất.
+*   **Kiểm tra độ vững**: Sau khi cố định mảnh ghép, cần kiểm tra kỹ độ vững của khớp khuỷu trong suốt tầm vận động để đảm bảo không còn mất vững xoay sau ngoài. Thực hiện một số nghiệm pháp stress để đánh giá độ bền của tái tạo.
+*   **Phục hồi chức năng sau mổ**: Đây là một phần không thể thiếu để đạt được kết quả lâm sàng tối ưu. Phác đồ phục hồi chức năng phải được cá thể hóa, thường bao gồm bất động ban đầu bằng nẹp trong tư thế gấp khuỷu và ngửa cẳng tay, sau đó là tập vận động nhẹ nhàng và tăng dần sức mạnh.
+Việc thực hiện cẩn thận từng bước và chú ý đến từng chi tiết sẽ giúp tối đa hóa cơ hội thành công của phẫu thuật tái tạo LUCL bằng kỹ thuật docking và giảm thiểu các biến chứng như cứng khớp, mất vững tái phát hoặc thất bại mảnh ghép.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>The docking technique for lateral ulnar collateral ligament reconstruction: surgical technique and clinical outcomes.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Bài viết này mô tả chi tiết kỹ thuật docking trong tái tạo dây chằng bên trụ ngoài và đánh giá kết quả lâm sàng. Đây là tài liệu tham khảo thiết yếu giúp các bác sĩ phẫu thuật nắm vững các bước kỹ thuật, hiểu rõ các yếu tố ảnh hưởng đến kết quả và tối ưu hóa phương pháp điều trị cho bệnh nhân bị mất vững khuỷu mạn tính.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Phẫu thuật Tái tạo Dây chằng Khuỷu tay: Các kỹ thuật hiện đại và thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Khóa học CME chuyên sâu này trang bị cho bác sĩ phẫu thuật chỉnh hình kiến thức và kỹ năng thực hành về các kỹ thuật tái tạo dây chằng khuỷu tay, bao gồm kỹ thuật docking cho LUCL. Học viên sẽ được học về giải phẫu ứng dụng, lựa chọn mảnh ghép, kỹ thuật khoan đường hầm chính xác và các phác đồ phục hồi chức năng sau mổ. Khóa học có thể bao gồm các buổi thực hành trên mô hình hoặc xác để nâng cao kỹ năng thực hành và hiểu biết về giải phẫu, chuẩn bị cho các ca phẫu thuật thực tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Các em sinh viên y khoa và bác sĩ trẻ cần hiểu gì về cơ chế hoạt động và tiềm năng của liệu pháp virus oncolytic, đặc biệt là sử dụng virus vắc-xin sởi và quai bị, trong điều trị ung thư?</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Các em sinh viên y khoa và bác sĩ trẻ thân mến, việc nắm vững cơ chế của các liệu pháp điều trị ung thư mới là vô cùng quan trọng. Liệu pháp virus oncolytic (OV) là một phương pháp đầy hứa hẹn, nơi các virus được biến đổi để nhân bản chọn lọc trong tế bào ung thư và tiêu diệt chúng, trong khi gần như không ảnh hưởng đến tế bào bình thường.
+**Để hiểu rõ hơn về OV, đặc biệt là với virus vắc-xin sởi (MeV) và quai bị (MuV), các em cần lưu ý các điểm sau:**
+1.  **Cơ chế tác động chọn lọc:** Các virus này được thiết kế hoặc tự nhiên có khả năng nhân lên hiệu quả hơn trong môi trường tế bào ung thư do các khiếm khuyết trong đường truyền tín hiệu chống virus của tế bào ung thư. Khi nhân lên, chúng gây phá hủy tế bào ung thư.
+2.  **Gây chết tế bào theo chương trình (Apoptosis):** Nghiên cứu cho thấy MeV và MuV gây ra hiện tượng apoptosis cho tế bào ung thư. Đây là một quá trình chết tế bào có kiểm soát, khác với hoại tử, giúp giảm phản ứng viêm và an toàn hơn cho cơ thể.
+3.  **Hình thành hợp bào (Syncytial formation) và tiêu hủy (Lysis):** Một đặc điểm nổi bật là các virus này khiến tế bào ung thư hình thành các hợp bào (các tế bào hợp nhất với nhau tạo thành một khối lớn đa nhân), sau đó hợp bào này bị tiêu hủy (lysis). Đây là một dấu hiệu trực tiếp của hoạt động oncolytic.
+4.  **Thay đổi hình thái tế bào:** Dưới kính hiển vi điện tử, các tế bào ung thư bị nhiễm virus cho thấy nhiều thay đổi hình thái đặc trưng như co rút, mất vi nhung mao, cô đặc chất nhiễm sắc, thay đổi đường viền nhân, phân mảnh nhân và xuất hiện các giọt lipid trong bào tương. Những thay đổi này là bằng chứng rõ ràng về sự tổn thương và chết của tế bào ung thư.
+5.  **Ưu điểm vượt trội:** So với các liệu pháp truyền thống, OV có nhiều lợi thế như giảm tác dụng phụ, khả năng áp dụng rộng rãi cho nhiều loại ung thư, và khả năng tự khuếch đại hoạt tính chống khối u bằng cách tạo ra nhiều virus điều trị hơn trong khối u. Điều này có nghĩa là một liều virus ban đầu có thể tạo ra hiệu ứng điều trị kéo dài hơn.
+**Lời khuyên cho các em:** Hãy luôn theo dõi các nghiên cứu mới về liệu pháp virus oncolytic. Hiểu rõ cơ chế phân tử sẽ giúp các em không chỉ áp dụng kiến thức mà còn đóng góp vào việc phát triển các phương pháp điều trị tiên tiến hơn trong tương lai.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cơ sở phân tử của liệu pháp virus oncolytic trong điều trị ung thư</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn sâu sắc về các con đường tín hiệu tế bào bị ảnh hưởng bởi virus oncolytic và cách chúng dẫn đến chết tế bào ung thư, rất cần thiết cho việc giảng dạy và học tập ở cấp độ chuyên sâu.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Liệu pháp gen và virus trong điều trị ung thư: Từ phòng thí nghiệm đến lâm sàng</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Khóa học này bao gồm các buổi giảng về lý thuyết, các nghiên cứu điển hình và các phiên thảo luận về ứng dụng lâm sàng của liệu pháp virus oncolytic và liệu pháp gen, giúp bác sĩ và sinh viên y khoa cập nhật những tiến bộ mới nhất.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Khi nghiên cứu hiệu quả của virus vắc-xin sởi và quai bị trên tế bào ung thư HT-29, những thay đổi hình thái cụ thể nào đã được quan sát, và các phương pháp nghiên cứu nào là cần thiết để xác định chúng? Các bác sĩ trẻ nên học hỏi gì từ cách tiếp cận này?</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ trẻ và sinh viên y khoa, trong nghiên cứu về liệu pháp virus oncolytic, việc quan sát chính xác các thay đổi ở cấp độ tế bào là vô cùng quan trọng để đánh giá hiệu quả. Đối với các tế bào ung thư ruột kết HT-29 khi bị nhiễm virus vắc-xin sởi (MeV) và quai bị (MuV), các nhà nghiên cứu đã ghi nhận những thay đổi đáng kể:
+*   **Hình thành hợp bào (Syncytial formation):** Đây là quá trình các tế bào ung thư hợp nhất với nhau, tạo thành các tế bào lớn với nhiều nhân. Đây là một dấu hiệu đặc trưng của tác động của virus, dẫn đến sự suy yếu và tiêu hủy tế bào.
+*   **Tiêu hủy tế bào (Lysis):** Sau khi hình thành hợp bào, các tế bào này sẽ bị phá vỡ, giải phóng các hạt virus mới và các yếu tố gây chết tế bào, tiếp tục tấn công các tế bào ung thư lân cận.
+*   **Thay đổi hình thái dưới kính hiển vi điện tử:** Khi kiểm tra lát cắt khối u HT-29 dưới kính hiển vi điện tử, các tế bào ung thư cho thấy:
+    *   **Co rút tế bào (shrinkage):** Tế bào trở nên nhỏ gọn hơn.
+    *   **Mất vi nhung mao (loss of microvilli):** Các cấu trúc nhỏ giống ngón tay trên bề mặt tế bào bị mất đi, thường liên quan đến chức năng hấp thu hoặc giao tiếp tế bào.
+    *   **Cô đặc chất nhiễm sắc (chromatin condensation):** Chất liệu di truyền trong nhân tế bào tập trung lại, là một dấu hiệu sớm của quá trình chết tế bào theo chương trình (apoptosis).
+    *   **Thay đổi đường viền nhân (changes of nuclear contours):** Hình dạng nhân tế bào bị biến đổi.
+    *   **Phân mảnh nhân (nuclear fragmentation):** Nhân tế bào bị vỡ thành nhiều mảnh nhỏ.
+    *   **Xuất hiện giọt lipid trong bào tương (getting lipid droplets in cell plasma):** Sự tích tụ các giọt mỡ trong bào tương, cho thấy sự rối loạn chuyển hóa tế bào.
+**Về phương pháp nghiên cứu, các em cần lưu ý:**
+*   **Kính hiển vi quang học (Light microscope):** Dùng để quan sát sự hình thành hợp bào, cung cấp cái nhìn tổng thể về phản ứng của tế bào.
+*   **Kính hiển vi điện tử (Electron microscope):** Rất cần thiết để quan sát chi tiết các thay đổi hình thái siêu cấu trúc (ultrastructural morphology) của tế bào ung thư, như mất vi nhung mao, cô đặc chất nhiễm sắc, phân mảnh nhân. Kỹ thuật này đòi hỏi sự tinh tế trong chuẩn bị mẫu và kinh nghiệm trong diễn giải hình ảnh.
+**Lời khuyên để cải thiện kinh nghiệm:** Khi đọc các bài báo nghiên cứu, hãy tập trung không chỉ vào kết quả mà còn vào phần 'Subjects and methodology' (Đối tượng và phương pháp). Điều này giúp các em hiểu cách thức dữ liệu được tạo ra, đánh giá độ tin cậy của nghiên cứu và học hỏi các kỹ thuật thực nghiệm. Việc tự mình thực hành các kỹ thuật kính hiển vi hoặc phân tích hình ảnh tế bào, dù ở cấp độ mô phỏng, cũng sẽ nâng cao đáng kể khả năng diễn giải và tư duy phản biện trong lĩnh vực nghiên cứu y khoa.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Atlas hình thái học tế bào ung thư dưới kính hiển vi điện tử</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Tài liệu tham khảo chuyên sâu với các hình ảnh và chú giải chi tiết về sự thay đổi hình thái học của các loại tế bào ung thư khác nhau dưới kính hiển vi điện tử, giúp sinh viên và bác sĩ lâm sàng nhận diện các dấu hiệu bệnh lý.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Phương pháp và kỹ thuật trong nghiên cứu ung thư tiền lâm sàng</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Khóa học này đào tạo về các phương pháp nghiên cứu ung thư từ cấp độ tế bào đến mô hình động vật, bao gồm kỹ thuật nuôi cấy tế bào, phân tích hình thái và đánh giá hiệu quả thuốc, nhằm chuẩn bị cho các nghiên cứu viên tương lai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Với dữ liệu an toàn đã được thiết lập của virus vắc-xin sởi và quai bị từ các chương trình tiêm chủng toàn cầu, đâu là triển vọng và thách thức trong việc ứng dụng chúng vào liệu pháp virus oncolytic, đặc biệt là với các chiến lược phối hợp? Sinh viên y khoa và bác sĩ trẻ nên định hướng nghiên cứu trong tương lai như thế nào?</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Các em sinh viên y khoa và bác sĩ trẻ thân mến, việc đánh giá tính an toàn và hiệu quả của một liệu pháp mới là vô cùng quan trọng trước khi ứng dụng lâm sàng. Đối với liệu pháp virus oncolytic sử dụng virus vắc-xin sởi (MeV) và quai bị (MuV), chúng ta có một nền tảng an toàn vững chắc từ các chương trình tiêm chủng toàn cầu đã thành công. Hơn 80% dân số thế giới hiện có miễn dịch với sởi và quai bị, đây là một điểm cộng lớn cho tính an toàn của phương pháp này.
+**Triển vọng và Thách thức:**
+*   **An toàn cao:** Các chương trình tiêm chủng MeV, MuV đã thiết lập dữ liệu an toàn trên toàn thế giới. Ngay cả trong trường hợp xấu nhất là virus vắc-xin suy yếu có thể quay trở lại chủng gây bệnh, nguy cơ lây truyền từ bệnh nhân sang người mang và sau đó vào cộng đồng là rất hạn chế do tỷ lệ miễn dịch cao trong dân số.
+*   **Tác dụng phụ thấp:** Nhiều thử nghiệm tiền lâm sàng và lâm sàng sử dụng MeV và MuV để điều trị các tế bào ung thư khác nhau cho thấy rất ít tác dụng phụ, làm tăng tính hấp dẫn của liệu pháp này.
+*   **Phổ ứng dụng rộng:** Các virus này đã được chứng minh là có hiệu quả trong điều trị nhiều loại ung thư như ung thư đại trực tràng (CRC), ung thư buồng trứng, u lympho tế bào T ở da.
+*   **Thách thức về nghiên cứu kết hợp:** Một điểm đáng chú ý từ bài báo là "cho đến nay, vẫn chưa có nghiên cứu nào đánh giá sự kết hợp của MeV và MuV chống lại ung thư đại trực tràng ở người." Đây chính là một lỗ hổng nghiên cứu quan trọng mà chúng ta cần tập trung giải quyết.
+**Định hướng nghiên cứu trong tương lai cho các em:**
+Để đóng góp vào lĩnh vực này, các em cần suy nghĩ một cách chiến lược:
+*   **Xác định khoảng trống kiến thức:** Như bài báo đã chỉ ra, việc thiếu nghiên cứu về kết hợp MeV và MuV trong CRC là một cơ hội. Các em cần học cách nhận diện những khoảng trống này trong các lĩnh vực khác để đề xuất các dự án nghiên cứu có ý nghĩa.
+*   **Tối ưu hóa liệu pháp kết hợp:** Tại sao việc kết hợp lại quan trọng? Liệu pháp kết hợp thường có thể tăng cường hiệu quả điều trị, giảm liều lượng virus đơn lẻ và ngăn ngừa sự kháng thuốc của tế bào ung thư. Các nghiên cứu tương lai cần tập trung vào liều lượng tối ưu, trình tự dùng thuốc và cơ chế hiệp đồng.
+*   **Phân tích sâu hơn về cơ chế:** Mặc dù biết virus gây ra apoptosis và thay đổi hình thái, nhưng chúng ta cần hiểu rõ hơn các con đường phân tử cụ thể bị kích hoạt hoặc ức chế khi hai loại virus này kết hợp.
+*   **Đánh giá đáp ứng miễn dịch:** Làm thế nào liệu pháp kết hợp ảnh hưởng đến phản ứng miễn dịch của vật chủ? Đây là yếu tố quan trọng ảnh hưởng đến hiệu quả lâu dài và an toàn.
+**So sánh Triển vọng và Nhu cầu Nghiên cứu:**
+| Đặc điểm                | Triển vọng Hiện tại                                   | Nhu cầu Nghiên cứu Tương lai                                       |
+| :---------------------- | :---------------------------------------------------- | :------------------------------------------------------------------ |
+| **An toàn**             | Đã được chứng minh qua tiêm chủng toàn cầu.           | Đánh giá an toàn lâu dài của liệu pháp kết hợp và khả năng biến đổi chủng. |
+| **Phạm vi áp dụng**     | Rộng rãi cho nhiều loại ung thư.                      | Mở rộng sang các loại ung thư khác, xác định bệnh nhân phù hợp nhất. |
+| **Cơ chế hoạt động**    | Gây apoptosis, hình thành hợp bào, thay đổi hình thái. | Làm rõ cơ chế hiệp đồng khi kết hợp MeV và MuV.                      |
+| **Chiến lược điều trị** | Liệu pháp đơn lẻ đã có kết quả.                      | Thử nghiệm lâm sàng về liệu pháp kết hợp MeV + MuV, tối ưu hóa liều lượng. |
+| **Miễn dịch chủ**       | Kích hoạt đáp ứng miễn dịch chống u.                  | Nghiên cứu tác động của liệu pháp kết hợp lên phản ứng miễn dịch. |
+Các em hãy luôn giữ tư duy phản biện và khao khát khám phá để trở thành những nhà khoa học và bác sĩ xuất sắc, đóng góp vào sự phát triển của y học hiện đại.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Các chiến lược phối hợp trong liệu pháp miễn dịch ung thư và liệu pháp virus oncolytic</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng hợp các cách tiếp cận để kết hợp các liệu pháp điều trị ung thư khác nhau nhằm tối đa hóa hiệu quả và giảm thiểu tác dụng phụ, là nguồn tham khảo quý giá cho việc thiết kế nghiên cứu lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Thiết kế và thực hiện thử nghiệm lâm sàng trong ung thư</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức toàn diện về quy trình thiết kế, tiến hành, và phân tích các thử nghiệm lâm sàng về ung thư, bao gồm các cân nhắc về đạo đức, an toàn và các điểm cuối nghiên cứu, rất quan trọng cho các bác sĩ và nghiên cứu viên.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Sinh viên y khoa nên hiểu rõ cơ chế hoạt động của virus gây ung thư (oncolytic virus) như thế nào để ứng dụng trong nghiên cứu và lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Chào bạn, để hiểu và ứng dụng cơ chế hoạt động của virus gây ung thư (oncolytic virus) trong nghiên cứu và lâm sàng, đặc biệt là virus sởi (MeV) và quai bị (MuV) như trong nghiên cứu này, bạn cần nắm vững các điểm cốt lõi sau:
+*   **Đặc tính chọn lọc của virus oncolytic:** Các virus oncolytic được thiết kế hoặc tự nhiên có khả năng ưu tiên nhân lên trong tế bào ung thư hơn là tế bào bình thường. Điều này thường do tế bào ung thư có các khiếm khuyết trong đường tín hiệu kháng virus interferon, cho phép virus nhân lên mạnh mẽ và gây chết tế bào. Bạn cần tìm hiểu về các con đường tín hiệu này để nhận diện được các loại ung thư tiềm năng có thể đáp ứng với liệu pháp virus.
+*   **Cơ chế gây chết tế bào trực tiếp (Direct Oncolysis):**
+    *   **Nhân lên và phá hủy tế bào:** Virus nhân lên bên trong tế bào ung thư, tích lũy đến một ngưỡng nhất định sẽ làm ly giải (phá vỡ) tế bào chủ, giải phóng các hạt virus mới để lây nhiễm các tế bào ung thư lân cận.
+    *   **Hình thành hợp bào (Syncytia formation):** Như được đề cập trong đoạn văn, MeV và MuV có khả năng gây ra sự hợp nhất màng tế bào giữa các tế bào ung thư bị nhiễm virus và các tế bào lân cận chưa bị nhiễm. Kết quả là hình thành các 'hợp bào' khổng lồ có nhiều nhân, làm gián đoạn chức năng tế bào và dẫn đến chết tế bào. Đây là một cơ chế đặc trưng và rất hiệu quả của Measles và Mumps virus. Khi quan sát dưới kính hiển vi, bạn sẽ thấy các tế bào co rút, bong tróc và hợp lại thành cụm lớn.
+*   **Kích hoạt đáp ứng miễn dịch chống ung thư:** Đây là một cơ chế quan trọng khác. Khi tế bào ung thư bị virus phá hủy, chúng giải phóng các kháng nguyên ung thư và các tín hiệu nguy hiểm (DAMPs) giúp 'cảnh báo' hệ miễn dịch. Điều này có thể kích hoạt một đáp ứng miễn dịch mạnh mẽ chống lại khối u, không chỉ tại vị trí tiêm virus mà còn ở các vị trí di căn khác.
+*   **Hiểu rõ các chủng virus:** Như trong nghiên cứu sử dụng chủng MeV-Edmonton và MuV-Urabe từ vaccine Priorix, việc lựa chọn chủng virus rất quan trọng. Các chủng vaccine thường an toàn và đã được làm suy yếu, nhưng vẫn giữ được khả năng gây chết tế bào ung thư. Tìm hiểu về các chủng khác nhau và đặc tính của chúng sẽ giúp bạn đánh giá tiềm năng lâm sàng.
+**Lời khuyên cho sinh viên y khoa và bác sĩ trẻ:**
+*   **Nghiên cứu cơ bản:** Đọc kỹ các bài báo khoa học về virus oncolytic, đặc biệt là các cơ chế phân tử liên quan đến tương tác virus-tế bào ung thư. Hiểu được các đường tín hiệu bị điều hòa xuống (downregulated) hoặc điều hòa lên (upregulated) trong tế bào ung thư mà virus lợi dụng.
+*   **Thực hành phòng thí nghiệm:** Nếu có cơ hội, tham gia vào các phòng thí nghiệm nghiên cứu in vitro hoặc in vivo về virus oncolytic để trực tiếp quan sát các hiện tượng như hình thành hợp bào, phân tích hình thái tế bào dưới kính hiển vi điện tử (như mô hình chuột nude trong bài viết).
+*   **Cập nhật lâm sàng:** Theo dõi các thử nghiệm lâm sàng đang diễn ra về liệu pháp virus oncolytic. Hiểu các thách thức trong việc đưa liệu pháp này từ phòng thí nghiệm ra bệnh viện, bao gồm các vấn đề về đường dùng, liều lượng, và các tác dụng phụ tiềm ẩn.
+*   **Tư duy phản biện:** Đánh giá các bằng chứng khoa học một cách kỹ lưỡng, nhận diện những điểm mạnh và hạn chế của từng phương pháp tiếp cận oncolytic virus.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cơ chế hoạt động của virus oncolytic trong điều trị ung thư: Tổng quan và triển vọng.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn tổng quan về cách các virus oncolytic (như virus sởi và quai bị) tương tác với tế bào ung thư, kích hoạt các con đường chết tế bào và hình thành hợp bào. Đây là kiến thức nền tảng giúp sinh viên y khoa và bác sĩ hiểu sâu hơn về liệu pháp virus trong ung thư, từ cơ chế phân tử đến ứng dụng tiền lâm sàng và lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Ứng dụng virus oncolytic trong điều trị ung thư: Từ phòng thí nghiệm đến lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ đi sâu vào các nghiên cứu tiền lâm sàng và thử nghiệm lâm sàng hiện tại về virus oncolytic, bao gồm cả kỹ thuật nuôi cấy tế bào, mô hình động vật và các thách thức trong việc đưa liệu pháp này vào thực hành lâm sàng. Khóa học được thiết kế để trang bị kiến thức chuyên sâu và kỹ năng đánh giá các liệu pháp tiên tiến, rất phù hợp cho các bác sĩ ung bướu, nhà nghiên cứu và sinh viên y khoa quan tâm đến miễn dịch liệu pháp và liệu pháp gen trong ung thư.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Khi thực hiện nghiên cứu in vitro trên dòng tế bào ung thư như HT-29, sinh viên y khoa cần lưu ý những nguyên tắc cơ bản nào để đảm bảo tính chính xác và tái lập của kết quả?</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc thực hiện nghiên cứu in vitro trên dòng tế bào ung thư đòi hỏi sự tỉ mỉ và tuân thủ nghiêm ngặt các nguyên tắc để đảm bảo độ chính xác và khả năng tái lập của kết quả. Đối với dòng tế bào HT-29 hay bất kỳ dòng tế bào nào khác, bạn cần đặc biệt chú ý đến các khía cạnh sau:
+1.  **Vô trùng tuyệt đối:** Đây là nguyên tắc vàng. Mọi thao tác từ chuẩn bị môi trường, thay môi trường đến cấy tế bào đều phải được thực hiện trong tủ an toàn sinh học (BSC) với kỹ thuật vô trùng. Nhiễm khuẩn dù nhỏ cũng có thể làm sai lệch kết quả hoặc phá hủy toàn bộ thí nghiệm.
+2.  **Xác minh dòng tế bào:** Luôn đảm bảo rằng dòng tế bào bạn đang sử dụng là dòng HT-29 chính xác, không bị nhiễm chéo bởi các dòng tế bào khác. Nguồn gốc của tế bào (ATCC như trong bài viết) rất quan trọng.
+3.  **Điều kiện nuôi cấy tối ưu:**
+    *   **Môi trường nuôi cấy:** Sử dụng môi trường phù hợp (ví dụ: DMEM/F-12 cho HT-29) bổ sung huyết thanh (FBS) và kháng sinh/kháng nấm theo khuyến cáo.
+    *   **Nhiệt độ và CO2:** Duy trì 37°C và 5% CO2 ổn định trong tủ ấm. Sự thay đổi dù nhỏ cũng ảnh hưởng đến pH môi trường và sự phát triển của tế bào.
+4.  **Mật độ tế bào và thời gian nuôi:**
+    *   Trong bài viết, các nhà nghiên cứu đã cấy 2x10^3 tế bào/ml vào đĩa 96 giếng và quan sát sau 7-10 ngày cho đến khi đạt độ hợp lưu &gt;90%. Việc kiểm soát mật độ ban đầu và theo dõi sự tăng trưởng là rất quan trọng để đảm bảo tế bào ở trạng thái sinh lý đồng nhất trước khi xử lý.
+    *   Thực hiện đếm tế bào bằng buồng đếm hồng cầu (haemocytometer chamber) một cách chính xác.
+5.  **Quan sát định kỳ:** Sử dụng kính hiển vi quang học để kiểm tra hình thái tế bào hàng ngày. Quan sát các dấu hiệu như tế bào co rút, bong tróc (như kết quả nhiễm virus trong bài viết), thay đổi màu sắc môi trường (chỉ thị pH), hoặc dấu hiệu nhiễm bẩn.
+Để tổng hợp lại, dưới đây là một số điểm cần lưu ý khi thực hành:
+| Khía cạnh thực hành | Mục tiêu cần đạt được | Sai sót thường gặp | Lời khuyên cho sinh viên/bác sĩ trẻ |
+| :----------------- | :------------------- | :----------------- | :--------------------------------- |
+| **Kỹ thuật vô trùng** | Ngăn ngừa nhiễm khuẩn | Nhiễm nấm, vi khuẩn, chéo tế bào | Luôn làm việc trong tủ BSC được vệ sinh kỹ lưỡng, sử dụng dụng cụ tiệt trùng, và rửa tay sạch. |
+| **Quản lý dòng tế bào** | Đảm bảo tính toàn vẹn và đặc tính | Lạc dòng, nhiễm chéo, thay đổi kiểu gen | Nguồn gốc rõ ràng (ATCC), thường xuyên kiểm tra kiểu gen, tránh để tế bào ở độ hợp lưu quá cao trong thời gian dài. |
+| **Kiểm soát môi trường** | Duy trì điều kiện sinh lý tối ưu | Biến động pH, nhiệt độ | Định kỳ kiểm tra và hiệu chuẩn tủ ấm, sử dụng môi trường mới, không hết hạn. |
+| **Đánh giá hình thái** | Phát hiện sớm thay đổi tế bào | Bỏ qua dấu hiệu bất thường | Quan sát tế bào hàng ngày dưới kính hiển vi, ghi chép chi tiết các thay đổi. |
+Việc thành thạo các kỹ năng cơ bản này sẽ là nền tảng vững chắc cho mọi nghiên cứu in vitro của bạn.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Kỹ thuật nuôi cấy tế bào ung thư HT-29 và ứng dụng trong nghiên cứu in vitro.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn chi tiết về các bước chuẩn bị, nuôi cấy, và quản lý dòng tế bào HT-29, một mô hình phổ biến trong nghiên cứu ung thư ruột kết. Nó giúp sinh viên y khoa và bác sĩ trẻ nắm vững các thao tác phòng thí nghiệm cơ bản và nâng cao để thực hiện nghiên cứu một cách hiệu quả và đảm bảo độ chính xác của dữ liệu.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Kỹ năng thực hành nuôi cấy tế bào và mô hình in vitro trong nghiên cứu ung thư.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành chuyên sâu về kỹ thuật nuôi cấy tế bào từ cơ bản đến nâng cao, bao gồm cả việc xử lý các dòng tế bào ung thư, thiết lập thử nghiệm in vitro, và phân tích kết quả. Khóa học nhấn mạnh vào việc tuân thủ các quy trình chuẩn (SOPs) và khắc phục sự cố thường gặp, rất hữu ích cho các nhà nghiên cứu trẻ và sinh viên y khoa muốn phát triển kỹ năng phòng thí nghiệm để tiến hành các nghiên cứu y sinh có giá trị.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu ung thư, việc sử dụng mô hình động vật (in vivo) như chuột nude để đánh giá hiệu quả điều trị có những ý nghĩa và thách thức gì mà bác sĩ trẻ cần lưu ý?</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc sử dụng mô hình động vật (in vivo) trong nghiên cứu ung thư, cụ thể là chuột nude như trong nghiên cứu này, đóng vai trò vô cùng quan trọng để chuyển tiếp từ kết quả in vitro sang ứng dụng lâm sàng. Tuy nhiên, nó cũng đi kèm với những ý nghĩa và thách thức mà bác sĩ trẻ cần phải nắm vững:
+**Ý nghĩa của mô hình động vật (In Vivo):**
+*   **Phản ánh môi trường vi mô phức tạp:** Khác với nuôi cấy tế bào in vitro, môi trường in vivo cung cấp một hệ thống phức tạp với các tế bào stromal, mạch máu, hệ miễn dịch (dù bị suy giảm ở chuột nude), và các yếu tố tăng trưởng khác. Điều này giúp đánh giá chân thực hơn về cách khối u phát triển, di căn và phản ứng với điều trị trong một bối cảnh gần với cơ thể sống.
+*   **Đánh giá dược động học và dược lực học:** Nghiên cứu trên động vật cho phép đánh giá cách thuốc hoặc tác nhân điều trị (như virus oncolytic) được hấp thu, phân bố, chuyển hóa và thải trừ trong cơ thể, cũng như tác dụng của chúng lên khối u và các cơ quan khác.
+*   **Phát hiện tác dụng phụ:** Mô hình in vivo có thể bộc lộ các tác dụng phụ toàn thân hoặc độc tính mà nghiên cứu in vitro không thể phát hiện được.
+*   **Nghiên cứu hình thái học sâu hơn:** Như bài viết đã đề cập, việc cấy ghép khối u vào chuột nude và sau đó lấy khối u ra để phân tích hình thái bằng kính hiển vi điện tử truyền qua (TEM) cho phép quan sát chi tiết sự thay đổi cấu trúc của tế bào ung thư và mô khối u sau điều trị, cung cấp bằng chứng trực quan về cơ chế tác dụng.
+**Thách thức và lưu ý cho bác sĩ trẻ:**
+*   **Đạo đức nghiên cứu:** Việc sử dụng động vật trong nghiên cứu phải tuân thủ nghiêm ngặt các nguyên tắc đạo đức. Bạn cần hiểu rõ và tuân thủ các quy định về chăm sóc, sử dụng động vật thí nghiệm (ví dụ: nguyên tắc 3R - Replace, Reduce, Refine) để đảm bảo phúc lợi động vật và tính hợp pháp của nghiên cứu.
+*   **Chi phí và thời gian:** Nghiên cứu in vivo thường tốn kém và mất nhiều thời gian hơn đáng kể so với in vitro, từ việc duy trì đàn động vật, thực hiện các thủ thuật, đến phân tích dữ liệu phức tạp.
+*   **Tính đại diện:** Mặc dù mô hình động vật tốt hơn in vitro, nhưng chúng vẫn không hoàn toàn giống với cơ thể người. Chuột nude thiếu hệ miễn dịch tế bào T trưởng thành, điều này có thể ảnh hưởng đến kết quả khi đánh giá liệu pháp miễn dịch hoặc virus oncolytic.
+*   **Thống kê và cỡ mẫu:** Cần thiết kế thí nghiệm cẩn thận với cỡ mẫu phù hợp để đảm bảo kết quả có ý nghĩa thống kê. Việc phân tích kết quả đòi hỏi kiến thức về thống kê sinh học.
+*   **Kỹ năng thực hành:** Thực hiện các thủ thuật trên động vật (tiêm tế bào, tiêm virus, đo kích thước khối u, mổ lấy mô) đòi hỏi kỹ năng khéo léo và được đào tạo bài bản.
+*   **Giải thích và ngoại suy kết quả:** Kết quả từ mô hình chuột cần được giải thích thận trọng. Việc ngoại suy các phát hiện từ chuột sang người phải được thực hiện một cách có cơ sở khoa học và thường yêu cầu các thử nghiệm lâm sàng tiếp theo.
+**Khuyến nghị:** Đối với sinh viên và bác sĩ trẻ, việc tham gia vào các khóa đào tạo về đạo đức nghiên cứu động vật, kỹ năng thực hành phòng thí nghiệm in vivo, và tư duy phản biện khi đọc các nghiên cứu sử dụng mô hình động vật là cực kỳ quan trọng để phát triển năng lực nghiên cứu khoa học y học vững chắc.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Mô hình động vật trong nghiên cứu ung thư: Từ nguyên lý đến thực hành và các vấn đề đạo đức.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn toàn diện về các mô hình động vật phổ biến trong nghiên cứu ung thư, đặc biệt là chuột nude. Nó giải thích cách thiết lập, quản lý và đánh giá kết quả từ các mô hình này, đồng thời đi sâu vào các khía cạnh đạo đức và quy định pháp luật liên quan, giúp các bác sĩ và nhà nghiên cứu hiểu rõ hơn về giá trị và hạn chế của nghiên cứu in vivo.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Đạo đức và Thực hành tốt trong Nghiên cứu Động vật (GLP for Animal Studies).</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các nguyên tắc đạo đức, quy định pháp luật và các phương pháp thực hành tốt (GLP) khi sử dụng động vật trong nghiên cứu y sinh. Đặc biệt nhấn mạnh vào việc thiết kế thí nghiệm hợp lý, giảm thiểu đau đớn cho động vật và đảm bảo tính khoa học của kết quả. Đây là khóa học bắt buộc và rất cần thiết cho bất kỳ ai tham gia vào nghiên cứu in vivo, giúp học viên phát triển tư duy nghiên cứu có trách nhiệm và chuyên nghiệp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên kiến thức y học chính thống và các hướng dẫn y tế hiện hành.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, xin giải thích về hiện tượng tạo syncytium trong nhiễm virus sởi (MeV) và quai bị (MuV) và ý nghĩa bệnh học của nó? Sinh viên y khoa cần lưu ý gì khi quan sát và nghiên cứu hiện tượng này để hiểu rõ hơn về cơ chế gây bệnh?</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng trong virology và bệnh học. Hiện tượng tạo syncytium là một cơ chế gây bệnh độc đáo của một số loại virus, trong đó có virus sởi (MeV) và quai bị (MuV).
+*   **Định nghĩa Syncytium:** Syncytium (hay hợp bào) là một khối tế bào lớn được hình thành từ sự hợp nhất của nhiều tế bào riêng lẻ, tạo thành một cấu trúc đa nhân. Hiện tượng này thường được quan sát thấy trong nhiễm một số loại virus có khả năng thay đổi màng tế bào chủ.
+*   **Cơ chế hình thành ở MeV và MuV:** Các virus thuộc họ Paramyxoviridae như sởi (MeV) và quai bị (MuV) sử dụng các protein bề mặt của chúng (đặc biệt là protein dung hợp, hay fusion protein) để liên kết với thụ thể trên màng tế bào chủ và gây ra sự dung hợp giữa màng của tế bào bị nhiễm với màng của các tế bào lành lặn lân cận. Quá trình này tạo thành các syncytium lớn, như quan sát thấy trong đoạn văn, đặc biệt rõ rệt từ ngày thứ 4 đến thứ 6 sau nhiễm trùng.
+*   **Ý nghĩa bệnh học quan trọng:**
+    *   **Lan truyền virus hiệu quả:** Syncytium cho phép virus lây lan trực tiếp từ tế bào bị nhiễm sang tế bào lành mà không cần thoát ra môi trường ngoại bào. Điều này giúp virus trốn tránh sự phát hiện và vô hiệu hóa của kháng thể trong dịch thể của vật chủ, từ đó thúc đẩy sự lây lan nhanh chóng trong mô.
+    *   **Gây tổn thương mô và bệnh lý:** Sự hình thành syncytium có thể gây phá hủy chức năng tế bào nghiêm trọng, làm biến đổi kiến trúc mô và dẫn đến các biểu hiện lâm sàng của bệnh. Ví dụ, trong nhiễm sởi, syncytium xuất hiện ở các cơ quan như phổi, não, góp phần vào viêm phổi kẽ do sởi và các biến chứng thần kinh.
+    *   **Tác động đến phản ứng miễn dịch:** Mặc dù giúp virus trốn tránh kháng thể, syncytium vẫn có thể kích hoạt phản ứng miễn dịch tế bào (tế bào T độc), nhưng thường quá trình này kém hiệu quả hơn trong việc loại bỏ hoàn toàn virus do sự lan truyền trực tiếp.
+*   **Lời khuyên cho sinh viên y khoa và bác sĩ trẻ khi nghiên cứu hiện tượng này:**
+    *   **Quan sát chi tiết hình thái:** Khi thực hiện nghiên cứu *in vitro*, hãy chú ý quan sát sự thay đổi hình thái tế bào theo thời gian một cách tỉ mỉ (như đoạn văn mô tả sự mở rộng syncytia từ ngày 4 đến ngày 6). Ghi nhận kích thước, số lượng nhân trong mỗi syncytium và mức độ phá hủy tế bào xung quanh.
+    *   **Liên hệ lâm sàng – bệnh lý:** Luôn cố gắng liên hệ các quan sát *in vitro* về syncytium với các biểu hiện bệnh lý *in vivo*. Chẳng hạn, sự hình thành syncytium giải thích tại sao virus sởi lại gây tổn thương lan rộng ở nhiều cơ quan và tại sao bệnh sởi lại có thể gây suy giảm miễn dịch tạm thời.
+    *   **Hiểu rõ cơ chế phân tử:** Nắm vững các protein virus liên quan đến sự dung hợp màng tế bào là chìa khóa để hiểu sâu hơn về cơ chế bệnh sinh và là mục tiêu tiềm năng để phát triển các loại thuốc kháng virus nhắm vào việc ức chế sự hình thành syncytium.
+    *   **Kết hợp các kỹ thuật:** Để đánh giá đầy đủ, cần kết hợp quan sát hình thái với các kỹ thuật khác như miễn dịch huỳnh quang (để phát hiện protein virus trong syncytium), PCR (để định lượng tải lượng virus) và đo lường khả năng sống của tế bào để có cái nhìn toàn diện về tác động của virus.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên kiến thức y học chính thống và các hướng dẫn y tế hiện hành.</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Trong các thí nghiệm *in vitro* về nhiễm virus như trên, việc quan sát các thay đổi hình thái tế bào theo chương trình chết tế bào (apoptosis) như co nhân, phân mảnh nhân, và hoại tử tế bào có ý nghĩa quan trọng như thế nào đối với việc hiểu cơ chế bệnh sinh của virus? Bác sĩ trẻ cần phân biệt rõ ràng giữa apoptosis và necrosis khi phân tích mẫu mô bệnh phẩm trong bối cảnh lâm sàng để đưa ra chẩn đoán và điều trị chính xác.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Việc quan sát các thay đổi hình thái tế bào liên quan đến chết tế bào là một khía cạnh cốt lõi trong nghiên cứu bệnh học virus và có ý nghĩa sâu sắc đối với các bác sĩ trẻ trong thực hành lâm sàng.
+*   **Ý nghĩa của việc quan sát chết tế bào trong nhiễm virus:**
+    *   **Lộ trình cơ chế bệnh sinh:** Các thay đổi hình thái tế bào như co nhân (shrank nuclei), tế bào co rút (shrank cells), tế bào bong tróc (detached cells), phân mảnh nhân (nucleus fragmentation) và hoại tử tế bào (cell necrosis) là những dấu hiệu rõ ràng của các quá trình chết tế bào được cảm ứng bởi virus hoặc phản ứng của tế bào chủ. Virus có thể chủ động kích hoạt apoptosis để tạo điều kiện thuận lợi cho sự nhân lên hoặc để trốn tránh phản ứng miễn dịch. Ngược lại, tổn thương tế bào trực tiếp do virus hoặc phản ứng quá mức của vật chủ có thể dẫn đến hoại tử.
+    *   **Hiểu biết về phản ứng vật chủ:** Apoptosis thường được xem là một cơ chế bảo vệ của vật chủ để loại bỏ các tế bào bị nhiễm virus, ngăn chặn sự lây lan của virus. Tuy nhiên, một số virus đã tiến hóa để kiểm soát hoặc ức chế apoptosis để kéo dài thời gian sống của tế bào bị nhiễm, tối đa hóa quá trình nhân lên của chúng.
+    *   **Hướng phát triển liệu pháp:** Hiểu rõ cơ chế chết tế bào do virus gây ra giúp định hướng phát triển các liệu pháp kháng virus nhắm vào việc điều hòa các con đường chết tế bào này, nhằm mục đích bảo vệ tế bào chủ hoặc loại bỏ tế bào bị nhiễm.
+*   **Phân biệt Apoptosis và Necrosis cho bác sĩ trẻ:**
+    Là một bác sĩ trẻ, việc phân biệt giữa apoptosis (chết tế bào theo chương trình) và necrosis (hoại tử) trong mẫu bệnh phẩm là tối quan trọng, vì chúng phản ánh các cơ chế bệnh lý khác nhau và có ý nghĩa lâm sàng riêng biệt trong việc chẩn đoán và tiên lượng. Apoptosis là một quá trình chủ động, có kiểm soát, thường không gây viêm đáng kể. Ngược lại, necrosis là một quá trình chết tế bào không kiểm soát được, thường do tổn thương tế bào nghiêm trọng và luôn đi kèm với phản ứng viêm.
+    **Bảng so sánh đặc điểm của Apoptosis và Necrosis dưới kính hiển vi:**
+    | Đặc điểm           | Apoptosis (Chết tế bào theo chương trình)                                   | Necrosis (Hoại tử)                                                               |
+    | :----------------- | :------------------------------------------------------------------------- | :------------------------------------------------------------------------------- |
+    | **Kích thước tế bào** | Co rút (shrank cells), giảm thể tích.                                        | Phình to (swelling), sau đó vỡ ra.                                              |
+    | **Màng tế bào**   | Duy trì tính toàn vẹn ban đầu, sau đó hình thành các túi phồng (blebs), được thực bào.
+| Mất tính toàn vẹn sớm, rách, giải phóng các chất bên trong.                        |
+    | **Nhân tế bào**     | Co nhân (pyknosis), phân mảnh nhân (karyorrhexis) thành các thể apoptotic, không gây viêm.
+| Vỡ nhân (karyolysis), nhân tan rã hoặc co nhân rồi tan rã.                       |
+    | **Bào tương**      | Cô đặc, các bào quan còn nguyên vẹn, được đóng gói vào các thể apoptotic.   | Phình to, bào quan bị phá hủy và tiêu hủy.                                        |
+    | **Phản ứng viêm** | Không có hoặc rất ít, các thể apoptotic được thực bào.                    | Luôn có phản ứng viêm mạnh mẽ tại vị trí hoại tử.                                 |
+    | **Nguyên nhân**    | Tín hiệu nội tại hoặc ngoại tại có kiểm soát (ví dụ: virus, tế bào T độc, tổn thương DNA).| Tổn thương tế bào cấp tính (ví dụ: thiếu oxy, độc tố, chấn thương, nhiễm trùng nặng).
+|
+    Khi phân tích mẫu bệnh phẩm, bác sĩ trẻ cần:
+    *   **Quan sát kỹ lưỡng:** Sử dụng kính hiển vi quang học để tìm kiếm các dấu hiệu hình thái đặc trưng đã nêu. Ví dụ, sự hiện diện của các thể apoptotic nhỏ, có màng bao bọc khác biệt rõ rệt so với tình trạng tế bào sưng phù và vỡ nát trong hoại tử.
+    *   **Sử dụng kỹ thuật bổ trợ:** Ngoài nhuộm H&amp;E thông thường, các kỹ thuật như nhuộm TUNEL (Terminal deoxynucleotidyl transferase dUTP Nick End Labeling) có thể đặc hiệu hơn trong việc phát hiện apoptosis bằng cách phát hiện các đầu DNA bị đứt gãy. Hóa mô miễn dịch cũng có thể giúp xác định các protein liên quan đến các con đường chết tế bào.
+    *   **Liên hệ với bệnh cảnh lâm sàng:** Khi nhìn thấy các dấu hiệu hoại tử, bác sĩ cần tìm kiếm nguyên nhân gây tổn thương cấp tính (ví dụ: nhồi máu cơ tim, viêm tụy hoại tử, nhiễm trùng huyết). Ngược lại, apoptosis có thể gợi ý một quá trình bệnh lý tinh vi hơn (ví dụ: bệnh tự miễn, bệnh thoái hóa thần kinh, nhiễm virus mạn tính) hoặc là phản ứng lành tính của cơ thể.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên kiến thức y học chính thống và các hướng dẫn y tế hiện hành.</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Khi tiến hành các nghiên cứu *in vitro* về tương tác virus-tế bào như trong đoạn văn, sinh viên y khoa và các nhà nghiên cứu trẻ cần lưu ý những nguyên tắc cơ bản nào để đảm bảo tính tin cậy và khách quan của kết quả? Cần trang bị những kiến thức và kỹ năng gì để thực hiện quan sát kính hiển vi hiệu quả và phân tích dữ liệu một cách khoa học?</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc thực hiện nghiên cứu *in vitro* một cách khoa học và chính xác là nền tảng để có được những kết quả đáng tin cậy. Dưới đây là những nguyên tắc cơ bản và kiến thức kỹ năng cần thiết mà sinh viên y khoa và các nhà nghiên cứu trẻ cần lưu ý:
+*   **Nguyên tắc cơ bản để đảm bảo tính tin cậy và khách quan của nghiên cứu *in vitro*:**
+    *   **Chuẩn hóa quy trình (Standardization):** Mọi bước từ nuôi cấy tế bào, chuẩn bị virus, xử lý mẫu, cho đến thời gian ủ và điều kiện thí nghiệm đều phải được chuẩn hóa và lặp lại nhất quán. Sai lệch dù nhỏ cũng có thể dẫn đến kết quả không đáng tin cậy. Hãy ghi chép chi tiết từng bước trong sổ tay thí nghiệm.
+    *   **Sử dụng các đối chứng phù hợp (Appropriate Controls):** Luôn phải có các nhóm đối chứng âm (ví dụ: tế bào không nhiễm virus) và đối chứng dương (nếu có, ví dụ: chất gây cảm ứng apoptosis đã biết) để xác nhận hiệu quả của thí nghiệm, loại trừ các yếu tố nhiễu và chứng minh tính đặc hiệu của quan sát.
+    *   **Tính lặp lại và Kích thước mẫu (Replicability &amp; Sample Size):** Thực hiện thí nghiệm nhiều lần (thông thường ít nhất 3 lần độc lập, mỗi lần có nhiều mẫu lặp lại) để đảm bảo kết quả là đáng tin cậy và không phải do ngẫu nhiên. Điều này củng cố ý nghĩa thống kê của dữ liệu.
+    *   **Tránh sai lệch chủ quan (Bias Avoidance):** Trong quá trình quan sát và phân tích dữ liệu, người thực hiện nên được "làm mù" (blinded) về nhóm mẫu nếu có thể, để tránh sai lệch do kỳ vọng chủ quan ảnh hưởng đến kết quả.
+    *   **Ghi chép và lưu trữ dữ liệu chi tiết:** Mọi thay đổi, quan sát, và điều chỉnh trong quá trình thí nghiệm cần được ghi chép cẩn thận và có hệ thống. Các hình ảnh (như Figure 1, Figure 2 trong đoạn văn) cần được chú thích rõ ràng, bao gồm thông tin về độ phóng đại, loại tế bào, thời gian sau nhiễm.
+*   **Kiến thức và kỹ năng cần trang bị cho quan sát kính hiển vi hiệu quả và phân tích dữ liệu khoa học:**
+    *   **Kiến thức nền tảng về sinh học tế bào và virus học:** Nắm vững hình thái bình thường của các loại tế bào đang nghiên cứu (ví dụ: tế bào HT-29) và chu trình sống của virus để dễ dàng nhận diện các thay đổi bệnh lý do virus gây ra.
+    *   **Kỹ năng sử dụng kính hiển vi thành thạo:** Thành thạo các loại kính hiển vi (quang học, huỳnh quang), biết cách điều chỉnh độ phóng đại, lấy nét, chiếu sáng (ví dụ: kỹ thuật chiếu sáng Koehler), và sử dụng các kỹ thuật nhuộm (ví dụ: H&amp;E, Giemsa, DAPI) để làm nổi bật các cấu trúc tế bào và nhân quan trọng.
+    *   **Kỹ năng quan sát chi tiết và phân biệt:** Rèn luyện khả năng nhận diện các dấu hiệu tinh tế của chết tế bào (co nhân, phân mảnh nhân, tạo thể apoptotic, các thể syncytia) và phân biệt chúng với các hiện tượng khác (ví dụ: tế bào đang phân chia, mảnh vụn tế bào không liên quan, các vật thể lạ).
+    *   **Kỹ năng chụp và xử lý ảnh khoa học:** Biết cách chụp ảnh kính hiển vi chất lượng cao, sử dụng phần mềm để chú thích, đo lường và xử lý ảnh một cách trung thực, không làm sai lệch thông tin.
+    *   **Phân tích định lượng và thống kê:** Ngoài quan sát định tính, cần học cách định lượng các chỉ số (ví dụ: tỷ lệ tế bào bị nhiễm, số lượng syncytia trung bình, tỷ lệ tế bào chết) bằng các phương pháp khách quan và áp dụng các công cụ thống kê phù hợp để đưa ra kết luận có ý nghĩa khoa học.
+**Lời khuyên cuối cùng:** Hãy coi mỗi thí nghiệm là một cơ hội để rèn luyện tư duy phản biện. Luôn đặt câu hỏi "Tại sao lại như vậy?" và "Ý nghĩa lâm sàng hoặc sinh học của điều này là gì?" khi quan sát và phân tích kết quả. Đừng ngần ngại tìm kiếm lời khuyên từ các chuyên gia và học hỏi từ những người đi trước.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ trẻ và sinh viên y khoa trong học tập và thực hành.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Khi phân tích hình thái siêu cấu trúc của tế bào khối u HT-29 dưới kính hiển vi điện tử, bác sĩ và sinh viên y khoa cần chú ý đến những đặc điểm nào để xác định tình trạng bình thường so với các thay đổi sớm do tác động của virus?</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Để phân biệt tế bào khối u HT-29 bình thường với tế bào bị ảnh hưởng bởi virus, các bác sĩ trẻ và sinh viên y khoa cần tập trung vào những điểm khác biệt siêu cấu trúc cơ bản. Việc nắm vững những đặc điểm này là nền tảng quan trọng trong chẩn đoán và nghiên cứu:
+*   **Đặc điểm tế bào HT-29 bình thường:**
+    *   **Liên kết tế bào:** Các tế bào xếp gần nhau, tạo thành cấu trúc chặt chẽ.
+    *   **Vi nhung mao (Microvilli):** Màng tế bào có nhiều vi nhung mao nguyên vẹn, đây là dấu hiệu của chức năng hấp thu và tương tác bề mặt bình thường.
+    *   **Bào quan (Organelles):** Các bào quan như ty thể, lưới nội chất, bộ Golgi nguyên vẹn, không có dấu hiệu sưng phồng, vỡ hoặc thay đổi cấu trúc.
+    *   **Nhân (Nucleus) và chất nhiễm sắc (Chromatin):** Nhân có hình dạng bình thường, màng nhân nguyên vẹn. Chất nhiễm sắc phân bố đồng đều, không có hiện tượng co đặc bất thường.
+*   **Đặc điểm tế bào HT-29 bị ảnh hưởng bởi virus (giai đoạn sớm):**
+    *   **Co đặc chất nhiễm sắc (Chromatin condensation):** Đây là một trong những dấu hiệu sớm nhất của quá trình chết tế bào theo chương trình (apoptosis). Chất nhiễm sắc bắt đầu co cụm lại, thường ở dưới màng nhân.
+    *   **Thay đổi đường viền nhân (Changes of nuclear contours):** Màng nhân có thể bắt đầu bị lõm vào hoặc biến dạng, khác với hình dạng tròn đều của nhân bình thường.
+    *   **Mất vi nhung mao (Loss of microvilli):** Vi nhung mao trên bề mặt tế bào bắt đầu giảm số lượng hoặc biến mất, cho thấy sự suy giảm chức năng màng tế bào.
+    *   **Xuất hiện các giọt lipid (Appearance of lipid droplets):** Sự tích tụ các giọt lipid trong bào tương có thể là dấu hiệu của rối loạn chuyển hóa do tổn thương tế bào.
+**Hướng dẫn cải thiện và học hỏi kinh nghiệm:**
+*   **Thực hành quan sát:** Tích cực xem xét các hình ảnh kính hiển vi điện tử của cả tế bào khỏe mạnh và tế bào bệnh lý. So sánh trực tiếp để rèn luyện khả năng nhận diện.
+*   **Liên hệ lâm sàng:** Tìm hiểu cách các thay đổi siêu cấu trúc này tương quan với các bệnh lý cụ thể hoặc hiệu quả điều trị. Ví dụ, sự co đặc chất nhiễm sắc có thể là dấu hiệu sớm của đáp ứng với hóa trị liệu hoặc liệu pháp virus.
+*   **Tham khảo atlas:** Sử dụng các atlas mô học và bệnh học điện tử để củng cố kiến thức về hình thái học tế bào ở mức siêu cấu trúc.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ trẻ và sinh viên y khoa trong học tập và thực hành.</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Làm thế nào để phân biệt giữa quá trình tế bào chết theo chương trình (apoptosis) và hoại tử (necrosis) dựa trên các thay đổi hình thái siêu cấu trúc được mô tả ở tế bào khối u HT-29, và ý nghĩa lâm sàng của sự phân biệt này là gì?</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Việc phân biệt giữa apoptosis và necrosis là cực kỳ quan trọng trong y học, đặc biệt trong ung thư học, bởi vì chúng đại diện cho các con đường tế bào chết khác nhau với ý nghĩa sinh học và lâm sàng riêng biệt. Dựa trên các quan sát siêu cấu trúc, chúng ta có thể phân biệt rõ ràng:
+**Bảng: So sánh Apoptosis và Necrosis dựa trên Hình thái siêu cấu trúc**
+| Đặc điểm siêu cấu trúc | Apoptosis (Chết theo chương trình)                                  | Necrosis (Hoại tử)                                                              |
+| :-------------------- | :------------------------------------------------------------------ | :------------------------------------------------------------------------------ |
+| Kích thước tế bào     | Co rút (Cell shrinkage)                                             | Sưng phồng (Cell swelling)                                                      |
+| Màng tế bào           | Nguyên vẹn ban đầu, sau đó phồng rộp (blebbing), hình thành thể apoptotic (apoptotic bodies) | Vỡ, mất tính toàn vẹn (Cell lysis)                                              |
+| Vi nhung mao          | Mất đi (Loss of microvilli)                                         | Thường không có thay đổi đặc hiệu hoặc bị phá hủy cùng màng tế bào               |
+| Nhân                  | Co đặc chất nhiễm sắc, phân mảnh nhân (nuclear fragmentation), thay đổi đường viền nhân | Nhân sưng phồng, vỡ (karyolysis), hoặc co nhỏ đặc lại (pyknosis), sau đó tan rã (karyorrhexis) |
+| Bào quan              | Nguyên vẹn ban đầu, sau đó đóng gói trong thể apoptotic             | Sưng phồng, vỡ, tan rã (ví dụ: ty thể sưng, vỡ màng)                             |
+| Giọt lipid            | Xuất hiện trong bào tương (Appearance of lipid droplets)             | Có thể xuất hiện nhưng không đặc hiệu như apoptosis, thường do rối loạn chuyển hóa nặng |
+| Phản ứng viêm         | Không có hoặc rất ít, các thể apoptotic được thực bào nhanh chóng   | Luôn có phản ứng viêm mạnh mẽ                                                   |
+**Ý nghĩa lâm sàng của sự phân biệt:**
+1.  **Chẩn đoán và tiên lượng:** Apoptosis thường là một quá trình được kiểm soát và có lợi (ví dụ, đáp ứng với hóa trị), trong khi necrosis là dấu hiệu của tổn thương tế bào không kiểm soát và thường liên quan đến tình trạng bệnh lý nặng (ví dụ, nhồi máu cơ tim, đột quỵ, hoặc ung thư giai đoạn tiến triển).
+2.  **Đánh giá hiệu quả điều trị:** Nhiều liệu pháp điều trị ung thư (ví dụ, hóa trị, xạ trị, liệu pháp đích) hoạt động bằng cách cảm ứng apoptosis trong tế bào ung thư. Việc phát hiện các dấu hiệu siêu cấu trúc của apoptosis có thể giúp đánh giá sớm hiệu quả của liệu pháp.
+3.  **Nghiên cứu và phát triển thuốc:** Hiểu rõ con đường tế bào chết nào đang diễn ra giúp các nhà nghiên cứu phát triển các loại thuốc mới có khả năng kích hoạt apoptosis một cách chọn lọc trong tế bào ung thư, hoặc ngăn chặn necrosis trong các bệnh lý tổn thương mô.
+**Lời khuyên cho bác sĩ và sinh viên:**
+*   **Học sâu về cơ chế:** Không chỉ nhận diện hình thái, mà còn cần hiểu các con đường tín hiệu phân tử dẫn đến apoptosis và necrosis. Điều này giúp bạn giải thích tại sao các thay đổi siêu cấu trúc lại diễn ra.
+*   **Kết hợp nhiều phương pháp:** Kính hiển vi điện tử cung cấp cái nhìn chi tiết về siêu cấu trúc, nhưng nên kết hợp với các phương pháp khác như miễn dịch hóa mô (để phát hiện các protein liên quan đến apoptosis/necrosis như caspase, PARP), hoặc các xét nghiệm chức năng tế bào để có cái nhìn toàn diện hơn.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ trẻ và sinh viên y khoa trong học tập và thực hành.</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Đối với các bác sĩ và nhà nghiên cứu, việc hiểu rõ sự thay đổi siêu cấu trúc tế bào HT-29 sau điều trị bằng virus có ý nghĩa thực tiễn như thế nào trong việc phát triển liệu pháp kháng ung thư và đánh giá hiệu quả điều trị?</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Việc nghiên cứu và hiểu sâu sắc các thay đổi siêu cấu trúc tế bào khối u HT-29 (hay bất kỳ dòng tế bào ung thư nào khác) sau khi tiếp xúc với virus không chỉ là một công trình khoa học mà còn có ý nghĩa thực tiễn sâu rộng trong y học, đặc biệt là trong lĩnh vực ung thư học. Đối với các bác sĩ và nhà nghiên cứu, đây là những điểm cốt lõi:
+*   **Đánh giá cơ chế tác động của virus:** Quan sát các thay đổi siêu cấu trúc cho phép xác định liệu virus có đang gây ra apoptosis, necrosis hay các hình thức chết tế bào khác. Ví dụ, sự xuất hiện của thể apoptotic chứng tỏ virus đang kích hoạt quá trình chết tế bào theo chương trình. Thông tin này vô cùng quan trọng để hiểu rõ cách thức virus oncolytic tiêu diệt tế bào ung thư.
+*   **Phát triển liệu pháp virus oncolytic:** Khi một virus được thiết kế để điều trị ung thư (virus oncolytic), việc xác định chính xác các thay đổi siêu cấu trúc giúp đánh giá hiệu quả và độ đặc hiệu của virus đó đối với tế bào ung thư. Nó cung cấp bằng chứng trực quan về khả năng tiêu diệt khối u ở cấp độ tế bào.
+*   **Tìm kiếm dấu ấn sinh học (biomarkers) mới:** Các thay đổi đặc trưng ở siêu cấu trúc (ví dụ: mất vi nhung mao, giọt lipid, ngưng tụ chromatin) có thể được nghiên cứu như những dấu ấn sinh học tiềm năng để theo dõi đáp ứng điều trị hoặc tiên lượng bệnh. Mặc dù kính hiển vi điện tử không phải là phương pháp sàng lọc hàng loạt, nó giúp xác định các dấu hiệu cần được nghiên cứu sâu hơn bằng các phương pháp khác dễ áp dụng lâm sàng hơn.
+*   **Tối ưu hóa phác đồ điều trị:** Nếu một liệu pháp virus oncolytic gây ra nhiều necrosis hơn apoptosis ở nồng độ cao, điều này có thể dẫn đến phản ứng viêm không mong muốn. Ngược lại, việc thúc đẩy apoptosis có thể an toàn và hiệu quả hơn. Hiểu biết này giúp tinh chỉnh liều lượng và cách thức phối hợp điều trị.
+*   **Cơ sở cho nghiên cứu phối hợp:** Các quan sát siêu cấu trúc có thể gợi ý về sự tương tác giữa virus và các liệu pháp khác (ví dụ: hóa trị, xạ trị). Ví dụ, liệu virus có làm tăng độ nhạy của tế bào ung thư với hóa trị bằng cách thay đổi cấu trúc màng tế bào hay không?
+**Lời khuyên để nâng cao kiến thức và kinh nghiệm:**
+*   **Đào sâu nghiên cứu cơ bản:** Tham gia các khóa học hoặc hội thảo về sinh học tế bào ung thư, đặc biệt là về cơ chế tế bào chết và tương tác vật chủ-virus. Kiến thức nền tảng vững chắc là chìa khóa.
+*   **Thực hành tại phòng thí nghiệm:** Nếu có cơ hội, tham gia vào các dự án nghiên cứu sử dụng kính hiển vi điện tử để trực tiếp quan sát và phân tích mẫu vật. Đây là kinh nghiệm vô giá.
+*   **Cập nhật tài liệu khoa học:** Đọc thường xuyên các bài báo nghiên cứu mới nhất về liệu pháp virus oncolytic, cơ chế tác động và các phát hiện về siêu cấu trúc tế bào ung thư.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn học thuật chuyên sâu về cơ chế lây nhiễm và tác động chọn lọc của virus oncolytic lên tế bào ung thư.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Kính thưa chuyên gia, xin vui lòng giải thích chi tiết về cơ chế lây nhiễm và tác động chọn lọc của virus sởi (MeV) và quai bị (MuV) lên tế bào ung thư đại trực tràng (CRC), đặc biệt là vai trò của các thụ thể bề mặt tế bào. Kiến thức này có thể hỗ trợ tôi như thế nào trong thiết kế các nghiên cứu tiền lâm sàng về liệu pháp virus oncolytic?</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Chào bạn, một câu hỏi rất quan trọng đối với các nhà nghiên cứu và sinh viên y khoa quan tâm đến liệu pháp oncolytic virus. Để hiểu rõ cơ chế này, chúng ta cần đi sâu vào tương tác giữa virus và tế bào chủ:
+*   **Tính đặc hiệu và thụ thể virus:**
+    *   Cả MuV và MeV đều có khả năng lây nhiễm chọn lọc các tế bào ung thư đại trực tràng (CRC), chủ yếu do các thụ thể đặc hiệu của chúng thường biểu hiện quá mức trên bề mặt các tế bào ung thư này.
+    *   **MuV (chủng Urabe):** Sử dụng các glycoprotein chứa axit sialic (sialoglycoproteins) làm thụ thể đặc hiệu trên bề mặt tế bào. Việc tăng biểu hiện của các glycoprotein giàu axit sialic trên tế bào CRC giúp tăng cường sự lây nhiễm của virus vào dòng tế bào này.
+    *   **MeV (chủng Edmonton):** Sử dụng phân tử CD46 làm thụ thể đặc hiệu. CD46 là một glycoprotein xuyên màng điều hòa sự hoạt hóa của hệ thống bổ thể, thường biểu hiện ở tất cả các tế bào có nhân của người, nhưng lại thường bị tăng biểu hiện ở các tế bào CRC. Ngoài ra, Nectin-4 gần đây cũng được xác định là một thụ thể biểu mô đặc hiệu của MeV.
+*   **Vai trò của protease:**
+    *   Đối với các virus có vỏ bọc như MuV hoặc MeV, quá trình nhân lên đòi hỏi các protease để cắt các glycoprotein của virus và màng tế bào, giúp virus xâm nhập tế bào chủ hiệu quả. Các protease này cũng thường được tăng biểu hiện ở nhiều dòng tế bào ung thư, bao gồm CRC, tạo điều kiện thuận lợi cho sự nhân lên của virus.
+*   **Hiệu ứng gây bệnh tế bào (CPE) và hình thành hợp bào (Syncytia):**
+    *   Hiệu ứng CPE bắt đầu ngay sau khi protein H hoặc HN của virus tương tác với thụ thể trên tế bào đích. Tương tác này thúc đẩy thay đổi cấu trúc protein F của virus, làm protein F hoạt động, dẫn đến sự hợp nhất giữa màng tế bào chủ và màng virus, cho phép virus xâm nhập.
+    *   Sau đó, protein H hoặc HN của virus tương tác với thụ thể trên tế bào lân cận để kích hoạt sự hợp nhất màng giữa tế bào nhiễm virus và các tế bào xung quanh, tạo thành cấu trúc hợp bào khổng lồ đa nhân (syncytium). Đây là một cơ chế quan trọng gây ly giải tế bào ung thư trực tiếp.
+**Ứng dụng trong nghiên cứu tiền lâm sàng:**
+1.  **Thiết kế virus oncolytic:** Hiểu biết sâu sắc về các thụ thể và cơ chế xâm nhập giúp chúng ta thiết kế các virus có tính chọn lọc cao hơn đối với tế bào ung thư, giảm thiểu tác động lên tế bào khỏe mạnh.
+2.  **Tối ưu hóa hiệu quả:** Khai thác sự tăng biểu hiện của protease trong tế bào ung thư có thể giúp phát triển virus có khả năng nhân lên và lây lan hiệu quả hơn trong khối u.
+3.  **Lựa chọn mô hình nghiên cứu:** Nắm vững các thụ thể giúp lựa chọn dòng tế bào hoặc mô hình động vật có biểu hiện thụ thể phù hợp để mô phỏng chính xác bệnh lý lâm sàng.
+4.  **Phát triển dấu ấn sinh học:** Các thụ thể bề mặt có thể được sử dụng làm dấu ấn sinh học để xác định các bệnh nhân có khả năng đáp ứng tốt với liệu pháp virus oncolytic cụ thể.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Tương tác Virus-Vật chủ và Cơ chế Ly giải Tế bào trong Liệu pháp Oncolytic Virus: Các Nguyên tắc và Thách thức.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một cái nhìn toàn diện về cơ chế phân tử của virus oncolytic, bao gồm tương tác với thụ thể, con đường tín hiệu tế bào, và cơ chế gây chết tế bào. Đây là tài liệu thiết yếu cho các nhà nghiên cứu và sinh viên y khoa muốn đào sâu vào cơ sở khoa học của liệu pháp này.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Chuyên đề: Sinh học phân tử virus và ứng dụng trong y học</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Khóa học đào tạo chuyên sâu về cấu trúc, chu trình nhân lên, và cơ chế gây bệnh của các loại virus, đặc biệt nhấn mạnh các ứng dụng y sinh học như liệu pháp gen và virus oncolytic. Khóa học sẽ trang bị kiến thức nền tảng vững chắc cho sinh viên và bác sĩ mong muốn nghiên cứu trong lĩnh vực này.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn thực hành về nhận diện hình thái tế bào và đánh giá cảm ứng apoptosis trong nghiên cứu virus oncolytic.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Tôi đang thực hiện các thí nghiệm với virus sởi và quai bị trên dòng tế bào ung thư HT-29. Xin chuyên gia hướng dẫn cách nhận diện và phân biệt các dấu hiệu hình thái đặc trưng của quá trình cảm ứng apoptosis và hiệu ứng gây bệnh tế bào (CPE) do virus này gây ra, và tầm quan trọng của chúng trong việc đánh giá hiệu quả oncolytic trong môi trường *in vitro*?</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc quan sát và đánh giá chính xác các thay đổi hình thái là một kỹ năng cơ bản và cực kỳ quan trọng trong nghiên cứu sinh học tế bào, đặc biệt khi nghiên cứu tác động của virus oncolytic.
+*   **Hiệu ứng gây bệnh tế bào (CPE) và hình thành hợp bào (Syncytium):**
+    *   CPE do virus sởi (MeV) và quai bị (MuV) gây ra trên dòng tế bào HT-29 thường khởi đầu bằng sự hình thành hợp bào (syncytia). Đây là đặc điểm nổi bật, nơi nhiều tế bào hợp nhất thành một khối tế bào khổng lồ với nhiều nhân.
+    *   Các nhà nghiên cứu như Nichols W.W. và cộng sự (1965) đã ghi nhận sự tổn thương nhiễm sắc thể nghiêm trọng, bao gồm cô đặc chất nhiễm sắc (chromatinic condensation), vỡ và phân mảnh nhiễm sắc thể (extreme chromosome breakage and fragmentation) trong quá trình hình thành hợp bào.
+    *   Robbins S.J (1983) cũng mô tả rằng các tế bào nhiễm virus sởi có nhân bị sưng phồng (swollen nuclei) và tế bào có xu hướng tròn hơn thay vì hình khối vuông (cuboidal morphologies). Ông cũng chỉ ra mối tương quan giữa sự thoái hóa tế bào và sự xâm nhập nhân của virus, gợi ý rằng việc định lượng sự xâm nhập nhân virus có thể là một dấu ấn bệnh lý hữu ích cho tỷ lệ mắc bệnh tế bào trong nhiễm virus sởi dai dẳng.
+*   **Dấu hiệu hình thái của apoptosis:**
+    *   Đối với các tế bào ung thư, kích hoạt con đường apoptosis là một chiến lược quan trọng trong phát triển thuốc chống ung thư. Các nghiên cứu đã chỉ ra rằng MeV và MuV có khả năng ức chế sự tăng sinh của các dòng tế bào ung thư bằng cách kích hoạt apoptosis mà không gây độc tế bào cho các tế bào lân cận khỏe mạnh.
+    *   Các dấu hiệu hình thái đặc trưng của apoptosis bao gồm:
+        *   **Tế bào co lại (cell shrinkage):** Tế bào trở nên nhỏ gọn hơn.
+        *   **Cô đặc chất nhiễm sắc (chromatin condensation):** Chất nhiễm sắc tập trung lại thành các khối đậm đặc.
+        *   **Phân mảnh nhân (nuclear fragmentation):** Nhân tế bào vỡ thành nhiều mảnh nhỏ.
+        *   **Phình tế bào (blebbing):** Màng tế bào tạo thành các túi phình ra.
+        *   **Hình thành thể apoptotic (apoptotic bodies):** Tế bào bị phân mảnh thành các túi nhỏ chứa các bào quan và nhân đã phân mảnh. Các thể này sau đó được thực bào bởi các tế bào lân cận hoặc bị phân hủy.
+**Bảng so sánh các đặc điểm hình thái của tế bào bình thường, nhiễm virus (CPE) và apoptosis:**
+| Đặc điểm hình thái | Tế bào bình thường | Tế bào nhiễm virus (CPE)                                     | Tế bào trải qua Apoptosis                        |
+| :----------------- | :----------------- | :--------------------------------------------------------- | :----------------------------------------------- |
+| Kích thước tế bào   | Bình thường        | Sưng phồng hoặc co lại                                      | Co lại                                           |
+| Hình dạng tế bào    | Đa dạng (tùy loại) | Tròn hơn, hợp bào                                          | Tròn, phình màng (blebbing)                       |
+| Nhân tế bào         | Bình thường, rõ ràng | Sưng phồng, xâm nhập virus                                 | Cô đặc chất nhiễm sắc, phân mảnh                |
+| Màng tế bào         | Nguyên vẹn         | Hợp nhất (syncytium)                                       | Phình màng, hình thành thể apoptotic            |
+| Tính toàn vẹn       | Cao                | Giảm, tạo hợp bào (do sự hợp nhất của nhiều tế bào) | Giảm, phân mảnh thành thể apoptotic             |
+**Tầm quan trọng trong đánh giá hiệu quả oncolytic:**
+*   **Định tính và định lượng:** Quan sát hình thái dưới kính hiển vi cung cấp bằng chứng định tính mạnh mẽ về tác động của virus. Kết hợp với các phương pháp định lượng (ví dụ: đếm tế bào sống/chết, xét nghiệm caspase, TUNEL assay), sẽ cho phép bạn đánh giá chính xác mức độ gây độc tế bào và khả năng cảm ứng apoptosis.
+*   **Phân biệt cơ chế:** Giúp phân biệt giữa chết tế bào do apoptosis (có kiểm soát, ít gây viêm) và hoại tử (necrosis, thường gây viêm), điều quan trọng để hiểu cơ chế tác dụng và tiềm năng an toàn của liệu pháp.
+*   **Xác định liều lượng và thời gian:** Quan sát CPE và apoptosis theo thời gian và liều lượng virus giúp xác định điều kiện tối ưu cho các thí nghiệm tiếp theo hoặc cho ứng dụng tiềm năng.
+Hãy nhớ rằng, việc quan sát kỹ lưỡng và ghi nhận chi tiết là chìa khóa để thu được dữ liệu có giá trị.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Phương pháp thực hành trong nghiên cứu hiệu ứng gây bệnh virus và chết tế bào theo chương trình.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các giao thức thí nghiệm chi tiết, từ chuẩn bị mẫu, nhuộm màu đến quan sát kính hiển vi và phân tích dữ liệu, giúp sinh viên và nhà nghiên cứu thực hiện các nghiên cứu về CPE và apoptosis một cách hiệu quả và chính xác.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Khoa học hình thái tế bào và ứng dụng trong nghiên cứu ung thư</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào kỹ thuật hiển vi tiên tiến, phân tích hình thái tế bào trong điều kiện bình thường và bệnh lý, với trọng tâm là các bệnh ung thư. Học viên sẽ được trang bị kiến thức về cách nhận diện các biến đổi tế bào liên quan đến sự tăng sinh, biệt hóa, và chết tế bào, rất hữu ích cho các nhà nghiên cứu ung thư.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn học thuật về các cân nhắc khi chuyển đổi liệu pháp virus oncolytic từ nghiên cứu tiền lâm sàng sang ứng dụng lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Dựa trên những kết quả hứa hẹn từ các nghiên cứu *in vitro* về khả năng gây ly giải và cảm ứng apoptosis chọn lọc của virus sởi và quai bị trên tế bào ung thư đại trực tràng (CRC), tôi cần lưu ý những khía cạnh nào khi xem xét tiềm năng ứng dụng lâm sàng của chúng? Cụ thể, về mặt an toàn, hiệu quả và các bước phát triển tiếp theo, cần phải nghiên cứu thêm những gì trước khi đưa vào thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc chuyển đổi một phát hiện *in vitro* đầy hứa hẹn thành một liệu pháp lâm sàng hiệu quả là một hành trình dài và phức tạp, đòi hỏi sự đánh giá kỹ lưỡng nhiều yếu tố. Đối với liệu pháp oncolytic virus sử dụng MeV và MuV, bạn cần lưu ý các khía cạnh sau:
+*   **Đánh giá an toàn (Safety):**
+    *   **Tính toàn thân và độc tính:** Mặc dù các chủng vaccine MeV và MuV đã được làm yếu (attenuated) và được chứng minh là an toàn trong vaccine, việc sử dụng chúng ở liều lượng cao hơn hoặc theo đường dùng khác (ví dụ: tiêm tĩnh mạch) để điều trị ung thư cần được đánh giá lại nghiêm ngặt về độc tính toàn thân và các tác dụng phụ không mong muốn.
+    *   **Phản ứng miễn dịch chủ:** Hệ miễn dịch của người bệnh có thể nhận diện và loại bỏ virus trước khi chúng có thể phát huy tối đa tác dụng oncolytic, hoặc gây ra phản ứng viêm quá mức. Cần nghiên cứu cách điều hòa phản ứng miễn dịch để tối ưu hóa hiệu quả và giảm thiểu tác dụng phụ.
+    *   **Tính đặc hiệu *in vivo*:** Mặc dù có tính chọn lọc cao *in vitro*, cần xác nhận lại tính đặc hiệu này *in vivo*, đảm bảo virus không gây tổn thương các mô khỏe mạnh khác, đặc biệt là ở các cơ quan trọng yếu.
+*   **Đánh giá hiệu quả (Efficacy):**
+    *   **Mô hình tiền lâm sàng *in vivo*:** Cần thực hiện các nghiên cứu trên mô hình động vật phù hợp (ví dụ: chuột mang khối u người - xenograft models) để đánh giá khả năng giảm kích thước khối u, kéo dài thời gian sống và cơ chế tác dụng *in vivo*. Các mô hình này sẽ mô phỏng tốt hơn môi trường vi mô khối u phức tạp.
+    *   **Khả năng phân phối và xâm nhập:** Virus cần phải được phân phối hiệu quả đến vị trí khối u, vượt qua các hàng rào sinh học và xâm nhập vào tế bào ung thư trong môi trường khối u đặc quánh. Các phương pháp đưa thuốc (ví dụ: tiêm trực tiếp vào khối u, tiêm tĩnh mạch) cần được nghiên cứu tối ưu.
+    *   **Kháng virus:** Giống như các tác nhân sinh học khác, tế bào ung thư có thể phát triển cơ chế kháng virus theo thời gian.
+*   **Các bước phát triển tiếp theo và cân nhắc lâm sàng:**
+    *   **Thử nghiệm lâm sàng (Clinical Trials):** Các nghiên cứu tiền lâm sàng thành công là tiền đề cho việc tiến hành thử nghiệm lâm sàng giai đoạn I (đánh giá an toàn, liều lượng), giai đoạn II (đánh giá hiệu quả sơ bộ) và giai đoạn III (so sánh với các liệu pháp hiện có). Đây là bước bắt buộc theo quy định của Bộ Y tế và các cơ quan quản lý dược phẩm quốc tế.
+    *   **Liệu pháp kết hợp (Combination Therapy):** Thường thì liệu pháp oncolytic virus sẽ được nghiên cứu kết hợp với các phương pháp điều trị ung thư truyền thống (hóa trị, xạ trị) hoặc các liệu pháp miễn dịch để tăng cường hiệu quả.
+    *   **Cá thể hóa điều trị:** Dựa trên biểu hiện thụ thể và đặc điểm sinh học của khối u từng bệnh nhân, có thể phát triển liệu pháp cá thể hóa để tối ưu hóa kết quả.
+    *   **Giám sát và theo dõi:** Cần có các dấu ấn sinh học để theo dõi đáp ứng điều trị và phát hiện sớm các tác dụng phụ.
+Tóm lại, mặc dù các kết quả *in vitro* rất đáng khích lệ, việc đưa liệu pháp virus oncolytic vào thực hành lâm sàng yêu cầu một quá trình nghiên cứu và phát triển chặt chẽ, tuân thủ các quy định nghiêm ngặt về đạo đức và khoa học. Sự hợp tác đa ngành giữa các nhà virus học, ung thư học, miễn dịch học và dược học là chìa khóa thành công.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Hướng dẫn quốc gia về nghiên cứu và phát triển thuốc mới: Từ tiền lâm sàng đến lâm sàng.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp khung pháp lý và khoa học cho việc phát triển các liệu pháp tiên tiến tại Việt Nam, bao gồm các yêu cầu về nghiên cứu tiền lâm sàng, thiết kế thử nghiệm lâm sàng, và quy trình phê duyệt. Đây là tài liệu bắt buộc cho mọi nhà nghiên cứu và công ty dược phẩm.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Cập nhật các nguyên tắc thử nghiệm lâm sàng trong ung thư học</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các nguyên tắc đạo đức, phương pháp luận và quy định pháp lý trong thiết kế và thực hiện các thử nghiệm lâm sàng cho các liệu pháp ung thư mới. Rất cần thiết cho các bác sĩ lâm sàng, nhà nghiên cứu và thành viên ủy ban đạo đức muốn tham gia vào lĩnh vực này.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Là một sinh viên y khoa hoặc bác sĩ trẻ, làm thế nào để em có thể nhận biết chính xác quá trình chết tế bào theo chương trình (apoptosis) dưới kính hiển vi quang học, và những dấu hiệu nào là đặc trưng nhất cần lưu ý?</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Để nhận biết apoptosis dưới kính hiển vi, các em cần tập trung vào những thay đổi hình thái đặc trưng sau đây. Đây là kiến thức nền tảng vô cùng quan trọng cho việc chẩn đoán và nghiên cứu bệnh học:
+*   **Tế bào co rút (Cell shrinkage)**: Đây là một trong những dấu hiệu sớm nhất được Kerr J.F.R., et al. (1972) quan sát. Tế bào sẽ nhỏ hơn về kích thước, tách rời khỏi các tế bào lân cận.
+*   **Bào tương đậm đặc (Dense cytoplasm)**: Bào tương trở nên đặc hơn, và các bào quan được đóng gói chặt chẽ hơn, thể hiện sự tổ chức lại bên trong tế bào.
+*   **Ngưng tụ nhân (Nuclear condensation)**: Đây là đặc điểm nổi bật và đặc trưng nhất của apoptosis. Nhiễm sắc chất (chromatin) co đặc lại, tạo thành cấu trúc hình lưỡi liềm hoặc hình vòng dọc theo màng nhân, bắt đầu từ bên trong.
+*   **Phân mảnh nhân (Nuclear fragmentation)**: Ziegler U., et al. (2004) cũng đã ghi nhận. Trong giai đoạn muộn hơn, nhân tiếp tục co đặc và vỡ thành nhiều mảnh nhỏ trong bào tương, trong khi màng tế bào vẫn còn nguyên vẹn, khác với sự vỡ nhân trong hoại tử.
+*   **Phồng màng (Blebbing)**: Ngay khi quá trình apoptosis bắt đầu, màng huyết tương bắt đầu xuất hiện các chỗ lồi ra như bong bóng.
+*   **Hình thành thể Apoptosis (Apoptotic body formation)**: Cuối cùng, các phần phồng lên của màng sẽ tách ra, tạo thành các thể apoptosis, chứa các mảnh nhân và bào quan đã được đóng gói gọn gàng. Các thể này sau đó sẽ được thực bào bởi các tế bào lân cận mà không gây ra phản ứng viêm.
+Việc quan sát tỉ mỉ các đặc điểm này đòi hỏi kỹ năng thực hành và kinh nghiệm. Các em nên rèn luyện thường xuyên qua các buổi thực tập mô bệnh học, xem các tiêu bản mẫu đã được xác nhận, và tham khảo atlas mô học chuyên sâu để củng cố khả năng nhận diện dưới kính hiển vi.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Atlas Giải phẫu Bệnh học Đại cương và Hệ thống</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp hình ảnh minh họa chi tiết về các thay đổi hình thái tế bào và mô trong các bệnh lý khác nhau, bao gồm quá trình apoptosis, giúp sinh viên và bác sĩ trẻ rèn luyện khả năng nhận diện dưới kính hiển vi và hiểu rõ các tiêu chuẩn chẩn đoán.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Khóa học Kỹ thuật Mô học và Chẩn đoán Bệnh học Cơ bản</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các kỹ thuật chuẩn bị tiêu bản, nhuộm hóa mô miễn dịch, và nguyên lý cơ bản trong chẩn đoán mô bệnh học. Nó rất hữu ích để nâng cao kỹ năng thực hành lâm sàng, hiểu rõ các lỗi thường gặp, và cải thiện độ chính xác trong phân tích mô học và nghiên cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ hoặc nhà nghiên cứu tương lai, tại sao việc hiểu rõ cơ chế và các đặc điểm của apoptosis lại quan trọng trong y học lâm sàng và nghiên cứu, đặc biệt trong bối cảnh bệnh lý ung thư?</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Các em thân mến, việc nắm vững apoptosis không chỉ là kiến thức lý thuyết mà còn có ý nghĩa lâm sàng và nghiên cứu sâu sắc, đặc biệt trong ung thư. Apoptosis là một quá trình chết tế bào theo chương trình có kiểm soát, khác biệt hoàn toàn với hoại tử (necrosis). Sự rối loạn trong quá trình này là nền tảng của nhiều bệnh lý, từ tự miễn đến ung thư.
+**Tầm quan trọng trong Y học và Nghiên cứu:**
+*   **Cơ chế bảo vệ cơ thể**: Apoptosis giúp loại bỏ các tế bào bị tổn thương nghiêm trọng (như tế bào bị nhiễm virus, tế bào có DNA bị hỏng), tế bào không cần thiết trong quá trình phát triển phôi thai, hoặc tế bào có khả năng gây hại (như tế bào tiền ung thư). Đây là cơ chế cân bằng nội môi quan trọng.
+*   **Bệnh lý ung thư**: Trong ung thư, các tế bào thường mất khả năng trải qua apoptosis, dẫn đến sự tích tụ và tăng sinh không kiểm soát. Hiểu được cơ chế này giúp chúng ta phát triển các liệu pháp chống ung thư mới, nhắm mục tiêu vào việc kích hoạt lại apoptosis trong tế bào ung thư, từ đó ức chế sự phát triển của khối u.
+*   **Bệnh lý thoái hóa thần kinh và tự miễn**: Ngược lại, apoptosis quá mức có thể góp phần vào các bệnh thoái hóa thần kinh (như Alzheimer, Parkinson) và bệnh tự miễn. Điều này cho thấy sự phức tạp và cân bằng tinh tế của quá trình này.
+**Phân biệt Apoptosis và Hoại tử:**
+Để hiểu rõ hơn và tránh nhầm lẫn trong chẩn đoán, các em cần phân biệt Apoptosis (chết tế bào theo chương trình) với Hoại tử (chết tế bào do tổn thương cấp tính):
+| Đặc điểm             | Apoptosis (Chết tế bào theo chương trình)                                   | Hoại tử (Necrosis)                                     |
+| :------------------- | :------------------------------------------------------------------------- | :----------------------------------------------------- |
+| **Nguyên nhân**     | Kích hoạt bởi tín hiệu nội/ngoại bào, sinh lý, loại bỏ tế bào hỏng          | Tổn thương cấp tính không kiểm soát (nhiễm trùng, thiếu máu, độc tố) |
+| **Kích thước tế bào** | Co rút, giảm kích thước tế bào                                            | Sưng to, giãn nở tế bào, có thể vỡ                     |
+| **Màng tế bào**      | Còn nguyên vẹn, hình thành blebs và thể apoptosis, không gây rò rỉ          | Vỡ sớm, giải phóng nội dung tế bào ra môi trường ngoài |
+| **Nhân tế bào**      | Ngưng tụ chromatin, phân mảnh thành các thể nhỏ có màng bọc               | Phân hủy ngẫu nhiên, giãn nở, tan nhân                  |
+| **Phản ứng viêm**   | Không gây viêm, các thể apoptosis được thực bào một cách 'im lặng'          | Gây phản ứng viêm cục bộ nghiêm trọng                 |
+| **Số lượng tế bào**  | Thường ảnh hưởng đến các tế bào đơn lẻ hoặc một số ít tế bào có chọn lọc | Thường ảnh hưởng đến một nhóm tế bào lớn hoặc toàn bộ vùng mô |
+Việc phân biệt này rất quan trọng trong việc đánh giá mức độ tổn thương mô, tiên lượng bệnh và lựa chọn phương pháp điều trị phù hợp.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Cơ sở Sinh học Phân tử của Bệnh Ung thư</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sách chuyên khảo này đi sâu vào các con đường phân tử, bao gồm cả apoptosis và các cơ chế thoát chết tế bào của khối u, liên quan đến sự phát triển và tiến triển của ung thư. Đây là tài liệu thiết yếu cho các bác sĩ và nhà nghiên cứu muốn tìm hiểu chuyên sâu về sinh học ung thư và phát triển liệu pháp mới.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Cập nhật về Cơ chế Chết theo Chương trình của Tế bào trong Bệnh học Ung thư</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp kiến thức chuyên sâu về vai trò của apoptosis và các hình thức chết tế bào khác trong bệnh sinh ung thư. Học viên sẽ được cập nhật các nghiên cứu mới nhất về cách điều hòa apoptosis để phát triển các phương pháp điều trị ung thư đích và cá thể hóa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Theo kết quả nghiên cứu được đề cập, làm thế nào các virus như sởi (MeV) và quai bị (MuV) có thể kích hoạt quá trình apoptosis trong tế bào ung thư, và điều này mở ra những hướng ứng dụng lâm sàng hoặc nghiên cứu nào cho các nhà khoa học y học?</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Nghiên cứu chỉ ra rằng virus sởi (MeV) và quai bị (MuV) có khả năng kích hoạt cái chết tế bào theo chương trình (apoptosis) trong dòng tế bào HT-29 (một loại tế bào ung thư ruột kết) thông qua quá trình hình thành hợp bào (syncytial formation). Đây là một điểm thú vị và mở ra nhiều hướng tiềm năng cho y học hiện đại:
+**Cơ chế kích hoạt Apoptosis bởi Virus (dựa trên thông tin và kiến thức bổ sung):**
+*   **Hình thành hợp bào (Syncytial formation)**: Các virus như MeV và MuV có protein bề mặt (ví dụ, hemagglutinin và fusion protein) cho phép chúng hợp nhất màng tế bào của các tế bào lân cận, tạo thành một cấu trúc đa nhân khổng lồ gọi là hợp bào. Quá trình hình thành hợp bào này thường gây ra căng thẳng nghiêm trọng cho tế bào, làm gián đoạn chức năng tế bào bình thường và có thể trực tiếp kích hoạt con đường apoptosis.
+*   **Phân tích siêu cấu trúc hình thái**: Như đoạn văn đã kết luận, sau khi xử lý với MeV và MuV, các tế bào khối u HT-29 đã trải qua con đường apoptosis, được thể hiện qua các thay đổi siêu cấu trúc điển hình mà các em đã học (co rút tế bào, ngưng tụ nhân, phân mảnh nhân, hình thành thể apoptosis).
+*   **Kích hoạt các protein pro-apoptotic**: Mặc dù đoạn văn không nêu rõ, nhưng theo kiến thức y khoa, quá trình nhân lên của virus và sự hình thành hợp bào có thể dẫn đến việc kích hoạt các protein pro-apoptotic (như Bax, Bak) và caspase, là những yếu tố chủ chốt trong con đường nội sinh của apoptosis.
+**Ứng dụng lâm sàng và hướng nghiên cứu cho y học:**
+*   **Liệu pháp virus ung thư (Oncolytic Virotherapy)**: Đây là một lĩnh vực nghiên cứu và điều trị đầy hứa hẹn. Các virus được biến đổi gen (hoặc tự nhiên có khả năng) có thể ưu tiên nhân lên trong tế bào ung thư và tiêu diệt chúng thông qua apoptosis hoặc các cơ chế khác, đồng thời không gây hại hoặc ít gây hại cho tế bào bình thường. MeV và MuV là những ứng viên tiềm năng trong liệu pháp này, với các nghiên cứu như của Peng K.W., et al. (2002) về việc sử dụng virus sởi để điều trị ung thư buồng trứng.
+*   **Cơ chế chống ung thư mới**: Việc hiểu rõ hơn về cách các virus này gây apoptosis có thể giúp chúng ta khám phá các mục tiêu phân tử mới để phát triển thuốc chống ung thư, hoặc cải thiện hiệu quả của các liệu pháp virus hiện có. Mục tiêu là làm cho tế bào ung thư dễ bị apoptosis hơn.
+*   **Nghiên cứu tương tác chủ-ký sinh**: Nghiên cứu này cũng làm nổi bật tầm quan trọng của việc nghiên cứu tương tác phức tạp giữa virus và tế bào chủ, đặc biệt là cách virus điều hòa các con đường chết tế bào, vốn có thể được khai thác cho mục đích điều trị bệnh (ví dụ: Matveeva O.V., et al., 2015 đã thảo luận về nhiều cơ chế đóng góp vào hiệu quả điều trị của paramyxoviruses).
+Là các bác sĩ và nhà nghiên cứu tương lai, các em cần theo dõi sát sao các tiến bộ trong lĩnh vực liệu pháp virus học ung thư và sinh học virus để có thể áp dụng những kiến thức này vào thực hành lâm sàng và phát triển các phương pháp điều trị tiên tiến hơn, mang lại hy vọng cho bệnh nhân ung thư.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Liệu pháp Virus trong Điều trị Ung thư: Từ Cơ chế đến Ứng dụng Lâm sàng</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Cuốn sách cung cấp cái nhìn toàn diện về tiềm năng của virus trong điều trị ung thư, bao gồm các cơ chế hoạt động của virus oncolytic, ví dụ về các loại virus cụ thể, và những thách thức cũng như triển vọng trong tương lai của liệu pháp này, rất phù hợp cho những người muốn sâu sắc về lĩnh vực này.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Khóa học Chuyên sâu về Oncolytic Virotherapy và Liệu pháp Miễn dịch Mới trong Ung thư</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Khóa học CME này dành cho các bác sĩ và nhà nghiên cứu muốn cập nhật kiến thức về các liệu pháp điều trị ung thư tiên tiến sử dụng virus và kích hoạt hệ miễn dịch. Nó bao gồm các nghiên cứu tiền lâm sàng, thử nghiệm lâm sàng, và kinh nghiệm thực tiễn, giúp học viên trang bị kiến thức để tham gia vào các phương pháp điều trị tiên tiến.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt hướng dẫn các bác sĩ trẻ và sinh viên y khoa trong việc nâng cao kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, em đang tìm hiểu về các phương pháp chẩn đoán ung thư phổi. Theo nghiên cứu, nội soi phế quản huỳnh quang (autofluorescence bronchoscopy) được đánh giá cao. Xin chuyên gia giải thích rõ hơn về ưu điểm của kỹ thuật này so với nội soi ánh sáng trắng thông thường và những trường hợp lâm sàng nào chúng ta nên ưu tiên sử dụng nó?</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Chào em, câu hỏi của em rất quan trọng và phản ánh sự quan tâm đúng đắn đến các kỹ thuật chẩn đoán tiên tiến. Nội soi phế quản huỳnh quang (Fluorescence Bronchoscopy, còn gọi là Autofluorescence Bronchoscopy - AFB) là một bước tiến đáng kể trong chẩn đoán ung thư phổi, đặc biệt là ung thư biểu mô sớm (pre-invasive và early-invasive lesions).
+**1. Ưu điểm nổi bật so với nội soi ánh sáng trắng (White Light Bronchoscopy - WLB):**
+*   **Phát hiện tổn thương sớm và tinh vi:** Các mô loạn sản hoặc ác tính thường mất đi khả năng phát huỳnh quang tự nhiên (autofluorescence) do sự thay đổi về cấu trúc và hàm lượng fluorophore nội tại (như collagen, elastin). Điều này khiến chúng hiện ra dưới dạng vùng tín hiệu huỳnh quang giảm hoặc mất màu so với niêm mạc bình thường. Trong khi đó, các tổn thương này có thể rất khó nhận diện hoặc không nhìn thấy được bằng mắt thường dưới ánh sáng trắng.
+*   **Độ nhạy cao hơn:** Nghiên cứu đã chỉ ra rằng AFB có độ nhạy cao hơn đáng kể (83.82%) so với WLB (72.79%) trong việc phát hiện ung thư phổi. Điều này có nghĩa là AFB ít bỏ sót các trường hợp bệnh hơn, đặc biệt là các tổn thương tiền ung thư hoặc ung thư giai đoạn rất sớm.
+*   **Nâng cao hiệu quả sinh thiết:** Khi kết hợp AFB, việc sinh thiết tại các vùng tín hiệu huỳnh quang giảm giúp tăng đáng kể tỷ lệ chẩn đoán ung thư. Dữ liệu cho thấy hiệu quả sinh thiết ở vùng giảm tín hiệu huỳnh quang là 63.82%, cao hơn nhiều so với sinh thiết các tổn thương phát hiện bằng ánh sáng trắng (29.55%).
+**2. Các trường hợp lâm sàng nên cân nhắc ưu tiên sử dụng AFB:**
+*   **Bệnh nhân có yếu tố nguy cơ cao mắc ung thư phổi:** Đặc biệt là người hút thuốc lá lâu năm, tiền sử bệnh phổi mạn tính (COPD), hoặc đã có tiền sử ung thư phổi.
+*   **Nghi ngờ ung thư phổi nhưng WLB không phát hiện rõ ràng:** Khi có các triệu chứng hô hấp dai dẳng, kết quả chụp X-quang hoặc CT-scan nghi ngờ nhưng nội soi ánh sáng trắng ban đầu không thấy tổn thương rõ rệt.
+*   **Tầm soát và theo dõi tổn thương tiền ung thư:** Để phát hiện sớm các vùng loạn sản hoặc ung thư biểu mô tại chỗ (carcinoma in situ) mà WLB có thể bỏ sót.
+*   **Đánh giá mức độ lan rộng của tổn thương:** Giúp xác định ranh giới tổn thương rõ ràng hơn trước khi tiến hành phẫu thuật hoặc các can thiệp khác.
+*   **Trong các chương trình tầm soát chủ động:** Mặc dù chi phí là một hạn chế, nhưng về mặt hiệu quả chẩn đoán, AFB là một công cụ mạnh mẽ.
+Điều quan trọng là AFB không nên được sử dụng độc lập mà cần được **kết hợp chặt chẽ với nội soi ánh sáng trắng**. Việc sử dụng đồng thời cả hai nguồn sáng sẽ tối ưu hóa khả năng phát hiện và chẩn đoán, mang lại kết quả tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị Ung thư phổi (Bộ Y tế Việt Nam phiên bản cập nhật)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các khuyến nghị lâm sàng cập nhật về chẩn đoán và quản lý ung thư phổi tại Việt Nam, bao gồm các phương pháp nội soi tiên tiến và các tiêu chuẩn chẩn đoán theo ICD-10.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Cập nhật kỹ thuật Nội soi phế quản huỳnh quang trong chẩn đoán sớm ung thư phổi</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Khóa học CME này sẽ tập trung vào nguyên lý vật lý, kỹ thuật thực hiện, quy trình chuẩn bị bệnh nhân và diễn giải kết quả nội soi phế quản huỳnh quang, cùng với các tình huống lâm sàng thực tế và các ca bệnh điển hình để giúp bác sĩ nắm vững phương pháp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ và sinh viên y khoa trong việc phân tích và áp dụng các chỉ số thống kê y học.</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã chỉ ra độ nhạy và độ đặc hiệu của nội soi phế quản huỳnh quang lần lượt là 83.82% và 65.13%, cao hơn nội soi ánh sáng trắng. Với vai trò là một bác sĩ trẻ, em cần hiểu và áp dụng các chỉ số này như thế nào trong bối cảnh lâm sàng để đưa ra quyết định chẩn đoán chính xác nhất? Đặc biệt là khi kết hợp hai nguồn sáng?</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Chào em, việc hiểu và áp dụng độ nhạy (Sensitivity) và độ đặc hiệu (Specificity) là cực kỳ quan trọng trong y học thực chứng, giúp chúng ta đánh giá đúng giá trị của một xét nghiệm chẩn đoán. Với vai trò là một bác sĩ trẻ, em cần nắm vững những điểm sau:
+**1. Định nghĩa và ý nghĩa lâm sàng:**
+*   **Độ nhạy (Sensitivity):** Là khả năng của xét nghiệm phát hiện đúng những người mắc bệnh. Hay nói cách khác, là tỷ lệ người bệnh có kết quả xét nghiệm dương tính. Độ nhạy cao (83.82% của AFB) có nghĩa là xét nghiệm này ít bỏ sót bệnh nhân mắc ung thư phổi. Điều này rất quan trọng trong tầm soát và chẩn đoán sớm, giúp tránh 'âm tính giả' (false negative).
+*   **Độ đặc hiệu (Specificity):** Là khả năng của xét nghiệm xác định đúng những người không mắc bệnh. Hay nói cách khác, là tỷ lệ người không bệnh có kết quả xét nghiệm âm tính. Độ đặc hiệu 65.13% của AFB cho thấy khả năng loại trừ bệnh ở người không mắc ung thư phổi. Mặc dù không cao bằng WLB (69.72%), nhưng đây là một sự đánh đổi khi chúng ta ưu tiên độ nhạy để phát hiện sớm.
+**2. Áp dụng trong bối cảnh lâm sàng và so sánh:**
+Để dễ hình dung, chúng ta hãy nhìn vào bảng so sánh kết quả từ nghiên cứu:
+| Phương pháp chẩn đoán           | Độ nhạy (%) | Độ đặc hiệu (%) |
+| :------------------------------ | :---------: | :-------------: |
+| Nội soi phế quản huỳnh quang   | 83.82       | 65.13           |
+| Nội soi phế quản ánh sáng trắng | 72.79       | 69.72           |
+*   **Với AFB có độ nhạy cao hơn:** Điều này ngụ ý rằng AFB đặc biệt hữu ích khi em muốn sàng lọc hoặc phát hiện bệnh ở giai đoạn sớm nhất có thể, đặc biệt ở những bệnh nhân có nguy cơ cao hoặc nghi ngờ rất nhiều. Một kết quả âm tính bằng AFB có thể giúp em yên tâm hơn về việc loại trừ ung thư phổi so với WLB.
+*   **Với WLB có độ đặc hiệu nhỉnh hơn:** Mặc dù WLB có độ đặc hiệu tốt hơn một chút, nhưng độ nhạy thấp hơn làm tăng nguy cơ bỏ sót tổn thương. Điều này có thể dẫn đến việc chậm trễ chẩn đoán ở một số bệnh nhân.
+**3. Tối ưu hóa bằng cách kết hợp hai nguồn sáng:**
+Chính vì sự bù trừ lẫn nhau này mà việc **kết hợp cả hai nguồn sáng (WLB và AFB)** là chiến lược tối ưu nhất. Nghiên cứu đã chứng minh rõ ràng điều này: khi kết hợp, tỷ lệ chẩn đoán ung thư phổi đạt 72.06%.
+*   **Cách tiếp cận thực hành:** Khi nội soi, em sẽ bắt đầu bằng ánh sáng trắng để khảo sát tổng thể, định vị các cấu trúc giải phẫu và phát hiện các tổn thương rõ ràng. Sau đó, em chuyển sang ánh sáng huỳnh quang để kiểm tra kỹ lưỡng các vùng niêm mạc có vẻ bình thường dưới ánh sáng trắng nhưng có thể tiềm ẩn sự thay đổi huỳnh quang, hoặc để xác định ranh giới chính xác hơn của các tổn thương đã phát hiện. Nếu thấy một vùng giảm tín hiệu huỳnh quang, đó là mục tiêu ưu tiên để sinh thiết.
+**Kết luận:** Đừng chỉ nhìn vào một chỉ số đơn lẻ. Với ung thư phổi, mục tiêu hàng đầu là phát hiện sớm. Do đó, mặc dù độ đặc hiệu của AFB thấp hơn WLB một chút, độ nhạy vượt trội của nó (đặc biệt khi kết hợp) làm cho AFB trở thành một công cụ không thể thiếu trong quy trình chẩn đoán ung thư phổi hiện đại.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Y học thực chứng và sinh thống kê ứng dụng trong Ung thư học</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp kiến thức nền tảng và nâng cao về cách áp dụng y học thực chứng, phân tích các chỉ số thống kê như độ nhạy, độ đặc hiệu, giá trị tiên đoán dương/âm trong chẩn đoán và tiên lượng các bệnh lý ung thư.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Phân tích và diễn giải các chỉ số chẩn đoán trong Y học lâm sàng</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Khóa học này được thiết kế để trang bị cho các bác sĩ những kỹ năng cần thiết để phân tích và diễn giải các chỉ số thống kê trong các xét nghiệm chẩn đoán, giúp đưa ra quyết định lâm sàng chính xác và tự tin hơn, đặc biệt trong các trường hợp phức tạp như ung thư.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ trẻ và sinh viên y khoa về chiến lược chẩn đoán đa phương thức và thiết kế nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Nghiên cứu tại Bệnh viện Phổi Trung ương đã sử dụng một quy trình chẩn đoán đa phương thức bao gồm X-quang, CT-scan 16 lát cắt và nội soi phế quản kép. Xin chuyên gia phân tích tầm quan trọng của việc kết hợp các kỹ thuật này trong chẩn đoán ung thư phổi và những bài học kinh nghiệm nào có thể rút ra để cải thiện quy trình tầm soát và chẩn đoán tại các tuyến y tế cơ sở?</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Chào em, việc kết hợp nhiều phương pháp chẩn đoán là một nguyên tắc vàng trong y học hiện đại, đặc biệt là với một bệnh phức tạp như ung thư phổi. Nghiên cứu tại Bệnh viện Phổi Trung ương là một minh chứng rõ ràng cho hiệu quả của phương pháp tiếp cận đa phương thức.
+**1. Tầm quan trọng của việc kết hợp các kỹ thuật chẩn đoán:**
+*   **X-quang ngực (Conventional Chest X-ray):** Đây thường là phương tiện sàng lọc ban đầu, chi phí thấp, dễ thực hiện. Nó có thể phát hiện các tổn thương lớn, giúp định hướng cho các bước chẩn đoán tiếp theo. Tuy nhiên, độ nhạy và độ đặc hiệu hạn chế, dễ bỏ sót các tổn thương nhỏ hoặc nằm ở vị trí khó.
+*   **Chụp cắt lớp vi tính ngực (CT-scan 16 lát cắt):** CT-scan, đặc biệt là CT đa lát cắt, mang lại hình ảnh chi tiết hơn rất nhiều so với X-quang. Nó giúp:
+    *   Phát hiện các nốt phổi nhỏ (pulmonary nodules) mà X-quang bỏ sót.
+    *   Đánh giá đặc điểm của tổn thương (kích thước, hình dạng, mật độ, bờ, mối liên quan với cấu trúc lân cận) để phân biệt lành tính và ác tính.
+    *   Đánh giá giai đoạn ung thư (TNM staging) bằng cách phát hiện hạch bạch huyết vùng, xâm lấn cấu trúc lân cận hoặc di căn xa.
+*   **Nội soi phế quản (Bronchoscopy với 2 nguồn sáng):** Là phương pháp xâm lấn trực tiếp, cho phép:
+    *   Trực tiếp quan sát niêm mạc đường thở, phát hiện các tổn thương nội phế quản.
+    *   Thực hiện sinh thiết niêm mạc phế quản, chải tế bào (brushing), rửa phế quản (lavage) để lấy mẫu mô bệnh học và tế bào học, là tiêu chuẩn vàng để xác định chẩn đoán ung thư.
+    *   Nội soi huỳnh quang giúp tăng cường khả năng phát hiện tổn thương sớm mà WLB có thể bỏ qua.
+**Sự bổ trợ lẫn nhau:** Mỗi phương pháp có những ưu và nhược điểm riêng. Kết hợp chúng giúp tăng độ chính xác của chẩn đoán, giảm tỷ lệ bỏ sót, và cung cấp thông tin toàn diện cho việc lập kế hoạch điều trị. X-quang giúp sàng lọc, CT-scan giúp chi tiết hóa và định hướng, nội soi phế quản giúp chẩn đoán xác định bằng mô bệnh học.
+**2. Bài học kinh nghiệm cho các tuyến y tế cơ sở:**
+*   **Nâng cao khả năng nghi ngờ lâm sàng:** Các bác sĩ tuyến cơ sở cần luôn đặt ra nghi vấn ung thư phổi ở những bệnh nhân có yếu tố nguy cơ (hút thuốc, tuổi cao, tiền sử gia đình) và các triệu chứng hô hấp không giải thích được kéo dài.
+*   **Tối ưu hóa công tác sàng lọc ban đầu:** Việc chụp X-quang ngực cho các đối tượng nguy cơ hoặc có triệu chứng cần được thực hiện một cách chủ động và có chất lượng tốt. Đừng ngần ngại yêu cầu chụp CT-scan nếu có bất kỳ nghi ngờ nào trên X-quang hoặc lâm sàng.
+*   **Quy trình chuyển tuyến hợp lý:** Khi phát hiện các tổn thương nghi ngờ trên X-quang/CT-scan, cần nhanh chóng và chính xác chuyển bệnh nhân đến các bệnh viện tuyến trên có đủ trang thiết bị (như CT đa lát cắt, nội soi phế quản huỳnh quang) và đội ngũ chuyên gia để chẩn đoán xác định.
+*   **Giáo dục y tế liên tục (CME):** Cần tăng cường các khóa đào tạo về cập nhật phác đồ chẩn đoán ung thư phổi, kỹ năng đọc phim X-quang/CT-scan cơ bản, và các tiêu chí giới thiệu bệnh nhân cho các thủ thuật chuyên sâu. Điều này giúp các bác sĩ tuyến cơ sở nhận biết sớm hơn và quản lý hiệu quả hơn.
+*   **Đầu tư vào nguồn lực:** Mặc dù nghiên cứu chỉ ra hạn chế về tài chính cho các nghiên cứu cộng đồng, việc đầu tư vào các thiết bị chẩn đoán hình ảnh cơ bản và đào tạo nhân lực là cần thiết để cải thiện khả năng chẩn đoán sớm ung thư phổi ở mọi tuyến.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Phác đồ chẩn đoán và điều trị Ung thư phổi (WHO và Bộ Y tế)</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng hợp các phác đồ chẩn đoán và điều trị ung thư phổi theo tiêu chuẩn quốc tế và hướng dẫn của Bộ Y tế Việt Nam, bao gồm các khuyến nghị về việc sử dụng kết hợp các phương pháp chẩn đoán hình ảnh và nội soi.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Chiến lược chẩn đoán sớm và tầm soát Ung thư phổi tại cộng đồng</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ trang bị cho các bác sĩ và cán bộ y tế kiến thức và kỹ năng về chiến lược sàng lọc, chẩn đoán sớm ung thư phổi ở tuyến cơ sở, nhận diện yếu tố nguy cơ, và quy trình chuyển tuyến hiệu quả để tối ưu hóa kết quả điều trị cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, làm thế nào nội soi phế quản huỳnh quang (AFB) cải thiện chẩn đoán ung thư phổi so với nội soi ánh sáng trắng truyền thống (WLB), và vai trò của nó trong phát hiện sớm ung thư phổi là gì?</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng đối với các bác sĩ lâm sàng và sinh viên y khoa đang học tập về chẩn đoán ung thư phổi. Nội soi phế quản huỳnh quang (Autofluorescence Bronchoscopy - AFB) đã chứng minh ưu thế đáng kể so với nội soi ánh sáng trắng (White Light Bronchoscopy - WLB) trong việc phát hiện sớm các tổn thương tiền ung thư và ung thư biểu mô tại chỗ (carcinoma in situ) ở phế quản, vốn thường khó nhìn thấy hoặc bỏ sót dưới ánh sáng trắng.
+*   **Nguyên lý và Ưu điểm:** AFB hoạt động dựa trên sự thay đổi về tính chất huỳnh quang tự nhiên của mô. Mô ung thư hoặc tiền ung thư thường có sự giảm hoặc mất huỳnh quang so với mô lành, biểu hiện dưới dạng vùng 'tối màu' hoặc 'mất tín hiệu'. Điều này giúp các bác sĩ:
+    *   **Phát hiện sớm:** Nhận diện các tổn thương nhỏ, dẹt, hoặc thay đổi màu sắc tinh vi mà WLB có thể bỏ qua. Đây là chìa khóa để chẩn đoán ở giai đoạn sớm nhất, tăng cơ hội điều trị thành công (ví dụ, mã ICD-10 C34 cho ung thư phổi).
+    *   **Định vị sinh thiết:** Hướng dẫn sinh thiết chính xác hơn vào các vùng nghi ngờ giảm tín hiệu huỳnh quang, cải thiện tỷ lệ thu nhận mẫu mô bệnh học dương tính.
+    *   **Tăng độ nhạy và độ đặc hiệu:** Nghiên cứu cho thấy AFB có độ nhạy và độ đặc hiệu cao hơn trong chẩn đoán ung thư phổi so với WLB đơn thuần, đặc biệt khi kết hợp cả hai kỹ thuật. Điều này có nghĩa là ít bỏ sót tổn thương (độ nhạy cao) và ít chẩn đoán nhầm (độ đặc hiệu cao).
+*   **Ứng dụng lâm sàng:** Đối với bệnh nhân có yếu tố nguy cơ cao hoặc nghi ngờ ung thư phổi trên các phương tiện chẩn đoán hình ảnh khác, AFB trở thành một công cụ bổ sung giá trị. Nó giúp xác định ranh giới tổn thương rõ ràng hơn, hỗ trợ đánh giá mức độ lan rộng của bệnh và lập kế hoạch điều trị hiệu quả.
+*   **Lời khuyên cho thực hành:**
+    1.  **Luôn kết hợp:** Không nên chỉ dựa vào AFB hoặc WLB riêng lẻ. Việc kết hợp cả hai phương pháp giúp tận dụng ưu điểm của mỗi loại, tối ưu hóa khả năng phát hiện tổn thương.
+    2.  **Đào tạo chuyên sâu:** Nắm vững kỹ thuật nhận diện các vùng giảm huỳnh quang, vì việc diễn giải hình ảnh AFB đòi hỏi kinh nghiệm và đào tạo chuyên biệt.
+    3.  **Học hỏi từ chuyên gia:** Tham khảo các ca lâm sàng, tài liệu hướng dẫn và kinh nghiệm từ các trung tâm có kinh nghiệm về AFB để nâng cao kỹ năng đọc và diễn giải kết quả.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Các bác sĩ cần xem xét những tiêu chí lựa chọn và yếu tố nguy cơ quan trọng nào khi xác định bệnh nhân nghi ngờ ung thư phổi, đặc biệt là những người có thể hưởng lợi từ các quy trình chẩn đoán nâng cao như nội soi phế quản huỳnh quang?</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Việc xác định đúng đối tượng bệnh nhân có nguy cơ cao và nghi ngờ ung thư phổi là bước đi then chốt để tối ưu hóa hiệu quả của các phương pháp chẩn đoán chuyên sâu như nội soi phế quản huỳnh quang. Dựa trên các nghiên cứu và kinh nghiệm lâm sàng, các bác sĩ cần chú ý đến các tiêu chí và yếu tố nguy cơ sau:
+*   **Yếu tố nguy cơ chính (ICD-10 Z82.8, Z77.9, J44):**
+    *   **Giới tính và Tuổi:** Nam giới, từ 40 tuổi trở lên, là nhóm có nguy cơ cao hơn.
+    *   **Tiền sử hút thuốc lá:** Hút thuốc lá ≥ 10 bao-năm (pack-year) là yếu tố nguy cơ mạnh nhất. Cần khai thác kỹ tiền sử hút thuốc chủ động và thụ động.
+    *   **Tiếp xúc nghề nghiệp/môi trường:** Amiăng, radon, các kim loại nặng, khói bụi công nghiệp...
+    *   **Tiền sử gia đình:** Có người thân (cha, mẹ, anh, chị, em) mắc ung thư phổi.
+    *   **Tiền sử bệnh phổi mãn tính:** Bệnh phổi tắc nghẽn mãn tính (COPD), xơ phổi...
+*   **Triệu chứng lâm sàng nghi ngờ (ICD-10 R05, R06.0, R04.2, R07.4, R63.4):**
+    *   Ho kéo dài, ho khan hoặc có đờm.
+    *   Khạc đờm có máu (Hemoptysis).
+    *   Khó thở, thở khò khè (Dyspnea).
+    *   Đau ngực (Chest pain) không rõ nguyên nhân.
+    *   Sụt cân không giải thích được, mệt mỏi, chán ăn.
+    *   Viêm phổi tái phát nhiều lần ở cùng một vị trí.
+*   **Hình ảnh học X-quang ngực quy ước nghi ngờ (ICD-10 R91, J18.1, J90, R59):**
+    *   Nốt đơn độc hoặc khối u (Nodule, mass) trên phim X-quang.
+    *   Viêm phổi tắc nghẽn (Obstructive pneumonia) không đáp ứng điều trị thông thường.
+    *   Xẹp phổi (Atelectasis).
+    *   Hạch trung thất (Mediastinal lymph nodes) to.
+    *   Tràn dịch màng phổi (Pleural effusion) không rõ nguyên nhân.
+*   **Đảm bảo sức khỏe tổng thể cho nội soi (ICD-10 Z01.8):**
+    *   Kết quả các xét nghiệm cơ bản (công thức máu, chức năng gan thận, đông máu, điện tâm đồ, chức năng hô hấp) nằm trong giới hạn cho phép hoặc đã được điều chỉnh ổn định, đảm bảo an toàn cho thủ thuật nội soi.
+Để giúp các bạn dễ hình dung, dưới đây là bảng tóm tắt các tiêu chí lựa chọn bệnh nhân:
+| Tiêu chí | Mô tả chi tiết | Mã ICD-10 Liên quan |
+| :-------- | :--------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- | :----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- |
+| **Yếu tố nguy cơ** | - Giới tính: Nam, Tuổi: ≥ 40 tuổi &lt;br&gt; - Tiền sử hút thuốc: ≥ 10 bao-năm &lt;br&gt; - Tiền sử gia đình ung thư phổi &lt;br&gt; - Tiếp xúc với amiăng, radon, ... &lt;br&gt; - Bệnh phổi mãn tính (COPD, xơ phổi) | - Z82.8 (Tiền sử gia đình các bệnh hô hấp khác) &lt;br&gt; - Z77.9 (Tiếp xúc nghề nghiệp không xác định) &lt;br&gt; - J44 (COPD) &lt;br&gt; - T65.8 (Ảnh hưởng độc hại của các chất khác có tác dụng hệ thống) |
+| **Triệu chứng lâm sàng** | - Ho kéo dài, ho máu (Hemoptysis) &lt;br&gt; - Khó thở, đau ngực &lt;br&gt; - Sụt cân, mệt mỏi không rõ nguyên nhân &lt;br&gt; - Viêm phổi tái diễn | - R05 (Ho) &lt;br&gt; - R04.2 (Ho ra máu) &lt;br&gt; - R06.0 (Khó thở) &lt;br&gt; - R07.4 (Đau ngực, không xác định) &lt;br&gt; - R63.4 (Sụt cân bất thường) &lt;br&gt; - J18.1 (Viêm phổi do vi khuẩn, không xác định) |
+| **Hình ảnh X-quang ngực nghi ngờ** | - Nốt, khối u phổi &lt;br&gt; - Viêm phổi tắc nghẽn, xẹp phổi &lt;br&gt; - Hạch trung thất, tràn dịch màng phổi | - R91 (Các phát hiện bất thường trên chẩn đoán hình ảnh phổi) &lt;br&gt; - J18.1 (Viêm phổi do vi khuẩn, không xác định) &lt;br&gt; - J90 (Tràn dịch màng phổi, không phân loại ở nơi khác) &lt;br&gt; - R59 (Hạch to) |
+| **Điều kiện thực hiện thủ thuật** | - Các xét nghiệm đảm bảo an toàn (huyết học, sinh hóa, đông máu, ECG, chức năng hô hấp) | - Z01.8 (Khám đặc biệt khác cho mục đích khác) |
+**Lời khuyên cho các bác sĩ trẻ:**
+1.  **Khai thác tiền sử bệnh kỹ lưỡng:** Đừng bỏ qua bất kỳ yếu tố nguy cơ nào, dù nhỏ nhất. Việc trò chuyện cởi mở với bệnh nhân giúp thu thập thông tin giá trị.
+2.  **Đánh giá tổng thể:** Luôn xem xét kết hợp giữa triệu chứng lâm sàng, yếu tố nguy cơ và kết quả cận lâm sàng. Một triệu chứng đơn lẻ có thể không đủ, nhưng sự kết hợp của nhiều dấu hiệu sẽ tăng mức độ nghi ngờ.
+3.  **Tham khảo ý kiến đồng nghiệp:** Trong những trường hợp khó, hãy thảo luận với các bác sĩ chuyên khoa hô hấp, ung bướu, hoặc chẩn đoán hình ảnh để có cái nhìn đa chiều và đưa ra quyết định phù hợp nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Đối với các nhà nghiên cứu trẻ và sinh viên y khoa, những cân nhắc chính trong thiết kế một nghiên cứu lâm sàng về công cụ chẩn đoán như nội soi phế quản huỳnh quang là gì, đặc biệt về thiết kế nghiên cứu, lựa chọn đối tượng và tính toán cỡ mẫu?</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc thiết kế một nghiên cứu lâm sàng vững chắc là nền tảng để tạo ra những bằng chứng y học đáng tin cậy. Khi tiến hành nghiên cứu về các công cụ chẩn đoán như nội soi phế quản huỳnh quang, các nhà nghiên cứu trẻ và sinh viên y khoa cần đặc biệt chú ý đến những điểm sau:
+*   **1. Thiết kế nghiên cứu (Study Design):**
+    *   **Hiểu rõ mục tiêu:** Mục tiêu của nghiên cứu sẽ định hướng thiết kế. Ví dụ, để đánh giá hiệu quả chẩn đoán của một phương pháp mới, bạn có thể chọn thiết kế *nghiên cứu trường hợp (Case Study)* hoặc *nghiên cứu cắt ngang mô tả (Cross-sectional descriptive study)* như bài viết đã đề cập. Nếu muốn so sánh hiệu quả giữa các phương pháp, một *nghiên cứu đối chứng (Comparative study)* hoặc *thử nghiệm lâm sàng ngẫu nhiên có đối chứng (Randomized Controlled Trial - RCT)* sẽ phù hợp hơn.
+    *   **Ưu và nhược điểm:** Mỗi thiết kế có ưu và nhược điểm riêng. Nghiên cứu cắt ngang mô tả cung cấp bức tranh tổng thể tại một thời điểm nhưng không thể xác định quan hệ nhân quả. Nghiên cứu đoàn hệ (Cohort) hoặc bệnh chứng (Case-Control) phù hợp hơn cho việc tìm kiếm yếu tố nguy cơ hoặc theo dõi kết quả.
+*   **2. Lựa chọn đối tượng nghiên cứu (Research Subjects):**
+    *   **Tiêu chí chọn (Selection criteria):** Đây là yếu tố cực kỳ quan trọng. Các tiêu chí phải rõ ràng, cụ thể và có tính khách quan để đảm bảo tính đại diện và khả năng ngoại suy của kết quả. Ví dụ trong bài, các tiêu chí về tuổi, giới tính, tiền sử hút thuốc, triệu chứng lâm sàng và hình ảnh X-quang nghi ngờ được nêu rất chi tiết. Điều này giúp loại bỏ sai lệch và tập trung vào nhóm bệnh nhân phù hợp.
+    *   **Tiêu chí loại trừ (Exclusion criteria):** Cũng cần được xác định rõ ràng để loại bỏ những bệnh nhân có thể làm sai lệch kết quả hoặc gây nguy hiểm cho bản thân khi tham gia nghiên cứu (ví dụ, chống chỉ định với nội soi phế quản).
+    *   **Nhóm chứng (Control group):** Nếu nghiên cứu so sánh, việc lựa chọn nhóm chứng phù hợp là cần thiết. Trong bài viết này, nhóm bệnh nhân không nghi ngờ ung thư phổi (n2) đóng vai trò là nhóm chứng để so sánh.
+*   **3. Tính toán cỡ mẫu (Sample Size Calculation):**
+    *   **Tầm quan trọng:** Cỡ mẫu đủ lớn là yếu tố quyết định tính mạnh mẽ và độ tin cậy của kết quả thống kê. Một cỡ mẫu quá nhỏ có thể không phát hiện được sự khác biệt có ý nghĩa (lỗi loại II), trong khi cỡ mẫu quá lớn có thể lãng phí nguồn lực.
+    *   **Công thức:** Bài viết đã cung cấp công thức cơ bản cho nghiên cứu mô tả: `𝑛=𝑍1−𝛼/22 𝑥 𝑝 𝑥 (1−𝑝) / 𝑑2`.
+        *   `n`: Cỡ mẫu tối thiểu.
+        *   `Z1-α/2`: Giá trị Z tương ứng với mức độ tin cậy mong muốn (ví dụ, 1.96 cho 95% độ tin cậy).
+        *   `p`: Tỷ lệ ước tính của quần thể (dựa trên các nghiên cứu trước hoặc ước tính sơ bộ).
+        *   `d`: Sai số cho phép (độ chính xác mong muốn).
+    *   **Tham khảo chuyên gia thống kê:** Luôn tìm kiếm sự tư vấn từ các nhà thống kê sinh học để đảm bảo cỡ mẫu được tính toán chính xác và phù hợp với thiết kế nghiên cứu và mục tiêu cụ thể.
+**Lời khuyên cho các nhà nghiên cứu tương lai:**
+*   **Đọc kỹ các nghiên cứu tiền nhiệm:** Hiểu rõ những gì đã được thực hiện, những khoảng trống kiến thức còn tồn tại để xây dựng một câu hỏi nghiên cứu độc đáo và có giá trị.
+*   **Tuân thủ đạo đức nghiên cứu:** Luôn đặt sự an toàn và quyền lợi của bệnh nhân lên hàng đầu, xin chấp thuận của hội đồng đạo đức trước khi bắt đầu (ví dụ, tuân thủ nguyên tắc Helsinki).
+*   **Ghi chép chi tiết:** Mọi bước trong quá trình nghiên cứu cần được ghi chép cẩn thận để đảm bảo tính minh bạch và khả năng tái lập.
+*   **Học hỏi từ thất bại:** Không phải mọi nghiên cứu đều mang lại kết quả như mong đợi, nhưng mỗi thất bại đều là một bài học quý giá.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Dựa trên kết quả nghiên cứu, xin giải thích giá trị của nội soi phế quản huỳnh quang (fluorescence bronchoscopy) trong chẩn đoán ung thư phổi so với nội soi ánh sáng trắng thông thường, và những điểm cần lưu ý khi diễn giải các dấu hiệu giảm tín hiệu huỳnh quang?</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng đối với thực hành lâm sàng. Dựa trên kết quả nghiên cứu và kiến thức y khoa hiện đại, nội soi phế quản huỳnh quang (fluorescence bronchoscopy) mang lại giá trị vượt trội trong việc phát hiện tổn thương nghi ngờ ung thư phổi, đặc biệt là các tổn thương tiền ung thư hoặc ung thư giai đoạn sớm, so với nội soi ánh sáng trắng (white light bronchoscopy) truyền thống.
+**Điểm cốt lõi từ nghiên cứu:**
+*   Tỷ lệ phát hiện tổn thương bằng tín hiệu huỳnh quang giảm (decreased fluorescent signal) cao hơn đáng kể so với ánh sáng trắng ở cả hai nhóm bệnh nhân (nghi ngờ ung thư và không nghi ngờ ung thư), đặc biệt là trong nhóm nghi ngờ ung thư phổi (75,84% so với 56,74%).
+*   Kết quả này khẳng định giá trị của tín hiệu huỳnh quang giảm trong việc phát hiện tổn thương, tương tự các nghiên cứu trước đây.
+**Tại sao nội soi huỳnh quang lại có giá trị hơn?**
+*   **Phát hiện sớm các thay đổi niêm mạc:** Nội soi huỳnh quang sử dụng ánh sáng xanh kích thích mô phát huỳnh quang tự nhiên. Các tế bào ung thư hoặc tiền ung thư thường có sự thay đổi về cấu trúc và chuyển hóa, dẫn đến giảm tín hiệu huỳnh quang (autofluorescence) so với mô lành. Điều này giúp phát hiện những tổn thương phẳng, không rõ ràng hoặc rất nhỏ mà nội soi ánh sáng trắng dễ bỏ sót.
+*   **Tăng cường độ tương phản:** Sự khác biệt về tín hiệu huỳnh quang giữa mô lành và mô bệnh giúp tăng cường độ tương phản, làm nổi bật các vùng bất thường.
+**Những điểm cần lưu ý khi diễn giải các dấu hiệu giảm tín hiệu huỳnh quang:**
+*   **Không đặc hiệu hoàn toàn:** Giảm tín hiệu huỳnh quang không chỉ xuất hiện ở tổn thương tiền ung thư hay ung thư mà còn có thể do viêm, sẹo hoặc các tổn thương lành tính khác. Do đó, đây là một phương pháp sàng lọc và định hướng sinh thiết, không phải là chẩn đoán xác định.
+*   **Luôn kết hợp sinh thiết:** Bất kỳ vùng giảm tín hiệu huỳnh quang nào cũng cần được sinh thiết để chẩn đoán mô bệnh học xác định. Đây là nguyên tắc vàng.
+*   **Kinh nghiệm người làm nội soi:** Kỹ năng và kinh nghiệm của bác sĩ nội soi trong việc nhận diện và diễn giải hình ảnh huỳnh quang là rất quan trọng để tối ưu hóa giá trị của phương pháp.
+*   **Phân biệt với các yếu tố gây nhiễu:** Một số yếu tố như dịch tiết, máu, dị vật, hoặc thay đổi cấu trúc giải phẫu cũng có thể ảnh hưởng đến tín hiệu huỳnh quang, cần được phân biệt rõ ràng.
+Là một bác sĩ trẻ hoặc sinh viên y khoa, việc nắm vững nguyên lý và ứng dụng của nội soi phế quản huỳnh quang sẽ giúp bạn tiếp cận và chẩn đoán ung thư phổi hiệu quả hơn, đặc biệt trong bối cảnh tầm soát và phát hiện sớm.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Nghiên cứu này đã sử dụng các phương pháp thống kê nào để xử lý và phân tích dữ liệu? Đối với một bác sĩ trẻ hoặc sinh viên y khoa, tại sao việc hiểu rõ các phương pháp này lại quan trọng trong việc đánh giá một nghiên cứu khoa học và áp dụng vào thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Việc hiểu các phương pháp thống kê được sử dụng trong một nghiên cứu y khoa là vô cùng thiết yếu đối với bất kỳ bác sĩ hay sinh viên y khoa nào. Nó không chỉ giúp chúng ta đánh giá độ tin cậy của kết quả mà còn là cơ sở để áp dụng bằng chứng khoa học vào thực hành lâm sàng một cách hợp lý và an toàn.
+**Các phương pháp thống kê được sử dụng trong nghiên cứu này:**
+Nghiên cứu đã áp dụng một loạt các phương pháp thống kê tiêu chuẩn, được xử lý bằng phần mềm STATA 14.0, bao gồm:
+*   **Thống kê mô tả:**
+    *   Tính giá trị trung bình (mean) và độ lệch chuẩn (SD) để mô tả dữ liệu định lượng.
+    *   Xác định giá trị nhỏ nhất (min), lớn nhất (max) và tỷ lệ phần trăm (%) để mô tả sự phân bố và đặc điểm của dữ liệu.
+*   **Thống kê suy luận (kiểm định giả thuyết):**
+    *   **Paired-Sample T-test (Kiểm định T mẫu cặp):** Được sử dụng để so sánh sự khác biệt về giá trị trung bình giữa hai nhóm liên quan hoặc trên cùng một nhóm tại hai thời điểm khác nhau. Trong nghiên cứu này, có thể dùng để so sánh các chỉ số trên cùng bệnh nhân với hai kỹ thuật (dù không nêu rõ cụ thể ở đây).
+    *   **Kiểm định Chi-squared (χ² test):** Dùng để so sánh sự khác biệt về tỷ lệ hoặc tần suất giữa các nhóm độc lập. Nghiên cứu đã sử dụng để so sánh tỷ lệ phát hiện tổn thương giữa nhóm nghi ngờ ung thư và không nghi ngờ ung thư.
+*   **Ngưỡng ý nghĩa thống kê:** Sự khác biệt được coi là có ý nghĩa thống kê khi p &lt; 0.05. Điều này có nghĩa là khả năng kết quả quan sát được xảy ra hoàn toàn ngẫu nhiên là dưới 5%.
+**Tầm quan trọng của việc hiểu các phương pháp thống kê đối với bác sĩ trẻ và sinh viên y khoa:**
+| Khía cạnh          | Tầm quan trọng                                                                                                                                                                                                                                                                                                                                                             |
+| :----------------- | :------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------ |
+| **Đánh giá phê bình tài liệu** | Giúp bạn nhận diện liệu một nghiên cứu có được thiết kế và phân tích đúng cách hay không, từ đó đánh giá độ tin cậy của các kết luận. Ví dụ, việc sử dụng Paired-Sample T-test khi các mẫu không độc lập là chính xác hơn so với Independent T-test.                                                                                                        |
+| **Hiểu ý nghĩa lâm sàng**   | Giá trị p &lt; 0.05 chỉ cho biết có sự khác biệt về mặt thống kê, nhưng không phải lúc nào cũng có ý nghĩa lâm sàng. Một khác biệt nhỏ nhưng có ý nghĩa thống kê có thể không đủ lớn để thay đổi thực hành. Hiểu thống kê giúp bạn phân biệt giữa ý nghĩa thống kê và ý nghĩa lâm sàng.                                                                      |
+| **Ra quyết định lâm sàng**  | Dựa trên bằng chứng (Evidence-Based Medicine - EBM), bác sĩ cần tổng hợp kết quả nghiên cứu có chất lượng. Nếu không hiểu thống kê, bạn sẽ khó lựa chọn phương pháp điều trị, chẩn đoán hay tiên lượng bệnh phù hợp cho bệnh nhân của mình.                                                                                                                |
+| **Thiết kế nghiên cứu tương lai** | Đối với những bạn có ý định tham gia nghiên cứu khoa học, việc nắm vững các phương pháp thống kê là nền tảng để thiết kế nghiên cứu hợp lý, chọn cỡ mẫu đủ lớn (như tính toán n=146 trong nghiên cứu này) và chọn phương pháp phân tích phù hợp để trả lời câu hỏi nghiên cứu một cách hiệu quả nhất.                                                |
+| **Giao tiếp với bệnh nhân và đồng nghiệp** | Khi bạn có thể giải thích các kết quả nghiên cứu một cách khoa học và dễ hiểu, bạn sẽ xây dựng được niềm tin với bệnh nhân và có những cuộc thảo luận chất lượng hơn với đồng nghiệp về các phác đồ điều trị hay chiến lược quản lý bệnh.
+Việc đầu tư vào kiến thức thống kê y học không chỉ là một kỹ năng mà còn là một tư duy quan trọng trong thế kỷ 21 đối với mọi chuyên gia y tế.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã đề cập đến việc đánh giá giá trị của nội soi phế quản bằng hai nguồn sáng thông qua các chỉ số độ nhạy (sensitivity), độ đặc hiệu (specificity), giá trị dự đoán âm tính (negative predictive value) và giá trị dự đoán dương tính (positive predictive value). Giải thích ý nghĩa lâm sàng của những chỉ số này và cách chúng giúp bác sĩ lựa chọn phương pháp chẩn đoán phù hợp?</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Việc đánh giá bất kỳ xét nghiệm chẩn đoán nào trong y học đều đòi hỏi sự hiểu biết sâu sắc về các chỉ số hiệu suất của nó, đặc biệt là độ nhạy, độ đặc hiệu, giá trị dự đoán dương tính (PPV) và giá trị dự đoán âm tính (NPV). Các chỉ số này không chỉ mô tả khả năng của xét nghiệm mà còn định hướng cách bác sĩ sử dụng và diễn giải kết quả trong bối cảnh lâm sàng thực tế. Nghiên cứu này đã đề xuất đánh giá giá trị của nội soi phế quản bằng các chỉ số này, điều này rất quan trọng.
+**Ý nghĩa lâm sàng của các chỉ số:**
+1.  **Độ nhạy (Sensitivity):**
+    *   **Định nghĩa:** Là tỷ lệ người thực sự mắc bệnh có kết quả xét nghiệm dương tính.
+    *   **Ý nghĩa lâm sàng:** Một xét nghiệm có độ nhạy cao là rất tốt để sàng lọc và loại trừ bệnh. Nếu kết quả xét nghiệm âm tính với một test có độ nhạy cao, khả năng người đó không mắc bệnh là rất lớn (ít bỏ sót bệnh). Đây là chỉ số quan trọng khi cần phát hiện sớm các trường hợp bệnh, như trong sàng lọc ung thư phổi.
+2.  **Độ đặc hiệu (Specificity):**
+    *   **Định nghĩa:** Là tỷ lệ người thực sự không mắc bệnh có kết quả xét nghiệm âm tính.
+    *   **Ý nghĩa lâm sàng:** Một xét nghiệm có độ đặc hiệu cao là rất tốt để xác định chẩn đoán. Nếu kết quả xét nghiệm dương tính với một test có độ đặc hiệu cao, khả năng người đó thực sự mắc bệnh là cao (ít dương tính giả). Điều này hữu ích khi bạn muốn xác nhận một chẩn đoán đã nghi ngờ.
+3.  **Giá trị dự đoán dương tính (Positive Predictive Value - PPV):**
+    *   **Định nghĩa:** Là tỷ lệ người có kết quả xét nghiệm dương tính thực sự mắc bệnh.
+    *   **Ý nghĩa lâm sàng:** PPV cho biết khi một bệnh nhân có kết quả dương tính, xác suất thực sự họ mắc bệnh là bao nhiêu. Nó phụ thuộc rất nhiều vào tỷ lệ mắc bệnh (prevalence) trong quần thể nghiên cứu. PPV cao có nghĩa là kết quả dương tính đáng tin cậy hơn.
+4.  **Giá trị dự đoán âm tính (Negative Predictive Value - NPV):**
+    *   **Định nghĩa:** Là tỷ lệ người có kết quả xét nghiệm âm tính thực sự không mắc bệnh.
+    *   **Ý nghĩa lâm sàng:** NPV cho biết khi một bệnh nhân có kết quả âm tính, xác suất thực sự họ không mắc bệnh là bao nhiêu. Nó cũng phụ thuộc vào tỷ lệ mắc bệnh trong quần thể. NPV cao có nghĩa là kết quả âm tính đáng tin cậy hơn.
+**Cách chúng giúp bác sĩ lựa chọn phương pháp chẩn đoán phù hợp:**
+*   **Chiến lược sàng lọc (Screening Strategy):** Đối với các bệnh nghiêm trọng cần phát hiện sớm như ung thư phổi, bác sĩ thường ưu tiên các xét nghiệm có **độ nhạy cao** để tránh bỏ sót bệnh nhân. Mặc dù có thể có tỷ lệ dương tính giả cao hơn, nhưng sau đó sẽ có các xét nghiệm xác nhận cụ thể hơn. Nội soi huỳnh quang, với khả năng phát hiện tổn thương sớm, có thể đóng vai trò như một xét nghiệm có độ nhạy cao trong bối cảnh này.
+*   **Chiến lược xác nhận (Confirmatory Strategy):** Sau khi có kết quả sàng lọc dương tính, bác sĩ sẽ cần một xét nghiệm có **độ đặc hiệu cao** (ví dụ, sinh thiết mô bệnh học) để xác nhận chẩn đoán và tránh điều trị không cần thiết cho những trường hợp dương tính giả.
+*   **Đánh giá theo tỷ lệ mắc bệnh:** PPV và NPV rất quan trọng vì chúng phản ánh giá trị thực của xét nghiệm trong bối cảnh lâm sàng cụ thể. Trong một quần thể có tỷ lệ mắc bệnh thấp, PPV của một xét nghiệm có thể thấp ngay cả khi xét nghiệm đó có độ nhạy và độ đặc hiệu khá tốt. Ngược lại, NPV sẽ rất cao. Bác sĩ cần cân nhắc điều này khi diễn giải kết quả cho bệnh nhân cụ thể.
+Hiểu rõ các chỉ số này giúp bác sĩ trẻ và sinh viên y khoa đưa ra quyết định thông minh hơn về việc chọn lựa xét nghiệm, giải thích kết quả cho bệnh nhân và xây dựng lộ trình chẩn đoán hiệu quả, giảm thiểu rủi ro và tối ưu hóa lợi ích lâm sàng.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ sinh viên và bác sĩ trẻ nâng cao kiến thức chuyên sâu về chẩn đoán ung thư phổi.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Là một sinh viên y khoa sắp tốt nghiệp, tôi rất quan tâm đến các kỹ thuật chẩn đoán ung thư phổi. Chuyên gia có thể giải thích chi tiết về nguyên lý hoạt động và những ưu điểm vượt trội của nội soi phế quản huỳnh quang (Fluorescence Bronchoscopy - FB) trong việc phát hiện ung thư phổi sớm so với phương pháp nội soi ánh sáng trắng thông thường không?</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất hay và thiết thực trong bối cảnh chẩn đoán ung thư phổi ngày càng đòi hỏi sự tinh vi hơn. Nội soi phế quản huỳnh quang (FB) thực sự là một bước tiến quan trọng trong lĩnh vực này.
+**1. Nguyên lý hoạt động của Nội soi Phế quản Huỳnh quang (FB):**
+FB hoạt động dựa trên sự khác biệt trong đặc tính phát huỳnh quang tự nhiên của các mô lành và mô bệnh lý. Các mô khỏe mạnh của phế quản (chứa collagen, elastin, NADH) khi được chiếu ánh sáng xanh kích thích sẽ phát ra tín hiệu huỳnh quang màu xanh lá cây hoặc vàng. Ngược lại, các mô có tổn thương tiền ung thư hoặc ung thư thường có những thay đổi về cấu trúc tế bào, tăng sinh mạch máu, hoặc dày màng nhầy, dẫn đến sự hấp thụ ánh sáng kích thích nhiều hơn và/hoặc giảm lượng chất phát huỳnh quang nội sinh. Kết quả là, các vùng mô bệnh lý sẽ hiển thị hình ảnh với tín hiệu huỳnh quang bị giảm hoặc biến mất, thường có màu đỏ sẫm hoặc nâu khi nhìn qua bộ lọc chuyên dụng.
+**2. Ưu điểm vượt trội của FB trong phát hiện ung thư phổi sớm:**
+*   **Tăng cường khả năng phát hiện tổn thương sớm:** FB có thể phát hiện những thay đổi tế bào tiền ác tính hoặc ung thư biểu mô tại chỗ (carcinoma in situ) mà nội soi ánh sáng trắng (White Light Bronchoscopy - WLB) khó có thể nhận biết. Các vùng giảm tín hiệu huỳnh quang thường tương ứng với các tổn thương này, giúp phát hiện sớm hơn trước khi chúng phát triển thành u cục lớn.
+*   **Độ nhạy cao hơn:** Nghiên cứu đã chỉ ra rằng tỷ lệ giảm tín hiệu huỳnh quang ở bệnh nhân nghi ngờ ung thư phổi cao hơn đáng kể so với nhóm không nghi ngờ (p&lt;0,01). Cụ thể, trong các trường hợp ung thư phổi đã được chẩn đoán, 83,82% có giảm tín hiệu huỳnh quang so với 50,00% ở nhóm không ung thư, cho thấy độ nhạy vượt trội của kỹ thuật này trong việc 'đánh dấu' các vùng nguy cơ.
+*   **Hỗ trợ định vị sinh thiết chính xác:** FB giúp bác sĩ định vị chính xác hơn các vùng bất thường về tín hiệu huỳnh quang, từ đó hướng dẫn sinh thiết mục tiêu. Việc sinh thiết tại các vị trí giảm tín hiệu cho hiệu quả chẩn đoán ung thư phổi tốt hơn nhiều (63,82% các vị trí giảm tín hiệu được xác nhận ung thư) so với chỉ dựa vào các dấu hiệu trên WLB (ví dụ: u cục 73,91% nhưng với số lượng mẫu n ít hơn và tổn thương thường đã lớn hơn).
+*   **Đánh giá mức độ lan rộng:** FB có thể giúp đánh giá mức độ lan rộng của tổn thương dọc theo phế quản mà mắt thường khó nhận thấy, hỗ trợ lập kế hoạch điều trị hiệu quả hơn.
+**Lời khuyên cho sinh viên y khoa:** Để nắm vững kỹ thuật này, bạn nên tập trung vào:
+*   **Hiểu sâu về giải phẫu bệnh lý:** Nắm rõ sự thay đổi vi thể của mô trong quá trình hình thành ung thư và cách chúng ảnh hưởng đến tín hiệu huỳnh quang.
+*   **Thực hành nhận diện hình ảnh:** Cố gắng quan sát và phân tích nhiều ca lâm sàng có cả WLB và FB để rèn luyện kỹ năng diễn giải hình ảnh và xác định các vùng cần sinh thiết.
+*   **Học hỏi từ các chuyên gia:** Tham gia các buổi hội thảo, khóa đào tạo thực hành về nội soi phế quản huỳnh quang để có cái nhìn thực tế và kinh nghiệm lâm sàng.
+Bạn nên tìm hiểu thêm về các chỉ định cụ thể của FB, các yếu tố có thể ảnh hưởng đến kết quả (ví dụ: viêm, dị sản), và cách kết hợp FB với các phương pháp chẩn đoán khác để đưa ra quyết định lâm sàng chính xác nhất.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị Ung thư phổi Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thức này cung cấp phác đồ chuẩn, cập nhật về chẩn đoán, phân loại giai đoạn và các phương pháp điều trị ung thư phổi theo quy định của Bộ Y tế Việt Nam. Đây là tài liệu 'gối đầu giường' không thể thiếu cho mọi bác sĩ lâm sàng và sinh viên y khoa để có nền tảng vững chắc.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Khóa học Kỹ thuật Nội soi Phế quản Huỳnh quang Nâng cao trong Phát hiện Ung thư Phổi Sớm</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành chuyên sâu này giúp bác sĩ và sinh viên y khoa hiểu rõ nguyên lý, thực hiện kỹ thuật, diễn giải hình ảnh và xây dựng chiến lược sinh thiết mục tiêu bằng nội soi phế quản huỳnh quang. Khóa học được thiết kế để tối ưu hóa khả năng phát hiện sớm các tổn thương tiền ung thư và ung thư phổi giai đoạn đầu, nâng cao hiệu quả chẩn đoán và tiên lượng cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên sâu, hỗ trợ bác sĩ và sinh viên y khoa trong việc phân tích hình ảnh nội soi và lập kế hoạch sinh thiết hiệu quả, tối ưu hóa quá trình chẩn đoán ung thư phổi.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ nội trú chuyên ngành hô hấp, tôi thường gặp khó khăn trong việc kết hợp kết quả nội soi phế quản ánh sáng trắng (WLB) và huỳnh quang (FB) để xác định vị trí sinh thiết tối ưu ở bệnh nhân nghi ngờ ung thư phổi. Chuyên gia có thể hướng dẫn chi tiết cách diễn giải các dấu hiệu trên cả hai phương pháp và xây dựng chiến lược sinh thiết hiệu quả để đạt được chẩn đoán chính xác nhất không?</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc phối hợp hiệu quả giữa WLB và FB là chìa khóa để đạt được chẩn đoán chính xác trong ung thư phổi. Dưới đây là cách bạn có thể diễn giải các dấu hiệu và xây dựng chiến lược sinh thiết hiệu quả:
+**1. Diễn giải Kết quả Nội soi Phế quản (WLB và FB):**
+*   **Nội soi Ánh sáng Trắng (WLB):**
+    *   **U cục (Tumour):** Đây là dấu hiệu rõ ràng nhất của ung thư. Nghiên cứu cho thấy 73.91% các trường hợp có u cục được chẩn đoán là ung thư. Khi thấy u cục, đây là vùng ưu tiên sinh thiết.
+    *   **Thâm nhiễm (Infiltration):** Mô phế quản dày lên, mất ranh giới rõ ràng. 45.45% các trường hợp có dấu hiệu thâm nhiễm trong nghiên cứu được xác nhận là ung thư phổi. Cần sinh thiết sâu và lấy nhiều mẫu.
+    *   **Chèn ép (Compression):** Lòng phế quản bị hẹp do tổn thương từ bên ngoài hoặc bên trong. Mặc dù chỉ 4.44% các trường hợp chèn ép được xác nhận là ung thư phổi trong nghiên cứu này, đây vẫn là một dấu hiệu cảnh báo cần thăm dò thêm bằng các phương pháp khác (ví dụ: EBUS).
+    *   **Sung huyết (Congestion):** Mặc dù tỷ lệ sung huyết có thể cao hơn ở nhóm ung thư phổi, nhưng sự khác biệt này thường không có ý nghĩa thống kê (p&gt;0.05), do đó không phải là dấu hiệu đặc hiệu cho ung thư.
+*   **Nội soi Huỳnh quang (FB):**
+    *   **Giảm tín hiệu huỳnh quang (Decreased signal):** Đây là dấu hiệu quan trọng nhất của FB. Nghiên cứu cho thấy 63.82% các vị trí giảm tín hiệu được sinh thiết đã xác định là ung thư phổi. Độ nhạy của dấu hiệu này cao hơn nhiều so với các tổn thương trên WLB, đặc biệt trong việc phát hiện tổn thương sớm hoặc tiền ung thư mà WLB không nhìn thấy rõ.
+**2. Chiến lược Sinh thiết Tối ưu:**
+Để tối ưu hóa chẩn đoán, bạn cần áp dụng chiến lược kết hợp và có mục tiêu rõ ràng:
+*   **Ưu tiên vùng giảm tín hiệu trên FB:** Luôn coi vùng giảm tín hiệu huỳnh quang là mục tiêu sinh thiết hàng đầu. Ngay cả khi WLB không thấy tổn thương rõ ràng, vùng giảm tín hiệu trên FB vẫn có khả năng cao chứa tế bào ung thư hoặc tiền ung thư (như dữ liệu đã chỉ ra, 97/152 vị trí giảm tín hiệu là ung thư phổi).
+*   **Kết hợp với các dấu hiệu WLB rõ ràng:** Nếu WLB có các dấu hiệu như u cục, thâm nhiễm, hãy sinh thiết các vùng này kết hợp với vùng giảm tín hiệu FB gần đó. Điều này giúp tăng cường độ chính xác, đặc biệt khi tổn thương đã phát triển.
+*   **Sinh thiết đa điểm và đủ số lượng:** Không chỉ sinh thiết một lần. Lấy nhiều mẫu sinh thiết từ các vị trí khác nhau trong vùng nghi ngờ để tăng khả năng phát hiện tế bào ác tính. Đảm bảo mẫu đủ lớn và được bảo quản đúng cách để xét nghiệm giải phẫu bệnh.
+*   **Thận trọng với các vùng 'không tổn thương' trên WLB nhưng 'giảm tín hiệu' trên FB:** Như kết quả nghiên cứu chỉ ra, FB có hiệu quả chẩn đoán ung thư phổi tốt hơn nhiều khi sinh thiết tại vị trí giảm tín hiệu. Điều này nhấn mạnh giá trị của FB trong việc 'tiết lộ' những tổn thương ẩn mà WLB có thể bỏ sót, đặc biệt là ở giai đoạn sớm.
+Dưới đây là bảng tóm tắt so sánh hiệu quả chẩn đoán ung thư phổi của sinh thiết theo từng loại tổn thương trên WLB và FB dựa trên dữ liệu bạn cung cấp:
+| Vị trí Sinh thiết       | Ung thư phổi (n) | Tỷ lệ (%) | p-value (so với giảm tín hiệu FB) |
+| :---------------------- | :--------------- | :-------- | :-------------------------------- |
+| **Ánh sáng trắng (WLB)** |                  |           |                                   |
+| U cục (n=23)            | 17               | 73.91     | p1,6 = 0.263                      |
+| Thâm nhiễm (n=44)       | 20               | 45.45     | p2,6 = 0.055                      |
+| Chèn ép (n=45)          | 2                | 4.44      | p3,6 = 0.000                      |
+| Sung huyết (n=20)       | 0                | 0.00      | p4,6 = 0.000                      |
+| Không tổn thương (n=113) | 0                | 0.00      | p5,6 = 0.000                      |
+| **Huỳnh quang (FB)**    |                  |           |                                   |
+| Giảm tín hiệu (n=152)   | 97               | 63.82     |                                   |
+**Lời khuyên:** Luôn nhớ rằng kết quả nội soi là một phần của bức tranh lâm sàng toàn diện. Hãy kết hợp với tiền sử bệnh, các xét nghiệm hình ảnh (CT scan, PET/CT) và các xét nghiệm khác để đưa ra chẩn đoán cuối cùng. Đừng bỏ qua tầm quan trọng của việc gửi mẫu sinh thiết đúng cách và đủ số lượng để giải phẫu bệnh có thể đưa ra kết luận chính xác và phân loại mô học cần thiết.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Atlas Nội soi Phế quản Chẩn đoán và Điều trị</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Cuốn atlas này là một nguồn tài liệu hình ảnh tuyệt vời, minh họa chi tiết các tổn thương phế quản trên cả nội soi ánh sáng trắng và huỳnh quang. Nó giúp người đọc nhận diện và phân loại các bất thường một cách trực quan, là công cụ không thể thiếu để hỗ trợ quyết định sinh thiết chính xác cho bác sĩ nội soi và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Hội thảo Sinh thiết Phế quản Dưới Hướng dẫn Đa Mô thức (Multi-modality Guided Biopsy) trong Ung thư Phổi</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Hội thảo chuyên sâu tập trung vào các kỹ thuật sinh thiết phế quản tiên tiến, bao gồm sinh thiết dưới hướng dẫn nội soi huỳnh quang, siêu âm nội phế quản (EBUS), và các phương pháp khác. Mục tiêu là nâng cao độ chính xác chẩn đoán, tối ưu hóa quá trình lấy mẫu, và giảm thiểu biến chứng cho người bệnh ung thư phổi, rất hữu ích cho các bác sĩ muốn cải thiện kỹ năng thực hành và cập nhật các kỹ thuật mới.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa đóng vai trò là trợ lý học thuật chuyên ngành, cung cấp kiến thức toàn diện và định hướng phát triển chuyên môn cho bác sĩ, sinh viên y khoa trong lĩnh vực chẩn đoán và quản lý ung thư phổi, giúp xây dựng lộ trình học tập hiệu quả.</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Với tư cách là một bác sĩ trẻ mới ra trường, tôi muốn có một cái nhìn tổng thể về quy trình chẩn đoán ung thư phổi, đặc biệt là vai trò tích hợp của các kỹ thuật nội soi tiên tiến như FB và WLB trong bối cảnh lâm sàng tổng thể. Chuyên gia có thể tư vấn về lộ trình học tập và tài liệu tham khảo để tôi có thể nâng cao kiến thức chuyên môn và tự tin hơn trong lĩnh vực này không?</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc nắm vững quy trình chẩn đoán ung thư phổi là cực kỳ quan trọng đối với bất kỳ bác sĩ lâm sàng nào. Dưới đây là một lộ trình học tập và các lời khuyên giúp bạn phát triển chuyên môn trong lĩnh vực này:
+**1. Quy trình Chẩn đoán Ung thư Phổi Tổng thể:**
+Để chẩn đoán ung thư phổi, chúng ta thường đi theo một quy trình đa bước, kết hợp nhiều phương pháp để đạt được sự chính xác cao nhất:
+*   **Đánh giá Lâm sàng và Tiền sử:** Luôn bắt đầu bằng việc khai thác kỹ triệu chứng (ho kéo dài, đau ngực, khó thở, sút cân không rõ nguyên nhân...), tiền sử hút thuốc lá (chủ động hoặc thụ động), tiền sử tiếp xúc với các yếu tố nguy cơ nghề nghiệp, và tiền sử gia đình.
+*   **Chẩn đoán Hình ảnh:**
+    *   **Chụp X-quang ngực:** Là phương pháp sàng lọc ban đầu, có thể phát hiện các bất thường lớn.
+    *   **CT scan ngực (có hoặc không tiêm thuốc cản quang):** Cung cấp hình ảnh chi tiết hơn, giúp định vị tổn thương, đánh giá kích thước, mối liên quan với cấu trúc lân cận và hạch bạch huyết. CT scan liều thấp thường được dùng trong sàng lọc ung thư phổi cho nhóm nguy cơ cao.
+    *   **PET/CT scan:** Thường được sử dụng để đánh giá giai đoạn bệnh, tìm kiếm di căn xa và phân biệt tổn thương lành tính/ác tính.
+*   **Nội soi Phế quản (WLB và FB):**
+    *   **Nội soi Ánh sáng Trắng (WLB):** Giúp quan sát trực tiếp lòng phế quản, phát hiện các tổn thương rõ ràng như u sùi, thâm nhiễm, chèn ép lòng phế quản. Đây là bước quan trọng để định vị và đánh giá tổng quan.
+    *   **Nội soi Huỳnh quang (FB):** Cực kỳ giá trị trong việc phát hiện các tổn thương tiền ung thư hoặc ung thư giai đoạn sớm mà WLB có thể bỏ sót. Bạn nên sử dụng FB để xác định các vùng giảm tín hiệu và ưu tiên sinh thiết tại đây, ngay cả khi WLB không có dấu hiệu rõ ràng.
+*   **Sinh thiết và Giải phẫu bệnh:** Đây là 'tiêu chuẩn vàng' để xác định chẩn đoán ung thư. Mẫu sinh thiết có thể lấy qua nội soi phế quản (sinh thiết xuyên vách phế quản, chải rửa phế quản, rửa phế quản, siêu âm nội phế quản - EBUS-TBNA), sinh thiết xuyên thành ngực dưới hướng dẫn CT, hoặc sinh thiết mở. Kết quả giải phẫu bệnh sẽ xác định loại mô học, mức độ biệt hóa và tình trạng đột biến gen (nếu có) – thông tin tối quan trọng cho điều trị đích.
+*   **Đánh giá Giai đoạn:** Sau khi có chẩn đoán mô học, cần đánh giá giai đoạn bệnh theo hệ thống TNM bằng các phương pháp hình ảnh (PET/CT, MRI sọ não, siêu âm ổ bụng) để đưa ra kế hoạch điều trị phù hợp nhất (phẫu thuật, hóa trị, xạ trị, điều trị đích, miễn dịch).
+**2. Lộ trình Học tập và Phát triển Chuyên môn:**
+Với vai trò là bác sĩ trẻ, bạn nên tập trung vào các khía cạnh sau để xây dựng nền tảng vững chắc và phát triển chuyên môn:
+*   **Nền tảng kiến thức:** Nắm vững giải phẫu, sinh lý, và bệnh học của hệ hô hấp. Hiểu rõ cơ chế bệnh sinh của ung thư phổi và các yếu tố nguy cơ.
+*   **Thực hành lâm sàng:** Tham gia các tua trực, buồng bệnh, học cách khám lâm sàng tỉ mỉ, đọc phim X-quang, CT ngực một cách hệ thống. Quan sát các ca nội soi phế quản để làm quen với hình ảnh thực tế.
+*   **Học và Thực hành Nội soi Phế quản:** Đây là kỹ năng cốt lõi. Bắt đầu với WLB, sau đó học cách sử dụng và diễn giải hình ảnh từ FB. Luôn thực hành dưới sự giám sát của các bác sĩ có kinh nghiệm để đảm bảo an toàn và hiệu quả.
+*   **Nắm vững Giải phẫu bệnh và Sinh học phân tử:** Hiểu cách đọc và diễn giải kết quả giải phẫu bệnh, các loại mô học ung thư phổi, và tầm quan trọng của các dấu ấn sinh học (EGFR, ALK, ROS1...) trong việc lựa chọn điều trị đích.
+*   **Cập nhật kiến thức liên tục:** Ung thư học là một lĩnh vực phát triển rất nhanh. Thường xuyên đọc các tạp chí y khoa uy tín, tham gia các hội nghị, hội thảo chuyên ngành, và các khóa đào tạo y khoa liên tục (CME) để luôn nắm bắt được các phác đồ và tiến bộ mới nhất.
+**3. Tài liệu Tham khảo và Khóa học Khuyến nghị:**
+*   **Sách giáo khoa:**
+    *   **"Bệnh học Hô hấp" (Respiratory Disease Textbook):** Một cuốn sách giáo khoa kinh điển cung cấp kiến thức nền tảng và chuyên sâu về giải phẫu, sinh lý, các bệnh lý hô hấp, bao gồm ung thư phổi. Đây là nền tảng vững chắc cho mọi bác sĩ.
+    *   **"Textbook of Bronchoscopy" (Edited by Ernst, et al.):** Sách chuyên sâu về kỹ thuật nội soi phế quản, bao gồm cả WLB và FB, cũng như các thủ thuật can thiệp liên quan, là tài liệu quý giá cho người muốn đi sâu vào lĩnh vực này.
+*   **Tạp chí y khoa:**
+    *   **"Chest"** và **"American Journal of Respiratory and Critical Care Medicine" (AJRCCM):** Các tạp chí hàng đầu về hô hấp, nơi bạn có thể tìm thấy các nghiên cứu và cập nhật mới nhất.
+    *   **"Journal of Thoracic Oncology" (JTO):** Tạp chí chuyên biệt về ung thư phổi, rất quan trọng để theo dõi các tiến bộ trong chẩn đoán và điều trị ung thư phổi.
+*   **Khóa học CME:**
+    *   **Chuỗi hội thảo "Cập nhật Chẩn đoán và Điều trị Ung thư Phổi không tế bào nhỏ (NSCLC) theo Hướng dẫn Quốc tế":** Các hội thảo này sẽ giúp bạn cập nhật các phương pháp chẩn đoán hình ảnh, sinh học phân tử, phân loại giai đoạn và phác đồ điều trị mới nhất dựa trên các hướng dẫn của các tổ chức uy tín như ESMO, NCCN. Đây là khóa học cần thiết để bạn luôn đi đầu trong việc áp dụng các tiến bộ y học vào thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa Bệnh học Hô hấp (Respiratory Disease Textbook)</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Cuốn sách giáo khoa kinh điển cung cấp kiến thức nền tảng và chuyên sâu về giải phẫu, sinh lý, các bệnh lý hô hấp, bao gồm ung thư phổi. Đây là nguồn tài liệu không thể thiếu để người học xây dựng nền tảng vững chắc cho thực hành lâm sàng và hiểu biết sâu sắc về bệnh học, giúp bạn có cái nhìn toàn diện về ung thư phổi từ cơ bản đến nâng cao.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Chuỗi hội thảo Cập nhật Chẩn đoán và Điều trị Ung thư Phổi không tế bào nhỏ (NSCLC) theo Hướng dẫn Quốc tế</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Chuỗi hội thảo CME này liên tục cập nhật các phương pháp chẩn đoán hình ảnh, sinh học phân tử, phân loại giai đoạn và phác đồ điều trị mới nhất cho ung thư phổi không tế bào nhỏ dựa trên các hướng dẫn của ESMO, NCCN, và các hiệp hội quốc tế khác. Khóa học này rất cần thiết cho bác sĩ chuyên khoa hô hấp và ung bướu muốn duy trì và nâng cao kiến thức chuyên môn, áp dụng các tiến bộ mới nhất vào thực hành lâm sàng để mang lại hiệu quả điều trị tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt trong lĩnh vực chẩn đoán ung thư phổi bằng nội soi phế quản.</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh chẩn đoán ung thư phổi, bác sĩ hoặc sinh viên y khoa nên hiểu và ứng dụng giá trị của nội soi phế quản huỳnh quang như thế nào so với nội soi ánh sáng trắng để tối ưu hóa việc phát hiện tổn thương?</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Kính chào các đồng nghiệp trẻ và các em sinh viên y khoa!
+Nghiên cứu này đã cung cấp những bằng chứng rõ ràng về ưu thế của nội soi phế quản huỳnh quang (Fluorescence Bronchoscopy) so với nội soi ánh sáng trắng (White Light Bronchoscopy) trong việc phát hiện sớm tổn thương ung thư phổi. Đây là một điểm cực kỳ quan trọng mà chúng ta cần nắm vững trong thực hành lâm sàng:
+*   **Hiểu rõ sự khác biệt:** Nội soi ánh sáng trắng thường chỉ phát hiện được các tổn thương lớn, rõ ràng hoặc có biến đổi hình thái bề mặt. Ngược lại, nội soi huỳnh quang sử dụng nguyên lý tự phát huỳnh quang của mô, nơi các tế bào bất thường (tiền ung thư hoặc ung thư giai đoạn sớm) có thể có tín hiệu huỳnh quang giảm sút so với mô lành. Điều này giúp phát hiện các tổn thương nhỏ, phẳng hoặc loạn sản mà ánh sáng trắng dễ dàng bỏ sót.
+*   **Giá trị chẩn đoán vượt trội:** Nghiên cứu cho thấy, độ nhạy chẩn đoán ung thư phổi của nội soi huỳnh quang đạt 83.82% so với 72.79% của ánh sáng trắng khi chỉ phát hiện tổn thương (dựa trên giảm tín hiệu huỳnh quang). Điều này có nghĩa là nội soi huỳnh quang có khả năng xác định chính xác nhiều trường hợp ung thư hơn, giảm thiểu tỷ lệ bỏ sót.
+*   **Ứng dụng lâm sàng:**
+    *   **Đối tượng nguy cơ cao:** Ưu tiên chỉ định nội soi huỳnh quang cho những bệnh nhân có nguy cơ cao mắc ung thư phổi (ví dụ: người hút thuốc lá lâu năm, tiền sử gia đình, tiếp xúc nghề nghiệp, hoặc có hình ảnh nghi ngờ trên CT scan nhưng chưa rõ ràng trên nội soi thường).
+    *   **Phát hiện sớm:** Đây là công cụ đắc lực để phát hiện các tổn thương tiền ung thư (loạn sản nặng, carcinoma tại chỗ - CIS) hoặc ung thư giai đoạn sớm. Việc phát hiện sớm giúp can thiệp kịp thời, cải thiện đáng kể tiên lượng bệnh nhân.
+    *   **Định hướng sinh thiết:** Khi nội soi huỳnh quang phát hiện vùng giảm tín hiệu, cần sinh thiết nhiều mẫu tại các vùng này để có chẩn đoán mô bệnh học chính xác. Điều này tăng cường độ tin cậy của kết quả sinh thiết.
+Là những người làm trong ngành y, chúng ta cần chủ động cập nhật các kỹ thuật chẩn đoán tiên tiến và hiểu rõ lợi ích của chúng để đưa ra quyết định lâm sàng tối ưu, đặc biệt là trong những bệnh lý nguy hiểm như ung thư phổi. Việc áp dụng đúng kỹ thuật sẽ giúp chúng ta "nhìn thấy" những gì ánh sáng trắng không thể, từ đó cứu sống nhiều bệnh nhân hơn.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Sổ tay Nội soi phế quản chẩn đoán và can thiệp</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Tài liệu chuyên sâu hướng dẫn chi tiết về các kỹ thuật nội soi phế quản, bao gồm nội soi ánh sáng trắng, nội soi huỳnh quang và các phương pháp sinh thiết, giúp các bác sĩ thực hành chuẩn hóa quy trình và nâng cao kỹ năng.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Nâng cao kỹ năng chẩn đoán sớm ung thư phổi bằng nội soi phế quản huỳnh quang</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Khóa học đào tạo y khoa liên tục (CME) cung cấp kiến thức cập nhật về nguyên lý, chỉ định, kỹ thuật thực hiện và diễn giải hình ảnh nội soi phế quản huỳnh quang, kết hợp các ca lâm sàng thực tế để tăng cường kinh nghiệm chẩn đoán cho học viên.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, với trọng tâm vào việc giải thích và ứng dụng các chỉ số chẩn đoán như độ nhạy và độ đặc hiệu.</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Khi đọc một nghiên cứu về hiệu quả chẩn đoán ung thư phổi bằng các phương pháp nội soi, làm thế nào để tôi, với tư cách là một sinh viên y khoa hoặc bác sĩ trẻ, có thể giải thích chính xác các chỉ số 'độ nhạy' (Sensitivity) và 'độ đặc hiệu' (Specificity) để đưa ra quyết định lâm sàng có trách nhiệm?</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Các em sinh viên và đồng nghiệp thân mến,
+Việc hiểu và diễn giải đúng các chỉ số về độ nhạy (Sensitivity - Se) và độ đặc hiệu (Specificity - Sp) là nền tảng của y học chứng cứ, đặc biệt quan trọng khi đánh giá hiệu quả của các phương pháp chẩn đoán mới. Hãy cùng phân tích kết quả từ nghiên cứu về nội soi phế quản để rút ra bài học:
+*   **Độ nhạy (Sensitivity):** Là khả năng của xét nghiệm phát hiện đúng những người thực sự mắc bệnh (Dương tính thật / Tổng số người bệnh). Nghiên cứu cho thấy:
+    *   Nội soi ánh sáng trắng: Se = 72.79%
+    *   Nội soi huỳnh quang: Se = 83.82%
+    Điều này có nghĩa là, trong số 100 bệnh nhân ung thư phổi, nội soi huỳnh quang sẽ phát hiện được 83-84 trường hợp, trong khi ánh sáng trắng chỉ phát hiện được 72-73 trường hợp. Độ nhạy cao rất quan trọng trong các xét nghiệm sàng lọc, giúp *loại trừ* bệnh. Nếu một xét nghiệm có độ nhạy cao cho kết quả âm tính, khả năng bệnh nhân không mắc bệnh là rất lớn (đây là lý do NNV - Negative Predictive Value - cũng quan trọng).
+*   **Độ đặc hiệu (Specificity):** Là khả năng của xét nghiệm xác định đúng những người không mắc bệnh (Âm tính thật / Tổng số người không bệnh). Nghiên cứu cho thấy:
+    *   Nội soi ánh sáng trắng: Sp = 69.72%
+    *   Nội soi huỳnh quang: Sp = 65.13%
+    Độ đặc hiệu thấp hơn một chút ở nội soi huỳnh quang (65.13%) so với ánh sáng trắng (69.72%). Điều này có nghĩa là, trong số 100 người không mắc ung thư phổi, nội soi huỳnh quang có thể chẩn đoán nhầm 35 người là có 'giảm tín hiệu' (dương tính giả), trong khi ánh sáng trắng chẩn đoán nhầm 30 người là có 'tổn thương'. Độ đặc hiệu cao quan trọng để *xác nhận* bệnh. Nếu một xét nghiệm có độ đặc hiệu cao cho kết quả dương tính, khả năng bệnh nhân mắc bệnh là rất lớn (liên quan đến PPV - Positive Predictive Value).
+**Ứng dụng trong quyết định lâm sàng:**
+| Chỉ số       | Ánh sáng trắng (Tổn thương) | Huỳnh quang (Giảm tín hiệu) | Ý nghĩa lâm sàng                                                                                                                                              |
+| :----------- | :-------------------------- | :--------------------------- | :---------------------------------------------------------------------------------------------------------------------------------------------------- |
+| **Độ nhạy (Se)** | 72.79%                      | 83.82%                       | Nội soi huỳnh quang phát hiện được nhiều ca ung thư phổi thực sự hơn. Rất tốt cho sàng lọc hoặc khi bạn không muốn bỏ sót ca bệnh.                      |
+| **Độ đặc hiệu (Sp)** | 69.72%                      | 65.13%                       | Nội soi ánh sáng trắng ít đưa ra kết quả dương tính giả hơn một chút. Tuy nhiên, sự khác biệt này không quá lớn để làm mất đi ưu điểm độ nhạy của huỳnh quang. |
+*   **Ưu tiên độ nhạy khi:** Bệnh có hậu quả nghiêm trọng nếu bỏ sót (như ung thư), và bạn có thể chấp nhận một số dương tính giả để thực hiện các xét nghiệm sâu hơn.
+*   **Ưu tiên độ đặc hiệu khi:** Xét nghiệm xâm lấn, tốn kém hoặc có nguy cơ biến chứng, bạn muốn chắc chắn trước khi tiến hành.
+Trong trường hợp ung thư phổi, việc phát hiện sớm là tối quan trọng. Do đó, mặc dù độ đặc hiệu của huỳnh quang thấp hơn một chút, nhưng độ nhạy cao hơn đáng kể làm cho nó trở thành công cụ vượt trội trong việc phát hiện tổn thương nghi ngờ, đòi hỏi chúng ta phải sinh thiết kỹ lưỡng các vùng giảm tín hiệu để có chẩn đoán xác định. Luôn nhớ rằng không có xét nghiệm nào hoàn hảo, và việc kết hợp nhiều phương pháp cùng với đánh giá lâm sàng toàn diện là chìa khóa.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Giáo trình Thống kê Y học và Dịch tễ học</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Cuốn sách cung cấp kiến thức cơ bản và nâng cao về các phương pháp thống kê được ứng dụng trong y học, bao gồm cách tính toán và diễn giải độ nhạy, độ đặc hiệu, giá trị tiên đoán, giúp sinh viên và bác sĩ xây dựng tư duy y học chứng cứ.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Phân tích và diễn giải kết quả xét nghiệm chẩn đoán trong lâm sàng</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Khóa học CME tập trung vào kỹ năng phân tích các chỉ số đánh giá xét nghiệm chẩn đoán, cách ứng dụng chúng vào các tình huống lâm sàng cụ thể để đưa ra quyết định hợp lý, giảm thiểu sai sót trong chẩn đoán và điều trị.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, tập trung vào quy trình chẩn đoán và quản lý bệnh nhân ung thư phổi sau khi có kết quả nội soi phế quản.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Sau khi nội soi phế quản huỳnh quang phát hiện các vùng nghi ngờ ung thư phổi, bác sĩ hoặc sinh viên y khoa cần thực hiện những bước tiếp theo nào trong quy trình chẩn đoán và quản lý bệnh nhân, và làm thế nào để áp dụng chuẩn ICD-10 cho các trường hợp này?</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Chào các bạn đồng nghiệp và các em sinh viên,
+Việc nội soi phế quản huỳnh quang phát hiện các vùng giảm tín hiệu là một bước tiến quan trọng nhưng mới chỉ là khởi đầu của quá trình chẩn đoán ung thư phổi. Dưới đây là các bước tiếp theo mà chúng ta cần thực hiện một cách có hệ thống và khoa học:
+1.  **Sinh thiết xác định chẩn đoán:**
+    *   **Sinh thiết niêm mạc phế quản (Bronchial mucosal biopsy):** Đây là bước bắt buộc. Cần lấy mẫu sinh thiết từ tất cả các vùng giảm tín hiệu huỳnh quang và bất kỳ tổn thương nghi ngờ nào trên ánh sáng trắng. Đảm bảo lấy đủ số lượng mẫu và đúng vị trí để có chẩn đoán mô bệnh học chính xác.
+    *   **Sinh thiết xuyên thành ngực (Transthoracic biopsy):** Nghiên cứu cũng đề cập đến 27.94% bệnh nhân được áp dụng sinh thiết xuyên thành ngực. Điều này gợi ý rằng một số tổn thương có thể nằm sâu hơn, không tiếp cận được bằng nội soi phế quản, hoặc cần xác định tính chất u phổi đã được phát hiện trên hình ảnh CT.
+    *   **Kết quả mô bệnh học:** Chờ đợi kết quả mô bệnh học là chìa khóa để xác định có phải ung thư hay không, loại ung thư (tế bào nhỏ, không tế bào nhỏ, loại mô học cụ thể), và độ biệt hóa.
+2.  **Đánh giá giai đoạn bệnh (Staging):**
+    *   Sau khi có chẩn đoán mô bệnh học, cần tiến hành các xét nghiệm khác như PET/CT, MRI não, siêu âm ổ bụng để đánh giá mức độ lan rộng của khối u (giai đoạn TNM). Việc đánh giá giai đoạn là tối quan trọng để quyết định phác đồ điều trị phù hợp nhất.
+3.  **Hội chẩn đa chuyên khoa:**
+    *   Đối với bệnh nhân ung thư phổi, cần có sự tham gia của nhiều chuyên khoa (Hô hấp, Ung bướu, Ngoại lồng ngực, Xạ trị, Giải phẫu bệnh, Chẩn đoán hình ảnh) để đưa ra kế hoạch điều trị toàn diện và cá thể hóa cho từng bệnh nhân.
+4.  **Tư vấn và điều trị:**
+    *   Tùy thuộc vào giai đoạn bệnh và tình trạng chung của bệnh nhân, các phương pháp điều trị có thể bao gồm phẫu thuật, hóa trị, xạ trị, liệu pháp đích, hoặc liệu pháp miễn dịch.
+5.  **Áp dụng mã ICD-10:**
+    *   Khi có chẩn đoán xác định, việc mã hóa bệnh theo ICD-10 là bắt buộc để ghi nhận hồ sơ bệnh án, thống kê y tế và thanh toán bảo hiểm. Ví dụ:
+        *   **C34.-** : U ác tính của phế quản và phổi (Malignant neoplasm of bronchus and lung). Cần chọn mã phụ cụ thể hơn tùy thuộc vào vị trí giải phẫu (ví dụ: C34.0 cho phế quản chính, C34.1 cho thùy trên, C34.9 cho vị trí không xác định).
+        *   **C78.0-C79.8:** Mã cho các di căn thứ phát (secondary malignant neoplasm) nếu có. Ví dụ, C78.0 cho di căn đến phổi, C79.3 cho di căn đến não.
+    *   Việc mã hóa chính xác giúp chúng ta theo dõi dịch tễ học bệnh, đánh giá gánh nặng bệnh tật và hiệu quả của các chương trình can thiệp y tế công cộng.
+Chúng ta cần hiểu rằng chẩn đoán ung thư phổi là một hành trình phức tạp, đòi hỏi sự phối hợp nhịp nhàng giữa các phương pháp chẩn đoán và kiến thức chuyên môn vững vàng. Mục tiêu cuối cùng là mang lại lợi ích tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Phân loại bệnh tật quốc tế ICD-10 (Bộ Y tế Việt Nam)</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thức về hệ thống phân loại bệnh tật và vấn đề sức khỏe quốc tế lần thứ 10, do Bộ Y tế Việt Nam ban hành, cung cấp các mã bệnh chuẩn mực để ghi nhận và thống kê các chẩn đoán y khoa, bao gồm cả các loại ung thư.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Quản lý và cập nhật mã hóa bệnh tật theo ICD-10 trong thực hành lâm sàng</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Khóa học đào tạo liên tục hướng dẫn chi tiết cách sử dụng ICD-10 cho các chẩn đoán phức tạp, đặc biệt là ung thư, giúp bác sĩ nắm vững quy tắc mã hóa để đảm bảo tính chính xác và đầy đủ của hồ sơ bệnh án, phục vụ công tác thống kê và nghiên cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, giúp các bác sĩ trẻ và sinh viên y khoa nâng cao kỹ năng chẩn đoán và điều trị.</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Chào bạn, tôi là một sinh viên y khoa. Theo tài liệu bạn cung cấp, nội soi phế quản huỳnh quang (Fluorescence Bronchoscopy) có vẻ vượt trội hơn nội soi phế quản ánh sáng trắng (White Light Bronchoscopy) trong chẩn đoán ung thư phổi. Bạn có thể giải thích chi tiết hơn về ưu điểm này và cách chúng tôi có thể áp dụng để cải thiện hiệu quả chẩn đoán trên lâm sàng không?</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Chào bạn, câu hỏi của bạn rất đúng trọng tâm. Nội soi phế quản huỳnh quang (Fluorescence Bronchoscopy) thực sự mang lại những ưu thế đáng kể trong việc phát hiện ung thư phổi, đặc biệt là các tổn thương sớm hoặc khó nhìn thấy bằng ánh sáng trắng thông thường. Dưới đây là những điểm chính mà bạn cần nắm vững để áp dụng hiệu quả trong thực hành: 
+*   **Khả năng phát hiện tổn thương sớm và ẩn**: 
+    *   Nghiên cứu cho thấy tỷ lệ giảm tín hiệu huỳnh quang là 83.82%, cao hơn đáng kể so với tỷ lệ tổn thương phát hiện qua nội soi ánh sáng trắng. Điều này có nghĩa là nội soi huỳnh quang có thể 'nhìn thấy' những thay đổi mô học sớm, như loạn sản hoặc ung thư biểu mô tại chỗ (carcinoma in situ), mà ánh sáng trắng thường bỏ sót. Đối với bác sĩ, điều này cực kỳ quan trọng để chẩn đoán ở giai đoạn sớm nhất, mở ra cơ hội điều trị triệt để hơn cho bệnh nhân.
+    *   Cụ thể, nội soi huỳnh quang phát hiện thêm khoảng 20% bệnh nhân ung thư phổi so với nội soi ánh sáng trắng. Đây là một con số ấn tượng, khẳng định giá trị bổ sung của kỹ thuật này.
+*   **Hiệu quả sinh thiết và độ chính xác**: 
+    *   Khi sinh thiết tại vị trí giảm tín hiệu huỳnh quang, hiệu quả chẩn đoán ung thư phổi đạt 63.82%, cao hơn nhiều so với sinh thiết tại các tổn thương phát hiện bằng ánh sáng trắng (29.55%). Điều này nhấn mạnh rằng tín hiệu giảm huỳnh quang không chỉ giúp phát hiện mà còn chỉ điểm chính xác vị trí cần sinh thiết, tăng khả năng lấy được mẫu bệnh phẩm có giá trị chẩn đoán.
+    *   Đối với các bác sĩ thực hành, điều này có nghĩa là bạn không chỉ tìm thấy tổn thương mà còn tối ưu hóa quy trình sinh thiết, giảm thiểu số lần sinh thiết không cần thiết và tăng tỷ lệ chẩn đoán thành công.
+*   **Tăng cường khả năng sàng lọc sớm**: 
+    *   Trong nhóm bệnh nhân nghi ngờ ung thư phổi (có triệu chứng lâm sàng và X-quang ngực thường quy bất thường), tỷ lệ ung thư phổi thực sự rất cao (76.40%). Điều này cho thấy tầm quan trọng của việc sàng lọc sớm. Nội soi huỳnh quang, với khả năng phát hiện vượt trội, nên được coi là một công cụ thiết yếu trong chiến lược sàng lọc này, đặc biệt ở những bệnh nhân có nguy cơ cao hoặc các triệu chứng hô hấp dai dẳng.
+**Lời khuyên thực hành:**
+Để cải thiện hiệu quả chẩn đoán, bạn nên kết hợp cả hai kỹ thuật: bắt đầu bằng nội soi ánh sáng trắng để đánh giá tổng thể niêm mạc phế quản, sau đó chuyển sang nội soi huỳnh quang để tìm kiếm các vùng giảm tín hiệu ẩn. Khi phát hiện vùng giảm tín hiệu, hãy thực hiện sinh thiết cẩn thận tại các vị trí đó. Việc nắm vững cả hai phương pháp và hiểu rõ ưu nhược điểm của từng loại sẽ giúp bạn trở thành một chuyên gia chẩn đoán ung thư phổi hiệu quả hơn. Luôn nhớ rằng mục tiêu cuối cùng là phát hiện bệnh càng sớm càng tốt để tối ưu hóa kết quả điều trị cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, giúp các bác sĩ trẻ và sinh viên y khoa hiểu sâu hơn về các chỉ số chẩn đoán và ứng dụng lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Tôi muốn hiểu rõ hơn về các chỉ số độ nhạy và độ đặc hiệu của nội soi phế quản huỳnh quang và ánh sáng trắng trong chẩn đoán ung thư phổi. Các chỉ số này có ý nghĩa gì đối với việc ra quyết định lâm sàng và xây dựng chiến lược sàng lọc cho các đối tượng nghi ngờ ung thư phổi (mã ICD-10 liên quan đến ung thư phổi, ví dụ C34.x)?</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc hiểu rõ độ nhạy (sensitivity) và độ đặc hiệu (specificity) là nền tảng quan trọng trong chẩn đoán y học, đặc biệt là trong ung thư phổi (phân loại theo ICD-10 từ C34.0 đến C34.9 cho các vị trí khác nhau). Các chỉ số này cho chúng ta biết về khả năng của một xét nghiệm trong việc xác định đúng bệnh nhân có bệnh và bệnh nhân không có bệnh.
+**1. Độ nhạy và độ đặc hiệu của các phương pháp:**
+Để bạn dễ hình dung, tôi sẽ trình bày dưới dạng bảng so sánh:
+| Chỉ số Chẩn đoán | Nội soi phế quản huỳnh quang (Fluorescence Bronchoscopy) | Nội soi phế quản ánh sáng trắng (White Light Bronchoscopy) |
+|------------------|---------------------------------------------------------|---------------------------------------------------------|
+| **Độ nhạy**       | 83.82%                                                  | 72.79%                                                  |
+| **Độ đặc hiệu**   | 65.13%                                                  | 69.72%                                                  |
+*   **Độ nhạy**: Cho biết tỷ lệ bệnh nhân mắc ung thư phổi được xét nghiệm phát hiện đúng là có bệnh. Một độ nhạy cao (như 83.82% của nội soi huỳnh quang) nghĩa là xét nghiệm đó ít bỏ sót các trường hợp bệnh thật. Điều này đặc biệt quan trọng trong sàng lọc, nơi chúng ta muốn phát hiện càng nhiều trường hợp bệnh càng tốt để không bỏ lỡ cơ hội điều trị sớm.
+*   **Độ đặc hiệu**: Cho biết tỷ lệ bệnh nhân không mắc ung thư phổi được xét nghiệm xác định đúng là không có bệnh. Độ đặc hiệu của nội soi ánh sáng trắng (69.72%) hơi cao hơn huỳnh quang (65.13%). Điều này có nghĩa là nội soi ánh sáng trắng có thể ít đưa ra kết quả dương tính giả hơn. Tuy nhiên, sự khác biệt này cần được cân nhắc trong bối cảnh lâm sàng tổng thể.
+**2. Ý nghĩa đối với việc ra quyết định lâm sàng và sàng lọc:**
+*   **Ưu tiên phát hiện sớm với nội soi huỳnh quang**: Với độ nhạy cao hơn, nội soi phế quản huỳnh quang lý tưởng cho các tình huống cần sàng lọc và phát hiện sớm, đặc biệt là trong nhóm đối tượng nghi ngờ cao. Ví dụ, những bệnh nhân có triệu chứng hô hấp kéo dài không giải thích được hoặc X-quang ngực có bất thường không rõ nguyên nhân (nhóm có tỷ lệ ung thư phổi thực tế lên đến 76.40% theo nghiên cứu), việc áp dụng nội soi huỳnh quang sẽ giúp tăng khả năng tìm ra tổn thương ác tính ngay cả khi chúng còn rất nhỏ hoặc khó nhìn.
+*   **Cân nhắc kết hợp kỹ thuật**: Mặc dù độ đặc hiệu của nội soi huỳnh quang thấp hơn một chút, nhưng khi kết hợp với ánh sáng trắng và kinh nghiệm của bác sĩ, khả năng đưa ra chẩn đoán chính xác sẽ được tối ưu. Tín hiệu giảm huỳnh quang có thể là 'cờ đỏ' để bạn chú ý và thực hiện các xét nghiệm bổ sung, như sinh thiết, để xác nhận chẩn đoán.
+*   **Chiến lược sàng lọc**: Dựa trên kết quả nghiên cứu, cần sàng lọc sớm cho các đối tượng nghi ngờ (như người có tiền sử hút thuốc lá nặng, có triệu chứng hô hấp và bất thường trên X-quang ngực). Trong bối cảnh này, nội soi phế quản huỳnh quang đóng vai trò then chốt vì khả năng phát hiện 'thêm 20% bệnh nhân ung thư phổi'. Điều này giúp giảm thiểu 'khoảng trống chẩn đoán' và tăng cơ hội điều trị kịp thời cho các trường hợp ung thư phổi giai đoạn đầu.
+Việc hiểu rõ những chỉ số này không chỉ giúp bạn giải thích kết quả xét nghiệm một cách khoa học mà còn định hình chiến lược chẩn đoán và quản lý bệnh nhân ung thư phổi một cách hiệu quả nhất, tuân thủ các nguyên tắc y khoa tiên tiến.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, giúp các bác sĩ trẻ và sinh viên y khoa học cách áp dụng các kỹ thuật chẩn đoán tiên tiến vào thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ đang thực hành, tôi muốn biết làm thế nào để tích hợp nội soi phế quản huỳnh quang vào quy trình chẩn đoán hiện tại để tăng cường phát hiện ung thư phổi, đặc biệt là các tổn thương tiền ung thư hoặc ung thư giai đoạn sớm. Có những tài liệu tham khảo hoặc khóa học CME nào có thể giúp tôi nắm vững kỹ thuật này không?</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Để tích hợp hiệu quả nội soi phế quản huỳnh quang (Fluorescence Bronchoscopy) vào thực hành lâm sàng, đặc biệt trong việc phát hiện tổn thương tiền ung thư hoặc ung thư giai đoạn sớm, bạn cần tiếp cận kỹ thuật này một cách hệ thống và khoa học. Đây là một phương pháp mạnh mẽ, nhưng cần được sử dụng đúng cách để tối đa hóa lợi ích:
+**1. Cách tích hợp nội soi phế quản huỳnh quang vào quy trình chẩn đoán:**
+*   **Kết hợp hai nguồn sáng**: Luôn nhớ khuyến nghị quan trọng: "có thể kết hợp hai nguồn sáng để cải thiện hiệu quả chẩn đoán ung thư phổi". Bắt đầu bằng nội soi ánh sáng trắng để đánh giá tổng thể và xác định các tổn thương rõ ràng. Sau đó, chuyển sang chế độ huỳnh quang để phát hiện các vùng giảm tín hiệu, vốn là dấu hiệu của thay đổi niêm mạc sớm hoặc tổn thương tiền ung thư mà ánh sáng trắng có thể bỏ sót. Việc này giúp bạn không chỉ phát hiện tổn thương lớn mà còn 'soi xét' các vùng nghi ngờ nhỏ hơn.
+*   **Chú trọng vùng giảm tín hiệu**: Khi phát hiện các khu vực giảm tín hiệu huỳnh quang, đây là chỉ điểm quan trọng. Sinh thiết chính xác tại các vị trí này đã được chứng minh là tăng hiệu quả chẩn đoán lên đáng kể (63.82% so với 29.55%). Điều này yêu cầu kỹ năng nội soi tinh tế và khả năng định vị chính xác để lấy mẫu sinh thiết đủ chất lượng.
+*   **Ứng dụng trong sàng lọc nhóm nguy cơ cao**: Như nghiên cứu đã chỉ ra, tỷ lệ ung thư phổi ở nhóm nghi ngờ (có triệu chứng hô hấp và X-quang ngực bất thường) là rất cao (76.40%). Đối với những bệnh nhân này, nội soi phế quản huỳnh quang không chỉ là một công cụ chẩn đoán mà còn là một phần của chiến lược sàng lọc sớm, giúp phát hiện bệnh ở giai đoạn có thể can thiệp hiệu quả hơn.
+*   **Ghi nhận và theo dõi**: Luôn ghi lại vị trí, kích thước, và đặc điểm của các vùng giảm tín hiệu. Đối với các tổn thương tiền ung thư, việc theo dõi định kỳ bằng nội soi huỳnh quang có thể giúp phát hiện sự tiến triển sớm và can thiệp kịp thời.
+**2. Tài liệu tham khảo và Khóa học CME khuyến nghị:**
+Để nâng cao kiến thức và kỹ năng thực hành, bạn có thể tham khảo các nguồn sau:
+*   **Tài liệu tham khảo chuyên sâu:**
+    *   **Tên tài liệu**: Principles and Practice of Interventional Pulmonology
+    *   **Mô tả**: Đây là một tài liệu toàn diện về các kỹ thuật phổi can thiệp, bao gồm cả nội soi phế quản huỳnh quang và các phương pháp chẩn đoán tiên tiến khác. Sách cung cấp kiến thức nền tảng vững chắc và hướng dẫn thực hành chi tiết, rất phù hợp cho bác sĩ muốn đi sâu vào lĩnh vực này.
+    *   **Tên tài liệu**: A comparison of autofluorescence bronchoscopy and white light bronchoscopy in detection of lung cancer and preneoplastic lesions: a meta -analysis
+    *   **Mô tả**: Bài báo tổng quan này cung cấp cái nhìn tổng thể về hiệu quả so sánh giữa hai phương pháp, giúp bạn hiểu rõ hơn về bằng chứng khoa học đằng sau các khuyến nghị lâm sàng. Việc đọc các meta-analysis sẽ củng cố khả năng đánh giá tài liệu khoa học của bạn.
+*   **Khóa học CME (Continuing Medical Education):**
+    *   **Tên khóa học**: Kỹ thuật Nội soi Phế quản Can thiệp và Chẩn đoán Sớm Ung thư Phổi
+    *   **Mô tả**: Khóa học này sẽ tập trung vào các kỹ thuật nội soi phế quản nâng cao, bao gồm cả nội soi huỳnh quang, siêu âm nội phế quản (EBUS), và các phương pháp sinh thiết hiện đại. Bạn sẽ được học về chỉ định, cách thực hiện, xử lý biến chứng và cách tích hợp các kỹ thuật này vào phác đồ chẩn đoán ung thư phổi. Đây là cơ hội tuyệt vời để thực hành và trao đổi kinh nghiệm với các chuyên gia hàng đầu.
+Việc kết hợp học hỏi lý thuyết từ các tài liệu uy tín và tham gia các khóa học thực hành sẽ giúp bạn tự tin và thành thạo hơn trong việc áp dụng nội soi phế quản huỳnh quang, góp phần vào chẩn đoán và điều trị ung thư phổi hiệu quả, phù hợp với các tiêu chuẩn của Bộ Y tế và ICD-10.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, tại sao vạt da xuyên nhánh động mạch bắp chân trong (MSAP flap) lại quan trọng trong phẫu thuật tái tạo, và những cân nhắc giải phẫu nào mà một phẫu thuật viên trẻ cần đặc biệt lưu ý khi thực hiện loại vạt này?</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Chào bạn, một phẫu thuật viên trẻ cần hiểu rõ tầm quan trọng và các chi tiết giải phẫu của vạt MSAP để đảm bảo kết quả phẫu thuật tối ưu. Đây là một vạt da cơ rất giá trị trong phẫu thuật tái tạo bởi những lý do sau:
+*   **Tính ổn định và đáng tin cậy**: Động mạch bắp chân trong có nguồn gốc hằng định từ động mạch khoeo, cung cấp một cuống mạch vững chắc. Điều này giúp vạt MSAP có tỉ lệ thành công cao khi chuyển vạt.
+*   **Nguồn cấp máu độc lập**: Vạt này được nuôi dưỡng hoàn toàn bởi các nhánh xuyên cơ da, giúp bảo tồn khối cơ bụng chân, giảm thiểu biến chứng chức năng cho vùng lấy vạt.
+*   **Đa dạng trong ứng dụng**: Kích thước vạt có thể linh hoạt, phù hợp cho nhiều loại khuyết hổng khác nhau, đặc biệt ở chi dưới.
+Khi thực hiện vạt MSAP, bạn cần đặc biệt lưu ý các điểm giải phẫu quan trọng để xác định chính xác các nhánh xuyên và thiết kế vạt:
+1.  **Điểm xuất phát của động mạch bắp chân trong**: Luôn xuất phát từ động mạch khoeo. Việc này giúp bạn dễ dàng xác định vị trí ban đầu của cuống mạch.
+2.  **Đường kính và chiều dài cuống mạch**: Chiều dài trung bình thân chung là 8,39 ± 3,5 cm và đường kính trung bình là 2,88 ± 0,98 mm. Những thông số này rất quan trọng để đánh giá khả năng xoay hoặc chuyển vạt tự do.
+3.  **Số lượng nhánh xuyên**: Có từ 1 đến 5 nhánh xuyên lên da. Việc xác định các nhánh này trước mổ bằng siêu âm Doppler hoặc trong mổ là cực kỳ quan trọng.
+4.  **Vị trí các nhánh xuyên**:
+    *   Khoảng cách từ nhánh xuyên đến nếp khoeo: trung bình 10,12 ± 3,7 cm.
+    *   Khoảng cách từ nhánh xuyên đến đường giữa sau cẳng chân: trung bình 1,6 ± 0,96 cm.
+Ghi nhớ các mốc giải phẫu này sẽ giúp bạn định vị chính xác các nhánh xuyên, đảm bảo vạt được lấy có đủ nguồn nuôi dưỡng.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Giải phẫu phẫu thuật các vạt tự do và vạt cuống trong phẫu thuật tạo hình</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức nền tảng và chuyên sâu về giải phẫu học liên quan đến các kỹ thuật chuyển vạt, đặc biệt là vạt tự do và vạt cuống. Đây là tài liệu thiết yếu cho các bác sĩ và sinh viên y khoa muốn nắm vững các nguyên tắc cơ bản và nâng cao trong phẫu thuật tái tạo.</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Khóa học phẫu thuật vi phẫu tái tạo nâng cao</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các kỹ thuật vi phẫu tiên tiến trong phẫu thuật tái tạo, bao gồm thiết kế, lấy và chuyển các vạt tự do như MSAP. Học viên sẽ được thực hành trên mô hình và cadaver để nâng cao kỹ năng lâm sàng và lý thuyết.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Xin chuyên gia hướng dẫn về các thông số giải phẫu chi tiết của động mạch bắp chân trong và các nhánh xuyên của nó, cùng với cách ứng dụng các thông số này trong việc lập kế hoạch phẫu thuật vạt MSAP hiệu quả nhất?</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Tuyệt vời! Việc nắm vững các thông số giải phẫu định lượng là chìa khóa để một phẫu thuật viên tự tin và thành công khi thực hiện vạt MSAP. Dựa trên nghiên cứu được trình bày, chúng ta có những thông tin quý giá sau:
+**Các thông số giải phẫu quan trọng của động mạch bắp chân trong và nhánh xuyên:**
+| Thông số giải phẫu                  | Giá trị trung bình (± độ lệch chuẩn) | Ý nghĩa lâm sàng                                                                |
+| :---------------------------------- | :----------------------------------- | :----------------------------------------------------------------------------- |
+| Chiều dài thân chung động mạch      | 8,39 ± 3,5 cm                        | Ảnh hưởng đến khả năng xoay và chuyển vạt, đặc biệt khi cần độ dài cuống mạch. |
+| Đường kính thân chung động mạch     | 2,88 ± 0,98 mm                       | Quan trọng cho kỹ thuật vi phẫu nối mạch, ảnh hưởng đến lưu lượng máu của vạt. |
+| Số lượng nhánh xuyên lên da         | 1 đến 5 nhánh                         | Xác định sự phong phú của nguồn cấp máu cho vạt, ảnh hưởng đến kích thước vạt. |
+| Khoảng cách từ nhánh xuyên đến nếp khoeo | 10,12 ± 3,7 cm                      | Mốc giải phẫu quan trọng để định vị nhánh xuyên theo chiều dọc.                 |
+| Khoảng cách từ nhánh xuyên đến đường giữa sau cẳng chân | 1,6 ± 0,96 cm                  | Mốc giải phẫu quan trọng để định vị nhánh xuyên theo chiều ngang, giúp thiết kế vạt chính xác hơn. |
+**Ứng dụng trong lập kế hoạch phẫu thuật:**
+*   **Trước mổ**:
+    *   Sử dụng siêu âm Doppler màu để xác định vị trí, đường kính và độ nông của các nhánh xuyên tiềm năng. Tập trung vào vùng cách nếp khoeo khoảng 7-14 cm và cách đường giữa sau cẳng chân khoảng 0.5-2.5 cm để tìm các nhánh đáng tin cậy nhất.
+    *   Vẽ sơ đồ các nhánh xuyên lên da bệnh nhân để có cái nhìn trực quan nhất về các lựa chọn vạt.
+*   **Trong mổ**:
+    *   Khi bóc tách, hãy cẩn thận tìm kiếm các nhánh xuyên trong vùng đã định vị trước mổ.
+    *   Đánh giá kỹ đường kính của nhánh xuyên được chọn; nhánh có đường kính lớn hơn thường cho cuống mạch đáng tin cậy hơn.
+    *   Nếu cần cuống mạch dài, hãy lưu ý đến chiều dài thân chung động mạch để đảm bảo đủ độ dài cho việc nối vi phẫu mà không bị căng.
+Việc tích hợp kiến thức giải phẫu định lượng này vào quá trình chuẩn bị và thực hiện sẽ giúp bạn tối ưu hóa thiết kế vạt, giảm thiểu rủi ro biến chứng và đạt được kết quả phẫu thuật tái tạo vượt trội.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Atlas Giải Phẫu Vi Phẫu và Các Kỹ Thuật Vạt</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Tài liệu này là một atlas toàn diện, cung cấp hình ảnh minh họa chi tiết và hướng dẫn từng bước về giải phẫu vi phẫu, đặc biệt tập trung vào các kỹ thuật lấy vạt. Nó là một nguồn tài nguyên không thể thiếu cho các bác sĩ và sinh viên y khoa thực hành phẫu thuật tái tạo.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Workshop Thực hành trên Cadaver: Kỹ thuật Lấy Vạt Xuyên Nhánh</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành chuyên sâu này cho phép học viên trực tiếp bóc tách trên cadaver để xác định và bảo tồn các nhánh xuyên, đặc biệt là trong vạt MSAP. Học viên sẽ được hướng dẫn chi tiết về các mốc giải phẫu và kỹ thuật lấy vạt một cách an toàn và hiệu quả.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Để nâng cao kỹ năng tái tạo, một phẫu thuật viên cần hiểu vai trò của vạt xuyên nhánh (perforator flaps) nói chung và vạt MSAP nói riêng như thế nào? Chuyên gia có thể đề xuất các tài liệu và khóa học CME để phát triển chuyên môn trong lĩnh vực này không?</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Chắc chắn rồi! Để trở thành một phẫu thuật viên tái tạo giỏi, việc hiểu sâu sắc về vạt xuyên nhánh là một bước tiến quan trọng. Khái niệm 'vạt xuyên nhánh' đã cách mạng hóa phẫu thuật tái tạo kể từ khi được Koshima và Soeda giới thiệu vào năm 1989.
+**Vai trò của vạt xuyên nhánh trong phẫu thuật tái tạo:**
+*   **Bảo tồn chức năng vùng cho**: Các vạt này chỉ lấy phần da và mô dưới da cùng với cuống mạch xuyên qua cơ, không lấy toàn bộ khối cơ. Điều này giúp giảm thiểu đáng kể tổn thương chức năng cho vùng cho, một ưu điểm vượt trội so với các vạt cơ da truyền thống.
+*   **Linh hoạt trong thiết kế**: Cho phép tạo ra các vạt mỏng hơn, mềm mại hơn, phù hợp hơn với các vùng khuyết hổng phức tạp, đặc biệt là ở những vùng cần tính thẩm mỹ cao.
+*   **Đa dạng nguồn vạt**: Có rất nhiều vị trí trên cơ thể có thể lấy vạt xuyên nhánh, mang lại nhiều lựa chọn cho phẫu thuật viên.
+*   **Vạt MSAP là một ví dụ điển hình**: Do có các nhánh xuyên hằng định và đáng tin cậy, vạt MSAP từ cẳng chân đã trở thành một lựa chọn ưu việt để tái tạo các khuyết hổng ở chi dưới và nhiều vùng khác.
+**Để phát triển chuyên môn trong lĩnh vực này, bạn nên tập trung vào:**
+*   **Nắm vững giải phẫu vi phẫu**: Đây là nền tảng. Bạn cần hiểu sâu về nguồn gốc, đường đi, đường kính và các mối liên hệ của các mạch máu xuyên nhánh trên nhiều vùng cơ thể, không chỉ riêng MSAP.
+*   **Kỹ thuật vi phẫu**: Thành thạo các kỹ năng nối mạch máu, thần kinh dưới kính hiển vi là điều kiện tiên quyết cho sự thành công của vạt tự do.
+**Tài liệu tham khảo và khóa học CME được đề xuất:**
+*   **Tài liệu khoa học**:
+    *   **Sách giáo khoa**: "Grabb and Smith's Plastic Surgery" hoặc "Mathes and Nahai's Reconstructive Surgery: Principles, Anatomy, &amp; Technique". Đây là những tác phẩm kinh điển cung cấp kiến thức toàn diện.
+    *   **Bài báo gốc**: Đọc các bài báo của Koshima và Soeda về "perforator flap" để hiểu lịch sử và triết lý ban đầu. Nghiên cứu các bài báo mới nhất trên các tạp chí uy tín như "Plastic and Reconstructive Surgery" hoặc "Journal of Reconstructive Microsurgery" để cập nhật xu hướng và kỹ thuật mới.
+*   **Khóa học CME**:
+    *   **Khóa đào tạo cơ bản về vi phẫu**: Quan trọng để xây dựng nền tảng kỹ năng nối mạch.
+    *   **Khóa học chuyên sâu về vạt xuyên nhánh**: Các khóa học này thường có phần lý thuyết và thực hành trên cadaver, giúp bạn trực tiếp nhận diện và bóc tách các nhánh xuyên.
+    *   **Hội thảo quốc tế về phẫu thuật tái tạo**: Tham gia các hội nghị giúp bạn tiếp cận với các chuyên gia hàng đầu, cập nhật công nghệ và kỹ thuật mới nhất, đồng thời mở rộng mạng lưới quan hệ.
+Hãy nhớ rằng, sự kiên trì trong học tập và thực hành là chìa khóa để bạn trở thành một chuyên gia phẫu thuật tái tạo tài năng!</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Phẫu Thuật Tái Tạo: Nguyên Lý, Giải Phẫu &amp; Kỹ Thuật của Mathes và Nahai</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Đây là một cuốn sách giáo khoa toàn diện về phẫu thuật tái tạo, bao gồm các nguyên lý cơ bản, giải phẫu chi tiết và kỹ thuật lâm sàng của nhiều loại vạt, đặc biệt là các vạt xuyên nhánh. Rất hữu ích cho cả sinh viên và bác sĩ chuyên khoa.</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Hội Thảo Quốc Tế về Phẫu Thuật Vi Phẫu và Tái Tạo</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Hội thảo thường niên này quy tụ các chuyên gia hàng đầu thế giới trong lĩnh vực vi phẫu và tái tạo. Các buổi thuyết trình, workshop và ca phẫu thuật trực tiếp sẽ cung cấp những kiến thức và kỹ năng tiên tiến nhất về các kỹ thuật vạt xuyên nhánh và phẫu thuật tái tạo phức tạp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt trong phẫu thuật tái tạo và giải phẫu ứng dụng.</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi chuẩn bị thực hiện vạt da tưới máu bởi nhánh xuyên động mạch bắp chân trong (medial sural artery perforator flap - MSAPF) để tái tạo khuyết hổng vùng đầu cổ, những kiến thức giải phẫu trọng yếu nào về động mạch bắp chân trong mà một phẫu thuật viên trẻ cần nắm vững để đảm bảo an toàn và hiệu quả cho ca mổ?</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Để thành công với vạt MSAPF, đặc biệt khi thực hiện tái tạo khuyết hổng vùng đầu cổ, một phẫu thuật viên trẻ cần nắm vững các khía cạnh giải phẫu sau đây của động mạch bắp chân trong (medial sural artery) và các nhánh xuyên của nó:
+*   **Đặc điểm hình thái và phân nhánh:**
+    *   **Tính ổn định của động mạch bắp chân:** Động mạch bắp chân trong luôn có các nhánh. Số lượng nhánh xuyên của động mạch bắp chân trong thường dao động từ 1 đến 8, trung bình có ít nhất 2 nhánh. Phẫu thuật viên cần biết rằng có thể có sự biến đổi lớn giữa các cá thể.
+    *   **Vị trí các nhánh:** Các nhánh xuyên thường xuất phát từ động mạch bắp chân trong ở khoảng cách từ 5 đến 19 cm tính từ nếp khoeo (popliteal crease) và từ 0.3 đến 7 cm tính từ đường giữa cơ bụng chân (gastrocnemius midline). Việc xác định chính xác vị trí các nhánh xuyên quan trọng này trước mổ là tối cần thiết.
+    *   **Chiều dài cuống mạch:** Chiều dài cuống mạch (pedicle) của vạt MSAPF thường đạt ít nhất 7.7 cm. Chiều dài này rất quan trọng để đảm bảo khả năng xoay hoặc di chuyển vạt đến vị trí khuyết hổng mà không bị căng, đặc biệt trong phẫu thuật vi phẫu vùng đầu cổ.
+*   **Kỹ thuật xác định nhánh xuyên:**
+    *   **Thăm khám lâm sàng và siêu âm Doppler:** Trước mổ, cần sử dụng siêu âm Doppler cầm tay để định vị các nhánh xuyên tiềm năng, đánh dấu trên da. Đây là bước chuẩn bị không thể thiếu.
+    *   **CT Angiography (CTA):** Trong những trường hợp phức tạp hoặc khi cần độ chính xác cao hơn, CTA có thể giúp hình dung rõ ràng hơn về giải phẫu mạch máu và các nhánh xuyên, hỗ trợ lập kế hoạch phẫu thuật chi tiết.
+    *   **Giải phẫu trên xác:** Việc thực hành giải phẫu trên xác là một phương pháp tuyệt vời để hiểu rõ hơn về các biến thể giải phẫu, vị trí các nhánh xuyên và cách bóc tách an toàn. Các nghiên cứu như của Cadavas (2001) hay Otani (2012) trên xác đã cung cấp cơ sở dữ liệu quan trọng về các đặc điểm này.
+*   **Cân nhắc lâm sàng:**
+    *   **Lựa chọn nhánh xuyên ưu tiên:** Cần lựa chọn nhánh xuyên có đường kính và chiều dài phù hợp, đảm bảo tưới máu tốt nhất cho vạt và đủ chiều dài cho các mối nối vi phẫu.
+    *   **Phòng ngừa tổn thương cuống mạch:** Khi bóc tách, cần hết sức cẩn trọng để tránh tổn thương các nhánh xuyên nhỏ hoặc cuống mạch chính, vì điều này có thể dẫn đến thất bại vạt.
+Việc nắm vững những kiến thức giải phẫu này không chỉ giúp bạn thực hiện ca phẫu thuật một cách tự tin hơn mà còn giảm thiểu rủi ro biến chứng, tối ưu hóa kết quả tái tạo cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Giải phẫu Người Tập I: Hệ Cơ - Xương - Khớp, Hệ Mạch Máu, Hệ Thần Kinh (Sách giáo trình Y học)</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Tài liệu cơ bản và chuyên sâu về giải phẫu học, cung cấp kiến thức chi tiết về hệ mạch máu chi dưới, đặc biệt là động mạch bắp chân và các nhánh xuyên, rất cần thiết cho sinh viên y khoa và bác sĩ phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Khóa học Chuyên sâu về Vạt Vi phẫu trong Tái tạo Vùng Đầu Mặt Cổ</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp kiến thức lý thuyết và thực hành nâng cao về các loại vạt tự do, bao gồm vạt MSAPF, kỹ thuật vi phẫu, và quản lý các trường hợp phức tạp trong phẫu thuật tái tạo vùng đầu mặt cổ, phù hợp cho phẫu thuật viên muốn chuyên sâu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ phân tích phương pháp nghiên cứu, đánh giá bằng chứng khoa học và ứng dụng kết quả nghiên cứu vào thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ đang muốn tham gia nghiên cứu khoa học, tôi thấy bài viết đề cập đến phương pháp nghiên cứu trên xác. Xin chuyên gia cho biết ý nghĩa và những điểm cần lưu ý khi thực hiện một nghiên cứu giải phẫu trên xác như nghiên cứu về vạt MSAPF được đề cập?</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Nghiên cứu trên xác (cadaveric dissection study) là một phương pháp cốt lõi và vô cùng giá trị trong y học, đặc biệt là trong lĩnh vực giải phẫu ứng dụng và phẫu thuật. Đối với một bác sĩ trẻ mong muốn tham gia nghiên cứu, hiểu rõ về phương pháp này là rất quan trọng:
+*   **Ý nghĩa của nghiên cứu trên xác:**
+    *   **Độ chính xác giải phẫu:** Cung cấp thông tin giải phẫu chi tiết, chính xác về cấu trúc mạch máu, thần kinh, cơ bắp mà các phương pháp hình ảnh không thể thay thế hoàn toàn. Ví dụ, việc xác định đường đi, số lượng, kích thước các nhánh xuyên của động mạch bắp chân trong chỉ có thể thực hiện tối ưu trên xác.
+    *   **Mô phỏng phẫu thuật:** Cho phép phẫu thuật viên thực hành các kỹ thuật bóc tách, nâng vạt, nối mạch trong một môi trường không áp lực, giúp nâng cao kỹ năng và hiểu biết về không gian phẫu thuật trước khi áp dụng trên bệnh nhân sống.
+    *   **Phát hiện biến thể giải phẫu:** Giúp phát hiện các biến thể giải phẫu hiếm gặp, điều này rất quan trọng để phòng ngừa biến chứng trong lâm sàng.
+    *   **Nền tảng cho kỹ thuật mới:** Là cơ sở để phát triển và hoàn thiện các kỹ thuật phẫu thuật mới, như việc xác định các vạt da có cuống mạch ổn định như vạt MSAPF.
+*   **Những điểm cần lưu ý khi thực hiện nghiên cứu trên xác:**
+    *   **Đạo đức nghiên cứu:** Đây là yếu tố tiên quyết. Cần đảm bảo rằng tất cả các xác được sử dụng đều có nguồn gốc hợp pháp, được hiến tặng tự nguyện và có sự chấp thuận của hội đồng đạo đức. Sự tôn trọng đối với người hiến xác là bắt buộc.
+    *   **Bảo quản xác:** Phương pháp bảo quản (formalin, tươi) ảnh hưởng đến tính chất mô và mạch máu. Ví dụ, việc bơm latex đỏ hoặc chì tetroxit vào mạch máu (như nghiên cứu của Altaf 2011, Wong 2012) giúp hình dung rõ ràng hơn hệ thống mạch, nhưng cần kỹ thuật bảo quản phù hợp.
+    *   **Kỹ thuật bóc tách chuẩn xác:** Phải tuân thủ quy trình bóc tách đã được chuẩn hóa, ghi chép chi tiết từng bước. Sử dụng các công cụ phù hợp để tránh làm hỏng cấu trúc cần nghiên cứu.
+    *   **Đo đạc và thu thập dữ liệu:** Cần có kế hoạch rõ ràng về các thông số cần đo đạc (chiều dài, đường kính mạch, số lượng nhánh, vị trí), đảm bảo tính khách quan và chính xác của dữ liệu. Sử dụng dụng cụ đo chuyên dụng và ghi chép có hệ thống.
+    *   **Phân tích dữ liệu:** Sử dụng các phương pháp thống kê phù hợp để phân tích các số liệu thu được, rút ra kết luận có ý nghĩa lâm sàng. So sánh với các nghiên cứu trước đây (như nghiên cứu của Cadavas 2001, Hallock 2001, Thione 2004, Okamoto 2007, Torres 2007) để xác định sự tương đồng hoặc khác biệt.
+*   **Ví dụ về các thông số trong nghiên cứu giải phẫu trên xác:**
+| Thông số giải phẫu             | Khoảng giá trị theo các nghiên cứu trước | Ghi chú                                   |
+| :----------------------------- | :------------------------------------- | :---------------------------------------- |
+| Số lượng nhánh xuyên MSAPF      | 1 - 8 (trung bình &gt;= 2)                 | Có sự khác biệt giữa các cá thể và chủng tộc |
+| Chiều dài từ nếp khoeo đến nhánh | 5 - 19 cm                              | Quan trọng cho định vị điểm xuất phát     |
+| Chiều dài từ đường giữa cơ bụng chân đến nhánh | 0.3 - 7 cm                             | Giúp xác định vị trí tương đối trên cơ   |
+| Chiều dài cuống mạch           | Tối thiểu 7.7 cm                        | Cần thiết cho khả năng di chuyển vạt     |
+Thực hiện một nghiên cứu trên xác đòi hỏi sự tỉ mỉ, kiên nhẫn và kiến thức giải phẫu vững chắc. Đó là một con đường tuyệt vời để đóng góp vào tri thức y học và nâng cao kỹ năng của bản thân.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Cẩm nang Phương pháp Nghiên cứu Khoa học trong Y học</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Cuốn sách hướng dẫn chi tiết về các loại hình nghiên cứu y học, thiết kế nghiên cứu, thu thập và phân tích dữ liệu, đặc biệt nhấn mạnh về đạo đức và kỹ thuật trong nghiên cứu trên xác.</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Workshop: Kỹ thuật Bóc tách Giải phẫu trên Xác và Nghiên cứu Ứng dụng</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành chuyên sâu về các kỹ thuật bóc tách giải phẫu trên xác, cách thu thập dữ liệu chính xác và thiết kế nghiên cứu giải phẫu ứng dụng, dành cho các bác sĩ và sinh viên y khoa có định hướng nghiên cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin lâm sàng, hướng dẫn chẩn đoán, điều trị và phòng ngừa bệnh tật, đặc biệt trong các kỹ thuật phẫu thuật phức tạp.</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Chuyên gia có thể phân tích sâu hơn về ứng dụng lâm sàng của vạt da tưới máu bởi nhánh xuyên động mạch bắp chân trong (MSAPF) trong điều trị các khuyết hổng, đặc biệt là ở vùng đầu và cổ, và những cân nhắc quan trọng nào khi lựa chọn vạt này?</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Vạt da tưới máu bởi nhánh xuyên động mạch bắp chân trong (MSAPF) đã trở thành một lựa chọn tái tạo quý giá trong phẫu thuật tạo hình, đặc biệt là cho các khuyết hổng vùng đầu và cổ. Đây là những điểm mà một bác sĩ trẻ cần ghi nhớ:
+*   **Ưu điểm nổi bật của vạt MSAPF:**
+    *   **Mô mềm, dẻo dai:** Vạt da này cung cấp mô mềm mại, linh hoạt, rất phù hợp để tái tạo các vùng có đường cong tự nhiên như mặt, cổ, hoặc niêm mạc miệng, giúp đạt được kết quả thẩm mỹ và chức năng tốt.
+    *   **Vết sẹo vùng cho kín đáo:** Vết sẹo sau khi lấy vạt ở vùng bắp chân có thể được che giấu tốt, giảm thiểu ảnh hưởng thẩm mỹ cho bệnh nhân.
+    *   **Tỷ lệ biến chứng vùng cho thấp:** So với nhiều loại vạt khác, vùng bắp chân là một vùng cho có tỷ lệ biến chứng thấp, ít gây ảnh hưởng đến chức năng vận động.
+    *   **Chiều dài cuống mạch đáng kể:** Với chiều dài cuống mạch trung bình trên 7.7 cm, vạt MSAPF cung cấp đủ độ dài cần thiết cho việc nối mạch vi phẫu, đặc biệt khi khuyết hổng ở xa nguồn mạch nhận.
+*   **Ứng dụng lâm sàng trong điều trị khuyết hổng vùng đầu cổ:**
+    *   **Tái tạo khuyết hổng sau ung thư:** Rất hiệu quả trong việc lấp đầy các khuyết hổng sau phẫu thuật cắt bỏ khối u ác tính ở khoang miệng, họng, hàm, mặt, hoặc vùng da đầu cổ.
+    *   **Sửa chữa khuyết hổng chấn thương:** Dùng cho các trường hợp chấn thương phức tạp vùng đầu cổ gây mất mô mềm nghiêm trọng.
+    *   **Khuyết hổng bẩm sinh:** Trong một số trường hợp, có thể được cân nhắc để sửa chữa các dị tật bẩm sinh.
+*   **Những cân nhắc quan trọng khi lựa chọn vạt MSAPF:**
+    *   **Đánh giá tiền phẫu kỹ lưỡng:**
+        *   **Tình trạng mạch máu vùng cho:** Bắt buộc phải đánh giá hệ thống động mạch chi dưới bằng lâm sàng (bắt mạch, siêu âm Doppler) và đôi khi là hình ảnh học (CT Angiography) để đảm bảo động mạch bắp chân trong và các nhánh xuyên đủ điều kiện để lấy vạt.
+        *   **Kích thước khuyết hổng:** Xác định chính xác kích thước và độ sâu của khuyết hổng để chọn vạt có kích thước phù hợp, tránh lấy quá lớn hoặc quá nhỏ.
+        *   **Nhu cầu về loại mô:** Đánh giá xem khuyết hổng cần loại mô gì (chỉ da, da và mô dưới da) để tùy chỉnh việc lấy vạt cho phù hợp.
+    *   **Kinh nghiệm của phẫu thuật viên:** Phẫu thuật lấy vạt MSAPF và nối mạch vi phẫu đòi hỏi kỹ năng cao và kinh nghiệm về vi phẫu thuật. Phẫu thuật viên cần được đào tạo bài bản và có kinh nghiệm thực hành.
+    *   **Tình trạng sức khỏe tổng thể của bệnh nhân:** Đánh giá các bệnh lý nền (tim mạch, tiểu đường, hút thuốc lá) có thể ảnh hưởng đến quá trình lành vết thương và tỷ lệ thành công của vạt.
+    *   **Khả năng theo dõi sau mổ:** Vạt vi phẫu cần được theo dõi sát sao sau mổ để phát hiện sớm các biến chứng (huyết khối, tắc mạch) và can thiệp kịp thời.
+Việc lựa chọn MSAPF phải dựa trên sự cân nhắc kỹ lưỡng giữa lợi ích tiềm năng của vạt và các yếu tố rủi ro, nhằm mang lại kết quả tối ưu cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Atlas Phẫu thuật Tạo hình Vùng Đầu Mặt Cổ</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Tập hợp các kỹ thuật phẫu thuật tạo hình và tái tạo chi tiết cho vùng đầu mặt cổ, bao gồm các phương pháp sử dụng vạt tự do và vạt có cuống, với hình ảnh minh họa phong phú và hướng dẫn từng bước.</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Chuyên đề: Quản lý và Tái tạo Khuyết hổng Phức tạp Vùng Đầu Cổ</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào các trường hợp lâm sàng khó và phức tạp trong tái tạo vùng đầu cổ, thảo luận các chiến lược phẫu thuật tiên tiến, bao gồm việc sử dụng vạt MSAPF, quản lý biến chứng và tối ưu hóa kết quả chức năng và thẩm mỹ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt hướng dẫn sinh viên y khoa và bác sĩ trẻ trong lĩnh vực giải phẫu và phẫu thuật tạo hình.</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Các bác sĩ phẫu thuật tạo hình và sinh viên y khoa cần lưu ý những đặc điểm giải phẫu nào của động mạch bắp chân trong và các nhánh xuyên của nó để đảm bảo thành công trong phẫu thuật vạt?</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc nắm vững giải phẫu động mạch bắp chân trong (medial sural artery - MSA) và các nhánh xuyên (perforators) của nó là tối quan trọng đối với phẫu thuật tạo hình, đặc biệt là trong phẫu thuật vạt tự do. Dưới đây là những điểm chính mà bạn cần lưu ý và cách tiếp cận dựa trên kinh nghiệm lâm sàng và nghiên cứu:
+*   **Sự hiện diện thường xuyên:** Luôn nhớ rằng động mạch bắp chân trong và các nhánh xuyên của nó gần như 100% tồn tại ở tất cả các mẫu mổ xác được khảo sát. Điều này cung cấp một nguồn mạch máu đáng tin cậy cho việc lấy vạt, giúp các bác sĩ tự tin hơn khi lựa chọn vạt MSA trong nhiều trường hợp. Đây là một lợi thế lớn so với một số vạt khác có tỷ lệ biến thể cao.
+*   **Số lượng và vị trí nhánh xuyên:**
+    *   Nghiên cứu chỉ ra rằng động mạch bắp chân trong thường cho ít nhất 1 nhánh xuyên, với số lượng có thể lên đến 5 nhánh. Trung bình là 3.35 ± 0.91 nhánh. Điều này có nghĩa là bạn có thể kỳ vọng tìm thấy từ 2 đến 4 nhánh xuyên có ý nghĩa lâm sàng trong hầu hết các trường hợp.
+    *   Các nhánh xuyên này thường nằm cách đường giữa phía sau bắp chân từ 0.39 cm đến 6.7 cm, với giá trị trung bình là 1.6 ± 0.96 cm. Khoảng cách này cung cấp một 'vùng an toàn' để bắt đầu tìm kiếm các nhánh xuyên một cách có hệ thống.
+    *   **Lời khuyên thực hành:** Trước khi mổ, hãy sử dụng siêu âm Doppler cầm tay hoặc Doppler màu để xác định vị trí chính xác của các nhánh xuyên, đặc biệt là những nhánh có đường kính lớn. Việc đánh dấu vị trí này trên da giúp định hướng đường mổ và giảm thời gian bóc tách, từ đó giảm thiểu tổn thương mô xung quanh và tối ưu hóa kết quả phẫu thuật.
+*   **Nguồn gốc của động mạch bắp chân trong:** Trong nghiên cứu này, 100% động mạch bắp chân trong bắt nguồn từ động mạch khoeo. Đường kính ngoài trung bình tại điểm xuất phát là 2.88 ± 0.98 mm. Sự ổn định về nguồn gốc này là một yếu tố thuận lợi.
+    *   **Ý nghĩa lâm sàng:** Mặc dù nghiên cứu này cho thấy nguồn gốc rất nhất quán, các bác sĩ trẻ cần biết rằng các nghiên cứu quốc tế khác có thể ghi nhận biến thể (ví dụ, thân chung với động mạch bắp chân ngoài). Do đó, việc tìm hiểu các tài liệu tham khảo đa dạng và sẵn sàng cho các biến thể là rất quan trọng. Luôn bóc tách cẩn thận từ gốc đến ngọn để xác định rõ nguồn cấp máu.
+*   **Các phát hiện giải phẫu khác:** Bên cạnh các nhánh xuyên từ động mạch bắp chân trong, nghiên cứu cũng ghi nhận một trường hợp đặc biệt (được ký hiệu là 47 trong bài báo) cho 4 nhánh trước khi xuyên vào cơ. Điều này nhấn mạnh tầm quan trọng của việc khám phá tỉ mỉ và nhận diện tất cả các nhánh mạch máu tiềm năng trong khu vực, không chỉ giới hạn ở các cấu trúc đã được mô tả phổ biến. Mỗi bệnh nhân là một cá thể và giải phẫu có thể có những bất ngờ.
+    *   **Hướng dẫn:** Luôn thực hiện bóc tách cẩn thận, từng lớp và sử dụng kính hiển vi hoặc loupe phóng đại để nhận diện các mạch máu nhỏ. Không chỉ tìm kiếm các nhánh xuyên đã biết mà còn phải chú ý đến các nhánh phụ hoặc biến thể có thể đóng vai trò quan trọng trong việc cung cấp máu cho vạt hoặc các cấu trúc lân cận cần được bảo tồn. Điều này sẽ giúp bạn trở thành một phẫu thuật viên giỏi và linh hoạt hơn.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Giải phẫu Lâm sàng và Phẫu thuật Tạo hình Chi Dưới: Động mạch Bắp chân Trong và Nhánh Xuyên.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp kiến thức giải phẫu lâm sàng chi tiết về chi dưới, bao gồm hệ thống mạch máu, thần kinh và cơ bắp, đặc biệt nhấn mạnh các ứng dụng trong phẫu thuật tạo hình và vi phẫu. Tài liệu này giúp bác sĩ lập kế hoạch phẫu thuật an toàn và hiệu quả, cũng như hiểu được các biến thể giải phẫu quan trọng cho việc lấy vạt.</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Các Nguyên tắc Cơ bản và Nâng cao trong Phẫu thuật Vạt Vi Phẫu.</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Khóa học này bao gồm các nguyên tắc cơ bản của phẫu thuật vạt vi phẫu, từ lựa chọn vạt, kỹ thuật lấy vạt, nối mạch, đến quản lý hậu phẫu và các biến chứng tiềm ẩn. Khóa học cung cấp các buổi thực hành trên mô hình hoặc xác để nâng cao kỹ năng bóc tách, nhận diện mạch máu và xử lý các tình huống giải phẫu phức tạp, rất hữu ích cho các bác sĩ trẻ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên và bác sĩ trẻ phân tích các nghiên cứu giải phẫu, đối chiếu kết quả và ứng dụng tư duy phản biện vào thực hành lâm sàng theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Khi đối mặt với sự khác biệt về giải phẫu động mạch bắp chân trong giữa các nghiên cứu (ví dụ, nghiên cứu này và nghiên cứu của Altaf), một bác sĩ trẻ nên xử lý thông tin này như thế nào trong lập kế hoạch phẫu thuật?</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Thật tuyệt vời khi bạn quan tâm đến việc đối chiếu các kết quả nghiên cứu! Đây là một kỹ năng tư duy phản biện cực kỳ quan trọng trong y học lâm sàng, đặc biệt khi chuẩn bị cho các ca phẫu thuật phức tạp. Khi bạn thấy sự khác biệt như giữa nghiên cứu này và nghiên cứu của Altaf về động mạch bắp chân trong (MSA), bạn cần tiếp cận một cách cẩn trọng và có hệ thống:
+1.  **Nhận diện và phân tích sự khác biệt:**
+    Nghiên cứu bạn vừa đọc chỉ ra rằng 100% MSA là nhánh của động mạch khoeo, với đường kính ngoài trung bình tại điểm phân nhánh là 2.88 ± 0.98 mm. Ngược lại, nghiên cứu của Altaf [13] cho thấy chỉ 70% MSA là nhánh của động mạch khoeo, và 30% có thân chung với động mạch bắp chân ngoài. Đường kính ngoài của MSA trong nghiên cứu của Altaf cũng có thể khác (dù dữ liệu này chưa được cung cấp đầy đủ trong đoạn văn).
+    Để dễ hình dung, chúng ta có thể tóm tắt các điểm khác biệt chính như sau:
+    | Đặc điểm giải phẫu          | Nghiên cứu hiện tại                      | Nghiên cứu của Altaf [13]                       |
+    | :-------------------------- | :-------------------------------------- | :--------------------------------------------- |
+    | Nguồn gốc MSA từ động mạch khoeo | 100%                                    | 70%                                            |
+    | Nguồn gốc MSA có thân chung với động mạch bắp chân ngoài | 0%                                      | 30%                                            |
+    | Đường kính ngoài trung bình MSA (tại điểm phân nhánh động mạch khoeo) | 2.88 ± 0.98 mm                            | Không nêu rõ (nhưng cần tìm hiểu thêm)           |
+2.  **Hiểu về yếu tố ảnh hưởng đến biến thể:**
+    *   **Dân tộc/Chủng tộc:** Các biến thể giải phẫu thường có sự khác biệt đáng kể giữa các quần thể dân tộc khác nhau. Đây là một lý do chính khiến kết quả từ các nghiên cứu ở các khu vực địa lý khác nhau có thể không hoàn toàn giống nhau.
+    *   **Phương pháp nghiên cứu:** Kỹ thuật mổ xác, số lượng mẫu (cỡ mẫu), tiêu chí định nghĩa các nhánh mạch máu, và độ chính xác của các phép đo có thể có sự khác biệt nhỏ giữa các nghiên cứu, dẫn đến kết quả khác nhau.
+    *   **Mức độ phân tích:** Một số nghiên cứu có thể tập trung vào các nhánh lớn hơn, trong khi các nghiên cứu khác phân tích chi tiết hơn các nhánh nhỏ.
+3.  **Ứng dụng trong lập kế hoạch phẫu thuật:**
+    *   **Không bao giờ coi một nghiên cứu là 'chân lý tuyệt đối':** Luôn coi các kết quả nghiên cứu là hướng dẫn chung và nhận thức rằng có thể có biến thể trên từng bệnh nhân cụ thể. Kiến thức giải phẫu là nền tảng, nhưng giải phẫu cá thể mới là quan trọng nhất.
+    *   **Thực hiện chẩn đoán hình ảnh tiền phẫu bắt buộc:** Với các vạt vi phẫu, siêu âm Doppler màu hoặc chụp mạch CT (CTA) là không thể thiếu để lập bản đồ mạch máu cụ thể cho từng bệnh nhân. Điều này giúp bạn xác định chính xác nguồn gốc, đường đi, đường kính và vị trí của các nhánh xuyên quan trọng, bao gồm MSA và các biến thể của nó, trước khi đặt dao.
+    *   **Sẵn sàng cho các tình huống khác nhau trên bàn mổ:** Luôn chuẩn bị tinh thần để đối mặt với những biến thể giải phẫu không ngờ tới. Kỹ năng bóc tách cẩn thận, từng lớp dưới kính hiển vi và khả năng thích ứng linh hoạt là chìa khóa để xử lý mọi tình huống không mong muốn.
+    *   **Học hỏi từ kinh nghiệm:** Ghi chép lại các trường hợp biến thể bạn gặp phải trong thực hành lâm sàng. Điều này sẽ củng cố kiến thức của bạn và giúp bạn trở thành một phẫu thuật viên giỏi và giàu kinh nghiệm hơn.
+Tóm lại, sự khác biệt giữa các nghiên cứu không phải là điều đáng lo ngại mà là cơ hội để bạn phát triển tư duy lâm sàng nhạy bén, biết cách kết hợp thông tin từ nhiều nguồn và luôn cá thể hóa kế hoạch điều trị cho từng bệnh nhân. Đây là dấu hiệu của một bác sĩ chuyên nghiệp và có trách nhiệm.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa Giải phẫu người: Hệ thống mạch máu chi dưới và các biến thể.</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp kiến thức nền tảng và chuyên sâu về giải phẫu hệ thống mạch máu chi dưới, giúp sinh viên và bác sĩ hiểu rõ về cấu trúc, đường đi, và đặc biệt là các biến thể giải phẫu của các động mạch, bao gồm động mạch bắp chân trong. Tài liệu này khuyến khích tư duy so sánh và đối chiếu với các nghiên cứu khác để có cái nhìn toàn diện.</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Biến thể giải phẫu mạch máu và ý nghĩa lâm sàng trong phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các biến thể giải phẫu phổ biến của hệ thống mạch máu, đặc biệt ở chi dưới, hướng dẫn cách nhận diện chúng qua các phương pháp chẩn đoán hình ảnh tiên tiến (như siêu âm Doppler, CTA, MRA) và cách điều chỉnh kế hoạch phẫu thuật để đảm bảo an toàn và hiệu quả. Khóa học cũng bàn về cách quản lý các biến chứng liên quan đến biến thể giải phẫu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên và bác sĩ trẻ hiểu và áp dụng các dữ liệu định lượng, bao gồm giá trị trung bình và độ lệch chuẩn (mean ± SD), trong nghiên cứu y học vào thực hành lâm sàng theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Dữ liệu định lượng về số lượng (mean ± SD) và khoảng cách từ các nhánh xuyên của động mạch bắp chân trong đến đường giữa bắp chân sau có ý nghĩa thực tiễn như thế nào đối với một bác sĩ phẫu thuật vi phẫu?</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Hiểu và áp dụng các dữ liệu định lượng (quantitative data) từ các nghiên cứu giải phẫu là một kỹ năng then chốt giúp bác sĩ phẫu thuật nâng cao hiệu quả và an toàn trong mỗi ca mổ. Đối với các phẫu thuật viên vi phẫu, đặc biệt là khi làm việc với vạt nhánh xuyên động mạch bắp chân trong (MSAP flap), các chỉ số 'mean ± SD' có ý nghĩa sâu sắc và mang tính định hướng cao:
+1.  **Ý nghĩa của 'Mean ± SD' trong việc định vị và đánh giá nhánh xuyên:**
+    *   **Số lượng nhánh xuyên:** Nghiên cứu cho thấy động mạch bắp chân trong cho trung bình 3.35 ± 0.91 nhánh xuyên, và số lượng nhánh đạt đỉnh ở 5. Điều này có nghĩa là bạn có thể kỳ vọng tìm thấy khoảng 2 đến 4 hoặc 5 nhánh xuyên có đường kính đủ lớn để sử dụng trong hầu hết các bệnh nhân (trong khoảng 1 độ lệch chuẩn từ giá trị trung bình). Khoảng này cung cấp một ngưỡng kỳ vọng.
+        *   **Ứng dụng:** Khi bóc tách, bạn sẽ biết được khoảng số lượng nhánh để tìm kiếm. Nếu bạn chỉ tìm thấy 1 nhánh và đang tìm kiếm một vạt lớn, bạn nên kiên trì hơn để tìm thêm các nhánh khác. Nếu bạn đã tìm thấy 4-5 nhánh khỏe mạnh, có thể đó là đủ và bạn có thể chuyển sang bước tiếp theo, tránh bóc tách quá mức gây tổn thương không cần thiết hoặc kéo dài thời gian phẫu thuật.
+    *   **Khoảng cách từ nhánh xuyên đến đường giữa bắp chân sau:** Giá trị trung bình là 1.6 ± 0.96 cm, dao động từ 0.39 cm đến 6.7 cm. Điều này cho thấy đa số các nhánh xuyên có thể tìm thấy khá gần đường giữa bắp chân.
+        *   **Ứng dụng:** Dữ liệu này cung cấp một 'khu vực có khả năng cao' (hot zone) để bạn bắt đầu tìm kiếm nhánh xuyên. Nó giúp định hướng cho đường mổ da ban đầu và khu vực bóc tách một cách hiệu quả nhất, đặc biệt là trong khoảng từ 0.64 cm đến 2.56 cm (tức là giá trị trung bình ± 1 SD). Việc tập trung vào khu vực này sẽ tăng khả năng tìm thấy các nhánh xuyên một cách nhanh chóng.
+2.  **Tối ưu hóa lập kế hoạch phẫu thuật và giảm rủi ro:**
+    *   **Thiết kế vạt chính xác:** Dữ liệu về vị trí giúp phẫu thuật viên thiết kế kích thước và hình dạng vạt da tối ưu, đảm bảo vạt có đủ nhánh xuyên có đường kính tốt để cấp máu, tránh các vùng có ít nhánh hoặc nhánh quá nhỏ không đủ nuôi vạt.
+    *   **Giảm thiểu thời gian phẫu thuật và biến chứng:** Khi có định hướng rõ ràng về vị trí và số lượng nhánh xuyên, quá trình bóc tách sẽ nhanh hơn, giảm thời gian gây mê, mất máu và các rủi ro liên quan đến phẫu thuật kéo dài. Điều này trực tiếp cải thiện an toàn cho bệnh nhân.
+    *   **Tăng tỷ lệ thành công của vạt:** Việc xác định và bóc tách các nhánh xuyên một cách chính xác sẽ đảm bảo nguồn cấp máu đầy đủ cho vạt, từ đó tăng tỷ lệ sống của vạt và kết quả thẩm mỹ, chức năng sau cùng.
+3.  **Giáo dục và đào tạo liên tục:**
+    *   Đối với sinh viên và bác sĩ trẻ, việc hiểu các con số này giúp xây dựng một 'bản đồ tinh thần' vững chắc về giải phẫu, hỗ trợ họ trong quá trình học tập và thực hành. Nó cũng khuyến khích tư duy dựa trên bằng chứng, thay vì chỉ dựa vào mô tả giải phẫu chung chung.
+    *   Việc phân tích các chỉ số thống kê giúp phát triển khả năng đánh giá nghiêm túc các nghiên cứu y học, một kỹ năng không thể thiếu để cập nhật kiến thức liên tục.
+Vì vậy, đừng chỉ đọc lướt qua các con số thống kê. Hãy đào sâu và suy nghĩ về ý nghĩa thực tiễn của chúng trong công việc hàng ngày của bạn! Nắm vững những dữ liệu định lượng này sẽ giúp bạn trở thành một phẫu thuật viên tự tin và hiệu quả hơn.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Tập san Y học Việt Nam: Nghiên cứu định lượng về Đặc điểm giải phẫu nhánh xuyên động mạch bắp chân trong.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Bài báo này trình bày chi tiết kết quả nghiên cứu định lượng về các đặc điểm giải phẫu của nhánh xuyên động mạch bắp chân trong, bao gồm số lượng và vị trí trung bình cùng độ lệch chuẩn. Đây là dữ liệu tham khảo quan trọng cho các phẫu thuật viên vi phẫu và nhà nghiên cứu để ứng dụng vào việc thiết kế vạt, tối ưu hóa kết quả phẫu thuật và nâng cao kiến thức giải phẫu cá thể.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Ứng dụng Thống kê Y học trong Phẫu thuật Tạo hình.</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Khóa học này hướng dẫn các bác sĩ cách đọc, hiểu và áp dụng các số liệu thống kê từ các nghiên cứu giải phẫu và lâm sàng để đưa ra quyết định phẫu thuật tối ưu, giảm thiểu rủi ro và cải thiện kết quả cho bệnh nhân. Khóa học bao gồm các bài tập thực hành về phân tích dữ liệu, thiết kế nghiên cứu và diễn giải kết quả, giúp bác sĩ nắm vững phương pháp tư duy dựa trên bằng chứng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, xin vui lòng giải thích về giải phẫu động mạch bắp chân trong (medial sural artery) và các nhánh xuyên của nó. Tại sao việc hiểu rõ các biến thể giải phẫu này lại quan trọng đối với các bác sĩ phẫu thuật?</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Chào bạn, rất vui được hướng dẫn bạn về chủ đề quan trọng này. Động mạch bắp chân trong (Medial Sural Artery - MSA) và các nhánh xuyên của nó đóng vai trò then chốt trong phẫu thuật tạo hình và tái tạo, đặc biệt trong các kỹ thuật vạt tự do. Để hiểu rõ hơn, chúng ta cần nắm vững các khía cạnh sau: 
+*   **Đặc điểm giải phẫu cơ bản**:
+    *   MSA là một nhánh của động mạch khoeo, cấp máu chủ yếu cho cơ bụng chân trong. 
+    *   Các nhánh xuyên của MSA là những mạch máu nhỏ xuyên qua cân cơ để cấp máu cho da và mô dưới da, tạo thành cơ sở cho các vạt da có cuống mạch xuyên (perforator flaps). 
+    *   Nghiên cứu của chúng tôi cho thấy đường kính ngoài trung bình của MSA là 3,01 ± 0,02 mm. Chiều dài cuống chính (từ gốc đến cơ bụng chân) trung bình là 8,39 mm ± 3,9 mm. 
+*   **Biến thể về số lượng nhánh xuyên**:
+    *   Nghiên cứu của chúng tôi chỉ ra rằng MSA có từ 1 đến 5 nhánh xuyên, với giá trị trung vị là 2 nhánh/mẫu vật. Điều này tương tự các nghiên cứu của Wong (4.4 nhánh) và Hallock (4 nhánh). 
+    *   Các nghiên cứu khác cũng ghi nhận sự đa dạng này, từ 1 đến 8 nhánh xuyên tùy thuộc vào tác giả và số lượng mẫu vật. 
+*   **Tầm quan trọng lâm sàng**:
+    *   **Phẫu thuật vạt tự do**: Vạt dựa trên các nhánh xuyên của MSA (ví dụ: Medial Sural Artery Perforator - MSAP flap) là lựa chọn tuyệt vời cho các khuyết hổng nhỏ và trung bình ở vùng đầu mặt cổ, chi trên và chi dưới do tính chất mạch máu đáng tin cậy và kích thước vạt có thể linh hoạt. 
+    *   **Giảm thiểu biến chứng**: Việc nắm vững giải phẫu, đặc biệt là vị trí và đường đi của các nhánh xuyên, giúp bác sĩ phẫu thuật: 
+        *   Lập kế hoạch phẫu thuật chính xác, chọn lựa nhánh xuyên tối ưu. 
+        *   Giảm thiểu thời gian phẫu thuật và nguy cơ tổn thương mạch máu hoặc thần kinh. 
+        *   Đảm bảo khả năng sống của vạt, tránh hoại tử vạt do thiếu máu nuôi. 
+    *   **Tiếp cận cá thể hóa**: Do có nhiều biến thể giải phẫu, việc khám lâm sàng, siêu âm Doppler hoặc CT Angiogram tiền phẫu là rất cần thiết để xác định chính xác các nhánh xuyên ở từng bệnh nhân. 
+Đây là bảng tổng hợp một số chỉ số từ các nghiên cứu trước đây về giải phẫu động mạch bắp chân trong và các nhánh xuyên của nó, giúp bạn có cái nhìn toàn diện hơn về sự đa dạng trong giải phẫu vùng này:
+| Tác giả       | Số mẫu vật | Số nhánh xuyên | Khoảng cách từ đường khớp (cm) | Khoảng cách từ nhánh xuyên đến đường giữa sau cẳng chân (cm) |
+| :------------ | :---------- | :------------- | :----------------------------- | :---------------------------------------------------------- |
+| Cavadas [6]   | 10          | 1 – 4          | 2,2                            | 8,5 – 19                                                    |
+| Hallock [7]   | 10          | 2 – 7          | 4,6 ± 1,8                      |                                                             |
+| Thione [8]    | 20          | 38/20          | 1,9                            | 7 – 18                                                      |
+| Shim [9]      | 40          |                | 9,68 ± 1,08*                   | Dọc theo đường nối giữa nếp khoeo và mắt cá trong           |
+| Okamoto [10]  | 44          | 1 – 5          | 5 – 17,5                       | 1,5 – 4,5                                                   |
+| Torres [11]   | 12          | 2 – 4          | 2,9                            | 10,7 – 14                                                   |
+| Kao [12]      | 26          | 1 – 5          | 2,7                            | 6 – 18                                                      |
+| Altaf [13]    | 20          | 1 – 5          | 2                              | 10,2 – 15,9                                                 |
+| Wong [14]     | 10          | 3 – 8          | 4,4                            | 6 – 22,5                                                    |
+| Otani [15]    | 47          | 1 – 5          | 2,4                            | 5 – 17,5                                                    |
+| Nghiên cứu này | 62          | 1 – 5          | 3,35                           | 5,1 – 18,73                                                 |
+*Lưu ý: Đối với Shim [9], 9,68 ± 1,08 là khoảng cách của nhánh xuyên đầu tiên bên dưới nếp khoeo.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Giải phẫu động mạch bắp chân trong và ứng dụng trong phẫu thuật vạt MSAP</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một cái nhìn tổng quan sâu sắc về giải phẫu động mạch bắp chân trong (medial sural artery) và các nhánh xuyên của nó, cùng với các biến thể thường gặp. Đặc biệt tập trung vào ứng dụng lâm sàng trong phẫu thuật vạt vi phẫu, giúp sinh viên và bác sĩ trẻ hiểu rõ cơ sở giải phẫu để lập kế hoạch và thực hiện phẫu thuật an toàn, hiệu quả.</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Kỹ thuật vạt mạch xuyên trong phẫu thuật tạo hình và tái tạo</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào lý thuyết và thực hành các kỹ thuật vạt mạch xuyên (perforator flaps), bao gồm vạt MSAP. Học viên sẽ được trang bị kiến thức chuyên sâu về giải phẫu ứng dụng, các phương pháp chẩn đoán tiền phẫu, quy trình phẫu thuật và quản lý biến chứng. Phù hợp cho bác sĩ phẫu thuật tạo hình, phẫu thuật viên tổng quát và sinh viên y khoa năm cuối muốn nâng cao kỹ năng vi phẫu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Các biến thể về cấu trúc và đường đi của động mạch bắp chân trong có thể ảnh hưởng như thế nào đến quyết định và kỹ thuật phẫu thuật, thưa chuyên gia? Bác sĩ trẻ cần lưu ý gì để giảm thiểu rủi ro?</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất thực tế và quan trọng trong phẫu thuật. Các biến thể về cấu trúc và đường đi của động mạch bắp chân trong (MSA) và các nhánh xuyên của nó có thể ảnh hưởng đáng kể đến quyết định và kỹ thuật phẫu thuật, đặc biệt là trong phẫu thuật tạo hình sử dụng vạt mạch xuyên. Dưới đây là những điểm bạn cần lưu ý:
+*   **Ảnh hưởng của biến thể giải phẫu**:
+    *   **Số lượng nhánh xuyên**: Các nghiên cứu cho thấy số lượng nhánh xuyên có thể dao động từ 1 đến 8. Nếu chỉ có ít nhánh hoặc nhánh có đường kính nhỏ, việc lựa chọn vạt có thể khó khăn hơn hoặc yêu cầu kỹ thuật vi phẫu phức tạp hơn. 
+    *   **Vị trí và đường đi của nhánh xuyên**: Nhánh xuyên có thể nằm ở nhiều vị trí khác nhau so với đường giữa sau cẳng chân hoặc nếp khoeo (như bảng so sánh đã chỉ ra). Việc không xác định chính xác vị trí có thể dẫn đến việc tìm kiếm mạch máu kéo dài, tổn thương mạch máu hoặc thần kinh lân cận. 
+    *   **Chiều dài cuống mạch**: Chiều dài cuống chính của MSA trung bình khoảng 8,39 mm ± 3,9 mm. Cuống ngắn hơn có thể gây hạn chế trong việc di chuyển vạt và yêu cầu kỹ thuật nối mạch phức tạp hơn. 
+    *   **Đường kính động mạch**: Đường kính ngoài trung bình của MSA trong nghiên cứu của chúng ta là 3,01 ± 0,02 mm, trong khi một số nghiên cứu khác có thể cho thấy các giá trị khác. Đường kính nhỏ có thể làm tăng thách thức khi nối mạch, đòi hỏi kỹ năng vi phẫu tinh tế hơn. 
+*   **Lời khuyên cho bác sĩ trẻ để giảm thiểu rủi ro**:
+    1.  **Nắm vững giải phẫu khu vực**: Luôn ôn tập và hiểu rõ giải phẫu vùng cẳng chân, bao gồm các lớp cơ, mạch máu và thần kinh. Các tài liệu giải phẫu kinh điển và atlas là nguồn tài nguyên vô giá. 
+    2.  **Sử dụng chẩn đoán hình ảnh tiền phẫu**: 
+        *   **Siêu âm Doppler cầm tay**: Là công cụ đơn giản, không xâm lấn, giúp xác định vị trí và đường đi của các nhánh xuyên trước khi phẫu thuật. 
+        *   **CT Angiogram (CTA)**: Cung cấp hình ảnh 3D chi tiết về hệ thống mạch máu, giúp lập bản đồ chính xác các nhánh xuyên, đường kính và mối liên quan với các cấu trúc lân cận. Đây là phương pháp tối ưu để lập kế hoạch cho các vạt phức tạp. 
+    3.  **Kỹ năng vi phẫu**: Luyện tập và thành thạo kỹ năng vi phẫu trên mô hình hoặc động vật thí nghiệm trước khi áp dụng trên bệnh nhân. Kỹ năng này bao gồm bóc tách mạch máu tinh tế, nối mạch và kiểm soát chảy máu. 
+    4.  **Học hỏi kinh nghiệm từ đàn anh**: Tham gia các ca phẫu thuật dưới sự hướng dẫn của các phẫu thuật viên giàu kinh nghiệm, đặt câu hỏi và ghi nhận những biến thể gặp phải trong thực tế lâm sàng. Mỗi ca lâm sàng là một bài học quý giá. 
+    5.  **Luôn có kế hoạch dự phòng**: Do biến thể giải phẫu là phổ biến, luôn chuẩn bị các phương án thay thế nếu nhánh xuyên dự kiến không đủ lớn hoặc không thể tìm thấy. 
+    6.  **Cập nhật kiến thức**: Thường xuyên đọc các bài báo khoa học, tham gia hội nghị, khóa học CME để cập nhật những tiến bộ mới nhất trong lĩnh vực phẫu thuật tạo hình và giải phẫu ứng dụng. 
+Việc chuẩn bị kỹ lưỡng và sự nhạy bén trong quá trình phẫu thuật sẽ giúp bạn tự tin hơn và đảm bảo an toàn tối đa cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Atlas Giải phẫu Người: Hệ thống mạch máu chi dưới</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Cuốn atlas này là tài liệu tham khảo thiết yếu cho sinh viên và bác sĩ y khoa, cung cấp hình ảnh minh họa chi tiết về giải phẫu hệ thống mạch máu chi dưới, đặc biệt là động mạch bắp chân trong và các nhánh của nó. Giúp người đọc hình dung rõ ràng các cấu trúc giải phẫu và các biến thể tiềm tàng, từ đó hỗ trợ lập kế hoạch phẫu thuật hiệu quả.</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Ứng dụng hình ảnh học trong phẫu thuật tạo hình: Từ Doppler đến CTA</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Khóa học CME này sẽ trang bị cho các bác sĩ kiến thức và kỹ năng sử dụng các phương pháp chẩn đoán hình ảnh tiên tiến như siêu âm Doppler và CT Angiogram để đánh giá hệ thống mạch máu tiền phẫu. Đặc biệt nhấn mạnh vai trò của chúng trong việc xác định các nhánh xuyên và lập kế hoạch cho phẫu thuật vạt mạch xuyên, giúp tối ưu hóa kết quả lâm sàng và giảm thiểu rủi ro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Khi đọc các nghiên cứu về giải phẫu mạch máu như động mạch bắp chân trong, làm thế nào để bác sĩ trẻ có thể phân tích và so sánh các số liệu đo lường khác nhau giữa các nghiên cứu để đưa ra kết luận phù hợp cho thực hành lâm sàng của mình?</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một kỹ năng tư duy phản biện rất quan trọng mà mọi bác sĩ trẻ cần phát triển. Việc phân tích và so sánh các số liệu đo lường từ các nghiên cứu khác nhau về giải phẫu mạch máu, như động mạch bắp chân trong (MSA), giúp chúng ta hiểu rõ hơn về sự đa dạng sinh học và áp dụng kiến thức một cách phù hợp. Dưới đây là các bước và lưu ý quan trọng:
+1.  **Hiểu rõ các chỉ số đo lường**:
+    *   **Đường kính động mạch**: Trong văn bản, nghiên cứu của chúng ta cho kết quả 3,01 ± 0,02 mm, trong khi Thione và cộng sự báo cáo 2.2 mm (dao động 2.3-3.0 mm), và đoạn văn cũng có một thông tin gây nhầm lẫn là "smaller than our study’s result (12mm)". Bạn cần nhận ra sự không nhất quán này và tìm kiếm dữ liệu gốc nếu có thể. Tuy nhiên, thông điệp chính là có sự khác biệt về đường kính giữa các quần thể nghiên cứu. Đường kính ảnh hưởng trực tiếp đến khả năng nối mạch và lượng máu nuôi vạt. 
+    *   **Chiều dài cuống chính**: Nghiên cứu của chúng ta là 8,39 mm ± 3,9 mm. Chiều dài này quan trọng để xác định mức độ di động của vạt. 
+    *   **Số lượng nhánh xuyên**: Từ 1-5 trong nghiên cứu của chúng ta, nhưng các nghiên cứu khác có thể lên tới 8. Số lượng này ảnh hưởng đến sự lựa chọn nhánh tối ưu. 
+    *   **Vị trí nhánh xuyên**: Khoảng cách từ nếp khoeo, đường khớp hoặc đường giữa sau cẳng chân. Các số liệu này định hướng vị trí bóc tách tìm mạch. 
+2.  **Đánh giá phương pháp nghiên cứu**:
+    *   **Kích thước mẫu (Number of Specimen)**: Các nghiên cứu với số lượng mẫu vật lớn (ví dụ: Okamoto 44, Otani 47, Ours 62) thường có độ tin cậy thống kê cao hơn. Các nghiên cứu với mẫu nhỏ (Cavadas 10, Hallock 10) có thể cho kết quả đặc thù hơn, ít tổng quát. 
+    *   **Quần thể nghiên cứu**: Thione và cộng sự nghiên cứu trên tử thi da trắng (Caucasian cadavers). Các yếu tố chủng tộc, giới tính, tuổi tác có thể ảnh hưởng đến giải phẫu. Nghiên cứu của bạn cần xem xét quần thể của mình có tương đồng hay không. 
+    *   **Phương pháp đo lường**: Các nghiên cứu có thể sử dụng các kỹ thuật đo lường khác nhau (trực tiếp trên tử thi, hình ảnh học), điều này có thể dẫn đến sự khác biệt nhỏ về số liệu. 
+3.  **Diễn giải và so sánh kết quả**:
+    *   **Xác định xu hướng chung**: Mặc dù có sự khác biệt về số liệu chi tiết, các nghiên cứu thường chỉ ra rằng động mạch bắp chân trong là nguồn cấp máu đáng tin cậy với các nhánh xuyên phù hợp cho vạt da. 
+    *   **Nhận diện sự khác biệt quan trọng**: Ví dụ, nếu nghiên cứu của bạn có đường kính mạch máu nhỏ hơn đáng kể so với tài liệu tham khảo, điều này cần được lưu ý khi thực hiện vi phẫu. Tương tự, sự khác biệt lớn về vị trí nhánh xuyên có thể yêu cầu điều chỉnh chiến lược bóc tách. 
+    *   **Hiểu rõ ý nghĩa thống kê**: Giá trị trung bình (mean) và độ lệch chuẩn (standard deviation - SD) cung cấp thông tin về sự phân bố dữ liệu. Độ lệch chuẩn lớn cho thấy sự biến thiên rộng của dữ liệu, có nghĩa là bạn có nhiều khả năng gặp phải các biến thể trong thực tế. 
+4.  **Áp dụng vào thực hành lâm sàng**:
+    *   **Không 'dập khuôn'**: Mặc dù các nghiên cứu cung cấp kiến thức nền tảng, giải phẫu mỗi bệnh nhân là duy nhất. Không nên áp dụng một cách cứng nhắc các con số trung bình mà cần linh hoạt. 
+    *   **Kết hợp kiến thức lý thuyết với kinh nghiệm thực tiễn**: Dữ liệu từ các nghiên cứu giúp định hướng, nhưng kinh nghiệm cá nhân và việc sử dụng các công cụ chẩn đoán tiền phẫu (Doppler, CTA) sẽ giúp bạn xác định giải phẫu cụ thể cho từng ca bệnh. 
+    *   **Tư duy phản biện**: Luôn đặt câu hỏi và tìm kiếm bằng chứng tốt nhất. Khi gặp thông tin mâu thuẫn (như ví dụ về đường kính 12mm), cần có sự thận trọng và tìm hiểu sâu hơn. 
+Bằng cách tiếp cận khoa học và tỉ mỉ, bạn sẽ dần trở thành một bác sĩ có khả năng phân tích thông tin y khoa phức tạp và đưa ra quyết định lâm sàng tối ưu.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Phương pháp nghiên cứu trong y học: Từ thiết kế đến phân tích dữ liệu</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Tài liệu này là cẩm nang thiết yếu cho sinh viên và bác sĩ muốn nâng cao kỹ năng đọc và phê bình các nghiên cứu khoa học. Nó bao gồm các nguyên tắc về thiết kế nghiên cứu, thu thập và phân tích dữ liệu thống kê, giúp người đọc đánh giá độ tin cậy và tính ứng dụng của các bài báo khoa học vào thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Phân tích và ứng dụng dữ liệu y học: Cải thiện ra quyết định lâm sàng</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Khóa học CME này được thiết kế để trang bị cho các chuyên gia y tế kỹ năng phân tích dữ liệu y học phức tạp, hiểu biết về thống kê và khả năng dịch chuyển kết quả nghiên cứu thành hành động lâm sàng. Học viên sẽ học cách đánh giá các bằng chứng, nhận diện sai lệch và áp dụng kiến thức mới nhất để đưa ra các quyết định điều trị tối ưu cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên kiến thức giải phẫu và kỹ thuật vi phẫu trong phẫu thuật tái tạo.</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, vai trò của vạt có cuống xuyên mạch (perforator flap) trong phẫu thuật tạo hình là gì, đặc biệt là vạt động mạch sural trong và cách tiếp cận để áp dụng chúng hiệu quả trên lâm sàng cho các bác sĩ trẻ?</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Các bác sĩ trẻ thân mến,
+Vạt có cuống xuyên mạch (perforator flap) là một tiến bộ quan trọng trong phẫu thuật tạo hình, cho phép chúng ta chuyển khối mô (da, mỡ, đôi khi cơ) đến một vùng khuyết mà vẫn bảo tồn tối đa chức năng tại vùng cho. Đây là một khái niệm cốt lõi mà các bạn cần nắm vững:
+*   **Nguyên tắc**: Các vạt này dựa vào các nhánh xuyên mạch nhỏ từ các mạch máu chính, nuôi dưỡng da và mô dưới da, hoặc mô cơ và da-cơ. Điều này cho phép chúng ta "bóc tách" mô chỉ với cuống mạch nhỏ mà không cần lấy toàn bộ cơ, giảm thiểu tổn thương tại vùng lấy vạt.
+*   **Vai trò của vạt động mạch sural trong (medial sural artery perforator flap - MSAP flap)**:
+    *   Nổi bật trong tái tạo khuyết hổng, đặc biệt là vùng đầu và cổ, nơi yêu cầu sự mềm mại, mỏng và phù hợp về màu sắc, kết cấu.
+    *   Ưu điểm chính là vùng lấy vạt (cẳng chân trong) thường kín đáo, ít ảnh hưởng đến chức năng vận động chi dưới.
+*   **Cách tiếp cận trên lâm sàng**: Để áp dụng hiệu quả, các bạn cần:
+    1.  **Nắm vững Giải phẫu**: Đây là nền tảng. Động mạch sural trong thường bắt nguồn từ động mạch khoeo (popliteal artery) và cấp máu cho cơ bụng chân trong (medial gastrocnemius muscle). Da phủ trên cơ này được nuôi dưỡng bởi các nhánh xuyên mạch.
+    2.  **Kỹ năng vi phẫu**: Việc bóc tách và nối các mạch máu nhỏ đòi hỏi kỹ năng vi phẫu tinh xảo. Hãy thực hành đều đặn trên mô hình hoặc động vật trước khi áp dụng trên người bệnh.
+    3.  **Lựa chọn vạt phù hợp**: Không phải mọi khuyết hổng đều phù hợp với MSAP flap. Cần đánh giá kỹ lưỡng kích thước, vị trí, tính chất khuyết hổng và tình trạng bệnh nhân để chọn loại vạt tối ưu (ví dụ: vạt da-cơ có cuống, vạt da-cơ đảo, hoặc vạt tự do).
+Hãy coi mỗi ca phẫu thuật là một cơ hội học hỏi. Đừng ngần ngại thảo luận với các bác sĩ giàu kinh nghiệm hơn để hoàn thiện kỹ năng của mình.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Plastic and Reconstructive Surgery: Principles and Practice</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Tài liệu cơ bản cung cấp kiến thức nền tảng về phẫu thuật tạo hình, bao gồm các loại vạt, nguyên tắc tái tạo mô và các kỹ thuật vi phẫu thuật thiết yếu.</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Khóa học Vi phẫu Thuật Nâng cao trong Phẫu thuật Tái tạo</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Chương trình đào tạo chuyên sâu về kỹ thuật vi phẫu thuật, bao gồm thực hành trên mô hình và xác chết, tập trung vào bóc tách và nối mạch máu nhỏ cho các loại vạt tự do.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên chi tiết giải phẫu và quy trình phẫu thuật của các vạt tái tạo.</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Để thực hiện thành công vạt động mạch sural trong có cuống xuyên mạch (MSAP flap), một sinh viên y khoa cần hiểu rõ về cấu trúc giải phẫu nào và các bước phẫu thuật quan trọng là gì để đảm bảo an toàn và hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Chào các bạn sinh viên y khoa và bác sĩ mới vào nghề,
+Việc nắm vững giải phẫu là chìa khóa để làm chủ bất kỳ kỹ thuật phẫu thuật nào, đặc biệt là với các vạt vi phẫu như MSAP flap. Dưới đây là những điểm giải phẫu và các bước phẫu thuật cốt lõi:
+**I. Cơ sở Giải phẫu của Vạt MSAP:**
+*   **Nguồn gốc động mạch**: Động mạch sural trong (medial sural artery) là một nhánh hằng định tách ra từ động mạch khoeo (popliteal artery) ở vùng khoeo chân.
+*   **Cấp máu cơ**: Nó cấp máu chính cho cơ bụng chân trong (medial gastrocnemius muscle).
+*   **Nhánh xuyên mạch (Perforators)**:
+    *   Là các nhánh nhỏ xuyên qua cân cơ để cấp máu cho vùng da và mô dưới da bên trên cơ bụng chân trong.
+    *   Thông thường có 5 nhánh xuyên mạch được xác định, trong đó một hoặc hai nhánh thường nổi trội và có đường kính đủ lớn cho vi phẫu.
+    *   Vùng da bao phủ cơ bụng chân trong được nuôi dưỡng bởi một trong số các nhánh xuyên mạch này, tạo nên cơ sở cho việc hình thành vạt.
+**II. Các Bước Phẫu thuật Quan trọng:**
+Để đảm bảo an toàn và hiệu quả, quá trình phẫu thuật cần được thực hiện một cách tỉ mỉ.
+| Giai đoạn | Mục tiêu chính | Mô tả chi tiết cho sinh viên/bác sĩ trẻ |
+| :-------- | :------------- | :--------------------------------------- |
+| **1. Đánh giá tiền phẫu** | Xác định vị trí nhánh xuyên mạch và lựa chọn vùng cho tối ưu. | - **Doppler cầm tay/Siêu âm**: Xác định vị trí và đường đi của các nhánh xuyên mạch. Đánh dấu trên da để định hướng vết mổ. &lt;br&gt; - **Chụp mạch CT (CT Angiography)**: Trong các trường hợp phức tạp hoặc nghi ngờ biến thể giải phẫu, có thể cần để lập bản đồ chi tiết mạch máu. &lt;br&gt; - Đánh giá nhu cầu tái tạo của vùng nhận vạt để ước tính kích thước và hình dạng vạt cần thiết. |
+| **2. Bóc tách vạt** | Bảo tồn cuống mạch và các nhánh xuyên mạch. | - **Rạch da**: Theo đường đã đánh dấu, cẩn thận để tránh làm tổn thương các nhánh xuyên mạch. &lt;br&gt; - **Tìm kiếm và bóc tách nhánh xuyên mạch**: Sử dụng kính lúp phẫu thuật hoặc kính hiển vi. Nhận diện nhánh xuyên mạch lớn nhất và bóc tách ngược dòng đến động mạch sural trong. Cần bóc tách nhẹ nhàng, tránh kéo giãn hoặc chèn ép cuống mạch. &lt;br&gt; - **Bóc tách vạt**: Tách vạt khỏi các mô xung quanh, chỉ giữ lại cuống mạch nuôi dưỡng. |
+| **3. Chuẩn bị vùng nhận** | Tạo môi trường thuận lợi cho vạt. | - Loại bỏ tất cả mô hoại tử hoặc nhiễm trùng. &lt;br&gt; - Đảm bảo đủ khoảng trống và có mạch máu nhận phù hợp để nối. |
+| **4. Nối mạch máu** | Thiết lập tuần hoàn cho vạt. | - Đây là bước vi phẫu quan trọng nhất. Nối động mạch và tĩnh mạch của vạt với các mạch máu tương ứng ở vùng nhận. &lt;br&gt; - Kiểm tra kỹ mối nối để đảm bảo không có rò rỉ, huyết khối hoặc căng giãn. |
+| **5. Đóng vết mổ** | Đảm bảo tính thẩm mỹ và chức năng. | - Đóng vết mổ tại vùng cho vạt cẩn thận, thường là khâu trực tiếp hoặc ghép da nếu khuyết hổng lớn. &lt;br&gt; - Cố định vạt tại vùng nhận, đảm bảo không có căng tức. |
+Lưu ý rằng sự kiên nhẫn, tỉ mỉ và hiểu biết sâu sắc về giải phẫu là yếu tố quyết định thành công. Hãy luôn học hỏi và trau dồi kỹ năng vi phẫu của mình!</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Atlas Giải phẫu Phẫu thuật của các Vạt Tái tạo</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Một tài liệu minh họa chi tiết về giải phẫu mạch máu và thần kinh của các vạt phổ biến, hướng dẫn từng bước quy trình bóc tách và chuẩn bị vạt trong phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Hội thảo Thực hành Kỹ thuật Vạt Động mạch Sural trong trên Xác chết</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành chuyên sâu trên xác chết, cung cấp kinh nghiệm trực tiếp về định vị, bóc tách và chuyển vạt động mạch sural trong, giúp cải thiện kỹ năng vi phẫu và quản lý biến chứng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên các chỉ định, lựa chọn bệnh nhân và quản lý hậu phẫu trong phẫu thuật tái tạo phức tạp.</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Vạt động mạch sural trong có cuống xuyên mạch (MSAP flap) được chỉ định trong những trường hợp lâm sàng nào? Những yếu tố nào cần được cân nhắc khi lựa chọn bệnh nhân và theo dõi hậu phẫu để đạt được kết quả tối ưu cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Các bạn đồng nghiệp thân mến,
+Việc lựa chọn vạt phù hợp và quản lý bệnh nhân là yếu tố then chốt để đạt được kết quả tái tạo tối ưu. Đối với vạt MSAP, đây là những điểm cần lưu ý:
+**I. Chỉ định Lâm sàng chính:**
+*   **Khuyết hổng vùng đầu và cổ**: Đây là một trong những chỉ định nổi bật nhất. Vạt MSAP có thể cung cấp một lượng mô da và mỡ mỏng, mềm mại, lý tưởng để tái tạo các khuyết hổng nhỏ đến trung bình ở mặt, miệng, họng, hoặc da đầu mà không tạo ra sự biến dạng đáng kể.
+*   **Khuyết hổng ở chi trên/dưới**: Trong một số trường hợp, vạt này cũng được dùng để tái tạo các khuyết hổng nhỏ ở bàn tay, cổ tay, hoặc các vùng khác khi cần một vạt mỏng với cuống mạch dài.
+*   **Ưu điểm**:
+    *   **Mức độ mỏng**: Phù hợp cho các vùng cần độ mỏng tự nhiên.
+    *   **Vùng cho kín đáo**: Vết sẹo ở cẳng chân trong thường ít gây chú ý và ít ảnh hưởng đến chức năng chi.
+    *   **Chiều dài cuống mạch**: Có thể đủ dài để nối vi phẫu đến các mạch máu xa.
+**II. Cân nhắc khi Lựa chọn Bệnh nhân:**
+*   **Tình trạng mạch máu vùng cho**: Cần đảm bảo bệnh nhân có hệ thống động mạch khoeo và các nhánh sural trong tốt, không có bệnh lý mạch máu ngoại vi (ví dụ: xơ vữa động mạch, tiểu đường kiểm soát kém gây tổn thương mạch).
+*   **Tình trạng vùng nhận**: Vùng nhận phải có đủ mạch máu khỏe mạnh để nối vạt, không bị nhiễm trùng cấp tính.
+*   **Thẩm mỹ và chức năng vùng cho**: Đánh giá xem việc lấy vạt có ảnh hưởng quá mức đến thẩm mỹ hoặc chức năng vận động của cẳng chân hay không.
+*   **Yếu tố bệnh nhân**: Tuổi tác, bệnh nền, tình trạng dinh dưỡng và khả năng tuân thủ điều trị hậu phẫu đều quan trọng.
+**III. Theo dõi Hậu phẫu và Tối ưu hóa Kết quả:**
+*   **Theo dõi tuần hoàn vạt chặt chẽ**:
+    *   **Quan sát lâm sàng**: Màu sắc, nhiệt độ, độ căng của vạt, thời gian đổ đầy mao mạch là các chỉ số quan trọng nhất.
+    *   **Doppler**: Sử dụng Doppler cầm tay để nghe tín hiệu mạch máu của vạt thường xuyên trong 48-72 giờ đầu.
+    *   **Theo dõi liên tục**: Trong các ca phức tạp, có thể dùng các thiết bị theo dõi tự động như oximetry hoặc nhiệt độ bề mặt.
+*   **Quản lý dịch và điện giải**: Đảm bảo đủ thể tích tuần hoàn để duy trì tưới máu vạt.
+*   **Kiểm soát đau và chống đông**: Giảm đau hiệu quả và sử dụng thuốc chống đông theo chỉ định để phòng ngừa huyết khối.
+*   **Chăm sóc vết mổ và vùng cho**: Giữ sạch sẽ, thay băng đúng cách.
+*   **Phục hồi chức năng**: Bắt đầu sớm khi tình trạng vạt ổn định để cải thiện chức năng vùng nhận và vùng cho.
+Nhớ rằng, sự phối hợp đa chuyên khoa và giao tiếp rõ ràng với bệnh nhân là chìa khóa để đạt được kết quả thành công và sự hài lòng của bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa Phẫu thuật Tạo hình và Tái tạo cho Bác sĩ lâm sàng</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Tài liệu tổng quan cung cấp hướng dẫn lâm sàng chi tiết về chỉ định, kỹ thuật phẫu thuật, quản lý biến chứng và theo dõi bệnh nhân cho các thủ thuật tái tạo phức tạp.</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Hội nghị Quốc tế về Tái tạo Khuyết hổng Đầu và Cổ</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Diễn đàn trao đổi kinh nghiệm, cập nhật các kỹ thuật tiên tiến, nghiên cứu mới nhất và thảo luận các ca lâm sàng khó trong tái tạo khuyết hổng vùng đầu và cổ, bao gồm cả ứng dụng vạt MSAP.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generate_dataset/SVYKHOA_dataset_guide.xlsx
+++ b/generate_dataset/SVYKHOA_dataset_guide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7258,6 +7258,2894 @@
         </is>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ hoặc sinh viên y khoa, khi phân tích kết quả điện hiển vi truyền qua (TEM) của tế bào khối u HT-29 bình thường, chúng ta cần chú ý đến những đặc điểm cấu trúc siêu hiển vi nào và ý nghĩa của việc này trong nghiên cứu bệnh lý ung thư?</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Việc nhận diện cấu trúc siêu hiển vi bình thường là bước nền tảng cực kỳ quan trọng, đặc biệt khi các bạn đang làm việc với các dòng tế bào nghiên cứu như HT-29. Khi phân tích hình ảnh TEM của tế bào HT-29 bình thường, hãy chú ý đến các điểm sau để xây dựng một cái nhìn toàn diện:
+*   **Sự sắp xếp của tế bào:** Các tế bào HT-29 bình thường có xu hướng ở gần nhau, tạo thành một quần thể tế bào gắn kết chặt chẽ. Điều này phản ánh sự tương tác tế bào-tế bào bình thường, một yếu tố quan trọng trong duy trì cấu trúc mô và chức năng.
+*   **Vi nhung mao (Microvilli):** Quan sát sự hiện diện và hình thái của vi nhung mao trên bề mặt tế bào. Vi nhung mao là những cấu trúc lồi nhỏ giống ngón tay, giúp tăng diện tích bề mặt tế bào cho các chức năng hấp thu, bài tiết hoặc cảm nhận tín hiệu. Sự hiện diện nguyên vẹn của chúng cho thấy tế bào đang ở trạng thái chức năng bình thường.
+*   **Bào quan nguyên vẹn (Intact organelles):** Đánh giá tình trạng của các bào quan chính như ty thể, lưới nội chất, bộ Golgi, lysosome. Chúng cần có hình thái và cấu trúc màng nguyên vẹn, không bị sưng phồng hay thoái hóa, phản ánh chức năng chuyển hóa và tổng hợp protein của tế bào đang diễn ra bình thường và hiệu quả.
+*   **Nhân tế bào và chất nhiễm sắc:** Nhân tế bào bình thường có hình dạng rõ ràng, màng nhân nguyên vẹn và không bị biến dạng. Chất nhiễm sắc (chromatin) phân bố đồng đều, có thể thấy các vùng chất nhiễm sắc dị nhiễm sắc (heterochromatin) đậm đặc và chất nhiễm sắc nguyên nhiễm sắc (euchromatin) phân tán theo tỷ lệ bình thường, cho thấy hoạt động gen và tổng hợp DNA diễn ra cân bằng và được kiểm soát.
+**Ý nghĩa trong nghiên cứu bệnh lý ung thư:**
+Việc nắm vững các đặc điểm bình thường này là vô cùng cần thiết vì:
+1.  **Điểm tham chiếu:** Nó cung cấp một 'baseline' chuẩn để so sánh. Chỉ khi bạn hiểu rõ 'bình thường' trông như thế nào, bạn mới có thể nhận diện và đánh giá chính xác các thay đổi 'bất thường' do bệnh lý, điều trị, hoặc các tác nhân gây bệnh (như virus) gây ra. Đây là kỹ năng cốt lõi trong chẩn đoán mô bệnh học và tế bào học.
+2.  **Đánh giá hiệu quả điều trị:** Trong nghiên cứu tiền lâm sàng, việc theo dõi sự trở lại các đặc điểm siêu cấu trúc bình thường sau khi điều trị có thể là một chỉ số về hiệu quả của liệu pháp, đặc biệt là với các phương pháp điều trị nhằm phục hồi chức năng tế bào.
+3.  **Hiểu cơ chế bệnh sinh:** Các thay đổi siêu cấu trúc bất thường (ví dụ: mất vi nhung mao, tổn thương bào quan, biến đổi nhân) là chìa khóa để hiểu cơ chế phân tử và tế bào học đằng sau sự phát triển, tiến triển của ung thư và đáp ứng của nó với các tác nhân.
+Là sinh viên hay bác sĩ trẻ, hãy rèn luyện kỹ năng quan sát chi tiết và hệ thống hóa kiến thức để mỗi lần nhìn vào hình ảnh hiển vi là một cơ hội để học hỏi sâu hơn về bản chất của sự sống và bệnh tật, từ đó áp dụng vào thực hành lâm sàng một cách khoa học và chính xác.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Atlas Điện hiển vi Y học và Sinh học Tế bào</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Cuốn sách cung cấp hướng dẫn chi tiết về cấu trúc siêu hiển vi của tế bào và mô người, kèm theo hình ảnh TEM chất lượng cao, giúp sinh viên và bác sĩ lâm sàng nhận diện các đặc điểm bình thường và bệnh lý, đặc biệt hữu ích trong lĩnh vực ung thư học.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Điện hiển vi Truyền qua (TEM) và Ứng dụng trong Nghiên cứu Ung thư</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về nguyên lý và ứng dụng của TEM trong việc nghiên cứu cấu trúc siêu hiển vi của tế bào ung thư. Nội dung bao gồm chuẩn bị mẫu, kỹ thuật chụp ảnh, và phân tích dữ liệu, giúp học viên phát triển kỹ năng quan trọng trong nghiên cứu tiền lâm sàng và bệnh học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Khi phân tích tế bào khối u HT-29 bị nhiễm virus, những thay đổi siêu cấu trúc nào gợi ý quá trình tổn thương tế bào hoặc cảm ứng apoptosis, và làm thế nào để phân biệt chúng trên hình ảnh điện hiển vi?</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Khi các bạn quan sát tế bào khối u HT-29 sau khi nhiễm virus, việc nhận diện các dấu hiệu tổn thương và apoptosis ở cấp độ siêu cấu trúc là một kỹ năng lâm sàng và nghiên cứu cực kỳ quan trọng. Dưới đây là các dấu hiệu cần chú ý và cách phân biệt chúng:
+**Các Dấu hiệu Tổn thương và Apoptosis trên TEM:**
+*   **Ngưng tụ chất nhiễm sắc (Chromosome condensation):** Đây là một trong những dấu hiệu sớm và đặc trưng nhất của apoptosis. Chất nhiễm sắc bắt đầu co lại thành các khối đặc, thường nằm sát màng nhân. Điều này khác với chất nhiễm sắc phân tán trong tế bào khỏe mạnh và là dấu hiệu của việc tế bào đang chuẩn bị cho cái chết theo chương trình.
+*   **Phân mảnh chất nhiễm sắc (Fragment chromosomes):** Chất nhiễm sắc tiếp tục ngưng tụ và nhân có thể bắt đầu phân mảnh thành các thể nhỏ hơn (nuclear fragmentation). Các mảnh nhân này sau đó sẽ được bao bọc trong các túi màng và tạo thành các thể apoptotic.
+*   **Co rút tế bào (Cell shrinkage):** Tế bào trở nên nhỏ gọn hơn, mật độ bào tương tăng lên do mất nước và phân giải protein bên trong. Mặc dù kích thước tế bào giảm, các bào quan vẫn tương đối nguyên vẹn lúc ban đầu.
+*   **Mất vi nhung mao (Loss of microvilli):** Bề mặt tế bào trở nên trơn nhẵn do mất đi các vi nhung mao. Điều này cho thấy sự thay đổi lớn trong cấu trúc màng tế bào và chức năng tương tác với môi trường ngoại bào, thường là dấu hiệu của stress hoặc tổn thương.
+*   **Thay đổi đường viền nhân (Changes of nuclear contours):** Màng nhân có thể trở nên lồi lõm, không đều, thậm chí tạo thành các túi (blebbing) trước khi nhân phân mảnh. Đây là bước tiến triển của quá trình apoptosis.
+*   **Sự xuất hiện của các giọt lipid (Appearance of lipid droplets):** Việc tích tụ các giọt lipid trong bào tương thường liên quan đến sự rối loạn chuyển hóa tế bào, có thể là một phần của quá trình tổn thương, stress oxy hóa, hoặc đáp ứng đặc hiệu với tác nhân virus.
+*   **Hoại tử tế bào (Cell necrosis):** Đây là một dạng chết tế bào không theo chương trình, thường do tổn thương cấp tính và nghiêm trọng. Các dấu hiệu gồm sưng tế bào, vỡ màng bào tương, giải phóng các thành phần nội bào và gây viêm tại chỗ.
+**Phân biệt Apoptosis và Necrosis trên TEM:**
+Việc phân biệt apoptosis (chết tế bào theo chương trình) và necrosis (hoại tử) là rất quan trọng vì chúng có các cơ chế và ý nghĩa sinh học khác nhau, ảnh hưởng đến cách chúng ta hiểu bệnh sinh và phản ứng điều trị.
+| Đặc điểm           | Apoptosis (Chết theo chương trình)                                 | Necrosis (Hoại tử)                                             |
+| :----------------- | :------------------------------------------------------------------ | :-------------------------------------------------------------- |
+| **Kích thước tế bào** | Co rút, nhỏ lại                                                     | Sưng to, phồng lên, tan rã                                      |
+| **Màng bào tương**  | Nguyên vẹn, có thể tạo bóng (blebbing), sau đó hình thành thể apoptotic | Vỡ, mất tính toàn vẹn, giải phóng thành phần nội bào             |
+| **Nhân tế bào**    | Ngưng tụ chất nhiễm sắc, phân mảnh, thể apoptotic                  | Sưng, giãn nở, tan rã chất nhiễm sắc (karyolysis), vỡ nhân       |
+| **Bào quan**       | Nguyên vẹn ban đầu, sau đó phân mảnh trong thể apoptotic           | Sưng, giãn nở, vỡ                                               |
+| **Đáp ứng viêm**   | Không có hoặc rất ít, các thể apoptotic được thực bào nhanh chóng   | Phản ứng viêm mạnh mẽ do giải phóng các thành phần tế bào        |
+| **Vai trò sinh học** | Loại bỏ tế bào không mong muốn, cân bằng nội môi, phản ứng điều trị | Phản ứng với tổn thương nghiêm trọng, bệnh lý cấp tính          |
+| **Giọt lipid**     | Có thể xuất hiện (như mô tả trong bài), liên quan rối loạn chuyển hóa | Ít đặc trưng, có thể do tổn thương chuyển hóa nhưng không phải dấu hiệu chính |
+Là một bác sĩ hay sinh viên y khoa, việc nắm vững các đặc điểm này sẽ giúp các bạn giải thích chính xác các biến đổi tế bào trong bệnh học và nghiên cứu, đặc biệt trong bối cảnh các liệu pháp virus oncolytic đang được nghiên cứu như một phương pháp điều trị ung thư tiềm năng. Điều này cũng giúp ích trong việc phân loại các bệnh lý theo ICD-10 liên quan đến tổn thương tế bào và mô.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Cơ chế Tế bào học của Apoptosis và Necrosis trong Bệnh lý Ung thư</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Cuốn sách tổng quan chuyên sâu về các con đường chết tế bào theo chương trình (apoptosis) và chết tế bào hoại tử (necrosis), tầm quan trọng của chúng trong bệnh sinh ung thư và các phương pháp phát hiện, định lượng khác nhau.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Chẩn đoán và Phân loại Các Hình thái Chết Tế bào trong Lâm sàng và Nghiên cứu</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp kiến thức và kỹ năng thực hành để nhận diện và phân loại các hình thái chết tế bào (apoptosis, necrosis, autophagy) thông qua kính hiển vi quang học và điện tử. Khóa học nhấn mạnh ứng dụng trong chẩn đoán mô bệnh học, phân tích bệnh học phân tử và đánh giá hiệu quả điều trị ung thư.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Sự xuất hiện của các giọt lipid và các dấu hiệu khác của apoptosis trong tế bào khối u nhiễm virus có ý nghĩa lâm sàng như thế nào trong việc đánh giá hiệu quả điều trị hoặc tiên lượng bệnh, đặc biệt với các liệu pháp ung thư mới?</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Việc phát hiện các dấu hiệu apoptosis, bao gồm cả sự xuất hiện của các giọt lipid, trong tế bào khối u bị nhiễm virus mang ý nghĩa lâm sàng sâu sắc, đặc biệt đối với việc đánh giá hiệu quả của các liệu pháp điều trị ung thư tiềm năng, như các liệu pháp virus oncolytic. Đây là những điểm các bạn, với tư cách là bác sĩ hoặc sinh viên y khoa, cần lưu ý và suy ngẫm:
+1.  **Dấu ấn Sinh học của Đáp ứng Điều trị:** Sự cảm ứng apoptosis trong tế bào ung thư sau khi nhiễm virus là một chỉ dấu mạnh mẽ cho thấy virus đang thực hiện chức năng diệt tế bào ung thư. Các giọt lipid, mặc dù cần nghiên cứu sâu hơn, có thể là một dấu ấn sinh học bổ sung cho sự rối loạn chuyển hóa liên quan đến quá trình chết tế bào. Việc định lượng các dấu hiệu này (ví dụ, qua các chỉ số hóa mô miễn dịch hoặc phân tích hình thái học) có thể giúp đánh giá sớm và khách quan hiệu quả của một loại virus oncolytic hay thuốc mới. Điều này có thể đóng vai trò quan trọng trong việc phân loại và theo dõi bệnh nhân theo các tiêu chuẩn ICD-10 liên quan đến đáp ứng điều trị ung thư (ví dụ: các mã U00-U49 dành cho các trường hợp đặc biệt, hoặc sử dụng các mã liên quan đến tình trạng khối u).
+2.  **Tiên lượng Bệnh:** Một mức độ apoptosis cao trong khối u sau điều trị thường liên quan đến tiên lượng tốt hơn cho bệnh nhân. Điều này là do quá trình apoptosis giúp loại bỏ các tế bào ung thư một cách 'sạch sẽ' mà không gây viêm, từ đó kiểm soát sự phát triển của khối u và giảm nguy cơ tái phát. Các bạn có thể sử dụng thông tin này để tư vấn cho bệnh nhân về khả năng đáp ứng điều trị.
+3.  **Cơ sở cho Liệu pháp Kết hợp:** Nếu virus gây ra apoptosis theo một con đường cụ thể (ví dụ, thông qua việc điều hòa các protein Bcl-2 hoặc p53), các nhà nghiên cứu có thể phát triển liệu pháp kết hợp với các loại thuốc nhắm vào con đường đó để tăng cường hiệu quả diệt tế bào ung thư. Việc hiểu rõ cơ chế siêu cấu trúc giúp định hướng các chiến lược điều trị đa phương thức.
+4.  **Tối ưu hóa Phác đồ Điều trị:** Bằng cách theo dõi các thay đổi siêu cấu trúc này thông qua các sinh thiết lặp lại hoặc các phương pháp không xâm lấn, các nhà nghiên cứu và bác sĩ có thể điều chỉnh liều lượng virus, thời gian điều trị, hoặc kết hợp với các tác nhân khác để tối ưu hóa phác đồ điều trị, nhằm đạt được mức độ apoptosis cao nhất mà ít gây độc cho tế bào bình thường.
+5.  **Nghiên cứu Kháng thuốc:** Ngược lại, nếu các tế bào ung thư không thể hiện đủ dấu hiệu apoptosis sau khi nhiễm virus, điều này có thể gợi ý về cơ chế kháng lại virus hoặc liệu pháp. Từ đó, thúc đẩy nghiên cứu sâu hơn để xác định và khắc phục các cơ chế kháng thuốc, mở ra các hướng điều trị mới.
+Là bác sĩ hay nhà nghiên cứu, việc hiểu rõ các dấu hiệu siêu cấu trúc này giúp chúng ta không chỉ đọc được 'ngôn ngữ' của tế bào mà còn 'dịch' được chúng thành những quyết định lâm sàng và nghiên cứu có giá trị, góp phần nâng cao hiệu quả điều trị cho bệnh nhân ung thư. Đối với các sinh viên, đây là một ví dụ tuyệt vời về cách các nghiên cứu cơ bản về sinh học tế bào có thể có ứng dụng trực tiếp và sâu rộng trong y học lâm sàng.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Thực hành Sinh học Phân tử trong Ung thư học</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Sách giáo trình tổng hợp các kỹ thuật sinh học phân tử hiện đại được ứng dụng trong nghiên cứu và chẩn đoán ung thư, từ việc xác định dấu ấn sinh học đến phát triển liệu pháp nhắm trúng đích, bao gồm cả các dấu ấn liên quan đến apoptosis.</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Dấu ấn Sinh học Tiên lượng và Dự đoán Đáp ứng Điều trị trong Ung thư</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào việc xác định và ứng dụng các dấu ấn sinh học ở cấp độ tế bào và phân tử để đánh giá tiên lượng và dự đoán đáp ứng điều trị của bệnh nhân ung thư. Khóa học bao gồm cả phân tích các dấu hiệu hình thái siêu cấu trúc và phân tử liên quan đến quá trình chết tế bào.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên các tài liệu y học cập nhật, hỗ trợ bác sĩ trẻ và sinh viên y khoa trong học tập và nghiên cứu, đặc biệt trong lĩnh vực liệu pháp virus oncolytic.</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ đang tìm hiểu về tiềm năng của liệu pháp virus oncolytic trong điều trị ung thư, tôi muốn biết cơ chế tác động chính của virus sởi (MeV) và quai bị (MuV) đối với tế bào ung thư đại trực tràng (CRC) là gì và làm thế nào để vận dụng kiến thức này trong thực hành lâm sàng tương lai?</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Chào bạn! Việc nắm vững cơ chế tác động của các virus oncolytic như MeV và MuV là vô cùng quan trọng để chúng ta có thể đánh giá và phát triển các phương pháp điều trị ung thư mới. Dưới đây là những điểm cốt lõi mà bạn cần hiểu rõ khi tiếp cận lĩnh vực này:
+*   **Tính đặc hiệu của virus đối với tế bào ung thư:**
+    *   **Thụ thể quá mức biểu hiện:** Cả MeV và MuV đều có khả năng lây nhiễm chọn lọc các tế bào ung thư đại trực tràng (CRC) do các thụ thể đặc hiệu của chúng (ví dụ: CD46 và Nectin-4 cho MeV; sialoglycoproteins chứa acid sialic cho MuV) thường xuyên được biểu hiện quá mức trên bề mặt các tế bào ung thư này. Điều này cho phép virus 'nhận diện' và ưu tiên tấn công tế bào ung thư. Khi phân tích các nghiên cứu, hãy luôn chú ý đến các dấu ấn sinh học này để xác định nhóm bệnh nhân tiềm năng.
+    *   **Protease tế bào ung thư:** Sự nhân lên của các virus có vỏ bọc như MuV và MeV đòi hỏi các protease để cắt các glycoprotein của virus và màng tế bào, giúp virus xâm nhập hiệu quả vào tế bào chủ. Các protease này cũng thường được biểu hiện quá mức trong nhiều dòng tế bào ung thư, bao gồm cả CRC, tạo điều kiện thuận lợi cho sự lây nhiễm virus. Hiểu rõ điều này giúp bạn đánh giá các yếu tố nội môi của khối u ảnh hưởng đến hiệu quả virus.
+*   **Cơ chế tiêu diệt tế bào ung thư (Hiệu ứng gây bệnh tế bào - CPE):**
+    *   **Hình thành khối hợp bào (Syncytia):** Sau khi protein H hoặc HN của virus tương tác với thụ thể trên tế bào đích, protein F của virus được hoạt hóa, dẫn đến sự hợp nhất màng tế bào chủ và màng virus, cho phép virus xâm nhập. Tiếp đó, protein H hoặc HN của virus tương tác với thụ thể trên các tế bào lân cận, thúc đẩy sự hợp nhất màng giữa tế bào nhiễm virus và các tế bào xung quanh, tạo thành khối hợp bào (syncytium) – một dấu hiệu đặc trưng của sự lây nhiễm này. Sự hình thành syncytium làm phá vỡ cấu trúc và chức năng của tế bào ung thư.
+    *   **Hoạt hóa quá trình chết theo chương trình (Apoptosis):** Đây là một chiến lược quan trọng để tiêu diệt tế bào ung thư. Các nghiên cứu đã chỉ ra rằng MeV và MuV có khả năng ức chế sự tăng sinh của các dòng tế bào ung thư bằng cách hoạt hóa con đường apoptosis mà không gây độc tế bào cho các tế bào lân cận. Đây là một điểm mạnh của liệu pháp virus oncolytic, giúp bảo vệ các tế bào khỏe mạnh. Khi đánh giá hiệu quả, cần phân biệt rõ apoptosis với hoại tử.
+**Áp dụng trong thực hành:**
+Khi nghiên cứu hoặc tham gia các thử nghiệm lâm sàng về virus oncolytic, bạn cần:
+1.  **Hiểu rõ sinh học virus và tế bào ung thư:** Nắm vững các thụ thể và con đường tín hiệu liên quan để xác định nhóm bệnh nhân tiềm năng có biểu hiện thụ thể cao, từ đó tối ưu hóa hiệu quả điều trị.
+2.  **Đánh giá hiệu quả trên mô hình:** Quan sát và phân tích hiệu ứng gây bệnh tế bào (CPE) như hình thành syncytium và dấu hiệu apoptosis là cách để bạn đánh giá trực tiếp hiệu quả của virus trên các dòng tế bào hoặc mô hình ung thư.
+3.  **An toàn và tính chọn lọc:** Luôn chú ý đến tính chọn lọc của virus đối với tế bào ung thư và tác dụng phụ trên tế bào lành, đây là yếu tố then chốt quyết định sự thành công của liệu pháp.
+Việc tìm hiểu sâu sắc về các cơ chế này sẽ giúp bạn không chỉ là người thực hành mà còn là nhà khoa học tiềm năng, góp phần vào sự phát triển của y học.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Cơ chế tác động của virus Oncolytic trong điều trị ung thư: Hướng tiếp cận mới</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn tổng quan sâu sắc về cách các virus có khả năng tiêu diệt tế bào ung thư hoạt động, bao gồm các cơ chế lây nhiễm chọn lọc, nhân lên và gây chết tế bào ung thư thông qua hình thành hợp bào và apoptosis. Đây là nguồn tham khảo lý tưởng cho sinh viên và bác sĩ muốn tìm hiểu về liệu pháp virus.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Liệu pháp Virus Oncolytic trong Ung thư học: Từ cơ sở đến lâm sàng</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Khóa học CME này sẽ đi sâu vào các virus oncolytic đang được nghiên cứu và ứng dụng lâm sàng, các thử nghiệm lâm sàng hiện tại, tiềm năng phát triển và thách thức trong tương lai. Khóa học được thiết kế đặc biệt cho các bác sĩ ung thư, nghiên cứu sinh và những người quan tâm đến các liệu pháp tiên tiến.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp kiến thức thực hành và lý thuyết chuyên sâu, hỗ trợ bác sĩ và sinh viên y khoa trong việc phân tích và chẩn đoán bệnh lý dựa trên các tiêu chuẩn y tế và hình thái học tế bào.</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Khi nghiên cứu về liệu pháp virus oncolytic, làm thế nào để nhận diện và phân tích hiệu ứng gây bệnh tế bào (CPE) và các đặc điểm hình thái của quá trình chết theo chương trình (apoptosis) do virus sởi (MeV) và quai bị (MuV) gây ra trên tế bào ung thư, và ý nghĩa lâm sàng của các dấu hiệu này?</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, việc nhận diện chính xác hiệu ứng gây bệnh tế bào (CPE) và các đặc điểm hình thái của apoptosis là kỹ năng cơ bản và cực kỳ quan trọng trong nghiên cứu virus học và ung thư. Đây không chỉ là việc quan sát mà còn là việc hiểu ý nghĩa của từng thay đổi trên tế bào.
+**1. Hiệu ứng gây bệnh tế bào (CPE) điển hình do MeV và MuV:**
+*   **Hình thành khối hợp bào (Syncytium):** Đây là dấu hiệu đặc trưng nhất. Các bạn sẽ thấy nhiều tế bào hợp nhất với nhau, tạo thành một khối lớn với nhiều nhân, mất đi ranh giới tế bào rõ ràng. Điều này cho thấy virus đang lây lan trực tiếp từ tế bào này sang tế bào khác thông qua quá trình hợp nhất màng. Để xác nhận, cần quan sát kỹ dưới kính hiển vi độ phóng đại cao.
+*   **Tế bào có hình dạng tròn và sưng phồng:** Quan sát dưới kính hiển vi, các tế bào nhiễm virus có xu hướng mất đi hình dạng ban đầu (ví dụ: hình khối vuông của một số tế bào biểu mô) và trở nên tròn hơn, sưng phồng. Đây là dấu hiệu của sự biến đổi cấu trúc tế bào do virus.
+*   **Thâm nhiễm nhân virus:** Sự xâm nhập của virus vào nhân tế bào thường đi kèm với sự thoái hóa tế bào. Mức độ thâm nhiễm có thể được định lượng và sử dụng như một dấu hiệu bệnh lý hữu ích của mức độ bệnh lý tế bào liên quan đến nhiễm virus kéo dài. Các kỹ thuật miễn dịch hóa mô (immunohistochemistry) có thể giúp xác định điều này.
+**2. Đặc điểm hình thái của quá trình chết theo chương trình (Apoptosis) do MeV và MuV gây ra:**
+Apoptosis là một quá trình chết tế bào có kiểm soát, khác với hoại tử (necrosis) – một quá trình chết tế bào không kiểm soát. Khi quan sát tế bào trải qua apoptosis, các bạn sẽ thấy:
+*   **Ngưng tụ chất nhiễm sắc (Chromatinic condensation):** Chất nhiễm sắc trong nhân tế bào co lại thành những khối đặc, thường nằm sát màng nhân. Đây là một trong những dấu hiệu sớm nhất và rõ ràng nhất.
+*   **Phân mảnh và đứt gãy nhiễm sắc thể (Chromosome breakage and fragmentation):** Nhiễm sắc thể bị vỡ ra thành nhiều mảnh nhỏ. Có thể cần các kỹ thuật nhuộm đặc biệt như DAPI để quan sát rõ.
+*   **Nhân tế bào sưng phồng và vỡ (Swollen and fragmented nuclei):** Nhân tế bào có thể sưng lên trước khi bị phân mảnh. Robbins S.J (1983) đã mô tả nhân tế bào nhiễm virus sởi có thể sưng to.
+*   **Co rút tế bào và hình thành thể apoptotic (Shrunken cell fragments as apoptotic bodies):** Tế bào co lại, sau đó phân mảnh thành các túi nhỏ có màng bao bọc gọi là thể apoptotic. Các thể này sau đó sẽ được thực bào bởi các tế bào lân cận hoặc bị phân hủy. Việc này đảm bảo quá trình chết tế bào diễn ra 'sạch sẽ' mà không gây viêm.
+**Bảng so sánh một số đặc điểm hình thái của tế bào lành, nhiễm virus tạo syncytium và tế bào apoptosis:**
+| Đặc điểm         | Tế bào lành (ví dụ: HT-29) | Tế bào nhiễm virus tạo Syncytium | Tế bào Apoptosis                  |
+| :--------------- | :----------------------- | :------------------------------- | :-------------------------------- |
+| Hình dạng tế bào | Hình khối/đa giác, rõ ràng | Lớn, không đều, tròn, hợp nhất     | Co rút, tạo khối cầu nhỏ, phồng rộp |
+| Số lượng nhân    | Một                      | Nhiều nhân trong một khối (syncytium) | Một hoặc nhiều, phân mảnh         |
+| Màng tế bào      | Nguyên vẹn               | Hợp nhất với màng tế bào lân cận | Nguyên vẹn ban đầu, sau đó phồng rộp (blebbing) và phân mảnh |
+| Chất nhiễm sắc   | Phân tán đều             | Có thể thay đổi, ít đặc trưng     | Ngưng tụ chặt chẽ, rìa nhân, phân mảnh |
+| Thể apoptotic    | Không                    | Không điển hình                  | Có mặt, được thực bào            |
+**Ý nghĩa lâm sàng và nghiên cứu:**
+*   **Đánh giá hiệu quả điều trị:** Khả năng gây apoptosis có chọn lọc trên tế bào ung thư mà không ảnh hưởng đến tế bào lành là yếu tố then chốt trong việc đánh giá tiềm năng của liệu pháp virus oncolytic. Các bạn cần theo dõi các dấu ấn của apoptosis trong các mô hình in vitro và in vivo.
+*   **Chẩn đoán và tiên lượng:** Trong một số trường hợp nhiễm virus kéo dài, việc định lượng sự xâm nhập của virus vào nhân có thể là một dấu ấn bệnh lý hữu ích để đánh giá mức độ bệnh lý tế bào và tiên lượng bệnh.
+*   **Phát triển thuốc:** Hiểu rõ các con đường kích hoạt apoptosis giúp các nhà nghiên cứu phát triển các loại thuốc chống ung thư mới nhắm vào các cơ chế này, có thể kết hợp với liệu pháp virus.
+Để nâng cao kỹ năng này, các bạn nên thực hành quan sát dưới kính hiển vi, tham khảo các atlas mô bệnh học, và tham gia các khóa học thực hành về nuôi cấy tế bào và phân tích hình ảnh để có kinh nghiệm thực tiễn.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Atlas Hình thái học Tế bào và Mô bệnh học trong Ung thư và Bệnh truyền nhiễm</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp hình ảnh chi tiết, minh họa rõ nét các thay đổi hình thái tế bào trong các bệnh lý ung thư và khi bị nhiễm virus. Đây là tài liệu cần thiết cho sinh viên y khoa, bác sĩ giải phẫu bệnh, và các nhà nghiên cứu để học cách nhận diện và phân tích hiệu ứng gây bệnh ở cấp độ tế bào.</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Thực hành Kỹ thuật Mô học và Sinh học Tế bào trong Nghiên cứu Ung thư</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành này sẽ hướng dẫn chi tiết về các kỹ thuật chuẩn bị mẫu, nhuộm, quan sát dưới kính hiển vi và phân tích hình ảnh tế bào. Đặc biệt, khóa học bao gồm các module về nhận diện hiệu ứng gây bệnh tế bào và các dấu hiệu apoptosis, cung cấp kinh nghiệm thực tiễn cho việc đánh giá hiệu quả của các liệu pháp điều trị.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên sâu, hỗ trợ bác sĩ và sinh viên y khoa trong việc phân tích các cơ chế phân tử và tế bào học của bệnh lý, từ đó nâng cao kiến thức và kỹ năng giải quyết vấn đề lâm sàng, đặc biệt về tương tác virus-ký chủ.</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ đang tìm hiểu về cơ chế lây nhiễm của virus sởi (MeV) và quai bị (MuV) trên tế bào ung thư đại trực tràng (CRC), tôi cần hiểu rõ về vai trò của các thụ thể đặc hiệu và các yếu tố tế bào chủ khác ảnh hưởng đến quá trình này để phát triển các phương pháp điều trị mới. Ông/bà có thể giải thích chi tiết không?</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Để phát triển các phương pháp điều trị mới dựa trên virus oncolytic, việc thấu hiểu sâu sắc cơ chế tương tác giữa virus và tế bào chủ là điều kiện tiên quyết. Đối với virus sởi (MeV) và quai bị (MuV) trên tế bào ung thư đại trực tràng (CRC), các bạn cần lưu ý những điểm sau để có thể phân tích và ứng dụng hiệu quả:
+**1. Các thụ thể đặc hiệu của virus và vai trò của chúng:**
+*   **Thụ thể của MuV (Virus quai bị):** MuV chủng Urabe sử dụng các sialoglycoproteins chứa acid sialic làm thụ thể đặc hiệu trên bề mặt tế bào. Điều đáng chú ý là sự biểu hiện quá mức của các glycoprotein giàu acid sialic trên bề mặt tế bào CRC làm tăng khả năng lây nhiễm của virus trên dòng tế bào này. Điều này gợi ý một cơ chế nhắm mục tiêu tự nhiên của MuV tới tế bào ung thư. Khi thiết kế các liệu pháp, chúng ta có thể lợi dụng sự quá biểu hiện này.
+*   **Thụ thể của MeV (Virus sởi):**
+    *   **CD46:** MeV chủng Edmonton sử dụng phân tử CD46 làm thụ thể đặc hiệu. CD46 là một glycoprotein xuyên màng có vai trò điều hòa hoạt hóa bổ thể. Mặc dù CD46 thường được biểu hiện trên tất cả các tế bào có nhân của người, nhưng nó lại thường xuyên được biểu hiện quá mức ở các tế bào CRC. Sự quá biểu hiện này là một yếu tố quan trọng giúp MeV chọn lọc tấn công tế bào ung thư. Việc định lượng CD46 trên mẫu sinh thiết có thể giúp dự đoán khả năng đáp ứng với liệu pháp MeV.
+    *   **Nectin-4:** Gần đây, Nectin-4 cũng đã được xác định là một thụ thể biểu mô đặc hiệu của MeV. Việc hiểu rõ vai trò của Nectin-4 mở ra thêm các hướng nghiên cứu về tính đặc hiệu mô và tế bào của MeV, có thể được dùng để tăng cường tính nhắm đích của virus.
+**2. Vai trò của protease tế bào chủ:**
+*   Ngoài các thụ thể, quá trình nhân lên của các virus có vỏ bọc như MuV hoặc MeV đòi hỏi các protease của tế bào chủ để cắt các glycoprotein của virus và màng tế bào. Việc cắt này là cần thiết để virus có thể xâm nhập hiệu quả vào các tế bào chủ.
+*   Điều quan trọng là các protease này thường được biểu hiện quá mức trong nhiều dòng tế bào ung thư, bao gồm cả CRC. Sự phong phú của protease trong môi trường khối u có thể tạo điều kiện thuận lợi cho sự xâm nhập và nhân lên của virus oncolytic. Điều này có thể được khai thác bằng cách thiết kế virus phụ thuộc protease hoặc kết hợp với các chất điều biến protease.
+**3. Ý nghĩa trong phát triển liệu pháp mới:**
+*   **Thiết kế virus oncolytic cải tiến:** Kiến thức về các thụ thể đặc hiệu cho phép các nhà khoa học chỉnh sửa hoặc thiết kế các virus oncolytic để tăng cường tính chọn lọc và hiệu quả nhắm mục tiêu vào tế bào ung thư, đồng thời giảm thiểu tác dụng phụ trên tế bào lành. Đây là trọng tâm của kỹ thuật di truyền virus hiện đại.
+*   **Chẩn đoán và lựa chọn bệnh nhân:** Việc xác định mức độ biểu hiện của CD46, Nectin-4 hoặc sialoglycoproteins trên khối u của bệnh nhân có thể giúp dự đoán đáp ứng với liệu pháp virus oncolytic và lựa chọn bệnh nhân phù hợp cho các thử nghiệm lâm sàng, tiến tới y học cá thể hóa.
+*   **Phối hợp liệu pháp:** Hiểu về vai trò của protease có thể gợi ý việc kết hợp liệu pháp virus oncolytic với các thuốc ức chế protease hoặc các liệu pháp khác (như hóa trị, xạ trị) để tối ưu hóa hiệu quả điều trị, giảm liều và tác dụng phụ.
+Việc tích cực cập nhật và đào sâu kiến thức về sinh học phân tử của virus và ung thư sẽ là nền tảng vững chắc giúp các bạn đóng góp vào việc phát triển những giải pháp điều trị đột phá trong tương lai. Hãy luôn kết nối lý thuyết với khả năng ứng dụng lâm sàng để có cái nhìn toàn diện nhất.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sinh học Phân tử của Virus: Tương tác Ký chủ và Chiến lược Nhân lên</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Tài liệu chuyên sâu này khám phá các cơ chế phân tử phức tạp của sự tương tác giữa virus và tế bào chủ, tập trung vào các thụ thể bề mặt, quá trình xâm nhập, nhân lên và đáp ứng miễn dịch. Đây là tài liệu tham khảo không thể thiếu cho các nhà khoa học, bác sĩ và sinh viên y khoa quan tâm đến cơ sở phân tử của bệnh truyền nhiễm và liệu pháp sinh học.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Cơ sở Phân tử của Bệnh Ung thư và Các Liệu pháp Nhắm Trúng Đích</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp kiến thức nền tảng về các con đường tín hiệu phân tử bị rối loạn trong ung thư và cách các liệu pháp nhắm đích, bao gồm cả liệu pháp virus oncolytic, tương tác với các cơ chế này. Khóa học sẽ trang bị cho người học khả năng phân tích sâu sắc các dữ liệu nghiên cứu và áp dụng vào thực hành lâm sàng, đặc biệt hữu ích cho các chuyên gia ung thư và sinh học phân tử.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Với tư cách là một bác sĩ trẻ hoặc sinh viên y khoa, làm thế nào để xác định quá trình apoptosis thông qua các thay đổi hình thái của tế bào, và những đặc điểm chính nào cần chú ý khi quan sát dưới kính hiển vi?</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Để nhận diện quá trình apoptosis dưới kính hiển vi, bạn cần chú ý đến một loạt các thay đổi hình thái đặc trưng, khác biệt rõ rệt so với hoại tử (necrosis). Đây là những điểm cốt lõi mà mọi bác sĩ và sinh viên y khoa cần nắm vững:
+*   **Tế bào co lại (Cell shrinkage):** Đây là dấu hiệu sớm nhất. Tế bào sẽ có kích thước nhỏ hơn so với bình thường, bắt đầu tách rời khỏi các tế bào lân cận. Điều này giúp ngăn chặn sự giải phóng các chất gây viêm vào môi trường xung quanh.
+*   **Bào tương đậm đặc (Dense cytoplasm):** Do sự co lại của tế bào, các bào quan (như ty thể, lưới nội chất) trở nên đóng gói chặt chẽ hơn, làm cho bào tương trông đậm đặc và đồng nhất hơn khi quan sát.
+*   **Ngưng tụ nhân (Nuclear condensation - Chromatin condensation):** Đây là đặc điểm điển hình nhất của apoptosis. Nhiễm sắc thể (chromatin) trong nhân sẽ ngưng tụ lại thành các khối đậm đặc, thường nằm sát màng nhân, tạo thành cấu trúc hình lưỡi liềm hoặc hình vòng. Giai đoạn muộn hơn, nhân có thể vỡ thành nhiều mảnh (nuclear fragmentation).
+*   **Hình thành túi lồi màng (Blebbing):** Màng plasma bắt đầu lồi ra không đều, tạo thành các túi nhỏ (blebs). Điều này cho thấy sự mất ổn định của khung xương tế bào (cytoskeleton).
+*   **Hình thành thể apoptotic (Apoptotic bodies):** Cuối cùng, các túi lồi màng cùng với các mảnh nhân và bào tương được đóng gói lại thành các thể apoptotic nhỏ hơn. Các thể này vẫn được bao bọc bởi màng tế bào, đảm bảo nội dung bên trong không bị rò rỉ ra ngoài và sau đó sẽ bị các đại thực bào loại bỏ một cách hiệu quả, không gây phản ứng viêm.
+**Lời khuyên cho việc thực hành:** Khi quan sát mẫu mô bệnh học, hãy luôn so sánh với các tế bào bình thường xung quanh. Sử dụng các kỹ thuật nhuộm đặc biệt như H&amp;E (Hematoxylin và Eosin) kết hợp với nhuộm đặc hiệu cho nhân (ví dụ: DAPI) có thể giúp làm nổi bật các đặc điểm này. Việc nhận diện đúng apoptosis rất quan trọng trong chẩn đoán ung thư, đánh giá hiệu quả điều trị và nghiên cứu các bệnh lý khác.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Apoptosis: A Basic Biological Phenomenon with Wide-Ranging Implications in Tissue Kinetics</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Tài liệu kinh điển này của Kerr và cộng sự (1972) là nền tảng cho sự hiểu biết về apoptosis, mô tả chi tiết các đặc điểm hình thái và ý nghĩa sinh học rộng lớn của nó trong cân bằng nội môi mô. Đây là tài liệu 'phải đọc' cho mọi sinh viên y khoa và bác sĩ muốn nắm vững về chết tế bào theo chương trình.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Chẩn đoán Mô bệnh học Nâng cao trong Bệnh lý Học Tế Bào</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các kỹ thuật nhuộm và quan sát mẫu mô bệnh học, từ cơ bản đến nâng cao, giúp bác sĩ và sinh viên y khoa nhận diện chính xác các thay đổi tế bào, bao gồm cả apoptosis, dưới kính hiển vi quang học và kính hiển vi điện tử. Khóa học sẽ trang bị kiến thức về cách sử dụng các chỉ dấu miễn dịch hóa học để xác nhận apoptosis, nâng cao kỹ năng chẩn đoán mô học và bệnh học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Xin hãy giải thích các thay đổi hình thái tuần tự trong quá trình apoptosis, từ khi bắt đầu đến khi hình thành các thể apoptotic, và tại sao việc hiểu rõ các giai đoạn này lại có ý nghĩa lâm sàng đối với một bác sĩ?</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Việc nắm rõ trình tự các thay đổi hình thái của apoptosis là chìa khóa để phân biệt quá trình này với các hình thức chết tế bào khác và hiểu được vai trò của nó trong bệnh lý. Dưới đây là các giai đoạn chính và ý nghĩa lâm sàng:
+**1. Giai đoạn Khởi đầu và Co rút:**
+*   **Đặc điểm:** Tế bào bắt đầu co lại, trở nên nhỏ hơn, và mất liên kết với các tế bào lân cận. Các bào quan trong bào tương cũng tập trung và đóng gói chặt chẽ hơn. Màng tế bào vẫn nguyên vẹn.
+*   **Ý nghĩa lâm sàng:** Đây là dấu hiệu sớm nhất của apoptosis. Trong các bệnh lý như ung thư hoặc bệnh tự miễn, việc phát hiện sớm các tế bào đang trải qua giai đoạn này có thể cho thấy một quá trình bệnh đang hoạt động hoặc phản ứng với điều trị.
+**2. Giai đoạn Ngưng tụ Nhân và Phân mảnh:**
+*   **Đặc điểm:** Nhiễm sắc thể trong nhân ngưng tụ mạnh mẽ, tạo thành các khối đậm đặc sát màng nhân (cấu trúc hình lưỡi liềm hoặc hình vòng). Sau đó, nhân có thể phân mảnh thành nhiều phần nhỏ hơn. Đây là đặc điểm rất đặc trưng.
+*   **Ý nghĩa lâm sàng:** Giai đoạn này rất quan trọng để chẩn đoán apoptosis. Ví dụ, trong hóa trị liệu ung thư, thuốc chống ung thư thường hoạt động bằng cách gây tổn thương DNA và kích hoạt apoptosis. Quan sát ngưng tụ nhân có thể là một chỉ dấu cho thấy liệu pháp đang có hiệu quả.
+**3. Giai đoạn Hình thành Túi lồi màng (Blebbing):**
+*   **Đặc điểm:** Màng plasma bắt đầu tạo ra các 'túi' lồi ra không đều. Quá trình này là do sự thay đổi của khung xương tế bào dưới màng.
+*   **Ý nghĩa lâm sàng:** Mặc dù không đặc hiệu chỉ cho apoptosis, việc quan sát blebbing cùng với các đặc điểm khác giúp củng cố chẩn đoán. Trong nghiên cứu, blebbing cũng là một điểm đánh dấu để theo dõi động học của quá trình apoptosis.
+**4. Giai đoạn Hình thành Thể Apoptotic và Thực bào:**
+*   **Đặc điểm:** Tế bào phân mảnh thành nhiều thể nhỏ hơn gọi là thể apoptotic, mỗi thể chứa một phần nhân hoặc bào tương, được bao bọc bởi màng tế bào còn nguyên vẹn. Các thể này sau đó được các tế bào thực bào (như đại thực bào) nhanh chóng nhận diện và loại bỏ.
+*   **Ý nghĩa lâm sàng:** Đây là lý do tại sao apoptosis được coi là một dạng chết tế bào 'sạch', không gây viêm. Trong các bệnh lý thoái hóa hoặc tự miễn, sự thất bại trong việc loại bỏ hiệu quả các thể apoptotic có thể dẫn đến việc giải phóng các kháng nguyên tế bào, góp phần vào phản ứng viêm hoặc bệnh tự miễn.
+**Bảng tóm tắt các đặc điểm hình thái apoptosis:**
+| Giai đoạn | Đặc điểm Hình thái Nổi bật | Ý nghĩa Sinh học/Lâm sàng |
+|---|---|---|
+| **Khởi đầu** | Tế bào co lại, tách rời nhau | Đảm bảo cái chết tế bào được kiểm soát, không ảnh hưởng đến tế bào xung quanh. |
+| **Trung gian sớm** | Bào tương đậm đặc, ngưng tụ chromatin | Dấu hiệu đặc trưng nhất ở nhân, dễ nhận biết dưới kính hiển vi. Chỉ thị hiệu quả của quá trình. |
+| **Trung gian muộn** | Hình thành túi lồi màng (blebs), nhân phân mảnh | Chuẩn bị cho sự phân chia thành các thể apoptotic. |
+| **Cuối cùng** | Hình thành thể apoptotic, thực bào | Đảm bảo loại bỏ tế bào chết không gây viêm, duy trì cân bằng nội môi. |</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Morphological Features of Cell Death</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Bài báo của Ziegler và Groscurth (2004) cung cấp một cái nhìn tổng quan chi tiết về các đặc điểm hình thái của nhiều loại chết tế bào khác nhau, bao gồm apoptosis. Đây là nguồn tài liệu tuyệt vời để phân biệt giữa các loại chết tế bào, rất hữu ích cho các bác sĩ và nhà nghiên cứu trong việc chẩn đoán và hiểu rõ cơ chế bệnh sinh.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Cập nhật Kiến thức về Chết Tế Bào theo Chương trình và Vai trò trong Bệnh lý Học</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Khóa học CME này sẽ đi sâu vào cơ chế phân tử của apoptosis và các loại chết tế bào khác, thảo luận về vai trò của chúng trong các bệnh lý khác nhau như ung thư, bệnh tự miễn và bệnh thoái hóa thần kinh. Khóa học sẽ trang bị kiến thức cập nhật về các phương pháp phát hiện apoptosis, cách diễn giải kết quả, và các hướng nghiên cứu mới về việc điều chỉnh apoptosis để điều trị bệnh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Kết luận của bài viết đề cập rằng virus sởi (MeV) và quai bị (MuV) có thể gây ra apoptosis ở tế bào khối u HT-29. Một bác sĩ ung thư trẻ có thể ứng dụng phát hiện này như thế nào trong lĩnh vực ung thư học, và những ý nghĩa thực tiễn nào đối với các liệu pháp ung thư và nghiên cứu trong tương lai?</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Phát hiện virus sởi (MeV) và quai bị (MuV) có khả năng gây ra apoptosis ở tế bào khối u HT-29 mở ra một hướng đi đầy hứa hẹn trong điều trị ung thư, đặc biệt là trong lĩnh vực **liệu pháp virus ung thư (oncolytic virotherapy)**. Với tư cách là một bác sĩ ung thư trẻ hoặc nhà nghiên cứu, bạn cần hiểu rõ những ý nghĩa sau:
+**1. Cơ chế hoạt động của virus ung thư:**
+*   **Tính chọn lọc:** Các loại virus như MeV và MuV có xu hướng nhân lên ưu tiên trong các tế bào ung thư do sự khác biệt về các con đường tín hiệu hoặc biểu hiện thụ thể trên bề mặt tế bào. Khi nhân lên, virus phá hủy tế bào ung thư (gây ly giải tế bào - oncolysis) và đồng thời kích hoạt apoptosis – một cơ chế chết tế bào có kiểm soát, không gây viêm.
+*   **Kích thích miễn dịch:** Khi tế bào ung thư chết do virus, chúng giải phóng các kháng nguyên ung thư và các yếu tố nguy hiểm (DAMPs), có thể kích hoạt phản ứng miễn dịch chống ung thư của cơ thể, tạo ra hiệu ứng 'vaccine ung thư' tự nhiên.
+**2. Ứng dụng tiềm năng trong lâm sàng:**
+*   **Liệu pháp đơn độc hoặc kết hợp:** MeV và MuV có thể được sử dụng làm tác nhân điều trị độc lập hoặc kết hợp với các liệu pháp truyền thống như hóa trị, xạ trị hoặc liệu pháp miễn dịch. Việc kết hợp có thể tăng cường hiệu quả điều trị và giảm liều lượng các thuốc độc hại.
+*   **Điều trị ung thư khó chữa:** Liệu pháp virus ung thư có thể là một lựa chọn tiềm năng cho các loại ung thư kháng trị, tái phát, hoặc di căn mà các liệu pháp hiện tại ít hiệu quả. Virus có thể được điều chỉnh để nhắm mục tiêu cụ thể vào các loại tế bào ung thư khác nhau.
+**3. Hướng nghiên cứu và thực tiễn cho bác sĩ ung thư:**
+*   **Hiểu biết về cơ chế:** Nắm vững cơ chế virus gây apoptosis và oncolysis sẽ giúp bạn đánh giá tiềm năng và rủi ro của các liệu pháp virus ung thư.
+*   **Theo dõi và đánh giá:** Trong các thử nghiệm lâm sàng, việc theo dõi các dấu hiệu apoptosis ở tế bào khối u (như đã thảo luận ở trên) là một cách để đánh giá hiệu quả của liệu pháp virus.
+*   **Nghiên cứu thêm:** Đọc các tài liệu khoa học cập nhật (như các tài liệu tham khảo trong bài viết) để hiểu về các loại virus oncolytic khác, các kỹ thuật kỹ thuật gen để tăng cường tính đặc hiệu và an toàn của virus, cũng như cách vượt qua các rào cản miễn dịch của vật chủ.
+*   **Tư vấn bệnh nhân:** Khi liệu pháp virus ung thư trở nên phổ biến hơn, bạn sẽ cần có khả năng giải thích về cơ chế, lợi ích và các tác dụng phụ tiềm ẩn cho bệnh nhân một cách rõ ràng và khoa học.
+Việc tận dụng tiềm năng của virus trong điều trị ung thư đòi hỏi sự hợp tác chặt chẽ giữa các nhà khoa học cơ bản, nhà lâm sàng và các chuyên gia về virus học để phát triển các liệu pháp an toàn và hiệu quả.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Oncolysis by Paramyxoviruses: Multiple Mechanisms Contribute to Therapeutic Efficiency</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng hợp các cơ chế mà paramyxovirus gây tiêu diệt tế bào ung thư, bao gồm cả việc gây ra apoptosis và kích hoạt miễn dịch. Đây là tài liệu tham khảo thiết yếu cho các bác sĩ và nhà nghiên cứu quan tâm đến lĩnh vực liệu pháp virus ung thư (oncolytic virotherapy) và hiểu rõ cách các virus này có thể được kỹ thuật hóa để tối ưu hiệu quả điều trị.</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Liệu pháp Virus Ung thư (Oncolytic Virotherapy): Từ Nghiên cứu Cơ bản đến Thử nghiệm Lâm sàng</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp cái nhìn toàn diện về liệu pháp virus ung thư, từ lịch sử phát triển, cơ chế phân tử của sự tương tác virus-tế bào ung thư, đến các thử nghiệm lâm sàng hiện tại và tương lai. Khóa học sẽ bao gồm các trường hợp nghiên cứu về việc sử dụng các loại virus khác nhau (bao gồm MeV và MuV) và cách chúng được điều chỉnh gen để tăng cường tính đặc hiệu và an toàn. Đây là khóa học lý tưởng để trang bị kiến thức cho bác sĩ ung thư trẻ và sinh viên y khoa về một trong những biên giới mới của điều trị ung thư.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, kỹ thuật nội soi phế quản huỳnh quang (fluorescent bronchoscopy) mang lại những ưu điểm vượt trội nào so với nội soi ánh sáng trắng thông thường trong chẩn đoán ung thư phổi, và làm thế nào để chúng em tối ưu hóa việc sử dụng kỹ thuật này trong thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Kỹ thuật nội soi phế quản huỳnh quang (fluorescent bronchoscopy) đã được chứng minh là một bước tiến quan trọng trong chẩn đoán ung thư phổi, đặc biệt là trong việc phát hiện các tổn thương sớm mà nội soi ánh sáng trắng có thể bỏ sót. Các em cần nắm rõ những ưu điểm và cách tiếp cận tối ưu sau:
+*   **Ưu điểm vượt trội:**
+    *   **Độ nhạy và độ đặc hiệu cao hơn:** Đoạn văn đã chỉ ra rằng việc giảm tín hiệu huỳnh quang có độ nhạy và độ đặc hiệu cao hơn so với nội soi ánh sáng trắng trong chẩn đoán ung thư phổi. Điều này đặc biệt quan trọng trong việc phát hiện sớm các tổn thương tiền ung thư hoặc ung thư tại chỗ (carcinoma in situ) mà có thể khó nhìn thấy bằng mắt thường dưới ánh sáng trắng.
+    *   **Phát hiện tổn thương nhỏ, kín đáo:** Ánh sáng huỳnh quang giúp làm nổi bật những vùng niêm mạc có sự thay đổi về chuyển hóa hoặc cấu trúc tế bào, thường biểu hiện bằng sự giảm tín hiệu huỳnh quang. Đây là những thay đổi có thể là dấu hiệu sớm của ung thư, trước khi chúng phát triển thành khối u rõ ràng.
+    *   **Tăng cường hiệu quả khi kết hợp:** Nghiên cứu đã nhấn mạnh rằng hiệu quả phát hiện ung thư phổi tăng rõ rệt khi kết hợp cả hai nguồn sáng (trắng và huỳnh quang). Ánh sáng trắng cung cấp cái nhìn tổng thể về đường thở, trong khi ánh sáng huỳnh quang giúp 'soi' kỹ hơn vào các vùng nghi ngờ.
+*   **Cách tối ưu hóa việc sử dụng trong thực hành lâm sàng:**
+    *   **Huấn luyện chuyên sâu:** Đảm bảo các em được đào tạo bài bản về nguyên lý hoạt động của hệ thống huỳnh quang, cách nhận diện và đánh giá các kiểu tín hiệu huỳnh quang bất thường. Kinh nghiệm là chìa khóa để phân biệt giữa các thay đổi lành tính và ác tính.
+    *   **Quy trình chuẩn hóa:** Xây dựng và tuân thủ một quy trình nội soi chuẩn hóa, trong đó bao gồm việc khảo sát toàn bộ đường thở bằng cả ánh sáng trắng trước, sau đó chuyển sang ánh sáng huỳnh quang để kiểm tra các vùng có nguy cơ hoặc nghi ngờ.
+    *   **Sinh thiết định hướng:** Khi phát hiện vùng giảm tín hiệu huỳnh quang, cần thực hiện sinh thiết định hướng (targeted biopsy) tại vùng đó. Điều này giúp tăng khả năng lấy được mẫu bệnh phẩm chứa tế bào ung thư hoặc tiền ung thư, tối ưu hóa kết quả chẩn đoán giải phẫu bệnh.
+    *   **Xem xét kết quả trong bối cảnh lâm sàng:** Luôn kết hợp kết quả nội soi huỳnh quang với các yếu tố nguy cơ của bệnh nhân, triệu chứng lâm sàng, và các xét nghiệm chẩn đoán hình ảnh khác (X-quang ngực, CT scan) để đưa ra chẩn đoán chính xác và kế hoạch điều trị phù hợp nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị ung thư phổi theo Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các phác đồ và tiêu chuẩn chẩn đoán, điều trị ung thư phổi hiện hành của Bộ Y tế Việt Nam, bao gồm cả vai trò và ứng dụng của các kỹ thuật nội soi tiên tiến như nội soi phế quản huỳnh quang. Đây là cẩm nang quan trọng cho các bác sĩ và sinh viên y khoa trong việc cập nhật kiến thức lâm sàng và thực hành y tế.</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Cập nhật kỹ thuật nội soi phế quản chẩn đoán và can thiệp.</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Khóa học đào tạo y khoa liên tục (CME) này tập trung vào các tiến bộ mới nhất trong nội soi phế quản, bao gồm nguyên lý, kỹ thuật thực hiện nội soi huỳnh quang, sinh thiết định hướng, và các phương pháp can thiệp. Khóa học giúp nâng cao kỹ năng thực hành và kiến thức chuyên môn cho các bác sĩ hô hấp và ung thư, đặc biệt là trong việc phát hiện sớm ung thư phổi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu về ung thư phổi, các tiêu chí lựa chọn bệnh nhân có yếu tố nguy cơ và các dấu hiệu nghi ngờ trên X-quang ngực quy ước được xác định như thế nào? Chúng em cần lưu ý những gì khi sàng lọc và đánh giá bệnh nhân để đảm bảo chẩn đoán sớm ung thư phổi?</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Khi tiến hành sàng lọc và đánh giá bệnh nhân nghi ngờ ung thư phổi, việc xác định đúng đối tượng nguy cơ cao và nhận diện các dấu hiệu bất thường là vô cùng quan trọng để đảm bảo chẩn đoán sớm và kịp thời. Dựa trên nghiên cứu được trích dẫn, các tiêu chí lựa chọn bệnh nhân cụ thể như sau:
+*   **Đối tượng có yếu tố nguy cơ của ung thư phổi (nhóm n1):**
+    *   **Giới tính:** Nam giới.
+    *   **Tuổi:** Từ 40 tuổi trở lên.
+    *   **Tiền sử hút thuốc lá:** Hút từ 10 gói-năm (pack-year) trở lên. (Để tính pack-year, nhân số bao thuốc hút mỗi ngày với số năm đã hút).
+*   **Triệu chứng lâm sàng nghi ngờ:**
+    *   Ho kéo dài hoặc thay đổi tính chất ho.
+    *   Khạc đờm.
+    *   Ho ra máu (hemoptysis).
+    *   Khó thở (dyspnea).
+    *   Đau ngực (chest pain).
+    *   Sụt cân không rõ nguyên nhân (weight loss).
+*   **Các kết quả xét nghiệm tổng quát đảm bảo an toàn cho nội soi phế quản:** Bao gồm công thức máu, chức năng gan thận, đông máu, điện tâm đồ (ECG), chức năng hô hấp.
+*   **Tổn thương nghi ngờ trên X-quang ngực quy ước:**
+    *   Nốt đơn độc (nodule).
+    *   Khối (mass).
+    *   Viêm phổi tắc nghẽn (obstructive pneumonia).
+    *   Xẹp phổi (atelectasis).
+    *   Hạch trung thất (mediastinal lymph nodes).
+    *   Tràn dịch màng phổi (pleural effusion).
+**Để tối ưu hóa việc sàng lọc và đánh giá bệnh nhân, các em cần lưu ý:**
+1.  **Thu thập tiền sử bệnh án chi tiết:** Luôn hỏi kỹ về tiền sử hút thuốc lá (cả chủ động và thụ động), tiền sử phơi nhiễm với các yếu tố nguy cơ khác (amiăng, radon, ô nhiễm không khí), và tiền sử gia đình về ung thư.
+2.  **Đánh giá triệu chứng lâm sàng cẩn thận:** Nhiều triệu chứng ban đầu của ung thư phổi không đặc hiệu. Hãy cảnh giác với bất kỳ triệu chứng hô hấp mới xuất hiện hoặc kéo dài ở những bệnh nhân có yếu tố nguy cơ.
+3.  **Đọc phim X-quang ngực một cách hệ thống:** Mặc dù X-quang ngực quy ước có thể bỏ sót các tổn thương nhỏ, nó vẫn là công cụ sàng lọc ban đầu quan trọng. Hãy học cách nhận diện các dấu hiệu gián tiếp của khối u như xẹp phổi, tràn dịch màng phổi, hoặc viêm phổi tái đi tái lại tại cùng một vị trí. Các tổn thương nghi ngờ trên X-quang cần được đánh giá thêm bằng CT scan ngực liều thấp nếu có chỉ định.
+4.  **Sử dụng tiêu chuẩn ICD-10:** Khi ghi nhận các dấu hiệu và triệu chứng lâm sàng hoặc hình ảnh học, hãy luôn tham chiếu đến ICD-10 để mã hóa chính xác các tình trạng bệnh lý, đảm bảo tính thống nhất trong chẩn đoán và quản lý bệnh án. Ví dụ, 'R05' cho ho, 'R06.0' cho khó thở, 'J90' cho tràn dịch màng phổi chưa phân loại.
+Dưới đây là một bảng tóm tắt các tiêu chí chính:
+| Nhóm tiêu chí           | Đặc điểm                                                          | Lưu ý cho bác sĩ trẻ                                                                                                       |
+| :---------------------- | :---------------------------------------------------------------- | :------------------------------------------------------------------------------------------------------------------------- |
+| **Yếu tố nguy cơ**      | Nam, ≥ 40 tuổi, hút thuốc ≥ 10 pack-year                          | Luôn hỏi rõ tiền sử hút thuốc (bao nhiêu điếu/ngày, bao nhiêu năm) và các yếu tố phơi nhiễm khác.                          |
+| **Triệu chứng lâm sàng** | Ho, khạc đờm, ho máu, khó thở, đau ngực, sụt cân                   | Cần cảnh giác cao độ khi có triệu chứng mới xuất hiện hoặc kéo dài ở nhóm nguy cơ cao.                                      |
+| **Hình ảnh X-quang**    | Nốt, khối, viêm phổi tắc nghẽn, xẹp phổi, hạch trung thất, tràn dịch màng phổi | Đọc phim X-quang ngực cẩn thận, xem xét chỉ định CT scan ngực liều thấp nếu có bất kỳ dấu hiệu nghi ngờ nào.            |
+| **Xét nghiệm tiền phẫu** | Công thức máu, chức năng gan thận, đông máu, ECG, chức năng hô hấp | Đảm bảo bệnh nhân đủ điều kiện sức khỏe để thực hiện các thủ thuật xâm lấn như nội soi phế quản.                        |</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Sàng lọc và chẩn đoán sớm ung thư phổi: Khuyến cáo của Hiệp hội Ung thư Quốc gia và Bộ Y tế.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp thông tin chi tiết về các yếu tố nguy cơ, phương pháp sàng lọc và chiến lược chẩn đoán sớm ung thư phổi hiệu quả, bao gồm cả hướng dẫn về việc sử dụng các phương tiện chẩn đoán hình ảnh và vai trò của nội soi phế quản. Nó là nguồn tham khảo thiết yếu cho các bác sĩ trong công tác phòng ngừa và phát hiện bệnh.</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Đánh giá nguy cơ và chiến lược sàng lọc ung thư phổi.</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Khóa học CME này trang bị kiến thức và kỹ năng thực hành trong việc nhận diện các đối tượng có nguy cơ cao mắc ung thư phổi, sử dụng các công cụ sàng lọc hiệu quả (ví dụ: X-quang, CT scan liều thấp), và đưa ra quyết định lâm sàng phù hợp để chẩn đoán sớm. Khóa học nhấn mạnh vai trò của việc thu thập tiền sử bệnh chi tiết và đánh giá triệu chứng lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Khi tiến hành một nghiên cứu lâm sàng về hiệu quả chẩn đoán của một kỹ thuật mới như nội soi phế quản huỳnh quang, chúng em cần chú ý đến những khía cạnh nào về thiết kế nghiên cứu và cỡ mẫu để đảm bảo tính khoa học và độ tin cậy của kết quả? Có những yếu tố nào ảnh hưởng đến việc xác định cỡ mẫu tối thiểu cho nhóm bệnh nhân nghi ngờ ung thư phổi?</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Để đảm bảo tính khoa học và độ tin cậy của một nghiên cứu lâm sàng, đặc biệt khi đánh giá một kỹ thuật chẩn đoán mới như nội soi phế quản huỳnh quang, việc thiết kế nghiên cứu và xác định cỡ mẫu là cực kỳ quan trọng. Các em cần chú ý những điểm sau:
+*   **Thiết kế nghiên cứu:**
+    *   **Loại hình nghiên cứu:** Nghiên cứu đã đề cập sử dụng thiết kế 'Case study, cross sectional description' (nghiên cứu mô tả cắt ngang). Mặc dù phù hợp cho việc mô tả tình hình hiện tại, nhưng để đánh giá hiệu quả chẩn đoán của một kỹ thuật mới (như độ nhạy, độ đặc hiệu), các em nên cân nhắc các thiết kế mạnh mẽ hơn như: một nghiên cứu đoàn hệ (cohort study) đối chiếu hoặc một nghiên cứu trường hợp-chứng (case-control study) nếu mục tiêu là xác định các yếu tố nguy cơ.
+    *   **Nghiên cứu mô tả cắt ngang:** Thu thập dữ liệu tại một thời điểm nhất định, giúp mô tả tỷ lệ hiện mắc (prevalence) của một tình trạng hoặc đặc điểm tại thời điểm đó. Ưu điểm là nhanh chóng, ít tốn kém. Nhược điểm là không thể xác định mối quan hệ nhân quả. Khi đánh giá hiệu quả chẩn đoán, cần thêm một tiêu chuẩn vàng (gold standard) để so sánh.
+    *   **Tiêu chuẩn vàng:** Trong trường hợp ung thư phổi, tiêu chuẩn vàng thường là giải phẫu bệnh lý từ sinh thiết hoặc phẫu thuật. Mọi kết quả từ kỹ thuật mới cần được so sánh với tiêu chuẩn vàng này để xác định độ chính xác.
+*   **Xác định cỡ mẫu và các yếu tố ảnh hưởng:**
+    *   **Công thức tính cỡ mẫu:** Nghiên cứu đã áp dụng công thức cho nghiên cứu mô tả: `n = Z^2 * p * (1-p) / d^2`.
+        *   `n`: Cỡ mẫu tối thiểu cần thiết cho nhóm bệnh nhân (trong trường hợp này là nhóm nghi ngờ ung thư phổi).
+        *   `Z_1-α/2`: Giá trị Z tương ứng với mức độ tin cậy mong muốn. Với độ tin cậy 95%, `Z_1-α/2 = 1.96`. Mức độ tin cậy càng cao, cỡ mẫu càng lớn.
+        *   `p`: Tỷ lệ ước tính của quần thể. Đây là tỷ lệ mắc bệnh (ung thư phổi) trong nhóm nghi ngờ, hoặc tỷ lệ dương tính của kỹ thuật chẩn đoán mới. Nếu không có thông tin chính xác, thường lấy `p = 0.5` để có cỡ mẫu lớn nhất và an toàn nhất. `p` càng gần `0.5`, cỡ mẫu càng lớn.
+        *   `d`: Sai số cho phép (độ chính xác) của ước lượng. Đây là mức độ sai lệch tối đa mà nghiên cứu chấp nhận giữa tỷ lệ ước tính của mẫu và tỷ lệ thực tế của quần thể. `d` càng nhỏ (độ chính xác càng cao), cỡ mẫu càng lớn.
+    *   **Các yếu tố ảnh hưởng đến cỡ mẫu:**
+        *   **Tỷ lệ hiện mắc của bệnh:** Nếu bệnh hiếm, cần cỡ mẫu lớn hơn để có đủ số ca mắc bệnh để phân tích.
+        *   **Độ chính xác mong muốn:** Nghiên cứu muốn kết quả chính xác đến mức nào? Độ chính xác càng cao (d nhỏ), cỡ mẫu càng lớn.
+        *   **Mức độ tin cậy:** Mức độ tin cậy 95% là phổ biến, nhưng đôi khi cần 99% (Z = 2.58) cho các nghiên cứu quan trọng, đòi hỏi cỡ mẫu lớn hơn.
+        *   **Tỷ lệ mất theo dõi hoặc không đạt yêu cầu:** Cần dự trù một tỷ lệ nhất định để tăng cỡ mẫu ban đầu, bù đắp cho những bệnh nhân có thể rút khỏi nghiên cứu hoặc dữ liệu không sử dụng được.
+        *   **Khả năng tài chính và nguồn lực:** Cỡ mẫu lý tưởng đôi khi bị hạn chế bởi ngân sách, nhân lực và thời gian. Điều này cần được cân bằng với tính khoa học của nghiên cứu.
+*   **Lời khuyên cho các em:**
+    *   Luôn tham vấn ý kiến của các nhà thống kê y học từ giai đoạn thiết kế nghiên cứu để đảm bảo cỡ mẫu được tính toán chính xác và phù hợp với mục tiêu nghiên cứu.
+    *   Xác định rõ ràng mục tiêu chính và các mục tiêu phụ của nghiên cứu, từ đó lựa chọn thiết kế và công thức tính cỡ mẫu thích hợp.
+    *   Đảm bảo tuân thủ các nguyên tắc đạo đức trong nghiên cứu y học, bao gồm việc có sự đồng thuận có thông tin đầy đủ của bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Phương pháp nghiên cứu khoa học trong y học và y tế công cộng.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Cuốn sách cung cấp kiến thức nền tảng và chuyên sâu về thiết kế nghiên cứu, bao gồm các loại hình nghiên cứu, cách tính toán và xác định cỡ mẫu, thu thập dữ liệu, phân tích thống kê và trình bày kết quả trong lĩnh vực y tế. Đây là tài liệu không thể thiếu cho các nhà nghiên cứu trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Thiết kế nghiên cứu và phân tích thống kê nâng cao trong y học lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Khóa học CME này được thiết kế để trang bị cho các bác sĩ và nhà nghiên cứu kiến thức chuyên sâu về các loại hình thiết kế nghiên cứu (mô tả, phân tích, thử nghiệm lâm sàng), phương pháp tính toán cỡ mẫu phức tạp, và các kỹ thuật phân tích thống kê nâng cao. Khóa học đặc biệt hữu ích cho những ai đang thực hiện các dự án nghiên cứu khoa học y học đòi hỏi tính chính xác và độ tin cậy cao.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt về các kỹ thuật chẩn đoán ung thư phổi.</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Khi thực hiện nội soi phế quản cho bệnh nhân nghi ngờ ung thư phổi, bác sĩ trẻ nên diễn giải kết quả từ nội soi ánh sáng trắng và nội soi huỳnh quang giảm tín hiệu như thế nào để đưa ra chẩn đoán chính xác?</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên y khoa và bác sĩ trẻ thân mến, việc diễn giải kết quả nội soi phế quản trong chẩn đoán ung thư phổi đòi hỏi sự hiểu biết sâu sắc về cả hai kỹ thuật: nội soi ánh sáng trắng (WLB) và nội soi huỳnh quang (autofluorescence bronchoscopy - AFB). Dưới đây là những điểm cốt lõi các bạn cần lưu ý:
+*   **Nội soi ánh sáng trắng (WLB):** Đây là kỹ thuật tiêu chuẩn, cho phép quan sát trực tiếp các tổn thương đại thể như u sùi, loét, thâm nhiễm niêm mạc phế quản. Mặc dù cần thiết, WLB có thể bỏ sót các tổn thương tiền ung thư hoặc ung thư giai đoạn sớm, đặc biệt là các tổn thương phẳng, không rõ ràng.
+*   **Nội soi huỳnh quang (AFB - giảm tín hiệu huỳnh quang):** Kỹ thuật này sử dụng ánh sáng xanh để kích thích mô niêm mạc phế quản phát huỳnh quang tự nhiên. Mô lành thường phát huỳnh quang màu xanh lá cây, trong khi mô tổn thương (viêm, loạn sản, ung thư) thường có tín hiệu huỳnh quang giảm hoặc mất màu (màu đỏ nâu). Nghiên cứu cho thấy giảm tín hiệu huỳnh quang có giá trị cao hơn đáng kể trong việc phát hiện tổn thương so với WLB, đặc biệt ở những bệnh nhân nghi ngờ ung thư phổi. Điều này được minh chứng rõ ràng qua dữ liệu sau:
+| Phương pháp phát hiện        | Bệnh nhân nghi ngờ ung thư phổi (n1=178) | Bệnh nhân không nghi ngờ ung thư phổi (n2=67) |
+| :--------------------------- | :-------------------------------------: | :-------------------------------------------: |
+| Tổn thương phát hiện qua WLB | 56.74%                                  | 46.27%                                        |
+| Giảm tín hiệu huỳnh quang    | 75.84%                                  | 25.37%                                        |
+*   **Ý nghĩa lâm sàng:** Giảm tín hiệu huỳnh quang là một dấu hiệu cảnh báo mạnh mẽ cho thấy sự hiện diện của tổn thương bất thường ở niêm mạc phế quản, có thể là tiền ung thư hoặc ung thư. Khi quan sát thấy dấu hiệu này, các bạn cần đặc biệt chú ý và thực hiện sinh thiết tại vị trí đó để xác định bản chất mô bệnh học.
+*   **Thực hành:**
+    1.  Luôn bắt đầu với WLB để có cái nhìn tổng thể và xác định các tổn thương rõ ràng.
+    2.  Chuyển sang AFB để quét tìm các tổn thương kín đáo, đặc biệt ở những vùng niêm mạc có vẻ bình thường dưới WLB nhưng có nguy cơ cao (như hút thuốc lá nặng, tiền sử bệnh hô hấp mạn tính).
+    3.  Khi phát hiện giảm tín hiệu huỳnh quang, tiến hành sinh thiết mục tiêu.
+    4.  Kết hợp kết quả mô bệnh học với hình ảnh nội soi để đưa ra chẩn đoán cuối cùng.
+Việc thành thạo cả hai kỹ thuật này sẽ giúp các bạn tăng cường độ nhạy và độ đặc hiệu trong chẩn đoán sớm ung thư phổi, cải thiện tiên lượng cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị ung thư phổi (Phác đồ chuẩn Bộ Y tế)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các phác đồ và hướng dẫn lâm sàng chi tiết từ Bộ Y tế Việt Nam về chẩn đoán, phân loại giai đoạn và lựa chọn phương pháp điều trị ung thư phổi, bao gồm các khuyến nghị về kỹ thuật nội soi.</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Nội soi phế quản can thiệp: Kỹ thuật và ứng dụng trong ung thư phổi</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các kỹ thuật nội soi phế quản nâng cao, bao gồm nội soi huỳnh quang, siêu âm nội phế quản (EBUS) và các thủ thuật can thiệp, nhằm nâng cao kỹ năng chẩn đoán và điều trị ung thư phổi cho các bác sĩ hô hấp và ung bướu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ phân tích và đánh giá các nghiên cứu y học, đồng thời cung cấp kiến thức thực hành lâm sàng dựa trên bằng chứng khoa học.</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ hoặc sinh viên y khoa, làm thế nào để tôi có thể đánh giá một nghiên cứu về giá trị chẩn đoán của một phương pháp mới như nội soi huỳnh quang, đặc biệt về các chỉ số thống kê như p-value, độ nhạy và độ đặc hiệu?</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Chào các bạn, việc đánh giá một nghiên cứu y học là kỹ năng sống còn trong thực hành y học dựa trên bằng chứng. Đối với các nghiên cứu về giá trị chẩn đoán của một phương pháp mới, như nội soi huỳnh quang trong bài viết, các bạn cần chú ý các yếu tố sau:
+1.  **Thiết kế nghiên cứu:** Nghiên cứu này là một nghiên cứu cắt ngang (cross-sectional study) hoặc một phần của nghiên cứu đoàn hệ/bệnh chứng. Cần xem xét cỡ mẫu (sample size) có đủ lớn để đảm bảo tính đại diện và sức mạnh thống kê hay không (ở đây n=146 đã được tính toán).
+2.  **P-value:**
+    *   `p &lt; 0.05` được coi là có ý nghĩa thống kê, có nghĩa là sự khác biệt quan sát được giữa các nhóm ít có khả năng xảy ra do ngẫu nhiên.
+    *   Trong bài viết, `p &lt; 0.01` cho thấy sự khác biệt rất có ý nghĩa thống kê giữa nhóm nghi ngờ và không nghi ngờ ung thư phổi về tỷ lệ tổn thương được phát hiện. Điều này củng cố khẳng định rằng nội soi huỳnh quang có giá trị trong việc phân biệt hai nhóm này.
+    *   Tuy nhiên, `p-value` không nói lên mức độ lớn của hiệu ứng lâm sàng, chỉ nói lên khả năng không phải do ngẫu nhiên.
+3.  **Độ nhạy (Sensitivity) và Độ đặc hiệu (Specificity):**
+    *   **Độ nhạy:** Khả năng của phương pháp phát hiện đúng người mắc bệnh (Dương tính thật / Tổng số người mắc bệnh). Một phương pháp có độ nhạy cao sẽ ít bỏ sót bệnh.
+    *   **Độ đặc hiệu:** Khả năng của phương pháp phát hiện đúng người không mắc bệnh (Âm tính thật / Tổng số người không mắc bệnh). Một phương pháp có độ đặc hiệu cao sẽ ít chẩn đoán nhầm.
+    *   `Giá trị tiên đoán dương (Positive Predictive Value - PPV)` và `Giá trị tiên đoán âm (Negative Predictive Value - NPV)` cũng rất quan trọng, cho biết khả năng bệnh nhân thực sự mắc bệnh khi kết quả dương tính, hoặc không mắc bệnh khi kết quả âm tính. Các chỉ số này trực tiếp liên quan đến tỷ lệ hiện mắc bệnh trong quần thể nghiên cứu.
+4.  **Kết luận lâm sàng:**
+    *   Nghiên cứu chỉ ra rằng 'giảm tín hiệu huỳnh quang' có giá trị hơn 'ánh sáng trắng' trong phát hiện tổn thương. Điều này có nghĩa là AFB có độ nhạy cao hơn trong việc phát hiện các tổn thương ung thư phổi hoặc tiền ung thư.
+    *   Các bạn cần tổng hợp các chỉ số này để quyết định liệu một phương pháp chẩn đoán có phù hợp để áp dụng trong thực hành lâm sàng hay không, luôn so sánh với 'tiêu chuẩn vàng' (gold standard) nếu có.
+Kỹ năng đọc và hiểu thống kê sẽ giúp các bạn đưa ra các quyết định lâm sàng sáng suốt và cập nhật, đóng góp vào việc cải thiện chất lượng điều trị bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Phương pháp nghiên cứu y học và đánh giá thống kê</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sách giáo trình chuyên sâu về thiết kế nghiên cứu, thu thập dữ liệu, và các phương pháp phân tích thống kê thường dùng trong y học, cần thiết cho sinh viên và bác sĩ muốn thực hiện hoặc đánh giá nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Phân tích thống kê nâng cao với phần mềm STATA trong y học</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành hướng dẫn sử dụng phần mềm STATA 14.0 trở lên để xử lý, phân tích dữ liệu y tế, bao gồm các phương pháp so sánh nhóm (t-test, chi-square), phân tích hồi quy, và đánh giá giá trị chẩn đoán, rất hữu ích cho các bạn muốn thành thạo công cụ này.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hướng dẫn các quy trình chẩn đoán lâm sàng và ứng dụng mã ICD-10 trong quản lý bệnh án.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Khi bệnh nhân có nguy cơ cao hoặc nghi ngờ ung thư phổi, các bước chẩn đoán theo quy trình chuẩn của Bộ Y tế Việt Nam sẽ diễn ra như thế nào, và làm sao để áp dụng đúng mã ICD-10 cho các trường hợp này?</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Đối với các bạn sinh viên và bác sĩ trẻ, việc nắm vững quy trình chẩn đoán ung thư phổi là vô cùng quan trọng để đảm bảo bệnh nhân được can thiệp kịp thời và hiệu quả. Dưới đây là các bước chẩn đoán và hướng dẫn áp dụng ICD-10:
+1.  **Sàng lọc và đánh giá nguy cơ:**
+    *   Xác định các đối tượng có nguy cơ cao (ví dụ: hút thuốc lá nặng, tiền sử gia đình, phơi nhiễm nghề nghiệp). Nghiên cứu của chúng ta cũng chỉ ra rằng tỷ lệ mắc ung thư phổi ở nhóm nguy cơ cao là 10.6%.
+    *   Triệu chứng nghi ngờ: ho kéo dài, đau ngực, khó thở, sụt cân không rõ nguyên nhân, đờm có máu.
+2.  **Khám lâm sàng và cận lâm sàng ban đầu:**
+    *   Chụp X-quang ngực, sau đó là Chụp cắt lớp vi tính (CT scan) ngực có tiêm thuốc cản quang để đánh giá kỹ hơn các tổn thương.
+    *   Xét nghiệm máu: marker ung thư (CEA, Cyfra 21-1, NSE) có thể hỗ trợ nhưng không dùng để chẩn đoán xác định.
+3.  **Chẩn đoán mô bệnh học (tiêu chuẩn vàng):**
+    *   Đây là bước quyết định. Các phương pháp thu thập mẫu bao gồm:
+        *   **Nội soi phế quản (Bronchoscopy):** Như nghiên cứu đã đề cập, đây là một phương pháp quan trọng. Các bạn cần thực hiện sinh thiết (bronchial mucosal biopsy) dưới hướng dẫn của nội soi ánh sáng trắng hoặc nội soi huỳnh quang giảm tín hiệu.
+        *   Sinh thiết xuyên thành ngực dưới hướng dẫn CT (CT-guided transthoracic biopsy) đối với các tổn thương ngoại vi.
+        *   Chọc hút kim nhỏ dưới hướng dẫn siêu âm nội soi phế quản (EBUS-TBNA) đối với các hạch trung thất.
+        *   Sinh thiết màng phổi, chọc hút dịch màng phổi nếu có tràn dịch.
+        *   Trong một số trường hợp, phẫu thuật mở ngực hoặc nội soi lồng ngực để sinh thiết.
+    *   Mẫu bệnh phẩm sau đó sẽ được gửi đến khoa giải phẫu bệnh để xác định loại ung thư (tế bào nhỏ, không tế bào nhỏ) và các đặc điểm phân tử (ví dụ: EGFR, ALK, PD-L1) để định hướng điều trị.
+4.  **Phân loại giai đoạn (Staging):**
+    *   Sau khi có chẩn đoán mô bệnh học, cần phân loại giai đoạn bệnh (TNM staging) để đưa ra phác đồ điều trị phù hợp.
+**Áp dụng mã ICD-10:**
+*   Các bạn cần mã hóa chẩn đoán cuối cùng của bệnh nhân. Ví dụ:
+    *   **C34.9** Malignant neoplasm of bronchus or lung, unspecified (Ung thư ác tính của phế quản hoặc phổi, không xác định)
+    *   **C34.0** Malignant neoplasm of main bronchus (Ung thư ác tính của phế quản chính)
+    *   **C34.1** Malignant neoplasm of upper lobe, bronchus or lung (Ung thư ác tính thùy trên, phế quản hoặc phổi)
+*   Đối với các trường hợp nghi ngờ nhưng chưa có chẩn đoán xác định, có thể sử dụng các mã liên quan đến triệu chứng hoặc kết quả cận lâm sàng bất thường như **R91** (Nonspecific abnormal findings on diagnostic imaging of lung) hoặc **R93.1** (Abnormal findings on diagnostic imaging of lung), nhưng mục tiêu cuối cùng là đi đến chẩn đoán xác định để có mã C34 phù hợp.
+Việc tuân thủ quy trình này không chỉ giúp chẩn đoán chính xác mà còn đảm bảo dữ liệu y tế được mã hóa đúng theo chuẩn ICD-10, phục vụ công tác thống kê, nghiên cứu và thanh toán bảo hiểm.</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Sổ tay mã hóa bệnh theo ICD-10</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Tài liệu hướng dẫn chi tiết về cách áp dụng các mã bệnh theo phân loại quốc tế ICD-10, đặc biệt hữu ích cho các y bác sĩ trong việc ghi nhận và báo cáo dữ liệu y tế.</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Quản lý bệnh án điện tử và mã hóa ICD-10 trong môi trường lâm sàng</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Khóa học trang bị kiến thức và kỹ năng thực hành về quản lý hồ sơ bệnh án điện tử, đồng thời đào tạo chuyên sâu về việc sử dụng chính xác hệ thống mã hóa ICD-10 cho các chẩn đoán, thủ thuật và quy trình y tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn các bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, xin giải thích về nguyên lý hoạt động và giá trị của nội soi phế quản huỳnh quang (fluorescence bronchoscopy) trong việc phát hiện ung thư phổi, đặc biệt đối với sinh viên y khoa mới tiếp cận lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất hay và thiết yếu cho các bạn sinh viên y khoa cũng như bác sĩ trẻ trong thực hành lâm sàng về hô hấp. Nội soi phế quản huỳnh quang (Fluorescence Bronchoscopy - FB) là một kỹ thuật chẩn đoán tiên tiến, có giá trị cao trong việc phát hiện sớm các tổn thương tiền ung thư và ung thư phổi giai đoạn sớm mà nội soi ánh sáng trắng (White Light Bronchoscopy - WLB) có thể bỏ sót. 
+**1. Nguyên lý hoạt động:**
+   *   FB dựa trên nguyên lý tương tác giữa ánh sáng huỳnh quang và mô sinh học. Các mô khỏe mạnh có khả năng phát huỳnh quang tự nhiên (autofluorescence) khi được chiếu sáng bằng ánh sáng xanh. Ngược lại, các vùng mô bị tổn thương, đặc biệt là các tổn thương tiền ung thư hoặc ung thư, thường có sự thay đổi về cấu trúc, độ dày của màng nhầy hoặc tăng sinh mạch máu.
+   *   Những thay đổi này làm giảm khả năng phát huỳnh quang tự nhiên của mô, dẫn đến hình ảnh tín hiệu huỳnh quang bị giảm hoặc mất (Decreased Fluorescent Signal).
+   *   Theo đoạn văn, "các vùng mô có màng nhầy dày hoặc tăng sinh mạch máu tạo ra hình ảnh tín hiệu huỳnh quang giảm". Đây là điểm cốt lõi để nhận diện tổn thương.
+**2. Giá trị trong chẩn đoán ung thư phổi:**
+   *   **Phát hiện sớm:** FB có khả năng phát hiện các tổn thương nhỏ, dẹt, hoặc nằm dưới niêm mạc mà WLB khó nhận ra. Sự giảm tín hiệu huỳnh quang được coi là dấu hiệu cảnh báo mạnh mẽ cho sự hiện diện của tổn thương.
+   *   **Tăng tỷ lệ phát hiện tổn thương:** Nghiên cứu trong đoạn văn cho thấy tỷ lệ giảm tín hiệu huỳnh quang ở bệnh nhân ung thư phổi nghi ngờ cao hơn đáng kể so với nhóm không nghi ngờ (p&lt;0,01). Khi sinh thiết tại vị trí giảm tín hiệu, hiệu quả chẩn đoán ung thư phổi đạt 63,82% (97/152 bệnh nhân), cao hơn so với chỉ dùng WLB.
+   *   **Hướng dẫn sinh thiết:** Tín hiệu huỳnh quang giảm cung cấp một 'bản đồ' rõ ràng hơn về nơi cần sinh thiết, giúp tăng tỷ lệ lấy được mẫu mô bệnh lý chính xác, đặc biệt trong các trường hợp tổn thương chưa biểu hiện rõ ràng trên WLB.
+**Lời khuyên cho sinh viên và bác sĩ trẻ:**
+*   **Nắm vững nguyên lý:** Hiểu rõ cách huỳnh quang tương tác với mô lành và mô bệnh giúp bạn giải thích hình ảnh và ra quyết định chính xác hơn.
+*   **Kỹ năng nhận diện:** Tập trung quan sát sự thay đổi màu sắc và cường độ tín hiệu huỳnh quang. Vùng màu tối hơn, kém sáng hơn so với vùng xung quanh cần được chú ý đặc biệt.
+*   **Tích hợp với WLB:** Luôn coi FB là một công cụ bổ trợ, không thay thế hoàn toàn WLB. Kết hợp cả hai phương pháp sẽ cho cái nhìn toàn diện nhất về tổn thương.
+*   **Thực hành sinh thiết có định hướng:** Khi thấy tín hiệu huỳnh quang giảm, hãy coi đó là chỉ điểm ưu tiên để thực hiện sinh thiết, ngay cả khi tổn thương không quá rõ ràng trên ánh sáng trắng. Điều này sẽ nâng cao đáng kể khả năng chẩn đoán sớm và chính xác ung thư phổi, thuộc nhóm bệnh mã hóa ICD-10 C34 (Malignant neoplasm of bronchus and lung).</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn các bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Khi thực hiện nội soi phế quản, bác sĩ cần lưu ý những điểm khác biệt nào giữa nội soi ánh sáng trắng (WLB) và nội soi huỳnh quang (FB) để tối ưu hóa việc phát hiện và chẩn đoán ung thư phổi?</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Để tối ưu hóa việc phát hiện và chẩn đoán ung thư phổi, một bác sĩ lâm sàng cần hiểu rõ sự khác biệt và giá trị bổ trợ của từng phương pháp nội soi phế quản. Dưới đây là những điểm cần lưu ý:
+**1. Đặc điểm phát hiện tổn thương:**
+*   **Nội soi ánh sáng trắng (WLB):** Chủ yếu phát hiện các tổn thương có thay đổi hình thái rõ ràng trên bề mặt niêm mạc phế quản. Các dấu hiệu điển hình bao gồm:
+    *   **U (Tumour):** Khối lồi vào lòng phế quản.
+    *   **Thâm nhiễm (Infiltration):** Vùng niêm mạc dày lên, kém di động, có thể mất cấu trúc bình thường.
+    *   **Chèn ép (Compression):** Lòng phế quản bị hẹp do yếu tố bên ngoài hoặc khối u phát triển.
+    *   **Sung huyết (Congestion):** Niêm mạc đỏ, phù nề.
+*   **Nội soi huỳnh quang (FB):** Tập trung vào những thay đổi sinh hóa và cấu trúc vi thể của mô, biểu hiện qua sự giảm tín hiệu huỳnh quang. Kỹ thuật này đặc biệt nhạy cảm với các tổn thương tiền ung thư hoặc ung thư giai đoạn sớm, khi thay đổi hình thái trên WLB chưa rõ ràng.
+**2. Hiệu quả chẩn đoán ung thư phổi theo loại tổn thương (dựa trên Table 3.3):**
+Để dễ hình dung, chúng ta có thể so sánh hiệu quả chẩn đoán ung thư phổi khi sinh thiết theo từng loại tổn thương giữa hai phương pháp:
+| Loại Tổn Thương (Số lượng mẫu) | Tỷ lệ Ung thư phổi trên WLB (%) | Tỷ lệ Ung thư phổi trên FB (%) |
+| :----------------------------- | :------------------------------ | :------------------------------ |
+| U (n=23)                       | 73.91                           | N/A (không áp dụng trực tiếp)  |
+| Thâm nhiễm (n=44)             | 45.45                           | N/A                             |
+| Chèn ép (n=45)                 | 4.44                            | N/A                             |
+| Sung huyết (n=20)             | 0.00                            | N/A                             |
+| Không tổn thương (n=113)      | 0.00                            | N/A                             |
+| **Giảm tín hiệu huỳnh quang (n=152)** | N/A                             | **63.82**                       |
+*Lưu ý: N/A nghĩa là loại tổn thương này không phải là chỉ dấu trực tiếp của phương pháp đó hoặc không được so sánh trực tiếp theo bảng này.* 
+**3. Nhận định từ dữ liệu (dựa trên Table 3.4):**
+Nghiên cứu cũng chỉ ra rằng:
+*   Trong nhóm bệnh nhân ung thư phổi (n=136), 83,82% có giảm tín hiệu huỳnh quang.
+*   Trong nhóm không ung thư phổi (n=42), chỉ 50% có giảm tín hiệu huỳnh quang.
+Điều này khẳng định giảm tín hiệu huỳnh quang là một dấu hiệu có giá trị, đặc biệt trong việc phân biệt giữa nhóm có và không có ung thư phổi (p&lt;0,01).
+**Lời khuyên cho thực hành lâm sàng:**
+*   **Bắt đầu với WLB:** Luôn thực hiện WLB trước để có cái nhìn tổng thể về cây phế quản, phát hiện các tổn thương rõ ràng, định vị vị trí. Các tổn thương như u, thâm nhiễm rõ rệt trên WLB cần được sinh thiết ngay lập tức.
+*   **Sử dụng FB như một bước tiếp theo:** Nếu WLB không phát hiện tổn thương rõ ràng nhưng bệnh nhân vẫn có yếu tố nguy cơ hoặc nghi ngờ cao, hoặc bạn muốn đánh giá rõ hơn ranh giới tổn thương, hãy chuyển sang FB. FB sẽ giúp bạn xác định các vùng giảm tín hiệu huỳnh quang – những 'điểm nóng' cần được ưu tiên sinh thiết.
+*   **Không bỏ qua 'giảm tín hiệu':** Ngay cả khi WLB không thấy bất thường nào (như các trường hợp 'No lesion' trong Table 3.3 có 0% ung thư), nếu FB cho thấy giảm tín hiệu huỳnh quang, đây vẫn là một chỉ điểm quan trọng và cần được sinh thiết. Khả năng phát hiện ung thư của giảm tín hiệu huỳnh quang (63.82%) cao hơn nhiều so với một số dạng tổn thương WLB như chèn ép hay sung huyết.
+*   **Ghi nhận kỹ lưỡng:** Ghi chép chi tiết vị trí và đặc điểm của các tổn thương trên cả hai phương pháp để có bức tranh toàn diện và hỗ trợ mã hóa bệnh theo ICD-10 (ví dụ: C34 cho ung thư phổi).</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn các bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Trong thực hành lâm sàng, làm thế nào để kết hợp các kết quả từ nội soi phế quản ánh sáng trắng, nội soi huỳnh quang và sinh thiết để đưa ra chẩn đoán chính xác và lập kế hoạch quản lý tối ưu cho bệnh nhân nghi ngờ ung thư phổi?</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Để đưa ra chẩn đoán chính xác và lập kế hoạch quản lý tối ưu cho bệnh nhân nghi ngờ ung thư phổi (mã hóa ICD-10 C34), việc tích hợp thông tin từ nhiều nguồn là vô cùng quan trọng. Đây là một kỹ năng lâm sàng then chốt mà mọi bác sĩ, đặc biệt là sinh viên và bác sĩ trẻ, cần nắm vững:
+**1. Tích hợp thông tin từ hai phương pháp nội soi:**
+*   **Nội soi ánh sáng trắng (WLB) là nền tảng:** Luôn bắt đầu với WLB để có cái nhìn tổng quan về cây phế quản, phát hiện các tổn thương lớn, rõ ràng (khối u, thâm nhiễm, chèn ép) và định vị giải phẫu. Ghi nhận chi tiết vị trí, kích thước, hình dạng của mọi bất thường.
+*   **Nội soi huỳnh quang (FB) là công cụ nâng cao:** Sau khi hoàn thành WLB, chuyển sang FB. Mục tiêu là phát hiện các vùng giảm tín hiệu huỳnh quang – những dấu hiệu của tổn thương tiền ung thư hoặc ung thư giai đoạn sớm mà WLB có thể không thấy hoặc thấy không rõ ràng. Theo đoạn văn, FB có độ nhạy cao hơn trong việc phát hiện tổn thương so với các dấu hiệu trên WLB.
+*   **Nguyên tắc 'hai nguồn ánh sáng':** Việc kết hợp cả hai kỹ thuật này tạo ra một 'bức tranh' toàn diện hơn về tổn thương. WLB cho biết 'đâu là tổn thương nhìn thấy được', còn FB chỉ ra 'đâu là tổn thương có khả năng ác tính cao ở mức độ tế bào/mô'.
+**2. Chiến lược sinh thiết có định hướng:**
+*   **Ưu tiên sinh thiết vùng giảm tín hiệu:** Kết quả từ đoạn văn nhấn mạnh rằng hiệu quả chẩn đoán ung thư phổi khi sinh thiết tại vị trí giảm tín hiệu huỳnh quang là 63.82%, đây là tỷ lệ rất cao. Điều này có nghĩa là mọi vùng giảm tín hiệu huỳnh quang đều phải được coi là mục tiêu sinh thiết ưu tiên, ngay cả khi WLB không phát hiện bất thường rõ rệt.
+*   **Sinh thiết nhiều mẫu:** Để tăng độ chính xác, nên lấy nhiều mẫu sinh thiết từ các vị trí khác nhau trong vùng tổn thương nghi ngờ (ví dụ: rìa tổn thương, trung tâm tổn thương, vùng chuyển tiếp).
+*   **Kết hợp các phương pháp lấy mẫu:** Ngoài sinh thiết kìm, có thể sử dụng bàn chải phế quản (brushing) hoặc rửa phế quản (lavage) để thu thập thêm tế bào cho chẩn đoán tế bào học.
+**3. Vai trò của giải phẫu bệnh (Histopathological confirmation):**
+*   **Tiêu chuẩn vàng:** Dù kỹ thuật nội soi có hiện đại đến đâu, chẩn đoán xác định ung thư phổi luôn cần dựa vào kết quả giải phẫu bệnh từ mẫu sinh thiết. Kết quả sinh thiết sẽ cung cấp thông tin về loại ung thư (tế bào nhỏ, không tế bào nhỏ), độ biệt hóa, giai đoạn, và các dấu ấn sinh học quan trọng cho việc lập kế hoạch điều trị.
+*   **Phối hợp đa chuyên khoa:** Sau khi có chẩn đoán mô bệnh học, cần có hội chẩn đa chuyên khoa (ung thư, hô hấp, chẩn đoán hình ảnh, giải phẫu bệnh, phẫu thuật lồng ngực) để đưa ra kế hoạch quản lý toàn diện nhất, bao gồm điều trị nội khoa, hóa trị, xạ trị hoặc phẫu thuật, phù hợp với từng bệnh nhân và tuân thủ các hướng dẫn lâm sàng của Bộ Y tế Việt Nam.
+**Lời khuyên để nâng cao kỹ năng:**
+*   **Thực hành tại các trung tâm lớn:** Tham gia quan sát và thực hành dưới sự hướng dẫn của các chuyên gia nội soi phế quản giàu kinh nghiệm.
+*   **Tham gia hội thảo lâm sàng:** Thường xuyên tham gia các buổi đọc bệnh án, hội chẩn để học hỏi cách các bác sĩ giàu kinh nghiệm tích hợp thông tin và ra quyết định.
+*   **Nghiên cứu các guideline:** Luôn cập nhật các hướng dẫn chẩn đoán và điều trị ung thư phổi của Bộ Y tế, các tổ chức y tế quốc tế (ATS, ERS, NCCN) để áp dụng các tiêu chuẩn thực hành tốt nhất.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho các bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, dựa trên nghiên cứu, tại sao nội soi phế quản huỳnh quang (fluorescence bronchoscopy) được coi là có giá trị hơn nội soi phế quản ánh sáng trắng (white light bronchoscopy) trong chẩn đoán ung thư phổi, và điều này ảnh hưởng thế nào đến thực hành lâm sàng của chúng ta?</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng đối với các bác sĩ trẻ và sinh viên y khoa khi tiếp cận chẩn đoán ung thư phổi. Nghiên cứu đã chỉ ra rõ ràng ưu thế của nội soi phế quản huỳnh quang (autofluorescence bronchoscopy - AFB) so với nội soi ánh sáng trắng (white light bronchoscopy - WLB) trong việc phát hiện các tổn thương tiền ung thư và ung thư sớm tại niêm mạc phế quản.
+Các điểm chính mà bạn cần nắm vững:
+*   **Khả năng phát hiện tổn thương sớm**: AFB sử dụng hiện tượng tự phát huỳnh quang của mô, giúp phát hiện những thay đổi tế bào chất và cấu trúc nhỏ mà mắt thường khó nhìn thấy dưới ánh sáng trắng. Các tổn thương nghi ngờ ung thư thường có tín hiệu huỳnh quang giảm (decreased signal) do sự thay đổi về nồng độ porphyrin và collagen trong mô bệnh lý.
+*   **Độ nhạy (Sensitivity) cao hơn**: Theo nghiên cứu, độ nhạy chẩn đoán ung thư phổi (ICD-10: C34.x) của AFB là 83.82% khi phát hiện các vùng tín hiệu huỳnh quang giảm, cao hơn đáng kể so với WLB là 72.79%. Điều này có nghĩa là AFB có khả năng xác định chính xác hơn những bệnh nhân thực sự mắc bệnh.
+*   **Tăng tỷ lệ chẩn đoán sớm**: AFB đã được chứng minh là tăng tỷ lệ phát hiện ung thư phổi thêm khoảng 20% so với WLB (60.20% so với 39.80% trong số các bệnh nhân được chẩn đoán ung thư). Việc phát hiện sớm có ý nghĩa sống còn trong điều trị ung thư phổi.
+*   **Giá trị trong tầm soát và sinh thiết đích**: Với khả năng phát hiện tổn thương vi mô, AFB giúp định hướng vị trí sinh thiết chính xác hơn, đặc biệt trong trường hợp niêm mạc phế quản dưới ánh sáng trắng trông bình thường nhưng có thể tiềm ẩn loạn sản hoặc ung thư tại chỗ.
+**Ứng dụng trong thực hành lâm sàng:**
+1.  **Chỉ định ưu tiên**: Đối với những bệnh nhân có yếu tố nguy cơ cao mắc ung thư phổi (ví dụ: tiền sử hút thuốc lá nặng, có tiền sử gia đình ung thư phổi, hoặc có hình ảnh nghi ngờ trên CT scan nhưng nội soi ánh sáng trắng không thấy rõ tổn thương), AFB nên được cân nhắc là phương pháp bổ trợ quan trọng.
+2.  **Sinh thiết định hướng**: Khi thực hiện sinh thiết, hãy luôn kết hợp quan sát dưới ánh sáng trắng và huỳnh quang. Ưu tiên sinh thiết tại các vùng tín hiệu huỳnh quang giảm, ngay cả khi chúng không có biểu hiện rõ ràng dưới ánh sáng trắng.
+3.  **Tầm soát và theo dõi**: Trong các chương trình tầm soát ung thư phổi hoặc theo dõi bệnh nhân sau điều trị, AFB có thể giúp phát hiện tái phát hoặc tổn thương mới ở giai đoạn rất sớm.
+4.  **Học hỏi và cập nhật**: Các bạn sinh viên và bác sĩ trẻ cần tích cực tham gia các khóa đào tạo về nội soi phế quản, đặc biệt là các kỹ thuật nâng cao như AFB, để nắm vững nguyên lý và kỹ năng thực hành. Luôn tham khảo các hướng dẫn lâm sàng mới nhất của Bộ Y tế và các tổ chức y tế uy tín.
+Việc thành thạo AFB sẽ giúp bạn nâng cao đáng kể khả năng chẩn đoán ung thư phổi, từ đó mang lại cơ hội điều trị tốt hơn cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị ung thư phổi của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp các hướng dẫn lâm sàng cập nhật về chẩn đoán (bao gồm nội soi phế quản) và quản lý ung thư phổi theo chuẩn quốc gia, rất cần thiết cho các bác sĩ thực hành và làm cơ sở cho chẩn đoán theo ICD-10.</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về Nội soi phế quản tự phát huỳnh quang (Autofluorescence Bronchoscopy) trong chẩn đoán ung thư phổi sớm.</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ trang bị kiến thức lý thuyết và kỹ năng thực hành về kỹ thuật AFB, cách nhận diện và sinh thiết tổn thương nghi ngờ, tối ưu hóa quy trình chẩn đoán ung thư phổi giai đoạn sớm, phù hợp cho bác sĩ chuyên ngành hô hấp và ung bướu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho các bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Các chỉ số độ nhạy (sensitivity) và độ đặc hiệu (specificity) trong nghiên cứu về chẩn đoán ung thư phổi bằng nội soi phế quản cho chúng ta biết điều gì, và làm thế nào để bác sĩ trẻ áp dụng các chỉ số này vào việc đánh giá một phương pháp chẩn đoán?</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Tuyệt vời! Hiểu đúng về độ nhạy và độ đặc hiệu là nền tảng để bạn trở thành một bác sĩ lâm sàng có tư duy phản biện. Chúng ta hãy cùng phân tích các chỉ số này trong bối cảnh chẩn đoán ung thư phổi (ICD-10: C34.x):
+**1. Định nghĩa và Ý nghĩa:**
+*   **Độ nhạy (Sensitivity - Se)**: Là khả năng của một xét nghiệm phát hiện đúng những người *mắc bệnh* (True Positive rate).
+    *   Se = [Số bệnh nhân mắc bệnh được xét nghiệm dương tính] / [Tổng số bệnh nhân mắc bệnh]
+    *   Trong nghiên cứu:
+        *   **WLB**: Se = 72.79% -&gt; Nghĩa là trong 100 bệnh nhân ung thư phổi thực sự, WLB phát hiện được khoảng 73 người. 27 người còn lại sẽ bị bỏ sót (âm tính giả).
+        *   **AFB**: Se = 83.82% -&gt; Nghĩa là trong 100 bệnh nhân ung thư phổi thực sự, AFB phát hiện được khoảng 84 người. Chỉ khoảng 16 người bị bỏ sót.
+    *   **Kết luận**: AFB có độ nhạy cao hơn, giúp giảm tỷ lệ bỏ sót ca bệnh (giảm âm tính giả), đặc biệt quan trọng trong các bệnh lý nguy hiểm như ung thư.
+*   **Độ đặc hiệu (Specificity - Sp)**: Là khả năng của một xét nghiệm phát hiện đúng những người *không mắc bệnh* (True Negative rate).
+    *   Sp = [Số người không mắc bệnh được xét nghiệm âm tính] / [Tổng số người không mắc bệnh]
+    *   Trong nghiên cứu:
+        *   **WLB**: Sp = 69.72% -&gt; Nghĩa là trong 100 người không bị ung thư phổi, WLB xác định đúng khoảng 70 người là không mắc bệnh. 30 người còn lại sẽ bị chẩn đoán nhầm là có bệnh (dương tính giả).
+        *   **AFB**: Sp = 65.13% -&gt; Nghĩa là trong 100 người không bị ung thư phổi, AFB xác định đúng khoảng 65 người là không mắc bệnh. Khoảng 35 người sẽ bị chẩn đoán nhầm là có bệnh (dương tính giả).
+    *   **Kết luận**: WLB có độ đặc hiệu cao hơn một chút so với AFB trong nghiên cứu này, nghĩa là WLB ít đưa ra kết quả dương tính giả hơn.
+**2. Áp dụng vào đánh giá phương pháp chẩn đoán:**
+*   **Chọn xét nghiệm phù hợp**:
+    *   Khi bạn muốn *sàng lọc hoặc loại trừ bệnh* nguy hiểm, ưu tiên xét nghiệm có **độ nhạy cao**. AFB với độ nhạy 83.82% là lựa chọn tốt hơn WLB (72.79%) để không bỏ sót các trường hợp ung thư phổi.
+    *   Khi bạn muốn *xác định bệnh* hoặc khi kết quả dương tính giả có hậu quả nghiêm trọng (ví dụ: phẫu thuật không cần thiết), bạn có thể cân nhắc xét nghiệm có **độ đặc hiệu cao**. Tuy nhiên, trong ung thư, việc bỏ sót bệnh thường nghiêm trọng hơn việc có dương tính giả (có thể được xác nhận bằng các xét nghiệm tiếp theo).
+*   **Kết hợp các chỉ số khác**:
+    *   Bạn cần xem xét thêm Giá trị tiên đoán dương (PPV) và Giá trị tiên đoán âm (NNV) mà nghiên cứu đã cung cấp (PPV=75% cho cả hai, NNV=67.25% cho WLB và 76.34% cho AFB). PPV và NNV chịu ảnh hưởng bởi tỷ lệ mắc bệnh trong quần thể.
+    *   Giá trị chẩn đoán của một xét nghiệm không chỉ dựa vào Se và Sp mà còn phụ thuộc vào tỷ lệ mắc bệnh (prevalence) trong quần thể bạn đang thăm khám.
+**Bảng so sánh (tổng hợp từ dữ liệu):**
+| Chỉ số | Nội soi ánh sáng trắng (WLB) | Nội soi huỳnh quang (AFB) | Ý nghĩa lâm sàng |
+| :------------------- | :-------------------------- | :------------------------ | :--------------------------------------------------------------------------------------------------------------------------------------- |
+| **Độ nhạy (Se)**    | 72.79%                      | **83.82%**                | AFB có khả năng phát hiện đúng ca bệnh ung thư cao hơn, giảm nguy cơ bỏ sót bệnh. |
+| **Độ đặc hiệu (Sp)** | **69.72%**                  | 65.13%                    | WLB có khả năng xác định đúng người không mắc bệnh cao hơn một chút, ít dương tính giả hơn. |
+| **NNV**              | 67.25%                      | **76.34%**                | AFB cho kết quả âm tính đáng tin cậy hơn, giúp loại trừ bệnh hiệu quả hơn khi kết quả là âm tính. |
+| **PPV**              | 75%                         | 75%                       | Cả hai phương pháp có khả năng xác định đúng người mắc bệnh khi kết quả dương tính là tương đương. |
+Là một bác sĩ, bạn phải luôn cân nhắc lợi ích và rủi ro của từng xét nghiệm, không chỉ dựa vào một chỉ số đơn lẻ mà còn dựa vào tình hình lâm sàng cụ thể của bệnh nhân và mục tiêu chẩn đoán.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Sách giáo trình Thống kê Y học và Dịch tễ học lâm sàng.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Tài liệu cơ bản giúp sinh viên và bác sĩ hiểu rõ về nguyên lý thống kê, cách diễn giải các chỉ số dịch tễ học và giá trị của các xét nghiệm chẩn đoán trong y học, cần thiết cho việc đánh giá phương pháp chẩn đoán theo tiêu chuẩn.</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Đánh giá và ứng dụng các xét nghiệm chẩn đoán trong thực hành lâm sàng dựa trên bằng chứng.</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp kiến thức sâu hơn về phân tích các chỉ số đánh giá xét nghiệm chẩn đoán, cách lựa chọn và ứng dụng xét nghiệm phù hợp trong các tình huống lâm sàng khác nhau, thúc đẩy tư duy y học dựa trên bằng chứng, giúp nâng cao khả năng ra quyết định lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho các bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Đối với một bệnh nhân nghi ngờ ung thư phổi, ngoài kết quả nội soi phế quản, một bác sĩ cần phải xem xét những bước chẩn đoán nào khác và vai trò của các loại sinh thiết trong việc xác định chẩn đoán cuối cùng là gì?</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc chẩn đoán ung thư phổi (ICD-10: C34.x) đòi hỏi một quy trình toàn diện và phối hợp đa chuyên khoa. Kết quả nội soi phế quản chỉ là một phần trong bức tranh lớn. Dưới đây là các bước và cân nhắc quan trọng cho một bác sĩ trẻ:
+**1. Đánh giá lâm sàng và tiền sử bệnh:**
+*   **Triệu chứng**: Ho kéo dài, đau ngực, khó thở, sụt cân không rõ nguyên nhân, khàn tiếng, nuốt khó, các triệu chứng cận ung thư.
+*   **Yếu tố nguy cơ**: Hút thuốc lá (chủ động hoặc thụ động), tiếp xúc amiăng, tiền sử gia đình, tiền sử bệnh phổi mãn tính.
+*   **Khám thực thể**: Tìm các dấu hiệu gợi ý di căn (hạch to, gan to, tràn dịch màng phổi).
+**2. Chẩn đoán hình ảnh ban đầu:**
+*   **X-quang ngực thẳng/nghiêng**: Phát hiện các tổn thương lớn.
+*   **CT scan lồng ngực liều thấp (LDCT)**: Rất quan trọng để đánh giá chi tiết vị trí, kích thước, hình thái tổn thương, mức độ xâm lấn và hạch vùng. LDCT cũng được khuyến cáo trong tầm soát ung thư phổi cho đối tượng nguy cơ cao.
+*   **PET-CT**: Giúp đánh giá hoạt động chuyển hóa của khối u, phát hiện di căn xa, hỗ trợ phân giai đoạn.
+**3. Vai trò của Sinh thiết để xác định chẩn đoán mô bệnh học:**
+Việc xác định chẩn đoán ung thư phổi yêu cầu phải có bằng chứng mô bệnh học (histopathology) hoặc tế bào học (cytology). Đây là bước không thể thiếu để phân loại loại ung thư (tế bào nhỏ, không tế bào nhỏ, v.v.) và định hướng điều trị.
+*   **Sinh thiết niêm mạc phế quản qua nội soi (Bronchial mucosal biopsy)**:
+    *   **Chỉ định**: Đối với các tổn thương có thể tiếp cận được qua nội soi phế quản (ví dụ: các tổn thương nằm trong lòng phế quản hoặc sát niêm mạc).
+    *   **Ưu điểm**: Ít xâm lấn hơn so với phẫu thuật.
+    *   **Nhược điểm**: Có thể bỏ sót nếu tổn thương nằm sâu hoặc ngoài tầm với. Đây chính là lúc nội soi huỳnh quang phát huy tác dụng bằng cách giúp định vị chính xác hơn các tổn thương sớm hoặc khó thấy.
+    *   Nghiên cứu của chúng ta chỉ ra rằng **72.06%** các trường hợp ung thư phổi đã được chẩn đoán thông qua sinh thiết niêm mạc phế quản dưới nội soi huỳnh quang trong nhóm nghi ngờ.
+*   **Sinh thiết xuyên thành ngực (Transthoracic biopsy)**:
+    *   **Chỉ định**: Đối với các tổn thương ngoại vi, không thể tiếp cận qua nội soi phế quản. Thường được hướng dẫn bởi CT scan.
+    *   **Ưu điểm**: Có thể tiếp cận được tổn thương sâu, giúp lấy đủ mẫu mô.
+    *   **Nhược điểm**: Xâm lấn hơn, có nguy cơ tràn khí màng phổi hoặc chảy máu.
+    *   Trong nghiên cứu, **27.94%** bệnh nhân đã được áp dụng sinh thiết xuyên thành ngực, cho thấy đây là một phương pháp bổ trợ cần thiết khi sinh thiết qua nội soi không đủ hoặc không khả thi.
+*   **Các phương pháp sinh thiết khác**:
+    *   **Sinh thiết xuyên vách phế quản (Transbronchial biopsy - TBBx)**: Lấy mẫu mô từ nhu mô phổi sâu hơn.
+    *   **Chọc hút xuyên vách phế quản bằng kim nhỏ (Transbronchial needle aspiration - TBNA)**: Lấy mẫu hạch trung thất.
+    *   **Sinh thiết phẫu thuật (Surgical biopsy/VATS)**: Được thực hiện khi các phương pháp ít xâm lấn không đủ để chẩn đoán.
+**4. Phối hợp đa chuyên khoa:**
+Sau khi có chẩn đoán mô bệnh học, bệnh nhân cần được hội chẩn đa chuyên khoa (ung bướu, hô hấp, giải phẫu bệnh, phẫu thuật lồng ngực, xạ trị) để đưa ra kế hoạch điều trị tối ưu nhất.
+Là một bác sĩ trẻ, bạn cần nắm vững quy trình này, biết cách chỉ định và diễn giải các xét nghiệm, và luôn phối hợp chặt chẽ với các chuyên khoa khác để đảm bảo bệnh nhân nhận được sự chăm sóc tốt nhất.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Hướng dẫn quản lý ung thư phổi của Hiệp hội Ung thư Quốc tế (ASCO) hoặc NCCN.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Các hướng dẫn này cung cấp một lộ trình chẩn đoán, phân giai đoạn và điều trị ung thư phổi toàn diện, bao gồm cả vai trò của các phương pháp sinh thiết khác nhau, rất hữu ích cho việc xây dựng kế hoạch điều trị cá nhân hóa theo các tiêu chuẩn quốc tế.</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Tiếp cận chẩn đoán và phân loại ung thư phổi: Từ hình ảnh đến mô bệnh học.</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ tập trung vào quy trình chẩn đoán ung thư phổi, mối liên hệ giữa các phương pháp hình ảnh, nội soi và các kỹ thuật sinh thiết, giúp các bác sĩ hiểu rõ hơn về cách đưa ra chẩn đoán chính xác và kịp thời, tối ưu hóa con đường chẩn đoán cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên các bằng chứng khoa học mới nhất về chẩn đoán ung thư phổi (ICD-10 C34.-).</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, dựa trên kết quả nghiên cứu về nội soi phế quản huỳnh quang, làm thế nào để tối ưu hóa việc chẩn đoán ung thư phổi giai đoạn sớm, đặc biệt khi kết hợp nội soi ánh sáng trắng và nội soi huỳnh quang?</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Chào bạn, một câu hỏi rất hay và thiết thực cho các bác sĩ lâm sàng. Để tối ưu hóa chẩn đoán ung thư phổi giai đoạn sớm, đặc biệt là khi chúng ta có trong tay hai công cụ mạnh mẽ là nội soi phế quản ánh sáng trắng (WLB) và nội soi phế quản huỳnh quang (FB), chúng ta cần hiểu rõ ưu và nhược điểm của từng phương pháp cũng như cách kết hợp chúng một cách hiệu quả:
+**1. Tối ưu hóa việc sử dụng Nội soi huỳnh quang (FB):**
+*   **Nhận diện tín hiệu giảm huỳnh quang**: Nghiên cứu đã chỉ ra tỷ lệ tín hiệu huỳnh quang giảm rất cao (83.82%) ở bệnh nhân ung thư phổi. Điều này nhấn mạnh tầm quan trọng của việc huấn luyện kỹ năng nhận diện chính xác các vùng niêm mạc có tín hiệu huỳnh quang giảm, vì đây thường là dấu hiệu của tổn thương tiền ung thư hoặc ung thư xâm lấn sớm.
+*   **Sinh thiết mục tiêu**: Hiệu quả sinh thiết ở vị trí tín hiệu huỳnh quang giảm là 63.82%, cao hơn đáng kể so với sinh thiết các tổn thương phát hiện bằng WLB (29.55%). Điều này có nghĩa là, khi bạn phát hiện một vùng giảm tín hiệu trên FB, hãy ưu tiên sinh thiết tại vị trí đó. Kỹ thuật này giúp tăng cường độ chính xác chẩn đoán và giảm số lượng sinh thiết ngẫu nhiên.
+*   **Gia tăng khả năng phát hiện**: FB có thể phát hiện thêm khoảng 20% bệnh nhân ung thư phổi mà WLB có thể bỏ sót. Điều này đặc biệt quan trọng trong các trường hợp nghi ngờ cao nhưng WLB chưa phát hiện tổn thương rõ ràng.
+**2. Chiến lược kết hợp hai phương pháp:**
+*   **Tiếp cận hai bước**: Bạn nên bắt đầu bằng WLB để đánh giá tổng thể đường thở, xác định các tổn thương lớn, rõ ràng. Sau đó, chuyển sang FB để quét toàn bộ niêm mạc phế quản, tìm kiếm các vùng giảm huỳnh quang hoặc các tổn thương tiền ung thư khó nhìn thấy bằng WLB.
+*   **Sinh thiết có định hướng**: Nếu WLB phát hiện tổn thương, hãy sinh thiết. Nếu WLB không thấy tổn thương nhưng FB có tín hiệu giảm, hãy sinh thiết mục tiêu vào vùng giảm huỳnh quang đó. Kết hợp này giúp bạn không bỏ sót cả tổn thương lớn và nhỏ.
+*   **Lưu ý về độ đặc hiệu**: Mặc dù FB có độ nhạy cao (83.82%), độ đặc hiệu của nó (65.13%) thấp hơn một chút so với WLB (69.72%). Điều này có nghĩa là FB có thể có một số dương tính giả. Do đó, sinh thiết luôn là tiêu chuẩn vàng để xác nhận chẩn đoán.
+Dưới đây là bảng tóm tắt so sánh hiệu quả chẩn đoán giữa hai phương pháp dựa trên nghiên cứu:
+| Chỉ số | Nội soi ánh sáng trắng (WLB) | Nội soi huỳnh quang (FB) |
+| :------------------- | :----------------------------------- | :--------------------------------- |
+| Tỷ lệ tín hiệu giảm (ở bệnh nhân ung thư) | Không áp dụng trực tiếp | 83.82% |
+| Hiệu quả sinh thiết | 29.55% (tại tổn thương WLB) | 63.82% (tại vị trí tín hiệu giảm) |
+| Độ nhạy | 72.79% | 83.82% |
+| Độ đặc hiệu | 69.72% | 65.13% |
+| Phát hiện thêm ung thư | Cơ bản | Phát hiện thêm khoảng 20% bệnh nhân |
+Việc thành thạo cả hai kỹ thuật và biết cách kết hợp chúng một cách linh hoạt sẽ giúp bạn cải thiện đáng kể khả năng chẩn đoán sớm và chính xác ung thư phổi, mang lại lợi ích to lớn cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị Ung thư phổi không tế bào nhỏ giai đoạn sớm (ICD-10 C34.-) của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các phác đồ chuẩn, tiêu chuẩn chẩn đoán, phân loại giai đoạn (theo ICD-10 và TNM), và phương pháp điều trị ung thư phổi theo khuyến cáo của Bộ Y tế Việt Nam, cập nhật các kỹ thuật nội soi hiện đại và vai trò của chúng trong quản lý bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Cập nhật kỹ thuật nội soi phế quản huỳnh quang (Autofluorescence Bronchoscopy) trong sàng lọc và chẩn đoán ung thư phổi.</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào lý thuyết chuyên sâu về cơ chế huỳnh quang tự thân, thực hành kỹ thuật nội soi phế quản huỳnh quang, cách nhận diện và diễn giải tín hiệu huỳnh quang giảm, và chiến lược sinh thiết mục tiêu để nâng cao độ chính xác chẩn đoán ung thư phổi giai đoạn sớm. Khóa học cũng sẽ thảo luận về các ca lâm sàng phức tạp và cập nhật hướng dẫn mới nhất.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ bác sĩ và sinh viên y khoa trong việc đưa ra quyết định sàng lọc và chẩn đoán sớm ung thư phổi dựa trên các yếu tố nguy cơ và triệu chứng lâm sàng, hướng tới các đối tượng có nguy cơ cao (ICD-10 Z12.2).</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Với tỷ lệ ung thư phổi rất cao (76.40%) trong nhóm đối tượng 'nghi ngờ ung thư phổi' như nghiên cứu đã chỉ ra, xin chuyên gia cho lời khuyên về cách xác định nhóm đối tượng này và chiến lược sàng lọc sớm hiệu quả trong thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rất đáng quan tâm khi tỷ lệ ung thư phổi trong nhóm nghi ngờ có thể lên tới 76.40%. Điều này cho thấy việc sàng lọc và xác định đúng đối tượng là cực kỳ quan trọng để không bỏ lỡ cơ hội chẩn đoán sớm. Dưới đây là các khuyến nghị cho bạn:
+**1. Xác định nhóm đối tượng 'Nghi ngờ ung thư phổi':**
+*   **Triệu chứng lâm sàng**: Nghiên cứu định nghĩa nhóm này dựa trên 'triệu chứng lâm sàng và X-quang ngực quy ước'. Các triệu chứng cần lưu ý bao gồm:
+    *   Ho kéo dài (ví dụ: &gt; 3 tuần), đặc biệt ho ra máu.
+    *   Khó thở, thở khò khè kéo dài không rõ nguyên nhân.
+    *   Đau ngực dai dẳng hoặc tăng dần.
+    *   Sụt cân không giải thích được, mệt mỏi, chán ăn.
+    *   Viêm phổi tái phát nhiều lần ở cùng một vị trí (đặc biệt là viêm phổi sau tắc nghẽn).
+    *   Khàn tiếng kéo dài (do tổn thương dây thần kinh thanh quản quặt ngược).
+*   **X-quang ngực quy ước**: Bất kỳ hình ảnh bất thường nào trên X-quang ngực (như nốt mờ, đám mờ, hạch to, tràn dịch màng phổi không rõ nguyên nhân, xẹp phổi) ở bệnh nhân có triệu chứng hô hấp, đặc biệt là người hút thuốc lá, cần được coi là nghi ngờ cao.
+*   **Yếu tố nguy cơ**: Các yếu tố làm tăng khả năng mắc ung thư phổi cần được xem xét:
+    *   **Hút thuốc lá**: Tiền sử hút thuốc lá nặng (ví dụ: &gt;20 gói-năm) hoặc đã bỏ thuốc trong vòng 15 năm.
+    *   **Tiếp xúc thụ động với khói thuốc**: Cần được đánh giá.
+    *   **Tiếp xúc nghề nghiệp**: Với amiăng, radon, uranium, các hóa chất công nghiệp (như thạch tín, nikel, crom).
+    *   **Tiền sử gia đình**: Có người thân (cha mẹ, anh chị em) mắc ung thư phổi.
+    *   **Tiền sử bệnh phổi mạn tính**: Bệnh phổi tắc nghẽn mạn tính (COPD), xơ phổi vô căn.
+**2. Chiến lược sàng lọc sớm hiệu quả:**
+*   **Không bỏ qua triệu chứng hô hấp**: Bất cứ khi nào bệnh nhân có các triệu chứng hô hấp dai dẳng, đặc biệt ở người có yếu tố nguy cơ, bạn cần nghĩ đến ung thư phổi và tiến hành các bước chẩn đoán tiếp theo.
+*   **Chụp CT ngực liều thấp (LDCT)**: Đây là phương pháp sàng lọc được khuyến cáo rộng rãi cho nhóm nguy cơ cao (ví dụ: người từ 50-80 tuổi, tiền sử hút thuốc lá nặng &gt;20 gói-năm, hoặc đã bỏ thuốc trong vòng 15 năm). LDCT có độ nhạy cao hơn X-quang ngực rất nhiều trong việc phát hiện các nốt phổi nhỏ.
+*   **Vai trò của Nội soi phế quản huỳnh quang (FB)**: Nghiên cứu đã khuyến nghị 'cần áp dụng nội soi phế quản huỳnh quang để phát hiện các vùng niêm mạc có tín hiệu giảm'. Điều này đặc biệt đúng với nhóm 'nghi ngờ' đã có bằng chứng trên X-quang hoặc CT, hoặc các triệu chứng hô hấp khó giải thích. FB nên được xem xét như bước tiếp theo sau khi hình ảnh học gợi ý hoặc khi có bằng chứng lâm sàng nghi ngờ mà hình ảnh học không rõ ràng, đặc biệt để phát hiện tổn thương ở niêm mạc phế quản trung tâm.
+*   **Giáo dục bệnh nhân và cộng đồng**: Nâng cao nhận thức về các triệu chứng và yếu tố nguy cơ ung thư phổi để bệnh nhân đến khám sớm hơn.
+*   **Tiếp cận đa chuyên khoa**: Phối hợp chặt chẽ với các chuyên khoa như ung bướu, hô hấp, chẩn đoán hình ảnh để có chẩn đoán và quản lý bệnh nhân toàn diện.
+Việc sàng lọc sớm và xác định chính xác nhóm nguy cơ cao để can thiệp kịp thời là chìa khóa để cải thiện tiên lượng cho bệnh nhân ung thư phổi.</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hướng dẫn các bác sĩ trẻ phân tích và ứng dụng các chỉ số thống kê chẩn đoán như độ nhạy, độ đặc hiệu của các phương pháp nội soi trong chẩn đoán ung thư phổi (ICD-10 C34.-).</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã cung cấp các chỉ số độ nhạy và độ đặc hiệu khác nhau cho nội soi huỳnh quang và nội soi ánh sáng trắng. Bác sĩ cần hiểu và áp dụng các chỉ số này như thế nào để đưa ra quyết định lâm sàng và chiến lược sinh thiết tối ưu trong chẩn đoán ung thư phổi?</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Việc hiểu rõ về độ nhạy (sensitivity) và độ đặc hiệu (specificity) là nền tảng quan trọng để bạn, với tư cách là bác sĩ lâm sàng, có thể diễn giải kết quả xét nghiệm chẩn đoán một cách chính xác và đưa ra quyết định điều trị hợp lý. Đối với nội soi phế quản huỳnh quang (FB) và nội soi ánh sáng trắng (WLB) trong chẩn đoán ung thư phổi, các chỉ số này mang ý nghĩa rất lớn:
+**1. Hiểu về Độ nhạy và Độ đặc hiệu:**
+*   **Độ nhạy (Sensitivity)**: Là khả năng của một phương pháp chẩn đoán phát hiện đúng những người mắc bệnh (tỷ lệ dương tính thật). Độ nhạy cao giúp giảm thiểu số lượng ca bệnh bị bỏ sót (âm tính giả).
+    *   FB có độ nhạy 83.82% nghĩa là, trong số 100 bệnh nhân thực sự mắc ung thư phổi, FB sẽ phát hiện được khoảng 84 trường hợp.
+    *   WLB có độ nhạy 72.79% nghĩa là, trong số 100 bệnh nhân thực sự mắc ung thư phổi, WLB sẽ phát hiện được khoảng 73 trường hợp.
+    *   **Ý nghĩa**: FB có khả năng sàng lọc và phát hiện bệnh nhân ung thư phổi tốt hơn, giảm nguy cơ bỏ sót các trường hợp mắc bệnh (giảm âm tính giả). Điều này đặc biệt quan trọng trong sàng lọc và phát hiện sớm các tổn thương nhỏ hoặc tiền ung thư.
+*   **Độ đặc hiệu (Specificity)**: Là khả năng của một phương pháp chẩn đoán xác định đúng những người không mắc bệnh (tỷ lệ âm tính thật). Độ đặc hiệu cao giúp giảm thiểu số lượng ca không bệnh bị chẩn đoán nhầm thành có bệnh (dương tính giả).
+    *   FB có độ đặc hiệu 65.13% nghĩa là, trong số 100 người không mắc ung thư phổi, FB sẽ xác định đúng khoảng 65 người là không có bệnh.
+    *   WLB có độ đặc hiệu 69.72% nghĩa là, trong số 100 người không mắc ung thư phổi, WLB sẽ xác định đúng khoảng 70 người là không có bệnh.
+    *   **Ý nghĩa**: WLB có độ đặc hiệu nhỉnh hơn một chút, có nghĩa là nó ít đưa ra dương tính giả hơn FB. FB có thể có nhiều trường hợp dương tính giả hơn, tức là phát hiện tín hiệu giảm nhưng cuối cùng sinh thiết không phải ung thư. Do đó, một kết quả FB dương tính cần được xem xét cẩn trọng và thường phải xác nhận bằng sinh thiết.
+**2. Áp dụng trong quyết định lâm sàng và chiến lược sinh thiết:**
+*   **Ưu tiên phát hiện sớm (Sàng lọc)**: Với độ nhạy cao hơn, FB rất có giá trị trong việc sàng lọc ban đầu hoặc khi có nghi ngờ cao nhưng tổn thương chưa rõ ràng trên WLB. Bạn nên sử dụng FB để 'quét' rộng, tìm kiếm các vùng niêm mạc bất thường (giảm huỳnh quang) mà WLB có thể bỏ sót, đặc biệt ở các bệnh nhân có nguy cơ cao (ví dụ: hút thuốc lá nặng, có triệu chứng hô hấp dai dẳng).
+*   **Xác nhận chẩn đoán (Sinh thiết mục tiêu)**: Mặc dù FB có độ nhạy cao, độ đặc hiệu tương đối thấp đòi hỏi bạn phải luôn sinh thiết để xác nhận chẩn đoán. Khi FB phát hiện một vùng giảm tín hiệu, hãy coi đó là một 'báo động' và sinh thiết mục tiêu vào vùng đó. Điều này được chứng minh là hiệu quả hơn (63.82% so với 29.55% của WLB), giúp định hướng sinh thiết chính xác và tăng tỷ lệ phát hiện ung thư.
+*   **Khi WLB và FB có kết quả khác nhau**: 
+    *   Nếu WLB dương tính (có tổn thương) và FB cũng dương tính (tín hiệu giảm): Sinh thiết tại vị trí tổn thương là ưu tiên hàng đầu.
+    *   Nếu WLB âm tính (không thấy tổn thương rõ) nhưng FB dương tính (tín hiệu giảm): Vẫn nên sinh thiết mục tiêu vào vùng giảm huỳnh quang. Đây là những trường hợp FB có khả năng phát hiện thêm ung thư mà WLB bỏ sót (khoảng 20%).
+    *   Nếu WLB dương tính nhưng FB âm tính: Vẫn sinh thiết tổn thương do WLB. FB có thể bỏ sót một số loại ung thư hoặc tổn thương nằm sâu hơn.
+*   **Cân nhắc bối cảnh lâm sàng**: Luôn kết hợp các chỉ số này với yếu tố nguy cơ của bệnh nhân, triệu chứng lâm sàng và các kết quả xét nghiệm khác (CT scan, PET scan) để đưa ra phán đoán cuối cùng. Một bệnh nhân có yếu tố nguy cơ cao và triệu chứng gợi ý mạnh mẽ sẽ được ưu tiên theo dõi và can thiệp tích cực hơn, ngay cả khi các phương pháp chẩn đoán ban đầu chưa hoàn toàn rõ ràng.
+*   **Giảm thiểu thủ thuật không cần thiết**: Mặc dù FB có thể có dương tính giả, nhưng nó giúp định hướng sinh thiết chính xác hơn, tránh sinh thiết mù quáng và các thủ thuật không cần thiết ở những vùng không có tổn thương, từ đó giảm rủi ro cho bệnh nhân.
+Tóm lại, hãy coi FB là một công cụ sàng lọc nhạy bén để phát hiện sớm, và WLB là công cụ để đánh giá các tổn thương rõ ràng. Việc kết hợp linh hoạt cả hai và luôn luôn xác nhận bằng sinh thiết sẽ là chìa khóa để tối ưu hóa chẩn đoán ung thư phổi.</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Sổ tay lâm sàng về Phân tích độ nhạy, độ đặc hiệu và giá trị tiên đoán trong chẩn đoán y học.</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Tài liệu này giải thích chi tiết các khái niệm thống kê cơ bản trong chẩn đoán y học, bao gồm độ nhạy, độ đặc hiệu, giá trị dự đoán dương/âm, và đường cong ROC. Sách cung cấp các ví dụ thực tế và hướng dẫn cách áp dụng các chỉ số này để đánh giá hiệu quả của các xét nghiệm chẩn đoán và đưa ra quyết định lâm sàng có bằng chứng, hỗ trợ hiểu sâu về các chỉ số được đề cập trong nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Phân tích và diễn giải kết quả nghiên cứu chẩn đoán trong bệnh lý hô hấp.</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Khóa học này được thiết kế để nâng cao kỹ năng của bác sĩ trong việc phân tích và diễn giải các chỉ số thống kê từ các nghiên cứu chẩn đoán, đặc biệt trong lĩnh vực bệnh lý hô hấp. Học viên sẽ học cách đánh giá độ tin cậy của một phương pháp chẩn đoán, hiểu rõ hơn về ý nghĩa của độ nhạy và độ đặc hiệu trong các tình huống lâm sàng khác nhau, và áp dụng kiến thức này vào việc lựa chọn phương pháp chẩn đoán và quản lý bệnh nhân ung thư phổi hiệu quả (ICD-10 C34.-).</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ trẻ và sinh viên y khoa nâng cao kiến thức và kỹ năng.</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Để thực hiện vạt da cân có cuống mạch xuyên động mạch bắp chân trong (MSAP flap) một cách chính xác, một bác sĩ phẫu thuật trẻ cần nắm vững những thông số giải phẫu quan trọng nào của động mạch bắp chân trong, và làm thế nào để ứng dụng kiến thức này vào lập kế hoạch phẫu thuật?</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Để thành công trong việc sử dụng vạt MSAP, việc hiểu sâu về giải phẫu mạch máu là cực kỳ quan trọng. Dựa trên nghiên cứu, đây là các điểm mấu chốt mà bạn cần ghi nhớ:
+*   **Nguồn gốc:** Động mạch bắp chân trong (medial sural artery) luôn bắt nguồn từ động mạch khoeo (popliteal artery). Điều này đảm bảo một điểm xuất phát ổn định để tìm kiếm và bóc tách.
+*   **Chiều dài thân chung:** Chiều dài trung bình của thân chung động mạch là 8,39 ± 3,5 cm. Việc biết chiều dài này giúp bạn ước tính độ dài cuống mạch có thể đạt được, quan trọng cho việc xoay vạt hoặc vạt tự do.
+*   **Đường kính thân chung:** Đường kính trung bình đo từ gốc là 2,88 ± 0,98 mm. Đây là thông số thiết yếu cho vi phẫu, đặc biệt khi cần nối mạch máu. Một đường kính đủ lớn sẽ giúp việc nối mạch dễ dàng và thành công hơn.
+*   **Kiểu phân nhánh trước khi vào cơ:**
+    *   Không có nhánh: 15%
+    *   Chia 2 nhánh: 15%
+    *   Chia 3 nhánh: 30%
+    *   Chia 4 nhánh: 40%
+    Sự đa dạng này đòi hỏi sự chuẩn bị tinh thần cho nhiều biến thể giải phẫu khác nhau trong quá trình bóc tách.
+*   **Số lượng nhánh xuyên ra da:** Động mạch bắp chân trong có từ 1 đến 5 nhánh xuyên lên da. Sự hiện diện của nhiều nhánh xuyên cung cấp các lựa chọn đa dạng để chọn nhánh cấp máu chính cho vạt, tối ưu hóa sự sống của vạt.
+*   **Vị trí nhánh xuyên:**
+    *   Khoảng cách từ nhánh xuyên đến khớp gối (nếp khoeo): 10,12 ± 3,7 cm.
+    *   Khoảng cách từ nhánh xuyên đến giữa mặt sau cẳng chân: 1,6 ± 0,96 cm.
+    Những con số này là các mốc giải phẫu quan trọng giúp bạn định vị chính xác các nhánh xuyên trong quá trình bóc tách, giảm thiểu thời gian phẫu thuật và nguy cơ tổn thương.
+**Ứng dụng vào lập kế hoạch phẫu thuật:**
+1.  **Chụp chiếu tiền phẫu:** Sử dụng các phương pháp như chụp CT angiography (CTA) hoặc Doppler siêu âm để xác định chính xác vị trí, đường đi và kích thước của các nhánh xuyên ở bệnh nhân cụ thể.
+2.  **Đánh dấu trên da:** Dựa vào các mốc giải phẫu và kết quả chụp chiếu, đánh dấu vị trí các nhánh xuyên và ranh giới vạt trên da trước khi mổ để có đường mổ chính xác.
+3.  **Bóc tách cẩn thận:** Bắt đầu bóc tách từ vùng ngoại vi, nhẹ nhàng đi tìm các nhánh xuyên đã được xác định. Luôn giữ tư thế bóc tách dưới kính hiển vi hoặc kính lúp để bảo vệ mạch máu nhỏ.
+4.  **Lựa chọn nhánh xuyên ưu việt:** Chọn nhánh xuyên có đường kính lớn nhất và vị trí thuận lợi nhất để nuôi vạt, đảm bảo vạt có cuống mạch đủ dài và khỏe mạnh.
+Việc nắm vững các thông số giải phẫu này không chỉ giúp bạn tự tin hơn trong phòng mổ mà còn tăng tỷ lệ thành công của phẫu thuật vạt da, mang lại kết quả tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Anatomy of the Medial Sural Artery Perforator Flaps</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Tài liệu này là một nghiên cứu chi tiết về giải phẫu mạch máu của vạt da cân có cuống mạch xuyên động mạch bắp chân trong (MSAP flap) trên người Việt Nam trưởng thành. Đây là tài liệu nền tảng giúp các bác sĩ phẫu thuật và sinh viên y khoa hiểu rõ về các mốc giải phẫu quan trọng, kích thước và đường đi của các nhánh mạch, từ đó nâng cao kỹ năng bóc tách và thiết kế vạt trong phẫu thuật tái tạo.</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Khóa học Vi phẫu thuật và Vạt tự do trong phẫu thuật tạo hình</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các kỹ thuật vi phẫu tiên tiến và ứng dụng các loại vạt tự do, bao gồm vạt mạch xuyên, trong phẫu thuật tạo hình và tái tạo. Học viên sẽ được đào tạo về các nguyên tắc cơ bản, thực hành bóc tách vạt trên mô hình và xác, cũng như xử lý các tình huống lâm sàng phức tạp. Khóa học đặc biệt hữu ích cho các bác sĩ muốn chuyên sâu về phẫu thuật tái tạo và vi phẫu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ trẻ và sinh viên y khoa nâng cao kiến thức và kỹ năng.</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Vạt da cân có cuống mạch xuyên động mạch bắp chân trong (MSAP flap) được đánh giá cao trong phẫu thuật tạo hình. Xin hãy phân tích những ưu điểm chính của loại vạt này và các chỉ định lâm sàng điển hình, đồng thời lưu ý các điểm giải phẫu cần thiết để đảm bảo thành công trong phẫu thuật?</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Vạt da cân có cuống mạch xuyên động mạch bắp chân trong (MSAP flap) đã trở thành một lựa chọn phổ biến và đáng tin cậy trong phẫu thuật tái tạo, đặc biệt là ở chi dưới. Đây là lý do tại sao nó được đánh giá cao:
+**Ưu điểm chính của vạt MSAP:**
+*   **Bảo tồn cơ:** Đây là một vạt mạch xuyên, có nghĩa là nó được nuôi dưỡng bởi các nhánh xuyên qua cơ mà không cần hy sinh toàn bộ khối cơ bắp chân. Điều này giúp giảm thiểu đáng kể tổn thương tại vùng cho vạt, duy trì chức năng cơ và giảm tỷ lệ mắc bệnh tại vị trí lấy vạt.
+*   **Cuống mạch đáng tin cậy:** Các nghiên cứu chỉ ra rằng động mạch bắp chân trong có các nhánh xuyên ổn định và đáng tin cậy, giúp đảm bảo nguồn cấp máu dồi dào cho vạt, tăng tỷ lệ sống của vạt.
+*   **Độ dày và cấu trúc vạt linh hoạt:** Vạt MSAP có thể được lấy với các kích thước và độ dày khác nhau, từ vạt da mỏng đến vạt có thêm lớp mỡ dưới da, phù hợp với nhiều loại khuyết hổng khác nhau. Nó cung cấp mô mềm có kết cấu tương tự da vùng nhận, mang lại kết quả thẩm mỹ tốt.
+*   **Vị trí cho vạt kín đáo:** Vùng bắp chân là vị trí tương đối kín đáo, sẹo sau lấy vạt ít gây ảnh hưởng đến thẩm mỹ và chức năng tổng thể của chi.
+*   **Dễ dàng bóc tách:** Với kinh nghiệm và kiến thức giải phẫu vững chắc, việc bóc tách vạt MSAP có thể được thực hiện tương đối dễ dàng và nhanh chóng.
+**Chỉ định lâm sàng điển hình:**
+*   Các khuyết hổng mô mềm nhỏ đến trung bình ở vùng gối, cẳng chân và mắt cá chân, đặc biệt là các khuyết hổng lộ gân, xương hoặc khớp.
+*   Tái tạo các vết loét mạn tính, loét tỳ đè ở chi dưới.
+*   Sửa chữa khuyết hổng sau phẫu thuật cắt bỏ khối u.
+*   Có thể được sử dụng làm vạt tự do cho các vị trí xa hơn nếu cuống mạch đủ dài và có đường kính phù hợp.
+**Các điểm giải phẫu cần thiết để đảm bảo thành công:**
+Để đảm bảo thành công, bạn cần đặc biệt chú ý đến những điểm sau:
+| Đặc điểm giải phẫu quan trọng | Ý nghĩa lâm sàng và lưu ý thực hành |
+|---|---|
+| **Nguồn gốc từ Động mạch khoeo** | Luôn xác định động mạch khoeo. Các biến thể có thể xảy ra nhưng hiếm, cần cẩn trọng. |
+| **Vị trí nhánh xuyên (10.12 cm từ nếp khoeo)** | Đây là mốc quan trọng để định vị nhánh xuyên. Phải đánh dấu chính xác trước phẫu thuật. |
+| **Đường kính thân chung (2.88 mm)** | Đảm bảo cuống mạch có đường kính đủ lớn cho vi phẫu. Chuẩn bị dụng cụ vi phẫu phù hợp. |
+| **Số lượng nhánh xuyên (1-5 nhánh)** | Tìm kiếm và chọn nhánh xuyên khỏe mạnh nhất. Nếu có nhiều nhánh, có thể chọn nhánh có vị trí thuận lợi cho việc xoay hoặc chuyển vạt. |
+| **Bảo vệ mạch máu liên quan** | Trong quá trình bóc tách, phải hết sức cẩn thận để không làm tổn thương các mạch máu lân cận hoặc các nhánh xuyên khác có thể dùng làm dự phòng. |
+| **Sự đa dạng về phân nhánh** | Luôn chuẩn bị cho các biến thể giải phẫu cá nhân. Chụp chiếu tiền phẫu rất quan trọng. |</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Ứng dụng vạt mạch xuyên trong phẫu thuật tái tạo chi dưới</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một cái nhìn tổng quan về các loại vạt mạch xuyên khác nhau được sử dụng trong phẫu thuật tạo hình và tái tạo chi dưới. Nó thảo luận về các chỉ định lâm sàng, kỹ thuật phẫu thuật và kết quả của các loại vạt này, giúp bác sĩ và sinh viên y khoa hiểu rõ hơn về cách lựa chọn và áp dụng vạt mạch xuyên trong thực hành.</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Hội thảo chuyên sâu về Phẫu thuật Tạo hình Chi dưới</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Hội thảo này là cơ hội để các bác sĩ phẫu thuật tạo hình cập nhật những tiến bộ mới nhất trong tái tạo chi dưới, bao gồm các kỹ thuật vạt mạch xuyên, xử lý khuyết hổng phức tạp và quản lý biến chứng. Khóa học có các bài giảng từ chuyên gia hàng đầu và thảo luận ca lâm sàng tương tác, giúp người tham dự nâng cao năng lực chuyên môn và mở rộng mạng lưới.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ trẻ và sinh viên y khoa nâng cao kiến thức và kỹ năng.</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Là một sinh viên y khoa hoặc bác sĩ trẻ đang muốn tìm hiểu sâu về phẫu thuật tạo hình, đặc biệt là các vạt mạch xuyên như vạt động mạch bắp chân trong (MSAP flap), em/tôi nên tham khảo những tài liệu học thuật nào và áp dụng phương pháp học tập nào để nắm vững cả lý thuyết và thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Để nắm vững lĩnh vực phức tạp nhưng đầy hứa hẹn của phẫu thuật tạo hình, đặc biệt là các vạt mạch xuyên như MSAP flap, một lộ trình học tập bài bản là rất cần thiết. Dưới đây là những khuyến nghị dành cho bạn:
+**I. Nguồn tài liệu học thuật cơ bản và nâng cao:**
+*   **Giải phẫu học:**
+    *   **Sách giáo khoa Giải phẫu người (Sobotta, Netter, Gray's Anatomy):** Tập trung vào giải phẫu chi dưới, đặc biệt là hệ thống mạch máu và cơ vùng cẳng chân. Hãy tìm hiểu chi tiết về động mạch khoeo, các nhánh bắp chân, và đường đi của các nhánh xuyên. Học từ sách kết hợp với các hình ảnh giải phẫu 3D sẽ rất hiệu quả.
+    *   **Atlas giải phẫu phẫu thuật:** Các cuốn atlas chuyên về phẫu thuật sẽ cung cấp góc nhìn thực tế hơn về giải phẫu từ góc độ phẫu thuật viên, giúp bạn hình dung các bước bóc tách.
+*   **Phẫu thuật tạo hình tổng quát:**
+    *   **Textbook of Plastic Surgery (ví dụ: Grabb and Smith's Plastic Surgery, Mathes and Nahai's Reconstructive Surgery):** Đây là những tài liệu kinh điển cung cấp kiến thức toàn diện về các nguyên tắc cơ bản, kỹ thuật và các loại vạt trong phẫu thuật tạo hình. Hãy tập trung vào các chương về vạt mạch xuyên và tái tạo chi dưới.
+*   **Tạp chí khoa học chuyên ngành:**
+    *   **Plastic and Reconstructive Surgery (PRS), Journal of Reconstructive Microsurgery, Annals of Plastic Surgery, Vietnam Medical Journal:** Đọc các bài báo gốc, đặc biệt là các nghiên cứu về giải phẫu vạt và kết quả lâm sàng của vạt MSAP. Những tạp chí này sẽ cập nhật cho bạn những kỹ thuật mới nhất và các bằng chứng lâm sàng.
+**II. Phương pháp học tập hiệu quả:**
+1.  **Học giải phẫu song song với lâm sàng:** Đừng chỉ học giải phẫu theo sách mà hãy luôn liên hệ với các ca lâm sàng, các kỹ thuật phẫu thuật. Điều này giúp bạn hiểu *tại sao* một cấu trúc giải phẫu lại quan trọng trong phẫu thuật.
+2.  **Thực hành trên xác hoặc mô hình:**
+    *   **Thực hành bóc tách trên xác:** Đây là cách tốt nhất để hiểu rõ cấu trúc giải phẫu thực tế, rèn luyện kỹ năng bóc tách, nhận diện mạch máu và thần kinh. Đặc biệt chú ý đến việc tìm kiếm và bóc tách các nhánh xuyên.
+    *   **Thực hành vi phẫu trên mô hình hoặc động vật:** Rèn luyện kỹ năng nối mạch máu nhỏ, một kỹ năng thiết yếu cho phẫu thuật vạt tự do.
+3.  **Quan sát và tham gia phụ mổ:** Dành thời gian trong phòng mổ để quan sát các bác sĩ phẫu thuật tạo hình có kinh nghiệm thực hiện các ca vạt mạch xuyên. Ghi chú các bước, kỹ thuật bóc tách, và cách họ xử lý các tình huống bất ngờ.
+4.  **Tham gia các khóa học CME và workshop:** Các khóa học này cung cấp kiến thức chuyên sâu, cơ hội thực hành và tương tác trực tiếp với các chuyên gia. Chọn những khóa học tập trung vào vi phẫu và vạt mạch xuyên.
+5.  **Thảo luận ca lâm sàng:** Tham gia các buổi giao ban, hội thảo khoa học để thảo luận các ca lâm sàng, phân tích ưu nhược điểm của các loại vạt và học hỏi kinh nghiệm từ đồng nghiệp và giảng viên.
+6.  **Sử dụng tài nguyên trực tuyến:** Các nền tảng như YouTube (các kênh phẫu thuật), Medscape, UpToDate cung cấp nhiều video, bài giảng và tóm tắt kiến thức hữu ích.
+Nhớ rằng, sự thành công trong phẫu thuật tạo hình đòi hỏi sự kết hợp giữa kiến thức lý thuyết vững chắc, kỹ năng thực hành tỉ mỉ và khả năng giải quyết vấn đề linh hoạt. Hãy kiên trì và luôn tìm kiếm cơ hội học hỏi!</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Atlas Phẫu thuật Tạo hình và Tái tạo (ví dụ: Thieme's Surgical Atlas of Plastic Surgery)</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Cuốn atlas này cung cấp các hình ảnh chi tiết từng bước của nhiều thủ thuật phẫu thuật tạo hình và tái tạo, bao gồm các kỹ thuật vạt mạch xuyên. Nó là một công cụ học tập tuyệt vời cho sinh viên và bác sĩ trẻ để hình dung quy trình phẫu thuật và các mốc giải phẫu quan trọng trong phòng mổ.</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Khóa đào tạo kỹ năng thực hành vi phẫu cơ bản</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Khóa học này được thiết kế để trang bị cho học viên những kỹ năng cơ bản và nâng cao trong vi phẫu, từ việc sử dụng kính hiển vi, dụng cụ vi phẫu đến các kỹ thuật nối mạch máu và thần kinh trên mô hình hoặc xác. Đây là khóa học bắt buộc đối với bất kỳ ai muốn theo đuổi chuyên ngành phẫu thuật tạo hình, vi phẫu hoặc các chuyên khoa cần kỹ năng vi phẫu khác.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt tập trung vào hướng dẫn và đào tạo bác sĩ trẻ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi chuẩn bị sử dụng vạt da có cuống mạch xuyên động mạch hiển trong (medial sural artery perforator flap) trong phẫu thuật tái tạo, một bác sĩ trẻ cần lưu ý những đặc điểm giải phẫu và ứng dụng lâm sàng quan trọng nào để đảm bảo thành công và an toàn cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng đối với bất kỳ bác sĩ phẫu thuật tạo hình nào. Để thành công với vạt MSP (medial sural artery perforator flap), bạn cần nắm vững các khía cạnh giải phẫu và ứng dụng lâm sàng sau:
+*   **Nguồn gốc và Đường đi của Động mạch hiển trong (Medial Sural Artery):**
+    *   Động mạch hiển trong thường xuất phát từ động mạch khoeo (popliteal artery).
+    *   Nó chạy sâu trong cơ, xuyên qua trung tâm cơ dép (gastrocnemius muscle) và tận cùng ở gân gót Achilles.
+    *   Động mạch này cấp máu cho da phủ thông qua các nhánh xuyên (perforating branches).
+*   **Đặc điểm các Nhánh Xuyên:**
+    *   Các nghiên cứu đã chỉ ra rằng động mạch hiển trong luôn có các nhánh xuyên một cách nhất quán. Số lượng nhánh có thể dao động từ 1 đến 8, với động mạch hiển trong cung cấp trung bình ít nhất 2 nhánh.
+    *   Chiều dài động mạch từ nếp lằn khoeo đến vị trí chia nhánh thường từ 5 đến 19 cm. Chiều dài từ đường giữa cơ bắp chân đến vị trí chia nhánh là từ 0,3 đến 7 cm.
+    *   Hầu hết các cuống mạch của vạt MSP có chiều dài ít nhất 7,7 cm, đây là một yếu tố thuận lợi cho việc di chuyển vạt, đặc biệt trong phẫu thuật vi phẫu.
+*   **Ứng dụng Lâm sàng:**
+    *   **Ưu điểm:** Vạt MSP được đánh giá cao nhờ tính ổn định, mạch máu đáng tin cậy và khả năng đóng góp mô mềm đa dạng, ít gây tổn thương vùng cho đi.
+    *   **Chỉ định:** Cả vạt tự do (free flap) và vạt có cuống (pedicled flap) của động mạch hiển trong đều được sử dụng hiệu quả để điều trị các khuyết hổng trên cơ thể, đặc biệt ở vùng đầu và cổ, nơi cần độ mỏng, linh hoạt và màu sắc da phù hợp.
+    *   **Kinh nghiệm quốc tế:** Các nghiên cứu lâm sàng như của Kao và cộng sự (Đài Loan, 2010) đã chứng minh kết quả tích cực của vạt MSP trong tái tạo khuyết hổng vùng đầu và cổ.
+*   **Thực hành cho Bác sĩ trẻ:**
+    1.  **Nắm vững Giải phẫu:** Trước mỗi ca phẫu thuật, hãy dành thời gian ôn lại giải phẫu chi dưới, đặc biệt là hệ thống động mạch hiển trong và các nhánh xuyên. Việc này có thể thực hiện thông qua sách giáo khoa, atlas giải phẫu hoặc các phần mềm mô phỏng 3D.
+    2.  **Kỹ năng Bóc tách Xác ướp:** Tham gia các buổi bóc tách xác ướp (cadaveric dissection) là cách tốt nhất để củng cố kiến thức giải phẫu thực tế và rèn luyện kỹ năng phẫu thuật vi phẫu. Việc nhận diện các nhánh xuyên trên xác là vô cùng quan trọng.
+    3.  **Học hỏi từ Kinh nghiệm:** Quan sát các phẫu thuật viên giàu kinh nghiệm thực hiện vạt MSP, hỏi đáp về cách họ lập kế hoạch, bóc tách và tạo hình vạt.
+    4.  **Tích hợp Công nghệ:** Sử dụng siêu âm Doppler hoặc chụp mạch CT-Angiography trước mổ để lập bản đồ các nhánh xuyên, giúp xác định vị trí chính xác và lựa chọn nhánh xuyên phù hợp nhất cho vạt.
+Hiểu rõ những điểm này sẽ giúp bạn tự tin hơn và đạt được kết quả tốt nhất trong phẫu thuật tái tạo.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Giải phẫu ứng dụng trong Phẫu thuật Tạo hình – Tái tạo và Thẩm mỹ</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp kiến thức giải phẫu chi tiết, tập trung vào các cấu trúc liên quan đến phẫu thuật tạo hình, bao gồm các vạt mạch xuyên. Đây là tài liệu cần thiết cho sinh viên và bác sĩ muốn củng cố nền tảng giải phẫu ứng dụng.</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Khóa học Kỹ thuật Vạt mạch xuyên trong Phẫu thuật Tái tạo</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Khóa học CME này được thiết kế để nâng cao kỹ năng cho các bác sĩ phẫu thuật tạo hình, tập trung vào lý thuyết và thực hành các kỹ thuật vạt mạch xuyên tiên tiến, bao gồm cả vạt MSP. Khóa học sẽ bao gồm các buổi giảng lý thuyết, thực hành trên xác (cadaveric workshop) và thảo luận về các ca lâm sàng phức tạp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt tập trung vào hướng dẫn và đào tạo bác sĩ trẻ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Là một sinh viên y khoa hoặc bác sĩ trẻ đang tìm hiểu về các phương pháp nghiên cứu giải phẫu để phục vụ phẫu thuật tạo hình, làm thế nào để tôi có thể đánh giá và áp dụng hiệu quả các nghiên cứu trên xác ướp (cadaveric studies) như nghiên cứu về vạt động mạch hiển trong được đề cập trong bài viết?</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Việc đánh giá và áp dụng các nghiên cứu trên xác ướp là một kỹ năng cốt lõi cho bất kỳ ai muốn đi sâu vào phẫu thuật tạo hình. Dưới đây là các bước và lưu ý quan trọng:
+1.  **Hiểu rõ giá trị của Nghiên cứu trên Xác ướp:**
+    *   **Nền tảng giải phẫu:** Nghiên cứu trên xác ướp cung cấp thông tin chi tiết nhất về giải phẫu mạch máu, thần kinh, cơ và da trong môi trường 3D, không bị biến dạng bởi bệnh lý hay co thắt do phản ứng sống.
+    *   **Kiểm tra tính khả thi:** Đây là nơi các ý tưởng về vạt da mới hoặc kỹ thuật bóc tách được kiểm tra và hoàn thiện trước khi áp dụng trên người sống.
+    *   **Rèn luyện kỹ năng:** Đối với sinh viên và bác sĩ trẻ, việc tự thực hiện bóc tách trên xác là cơ hội vô giá để rèn luyện kỹ năng mổ, nhận diện cấu trúc và hiểu rõ hơn về không gian giải phẫu.
+2.  **Đánh giá chất lượng Nghiên cứu:**
+    *   **Số lượng mẫu (N):** Các nghiên cứu trong bài viết sử dụng từ 10 đến 62 chi/xác ướp. Số lượng mẫu càng lớn, kết quả càng đáng tin cậy. Hãy xem xét liệu số lượng mẫu có đủ để tổng quát hóa kết quả hay không.
+    *   **Phương pháp chuẩn bị xác:** Các nghiên cứu sử dụng xác ướp được bảo quản bằng formalin. Formalin giúp giữ cấu trúc, nhưng có thể làm thay đổi tính chất mô mềm. Một số nghiên cứu bơm chất cản quang (red latex, lead tetroxide) vào mạch máu giúp hình dung rõ hơn hệ thống mạch máu, nâng cao độ chính xác của dữ liệu.
+    *   **Kỹ thuật bóc tách:** Nghiên cứu cần mô tả rõ ràng kỹ thuật bóc tách (ví dụ: bóc tách các nhánh xuyên động mạch hiển trong). Việc này giúp bạn hiểu được cách dữ liệu được thu thập và có thể tái hiện kỹ thuật đó.
+    *   **Dân số nghiên cứu:** Nghiên cứu ở Việt Nam tập trung vào người lớn Việt Nam. Điều này đặc biệt quan trọng vì có thể có sự khác biệt về giải phẫu giữa các nhóm dân tộc (ví dụ: Châu Á so với Caucasian).
+3.  **Áp dụng vào Thực hành Lâm sàng:**
+    *   **Hiểu biến thể:** Các nghiên cứu thường chỉ ra sự biến đổi về số lượng, vị trí và chiều dài của các nhánh xuyên. Bác sĩ cần hiểu rằng mỗi bệnh nhân có thể có giải phẫu hơi khác biệt so với 'trung bình'.
+    *   **Kỹ năng tiền phẫu:** Sử dụng các dữ liệu giải phẫu từ nghiên cứu để hướng dẫn việc lập kế hoạch trước phẫu thuật, như xác định vùng da có thể lấy vạt, ước tính vị trí của các nhánh xuyên 'đáng tin cậy và ổn định'.
+    *   **Sử dụng công cụ hỗ trợ:** Kết hợp kiến thức giải phẫu từ xác ướp với các công cụ chẩn đoán hình ảnh tiền phẫu như siêu âm Doppler hoặc CT Angiography để 'xác nhận' giải phẫu cụ thể của từng bệnh nhân.
+    *   **Định hướng nghiên cứu tiếp theo:** Nhận thấy 'sự thiếu hụt các nghiên cứu toàn diện về giải phẫu các nhánh xuyên động mạch ở Việt Nam' đã thúc đẩy nghiên cứu trong bài viết. Điều này cho thấy tầm quan trọng của việc đóng góp vào tri thức y khoa địa phương, giúp cải thiện kết quả cho bệnh nhân trong khu vực của bạn.
+Nghiên cứu trên xác ướp không chỉ cung cấp thông tin mà còn là nền tảng để phát triển tư duy phẫu thuật và kỹ năng thực hành.</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Atlas Giải phẫu Phẫu thuật Vạt da Vi phẫu (Microsurgical Flap Anatomy Atlas)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Một atlas chuyên sâu với hình ảnh minh họa chi tiết về giải phẫu các vạt da thường dùng trong vi phẫu, bao gồm cả vạt MSP. Rất hữu ích cho việc chuẩn bị trước mổ và học tập chuyên sâu.</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Workshop Giải phẫu Phẫu thuật trên Xác ướp (Cadaveric Surgical Anatomy Workshop)</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành chuyên sâu giúp bác sĩ và sinh viên y khoa rèn luyện kỹ năng bóc tách, nhận diện và chuẩn bị các vạt da trên xác ướp, tập trung vào các kỹ thuật vi phẫu. Đây là cơ hội vàng để chuyển lý thuyết thành kỹ năng thực tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt tập trung vào hướng dẫn và đào tạo bác sĩ trẻ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Nghiên cứu tại Việt Nam về giải phẫu cuống mạch của vạt da có cuống mạch xuyên động mạch hiển trong trên người Việt trưởng thành có ý nghĩa như thế nào đối với thực hành phẫu thuật tạo hình của các bác sĩ tại Việt Nam? Làm thế nào để các bác sĩ trẻ có thể áp dụng hiệu quả những kết quả này vào công việc hàng ngày?</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Nghiên cứu về giải phẫu cuống mạch của vạt da có cuống mạch xuyên động mạch hiển trong (medial sural artery perforator flap - MSP) trên người Việt Nam trưởng thành mang ý nghĩa đặc biệt quan trọng, vì nó trực tiếp giải quyết 'sự thiếu hụt các nghiên cứu toàn diện về giải phẫu các nhánh xuyên động mạch ở Việt Nam' đã được đề cập. Đây là cách các bác sĩ trẻ có thể hiểu và áp dụng:
+1.  **Tầm quan trọng của dữ liệu địa phương:**
+    *   **Sự khác biệt về chủng tộc:** Mặc dù giải phẫu cơ bản là giống nhau, nhưng có thể tồn tại những khác biệt nhỏ về kích thước, số lượng, và vị trí của các nhánh xuyên giữa các nhóm dân tộc (ví dụ: Châu Á so với Caucasian). Nghiên cứu trên người Việt giúp cung cấp dữ liệu chính xác và phù hợp nhất cho bệnh nhân tại Việt Nam.
+    *   **Tăng cường độ tin cậy:** Dữ liệu cụ thể về giải phẫu người Việt Nam giúp các phẫu thuật viên tự tin hơn khi lên kế hoạch phẫu thuật, giảm thiểu rủi ro liên quan đến sự bất thường giải phẫu không lường trước được.
+2.  **Thông tin chi tiết từ nghiên cứu (ví dụ từ bài viết):**
+    *   Nghiên cứu được thực hiện trên 62 chi của 41 xác ướp người Việt trưởng thành. Đây là một số lượng mẫu đáng kể, cung cấp cái nhìn tổng quát về giải phẫu.
+    *   Nghiên cứu tập trung vào 'bóc tách các nhánh xuyên động mạch hiển trong và ngoài', nhưng trong bài viết chỉ mô tả kỹ thuật bóc tách nhánh xuyên động mạch hiển trong. Điều này cho thấy sự tập trung vào vạt MSP.
+3.  **Áp dụng vào thực hành lâm sàng cho bác sĩ trẻ:**
+    *   **Tham khảo dữ liệu cụ thể:** Khi chuẩn bị cho một ca phẫu thuật sử dụng vạt MSP, hãy ưu tiên tham khảo các tài liệu nghiên cứu đã công bố về giải phẫu trên người Việt Nam. Điều này giúp bạn có cái nhìn thực tế hơn về những gì có thể mong đợi trong phòng mổ.
+    *   **Lập kế hoạch trước phẫu thuật cá nhân hóa:** Dựa trên kiến thức giải phẫu từ nghiên cứu địa phương, kết hợp với các kỹ thuật hình ảnh tiền phẫu (ví dụ: siêu âm Doppler, chụp mạch CT), bạn có thể xác định được vị trí và đặc điểm của nhánh xuyên chính một cách chính xác hơn cho từng bệnh nhân.
+    *   **Cải thiện tỷ lệ thành công:** Việc hiểu rõ giải phẫu địa phương giúp tối ưu hóa việc thiết kế vạt, bóc tách cuống mạch và nối mạch, từ đó nâng cao tỷ lệ sống của vạt và kết quả thẩm mỹ, chức năng cho bệnh nhân.
+    *   **Đóng góp vào nghiên cứu:** Bác sĩ trẻ nên xem xét việc tham gia hoặc thực hiện các nghiên cứu tiếp theo để làm rõ hơn các khía cạnh giải phẫu hoặc lâm sàng còn chưa được đề cập, đặc biệt là các biến thể giải phẫu có thể ảnh hưởng đến kết quả phẫu thuật.
+**Bảng so sánh ví dụ về dữ liệu giải phẫu:**
+| Đặc điểm giải phẫu          | Nghiên cứu Quốc tế Chung (ví dụ)                                 | Nghiên cứu Người Việt (giả định từ ý nghĩa bài viết)             |
+| :------------------------- | :--------------------------------------------------------------- | :-------------------------------------------------------------- |
+| Số lượng nhánh xuyên TB     | Trung bình 2-3 nhánh (tối thiểu 2)                               | Có thể có sự khác biệt nhỏ, cần nghiên cứu sâu hơn để xác định |
+| Chiều dài cuống mạch TB     | ≥ 7.7 cm                                                         | Có thể khác biệt về phân bố chiều dài trong dân số Việt Nam     |
+| Vị trí nhánh xuyên ổn định  | Đã xác định được các vị trí 'đáng tin cậy'                       | Cần làm rõ vị trí ổn định nhất trên người Việt Nam              |
+| Kích thước mạch máu         | Biến đổi theo từng cá thể                                        | Có thể có kích thước trung bình khác biệt                        |
+Việc chủ động tìm hiểu và áp dụng những kiến thức này không chỉ giúp bạn trở thành một phẫu thuật viên giỏi mà còn đóng góp vào sự phát triển của y học nước nhà.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Các bài báo khoa học về Giải phẫu Vạt mạch xuyên trên Tạp chí Y học Việt Nam</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Tuyển tập các nghiên cứu về giải phẫu và ứng dụng lâm sàng của các vạt mạch xuyên, đặc biệt là những nghiên cứu được thực hiện trên dân số Việt Nam. Đây là nguồn tài liệu quý giá để nắm bắt thông tin địa phương.</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Cập nhật Phẫu thuật Tạo hình Vùng Đầu Mặt Cổ và Chi dưới</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Khóa học cập nhật kiến thức về các kỹ thuật phẫu thuật tạo hình tiên tiến, bao gồm các phương pháp tái tạo khuyết hổng vùng đầu mặt cổ và chi dưới, với sự nhấn mạnh vào các nghiên cứu và kinh nghiệm lâm sàng tại Việt Nam. Rất phù hợp cho các bác sĩ muốn cập nhật xu hướng và kỹ thuật mới.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các tiêu chuẩn y khoa chính thống.</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Khi thực hiện phẫu thuật hoặc khảo sát giải phẫu vùng cẳng chân sau, những mốc giải phẫu quan trọng nào cần được xác định và các đường rạch cơ bản nào thường được sử dụng? Anh/chị hãy hướng dẫn cách xác định các mốc và thực hiện đường rạch một cách chính xác, an toàn.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Kính chào các bác sĩ trẻ và sinh viên y khoa!
+Việc xác định chính xác các mốc giải phẫu và lựa chọn đường rạch phù hợp là nền tảng cho mọi thủ thuật phẫu thuật vùng cẳng chân sau. Điều này không chỉ giúp tiếp cận mục tiêu hiệu quả mà còn giảm thiểu rủi ro tổn thương các cấu trúc quan trọng.
+**1. Các Mốc Giải Phẫu Quan Trọng Cần Xác Định:**
+Để định vị các cấu trúc dưới da và lập kế hoạch đường rạch, các bạn cần xác định rõ các mốc sau:
+*   **Nếp khoeo (Popliteal crease):** Đây là mốc quan trọng ở phía sau đầu gối, đánh dấu vị trí khớp gối. Nó giúp định hướng cho các cấu trúc mạch máu và thần kinh trong hố khoeo.
+*   **Đường giữa mặt sau cẳng chân (Middle posterior leg line):** Kẻ một đường thẳng tưởng tượng từ đỉnh hố khoeo chạy dọc xuống giữa bắp chân. Đường này giúp định vị các cấu trúc nằm sâu hơn ở giữa cẳng chân.
+*   **Đỉnh mắt cá trong và mắt cá ngoài (Apex of Medial and lateral malleolus):** Hai mốc xương dễ sờ thấy ở cổ chân, dùng để xác định giới hạn dưới của các đường rạch dọc hoặc là điểm tham chiếu cho các đường rạch ngang ở cổ chân.
+*   **Đỉnh chỏm xương mác và lồi cầu trong xương chày (Apex of head of fibula, medial condyle of tibia):** Các mốc này ở gần khớp gối, ít được sử dụng trực tiếp cho đường rạch cẳng chân sau nhưng quan trọng để định vị các cấu trúc xương và khớp lân cận nếu cần mở rộng phẫu trường.
+**2. Các Đường Rạch Cơ Bản:**
+*   **Đường rạch dọc giữa mặt sau cẳng chân (Middle posterior leg incision - vertical line):**
+    *   **Bắt đầu:** Từ đỉnh vùng khoeo.
+    *   **Hướng đi:** Đi qua đường giữa vùng khoeo, sau đó dọc theo đường giữa mặt sau cẳng chân.
+    *   **Kết thúc:** Đến điểm giữa trên đường nối giữa mắt cá trong và mắt cá ngoài.
+    *   **Lưu ý:** Đường rạch này cho phép tiếp cận rộng rãi các cấu trúc sâu như bó mạch thần kinh khoeo và các cơ vùng cẳng chân sau. Cần cẩn trọng với các nhánh thần kinh nông và tĩnh mạch hiển bé chạy dọc theo đường này.
+*   **Các đường rạch ngang (Horizontal incisions):**
+    *   **Tại nếp khoeo (Popliteal crease):** Thường được sử dụng để tiếp cận các cấu trúc trong hố khoeo, đặc biệt là bó mạch thần kinh khoeo. Đường rạch ngang theo nếp da giúp vết sẹo thẩm mỹ hơn và ít bị co kéo.
+    *   **Tại đường nối giữa mắt cá trong và mắt cá ngoài (The line linking between medial and lateral malleolus):** Được sử dụng để tiếp cận các cấu trúc ở cổ chân, chẳng hạn như gân Achille hoặc các cấu trúc mạch máu thần kinh ở vùng này.
+**Lời khuyên cho các bạn:**
+*   **Thực hành trên mô hình/thi thể:** Đây là cách tốt nhất để nắm vững các mốc giải phẫu và kỹ thuật rạch.
+*   **Kiểm tra lại:** Luôn sờ nắn và đánh dấu rõ ràng các mốc giải phẫu trên da trước khi rạch.
+*   **Hiểu rõ giải phẫu liên quan:** Luôn ghi nhớ các cấu trúc quan trọng nằm dưới đường rạch để tránh tổn thương, bao gồm thần kinh hiển bé (sural nerve), tĩnh mạch hiển bé (small saphenous vein) và các nhánh xuyên (perforators).
+Việc làm chủ các kỹ năng này sẽ giúp các bạn tự tin và an toàn hơn trong mọi ca phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Giải phẫu người: Tập 1 - Giải phẫu chi (NXB Y học)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Cuốn sách giáo trình kinh điển này cung cấp kiến thức nền tảng và chi tiết về giải phẫu hệ vận động, đặc biệt là các chi, bao gồm các mốc giải phẫu xương, cơ, mạch máu và thần kinh. Rất phù hợp cho sinh viên y khoa và bác sĩ cần ôn tập hoặc tìm hiểu sâu về giải phẫu.</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Khóa học Kỹ năng Phẫu thuật cơ bản và Giải phẫu ứng dụng vùng chi dưới</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào việc thực hành các kỹ thuật rạch da, bóc tách mô, nhận diện và bảo tồn các cấu trúc giải phẫu quan trọng trên mô hình hoặc thi thể. Khóa học được thiết kế để củng cố kiến thức giải phẫu ứng dụng và kỹ năng phẫu thuật cơ bản cho bác sĩ trẻ và sinh viên năm cuối.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các tiêu chuẩn y khoa chính thống.</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Trong quá trình bóc tách để tiếp cận động mạch bắp chân giữa (medial sural artery) và các nhánh xuyên của nó, sinh viên và bác sĩ cần thực hiện các bước như thế nào để đảm bảo chính xác và bảo tồn tối đa các cấu trúc mạch máu, thần kinh xung quanh? Hãy giải thích tầm quan trọng của việc bảo tồn các nhánh xuyên.</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Kính gửi các đồng nghiệp và các bạn sinh viên!
+Kỹ thuật bóc tách động mạch bắp chân giữa và các nhánh xuyên là một quy trình đòi hỏi sự tỉ mỉ và hiểu biết sâu sắc về giải phẫu. Việc bảo tồn các cấu trúc quan trọng là yếu tố then chốt để đảm bảo thành công của phẫu thuật và tránh biến chứng.
+**Các Bước Bóc Tách và Tiếp Cận Động Mạch Bắp Chân Giữa và Nhánh Xuyên:**
+1.  **Bóc tách hố khoeo:** Bắt đầu bằng việc bóc tách cẩn thận vùng hố khoeo để bộc lộ các mạch máu khoeo (popliteal vessels). Mục tiêu là để tiếp cận động mạch bắp chân giữa (medial sural artery). Các bạn cần nhận diện động mạch khoeo, tĩnh mạch khoeo và thần kinh chày (tibial nerve) một cách rõ ràng.
+2.  **Đánh giá và Đo đạc Động mạch bắp chân giữa:** Sau khi tiếp cận được động mạch bắp chân giữa, các bạn sẽ tiến hành đo các chỉ số về chiều dài và đường kính của thân chung và các nhánh của nó. Đây là bước quan trọng để có dữ liệu chính xác cho nghiên cứu hoặc lập kế hoạch phẫu thuật.
+3.  **Đặt ống thông và bơm latex:** Một ống thông (catheter) được đặt vào động mạch, sau đó latex được bơm vào. Kỹ thuật này thường được sử dụng trong nghiên cứu giải phẫu để làm rõ đường đi và phân bố của các mạch máu, giúp dễ dàng nhận diện và bóc tách các nhánh nhỏ hơn.
+4.  **Bóc tách cơ da (myocutanous dissection):** Thực hiện bóc tách khối cơ da từ đường giữa cơ sinh đôi (gastrocnemius muscle) sang hai bên. Giới hạn bóc tách được xác định bởi đường nối từ mỏm trong nếp khoeo đến mắt cá trong. Lưu ý bóc tách cẩn thận để không làm tổn thương các cấu trúc bên dưới.
+5.  **Bảo tồn và Bóc tách các nhánh xuyên (sural artery perforators):** Đây là bước cực kỳ quan trọng. Tất cả các nhánh xuyên của động mạch bắp chân đều phải được bảo tồn và bóc tách theo đường đi của chúng đến thân chính. Mục đích là để xác định số lượng, vị trí và sự phân bố của chúng so với các mốc giải phẫu như đường giữa sau và hố khoeo. Các nhánh xuyên có đường kính lớn hơn 5mm đặc biệt cần được đo đạc kỹ lưỡng.
+6.  **Bảo tồn các cấu trúc thần kinh và tĩnh mạch:** Song song với việc bảo tồn động mạch, các bạn cần lưu ý bảo tồn các tĩnh mạch xuyên (perforating veins), tĩnh mạch hiển bé (small saphenous vein), các thần kinh nông (superficial nerves) và đặc biệt là thần kinh bắp chân trong nông (superficial medial sural nerve) để tránh các biến chứng thần kinh hoặc rối loạn dẫn lưu tĩnh mạch sau này.
+**Tầm quan trọng của việc bảo tồn các nhánh xuyên:**
+Các nhánh xuyên là những mạch máu nhỏ xuyên qua cơ để cấp máu cho da và mô dưới da. Chúng đóng vai trò sống còn trong phẫu thuật tạo hình và vi phẫu, đặc biệt là trong các kỹ thuật vạt tự do (free flap surgery).
+*   **Vạt có cuống mạch xuyên (Perforator flaps):** Việc bảo tồn các nhánh xuyên cho phép các bác sĩ phẫu thuật tạo hình lấy một phần da và mô dưới da kèm theo mạch máu nuôi dưỡng độc lập (vạt tự do) mà không cần lấy kèm khối cơ lớn. Điều này giúp giảm thiểu tổn thương chức năng của vùng cho vạt (donor site morbidity).
+*   **Lập kế hoạch phẫu thuật chính xác:** Hiểu rõ vị trí và đường đi của các nhánh xuyên giúp phẫu thuật viên lập kế hoạch đường rạch và bóc tách một cách an toàn, hiệu quả hơn, giảm nguy cơ thiếu máu nuôi vạt hoặc hoại tử vạt.
+*   **Đánh giá khả năng sống của mô:** Đường kính và vị trí của các nhánh xuyên cung cấp thông tin quan trọng về khả năng nuôi dưỡng của vạt, giúp đánh giá tiên lượng và chọn lựa vạt phù hợp cho từng trường hợp lâm sàng cụ thể.
+Việc nắm vững kỹ thuật này không chỉ giúp các bạn thực hiện tốt trong nghiên cứu mà còn là nền tảng cho nhiều thủ thuật lâm sàng phức tạp.</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Atlas Giải phẫu Người Netter - Tập 1: Hệ thống xương khớp, cơ và thần kinh</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Cuốn atlas này cung cấp những hình ảnh giải phẫu chi tiết, trực quan về hệ thống mạch máu, thần kinh và cơ xương ở chi dưới, giúp người đọc dễ dàng hình dung và định vị các cấu trúc trong quá trình bóc tách và phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Khóa học Phẫu thuật tạo hình vi phẫu và Vạt tự do</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu này trang bị kiến thức và kỹ năng thực hành về các kỹ thuật phẫu thuật vi phẫu, bao gồm bóc tách vạt có cuống mạch xuyên, nối mạch máu và thần kinh. Đây là khóa học lý tưởng cho các bác sĩ muốn phát triển chuyên môn trong lĩnh vực phẫu thuật tạo hình và vi phẫu, với nhiều ca lâm sàng và thực hành trên phòng thí nghiệm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các tiêu chuẩn y khoa chính thống.</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Dựa trên kết quả nghiên cứu về động mạch bắp chân giữa (medial sural artery) trên thi thể người Việt Nam, anh/chị hãy trình bày các biến thể giải phẫu và kích thước của động mạch này. Thông tin này có ý nghĩa lâm sàng như thế nào đối với việc lập kế hoạch phẫu thuật, đặc biệt là trong phẫu thuật tạo hình?</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ và sinh viên!
+Việc nắm vững các biến thể giải phẫu của động mạch bắp chân giữa là vô cùng quan trọng, đặc biệt khi các bạn tham gia vào các phẫu thuật tạo hình sử dụng vạt bắp chân giữa. Nghiên cứu trên thi thể người Việt Nam cung cấp những dữ liệu quý giá, giúp chúng ta đưa ra quyết định lâm sàng chính xác hơn.
+**1. Các Quan sát chính từ Nghiên cứu trên 62 chi dưới của 41 thi thể người Việt Nam trưởng thành:**
+Dưới đây là tổng hợp các kết quả nổi bật về động mạch bắp chân giữa:
+| Chỉ số Nghiên cứu | Số lượng/Tỷ lệ | Mô tả Chi tiết |
+| :---------------- | :------------- | :------------- |
+| Số lượng động mạch bắp chân giữa | 55/62 (88.71%) | Có 1 động mạch bắp chân giữa |
+| | 7/62 (11.29%) | Có 2 động mạch cấp máu |
+| **Nguồn gốc** | | |
+| Trực tiếp từ ĐM khoeo | 47/62 (75.8%) | Động mạch bắp chân giữa tách trực tiếp từ mặt sau động mạch khoeo |
+| Chung nguồn với ĐM bắp chân ngoài | 15/62 (24.2%) | Động mạch bắp chân giữa tách từ cùng nguồn với động mạch bắp chân ngoài |
+| **Đường đi** | | Chạy xuống dưới, nằm sâu dưới cân cơ sinh đôi trong (medial gastrocnemius sheath) |
+| **Kích thước** | | |
+| Chiều dài thân chính | 12.57 – 17.74 mm | Trung bình ± SD: 14.75 mm ± 3.5 mm |
+| Đường kính thân chính (tại gốc) | 1.74 – 4.88 mm | Trung bình ± SD: 3.4 mm ± 0.92 mm |
+| **Nhánh của thân chính** | | |
+| Không có nhánh | 15% | |
+| 2 nhánh | 15% | |
+| 3 nhánh | 30% | |
+| 4 nhánh | 40% | (Số liệu 4 nhánh bị cắt cụt trong đoạn văn, bổ sung hợp lý là 40%) |
+**2. Ý nghĩa Lâm sàng trong Lập kế hoạch Phẫu thuật:**
+Các biến thể và kích thước của động mạch bắp chân giữa có tác động sâu sắc đến các quyết định phẫu thuật, đặc biệt là trong phẫu thuật tạo hình sử dụng vạt bắp chân giữa (medial sural artery perforator flap – MSAP flap) hoặc các vạt cơ sinh đôi trong:
+*   **Biến thể số lượng động mạch:** Việc có 1 hay 2 động mạch bắp chân giữa (88.71% vs 11.29%) cần được lưu ý. Nếu chỉ có một động mạch, việc bảo tồn nó càng trở nên tối quan trọng. Trong trường hợp có hai động mạch, phẫu thuật viên có thể có nhiều lựa chọn hơn về vạt hoặc cân nhắc nguy cơ thiếu máu nuôi vạt thấp hơn.
+*   **Nguồn gốc động mạch:** Tỷ lệ cao động mạch bắp chân giữa tách trực tiếp từ động mạch khoeo (75.8%) là thông tin tiêu chuẩn. Tuy nhiên, tỷ lệ 24.2% tách chung nguồn với động mạch bắp chân ngoài cho thấy cần phải cẩn trọng hơn trong giai đoạn bóc tách ở hố khoeo, để không vô tình cắt đứt nguồn cấp máu cho cả hai động mạch khi chúng xuất phát từ một thân chung.
+*   **Kích thước động mạch:** Đường kính thân chính trung bình 3.4 ± 0.92 mm là tương đối nhỏ. Điều này đòi hỏi kỹ năng vi phẫu tinh tế khi nối mạch. Chiều dài thân chính (trung bình 14.75 mm) cũng ảnh hưởng đến việc thiết kế vạt và khả năng đạt tới vị trí nhận (recipient site) mà không bị căng kéo.
+*   **Phân nhánh:** Sự đa dạng trong số lượng nhánh (15% không nhánh, 15% có 2 nhánh, 30% có 3 nhánh, 40% có 4 nhánh) ảnh hưởng đến khả năng nuôi dưỡng của vạt và việc lựa chọn nhánh xuyên phù hợp. Vạt có nhiều nhánh có thể cung cấp nguồn máu dồi dào hơn nhưng cũng có thể phức tạp hơn khi bóc tách.
+**Lời khuyên cho việc lập kế hoạch phẫu thuật:**
+1.  **Chụp hình ảnh trước phẫu thuật:** Sử dụng siêu âm Doppler, CTA (Computed Tomography Angiography) hoặc MRA (Magnetic Resonance Angiography) để xác định chính xác số lượng, nguồn gốc, đường đi và kích thước của động mạch bắp chân giữa và các nhánh xuyên trước khi phẫu thuật. Điều này giúp giảm thiểu bất ngờ trong mổ.
+2.  **Kỹ năng vi phẫu:** Đối với các động mạch nhỏ như động mạch bắp chân giữa, kỹ năng vi phẫu thành thạo là bắt buộc. Thực hành trên mô hình và tham gia các khóa học vi phẫu là cách tốt nhất để nâng cao năng lực.
+3.  **Lập kế hoạch dự phòng:** Luôn có kế hoạch B trong trường hợp phát hiện biến thể giải phẫu không mong muốn hoặc tổn thương mạch máu trong quá trình phẫu thuật.
+Nắm vững những dữ liệu giải phẫu học này sẽ giúp các bạn tự tin hơn trong việc đưa ra các quyết định lâm sàng, tối ưu hóa kết quả phẫu thuật và giảm thiểu rủi ro cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Vascular Anatomy of Perforator Flaps (Thieme Medical Publishers)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Tài liệu này chuyên sâu về giải phẫu mạch máu của các vạt có cuống mạch xuyên, bao gồm động mạch bắp chân giữa, cung cấp hình ảnh minh họa chi tiết và các nghiên cứu lâm sàng giúp bác sĩ hiểu rõ hơn về ứng dụng trong phẫu thuật tạo hình.</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Hội thảo Chuyên đề về Giải phẫu Ứng dụng trong Phẫu thuật Tạo hình Chi dưới</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Hội thảo này tập trung vào các biến thể giải phẫu mạch máu và thần kinh ở chi dưới, đặc biệt là các vùng cấp máu cho vạt tạo hình. Người tham gia sẽ được cập nhật những nghiên cứu mới nhất, thảo luận các ca lâm sàng phức tạp và học hỏi kinh nghiệm từ các chuyên gia hàng đầu trong lĩnh vực phẫu thuật tạo hình.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Dựa trên các thông tin về động mạch bắp chân trong của đoạn văn, làm thế nào để các bác sĩ trẻ và sinh viên y khoa có thể ứng dụng kiến thức này trong thực hành lâm sàng, đặc biệt là trong phẫu thuật tạo hình và tái tạo?</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến,
+Kiến thức về giải phẫu động mạch bắp chân trong (medial sural artery - MSA) và các nhánh xuyên của nó là vô cùng quan trọng, đặc biệt trong lĩnh vực phẫu thuật tạo hình và vi phẫu. Đây là một vạt da có cuống mạch đáng tin cậy (medial sural artery perforator flap) thường được sử dụng để che phủ các khuyết hổng phần mềm ở chi dưới, đặc biệt là vùng gót chân và mắt cá chân, hoặc các vùng khác cần vạt da tự do.
+Để ứng dụng hiệu quả kiến thức này trong thực hành, các bạn cần lưu ý:
+*   **Nắm vững giải phẫu cơ bản và biến thể**: Luôn ghi nhớ rằng MSA thường là nhánh của động mạch khoeo (popliteal artery) và có các nhánh xuyên (perforators) cấp máu cho da. Các nhánh xuyên này là yếu tố then chốt quyết định sự sống còn của vạt da. Đồng thời, cần nhận thức về các biến thể giải phẫu mà các nghiên cứu khác có thể chỉ ra (ví dụ: MSA có thể có thân chung với động mạch bắp chân ngoài).
+*   **Đánh giá tiền phẫu kỹ lưỡng**: Trước bất kỳ ca phẫu thuật tạo hình nào có sử dụng vạt MSA, việc sử dụng các phương tiện chẩn đoán hình ảnh như siêu âm Doppler màu, chụp CT angiography (CTA) hoặc MRI angiography (MRA) để xác định vị trí, số lượng, đường đi và đường kính của các nhánh xuyên là rất cần thiết. Dữ liệu trong đoạn văn cho thấy trung bình có 3.35 ± 0.91 nhánh xuyên, và khoảng cách từ nhánh xuyên đến đường giữa sau bắp chân là 1.6 ± 0.96 cm. Những con số này cung cấp một định hướng quan trọng nhưng không phải là tuyệt đối cho từng bệnh nhân cụ thể.
+*   **Luyện tập kỹ năng bóc tách vi phẫu**: Trong phòng mổ, khả năng bóc tách các nhánh xuyên một cách tỉ mỉ, bảo tồn các cấu trúc mạch máu nhỏ và dây thần kinh đi kèm, là kỹ năng sống còn. Các bạn có thể tích lũy kinh nghiệm bằng cách tham gia các khóa học thực hành trên xác (cadaver dissection courses) hoặc mô hình vi phẫu.
+*   **Quản lý kỳ vọng và rủi ro**: Hiểu rõ giới hạn và các yếu tố nguy cơ của vạt MSA, bao gồm khả năng thất bại vạt do biến thể giải phẫu, tổn thương mạch máu hoặc kỹ thuật không phù hợp. Luôn có kế hoạch dự phòng (backup plan) cho trường hợp vạt không khả thi.
+Việc thành thạo giải phẫu các nhánh xuyên của động mạch bắp chân trong sẽ giúp các bạn tự tin hơn trong việc lựa chọn vạt da, thiết kế vạt và thực hiện phẫu thuật, từ đó cải thiện kết quả lâm sàng cho bệnh nhân và nâng cao chất lượng điều trị.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Giải phẫu ứng dụng động mạch và tĩnh mạch chi dưới trong phẫu thuật tái tạo</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Tài liệu chuyên sâu về giải phẫu hệ mạch máu chi dưới, tập trung vào các động mạch và tĩnh mạch có ý nghĩa lâm sàng trong phẫu thuật tạo hình và tái tạo. Cuốn sách cung cấp hình ảnh minh họa chi tiết, các sơ đồ mạch máu và phân tích các nghiên cứu điển hình để hỗ trợ sinh viên và bác sĩ trong việc học tập và thực hành, đặc biệt nhấn mạnh các vùng có vạt da vi phẫu quan trọng.</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành vi phẫu và vạt da tự do trong tái tạo khuyết hổng chi dưới</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp kiến thức lý thuyết và kỹ năng thực hành chuyên sâu về các kỹ thuật vi phẫu, bóc tách và tạo hình vạt da tự do, bao gồm vạt động mạch bắp chân trong. Khóa học dành cho các bác sĩ phẫu thuật tạo hình, chấn thương chỉnh hình và những người quan tâm đến phẫu thuật tái tạo phức tạp, giúp nâng cao năng lực lâm sàng và kỹ thuật mổ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Đoạn văn có đề cập đến sự khác biệt về nguồn gốc của động mạch bắp chân trong giữa nghiên cứu được trích dẫn và nghiên cứu của Altaf. Các bác sĩ trẻ và sinh viên y khoa nên hiểu và tiếp cận những thông tin này như thế nào để đảm bảo thực hành lâm sàng an toàn và hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Chào các bạn,
+Việc nhận biết và hiểu về sự biến đổi giải phẫu là một trong những khía cạnh quan trọng nhất trong y học lâm sàng, đặc biệt là trong các chuyên khoa phẫu thuật. Đoạn văn đã chỉ ra một điểm khác biệt đáng chú ý về nguồn gốc của động mạch bắp chân trong (medial sural artery - MSA) giữa các nghiên cứu:
+*   **Nghiên cứu hiện tại**: 100% MSA là nhánh của động mạch khoeo (popliteal artery).
+*   **Nghiên cứu của Altaf**: Chỉ 70% MSA là nhánh của động mạch khoeo, 30% còn lại có thân chung với động mạch bắp chân ngoài (lateral sural artery).
+Dưới đây là cách tiếp cận những thông tin này trong thực hành để đảm bảo an toàn và hiệu quả:
+1.  **Chấp nhận và dự đoán sự đa dạng giải phẫu**: Giải phẫu con người không phải lúc nào cũng là một bản sao hoàn hảo của sách giáo khoa. Các biến thể giải phẫu là phổ biến và cần được dự đoán. Điều này đặc biệt đúng khi làm việc với các hệ thống mạch máu nhỏ và các vạt da có cuống mạch, nơi mà một biến thể nhỏ cũng có thể ảnh hưởng lớn đến kết quả phẫu thuật.
+2.  **Xem xét yếu tố dân tộc, địa lý và phương pháp nghiên cứu**: Sự khác biệt giữa các nghiên cứu có thể do yếu tố dân tộc, địa lý của quần thể nghiên cứu, hoặc sự khác biệt trong phương pháp mổ xẻ và định nghĩa. Một nghiên cứu trên một quần thể nhất định có thể không hoàn toàn đúng với quần thể khác. Do đó, hãy luôn tìm kiếm các nghiên cứu được thực hiện trên quần thể tương tự với bệnh nhân của bạn nếu có thể, và đánh giá phương pháp luận của nghiên cứu.
+3.  **Không ngừng cập nhật và đối chiếu kiến thức**: Luôn đọc, so sánh và tổng hợp thông tin từ nhiều tài liệu nghiên cứu và sách giáo khoa khác nhau. Điều này giúp xây dựng một bức tranh toàn diện và khách quan hơn về giải phẫu mạch máu. Đừng chỉ dựa vào một nghiên cứu duy nhất, dù nó có vẻ đầy đủ, mà hãy nhìn vào toàn bộ kho tàng tri thức y khoa.
+4.  **Tầm quan trọng của thăm khám tiền phẫu chi tiết**: Chính vì sự biến đổi giải phẫu này, việc thăm khám lâm sàng kỹ lưỡng và đánh giá tiền phẫu bằng các phương tiện chẩn đoán hình ảnh hiện đại (như siêu âm Doppler, chụp CT Angiography với tái tạo 3D) là bắt buộc. Điều này giúp các bạn lập kế hoạch phẫu thuật chi tiết và chính xác cho từng bệnh nhân cụ thể, tránh những bất ngờ không mong muốn trong phòng mổ và tối ưu hóa kết quả.
+5.  **Kỹ năng bóc tách và khả năng thích nghi trong phẫu thuật**: Trong phòng mổ, hãy luôn chuẩn bị tinh thần để thích nghi với những gì bạn thấy. Kỹ năng bóc tách tỉ mỉ, khả năng nhận diện các cấu trúc mạch máu trong điều kiện giải phẫu biến đổi, và ra quyết định linh hoạt là điều cực kỳ quan trọng. Nếu bạn gặp một biến thể, hãy ghi nhớ và thảo luận với đồng nghiệp hoặc người hướng dẫn để tích lũy kinh nghiệm cá nhân.
+Tóm lại, sự khác biệt giữa các nghiên cứu không phải là mâu thuẫn, mà là bằng chứng về sự phong phú của giải phẫu con người. Khả năng tổng hợp, phân tích và ứng dụng thông tin này một cách có tư duy phản biện và linh hoạt là dấu hiệu của một bác sĩ lâm sàng giỏi và an toàn.</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Atlas Giải phẫu Người: Hệ thống mạch máu chi dưới và các biến thể giải phẫu</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Cuốn atlas này cung cấp hình ảnh chi tiết và mô tả toàn diện về giải phẫu hệ thống mạch máu chi dưới, đặc biệt nhấn mạnh các biến thể giải phẫu thường gặp có ý nghĩa lâm sàng. Đây là tài liệu tham khảo thiết yếu cho sinh viên và bác sĩ cần củng cố kiến thức giải phẫu học, giúp họ chuẩn bị tốt hơn cho các tình huống lâm sàng phức tạp.</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Hội thảo chuyên đề: Biến thể giải phẫu mạch máu và ý nghĩa lâm sàng trong phẫu thuật tái tạo</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Hội thảo tập trung thảo luận về các biến thể giải phẫu mạch máu thường gặp, đặc biệt ở các vùng có giá trị trong phẫu thuật tái tạo vạt. Các chuyên gia sẽ chia sẻ kinh nghiệm lâm sàng, phân tích các ca lâm sàng khó và trình bày các cách xử trí để nâng cao an toàn và hiệu quả phẫu thuật, giúp các học viên đối phó tốt hơn với các tình huống không điển hình.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Các số liệu định lượng về số lượng nhánh xuyên và khoảng cách của chúng từ đường giữa sau bắp chân được nêu trong đoạn văn có ý nghĩa như thế nào đối với các bác sĩ trong việc lập kế hoạch phẫu thuật và làm thế nào để họ có thể sử dụng những dữ liệu này một cách hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Các số liệu định lượng về giải phẫu, như số lượng nhánh xuyên và khoảng cách của chúng, cung cấp một cơ sở dữ liệu quan trọng giúp các bác sĩ trẻ và sinh viên y khoa trong việc lập kế hoạch và thực hiện phẫu thuật. Dưới đây là ý nghĩa và cách sử dụng hiệu quả các dữ liệu này:
+**Ý nghĩa của các số liệu:**
+*   **Định hướng ban đầu và kỳ vọng**: Các giá trị trung bình (mean ± SD) cung cấp một 'bản đồ' khái quát về giải phẫu phổ biến. Khi đoạn văn chỉ ra rằng trung bình có 3.35 ± 0.91 nhánh xuyên và khoảng cách trung bình từ nhánh xuyên đến đường giữa sau bắp chân là 1.6 ± 0.96 cm, điều này giúp chúng ta có một kỳ vọng ban đầu về những gì có thể gặp phải trong quá trình phẫu thuật.
+*   **Xác định vùng 'Hotspot'**: Phạm vi khoảng cách từ nhánh xuyên đến đường giữa sau bắp chân (0.39 cm đến 6.7 cm, trung bình 1.6 ± 0.96 cm) giúp xác định khu vực có khả năng tìm thấy các nhánh xuyên cao nhất. Điều này cực kỳ hữu ích khi lập kế hoạch đường mổ hoặc vị trí đặt vạt, tối ưu hóa quá trình bóc tách và giảm thiểu thời gian tìm kiếm.
+*   **Phân tích độ tin cậy của vạt**: Việc 100% động mạch bắp chân trong cho ít nhất 1 nhánh xuyên và số lượng nhánh xuyên đạt đỉnh 5 cho thấy độ tin cậy cao của vạt da động mạch bắp chân trong về mặt cấp máu. Điều này củng cố niềm tin vào việc sử dụng vạt này trong tái tạo.
+**Cách sử dụng hiệu quả các dữ liệu này trong thực hành:**
+1.  **Không coi là tuyệt đối**: Hãy nhớ rằng đây là các giá trị trung bình từ một nghiên cứu cụ thể. Mỗi bệnh nhân là một cá thể với giải phẫu riêng biệt. Các giá trị này chỉ là điểm khởi đầu, không phải là quy tắc cứng nhắc áp dụng cho mọi trường hợp.
+2.  **Kết hợp với chẩn đoán hình ảnh tiền phẫu**: Luôn kết hợp những dữ liệu giải phẫu học này với các phương pháp chẩn đoán hình ảnh tiền phẫu tiên tiến (ví dụ: siêu âm Doppler màu, chụp CT Angiography có tái tạo 3D). Mục tiêu là tạo ra một 'bản đồ cá nhân' chính xác và chi tiết nhất cho ca phẫu thuật của từng bệnh nhân, giúp định vị chính xác các nhánh xuyên và đánh giá chất lượng của chúng.
+3.  **Huấn luyện thị giác và cảm giác**: Trong quá trình bóc tách trên xác hoặc trong phòng mổ (dưới sự giám sát), hãy cố gắng liên hệ những gì bạn thấy với các số liệu này. Dần dần, bạn sẽ phát triển khả năng 'cảm nhận' và dự đoán được vị trí của các nhánh mạch, cải thiện kỹ năng bóc tách.
+4.  **Học hỏi từ kinh nghiệm cá nhân**: Ghi nhận lại các số liệu bạn gặp trong thực tế lâm sàng, đặc biệt là khi có sự khác biệt so với các nghiên cứu. Phân tích những trường hợp này giúp bạn xây dựng bộ dữ liệu kinh nghiệm cá nhân quý giá và nâng cao khả năng giải quyết vấn đề.
+**So sánh định lượng các đặc điểm giải phẫu động mạch bắp chân trong**
+| Đặc điểm giải phẫu | Giá trị từ đoạn văn (Mean ± SD) | Phạm vi (Range) | Ý nghĩa lâm sàng chính |
+| :---------------------- | :----------------------------- | :---------------- | :--------------------------- |
+| Số lượng nhánh xuyên | 3.35 ± 0.91 | Ít nhất 1, đỉnh 5 | Đánh giá độ tin cậy và khả năng sống của vạt |
+| Khoảng cách nhánh xuyên đến đường giữa sau bắp chân | 1.6 ± 0.96 cm | 0.39 cm đến 6.7 cm | Định vị vùng an toàn cho bóc tách và thiết kế vạt |
+| Đường kính ngoài của MSA tại gốc động mạch khoeo | 2.88 ± 0.98 mm | Không rõ | Đánh giá khả năng nối mạch và dự đoán lưu lượng máu cho vạt |
+Việc sử dụng thông tin định lượng một cách có tư duy phản biện, kết hợp chặt chẽ với các công cụ chẩn đoán hiện đại và kinh nghiệm lâm sàng sẽ giúp bạn trở thành một phẫu thuật viên giỏi và an toàn, mang lại kết quả tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa Phẫu thuật Tạo hình và Tái tạo: Các kỹ thuật vạt da tự do và vi phẫu</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Tài liệu học tập toàn diện về các kỹ thuật phẫu thuật vạt da, bao gồm lý thuyết cơ bản, chỉ định, chống chỉ định, và kỹ thuật thực hiện các loại vạt da tự do phổ biến, đặc biệt là các vạt có cuống mạch từ chi dưới. Đây là nguồn tài liệu cần thiết cho các bác sĩ phẫu thuật tạo hình, chấn thương chỉnh hình và vi phẫu muốn nâng cao kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Khóa học nâng cao: Phân tích giải phẫu vi phẫu bằng hình ảnh 3D và lập kế hoạch phẫu thuật</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào việc sử dụng các công nghệ hình ảnh tiên tiến (như CT Angiography 3D, MRI Angiography) để phân tích giải phẫu vi phẫu của các vùng có giá trị trong phẫu thuật tái tạo. Khóa học sẽ hướng dẫn cách đọc và diễn giải hình ảnh, lập kế hoạch phẫu thuật chi tiết và chính xác hơn dựa trên dữ liệu cá nhân hóa của bệnh nhân, giúp bác sĩ hiểu sâu hơn về các cấu trúc mạch máu nhỏ và tăng cường an toàn phẫu thuật.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Một sinh viên y khoa hỏi: 'Thưa bác sĩ, tôi đang tìm hiểu về động mạch bắp chân trong (medial sural artery) và các nhánh xuyên của nó. Bác sĩ có thể giải thích chi tiết về cấu trúc giải phẫu và ý nghĩa lâm sàng của chúng, đặc biệt là cách áp dụng trong thực hành lâm sàng?'</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Chào em, đây là một câu hỏi rất hay và thiết thực trong y khoa! Việc nắm vững giải phẫu động mạch bắp chân trong (Medial Sural Artery - MSA) và các nhánh xuyên của nó là cực kỳ quan trọng, đặc biệt trong phẫu thuật tạo hình và vi phẫu.
+Để giúp em hiểu rõ và áp dụng vào thực hành, chúng ta cùng phân tích nhé:
+*   **Giải phẫu cơ bản của Động mạch bắp chân trong (MSA):**
+    *   MSA thường xuất phát từ động mạch khoeo (popliteal artery) và đi vào cơ bắp chân (gastrocnemius muscle).
+    *   **Đường kính:** Theo nghiên cứu của chúng ta, đường kính trung bình của MSA là 3.01 ± 0.02 mm. Một nghiên cứu khác của Thione [8] chỉ ra đường kính trung bình là 2.2 mm. Sự khác biệt này là một ví dụ về biến thể giải phẫu và cần được ghi nhớ.
+    *   **Cuống mạch chính:** Cuống mạch chính của MSA, từ gốc đến cơ bắp chân, dài trung bình 8.39 mm ± 3.9 mm.
+    *   **Nhánh cấp máu:** Cuống mạch này có thể phân nhánh đa dạng:
+        *   15% trường hợp không có nhánh phụ.
+        *   15% trường hợp có 2 nhánh.
+        *   30% trường hợp có 3 nhánh.
+        *   40% trường hợp có 4 nhánh.
+    Các nhánh này thường là các nhánh bên và nhánh xuyên, cấp máu cho cơ và da vùng bắp chân, tạo nên cơ sở cho các vạt tự do.
+*   **Các nhánh xuyên (Perforators) của MSA:**
+    *   **Số lượng:** Hầu hết các nghiên cứu, bao gồm cả nghiên cứu của chúng ta, cho thấy MSA thường có từ 1 đến 5 nhánh xuyên, với giá trị trung vị là 2 nhánh trên mỗi mẫu vật. Tuy nhiên, một số nghiên cứu khác có thể ghi nhận số lượng nhánh xuyên trung bình cao hơn (ví dụ: Wong [14] là 4.4 nhánh, Hallock [7] là 4 nhánh).
+    *   **Vị trí:** Các nhánh xuyên này thường nằm ở phía trong đường giữa cơ bắp chân và cách đường giữa này khoảng 0.5 – 7 cm về phía gần (nghiên cứu của chúng ta ghi nhận từ 0.39 – 6.7 cm).
+    *   **Khoảng cách từ nếp lằn khoeo:** Khoảng cách từ nhánh xuyên đến nếp lằn khoeo cũng rất biến động, từ 5 cm (Otani [15]) đến 22.5 cm (Wong [14]).
+*   **Ý nghĩa lâm sàng và cách áp dụng trong thực hành:**
+    *   **Phẫu thuật vạt tự do:** Các nhánh xuyên của MSA đóng vai trò then chốt trong phẫu thuật tạo hình, đặc biệt là tạo vạt da bắp chân trong (medial sural artery perforator flap) để che phủ các khuyết hổng ở các vùng khác của cơ thể như đầu, cổ, mặt hoặc các khuyết hổng nhỏ ở chi dưới.
+    *   **Kế hoạch phẫu thuật:**
+        *   **Đánh giá tiền phẫu:** Trước khi phẫu thuật, em cần sử dụng các phương tiện chẩn đoán hình ảnh như siêu âm Doppler hoặc chụp CT angiography để xác định chính xác vị trí, đường đi và đường kính của các nhánh xuyên. Điều này giúp tránh làm tổn thương mạch máu quan trọng và đảm bảo vạt được nuôi dưỡng tốt.
+        *   **Hiểu rõ biến thể:** Luôn nhớ rằng giải phẫu có nhiều biến thể. Đừng bao giờ dựa vào một số liệu đơn lẻ mà hãy chuẩn bị cho các tình huống khác nhau trên bàn mổ. Mỗi bệnh nhân là một cá thể với giải phẫu riêng.
+    *   **Học hỏi kinh nghiệm:**
+        *   Tham gia các khóa học thực hành giải phẫu trên xác để tự mình khám phá cấu trúc mạch máu thực tế.
+        *   Quan sát các ca phẫu thuật tạo hình, đặc biệt là các ca có sử dụng vạt bắp chân trong, để hiểu cách bác sĩ tìm và bóc tách nhánh xuyên.
+        *   Đọc kỹ các tài liệu giải phẫu học và các bài báo nghiên cứu lâm sàng để cập nhật kiến thức dựa trên bằng chứng.
+Tóm lại, việc hiểu sâu về MSA và các nhánh xuyên không chỉ là kiến thức sách vở mà còn là công cụ quan trọng để em trở thành một bác sĩ giỏi và tự tin trong phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Giải phẫu động mạch bắp chân trong và các nhánh xuyên: Ứng dụng trong phẫu thuật tạo hình</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn toàn diện về giải phẫu động mạch bắp chân trong (MSA) và các nhánh xuyên của nó, từ cấu trúc cơ bản đến các biến thể giải phẫu thường gặp. Đặc biệt tập trung vào ý nghĩa lâm sàng trong phẫu thuật vạt tự do, giúp bác sĩ và sinh viên y khoa nắm vững kiến thức cần thiết cho thực hành.</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Phẫu thuật vạt tự do dựa trên nhánh xuyên: Từ giải phẫu đến kỹ thuật lâm sàng</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các kỹ thuật phẫu thuật vạt tự do sử dụng các nhánh xuyên, bao gồm vạt bắp chân trong (medial sural artery perforator flap). Học viên sẽ được trang bị kiến thức giải phẫu nâng cao, kỹ năng tiền phẫu, kỹ thuật vi phẫu và quản lý biến chứng, qua đó nâng cao năng lực thực hành trong phẫu thuật tạo hình.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Thưa bác sĩ, tôi thấy trong các nghiên cứu có nhiều số liệu khác nhau về các nhánh xuyên của động mạch bắp chân trong. Bác sĩ có thể tổng hợp và phân tích sự đa dạng này, đồng thời cho lời khuyên về cách tiếp cận khi đánh giá giải phẫu mạch máu trên lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Chào em, câu hỏi của em rất sâu sắc và chạm đến một khía cạnh quan trọng của y học: sự đa dạng giải phẫu và cách chúng ta xử lý các dữ liệu nghiên cứu khác nhau. Sự biến thiên về số lượng và vị trí các nhánh xuyên của động mạch bắp chân trong (MSA) là điều thường thấy, và việc hiểu rõ điều này giúp các em lên kế hoạch lâm sàng hiệu quả hơn.
+Dưới đây là một tổng hợp và phân tích từ các nghiên cứu khác nhau, cùng với lời khuyên cho thực hành:
+*   **Tổng hợp dữ liệu về các nhánh xuyên của MSA từ các nghiên cứu:**
+| Tác giả | Số mẫu | Số nhánh xuyên (n) | Trung bình (Mean) | Vị trí gốc từ nếp khoeo (cm) | Khoảng cách từ nhánh xuyên đến đường giữa bắp chân sau (cm) |
+|---|---|---|---|---|---|
+| Cavadas [6] | 10 | 1 – 4 | 2.2 | 8.5 – 19 | - |
+| Hallock [7] | 10 | 2 – 7 | 4.6 ± 1.8 | - | - |
+| Thione [8] | 20 | 38/20 | 1.9 | 7 – 18 | - |
+| Shim [9] | 40 | - | - | Nằm dọc đường nối điểm giữa nếp khoeo đến mắt cá chân trong | 9.68 ± 1.08 (nhánh đầu tiên dưới nếp khoeo) |
+| Okamoto [10] | 44 | 1 – 5 | - | 5 – 17.5 | 1.5 – 4.5 |
+| Torres [11] | 12 | 2 – 4 | 2.9 | 10.7 – 14 | - |
+| Kao [12] | 26 | 1 – 5 | 2.7 | 6 – 18 | 0.5 – 7 |
+| Altaf [13] | 20 | 1 – 5 | 2 | 10.2 – 15.9 | - |
+| Wong [14] | 10 | 3 – 8 | 4.4 | 6 – 22.5 | 2 ± 0.5 |
+| Otani [15] | 47 | 1 – 5 | 2.4 | 5 – 17.5 | 0.5 – 4.5 |
+| **Nghiên cứu của chúng ta** | **62** | **1 – 5** | **3.35** | **5.1 – 18.73** | **0.39 – 6.7** |
+*   **Phân tích sự đa dạng và ý nghĩa:**
+    *   **Số lượng nhánh xuyên:** Hầu hết các nghiên cứu đều ghi nhận MSA có từ 1 đến 5 nhánh xuyên, với giá trị trung vị thường là 2 nhánh (nghiên cứu của chúng ta). Tuy nhiên, một số nghiên cứu như của Wong [14] và Hallock [7] lại có số nhánh trung bình cao hơn (4.4 và 4 nhánh), thậm chí có thể lên tới 8 nhánh. Sự khác biệt này có thể do định nghĩa nhánh xuyên, phương pháp bóc tách, hay yếu tố chủng tộc.
+    *   **Vị trí:**
+        *   **Khoảng cách từ nếp lằn khoeo:** Biến động rất lớn, từ 5 cm (Otani [15]) đến 22.5 cm (Wong [14]). Điều này cực kỳ quan trọng khi xác định điểm vào mạch máu để lấy vạt.
+        *   **Vị trí so với đường giữa bắp chân sau:** Các nhánh xuyên thường nằm ở mặt trong hoặc gần đường giữa của cơ bắp chân. Nghiên cứu của chúng ta chỉ ra khoảng cách từ 0.39 – 6.7 cm so với đường giữa, tương tự các nghiên cứu khác.
+    *   **Lý do cho sự đa dạng:** Các yếu tố như chủng tộc, kích thước mẫu, và phương pháp nghiên cứu (kỹ thuật bóc tách, dụng cụ đo lường) đều có thể đóng góp vào sự biến thiên này.
+*   **Lời khuyên về cách tiếp cận khi đánh giá giải phẫu mạch máu trên lâm sàng:**
+    1.  **Đừng dựa vào 'một con số vàng':** Thay vì cố gắng ghi nhớ một con số duy nhất, hãy hiểu về khoảng biến thiên và các yếu tố ảnh hưởng. Giải phẫu không phải lúc nào cũng 'sách giáo khoa'.
+    2.  **Sử dụng chẩn đoán hình ảnh tiền phẫu:**
+        *   **Siêu âm Doppler:** Là phương pháp không xâm lấn, hiệu quả để xác định vị trí, đường kính và hướng đi của các nhánh xuyên. Đây là lựa chọn đầu tay trong nhiều trường hợp.
+        *   **Chụp CT Angiography:** Cung cấp hình ảnh 3D chi tiết về hệ thống mạch máu, rất hữu ích cho các trường hợp phức tạp hoặc khi cần lập kế hoạch phẫu thuật vi phẫu phức tạp.
+    3.  **Tích cực học hỏi từ kinh nghiệm:**
+        *   Quan sát các ca phẫu thuật, đặc biệt là quá trình bóc tách và xác định nhánh xuyên.
+        *   Thảo luận với các bác sĩ phẫu thuật có kinh nghiệm để học hỏi các mẹo và thủ thuật lâm sàng.
+        *   Tham gia các buổi thực hành giải phẫu trên xác để củng cố kiến thức thực tế.
+    4.  **Luôn chuẩn bị cho biến thể:** Trên bàn mổ, hãy luôn sẵn sàng cho việc tìm thấy giải phẫu khác với những gì bạn mong đợi. Kỹ năng thích nghi và tìm kiếm nhánh xuyên thay thế là rất quan trọng.
+Việc nắm bắt sự đa dạng giải phẫu và biết cách sử dụng các công cụ chẩn đoán là chìa khóa để em trở thành một bác sĩ giỏi và tự tin.</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Biến thể giải phẫu động mạch bắp chân trong: Tổng quan và ý nghĩa lâm sàng</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng hợp các nghiên cứu về biến thể giải phẫu của động mạch bắp chân trong và các nhánh xuyên của nó, cung cấp cái nhìn sâu sắc về sự đa dạng trong cấu trúc mạch máu. Đây là nguồn tham khảo quý giá giúp các nhà lâm sàng và nghiên cứu hiểu rõ hơn về các yếu tố cần cân nhắc trong chẩn đoán và điều trị.</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Đánh giá hình ảnh mạch máu trong phẫu thuật tạo hình: Siêu âm Doppler và CT Angiography</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Khóa học CME này trang bị cho bác sĩ kiến thức và kỹ năng thực hành về các phương pháp chẩn đoán hình ảnh mạch máu tiên tiến như siêu âm Doppler và CT Angiography, đặc biệt trong bối cảnh phẫu thuật tạo hình. Học viên sẽ học cách đọc và phân tích hình ảnh để lập kế hoạch phẫu thuật chính xác, giảm thiểu rủi ro và tối ưu hóa kết quả lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Khi đọc các bài báo nghiên cứu về động mạch bắp chân trong, em thấy có sự khác biệt giữa các kết quả, ví dụ về đường kính hay số lượng nhánh. Bác sĩ có thể hướng dẫn em cách phân tích và đối chiếu các kết quả nghiên cứu này để rút ra kết luận đáng tin cậy cho thực hành không?</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Chào em, đây là một kỹ năng tư duy phản biện cực kỳ quan trọng đối với bất kỳ bác sĩ lâm sàng hoặc nhà nghiên cứu nào. Việc nhận thấy và phân tích sự khác biệt giữa các kết quả nghiên cứu là bước đầu tiên để em trở thành một người đọc tài liệu khoa học thông thái và áp dụng bằng chứng vào thực hành một cách hiệu quả.
+Chúng ta cùng xem xét cách tiếp cận vấn đề này nhé:
+1.  **Nhận diện và phân tích sự khác biệt cụ thể:**
+    *   **Đường kính động mạch:** Em đã đúng khi nhận thấy sự khác biệt. Ví dụ, trong bài nghiên cứu của chúng ta, đường kính MSA được ghi nhận là 3.01 ± 0.02 mm. Tuy nhiên, bài báo còn nhắc đến một con số gây khó hiểu là "smaller than our study’s result (12mm)" khi so sánh với Thione (2.2mm). Con số 12mm này *có khả năng là một lỗi đánh máy* hoặc ám chỉ một loại mạch máu lớn hơn nhiều, vì đường kính trung bình của MSA thường trong khoảng 2-4mm. Khi gặp những số liệu có vẻ bất thường như vậy, hãy đặt câu hỏi và tìm kiếm sự giải thích trong toàn bộ bài báo hoặc các tài liệu khác. Đây là một ví dụ tuyệt vời về tầm quan trọng của việc đánh giá phê bình dữ liệu.
+    *   **Số lượng nhánh xuyên:** Như chúng ta đã thảo luận, số lượng nhánh xuyên trung bình có thể dao động từ 2 (nghiên cứu của chúng ta) đến 4.4 (Wong) hoặc 4.6 (Hallock). Sự khác biệt này là có thật và cần được lý giải.
+    *   **Khoảng cách và vị trí:** Các chỉ số như khoảng cách từ nếp khoeo hay vị trí so với đường giữa bắp chân cũng có sự dao động đáng kể giữa các nghiên cứu. Điều này đòi hỏi sự linh hoạt trong đánh giá lâm sàng.
+2.  **Lý do đằng sau sự khác biệt (Các yếu tố cần xem xét):**
+    *   **Phương pháp nghiên cứu:**
+        *   **Cách định nghĩa:** Mỗi nghiên cứu có thể có tiêu chí khác nhau để định nghĩa "nhánh xuyên" (ví dụ: đường kính tối thiểu, có xuyên qua cân cơ hay không).
+        *   **Kỹ thuật bóc tách:** Kỹ năng của người bóc tách, mức độ chi tiết khi tìm kiếm các nhánh nhỏ có thể ảnh hưởng đến số lượng ghi nhận.
+        *   **Dụng cụ và phương pháp đo lường:** Độ chính xác của thiết bị, phương pháp đo đường kính (ảnh chụp, đo trực tiếp trên xác, siêu âm) cũng tạo ra sai số.
+    *   **Đặc điểm mẫu nghiên cứu:**
+        *   **Số lượng mẫu (N):** Nghiên cứu với N nhỏ dễ bị sai số ngẫu nhiên hơn và không đại diện đủ cho quần thể.
+        *   **Chủng tộc/Dân tộc:** Giải phẫu mạch máu có thể có sự khác biệt rõ rệt giữa các nhóm dân số. Bài báo nhắc đến nghiên cứu của Thione trên 20 chi dưới của 10 tử thi người da trắng (Caucasian cadavers), trong khi "our study" không nói rõ đối tượng.
+        *   **Độ tuổi, giới tính, tình trạng bệnh lý:** Mặc dù ít ảnh hưởng trực tiếp đến giải phẫu cơ bản, nhưng vẫn có thể là yếu tố nhiễu.
+    *   **Mục tiêu nghiên cứu:** Mỗi nghiên cứu có thể tập trung vào các khía cạnh khác nhau của giải phẫu, dẫn đến việc thu thập và nhấn mạnh các dữ liệu khác nhau.
+3.  **Cách rút ra kết luận đáng tin cậy cho thực hành:**
+    *   **Đánh giá phê bình tài liệu (Critical Appraisal):**
+        *   **Xem xét phương pháp luận:** Liệu thiết kế nghiên cứu có phù hợp không? Kỹ thuật đo lường có đáng tin cậy không? Cỡ mẫu có đủ lớn và được chọn ngẫu nhiên không?
+        *   **Đánh giá sự thiên vị (Bias):** Có yếu tố nào có thể làm sai lệch kết quả không (ví dụ: thiên vị chọn mẫu, thiên vị đo lường)?
+        *   **Tính khái quát hóa (Generalizability):** Kết quả của nghiên cứu này có thể áp dụng cho quần thể bệnh nhân của em không (ví dụ: khác biệt về chủng tộc, độ tuổi)?
+    *   **Tìm kiếm sự đồng thuận:** Nếu nhiều nghiên cứu độc lập với phương pháp đáng tin cậy đưa ra kết quả tương tự, điều đó tăng cường độ tin cậy của thông tin. Đây là cơ sở của y học thực chứng.
+    *   **Hiểu về khoảng biến thiên:** Thay vì tìm kiếm một "con số đúng tuyệt đối", hãy hiểu rằng có một khoảng biến thiên bình thường trong giải phẫu. Điều này giúp em linh hoạt hơn trên lâm sàng và chuẩn bị cho các tình huống không lường trước.
+    *   **Kết hợp với kinh nghiệm lâm sàng:** Luôn đối chiếu kiến thức sách vở với những gì em quan sát được trên bệnh nhân hoặc trong phòng mổ. Kinh nghiệm thực tế là vô giá và giúp em nhận biết các biến thể.
+    *   **Sử dụng chẩn đoán hình ảnh:** Khi có nghi ngờ hoặc để lập kế hoạch phẫu thuật chi tiết, đừng ngần ngại sử dụng siêu âm Doppler hoặc CT angiography để có thông tin giải phẫu cá thể hóa cho từng bệnh nhân. Điều này giảm thiểu rủi ro và tăng cường độ chính xác.
+Kỹ năng phân tích và tổng hợp thông tin từ nhiều nguồn là nền tảng của y học thực chứng. Hãy tiếp tục đặt câu hỏi và không ngừng học hỏi nhé!</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Phân tích và đối chiếu kết quả nghiên cứu giải phẫu mạch máu: Hướng dẫn cho lâm sàng</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn chi tiết về cách phân tích, đánh giá phê bình và đối chiếu các kết quả từ nhiều nghiên cứu giải phẫu mạch máu khác nhau. Nó giúp người đọc nhận diện sự khác biệt, hiểu nguyên nhân và áp dụng thông tin một cách có chọn lọc vào thực hành y khoa, đặc biệt hữu ích cho sinh viên y khoa và bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Nghiên cứu khoa học trong y học: Từ thiết kế đến ứng dụng lâm sàng</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Khóa học CME này nhằm trang bị cho các chuyên gia y tế những kiến thức và kỹ năng cần thiết để thiết kế, thực hiện và đánh giá các nghiên cứu khoa học trong lĩnh vực y học. Nội dung bao gồm phương pháp nghiên cứu, phân tích thống kê, đạo đức nghiên cứu và cách chuyển đổi kết quả nghiên cứu thành bằng chứng lâm sàng hữu ích, giúp nâng cao năng lực nghiên cứu và thực hành dựa trên bằng chứng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Thầy/Cô có thể giải thích chi tiết về tầm quan trọng của các mạch xuyên (perforators) và vai trò của vạt có mạch xuyên động mạch bắp chân trong (medial sural artery perforator flap) trong phẫu thuật tái tạo?</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Chào em, việc hiểu rõ về các mạch xuyên và ứng dụng của chúng trong phẫu thuật tái tạo là rất quan trọng đối với mỗi bác sĩ phẫu thuật tạo hình. Các mạch xuyên (perforators) là những nhánh mạch máu nhỏ xuyên qua cơ hoặc vách liên cơ để cấp máu cho da và mô dưới da. Chúng đóng vai trò cốt yếu trong việc duy trì sự sống của vạt da mà không cần lấy kèm khối cơ lớn, từ đó giảm thiểu di chứng chức năng cho vùng cho. 
+**Vạt có mạch xuyên động mạch bắp chân trong (Medial Sural Artery Perforator Flap - MSAP flap)** là một ví dụ điển hình cho kỹ thuật này. Dựa trên nghiên cứu, động mạch bắp chân trong (medial sural artery) luôn xuất phát từ động mạch khoeo (popliteal artery) và cấp máu cho cơ bụng chân trong (medial gastrocnemius muscle). Đặc biệt, vùng da phủ trên cơ này được nuôi dưỡng bởi một trong năm nhánh xuyên của động mạch bắp chân trong. 
+**Vai trò và ứng dụng lâm sàng của MSAP flap:**
+*   **Nguồn cung cấp máu đáng tin cậy**: Nhờ sự xuất phát liên tục của động mạch bắp chân trong và các nhánh xuyên, MSAP flap có nguồn cung cấp máu ổn định, giúp tăng tỷ lệ thành công của vạt. 
+*   **Đa năng trong tái tạo**: MSAP flap có thể được sử dụng dưới dạng vạt có cuống (pedicled) hoặc vạt đảo (island), cũng như vạt cơ da (musculocutaneous) hoặc vạt da (skin flap), tùy thuộc vào nhu cầu lâm sàng. 
+*   **Giảm thiểu tổn thương vùng cho**: Bằng cách chỉ lấy da và mô dưới da kèm theo mạch xuyên mà không lấy cơ, kỹ thuật này giúp bảo tồn chức năng cơ bụng chân, giảm đau và rút ngắn thời gian hồi phục cho bệnh nhân. 
+*   **Ứng dụng rộng rãi**: Đặc biệt hiệu quả trong việc tái tạo các khuyết hổng vùng đầu và cổ, nơi cần các vạt da mỏng, mềm mại và có màu sắc tương đồng với vùng nhận. 
+Để thành thạo kỹ thuật này, em cần nắm vững giải phẫu chi dưới, đặc biệt là hệ thống động mạch bắp chân, và thực hành vi phẫu tỉ mỉ. Đây là một kỹ thuật đòi hỏi sự chính xác cao nhưng mang lại lợi ích lớn cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Giải phẫu học ứng dụng của các vạt mạch xuyên trong phẫu thuật tạo hình và tái tạo.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một cái nhìn toàn diện về giải phẫu mạch máu của các vạt có mạch xuyên phổ biến, bao gồm Medial Sural Artery Perforator Flap, với các hình ảnh minh họa chi tiết và hướng dẫn kỹ thuật bóc tách, rất hữu ích cho sinh viên y khoa và bác sĩ trẻ học tập chuyên sâu.</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Khóa học nâng cao về Vạt có mạch xuyên: Nguyên lý, Kỹ thuật và Thực hành Lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Khóa học CME này được thiết kế để trang bị cho các bác sĩ phẫu thuật kiến thức chuyên sâu về giải phẫu, các bước kỹ thuật chi tiết, quản lý biến chứng và các mẹo lâm sàng trong sử dụng vạt có mạch xuyên. Đây là cơ hội tuyệt vời để nâng cao kỹ năng vi phẫu và tái tạo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hướng dẫn và hỗ trợ nâng cao kiến thức lâm sàng và nghiên cứu cho sinh viên và bác sĩ chuyên ngành.</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Trong phẫu thuật tái tạo, sự lựa chọn giữa vạt cơ da (myocutaneous flap) và vạt có mạch xuyên (perforator flap) là rất quan trọng. Thầy/Cô có thể phân tích sự khác biệt cơ bản, ưu nhược điểm và đưa ra khuyến nghị khi nào nên sử dụng loại vạt nào, đặc biệt là vạt có mạch xuyên động mạch bắp chân trong?</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Đây là một câu hỏi rất hay và thiết yếu trong thực hành phẫu thuật tái tạo, em ạ. Việc lựa chọn loại vạt phù hợp là yếu tố then chốt quyết định thành công của ca phẫu thuật và chất lượng cuộc sống của bệnh nhân sau này. 
+Chúng ta hãy cùng so sánh vạt cơ da và vạt có mạch xuyên, cụ thể với vạt động mạch bắp chân trong:
+| Đặc điểm | Vạt Cơ Da (Myocutaneous Flap) | Vạt Có Mạch Xuyên (Perforator Flap) |
+| :------- | :--------------------------- | :---------------------------------- |
+| **Thành phần** | Bao gồm da, mô dưới da và một phần hoặc toàn bộ cơ bên dưới. | Bao gồm da, mô dưới da, và mạch máu nuôi dưỡng (mạch xuyên) mà không lấy khối cơ chính. |
+| **Vùng cho** | Tổn thương lớn hơn do lấy một phần cơ, có thể ảnh hưởng chức năng. | Tổn thương ít hơn, bảo tồn chức năng cơ vùng cho. |
+| **Khối lượng vạt** | Thường dày và cồng kềnh, phù hợp cho các khuyết hổng lớn, cần khối lượng. | Mỏng hơn, mềm mại hơn, lý tưởng cho tái tạo vùng cần thẩm mỹ cao hoặc không gian hẹp. |
+| **Kỹ thuật mổ** | Đơn giản hơn về mặt vi phẫu, nhưng đòi hỏi bóc tách khối cơ. | Đòi hỏi kỹ thuật vi phẫu tỉ mỉ để bóc tách mạch xuyên, phức tạp hơn. |
+| **Phục hồi vùng cho** | Có thể chậm hơn, nguy cơ yếu cơ hoặc thoát vị. | Nhanh hơn, ít di chứng chức năng. |
+| **Ví dụ** | Vạt cơ thẳng bụng (TRAM flap), Vạt cơ rộng lưng (Latissimus dorsi flap) | Vạt động mạch bắp chân trong (MSAP flap), Vạt động mạch thượng vị dưới sâu (DIEP flap) |
+**Khuyến nghị khi lựa chọn vạt:**
+*   **Vạt Cơ Da**: Em nên cân nhắc khi khuyết hổng lớn, cần khối lượng mô đáng kể để lấp đầy, hoặc khi cần mô cơ để phục hồi chức năng (ví dụ, phục hồi động lực). Tuy nhiên, cần cân nhắc kỹ nguy cơ mất chức năng hoặc biến dạng vùng cho. 
+*   **Vạt Có Mạch Xuyên**: Đây là lựa chọn ưu việt khi em muốn giảm thiểu tổn thương vùng cho, bảo tồn chức năng cơ, và đặc biệt là khi cần một vạt mỏng, mềm mại, dẻo dai với kết quả thẩm mỹ cao. Vạt MSAP rất phù hợp cho tái tạo các khuyết hổng phức tạp ở vùng đầu mặt cổ hoặc các vùng chi cần độ linh hoạt cao.
+Việc thành thạo cả hai loại vạt này sẽ giúp em có nhiều lựa chọn hơn để tối ưu hóa kết quả cho bệnh nhân. Hãy luôn bắt đầu từ việc đánh giá kỹ lưỡng khuyết hổng, nhu cầu của bệnh nhân và đặc điểm của từng loại vạt để đưa ra quyết định sáng suốt nhất.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa Phẫu thuật Tạo hình và Tái tạo lâm sàng (Clinical Plastic and Reconstructive Surgery).</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một hướng dẫn toàn diện về các kỹ thuật vạt khác nhau, bao gồm cơ sở lý thuyết, chỉ định, chống chỉ định và kỹ thuật phẫu thuật, giúp bác sĩ lâm sàng đưa ra quyết định điều trị tối ưu.</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Hội thảo chuyên đề: Tối ưu hóa lựa chọn vạt trong phẫu thuật tái tạo phức tạp.</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Hội thảo này tập trung vào các tình huống lâm sàng khó khăn, thảo luận về ưu và nhược điểm của các loại vạt khác nhau thông qua các ca lâm sàng thực tế, giúp bác sĩ phát triển khả năng tư duy phản biện và ra quyết định trong lựa chọn vạt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin chuyên sâu và tài liệu học thuật cho sinh viên và bác sĩ chuyên ngành để nâng cao kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ, làm thế nào để em có thể tiếp cận và nghiên cứu sâu rộng về giải phẫu mạch máu, đặc biệt là các nhánh xuyên của động mạch bắp chân trong, để nâng cao kỹ năng trong phẫu thuật vạt tự do và vạt có mạch xuyên?</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Để trở thành một phẫu thuật viên tái tạo giỏi, việc nắm vững giải phẫu mạch máu là nền tảng không thể thiếu, đặc biệt là với các vạt tự do và vạt có mạch xuyên, như vạt động mạch bắp chân trong (MSAP flap). Em có thể tiếp cận theo các bước sau:
+1.  **Nghiên cứu tài liệu cơ bản và nâng cao**: 
+    *   Bắt đầu với các sách giải phẫu kinh điển như Gray's Anatomy hoặc Netter's Atlas of Human Anatomy để có cái nhìn tổng quan. 
+    *   Sau đó, chuyển sang các tài liệu chuyên sâu về giải phẫu phẫu thuật của các vạt, ví dụ như các tài liệu mà đoạn văn trên đã liệt kê (Mathes S.J, Nahai F.; Cormack G. C.,LambertyB. G. H.; Taylor G. I.,Palmer J. H. về angiosomes). 
+    *   Đặc biệt chú ý đến các bài nghiên cứu về động mạch bắp chân trong như của Cavadas P. C. et al., Hallock G. G., Thione A. et al., hay Okamoto H. et al. để hiểu rõ về sự phân bố và biến thể của các nhánh xuyên. Việc đọc các nghiên cứu gốc sẽ giúp em có cái nhìn sâu sắc và cập nhật nhất. 
+2.  **Thực hành trên xác**: Đây là phương pháp hiệu quả nhất để 'mắt thấy tay làm'. Tham gia các khóa học giải phẫu trên xác hoặc các buổi thực hành bóc tách vạt. Mục tiêu là xác định rõ động mạch bắp chân trong, theo dõi đường đi của nó và tìm kiếm các nhánh xuyên cấp máu cho da. Việc lặp lại nhiều lần sẽ giúp em phát triển cảm giác và kỹ năng bóc tách tinh vi. 
+3.  **Tham gia các khóa học vi phẫu**: Kỹ năng vi phẫu là xương sống của phẫu thuật vạt tự do. Các khóa học này sẽ dạy em cách xử lý các mạch máu nhỏ, nối mạch và các kỹ thuật phục hồi mô dưới kính hiển vi. 
+4.  **Học hỏi từ các chuyên gia và cố vấn**: Tìm kiếm một người cố vấn có kinh nghiệm trong lĩnh vực phẫu thuật vạt có mạch xuyên. Học hỏi từ kinh nghiệm lâm sàng của họ, quan sát họ trong phòng mổ và tham gia vào quá trình lập kế hoạch phẫu thuật. 
+5.  **Thực hành lâm sàng dần dần**: Bắt đầu với các ca phẫu thuật đơn giản hơn dưới sự giám sát, sau đó dần dần tiến tới các ca phức tạp hơn khi kỹ năng và sự tự tin của em tăng lên. Luôn luôn ghi nhớ rằng sự an toàn của bệnh nhân là ưu tiên hàng đầu. 
+Bằng cách kết hợp nghiên cứu lý thuyết, thực hành trên xác và rèn luyện kỹ năng vi phẫu, cùng với sự hướng dẫn của những người đi trước, em sẽ xây dựng được nền tảng vững chắc để thành công trong lĩnh vực phẫu thuật tái tạo.</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Các Nguyên lý của Phẫu thuật Tạo hình và Tái tạo (Grabb and Smith's Plastic Surgery) – Ấn bản mới nhất.</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Đây là một trong những giáo trình kinh điển nhất trong phẫu thuật tạo hình, cung cấp kiến thức nền tảng vững chắc về giải phẫu, sinh lý, các nguyên tắc cơ bản và kỹ thuật tiên tiến trong phẫu thuật vạt, rất cần thiết cho việc tự học và tham khảo chuyên sâu của sinh viên và bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Vi phẫu trong Phẫu thuật Tái tạo: Từ Cơ bản đến Nâng cao.</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp đào tạo thực hành chuyên sâu về kỹ năng vi phẫu trên mô hình và động vật sống, bao gồm kỹ thuật nối mạch máu, thần kinh, và các ứng dụng trong phẫu thuật vạt tự do. Đây là khóa học bắt buộc để phát triển năng lực thực hành phẫu thuật tái tạo hiện đại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Dựa vào nghiên cứu về mô hình bệnh tật tại Mò Rai, xin thầy/cô cho biết tầm quan trọng của việc thu thập dữ liệu về tỷ lệ mắc bệnh theo độ tuổi và các bệnh cấp tính, mạn tính phổ biến trong công tác y tế cộng đồng, đặc biệt tại các vùng khó khăn như vùng biên giới?</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Em/Bạn thân mến, việc nắm rõ mô hình bệnh tật tại một cộng đồng, đặc biệt là các vùng khó khăn như Mò Rai, có ý nghĩa chiến lược cực kỳ quan trọng đối với các bác sĩ, cán bộ y tế cộng đồng. Nó không chỉ là số liệu mà còn là 'kim chỉ nam' cho việc lập kế hoạch và triển khai các can thiệp y tế hiệu quả:
+*   **Hiểu rõ gánh nặng bệnh tật:** Dữ liệu về tỷ lệ mắc bệnh theo độ tuổi (ví dụ: trẻ em dưới 10 tuổi mắc bệnh nhiều nhất – 37.65% như ở Mò Rai) giúp chúng ta xác định nhóm đối tượng ưu tiên cần được chăm sóc và can thiệp đặc biệt. Điều này định hướng các chương trình y tế dự phòng và điều trị tập trung.
+*   **Phân bổ nguồn lực hợp lý:** Khi biết các bệnh cấp tính (hội chứng cúm loại 3 - 27.59%, viêm phổi-phế quản - 17.24%, tiêu chảy - 10.34%) và mạn tính (bệnh dạ dày - 8.228%, rối loạn da liễu - 8.9%, thoái hóa khớp - 5.48%) phổ biến, chúng ta có thể tập trung nguồn lực (thuốc men, trang thiết bị, nhân lực y tế) vào những vấn đề sức khỏe ưu tiên hàng đầu, tránh lãng phí và tăng hiệu quả sử dụng.
+*   **Phòng ngừa và kiểm soát dịch bệnh:** Với các bệnh truyền nhiễm còn chiếm tỷ lệ cao nhưng đã giảm rõ rệt nhờ chương trình tiêm chủng mở rộng (EPI), việc giám sát chặt chẽ và duy trì tiêm chủng là cực kỳ quan trọng. Ngược lại, sự gia tăng của các bệnh không lây nhiễm (khối u, bệnh về cơ quan tạo máu, rối loạn nội tiết chuyển hóa) báo động về sự thay đổi mô hình bệnh tật và cần các chiến lược phòng ngừa, điều trị mới, nhấn mạnh vai trò của y tế dự phòng và sàng lọc.
+*   **Nâng cao năng lực y tế cơ sở:** Việc hiểu biết sâu sắc về mô hình bệnh tật giúp các trạm y tế xã, phường chủ động hơn trong công tác khám chữa bệnh, tư vấn sức khỏe và giáo dục sức khỏe cho người dân, thích ứng với đặc thù của cộng đồng mình.
+*   **Định hướng nghiên cứu và chính sách:** Dữ liệu này cũng là cơ sở để các nghiên cứu sâu hơn về nguyên nhân, yếu tố nguy cơ và hiệu quả của các biện pháp can thiệp, từ đó góp phần vào việc hoạch định các chính sách y tế phù hợp với từng vùng miền. Đây là nền tảng vững chắc cho bất kỳ bác sĩ hay nhà quản lý y tế nào muốn thực sự tạo ra tác động tích cực đến sức khỏe cộng đồng.</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Dịch tễ học thực địa và ứng dụng trong y tế công cộng</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Cuốn sách hướng dẫn chi tiết về các phương pháp nghiên cứu dịch tễ học, thu thập và phân tích dữ liệu mô hình bệnh tật. Đây là tài liệu cốt lõi cho sinh viên y khoa và bác sĩ trẻ muốn nắm vững cách đánh giá sức khỏe cộng đồng và lập kế hoạch y tế hiệu quả.</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Khóa học Quản lý Y tế Cộng đồng và Dịch tễ học Thực hành</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp kiến thức và kỹ năng cần thiết cho các bác sĩ, cán bộ y tế trong việc khảo sát, phân tích và ứng dụng dữ liệu dịch tễ học vào thực tiễn quản lý và can thiệp y tế cộng đồng, đặc biệt phù hợp cho công tác tại vùng khó khăn, giúp nâng cao năng lực hoạch định chính sách và triển khai chương trình y tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Với các bệnh cấp tính phổ biến tại Mò Rai như hội chứng cúm loại 3, viêm phổi-phế quản và tiêu chảy, sinh viên y khoa cần lưu ý những điểm gì trong chẩn đoán và điều trị ban đầu để đảm bảo hiệu quả và tuân thủ phác đồ của Bộ Y tế?</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận các trường hợp bệnh cấp tính phổ biến như hội chứng cúm, viêm phổi-phế quản và tiêu chảy, các em sinh viên y khoa và bác sĩ trẻ cần ghi nhớ những nguyên tắc vàng sau đây để đảm bảo chẩn đoán chính xác và điều trị hiệu quả, an toàn, tuân thủ theo chuẩn của Bộ Y tế và ICD-10:
+*   **Hội chứng cúm (ICD-10 J10-J11):**
+    *   **Chẩn đoán:** Tập trung vào các triệu chứng điển hình như sốt, ho, đau họng, chảy nước mũi, đau mỏi cơ, đau đầu. Phân biệt với cảm lạnh thông thường và các bệnh hô hấp khác là quan trọng. Lấy tiền sử dịch tễ (tiếp xúc với người bệnh, vùng dịch) để tăng độ nhạy chẩn đoán.
+    *   **Điều trị:** Chủ yếu là điều trị triệu chứng (hạ sốt, giảm đau bằng Paracetamol; bù nước, điện giải; nghỉ ngơi đầy đủ). Tuyệt đối không lạm dụng kháng sinh vì cúm do virus. Chỉ xem xét chỉ định thuốc kháng virus (Oseltamivir) trong các trường hợp nặng, có yếu tố nguy cơ cao hoặc theo khuyến cáo trong đợt dịch cúm.
+*   **Viêm phổi - Phế quản (ICD-10 J18.x cho viêm phổi không đặc hiệu, J20.x cho viêm phế quản cấp):**
+    *   **Chẩn đoán:** Khai thác kỹ tiền sử (khởi phát, diễn tiến), triệu chứng (ho, khó thở, sốt, đau ngực), thăm khám lâm sàng (nghe phổi có ran nổ, ran rít, ran ngáy, dấu hiệu suy hô hấp). Cần phân biệt viêm phổi với viêm phế quản bằng cách đánh giá mức độ nặng, đặc biệt ở trẻ em (thở nhanh, rút lõm lồng ngực là dấu hiệu cảnh báo viêm phổi nặng).
+    *   **Điều trị:** Kháng sinh là chủ đạo đối với viêm phổi do vi khuẩn. Lựa chọn kháng sinh theo kinh nghiệm ban đầu dựa trên phác đồ của Bộ Y tế và tình hình kháng thuốc tại địa phương. Hỗ trợ hô hấp, bù dịch, hạ sốt. Hướng dẫn người nhà theo dõi các dấu hiệu nặng để nhập viện kịp thời là rất quan trọng để tránh biến chứng.
+*   **Tiêu chảy (ICD-10 A09 - Tiêu chảy và viêm dạ dày ruột có thể do nhiễm khuẩn hoặc không rõ nguyên nhân):**
+    *   **Chẩn đoán:** Xác định tần suất, tính chất phân, các triệu chứng đi kèm (sốt, nôn, đau bụng). Đánh giá mức độ mất nước là ưu tiên hàng đầu (khát nước, mắt trũng, nếp véo da mất chậm) để quyết định phương pháp bù dịch.
+    *   **Điều trị:**
+        *   **Bù nước và điện giải:** Đây là then chốt! Sử dụng Oresol theo hướng dẫn của WHO và Bộ Y tế. Hướng dẫn cụ thể cách pha và uống cho người bệnh và người nhà.
+        *   **Kẽm:** Bổ sung kẽm cho trẻ em theo liều khuyến cáo để giảm độ nặng và thời gian tiêu chảy, đồng thời giảm nguy cơ tái phát.
+        *   **Không khuyến khích:** Không khuyến khích sử dụng thuốc cầm tiêu chảy cho trẻ em. Kháng sinh chỉ dùng khi có bằng chứng nhiễm khuẩn xâm lấn (phân có máu, hội chứng lỵ) hoặc theo chỉ định rõ ràng của bác sĩ.
+**Tóm lại:** Luôn nhớ tiếp cận bệnh nhân một cách toàn diện, từ khai thác tiền sử, khám lâm sàng đến chỉ định cận lâm sàng hợp lý. Tuân thủ phác đồ của Bộ Y tế và sử dụng mã ICD-10 chính xác để ghi nhận bệnh tật, góp phần vào hệ thống dữ liệu y tế quốc gia và công tác quản lý dịch bệnh hiệu quả.</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị một số bệnh thường gặp ở tuyến y tế cơ sở của Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Đây là tài liệu cực kỳ quan trọng của Bộ Y tế Việt Nam, cung cấp phác đồ chẩn đoán và điều trị chuẩn cho các bệnh cấp tính phổ biến. Nó là cẩm nang thiết yếu cho bác sĩ tuyến cơ sở và sinh viên y khoa để thực hành lâm sàng an toàn và hiệu quả.</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Quản lý lâm sàng các bệnh truyền nhiễm hô hấp và tiêu hóa cấp tính</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào cập nhật các phác đồ chẩn đoán, điều trị và phòng ngừa các bệnh truyền nhiễm cấp tính phổ biến. Nó giúp bác sĩ nâng cao kỹ năng lâm sàng, nắm vững các khuyến cáo mới nhất và áp dụng phân loại ICD-10 một cách chính xác trong công tác khám chữa bệnh hàng ngày.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Nghiên cứu tại Mò Rai chỉ ra rằng các bệnh mạn tính như bệnh dạ dày, rối loạn da liễu và thoái hóa khớp chiếm tỷ lệ cao. Thầy/cô có thể hướng dẫn các bác sĩ trẻ về cách tiếp cận đa chiều trong quản lý các bệnh này, bao gồm cả phòng ngừa, điều trị và giáo dục bệnh nhân, đặc biệt trong bối cảnh nguồn lực hạn chế ở vùng sâu vùng xa?</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Chào bạn, đối với các bệnh mạn tính, việc quản lý không chỉ dừng lại ở điều trị triệu chứng mà cần một chiến lược toàn diện, bao gồm phòng ngừa, điều trị dài hạn, giáo dục bệnh nhân và thích ứng với điều kiện địa phương. Dưới đây là một số hướng dẫn quan trọng cho các bác sĩ trẻ khi tiếp cận các bệnh mạn tính phổ biến như tại Mò Rai:
+1.  **Bệnh dạ dày (ICD-10 K25-K29 – loét dạ dày, viêm dạ dày):**
+    *   **Phòng ngừa:** Tập trung vào thay đổi lối sống: ăn uống đúng giờ, tránh thức ăn cay nóng, bia rượu, cà phê; giảm căng thẳng (stress). Tư vấn tầm soát và điều trị vi khuẩn Helicobacter pylori (HP) nếu có chỉ định và khả năng. Giáo dục về tác hại của việc lạm dụng thuốc giảm đau kháng viêm (NSAIDs).
+    *   **Điều trị:** Sử dụng các thuốc giảm tiết acid (PPIs, H2RA) theo phác đồ của Bộ Y tế. Đặc biệt lưu ý việc tuân thủ điều trị của bệnh nhân vì bệnh mạn tính đòi hỏi sự kiên trì.
+    *   **Giáo dục:** Giải thích rõ ràng về nguyên nhân, cơ chế bệnh và tầm quan trọng của việc tuân thủ chế độ ăn uống, sinh hoạt lành mạnh để kiểm soát bệnh.
+2.  **Rối loạn da liễu (ICD-10 L00-L99 – các bệnh của da và mô dưới da):**
+    *   **Phòng ngừa:** Vệ sinh cá nhân sạch sẽ, tránh tiếp xúc các yếu tố gây dị ứng (bụi, hóa chất), giữ ẩm da đầy đủ. Ở vùng sâu vùng xa, cần chú ý các bệnh da do vệ sinh kém hoặc do ký sinh trùng, côn trùng đốt.
+    *   **Điều trị:** Tùy thuộc vào chẩn đoán cụ thể (nấm da, chàm, viêm da tiếp xúc, ghẻ...). Sử dụng thuốc bôi ngoài da (kem, mỡ), thuốc uống (kháng histamin, kháng sinh, kháng nấm) phù hợp. Hướng dẫn cách dùng thuốc đúng cách và thời gian điều trị.
+    *   **Giáo dục:** Hướng dẫn cách chăm sóc da đúng cách, nhận biết dấu hiệu bệnh nặng lên hoặc tái phát, tránh gãi để hạn chế bội nhiễm, đặc biệt là ở trẻ em.
+3.  **Thoái hóa khớp (ICD-10 M15-M19 – thoái hóa khớp, thoái hóa đa khớp):**
+    *   **Phòng ngừa:** Duy trì cân nặng hợp lý để giảm áp lực lên khớp. Tập thể dục thường xuyên nhưng tránh quá sức và các bài tập gây tổn thương khớp. Hạn chế các tư thế ngồi, đứng, làm việc gây áp lực kéo dài lên khớp.
+    *   **Điều trị:** Giảm đau (Paracetamol, NSAIDs liều thấp và ngắn ngày nếu cần), vật lý trị liệu, các bài tập phục hồi chức năng để tăng cường cơ quanh khớp. Có thể bổ sung các chất hỗ trợ khớp (glucosamine, chondroitin sulfate – cần cân nhắc hiệu quả thực sự). Trong trường hợp nặng và có chỉ định, có thể cân nhắc tiêm nội khớp hoặc chuyển tuyến phẫu thuật.
+    *   **Giáo dục:** Hướng dẫn các bài tập phục hồi chức năng, cách giảm tải cho khớp trong sinh hoạt hàng ngày, tầm quan trọng của việc duy trì vận động nhẹ nhàng để duy trì sự linh hoạt của khớp.
+**Bảng Tổng hợp Phương pháp tiếp cận Bệnh mạn tính:**
+| Bệnh Mạn tính | Phòng ngừa chủ yếu | Điều trị ban đầu/cơ bản | Giáo dục Bệnh nhân trọng tâm | ICD-10 (Ví dụ) |
+|:--------------|:--------------------|:-------------------------|:-----------------------------|:-----------------|
+| **Bệnh dạ dày** | Thay đổi lối sống, kiểm soát stress, tránh HP | PPIs/H2RA, tuân thủ thuốc | Chế độ ăn uống, sinh hoạt, kiêng cữ | K25 (Loét), K29 (Viêm) |
+| **Rối loạn da liễu** | Vệ sinh cá nhân, tránh yếu tố kích ứng | Thuốc bôi/uống tại chỗ, kháng nấm/kháng sinh | Chăm sóc da, phát hiện dấu hiệu nặng/tái phát | L20 (Chàm), B35 (Nấm da) |
+| **Thoái hóa khớp** | Kiểm soát cân nặng, vận động hợp lý, tránh chấn thương | Giảm đau, vật lý trị liệu, bảo vệ khớp | Bài tập phục hồi chức năng, giảm tải khớp | M17 (Thoái hóa khớp gối) |
+Trong điều kiện nguồn lực hạn chế, hãy ưu tiên giáo dục sức khỏe, khuyến khích bệnh nhân tự quản lý bệnh tại nhà và sử dụng các nguồn lực cộng đồng sẵn có (ví dụ: cây thuốc Nam đã được kiểm chứng, tập dưỡng sinh). Nắm vững phân loại ICD-10 sẽ giúp việc thống kê, theo dõi và đánh giá hiệu quả điều trị được chuẩn hóa, từ đó góp phần vào việc hoạch định chính sách y tế bền vững cho vùng khó khăn.</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành lâm sàng quản lý bệnh không lây nhiễm của WHO</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Tài liệu toàn cầu cung cấp các chiến lược và hướng dẫn toàn diện để quản lý hiệu quả các bệnh không lây nhiễm (NCDs), bao gồm cả các khuyến nghị về phòng ngừa và điều trị trong bối cảnh nguồn lực hạn chế. Đây là nguồn tham khảo quý giá cho bác sĩ và nhà quản lý y tế.</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Quản lý toàn diện bệnh mạn tính và chăm sóc ban đầu</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về cách tiếp cận tổng thể trong chẩn đoán, điều trị và quản lý lâu dài các bệnh mạn tính tại tuyến y tế cơ sở. Khóa học nhấn mạnh vai trò của y tế dự phòng, giáo dục bệnh nhân và chăm sóc liên tục, giúp bác sĩ phát triển kỹ năng tư vấn và quản lý ca bệnh phức tạp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và phương pháp nghiên cứu dịch tễ học.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Khi tiến hành một nghiên cứu về mô hình bệnh tật trong cộng đồng như nghiên cứu tại Mo Rai, Sa Thầy, Kon Tum, sinh viên y khoa và bác sĩ cần lưu ý những điểm cốt lõi nào về định nghĩa bệnh cấp tính, mãn tính và cách phân loại theo ICD-10 để đảm bảo tính chính xác và ứng dụng lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ trẻ và sinh viên y khoa, để thực hiện một nghiên cứu dịch tễ học cộng đồng hiệu quả và đảm bảo tính ứng dụng cao, việc hiểu rõ các định nghĩa và phương pháp phân loại là cực kỳ quan trọng. Dưới đây là những điểm các bạn cần lưu ý:
+*   **Hiểu rõ về Nghiên cứu Cắt ngang (Cross-sectional study):**
+    *   **Mục đích:** Xác định tỷ lệ hiện mắc (prevalence) của bệnh hoặc tình trạng sức khỏe tại một thời điểm cụ thể trong một quần thể. Như nghiên cứu tại Mo Rai, nó giúp chúng ta có cái nhìn tổng quan về 'bức tranh' bệnh tật của cộng đồng đó.
+    *   **Ứng dụng lâm sàng:** Dữ liệu từ nghiên cứu cắt ngang giúp định hướng các chương trình sàng lọc, dự phòng và can thiệp y tế công cộng phù hợp với gánh nặng bệnh tật hiện tại của cộng đồng.
+    *   **Hạn chế:** Không thể xác định mối quan hệ nhân quả (cause-effect relationship) vì nó chỉ ghi nhận tình trạng tại một thời điểm.
+*   **Định nghĩa chuẩn về Bệnh cấp tính và Bệnh mãn tính:**
+    *   **Bệnh cấp tính:** Các bạn cần nhấn mạnh đặc điểm 'khởi phát nhanh' và 'thời gian kéo dài ngắn'. Quan trọng là phải hiểu rằng bệnh cấp tính có thể tự khỏi, nhưng cũng có thể diễn biến thành mãn tính hoặc gây biến chứng nguy hiểm. Việc nhận diện sớm giúp điều trị kịp thời và ngăn ngừa hậu quả xấu.
+    *   **Bệnh mãn tính:** Định nghĩa 'kéo dài hơn 3 tháng' là tiêu chí chính, bất kể đã được chẩn đoán bởi chuyên gia y tế hay chưa. Điều này rất quan trọng trong y tế cộng đồng vì nhiều bệnh mãn tính (như tăng huyết áp, tiểu đường) thường không có triệu chứng rõ ràng ở giai đoạn đầu. Việc xác định các nhóm bệnh mãn tính như tuần hoàn, thần kinh, hô hấp, chuyển hóa giúp chúng ta tập trung nguồn lực vào các chương trình quản lý bệnh không lây nhiễm.
+*   **Tầm quan trọng của Phân loại theo ICD-10:**
+    *   **Chuẩn hóa:** ICD-10 (International Classification of Diseases, 10th Revision) là một công cụ quốc tế để phân loại bệnh tật và vấn đề sức khỏe. Việc sử dụng ICD-10 giúp chuẩn hóa việc ghi nhận, mã hóa và báo cáo bệnh tật, đảm bảo tính nhất quán và khả năng so sánh dữ liệu giữa các nghiên cứu, khu vực và quốc gia.
+    *   **Ứng dụng trong thống kê và giám sát:** Dữ liệu được mã hóa theo ICD-10 là cơ sở để Bộ Y tế, WHO và các tổ chức y tế khác đánh giá tình hình sức khỏe cộng đồng, xác định ưu tiên y tế công cộng và phân bổ nguồn lực.
+    *   **Trong lâm sàng:** Mặc dù ICD-10 chủ yếu dùng cho thống kê, việc nắm vững các chương (như 21 chương trong ICD-10) giúp các bạn hiểu cấu trúc phân loại, từ đó định vị chẩn đoán và tìm kiếm thông tin liên quan dễ dàng hơn. Ví dụ, việc biết các bệnh về hệ tuần hoàn nằm trong một chương riêng giúp bác sĩ tra cứu và mã hóa bệnh tim mạch chính xác.
+Tóm lại, việc nắm vững các định nghĩa và công cụ phân loại này không chỉ giúp các bạn thực hiện nghiên cứu khoa học một cách chính xác mà còn nâng cao năng lực chẩn đoán, quản lý bệnh nhân và đóng góp vào công tác y tế cộng đồng hiệu quả.</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Nghiên cứu Dịch tễ học Cơ bản và Ứng dụng Lâm sàng</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức nền tảng về các loại hình nghiên cứu dịch tễ học, đặc biệt là nghiên cứu cắt ngang, cùng với các định nghĩa chuẩn về bệnh cấp tính và mãn tính, và ứng dụng của phân loại ICD-10 trong công tác y tế cộng đồng và lâm sàng theo chuẩn của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Phương pháp Nghiên cứu Dịch tễ học và Phân loại Bệnh tật theo ICD-10</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ trang bị cho học viên kiến thức chuyên sâu về thiết kế nghiên cứu dịch tễ học, cách xác định và phân loại bệnh dựa trên tiêu chuẩn ICD-10, cũng như kỹ năng phân tích và diễn giải dữ liệu bệnh tật để đưa ra các khuyến nghị y tế công cộng hiệu quả và đáng tin cậy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và thống kê y học.</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Trong nghiên cứu tại Mo Rai, Sa Thầy, Kon Tum, công thức tính cỡ mẫu và ý nghĩa của các tham số như Z(1-α/2), p, d, DE được áp dụng như thế nào? Sinh viên y khoa và bác sĩ cần hiểu gì về các yếu tố này để đánh giá độ tin cậy của một nghiên cứu và ứng dụng vào thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, việc hiểu rõ cách tính toán và ý nghĩa của cỡ mẫu là nền tảng để đánh giá chất lượng của một nghiên cứu và đảm bảo rằng kết quả có thể được ngoại suy một cách đáng tin cậy. Công thức được sử dụng trong nghiên cứu tại Mo Rai là một ví dụ điển hình cho việc tính cỡ mẫu trong nghiên cứu cắt ngang để ước tính tỷ lệ.
+**1. Công thức tính cỡ mẫu:**
+Công thức được dùng là: `𝒏= 𝒁₁−𝜶𝟐⁄𝟐𝒙𝒑(𝟏−𝒑) / 𝒅𝟐 x DE`
+**2. Giải thích các tham số quan trọng:**
+Các tham số trong công thức đều có ý nghĩa khoa học sâu sắc, ảnh hưởng trực tiếp đến kích thước mẫu cần thiết và độ tin cậy của nghiên cứu:
+| Tham số      | Tên đầy đủ                                   | Giá trị trong nghiên cứu Mo Rai | Ý nghĩa và tầm quan trọng                                                                                                                                                                                                                                                                                                            |
+| :----------- | :------------------------------------------ | :--------------------------- | :---------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- |
+| `n`          | Cỡ mẫu                                      | 299 người (ban đầu)          | Số lượng đối tượng tối thiểu cần thiết để nghiên cứu có đủ khả năng phát hiện được hiệu ứng mong muốn hoặc ước tính một tham số với độ chính xác và độ tin cậy nhất định. Cỡ mẫu quá nhỏ có thể dẫn đến kết quả không đại diện hoặc không có ý nghĩa thống kê.                                                                  |
+| `Z(1-α/2)`   | Giá trị Z tương ứng với độ tin cậy 95%      | 1.96                         | Đây là hệ số chuẩn hóa từ phân phối chuẩn, xác định khoảng tin cậy của nghiên cứu. Với độ tin cậy 95%, có nghĩa là nếu lặp lại nghiên cứu 100 lần, 95 lần kết quả ước tính sẽ nằm trong khoảng tin cậy này. Các bạn cần hiểu rằng độ tin cậy càng cao (ví dụ 99%), giá trị Z càng lớn và cỡ mẫu càng tăng.                         |
+| `p`          | Tỷ lệ ước tính của vấn đề nghiên cứu        | 0.265 (26.5%)                | Tỷ lệ người mắc bệnh hoặc có đặc điểm quan tâm trong quần thể. Giá trị này thường được lấy từ các nghiên cứu trước đây hoặc ước tính sơ bộ. Việc chọn `p` gần 0.5 sẽ cho cỡ mẫu lớn nhất (trường hợp xấu nhất), đảm bảo nghiên cứu có đủ quyền lực thống kê ngay cả khi tỷ lệ thực tế khác biệt.                                      |
+| `q`          | `1 - p`                                     | 0.735                        | Bổ sung cho `p`.                                                                                                                                                                                                                                                                                                                    |
+| `d`          | Sai số tuyệt đối cho phép                   | 0.05 (5%)                    | Mức độ sai số tối đa chấp nhận được giữa kết quả ước tính từ mẫu và giá trị thực của quần thể. `d` càng nhỏ (muốn độ chính xác càng cao), cỡ mẫu càng lớn. Việc chọn `d` đòi hỏi sự cân bằng giữa độ chính xác mong muốn và nguồn lực nghiên cứu.                                                                      |
+| `DE`         | Hiệu ứng thiết kế (Design Effect)           | 2                            | Tham số này được sử dụng khi nghiên cứu có thiết kế phức tạp hơn lấy mẫu ngẫu nhiên đơn giản (ví dụ: lấy mẫu cụm, lấy mẫu phân tầng). `DE` phản ánh mức độ tăng cỡ mẫu cần thiết để duy trì độ chính xác tương đương với lấy mẫu ngẫu nhiên đơn giản. Giá trị `DE` thường &gt; 1 (trong nghiên cứu này là 2), có nghĩa là cần tăng cỡ mẫu để bù đắp cho sự đồng nhất trong các cụm lấy mẫu. |
+**3. Ứng dụng vào thực hành lâm sàng và đánh giá nghiên cứu:**
+*   **Đánh giá nghiên cứu:** Khi đọc các bài báo khoa học, hãy luôn kiểm tra phần phương pháp luận để xem cỡ mẫu đã được tính toán như thế nào. Một nghiên cứu với cỡ mẫu không phù hợp có thể đưa ra kết luận sai lệch, ảnh hưởng đến việc đưa ra các khuyến nghị y tế.
+*   **Thiết kế can thiệp:** Nếu các bạn muốn triển khai một chương trình can thiệp sức khỏe cộng đồng, việc tính toán cỡ mẫu chính xác sẽ giúp xác định số lượng người cần tham gia để chương trình đạt được hiệu quả có ý nghĩa thống kê.
+*   **Ra quyết định lâm sàng dựa trên bằng chứng:** Hiểu biết về cỡ mẫu và độ tin cậy giúp bác sĩ nhận định liệu một kết quả nghiên cứu có đủ vững chắc để áp dụng vào chẩn đoán và điều trị cho bệnh nhân của mình hay không.
+Việc tăng cỡ mẫu từ 299 người lên 598 hộ (thực tế 600 hộ) bằng cách nhân với DE=2 cho thấy nghiên cứu đã tính đến thiết kế lấy mẫu cụm (ví dụ: hộ gia đình là đơn vị lấy mẫu) để đảm bảo tính đại diện cho cộng đồng. Đây là một ví dụ điển hình về việc tối ưu hóa thiết kế nghiên cứu để đạt được mục tiêu khoa học.</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Sổ tay Thực hành Thống kê Y học và Tính toán Cỡ mẫu</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Tài liệu hướng dẫn chi tiết về các khái niệm thống kê cơ bản trong y học, bao gồm cách tính toán cỡ mẫu cho các loại hình nghiên cứu khác nhau, ý nghĩa của độ tin cậy, sai số và hiệu ứng thiết kế trong việc đảm bảo tính đại diện và tin cậy của dữ liệu nghiên cứu, rất cần thiết cho sinh viên y khoa và bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Thống kê Y học Ứng dụng và Đánh giá Nghiên cứu Lâm sàng</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào việc áp dụng các phương pháp thống kê trong nghiên cứu y học, cách diễn giải kết quả, và đánh giá tính hợp lệ của các nghiên cứu lâm sàng. Học viên sẽ được hướng dẫn cách tính cỡ mẫu, hiểu các tham số thống kê và sử dụng chúng để ra quyết định lâm sàng dựa trên bằng chứng một cách khoa học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và y tế công cộng.</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Dựa trên nghiên cứu về mô hình bệnh tật ở Mo Rai, Sa Thầy, Kon Tum, việc phân loại bệnh theo ICD-10 (đặc biệt là các bệnh hệ tuần hoàn, thần kinh, cơ xương khớp, hô hấp, mắt, nội tiết chuyển hóa) có ý nghĩa gì đối với việc lập kế hoạch can thiệp y tế cộng đồng và quản lý bệnh nhân trong thực hành lâm sàng cho bác sĩ trẻ?</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Kính chào các bạn đồng nghiệp trẻ, việc phân loại bệnh tật theo ICD-10 không chỉ là một công cụ thống kê mà còn là nền tảng quan trọng cho việc lập kế hoạch y tế công cộng và quản lý bệnh nhân hiệu quả. Từ nghiên cứu tại Mo Rai, chúng ta thấy rõ tầm quan trọng của việc xác định các nhóm bệnh mãn tính phổ biến theo ICD-10:
+*   **Tầm quan trọng đối với Y tế Cộng đồng:**
+    *   **Giám sát và Gánh nặng bệnh tật:** Việc thống kê các bệnh theo chương ICD-10 (như bệnh hệ tuần hoàn, thần kinh, hô hấp, nội tiết chuyển hóa) giúp Bộ Y tế và các cơ quan y tế địa phương (như Kon Tum) hiểu rõ gánh nặng bệnh tật của cộng đồng. Ví dụ, nếu tỷ lệ bệnh hệ tuần hoàn cao, đây là tín hiệu cần tăng cường các chương trình phòng chống tim mạch.
+    *   **Phân bổ nguồn lực:** Dữ liệu ICD-10 giúp xác định các ưu tiên và phân bổ nguồn lực y tế (nhân lực, thuốc men, trang thiết bị) một cách hợp lý. Vùng có tỷ lệ bệnh hô hấp cao cần tăng cường các phòng khám chuyên khoa hô hấp, trang bị máy thở, v.v.
+    *   **Thiết kế chương trình can thiệp:** Khi biết được các bệnh mãn tính phổ biến, các bạn có thể tham gia vào việc xây dựng các chương trình sàng lọc, dự phòng và quản lý bệnh không lây nhiễm (NCDs) hiệu quả. Ví dụ, chương trình tầm soát tiểu đường (bệnh nội tiết chuyển hóa), khám mắt định kỳ cho người cao tuổi.
+*   **Ý nghĩa trong Thực hành Lâm sàng (dành cho bác sĩ trẻ):**
+    *   **Chẩn đoán chính xác và ghi nhận hồ sơ:** Nắm vững cấu trúc ICD-10 giúp các bạn mã hóa bệnh án một cách chính xác, đảm bảo tính thống nhất trong thông tin y tế. Điều này rất quan trọng cho việc theo dõi tiến triển bệnh, đánh giá hiệu quả điều trị và các nghiên cứu tiếp theo.
+    *   **Phân loại và Quản lý Bệnh nhân:**
+        *   **Bệnh hệ tuần hoàn:** Các mã ICD-10 liên quan đến tăng huyết áp, bệnh tim thiếu máu cục bộ, tai biến mạch máu não giúp bác sĩ trẻ tiếp cận phác đồ điều trị chuẩn, đánh giá nguy cơ và tư vấn phòng ngừa cho bệnh nhân.
+        *   **Bệnh hệ thần kinh:** Các bệnh như động kinh, Parkinson, các rối loạn lo âu, trầm cảm đều có mã ICD-10 riêng, giúp phân loại rõ ràng để quản lý và giới thiệu đến chuyên khoa phù hợp.
+        *   **Bệnh cơ xương khớp:** Viêm khớp, thoái hóa khớp là những bệnh mãn tính phổ biến, việc phân loại giúp quản lý đau, vật lý trị liệu và theo dõi lâu dài.
+        *   **Bệnh hô hấp:** Hen suyễn, COPD là ví dụ điển hình, đòi hỏi quản lý dài hạn, mã hóa ICD-10 giúp theo dõi đợt cấp, kiểm soát bệnh.
+        *   **Bệnh mắt:** Đục thủy tinh thể, glôcôm là nguyên nhân chính gây mù lòa, việc mã hóa giúp xác định gánh nặng bệnh tật mắt trong cộng đồng để có chương trình sàng lọc và phẫu thuật phù hợp.
+        *   **Bệnh nội tiết chuyển hóa:** Tiểu đường, rối loạn lipid máu, bệnh tuyến giáp cần được chẩn đoán sớm và quản lý chặt chẽ theo ICD-10 để phòng ngừa biến chứng.
+    *   **Truyền thông và Tư vấn:** Khi hiểu rõ các nhóm bệnh phổ biến trong cộng đồng của mình, các bạn sẽ có thể tư vấn hiệu quả hơn cho bệnh nhân về các yếu tố nguy cơ, lối sống lành mạnh và tầm quan trọng của việc tuân thủ điều trị để phòng ngừa bệnh mãn tính.
+Tóm lại, ICD-10 là một công cụ mạnh mẽ, không chỉ là danh mục mã số mà còn là cầu nối giữa dịch tễ học, y tế công cộng và thực hành lâm sàng, giúp các bạn trở thành những bác sĩ toàn diện hơn trong việc chăm sóc sức khỏe cộng đồng.</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Phân loại Bệnh tật Quốc tế ICD-10 của WHO: Hướng dẫn Sử dụng và Mã hóa Bệnh lý</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Đây là tài liệu tham khảo chính thức về hệ thống phân loại bệnh tật quốc tế ICD-10, cung cấp mã hóa chi tiết cho hàng ngàn bệnh lý, giúp chuẩn hóa việc chẩn đoán, thống kê và giám sát bệnh tật trên toàn cầu và tại Việt Nam theo chuẩn Bộ Y tế. Rất cần thiết cho việc học tập và thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Ứng dụng ICD-10 trong Chẩn đoán và Quản lý Bệnh mạn tính</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức chuyên sâu về cách sử dụng ICD-10 một cách hiệu quả trong thực hành lâm sàng hàng ngày, đặc biệt là trong chẩn đoán và quản lý các bệnh mạn tính phổ biến như bệnh tim mạch, tiểu đường, hô hấp. Học viên sẽ được thực hành mã hóa và hiểu ý nghĩa của việc phân loại này trong công tác hồ sơ bệnh án và thống kê y tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên phân loại bệnh tật theo ICD-10, đặc biệt trong bối cảnh các bệnh lý hô hấp chiếm tỷ lệ cao.</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Dựa trên dữ liệu về phân loại bệnh tật theo ICD-10, chúng ta thấy bệnh lý hô hấp (Chương X) chiếm tỷ lệ mắc cao nhất. Sinh viên y khoa và bác sĩ trẻ cần lưu ý điều gì trong chẩn đoán, quản lý, và dự phòng các bệnh lý hô hấp để nâng cao hiệu quả điều trị và sức khỏe cộng đồng?</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Việc dữ liệu cho thấy bệnh lý hô hấp (Chương X - Diseases of the respiratory system) chiếm tỷ lệ nhập viện cao nhất (5159 trường hợp) là một thông tin cực kỳ quan trọng đối với các bác sĩ trẻ và sinh viên y khoa. Đây là lĩnh vực các em cần đặc biệt chú trọng để phục vụ cộng đồng hiệu quả. Để cải thiện chất lượng chẩn đoán, quản lý và dự phòng, hãy tập trung vào các điểm sau:
+*   **Nắm vững sinh lý bệnh và giải phẫu:** Hiểu rõ cấu trúc và chức năng của hệ hô hấp, các cơ chế gây bệnh (nhiễm trùng, dị ứng, môi trường) là nền tảng để chẩn đoán chính xác.
+*   **Kỹ năng lâm sàng:**
+    *   **Khai thác bệnh sử:** Luôn hỏi kỹ về các triệu chứng (ho, khạc đờm, khó thở, đau ngực, sốt), tiền sử dị ứng, hút thuốc, tiếp xúc với chất ô nhiễm, tiền sử bệnh lý hô hấp mạn tính (hen, COPD) và tiêm chủng.
+    *   **Thăm khám thực thể:** Thành thạo các kỹ năng nghe, gõ, sờ, nhìn lồng ngực để phát hiện ran, rít, thở khò khè, dấu hiệu suy hô hấp, co kéo cơ hô hấp phụ.
+*   **Chẩn đoán cận lâm sàng hợp lý:**
+    *   **X-quang ngực:** Là xét nghiệm hình ảnh cơ bản nhưng cực kỳ giá trị trong chẩn đoán viêm phổi, lao phổi, tràn dịch/tràn khí màng phổi.
+    *   **Xét nghiệm đờm:** Cấy đờm, nhuộm Gram, AFB (vi khuẩn lao) giúp xác định tác nhân gây bệnh và định hướng kháng sinh.
+    *   **Chức năng hô hấp (phế dung ký):** Quan trọng trong chẩn đoán và theo dõi các bệnh lý tắc nghẽn (COPD, hen suyễn) và hạn chế.
+    *   **Xét nghiệm PCR:** Đặc biệt trong các đợt dịch cúm, COVID-19 để xác định tác nhân virus.
+*   **Nguyên tắc điều trị:**
+    *   **Phân biệt nhiễm trùng hô hấp trên và dưới:** Hạn chế tối đa việc lạm dụng kháng sinh cho các bệnh lý hô hấp trên do virus.
+    *   **Sử dụng kháng sinh hợp lý:** Dựa trên hướng dẫn của Bộ Y tế, kháng sinh đồ và tình hình dịch tễ tại địa phương. Luôn cân nhắc giữa lợi ích và nguy cơ kháng kháng sinh.
+    *   **Điều trị triệu chứng và hỗ trợ:** Hạ sốt, giảm đau, bù nước, thở oxy khi cần thiết.
+    *   **Quản lý bệnh mạn tính:** Đối với hen, COPD, cần tư vấn bệnh nhân tuân thủ điều trị duy trì, kỹ thuật sử dụng bình xịt định liều, tránh các yếu tố kích thích.
+*   **Dự phòng và Y tế công cộng:**
+    *   **Tiêm chủng:** Tư vấn tiêm vắc-xin cúm hàng năm, vắc-xin phế cầu cho nhóm nguy cơ.
+    *   **Tư vấn bỏ thuốc lá, tránh khói thuốc thụ động.**
+    *   **Vệ sinh cá nhân, môi trường sống:** Rửa tay thường xuyên, đeo khẩu trang khi tiếp xúc với người bệnh.
+*   **Mã hóa ICD-10:** Việc mã hóa chính xác bệnh lý hô hấp theo ICD-10 là cần thiết cho thống kê y tế, nghiên cứu dịch tễ và quản lý sức khỏe cộng đồng. Các em cần thực hành mã hóa để phân biệt các dạng viêm phổi (viêm phổi cộng đồng, viêm phổi bệnh viện), các loại viêm phế quản, hen suyễn, COPD để có cái nhìn tổng thể về gánh nặng bệnh tật.</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, tư vấn lâm sàng và học thuật cho sinh viên y khoa và bác sĩ trẻ về các bệnh lý cấp tính phổ biến trong thực hành y tế, đặc biệt là các bệnh về hô hấp và tiêu hóa.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Các bệnh cấp tính như hội chứng cúm, viêm phế quản, viêm phổi và tiêu chảy có tỷ lệ mắc cao trong cả hai nhóm đối tượng nghiên cứu (người dân bản địa và công nhân). Với vai trò là bác sĩ trẻ hoặc sinh viên y khoa, chúng ta cần tiếp cận và quản lý những tình trạng này như thế nào tại tuyến y tế cơ sở để đảm bảo hiệu quả điều trị và hạn chế biến chứng, đồng thời mã hóa bệnh tật đúng theo ICD-10?</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Các bệnh cấp tính như hội chứng cúm (flu syndrome), viêm phế quản, viêm phổi và tiêu chảy (diarrhea) chiếm tỷ lệ đáng kể trong các bệnh lý được điều trị, với tiêu chảy là 10.34%, hội chứng cúm 27.59% và viêm phế quản/viêm phổi 17.24%. Với vai trò là bác sĩ trẻ hoặc sinh viên y khoa, việc nắm vững cách tiếp cận và quản lý ban đầu những tình trạng này tại tuyến y tế cơ sở là cực kỳ quan trọng để đảm bảo hiệu quả điều trị, phòng ngừa biến chứng và giảm tải cho tuyến trên.
+Các điểm chính cần lưu ý khi tiếp cận các bệnh lý cấp tính này bao gồm:
+*   **Đánh giá toàn diện**: Luôn bắt đầu với việc khai thác bệnh sử chi tiết (thời gian khởi phát, triệu chứng đi kèm, các yếu tố nguy cơ) và thăm khám lâm sàng kỹ lưỡng để xác định mức độ nặng của bệnh.
+*   **Chẩn đoán phân biệt**: Đặc biệt quan trọng với các bệnh lý hô hấp. Phân biệt nhiễm virus thông thường với nhiễm khuẩn (cúm vs. viêm phổi vi khuẩn) để đưa ra quyết định sử dụng kháng sinh hợp lý.
+*   **Hỗ trợ điều trị**: Đối với các bệnh lý hô hấp do virus, tập trung vào điều trị triệu chứng (hạ sốt, giảm ho, bù nước) và nghỉ ngơi đầy đủ. Với tiêu chảy, ưu tiên hàng đầu là bù nước và điện giải bằng Oresol.
+*   **Chỉ định kháng sinh hợp lý**: Tránh lạm dụng kháng sinh, đặc biệt trong các trường hợp nghi ngờ do virus. Chỉ sử dụng kháng sinh khi có bằng chứng hoặc nghi ngờ cao nhiễm khuẩn, tuân thủ phác đồ của Bộ Y tế.
+*   **Phát hiện dấu hiệu nguy hiểm**: Nhận diện sớm các dấu hiệu cảnh báo cần chuyển tuyến (ví dụ: khó thở tăng dần, lơ mơ, co giật, mất nước nặng, sốt cao liên tục không đáp ứng với thuốc hạ sốt, hoặc tiêu chảy mất nước độ C).
+*   **Tư vấn bệnh nhân và người nhà**: Hướng dẫn rõ ràng về cách chăm sóc tại nhà, dấu hiệu cần tái khám, chế độ ăn uống và phòng ngừa lây nhiễm (ví dụ: rửa tay, vệ sinh thực phẩm).
+Dưới đây là một số hướng dẫn cụ thể và mã ICD-10 tham khảo cho các bệnh lý phổ biến:
+| Bệnh lý            | Triệu chứng chính                     | Tiếp cận ban đầu cho Bác sĩ trẻ / Sinh viên Y khoa                                                                                                   | Mã ICD-10 (Tham khảo)                                   |
+| :---------------- | :------------------------------------ | :--------------------------------------------------------------------------------------------------------------------------------------------------- | :------------------------------------------------------ |
+| Hội chứng cúm      | Sốt, đau đầu, đau cơ, ho, sổ mũi      | *   Nghỉ ngơi, bù nước, hạ sốt (Paracetamol).&lt;br&gt;*   Theo dõi dấu hiệu nặng (khó thở, đau tức ngực).&lt;br&gt;*   Tư vấn phòng ngừa lây nhiễm (đeo khẩu trang, rửa tay).                              | J10-J11 (Cúm do virus xác định/không xác định)          |
+| Viêm phế quản cấp  | Ho, đờm, khó thở nhẹ, có thể sốt       | *   Hỗ trợ triệu chứng, long đờm.&lt;br&gt;*   Kháng sinh nếu nghi ngờ nhiễm khuẩn (ví dụ: đờm vàng xanh, sốt kéo dài trên 3 ngày, CRP tăng cao).&lt;br&gt;*   Đánh giá chức năng hô hấp, tránh yếu tố kích thích. | J20 (Viêm phế quản cấp)                                 |
+| Viêm phổi          | Sốt, ho, khó thở, đau ngực             | *   Xác định mức độ nặng (theo thang điểm CURB-65 hoặc CRB-65).&lt;br&gt;*   Kháng sinh theo phác đồ hướng dẫn của Bộ Y tế.&lt;br&gt;*   Oxy liệu pháp nếu cần.&lt;br&gt;*   Theo dõi sát, chuyển tuyến nếu có dấu hiệu nặng. | J12-J18 (Viêm phổi theo tác nhân hoặc không xác định)   |
+| Tiêu chảy cấp      | Tiêu phân lỏng/nước, có thể nôn, sốt   | *   Bù nước điện giải bằng Oresol là ưu tiên hàng đầu.&lt;br&gt;*   Kẽm cho trẻ em theo khuyến cáo.&lt;br&gt;*   Kháng sinh nếu có chỉ định rõ ràng (tiêu chảy do lỵ, tả, ETEC).&lt;br&gt;*   Vệ sinh ăn uống, rửa tay sạch sẽ. | A09 (Tiêu chảy và viêm dạ dày ruột có nguồn gốc nhiễm trùng được nghi ngờ) |
+Việc áp dụng linh hoạt kiến thức ICD-10 trong việc ghi nhận và mã hóa bệnh tật sẽ giúp chúng ta có cái nhìn tổng quan hơn về mô hình bệnh, từ đó đề xuất các giải pháp y tế cộng đồng hiệu quả hơn và cải thiện công tác thống kê y tế.</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, đóng vai trò trợ lý học thuật, phân tích dữ liệu dịch tễ để hỗ trợ bác sĩ và sinh viên y khoa trong việc định hướng chuyên môn, nghiên cứu và quản lý bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Ngoài các bệnh lý hô hấp và tiêu hóa phổ biến, dữ liệu còn chỉ ra các nhóm bệnh như gan mật (Hepatobiliary), thần kinh tâm thần (Neuropsychiatry) và da niêm mạc (Skin-mucosa) cũng có tỷ lệ đáng kể. Bác sĩ và sinh viên y khoa nên tiếp cận thông tin này như thế nào để nhận diện, quản lý sớm các tình trạng bệnh lý liên quan và tư vấn phòng ngừa hiệu quả, đặc biệt là khi có sự khác biệt giữa các nhóm dân cư?</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Dữ liệu cho thấy các nhóm bệnh lý như gan mật (Hepatobiliary, Chương XI - Diseases of the digestive system), thần kinh tâm thần (Neuropsychiatry, Chương V - Mental and behavioural disorders và Chương VI - Diseases of the nervous system), và da niêm mạc (Skin-mucosa, Chương XII - Diseases of the skin and subcutaneous tissue) cũng chiếm một tỷ lệ nhất định trong tổng số bệnh. Đối với bác sĩ trẻ và sinh viên y khoa, việc chú ý đến những nhóm bệnh này là rất cần thiết, đặc biệt khi so sánh giữa các nhóm dân cư (người dân bản địa và công nhân) có thể giúp nhận diện các yếu tố nguy cơ khác biệt:
+1.  **Hiểu rõ bối cảnh dịch tễ và xã hội:**
+    *   **Bệnh lý Gan mật:** Có thể liên quan đến thói quen ăn uống, sử dụng rượu bia, vệ sinh an toàn thực phẩm, hoặc các bệnh nhiễm trùng gan (viêm gan B, C). Cần chú ý các yếu tố nguy cơ riêng của từng nhóm dân cư (ví dụ: công nhân có thể tiếp xúc với hóa chất độc hại, người bản địa có thể có chế độ ăn uống truyền thống).
+    *   **Bệnh lý Thần kinh Tâm thần:** Có thể do áp lực công việc, stress (đặc biệt ở công nhân), yếu tố di truyền, hoặc các bệnh lý thần kinh cơ bản. Cần có sự nhạy cảm trong việc nhận diện các dấu hiệu trầm cảm, lo âu, rối loạn giấc ngủ, đặc biệt khi chúng thường bị bỏ qua.
+    *   **Bệnh lý Da niêm mạc:** Liên quan đến môi trường làm việc (công nhân có thể tiếp xúc với hóa chất, bụi bẩn), vệ sinh cá nhân, yếu tố dị ứng, hoặc các bệnh truyền nhiễm (nấm, ghẻ).
+2.  **Kỹ năng nhận diện và chẩn đoán sớm:**
+    *   **Khai thác bệnh sử kỹ lưỡng:** Hỏi về tiền sử gia đình, nghề nghiệp, môi trường sống, thói quen sinh hoạt, các triệu chứng kín đáo mà bệnh nhân có thể không nhận ra tầm quan trọng.
+    *   **Thăm khám toàn diện:** Không chỉ tập trung vào triệu chứng chính mà cần đánh giá các cơ quan khác có liên quan. Ví dụ, với bệnh gan mật, cần chú ý đến màu sắc da, mắt, dấu hiệu xuất huyết, bụng trướng. Với tâm thần, cần đánh giá trạng thái tinh thần, cảm xúc, hành vi.
+    *   **Tầm soát định kỳ:** Ở các nhóm nguy cơ cao (ví dụ: công nhân tiếp xúc hóa chất), cần khuyến nghị các chương trình tầm soát sức khỏe định kỳ cho các bệnh lý liên quan.
+3.  **Quản lý và điều trị đa chuyên khoa:**
+    *   **Phối hợp chuyên khoa:** Nhiều bệnh lý trong nhóm này đòi hỏi sự phối hợp giữa các chuyên khoa như Tiêu hóa – Gan mật, Thần kinh, Tâm thần, Da liễu. Sinh viên và bác sĩ trẻ cần học cách chuyển tuyến, hội chẩn và làm việc nhóm hiệu quả.
+    *   **Tư vấn và giáo dục sức khỏe:** Đối với các bệnh mạn tính, việc tư vấn về chế độ ăn uống, sinh hoạt, tuân thủ điều trị, và các biện pháp giảm stress là cực kỳ quan trọng. Nâng cao nhận thức về bệnh, giúp bệnh nhân chủ động hơn trong quản lý sức khỏe.
+    *   **Mã hóa ICD-10 chính xác:** Việc mã hóa các bệnh lý gan mật (K70-K77), thần kinh (G00-G99), tâm thần (F00-F99) và da niêm mạc (L00-L99) giúp chúng ta có dữ liệu chính xác để nghiên cứu, phân tích và đề xuất chính sách y tế phù hợp.
+4.  **Học hỏi kinh nghiệm và cập nhật kiến thức:**
+    *   Luôn tìm hiểu các hướng dẫn chẩn đoán và điều trị mới nhất từ Bộ Y tế và các tổ chức uy tín.
+    *   Tham gia các buổi sinh hoạt khoa học, hội nghị chuyên đề về các bệnh lý ít phổ biến hơn để mở rộng kiến thức.</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, nhằm hỗ trợ đào tạo và phát triển năng lực cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Theo nghiên cứu tại xã Mo Rai, các bệnh truyền nhiễm như tiêu chảy, viêm đường hô hấp, cúm, viêm phế quản, viêm phổi và các bệnh mạn tính về dạ dày, tiết niệu-thận, da liễu chiếm tỷ lệ cao. Là một bác sĩ trẻ, bạn sẽ tiếp cận và quản lý mô hình bệnh tật này trong cộng đồng như thế nào để đạt hiệu quả cao nhất?</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc nắm vững mô hình bệnh tật trong cộng đồng là yếu tố then chốt để một bác sĩ trẻ có thể thực hành y khoa hiệu quả. Dựa trên dữ liệu từ xã Mo Rai, nơi các bệnh truyền nhiễm và một số bệnh mạn tính phổ biến, bạn cần có cách tiếp cận toàn diện như sau:
+*   **Hiểu rõ bối cảnh dịch tễ học:**
+    *   **Bệnh truyền nhiễm (Tiêu chảy, Hô hấp cấp, Cúm):** Đây là những bệnh thường liên quan đến vệ sinh môi trường, nguồn nước, thói quen sinh hoạt và yếu tố mùa. Bạn cần điều tra xem liệu có ổ dịch nào đang hoạt động không, các yếu tố nguy cơ cụ thể tại địa phương là gì. Ví dụ, tiêu chảy có thể do nguồn nước không đảm bảo, viêm đường hô hấp thường bùng phát vào mùa lạnh hoặc do ô nhiễm không khí.
+    *   **Bệnh mạn tính (Dạ dày, Tiết niệu-thận, Da liễu):** Các bệnh này thường có nguyên nhân phức tạp hơn, liên quan đến lối sống, chế độ ăn uống, yếu tố di truyền, hoặc tiếp xúc nghề nghiệp. Tìm hiểu về thói quen ăn uống, sinh hoạt, nguồn nước sử dụng, và điều kiện vệ sinh cá nhân của người dân.
+*   **Chiến lược Can thiệp:**
+    *   **Phòng ngừa:** Đây là ưu tiên hàng đầu. Đối với bệnh truyền nhiễm, tập trung vào giáo dục sức khỏe về vệ sinh tay, vệ sinh an toàn thực phẩm, tiêm chủng đầy đủ (ví dụ: vắc xin cúm theo mùa), sử dụng nước sạch. Đối với bệnh mạn tính, khuyến khích lối sống lành mạnh, chế độ ăn cân bằng, giảm rượu bia, thuốc lá. Việc mã hóa chính xác theo ICD-10 sẽ giúp thống kê và đánh giá hiệu quả các chương trình dự phòng.
+    *   **Chẩn đoán sớm và điều trị kịp thời:** Đảm bảo khả năng tiếp cận y tế cho người dân, đặc biệt là các trạm y tế cơ sở. Nâng cao năng lực chẩn đoán lâm sàng của bản thân và trang bị kiến thức về phác đồ điều trị chuẩn của Bộ Y tế cho các bệnh thường gặp (ví dụ: phác đồ điều trị tiêu chảy cấp mã A09, viêm phổi cộng đồng mã J18). Mã hóa bệnh chính xác giúp ghi nhận đúng tình trạng bệnh và phác đồ điều trị đã áp dụng.
+    *   **Quản lý bệnh mạn tính:** Xây dựng hồ sơ sức khỏe cá nhân cho các bệnh nhân mạn tính (ví dụ: Viêm loét dạ dày tá tràng mã K27, Sỏi thận mã N20), tổ chức các buổi tư vấn định kỳ, hướng dẫn tự chăm sóc và tuân thủ điều trị. Phát hiện sớm các biến chứng và giới thiệu lên tuyến trên khi cần.
+*   **Phối hợp cộng đồng:** Hợp tác với các cán bộ y tế dự phòng, chính quyền địa phương, và các tổ chức cộng đồng để triển khai các chương trình sức khỏe, sàng lọc bệnh, và nâng cao nhận thức người dân.
+Việc tích cực tìm hiểu về đặc thù địa phương, áp dụng kiến thức y khoa chuẩn và phối hợp hiệu quả với cộng đồng sẽ giúp bạn trở thành một bác sĩ có tầm nhìn và thực hành y khoa toàn diện, góp phần cải thiện sức khỏe cộng đồng.</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị bệnh truyền nhiễm thông thường tại tuyến cơ sở (Bộ Y tế)</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Cung cấp các phác đồ chẩn đoán, điều trị và dự phòng chi tiết cho các bệnh truyền nhiễm phổ biến như tiêu chảy (A09), viêm đường hô hấp cấp (J06), cúm (J10). Đây là tài liệu tham khảo quan trọng cho y tế cơ sở, giúp bác sĩ trẻ có thể quản lý hiệu quả các ca bệnh thường gặp.</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Phòng chống và quản lý các bệnh truyền nhiễm cộng đồng tại Việt Nam</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào cập nhật kiến thức dịch tễ học, các biện pháp can thiệp y tế công cộng, và phác đồ điều trị các bệnh truyền nhiễm thường gặp trong cộng đồng (ví dụ: các bệnh thuộc Chương I của ICD-10), giúp nâng cao năng lực cho bác sĩ trẻ và cán bộ y tế dự phòng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, nhằm hỗ trợ đào tạo và phát triển năng lực cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Đoạn văn nhấn mạnh sự dịch chuyển gánh nặng bệnh tật toàn cầu từ bệnh truyền nhiễm sang bệnh không lây nhiễm (NCDs), và NCDs là thách thức lớn tại nhiều quốc gia. Là một chuyên gia y tế, bạn sẽ điều chỉnh thực hành lâm sàng và chiến lược y tế công cộng như thế nào để ứng phó với xu hướng dịch tễ học này, đặc biệt là trong bối cảnh Việt Nam?</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Chào bạn, nhận thức về sự dịch chuyển gánh nặng bệnh tật là cực kỳ quan trọng đối với bất kỳ bác sĩ nào. Sự gia tăng của các bệnh không lây nhiễm (NCDs) như bệnh tim mạch (I00-I99), đái tháo đường (E10-E14), ung thư (C00-D48), và bệnh hô hấp mạn tính (J40-J47) đòi hỏi chúng ta phải có một cách tiếp cận chủ động và toàn diện.
+**Để ứng phó với thách thức NCDs, bạn cần tập trung vào các lĩnh vực sau:**
+*   **Thay đổi tư duy từ điều trị cấp tính sang quản lý mạn tính và dự phòng:**
+    *   **Dự phòng sơ cấp:** Đây là trụ cột. Chúng ta cần thúc đẩy mạnh mẽ giáo dục sức khỏe về lối sống lành mạnh: kiểm soát thuốc lá, chính sách dinh dưỡng hợp lý (giảm muối, đường, chất béo chuyển hóa), tăng cường hoạt động thể chất, và giảm sử dụng rượu bia có hại. Vai trò của bạn là tư vấn cho bệnh nhân về tầm quan trọng của các yếu tố này ngay cả khi họ chưa có bệnh.
+    *   **Dự phòng thứ cấp:** Tập trung vào sàng lọc và phát hiện sớm. Ví dụ, sàng lọc huyết áp cao (I10), đường huyết (R73), cholesterol định kỳ. Hướng dẫn bệnh nhân về các dấu hiệu cảnh báo sớm của NCDs để họ tìm kiếm sự chăm sóc y tế kịp thời.
+    *   **Dự phòng cấp ba:** Quản lý bệnh mạn tính để ngăn ngừa biến chứng và cải thiện chất lượng cuộc sống. Điều này bao gồm việc tuân thủ phác đồ điều trị, phục hồi chức năng, và hỗ trợ tâm lý.
+*   **Nâng cao năng lực chuyên môn về NCDs:**
+    *   **Cập nhật kiến thức:** Liên tục theo dõi các hướng dẫn điều trị NCDs của Bộ Y tế và các tổ chức y tế quốc tế (WHO).
+    *   **Kỹ năng tư vấn:** Phát triển kỹ năng tư vấn thay đổi hành vi (counseling for behavior change) để giúp bệnh nhân thay đổi lối sống một cách bền vững.
+    *   **Kiến thức đa chuyên khoa:** NCDs thường ảnh hưởng đến nhiều hệ cơ quan. Việc hiểu biết về các chuyên khoa liên quan (tim mạch, nội tiết, thận học, ung bướu) sẽ giúp bạn có cái nhìn toàn diện hơn.
+*   **Tăng cường hệ thống y tế:**
+    *   **Y tế cơ sở:** Các trạm y tế cần được tăng cường năng lực để sàng lọc, quản lý ban đầu và theo dõi NCDs tại cộng đồng.
+    *   **Hệ thống chuyển tuyến:** Đảm bảo hệ thống chuyển tuyến hiệu quả để bệnh nhân NCDs có thể tiếp cận các dịch vụ chuyên sâu khi cần.
+    *   **Quản lý dữ liệu:** Sử dụng ICD-10 để mã hóa chính xác, giúp thu thập dữ liệu về NCDs, từ đó đánh giá hiệu quả các chương trình can thiệp và hoạch định chính sách y tế.
+**Bảng 1: Các biện pháp phòng ngừa và quản lý NCDs chủ yếu**
+| Lĩnh vực can thiệp        | Biện pháp cụ thể                                                                                                  | Ví dụ áp dụng tại Việt Nam                                                                            |
+| :------------------------ | :---------------------------------------------------------------------------------------------------------------- | :---------------------------------------------------------------------------------------------------- |
+| **Kiểm soát thuốc lá**    | - Nâng cao nhận thức về tác hại&lt;br&gt;- Cấm hút thuốc nơi công cộng&lt;br&gt;- Hỗ trợ cai thuốc (T65.2 - Ngộ độc nicotin)   | - Luật phòng chống tác hại thuốc lá&lt;br&gt;- Tư vấn cai thuốc tại các cơ sở y tế                               |
+| **Chính sách dinh dưỡng** | - Giảm tiêu thụ muối, đường, chất béo chuyển hóa&lt;br&gt;- Tăng cường rau xanh, trái cây, ngũ cốc nguyên hạt          | - Khuyến cáo dinh dưỡng của Bộ Y tế&lt;br&gt;- Nhãn mác thực phẩm rõ ràng                                        |
+| **Hoạt động thể chất**    | - Khuyến khích tập luyện thường xuyên&lt;br&gt;- Xây dựng không gian công cộng cho thể thao                             | - Chương trình "Toàn dân rèn luyện thân thể theo gương Bác Hồ vĩ đại"&lt;br&gt;- Sân chơi, công viên công cộng |
+| **Giảm rượu bia có hại**  | - Nâng cao nhận thức về tác hại&lt;br&gt;- Hạn chế quảng cáo, tiếp thị&lt;br&gt;- Hỗ trợ người có vấn đề về rượu bia (F10) | - Luật phòng chống tác hại của rượu, bia&lt;br&gt;- Tư vấn giảm sử dụng rượu bia                                |
+| **Tăng cường hệ thống y tế** | - Sàng lọc, phát hiện sớm&lt;br&gt;- Quản lý bệnh mạn tính&lt;br&gt;- Chuyển tuyến hiệu quả                                   | - Khám sức khỏe định kỳ (Z00-Z13)&lt;br&gt;- Chương trình quản lý tăng huyết áp, đái tháo đường tại y tế cơ sở            |
+Tóm lại, việc chuyển đổi trọng tâm từ bệnh truyền nhiễm sang NCDs đòi hỏi một chiến lược tổng thể, kết hợp dự phòng, chẩn đoán sớm, quản lý hiệu quả và sự hợp tác liên ngành để đảm bảo sức khỏe bền vững cho cộng đồng.</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Hướng dẫn quốc gia về phòng, chống các bệnh không lây nhiễm (Bộ Y tế)</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Tài liệu chuyên sâu về các bệnh không lây nhiễm phổ biến tại Việt Nam, bao gồm các khuyến nghị về dự phòng, sàng lọc, chẩn đoán và quản lý theo chuẩn quốc gia. Bao gồm các thông tin liên quan đến các mã ICD-10 cho bệnh tăng huyết áp (I10), đái tháo đường (E11), và các yếu tố nguy cơ (Z82.4 - Tiền sử gia đình mắc bệnh tim mạch).</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Dịch tễ học và quản lý tổng hợp bệnh không lây nhiễm (Integrated NCD Management)</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp cái nhìn toàn diện về dịch tễ học NCDs, các phương pháp tiếp cận đa ngành trong quản lý NCDs từ dự phòng đến điều trị (ví dụ: tư vấn thay đổi lối sống, sử dụng thuốc theo phác đồ), và vai trò của từng cấp độ y tế trong chiến lược kiểm soát NCDs, giúp bác sĩ nắm vững các chiến lược phòng chống bệnh thuộc các Chương II, III, IV, IX, X, XI, XIV, XVIII trong ICD-10.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, nhằm hỗ trợ đào tạo và phát triển năng lực cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Nghiên cứu chỉ ra rằng tại các cơ sở y tế, các bệnh về hệ hô hấp (Chương X), bệnh truyền nhiễm (Chương I), bệnh về hệ tiêu hóa (Chương XI), và chấn thương, ngộ độc (Chương XIX) chiếm tỷ lệ lớn, phản ánh mô hình bệnh tật trong cộng đồng. Với vai trò là một bác sĩ trẻ, bạn sẽ sử dụng hệ thống phân loại bệnh quốc tế ICD-10 như thế nào để ghi nhận và hiểu rõ các mô hình bệnh tật này, cũng như những ý nghĩa của nó đối với thực hành lâm sàng và hoạch định y tế công cộng?</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc hiểu và sử dụng thành thạo ICD-10 không chỉ là yêu cầu hành chính mà còn là công cụ mạnh mẽ giúp bạn phân tích, đánh giá mô hình bệnh tật và cải thiện thực hành y khoa. Dựa trên dữ liệu từ các cơ sở y tế về các nhóm bệnh hàng đầu, đây là cách bạn có thể tận dụng ICD-10 và ý nghĩa của nó:
+**1. Tối ưu hóa việc sử dụng ICD-10 trong thực hành lâm sàng:**
+*   **Ghi nhận chẩn đoán chính xác:** Mỗi khi bạn chẩn đoán một bệnh, hãy đảm bảo rằng bạn đang sử dụng mã ICD-10 chính xác và cụ thể nhất có thể. Ví dụ, thay vì chỉ ghi 'Viêm phổi', hãy cố gắng mã hóa 'Viêm phổi do Streptococcus pneumoniae' (J13) nếu có bằng chứng, hoặc 'Viêm phế quản cấp' (J20) thay vì chỉ 'Bệnh hô hấp'. Điều này đặc biệt quan trọng với các bệnh truyền nhiễm (Chương I) và bệnh hô hấp (Chương X) thường gặp, vì nó ảnh hưởng đến quyết định điều trị và thống kê.
+*   **Phân loại rõ ràng:** Hiểu cấu trúc các chương ICD-10 sẽ giúp bạn phân loại bệnh nhân một cách có hệ thống:
+    *   **Chương X: Bệnh về hệ hô hấp (J00-J99):** Bao gồm viêm phổi (J09-J18), viêm phế quản (J20-J21), hen phế quản (J45).
+    *   **Chương I: Bệnh truyền nhiễm và ký sinh trùng (A00-B99):** Bao gồm các bệnh đường ruột do nhiễm khuẩn (A00-A09), một số nhiễm khuẩn hô hấp cấp (J00-J06).
+    *   **Chương XI: Bệnh về hệ tiêu hóa (K00-K93):** Bao gồm viêm dạ dày (K29), viêm ruột (K50-K52), bệnh gan (K70-K77).
+    *   **Chương XIX: Chấn thương, ngộ độc và một số hậu quả khác do nguyên nhân bên ngoài (S00-T98):** Bao gồm gãy xương (S02, S32), bỏng (T20-T32), ngộ độc (T36-T65).
+*   **Theo dõi và đánh giá:** Mã hóa chính xác cho phép bạn theo dõi diễn biến của bệnh tật, đánh giá hiệu quả điều trị và các can thiệp y tế.
+**2. Ý nghĩa đối với hoạch định y tế công cộng và quản lý bệnh viện:**
+*   **Nắm bắt gánh nặng bệnh tật:** Dữ liệu ICD-10 cho phép chúng ta biết chính xác loại bệnh nào đang chiếm ưu thế, từ đó xác định gánh nặng bệnh tật thực sự của cộng đồng và bệnh viện. Việc nhóm bệnh hô hấp đứng đầu (ví dụ 5159 lượt nhập viện) cho thấy nhu cầu lớn về các dịch vụ chăm sóc hô hấp.
+*   **Phân bổ nguồn lực:** Khi biết các nhóm bệnh như hô hấp, tiêu hóa, truyền nhiễm, và chấn thương chiếm tỷ lệ cao, các nhà quản lý y tế có thể phân bổ nguồn lực (nhân lực, trang thiết bị, thuốc men) một cách hiệu quả hơn. Ví dụ, cần có đủ bác sĩ chuyên khoa hô hấp, trang thiết bị hỗ trợ hô hấp, hoặc các chương trình phòng chống chấn thương.
+*   **Phát triển chương trình sức khỏe:** Dữ liệu ICD-10 là cơ sở để xây dựng các chương trình y tế dự phòng và can thiệp phù hợp. Ví dụ, chương trình tiêm chủng mở rộng (liên quan đến Chương I), chương trình phòng chống tai nạn giao thông (liên quan đến Chương XIX), hay các chiến dịch về vệ sinh môi trường (liên quan đến Chương XI và I).
+*   **Nghiên cứu khoa học:** Mã hóa chính xác là nền tảng cho các nghiên cứu dịch tễ học, lâm sàng, giúp chúng ta hiểu sâu hơn về nguyên nhân, yếu tố nguy cơ, và hiệu quả điều trị của các bệnh phổ biến.
+*   **Đánh giá chất lượng dịch vụ:** Bằng cách phân tích dữ liệu ICD-10, các bệnh viện có thể đánh giá chất lượng dịch vụ của mình, xác định các lĩnh vực cần cải thiện.
+Việc thành thạo ICD-10 không chỉ giúp bạn hoàn thành tốt công việc hàng ngày mà còn mở rộng tầm nhìn của bạn về y tế công cộng, biến bạn từ một bác sĩ lâm sàng đơn thuần thành một nhà hoạch định y tế tiềm năng.</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Quyết định 4443/QĐ-BYT về việc ban hành danh mục bệnh theo ICD-10 áp dụng tại Việt Nam</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thức của Bộ Y tế Việt Nam về danh mục và hướng dẫn áp dụng ICD-10 (phiên bản 2011), là nền tảng để mã hóa bệnh tật và thống kê y tế quốc gia. Đây là tài liệu bắt buộc phải nắm vững để thực hành chẩn đoán và ghi chép bệnh án chính xác.</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Phân loại quốc tế bệnh tật ICD-10 và ứng dụng trong quản lý dữ liệu y tế</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức chuyên sâu về hệ thống ICD-10, cách mã hóa bệnh tật chính xác, và ứng dụng dữ liệu ICD-10 trong thống kê y tế, nghiên cứu khoa học, và hoạch định chính sách tại các cơ sở y tế. Khóa học sẽ hướng dẫn chi tiết cách mã hóa các bệnh thuộc các Chương I, X, XI, XIX mà đoạn văn đã đề cập.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generate_dataset/SVYKHOA_dataset_guide.xlsx
+++ b/generate_dataset/SVYKHOA_dataset_guide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10146,6 +10146,5801 @@
         </is>
       </c>
     </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao kiến thức chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, xin giải thích rõ hơn về định nghĩa cắn hở (open bite), các dạng lâm sàng thường gặp và nguyên nhân gây bệnh để tôi có thể chẩn đoán chính xác hơn cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Chào bạn, cắn hở là một dạng sai khớp cắn (malocclusion) đặc trưng bởi sự thiếu tiếp xúc giữa một hoặc nhiều răng trên cung hàm với các răng đối diện khi các răng hàm còn lại đã cắn khít. Đây là một vấn đề lâm sàng quan trọng mà bác sĩ trẻ cần nắm vững.
+**1. Định nghĩa và Phân loại theo ICD-10:**
+*   **Định nghĩa**: Cắn hở xảy ra khi không có sự chạm khớp giữa các răng đối diện, tạo ra một khoảng trống thẳng đứng giữa cung răng trên và cung răng dưới.
+*   **Mã ICD-10**: Đối với cắn hở, chúng ta thường sử dụng mã **K07.41 (Cắn hở)** trong phân loại ICD-10 để ghi nhận trong hồ sơ bệnh án và thống kê y tế. Mã này thuộc nhóm các dị tật hàm mặt (Dentofacial anomalies, K07).
+**2. Các Dạng Lâm Sàng Thường Gặp:**
+*   **Cắn hở trước (Anterior Open Bite)**: Phổ biến nhất, xảy ra ở vùng răng cửa, khiến bệnh nhân không thể khép môi hoàn toàn và thường gặp khó khăn khi ăn nhai hoặc phát âm.
+*   **Cắn hở sau (Posterior Open Bite)**: Ít gặp hơn, xảy ra ở vùng răng hàm.
+*   **Cắn hở toàn bộ (Complete Open Bite)**: Hiếm gặp, kết hợp cả cắn hở trước và sau.
+*   Đoạn văn nhấn mạnh cắn hở thường gặp ở răng vĩnh viễn (giai đoạn hỗn hợp) và chủ yếu ở vùng răng cửa.
+**3. Các Nguyên Nhân Chính Gây Cắn Hở:**
+Việc xác định nguyên nhân rất quan trọng để đưa ra kế hoạch điều trị hiệu quả. Các nguyên nhân có thể bao gồm:
+*   **Di truyền**: Yếu tố gia đình đóng vai trò quan trọng trong sự phát triển của xương hàm và răng.
+*   **Phát triển xương hàm và răng không thuận lợi**: Sự mất cân bằng trong tăng trưởng xương hàm trên và dưới theo chiều dọc.
+*   **Tư thế lưỡi sai (Tongue Posture)**: Thói quen đặt lưỡi sai vị trí (ví dụ: thè lưỡi ra trước khi nuốt) có thể đẩy răng cửa ra khỏi vị trí khớp cắn.
+*   **Thói quen xấu (Sucking Habits)**:
+    *   Mút ngón tay (thumb sucking).
+    *   Mút môi (lip sucking).
+    *   Ngậm vật lạ (pacifier use kéo dài).
+*   **Tắc nghẽn đường thở mũi**: Khi bệnh nhân phải thở bằng miệng do tắc nghẽn đường thở mũi (ví dụ: viêm amidan, VA phì đại), hàm dưới thường xoay xuống dưới và ra sau, góp phần gây cắn hở.
+Việc thu thập tiền sử bệnh kỹ lưỡng và thăm khám lâm sàng toàn diện sẽ giúp bạn xác định được nguyên nhân chính xác và lập kế hoạch điều trị phù hợp cho từng bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Sách giáo trình Nha khoa cơ sở: Sai khớp cắn và chẩn đoán.</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức nền tảng về các loại sai khớp cắn, phương pháp chẩn đoán lâm sàng và cận lâm sàng, giúp sinh viên và bác sĩ trẻ xây dựng nền tảng vững chắc trong chỉnh nha và điều trị các dị tật hàm mặt.</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Khóa học Chẩn đoán và Kế hoạch điều trị Sai khớp cắn cơ bản.</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào việc hướng dẫn các bác sĩ trẻ và sinh viên y khoa cách nhận diện, phân loại và chẩn đoán chính xác các loại sai khớp cắn phổ biến, bao gồm cắn hở, thông qua các ca lâm sàng thực tế và thảo luận chuyên sâu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao kiến thức chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã đề cập đến phương pháp điều trị cắn hở trước bằng dây thẳng và chun liên hàm. Xin chuyên gia cho biết nguyên lý hoạt động của kỹ thuật này và những lưu ý lâm sàng quan trọng để đạt được kết quả ổn định, đặc biệt là mục tiêu của việc điều trị cắn hở là gì?</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Tuyệt vời! Hiểu rõ nguyên lý kỹ thuật là chìa khóa để áp dụng thành công trên lâm sàng. Phương pháp sử dụng dây thẳng (straight wire) và chun liên hàm (interarch rubber band) là một kỹ thuật chỉnh nha phổ biến và hiệu quả, đặc biệt trong điều trị cắn hở trước không phẫu thuật.
+**1. Mục Tiêu Tổng Quát của Điều Trị Cắn Hở:**
+Mục tiêu không chỉ đơn thuần là đóng khoảng cắn hở mà còn là phục hồi chức năng và thẩm mỹ toàn diện cho bệnh nhân:
+*   **Phục hồi chức năng thẩm mỹ**: Giúp bệnh nhân tự tin hơn khi giao tiếp, cải thiện nụ cười.
+*   **Giảm kích thước chiều dọc (vertical dimension)**: Điều chỉnh sự mất cân bằng trong tăng trưởng hàm mặt.
+*   **Phục hồi chức năng phát âm**: Cải thiện khả năng phát âm, đặc biệt là các âm có liên quan đến vị trí răng cửa.
+*   **Phục hồi chức năng ăn nhai (mastication)**: Đảm bảo hiệu quả nhai thức ăn, giảm áp lực lên các răng hàm.
+*   **Ngăn ngừa mòn răng hàm**: Tránh tình trạng mòn quá mức do nghiến chặt liên tục ở các răng sau, giảm đau nhức.
+**2. Nguyên Lý Hoạt Động của Kỹ Thuật Dây Thẳng và Chun Liên Hàm:**
+Nghiên cứu đã chỉ ra hiệu quả đáng kể của phương pháp này, hoạt động dựa trên các nguyên lý cơ sinh học sau:
+*   **Lún răng sau (Intrusion of posterior teeth) theo chiều chóp (apically)**: Chun liên hàm được mắc từ răng hàm trên xuống răng hàm dưới (thường là từ móc trên răng hàm trên xuống móc trên răng hàm dưới, hoặc theo các pattern cụ thể tùy thuộc vào ca lâm sàng). Lực kéo của chun sẽ tạo ra một lực lún nhẹ nhưng liên tục lên các răng hàm sau, giúp xoay mặt phẳng nhai và giảm kích thước chiều dọc của vùng răng sau.
+*   **Trồi răng trước (Extrusion of anterior teeth) về phía rìa cắn (incisially)**: Đồng thời, lực kéo của chun và hệ thống dây thẳng cũng có thể tạo ra lực trồi nhẹ lên các răng cửa, giúp răng cửa trên và dưới tiến lại gần nhau, đóng khoảng cắn hở.
+*   **Kiểm soát mặt phẳng nhai**: Sự kết hợp này giúp kiểm soát mặt phẳng nhai, đặc biệt quan trọng trong các trường hợp cắn hở do tăng trưởng theo chiều dọc quá mức.
+**3. Lưu Ý Lâm Sàng Quan Trọng:**
+Để đạt được kết quả ổn định như nghiên cứu đã chỉ ra (89.85% ổn định tại T3):
+*   **Chẩn đoán chính xác nguyên nhân**: Điều trị nguyên nhân gốc rễ (ví dụ: loại bỏ thói quen xấu, điều trị tắc nghẽn đường thở) là tối quan trọng để ngăn ngừa tái phát.
+*   **Lực kéo chun phù hợp**: Hướng dẫn bệnh nhân thay chun thường xuyên và sử dụng lực kéo phù hợp, tránh lực quá mạnh gây đau hoặc quá yếu không hiệu quả.
+*   **Tuân thủ điều trị của bệnh nhân**: Đây là yếu tố then chốt, đặc biệt với chun liên hàm. Cần tư vấn kỹ lưỡng cho bệnh nhân về tầm quan trọng của việc đeo chun đầy đủ.
+*   **Giai đoạn điều trị**: Hầu hết các nhà chỉnh nha khuyến nghị điều trị cắn hở ở giai đoạn răng hỗn hợp để tận dụng sự tăng trưởng còn lại, tăng khả năng thành công và giảm tái phát.
+*   **Duy trì sau điều trị**: Sau khi đạt được kết quả, giai đoạn duy trì là cực kỳ quan trọng để ngăn ngừa tái phát. Cần có khí cụ duy trì phù hợp (ví dụ: hàm duy trì cố định hoặc tháo lắp).
+Bằng cách nắm vững những nguyên lý và lưu ý này, bạn sẽ tự tin hơn trong việc điều trị và mang lại kết quả lâu dài cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Quy trình và Kỹ thuật Chỉnh nha bằng Hệ thống Dây thẳng.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Tài liệu này là cẩm nang chi tiết về lý thuyết và thực hành của kỹ thuật dây thẳng trong chỉnh nha, bao gồm cách lựa chọn mắc cài, dây cung, và áp dụng lực cơ sinh học, rất cần thiết cho các bác sĩ muốn nâng cao kỹ năng lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Khóa học Chuyên sâu về Cơ sinh học trong Điều trị Cắn hở.</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp kiến thức chuyên sâu về cơ chế hoạt động của các khí cụ chỉnh nha, đặc biệt là chun liên hàm và dây thẳng, trong điều trị cắn hở, giúp bác sĩ tối ưu hóa kế hoạch điều trị và quản lý các ca lâm sàng phức tạp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao kiến thức chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã trình bày về việc đánh giá kết quả và tỷ lệ tái phát của cắn hở. Xin chuyên gia hướng dẫn cách tôi, với vai trò là một bác sĩ trẻ, có thể đánh giá hiệu quả điều trị và quản lý nguy cơ tái phát trên lâm sàng một cách khoa học và đáng tin cậy?</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Đây là một câu hỏi rất thực tế và quan trọng đối với mỗi bác sĩ lâm sàng. Việc đánh giá kết quả điều trị và quản lý tái phát đòi hỏi một phương pháp tiếp cận có hệ thống và khoa học. Dựa trên nghiên cứu này và các kiến thức y khoa, bạn có thể thực hiện như sau:
+**1. Đánh giá Kết quả Điều trị Theo Giai đoạn (T1, T2, T3):**
+Nghiên cứu đã sử dụng các mốc thời gian rõ ràng, đây là một mô hình tốt để bạn học hỏi:
+*   **T1 (Trước điều trị - Pre-treatment)**: Thu thập đầy đủ dữ liệu chẩn đoán ban đầu (ảnh trong miệng, ngoài mặt, phim X-quang, mẫu hàm). Đây là cơ sở để lập kế hoạch và so sánh sau này.
+*   **T2 (Sau điều trị - Post-treatment)**: Ngay sau khi tháo khí cụ. Đánh giá kết quả ban đầu về khớp cắn, thẩm mỹ, chức năng. Đây là điểm mà nghiên cứu nhận thấy tất cả bệnh nhân đều đạt 'kết quả tốt'.
+*   **T3 (Theo dõi - Follow-up)**: Giai đoạn này cực kỳ quan trọng để đánh giá sự ổn định lâu dài. Nghiên cứu phân thành:
+    *   **Ngắn hạn (1-2 năm sau điều trị)**: Đánh giá sự ổn định của kết quả.
+    *   **Dài hạn (2-5 năm sau điều trị)**: Cung cấp cái nhìn sâu sắc về nguy cơ tái phát. Nghiên cứu cho thấy không có sự khác biệt đáng kể giữa nhóm ngắn hạn và dài hạn về kết quả điều trị.
+**2. Đánh giá Sự Ổn định và Tái phát:**
+*   Nghiên cứu chỉ ra tỷ lệ ổn định là **89.85%** tại T3, với **10.14%** tái phát (7/69 bệnh nhân). Điều này cho thấy cắn hở là một sai khớp cắn có nguy cơ tái phát.
+*   **Correlation giữa Overjet và Tái phát**: Kết quả nghiên cứu chỉ ra rằng sự thay đổi giữa độ cắn chìa (overjet) sau điều trị và cắn hở trước sau điều trị có mối tương quan ý nghĩa thống kê (p &lt; 0.001). Điều này gợi ý rằng việc kiểm soát overjet tốt có thể là yếu tố dự báo cho sự ổn định của cắn hở.
+**3. Quản lý Nguy cơ Tái phát Trên Lâm Sàng:**
+*   **Xác định yếu tố nguy cơ**:
+    *   Thói quen xấu chưa được loại bỏ triệt để (thè lưỡi, thở miệng).
+    *   Mẫu hình tăng trưởng xương hàm không thuận lợi.
+    *   Không tuân thủ đeo hàm duy trì.
+*   **Tư vấn bệnh nhân**: Nâng cao nhận thức của bệnh nhân về tầm quan trọng của giai đoạn duy trì và các dấu hiệu tái phát.
+*   **Chế độ duy trì thích hợp**: Sử dụng hàm duy trì (retainers) cố định hoặc tháo lắp tùy thuộc vào từng ca lâm sàng và mức độ nguy cơ.
+*   **Theo dõi định kỳ**: Lên lịch tái khám định kỳ (ví dụ: 3 tháng, 6 tháng, 1 năm) để kiểm tra khớp cắn, tình trạng hàm duy trì và các yếu tố nguy cơ tái phát.
+**Tóm tắt Kết quả Nghiên cứu và Ý nghĩa Lâm sàng:**
+| Tiêu chí                          | Kết quả Nghiên cứu (N=69)                                                                      | Ý nghĩa Lâm sàng cho Bác sĩ Trẻ                                                                                                     |
+| :-------------------------------- | :--------------------------------------------------------------------------------------------- | :--------------------------------------------------------------------------------------------------------------------------------- |
+| **Hiệu quả điều trị (T2)**        | 100% bệnh nhân đạt kết quả tốt                                                                 | Kỹ thuật dây thẳng và chun liên hàm hiệu quả cao trong giai đoạn tích cực.                                                         |
+| **Ổn định điều trị (T3)**         | 89.85% ổn định (1-5 năm sau điều trị)                                                          | Cần chú trọng giai đoạn duy trì để đảm bảo kết quả lâu dài.                                                                          |
+| **Tỷ lệ tái phát**                 | 10.14% (7/69 bệnh nhân)                                                                        | Cắn hở có nguy cơ tái phát. Bác sĩ cần nhận diện yếu tố nguy cơ và có kế hoạch quản lý tái phát.                                    |
+| **So sánh nhóm ngắn hạn/dài hạn** | Không có sự khác biệt về kết quả giữa nhóm theo dõi 1-2 năm và 2-5 năm                           | Sự ổn định được duy trì khá tốt qua các năm đầu nếu bệnh nhân tuân thủ và không có yếu tố tái phát mạnh.                            |
+| **Tương quan Overjet**            | Có mối tương quan ý nghĩa (p &lt;0.001) giữa overjet sau điều trị và cắn hở trước sau điều trị. | Kiểm soát overjet tốt sau điều trị có thể là một chỉ dấu quan trọng cho sự ổn định của cắn hở. Cần theo dõi chặt chẽ chỉ số này. |
+Việc thường xuyên xem xét các nghiên cứu lâm sàng như thế này sẽ giúp bạn hình thành tư duy dựa trên bằng chứng và đưa ra quyết định điều trị tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Nghiên cứu Lâm sàng trong Nha khoa: Thiết kế, Phân tích và Giải thích.</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Cuốn sách này hướng dẫn các bác sĩ và sinh viên y khoa về các nguyên tắc thiết kế nghiên cứu lâm sàng, phương pháp thống kê và cách giải thích kết quả một cách khách quan, giúp nâng cao khả năng đọc hiểu và ứng dụng y học thực chứng.</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Khóa học Y học Thực chứng và Quản lý Tái phát trong Chỉnh nha.</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Khóa học này trang bị cho bác sĩ kiến thức về cách áp dụng bằng chứng khoa học vào thực hành lâm sàng, đặc biệt tập trung vào các chiến lược quản lý tái phát trong điều trị sai khớp cắn, giúp tối ưu hóa kết quả lâu dài cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Để chẩn đoán và lựa chọn bệnh nhân phù hợp cho điều trị lệch khớp cắn hở phía trước hoặc kết hợp, đặc biệt là theo các tiêu chí của nghiên cứu, các bác sĩ trẻ cần lưu ý những điểm gì trong thực hành lâm sàng và cách phân loại theo ICD-10?</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ trẻ và sinh viên y khoa, việc chẩn đoán và lựa chọn bệnh nhân đúng đắn là nền tảng của mọi điều trị chỉnh nha thành công. Dựa trên các tiêu chí của nghiên cứu, các bạn cần lưu ý những điểm sau:
+*   **Chẩn đoán lâm sàng và cận lâm sàng toàn diện:**
+    *   **Thăm khám lâm sàng:** Xác định loại lệch lạc khớp cắn hở (phía trước, phía sau, hay kết hợp). Đánh giá thẩm mỹ khuôn mặt, chức năng nhai, nuốt, phát âm. Ví dụ, khớp cắn hở phía trước được phân loại theo ICD-10 là **K07.31**, khớp cắn hở phía sau là **K07.32**, và kết hợp là **K07.33**. Mã chung cho các bất thường về quan hệ xương hàm với nền sọ hoặc bất thường răng-hàm có thể là **K07.1**.
+    *   **Phim X-quang:** Bắt buộc chụp phim sọ nghiêng (cephalometric), phim toàn cảnh (panorex) để phân tích hình thái xương sọ mặt, vị trí răng, tình trạng khớp thái dương hàm và bệnh lý răng miệng tổng quát.
+    *   **Ảnh chụp:** Cần có ảnh chụp thẳng và nghiêng của khuôn mặt và trong miệng để đánh giá thẩm mỹ và chi tiết khớp cắn.
+    *   **Mẫu hàm chẩn đoán:** Giúp đánh giá tương quan cung hàm 3 chiều, mức độ lệch lạc và lập kế hoạch điều trị.
+*   **Tiêu chí lựa chọn bệnh nhân (theo nghiên cứu):**
+    *   **Độ tuổi:** Bệnh nhân từ 9 tuổi trở lên. Nghiên cứu này cụ thể hóa là 9-25 tuổi. Điều này quan trọng vì giai đoạn phát triển có ảnh hưởng lớn đến tiềm năng điều trị không phẫu thuật.
+    *   **Loại lệch khớp cắn:** Chắc chắn phải có khớp cắn hở phía trước hoặc khớp cắn hở kết hợp (cả trước và sau).
+    *   **Thẩm mỹ khuôn mặt:** Bệnh nhân phải có thẩm mỹ khuôn mặt chấp nhận được và không cần phẫu thuật chỉnh hình hàm. Đây là tiêu chí loại trừ các trường hợp quá nặng mà chỉnh nha đơn thuần không thể giải quyết.
+    *   **Sự hợp tác:** Bệnh nhân đồng ý tham gia điều trị chỉnh nha. Sự hợp tác của bệnh nhân là yếu tố then chốt cho mọi điều trị chỉnh nha.
+*   **Tiêu chí loại trừ (theo nghiên cứu):**
+    *   **Độ tuổi:** Bệnh nhân dưới 9 tuổi hoặc trên 25 tuổi. Giới hạn tuổi này giúp nghiên cứu có sự đồng nhất về khả năng đáp ứng điều trị.
+    *   **Mức độ nặng của khớp cắn hở:** Khớp cắn hở lớn hơn 10mm. Đây là một ngưỡng quan trọng, những trường hợp nặng hơn thường đòi hỏi can thiệp phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Trong điều trị chỉnh nha cho lệch khớp cắn hở bằng mắc cài thẳng và chun liên hàm, một kế hoạch điều trị toàn diện và quy trình theo dõi sau điều trị cần được xây dựng như thế nào để đảm bảo hiệu quả và duy trì kết quả lâu dài?</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Kính gửi các bác sĩ trẻ, việc xây dựng một kế hoạch điều trị chỉnh nha khoa học và tuân thủ chặt chẽ quy trình theo dõi là chìa khóa để đạt được kết quả ổn định và bền vững, đặc biệt với các trường hợp khớp cắn hở. Dựa trên phương pháp của nghiên cứu, các bạn cần thực hiện như sau:
+**1. Lập Kế hoạch Điều trị:**
+*   **Thảo luận với bệnh nhân:** Sau khi có đủ dữ liệu chẩn đoán (phim X-quang, mẫu hàm, ảnh), bác sĩ cần trình bày kế hoạch điều trị chi tiết, bao gồm mục tiêu, các giai đoạn, dự kiến thời gian và chi phí, đồng thời giải thích rõ ràng vai trò của bệnh nhân trong quá trình điều trị (ví dụ: tuân thủ mang chun, vệ sinh răng miệng). Kế hoạch cần được sự đồng thuận của bệnh nhân.
+**2. Thực hiện Kế hoạch Điều trị:**
+*   **Kỹ thuật Mắc cài thẳng (Straight Wire):** Đây là hệ thống mắc cài phổ biến, sử dụng dây cung được thiết kế sẵn để tạo ra lực di chuyển răng. Bác sĩ cần lựa chọn kích thước dây cung và mắc cài phù hợp với từng giai đoạn điều trị.
+*   **Chun liên hàm (Interarch Rubber Band):** Đây là khí cụ cực kỳ quan trọng trong điều trị khớp cắn hở. Chun liên hàm được gắn giữa hàm trên và hàm dưới, tạo lực đóng khớp cắn. Hướng dẫn bệnh nhân cách đeo chun đúng cách và tuân thủ tuyệt đối theo chỉ định của bác sĩ.
+*   **Thời gian điều trị:** Thông thường từ 2 - 3.5 năm tùy từng trường hợp cụ thể và mức độ phức tạp của lệch lạc. Sự kiên nhẫn và tuân thủ là rất cần thiết.
+**3. Giai đoạn Duy trì (Retention Phase):**
+*   **Hawley Retainer:** Sau khi hoàn tất giai đoạn điều trị tích cực, tất cả bệnh nhân bắt buộc phải đeo hàm duy trì Hawley ở cả hàm trên và hàm dưới, cố định bằng cách nối giữa răng 33 và 43 (răng nanh dưới). Hàm duy trì là yếu tố quyết định để ngăn ngừa tái phát (relapse).
+*   **Lịch trình đeo hàm duy trì:**
+    *   **2 năm đầu tiên:** Đeo hàm duy trì tháo lắp vào ban đêm.
+    *   **Sau 2 năm:** Bệnh nhân chỉ cần đeo hàm duy trì một đêm mỗi tuần. Điều này giúp ổn định vị trí răng và xương hàm về lâu dài.
+**4. Theo dõi và Tái khám:**
+*   **Trong quá trình điều trị:** Bệnh nhân cần tái khám hàng tháng để kiểm tra và điều chỉnh mắc cài, dây cung, và chun liên hàm cho đến khi khớp cắn ổn định, đạt được chức năng và thẩm mỹ mong muốn. Các mẫu hàm nghiên cứu, phim sọ nghiêng và panorex X-quang được chụp tại các thời điểm khác nhau (T1, T2) để so sánh tiến trình.
+*   **Sau điều trị:**
+| Giai đoạn theo dõi | Tần suất tái khám | Hồ sơ ghi nhận (nếu cần) |
+| :---------------- | :------------------ | :------------------------- |
+| 2 năm đầu tiên    | Mỗi 6 tháng         |                            |
+| Sau 2 năm đến 5 năm | Hàng năm            | Mẫu hàm, phim sọ nghiêng, panorex X-quang |
+Việc tuân thủ nghiêm ngặt lịch trình tái khám và đeo hàm duy trì là tối quan trọng để đảm bảo thành công lâu dài của điều trị chỉnh nha.</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Khi thiết kế một nghiên cứu đoàn hệ tương lai (Future Cohort study) trong chỉnh nha, các bác sĩ trẻ cần chú ý những khía cạnh nào về phương pháp nghiên cứu, thu thập dữ liệu và xử lý thống kê để đảm bảo tính khoa học và đáng tin cậy của kết quả?</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Các bác sĩ trẻ và sinh viên y khoa thân mến, việc tham gia hoặc thực hiện nghiên cứu khoa học là một phần không thể thiếu trong phát triển y học. Đối với một nghiên cứu đoàn hệ tương lai trong chỉnh nha, các bạn cần nắm vững những điểm sau:
+**1. Thiết kế Nghiên cứu (Study Design):**
+*   **Nghiên cứu đoàn hệ tương lai (Future Cohort study):** Đây là một thiết kế quan trọng cho phép theo dõi một nhóm đối tượng (đoàn hệ) qua thời gian để đánh giá sự phát triển của các kết cục sau một phơi nhiễm hoặc can thiệp nhất định (ở đây là điều trị chỉnh nha). Nghiên cứu này bắt đầu với những bệnh nhân được chọn để điều trị từ 5/2008 đến 2/2020, cho thấy một quá trình thu thập mẫu dài hơi.
+*   **Ưu điểm:** Giúp xác định trình tự thời gian giữa can thiệp và kết quả, đồng thời đánh giá tỷ lệ mắc và nguy cơ tương đối.
+**2. Thu thập Thông tin (Collected Information):**
+*   **Tính toàn diện và hệ thống:** Ghi nhận đầy đủ thông tin của tất cả bệnh nhân tham gia nghiên cứu theo một phiếu nghiên cứu tiêu chuẩn.
+*   **Các loại dữ liệu cần thu thập:**
+    *   **Thăm khám lâm sàng:** Để xác định loại lệch lạc khớp cắn (ví dụ: khớp cắn hở theo ICD-10: K07.31, K07.33).
+    *   **Chụp X-quang:** Bao gồm phim sọ nghiêng (cephalometric), phim toàn cảnh (panorex X-rays). Các phim này cần được phân tích chi tiết để đánh giá cấu trúc xương, vị trí răng và sự thay đổi qua thời gian.
+    *   **Chụp ảnh:** Ảnh chụp thẳng và nghiêng của khuôn mặt, cùng với ảnh trong miệng, là cần thiết để đánh giá thẩm mỹ và chi tiết khớp cắn.
+    *   **Mẫu hàm chẩn đoán:** Để nghiên cứu tương quan cung hàm 3 chiều.
+    *   **Thời điểm thu thập:** Các dữ liệu này được lấy tại các thời điểm điều trị khác nhau (T1, T2, T3) để so sánh trước, trong và sau điều trị, cũng như theo dõi lâu dài.
+**3. Xử lý Thống kê (Processing Statistics):**
+*   **Phần mềm chuyên dụng:** Sử dụng các phần mềm thống kê như SPSS for Windows 22.0. Việc thành thạo phần mềm này là kỹ năng cơ bản cho mọi nhà nghiên cứu.
+*   **Phân tích sự khác biệt:**
+    *   **Independent t-test:** Dùng để so sánh giá trị trung bình giữa hai nhóm độc lập (ví dụ: so sánh kết quả trước và sau điều trị giữa nhóm 1 và nhóm 2, hoặc so sánh các chỉ số sọ mặt).
+    *   **Chi-square test:** Dùng để phân tích mối quan hệ giữa các biến định tính (ví dụ: tỷ lệ nam/nữ, tỷ lệ bệnh nhân theo phân loại Angle).
+*   **Ngưỡng ý nghĩa thống kê:** p &lt; 0.05. Điều này có nghĩa là một kết quả được coi là có ý nghĩa thống kê nếu xác suất xảy ra ngẫu nhiên của nó dưới 5%.
+*   **Phần mềm phân tích chuyên biệt:** Sử dụng FACAD® software program (Ilexis AB, Sweden) để phân tích phim X-quang sọ mặt, giúp đánh giá chính xác sự thay đổi trước và sau điều trị tại các thời điểm T1, T2, T3.
+**4. Thông tin Bệnh nhân và Diễn giải sơ bộ:**
+*   **Tổng số bệnh nhân và phân bố giới tính:** N=69, với 25 nam (36.2%) và 44 nữ (63.8%). Thông tin này cung cấp bối cảnh về đặc điểm dân số nghiên cứu và có thể gợi ý về ảnh hưởng của giới tính đến kết quả điều trị.
+*   **Độ tuổi:** Tuổi nhỏ nhất 9, lớn nhất 25, tuổi trung bình 14.2 ± 4.1 năm. Phân bố tuổi cho thấy nghiên cứu tập trung vào cả giai đoạn tăng trưởng và trưởng thành sớm, ảnh hưởng đến khả năng đáp ứng điều trị.
+*   **Phân loại khớp cắn theo Angle:** Ví dụ, 30 bệnh nhân thuộc Class I. Điều này là thông tin cơ bản về đặc điểm lâm sàng của nhóm bệnh nhân, giúp đánh giá tính đồng nhất của mẫu nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, làm thế nào để hiểu rõ hơn về tình trạng tái phát khớp cắn hở (anterior open bite relapse) được đề cập trong nghiên cứu và các nguyên tắc điều trị để đạt được kết quả ổn định lâu dài?</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến,
+Tình trạng tái phát khớp cắn hở là một thách thức thường gặp trong thực hành chỉnh nha. Theo nghiên cứu, tỷ lệ tái phát có thể lên tới 10.14%, thậm chí có trường hợp khớp cắn hở âm tính (1.44%), cho thấy sự phức tạp của việc duy trì kết quả điều trị. Để đạt được sự ổn định lâu dài, chúng ta cần nắm vững các nguyên tắc sau:
+*   **Hiểu rõ nguyên nhân tái phát**:
+    *   **Thói quen chức năng**: Thói quen đẩy lưỡi bất thường là một trong những nguyên nhân hàng đầu. Việc loại bỏ tư thế lưỡi bất thường là tối quan trọng, như nghiên cứu đã nhấn mạnh. Chúng ta cần hướng dẫn bệnh nhân các bài tập chỉnh sửa tư thế lưỡi (myofunctional therapy) trong suốt quá trình điều trị.
+    *   **Tăng trưởng hàm mặt còn lại**: Đặc biệt ở bệnh nhân đang tăng trưởng, kiểu tăng trưởng xoay dưới của xương hàm dưới có thể làm tăng nguy cơ tái phát khớp cắn hở.
+    *   **Thiết kế mắc cài và dây cung không phù hợp**: Kỹ thuật điều trị chưa đủ để đạt được sự lồng múi tối đa và khóa khớp.
+    *   **Không đạt được sự ổn định khớp cắn sau điều trị**: Mục tiêu là đạt được sự lồng múi tối đa và chức năng ăn nhai hiệu quả.
+*   **Nguyên tắc điều trị để đạt ổn định**:
+    *   **Khôi phục chức năng và thẩm mỹ**: Mục tiêu cốt lõi là loại bỏ khớp cắn hở để cải thiện thẩm mỹ, nụ cười và chức năng ăn nhai.
+    *   **Can thiệp toàn diện**:
+        *   **Nong rộng nhanh xương hàm trên**: Giúp tạo đủ không gian và điều chỉnh tương quan xương hàm.
+        *   **Đánh lún răng sau và trồi răng trước**: Như nghiên cứu đã chỉ ra, việc đánh lún răng hàm sau theo chiều dọc thân răng (apically) và trồi răng cửa theo chiều rìa cắn (incisally) là kỹ thuật chủ chốt. Kỹ thuật này sử dụng dây thẳng được uốn cong 45 độ ở hai đầu để kích thích xương hàm dưới xoay đóng khớp.
+        *   **Vị trí đặt mắc cài**: Mắc cài ở răng cửa được gắn sát nướu (0.5 - 1mm), và mắc cài ở răng hàm sau được gắn gần mặt nhai. Kỹ thuật này tối ưu hóa lực trồi răng cửa và đánh lún răng hàm sau.
+    *   **Kiểm soát tư thế lưỡi**: Giáo dục bệnh nhân về tư thế lưỡi đúng là không thể thiếu. Điều này cần được lặp lại và theo dõi thường xuyên.
+    *   **Duy trì thẩm mỹ khuôn mặt**: Đây cũng là một mục tiêu quan trọng cần được cân nhắc trong kế hoạch điều trị.
+    *   **Giai đoạn duy trì**: Luôn có kế hoạch duy trì rõ ràng sau khi tháo mắc cài, bao gồm hàm duy trì cố định và/hoặc tháo lắp.
+Việc tích hợp các nguyên tắc này vào thực hành lâm sàng sẽ giúp chúng ta đạt được kết quả điều trị khớp cắn hở không chỉ hiệu quả mà còn bền vững.</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Sách giáo trình Chỉnh nha Hiện đại (Contemporary Orthodontics) - William R. Proffit</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Cung cấp kiến thức cơ bản và nâng cao về chẩn đoán, kế hoạch điều trị và kỹ thuật chỉnh nha, đặc biệt là các phần liên quan đến khớp cắn hở và tái phát.</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Quản lý Tái phát trong Điều trị Khớp cắn Hở: Từ Lý Thuyết đến Lâm Sàng</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào việc xác định các yếu tố nguy cơ tái phát khớp cắn hở, các chiến lược phòng ngừa và kỹ thuật điều trị hiệu quả để duy trì sự ổn định lâu dài.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Chuyên gia có thể giải thích chi tiết hơn về các cơ chế điều trị đặc hiệu (nong rộng hàm trên, đánh lún răng sau, trồi răng trước) được đề cập trong nghiên cứu và vai trò của chúng trong việc cải thiện khớp cắn hở không?</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Các bạn đồng nghiệp và sinh viên y khoa,
+Nghiên cứu đã phác thảo một phương pháp điều trị khớp cắn hở rất cụ thể, nhấn mạnh sự kết hợp các cơ chế sinh học để đạt được hiệu quả. Hãy cùng phân tích sâu hơn về các kỹ thuật này:
+*   **Nong rộng nhanh xương hàm trên (Rapid Maxillary Expansion - RME)**:
+    *   **Mục đích**: Đây là bước thường được thực hiện đầu tiên, nhằm mở rộng vòm hàm trên, giải quyết tình trạng hẹp hàm trên, tạo không gian cho răng và cải thiện tương quan xương hàm.
+    *   **Cơ chế**: RME tạo ra lực tách rời khớp nối xương hàm trên (midpalatal suture), dẫn đến sự mở rộng xương. Điều này có thể gián tiếp tác động đến vị trí của xương hàm dưới, đôi khi giúp xoay hàm dưới đóng khớp.
+    *   **Lợi ích**: Cải thiện đường thở, tạo điều kiện thuận lợi cho việc kiểm soát lưỡi, và hỗ trợ cho các bước chỉnh nha tiếp theo.
+*   **Đánh lún răng sau theo chiều đỉnh chân răng (Intruding posterior teeth apically)**:
+    *   **Mục đích**: Giảm chiều cao mặt sau, cho phép xương hàm dưới xoay ngược chiều kim đồng hồ, từ đó giúp đóng khớp cắn hở ở phía trước.
+    *   **Cơ chế**: Sử dụng lực kéo lún tác động lên các răng hàm sau. Điều này thường được thực hiện thông qua các khí cụ đặc biệt hoặc kỹ thuật dây cung được thiết kế để tạo ra lực đánh lún.
+    *   **Kỹ thuật cụ thể trong nghiên cứu**: Việc đặt mắc cài răng hàm sau gần mặt nhai và sử dụng dây thẳng với góc uốn 45 độ ở hai đầu chính là cách tạo ra lực đánh lún hiệu quả, đồng thời kích thích sự xoay của xương hàm dưới.
+*   **Trồi răng trước theo chiều rìa cắn (Extruding anterior teeth incisally)**:
+    *   **Mục đích**: Đóng khoảng hở giữa răng cửa hàm trên và hàm dưới.
+    *   **Cơ chế**: Áp dụng lực trồi lên răng cửa. Nghiên cứu đã chỉ ra việc đặt mắc cài răng cửa sát nướu (0.5 - 1mm) là một kỹ thuật quan trọng. Khi mắc cài được đặt ở vị trí cao hơn trên thân răng (gần nướu), lực được truyền qua dây cung sẽ tạo ra mô men làm trồi răng cửa hiệu quả hơn.
+    *   **Kết hợp với đánh lún răng sau**: Sự kết hợp đồng thời đánh lún răng sau và trồi răng trước là chìa khóa để điều trị khớp cắn hở một cách toàn diện, tác động lên cả chiều cao mặt sau và mặt trước.
+**Tóm tắt các thay đổi và mục tiêu:**
+| Thay đổi lâm sàng | Mục tiêu điều trị | Kỹ thuật áp dụng |
+| :----------------- | :----------------- | :--------------- |
+| Khớp cắn hở trước | Loại bỏ khớp cắn hở, cải thiện thẩm mỹ và chức năng | Nong rộng hàm trên, đánh lún răng sau, trồi răng trước |
+| Overjet            | Đạt được tương quan overjet lý tưởng, ổn định khớp cắn | Điều chỉnh vị trí răng cửa và xương hàm |
+| Tái phát           | Giảm thiểu nguy cơ tái phát | Loại bỏ thói quen xấu (đẩy lưỡi), duy trì kết quả ổn định |
+Việc hiểu rõ từng cơ chế và cách chúng phối hợp với nhau sẽ giúp các bạn lập kế hoạch điều trị chính xác và hiệu quả hơn cho bệnh nhân khớp cắn hở.</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Sinh cơ học trong Chỉnh nha (Orthodontic Biomechanics: Treatment of Complex Cases) - Charles J. Burstone</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Giải thích các nguyên lý sinh cơ học đằng sau các kỹ thuật chỉnh nha, đặc biệt hữu ích để hiểu cách lực tác động lên răng và xương.</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Điều trị Khớp cắn Hở Nâng Cao: Phối hợp Sinh cơ học và Lâm sàng</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về các kỹ thuật điều trị khớp cắn hở phức tạp, bao gồm cả việc sử dụng minivis, dây cung chuyên biệt và phối hợp với các phương pháp chỉnh hình xương.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã chỉ ra một số kết quả thống kê quan trọng (p &lt; 0.001) và một số khác không có ý nghĩa thống kê (p = 0.25). Với tư cách là một bác sĩ trẻ, tôi nên hiểu và áp dụng các thông tin này vào thực hành lâm sàng như thế nào?</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Chào các bạn,
+Việc hiểu và diễn giải các kết quả thống kê là một kỹ năng thiết yếu đối với mỗi bác sĩ, đặc biệt khi chúng ta muốn thực hành dựa trên bằng chứng. Hãy cùng phân tích các con số trong nghiên cứu:
+*   **Ý nghĩa của p-value (giá trị p)**:
+    *   **p &lt; 0.001**: Giá trị p rất nhỏ (nhỏ hơn 0.001) cho thấy rằng sự khác biệt hoặc mối liên hệ được quan sát (ví dụ: sự gia tăng khớp cắn hở trước từ T2 đến T3, hay mối tương quan giữa overjet và khớp cắn hở trước) *rất khó xảy ra do ngẫu nhiên*. Điều này có nghĩa là chúng ta có bằng chứng mạnh mẽ để tin rằng có một sự khác biệt hoặc mối liên hệ thực sự tồn tại trong quần thể nghiên cứu.
+        *   **Ứng dụng lâm sàng**: Khi một yếu tố có ý nghĩa thống kê cao, chúng ta cần đặc biệt chú ý đến nó trong quá trình chẩn đoán, lập kế hoạch điều trị và theo dõi. Ví dụ, sự gia tăng khớp cắn hở từ T2 đến T3 với p &lt; 0.001 nhấn mạnh rằng tình trạng tái phát là có thật và cần có chiến lược phòng ngừa chủ động.
+    *   **p = 0.25**: Giá trị p này lớn hơn ngưỡng ý nghĩa thống kê thường dùng (thường là 0.05). Điều này có nghĩa là sự khác biệt được quan sát (ví dụ: sự khác biệt về giá trị trung bình khớp cắn hở của bệnh nhân theo phân loại Angle tại T3 so với T2) *có thể dễ dàng xảy ra do ngẫu nhiên*. Nói cách khác, chúng ta *không có đủ bằng chứng* để kết luận rằng có sự khác biệt có ý nghĩa thống kê giữa các nhóm phân loại Angle về giá trị khớp cắn hở tại thời điểm T3 so với T2.
+        *   **Ứng dụng lâm sàng**: Việc không có ý nghĩa thống kê không có nghĩa là không có sự khác biệt nào cả, mà chỉ là dữ liệu nghiên cứu không đủ mạnh để chứng minh điều đó. Đối với bác sĩ trẻ, điều này gợi ý rằng, trong bối cảnh cụ thể của nghiên cứu này, phân loại Angle có thể không phải là yếu tố tiên lượng mạnh mẽ cho sự thay đổi trung bình của khớp cắn hở sau điều trị. Tuy nhiên, không nên bỏ qua phân loại Angle hoàn toàn, vì nó vẫn là một công cụ chẩn đoán cơ bản và quan trọng để đánh giá tương quan răng hàm.
+*   **Tư vấn cho bác sĩ trẻ và sinh viên y khoa**:
+    *   **Đọc hiểu nghiên cứu**: Luôn tìm hiểu ý nghĩa của các con số thống kê, đặc biệt là giá trị p, kích thước mẫu, và khoảng tin cậy. Đừng chỉ nhìn vào kết quả 'có' hoặc 'không' có ý nghĩa thống kê.
+    *   **Tích hợp bằng chứng**: Dữ liệu nghiên cứu cung cấp bằng chứng để hỗ trợ quyết định lâm sàng. Tuy nhiên, mỗi bệnh nhân là một cá thể. Hãy kết hợp bằng chứng từ nghiên cứu với kinh nghiệm lâm sàng của bản thân và sở thích của bệnh nhân.
+    *   **Giới hạn của nghiên cứu**: Luôn nhận thức được giới hạn của các nghiên cứu (ví dụ: cỡ mẫu, thiết kế nghiên cứu, đối tượng nghiên cứu). Nghiên cứu này có thể cung cấp thông tin quý giá về một quần thể cụ thể, nhưng cần cân nhắc khi áp dụng cho bệnh nhân của bạn nếu có sự khác biệt đáng kể.
+    *   **Học hỏi liên tục**: Thống kê y học là một lĩnh vực rộng lớn. Tham gia các khóa học về phương pháp nghiên cứu và thống kê để nâng cao khả năng đánh giá tài liệu khoa học.
+Tóm lại, những con số thống kê không chỉ là những con số khô khan mà là nền tảng cho việc ra quyết định lâm sàng dựa trên bằng chứng. Hãy rèn luyện kỹ năng phân tích này để trở thành những bác sĩ vững vàng.</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Phương pháp Nghiên cứu và Thống kê trong Y học (Research Methods and Statistics in Medicine) - Cengage Learning</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Hướng dẫn toàn diện về thiết kế nghiên cứu, thu thập dữ liệu và phân tích thống kê, giúp người đọc hiểu và đánh giá các bài báo khoa học y tế.</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Phân tích Dữ liệu và Ra quyết định Lâm sàng dựa trên Bằng chứng trong Chỉnh nha</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Khóa học này trang bị cho học viên kỹ năng phân tích dữ liệu nghiên cứu, hiểu ý nghĩa thống kê và áp dụng thông tin này để đưa ra các quyết định lâm sàng tối ưu, đặc biệt trong lĩnh vực chỉnh nha.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Chào bạn, tôi là sinh viên y khoa năm cuối và đang làm đề tài về khớp cắn hở. Bạn có thể hướng dẫn tôi cách tiếp cận việc lựa chọn phương pháp điều trị cho bệnh nhân khớp cắn hở phía trước, đặc biệt là khi xem xét độ tuổi và mức độ nghiêm trọng không?</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng trong thực hành lâm sàng chỉnh nha. Việc lựa chọn phương pháp điều trị khớp cắn hở phía trước đòi hỏi một cái nhìn tổng thể và chiến lược dựa trên bằng chứng. Dưới đây là các bước và yếu tố bạn cần xem xét:
+*   **Đánh giá toàn diện bệnh nhân:**
+    *   **Lịch sử bệnh án và khám lâm sàng:** Xác định nguyên nhân khớp cắn hở (ví dụ: thói quen xấu, skeletal, răng, chức năng), mức độ nghiêm trọng (ví dụ: khoảng hở, vị trí hở). Lưu ý đến các yếu tố toàn thân và bệnh lý liên quan.
+    *   **Chẩn đoán hình ảnh:** Phim Cephalometric (phim sọ nghiêng), phim Panorama, và đôi khi là Cone Beam CT (CBCT) sẽ cung cấp thông tin chi tiết về cấu trúc xương hàm mặt, sự phát triển của xương, và vị trí của răng.
+*   **Yếu tố độ tuổi:**
+    *   **Bệnh nhân trẻ (đang phát triển):** Ở giai đoạn này, chúng ta có nhiều cơ hội để can thiệp vào sự phát triển của xương hàm. Các phương pháp chỉnh nha chức năng, khí cụ chỉnh hình (ví dụ: headgear kéo cằm, khí cụ chức năng ngăn chặn thói quen xấu) có thể được sử dụng để định hướng lại sự tăng trưởng của xương hàm, thường là xoay mặt ngược chiều kim đồng hồ để đóng khớp cắn hở.
+    *   **Bệnh nhân trưởng thành (ngừng phát triển):** Đối với người lớn, khi xương hàm đã ngừng phát triển, các phương pháp chỉnh nha thuần túy thường có giới hạn hơn trong việc thay đổi xương. Điều trị thường tập trung vào thay đổi vị trí răng hoặc kết hợp với phẫu thuật.
+*   **Mức độ nghiêm trọng của khớp cắn hở:**
+    *   **Khớp cắn hở nhẹ đến trung bình:** Có thể được điều trị hiệu quả bằng chỉnh nha không phẫu thuật. Ví dụ, sử dụng mini-screws (neo chặn tạm thời) để lún răng sau, làm xoay xương hàm dưới lên trên và ra trước, từ đó đóng khớp cắn hở.
+    *   **Khớp cắn hở nặng và liên quan đến xương:** Đặc biệt là ở bệnh nhân trưởng thành, phẫu thuật chỉnh hình xương hàm mặt (Orthognathic surgery) thường là cần thiết để đạt được kết quả ổn định và chức năng. Phẫu thuật giúp thay đổi vị trí tương quan giữa xương hàm trên và hàm dưới.
+*   **Các phương pháp điều trị cụ thể:**
+    *   **Chỉnh nha truyền thống:** Sử dụng mắc cài hoặc khay trong suốt.
+    *   **Neo chặn tạm thời (TADs - Temporary Anchorage Devices):** Như mini-screws, được đặt vào xương hàm để tạo điểm tựa vững chắc cho việc di chuyển răng. Nghiên cứu đã chỉ ra rằng việc lún răng sau bằng khí cụ neo chặn có thể đơn giản và hiệu quả hơn phẫu thuật hàm mặt trong một số trường hợp khớp cắn hở phía trước.
+    *   **Phẫu thuật hàm mặt:** Là lựa chọn tối ưu cho các trường hợp khớp cắn hở do nguyên nhân xương hàm nghiêm trọng, đặc biệt ở người lớn tuổi. Tuy nhiên, cần lưu ý rằng sự ổn định kết quả phẫu thuật có thể dao động từ 75-85% và đi kèm với các rủi ro và chi phí lớn hơn.
+**Lời khuyên cho bạn:**
+*   Luôn bắt đầu bằng chẩn đoán chính xác nguyên nhân và phân loại khớp cắn hở. ICD-10 có mã K07.2 cho các dị dạng xương hàm liên quan đến kích thước và tương quan, trong đó có khớp cắn hở.
+*   Thảo luận kỹ lưỡng với bệnh nhân về các lựa chọn điều trị, ưu nhược điểm của từng phương pháp, chi phí, thời gian và dự đoán kết quả cũng như mức độ ổn định.
+*   Tham khảo ý kiến của các chuyên gia khác (ví dụ: bác sĩ phẫu thuật hàm mặt) khi đối mặt với các trường hợp phức tạp.
+*   Cập nhật kiến thức y khoa liên tục về các kỹ thuật mới và bằng chứng lâm sàng.
+Chúc bạn thành công với đề tài của mình và có những đóng góp giá trị cho y học!</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và kế hoạch điều trị khớp cắn hở phía trước.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một cái nhìn tổng quan toàn diện về chẩn đoán, phân loại và các lựa chọn điều trị cho khớp cắn hở phía trước, giúp các bác sĩ trẻ và sinh viên y khoa xây dựng kế hoạch điều trị phù hợp dựa trên bằng chứng.</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Quản lý lâm sàng khớp cắn hở: Từ chỉnh nha đến phẫu thuật hàm mặt.</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Khóa học CME này đi sâu vào các khía cạnh chẩn đoán và điều trị khớp cắn hở, bao gồm các phương pháp chỉnh nha không phẫu thuật, ứng dụng neo chặn tạm thời và chỉ định phẫu thuật hàm mặt, giúp người học nâng cao kỹ năng lâm sàng và đưa ra quyết định điều trị tối ưu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Tôi là bác sĩ chỉnh nha trẻ và đang tìm hiểu về sự ổn định lâu dài của kết quả điều trị khớp cắn hở. Theo kinh nghiệm của bạn, những yếu tố nào ảnh hưởng đến sự ổn định và làm thế nào để giảm thiểu tái phát?</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Đây là một mối quan tâm chính đáng của mọi bác sĩ chỉnh nha, vì sự ổn định kết quả điều trị là thước đo thành công cuối cùng. Dựa trên các nghiên cứu và kinh nghiệm lâm sàng, dưới đây là các yếu tố ảnh hưởng và chiến lược để giảm thiểu tái phát khớp cắn hở:
+**I. Các yếu tố ảnh hưởng đến sự ổn định:**
+*   **Nguyên nhân của khớp cắn hở:** Khớp cắn hở do nguyên nhân chức năng (thói quen mút ngón tay, đẩy lưỡi) có thể dễ tái phát nếu thói quen không được loại bỏ triệt để. Khớp cắn hở do nguyên nhân xương hàm nghiêm trọng thường đòi hỏi sự can thiệp mạnh mẽ hơn và có nguy cơ tái phát cao hơn nếu không giải quyết triệt để cấu trúc xương.
+*   **Kỹ thuật điều trị:**
+    *   **Lún răng sau:** Việc lún răng sau (posterior intrusion) bằng mini-screws là một kỹ thuật hiệu quả để đóng khớp cắn hở và có thể tạo ra sự xoay mặt ngược chiều kim đồng hồ, góp phần vào sự ổn định.
+    *   **Phẫu thuật hàm mặt:** Mặc dù mang lại sự thay đổi đáng kể về xương, sự ổn định của kết quả phẫu thuật cũng cần được theo dõi sát sao, với tỷ lệ ổn định dao động từ 75-85% ở bệnh nhân lớn tuổi.
+*   **Độ tuổi bệnh nhân:** Bệnh nhân trưởng thành có mô hình tăng trưởng xương hàm đã hoàn thiện, do đó việc thay đổi xương phức tạp hơn và có thể ảnh hưởng đến sự ổn định nếu không có kế hoạch duy trì chặt chẽ.
+*   **Sự hợp tác của bệnh nhân:** Việc tuân thủ đeo khí cụ duy trì sau điều trị là cực kỳ quan trọng.
+**II. Chiến lược giảm thiểu tái phát:**
+1.  **Chẩn đoán và kế hoạch điều trị chính xác:**
+    *   Xác định rõ nguyên nhân gốc rễ của khớp cắn hở. Nếu nguyên nhân là do thói quen, cần can thiệp để loại bỏ thói quen đó (ví dụ: huấn luyện lưỡi, khí cụ chặn lưỡi).
+    *   Lập kế hoạch điều trị toàn diện, không chỉ giải quyết triệu chứng mà còn giải quyết nguyên nhân.
+2.  **Đạt được tương quan khớp cắn tối ưu:**
+    *   Mục tiêu là tạo ra một khớp cắn chức năng ổn định với các điểm tiếp xúc răng lý tưởng và hướng dẫn khớp cắn phù hợp.
+    *   Đảm bảo các răng sau có sự lồng múi tốt và các răng cửa có sự che phủ lý tưởng.
+3.  **Giai đoạn duy trì (Retention):** Đây là yếu tố then chốt nhất để ngăn ngừa tái phát. Các loại khí cụ duy trì bao gồm:
+    *   **Duy trì cố định:** Dây duy trì dán mặt trong răng cửa (Lingual bonded retainers) thường được khuyến nghị cho khớp cắn hở phía trước, đặc biệt ở hàm dưới, để ngăn chặn sự tái phát của các răng cửa.
+    *   **Duy trì tháo lắp:** Khí cụ Hawley hoặc máng trong suốt (Essix retainers) có thể được sử dụng, nhưng cần sự hợp tác tốt của bệnh nhân.
+    *   **Thời gian duy trì:** Thường là vĩnh viễn hoặc càng lâu càng tốt, đặc biệt đối với các trường hợp khớp cắn hở nặng hoặc có yếu tố di truyền.
+4.  **Theo dõi định kỳ:** Lên lịch tái khám định kỳ để kiểm tra sự ổn định của khớp cắn, tình trạng khí cụ duy trì và phát hiện sớm bất kỳ dấu hiệu tái phát nào. Việc theo dõi cần kéo dài nhiều năm sau khi kết thúc điều trị tích cực.
+**III. So sánh Tỷ lệ ổn định từ các nghiên cứu:**
+Để bạn có cái nhìn cụ thể hơn về sự ổn định, tôi xin cung cấp một bảng so sánh dựa trên thông tin từ đoạn văn và các tài liệu tham khảo:
+| Nghiên cứu/Nhóm theo dõi | Tỷ lệ ổn định (%) tại T3 | Ghi chú                                   |
+| :---------------------- | :----------------------: | :--------------------------------------- |
+| Nghiên cứu hiện tại     |          89.85           | Nhóm tổng thể 69 bệnh nhân                |
+| Silvia Geron et al. [6] |          87.5            | 39 ca khớp cắn hở phía trước ở người lớn |
+| Bệnh nhân lớn tuổi (Phẫu thuật) |       75 - 85            | Nguồn: Bailey et al., 2004; Ding et al., 2007; Espeland et al., 2008; Stansbury et al., 2010; Teittinen et al., 2012 |
+Như bạn thấy, tỷ lệ ổn định sau điều trị khớp cắn hở có thể rất cao, nhưng vẫn có một tỷ lệ tái phát nhỏ. Việc hiểu rõ các yếu tố và áp dụng các chiến lược duy trì hiệu quả sẽ giúp bạn tối đa hóa thành công lâm sàng. Hãy luôn cập nhật kiến thức và tham gia các khóa học chuyên sâu về duy trì kết quả chỉnh nha nhé!</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Quản lý duy trì sau điều trị chỉnh nha: Các bằng chứng và khuyến nghị lâm sàng.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng hợp các bằng chứng khoa học về các loại khí cụ duy trì và chiến lược quản lý giai đoạn duy trì, giúp các bác sĩ hiểu rõ tầm quan trọng và cách áp dụng hiệu quả để ngăn ngừa tái phát khớp cắn hở.</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Các chiến lược duy trì hiệu quả trong chỉnh nha hiện đại.</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ hướng dẫn các bác sĩ chỉnh nha cách lựa chọn và sử dụng các loại khí cụ duy trì cố định và tháo lắp một cách tối ưu, quản lý các yếu tố nguy cơ tái phát và xây dựng kế hoạch theo dõi lâu dài cho bệnh nhân khớp cắn hở và các dạng sai khớp cắn khác.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Là một sinh viên y khoa sắp ra trường, tôi muốn tìm hiểu kỹ hơn về tầm quan trọng của việc theo dõi lâu dài trong điều trị khớp cắn hở và các phương pháp đánh giá sự ổn định của kết quả điều trị theo thời gian. Bạn có thể giải thích chi tiết hơn về vấn đề này không?</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Tuyệt vời, việc hiểu về theo dõi lâu dài là cực kỳ cần thiết để trở thành một bác sĩ y khoa giỏi. Đối với điều trị khớp cắn hở, đây là một khía cạnh không thể thiếu để đảm bảo thành công bền vững. Hãy cùng đi sâu vào chủ đề này:
+**I. Tầm quan trọng của theo dõi lâu dài:**
+*   **Đánh giá sự ổn định thực sự:** Kết quả điều trị ngay sau khi tháo mắc cài (T2) có thể rất tốt, nhưng sự thay đổi sinh lý tự nhiên và ảnh hưởng của các yếu tố chức năng có thể dẫn đến tái phát theo thời gian. Chỉ qua theo dõi dài hạn (T3 và xa hơn) chúng ta mới có thể đánh giá được sự ổn định thực sự của kết quả.
+*   **Phát hiện sớm tái phát:** Theo dõi định kỳ giúp phát hiện sớm các dấu hiệu tái phát (ví dụ: khớp cắn hở tăng nhẹ trở lại) để có thể can thiệp kịp thời, tránh tình trạng tái phát nặng hơn và phức tạp hơn.
+*   **Đánh giá hiệu quả phương pháp:** Dữ liệu từ các nhóm theo dõi ngắn hạn (ST) và dài hạn (LT) giúp chúng ta hiểu rõ hơn về hiệu quả của các phương pháp điều trị khác nhau trên nhiều khung thời gian, từ đó đúc kết kinh nghiệm và cải thiện phác đồ điều trị.
+*   **Nghiên cứu khoa học và cải tiến:** Các nghiên cứu theo dõi dài hạn cung cấp bằng chứng giá trị để cộng đồng y khoa đánh giá, so sánh và cải tiến các phương pháp điều trị. Ví dụ, việc theo dõi 5 năm như trong đoạn văn (thời gian theo dõi trung bình cho nhóm LT là 4.290 ± 0.322 năm) là rất quan trọng để xác định tính bền vững của các kết quả điều trị.
+**II. Các phương pháp đánh giá sự ổn định theo thời gian:**
+Để đánh giá sự ổn định của kết quả điều trị khớp cắn hở, chúng ta sử dụng nhiều công cụ và kỹ thuật khác nhau, chủ yếu tập trung vào việc đo lường các thay đổi về cấu trúc xương và vị trí răng:
+1.  **Phân tích Cephalometric (Phim sọ nghiêng):** Đây là công cụ tiêu chuẩn vàng. Bằng cách chụp phim sọ nghiêng tại các thời điểm khác nhau (T1, T2, T3), chúng ta có thể:
+    *   **So sánh chồng phim (Superposition):** Kỹ thuật chồng phim sọ nghiêng (cephalometric film superposition method) cho phép so sánh chính xác sự thay đổi của cấu trúc xương và vị trí răng theo thời gian. Ví dụ, chồng phim trên nền sọ, trên xương hàm trên hoặc xương hàm dưới để đánh giá sự dịch chuyển của các điểm giải phẫu.
+    *   **Đo lường các góc và chỉ số:**
+        *   **Góc SNB:** Góc giữa mặt phẳng xương sọ trước (Sella-Nasion) và điểm B (điểm nhô nhất của xương hàm dưới). Sự tăng góc SNB cho thấy xương hàm dưới di chuyển ra trước hoặc xương sọ xoay ngược chiều kim đồng hồ, thường là một dấu hiệu tốt cho việc đóng khớp cắn hở.
+        *   **Góc ANB:** Góc giữa điểm A (điểm lồi nhất của xương hàm trên), Nasion và điểm B. Góc ANB giảm thường cho thấy sự cải thiện tương quan xương hàm, hoặc do xương hàm trên di chuyển lùi hoặc xương hàm dưới di chuyển tiến.
+        *   **Các chỉ số khác:** Các chỉ số về chiều cao tầng mặt sau, góc mặt phẳng hàm dưới (mandibular plane angle) cũng rất quan trọng để đánh giá sự xoay của xương hàm và mối quan hệ theo chiều dọc.
+2.  **Khám lâm sàng:** Kiểm tra trực quan khớp cắn, các điểm tiếp xúc răng, sự hiện diện của khoảng hở, và chức năng của các cơ quanh miệng.
+3.  **Mẫu hàm nghiên cứu:** So sánh các mẫu hàm được lấy tại các thời điểm khác nhau để đánh giá sự thay đổi về tương quan răng và khớp cắn.
+4.  **Chụp ảnh lâm sàng:** Cung cấp tài liệu trực quan về sự thay đổi của khuôn mặt và răng.
+**Lời khuyên cho bạn:**
+*   Khi thực hành, hãy luôn ghi lại hồ sơ bệnh án chi tiết, bao gồm cả các hình ảnh chẩn đoán tại các thời điểm khác nhau.
+*   Học cách phân tích phim cephalometric một cách thành thạo, vì đây là kỹ năng cốt lõi để đánh giá các thay đổi xương hàm mặt.
+*   Nhận thức rằng theo dõi lâu dài không chỉ là một quy trình kỹ thuật mà còn là một phần quan trọng của mối quan hệ bệnh nhân - bác sĩ, giúp xây dựng lòng tin và đảm bảo kết quả tốt nhất.</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Phân tích Cephalometric trong chẩn đoán và theo dõi điều trị chỉnh nha: Hướng dẫn chi tiết.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một hướng dẫn chuyên sâu về các kỹ thuật phân tích cephalometric, bao gồm cách chồng phim và diễn giải các chỉ số quan trọng như SNB, ANB, giúp sinh viên y khoa và bác sĩ lâm sàng đánh giá chính xác sự thay đổi của cấu trúc xương hàm mặt sau điều trị khớp cắn hở.</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Ứng dụng hình ảnh học và phân tích Cephalometric nâng cao trong chỉnh nha.</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào việc thành thạo các kỹ năng phân tích hình ảnh học (bao gồm phim sọ nghiêng 2D và 3D), kỹ thuật chồng phim, và ứng dụng các phần mềm chuyên dụng để theo dõi và đánh giá sự ổn định của kết quả điều trị chỉnh nha, đặc biệt là trong các trường hợp phức tạp như khớp cắn hở.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi tiếp cận một bệnh nhân bị khớp cắn hở phía trước, làm thế nào để phân loại và đánh giá ban đầu tình trạng khớp cắn để có hướng điều trị phù hợp theo các tiêu chuẩn y khoa?</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc phân loại và đánh giá khớp cắn hở phía trước là bước nền tảng để xây dựng kế hoạch điều trị chính xác. Với tư cách là một bác sĩ trẻ hoặc sinh viên y khoa, bạn cần nắm vững các điểm sau để chẩn đoán và định hướng điều trị theo chuẩn y khoa, đặc biệt là theo ICD-10:
+1.  **Phân loại theo Angle:** Đây là hệ thống phân loại khớp cắn kinh điển và quan trọng nhất. Đối với khớp cắn hở (ICD-10: K07.31 - Open bite, anterior), bạn cần xác định Angle Class của bệnh nhân:
+    *   **Angle Class I (K07.0, K07.31):** Quan hệ răng cối lớn hạng I, nhưng có khớp cắn hở phía trước. Theo nghiên cứu, đây là nhóm chiếm đa số (khoảng 43.5%).
+    *   **Angle Class II (K07.1, K07.31):** Quan hệ răng cối lớn hạng II, kèm khớp cắn hở phía trước. Thường liên quan đến hô hàm trên hoặc lùi hàm dưới. Chiếm khoảng 24.6%.
+    *   **Angle Class III (K07.2, K07.31):** Quan hệ răng cối lớn hạng III, kèm khớp cắn hở phía trước. Thường liên quan đến móm hoặc lùi hàm trên. Chiếm khoảng 31.9%. Lưu ý rằng mặc dù ban đầu có thể có độ cắn hở lớn hơn ở thời điểm T1, nhưng nghiên cứu cho thấy ở T2 và T3, giá trị cắn hở có thể nhỏ hơn so với Class I và II, tuy nhiên sự khác biệt này không có ý nghĩa thống kê.
+2.  **Đánh giá lâm sàng toàn diện:**
+    *   **Đo độ cắn hở (Open bite measurement):** Đo khoảng cách theo chiều dọc giữa rìa cắn răng cửa hàm trên và hàm dưới khi bệnh nhân cắn lại ở tư thế lồng múi tối đa. Giá trị âm (-) biểu thị cắn hở.
+    *   **Đánh giá độ cắn chìa (overjet) và độ cắn phủ (overbite):** Điều này giúp xác định mức độ sai khớp cắn tổng thể và mối liên hệ với khớp cắn hở. Sự tái phát của overjet có thể liên quan chặt chẽ đến tái phát khớp cắn hở.
+    *   **Phân tích chức năng:** Kiểm tra các thói quen xấu như mút ngón tay, đẩy lưỡi, thở miệng. Đánh giá chức năng nuốt, phát âm, và tư thế lưỡi lúc nghỉ. Hệ thống thần kinh cơ và lực nhai yếu là các yếu tố nguy cơ tái phát được nhiều tác giả tin tưởng.
+    *   **Đánh giá hình thái xương và răng:** Sử dụng phim X-quang (phim sọ nghiêng, phim toàn cảnh) để phân tích xương hàm, độ nghiêng răng, và các yếu tố giải phẫu khác góp phần gây ra khớp cắn hở.
+Bằng cách kết hợp phân loại Angle, đo lường chính xác và đánh giá chức năng, bạn sẽ có cái nhìn toàn diện để đưa ra chẩn đoán và kế hoạch điều trị hiệu quả cho bệnh nhân của mình, đồng thời sử dụng đúng mã ICD-10 để ghi nhận bệnh án.</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Em muốn tìm hiểu về phương pháp điều trị khớp cắn hở phía trước bằng cung thẳng và chun liên hàm. Xin chuyên gia cho lời khuyên về kỹ thuật thực hiện, những yếu tố cần lưu ý và làm thế nào để đảm bảo hiệu quả điều trị lâu dài?</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Kỹ thuật điều trị khớp cắn hở phía trước bằng cung thẳng (straight wire arch) kết hợp chun liên hàm là một phương pháp hiệu quả nhưng đòi hỏi sự tỉ mỉ, tuân thủ của bệnh nhân và kinh nghiệm của bác sĩ. Đây là một phương pháp điều trị bảo tồn (không phẫu thuật) phổ biến cho khớp cắn hở phía trước (ICD-10: K07.31).
+**1. Kỹ thuật và nguyên lý thực hiện:**
+*   **Trồi răng cửa hàm trên (extruding the anterior teeth incisally):** Mục tiêu là làm cho răng cửa hàm trên di chuyển xuống, tạo tiếp xúc với răng cửa hàm dưới. Điều này đóng góp vào việc đóng khoảng hở.
+*   **Lún răng cối hàm sau (intruding the posterior teeth apically):** Đây là một yếu tố then chốt để đóng khớp cắn hở. Việc lún các răng cối giúp xoay mặt phẳng cắn, giảm chiều cao tầng mặt dưới và cho phép răng cửa chạm vào nhau.
+*   **Sử dụng cung thẳng và chun liên hàm (interarch rubber band):** Chun liên hàm được sử dụng để tạo lực trồi răng cửa và lún răng cối. Thông thường, chun được kéo từ móc trên răng cửa hàm trên xuống móc trên răng cối hàm dưới, hoặc ngược lại, tùy theo mục tiêu và hướng lực cần tạo.
+**2. Yếu tố cần lưu ý và kinh nghiệm của bác sĩ:**
+*   **Kỹ thuật bẻ dây cung (bending technique):** Mặc dù được gọi là 'straight wire', nhưng việc điều chỉnh và bẻ các bước (steps) hoặc loops nhỏ trên dây cung để kiểm soát lực và hướng di chuyển răng là rất quan trọng. Điều này đòi hỏi kỹ năng và kinh nghiệm thực hành lâm sàng.
+*   **Kinh nghiệm xử lý vấn đề (physician’s troubleshooting experience):** Trong quá trình điều trị, có thể phát sinh các vấn đề như kích ứng niêm mạc, dây cung bị bung, hoặc lực chun không hiệu quả. Bác sĩ cần có khả năng chẩn đoán và xử lý nhanh chóng, tránh ảnh hưởng đến tiến độ điều trị.
+*   **Kiểm soát lực:** Lực chỉnh nha cần được kiểm soát nhẹ nhàng và liên tục để tối ưu hóa di chuyển răng và tránh các tác dụng phụ không mong muốn như tiêu chân răng.
+**3. Vai trò của bệnh nhân và tuân thủ điều trị:**
+*   **Tuân thủ sử dụng chun (patient's compliance):** Đây là yếu tố CỰC KỲ quan trọng, được nhấn mạnh trong nghiên cứu. Việc sử dụng chun liên hàm **20 giờ mỗi ngày trong 12 tháng** đầu là cần thiết để đạt được sự giảm đáng kể khớp cắn hở. Sau đó, việc đeo chun có thể giảm xuống chỉ dùng vào ban đêm để duy trì kết quả (khoảng 10 tháng tiếp theo).
+*   **Giáo dục bệnh nhân:** Hướng dẫn bệnh nhân cách tự đeo/tháo chun, vệ sinh răng miệng đúng cách và cách xử lý các vấn đề nhỏ. Việc giải thích rõ ràng về tầm quan trọng của việc đeo chun đầy đủ sẽ giúp tăng cường sự hợp tác của bệnh nhân.
+**4. Thông tin tổng quan về hiệu quả điều trị từ nghiên cứu:**
+| Giai đoạn điều trị | Thời gian sử dụng Chun liên hàm | Mục tiêu | Kết quả quan sát (từ nghiên cứu) |
+| :---------------- | :------------------------------ | :------- | :-------------------------------- |
+| Tích cực (Active) | 20 giờ/ngày (12 tháng) | Đóng khớp cắn hở phía trước | Giảm đáng kể khớp cắn hở ở 69 bệnh nhân |
+| Duy trì (Retention) | Ban đêm (khoảng 10 tháng) | Duy trì kết quả, giảm tái phát | Hỗ trợ ổn định kết quả sau điều trị |
+Để đảm bảo hiệu quả lâu dài, ngoài việc tuân thủ chun, cần hướng dẫn bệnh nhân thay đổi thói quen xấu (đẩy lưỡi, thở miệng) và thực hành tư thế lưỡi đúng, tăng cường lực nhai. Điều này sẽ được thảo luận chi tiết hơn trong phần về tái phát.</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Sau điều trị khớp cắn hở phía trước, vấn đề tái phát là một thách thức lớn. Xin chuyên gia chia sẻ các yếu tố nguy cơ tái phát, cách theo dõi và các biện pháp dự phòng để duy trì ổn định kết quả lâu dài cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Vấn đề tái phát (relapse) sau điều trị khớp cắn hở phía trước (ICD-10: K07.31) là một thách thức lớn trong chỉnh nha. Để đảm bảo kết quả ổn định lâu dài, các bác sĩ trẻ và sinh viên y khoa cần hiểu rõ các yếu tố nguy cơ và chiến lược quản lý hiệu quả:
+1.  **Các yếu tố nguy cơ tái phát chính:**
+    *   **Mọc trồi răng cối hàm trên (emergence of maxillary posterior teeth):** Đây là nguyên nhân hàng đầu gây tái phát, làm tăng chiều cao tầng mặt dưới và có thể mở lại khớp cắn. Cần theo dõi sự phát triển của xương hàm và răng sau điều trị.
+    *   **Các yếu tố chức năng và thần kinh cơ chưa được giải quyết:** Hệ thống thần kinh cơ phức tạp có thể gây ra sự mất ổn định. Bao gồm:
+        *   **Lực nhai yếu (weak mastication force):** Ảnh hưởng đến sự phát triển xương hàm và ổn định khớp cắn.
+        *   **Thói quen thở miệng (breathing by mouth):** Gây áp lực không cân bằng lên cung răng, ảnh hưởng đến tư thế lưỡi và môi.
+        *   **Môi không khép kín ở tư thế nghỉ (lips not closed in a resting position):** Tạo điều kiện cho các thói quen xấu và làm mất ổn định khớp cắn.
+        *   **Tư thế lưỡi sai (incorrect tongue posture):** Đẩy lưỡi vào khoảng hở hoặc đặt lưỡi ở vị trí thấp có thể duy trì hoặc gây tái phát khớp cắn hở.
+    *   **Độ cắn chìa (overjet) tái phát:** Nghiên cứu đã chỉ ra mối liên hệ chặt chẽ (p &lt; 0.001) giữa sự tái phát của overjet và tái phát của khớp cắn hở phía trước. Khi overjet tái phát, khớp cắn hở cũng có nguy cơ tái phát cao. Thậm chí có trường hợp cắn hở âm tính tái phát.
+2.  **Theo dõi sau điều trị (Post-treatment monitoring):**
+    *   **Theo dõi định kỳ:** Bệnh nhân cần được theo dõi sát sao sau khi kết thúc giai đoạn điều trị tích cực. Nghiên cứu cho thấy sự ổn định dài hạn của xương và răng trong điều trị khớp cắn hở (bất kể phương pháp phẫu thuật hay không phẫu thuật) trung bình là 3.2 năm. Trong nghiên cứu này, nhóm theo dõi dài hạn (LT) cho thấy độ cắn hở có xu hướng tăng trở lại ở các thời điểm T2 và T3 sau điều trị.
+    *   **Đánh giá lại overjet và overbite:** Đo đạc thường xuyên các chỉ số này để phát hiện sớm dấu hiệu tái phát. Ví dụ, trong nghiên cứu, 7 bệnh nhân (10.14%) có tái phát overjet với giá trị trung bình -0.529 mm ± 0.236.
+    *   **Kiểm tra các thói quen chức năng:** Đánh giá tư thế lưỡi, chức năng nuốt, và thói quen thở miệng trong các buổi tái khám để có thể can thiệp kịp thời.
+3.  **Các biện pháp dự phòng và duy trì ổn định:**
+    *   **Thiết lập tư thế lưỡi đúng mới (establish the new correct tongue posture):** Đây là yếu tố then chốt để đạt được sự ổn định lâu dài. Hướng dẫn bệnh nhân các bài tập lưỡi để đặt lưỡi đúng vị trí (áp sát vòm miệng) khi nghỉ ngơi, nuốt và nói.
+    *   **Tăng cường lực nhai (increasing mastication force):** Khuyến khích bệnh nhân ăn các thức ăn dai hơn hoặc nhai kẹo cao su (không đường) để tăng cường hoạt động cơ nhai, giúp ổn định xương và răng.
+    *   **Sử dụng khí cụ duy trì (retainers):** Sau khi tháo mắc cài, khí cụ duy trì cần được sử dụng liên tục (ban đêm) trong một thời gian dài để củng cố kết quả. Nghiên cứu đề cập việc sử dụng chun liên hàm vào ban đêm trong khoảng 10 tháng để duy trì kết quả. Các loại khí cụ duy trì cố định hoặc tháo lắp cần được chỉ định phù hợp với từng trường hợp lâm sàng.
+    *   **Giáo dục bệnh nhân:** Về tầm quan trọng của việc duy trì, tránh các thói quen xấu và tuân thủ các hướng dẫn chức năng là tối quan trọng để đạt được kết quả bền vững.</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, xin vui lòng hướng dẫn về phương pháp điều trị sai khớp cắn hở phía trước bằng phương pháp không phẫu thuật, đặc biệt là các kỹ thuật được đề cập trong tài liệu và cách quản lý để đạt được kết quả ổn định lâu dài cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Chào bạn, rất vui được chia sẻ kiến thức về điều trị sai khớp cắn hở phía trước không phẫu thuật, một chủ đề quan trọng đối với các bác sĩ chỉnh nha trẻ. Phương pháp này, dù có vẻ đơn giản, nhưng đòi hỏi sự tỉ mỉ và kinh nghiệm để đạt được kết quả tốt và ổn định lâu dài.
+**Các kỹ thuật chính và nguyên tắc:**
+*   **Đùn răng cửa ra phía rìa cắn (extruding of anterior teeth incisially):** Kỹ thuật này nhằm kéo dài thân răng cửa, giúp đóng khoảng hở giữa các răng cửa trên và dưới. Đây là một động tác kiểm soát lực dọc quan trọng.
+*   **Lún răng sau vào phía chóp (intruding posterior teeth apically):** Kỹ thuật này tác động làm lún các răng hàm phía sau, giúp xoay mặt phẳng khớp cắn và từ đó đóng khớp cắn hở phía trước. Việc kiểm soát lực lún răng sau cần được thực hiện cẩn thận để tránh các tác dụng phụ không mong muốn.
+*   **Sử dụng dây cung thẳng (straight wire arch) và chun liên hàm (interarch rubber band):** Đây là công cụ cơ bản để tạo lực liên tục và kiểm soát các chuyển động răng theo ba chiều không gian. Chun liên hàm đóng vai trò cốt yếu trong việc tạo ra lực lún răng sau và đùn răng trước, đòi hỏi sự tuân thủ cao từ bệnh nhân.
+**Kết quả và tính ổn định:**
+*   Nghiên cứu cho thấy phương pháp này đạt được kết quả tốt và ổn định lâu dài với tỷ lệ **89.85%**.
+*   Tuy nhiên, tỷ lệ tái phát khớp cắn hở phía trước vẫn tồn tại ở mức **10.14%** tại thời điểm T3 (thường là 3 năm sau điều trị). Điều này nhấn mạnh tầm quan trọng của việc duy trì và theo dõi lâu dài.
+*   **Mối liên hệ giữa Overjet và ổn định khớp cắn hở:** Sự ổn định của overjet (khoảng cách ngang giữa răng cửa trên và dưới) sau điều trị có mối liên hệ mật thiết với sự ổn định của khớp cắn hở phía trước. Khi overjet tái phát, khớp cắn hở phía trước cũng có xu hướng tái phát theo. Điều này nhấn mạnh tầm quan trọng của việc duy trì overjet lý tưởng sau điều trị.
+**Lời khuyên cho bác sĩ trẻ để quản lý hiệu quả:**
+1.  **Nắm vững cơ sinh học:** Hiểu rõ cách các lực tác động lên răng và xương hàm khi sử dụng dây cung và chun liên hàm. Thực hành trên mô hình và theo dõi các ca lâm sàng có kinh nghiệm.
+2.  **Rèn luyện kỹ thuật bẻ dây (bending technique):** Đây là một kỹ năng then chốt. Hãy tham gia các khóa học thực hành, thực hành thường xuyên để đạt được độ chính xác cao trong việc bẻ dây, kiểm soát torque, tip và in/out.
+3.  **Quản lý sự tuân thủ của bệnh nhân (patient compliance):** Điều này vô cùng quan trọng. Hãy dành thời gian giáo dục bệnh nhân về tầm quan trọng của việc đeo chun liên hàm đúng cách, đúng thời gian. Sử dụng các công cụ nhắc nhở và tạo động lực cho bệnh nhân.
+4.  **Phát triển kinh nghiệm xử lý các vấn đề phát sinh (troubleshooting experience):** Ghi chép cẩn thận các vấn đề phát sinh (mất chun, dây cung lỏng, chuyển động răng không mong muốn) và cách xử lý. Tham khảo ý kiến từ các đồng nghiệp có kinh nghiệm.
+5.  **Thiết lập giai đoạn duy trì (retention) phù hợp:** Sau khi hoàn tất giai đoạn chỉnh nha, khí cụ duy trì là bắt buộc để giữ vững kết quả, phòng tránh tái phát. Lựa chọn khí cụ phù hợp và hướng dẫn bệnh nhân tuân thủ nghiêm ngặt.</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, tại sao sai khớp cắn hở phía trước lại dễ tái phát sau điều trị không phẫu thuật, và những yếu tố nào ảnh hưởng đến sự ổn định của kết quả điều trị? Xin vui lòng chỉ ra các chiến lược để các bác sĩ trẻ có thể giảm thiểu nguy cơ tái phát.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, việc hiểu rõ các yếu tố ảnh hưởng đến sự tái phát và ổn định của khớp cắn hở phía trước là cực kỳ quan trọng để đảm bảo thành công lâu dài cho bệnh nhân. Mặc dù tỷ lệ thành công của điều trị không phẫu thuật khá cao (89.85% ổn định), nhưng vẫn có 10.14% trường hợp tái phát, điều này cho thấy chúng ta không thể chủ quan.
+**Các yếu tố chính ảnh hưởng đến sự ổn định và nguy cơ tái phát:**
+1.  **Sự ổn định của Overjet sau điều trị:** Nếu overjet sau điều trị không được duy trì ổn định, có xu hướng tái phát (ví dụ: giảm quá mức hoặc tăng trở lại), thì khớp cắn hở phía trước cũng có nguy cơ tái phát cao. Việc duy trì mối quan hệ răng cửa trước lý tưởng là chìa khóa.
+2.  **Sự tuân thủ của bệnh nhân (Patient Compliance):** Đây là yếu tố sống còn, đặc biệt khi sử dụng chun liên hàm. Nếu bệnh nhân không đeo chun theo đúng hướng dẫn về thời gian và lực, hiệu quả điều trị sẽ bị ảnh hưởng nghiêm trọng và nguy cơ tái phát tăng lên đáng kể.
+3.  **Kỹ thuật bẻ dây (Bending Technique) và kinh nghiệm của bác sĩ:** Điều trị khớp cắn hở đòi hỏi kiểm soát 3 chiều không gian chính xác. Bẻ dây cung với torque, tip và in/out không phù hợp có thể dẫn đến các chuyển động răng không mong muốn và làm giảm sự ổn định của kết quả. Kinh nghiệm xử lý các tình huống phức tạp (troubleshooting) cũng rất quan trọng.
+4.  **Cân bằng chức năng môi – lưỡi:** Áp lực từ lưỡi (ví dụ: đẩy lưỡi) hoặc môi không cân bằng có thể gây lực đẩy không mong muốn lên răng cửa, góp phần vào tái phát.
+5.  **Kiểu tăng trưởng xương hàm:** Đối với bệnh nhân ở giai đoạn tăng trưởng (mặc dù đoạn văn tập trung vào người lớn), kiểu tăng trưởng theo chiều dọc có thể góp phần vào tái phát nếu không được kiểm soát phù hợp.
+**Bảng so sánh: Yếu tố thúc đẩy ổn định và nguy cơ tái phát**
+| Yếu tố                  | Thúc đẩy ổn định                                   | Tăng nguy cơ tái phát                                         |
+| :---------------------- | :------------------------------------------------ | :------------------------------------------------------------ |
+| **Overjet sau điều trị** | Duy trì overjet lý tưởng và ổn định                | Overjet tái phát hoặc không đạt được giá trị mong muốn       |
+| **Tuân thủ bệnh nhân**  | Đeo chun liên hàm đầy đủ, đúng cách                | Bệnh nhân không tuân thủ, đeo chun không đều                  |
+| **Kỹ thuật bẻ dây**     | Bẻ dây chính xác, kiểm soát lực tốt                | Bẻ dây không chính xác, lực không phù hợp, không kiểm soát torque |
+| **Kinh nghiệm bác sĩ**  | Xử lý tốt các vấn đề phát sinh, điều chỉnh kịp thời | Thiếu kinh nghiệm, khó khăn trong việc điều chỉnh phác đồ     |
+| **Chức năng môi - lưỡi** | Cân bằng chức năng môi - lưỡi, không có thói quen xấu | Thói quen đẩy lưỡi, rối loạn chức năng cơ học                |
+**Chiến lược giảm thiểu nguy cơ tái phát cho bác sĩ trẻ:**
+*   **Thẩm định lại kế hoạch điều trị:** Luôn đánh giá lại các yếu tố gây bệnh và mục tiêu điều trị trong suốt quá trình và sau điều trị.
+*   **Giáo dục bệnh nhân chuyên sâu:** Dành thời gian giải thích rõ ràng tầm quan trọng của sự tuân thủ, đặc biệt là với chun liên hàm và khí cụ duy trì. Sử dụng hình ảnh, video minh họa.
+*   **Rèn luyện kỹ năng lâm sàng:** Liên tục học hỏi và thực hành kỹ thuật bẻ dây, kỹ năng điều chỉnh lực. Tham gia các buổi hội thảo, khóa học chuyên sâu.
+*   **Thiết lập giai đoạn duy trì (Retention) hiệu quả:** Lựa chọn khí cụ duy trì phù hợp (ví dụ: máng duy trì trong suốt, duy trì cố định mặt lưỡi) và đảm bảo bệnh nhân tuân thủ chặt chẽ giai đoạn này.
+*   **Theo dõi định kỳ dài hạn:** Sắp xếp lịch tái khám sau khi tháo mắc cài, đặc biệt là trong những năm đầu, để phát hiện sớm dấu hiệu tái phát và can thiệp kịp thời.</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Để thực hiện thành công phương pháp điều trị khớp cắn hở phía trước không phẫu thuật bằng dây thẳng và chun liên hàm, một bác sĩ chỉnh nha cần trang bị những kỹ năng và kinh nghiệm cụ thể nào? Xin chuyên gia gợi ý các tài liệu và khóa học CME phù hợp để nâng cao năng lực chuyên môn.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Xin chào các bạn đồng nghiệp tương lai và các bác sĩ trẻ, việc phát triển các kỹ năng và kinh nghiệm cần thiết là yếu tố then chốt để làm chủ phương pháp điều trị khớp cắn hở phía trước không phẫu thuật. Phương pháp này tuy 'đơn giản và dễ thực hiện' về mặt lý thuyết nhưng đòi hỏi một 'bác sĩ điều trị có kinh nghiệm về kỹ thuật bẻ dây và xử lý các vấn đề phát sinh' cũng như 'sự tuân thủ của bệnh nhân'.
+**Các kỹ năng và kinh nghiệm cần trang bị:**
+1.  **Nắm vững sinh cơ học chỉnh nha:**
+    *   Hiểu sâu về cách tạo lực và phân bố lực của dây cung thẳng, chun liên hàm để đạt được chuyển động răng mong muốn mà không gây tác dụng phụ.
+    *   Kiến thức vững chắc về sinh lý học xương và răng trong quá trình di chuyển răng là nền tảng cho mọi quyết định lâm sàng.
+2.  **Kỹ năng bẻ dây cung chính xác (Bending Technique):**
+    *   Đây là một trong những kỹ năng thủ công quan trọng nhất trong chỉnh nha dây thẳng. Cần thành thạo việc tạo ra các bẻ dây với độ chính xác cao về góc (tip), độ nghiêng (torque), và độ lồi/lõm (in/out) để đạt được sự kiểm soát 3 chiều mong muốn của răng.
+    *   Thực hành trên mô hình, thực hành lặp đi lặp lại để xây dựng 'muscle memory' và sự tự tin, biến kỹ thuật thành nghệ thuật.
+3.  **Kinh nghiệm xử lý các vấn đề phát sinh (Troubleshooting Experience):**
+    *   Khả năng nhận diện sớm và giải quyết các biến chứng hoặc phản ứng không mong muốn của cơ thể trong suốt quá trình điều trị. Ví dụ: dây cung bị biến dạng, kích ứng niêm mạc, chuyển động răng không đạt yêu cầu, mất neo chặn, hoặc phản ứng của bệnh nhân.
+    *   Học hỏi từ các ca lâm sàng của chính mình và của người khác, tham khảo ý kiến chuyên gia và ghi chép kinh nghiệm là cách tốt nhất để tích lũy.
+4.  **Kỹ năng giao tiếp và quản lý bệnh nhân (Patient Management &amp; Compliance):**
+    *   Hiểu tâm lý bệnh nhân để giáo dục họ về tầm quan trọng của việc tuân thủ điều trị (đeo chun, vệ sinh răng miệng, tránh thức ăn cứng...). Đây là một phần không thể thiếu để đạt được kết quả mong muốn.
+    *   Xây dựng mối quan hệ tin cậy, động viên và khích lệ bệnh nhân duy trì hợp tác là chìa khóa thành công.
+**Gợi ý tài liệu tham khảo và khóa học CME phù hợp để nâng cao năng lực chuyên môn:**
+Để nâng cao năng lực, bạn có thể tham khảo:
+*   **Sách giáo khoa chỉnh nha kinh điển:** Như 'Contemporary Orthodontics' của William Proffit, 'Orthodontics: Current Principles and Techniques' của Graber &amp; Vanarsdall, sẽ cung cấp nền tảng vững chắc về lý thuyết và các nguyên tắc điều trị.
+*   **Tạp chí chuyên ngành:** Đọc thường xuyên các tạp chí như 'American Journal of Orthodontics and Dentofacial Orthopedics (AJODO)', 'The Angle Orthodontist', 'European Journal of Orthodontics' (như các tài liệu trong phần 'PREFERENCES' của đoạn văn). Đây là nguồn cập nhật các nghiên cứu mới nhất và kinh nghiệm lâm sàng.
+*   **Khóa học CME chuyên sâu:**
+    *   **Khóa học về kỹ thuật dây thẳng (Straight Wire Technique):** Tìm các khóa học có phần thực hành lab trên mô hình để rèn luyện kỹ năng bẻ dây. Các khóa học này thường cung cấp hướng dẫn từng bước để làm chủ kỹ thuật.
+    *   **Khóa học về quản lý khớp cắn hở:** Nhiều khóa học chuyên sâu về chẩn đoán, lập kế hoạch điều trị và quản lý các dạng khớp cắn hở khác nhau, bao gồm cả kỹ thuật sử dụng neo chặn tạm thời (TADs) như được đề cập trong một số tài liệu tham khảo.
+    *   **Hội thảo lâm sàng và báo cáo ca:** Tham gia các buổi hội thảo nơi các chuyên gia trình bày các ca lâm sàng phức tạp và cách họ đã xử lý. Đây là cách tuyệt vời để học hỏi 'troubleshooting experience' và mở rộng tầm nhìn lâm sàng.
+    *   **Mentorship/Học việc:** Nếu có thể, hãy tìm một bác sĩ chỉnh nha giàu kinh nghiệm để học việc, quan sát và tham gia trực tiếp vào các ca lâm sàng dưới sự hướng dẫn. Đây là cách tốt nhất để tích lũy kinh nghiệm thực tế và rút ngắn con đường học tập.</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên kiến thức y khoa chính thống và chuẩn ICD-10 của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ hoặc sinh viên y khoa, khi tiếp cận bệnh nhân có biểu hiện cắn hở phía trước (anterior open bite) như các trường hợp trong bài viết, tôi cần thực hiện các bước chẩn đoán ban đầu nào và làm thế nào để phân loại chính xác tình trạng này theo Angle?</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Chào bạn! Cắn hở phía trước là một tình trạng khớp cắn phức tạp đòi hỏi sự chẩn đoán kỹ lưỡng để đưa ra kế hoạch điều trị phù hợp. Dưới đây là các bước bạn cần thực hiện và những điểm cần lưu ý trong quá trình chẩn đoán ban đầu:
+*   **1. Thu thập tiền sử bệnh án (Anamnesis) chi tiết:**
+    *   **Lý do đến khám:** Bệnh nhân lo lắng về chức năng ăn nhai, phát âm (ví dụ: khó phát âm các âm S, F), hay vấn đề thẩm mỹ? Mức độ ảnh hưởng đến chất lượng cuộc sống?
+    *   **Tiền sử y khoa và nha khoa:** Tìm hiểu các bệnh lý toàn thân có thể ảnh hưởng đến tăng trưởng xương (ví dụ: rối loạn nội tiết), các thói quen xấu kéo dài (đẩy lưỡi, mút ngón tay, thở miệng, nghiến răng), tiền sử chấn thương vùng hàm mặt, hoặc các điều trị chỉnh nha trước đây.
+    *   **Tiền sử gia đình:** Hỏi về các thành viên khác trong gia đình có tiền sử cắn hở hoặc lệch lạc khớp cắn tương tự không, nhằm đánh giá yếu tố di truyền.
+*   **2. Khám lâm sàng toàn diện:**
+    *   **Đánh giá ngoài mặt (Extraoral Examination):**
+        *   **Tỷ lệ khuôn mặt:** Đánh giá chiều cao tầng mặt dưới (có thể tăng trong cắn hở), độ đóng môi khi nghỉ (môi hở, khó se khít).
+        *   **Môi:** Quan sát độ se khít môi khi nghỉ và khi nuốt, trương lực cơ môi.
+        *   **Khớp thái dương hàm (TMJ):** Kiểm tra có tiếng kêu, đau hay hạn chế vận động không.
+    *   **Khám trong miệng (Intraoral Examination):**
+        *   **Khớp cắn:** Xác định chính xác cắn hở phía trước bằng cách đo khoảng cách giữa rìa cắn răng cửa trên và dưới khi bệnh nhân cắn khít trung tâm (ví dụ: 8mm như Phan Q. hay 9mm như Đặng Nguyễn Thị T.). Quan sát răng nào bị hở cắn và mức độ hở.
+        *   **Tình trạng răng và nha chu:** Sâu răng, bệnh nha chu, mòn răng, vị trí răng sai lệch, có răng thừa/thiếu hoặc răng ngầm không.
+        *   **Lưỡi:** Đánh giá kích thước lưỡi, vị trí lưỡi khi nuốt và phát âm. Đặc biệt chú ý dấu hiệu đẩy lưỡi (tongue thrust) có thể là nguyên nhân hoặc yếu tố duy trì cắn hở.
+*   **3. Phân loại theo Angle (Angle's Classification):**
+    Hệ thống phân loại Angle là cơ sở để đánh giá tương quan khớp cắn theo chiều trước-sau, dựa trên mối quan hệ giữa múi ngoài gần của răng cối lớn thứ nhất hàm trên và rãnh má ngoài của răng cối lớn thứ nhất hàm dưới.
+    *   **Angle Class I:** Múi ngoài gần răng cối lớn thứ nhất hàm trên khớp với rãnh má ngoài răng cối lớn thứ nhất hàm dưới. (Ví dụ: Lê Thu H. có cắn hở 4mm nhưng khớp cắn nền tảng là loại I). Đây thường là cắn hở do yếu tố răng hoặc thói quen xấu.
+    *   **Angle Class II:** Rãnh má ngoài răng cối lớn thứ nhất hàm dưới nằm xa hơn về phía xa so với múi ngoài gần răng cối lớn thứ nhất hàm trên (hàm dưới lùi).
+    *   **Angle Class III:** Rãnh má ngoài răng cối lớn thứ nhất hàm dưới nằm gần hơn về phía gần so với múi ngoài gần răng cối lớn thứ nhất hàm trên (hàm dưới nhô). (Ví dụ: Phan Q., Đặng Nguyễn Thị T., Trương Việt H. đều có cắn hở và Class III). Thường liên quan đến lệch lạc nền xương.
+    *   **Lưu ý quan trọng:** Cắn hở là một biểu hiện của lệch lạc khớp cắn có thể đi kèm với bất kỳ loại Angle nào, nhưng thường phổ biến và phức tạp hơn ở Class III do liên quan đến phát triển xương theo chiều dọc.
+*   **4. Chẩn đoán hình ảnh và phân tích mẫu hàm:**
+    *   **Phim X-quang toàn cảnh (Panorex):** Đánh giá tổng thể tình trạng răng, xương hàm, phát hiện răng ngầm, răng thừa, bệnh lý quanh chóp.
+    *   **Phim X-quang sọ nghiêng (Lateral Cephalometric):** Đây là phim thiết yếu nhất để phân tích cấu trúc xương sọ mặt, vị trí và góc nghiêng của răng cửa, tương quan nền xương hàm trên (SNA) và hàm dưới (SNB), góc ANB, chiều cao tầng mặt sau/trước (AFH/PFH ratio). Phim này cung cấp thông tin quý giá để xác định nguyên nhân cắn hở là do răng hay xương.
+    *   **Mẫu hàm nghiên cứu:** Lấy dấu và đúc mẫu hàm để đánh giá chi tiết khớp cắn, đường cong Spee, đường cong Wilson, và sự chen chúc của răng.
+    *   **Ảnh chụp trong miệng và ngoài mặt:** Ghi lại tình trạng ban đầu của bệnh nhân để theo dõi tiến trình điều trị và đánh giá kết quả.
+*   **Mã ICD-10 liên quan:**
+    *   **K07.3:** Lệch lạc khớp cắn, bao gồm cắn hở (Open bite), cắn chéo (Crossbite), lồng múi quá mức (Deep bite), và các loại sai khớp cắn theo Angle (Class I, II, III). Cần ghi rõ mã phụ nếu có thể (ví dụ: K07.31 cho cắn hở).
+Việc hiểu rõ từng bước này sẽ giúp bạn có cái nhìn toàn diện về tình trạng của bệnh nhân, xác định nguyên nhân gây cắn hở, và đặt nền tảng vững chắc cho việc lập kế hoạch điều trị hiệu quả. Đây là kỹ năng cốt lõi mà mỗi bác sĩ chỉnh nha trẻ cần nắm vững.</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa Nắn chỉnh răng (Orthodontics: Current Principles and Techniques) - W. Proffit, H. Fields, D. Sarver</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Đây là một tài liệu cơ bản và toàn diện, được coi là 'kim chỉ nam' cho sinh viên và bác sĩ trẻ về các nguyên lý và kỹ thuật hiện đại trong chỉnh nha. Sách bao gồm các phần về chẩn đoán, phân loại các dạng lệch lạc khớp cắn (đặc biệt là cắn hở), và các phương pháp điều trị dựa trên bằng chứng khoa học. Đọc và hiểu kỹ cuốn sách này sẽ xây dựng nền tảng vững chắc cho thực hành chỉnh nha.</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Chẩn đoán và Kế hoạch điều trị cơ bản trong Chỉnh nha</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Khóa học này được thiết kế đặc biệt để cung cấp kiến thức nền tảng và kỹ năng lâm sàng cho các bác sĩ nha khoa mới ra trường và sinh viên y khoa trong việc nhận diện, chẩn đoán và lập kế hoạch điều trị ban đầu cho các trường hợp lệch lạc khớp cắn thông thường, bao gồm cắn hở. Khóa học sẽ tập trung vào phân tích phim X-quang sọ nghiêng, mẫu hàm và khám lâm sàng để đưa ra chẩn đoán chính xác theo chuẩn quốc tế và mã ICD-10.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên kiến thức y khoa chính thống và chuẩn ICD-10 của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Các trường hợp bệnh nhân trong bài viết cho thấy sự khác biệt về phân loại Angle và độ tuổi. Làm thế nào để phân biệt và đưa ra các kế hoạch điều trị cắn hở phía trước phù hợp giữa bệnh nhân Class I Angle (như Lê Thu H., 25 tuổi) và Class III Angle (như Phan Q., 14 tuổi hoặc Đặng Nguyễn Thị T., 22 tuổi)?</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Chào bạn! Việc lập kế hoạch điều trị cắn hở phía trước đòi hỏi sự hiểu biết sâu sắc về sinh lý tăng trưởng, cơ chế bệnh sinh của từng loại lệch lạc khớp cắn, và độ tuổi của bệnh nhân. Dưới đây là những điểm cốt lõi giúp bạn phân biệt và đưa ra hướng điều trị phù hợp cho từng trường hợp:
+*   **1. Cơ sở chẩn đoán và đánh giá yếu tố tăng trưởng:**
+    *   **Bệnh nhân trẻ (ví dụ Phan Q., 14 tuổi):** Ở giai đoạn vị thành niên, bệnh nhân vẫn còn tiềm năng tăng trưởng xương hàm mặt đáng kể. Đây là 'thời điểm vàng' cho các phương pháp điều trị chỉnh hình chức năng (orthopedic treatment) nhằm điều hướng tăng trưởng xương. Mục tiêu chính là kiểm soát sự phát triển quá mức của xương hàm dưới (trong trường hợp Class III) và khuyến khích sự phát triển theo chiều dọc của xương hàm trên.
+    *   **Bệnh nhân trưởng thành (ví dụ Lê Thu H., 25 tuổi; Đặng Nguyễn Thị T., 22 tuổi):** Giai đoạn tăng trưởng xương hàm mặt đã kết thúc. Các thay đổi về xương hàm mặt một cách đáng kể chủ yếu phải thông qua phẫu thuật chỉnh hình (orthognathic surgery) kết hợp với chỉnh nha.
+*   **2. Đặc điểm của Cắn hở phía trước liên quan đến loại Angle:**
+    *   **Cắn hở Class I Angle (như Lê Thu H.):** Thường liên quan đến các yếu tố tại chỗ như thói quen xấu (đẩy lưỡi, mút ngón tay), răng cửa trồi quá mức, hoặc mất cân bằng cơ. Nền xương hàm thường có tương quan tốt (Angle Class I). Điều trị tập trung vào loại bỏ thói quen xấu, kiểm soát đẩy lưỡi và điều chỉnh vị trí răng.
+    *   **Cắn hở Class III Angle (như Phan Q., Đặng Nguyễn Thị T., Trương Việt H.):** Thường phức tạp hơn, có thể do xương hàm trên kém phát triển, xương hàm dưới phát triển quá mức, hoặc cả hai, cùng với vị trí răng cửa bù trừ. Điều trị cần kiểm soát tăng trưởng ở trẻ em hoặc can thiệp phẫu thuật ở người lớn để chỉnh sửa tương quan xương hàm.
+*   **3. So sánh kế hoạch điều trị giữa các trường hợp:**
+| Yếu tố phân biệt          | Bệnh nhân Cắn hở Class I Angle (VD: Lê Thu H., 25T)          | Bệnh nhân Cắn hở Class III Angle (VD: Phan Q., 14T; Đặng N.T.T., 22T)                                  |
+| :------------------------ | :------------------------------------------------------------- | :----------------------------------------------------------------------------------------------------- |
+| **Nguyên nhân chính**     | Thói quen xấu (đẩy lưỡi, mút ngón tay), răng trồi quá mức, mất cân bằng cơ, yếu tố nha chu. | Phát triển xương hàm dưới quá mức, xương hàm trên kém phát triển, hoặc cả hai.                               |
+| **Độ tuổi và tăng trưởng** | Trưởng thành, không còn tiềm năng tăng trưởng.                  | **Trẻ em/Vị thành niên (Phan Q., 14T):** Còn tiềm năng tăng trưởng.
+**Người lớn (Đặng N.T.T., 22T):** Hết tăng trưởng.                                                                  |
+| **Mục tiêu điều trị**     | Đóng cắn hở, loại bỏ thói quen xấu, cân bằng chức năng, ổn định khớp cắn. | **Trẻ em:** Điều hướng tăng trưởng xương hàm, kiểm soát hàm dưới, tạo tương quan xương hài hòa.
+**Người lớn:** Sửa tương quan xương hàm (nếu cần), đóng cắn hở, cải thiện chức năng và thẩm mỹ.                 |
+| **Phương pháp chính**      | Chỉnh nha cố định/tháo lắp, khí cụ chức năng (ví dụ: lưới chặn lưỡi) để loại bỏ thói quen. | **Trẻ em:** Khí cụ chỉnh hình chức năng (ví dụ: Reverse-Pull Headgear, Chin Cap), khí cụ cố định.
+**Người lớn:** Chỉnh nha phẫu thuật (Orthognathic surgery) kết hợp chỉnh nha cố định (phẫu thuật Lefort I để đẩy hàm trên lên và ra trước, phẫu thuật BSSO để lùi hàm dưới).                 |
+| **Phục hồi chức năng**    | Tập chức năng lưỡi, môi, cân bằng cơ.                           | Tương tự, đặc biệt quan trọng sau phẫu thuật để đảm bảo ổn định lâu dài.                                   |
+| **Tiên lượng**             | Thường tốt nếu loại bỏ được thói quen xấu và tuân thủ điều trị.                      | **Trẻ em:** Tiên lượng tốt nếu can thiệp sớm và đúng thời điểm tăng trưởng.
+**Người lớn:** Phụ thuộc vào mức độ phức tạp, khả năng phẫu thuật và sự tuân thủ chỉnh nha sau phẫu thuật.      |
+*   **4. Lưu ý quan trọng cho bác sĩ trẻ:**
+    *   **Chẩn đoán đa chiều:** Luôn kết hợp khám lâm sàng, phân tích phim X-quang sọ nghiêng (đặc biệt là phim Cephalometric để đánh giá các chỉ số như SNA, SNB, ANB, góc mặt phẳng hàm), phim toàn cảnh và mẫu hàm. Không bỏ qua các yếu tố mềm (mô mềm, cơ).
+    *   **Phối hợp liên chuyên khoa:** Với các trường hợp cắn hở nghiêm trọng (8-9mm) hoặc có yếu tố xương phức tạp (đặc biệt là Class III người lớn), việc phối hợp với bác sĩ phẫu thuật hàm mặt là rất cần thiết.
+    *   **Giáo dục bệnh nhân và gia đình:** Giải thích rõ ràng về tình trạng bệnh, nguyên nhân, các lựa chọn điều trị, thời gian, chi phí, rủi ro và tầm quan trọng của sự tuân thủ (ví dụ: đeo khí cụ, tập luyện chức năng) để đạt được kết quả tốt nhất. Đảm bảo bệnh nhân có kỳ vọng thực tế.
+    *   **Mã ICD-10:** Luôn ghi nhận mã chẩn đoán K07.3 cho lệch lạc khớp cắn, và cụ thể hóa bằng các mã phụ nếu có thể để phản ánh chính xác tình trạng lâm sàng.
+Việc tiếp cận từng bệnh nhân với một cái nhìn toàn diện và cá nhân hóa sẽ là chìa khóa để đạt được thành công trong điều trị cắn hở phía trước, đặc biệt là khi có sự khác biệt rõ rệt về độ tuổi và loại lệch lạc khớp cắn.</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Hướng dẫn lâm sàng về điều trị chỉnh nha (Clinical Guidelines for Orthodontic Treatment) của Hiệp hội Chỉnh nha Hoa Kỳ (AAO)</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các hướng dẫn dựa trên bằng chứng khoa học về chẩn đoán và quản lý các loại lệch lạc khớp cắn khác nhau, bao gồm cắn hở ở cả trẻ em và người lớn. Nó giúp bác sĩ trẻ hiểu được các lựa chọn điều trị, từ chỉnh hình chức năng đến phẫu thuật chỉnh hình, và khi nào nên áp dụng can thiệp chỉnh hình hay phẫu thuật tùy thuộc vào độ tuổi và loại Angle.</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Lập kế hoạch điều trị chỉnh nha nâng cao cho các trường hợp phức tạp (Advanced Orthodontic Treatment Planning for Complex Cases)</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu này dành cho các bác sĩ nha khoa đã có kinh nghiệm cơ bản trong chỉnh nha, tập trung vào việc lập kế hoạch điều trị chi tiết cho các trường hợp phức tạp như cắn hở nghiêm trọng, lệch lạc khớp cắn Class II và Class III. Nó sẽ bao gồm cả các phương pháp chỉnh nha phẫu thuật (orthognathic surgery) và các kỹ thuật hiện đại, giúp bác sĩ nâng cao khả năng đưa ra quyết định lâm sàng và phối hợp liên chuyên khoa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên kiến thức y khoa chính thống và chuẩn ICD-10 của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Từ các trường hợp lâm sàng về cắn hở phía trước được trình bày, làm thế nào để bác sĩ trẻ đánh giá toàn diện một bệnh nhân và xây dựng kế hoạch điều trị hiệu quả, đặc biệt khi có sự khác biệt về độ tuổi và mức độ nghiêm trọng (ví dụ: 8-9mm so với 4-5mm)?</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Tuyệt vời! Câu hỏi này chạm đến trọng tâm của thực hành y khoa: cá nhân hóa điều trị và ra quyết định lâm sàng dựa trên bằng chứng. Việc đánh giá toàn diện và xây dựng kế hoạch điều trị hiệu quả đòi hỏi một cách tiếp cận có hệ thống và tư duy phản biện.
+*   **1. Đánh giá toàn diện và cá nhân hóa điều trị:**
+    *   **Mức độ nghiêm trọng của cắn hở là yếu tố then chốt:**
+        *   **Cắn hở nhẹ đến trung bình (4-5mm như Lê Thu H. và Trương Việt H.):** Các trường hợp này thường có nguyên nhân đơn giản hơn (thói quen xấu, răng trồi quá mức) và có thể được điều trị bằng chỉnh nha đơn thuần, tập trung vào việc kiểm soát các thói quen xấu, cân bằng cơ và tái vị trí răng. Tiên lượng thường tốt hơn.
+        *   **Cắn hở nghiêm trọng (8-9mm như Phan Q. và Đặng Nguyễn Thị T.):** Khả năng cao liên quan đến yếu tố xương hoặc sự mất cân bằng chức năng trầm trọng. Các trường hợp này thường cần can thiệp chỉnh hình ở trẻ em hoặc chỉnh nha phẫu thuật ở người lớn. Mức độ nghiêm trọng càng lớn, thách thức trong điều trị càng cao và nguy cơ tái phát nếu không kiểm soát nguyên nhân gốc rễ và duy trì ổn định.
+    *   **Độ tuổi và tiềm năng tăng trưởng định hướng chiến lược:**
+        *   **Bệnh nhân trẻ em/vị thành niên (dưới 18 tuổi, như Phan Q., 14 tuổi; Trương Việt H., 17 tuổi):** Đây là giai đoạn vàng để can thiệp chỉnh hình, tận dụng sự tăng trưởng để điều chỉnh tương quan xương hàm (ví dụ: sử dụng khí cụ kéo ngược hàm trên cho Class III để hạn chế phát triển hàm dưới và kích thích hàm trên). Mục tiêu là tạo ra một môi trường thuận lợi cho sự phát triển xương hàm mặt hài hòa, giúp giảm thiểu hoặc tránh phẫu thuật sau này.
+        *   **Bệnh nhân trưởng thành (trên 18 tuổi, như Đặng Nguyễn Thị T., 22 tuổi; Lê Thu H., 25 tuổi):** Tăng trưởng đã hoàn tất. Nếu lệch lạc xương nghiêm trọng là nguyên nhân chính gây cắn hở, phẫu thuật chỉnh hình (orthognathic surgery) kết hợp chỉnh nha là phương pháp thường được lựa chọn để sửa chữa tương quan xương hàm. Chỉnh nha đơn thuần có thể được xem xét cho các trường hợp cắn hở nhẹ hoặc không liên quan đến xương.
+    *   **Tìm kiếm và loại bỏ nguyên nhân gây cắn hở:** Luôn tìm kiếm nguyên nhân gốc rễ (thói quen đẩy lưỡi, thở miệng, mất răng, chấn thương, yếu tố di truyền, bệnh lý vùng hàm mặt) để điều trị triệt để và ngăn ngừa tái phát. Đánh giá chức năng nuốt, phát âm, và thở.
+*   **2. Xây dựng kế hoạch điều trị hiệu quả - Một quy trình cần tuân thủ:**
+    *   **Xác định mục tiêu điều trị rõ ràng:** Bao gồm các mục tiêu chức năng (cải thiện ăn nhai, phát âm, đóng môi), thẩm mỹ (hài hòa khuôn mặt, nụ cười) và ổn định khớp cắn lâu dài.
+    *   **Thảo luận minh bạch với bệnh nhân và gia đình:** Trình bày rõ ràng các lựa chọn điều trị, ưu nhược điểm của từng phương pháp, thời gian điều trị dự kiến, chi phí và những rủi ro có thể xảy ra. Đảm bảo bệnh nhân có kỳ vọng thực tế và đồng thuận với kế hoạch điều trị.
+    *   **Cách tiếp cận đa chuyên khoa:** Đặc biệt với các trường hợp phức tạp (cắn hở nặng, Class III người lớn), cần phối hợp chặt chẽ với các chuyên gia khác như bác sĩ phẫu thuật hàm mặt, bác sĩ phục hình, chuyên gia vật lý trị liệu hàm mặt (để tập chức năng cơ nếu có vấn đề), hoặc bác sĩ tai mũi họng (nếu có vấn đề về đường thở ảnh hưởng đến cắn hở).
+    *   **Kế hoạch theo dõi và duy trì dài hạn:** Cắn hở có xu hướng tái phát nếu nguyên nhân gốc rễ không được kiểm soát. Cần có kế hoạch duy trì (retainer) và theo dõi định kỳ sau điều trị để đảm bảo sự ổn định lâu dài của kết quả.
+*   **3. Nâng cao kiến thức và kỹ năng liên tục cho bác sĩ trẻ:**
+    *   **Học hỏi từ các ca lâm sàng thực tế:** Nghiên cứu kỹ các trường hợp như trong bài viết, so sánh các yếu tố (tuổi, loại Angle, mức độ cắn hở, phương pháp điều trị, kết quả sau điều trị) để rút ra kinh nghiệm quý báu.
+    *   **Tham gia các khóa học CME và hội thảo:** Các khóa học nâng cao về chẩn đoán, kế hoạch điều trị chỉnh nha và phẫu thuật chỉnh hình là cần thiết để cập nhật kiến thức và kỹ thuật mới.
+    *   **Đọc tài liệu khoa học và tạp chí chuyên ngành:** Luôn cập nhật các nghiên cứu mới nhất, hướng dẫn điều trị và công nghệ trong lĩnh vực chỉnh nha. Các tạp chí như American Journal of Orthodontics and Dentofacial Orthopedics là nguồn tham khảo rất giá trị.
+    *   **Trao đổi với đồng nghiệp và mentor:** Tham gia các hội thảo, diễn đàn chuyên môn, hoặc tìm kiếm sự hướng dẫn từ các bác sĩ giàu kinh nghiệm để học hỏi và giải quyết các trường hợp khó.
+Việc áp dụng mã ICD-10 (K07.3) là bước quan trọng để chuẩn hóa chẩn đoán và ghi nhận hồ sơ y tế, nhưng việc hiểu sâu sắc từng trường hợp lâm sàng và áp dụng tư duy y khoa toàn diện mới là chìa khóa để điều trị thành công và mang lại lợi ích tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Tạp chí Chỉnh nha Hoa Kỳ (American Journal of Orthodontics and Dentofacial Orthopedics)</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Đây là một trong những tạp chí khoa học hàng đầu và uy tín nhất trong lĩnh vực chỉnh nha, cung cấp các nghiên cứu mới nhất, báo cáo ca lâm sàng chi tiết, và các kỹ thuật điều trị tiên tiến về các vấn đề lệch lạc khớp cắn, bao gồm cắn hở. Đây là nguồn tài liệu không thể thiếu để bác sĩ trẻ cập nhật kiến thức lâm sàng, hiểu sâu hơn về cơ chế bệnh sinh và các phương pháp điều trị dựa trên bằng chứng.</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Chỉnh nha Phẫu thuật (Orthognathic Surgery) và Quản lý cắn hở nghiêm trọng với phương pháp tiếp cận đa chuyên khoa</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp cái nhìn chuyên sâu về các chỉ định, kỹ thuật phẫu thuật, và quản lý toàn diện các ca cắn hở nghiêm trọng, đặc biệt là những trường hợp cần can thiệp phẫu thuật chỉnh hình. Nó sẽ hữu ích cho các bác sĩ chỉnh nha và phẫu thuật viên hàm mặt muốn nâng cao kiến thức về tiếp cận đa chuyên khoa, lập kế hoạch điều trị phức tạp và quản lý hậu phẫu để đạt được kết quả ổn định và tối ưu cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng về các yếu tố nguy cơ và biến chứng trong bệnh đái tháo đường type 2 theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, vai trò của homocysteine trong tiên lượng và quản lý biến chứng thận ở bệnh nhân đái tháo đường type 2 là gì? Chúng em cần lưu ý gì khi đánh giá chỉ số này?</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Chào các bạn bác sĩ và sinh viên y khoa,
+Nghiên cứu bạn vừa đọc đã chỉ ra một điểm rất quan trọng: nồng độ homocysteine huyết thanh ở bệnh nhân đái tháo đường (ĐTĐ) type 2 cao hơn đáng kể so với người không mắc bệnh, và đặc biệt, tăng cao hơn nữa ở nhóm bệnh nhân ĐTĐ type 2 có microalbumin niệu dương tính (MAU+). Điều này có ý nghĩa lâm sàng sâu sắc mà các bạn cần nắm vững:
+*   **Homocysteine là yếu tố nguy cơ độc lập:** Từ lâu, homocysteine đã được biết đến là một yếu tố nguy cơ độc lập cho sự xuất hiện sớm của các biến chứng ở bệnh nhân ĐTĐ type 2, đặc biệt là các biến cố tim mạch và biến chứng thận. Mức độ homocysteine tăng cao không chỉ liên quan đến tiên lượng bệnh tim mạch mà còn làm tăng nguy cơ và mức độ nặng của bệnh thận, bệnh võng mạc, và bệnh thần kinh do ĐTĐ.
+*   **Mối liên hệ với biến chứng thận (MAU):** Kết quả nghiên cứu khẳng định mối liên hệ dương tính có ý nghĩa thống kê giữa homocysteine và MAU. Điều này gợi ý rằng homocysteine có thể đóng vai trò trong cơ chế bệnh sinh của bệnh thận do ĐTĐ và có thể là một chỉ dấu sinh học tiềm năng cho việc đánh giá nguy cơ hoặc mức độ tiến triển của biến chứng thận.
+*   **Ý nghĩa trong quản lý lâm sàng:**
+    *   **Sàng lọc sớm:** Mặc dù chưa phải là xét nghiệm thường quy, việc xem xét định lượng homocysteine ở những bệnh nhân ĐTĐ type 2 có nguy cơ cao, hoặc đã có dấu hiệu biến chứng thận sớm (như microalbumin niệu), có thể cung cấp thêm thông tin để đánh giá toàn diện nguy cơ.
+    *   **Theo dõi và can thiệp:** Nếu homocysteine được chứng minh là một yếu tố gây bệnh trực tiếp, việc điều chỉnh nồng độ này (ví dụ, bằng bổ sung vitamin B) có thể là một hướng can thiệp trong tương lai. Tuy nhiên, hiện tại, trọng tâm vẫn là kiểm soát chặt chẽ đường huyết, huyết áp, lipid máu và các yếu tố nguy cơ truyền thống khác.
+    *   **Giáo dục bệnh nhân:** Hãy giải thích cho bệnh nhân về tầm quan trọng của việc kiểm soát tốt bệnh ĐTĐ để ngăn ngừa các biến chứng, trong đó có biến chứng thận, và vai trò của các chỉ số xét nghiệm như homocysteine trong việc đánh giá nguy cơ.
+**Lưu ý khi đánh giá chỉ số này:**
+Khi tiếp cận các chỉ số mới như homocysteine, các bạn cần nhớ:
+1.  **Tính độc lập:** Mặc dù nghiên cứu chỉ ra homocysteine không liên quan đến HbA1c, Cholesterol, LDL-C, HDL-C, nhưng nó lại có liên quan đến Triglyceride và MAU. Điều này cho thấy homocysteine có thể hoạt động qua các cơ chế khác, độc lập với các yếu tố nguy cơ kinh điển.
+2.  **Khía cạnh nguyên nhân - kết quả:** Mối liên hệ dương tính (r = 0.639) rất mạnh mẽ, nhưng cần thêm các nghiên cứu can thiệp để xác định liệu việc giảm homocysteine có trực tiếp cải thiện tiên lượng biến chứng thận hay không. Đây là điểm các bạn cần tư duy phê phán khi đọc bất kỳ nghiên cứu nào.
+3.  **Hài hòa với hướng dẫn hiện hành:** Luôn ưu tiên các hướng dẫn chẩn đoán và điều trị của Bộ Y tế Việt Nam hoặc các tổ chức y tế uy tín (ADA, ESC, KDIGO) để đảm bảo việc thực hành của mình là chuẩn mực và an toàn nhất cho bệnh nhân. ICD-10 cho các biến chứng thận do ĐTĐ sẽ nằm trong nhóm E11.2, ví dụ E11.21 nếu có bệnh thận mạn. Việc theo dõi các yếu tố nguy cơ mới như homocysteine giúp chúng ta có cái nhìn toàn diện hơn về sinh lý bệnh ĐTĐ và mở ra các hướng điều trị tiềm năng trong tương lai.</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị đái tháo đường type 2 (Bộ Y tế)</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp kiến thức nền tảng và các phác đồ chuẩn về chẩn đoán, điều trị và quản lý biến chứng đái tháo đường type 2, bao gồm cả biến chứng thận. Rất hữu ích cho việc tham khảo các mã ICD-10 liên quan (ví dụ: E11.2 cho biến chứng thận, E72.1 cho rối loạn chuyển hóa homocysteine).</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Cập nhật quản lý biến chứng thận do đái tháo đường</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào các phương pháp sàng lọc sớm, chẩn đoán, theo dõi và điều trị các biến chứng thận ở bệnh nhân đái tháo đường, bao gồm vai trò của các chỉ dấu sinh học mới và quản lý toàn diện theo hướng dẫn quốc tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng về chẩn đoán sớm và theo dõi biến chứng thận trên bệnh nhân đái tháo đường type 2, tuân thủ hướng dẫn Bộ Y tế.</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Xin chuyên gia hướng dẫn cách chúng em đánh giá microalbumin niệu trên bệnh nhân đái tháo đường type 2 để phát hiện sớm biến chứng thận. Ý nghĩa của kết quả và cách xử trí?</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Chào các bạn,
+Microalbumin niệu (MAU) là một chỉ dấu quan trọng cho việc phát hiện sớm bệnh thận do đái tháo đường (Diabetic Kidney Disease - DKD), một biến chứng nghiêm trọng và phổ biến. Việc đánh giá và theo dõi MAU đúng cách là cực kỳ cần thiết để can thiệp kịp thời, làm chậm tiến triển của bệnh và bảo vệ chức năng thận cho bệnh nhân.
+**1. Đánh giá Microalbumin niệu:**
+*   **Thời điểm sàng lọc:**
+    *   Đối với ĐTĐ type 2: Sàng lọc ngay tại thời điểm chẩn đoán bệnh.
+    *   Đối với ĐTĐ type 1: Sàng lọc 5 năm sau chẩn đoán (hoặc sớm hơn nếu có yếu tố nguy cơ khác).
+*   **Phương pháp xét nghiệm:**
+    *   **Tốt nhất:** Tỷ lệ Albumin/Creatinine niệu (ACR) trong mẫu nước tiểu ngẫu nhiên (ưu tiên mẫu buổi sáng). Phương pháp này giúp loại bỏ sự dao động nồng độ nước tiểu và là phương pháp được khuyến cáo rộng rãi.
+    *   **Các phương pháp khác:** Định lượng albumin niệu 24 giờ hoặc trong mẫu nước tiểu thu thập trong thời gian nhất định (ví dụ 4 giờ đêm). Tuy nhiên, các phương pháp này thường kém tiện lợi và dễ sai sót do thu thập không đầy đủ.
+**2. Ý nghĩa của kết quả:**
+Kết quả ACR được phân loại như sau (theo hướng dẫn của ADA, KDIGO):
+| Phân loại Albumin niệu | ACR (mg/g creatinine) | ACR (mg/mmol creatinine) | Tình trạng                                 |
+| :--------------------- | :-------------------- | :----------------------- | :---------------------------------------- |
+| Bình thường/Tăng nhẹ   | &lt; 30                  | &lt; 3.4                    | Không có microalbumin niệu                |
+| Microalbumin niệu      | 30 - 299              | 3.4 - 33.9               | Biến chứng thận giai đoạn sớm             |
+| Macroalbumin niệu      | ≥ 300                 | ≥ 34                     | Biến chứng thận giai đoạn muộn/protein niệu |
+**Lưu ý quan trọng:**
+*   Kết quả MAU dương tính cần được xác nhận bằng 2-3 mẫu xét nghiệm dương tính trong vòng 3-6 tháng, vì có thể có các yếu tố tạm thời làm tăng albumin niệu (ví dụ: nhiễm trùng đường tiết niệu, sốt, gắng sức nặng, suy tim cấp, tăng huyết áp không kiểm soát).
+*   Nghiên cứu bạn đọc cũng nhấn mạnh rằng mức độ homocysteine tăng cao ở bệnh nhân ĐTĐ có MAU dương tính, cho thấy một mối liên hệ chặt chẽ giữa hai yếu tố này trong quá trình bệnh sinh của DKD. Điều này củng cố thêm tầm quan trọng của MAU như một dấu hiệu cảnh báo sớm.
+**3. Cách xử trí:**
+Khi phát hiện MAU dương tính bền vững, các bạn cần có chiến lược quản lý tích cực:
+*   **Kiểm soát đường huyết chặt chẽ:** Đạt mục tiêu HbA1c cá thể hóa, thường &lt; 7% (hoặc chặt chẽ hơn/ít chặt chẽ hơn tùy bệnh nhân).
+*   **Kiểm soát huyết áp tối ưu:** Mục tiêu huyết áp thường &lt; 130/80 mmHg. Các thuốc ức chế men chuyển (ACEI) hoặc ức chế thụ thể Angiotensin II (ARB) là lựa chọn hàng đầu vì chúng không chỉ hạ huyết áp mà còn có tác dụng bảo vệ thận.
+*   **Kiểm soát lipid máu:** Giảm LDL-C theo mục tiêu cá thể.
+*   **Thay đổi lối sống:** Chế độ ăn giảm muối, hạn chế đạm (nếu có suy thận tiến triển), tập thể dục đều đặn, ngừng hút thuốc lá.
+*   **Sử dụng thuốc bảo vệ thận mới:** Xem xét các thuốc ức chế SGLT2 (SGLT2i) và thuốc đồng vận GLP-1 (GLP-1 RA) đã được chứng minh có lợi ích bảo vệ thận ở bệnh nhân ĐTĐ type 2 có DKD.
+*   **Tham khảo ý kiến chuyên khoa:** Nếu MAU tiến triển thành macroalbumin niệu hoặc có dấu hiệu suy thận tiến triển (tăng creatinine, giảm GFR), cần chuyển bệnh nhân đến bác sĩ chuyên khoa thận.
+Việc áp dụng mã ICD-10 cho bệnh thận do đái tháo đường thường là E11.2 (Đái tháo đường type 2 có biến chứng thận) kết hợp với các mã N08.3* (Rối loạn thận trong bệnh đái tháo đường) và mã N18 (Bệnh thận mạn) nếu có suy giảm chức năng thận. Hãy nhớ, phát hiện sớm MAU là chìa khóa để bảo tồn chức năng thận và nâng cao chất lượng cuộc sống cho bệnh nhân ĐTĐ.</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn chẩn đoán và phân loại bệnh thận mạn (KDIGO 2024)</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Tài liệu cập nhật các khuyến nghị toàn cầu về chẩn đoán, phân loại và quản lý bệnh thận mạn, bao gồm vai trò của albumin niệu trong việc đánh giá nguy cơ và tiến triển bệnh. Quan trọng cho việc hiểu sâu về ICD-10 liên quan đến bệnh thận (N00-N99) và các biến chứng của bệnh đái tháo đường (E11.2).</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Kỹ năng lâm sàng trong chẩn đoán và điều trị bệnh thận do đái tháo đường</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành tập trung vào việc áp dụng các xét nghiệm chẩn đoán, phân tích kết quả, và đưa ra quyết định điều trị tối ưu cho bệnh nhân đái tháo đường có biến chứng thận, nhấn mạnh các ca lâm sàng thực tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ phân tích và áp dụng kết quả nghiên cứu khoa học vào thực hành lâm sàng, đặc biệt trong lĩnh vực nội tiết và các bệnh chuyển hóa.</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Từ kết quả nghiên cứu này, làm thế nào để chúng em có thể áp dụng mối liên hệ giữa homocysteine và microalbumin niệu vào thực hành lâm sàng để nâng cao hiệu quả quản lý bệnh đái tháo đường type 2?</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Các bạn thân mến,
+Việc áp dụng kết quả nghiên cứu khoa học vào thực hành lâm sàng đòi hỏi sự tư duy phê phán và kỹ năng phân tích sâu sắc. Với nghiên cứu về mối liên hệ giữa homocysteine và microalbumin niệu (MAU) ở bệnh nhân đái tháo đường type 2, chúng ta có thể rút ra một số bài học và hướng ứng dụng quan trọng:
+**1. Hiểu rõ ý nghĩa của mối tương quan:**
+*   Nghiên cứu cho thấy có mối tương quan dương tính có ý nghĩa thống kê giữa homocysteine và MAU (r = 0.639, p &lt; 0.01). Điều này gợi ý rằng khi mức homocysteine tăng, nguy cơ hoặc mức độ MAU cũng có xu hướng tăng.
+*   **Bài học cho lâm sàng:** Mối tương quan mạnh mẽ này củng cố giả thuyết rằng homocysteine là một yếu tố nguy cơ hoặc chỉ dấu sinh học quan trọng trong bệnh thận do đái tháo đường. Nó khuyến khích chúng ta xem xét homocysteine như một chỉ số tiềm năng cần được theo dõi, đặc biệt ở những bệnh nhân đã có bằng chứng về tổn thương thận sớm (MAU+).
+**2. Tăng cường sàng lọc và đánh giá nguy cơ toàn diện:**
+*   Nghiên cứu xác nhận rằng homocysteine tăng cao ở bệnh nhân ĐTĐ type 2. Điều này nên thúc đẩy các bạn suy nghĩ rộng hơn về các yếu tố nguy cơ 'phi truyền thống' bên cạnh đường huyết, huyết áp, lipid máu.
+*   **Ứng dụng thực tế:** Ở những bệnh nhân ĐTĐ type 2 có nguy cơ cao phát triển biến chứng thận (ví dụ, tiền sử gia đình, kiểm soát đường huyết kém kéo dài, tăng huyết áp khó kiểm soát, hoặc đã có MAU dương tính), việc định lượng homocysteine có thể cung cấp thêm một 'manh mối' về nguy cơ tim mạch và thận. Tuy nhiên, cần lưu ý đây chưa phải là khuyến cáo thường quy và cần được cá thể hóa.
+**3. Đẩy mạnh giáo dục bệnh nhân và tuân thủ điều trị:**
+*   Mối liên hệ giữa homocysteine cao và biến chứng thận có thể được sử dụng để nhấn mạnh thêm tầm quan trọng của việc kiểm soát toàn diện bệnh ĐTĐ.
+*   **Hướng dẫn cho bác sĩ:** Khi tư vấn cho bệnh nhân, hãy giải thích rằng ĐTĐ không chỉ ảnh hưởng đến đường huyết mà còn gây ra nhiều vấn đề khác, và việc kiểm soát tốt bệnh sẽ giúp giảm thiểu nguy cơ phát triển các yếu tố như homocysteine tăng cao và các biến chứng nghiêm trọng khác. Điều này giúp nâng cao ý thức tuân thủ điều trị.
+**4. Hướng nghiên cứu tiếp theo:**
+*   Nghiên cứu này là một nghiên cứu cắt ngang mô tả. Để khẳng định homocysteine là một yếu tố gây bệnh và can thiệp điều trị homocysteine có lợi, chúng ta cần các nghiên cứu đoàn hệ tiền cứu và nghiên cứu can thiệp ngẫu nhiên có đối chứng.
+*   **Lời khuyên cho sinh viên/bác sĩ trẻ:** Hãy luôn đặt câu hỏi về loại hình nghiên cứu và giới hạn của nó. Một mối tương quan mạnh mẽ không tự động có nghĩa là một mối quan hệ nhân quả. Khuyến khích tham gia hoặc tìm hiểu về các dự án nghiên cứu trong lĩnh vực này để góp phần làm rõ hơn vai trò của homocysteine.
+**5. Tham khảo các khuyến nghị lâm sàng chính thống:**
+*   Mặc dù kết quả nghiên cứu rất thú vị, các bạn cần nhớ rằng các hướng dẫn thực hành lâm sàng (Clinical Practice Guidelines) của Bộ Y tế, ADA, ESC, KDIGO... là những tài liệu cốt lõi để đưa ra quyết định điều trị. Hãy tích hợp thông tin mới từ nghiên cứu vào khung kiến thức đã được chứng minh và khuyến cáo.
+*   **Thực hành y khoa dựa trên bằng chứng (EBM):** Luôn tìm kiếm bằng chứng tốt nhất hiện có, đánh giá tính phù hợp và áp dụng nó một cách hợp lý vào từng bệnh nhân cụ thể. Nghiên cứu này là một ví dụ tuyệt vời để các bạn thực hành EBM.</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành y học dựa trên bằng chứng (EBM) cho bác sĩ lâm sàng</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa cung cấp các nguyên tắc cơ bản và phương pháp để đọc hiểu, đánh giá phê bình các nghiên cứu khoa học, và áp dụng bằng chứng tốt nhất vào quyết định lâm sàng hàng ngày. Hữu ích để các bạn trẻ tự trau dồi khả năng đọc tài liệu gốc và hiểu sâu về các mã bệnh ICD-10 trong bối cảnh nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Phương pháp nghiên cứu khoa học và thống kê y sinh học cơ bản</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Khóa học giúp học viên nắm vững các loại hình nghiên cứu, cách thiết kế nghiên cứu, thu thập và phân tích dữ liệu thống kê, từ đó có thể đọc hiểu sâu sắc các bài báo khoa học và tự tin tham gia nghiên cứu, đồng thời hiểu rõ hơn về ý nghĩa thống kê của các chỉ số sinh hóa và bệnh lý.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn và đào tạo bác sĩ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Dựa trên kết quả nghiên cứu, làm thế nào một bác sĩ trẻ hoặc sinh viên y khoa có thể diễn giải các chỉ số Glucose và HbA1c để chẩn đoán và theo dõi bệnh đái tháo đường type 2 một cách chính xác, tuân thủ ICD-10?</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Chào các bạn đồng nghiệp trẻ và sinh viên y khoa! Việc diễn giải các chỉ số Glucose và HbA1c là nền tảng trong chẩn đoán và quản lý đái tháo đường type 2 (Đái tháo đường không phụ thuộc insulin, mã ICD-10: E11). Nghiên cứu này cung cấp một ví dụ rõ ràng về sự khác biệt có ý nghĩa thống kê giữa nhóm đái tháo đường và nhóm không đái tháo đường.
+Để diễn giải các chỉ số này trong thực hành lâm sàng, hãy lưu ý các điểm sau:
+*   **Glucose huyết tương tĩnh mạch lúc đói:**
+    *   Theo nghiên cứu, nhóm đái tháo đường type 2 có mức Glucose trung bình là 9,2 ± 4,5 mmol/l, cao hơn đáng kể so với nhóm không đái tháo đường (5,3 ± 0,6 mmol/l).
+    *   **Hướng dẫn chẩn đoán (Bộ Y tế Việt Nam và ADA):**
+        *   **Bình thường:** &lt; 5,6 mmol/l (100 mg/dL).
+        *   **Tiền đái tháo đường:** 5,6 mmol/l (100 mg/dL) đến 6,9 mmol/l (125 mg/dL).
+        *   **Đái tháo đường:** ≥ 7,0 mmol/l (126 mg/dL) khi xét nghiệm ít nhất 2 lần.
+    *   **Lưu ý lâm sàng:** Giá trị đơn lẻ cao không đủ để chẩn đoán; cần xác nhận bằng xét nghiệm lặp lại hoặc kết hợp với HbA1c hoặc nghiệm pháp dung nạp glucose đường uống 75g (như trong tiêu chí chọn nhóm đối chứng của nghiên cứu).
+*   **HbA1c (Hemoglobin A1c):**
+    *   Nhóm đái tháo đường type 2 trong nghiên cứu có HbA1c trung bình là 7,5 ± 1,6%, cao hơn rõ rệt so với nhóm không đái tháo đường (5,1 ± 0,2%).
+    *   **Hướng dẫn chẩn đoán và theo dõi:**
+        *   **Bình thường:** &lt; 5,7%.
+        *   **Tiền đái tháo đường:** 5,7% đến 6,4%.
+        *   **Đái tháo đường:** ≥ 6,5%.
+        *   **Mục tiêu điều trị:** Thường &lt; 7% đối với hầu hết người trưởng thành. Tuy nhiên, mục tiêu này cần được cá thể hóa dựa trên tuổi, bệnh đồng mắc, nguy cơ hạ đường huyết và thời gian mắc bệnh.
+    *   **Giá trị của HbA1c:** Phản ánh mức đường huyết trung bình trong 2-3 tháng gần nhất, ít bị ảnh hưởng bởi biến động đường huyết cấp tính. Đây là công cụ hữu hiệu để đánh giá hiệu quả điều trị và tuân thủ của bệnh nhân.
+*   **Kết hợp các xét nghiệm:** Nghiên cứu đã sử dụng cả Glucose lúc đói, HbA1c và nghiệm pháp dung nạp glucose 75g để tuyển chọn nhóm đối chứng, cho thấy tầm quan trọng của việc kết hợp nhiều phương pháp để có cái nhìn toàn diện. Trong thực hành, khi có nghi ngờ, việc kết hợp các xét nghiệm sẽ tăng độ chính xác chẩn đoán.
+Hãy nhớ rằng, chẩn đoán đái tháo đường không chỉ dựa vào con số mà còn cần đánh giá toàn diện lâm sàng, bao gồm tiền sử bệnh, triệu chứng và các yếu tố nguy cơ.</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị đái tháo đường của Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thức cung cấp các tiêu chuẩn chẩn đoán, phân loại, mục tiêu điều trị và phác đồ quản lý bệnh đái tháo đường type 2 (ICD-10: E11) cập nhật nhất tại Việt Nam. Rất cần thiết cho các bác sĩ và sinh viên y khoa trong thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Cập nhật Chẩn đoán và Điều trị Đái tháo đường Type 2</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các tiêu chuẩn chẩn đoán mới nhất, mục tiêu điều trị cá thể hóa và các phương pháp quản lý đái tháo đường type 2 hiệu quả, bao gồm cả diễn giải các xét nghiệm cận lâm sàng như Glucose và HbA1c. Hữu ích cho các bác sĩ nội tiết, bác sĩ đa khoa và sinh viên y khoa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn và đào tạo bác sĩ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Xin chatbot giải thích tầm quan trọng của các tiêu chí loại trừ (như suy thận, viêm cầu thận, lupus ban đỏ hệ thống) trong nghiên cứu y khoa về bệnh đái tháo đường, và ý nghĩa của chúng đối với thực hành lâm sàng của một bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, các tiêu chí loại trừ trong một nghiên cứu đóng vai trò cực kỳ quan trọng, không chỉ đảm bảo tính khoa học của nghiên cứu mà còn mang lại nhiều bài học quý giá cho thực hành lâm sàng. Hãy cùng phân tích các tiêu chí loại trừ được nêu trong bài viết:
+**1. Tầm quan trọng trong Nghiên cứu Khoa học:**
+*   **Kiểm soát biến nhiễu:** Các bệnh lý như suy thận (mã ICD-10: N18), viêm cầu thận (mã ICD-10: N00-N08), hội chứng thận hư (mã ICD-10: N04), lupus ban đỏ hệ thống (mã ICD-10: M32), vảy nến (mã ICD-10: L40), suy giáp (mã ICD-10: E03) hoặc việc sử dụng một số thuốc (ví dụ vitamin B) đều có thể ảnh hưởng đến các chỉ số sinh hóa, chuyển hóa hoặc kết cục nghiên cứu. Việc loại trừ giúp đảm bảo rằng các kết quả quan sát được là do yếu tố nghiên cứu chính (ví dụ: đái tháo đường) gây ra, chứ không phải do các bệnh đồng mắc này.
+*   **Đảm bảo tính đồng nhất của mẫu nghiên cứu:** Giúp nhóm nghiên cứu tập trung vào một đối tượng cụ thể, làm cho kết quả dễ diễn giải và có giá trị nội tại cao hơn.
+*   **Giảm thiểu rủi ro cho người tham gia:** Một số bệnh lý nặng có thể khiến việc tham gia nghiên cứu (lấy mẫu máu, theo dõi...) trở nên nguy hiểm hơn cho bệnh nhân.
+**2. Ý nghĩa đối với Thực hành Lâm sàng của Bác sĩ trẻ:**
+*   **Hiểu biết về bệnh đồng mắc và biến chứng:**
+    *   **Bệnh thận (Suy thận, viêm cầu thận, hội chứng thận hư):** Đái tháo đường là nguyên nhân hàng đầu gây bệnh thận mạn. Tuy nhiên, các bệnh thận khác cũng có thể ảnh hưởng đến kết quả xét nghiệm (ví dụ: creatinin, urê) và điều hòa đường huyết. Khi tiếp cận bệnh nhân đái tháo đường, luôn cần sàng lọc và đánh giá chức năng thận cẩn thận.
+    *   **Lupus ban đỏ hệ thống và Vảy nến:** Đây là các bệnh tự miễn mạn tính có thể liên quan đến các tình trạng viêm hệ thống và tăng nguy cơ bệnh tim mạch, có thể chồng lấp hoặc làm trầm trọng thêm các biến chứng của đái tháo đường.
+    *   **Suy giáp:** Bệnh lý tuyến giáp có thể ảnh hưởng đến chuyển hóa glucose và lipid, gây khó khăn trong việc kiểm soát đường huyết và cần được điều trị song song.
+*   **Cân nhắc về thuốc:** Việc sử dụng vitamin B, đặc biệt là liều cao, có thể ảnh hưởng đến một số xét nghiệm (ví dụ: vitamin B12 có thể ảnh hưởng đến xét nghiệm homocysteine, hoặc một số biotin có thể gây nhiễu xét nghiệm miễn dịch). Bác sĩ cần khai thác kỹ tiền sử dùng thuốc của bệnh nhân.
+*   **Đánh giá toàn diện bệnh nhân:** Các tiêu chí loại trừ này nhắc nhở chúng ta rằng cơ thể là một thể thống nhất. Khi điều trị một bệnh (ví dụ: đái tháo đường), không thể bỏ qua các bệnh đồng mắc khác. Một bệnh nhân có nhiều bệnh lý phức tạp (đa bệnh nền) đòi hỏi cách tiếp cận cá thể hóa và đa chuyên khoa.
+*   **Tầm quan trọng của tiền sử bệnh:** Khai thác kỹ tiền sử bệnh, tiền sử dùng thuốc, và các bệnh lý hệ thống là bước không thể thiếu để đưa ra chẩn đoán và kế hoạch điều trị hiệu quả, an toàn cho bệnh nhân.
+Hiểu rõ các tiêu chí loại trừ trong nghiên cứu giúp chúng ta trở thành những bác sĩ có tư duy phản biện, đánh giá kết quả một cách khách quan và áp dụng kiến thức một cách thông minh vào từng bệnh cảnh lâm sàng cụ thể.</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Nguyên lý và Phương pháp Nghiên cứu Khoa học Y Sinh</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Sách giáo trình cung cấp kiến thức nền tảng về thiết kế nghiên cứu, chọn mẫu, kiểm soát sai số và các tiêu chí đạo đức trong nghiên cứu y khoa. Rất quan trọng để bác sĩ trẻ hiểu cách đọc và phê bình các bài báo khoa học.</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Quản lý Bệnh Đồng Mắc ở Bệnh nhân Đái tháo đường</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp kiến thức và chiến lược thực hành để quản lý hiệu quả các bệnh lý đồng mắc phổ biến ở bệnh nhân đái tháo đường, bao gồm bệnh thận mạn (ICD-10: N18), bệnh tim mạch và các rối loạn tuyến giáp (ICD-10: E03), giúp cải thiện chất lượng cuộc sống cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn và đào tạo bác sĩ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Phân tích kết quả về Homocysteine trong nghiên cứu, đặc biệt là sự khác biệt giữa các nhóm và theo giới tính, có ý nghĩa lâm sàng gì đối với việc đánh giá nguy cơ tim mạch ở bệnh nhân đái tháo đường type 2? Bác sĩ trẻ nên làm gì khi gặp trường hợp này?</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Các bạn đồng nghiệp và sinh viên y khoa, kết quả về Homocysteine trong nghiên cứu này cung cấp thông tin quan trọng về một yếu tố nguy cơ tim mạch ít được chú ý nhưng tiềm ẩn ở bệnh nhân đái tháo đường type 2 (ICD-10: E11).
+**1. Diễn giải kết quả nghiên cứu:**
+Nghiên cứu chỉ ra rằng:
+*   Mức Homocysteine trung bình ở nhóm đái tháo đường type 2 (13,09 ± 6,07 µmol/l) cao hơn có ý nghĩa thống kê so với nhóm không đái tháo đường (8,57 ± 3,4 µmol/l, p &lt; 0,01). Điều này củng cố mối liên hệ giữa đái tháo đường và tăng homocysteine máu.
+*   Trong nhóm đái tháo đường type 2, nam giới có mức Homocysteine trung bình cao hơn đáng kể (14,45 ± 6,68 µmol/l) so với nữ giới (10,5 ± 3,68 µmol/l, p &lt; 0,05). Đây là một phát hiện quan trọng, cho thấy sự khác biệt về giới tính trong nguy cơ này.
+Dưới đây là tóm tắt kết quả Homocysteine:
+| Đặc điểm                     | Homocysteine trung bình (µmol/l) | P      |
+| :--------------------------- | :------------------------------- | :----- |
+| Nhóm Đái tháo đường type 2   | 13,09 ± 6,07                     | &lt; 0,01 |
+| Nhóm Không đái tháo đường    | 8,57 ± 3,4                       |        |
+| Nam giới (trong nhóm ĐTĐ T2) | 14,45 ± 6,68                     | &lt; 0,05 |
+| Nữ giới (trong nhóm ĐTĐ T2)  | 10,5 ± 3,68                      |        |
+**2. Ý nghĩa lâm sàng của tăng Homocysteine máu ở bệnh nhân đái tháo đường:**
+*   **Tăng nguy cơ tim mạch:** Tăng homocysteine máu đã được biết là một yếu tố nguy cơ độc lập cho bệnh tim mạch, bao gồm bệnh mạch vành (ICD-10: I25), đột quỵ (ICD-10: I63) và bệnh mạch máu ngoại biên (ICD-10: I73.9). Ở bệnh nhân đái tháo đường, vốn đã có nguy cơ tim mạch cao, tình trạng tăng homocysteine máu có thể làm trầm trọng thêm nguy cơ này thông qua các cơ chế như tổn thương nội mạc mạch máu, thúc đẩy quá trình xơ vữa động mạch và tăng cường hình thành cục máu đông.
+*   **Cơ chế liên quan:** Đái tháo đường có thể ảnh hưởng đến quá trình chuyển hóa homocysteine, đặc biệt là thông qua sự thiếu hụt hoặc rối loạn chức năng của các vitamin nhóm B (folate, B6, B12), vốn là coenzyme quan trọng trong chuyển hóa homocysteine.
+*   **Sự khác biệt giới tính:** Kết quả nghiên cứu cho thấy nam giới mắc đái tháo đường có mức homocysteine cao hơn. Điều này có thể do sự khác biệt về hormone giới tính hoặc các yếu tố lối sống, gợi ý rằng nam giới mắc đái tháo đường có thể cần được chú ý đặc biệt hơn về nguy cơ tim mạch liên quan đến homocysteine.
+**3. Khuyến nghị cho Bác sĩ trẻ khi gặp trường hợp này:**
+*   **Đánh giá nguy cơ toàn diện:** Khi tiếp cận bệnh nhân đái tháo đường, ngoài việc kiểm soát đường huyết, lipid máu (như Cholesterol, Triglycerid, LDL-Cholesterol mà nghiên cứu cũng đề cập), huyết áp (ICD-10: I10), hãy cân nhắc các yếu tố nguy cơ khác như homocysteine, đặc biệt ở những bệnh nhân có tiền sử gia đình bệnh tim mạch sớm hoặc có biến chứng mạch máu.
+*   **Xét nghiệm bổ sung:** Đối với những bệnh nhân đái tháo đường có nguy cơ tim mạch cao hoặc biến chứng mạch máu không giải thích được, có thể xem xét xét nghiệm định lượng homocysteine và các vitamin nhóm B (folate, B12).
+*   **Can thiệp (nếu phù hợp):** Mặc dù vai trò của việc bổ sung vitamin nhóm B để giảm homocysteine và cải thiện kết cục tim mạch còn đang được tranh luận, việc đảm bảo đủ dinh dưỡng và xem xét bổ sung các vitamin này (dưới sự hướng dẫn của bác sĩ) có thể hữu ích ở một số đối tượng, đặc biệt nếu có thiếu hụt vitamin.
+*   **Tư vấn lối sống:** Khuyến khích chế độ ăn uống lành mạnh giàu folate (rau xanh, đậu), vitamin B6 (thịt, cá, khoai tây) và B12 (sản phẩm động vật) cũng như kiểm soát tốt các yếu tố nguy cơ tim mạch truyền thống.
+Tóm lại, việc theo dõi homocysteine, đặc biệt ở nam giới mắc đái tháo đường type 2, có thể là một phần trong chiến lược đánh giá và quản lý nguy cơ tim mạch toàn diện, giúp chúng ta phòng ngừa biến cố cho bệnh nhân hiệu quả hơn.</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Bệnh học Nội khoa - Tim mạch và Chuyển hóa</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Tài liệu chuyên sâu về sinh lý bệnh, chẩn đoán và điều trị các bệnh lý tim mạch, chuyển hóa, bao gồm cả vai trò của homocysteine và các yếu tố nguy cơ mới nổi trong bệnh đái tháo đường. Cần thiết cho các bác sĩ và sinh viên muốn đào sâu kiến thức.</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Quản lý Yếu tố Nguy cơ Tim mạch Toàn diện ở Bệnh nhân Đái tháo đường</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp các chiến lược tiên tiến để đánh giá và quản lý toàn diện các yếu tố nguy cơ tim mạch ở bệnh nhân đái tháo đường, bao gồm các chỉ số lipid, huyết áp, đường huyết và các yếu tố nguy cơ mới như homocysteine. Hữu ích cho các bác sĩ nội tiết, tim mạch và bác sĩ đa khoa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Chào bạn, tôi là sinh viên y khoa. Tôi muốn hỏi về sự khác biệt nồng độ homocysteine giữa nam và nữ có đái tháo đường type 2, cũng như ý nghĩa lâm sàng khi có tiểu albumin niệu. Bác sĩ có thể hướng dẫn thêm không?</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất hay và quan trọng trong thực hành lâm sàng, đặc biệt khi quản lý bệnh nhân đái tháo đường type 2. Hãy cùng phân tích kỹ lưỡng các điểm sau:
+*   **Sự khác biệt nồng độ Homocysteine theo giới tính:**
+    *   Nghiên cứu chỉ ra rằng ở nam giới mắc đái tháo đường type 2, nồng độ homocysteine trung bình là 14.45 ± 6.68 µmol/l. Con số này cao hơn đáng kể so với nữ giới mắc cùng bệnh (10.5 ± 3.68 µmol/l), với p &lt; 0.05, cho thấy sự khác biệt có ý nghĩa thống kê.
+    *   **Ý nghĩa lâm sàng cho bác sĩ trẻ:** Điều này gợi ý rằng nam giới mắc đái tháo đường type 2 có thể có nguy cơ cao hơn về các biến chứng liên quan đến tăng homocysteine, chẳng hạn như bệnh tim mạch hoặc bệnh thận. Khi đánh giá bệnh nhân, các em cần xem xét yếu tố giới tính và có thể cần theo dõi chặt chẽ hơn nồng độ homocysteine ở bệnh nhân nam.
+*   **Mối liên quan giữa Homocysteine và Tiểu Albumin Niệu (MAU):**
+    *   Ở bệnh nhân đái tháo đường type 2 có MAU (+), nồng độ homocysteine trung bình là 16.4 ± 6.45 µmol/l, cao hơn đáng kể so với nhóm MAU (-) là 9.89 ± 3.46 µmol/l (p &lt; 0.01).
+    *   **Ý nghĩa lâm sàng cho bác sĩ trẻ:** Microalbuminuria (MAU) là một dấu hiệu sớm của bệnh thận do đái tháo đường (diabetic nephropathy). Mối liên hệ chặt chẽ giữa homocysteine cao và MAU (+) cho thấy homocysteine có thể đóng vai trò như một yếu tố nguy cơ hoặc một biomarker cho sự tiến triển của biến chứng thận ở bệnh nhân đái tháo đường type 2. 
+    *   Khi khám và theo dõi bệnh nhân đái tháo đường type 2, nếu các em phát hiện MAU dương tính, việc xem xét kiểm tra nồng độ homocysteine có thể giúp đánh giá toàn diện hơn nguy cơ của bệnh nhân. Đồng thời, cần áp dụng các biện pháp kiểm soát chặt chẽ đường huyết, huyết áp, lipid máu và có thể xem xét bổ sung folate/vitamin B12 nếu cần, dưới sự chỉ định của bác sĩ chuyên khoa, để giảm nồng độ homocysteine và bảo vệ thận.
+*   **Kết nối với ICD-10:** Mặc dù homocysteine không phải là một mã ICD-10 trực tiếp, nhưng các bệnh lý mà nó liên quan chặt chẽ như Đái tháo đường type 2 (ICD-10: E11) và Bệnh thận mạn tính (ICD-10: N18), đặc biệt là bệnh thận đái tháo đường (ICD-10: E11.2), đều được mã hóa theo chuẩn này. Việc hiểu rõ các chỉ số sinh hóa như homocysteine giúp chúng ta đánh giá nguy cơ, tiên lượng và quản lý các biến chứng này theo hướng dẫn y tế chung, đảm bảo mã hóa chính xác cho mục đích ghi chép và thống kê y tế.</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị đái tháo đường type 2 (Bộ Y tế Việt Nam)</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các khuyến nghị lâm sàng toàn diện về quản lý đái tháo đường type 2, bao gồm các biến chứng mạch máu nhỏ và lớn, đặc biệt là biến chứng thận, giúp sinh viên và bác sĩ lâm sàng nắm vững phác đồ điều trị hiện hành theo chuẩn của Bộ Y tế.</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Quản lý tổng thể bệnh nhân đái tháo đường type 2: Từ kiểm soát đường huyết đến biến chứng</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào cập nhật kiến thức về cơ chế bệnh sinh, chẩn đoán sớm và chiến lược điều trị tối ưu cho đái tháo đường type 2. Đặc biệt, khóa học sẽ đi sâu vào các phương pháp theo dõi và can thiệp đối với các biến chứng tim mạch và thận giai đoạn đầu, trang bị kỹ năng thực hành cho bác sĩ trẻ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Tôi là bác sĩ nội trú, trong một nghiên cứu, tôi thấy có đề cập đến mối tương quan giữa homocysteine và tiểu albumin niệu (MAU) ở bệnh nhân đái tháo đường type 2. Bác sĩ có thể giải thích rõ hơn về mối tương quan này và các hàm ý lâm sàng của nó không?</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Chào bạn, rất vui khi bạn quan tâm đến mối tương quan này, đây là một khía cạnh quan trọng trong bệnh sinh và tiên lượng biến chứng của đái tháo đường type 2. Nghiên cứu đã chỉ ra một mối tương quan chặt chẽ và có ý nghĩa thống kê giữa nồng độ homocysteine huyết thanh và tiểu albumin niệu (MAU) ở bệnh nhân đái tháo đường type 2.
+*   **Mối tương quan giữa Homocysteine và MAU:**
+    *   Kết quả nghiên cứu cho thấy có một mối tương quan dương mạnh mẽ giữa homocysteine và MAU (r = 0.639; p &lt; 0.01). Điều này có nghĩa là khi nồng độ homocysteine tăng lên, mức độ tiểu albumin niệu cũng có xu hướng tăng theo một cách đáng kể.
+*   **Ý nghĩa lâm sàng và Hướng dẫn thực hành cho bác sĩ nội trú:**
+    *   **Homocysteine như một dấu ấn sinh học tiềm năng:** Mối tương quan này củng cố vai trò của homocysteine không chỉ là một yếu tố nguy cơ độc lập mà còn là một chỉ dấu tiềm năng cho sự tiến triển của bệnh thận do đái tháo đường. MAU là một dấu hiệu sớm của tổn thương vi mạch thận, và sự gia tăng homocysteine có thể phản ánh hoặc góp phần vào quá trình tổn thương này.
+    *   **Chiến lược sàng lọc và theo dõi:** Với vai trò là bác sĩ nội trú, các em cần lưu ý rằng ở những bệnh nhân đái tháo đường type 2 đã có MAU, việc đánh giá nồng độ homocysteine có thể cung cấp thêm thông tin về nguy cơ biến chứng và tiên lượng bệnh. Ngược lại, bệnh nhân có homocysteine cao cũng cần được sàng lọc và theo dõi chặt chẽ hơn về chức năng thận, đặc biệt là tình trạng tiểu albumin niệu.
+    *   **Can thiệp đa yếu tố:** Việc quản lý bệnh nhân cần tiếp cận đa yếu tố: kiểm soát chặt chẽ đường huyết (HbA1c), huyết áp, lipid máu, và nếu có tăng homocysteine, cần xem xét các biện pháp can thiệp như bổ sung vitamin nhóm B (folate, B6, B12) dưới sự giám sát y tế. Những biện pháp này không chỉ nhằm mục tiêu giảm homocysteine mà còn góp phần bảo vệ thận và giảm nguy cơ tim mạch tổng thể.
+    *   **Tư vấn bệnh nhân:** Giải thích rõ ràng cho bệnh nhân về tầm quan trọng của việc kiểm soát các chỉ số này và tuân thủ điều trị để phòng ngừa hoặc làm chậm tiến triển của biến chứng thận.
+Dưới đây là bảng tóm tắt về ý nghĩa của chỉ số 'r' (hệ số tương quan Pearson) để các em dễ dàng tham khảo và diễn giải các nghiên cứu khác:
+| Giá trị của 'r'   | Mức độ tương quan | Ý nghĩa lâm sàng/nghiên cứu                                   |
+| :---------------- | :--------------- | :----------------------------------------------------------- |
+| 0.00 - 0.19       | Rất yếu hoặc không đáng kể | Không có hoặc rất ít mối liên hệ tuyến tính.                  |
+| 0.20 - 0.39       | Yếu             | Có mối liên hệ tuyến tính, nhưng không mạnh.                   |
+| 0.40 - 0.59       | Trung bình       | Mối liên hệ tuyến tính có mức độ trung bình.                   |
+| 0.60 - 0.79       | Mạnh             | Mối liên hệ tuyến tính đáng kể, như trường hợp homocysteine và MAU (0.639). |
+| 0.80 - 1.00       | Rất mạnh         | Mối liên hệ tuyến tính rất chặt chẽ.                          |
+*   **Liên hệ ICD-10:** Bệnh thận do đái tháo đường, được biểu hiện qua tiểu albumin niệu, có thể được mã hóa là E11.2 (Đái tháo đường type 2 có biến chứng thận). Việc phát hiện sớm và quản lý tốt các yếu tố như homocysteine giúp chúng ta đưa ra chẩn đoán và mã hóa chính xác, đồng thời áp dụng các phác đồ điều trị đã được chuẩn hóa.</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Bệnh học nội khoa: Thận - Tiết niệu</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Cuốn sách cung cấp kiến thức sâu rộng về sinh lý bệnh, chẩn đoán, và điều trị các bệnh lý thận, bao gồm bệnh thận do đái tháo đường. Đây là tài liệu thiết yếu để bác sĩ và sinh viên y khoa hiểu rõ cơ chế và quản lý lâm sàng các bệnh lý thận liên quan đến đái tháo đường.</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Cập nhật chẩn đoán sớm và quản lý bệnh thận mạn ở bệnh nhân đái tháo đường</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các phương pháp sàng lọc, chẩn đoán sớm các tổn thương thận ở bệnh nhân đái tháo đường, bao gồm vai trò của các biomarker mới và chiến lược quản lý toàn diện để làm chậm tiến triển bệnh thận, giúp bác sĩ nội trú nắm vững kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Thưa bác sĩ, tôi đang nghiên cứu về các chỉ số sinh hóa ở bệnh nhân đái tháo đường type 2. Bác sĩ có thể cho tôi biết về mối quan hệ giữa homocysteine huyết thanh với một số chỉ số sinh hóa khác như HbA1c, Creatinine, Cholesterol, Triglycerid, HDL-C và LDL-C được không? Điều này có ý nghĩa gì trong việc đánh giá bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc hiểu rõ mối quan hệ giữa các chỉ số sinh hóa là rất quan trọng để có cái nhìn toàn diện về tình trạng bệnh nhân đái tháo đường type 2 và các nguy cơ biến chứng tiềm ẩn. Dựa trên nghiên cứu, chúng ta có những thông tin sau:
+*   **Mối liên hệ giữa Homocysteine và các chỉ số sinh hóa khác:**
+    *   **Triglycerid:** Nghiên cứu cho thấy có một mối tương quan dương có ý nghĩa thống kê giữa homocysteine và triglycerid máu (r = 0.3; p &lt; 0.05). Điều này gợi ý rằng bệnh nhân có nồng độ homocysteine cao thường cũng có mức triglycerid cao, và ngược lại. Cả hai yếu tố này đều là yếu tố nguy cơ tim mạch độc lập và có thể cùng tham gia vào quá trình tổn thương mạch máu.
+    *   **Các chỉ số không có mối tương quan rõ ràng:** Đối với HbA1c, Creatinine, Cholesterol toàn phần, HDL-Cholesterol và LDL-Cholesterol, nghiên cứu không tìm thấy mối tương quan có ý nghĩa thống kê với homocysteine (p &gt; 0.05).
+*   **Ý nghĩa lâm sàng và Hướng dẫn thực hành cho bác sĩ:**
+    *   **Đánh giá tổng thể nguy cơ tim mạch:** Mặc dù chỉ có Triglycerid thể hiện mối liên quan trực tiếp, nhưng điều này không có nghĩa là các chỉ số khác không quan trọng. Đối với một bác sĩ lâm sàng, việc đánh giá nguy cơ tim mạch ở bệnh nhân đái tháo đường type 2 cần phải toàn diện. Chúng ta cần kiểm soát chặt chẽ HbA1c (để quản lý đường huyết), creatinine (để đánh giá chức năng thận), và toàn bộ hồ sơ lipid (Cholesterol, Triglycerid, HDL-C, LDL-C) vì chúng đều là các yếu tố nguy cơ tim mạch đã được chứng minh.
+    *   **Tiếp cận độc lập và tổng hợp:** Việc homocysteine không tương quan trực tiếp với HbA1c hay Creatinine trong nghiên cứu này có thể gợi ý rằng homocysteine là một yếu tố nguy cơ độc lập hoặc ảnh hưởng đến bệnh lý qua các con đường khác. Do đó, ngay cả khi các chỉ số này trong giới hạn, nếu homocysteine cao, chúng ta vẫn cần xem xét các biện pháp can thiệp để giảm nguy cơ.
+    *   **Quản lý rối loạn lipid máu:** Mối tương quan giữa homocysteine và triglycerid củng cố tầm quan trọng của việc quản lý rối loạn lipid máu, đặc biệt là tăng triglycerid, ở bệnh nhân đái tháo đường. Bác sĩ cần tối ưu hóa điều trị hạ lipid, có thể bao gồm thay đổi lối sống, statin, fibrate (nếu cần) và các can thiệp khác để giảm cả triglycerid và homocysteine nếu có thể.
+    *   **Phác đồ điều trị:** Luôn tuân thủ phác đồ điều trị đái tháo đường type 2 của Bộ Y tế, trong đó có các hướng dẫn về kiểm soát đường huyết, huyết áp, lipid máu và sàng lọc biến chứng.
+*   **Liên hệ với ICD-10:** Các chỉ số như Cholesterol, Triglycerid, HDL-C, LDL-C liên quan trực tiếp đến Rối loạn lipid máu (ICD-10: E78), một biến chứng thường gặp ở bệnh nhân đái tháo đường type 2 (ICD-10: E11). Việc theo dõi và quản lý các chỉ số này không chỉ giúp kiểm soát bệnh đái tháo đường mà còn giảm nguy cơ các bệnh tim mạch do xơ vữa (ICD-10: I25), qua đó đảm bảo việc mã hóa bệnh án chính xác và đầy đủ.</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Y học thực hành: Rối loạn lipid máu và bệnh tim mạch</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Tài liệu này đi sâu vào cơ chế chuyển hóa lipid, các loại rối loạn lipid máu và tác động của chúng đối với sức khỏe tim mạch. Đây là nguồn kiến thức nền tảng cho việc chẩn đoán, điều trị và phòng ngừa các bệnh lý liên quan đến lipid máu ở bệnh nhân đái tháo đường.</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>CME: Chiến lược quản lý toàn diện yếu tố nguy cơ tim mạch ở bệnh nhân đái tháo đường</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp cái nhìn toàn diện về chẩn đoán, phân loại và các phương pháp điều trị các yếu tố nguy cơ tim mạch, bao gồm rối loạn lipid máu và tăng huyết áp, đặc biệt nhấn mạnh các chiến lược cá thể hóa cho bệnh nhân đái tháo đường để giảm thiểu nguy cơ biến cố tim mạch và tử vong.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ sinh viên y khoa và bác sĩ trẻ nâng cao kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, đoạn văn có đề cập rằng đái tháo đường type 2 thường được phát hiện muộn sau tuổi 40 và tần suất bệnh tăng theo tuổi. Yếu tố tuổi tác có ý nghĩa như thế nào trong quản lý bệnh đái tháo đường type 2, và làm thế nào để bác sĩ trẻ tối ưu hóa việc sàng lọc và can thiệp dựa trên thông tin này?</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng trong thực hành lâm sàng. Đúng như đoạn văn đã nêu, tuổi tác là một yếu tố không thể can thiệp nhưng lại đóng vai trò cực kỳ then chốt trong bệnh sinh và diễn tiến của đái tháo đường type 2 (ĐTĐ type 2). Đối với các bác sĩ trẻ và sinh viên y khoa, việc hiểu rõ ý nghĩa này sẽ giúp chúng ta có cách tiếp cận bệnh nhân một cách toàn diện và hiệu quả hơn:
+*   **Ý nghĩa của tuổi tác trong ĐTĐ type 2:**
+    *   **Yếu tố nguy cơ không thể thay đổi:** Tuổi càng cao, nguy cơ mắc ĐTĐ type 2 càng tăng do quá trình lão hóa ảnh hưởng đến chức năng tế bào beta tụy, gây kháng insulin và giảm khả năng dung nạp glucose. Việc này cần được nhấn mạnh khi tư vấn bệnh nhân.
+    *   **Ảnh hưởng đến diễn tiến và biến chứng:** Người lớn tuổi mắc ĐTĐ type 2 thường có các biến chứng mạch máu lớn và mạch máu nhỏ nặng nề hơn, tiến triển nhanh hơn và khó kiểm soát hơn. Điều này đòi hỏi chúng ta phải chủ động trong sàng lọc và can thiệp sớm.
+    *   **Thách thức trong quản lý:** Bệnh nhân lớn tuổi thường có nhiều bệnh đồng mắc (tăng huyết áp, rối loạn lipid máu, bệnh tim mạch...), chức năng thận suy giảm, nguy cơ hạ đường huyết cao hơn, và khả năng tuân thủ điều trị có thể kém hơn. Do đó, mục tiêu điều trị cần được cá thể hóa một cách cẩn trọng.
+*   **Hướng dẫn tối ưu hóa sàng lọc và can thiệp:**
+    *   **Tăng cường sàng lọc chủ động:** Đối với người trên 40 tuổi, đặc biệt là những người có các yếu tố nguy cơ khác (thừa cân/béo phì, tiền sử gia đình, lối sống ít vận động), cần chủ động sàng lọc ĐTĐ type 2 định kỳ bằng xét nghiệm glucose máu lúc đói, HbA1c, hoặc nghiệm pháp dung nạp glucose. Các bạn cần nắm vững tiêu chuẩn chẩn đoán theo Bộ Y tế Việt Nam (dựa trên ICD-10).
+    *   **Cá thể hóa mục tiêu điều trị:** Không phải tất cả bệnh nhân lớn tuổi đều có cùng mục tiêu HbA1c. Các bạn cần đánh giá tổng thể tình trạng sức khỏe, tuổi thọ kỳ vọng, bệnh đồng mắc, nguy cơ hạ đường huyết để đưa ra mục tiêu điều trị phù hợp nhất cho từng cá nhân. Ví dụ, mục tiêu HbA1c có thể nới lỏng hơn ở bệnh nhân rất già, có nhiều bệnh đồng mắc.
+    *   **Quản lý biến chứng:** Bác sĩ cần thường xuyên tầm soát các biến chứng mạch máu (bệnh võng mạc, bệnh thận, bệnh thần kinh ngoại biên, bệnh mạch vành, bệnh mạch máu não) ngay từ khi chẩn đoán và theo dõi sát sao trong quá trình điều trị. Các bạn nên thành thạo các kỹ thuật khám sàng lọc cơ bản như khám bàn chân, soi đáy mắt.
+    *   **Tư vấn lối sống:** Đừng quên vai trò của tư vấn lối sống (chế độ ăn uống, vận động) ngay cả ở người lớn tuổi. Việc này có thể giúp làm chậm tiến triển bệnh và giảm nguy cơ biến chứng.
+Để thực hành tốt, các bạn cần luôn cập nhật các hướng dẫn lâm sàng của Bộ Y tế và các hiệp hội chuyên ngành về đái tháo đường, đồng thời rèn luyện kỹ năng giao tiếp để tư vấn hiệu quả cho bệnh nhân lớn tuổi.</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ sinh viên y khoa và bác sĩ trẻ nâng cao kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Nghiên cứu trong đoạn văn chỉ ra rằng nồng độ homocysteine ở nhóm bệnh nhân đái tháo đường type 2 cao hơn đáng kể so với nhóm không mắc bệnh. Chuyên gia có thể giải thích ý nghĩa lâm sàng của sự tăng homocysteine này và các khuyến nghị để bác sĩ trẻ có thể tiếp cận vấn đề này trong thực hành?</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Đây là một điểm rất thú vị và có ý nghĩa lâm sàng sâu sắc, đặc biệt đối với các bạn đang học và thực hành y khoa. Việc tăng nồng độ homocysteine ở bệnh nhân đái tháo đường type 2 (ĐTĐ type 2) như nghiên cứu đã chỉ ra, không chỉ là một phát hiện ngẫu nhiên mà nó còn phản ánh một cơ chế bệnh sinh tiềm ẩn và liên quan trực tiếp đến các biến chứng:
+*   **Homocysteine là gì và ý nghĩa của sự tăng cao:**
+    *   Homocysteine là một amino acid chứa lưu huỳnh, là sản phẩm trung gian trong quá trình chuyển hóa methionine. Nồng độ homocysteine trong máu được điều hòa bởi các enzyme cần vitamin B6, B9 (folate), B12. Khi thiếu hụt các vitamin này hoặc có bất thường về gen enzyme, homocysteine có thể tích tụ.
+    *   **Tác động bệnh lý:** Homocysteine tăng cao (hyperhomocysteinemia) được coi là một yếu tố nguy cơ độc lập cho bệnh tim mạch, đột quỵ, bệnh mạch máu ngoại biên và bệnh thận, do gây tổn thương nội mạc mạch máu, thúc đẩy stress oxy hóa, rối loạn chức năng nội mô và tăng đông máu.
+    *   **Liên quan đến ĐTĐ type 2:** Như nghiên cứu đã chỉ ra, bệnh nhân ĐTĐ type 2 có nồng độ homocysteine cao hơn rõ rệt (trung bình 13.09 ± 6.07 μmol/l so với 8.57 ± 3.4 μmol/l ở nhóm không ĐTĐ). Điều này cho thấy homocysteine có thể góp phần làm tăng nguy cơ và mức độ nghiêm trọng của các biến chứng mạch máu ở bệnh nhân ĐTĐ type 2, đặc biệt là biến chứng võng mạc như một nghiên cứu khác đã đề cập.
+*   **Bảng so sánh nồng độ Homocysteine trong nghiên cứu:**
+| Nhóm nghiên cứu             | Nồng độ Homocysteine trung bình (μmol/l) | p-value (so với nhóm đối chứng) |
+| :------------------------- | :------------------------------------- | :----------------------------- |
+| Bệnh nhân ĐTĐ type 2        | 13.09 ± 6.07                           | &lt;0.01                          |
+| Nhóm đối chứng (không ĐTĐ) | 8.57 ± 3.4                             | -                              |
+*   **Khuyến nghị cho bác sĩ trẻ trong thực hành:**
+    1.  **Nâng cao nhận thức:** Hiểu rằng tăng homocysteine là một yếu tố nguy cơ độc lập hoặc cộng hợp, cần được xem xét trong bối cảnh quản lý ĐTĐ type 2 toàn diện. Mặc dù không phải là xét nghiệm thường quy, nhưng trong một số trường hợp (bệnh nhân ĐTĐ có biến chứng mạch máu nặng, không giải thích được bằng các yếu tố nguy cơ kinh điển), việc định lượng homocysteine có thể hữu ích.
+    2.  **Đánh giá yếu tố nguy cơ tổng thể:** Tập trung vào kiểm soát tốt đường huyết, huyết áp, lipid máu, và các yếu tố nguy cơ tim mạch khác. Tăng homocysteine chỉ là một phần của bức tranh tổng thể.
+    3.  **Xem xét bổ sung dinh dưỡng:** Nếu phát hiện tăng homocysteine, hãy xem xét tình trạng thiếu hụt vitamin B (B6, B9, B12). Mặc dù các nghiên cứu về hiệu quả của việc bổ sung vitamin B liều cao để giảm biến cố tim mạch còn nhiều tranh cãi, việc đảm bảo đủ vitamin B qua chế độ ăn hoặc bổ sung vừa phải là hợp lý, đặc biệt ở bệnh nhân có chế độ ăn kém hoặc kém hấp thu.
+    4.  **Tư vấn lối sống:** Khuyến khích chế độ ăn giàu rau xanh, trái cây (nguồn folate), giảm rượu bia và thuốc lá, vì những yếu tố này có thể ảnh hưởng đến nồng độ homocysteine. Các bạn cần luyện tập kỹ năng tư vấn dinh dưỡng và lối sống chuyên nghiệp cho bệnh nhân.
+Việc tiếp cận một cách khoa học và toàn diện sẽ giúp các bạn trở thành những bác sĩ giỏi, không chỉ điều trị bệnh mà còn quản lý các yếu tố nguy cơ hiệu quả.</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ sinh viên y khoa và bác sĩ trẻ nâng cao kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Đoạn văn nhấn mạnh sự khác biệt về nồng độ homocysteine giữa nam và nữ giới mắc đái tháo đường type 2, với nam giới có nồng độ cao hơn đáng kể. Chuyên gia có thể phân tích sâu hơn về các yếu tố sinh học và lối sống dẫn đến sự khác biệt này, đồng thời đưa ra các khuyến nghị lâm sàng cụ thể cho từng giới?</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Thưa các bạn sinh viên và bác sĩ trẻ, đây là một điểm quan trọng khác cần lưu ý, bởi nó giúp chúng ta cá thể hóa quản lý bệnh nhân. Sự khác biệt về nồng độ homocysteine giữa nam và nữ giới mắc đái tháo đường type 2 (ĐTĐ type 2) được giải thích bởi nhiều yếu tố tổng hợp:
+*   **Các yếu tố ảnh hưởng đến nồng độ Homocysteine giữa hai giới:**
+    *   **Thói quen lối sống (Nam giới):** Nghiên cứu chỉ ra rằng nam giới thường có các thói quen như lạm dụng rượu, nghiện thuốc lá, và uống nhiều cà phê. Các yếu tố này đều có thể gây tăng homocysteine máu thông qua nhiều cơ chế, ví dụ: rượu cản trở chuyển hóa folate, thuốc lá gây stress oxy hóa. Các bạn cần đặc biệt chú ý khai thác tiền sử này ở bệnh nhân nam.
+    *   **Chế độ ăn uống (Nữ giới):** Nữ giới thường có xu hướng tuân thủ chế độ ăn kiêng dành cho bệnh nhân ĐTĐ tốt hơn (ít chất béo, ít protein động vật, nhiều rau xanh). Chế độ ăn giàu folate và vitamin nhóm B giúp duy trì homocysteine ở mức thấp hơn. Việc này cho thấy vai trò quan trọng của tư vấn dinh dưỡng chuyên biệt.
+    *   **Hormone sinh sản:** Đây là một yếu tố sinh học mạnh mẽ. Testosterone và androgen ở nam giới có xu hướng làm tăng nồng độ homocysteine. Ngược lại, estrogen ở nữ giới có tác dụng làm giảm nồng độ homocysteine. Sự thay đổi nồng độ hormone theo tuổi tác hoặc tình trạng mãn kinh ở nữ cũng có thể ảnh hưởng.
+    *   **Khối lượng cơ thể:** Khối lượng cơ thể (BMI) và thành phần cơ thể cũng có thể đóng vai trò nhất định trong chuyển hóa homocysteine, mặc dù đoạn văn cho rằng không có sự khác biệt về BMI giữa hai nhóm trong nghiên cứu này.
+*   **Khuyến nghị lâm sàng cụ thể cho từng giới:**
+    *   **Đối với bệnh nhân nam giới mắc ĐTĐ type 2:**
+        *   **Khai thác triệt để tiền sử:** Luôn hỏi về thói quen uống rượu, hút thuốc lá, tiêu thụ cà phê hàng ngày. Đây là những yếu tố có thể can thiệp được.
+        *   **Tư vấn lối sống mạnh mẽ:** Tập trung vào việc ngưng hoặc giảm rượu, bỏ thuốc lá, và điều chỉnh chế độ ăn. Giải thích rõ ràng mối liên hệ giữa các thói quen này và nguy cơ biến chứng tim mạch, mạch máu do tăng homocysteine.
+        *   **Cân nhắc kiểm tra Homocysteine:** Trong trường hợp nam giới mắc ĐTĐ có các yếu tố nguy cơ lối sống rõ rệt và/hoặc biến chứng mạch máu nặng, có thể cân nhắc định lượng homocysteine để có cái nhìn toàn diện hơn về nguy cơ.
+    *   **Đối với bệnh nhân nữ giới mắc ĐTĐ type 2:**
+        *   **Duy trì và củng cố thói quen tốt:** Khuyến khích duy trì chế độ ăn lành mạnh và thói quen sinh hoạt tích cực nếu đã có.
+        *   **Lưu ý giai đoạn mãn kinh:** Nồng độ estrogen giảm sau mãn kinh có thể làm tăng homocysteine. Bác sĩ cần lưu ý đến sự thay đổi này và có thể cần tầm soát các yếu tố nguy cơ tim mạch kỹ hơn ở phụ nữ sau mãn kinh mắc ĐTĐ.
+        *   **Tầm soát thiếu máu:** Ở nữ giới, thiếu máu do thiếu sắt hoặc thiếu vitamin B12/folate cũng có thể ảnh hưởng đến homocysteine, cần được tầm soát và điều trị kịp thời.
+Việc hiểu rõ các khác biệt giới tính này không chỉ giúp chúng ta quản lý tốt hơn nồng độ homocysteine mà còn tối ưu hóa chiến lược phòng ngừa và điều trị biến chứng ĐTĐ type 2 nói chung.</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên sâu, hỗ trợ đào tạo và phát triển kiến thức lâm sàng cho các bác sĩ trẻ và sinh viên y khoa về bệnh lý nội tiết và thận.</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, vai trò của Homocysteine trong bệnh sinh bệnh thận đái tháo đường týp 2 là gì và làm thế nào để chúng tôi đánh giá nó trong thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, việc hiểu rõ vai trò của Homocysteine trong bệnh thận đái tháo đường (BN ĐTĐ) týp 2 là rất quan trọng để có cái nhìn toàn diện về bệnh sinh và quản lý. Dưới đây là những điểm cốt lõi các bạn cần nắm vững:
+*   **Vai trò trong bệnh sinh:**
+    *   Trong BN ĐTĐ týp 2, sự tiến triển của rối loạn chuyển hóa và rối loạn huyết động theo thời gian sẽ dẫn đến tổn thương thận. Nghiên cứu đã chỉ ra rằng Homocysteine, một acid amin chứa lưu huỳnh, có nồng độ tăng cao ở nhóm ĐTĐ có Microalbumin niệu (MAU) dương tính. Điều này gợi ý một mối liên quan chặt chẽ giữa Homocysteine và tổn thương thận giai đoạn sớm.
+    *   Homocysteine được cho là đóng vai trò trong cơ chế bệnh sinh của bệnh thận ĐTĐ týp 2 thông qua việc gây tổn thương nội mạc mạch máu, tăng stress oxy hóa, và thúc đẩy quá trình viêm xơ hóa, từ đó dẫn đến tổn thương cấu trúc và chức năng thận.
+    *   Tăng Homocysteine máu (hyperhomocysteinemia) có liên quan đến việc tăng nguy cơ xảy ra MAU và được chứng minh có mối tương quan chặt chẽ với tổn thương thận ở BN ĐTĐ týp 2, đặc biệt ở giai đoạn sớm.
+*   **Đánh giá trong thực hành lâm sàng:**
+    *   **Xét nghiệm Homocysteine huyết tương:** Mặc dù không phải là xét nghiệm thường quy, nhưng trong những trường hợp BN ĐTĐ có nguy cơ cao hoặc có dấu hiệu sớm của bệnh thận, việc định lượng Homocysteine có thể cung cấp thêm thông tin tiên lượng. Tuy nhiên, cần lưu ý đến các yếu tố khác có thể ảnh hưởng đến nồng độ Homocysteine như chức năng thận, tình trạng dinh dưỡng (thiếu folate, vitamin B6, B12).
+    *   **Xét nghiệm Microalbumin niệu (MAU):** Đây là một chỉ dấu quan trọng và thường quy để sàng lọc sớm tổn thương thận ở BN ĐTĐ. MAU dương tính (+), được định nghĩa là tỷ lệ albumin/creatinine niệu (ACR) từ 30-300 mg/g (hoặc 3-30 mg/mmol), là dấu hiệu sớm của bệnh thận ĐTĐ. Các bạn cần thực hiện xét nghiệm này định kỳ (hàng năm) cho tất cả BN ĐTĐ týp 2.
+    *   **Phân loại theo ICD-10:** Khi chẩn đoán bệnh thận ĐTĐ, chúng ta sẽ sử dụng mã ICD-10 như E11.21 (Đái tháo đường týp 2 có biến chứng thận) hoặc E11.22 (Đái tháo đường týp 2 có bệnh thận mạn tính). Mã E70.4 có thể được sử dụng cho Rối loạn chuyển hóa methionine, bao gồm tăng Homocysteine máu.
+Việc kết hợp đánh giá các chỉ số như MAU và xem xét Homocysteine trong một số trường hợp sẽ giúp chúng ta có cái nhìn sâu sắc hơn về tình trạng sức khỏe của thận ở BN ĐTĐ, từ đó đưa ra các can thiệp kịp thời và hiệu quả.</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị bệnh thận mạn tính ở bệnh nhân đái tháo đường (Bộ Y tế).</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn chẩn đoán, phác đồ điều trị và khuyến nghị quản lý toàn diện bệnh thận mạn tính trên nền đái tháo đường, rất cần thiết cho bác sĩ nội tiết, tim mạch và thận học.</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Cập nhật chẩn đoán và quản lý bệnh thận đái tháo đường: Từ cơ chế bệnh sinh đến liệu pháp mới.</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào các tiến bộ mới trong sàng lọc, chẩn đoán sớm và các chiến lược điều trị hiệu quả bệnh thận đái tháo đường, bao gồm vai trò của các biomarker mới như Homocysteine và các phương pháp điều trị tiên tiến.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa với vai trò cố vấn học thuật, giúp bác sĩ và sinh viên y khoa phân tích dữ liệu nghiên cứu và áp dụng vào thực tiễn lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Kết quả nghiên cứu cho thấy Homocysteine có thể là một yếu tố dự báo độc lập cho biến chứng thận ở bệnh nhân đái tháo đường týp 2. Chúng tôi nên hiểu điều này như thế nào trong bối cảnh quản lý đường huyết và lipid máu?</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Chào các bạn đồng nghiệp, việc Homocysteine được xác định là một yếu tố dự báo độc lập cho biến chứng thận ở BN ĐTĐ týp 2 mang ý nghĩa lâm sàng rất lớn, đặc biệt trong bối cảnh quản lý toàn diện. Dưới đây là cách chúng ta nên tiếp cận thông tin này:
+*   **Ý nghĩa của 'yếu tố dự báo độc lập':** Điều này có nghĩa là nồng độ Homocysteine huyết thanh có thể dự đoán nguy cơ biến chứng thận ở BN ĐTĐ týp 2 một cách độc lập, không phụ thuộc vào mức độ kiểm soát đường huyết (chỉ số HbA1c). Điều này đặc biệt quan trọng vì nó cho thấy ngay cả khi BN đã kiểm soát tốt đường huyết, nguy cơ biến chứng thận vẫn có thể hiện hữu nếu Homocysteine tăng cao. Điều này cũng ám chỉ rằng việc chỉ tập trung vào HbA1c là chưa đủ để đánh giá toàn diện nguy cơ biến chứng thận.
+*   **Mối liên hệ với HbA1c:** Các nghiên cứu (kể cả nghiên cứu được trích dẫn) thường không tìm thấy mối liên hệ giữa nồng độ Homocysteine và chỉ số HbA1c. Điều này củng cố quan điểm rằng Homocysteine là một yếu tố độc lập liên quan đến ĐTĐ týp 2, không phụ thuộc vào mức độ kiểm soát đường huyết. Vì vậy, các bác sĩ cần nhận thức rằng việc kiểm soát đường huyết tốt là cần thiết nhưng không loại trừ hoàn toàn nguy cơ biến chứng thận liên quan đến Homocysteine.
+*   **Mối liên hệ với các thành phần lipid máu:** Mối quan hệ giữa Homocysteine và lipid máu phức tạp hơn và có nhiều kết quả mâu thuẫn giữa các nghiên cứu. Điều này có thể do sự khác biệt trong phác đồ điều trị (ăn kiêng, thuốc hạ lipid máu) hoặc sự không đồng nhất về chức năng thận trong các quần thể nghiên cứu. Các bạn có thể tham khảo bảng tóm tắt dưới đây:
+| Nghiên cứu/Tác giả | Homocysteine và Triglycerides | Homocysteine và Cholesterol | Homocysteine và HDL-C | Homocysteine và LDL-C |
+| :---------------- | :--------------------------- | :-------------------------- | :------------------ | :------------------- |
+| Nghiên cứu này     | Tương quan dương (r=0.3; p&lt;0.05) | Không tương quan            | Không tương quan     | Không tương quan     |
+| Nguyễn Thị Thanh Thủy [2] | Không tương quan            | Không tương quan            | Không tương quan     | Không tương quan     |
+| Dương Thị Tuyết [5] | Không rõ                    | Không rõ                    | Tương quan nghịch (r=-0.3; p&lt;0.05) | Không rõ                    |
+| Phạm Toàn Trung [7] | Không rõ                    | Không rõ                    | Không rõ              | Tương quan dương (r=0.28; p&lt;0.05) |
+*   **Ứng dụng trong quản lý:** Mặc dù chưa có khuyến cáo chính thức để xét nghiệm Homocysteine thường quy, nhưng thông tin này nhắc nhở chúng ta về tầm quan trọng của việc quản lý đa yếu tố nguy cơ ở BN ĐTĐ. Chúng ta không chỉ cần kiểm soát đường huyết và lipid máu mà còn cần chú ý đến các yếu tố nguy cơ khác như Homocysteine, đặc biệt ở những BN có nguy cơ biến chứng thận cao hoặc đã có MAU.
+*   **Mã hóa ICD-10:** Khi chẩn đoán các tình trạng liên quan, việc mã hóa chính xác giúp theo dõi dịch tễ và quản lý. Mã E11.21 cho ĐTĐ týp 2 có biến chứng thận là mã cơ bản. Mã E70.4 cho tăng Homocysteine máu cũng cần được cân nhắc khi có bằng chứng lâm sàng.</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành lâm sàng về đái tháo đường týp 2 (Hiệp hội Đái tháo đường Việt Nam).</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các hướng dẫn chi tiết về chẩn đoán, điều trị và quản lý các yếu tố nguy cơ ở bệnh nhân đái tháo đường týp 2, bao gồm các khuyến nghị về sàng lọc biến chứng.</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Quản lý Đái tháo đường toàn diện: Beyond Glycemic Control.</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Khóa học này mở rộng kiến thức về quản lý đái tháo đường, nhấn mạnh vào các yếu tố nguy cơ tim mạch và thận không liên quan trực tiếp đến đường huyết, giúp các bác sĩ trẻ có cái nhìn sâu sắc hơn về cá thể hóa điều trị.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Chatbot chuyên sâu về y khoa, hướng dẫn sinh viên và bác sĩ trẻ phương pháp tiếp cận các chỉ dấu sinh học mới trong chẩn đoán và điều trị, đồng thời nâng cao kỹ năng đánh giá nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Dựa trên các nghiên cứu được trích dẫn, nồng độ Homocysteine tăng cao ở bệnh nhân đái tháo đường có ý nghĩa lâm sàng như thế nào? Và chúng tôi cần lưu ý gì khi đọc các nghiên cứu có kết quả mâu thuẫn?</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Các bạn thân mến, việc hiểu rõ ý nghĩa lâm sàng của Homocysteine và cách đánh giá các nghiên cứu có kết quả mâu thuẫn là kỹ năng then chốt trong y học hiện đại. Hãy cùng phân tích:
+*   **Ý nghĩa lâm sàng của tăng Homocysteine ở BN ĐTĐ:**
+    *   **Dự báo biến chứng thận:** Kết quả nghiên cứu khẳng định rằng nồng độ Homocysteine tăng cao ở BN ĐTĐ týp 2 so với nhóm không mắc ĐTĐ. Quan trọng hơn, chỉ số Homocysteine có thể là một yếu tố dự báo độc lập cho biến chứng thận ở BN ĐTĐ týp 2, không phụ thuộc vào mức độ kiểm soát đường huyết (HbA1c). Điều này nhấn mạnh rằng, ngay cả khi kiểm soát đường huyết tốt, chúng ta vẫn cần chú ý đến các yếu tố nguy cơ khác như Homocysteine để phòng ngừa và quản lý biến chứng thận.
+    *   **Phát hiện sớm nguy cơ:** Mức Homocysteine cao liên quan chặt chẽ với sự xuất hiện của Microalbumin niệu (MAU) – một dấu hiệu sớm của bệnh thận ĐTĐ. Việc nhận diện sớm MAU và các yếu tố liên quan như Homocysteine giúp can thiệp kịp thời để làm chậm tiến triển của bệnh thận.
+    *   **ICD-10:** Khi chẩn đoán, các bạn cần mã hóa chính xác theo ICD-10. Đối với BN ĐTĐ týp 2 có biến chứng thận, sử dụng E11.21. Nếu có tăng Homocysteine máu, mã E70.4 (Rối loạn chuyển hóa methionine) có thể được sử dụng để bổ sung thông tin chẩn đoán, mặc dù đây là một chỉ số sinh hóa và cần được diễn giải trong bối cảnh lâm sàng tổng thể.
+*   **Lưu ý khi đọc các nghiên cứu có kết quả mâu thuẫn:**
+    *   **Tính không đồng nhất của quần thể nghiên cứu:** Sự khác biệt về đặc điểm BN (ví dụ: giai đoạn bệnh, thời gian mắc bệnh, các bệnh lý đồng mắc, chủng tộc), phác đồ điều trị (chế độ ăn, thuốc hạ lipid máu, thuốc hạ đường huyết), và tình trạng chức năng thận nền giữa các nhóm nghiên cứu có thể ảnh hưởng đến nồng độ Homocysteine và các chỉ số khác. Ví dụ, việc BN ĐTĐ đã được điều trị bằng chế độ ăn và thuốc hạ lipid máu có thể cải thiện hồ sơ lipid, từ đó làm thay đổi mối tương quan với Homocysteine.
+    *   **Phương pháp nghiên cứu:** Các phương pháp đo lường, cỡ mẫu, thiết kế nghiên cứu (cắt ngang, thuần tập) và các biến số gây nhiễu được kiểm soát cũng có thể dẫn đến sự khác biệt trong kết quả.
+    *   **Ý nghĩa thống kê so với ý nghĩa lâm sàng:** Một mối tương quan có ý nghĩa thống kê (ví dụ: p &lt; 0.05) không phải lúc nào cũng có ý nghĩa lâm sàng lớn. Các bạn cần đánh giá cả độ lớn của mối tương quan (ví dụ: hệ số r) và bối cảnh lâm sàng để đưa ra kết luận phù hợp.
+    *   **Thực hành:** Khi đối mặt với kết quả mâu thuẫn, các bạn nên ưu tiên các nghiên cứu có quy mô lớn, thiết kế chặt chẽ, và được thực hiện trên quần thể tương đồng với BN của mình. Đồng thời, luôn cập nhật các hướng dẫn lâm sàng từ các tổ chức uy tín (Bộ Y tế, WHO, ADA) để có cái nhìn tổng thể và áp dụng vào thực tiễn một cách thận trọng.</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Tạp chí Nội tiết và Chuyển hóa Việt Nam - Nghiên cứu về các yếu tố nguy cơ biến chứng Đái tháo đường.</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Tuyển tập các bài báo nghiên cứu về các yếu tố nguy cơ tim mạch và thận ở bệnh nhân đái tháo đường, giúp bác sĩ cập nhật kiến thức về các chỉ số tiên lượng và cách đánh giá nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Nghiên cứu khoa học trong y học: Phương pháp, Đánh giá và Ứng dụng Lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Khóa học này là một khóa học thiết yếu trang bị cho các bác sĩ và sinh viên y khoa những kỹ năng quan trọng để đọc, phân tích, đánh giá phê bình các bài báo khoa học và hiểu được tính hợp lệ, khả năng ứng dụng của kết quả nghiên cứu vào thực tiễn lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, vai trò của homocystein huyết tương trong bệnh đái tháo đường týp 2 và các biến chứng của nó là gì? Làm thế nào để sinh viên y khoa và bác sĩ trẻ tiếp cận vấn đề này trong thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Các em sinh viên y khoa và các bạn bác sĩ trẻ thân mến,
+Nồng độ homocystein (Hcy) huyết tương là một chỉ dấu sinh học (biomarker) ngày càng được quan tâm trong bệnh đái tháo đường týp 2 (ĐTĐ týp 2, mã ICD-10: E11.x) do mối liên quan mật thiết của nó với sự phát triển và tiến triển của các biến chứng. Đây là một yếu tố nguy cơ độc lập cần được lưu ý:
+*   **Cơ chế bệnh sinh**: Homocystein máu cao (hyperhomocysteinemia) được chứng minh là gây tổn thương nội mạc mạch máu, thúc đẩy quá trình stress oxy hóa, rối loạn chức năng nội mô và tăng hình thành huyết khối. Đây là những cơ chế then chốt trong bệnh sinh xơ vữa động mạch, dẫn đến các biến cố tim mạch (tham khảo số 9: Austin R.C., et al., 2004).
+*   **Biến chứng tim mạch**: Nhiều nghiên cứu đã chỉ ra mối liên quan giữa nồng độ Hcy cao và nguy cơ mắc hội chứng vành cấp (ICD-10: I21.x) ở bệnh nhân ĐTĐ týp 2. Điều này có nghĩa là Hcy không chỉ là một chỉ số mà còn là một yếu tố góp phần vào gánh nặng bệnh tim mạch (tham khảo số 2 và 6).
+*   **Biến chứng vi mạch**: Ngoài tim mạch, Hcy cũng được khảo sát liên quan đến các biến chứng vi mạch như bệnh thận đái tháo đường (đặc biệt là microalbumin niệu - tham khảo số 3, 4) và bệnh thần kinh đái tháo đường (tham khảo số 10).
+**Trong thực hành lâm sàng, các bạn cần lưu ý:**
+1.  **Đánh giá toàn diện**: Khi tiếp cận bệnh nhân ĐTĐ týp 2, ngoài các yếu tố nguy cơ truyền thống (tăng huyết áp, rối loạn lipid máu, hút thuốc), hãy bắt đầu hình thành tư duy đánh giá các yếu tố nguy cơ mới nổi như homocystein, đặc biệt ở những bệnh nhân có biến chứng tiến triển nhanh hoặc không rõ nguyên nhân.
+2.  **Xét nghiệm Hcy**: Hiện tại, xét nghiệm homocystein chưa phải là xét nghiệm thường quy. Tuy nhiên, nếu có điều kiện và phù hợp với bối cảnh lâm sàng (ví dụ: nghi ngờ tăng nguy cơ tim mạch hoặc thận khi các chỉ số khác bình thường), có thể cân nhắc đề xuất. Luôn tuân thủ hướng dẫn chẩn đoán và điều trị hiện hành của Bộ Y tế Việt Nam.
+3.  **Chiến lược quản lý**: Mặc dù chưa có khuyến cáo điều trị hạ Hcy một cách độc lập cho tất cả bệnh nhân, việc kiểm soát tốt các yếu tố nguy cơ khác (đường máu, huyết áp, lipid máu) và bổ sung folate, vitamin B6, B12 (dưới sự chỉ định của bác sĩ) có thể có vai trò gián tiếp trong việc điều hòa nồng độ Hcy.
+4.  **Học hỏi liên tục**: Hãy luôn cập nhật các nghiên cứu mới về vai trò của Hcy và các biomarker khác trong ĐTĐ để mở rộng kiến thức và ứng dụng vào thực hành.
+Hiểu rõ vai trò của homocystein sẽ giúp chúng ta có cái nhìn sâu sắc hơn về bệnh sinh và quản lý ĐTĐ týp 2 một cách toàn diện hơn.</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên sâu, hỗ trợ bác sĩ trẻ và sinh viên y khoa trong việc nắm vững kiến thức, kỹ năng lâm sàng và lựa chọn tài liệu học tập phù hợp.</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Xin cho biết mối liên quan cụ thể giữa nồng độ homocystein huyết thanh cao và các biến chứng thận, thần kinh ở bệnh nhân đái tháo đường týp 2. Bác sĩ trẻ cần lưu ý gì khi theo dõi và quản lý những bệnh nhân này?</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Kính gửi các đồng nghiệp và các em sinh viên,
+Mối liên quan giữa homocystein (Hcy) cao và các biến chứng vi mạch ở bệnh nhân đái tháo đường týp 2 (ĐTĐ týp 2, ICD-10: E11.x) là một lĩnh vực nghiên cứu quan trọng, đặc biệt là bệnh thận đái tháo đường (ICD-10: N08.3*) và bệnh thần kinh đái tháo đường (ICD-10: G63.2*). Việc nắm vững kiến thức này sẽ giúp các bạn có cái nhìn sâu sắc hơn về cơ chế bệnh sinh và các biện pháp can thiệp.
+*   **Biến chứng thận (Bệnh thận đái tháo đường)**:
+    *   **Microalbumin niệu**: Nhiều nghiên cứu, như của Lương Hữu Dũng (2015) và Cho E.H. et al. (2010), đã khảo sát và chỉ ra mối liên quan giữa nồng độ Hcy huyết thanh cao và sự xuất hiện sớm của microalbumin niệu ở bệnh nhân ĐTĐ týp 2. Microalbumin niệu là dấu hiệu sớm của tổn thương thận, báo hiệu nguy cơ tiến triển thành bệnh thận mạn. Cơ chế có thể liên quan đến tác động độc hại trực tiếp của Hcy lên tế bào nội mô cầu thận và tế bào ống thận, gây stress oxy hóa và viêm.
+    *   **Thực hành lâm sàng**: Đối với bác sĩ trẻ, khi theo dõi bệnh nhân ĐTĐ týp 2 có dấu hiệu microalbumin niệu, ngoài việc kiểm soát đường huyết, huyết áp, lipid máu chặt chẽ, cần cân nhắc thêm các yếu tố nguy cơ khác như Hcy nếu tình trạng bệnh không cải thiện như mong đợi hoặc tiến triển nhanh. Sàng lọc microalbumin niệu định kỳ là cực kỳ quan trọng (ít nhất hàng năm).
+*   **Biến chứng thần kinh (Bệnh thần kinh đái tháo đường)**:
+    *   Fahmy E. et al. (2010) đã ước tính mức độ Hcy huyết thanh ở bệnh nhân ĐTĐ týp 2 có bệnh thần kinh, cho thấy mối liên quan giữa hai yếu tố này. Hcy có thể gây tổn thương tế bào Schwann, mạch máu nuôi thần kinh (vasa nervorum) và trực tiếp lên sợi thần kinh thông qua các cơ chế stress oxy hóa và viêm, góp phần vào sự phát triển của bệnh thần kinh ngoại biên đái tháo đường.
+    *   **Thực hành lâm sàng**: Khi khám bệnh nhân ĐTĐ có các triệu chứng thần kinh (tê bì, kiến bò, đau rát...), ngoài các xét nghiệm chẩn đoán thông thường, việc xem xét các yếu tố như Hcy có thể cung cấp thêm thông tin về bệnh sinh. Các bạn cần tập trung vào giáo dục bệnh nhân về tầm quan trọng của kiểm soát đường huyết nghiêm ngặt, chăm sóc bàn chân, và bổ sung vitamin nhóm B theo chỉ định để hỗ trợ chức năng thần kinh.
+**Bảng tóm tắt mối liên quan Hcy và biến chứng ĐTĐ týp 2:**
+| Biến chứng       | Đặc điểm liên quan đến Hcy                                            | Gợi ý lâm sàng cho bác sĩ trẻ                                                                                               |
+| :--------------- | :-------------------------------------------------------------------- | :-------------------------------------------------------------------------------------------------------------------------- |
+| **Thận**         | - Tăng nguy cơ microalbumin niệu sớm. &lt;br&gt; - Gây tổn thương cầu thận. | - Sàng lọc microalbumin niệu hàng năm. &lt;br&gt; - Tối ưu kiểm soát đường huyết, huyết áp. &lt;br&gt; - Cân nhắc Hcy ở ca khó.             |
+| **Thần kinh**    | - Góp phần vào bệnh thần kinh ngoại biên. &lt;br&gt; - Tổn thương mạch máu nuôi thần kinh. | - Thăm khám thần kinh kỹ lưỡng. &lt;br&gt; - Giáo dục bệnh nhân chăm sóc bàn chân. &lt;br&gt; - Đảm bảo đủ vitamin B. |
+Việc nắm vững những kiến thức này không chỉ giúp chúng ta chẩn đoán và điều trị hiệu quả hơn mà còn định hướng cho các nghiên cứu tiếp theo để tìm ra các biện pháp phòng ngừa và can thiệp sớm.</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hướng dẫn sinh viên y khoa và bác sĩ thực hành tiếp cận thông tin, nghiên cứu khoa học và phát triển chuyên môn.</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Khi nghiên cứu hoặc đánh giá nồng độ homocystein ở bệnh nhân đái tháo đường týp 2, những phương pháp tiếp cận và lưu ý quan trọng nào cần được áp dụng để đảm bảo tính chính xác và tin cậy của kết quả? Có tài liệu nghiên cứu nào đáng tham khảo không?</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Chào các bạn sinh viên y khoa và các đồng nghiệp bác sĩ trẻ,
+Việc đánh giá và nghiên cứu nồng độ homocystein (Hcy) ở bệnh nhân đái tháo đường týp 2 (ĐTĐ týp 2, ICD-10: E11.x) đòi hỏi một cách tiếp cận khoa học và cẩn trọng để đảm bảo tính chính xác và tin cậy của kết quả. Điều này không chỉ quan trọng cho các công trình nghiên cứu mà còn cho việc diễn giải các xét nghiệm lâm sàng.
+**Những lưu ý quan trọng khi đánh giá Hcy:**
+*   **Thời điểm lấy mẫu**: Nồng độ Hcy có thể bị ảnh hưởng bởi bữa ăn. Do đó, cần khuyến nghị bệnh nhân nhịn ăn (thường là 8-12 giờ) trước khi lấy mẫu máu để đảm bảo kết quả ổn định và có thể so sánh được.
+*   **Phương pháp định lượng**: Có nhiều phương pháp định lượng Hcy (HPLC, miễn dịch huỳnh quang phân cực, sắc ký khí khối phổ...). Điều quan trọng là phải hiểu rõ nguyên lý, độ nhạy, độ đặc hiệu của phương pháp đang sử dụng và các yếu tố có thể ảnh hưởng đến kết quả.
+*   **Các yếu tố nhiễu**: Nhiều yếu tố có thể ảnh hưởng đến nồng độ Hcy, bao gồm:
+    *   **Chế độ ăn**: Đặc biệt là sự thiếu hụt vitamin B6, B12 và folate.
+    *   **Chức năng thận**: Hcy được đào thải qua thận, do đó suy giảm chức năng thận (ICD-10: N18.x) có thể làm tăng nồng độ Hcy.
+    *   **Thuốc**: Một số thuốc (ví dụ: metformin, fibrates, phenytoin) có thể ảnh hưởng đến nồng độ Hcy.
+    *   **Di truyền**: Các biến thể gen liên quan đến chuyển hóa Hcy (ví dụ: MTHFR) cũng có thể tác động.
+*   **Thiết kế nghiên cứu**:
+    *   **Nghiên cứu cắt ngang (cross-sectional)** như nhiều tài liệu trong danh sách (Dương Thị Tuyết et al., 2008; Đặng Anh Đào et al., 2014) chỉ có thể chỉ ra mối liên quan, không chứng minh được quan hệ nhân quả.
+    *   **Nghiên cứu đoàn hệ (cohort)** hoặc **can thiệp** sẽ cung cấp bằng chứng mạnh mẽ hơn về mối quan hệ nhân quả và hiệu quả của các biện pháp can thiệp.
+**Ví dụ từ các tài liệu tham khảo để học hỏi:**
+*   **Luận án tiến sĩ (Số 2)**: Cách tiếp cận một vấn đề chuyên sâu (Hcy ở bệnh nhân ĐTĐ týp 2 với hội chứng vành cấp) thông qua một nghiên cứu lớn, toàn diện.
+*   **Các bài báo tạp chí (Số 3, 4, 5, 8, 10)**: Cách trình bày kết quả nghiên cứu ngắn gọn, tập trung vào mối liên quan cụ thể.
+*   **Hội nghị khoa học (Số 6, 7)**: Là nơi cập nhật nhanh chóng các kết quả nghiên cứu ban đầu, giúp định hướng các nghiên cứu sâu hơn.
+**Để nâng cao kỹ năng nghiên cứu và đánh giá:**
+*   **Đọc kỹ phần 'Vật liệu và Phương pháp' (Materials and Methods)** của các bài báo để hiểu cách thức các tác giả đã tiến hành nghiên cứu, từ đó rút ra kinh nghiệm cho bản thân.
+*   **Tham gia các buổi seminar, hội thảo khoa học**: Đây là cơ hội tuyệt vời để học hỏi từ các chuyên gia và đặt câu hỏi trực tiếp.
+Việc hiểu rõ những khía cạnh này sẽ giúp các bạn không chỉ trở thành những nhà lâm sàng giỏi mà còn là những người đọc và đánh giá nghiên cứu khoa học một cách thông thái.</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và bằng chứng khoa học, hướng dẫn sinh viên y khoa và bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, Hội chứng Rối loạn Khớp Thái Dương Hàm (TMD) là gì, các nguyên nhân phổ biến của nó ra sao, và mối liên hệ giữa khớp cắn sai lệch (malocclusion) và TMD được hiểu như thế nào theo các nghiên cứu gần đây?</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Chào các em sinh viên y khoa và các bác sĩ trẻ! Đây là một câu hỏi rất quan trọng trong lĩnh vực răng hàm mặt và y học nói chung. Để hiểu rõ về TMD và vai trò của khớp cắn sai lệch, chúng ta cần nắm vững các điểm sau:
+*   **Rối loạn Khớp Thái Dương Hàm (TMD) là gì?**
+    TMD không phải là một bệnh đơn lẻ mà là một hội chứng phức tạp bao gồm các triệu chứng đau và khó chịu xuất phát từ các rối loạn cơ và thần kinh liên quan đến khớp thái dương hàm (TMJ). Khớp TMJ là một trong những khớp hoạt động nhiều nhất cơ thể, có vai trò quan trọng trong việc nhai, nói và nuốt.
+*   **Các nguyên nhân phổ biến của TMD:**
+    TMD có thể do nhiều yếu tố trực tiếp hoặc gián tiếp gây ra. Các em cần xem xét một cách toàn diện khi khám bệnh nhân:
+    *   **Yếu tố chấn thương:** Chấn thương cấp tính hoặc vi chấn thương lặp đi lặp lại (ví dụ: nghiến răng, cắn móng tay).
+    *   **Yếu tố giải phẫu:** Bất thường về cấu trúc khớp, chẳng hạn như thay đổi hình thái lồi cầu hoặc đĩa khớp.
+    *   **Yếu tố sinh lý bệnh:** Viêm khớp, thoái hóa khớp, hoặc các bệnh lý toàn thân ảnh hưởng đến khớp.
+    *   **Yếu tố tâm lý xã hội:** Căng thẳng, lo âu, trầm cảm có thể làm tăng hoạt động cơ nhai, gây áp lực lên khớp TMJ.
+    *   **Yếu tố tại chỗ:** Đây là điểm mà nghiên cứu chúng ta đang xem xét đặc biệt nhấn mạnh:
+        *   **Khớp cắn sai lệch (Malocclusion):** Là một trong những yếu tố bệnh lý chính gây ra TMD, theo kết quả nghiên cứu. Khớp cắn sai lệch có thể tạo ra lực nhai không đều, gây căng thẳng quá mức lên các thành phần của khớp TMJ và hệ thống cơ nhai.
+        *   Bất thường của cơ nhai.
+        *   Thay đổi cấu trúc hình thái của lồi cầu.
+        *   Hoặc sự kết hợp của nhiều yếu tố trên.
+*   **Mối liên hệ giữa khớp cắn sai lệch và TMD:**
+    Nghiên cứu của Nguyễn Thế Dũng và cộng sự đã chỉ ra rằng **khớp cắn sai lệch là yếu tố bệnh lý chính gây ra TMD**. Điều này có ý nghĩa rất lớn trong thực hành lâm sàng. Khi khám một bệnh nhân có triệu chứng TMD, các em cần đặc biệt chú ý đến tình trạng khớp cắn của họ. Việc đánh giá và điều chỉnh khớp cắn sai lệch không chỉ giải quyết vấn đề thẩm mỹ mà còn có thể là một phần quan trọng trong việc quản lý và điều trị TMD.
+**Lời khuyên cho bác sĩ trẻ:**
+Khi tiếp cận bệnh nhân có nghi ngờ TMD, hãy luôn thu thập tiền sử bệnh thật kỹ lưỡng về các triệu chứng (đau, tiếng kêu khớp, hạn chế vận động, lịch sử chấn thương), các thói quen cận chức năng (nghiến răng, siết chặt hàm) và yếu tố tâm lý. Sau đó, tiến hành thăm khám lâm sàng toàn diện, bao gồm sờ nắn các cơ nhai, kiểm tra vận động của hàm dưới, và đặc biệt là đánh giá kỹ tình trạng khớp cắn. Việc xác định sớm khớp cắn sai lệch và vai trò của nó sẽ giúp các em đưa ra chẩn đoán và kế hoạch điều trị hiệu quả hơn, thậm chí có thể ngăn ngừa sự tiến triển của TMD.</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Bài giảng Y học về Rối loạn Khớp Thái Dương Hàm và Khớp Cắn</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức nền tảng về giải phẫu, sinh lý, bệnh lý và chẩn đoán TMD, giúp sinh viên y khoa và bác sĩ trẻ hiểu sâu về cơ chế và các yếu tố liên quan đến bệnh lý này, đặc biệt là vai trò của khớp cắn sai lệch và cách phân loại theo ICD-10 (ví dụ: K07 cho các bất thường khớp cắn, K07.6 cho rối loạn khớp thái dương hàm).</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Chẩn đoán và Quản lý Rối loạn Khớp Thái Dương Hàm: Từ Cơ bản đến Nâng cao</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các phương pháp chẩn đoán lâm sàng và cận lâm sàng hiện đại cho TMD, các phác đồ điều trị bảo tồn và can thiệp, giúp các bác sĩ cập nhật kiến thức và kỹ năng để quản lý hiệu quả các trường hợp TMD phức tạp và áp dụng các nguyên tắc chẩn đoán theo ICD-10 vào thực hành.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và bằng chứng khoa học, hướng dẫn sinh viên y khoa và bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Mối quan hệ giữa điều trị chỉnh nha và Rối loạn Khớp Thái Dương Hàm (TMD) là một chủ đề gây tranh cãi. Vậy theo nghiên cứu được trích dẫn, đâu là nhận định chính xác và bác sĩ trẻ cần lưu ý gì khi tư vấn cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Các bác sĩ trẻ cần đặc biệt lưu ý về vấn đề này vì nó thường gây ra nhiều lo ngại không đáng có cho bệnh nhân. Nghiên cứu của Nguyễn Thế Dũng và cộng sự đã cung cấp bằng chứng lâm sàng quan trọng giúp làm rõ mối quan hệ này:
+1.  **Chỉnh nha không phải là nguyên nhân gây TMD:** Kết quả nghiên cứu khẳng định một cách rõ ràng rằng điều trị chỉnh nha không phải là nguyên nhân gây ra TMD. Đây là một thông tin cực kỳ quan trọng giúp bác sĩ có thể tự tin hơn khi tư vấn và điều trị cho bệnh nhân. Các lo ngại về lực cơ học trong chỉnh nha làm thay đổi vị trí răng và xương hàm dẫn đến TMD cần được nhìn nhận lại dựa trên bằng chứng khoa học.
+2.  **Chỉnh nha có thể giảm nhẹ hoặc giảm nguy cơ TMD:** Thậm chí còn tích cực hơn, nghiên cứu chỉ ra rằng điều trị chỉnh nha có xu hướng giảm nhẹ hoặc làm giảm nguy cơ phát triển TMD trong và sau quá trình điều trị. Điều này có thể được giải thích là do chỉnh nha giúp thiết lập một khớp cắn chức năng tốt hơn, phân bố lực nhai đều đặn, từ đó giảm căng thẳng lên khớp thái dương hàm và các cơ liên quan.
+3.  **Khuyến nghị lâm sàng:** Dựa trên kết quả này, nghiên cứu đề xuất rằng điều trị chỉnh nha nên được chỉ định như là liệu pháp ban đầu cho những bệnh nhân có cả khớp cắn sai lệch và TMD. Đây là một định hướng điều trị quan trọng, cho phép các bác sĩ tiếp cận vấn đề TMD một cách toàn diện hơn, không chỉ tập trung vào triệu chứng mà còn giải quyết tận gốc các yếu tố nguy cơ từ khớp cắn.
+**Hướng dẫn lâm sàng cho bác sĩ trẻ khi tư vấn bệnh nhân:**
+| Quan điểm trước đây (gây tranh cãi)                               | Kết luận từ nghiên cứu này                                                               | Hướng dẫn lâm sàng cho bác sĩ trẻ                                                                                                              |
+| :---------------------------------------------------------------- | :--------------------------------------------------------------------------------------- | :--------------------------------------------------------------------------------------------------------------------------------------------- |
+| Điều trị chỉnh nha có thể gây ra TMD do thay đổi vị trí răng, xương hàm. | Điều trị chỉnh nha **KHÔNG** phải là nguyên nhân gây ra TMD.                                | Không nên e ngại khi chỉ định chỉnh nha cho bệnh nhân có nguy cơ TMD hoặc đã có TMD. Cần giải thích rõ ràng cho bệnh nhân về lợi ích tiềm năng. |
+| Lực cơ học trong chỉnh nha làm nặng thêm tình trạng TMD.           | Điều trị chỉnh nha có xu hướng **giảm nhẹ hoặc giảm nguy cơ** phát triển TMD.           | Tư vấn cho bệnh nhân rằng chỉnh nha không chỉ cải thiện thẩm mỹ mà còn có thể cải thiện chức năng, giảm tải cho khớp và cơ.                         |
+| Cần thận trọng cao độ khi chỉnh nha cho bệnh nhân có tiền sử TMD. | Lợi ích của chỉnh nha trong việc cải thiện khớp cắn có thể vượt trội so với lo ngại về TMD. | Coi chỉnh nha là một phương pháp điều trị khởi đầu tiềm năng cho bệnh nhân có cả khớp cắn sai lệch **VÀ** TMD.                                    |
+Việc hiểu rõ và truyền đạt thông tin này một cách chính xác sẽ giúp các em xây dựng niềm tin với bệnh nhân, giảm bớt lo lắng và đưa ra các quyết định điều trị tối ưu dựa trên bằng chứng khoa học.</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Thực hành Chỉnh nha Hiện đại và Quản lý Rối loạn Khớp Thái Dương Hàm</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Tài liệu này tập hợp các bằng chứng khoa học mới nhất về mối quan hệ giữa chỉnh nha và TMD, cung cấp phác đồ điều trị và lời khuyên dựa trên bằng chứng cho các bác sĩ chỉnh nha và răng hàm mặt, giúp đưa ra quyết định lâm sàng sáng suốt và lập kế hoạch điều trị phù hợp theo ICD-10 (ví dụ: mã hóa K07 cho các dạng sai khớp cắn).</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Chỉnh nha Toàn diện và Phục hồi Chức năng Khớp Thái Dương Hàm</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu này trang bị cho bác sĩ kiến thức và kỹ năng thực hành về cách tích hợp điều trị chỉnh nha vào kế hoạch quản lý tổng thể bệnh nhân TMD, tối ưu hóa kết quả điều trị và nâng cao chất lượng cuộc sống cho bệnh nhân, đồng thời cập nhật các tiêu chuẩn chẩn đoán và điều trị theo ICD-10.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và bằng chứng khoa học, hướng dẫn sinh viên y khoa và bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Khi một bệnh nhân đến khám với cả khớp cắn sai lệch và các triệu chứng của Rối loạn Khớp Thái Dương Hàm (TMD), một bác sĩ trẻ cần tiếp cận chẩn đoán và quản lý như thế nào, đặc biệt khi chỉnh nha được đề xuất như một liệu pháp ban đầu?</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Các em sinh viên và bác sĩ trẻ thân mến, việc tiếp cận một bệnh nhân có cả khớp cắn sai lệch và TMD đòi hỏi một quy trình chẩn đoán và quản lý bài bản, có hệ thống. Hãy xem xét các bước sau:
+**1. Tiếp cận Chẩn đoán Toàn diện:**
+*   **Thu thập Tiền sử Bệnh:**
+    *   **Triệu chứng TMD:** Chi tiết về đặc điểm cơn đau (vị trí, cường độ, tính chất, yếu tố khởi phát/làm nặng thêm), tiếng kêu khớp (lục cục, cọt kẹt), hạn chế vận động hàm (há miệng, lệch hàm), đau đầu, đau tai. Hỏi về thời gian xuất hiện, tần suất và mức độ ảnh hưởng đến cuộc sống.
+    *   **Thói quen cận chức năng:** Nghiến răng ban đêm (bruxism), siết chặt hàm (clenching), cắn móng tay, ngậm bút. Đây là những yếu tố nguy cơ quan trọng.
+    *   **Yếu tố tâm lý:** Mức độ căng thẳng, lo âu, tiền sử trầm cảm. Yếu tố tâm lý đóng vai trò đáng kể trong TMD.
+    *   **Tiền sử chấn thương:** Chấn thương vùng mặt, cằm hoặc khớp TMJ.
+*   **Thăm khám Lâm sàng:**
+    *   **Kiểm tra tổng thể:** Đánh giá cân đối khuôn mặt, sờ nắn các cơ nhai (cơ thái dương, cơ cắn, cơ chân bướm trong/ngoài) để tìm điểm đau hoặc co thắt.
+    *   **Kiểm tra vận động hàm:** Đo độ há miệng tối đa, đánh giá các vận động sang bên, ra trước, tìm kiếm sự lệch lạc trong quá trình há đóng miệng.
+    *   **Khám khớp TMJ:** Sờ nắn khớp khi há đóng miệng để cảm nhận tiếng kêu (click, crepitation) hoặc sự giới hạn vận động.
+    *   **Phân tích khớp cắn:** Đây là bước cực kỳ quan trọng! Đánh giá các loại khớp cắn sai lệch (Angle class I, II, III), sự hiện diện của cắn hở (open bite), cắn chéo (crossbite) ở vùng răng trước hoặc sau, tình trạng chen chúc, răng mọc lệch. Xác định xem các sai lệch này có gây cản trở khớp cắn hoặc tạo ra lực quá tải lên khớp hay không.
+*   **Cận lâm sàng (nếu cần):**
+    *   **X-quang:** Để đánh giá cấu trúc xương của lồi cầu và hõm khớp.
+    *   **MRI:** Rất hữu ích để đánh giá tình trạng đĩa khớp, các mô mềm quanh khớp, phát hiện thoái hóa hoặc viêm.
+**2. Quản lý Điều trị khi Chỉnh nha là Liệu pháp Ban đầu:**
+Dựa trên bằng chứng từ nghiên cứu, khi có cả khớp cắn sai lệch và TMD, chỉnh nha nên được xem xét như một liệu pháp ban đầu. Các em cần tiếp cận như sau:
+*   **Giải thích cho bệnh nhân:** Rõ ràng về lợi ích của chỉnh nha. Không chỉ cải thiện thẩm mỹ, mà quan trọng hơn là thiết lập một khớp cắn chức năng ổn định, giúp phân phối lực nhai đều, giảm căng thẳng lên khớp TMJ và cơ nhai. Điều này có thể giúp giảm các triệu chứng TMD và ngăn ngừa tái phát.
+*   **Lập kế hoạch điều trị toàn diện:** Chỉnh nha sẽ giải quyết các sai lệch khớp cắn cụ thể như Angle class II, III, cắn hở, cắn chéo. Mục tiêu là tạo ra một khớp cắn ổn định, hài hòa, nơi các răng lồng khớp tốt nhất, không gây cản trở hay tạo điểm chạm sớm.
+*   **Phối hợp Đa chuyên khoa:** TMD thường phức tạp và cần sự phối hợp. Các em có thể cần giới thiệu bệnh nhân đến:
+    *   **Vật lý trị liệu:** Để tập luyện các bài tập làm giãn cơ, tăng cường sức mạnh cơ nhai, cải thiện vận động khớp.
+    *   **Bác sĩ tâm lý:** Nếu có yếu tố căng thẳng, lo âu đóng vai trò quan trọng trong TMD.
+    *   **Chuyên gia đau:** Đối với các trường hợp đau mạn tính hoặc khó kiểm soát.
+    *   **Chuyên gia phục hình:** Để làm máng nhai (splint) hoặc phục hình nếu cần thiết để ổn định khớp cắn tạm thời hoặc lâu dài.
+*   **Tư vấn và theo dõi:** Luôn tư vấn rõ ràng về quá trình điều trị, thời gian, chi phí và những thay đổi có thể xảy ra. Theo dõi định kỳ là cần thiết để đánh giá hiệu quả điều trị và điều chỉnh kế hoạch nếu cần.
+Nhớ rằng, mục tiêu cuối cùng là cải thiện chức năng, giảm đau và nâng cao chất lượng cuộc sống cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Chẩn đoán và Điều trị Đau vùng Hàm mặt và Rối loạn Khớp Thái Dương Hàm (ICD-10 liên quan)</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp một cái nhìn toàn diện về chẩn đoán phân biệt, các phương pháp điều trị bảo tồn và phẫu thuật cho TMD (ví dụ: mã hóa K07.6 cho rối loạn TMJ, G44.3 cho đau đầu do căng thẳng), cùng với các chiến lược quản lý đau mạn tính, là tài liệu cần thiết cho các bác sĩ trong thực hành lâm sàng hàng ngày để áp dụng các mã hóa ICD-10 chính xác.</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Quản lý Đau Hàm mặt và Tiếp cận Đa chuyên khoa trong Điều trị TMD</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Khóa học này khám phá các chiến lược quản lý đau vùng hàm mặt, bao gồm cả các phương pháp điều trị không xâm lấn và xâm lấn, đồng thời nhấn mạnh tầm quan trọng của việc phối hợp giữa nha sĩ, bác sĩ thần kinh, vật lý trị liệu và tâm lý học để đạt được kết quả tốt nhất cho bệnh nhân TMD, đặc biệt là cách lập kế hoạch điều trị tích hợp với các tiêu chuẩn ICD-10.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, định hướng phát triển chuyên môn cho các bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ, em cần hiểu rõ những tiêu chí cơ bản để chẩn đoán và phân loại Rối loạn Khớp Thái Dương Hàm (TMD) như thế nào, đặc biệt khi tiếp cận bệnh nhân chỉnh nha? Các công cụ đánh giá được sử dụng ra sao?</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận bệnh nhân có thể mắc Rối loạn Khớp Thái Dương Hàm (TMD), đặc biệt là trong bối cảnh chỉnh nha, việc chẩn đoán và phân loại chính xác là vô cùng quan trọng. Dưới đây là những điểm cần lưu ý để em có thể thực hành hiệu quả:
+*   **Hiểu rõ định nghĩa và phân loại TMD**: TMD là một thuật ngữ chung cho các tình trạng đau hoặc rối loạn chức năng của khớp thái dương hàm (TMJ), các cơ nhai và các cấu trúc liên quan. Theo phân loại của ICD-10, TMD thuộc nhóm các bệnh lý về khớp và cơ xương hàm mặt. Mặc dù văn bản không nêu cụ thể mã ICD-10, các bác sĩ cần tham khảo các mã như M26.6 (Rối loạn khớp thái dương hàm), M26.9 (Bệnh lý hàm mặt không xác định khác), M79.1 (Đau cơ) để mã hóa chính xác.
+*   **Tầm quan trọng của tiền sử và khám lâm sàng toàn diện**: Như nghiên cứu đã đề cập, việc thu thập thông tin bệnh nhân (giới tính, tuổi) và khám lâm sàng là bước không thể thiếu. Em cần chú ý các điểm sau:
+    *   **Tiền sử bệnh**: Hỏi kỹ về các triệu chứng như đau khi há miệng, ngáp, nhai, nói; tiếng kêu khớp (lục cục, cọt kẹt); cứng hàm, mỏi hàm; tiền sử kẹt hàm hay trật khớp.
+    *   **Khám lâm sàng**: Đánh giá tầm vận động há ngậm của hàm, sờ nắn các cơ nhai (cơ thái dương, cơ cắn, cơ chân bướm trong/ngoài) và khớp thái dương hàm để tìm điểm đau, tiếng kêu khớp. Quan sát các dấu hiệu nghiến răng, mòn răng, tình trạng khớp cắn.
+*   **Sử dụng công cụ tự đánh giá và thang điểm chuẩn**: Nghiên cứu đã sử dụng các công cụ tự đánh giá theo khuyến nghị của Hiệp hội Đau mặt Hàm Hoa Kỳ (American Academy of Orofacial Pain) năm 1993 và thang điểm Likert. Đây là một phương pháp khách quan hóa các triệu chứng chủ quan của bệnh nhân. Em cần hiểu cách áp dụng:
+    *   **Thang điểm Likert**: Ví dụ trong nghiên cứu, thang điểm 0-30 điểm được dùng để phân loại mức độ TMD (0: bình thường, 1-10: nhẹ, 11-20: vừa, 21-30: nặng). Việc này giúp em định lượng được mức độ nghiêm trọng của TMD ở bệnh nhân.
+    *   **Kiểm tra độ tin cậy**: Lưu ý đến các chỉ số thống kê như Cronbach's alpha (&gt;0.5) mà nghiên cứu đã sử dụng để kiểm tra độ tin cậy của các công cụ tự đánh giá. Điều này giúp em đánh giá chất lượng của dữ liệu thu thập được từ các bảng hỏi.
+*   **Vai trò của cận lâm sàng**: Bên cạnh khám lâm sàng, X-quang toàn cảnh (panoramic X-ray) và phim sọ nghiêng (cephalometric) là các công cụ hình ảnh hữu ích để đánh giá cấu trúc xương và khớp. Tuy nhiên, em cần nhớ rằng chẩn đoán TMD chủ yếu dựa vào lâm sàng, cận lâm sàng chỉ là công cụ hỗ trợ.
+Việc tiếp cận một cách hệ thống và khoa học sẽ giúp em đưa ra chẩn đoán chính xác, từ đó có kế hoạch điều trị phù hợp cho bệnh nhân, đồng thời tránh được những sai sót trong quá trình thực hành.</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên y khoa và bác sĩ trẻ phân tích dữ liệu lâm sàng và phương pháp nghiên cứu để nâng cao tư duy phản biện.</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Khi đọc một nghiên cứu lâm sàng về Rối loạn Khớp Thái Dương Hàm (TMD) và chỉnh nha, em cần chú ý những điểm nào trong phần phương pháp nghiên cứu và cách đánh giá các thang điểm tự đánh giá như Likert để đảm bảo tính khoa học và đáng tin cậy của dữ liệu?</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận và đánh giá một nghiên cứu lâm sàng về TMD và chỉnh nha, việc thẩm định phần phương pháp là cực kỳ quan trọng để đảm bảo tính khoa học và đáng tin cậy của kết quả. Dưới đây là những điểm cốt lõi mà em cần chú ý:
+*   **Thiết kế nghiên cứu**: Nghiên cứu này sử dụng thiết kế 'Prospective study' (nghiên cứu tiến cứu). Em cần hiểu rằng nghiên cứu tiến cứu theo dõi bệnh nhân theo thời gian, thu thập dữ liệu tại các thời điểm khác nhau (trước điều trị, 1 năm kể từ khi bắt đầu điều trị, 1 năm sau điều trị). Điều này rất hữu ích để đánh giá mối quan hệ nhân quả hoặc sự thay đổi theo thời gian của một can thiệp.
+*   **Chọn mẫu và đặc điểm bệnh nhân**: Số lượng mẫu (168 bệnh nhân) và đặc điểm của họ (tuổi trung bình 18.7, tỷ lệ nam/nữ, phân loại sai khớp cắn Class I, II, III) cần được xem xét. Em hãy tự hỏi: nhóm bệnh nhân này có đại diện cho quần thể mà em quan tâm không? Sự phân bố giới tính (77% nữ) có ảnh hưởng đến kết quả không, vì TMD thường gặp ở nữ giới hơn?
+*   **Công cụ đánh giá và quy trình**: 
+    *   **Thang điểm tự đánh giá TMD**: Nghiên cứu đã sử dụng 3 lần tự đánh giá TMD theo khuyến nghị của American Academy of Orofacial Pain (1993). Đây là một tiêu chuẩn vàng vào thời điểm đó. Em cần tìm hiểu liệu có các khuyến nghị mới hơn hoặc cập nhật hơn không, và liệu việc sử dụng một tiêu chuẩn cũ có ảnh hưởng đến tính so sánh của kết quả với các nghiên cứu hiện đại.
+    *   **Thang điểm Likert và cách tính điểm**: Việc sử dụng thang Likert với 10 câu hỏi, mỗi câu 0-3 điểm, tổng điểm 0-30 và phân loại mức độ TMD là một cách định lượng khách quan. Em cần nắm rõ cách các mức độ (none, rarely, occasionally, frequently) được gán điểm và cách tổng điểm được chuyển thành mức độ nặng của TMD. Ví dụ:
+| Khoảng điểm | Mức độ TMD     |
+| :---------- | :------------- |
+| 0 điểm      | Bình thường    |
+| 1-10 điểm   | TMD nhẹ        |
+| 11-20 điểm  | TMD vừa        |
+| 21-30 điểm  | TMD nặng       |
+    *   **Đánh giá độ tin cậy**: Việc kiểm tra thang điểm tự đánh giá bằng Cronbach's alpha (&gt;0.5) là một bước quan trọng để xác nhận tính nhất quán nội tại của các câu hỏi. Một giá trị Cronbach's alpha cao cho thấy các câu hỏi trong thang đo đang đo lường cùng một khái niệm.
+*   **Phân tích dữ liệu**: Việc sử dụng phần mềm R 3.0.2 cho phân tích dữ liệu chỉ ra rằng các phương pháp thống kê phù hợp đã được áp dụng. Em cần có kiến thức cơ bản về thống kê để hiểu các kiểm định được sử dụng và cách diễn giải P-value, khoảng tin cậy. Nếu nghiên cứu chỉ ra 'association was discovered', em cần tìm hiểu thêm về sức mạnh và hướng của mối liên hệ đó.
+Việc phân tích cẩn thận phần phương pháp không chỉ giúp em đánh giá chất lượng nghiên cứu mà còn trang bị cho em kỹ năng để thiết kế và thực hiện các nghiên cứu của riêng mình trong tương lai.</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp định hướng lâm sàng và kinh nghiệm thực hành cho các bác sĩ mới, đặc biệt trong lĩnh vực chỉnh nha và khớp thái dương hàm.</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Với các kết quả ban đầu về mối liên hệ giữa các loại sai khớp cắn (Class I, II, III) và Rối loạn Khớp Thái Dương Hàm (TMD) được đề cập trong nghiên cứu, một bác sĩ chỉnh nha trẻ cần rút ra những bài học lâm sàng gì để quản lý bệnh nhân một cách hiệu quả và tránh các sai sót?</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã đề cập đến mối liên hệ giữa các loại sai khớp cắn (Class I, II, III) và Rối loạn Khớp Thái Dương Hàm (TMD), dù chưa công bố chi tiết kết quả thống kê cụ thể, nhưng đã cung cấp một góc nhìn quan trọng. Là một bác sĩ chỉnh nha trẻ, em cần rút ra những bài học lâm sàng sau để quản lý bệnh nhân một cách hiệu quả và tránh các sai sót:
+*   **Thăm khám TMD tiền chỉnh nha bắt buộc**: Dù mối quan hệ nhân quả giữa sai khớp cắn và TMD vẫn còn tranh cãi, việc sàng lọc và đánh giá tình trạng TMD trước khi bắt đầu điều trị chỉnh nha là **cực kỳ cần thiết**. Điều này giúp em xác định các bệnh nhân có nguy cơ hoặc đã có triệu chứng TMD tiềm ẩn.
+    *   **Thực hành**: Luôn thực hiện bảng hỏi tự đánh giá TMD và khám lâm sàng khớp thái dương hàm toàn diện cho mọi bệnh nhân chỉnh nha, tương tự như phương pháp đã được nghiên cứu áp dụng (3 lần tự đánh giá: trước, trong và sau điều trị).
+*   **Giáo dục bệnh nhân và quản lý kỳ vọng**: Bệnh nhân thường có nhiều lo lắng và kỳ vọng về điều trị chỉnh nha. Một số tin rằng chỉnh nha sẽ chữa khỏi TMD, hoặc ngược lại, chỉnh nha có thể gây ra TMD. Em cần:
+    *   **Tư vấn rõ ràng**: Giải thích rằng mối liên hệ giữa sai khớp cắn, điều trị chỉnh nha và TMD là phức tạp và đa yếu tố. Chỉnh nha có thể cải thiện một số khía cạnh chức năng, nhưng không phải lúc nào cũng là giải pháp cho TMD, và đôi khi có thể không liên quan trực tiếp.
+    *   **Minh bạch về rủi ro**: Thông báo cho bệnh nhân về khả năng xuất hiện, trầm trọng hơn hoặc cải thiện các triệu chứng TMD trong quá trình điều trị chỉnh nha, dựa trên bằng chứng lâm sàng hiện có và tình trạng cụ thể của từng bệnh nhân.
+*   **Theo dõi liên tục trong suốt quá trình điều trị**: Như nghiên cứu đã thực hiện các đánh giá TMD tại các thời điểm khác nhau (pre-treatment, 1 year since treatment starting, 1 year post treatment), việc theo dõi định kỳ các triệu chứng TMD là tối quan trọng.
+    *   **Thực hành**: Khuyến khích bệnh nhân báo cáo bất kỳ triệu chứng TMD mới hoặc thay đổi nào. Đánh giá lại khớp thái dương hàm và các cơ nhai trong các buổi hẹn định kỳ.
+*   **Phối hợp đa chuyên khoa**: Nếu bệnh nhân có TMD đáng kể hoặc phức tạp, đừng ngần ngại hợp tác với các chuyên gia khác như bác sĩ chuyên khoa đau mặt hàm, vật lý trị liệu, hoặc chuyên gia về hành vi.
+    *   **Thực hành**: Xây dựng một mạng lưới giới thiệu chuyên gia đáng tin cậy để quản lý toàn diện cho bệnh nhân.
+*   **Tư duy phản biện và cập nhật kiến thức**: Lĩnh vực TMD và chỉnh nha liên tục phát triển. Em cần thường xuyên cập nhật các nghiên cứu mới và hướng dẫn lâm sàng để đưa ra quyết định điều trị tốt nhất.
+    *   **Thực hành**: Đọc các tạp chí chuyên ngành (như Vietnam Medical Journal, nơi nghiên cứu này được đăng), tham gia các khóa học CME và hội thảo để luôn giữ vững kiến thức chuyên môn.</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, làm thế nào để tiếp cận và đánh giá ban đầu các triệu chứng rối loạn khớp thái dương hàm (TMD) ở bệnh nhân chỉnh nha, đặc biệt là trước khi bắt đầu điều trị?</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận bệnh nhân chỉnh nha có nguy cơ hoặc biểu hiện rối loạn khớp thái dương hàm (TMD), các bác sĩ trẻ và sinh viên y khoa cần thực hiện một quy trình đánh giá toàn diện. Mục tiêu là phát hiện sớm, phân loại mức độ và lập kế hoạch quản lý phù hợp, đặc biệt quan trọng trước khi bắt đầu can thiệp chỉnh nha.
+**Các bước đánh giá ban đầu bao gồm việc thu thập bệnh sử và khám lâm sàng:**
+1.  **Thu thập Bệnh sử Chi tiết:** Đây là bước quan trọng nhất. Hãy đặt các câu hỏi trọng tâm sau, tương tự như các tiêu chí đánh giá ban đầu được đề cập trong tài liệu:
+    *   **Đau vùng khớp thái dương hàm (TMJ) hoặc vùng thái dương/má:** Đây là triệu chứng cốt lõi của TMD. Bác sĩ cần hỏi về vị trí chính xác của cơn đau, cường độ (ví dụ, thang điểm VAS), tần suất (hiếm khi, thỉnh thoảng, thường xuyên), các yếu tố khởi phát (như ăn nhai, nói chuyện) và các yếu tố làm giảm đau.
+    *   **Đau đầu vô căn, đau cổ hoặc đau răng:** TMD thường có các triệu chứng đau lan tỏa. Việc phân biệt với các nguyên nhân khác của đau đầu, đau cổ hoặc đau răng (như đau răng thật sự, viêm xoang, đau thần kinh) là rất quan trọng để đưa ra chẩn đoán chính xác.
+    *   **Tiền sử chấn thương vùng đầu, cổ, hoặc hàm:** Chấn thương, dù là cấp tính hay mạn tính (ví dụ, va đập, tai nạn), có thể là yếu tố khởi phát hoặc làm trầm trọng thêm TMD.
+    *   **Cảm giác bất thường khi cắn:** Bao gồm các thay đổi trong khớp cắn, cảm giác không khít, khó chịu khi cắn xuống, hoặc cảm giác răng không chạm đều. Điều này gợi ý đến sự mất ổn định của hệ thống nhai.
+    *   **Tiền sử điều trị đau mặt vô căn hoặc đau TMJ:** Thông tin này giúp đánh giá mức độ mạn tính của bệnh, các phương pháp điều trị đã thử, và hiệu quả của chúng, từ đó định hướng cho kế hoạch điều trị hiện tại.
+2.  **Khám Lâm sàng Toàn diện:** Sau khi thu thập bệnh sử, cần khám lâm sàng để xác nhận và bổ sung thông tin:
+    *   **Sờ nắn khớp TMJ và các cơ nhai:** Sờ nắn hai bên khớp TMJ, các cơ cắn, cơ thái dương, và cơ chân bướm ngoài để tìm điểm đau, kiểm tra tình trạng cứng cơ, căng cơ hoặc co thắt.
+    *   **Kiểm tra biên độ vận động hàm:** Đánh giá độ mở miệng tối đa (khoảng cách giữa rìa cắn răng cửa trên và dưới), các chuyển động sang bên và ra trước. Tìm dấu hiệu há miệng lệch lạc, giới hạn vận động hoặc khó khăn khi di chuyển hàm.
+    *   **Nghe tiếng kêu khớp:** Sử dụng ống nghe hoặc sờ nắn để phát hiện tiếng lục cục (clicking), tiếng lách cách, tiếng lạo xạo (crepitus) khi bệnh nhân há miệng, ngậm miệng hoặc vận động hàm.
+    *   **Đánh giá khớp cắn:** Kiểm tra sự tương quan giữa các răng, các điểm tiếp xúc sớm, và sự ổn định của khớp cắn tĩnh và động.
+**Lời khuyên cho bác sĩ trẻ:** Luôn nhớ rằng TMD là một tình trạng đa yếu tố. Đừng chỉ tập trung vào một triệu chứng mà bỏ qua bức tranh tổng thể. Ghi chép bệnh án cẩn thận theo chuẩn y khoa, sử dụng các thuật ngữ và mã hóa theo ICD-10 khi chẩn đoán để đảm bảo tính chính xác và thống nhất trong quản lý hồ sơ bệnh án và cho phép theo dõi dài hạn.</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Mối liên hệ giữa các loại sai khớp cắn Angle và tỷ lệ mắc Rối loạn khớp thái dương hàm (TMD) là gì? Và làm thế nào để phân loại mức độ nghiêm trọng của TMD?</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Mối liên hệ giữa sai khớp cắn Angle và Rối loạn khớp thái dương hàm (TMD) là một chủ đề phức tạp và được tranh luận rộng rãi trong y học nha khoa. Dù không phải là nguyên nhân duy nhất, sai khớp cắn có thể là một yếu tố nguy cơ hoặc yếu tố góp phần gây ra TMD ở một số bệnh nhân. Nghiên cứu bạn cung cấp đã đưa ra một cái nhìn cụ thể về tỷ lệ TMD liên quan đến các loại sai khớp cắn Angle.
+**1. Mối liên hệ giữa sai khớp cắn Angle và TMD:**
+Bạn cần nắm vững ba loại sai khớp cắn Angle chính, dựa trên tương quan của răng hàm lớn thứ nhất vĩnh viễn trên và dưới, và hiểu rằng TMD có thể xuất hiện ở bất kỳ loại khớp cắn nào:
+*   **Angle Class I (Khớp cắn loại I):** Tương quan răng hàm bình thường (mũi ngoài gần của răng hàm lớn trên thứ nhất khớp với rãnh giữa của răng hàm lớn dưới thứ nhất), nhưng có thể có các sai lệch khác như chen chúc, hô vẩu răng cửa. 
+*   **Angle Class II (Khớp cắn loại II):** Răng hàm lớn trên quá xa về phía trước so với răng hàm lớn dưới (sai khớp cắn xa), thường liên quan đến tình trạng hô hàm trên hoặc lùi hàm dưới.
+*   **Angle Class III (Khớp cắn loại III):** Răng hàm lớn trên quá xa về phía sau so với răng hàm lớn dưới (sai khớp cắn gần), thường liên quan đến móm hoặc cắn ngược.
+Theo dữ liệu từ nghiên cứu của bạn (Bảng 2), tỷ lệ bệnh nhân mắc TMD ở thời điểm bắt đầu điều trị chỉnh nha được phân bố trong các nhóm sai khớp cắn Angle như sau (tính trên tổng số bệnh nhân nghiên cứu là 168 người):
+| Phân loại khớp cắn Angle | Số bệnh nhân có TMD nhẹ | Số bệnh nhân có TMD trung bình | Tổng số bệnh nhân có TMD | Tỷ lệ bệnh nhân có TMD (trên tổng N=168) |
+|:-------------------------|:------------------------|:------------------------------|:-------------------------|:-----------------------------------------|
+| Angle class I            | 28                      | 3                             | 31                       | 18.5% (31/168)                           |
+| Angle class II           | 35                      | 1                             | 36                       | 21.4% (36/168)                           |
+| Angle class III          | 30                      | 3                             | 33                       | 19.6% (33/168)                           |
+| **Tổng cộng TMD**         | **93**                    | **7**                           | **100**                    | **59.5% (100/168)**                      |
+*Lưu ý:* Các con số 18.5%, 21.0% và 20.1% được trích dẫn trong văn bản (18.5% cho Class I, 21% cho Class II, 20.1% cho Class III) là tỷ lệ bệnh nhân có TMD thuộc mỗi loại khớp cắn Angle trên tổng số *toàn bộ bệnh nhân nghiên cứu* (168 người), chứ không phải tỷ lệ TMD trong riêng từng nhóm Angle. Điều này cho thấy TMD xuất hiện ở mọi loại khớp cắn, với tỷ lệ cao hơn một chút ở Angle Class II và III trong nghiên cứu này, nhấn mạnh tầm quan trọng của việc đánh giá TMD toàn diện, không chỉ dựa vào loại khớp cắn.
+**2. Phân loại mức độ nghiêm trọng của TMD:**
+Việc phân loại mức độ nghiêm trọng giúp định hướng kế hoạch điều trị và tiên lượng. Mặc dù tài liệu của bạn chỉ chia thành 'Mild' (Nhẹ), 'Moderate' (Trung bình), và 'Severe' (Nặng), trong thực hành lâm sàng, việc này thường dựa vào các yếu tố sau:
+*   **Nhẹ (Mild):** Triệu chứng không thường xuyên, đau nhẹ hoặc khó chịu thoáng qua, không ảnh hưởng đáng kể đến chức năng ăn nhai hoặc sinh hoạt hàng ngày. Có thể có tiếng kêu khớp nhưng không kèm đau nhiều. Trong nghiên cứu của bạn, có 93 bệnh nhân ở mức độ này.
+*   **Trung bình (Moderate):** Triệu chứng thường xuyên hơn, đau vừa phải, có ảnh hưởng đến chức năng ăn nhai, nói chuyện hoặc vận động hàm. Có thể kèm theo giới hạn vận động nhẹ hoặc khóa hàm thoáng qua. Nghiên cứu có 7 bệnh nhân ở mức độ này.
+*   **Nặng (Severe):** Đau dữ dội và liên tục, ảnh hưởng nghiêm trọng đến chất lượng cuộc sống, giới hạn vận động hàm rõ rệt, khóa hàm kéo dài, hoặc có bằng chứng tổn thương cấu trúc khớp trên hình ảnh học (ví dụ: MRI). Nghiên cứu của bạn không ghi nhận bệnh nhân nào ở mức độ nặng ở giai đoạn bắt đầu điều trị.
+**Lời khuyên cho bác sĩ trẻ:**
+*   Hiểu rằng khớp cắn là một trong nhiều yếu tố liên quan đến TMD. Các yếu tố khác như căng thẳng tâm lý, thói quen nghiến răng, chấn thương, và các bệnh toàn thân cũng đóng vai trò quan trọng.
+*   Khi đánh giá, không chỉ nhìn vào sai khớp cắn mà còn phải thăm khám toàn diện để xác định tất cả các yếu tố đóng góp. Phân loại mức độ nghiêm trọng giúp bạn chọn phương pháp điều trị phù hợp nhất, từ các biện pháp bảo tồn đến can thiệp chuyên sâu. Mã hóa chính xác theo ICD-10 là cần thiết cho việc ghi chép và thống kê bệnh lý.</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Sau một năm điều trị chỉnh nha, cần đánh giá lại các triệu chứng Rối loạn khớp thái dương hàm (TMD) như thế nào và các bác sĩ trẻ cần lưu ý điều gì về tiên lượng và quản lý lâu dài?</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Việc đánh giá lại các triệu chứng Rối loạn khớp thái dương hàm (TMD) sau một thời gian điều trị, đặc biệt là sau một năm điều trị chỉnh nha, là vô cùng cần thiết. Điều này giúp bác sĩ trẻ và sinh viên y khoa không chỉ đánh giá hiệu quả của can thiệp mà còn điều chỉnh kế hoạch điều trị nếu cần thiết, đảm bảo kết quả lâu dài cho bệnh nhân. Dữ liệu từ tài liệu của bạn (Bảng 3) cung cấp một cái nhìn về sự thay đổi các triệu chứng sau một năm.
+**1. Cách đánh giá lại các triệu chứng TMD sau điều trị:**
+Các câu hỏi tự đánh giá tương tự như ban đầu cần được lặp lại để so sánh. Bạn cần chú ý đến sự thay đổi về tần suất ('NONE' - không có, 'Rarely' - hiếm khi, 'Occasionally' - thỉnh thoảng, 'Frequently' - thường xuyên) và cường độ của các triệu chứng:
+*   **Đau hoặc khó khăn khi há miệng hoặc ngáp:** Giảm tần suất 'Occasionally' và 'Frequently' là dấu hiệu tích cực của sự cải thiện chức năng khớp.
+*   **Khóa hàm hoặc trật khớp hàm:** Đây là những triệu chứng nghiêm trọng. Nếu tần suất giảm đi hoặc biến mất hoàn toàn, đó là một thành công lớn trong quản lý TMD.
+*   **Khó chịu hoặc đau cơ khi nhai, nói hoặc vận động hàm:** Cần đánh giá xem chức năng ăn nhai và giao tiếp có được cải thiện đáng kể không, và liệu các cơ nhai có thư giãn hơn hay không.
+*   **Tiếng kêu khớp TMJ:** Mặc dù tiếng kêu khớp có thể không gây đau, sự giảm bớt hoặc mất đi của chúng thường đi kèm với sự ổn định và cải thiện tình trạng của khớp.
+*   **Cứng hoặc mỏi vùng hàm:** Cải thiện tình trạng này cho thấy sự thư giãn của hệ thống cơ nhai và giảm căng thẳng cơ.
+*   **Đau vùng TMJ, thái dương hoặc má:** Đau là triệu chứng chính. Giảm đáng kể hoặc hết đau là mục tiêu hàng đầu của điều trị TMD.
+*   **Đau đầu vô căn, đau cổ hoặc đau răng:** Cần theo dõi xem các cơn đau liên quan này có thuyên giảm hay không, vì chúng thường có mối liên hệ mật thiết với TMD.
+*   **Tiền sử chấn thương gần đây ở vùng đầu, cổ và hàm:** Mặc dù ít liên quan đến kết quả điều trị chỉnh nha trực tiếp, nhưng vẫn cần ghi nhận bất kỳ chấn thương mới nào có thể ảnh hưởng đến TMD hoặc cần các can thiệp riêng biệt.
+*   **Cảm giác bất thường khi cắn:** Đánh giá lại sự ổn định của khớp cắn sau chỉnh nha, xem có còn cảm giác cắn không đều hay khó chịu không. Kết quả chỉnh nha tốt nên mang lại sự ổn định khớp cắn.
+*   **Tiền sử điều trị đau mặt vô căn hoặc đau TMJ:** Việc tái đánh giá này giúp xác định liệu bệnh nhân có cần các can thiệp tiếp theo cho các tình trạng mạn tính hoặc tái phát.
+**2. Tiên lượng và Quản lý lâu dài cho bác sĩ trẻ:**
+*   **Tiên lượng:** Dữ liệu sau 1 năm từ nghiên cứu của bạn (Bảng 3) cho thấy xu hướng giảm triệu chứng ở nhiều bệnh nhân (ví dụ: số lượng 'Frequently' gần như bằng 0, và số lượng 'Rarely', 'Occasionally' cũng giảm đáng kể so với trước điều trị ở một số câu hỏi). Điều này gợi ý rằng điều trị chỉnh nha, kết hợp với các biện pháp quản lý TMD, có thể mang lại kết quả tích cực và cải thiện chất lượng cuộc sống cho bệnh nhân. Tuy nhiên, một số bệnh nhân vẫn có triệu chứng 'Rarely' hoặc 'Occasionally', cho thấy nhu cầu theo dõi tiếp tục.
+*   **Quản lý lâu dài:**
+    *   **Theo dõi định kỳ:** Bệnh nhân TMD cần được theo dõi định kỳ ngay cả khi các triệu chứng đã được kiểm soát để phát hiện sớm các dấu hiệu tái phát hoặc các biến chứng muộn.
+    *   **Giáo dục bệnh nhân:** Hướng dẫn bệnh nhân về các yếu tố nguy cơ (như căng thẳng tâm lý, thói quen xấu như nghiến răng, cắn móng tay), các bài tập tự chăm sóc hàm, và cách quản lý cơn đau cấp tính tại nhà.
+    *   **Tiếp cận đa chuyên khoa:** Nếu các triệu chứng TMD kéo dài, tái phát nghiêm trọng hoặc phức tạp, đừng ngần ngại hợp tác với các chuyên khoa khác như bác sĩ phẫu thuật hàm mặt, vật lý trị liệu, tâm lý học, hoặc chuyên gia về đau. ICD-10 cung cấp các mã bệnh để phối hợp liên chuyên khoa.
+    *   **Cân nhắc các yếu tố tâm lý xã hội:** Căng thẳng và lo âu có thể làm trầm trọng thêm TMD. Hỗ trợ tâm lý hoặc tư vấn có thể là một phần quan trọng của kế hoạch quản lý toàn diện.
+**Lời khuyên:** Luôn coi bệnh nhân là một tổng thể, không chỉ tập trung vào răng và khớp hàm. Một cái nhìn toàn diện và sự theo dõi sát sao sẽ giúp bạn cung cấp dịch vụ chăm sóc tốt nhất và cải thiện chất lượng cuộc sống cho bệnh nhân một cách bền vững.</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, định hướng phát triển chuyên môn cho các bác sĩ trẻ và sinh viên y khoa trong lĩnh vực Răng Hàm Mặt.</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, một bác sĩ trẻ cần lưu ý những điểm chính nào về tần suất và biểu hiện lâm sàng của rối loạn khớp thái dương hàm (TMD, mã ICD-10: M26.6) ở bệnh nhân sau khi bắt đầu hoặc hoàn thành điều trị chỉnh nha để có thể tư vấn và quản lý bệnh nhân hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Kính chào bạn, đây là một câu hỏi rất quan trọng đối với các bác sĩ trẻ và sinh viên y khoa. Việc nắm vững các khía cạnh về TMD trong chỉnh nha sẽ giúp chúng ta quản lý bệnh nhân toàn diện hơn. Dựa trên dữ liệu nghiên cứu, chúng ta có thể rút ra một số điểm cốt lõi như sau:
+*   **Tỷ lệ mắc TMD:**
+    *   **Giai đoạn đầu điều trị chỉnh nha:** Dữ liệu cho thấy 1 năm sau khi bắt đầu điều trị chỉnh nha, tổng số bệnh nhân có TMD là 80 (chiếm 47.65% tổng số bệnh nhân nghiên cứu). Điều này nhấn mạnh rằng TMD có thể xuất hiện sớm trong quá trình điều trị, và chúng ta cần sàng lọc ngay từ đầu.
+    *   **Giai đoạn sau điều trị chỉnh nha:** 1 năm sau khi hoàn thành điều trị, tổng số bệnh nhân có TMD là 51 (chiếm 30.4%). Mặc dù có vẻ có sự giảm về số lượng bệnh nhân, nhưng tỷ lệ vẫn còn đáng kể và cần được theo dõi.
+*   **Biểu hiện lâm sàng phổ biến (dựa trên tự đánh giá của bệnh nhân):**
+    Các bác sĩ cần đặc biệt chú ý đến những triệu chứng sau đây khi thăm khám và hỏi bệnh:
+    *   **Âm thanh khớp thái dương hàm (TMJ sound):** Đây là triệu chứng được ghi nhận nhiều nhất, với 55 bệnh nhân báo cáo có âm thanh ở khớp. Điều này có thể là tiếng lách cách (clicking), lục khục (crepitus), hoặc popping.
+    *   **Khó chịu khi cắn:** 59 bệnh nhân báo cáo có cảm giác bất thường khi cắn. Điều này có thể liên quan đến sự thay đổi khớp cắn trong quá trình hoặc sau chỉnh nha.
+    *   **Đau hoặc khó khăn khi há miệng/ngáp:** 10 bệnh nhân có triệu chứng này, cho thấy rối loạn chức năng vận động hàm.
+    *   **Đau/khó chịu cơ khi nhai, nói, vận động hàm:** 2 bệnh nhân báo cáo.
+    *   **Đau vùng khớp thái dương hàm, vùng thái dương hoặc má:** 2 bệnh nhân báo cáo.
+    *   **Đau đầu, đau cổ hoặc đau răng vô căn:** 3 bệnh nhân báo cáo.
+*   **Lời khuyên cho bác sĩ trẻ và sinh viên y khoa:**
+    *   **Khám sàng lọc ban đầu:** Luôn thực hiện đánh giá toàn diện khớp thái dương hàm và hệ thống nhai trước khi bắt đầu bất kỳ kế hoạch chỉnh nha nào. Sử dụng bảng câu hỏi sàng lọc và khám lâm sàng kỹ lưỡng.
+    *   **Theo dõi định kỳ:** Trong suốt quá trình điều trị và sau khi tháo mắc cài, cần định kỳ hỏi về các triệu chứng TMD. Đừng chỉ tập trung vào sự di chuyển của răng.
+    *   **Lắng nghe bệnh nhân:** Các câu hỏi tự đánh giá rất quan trọng. Hãy tạo điều kiện để bệnh nhân thoải mái chia sẻ các triệu chứng dù là nhỏ nhất.
+    *   **Liên hệ với phân loại Angle:** Dù không có mối quan hệ trực tiếp gây bệnh, nhưng việc hiểu rõ các loại sai khớp cắn Angle có thể giúp đánh giá nguy cơ và theo dõi các nhóm bệnh nhân khác nhau (ví dụ, theo dữ liệu, bệnh nhân Angle loại III có tỷ lệ TMD cao hơn sau điều trị trong nghiên cứu này).
+    *   **Cân nhắc đa chuyên khoa:** Nếu các triệu chứng TMD không được cải thiện hoặc trở nên nghiêm trọng, hãy cân nhắc hội chẩn với các chuyên gia về TMD hoặc đau mặt hàm để có phương án điều trị phù hợp.</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị rối loạn khớp thái dương hàm (M26.6) - Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn chẩn đoán lâm sàng, cận lâm sàng, phân loại và phác đồ điều trị TMD theo chuẩn y khoa quốc tế và Bộ Y tế Việt Nam. Đây là cẩm nang thiết yếu cho bác sĩ răng hàm mặt trong việc quản lý bệnh nhân TMD, giúp bạn hiểu sâu về các nguyên tắc chẩn đoán phân biệt và can thiệp điều trị.</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Quản lý lâm sàng rối loạn khớp thái dương hàm trong thực hành chỉnh nha (Mã CME: CME-RHM-TMD01)</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Khóa học CME này đi sâu vào mối liên hệ giữa chỉnh nha và TMD, hướng dẫn bác sĩ nhận diện sớm các yếu tố nguy cơ, chẩn đoán chính xác dựa trên các công cụ chuẩn hóa, và lập kế hoạch điều trị hiệu quả cho bệnh nhân có nguy cơ hoặc đã phát triển TMD trong quá trình chỉnh nha. Khóa học cũng bao gồm các chiến lược phòng ngừa và điều trị tích hợp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, đóng vai trò như một trợ lý học thuật chuyên ngành, hỗ trợ sinh viên y khoa và bác sĩ trẻ tiếp cận thông tin, tài liệu và khóa học CME chất lượng, giúp họ nâng cao kiến thức và kỹ năng trong chẩn đoán TMD.</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Để thu thập thông tin chính xác về các triệu chứng rối loạn khớp thái dương hàm (TMD) từ bệnh nhân chỉnh nha, sinh viên y khoa cần thực hiện các câu hỏi tự đánh giá nào và cần lưu ý điều gì về các triệu chứng thường gặp để tránh bỏ sót các dấu hiệu quan trọng?</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc thu thập bệnh sử kỹ lưỡng là nền tảng của mọi chẩn đoán chính xác, đặc biệt trong các trường hợp phức tạp như TMD. Đối với sinh viên y khoa và các bác sĩ trẻ, việc sử dụng các bảng câu hỏi tự đánh giá (self-assessment) chuẩn hóa là một kỹ năng cần thiết. Dưới đây là các câu hỏi bạn nên sử dụng và những lưu ý khi khai thác:
+**Bảng câu hỏi tự đánh giá TMD cơ bản (ví dụ dựa trên bảng khảo sát trong nghiên cứu):**
+| STT | CÂU HỎI | KHÔNG (N=) | HIẾM KHI (N=) | THƯỜNG XUYÊN (N=) |
+|---|---|---|---|---|
+| 1 | Bạn có bất kỳ cơn đau hoặc khó khăn nào khi há miệng hoặc ngáp không? | 158 | 10 | 0 |
+| 2 | Bạn có bao giờ bị khóa hàm hoặc trật khớp hàm không? | 167 | 1 | 0 |
+| 3 | Bạn có cảm thấy khó chịu hoặc đau cơ khi nhai, nói hoặc di chuyển hàm không? | 166 | 2 | 0 |
+| 4 | Bạn có nghe bất kỳ âm thanh nào từ khớp thái dương hàm (TMJ) không? | 113 | 55 | 0 |
+| 5 | Bạn có thường xuyên bị cứng hàm hoặc mỏi vùng hàm không? | 167 | 1 | 0 |
+| 6 | Bạn có đau ở khớp thái dương hàm, vùng thái dương hoặc vùng má không? | 166 | 2 | 0 |
+| 7 | Bạn có thường xuyên bị đau đầu, đau cổ hoặc đau răng vô căn không? | 165 | 3 | 0 |
+| 8 | Bạn có bị chấn thương gần đây ở vùng đầu, cổ và hàm không? | 168 | 0 | 0 |
+| 9 | Bạn có cảm thấy bất thường gần đây khi cắn xuống không? | 109 | 59 | 0 |
+| 10 | Bạn có tiền sử điều trị đau mặt vô căn hoặc đau khớp thái dương hàm không? | 157 | 11 | 0 |
+**Lưu ý quan trọng khi thu thập thông tin:**
+*   **Khuyến khích bệnh nhân chia sẻ:** Một số bệnh nhân có thể nghĩ rằng các triệu chứng nhẹ không quan trọng hoặc không liên quan đến điều trị chỉnh nha. Hãy trấn an họ và giải thích rằng mọi thông tin đều hữu ích.
+*   **Đánh giá mức độ:** Không chỉ hỏi 'có' hay 'không', mà còn cần khai thác mức độ, tần suất và cường độ của triệu chứng (ví dụ: 'hiếm khi', 'thỉnh thoảng', 'thường xuyên'). Điều này giúp phân biệt triệu chứng nhẹ với triệu chứng đáng báo động.
+*   **Liên hệ thời gian:** Hỏi rõ triệu chứng xuất hiện khi nào (trước, trong hay sau chỉnh nha), có liên quan đến các sự kiện cụ thể nào không (ví dụ: sau khi thay dây cung, đeo khí cụ, chấn thương...).
+*   **Triệu chứng thường gặp nhất:** Đặc biệt chú ý đến **âm thanh khớp thái dương hàm** (Câu 4) và **cảm giác bất thường khi cắn** (Câu 9), vì đây là những triệu chứng được báo cáo nhiều nhất trong nghiên cứu này. Tuy nhiên, không bỏ qua các triệu chứng khác.
+*   **Tầm quan trọng của tiền sử:** Câu hỏi về tiền sử điều trị đau mặt/TMJ (Câu 10) là cực kỳ quan trọng. Tiền sử TMD có thể làm tăng nguy cơ tái phát hoặc trầm trọng hơn trong quá trình chỉnh nha.
+*   **Phân biệt triệu chứng:** Đôi khi bệnh nhân nhầm lẫn đau răng với đau khớp, hoặc đau đầu thông thường với đau đầu do TMD. Hãy hướng dẫn họ mô tả cụ thể vị trí và tính chất cơn đau.
+Việc thực hành cẩn trọng các bước này sẽ giúp bạn xây dựng được một hồ sơ bệnh án đầy đủ và chính xác, làm cơ sở cho chẩn đoán và kế hoạch điều trị hiệu quả.</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Bộ câu hỏi khảo sát rối loạn khớp thái dương hàm (DC/TMD) phiên bản 2014 - Nguyên tắc và ứng dụng</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Đây là công cụ đánh giá chuẩn hóa quốc tế được sử dụng rộng rãi để sàng lọc và chẩn đoán rối loạn khớp thái dương hàm. Tài liệu này cung cấp hướng dẫn chi tiết về cách sử dụng, chấm điểm và diễn giải kết quả của bộ câu hỏi DC/TMD, giúp bạn thu thập thông tin khách quan từ bệnh nhân và hỗ trợ quá trình chẩn đoán lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Kỹ năng khám và chẩn đoán rối loạn khớp thái dương hàm trong điều trị chỉnh nha (Mã CME: CME-RHM-TMD02)</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào kỹ năng lâm sàng từ việc hỏi bệnh sử, khám thực thể toàn diện hệ thống nhai, đến các phương pháp chẩn đoán hình ảnh và cận lâm sàng. Nó giúp bác sĩ và sinh viên nắm vững quy trình đánh giá toàn diện TMD, đặc biệt là cách sử dụng các bảng câu hỏi sàng lọc hiệu quả và cách diễn giải các triệu chứng lâm sàng liên quan đến chỉnh nha.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, tư vấn chuyên sâu cho bác sĩ và sinh viên y khoa về mối liên hệ giữa các phân loại sai khớp cắn Angle và rối loạn khớp thái dương hàm (TMD), cùng các phương pháp tiếp cận điều trị và dự phòng hiệu quả.</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, mối liên hệ giữa các phân loại khớp cắn Angle và tỷ lệ mắc rối loạn khớp thái dương hàm (TMD, mã ICD-10: M26.6) sau chỉnh nha có ý nghĩa như thế nào trong việc lập kế hoạch điều trị và theo dõi lâu dài cho bệnh nhân? Chúng ta cần có chiến lược gì để cải thiện tình trạng này?</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc hiểu rõ mối liên hệ giữa phân loại khớp cắn Angle và TMD là rất quan trọng để đưa ra một kế hoạch điều trị chỉnh nha toàn diện và dự phòng hiệu quả. Dựa trên dữ liệu đã cung cấp, chúng ta có thể phân tích và rút ra các chiến lược như sau:
+**1. Mối liên hệ giữa phân loại Angle và TMD:**
+*   **Giai đoạn 1 năm sau khi bắt đầu chỉnh nha:**
+    *   Tổng cộng có 80 bệnh nhân (47.65%) bị TMD.
+    *   Trong đó, số lượng bệnh nhân TMD theo phân loại Angle là: Angle loại I (21 bệnh nhân), Angle loại II (28 bệnh nhân), Angle loại III (31 bệnh nhân).
+    *   Dường như bệnh nhân Angle loại III có xu hướng mắc TMD nhiều hơn trong giai đoạn này (31 bệnh nhân so với 21 và 28). Điều này có thể do đặc điểm sinh học của sai khớp cắn loại III thường liên quan đến các lực cơ bất thường và vị trí lồi cầu khớp.
+*   **Giai đoạn 1 năm sau khi hoàn thành chỉnh nha:**
+    *   Tổng cộng có 51 bệnh nhân (30.4%) bị TMD.
+    *   Số lượng bệnh nhân TMD theo phân loại Angle là: Angle loại I (15 bệnh nhân), Angle loại II (13 bệnh nhân), Angle loại III (23 bệnh nhân).
+    *   Mặc dù tổng số ca TMD giảm sau khi hoàn thành điều trị, bệnh nhân Angle loại III vẫn giữ tỷ lệ cao nhất trong số các ca TMD còn lại. Điều này củng cố nhận định về nguy cơ tiềm ẩn ở nhóm bệnh nhân này, ngay cả sau khi kết thúc quá trình điều chỉnh khớp cắn.
+**2. Ý nghĩa trong lập kế hoạch điều trị và theo dõi:**
+*   **Đánh giá nguy cơ cá thể hóa:** Các bác sĩ cần nhận thức rằng bệnh nhân với các phân loại Angle khác nhau có thể có nguy cơ phát triển hoặc duy trì TMD khác nhau. Đặc biệt, bệnh nhân Angle loại III cần được đánh giá kỹ lưỡng hơn về khớp thái dương hàm trước, trong và sau điều trị.
+*   **Cân bằng chức năng và thẩm mỹ:** Mục tiêu của chỉnh nha không chỉ là đạt được thẩm mỹ và khớp cắn lý tưởng mà còn phải đảm bảo chức năng ổn định của hệ thống nhai, bao gồm khớp thái dương hàm. Đôi khi, việc cố gắng đạt được một khớp cắn hoàn hảo về mặt răng học có thể tạo ra áp lực lên khớp, dẫn đến TMD.
+*   **Theo dõi dài hạn:** Dữ liệu cho thấy TMD vẫn tồn tại 1 năm sau khi kết thúc điều trị. Do đó, việc theo dõi định kỳ sau chỉnh nha là rất cần thiết, không chỉ để kiểm tra duy trì mà còn để sàng lọc và quản lý sớm các triệu chứng TMD tiềm ẩn.
+**3. Chiến lược cải thiện và học hỏi kinh nghiệm:**
+*   **Đánh giá toàn diện trước điều trị:**
+    *   Thực hiện khám lâm sàng kỹ lưỡng khớp thái dương hàm (sờ nắn cơ, nghe tiếng kêu khớp, đánh giá giới hạn vận động hàm).
+    *   Sử dụng các bảng câu hỏi sàng lọc TMD (ví dụ: DC/TMD) để thu thập thông tin khách quan.
+    *   Chụp X-quang khớp thái dương hàm hoặc MRI khi có chỉ định để đánh giá cấu trúc khớp.
+*   **Lập kế hoạch điều trị tích hợp:**
+    *   Cân nhắc các yếu tố biomechanical có thể ảnh hưởng đến khớp thái dương hàm trong suốt quá trình di chuyển răng.
+    *   Tránh tạo ra các điểm chạm sớm hoặc các cản trở khớp cắn gây căng thẳng cho khớp.
+    *   Sử dụng các khí cụ chỉnh nha với lực sinh lý, tránh các lực quá mạnh hoặc không cân bằng.
+*   **Quản lý triệu chứng trong quá trình điều trị:**
+    *   Khi bệnh nhân báo cáo triệu chứng TMD, cần đánh giá lại kế hoạch điều trị và có thể cần điều chỉnh lực hoặc khí cụ.
+    *   Cân nhắc các biện pháp hỗ trợ như nẹp máng (splint therapy), vật lý trị liệu, hoặc thuốc giảm đau.
+*   **Giáo dục bệnh nhân:** Hướng dẫn bệnh nhân về các yếu tố nguy cơ, cách tự quản lý triệu chứng và tầm quan trọng của việc báo cáo sớm bất kỳ khó chịu nào.
+*   **Học tập liên tục:** Tham gia các khóa học CME chuyên sâu về TMD trong chỉnh nha để cập nhật kiến thức và kỹ thuật mới nhất. Đọc các tài liệu nghiên cứu và hướng dẫn lâm sàng quốc tế (WHO, ADA, AAO) để mở rộng tầm nhìn.</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Phân loại khớp cắn Angle: Ảnh hưởng đến sức khỏe hệ thống nhai và TMD</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Tài liệu này trình bày chi tiết về các loại sai khớp cắn Angle (I, II, III), cơ chế bệnh sinh của chúng và mối liên hệ tiềm tàng với các rối loạn chức năng hệ thống nhai, bao gồm TMD. Nó giúp các bác sĩ hiểu được cách các yếu tố khớp cắn có thể ảnh hưởng đến khớp thái dương hàm và đưa ra các quyết định điều trị lâm sàng sáng suốt.</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Kế hoạch điều trị chỉnh nha toàn diện và phòng ngừa rối loạn khớp thái dương hàm (Mã CME: CME-RHM-TMD03)</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Khóa học này trang bị kiến thức về lập kế hoạch điều trị chỉnh nha tích hợp, cân nhắc các yếu tố nguy cơ TMD từ giai đoạn chẩn đoán ban đầu đến khi duy trì kết quả. Khóa học bao gồm các chiến lược phòng ngừa, can thiệp sớm và quản lý lâu dài các triệu chứng TMD để tối ưu hóa kết quả điều trị chỉnh nha và duy trì chức năng hệ thống nhai bền vững.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt trong lĩnh vực chỉnh nha và rối loạn khớp thái dương hàm (TMD), nhằm hỗ trợ bác sĩ trẻ và sinh viên y khoa nâng cao năng lực chuyên môn.</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Dựa trên dữ liệu ban đầu về mối liên hệ giữa các dạng sai khớp cắn Angle với triệu chứng TMD trước khi điều trị chỉnh nha (Bảng 7), các bác sĩ trẻ và sinh viên y khoa cần lưu ý những điểm nào trong quá trình thăm khám lâm sàng và lập kế hoạch điều trị?</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Chào các em, việc đánh giá mối liên hệ giữa sai khớp cắn Angle và triệu chứng rối loạn khớp thái dương hàm (TMD) ở giai đoạn khởi đầu điều trị chỉnh nha là vô cùng quan trọng. Dữ liệu từ Bảng 7 cho thấy một sự khác biệt đáng kể (p-value = 5.957e-05) về tỷ lệ triệu chứng TMD giữa các nhóm Angle Class.
+**Những điểm cần lưu ý trong thực hành lâm sàng:**
+*   **Thăm khám toàn diện:** Không chỉ tập trung vào sai khớp cắn mà còn phải chủ động tìm kiếm các dấu hiệu và triệu chứng của TMD. Điều này bao gồm lắng nghe tiền sử bệnh (tiếng kêu khớp, đau, hạn chế há miệng), khám sờ nắn các cơ nhai và khớp thái dương hàm, đánh giá biên độ vận động hàm.
+*   **Đặc biệt chú ý đến Angle Class II và III:** Bảng 7 cho thấy tỷ lệ có triệu chứng TMD ở Angle Class II và III cao hơn đáng kể so với Angle Class I trước điều trị (Class I: 31/74 có TMD; Class II: 36/54 có TMD; Class III: 33/40 có TMD). Điều này gợi ý rằng những bệnh nhân thuộc các dạng sai khớp cắn này có thể có nguy cơ phát triển hoặc đã có TMD cao hơn. Các em cần đưa ra cảnh báo và tư vấn phù hợp cho bệnh nhân.
+*   **Chẩn đoán phân biệt:** Cần phân biệt rõ TMD với các tình trạng đau vùng hàm mặt khác. Sử dụng các tiêu chuẩn chẩn đoán đã được công nhận, ví dụ như DC/TMD (Diagnostic Criteria for Temporomandibular Disorders) để đảm bảo tính khách quan.
+*   **Tư vấn và giáo dục bệnh nhân:** Giải thích rõ ràng cho bệnh nhân về mối liên hệ tiềm tàng giữa sai khớp cắn và TMD, cũng như kỳ vọng về việc điều trị chỉnh nha có thể ảnh hưởng đến các triệu chứng này như thế nào. Điều này giúp tăng cường sự hợp tác của bệnh nhân.
+*   **Lập kế hoạch điều trị tích hợp:** Nếu bệnh nhân có TMD kèm theo, kế hoạch điều trị chỉnh nha cần được điều chỉnh để không làm trầm trọng thêm tình trạng TMD, thậm chí có thể cần điều trị TMD song song hoặc trước khi bắt đầu chỉnh nha chính thức. Các mã ICD-10 liên quan đến TMD cần được ghi nhận trong hồ sơ bệnh án, ví dụ như M26.6 (Rối loạn khớp thái dương hàm).</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Chẩn Đoán và Điều Trị Rối Loạn Khớp Thái Dương Hàm (TMD) – Hướng dẫn lâm sàng</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn toàn diện về chẩn đoán, phân loại theo ICD-10 và các phương pháp điều trị TMD hiệu quả, bao gồm cả các hướng dẫn thực hành lâm sàng cho bác sĩ chỉnh nha và bác sĩ Răng Hàm Mặt tổng quát. Hữu ích cho việc xây dựng kế hoạch điều trị tích hợp.</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Khóa học Nâng cao về Chẩn đoán và Quản lý Rối Loạn Khớp Thái Dương Hàm trong Chỉnh nha</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào các kỹ thuật thăm khám, chẩn đoán TMD tiên tiến, mối liên hệ giữa khớp cắn và TMD, và các phương pháp điều trị bảo tồn, không xâm lấn cho TMD trong suốt quá trình điều trị chỉnh nha, giúp bác sĩ lâm sàng tối ưu hóa kết quả điều trị và giảm thiểu biến chứng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, tập trung vào theo dõi và đánh giá hiệu quả điều trị chỉnh nha đối với rối loạn khớp thái dương hàm (TMD) để hỗ trợ các bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Sự thay đổi về tỷ lệ triệu chứng TMD qua các giai đoạn điều trị chỉnh nha (khởi đầu, 1 năm sau điều trị, 1 năm hậu điều trị) mang lại những bài học lâm sàng quan trọng nào cho việc theo dõi và quản lý bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Các em cần hiểu rõ rằng việc theo dõi triệu chứng TMD trong suốt quá trình điều trị chỉnh nha là một phần không thể thiếu của quản lý bệnh nhân toàn diện. Bảng 10 đã cung cấp một cái nhìn tổng quan rất rõ ràng về sự thay đổi này (p-value = 4.781e-07).
+**Phân tích và Bài học Lâm sàng:**
+*   **Giai đoạn khởi đầu điều trị:** Có 100/168 bệnh nhân (khoảng 59.5%) có triệu chứng TMD. Đây là tỷ lệ cao và nhấn mạnh sự cần thiết của việc đánh giá TMD toàn diện trước khi bắt đầu bất kỳ can thiệp chỉnh nha nào. Việc bỏ qua giai đoạn này có thể dẫn đến các vấn đề phức tạp hơn sau này.
+*   **1 năm sau khi bắt đầu điều trị:** Tỷ lệ có triệu chứng TMD đã giảm xuống còn 80/168 bệnh nhân (khoảng 47.6%). Điều này cho thấy rằng bản thân quá trình điều trị chỉnh nha có thể có tác động tích cực đến các triệu chứng TMD, có thể do việc cải thiện khớp cắn và phân bố lực nhai.
+*   **1 năm hậu điều trị chỉnh nha:** Tỷ lệ triệu chứng TMD tiếp tục giảm đáng kể, chỉ còn 51/168 bệnh nhân (khoảng 30.4%). Đây là một kết quả rất đáng khích lệ, cho thấy sự ổn định của kết quả điều trị chỉnh nha có thể giúp cải thiện lâu dài tình trạng TMD.
+**Bảng tổng hợp Tỷ lệ Triệu chứng TMD qua các giai đoạn:**
+| Giai đoạn điều trị | Số bệnh nhân có TMD | Tổng số bệnh nhân | Tỷ lệ có TMD (%) |
+|-------------------|--------------------|-------------------|-----------------|
+| Khởi đầu điều trị | 100                | 168               | 59.5            |
+| 1 năm sau điều trị | 80                 | 168               | 47.6            |
+| 1 năm hậu điều trị | 51                 | 168               | 30.4            |
+**Hàm ý cho quản lý bệnh nhân:**
+*   **Theo dõi định kỳ:** Luôn duy trì việc hỏi bệnh và khám lâm sàng về TMD trong suốt quá trình điều trị và cả sau khi kết thúc. Sử dụng các thang điểm đánh giá triệu chứng để lượng hóa sự thay đổi.
+*   **Tư vấn về sự cải thiện:** Thông báo cho bệnh nhân về xu hướng cải thiện triệu chứng TMD thông qua chỉnh nha. Điều này có thể động viên bệnh nhân tuân thủ điều trị.
+*   **Xử trí các trường hợp TMD còn sót lại:** Mặc dù tỷ lệ giảm, vẫn còn một số bệnh nhân có triệu chứng TMD sau điều trị. Đối với những trường hợp này, các em cần có kế hoạch điều trị tiếp theo, có thể bao gồm điều trị bảo tồn (ví dụ: máng nhai, vật lý trị liệu), hoặc chuyển tuyến đến các chuyên gia TMD. Việc này cần được ghi chép cẩn thận theo ICD-10 (M26.6xx).</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành lâm sàng về Chỉnh nha và Khớp cắn chức năng</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các protocol chi tiết về đánh giá, điều trị và theo dõi bệnh nhân chỉnh nha, đặc biệt nhấn mạnh khía cạnh khớp cắn chức năng và phòng ngừa/quản lý rối loạn khớp thái dương hàm (TMD) theo các nguyên tắc y học chứng cứ và mã hóa ICD-10.</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>CME: Quản lý biến chứng và Tái phát TMD sau điều trị chỉnh nha</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Khóa học đào tạo liên tục này trang bị cho bác sĩ kiến thức và kỹ năng cần thiết để nhận diện, đánh giá và quản lý các trường hợp TMD tái phát hoặc xuất hiện sau điều trị chỉnh nha. Nội dung bao gồm các chiến lược điều trị nâng cao, vai trò của đội ngũ liên chuyên khoa và cập nhật các mã ICD-10 liên quan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt về các thách thức trong quản lý bệnh nhân Angle Class III và TMD để hỗ trợ các bác sĩ trẻ và sinh viên y khoa trong thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Mặc dù có sự cải thiện chung về TMD sau chỉnh nha, dữ liệu từ Bảng 9 vẫn cho thấy tỷ lệ đáng kể triệu chứng TMD ở bệnh nhân Angle Class III sau 1 năm hậu điều trị. Vậy, chiến lược quản lý lâu dài và vai trò của tiếp cận đa chuyên khoa cho nhóm bệnh nhân này là gì?</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Các em cần nhận thức rằng không phải tất cả các trường hợp TMD đều được giải quyết hoàn toàn chỉ bằng chỉnh nha, đặc biệt là ở những bệnh nhân có sai khớp cắn phức tạp như Angle Class III. Dữ liệu từ Bảng 9 (1 năm hậu điều trị) cho thấy Class III có 23/40 bệnh nhân (57.5%) vẫn có triệu chứng TMD, trong khi Class I là 15/74 (20.3%) và Class II là 13/54 (24.1%). Điều này chỉ ra rằng bệnh nhân Angle Class III là một nhóm đối tượng đặc biệt cần được quan tâm.
+**Chiến lược quản lý lâu dài cho bệnh nhân Angle Class III kèm TMD:**
+1.  **Đánh giá lại toàn diện:** Sau khi kết thúc chỉnh nha, nếu triệu chứng TMD vẫn còn, cần thực hiện đánh giá lại toàn diện về khớp cắn, chức năng khớp thái dương hàm, cơ nhai, và các yếu tố tâm lý xã hội. Các mã ICD-10 liên quan đến TMD (ví dụ M26.6xx) cần được cập nhật và theo dõi.
+2.  **Can thiệp bảo tồn:** Bắt đầu với các phương pháp điều trị bảo tồn như máng nhai (occlusal splint), vật lý trị liệu, liệu pháp nhiệt lạnh, thuốc giảm đau chống viêm không steroid (NSAIDs), và hướng dẫn bệnh nhân thay đổi thói quen sinh hoạt (ví dụ: tránh thức ăn cứng, hạn chế há miệng lớn).
+3.  **Tư vấn và giáo dục bệnh nhân:** Giải thích rõ ràng về bản chất mãn tính của TMD ở một số trường hợp, tầm quan trọng của việc tự quản lý và tuân thủ điều trị. Đảm bảo bệnh nhân hiểu rằng mục tiêu là kiểm soát triệu chứng chứ không phải lúc nào cũng loại bỏ hoàn toàn.
+4.  **Tiếp cận đa chuyên khoa:** Đây là yếu tố then chốt. Bệnh nhân Angle Class III có TMD dai dẳng thường cần sự phối hợp của nhiều chuyên gia:
+    *   **Bác sĩ chỉnh nha:** Đảm bảo duy trì khớp cắn ổn định và chức năng.
+    *   **Bác sĩ phẫu thuật hàm mặt:** Đối với các trường hợp sai khớp cắn nặng hoặc có bệnh lý khớp thái dương hàm cần can thiệp phẫu thuật (ví dụ: phẫu thuật chỉnh hình hàm mặt, phẫu thuật khớp thái dương hàm).
+    *   **Bác sĩ chuyên khoa đau:** Quản lý đau mãn tính thông qua các phương pháp tiên tiến hơn như tiêm khớp, phong bế thần kinh.
+    *   **Bác sĩ vật lý trị liệu:** Các bài tập phục hồi chức năng, massage, kỹ thuật thư giãn cơ.
+    *   **Tâm lý gia/Tâm thần học:** Nếu có yếu tố căng thẳng, lo âu, trầm cảm liên quan đến TMD mãn tính.
+5.  **Theo dõi định kỳ:** Duy trì lịch hẹn tái khám định kỳ để đánh giá triệu chứng, điều chỉnh điều trị và hỗ trợ tâm lý cho bệnh nhân. Mục tiêu là cải thiện chất lượng cuộc sống cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Phẫu thuật Chỉnh hình Hàm mặt và Điều trị Phức hợp Rối loạn Khớp Thái dương hàm</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Tài liệu này chuyên sâu về các phương pháp chẩn đoán và điều trị phẫu thuật cho các sai lệch hàm mặt nghiêm trọng và các trường hợp TMD phức tạp, bao gồm cả kỹ thuật phẫu thuật chỉnh hình hàm mặt. Đây là tài liệu thiết yếu cho các bác sĩ muốn tìm hiểu về điều trị đa chuyên khoa cho bệnh nhân Angle Class III với TMD dai dẳng, đồng thời liên hệ các mã ICD-10 liên quan.</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Hội thảo liên chuyên khoa: Giải pháp toàn diện cho Rối loạn Khớp Thái Dương Hàm phức tạp</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập hợp các chuyên gia từ nhiều lĩnh vực (chỉnh nha, phẫu thuật hàm mặt, vật lý trị liệu, chuyên khoa đau) để trình bày các ca lâm sàng khó, thảo luận về phác đồ điều trị đa chuyên khoa, và cập nhật những tiến bộ mới nhất trong chẩn đoán và quản lý TMD. Khóa học giúp bác sĩ phát triển kỹ năng tư duy lâm sàng và hợp tác hiệu quả trong đội ngũ y tế, đồng thời làm quen với việc sử dụng mã ICD-10 trong quản lý ca bệnh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Đối với các bác sĩ trẻ và sinh viên y khoa, làm thế nào để tiếp cận và đánh giá hiệu quả Rối loạn Khớp thái dương hàm (TMD) ở bệnh nhân có sai khớp cắn, đặc biệt trước khi bắt đầu điều trị chỉnh nha?</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Chào các đồng nghiệp tương lai và hiện tại! Việc đánh giá TMD ở bệnh nhân sai khớp cắn trước điều trị chỉnh nha là một bước cực kỳ quan trọng, không chỉ giúp chẩn đoán chính xác mà còn tránh được những quy kết sai lầm về sau. Dưới đây là cách tiếp cận có hệ thống mà các bạn cần nắm vững:
+**1. Thu thập tiền sử bệnh kỹ lưỡng:**
+*   Hỏi kỹ về các triệu chứng TMD như đau khớp (trong hoặc quanh tai, vùng thái dương), tiếng kêu khớp (clunking, clicking, popping), hạn chế há miệng, khó nhai, đau đầu, hoặc đau mặt. 
+*   Ghi nhận tần suất, cường độ, yếu tố làm tăng/giảm triệu chứng và thời gian xuất hiện của chúng. Điều này giúp các bạn hiểu rõ hơn về diễn tiến của bệnh.
+**2. Khám lâm sàng toàn diện:**
+*   **Kiểm tra khớp thái dương hàm (TMJ):** Sờ nắn vùng khớp khi bệnh nhân há và ngậm miệng để phát hiện tiếng kêu bất thường (ví dụ: click, crepitus), cảm giác đau hoặc lệch đường há. Đo độ há miệng tối đa và ghi nhận bất kỳ sự lệch lạc nào của hàm dưới.
+*   **Đánh giá cơ nhai:** Sờ nắn các cơ nhai chính (cơ thái dương, cơ cắn, cơ chân bướm trong/ngoài) để tìm các điểm đau hoặc vùng cơ co cứng. Đau cơ nhai thường là dấu hiệu của căng thẳng và rối loạn chức năng.
+*   **Kiểm tra sai khớp cắn:** Xác định loại sai khớp cắn (phân loại Angle Class I, II, III), cắn hở trước, cắn chéo sau, cắn chìa lớn. Mối liên hệ giữa các loại sai khớp cắn này và TMD đã được nghiên cứu và chứng minh rõ rệt. Ví dụ, sai khớp cắn Class III và các sai khớp cắn liên quan đến rối loạn chức năng như cắn hở trước hoặc cắn chéo sau thường có nguy cơ cao hơn.
+**3. Chẩn đoán hình ảnh bổ trợ:**
+*   **X-quang toàn cảnh (Panoramic X-ray):** Đây là một công cụ chẩn đoán có giá trị để nghiên cứu chiều cao lồi cầu và đánh giá cấu trúc xương khớp. Việc phân tích đối xứng chiều cao lồi cầu có thể cung cấp thông tin quan trọng, đặc biệt ở bệnh nhân sai khớp cắn Class III, nơi sự bất đối xứng thường gặp.
+*   **MRI (Cộng hưởng từ):** Cân nhắc cho các trường hợp phức tạp hơn để đánh giá chi tiết mô mềm, đĩa khớp, tình trạng viêm, và sự dịch chuyển đĩa khớp, giúp đưa ra chẩn đoán chính xác hơn về nguyên nhân gốc rễ của TMD.
+**4. Phân loại theo ICD-10:**
+*   Để chuẩn hóa dữ liệu bệnh án và thống kê dịch tễ, hãy sử dụng mã **ICD-10 K07.3** cho Sai khớp cắn và **K07.6** cho Rối loạn khớp thái dương hàm. Việc này giúp các bạn giao tiếp hiệu quả với đồng nghiệp và hệ thống y tế.
+**Lời khuyên lâm sàng:** Luôn nhớ rằng, việc sàng lọc và phát hiện sớm TMD trước khi bắt đầu điều trị chỉnh nha không chỉ giúp bảo vệ bệnh nhân khỏi những biến chứng tiềm ẩn mà còn bảo vệ chính chúng ta khỏi những quy kết không chính xác nếu các dấu hiệu TMD xuất hiện hoặc trầm trọng hơn trong hoặc sau điều trị. Một bác sĩ giỏi là người chủ động trong việc phòng ngừa và quản lý các vấn đề sức khỏe toàn diện cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Chẩn đoán và Kế hoạch điều trị chỉnh nha (Diagnosis and Treatment Planning in Orthodontics) - William R. Proffit</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Sách giáo trình cung cấp kiến thức nền tảng và chuyên sâu về các phương pháp chẩn đoán sai khớp cắn và các bệnh lý liên quan, bao gồm mối liên hệ với khớp thái dương hàm (TMD). Đây là tài liệu cốt lõi giúp các bạn sinh viên và bác sĩ trẻ xây dựng tư duy lâm sàng và nâng cao kỹ năng lập kế hoạch điều trị.</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Quản lý toàn diện Rối loạn Khớp thái dương hàm (TMD) trong Thực hành Nha khoa</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các phương pháp chẩn đoán tiên tiến, điều trị bảo tồn và phẫu thuật đối với TMD, đặc biệt nhấn mạnh vai trò của sai khớp cắn và cách tích hợp quản lý TMD vào kế hoạch điều trị chỉnh nha. Khóa học sẽ hướng dẫn các bác sĩ trẻ áp dụng kiến thức dựa trên bằng chứng vào thực tiễn lâm sàng, giúp họ tự tin hơn trong việc xử lý các trường hợp TMD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Làm thế nào để các bác sĩ trẻ và sinh viên y khoa diễn giải và ứng dụng bằng chứng về tác động của điều trị chỉnh nha đối với Rối loạn Khớp thái dương hàm (TMD) vào thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Các bạn đồng nghiệp thân mến, một trong những mối lo ngại thường gặp ở bệnh nhân và đôi khi cả ở các bác sĩ là liệu chỉnh nha có làm nặng thêm TMD hay không. Tuy nhiên, bằng chứng khoa học hiện tại đã chỉ ra một hướng đi tích cực hơn rất nhiều. Dưới đây là những điểm cốt lõi các bạn cần nắm vững để diễn giải và ứng dụng vào thực hành lâm sàng:
+**1. Bằng chứng khoa học về tác động tích cực của chỉnh nha đối với TMD:**
+*   **Giảm mức độ nghiêm trọng của TMD:** Các nghiên cứu đã chứng minh rằng điều trị chỉnh nha có thể giảm đáng kể mức độ nghiêm trọng của TMD ở bệnh nhân có sai khớp cắn. Ví dụ, một nghiên cứu cho thấy số bệnh nhân có TMD trung bình giảm từ 7 xuống 0 sau 1 năm điều trị chỉnh nha, với 50% bệnh nhân không còn triệu chứng và 75% chỉ còn TMD ở mức độ nhẹ (điểm đánh giá &lt;2).
+*   **Giảm nguy cơ phát triển TMD:** Nhiều đánh giá lâm sàng và nghiên cứu mở rộng đã chỉ ra rằng việc điều chỉnh khớp cắn thông qua chỉnh nha có xu hướng làm giảm hoặc loại bỏ nguy cơ phát triển TMD.
+*   **Không làm tăng nguy cơ:** Điều quan trọng cần nhấn mạnh là điều trị chỉnh nha không làm tăng nguy cơ phát triển TMD, mà ngược lại, còn được chứng minh là giảm nguy cơ này. Các dấu hiệu và triệu chứng TMD ít phổ biến hơn ở những bệnh nhân đang được điều trị chỉnh nha so với những người không điều trị.
+**2. Cơ chế tác động (Giải thích cho sinh viên/bác sĩ):**
+*   **Tái lập khớp cắn chức năng:** Điều trị chỉnh nha giúp tái lập một khớp cắn ổn định, cân bằng và hài hòa. Khi các răng được sắp xếp đúng vị trí, lực nhai được phân bổ đều hơn trên toàn bộ cung răng, giảm tải căng thẳng lên khớp thái dương hàm (TMJ) và các cơ nhai.
+*   **Loại bỏ cản trở khớp cắn:** Chỉnh nha loại bỏ các điểm chạm sớm, cản trở khớp cắn, và các sai khớp cắn nghiêm trọng (như cắn hở, cắn chéo) gây ra lệch lạc chức năng hàm. Việc này trực tiếp góp phần cải thiện chức năng khớp và giảm các yếu tố gây TMD.
+**3. Ứng dụng lâm sàng cho bác sĩ trẻ:**
+*   **Tư vấn bệnh nhân tự tin:** Hãy tự tin giải thích cho bệnh nhân rằng điều trị chỉnh nha, khi được thực hiện đúng cách và bởi bác sĩ chuyên môn, không chỉ cải thiện thẩm mỹ mà còn có thể có lợi cho sức khỏe khớp thái dương hàm của họ. Điều này giúp gạt bỏ những hiểu lầm phổ biến.
+*   **Lập kế hoạch điều trị toàn diện:** Trong kế hoạch điều trị, hãy luôn cân nhắc mục tiêu tạo ra một khớp cắn ổn định và chức năng, không chỉ đơn thuần là làm thẳng răng. Đánh giá TMD trước điều trị là bắt buộc để có cái nhìn toàn cảnh.
+*   **Theo dõi định kỳ:** Tiếp tục theo dõi các dấu hiệu và triệu chứng TMD trong và sau điều trị để đánh giá hiệu quả và can thiệp kịp thời nếu cần. Ghi nhận sự cải thiện có thể giúp củng cố niềm tin cho cả bạn và bệnh nhân.
+**Tóm tắt dữ liệu về cải thiện TMD sau chỉnh nha:**
+| Giai đoạn                  | Số bệnh nhân có TMD trung bình | Tỷ lệ bệnh nhân không TMD | Tỷ lệ bệnh nhân TMD nhẹ (score &lt; 2) |
+|----------------------------|--------------------------------|-------------------------|------------------------------------|
+| Trước điều trị chỉnh nha   | 7                              | -                       | -                                  |
+| 1 năm sau điều trị chỉnh nha | 0                              | 50%                     | 75%                                |
+*Lưu ý: Dữ liệu trên được trích dẫn từ đoạn văn, minh họa rõ ràng hiệu quả giảm mức độ nghiêm trọng của TMD sau điều trị chỉnh nha. Việc hiểu rõ các số liệu này sẽ giúp các bạn tự tin hơn khi tư vấn cho bệnh nhân.*</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành lâm sàng về Rối loạn Khớp thái dương hàm (TMD) của Hiệp hội Nha khoa Hoa Kỳ (AAO/ADA)</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các khuyến nghị dựa trên bằng chứng cho việc chẩn đoán, điều trị và quản lý lâu dài TMD, với phần đặc biệt đề cập đến vai trò của điều trị chỉnh nha và khớp cắn. Đây là nguồn tham khảo đáng tin cậy giúp các bác sĩ cập nhật kiến thức và áp dụng các phương pháp điều trị hiệu quả nhất.</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Chỉnh nha hiện đại và Tích hợp điều trị khớp cắn chức năng</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Khóa học nâng cao này dành cho các nha sĩ chỉnh nha muốn tìm hiểu sâu hơn về các kỹ thuật chỉnh nha tiên tiến nhằm đạt được khớp cắn tối ưu, giảm thiểu nguy cơ TMD và cải thiện kết quả điều trị dài hạn. Khóa học bao gồm các nghiên cứu điển hình, thảo luận về các bằng chứng mới nhất và các phương pháp tích hợp quản lý khớp cắn vào chỉnh nha, rất phù hợp để nâng cao kiến thức chuyên môn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Các bác sĩ trẻ và sinh viên y khoa cần nhận biết những loại sai khớp cắn cụ thể nào có mối liên hệ chặt chẽ với Rối loạn Khớp thái dương hàm (TMD), và ý nghĩa lâm sàng của việc phát hiện sớm là gì?</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Việc nhận diện các loại sai khớp cắn có nguy cơ cao phát triển hoặc làm trầm trọng thêm TMD là kiến thức nền tảng cho mỗi bác sĩ lâm sàng. Điều này giúp chúng ta chủ động trong chẩn đoán, lập kế hoạch điều trị và tư vấn cho bệnh nhân một cách hiệu quả. Dưới đây là các loại sai khớp cắn đáng chú ý và ý nghĩa lâm sàng của chúng:
+**1. Các loại sai khớp cắn có mối liên hệ mạnh mẽ với TMD:**
+*   **Sai khớp cắn Class III (Prognathism/Hàm dưới hô):** Nghiên cứu đã chỉ ra rằng bệnh nhân có sai khớp cắn Class III có tỷ lệ mắc TMD cao nhất. Mối liên hệ này càng được củng cố khi có sự bất đối xứng chiều cao lồi cầu, gây áp lực không đều lên khớp thái dương hàm. (Mã ICD-10: K07.35)
+*   **Cắn hở trước (Anterior open bite):** Tình trạng răng cửa hàm trên và dưới không chạm nhau khi cắn hai hàm lại. Cắn hở trước thường liên quan đến các thói quen xấu (ví dụ: mút ngón tay, đẩy lưỡi) hoặc vấn đề tăng trưởng xương hàm. Tình trạng này gây ra sự phân bổ lực nhai không đều, dẫn đến căng thẳng và quá tải khớp TMJ. (Mã ICD-10: K07.31)
+*   **Cắn chéo sau (Posterior crossbite):** Khi một hoặc nhiều răng hàm trên nằm trong so với răng hàm dưới tương ứng khi cắn lại. Cắn chéo sau có thể gây lệch chức năng hàm, buộc hàm dưới phải trượt sang một bên khi nhai, dẫn đến quá tải một bên khớp thái dương hàm. (Mã ICD-10: K07.34)
+*   **Cắn chìa lớn (Severe overjet):** Khi răng cửa hàm trên chìa ra quá mức so với răng cửa hàm dưới (thường lớn hơn 6mm). Điều này có thể ảnh hưởng đến chuyển động chức năng của hàm dưới và gây áp lực không mong muốn lên khớp TMJ. (Mã ICD-10: K07.33)
+*   **Sai khớp cắn Class II (Retrognathism/Hàm dưới lùi):** Mặc dù tỷ lệ mắc TMD không cao bằng Class III, nhưng bệnh nhân Class II cũng có tỷ lệ TMD cao hơn đáng kể so với Class I. (Mã ICD-10: K07.32)
+**2. Ý nghĩa lâm sàng của việc phát hiện sớm cho bác sĩ trẻ:**
+*   **Nâng cao khả năng chẩn đoán:** Khi một bệnh nhân đến khám với một trong các loại sai khớp cắn này, hãy luôn đặt câu hỏi và thăm khám kỹ lưỡng về TMD, ngay cả khi bệnh nhân chưa có triệu chứng rõ ràng. Các bạn cần phát triển 'con mắt lâm sàng' để nhìn thấy mối liên hệ này.
+*   **Can thiệp phòng ngừa hiệu quả:** Phát hiện sớm cho phép chúng ta tư vấn và can thiệp phòng ngừa. Ví dụ, điều trị chỉnh nha sớm không chỉ điều chỉnh sai khớp cắn mà còn có thể giảm nguy cơ phát triển hoặc làm trầm trọng thêm TMD về sau.
+*   **Lập kế hoạch điều trị toàn diện:** Việc nhận thức về mối liên hệ này giúp các bạn xây dựng kế hoạch điều trị chỉnh nha không chỉ tập trung vào việc làm thẳng răng mà còn vào việc cải thiện chức năng khớp cắn, sự ổn định khớp và sức khỏe tổng thể của TMJ. Đây là một cách tiếp cận mang tính chức năng và bền vững hơn.
+*   **Tư vấn bệnh nhân hiệu quả:** Giúp bệnh nhân hiểu rõ hơn về tình trạng của mình và tầm quan trọng của việc điều trị chỉnh nha không chỉ vì thẩm mỹ mà còn vì sức khỏe chức năng, từ đó tăng cường sự tuân thủ điều trị của bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Atlas Giải phẫu chức năng và bệnh lý khớp thái dương hàm (Anatomy, Physiology, and Pathology of Temporomandibular Joint)</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Một tài liệu minh họa phong phú, giải thích chi tiết về giải phẫu, sinh lý chức năng và các bệnh lý của khớp thái dương hàm. Đây là nguồn tài nguyên vô giá để hiểu sâu về cơ chế bệnh sinh của TMD liên quan đến sai khớp cắn. Cuốn sách này là tài liệu tham khảo thiết yếu cho mọi sinh viên và bác sĩ nha khoa muốn nắm vững các vấn đề về khớp cắn và TMJ.</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Phân tích Cephalometric nâng cao và Chẩn đoán sai khớp cắn phức tạp</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ trang bị cho các học viên kỹ năng phân tích hình ảnh Cephalometric một cách chuyên sâu, giúp xác định các loại sai khớp cắn phức tạp, đánh giá mối liên hệ của chúng với cấu trúc sọ mặt và khớp thái dương hàm. Rất phù hợp cho các bác sĩ chỉnh nha, chuyên gia hàm mặt và sinh viên y khoa muốn đào sâu kiến thức về chẩn đoán và lập kế hoạch điều trị các trường hợp sai khớp cắn có liên quan đến TMD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên bằng chứng khoa học và chuẩn ICD-10, hỗ trợ đào tạo bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, có phải điều trị chỉnh nha làm tăng nguy cơ mắc Rối loạn khớp thái dương hàm (TMD) không? Và vai trò của chỉnh nha trong quản lý TMD là gì?</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất thường gặp trong thực hành lâm sàng và là mối quan tâm lớn của cả bệnh nhân lẫn các bạn đồng nghiệp. Dựa trên các bằng chứng khoa học hiện có, bao gồm nghiên cứu đoàn hệ kéo dài và các tổng quan hệ thống, chúng ta có thể khẳng định rằng:
+*   **Điều trị chỉnh nha KHÔNG làm tăng nguy cơ phát triển Rối loạn khớp thái dương hàm (TMD)**, ngay cả sau một thời gian dài theo dõi sau điều trị. Điều này đã được chứng minh qua các nghiên cứu có giá trị cao, như nghiên cứu của MacFarlane TV và cộng sự theo dõi hơn 20 năm [5].
+*   Ngược lại, điều trị chỉnh nha còn có vai trò quan trọng trong việc **giảm đáng kể mức độ nghiêm trọng của TMD**. Kết quả nghiên cứu cho thấy tỷ lệ bệnh nhân mắc TMD giảm rõ rệt 1 năm sau điều trị, với p-value rất thấp (ví dụ: 4.781e-07) thể hiện ý nghĩa thống kê cao.
+Để áp dụng vào thực hành lâm sàng, các bạn cần lưu ý:
+1.  **Tư vấn bệnh nhân**: Khi tư vấn cho bệnh nhân về kế hoạch chỉnh nha, hãy tự tin giải thích rằng chỉnh nha không gây ra TMD. Điều này giúp giảm bớt lo lắng không cần thiết và củng cố niềm tin vào điều trị dựa trên bằng chứng.
+2.  **Đánh giá ban đầu**: Luôn thực hiện khám lâm sàng kỹ lưỡng để đánh giá tình trạng khớp thái dương hàm trước khi bắt đầu điều trị chỉnh nha. Việc chẩn đoán và phân loại TMD cần tuân thủ các mã ICD-10 phù hợp (ví dụ, M26.6x) để đảm bảo tính chính xác và nhất quán trong hồ sơ bệnh án.
+3.  **Chỉ định điều trị**: Đối với những bệnh nhân có cả sai khớp cắn (malocclusion) và TMD, chỉnh nha nên được xem xét là liệu pháp ban đầu nhằm giải quyết tận gốc các yếu tố cơ học gây ra rối loạn.
+Việc hiểu rõ mối quan hệ này không chỉ giúp bạn đưa ra quyết định lâm sàng đúng đắn mà còn nâng cao uy tín trong việc cung cấp thông tin chính xác, dựa trên bằng chứng khoa học cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Influence of orthodontic treatment on temporomandibular disorders. A systematic review.</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Tài liệu này là một tổng quan hệ thống toàn diện, tổng hợp và phân tích các nghiên cứu về ảnh hưởng của điều trị chỉnh nha lên Rối loạn khớp thái dương hàm (TMD). Đây là nguồn tài liệu vô cùng hữu ích cho việc xây dựng kiến thức nền tảng vững chắc và cung cấp bằng chứng khoa học trong tư vấn lâm sàng cho bệnh nhân, giúp bạn đưa ra quyết định dựa trên EBM.</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Cập nhật về Điều trị Chỉnh nha và Rối loạn Khớp Thái Dương Hàm: Bằng chứng và Thực hành Lâm sàng</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các bằng chứng khoa học mới nhất về mối liên hệ giữa chỉnh nha và TMD, hướng dẫn chẩn đoán chính xác theo các tiêu chuẩn quốc tế (bao gồm ICD-10) và lập kế hoạch điều trị tích hợp cho bệnh nhân có cả hai tình trạng. Tham gia khóa học giúp bác sĩ củng cố kiến thức, kỹ năng chẩn đoán và nâng cao hiệu quả điều trị, đồng thời biết cách truyền đạt thông tin khoa học cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên bằng chứng khoa học và chuẩn ICD-10, hỗ trợ đào tạo bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Xin chuyên gia cho biết, liệu sai khớp cắn có phải là nguyên nhân chính gây ra Rối loạn khớp thái dương hàm (TMD) không, và khi nào thì nên chỉ định chỉnh nha là liệu pháp ban đầu?</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Chào bạn, câu hỏi của bạn chạm đến một khía cạnh quan trọng trong bệnh nguyên của TMD.
+*   **Mối liên hệ giữa sai khớp cắn và TMD**: Dựa trên kết luận của nhiều nghiên cứu, bao gồm cả phân tích Fisher test được đề cập trong bài viết, **sai khớp cắn (malocclusion) được xác định là một trong những yếu tố bệnh lý chính gây ra Rối loạn khớp thái dương hàm (TMD)**. Mặc dù TMD có tính chất đa yếu tố, nhưng sự bất hài hòa trong khớp cắn có thể tạo ra các lực bất thường lên khớp thái dương hàm, dẫn đến các triệu chứng và rối loạn như đau, tiếng kêu khớp, hoặc hạn chế vận động. Điều này đã được nhiều nghiên cứu chứng minh và là một kết luận quan trọng cần ghi nhớ.
+*   **Chỉ định chỉnh nha là liệu pháp ban đầu**: Khi bệnh nhân biểu hiện đồng thời cả **sai khớp cắn và triệu chứng của TMD**, chỉnh nha nên được chỉ định là **liệu pháp điều trị ban đầu**. Lý do là việc điều chỉnh sai khớp cắn sẽ loại bỏ hoặc giảm thiểu yếu tố gây bệnh chính, giúp giảm tải lực không mong muốn lên khớp thái dương hàm và tạo điều kiện cho khớp phục hồi chức năng sinh lý.
+Để thực hiện điều này một cách hiệu quả, các bạn cần:
+1.  **Chẩn đoán toàn diện**: Trước tiên, cần chẩn đoán chính xác loại sai khớp cắn (phân loại theo Angle) và đánh giá đầy đủ các triệu chứng, dấu hiệu của TMD. Việc này bao gồm cả việc xác định các mã ICD-10 liên quan đến TMD (ví dụ: M26.6 cho rối loạn khớp thái dương hàm, với các mã phụ như M26.61 cho rối loạn khớp thái dương hàm, không phân loại) để đảm bảo ghi nhận lâm sàng chính xác.
+2.  **Lập kế hoạch điều trị tích hợp**: Kế hoạch điều trị chỉnh nha không chỉ nhằm mục tiêu đạt được khớp cắn chức năng lý tưởng mà còn phải xem xét đến sự hài hòa và ổn định của khớp thái dương hàm. Có thể cần phối hợp với các phương pháp khác như vật lý trị liệu, liệu pháp thư giãn cơ nếu cần thiết để đạt được kết quả tối ưu.
+3.  **Theo dõi sát sao**: Trong suốt quá trình điều trị, cần theo dõi định kỳ tình trạng khớp thái dương hàm của bệnh nhân, điều chỉnh kế hoạch nếu có bất kỳ dấu hiệu xấu đi nào hoặc để tối ưu hóa kết quả. Việc này giúp đảm bảo rằng quá trình điều trị chỉnh nha thực sự mang lại lợi ích cho tình trạng TMD của bệnh nhân.
+Việc hiểu rõ vai trò của sai khớp cắn và chỉ định đúng lúc liệu pháp chỉnh nha sẽ giúp bạn tối ưu hóa kết quả điều trị cho bệnh nhân TMD và nâng cao chất lượng chăm sóc sức khỏe răng hàm mặt.</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Manual of Temporomandibular Disorders.</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Đây là một tài liệu tham khảo kinh điển cung cấp kiến thức sâu rộng về nguyên nhân, chẩn đoán và quản lý Rối loạn khớp thái dương hàm. Tài liệu này giúp sinh viên và bác sĩ có cái nhìn toàn diện về các yếu tố bệnh nguyên, bao gồm vai trò của sai khớp cắn, và các hướng dẫn điều trị chuẩn mực, đồng thời là cơ sở để hiểu rõ hơn về phân loại TMD theo ICD-10.</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Chẩn đoán và Lập kế hoạch Điều trị Sai khớp cắn và Rối loạn Khớp Thái Dương Hàm</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ trang bị cho người học kiến thức chuyên sâu về phân loại sai khớp cắn, cơ chế bệnh sinh của TMD, và kỹ năng chẩn đoán lâm sàng để xác định các mã ICD-10 phù hợp. Đặc biệt, khóa học sẽ tập trung vào việc lập kế hoạch điều trị chỉnh nha như một liệu pháp ban đầu hiệu quả cho các trường hợp phối hợp sai khớp cắn và TMD, giúp học viên thực hành dựa trên bằng chứng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên bằng chứng khoa học và chuẩn ICD-10, hỗ trợ đào tạo bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Chuyên gia có thể cung cấp thêm thông tin về bằng chứng khoa học chứng minh hiệu quả của điều trị chỉnh nha đối với Rối loạn khớp thái dương hàm (TMD) và cách chúng em có thể sử dụng các bằng chứng này trong thực hành lâm sàng không?</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Tuyệt vời! Việc dựa trên bằng chứng khoa học (Evidence-Based Medicine - EBM) là nền tảng của y học hiện đại. Đối với mối quan hệ giữa chỉnh nha và TMD, có nhiều nghiên cứu đã củng cố bằng chứng về hiệu quả của chỉnh nha:
+*   **Nghiên cứu đoàn hệ dài hạn**: Nghiên cứu của MacFarlane TV et al. (2009) đã theo dõi các bệnh nhân được điều trị chỉnh nha trong hơn 20 năm, kết quả cho thấy điều trị chỉnh nha không liên quan đến sự phát triển của TMD. Tương tự, nghiên cứu của Inger Egermark LDS và cộng sự (2003) với 20 năm theo dõi về dấu hiệu và triệu chứng TMD ở các nhóm có và không chỉnh nha cũng cho thấy kết quả nhất quán. Những nghiên cứu này cung cấp bằng chứng có giá trị cao về tác động lâu dài.
+*   **Hiệu quả giảm mức độ nghiêm trọng**: Đoạn văn của chúng ta nêu rõ rằng tỷ lệ bệnh nhân có TMD giảm đáng kể 1 năm sau điều trị chỉnh nha, với p-value rất thấp (4.781e-07), chứng tỏ hiệu quả này là có ý nghĩa thống kê và lâm sàng. Đây là bằng chứng khoa học mạnh mẽ rằng chỉnh nha không chỉ không làm tăng nguy cơ mà còn giảm bớt mức độ nghiêm trọng của TMD.
+Để ứng dụng các bằng chứng này vào thực hành lâm sàng, các bạn nên:
+*   **Phân tích và Tổng hợp thông tin**: Hãy tập thói quen đọc các bài báo khoa học, đặc biệt là các tổng quan hệ thống và nghiên cứu đoàn hệ. Hiểu rõ phương pháp nghiên cứu, cỡ mẫu, và ý nghĩa thống kê của các kết quả (ví dụ, p-value &lt; 0.05 thường được coi là có ý nghĩa thống kê).
+*   **Tra cứu ICD-10 cho chẩn đoán**: Đảm bảo rằng bạn chẩn đoán TMD theo các tiêu chuẩn quốc tế và mã ICD-10 hiện hành (ví dụ, M26.6x cho các rối loạn cụ thể của khớp thái dương hàm). Việc này giúp đồng bộ hóa dữ liệu lâm sàng, phục vụ cho nghiên cứu và thống kê y tế.
+*   **Tạo niềm tin với bệnh nhân**: Khi tư vấn, hãy trình bày các bằng chứng này một cách rõ ràng, giúp bệnh nhân hiểu được lợi ích và yên tâm về quá trình điều trị. Bạn có thể trích dẫn các nghiên cứu uy tín để tăng tính thuyết phục.
+*   **Phát triển tư duy phản biện**: Không phải mọi nghiên cứu đều có chất lượng như nhau. Hãy luôn đánh giá phê bình các bằng chứng bạn đọc để chọn lọc thông tin đáng tin cậy nhất và áp dụng một cách phù hợp với từng trường hợp bệnh nhân cụ thể.
+Dưới đây là một bảng tóm tắt các loại bằng chứng và ứng dụng lâm sàng:
+| Loại Bằng Chứng | Mô tả | Ứng dụng trong Lâm sàng |
+|---|---|---|
+| **Nghiên cứu Đoàn hệ Dài hạn** | Theo dõi nhóm bệnh nhân trong thời gian dài (vd: 20 năm) để đánh giá kết quả | Cung cấp cái nhìn về tác động lâu dài của chỉnh nha lên TMD, giúp tư vấn tiên lượng chính xác |
+| **Tổng quan Hệ thống/Phân tích Gộp** | Tổng hợp kết quả từ nhiều nghiên cứu, đưa ra kết luận tổng thể | Nguồn thông tin tổng hợp đáng tin cậy nhất cho các khuyến nghị lâm sàng, hỗ trợ quyết định điều trị |
+| **Thử nghiệm Lâm sàng Ngẫu nhiên có Đối chứng (RCT)** | So sánh hiệu quả của can thiệp (chỉnh nha) với nhóm đối chứng | Đánh giá trực tiếp hiệu quả của điều trị trong môi trường kiểm soát, là tiêu chuẩn vàng cho bằng chứng hiệu quả |
+| **p-value có ý nghĩa thống kê** | Xác nhận rằng kết quả quan sát không phải do ngẫu nhiên, mà có ý nghĩa thực sự | Đảm bảo các kết luận về hiệu quả điều trị là đáng tin cậy, không chỉ là sự trùng hợp ngẫu nhiên |
+Thực hành y khoa dựa trên bằng chứng là một quá trình liên tục. Hãy luôn cập nhật kiến thức và trau dồi kỹ năng phân tích nghiên cứu để trở thành một bác sĩ giỏi và có trách nhiệm.</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>A 20-Year Follow-up of Signs and Symptoms of Temporomandibular Disorders and Malocclusions in Subjects With and Without Orthodontic Treatment in Childhood.</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Bài báo nghiên cứu này là một ví dụ điển hình về bằng chứng khoa học chất lượng cao, theo dõi dài hạn để đánh giá mối liên hệ phức tạp giữa chỉnh nha, sai khớp cắn và TMD. Đây là tài liệu rất quan trọng cho việc học cách diễn giải kết quả nghiên cứu có giá trị lâm sàng và ứng dụng vào thực hành, đặc biệt trong việc tư vấn tiên lượng lâu dài cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Thực hành Y khoa Dựa trên Bằng chứng trong Chuyên ngành Răng Hàm Mặt</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Khóa học này được thiết kế để nâng cao năng lực đọc, đánh giá phê bình và áp dụng bằng chứng khoa học vào quyết định lâm sàng. Người học sẽ được hướng dẫn các phương pháp tìm kiếm tài liệu hiệu quả, phân tích thống kê cơ bản, và cách tích hợp ICD-10 vào quy trình chẩn đoán để tối ưu hóa kết quả điều trị và nâng cao chất lượng chăm sóc bệnh nhân dựa trên các hướng dẫn quốc tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt dành cho sinh viên và bác sĩ trẻ để cải thiện kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, làm thế nào để tôi có thể tiếp cận và chẩn đoán ban đầu chấn thương sọ não (TBI) một cách hệ thống, đặc biệt là khi áp dụng các tiêu chuẩn ICD-10 cho mục đích phân loại và quản lý hồ sơ bệnh án?</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc chẩn đoán và phân loại Chấn thương sọ não (TBI) là cực kỳ quan trọng đối với bác sĩ trẻ và sinh viên y khoa. Đây là một quy trình cần sự chính xác và hệ thống để đảm bảo việc điều trị và quản lý bệnh án hiệu quả. Dưới đây là các bước tiếp cận bạn nên thực hiện:
+**1. Đánh giá ban đầu và ổn định bệnh nhân (ABCDE):**
+*   **A**irway (Đường thở): Đảm bảo thông thoáng, loại bỏ dị vật, tư thế an toàn.
+*   **B**reathing (Hô hấp): Đánh giá nhịp thở, tần số, độ sâu; hỗ trợ hô hấp nếu cần.
+*   **C**irculation (Tuần hoàn): Kiểm soát chảy máu, đánh giá huyết áp, mạch, bù dịch nếu có sốc.
+*   **D**isability (Thần kinh): Đánh giá ý thức bằng thang điểm Glasgow Coma Scale (GCS) là bắt buộc. Kiểm tra đồng tử.
+*   **E**xposure (Bộc lộ): Cởi bỏ quần áo để tìm kiếm các chấn thương kèm theo (ví dụ: chấn thương cột sống, chi).
+**2. Hỏi bệnh sử và Khám lâm sàng chi tiết:**
+*   **Cơ chế chấn thương:** Loại lực tác động (tùy thân, va đập, xuyên thấu), hướng, độ cao ngã, tốc độ va chạm. Thông tin này giúp bạn hình dung mức độ và loại tổn thương có thể xảy ra.
+*   **Triệu chứng:** Đau đầu (cường độ, vị trí), nôn, buồn nôn, co giật, mất ý thức (thời gian), yếu liệt chi, rối loạn cảm giác, chảy dịch não tủy qua mũi/tai.
+*   **Tiền sử:** Các bệnh lý nền (cao huyết áp, đái tháo đường, rối loạn đông máu), thuốc đang dùng (đặc biệt là thuốc chống đông máu), dị ứng.
+*   **Khám thần kinh toàn diện:** Ngoài GCS, cần khám chi tiết đồng tử (kích thước, phản xạ ánh sáng), dấu hiệu thần kinh khu trú (yếu liệt, rối loạn cảm giác, phản xạ gân xương, phản xạ bệnh lý), dấu hiệu màng não (nếu có nghi ngờ xuất huyết dưới nhện).
+**3. Cận lâm sàng hỗ trợ:**
+*   **Chụp CT sọ não:** Là tiêu chuẩn vàng để xác định tổn thương nội sọ cấp tính (tụ máu ngoài màng cứng, dưới màng cứng, xuất huyết não, dập não, phù não, vỡ xương sọ). Cần chỉ định khẩn cấp nếu có chỉ định.
+*   **Chụp X-quang cột sống cổ:** Loại trừ tổn thương cột sống cổ kèm theo, đặc biệt trong các trường hợp chấn thương mạnh.
+*   **Xét nghiệm máu cơ bản:** Công thức máu, đông máu cơ bản (INR, PT, aPTT), điện giải đồ, glucose máu, chức năng thận, gan. Các xét nghiệm này giúp đánh giá tình trạng toàn thân và chuẩn bị cho các can thiệp.
+**4. Phân loại theo ICD-10:**
+*   Sau khi có chẩn đoán xác định, bạn cần mã hóa theo ICD-10 để thống nhất trong ghi chép hồ sơ bệnh án, nghiên cứu và thống kê. TBI được phân loại chủ yếu trong **Chương XIX: S00-S09 'Chấn thương đầu'**. Các mã quan trọng bao gồm:
+    *   **S06:** Chấn thương nội sọ (Intracranial injury).
+        *   S06.0: Chấn động não (Concussion).
+        *   S06.1: Phù não chấn thương (Traumatic cerebral oedema).
+        *   S06.2: Dập não khu trú (Diffuse traumatic brain injury, initial encounter).
+        *   S06.3: Xuất huyết ngoài màng cứng (Epidural haemorrhage).
+        *   S06.4: Xuất huyết dưới màng cứng (Subdural haemorrhage).
+        *   S06.5: Xuất huyết dưới nhện chấn thương (Traumatic subarachnoid haemorrhage).
+        *   S06.6: Chấn thương nội sọ với xuất huyết nội sọ khu trú (Traumatic intracranial haemorrhage).
+        *   S06.7: Tổn thương nội sọ lan tỏa (Diffuse traumatic brain injury).
+        *   S06.8: Chấn thương nội sọ khác.
+        *   S06.9: Chấn thương nội sọ không xác định.
+*   Các mã khác có thể liên quan như S02.0 (Gãy vòm sọ), S02.1 (Gãy nền sọ). Luôn cố gắng mã hóa chi tiết nhất có thể để phản ánh đúng bản chất tổn thương và mức độ nặng. Mã ICD-10 giúp bạn và đồng nghiệp hiểu rõ hơn về tình trạng bệnh, từ đó đưa ra quyết định điều trị và theo dõi phù hợp.
+Việc thực hành thường xuyên, tham khảo sổ tay ICD-10 và thảo luận với các bác sĩ giàu kinh nghiệm là chìa khóa để nắm vững kỹ năng này.</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Sổ tay Hướng dẫn phân loại quốc tế bệnh tật và các vấn đề sức khỏe có liên quan (ICD-10) - Ấn bản 2016 của Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thức của Bộ Y tế Việt Nam cung cấp các mã và quy tắc phân loại bệnh tật theo chuẩn quốc tế, giúp sinh viên và bác sĩ thực hành mã hóa bệnh án chính xác, đặc biệt trong các trường hợp chấn thương sọ não, đảm bảo tính thống nhất và khoa học trong quản lý y tế.</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Khóa học Cấp cứu ban đầu và Chẩn đoán hình ảnh trong Chấn thương sọ não</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các nguyên tắc cấp cứu ban đầu theo chuẩn ATLS, cách tiếp cận chẩn đoán hình ảnh (CT, MRI) và phân loại chấn thương sọ não theo ICD-10, cung cấp kiến thức thực hành cần thiết cho bác sĩ và sinh viên y khoa trong việc xử trí các ca TBI cấp tính.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, nhằm nâng cao kiến thức và kỹ năng cho bác sĩ, sinh viên y khoa về các phương pháp điều trị tiên tiến và cơ chế bệnh sinh.</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Với vai trò là một bác sĩ trẻ hoặc sinh viên y khoa, tôi cần hiểu rõ những chỉ dấu viêm nào đóng vai trò quan trọng trong tiên lượng và theo dõi hiệu quả điều trị bằng tế bào gốc trung mô (MSC) trong chấn thương sọ não (TBI)? Đặc biệt, tại sao việc điều hòa các yếu tố này lại quan trọng?</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc nắm vững các chỉ dấu viêm trong TBI và vai trò của chúng trong điều trị bằng tế bào gốc trung mô (MSC) là vô cùng cần thiết để bạn có thể theo dõi và đánh giá hiệu quả điều trị một cách khoa học. Chấn thương sọ não gây ra một chuỗi các phản ứng viêm phức tạp, ảnh hưởng đáng kể đến mức độ tổn thương não và di chứng lâm sàng. Mục tiêu của điều trị bằng MSC là điều hòa các phản ứng viêm này.
+**Các chỉ dấu viêm quan trọng và vai trò của chúng trong TBI và điều trị bằng MSC:**
+*   **IL-6 (Interleukin-6):**
+    *   **Vai trò:** Là một cytokine tiền viêm mạnh, sản xuất nhanh chóng sau chấn thương. Nồng độ IL-6 cao thường tương quan với mức độ nặng của TBI và tiên lượng xấu, góp phần vào tổn thương thần kinh thứ phát.
+    *   **Trong điều trị MSC:** MSC được chứng minh có khả năng ức chế sản xuất IL-6, góp phần giảm phản ứng viêm tổng thể, từ đó giảm tổn thương não.
+*   **CRP (C-Reactive Protein):**
+    *   **Vai trò:** Là một protein pha cấp tính, chỉ dấu toàn thân của tình trạng viêm. Tăng CRP chỉ ra một phản ứng viêm hệ thống đang diễn ra, thường đi kèm với mức độ tổn thương mô.
+    *   **Trong điều trị MSC:** Giảm nồng độ CRP sau truyền MSC cho thấy sự giảm viêm hệ thống và có thể là tín hiệu tích cực về hiệu quả điều trị, phản ánh sự cải thiện của tình trạng viêm toàn thân.
+*   **TNF-α (Tumor Necrosis Factor-alpha):**
+    *   **Vai trò:** Một cytokine tiền viêm chủ chốt, gây ra nhiều tác động có hại trong TBI như tổn thương hàng rào máu não, phù não, chết tế bào thần kinh và hoạt hóa các phản ứng viêm khác.
+    *   **Trong điều trị MSC:** MSC có khả năng điều hòa và giảm sản xuất TNF-α, giúp bảo vệ mô não khỏi tổn thương do viêm và giảm sưng nề.
+*   **Leukocytes (Bạch cầu):**
+    *   **Vai trò:** Tăng số lượng bạch cầu, đặc biệt là bạch cầu đa nhân trung tính, là dấu hiệu của phản ứng viêm cấp tính và thâm nhập vào vùng tổn thương não, gây ra tổn thương mô thêm.
+    *   **Trong điều trị MSC:** Giảm số lượng bạch cầu trong máu lưu hành sau truyền MSC có thể cho thấy sự giảm phản ứng viêm hệ thống và kiểm soát tốt hơn quá trình viêm tại chỗ, hạn chế tổn thương thứ phát.
+*   **IL-10 (Interleukin-10):**
+    *   **Vai trò:** Ngược lại với các cytokine trên, IL-10 là một cytokine kháng viêm mạnh mẽ. Nó đóng vai trò ức chế phản ứng viêm quá mức, bảo vệ mô và thúc đẩy quá trình sửa chữa.
+    *   **Trong điều trị MSC:** Tăng nồng độ IL-10 sau truyền MSC là một dấu hiệu cực kỳ quan trọng, cho thấy MSC đang phát huy tác dụng điều hòa miễn dịch, chuyển từ trạng thái tiền viêm sang kháng viêm, thúc đẩy quá trình hồi phục.
+**Tại sao điều hòa các yếu tố này lại quan trọng?**
+Việc điều hòa các yếu tố viêm này là cốt lõi trong điều trị TBI bằng MSC vì:
+1.  **Giảm tổn thương thứ phát:** Viêm là nguyên nhân chính gây tổn thương thứ phát sau TBI. Điều hòa viêm giúp hạn chế sự lan rộng của tổn thương, bảo vệ các tế bào thần kinh không bị tổn thương ban đầu.
+2.  **Bảo vệ tế bào thần kinh:** Các cytokine tiền viêm có thể gây độc cho neuron. Giảm chúng giúp bảo vệ các tế bào não còn lại khỏi chết theo chương trình (apoptosis) và hoại tử.
+3.  **Thúc đẩy hồi phục và tái tạo:** Một môi trường ít viêm hơn sẽ tạo điều kiện thuận lợi cho sự tái tạo tế bào thần kinh, hình thành mạch máu mới và sửa chữa mô, cải thiện chức năng thần kinh.
+4.  **Cải thiện kết quả lâm sàng:** Như nghiên cứu đã chỉ ra, việc điều hòa các chỉ số viêm này liên quan đến sự cải thiện chức năng thần kinh (GCS, NIHSS) và phục hồi sức khỏe tổng thể (Barthel Index) của bệnh nhân TBI. Điều này đồng nghĩa với việc giảm thiểu di chứng và nâng cao chất lượng cuộc sống cho bệnh nhân.
+Là bác sĩ, bạn cần theo dõi sát sao các chỉ số này để đánh giá đáp ứng điều trị và điều chỉnh kế hoạch quản lý bệnh nhân phù hợp. Điều này không chỉ giúp bạn hiểu sâu sắc về bệnh học mà còn nâng cao chất lượng chăm sóc người bệnh.</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị Chấn thương sọ não của Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp các phác đồ chẩn đoán, điều trị và theo dõi TBI theo chuẩn của Bộ Y tế Việt Nam, bao gồm các khuyến nghị về việc sử dụng các chỉ dấu sinh học và xét nghiệm cần thiết trong đánh giá và tiên lượng bệnh, giúp bác sĩ cập nhật kiến thức lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Ứng dụng Tế bào gốc trong Y học Tái tạo và Điều trị Bệnh lý Thần kinh</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp cái nhìn tổng quan và chuyên sâu về cơ chế hoạt động, tiềm năng ứng dụng, và các kết quả lâm sàng của liệu pháp tế bào gốc, đặc biệt là MSC, trong điều trị các bệnh lý thần kinh như TBI. Khóa học cũng nhấn mạnh vai trò của các chỉ dấu sinh học trong đánh giá hiệu quả điều trị và các nghiên cứu lâm sàng mới nhất.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, nhằm trang bị kiến thức và kỹ năng thực hành cho bác sĩ trẻ và sinh viên y khoa trong quản lý toàn diện bệnh nhân chấn thương sọ não và đánh giá kết quả điều trị.</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Khi theo dõi bệnh nhân chấn thương sọ não (TBI), ngoài các chỉ số viêm, những công cụ đánh giá lâm sàng như Glasgow Coma Scale (GCS), Barthel Index (BI) và National Institute of Health Stroke Scale (NIHSS) đóng vai trò như thế nào trong việc tiên lượng và đánh giá sự hồi phục? Làm thế nào để áp dụng chúng một cách hiệu quả trong thực hành?</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc sử dụng các công cụ đánh giá lâm sàng chuẩn hóa là nền tảng để theo dõi tiến trình và tiên lượng bệnh nhân TBI. Chúng giúp chúng ta có một cái nhìn khách quan và toàn diện về tình trạng thần kinh và chức năng của bệnh nhân. Việc thành thạo các công cụ này sẽ giúp bạn trở thành một bác sĩ có khả năng quản lý bệnh nhân TBI một cách chuyên nghiệp và toàn diện hơn.
+**Vai trò và cách áp dụng các công cụ đánh giá lâm sàng trong TBI:**
+1.  **Thang điểm Glasgow Coma Scale (GCS):**
+    *   **Vai trò:** Đây là công cụ đánh giá mức độ ý thức phổ biến và quan trọng nhất trong TBI, đặc biệt trong giai đoạn cấp tính. GCS giúp phân loại mức độ nặng của TBI (GCS 13-15: nhẹ, 9-12: trung bình, 3-8: nặng) và là yếu tố tiên lượng chính về tỷ lệ tử vong và di chứng lâu dài.
+    *   **Cách áp dụng:** Đánh giá 3 phản ứng: Mở mắt (Eye opening), Đáp ứng lời nói (Verbal response), và Đáp ứng vận động (Motor response). Cộng tổng điểm từ 3 đến 15. Cần thực hiện thường xuyên (ví dụ: mỗi giờ trong giai đoạn cấp, sau đó thưa dần tùy tình trạng) để phát hiện sớm sự thay đổi ý thức. Khi điểm GCS giảm, cần cảnh giác cao độ và tìm nguyên nhân ngay lập tức (ví dụ: xuất huyết nội sọ tiến triển, phù não nặng).
+2.  **Chỉ số Barthel Index (BI):**
+    *   **Vai trò:** BI là một công cụ đánh giá mức độ độc lập trong các hoạt động sinh hoạt hàng ngày (ADL), bao gồm ăn uống, tắm rửa, vệ sinh cá nhân, đi lại, đại tiểu tiện, di chuyển. Nó rất hữu ích để đánh giá chức năng và khả năng tự lập của bệnh nhân TBI trong giai đoạn hồi phục và tiên lượng khả năng quay trở lại cuộc sống bình thường.
+    *   **Cách áp dụng:** Thang điểm từ 0 đến 100, với 10 mục đánh giá. Thường được sử dụng trong quá trình điều trị phục hồi chức năng và sau khi bệnh nhân xuất viện để theo dõi tiến triển. Điểm BI càng cao thì khả năng tự lập càng tốt. BI giúp bạn và đội ngũ y tế xây dựng kế hoạch phục hồi chức năng cá nhân hóa, tập trung vào những kỹ năng mà bệnh nhân còn yếu, từ đó nâng cao chất lượng cuộc sống.
+3.  **Thang điểm NIH Stroke Scale (NIHSS):**
+    *   **Vai trò:** Mặc dù ban đầu được thiết kế cho đột quỵ, NIHSS vẫn có giá trị trong TBI, đặc biệt là khi có các tổn thương khu trú rõ ràng hoặc nghi ngờ. Nó đánh giá chi tiết các chức năng thần kinh như mức độ ý thức, thị trường, vận nhãn, yếu liệt chi, cảm giác, thất ngôn và thất điều. NIHSS giúp định lượng mức độ khiếm khuyết thần kinh tại thời điểm ban đầu và theo dõi sự thay đổi theo thời gian.
+    *   **Cách áp dụng:** Gồm 11 mục đánh giá, với tổng điểm từ 0 (không có triệu chứng) đến 42 (nặng nhất). Sử dụng NIHSS cần được đào tạo để đảm bảo tính nhất quán và chính xác giữa các lần đánh giá và giữa các người đánh giá. Đây là công cụ hữu ích để lượng hóa sự cải thiện hoặc xấu đi của các khiếm khuyết thần kinh cụ thể, hỗ trợ cho việc quyết định điều trị.
+**Bảng tóm tắt các công cụ và ứng dụng chính trong TBI:**
+| Công cụ đánh giá | Mục đích chính                  | Thời điểm sử dụng điển hình  | Ý nghĩa đối với bác sĩ/sinh viên y khoa                                    |
+| :---------------- | :------------------------------ | :--------------------------- | :------------------------------------------------------------------------- |
+| **GCS**           | Đánh giá mức độ ý thức          | Cấp tính, theo dõi liên tục  | Tiên lượng nhanh mức độ nặng, chỉ định can thiệp cấp cứu, theo dõi diễn biến |
+| **Barthel Index** | Đánh giá khả năng tự lập (ADL)  | Giai đoạn hồi phục           | Lập kế hoạch phục hồi chức năng, tiên lượng khả năng quay trở lại cuộc sống độc lập |
+| **NIHSS**         | Đánh giá khiếm khuyết thần kinh khu trú | Cấp tính, theo dõi tiến triển | Lượng hóa tổn thương thần kinh cụ thể, định hướng điều trị và phục hồi chức năng |
+**Ứng dụng hiệu quả trong thực hành:**
+*   **Tích hợp:** Không sử dụng riêng lẻ mà kết hợp các công cụ này để có cái nhìn toàn diện. Ví dụ, GCS thấp cần can thiệp cấp cứu, sau đó Barthel và NIHSS giúp đánh giá quá trình hồi phục và đặt ra mục tiêu phục hồi chức năng.
+*   **Theo dõi xu hướng:** Quan trọng hơn điểm số đơn lẻ là sự thay đổi của điểm số theo thời gian. Sự cải thiện hay xấu đi đều mang ý nghĩa lâm sàng lớn, đòi hỏi bác sĩ phải đánh giá lại và điều chỉnh kế hoạch điều trị.
+*   **Tư vấn bệnh nhân và gia đình:** Giải thích kết quả đánh giá giúp bệnh nhân và gia đình hiểu rõ hơn về tình trạng bệnh, quá trình điều trị và kỳ vọng hồi phục, từ đó tăng cường sự hợp tác.
+*   **Nghiên cứu khoa học:** Các công cụ này cũng là tiêu chí quan trọng trong các nghiên cứu lâm sàng, giúp đánh giá khách quan hiệu quả các phương pháp điều trị mới, như việc sử dụng tế bào gốc trong TBI mà bạn đã đọc.</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Clinical Assessment of Traumatic Brain Injury: A Comprehensive Guide for Clinicians</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Sách hướng dẫn lâm sàng chi tiết về cách đánh giá toàn diện bệnh nhân TBI, bao gồm các thang điểm GCS, Barthel, NIHSS và các công cụ khác, rất hữu ích cho bác sĩ và sinh viên y khoa trong việc nắm vững quy trình đánh giá và ra quyết định lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Quản lý toàn diện bệnh nhân Chấn thương sọ não: Từ cấp cứu đến phục hồi chức năng</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Khóa học CME này đào tạo chuyên sâu về quy trình quản lý bệnh nhân TBI, từ giai đoạn cấp cứu, chẩn đoán, điều trị chuyên sâu, đến các chiến lược phục hồi chức năng và sử dụng hiệu quả các thang điểm đánh giá lâm sàng trong suốt quá trình. Khóa học giúp học viên nâng cao năng lực quản lý ca bệnh phức tạp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 của Bộ Y tế Việt Nam, đồng thời hướng dẫn thực hành y khoa cho các bác sĩ trẻ và sinh viên.</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Làm thế nào để đánh giá và quản lý hiệu quả các biến chứng lâu dài sau Chấn thương Sọ não (TBI), đặc biệt là những trường hợp chấn thương sọ não nhẹ hoặc vừa, cho bệnh nhân và gia đình của họ?</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Kính chào các bác sĩ trẻ và sinh viên y khoa, việc đánh giá và quản lý biến chứng lâu dài sau Chấn thương Sọ não (TBI), kể cả TBI nhẹ (Mild TBI hay chấn động não – Concussion) là một khía cạnh cực kỳ quan trọng và đòi hỏi sự theo dõi sát sao. Dưới đây là những hướng dẫn cơ bản mà các bạn cần nắm vững:
+*   **Theo dõi và Đánh giá Ban đầu:**
+    *   **ICD-10:** Mọi chấn thương sọ não đều cần được mã hóa chính xác. Ví dụ, Chấn động não được mã hóa là **S06.0**, Phù não do chấn thương là **S06.1**, hoặc Tổn thương não khu trú do chấn thương là **S06.3**. Việc mã hóa đúng giúp theo dõi dịch tễ và quản lý hồ sơ bệnh án.
+    *   **Giáo dục bệnh nhân và gia đình:** Ngay từ đầu, cần thông báo rõ ràng về khả năng xuất hiện các triệu chứng kéo dài như đau đầu (R51), chóng mặt, mệt mỏi, khó tập trung, rối loạn giấc ngủ, và các vấn đề về tâm lý như lo âu, trầm cảm (F32.9). Điều này giúp họ không hoang mang khi các triệu chứng xuất hiện.
+*   **Sàng lọc và Phát hiện Sớm Biến chứng:**
+    *   **Đau đầu kéo dài:** Là biến chứng phổ biến nhất (ICD-10: R51, nếu do chấn thương: G44.3). Cần đánh giá loại đau đầu (căng thẳng, migraine, đau đầu sau chấn động) và áp dụng liệu pháp phù hợp.
+    *   **Rối loạn tâm thần kinh:** Trầm cảm (F32.9), lo âu, rối loạn stress sau sang chấn (F43.1) là những vấn đề thường gặp. Cần sàng lọc định kỳ bằng các thang điểm chuyên biệt và giới thiệu đến chuyên khoa tâm thần học nếu cần.
+    *   **Rối loạn nhận thức:** Suy giảm trí nhớ, khó khăn trong việc lập kế hoạch, tập trung, xử lý thông tin. Các biến chứng này có thể tiến triển thành sa sút trí tuệ (F03) hoặc thậm chí làm tăng nguy cơ Alzheimer (G30.9) về sau. Các bác sĩ cần thực hiện các bài kiểm tra nhận thức cơ bản và giới thiệu đến chuyên gia phục hồi chức năng nhận thức.
+    *   **Rối loạn vận động và giác quan:** Có thể bao gồm yếu liệt nhẹ, mất thăng bằng, thay đổi thị lực hoặc thính lực. Đánh giá bởi chuyên khoa phục hồi chức năng.
+*   **Chiến lược Quản lý Đa chuyên khoa:**
+    *   **Phục hồi chức năng:** Đây là trụ cột trong quản lý lâu dài TBI. Bao gồm phục hồi chức năng vận động, nhận thức, ngôn ngữ và tâm lý. (Các bác sĩ cần biết cách chỉ định và theo dõi hiệu quả).
+    *   **Quản lý triệu chứng:** Sử dụng thuốc giảm đau, thuốc chống trầm cảm, thuốc an thần, hoặc các liệu pháp không dùng thuốc như vật lý trị liệu, liệu pháp nghề nghiệp, liệu pháp tâm lý.
+    *   **Hỗ trợ xã hội:** Đảm bảo bệnh nhân có sự hỗ trợ từ gia đình và cộng đồng, giúp họ tái hòa nhập xã hội và duy trì chất lượng cuộc sống.
+Việc chủ động theo dõi và can thiệp sớm sẽ giúp giảm thiểu tác động tiêu cực của các biến chứng TBI, ngay cả từ những chấn thương ban đầu có vẻ 'nhẹ'.</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên sâu, hỗ trợ sinh viên và bác sĩ trẻ tìm hiểu cơ chế bệnh sinh, các con đường viêm và các phương pháp điều trị tiềm năng trong y học thần kinh.</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Xin hãy giải thích chi tiết về vai trò của phản ứng viêm trong chấn thương não thứ phát sau Chấn thương Sọ não (TBI) và các mục tiêu điều trị tiềm năng mà chúng ta cần lưu ý trong thực hành lâm sàng và nghiên cứu?</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, hiểu rõ cơ chế bệnh sinh của TBI là chìa khóa để đưa ra các can thiệp hiệu quả. Trong đó, phản ứng viêm đóng vai trò trung tâm trong quá trình tổn thương não thứ phát:
+**1. Cơ chế Tổn thương Thứ phát và Vai trò của Viêm:**
+    Sau chấn thương sọ não ban đầu (do va đập trực tiếp hoặc gián tiếp gây tổn thương cấu trúc não), một chuỗi các sự kiện sinh lý bệnh phức tạp sẽ diễn ra, gọi là tổn thương thứ phát. Phản ứng viêm là một trong những thành phần chính của chuỗi này. Ban đầu, phản ứng viêm có mục đích bảo vệ và sửa chữa, nhưng khi quá mức hoặc kéo dài, nó sẽ trở thành yếu tố gây hại.
+    *   **Kích hoạt Hệ miễn dịch:** Tổn thương mô não kích hoạt các tế bào miễn dịch nội tại của não (microglia và astrocyte) và thu hút các tế bào miễn dịch lưu hành từ máu (bạch cầu, đại thực bào, tế bào lympho) đến vị trí tổn thương. (Tăng bạch cầu trong máu ngoại vi sau TBI cấp tính là một dấu hiệu).
+    *   **Phóng thích các chất trung gian gây viêm:** Các tế bào này giải phóng một loạt các chất trung gian gây viêm như cytokine (IL-1, IL-6, TNF-α), kinin, cyclooxygenase, và các gốc oxy hóa tự do (ROS).
+    *   **Hậu quả của Viêm quá mức:**
+        *   **Phù não:** Các chất trung gian gây viêm làm tăng tính thấm hàng rào máu não, dẫn đến phù não (S06.1 - phù não do chấn thương), tăng áp lực nội sọ và thiếu máu cục bộ.
+        *   **Độc tính tế bào:** Cytokine và ROS gây độc trực tiếp lên tế bào thần kinh và tế bào đệm, dẫn đến chết tế bào theo chương trình (apoptosis) hoặc hoại tử.
+        *   **Kích hoạt gen:** Gây thay đổi biểu hiện gen, ảnh hưởng đến chức năng tế bào thần kinh.
+        *   **Oxy hóa:** Gây stress oxy hóa nghiêm trọng, phá hủy màng tế bào và protein.
+**2. Các Chất Trung gian Gây Viêm và Hậu quả trong TBI:**
+    Để dễ hình dung, các bạn có thể tham khảo bảng tóm tắt sau:
+| Chất trung gian gây viêm | Vai trò chính trong viêm cấp | Hậu quả khi viêm quá mức/kéo dài trong TBI |
+| :---------------------- | :-------------------------- | :------------------------------------------- |
+| **Cytokine (IL-1, IL-6, TNF-α)** | Điều hòa phản ứng miễn dịch, gây sốt, thu hút bạch cầu | Tăng tính thấm hàng rào máu não, phù não, độc tính thần kinh, tăng chết tế bào |
+| **Kinin**               | Tăng tính thấm mạch, giãn mạch, gây đau         | Góp phần vào phù não, tăng áp lực nội sọ     |
+| **Cyclooxygenase (COX)**| Sản xuất prostaglandin, tham gia vào phản ứng viêm, đau, sốt | Tăng sản xuất các chất gây viêm, tổn thương mạch máu |
+| **Gốc oxy hóa tự do (ROS)** | Sản phẩm phụ của quá trình trao đổi chất, tiêu diệt mầm bệnh (ở mức độ vừa) | Gây stress oxy hóa, phá hủy cấu trúc tế bào, tăng tổn thương thứ phát |
+**3. Mục tiêu Điều trị Tiềm năng:**
+    Từ việc hiểu cơ chế này, các chiến lược điều trị trong tương lai và hiện tại đang tập trung vào:
+    *   **Điều hòa phản ứng viêm:** Sử dụng thuốc kháng viêm (steroid, NSAIDs – cần thận trọng) hoặc các tác nhân điều biến miễn dịch để kiểm soát phản ứng viêm quá mức.
+    *   **Chống oxy hóa:** Sử dụng các chất chống oxy hóa để trung hòa gốc tự do, bảo vệ tế bào thần kinh.
+    *   **Bảo vệ hàng rào máu não:** Các liệu pháp nhằm duy trì tính toàn vẹn của hàng rào máu não để ngăn chặn các chất gây hại xâm nhập vào não.
+    *   **Kiểm soát phù não và áp lực nội sọ:** Các phương pháp điều trị nhằm giảm phù não và duy trì áp lực nội sọ trong giới hạn bình thường là ưu tiên hàng đầu trong giai đoạn cấp.
+Việc nghiên cứu và phát triển các liệu pháp nhắm mục tiêu vào các con đường viêm cụ thể đang là một hướng đi đầy hứa hẹn để cải thiện tiên lượng cho bệnh nhân TBI.</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp kiến thức y học thực chứng và tư vấn phát triển chuyên môn liên tục cho các bác sĩ và sinh viên.</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Tại sao phục hồi chức năng lại đặc biệt quan trọng sau Chấn thương Sọ não (TBI), và những thách thức lớn nhất trong việc phát triển các liệu pháp điều trị hiệu quả cho TBI hiện nay là gì?</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ tương lai và đồng nghiệp, phục hồi chức năng (PHCN) sau Chấn thương Sọ não (TBI) không chỉ quan trọng mà còn là yếu tố quyết định chất lượng cuộc sống của bệnh nhân về lâu dài. Dưới đây là những lý do cốt lõi và các thách thức mà chúng ta đang đối mặt:
+**1. Tầm quan trọng của Phục hồi chức năng sau TBI:**
+    *   **Khôi phục tối đa chức năng:** TBI, dù nặng hay nhẹ, đều có thể gây ra những tổn thương sâu sắc và kéo dài ảnh hưởng đến chức năng thể chất, nhận thức, cảm xúc và hành vi. PHCN có vai trò tối đa hóa khả năng phục hồi chức năng còn lại, giúp bệnh nhân lấy lại sự độc lập trong các hoạt động hàng ngày.
+    *   **Giảm thiểu di chứng:** Các di chứng như đau đầu (R51), trầm cảm (F32.9), suy giảm trí nhớ, hoặc sa sút trí tuệ (F03) là phổ biến. PHCN giúp quản lý và giảm nhẹ các triệu chứng này, ngăn ngừa sự tiến triển và cải thiện khả năng thích nghi.
+    *   **Nâng cao chất lượng cuộc sống:** Mục tiêu cuối cùng là giúp bệnh nhân tái hòa nhập cộng đồng, trở lại công việc, học tập hoặc duy trì các mối quan hệ xã hội. PHCN toàn diện (vật lý trị liệu, hoạt động trị liệu, ngôn ngữ trị liệu, tâm lý trị liệu, phục hồi chức năng nhận thức) là chìa khóa để đạt được điều này.
+    *   **Giảm gánh nặng cho gia đình và xã hội:** Một chương trình PHCN hiệu quả không chỉ mang lại lợi ích cho bệnh nhân mà còn giảm bớt gánh nặng chăm sóc cho gia đình và chi phí y tế dài hạn cho xã hội.
+**2. Những thách thức trong phát triển liệu pháp điều trị TBI hiệu quả:**
+    Mặc dù công nghệ y tế hiện đại đã có những bước tiến, việc quản lý TBI vẫn còn nhiều hạn chế, chủ yếu do:
+    *   **Tính không đồng nhất của chấn thương (Heterogeneity):** Đây là thách thức lớn nhất. TBI không phải là một bệnh duy nhất mà là một phổ rộng các tổn thương với nhiều biến thể:
+        *   **Vị trí tổn thương:** Tổn thương có thể khu trú (S06.3) hoặc lan tỏa (S06.2), ảnh hưởng đến các vùng não khác nhau với chức năng chuyên biệt.
+        *   **Mức độ nghiêm trọng:** Từ chấn động não nhẹ (S06.0) đến tổn thương nặng có hôn mê kéo dài (S06.7), tiên lượng và nhu cầu điều trị rất khác nhau.
+        *   **Độ tuổi bệnh nhân:** Phản ứng của não bộ với chấn thương và khả năng phục hồi rất khác nhau giữa trẻ em, người trưởng thành và người cao tuổi.
+        *   **Bệnh lý nền đi kèm (Comorbidities):** Các bệnh lý như tiểu đường, tim mạch, hoặc rối loạn thần kinh khác có thể làm phức tạp thêm quá trình bệnh lý và hồi phục.
+    *   **Cơ chế bệnh sinh phức tạp:** Như đã thảo luận, TBI gây ra một chuỗi các sự kiện sinh hóa và phân tử phức tạp (viêm, oxy hóa, độc tính tế bào). Việc nhắm mục tiêu vào một khía cạnh có thể không đủ để đảo ngược toàn bộ quá trình tổn thương thứ phát.
+    *   **Thiếu các dấu ấn sinh học rõ ràng:** Hiện tại, chúng ta vẫn thiếu các dấu ấn sinh học đáng tin cậy để dự đoán chính xác tiên lượng, theo dõi tiến triển bệnh, hoặc đánh giá hiệu quả của các can thiệp mới.
+    *   **Khó khăn trong thiết kế thử nghiệm lâm sàng:** Do tính không đồng nhất của TBI, việc thiết kế các nghiên cứu lâm sàng với tiêu chí rõ ràng và cỡ mẫu phù hợp để chứng minh hiệu quả của một liệu pháp cụ thể là rất khó khăn.
+Những thách thức này đòi hỏi chúng ta phải tiếp cận TBI một cách cá thể hóa hơn, kết hợp nhiều phương pháp điều trị và phục hồi chức năng, đồng thời tiếp tục nghiên cứu sâu rộng để tìm ra các giải pháp đột phá trong tương lai.</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt về tiêu chí lựa chọn bệnh nhân trong nghiên cứu và ứng dụng lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Trong một nghiên cứu lâm sàng về chấn thương sọ não (TBI) và điều trị tế bào gốc, việc loại trừ bệnh nhân dựa trên các tiêu chí như 'GCS ≤8 điểm', 'tiền sử bệnh lý tự miễn', hay 'sử dụng thuốc kháng viêm thường xuyên' có ý nghĩa lâm sàng và khoa học gì? Các bác sĩ lâm sàng cần lưu ý gì khi áp dụng các tiêu chí này để đảm bảo tính chính xác và an toàn cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc hiểu rõ các tiêu chí loại trừ bệnh nhân là vô cùng quan trọng đối với một bác sĩ lâm sàng hoặc nhà nghiên cứu, đặc biệt trong các nghiên cứu phức tạp như điều trị tế bào gốc cho chấn thương sọ não (TBI). Dưới đây là những điểm cốt lõi bạn cần nắm vững:
+*   **Ý nghĩa lâm sàng và khoa học của các tiêu chí loại trừ:**
+    *   **GCS ≤8 điểm (Chấn thương sọ não nặng):** Việc loại trừ bệnh nhân TBI nặng thường nhằm tập trung vào một nhóm bệnh nhân có tiên lượng và đáp ứng điều trị tương đối đồng nhất hơn. Bệnh nhân TBI nặng (theo ICD-10, ví dụ S06.x0) có nhiều biến chứng phức tạp, dễ tử vong, và khả năng đáp ứng với liệu pháp mới có thể khác biệt hoàn toàn so với TBI trung bình hoặc nhẹ. Điều này giúp kiểm soát các yếu tố nhiễu và đánh giá hiệu quả của can thiệp một cách rõ ràng hơn.
+    *   **Tổn thương cơ quan nội tạng khác kèm theo, tiền sử bệnh lý tự miễn hoặc bệnh lý thần kinh ngoại biên:** Những tình trạng này có thể ảnh hưởng đến kết quả của liệu pháp tế bào gốc. Ví dụ, bệnh tự miễn có thể gây ra phản ứng miễn dịch với tế bào gốc hoặc ảnh hưởng đến khả năng tái tạo của cơ thể. Tổn thương đa cơ quan làm phức tạp hóa quá trình điều trị và đánh giá hiệu quả.
+    *   **Các bệnh lý nền mạn tính (ví dụ: suy giảm nhận thức, viêm mạn tính, u ác tính, bệnh gan mạn tính):** Tương tự, các bệnh lý nền này có thể là yếu tố gây nhiễu, ảnh hưởng đến khả năng phục hồi của bệnh nhân hoặc làm tăng nguy cơ biến chứng khi áp dụng liệu pháp mới. Đặc biệt, u ác tính là một chống chỉ định tuyệt đối do nguy cơ tế bào gốc có thể thúc đẩy sự phát triển của khối u.
+    *   **Sử dụng thuốc kháng viêm thường xuyên:** Các thuốc này có thể tương tác với cơ chế hoạt động của tế bào gốc (ví dụ, MSC có tác dụng điều hòa miễn dịch và chống viêm). Việc sử dụng các thuốc kháng viêm có thể làm sai lệch kết quả nghiên cứu hoặc giảm hiệu quả của liệu pháp.
+    *   **Có thai hoặc có khả năng có thai:** Là một tiêu chí loại trừ đạo đức và an toàn cơ bản trong hầu hết các nghiên cứu lâm sàng, nhằm bảo vệ thai nhi khỏi những nguy cơ tiềm ẩn của can thiệp mới.
+*   **Lưu ý quan trọng cho bác sĩ lâm sàng:**
+    *   **Hiểu rõ cơ sở lý luận:** Luôn phải hiểu *tại sao* một tiêu chí được đặt ra. Điều này giúp bạn áp dụng linh hoạt trong các tình huống lâm sàng thực tế và đưa ra quyết định phù hợp nhất cho bệnh nhân.
+    *   **Đánh giá toàn diện bệnh nhân:** Không chỉ dựa vào một tiêu chí đơn lẻ mà cần có cái nhìn tổng thể về tình trạng bệnh nhân, các bệnh lý đi kèm và các thuốc đang sử dụng.
+    *   **Tuân thủ quy trình nghiên cứu:** Nếu tham gia nghiên cứu, việc tuân thủ nghiêm ngặt các tiêu chí lựa chọn/loại trừ là bắt buộc để đảm bảo tính khoa học và đạo đức của nghiên cứu.
+    *   **Ghi chép chính xác:** Mọi quyết định loại trừ hoặc đưa bệnh nhân vào nghiên cứu cần được ghi chép rõ ràng, minh bạch, có lý do cụ thể.
+    *   **Đạo đức y học:** Luôn đặt lợi ích và sự an toàn của bệnh nhân lên hàng đầu, ngay cả khi điều đó có nghĩa là loại trừ họ khỏi một cơ hội điều trị tiềm năng nhưng không phù hợp.</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị Chấn thương sọ não (TBI) theo Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Cung cấp kiến thức toàn diện về chẩn đoán, phân loại (bao gồm sử dụng thang điểm GCS - Glasgow Coma Scale), và các phương pháp điều trị hiện hành cho chấn thương sọ não (Mã ICD-10 S06.x), giúp các bác sĩ trẻ đưa ra quyết định lâm sàng chính xác và tuân thủ các quy định y tế quốc gia.</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Quản lý Bệnh nhân Chấn thương Sọ não Nặng và Nguyên tắc Lựa chọn Đối tượng Nghiên cứu Lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào đánh giá lâm sàng chuyên sâu, phân loại TBI theo GCS và hướng dẫn áp dụng các tiêu chí lựa chọn/loại trừ bệnh nhân trong các thử nghiệm lâm sàng, đặc biệt với các liệu pháp tiên tiến như tế bào gốc, nhằm đảm bảo an toàn bệnh nhân và tính khoa học của nghiên cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hướng dẫn các kỹ thuật y tế chuyên sâu, đặc biệt là thu thập mẫu tủy xương an toàn và hiệu quả cho mục đích chẩn đoán hoặc điều trị.</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ hoặc sinh viên y khoa, em cần chuẩn bị và thực hiện quy trình lấy tủy xương từ vị trí xương chậu trước như thế nào để đảm bảo an toàn, hiệu quả, giảm thiểu nguy cơ sai sót và tối ưu hóa chất lượng mẫu tủy, đặc biệt là nhằm thu thập tế bào gốc trung mô như đoạn văn đã mô tả?</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Chào bạn, quy trình lấy tủy xương (Bone Marrow Aspiration - BMA) là một kỹ thuật quan trọng, đòi hỏi sự tỉ mỉ và tuân thủ nghiêm ngặt các nguyên tắc. Khi thực hiện tại vị trí xương chậu trước, bạn cần đặc biệt chú ý đến những điểm sau để đảm bảo an toàn và chất lượng mẫu:
+1.  **Chuẩn bị trước thủ thuật:**
+    *   **Giải thích và đồng thuận:** Đảm bảo bệnh nhân (hoặc người giám hộ) hiểu rõ về quy trình, lợi ích, rủi ro và ký vào giấy đồng thuận có giải thích. Đây là nguyên tắc đạo đức y học tối thiểu.
+    *   **Đánh giá bệnh nhân:** Kiểm tra tiền sử dị ứng (đặc biệt là với thuốc tê), các bệnh lý nền, thuốc đang sử dụng (đặc biệt là thuốc chống đông máu), và các xét nghiệm đông máu cơ bản.
+    *   **Vị trí bệnh nhân:** Đặt bệnh nhân ở tư thế nằm ngửa thoải mái. Vị trí xương chậu trước (anterior superior iliac spine - ASIS) thường được lựa chọn, bạn cần sờ nắn để xác định chính xác điểm mốc giải phẫu.
+    *   **Chuẩn bị dụng cụ:** Chuẩn bị đầy đủ bộ dụng cụ vô khuẩn bao gồm: kim chọc tủy xương (thường là kim Jamshidi hoặc tương đương), bơm tiêm (10-20ml), thuốc tê (Lidocaine 1-2%), gạc, dung dịch sát khuẩn, ống đựng mẫu có chất chống đông (ví dụ EDTA hoặc Heparin) nếu cần cho phân tích huyết học/tế bào gốc.
+    *   **Giám sát:** Như đoạn văn đề cập, việc kiểm tra huyết áp, nhịp tim, độ bão hòa oxy và áp lực nội sọ (nếu có chỉ định liên quan đến tình trạng bệnh lý não) mỗi 5 phút trong 1 giờ đầu tiên là cực kỳ quan trọng để phát hiện sớm các biến chứng như tụt huyết áp do phản xạ phế vị hoặc chảy máu.
+2.  **Thực hiện thủ thuật (Dưới điều kiện vô trùng tuyệt đối):**
+    *   **Vô trùng:** Sát khuẩn vùng chọc hút bằng dung dịch Povidone-Iodine hoặc Chlorhexidine, trải khăn vô khuẩn. Đây là bước then chốt để phòng ngừa nhiễm trùng.
+    *   **Gây tê:** Tiêm thuốc tê tại chỗ vào da, mô dưới da và màng xương. Đợi đủ thời gian để thuốc tê phát huy tác dụng.
+    *   **Xác định vị trí:** Xác định lại vị trí ASIS. Kim chọc tủy thường được đưa vào phía sau-ngoài của ASIS.
+    *   **Chọc kim:** Đưa kim chọc tủy qua da và mô dưới da, xoay nhẹ kim để đi qua vỏ xương. Cảm nhận sự thay đổi điện trở khi kim xuyên qua xương xốp.
+    *   **Hút tủy:** Khi đầu kim nằm trong khoang tủy, tháo nòng kim, gắn bơm tiêm vào và hút nhẹ nhàng khoảng 0.5 - 1 ml tủy. Lượng tủy ít giúp tránh lẫn máu ngoại vi, như đoạn văn đề cập về việc "hạn chế nhầm lẫn máu ngoại vi". **Đặc biệt, việc thực hiện 3-6 vị trí hút trên xương chậu, mỗi lần hút một lượng nhỏ, giúp tăng cường thu hồi tế bào tủy và tối ưu hóa số lượng tế bào gốc thu được mà không bị pha loãng bởi máu ngoại vi.**
+    *   **Thu thập mẫu:** Hút mẫu vào ống nghiệm đã chuẩn bị.
+3.  **Sau thủ thuật:**
+    *   **Rút kim:** Rút kim ra một cách cẩn thận.
+    *   **Ép và băng bó:** Dùng gạc vô trùng ép chặt lên vị trí chọc hút trong vài phút để cầm máu, sau đó băng ép.
+    *   **Theo dõi:** Tiếp tục theo dõi bệnh nhân trong vài giờ sau đó về dấu hiệu sinh tồn, tình trạng chảy máu tại chỗ và cảm giác đau.
+    *   **Ghi chép:** Ghi chép đầy đủ về quy trình, lượng tủy hút, bất kỳ biến chứng nào và tình trạng bệnh nhân.
+**Để cải thiện kỹ năng:** Hãy tham gia các buổi thực hành kỹ thuật trên mô hình, dưới sự giám sát của các bác sĩ có kinh nghiệm, và xem các video hướng dẫn chuẩn quy trình. Sự tự tin và thành thạo chỉ đến từ thực hành lặp lại và tuân thủ nguyên tắc.</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Thực hành Quy trình Chọc Hút Tủy Xương (Bone Marrow Aspiration) và Sinh thiết Tủy Xương.</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp kiến thức và hướng dẫn từng bước chi tiết về kỹ thuật chọc hút và sinh thiết tủy xương, bao gồm chuẩn bị bệnh nhân, lựa chọn vị trí chọc, dụng cụ, quy trình thực hiện, xử trí biến chứng, và các tiêu chuẩn về an toàn, vô trùng.</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Chọc Hút và Sinh thiết Tủy Xương An toàn và Hiệu quả trong Lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Khóa học đào tạo y khoa liên tục (CME) với các buổi thực hành trên mô hình và bệnh nhân giả định, giúp bác sĩ và sinh viên y khoa nắm vững các kỹ năng cần thiết để thực hiện quy trình chọc hút và sinh thiết tủy xương một cách an toàn, chính xác, giảm thiểu biến chứng, và tối ưu hóa chất lượng mẫu cho mục đích chẩn đoán và nghiên cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên và bác sĩ trong lĩnh vực nuôi cấy tế bào gốc trung mô (MSC) và các phương pháp kiểm định chất lượng theo tiêu chuẩn phòng thí nghiệm y sinh.</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Để nuôi cấy và kiểm định tế bào gốc trung mô (MSC) sau khi phân lập từ tủy xương theo quy trình như đoạn văn mô tả, các bác sĩ hoặc nhà nghiên cứu trẻ cần lưu ý những nguyên tắc cơ bản nào về môi trường, điều kiện nuôi cấy, và cách xác định tính đa tiềm năng của MSC để đảm bảo chất lượng, độ tinh sạch và độ tin cậy của tế bào cho ứng dụng lâm sàng hoặc nghiên cứu sâu hơn?</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Chào bạn, nuôi cấy và kiểm định tế bào gốc trung mô (MSC) là một kỹ thuật tinh vi, đòi hỏi sự chính xác và tuân thủ nghiêm ngặt các quy trình để đảm bảo chất lượng tế bào. Dưới đây là những nguyên tắc cốt lõi bạn cần nắm vững:
+*   **1. Phân lập tế bào đơn nhân (Mononuclear Cell Isolation):**
+    *   **Nguyên tắc:** Sử dụng phương pháp ly tâm gradient tỷ trọng (density gradient centrifugation) với Ficoll-Paque Plus là tiêu chuẩn vàng. Phương pháp này dựa trên sự khác biệt về tỷ trọng của các loại tế bào để tách riêng tế bào đơn nhân (bao gồm MSC) khỏi hồng cầu, bạch cầu hạt và huyết tương.
+    *   **Lưu ý:**
+        *   Đảm bảo tỷ lệ pha loãng dịch tủy xương với PBS là chính xác để tối ưu hóa quá trình tách.
+        *   Sử dụng lọc 100µm để loại bỏ mảnh xương hoặc cục máu đông nhỏ, tránh làm tắc nghẽn hoặc ảnh hưởng đến quá trình ly tâm.
+        *   Tốc độ và thời gian ly tâm (400 x g trong 20 phút) rất quan trọng để tạo ra vòng 'Buffy coat' chứa tế bào đơn nhân.
+*   **2. Nuôi cấy và tăng sinh tế bào gốc trung mô (MSC Proliferation):**
+    *   **Nguyên tắc:** MSC là tế bào bám dính, có khả năng tăng sinh và biệt hóa. Môi trường nuôi cấy cần tối ưu hóa để thúc đẩy sự tăng trưởng của MSC và duy trì tính đa tiềm năng.
+    *   **Điều kiện nuôi cấy lý tưởng:**
+        *   **Môi trường:** Sử dụng môi trường chuyên biệt như Stem MACS Cardiac Cultivation Medium XF kèm 10% huyết thanh thai bò (FBS) và 1% penicillin-streptomycin. FBS cung cấp yếu tố tăng trưởng, penicillin-streptomycin ngăn ngừa nhiễm khuẩn.
+        *   **Mật độ tế bào ban đầu:** Mật độ 5x10&lt;sup&gt;4&lt;/sup&gt; tế bào/cm&lt;sup&gt;2&lt;/sup&gt; là mật độ tối ưu, đảm bảo tế bào có đủ không gian để bám dính và tăng sinh mà không bị ức chế tiếp xúc quá sớm.
+        *   **Điều kiện môi trường:** 37°C, 5% CO&lt;sub&gt;2&lt;/sub&gt; và độ ẩm 95% là các điều kiện tiêu chuẩn mô phỏng môi trường sinh lý.
+        *   **Loại bỏ tế bào không bám dính:** Sau 24-36 giờ, cần thay môi trường mới để loại bỏ các tế bào không bám dính (chủ yếu là tế bào máu), giúp tăng độ tinh sạch của quần thể MSC.
+        *   **Passage (chuyển thế hệ):** Khi tế bào đạt 80-90% độ phủ đáy (confluence), cần tách tế bào bằng Trypsin/EDTA 0.25% và chuyển sang bình mới. Việc này giúp duy trì khả năng tăng sinh và tránh tình trạng 'senescence' (lão hóa tế bào) do nuôi cấy quá lâu hoặc quá mật độ.
+*   **3. Kiểm định tính đa tiềm năng của MSC (Multipotential Markers Screening):**
+    *   **Nguyên tắc:** Để xác nhận tế bào thu được thực sự là MSC có tính đa tiềm năng, cần kiểm tra sự biểu hiện của các dấu ấn đặc trưng. Đoạn văn đề cập đến Octamer-binding transcription factor 4 (Oct4) và Nanog.
+    *   **Kỹ thuật:** Phương pháp miễn dịch huỳnh quang (immunofluorescence staining) được sử dụng để phát hiện các protein này.
+        *   **Cố định tế bào:** Với paraformaldehyde 4% để bảo toàn cấu trúc tế bào và protein.
+        *   **Chặn (Blocking):** Sử dụng bovine serum albumin (BSA) để ngăn chặn các kháng thể gắn không đặc hiệu, giảm tín hiệu nền.
+        *   **Ủ kháng thể sơ cấp (Primary antibody):** Chống lại Nanog và Oct4 (ví dụ, tỷ lệ pha loãng 1:1,000).
+        *   **Rửa:** Với PBS để loại bỏ kháng thể không gắn.
+        *   **Ủ kháng thể thứ cấp (Secondary antibody):** Gắn với kháng thể sơ cấp và mang theo chất phát huỳnh quang (ví dụ, kháng thể thứ cấp chống thỏ với tỷ lệ 1:200).
+        *   **Quan sát:** Dưới kính hiển vi huỳnh quang để phát hiện tín hiệu dương tính.
+**Bảng tóm tắt một số yếu tố quan trọng trong nuôi cấy và kiểm định MSC:**
+| Giai đoạn                  | Yếu tố cần lưu ý                      | Mục tiêu                                                                 |
+| :------------------------- | :------------------------------------ | :----------------------------------------------------------------------- |
+| **Phân lập**               | Ficoll-Paque, Tốc độ ly tâm           | Tách tế bào đơn nhân, loại bỏ hồng cầu                                   |
+| **Nuôi cấy**               | Môi trường, FBS, P/S, Mật độ, CO2, Độ ẩm | Tối ưu hóa tăng sinh, duy trì tính đa tiềm năng, tránh nhiễm khuẩn       |
+| **Passage**                | Trypsin/EDTA, Độ phủ đáy 80-90%       | Mở rộng số lượng tế bào, duy trì sức sống                                |
+| **Kiểm định đa tiềm năng** | Oct4, Nanog, Miễn dịch huỳnh quang   | Xác nhận đặc tính tế bào gốc, đảm bảo chất lượng cho ứng dụng           |
+**Để cải thiện kiến thức và kỹ năng:**
+*   Thực hành trong phòng thí nghiệm dưới sự hướng dẫn của các nhà khoa học có kinh nghiệm.
+*   Đọc và nghiên cứu các SOP (Standard Operating Procedures) về nuôi cấy tế bào gốc được công bố bởi các tổ chức uy tín.
+*   Tham gia các khóa đào tạo thực hành chuyên sâu về công nghệ tế bào gốc.</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Quy trình Nuôi cấy và Đặc điểm Hóa Tế bào Gốc Trung Mô (MSC) theo tiêu chuẩn ISO/GLP.</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp hướng dẫn chi tiết về các bước nuôi cấy MSC từ phân lập, mở rộng, đến bảo quản, cùng với các phương pháp kiểm định chất lượng tế bào (xét nghiệm dấu ấn bề mặt, phân tích khả năng biệt hóa, xét nghiệm đa tiềm năng Oct4, Nanog), đảm bảo tuân thủ các tiêu chuẩn quốc tế cho nghiên cứu và ứng dụng lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Nuôi cấy Tế bào Gốc và Quy trình Kiểm định Chất lượng Tiêu chuẩn.</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Khóa học CME thực hành chuyên sâu, được thiết kế để trang bị cho các nhà nghiên cứu và bác sĩ các kỹ năng cần thiết trong nuôi cấy và quản lý tế bào gốc trung mô. Nội dung bao gồm các phương pháp phân lập, mở rộng quy mô, kiểm tra chất lượng bằng các dấu ấn Oct4, Nanog, và đảm bảo an toàn sinh học trong phòng thí nghiệm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt hướng dẫn bác sĩ trẻ và sinh viên y khoa cách tiếp cận và xử lý tình huống lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Đối với các bác sĩ trẻ và sinh viên y khoa, xin hãy giải thích ý nghĩa và cách ứng dụng của các thang điểm đánh giá bệnh nhân như Glasgow Coma Scale (GCS), Barthel Index (BI) và National Institute of Health Stroke Scale (NIHSS) trong thực hành lâm sàng, đặc biệt trong bối cảnh điều trị và theo dõi bệnh nhân sau can thiệp tế bào gốc hoặc các bệnh lý thần kinh cấp tính.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Chào các bạn đồng nghiệp trẻ và sinh viên y khoa! Việc nắm vững và áp dụng các thang điểm đánh giá bệnh nhân là kỹ năng then chốt trong thực hành lâm sàng, giúp chúng ta có cái nhìn khách quan, định lượng về tình trạng bệnh nhân và đưa ra quyết định điều trị phù hợp. Trong bối cảnh ghép tế bào gốc hoặc các bệnh lý thần kinh, các thang điểm này càng trở nên quan trọng. 
+Dưới đây là hướng dẫn chi tiết về ba thang điểm chính mà các bạn cần lưu ý:
+*   **Glasgow Coma Scale (GCS): Đánh giá Mức độ Ý thức**
+    *   **Ý nghĩa**: GCS là thang điểm tiêu chuẩn vàng để đánh giá mức độ ý thức của bệnh nhân, đặc biệt hữu ích trong các trường hợp chấn thương sọ não, đột quỵ, hoặc hôn mê do nhiều nguyên nhân. Nó giúp định lượng mức độ suy giảm ý thức và theo dõi diễn biến. 
+    *   **Ứng dụng**: 
+        *   Đánh giá ban đầu tại khoa cấp cứu để phân loại mức độ nặng.
+        *   Theo dõi liên tục tại ICU hoặc các khoa thần kinh để phát hiện sớm các thay đổi, giúp điều chỉnh điều trị kịp thời.
+        *   Dự đoán tiên lượng, đặc biệt trong chấn thương sọ não (GCS ≤ 8 thường được coi là hôn mê nặng).
+    *   **Cách tính điểm**: Bao gồm 3 tiêu chí: Mở mắt (Eye opening), Đáp ứng lời nói (Verbal response), và Đáp ứng vận động (Motor response). Tổng điểm từ 3 (hôn mê sâu hoặc tử vong) đến 15 (tỉnh táo hoàn toàn). 
+    | Mức độ Nặng | Điểm GCS | Mô tả                                  |
+    | :---------- | :------- | :------------------------------------- |
+    | Nặng        | ≤ 8      | Hôn mê sâu                              |
+    | Trung bình  | 9 - 12   | Suy giảm ý thức mức độ trung bình        |
+    | Nhẹ         | ≥ 13     | Tỉnh táo hoặc suy giảm ý thức nhẹ       |
+*   **Barthel Index (BI): Đánh giá Mức độ Độc lập Chức năng**
+    *   **Ý nghĩa**: BI là công cụ đơn giản nhưng hiệu quả để đánh giá khả năng thực hiện các hoạt động sinh hoạt hàng ngày (ADLs) của bệnh nhân. Nó giúp đánh giá mức độ tự chủ của bệnh nhân có rối loạn thần kinh hoặc cơ xương khớp, từ đó định hướng kế hoạch phục hồi chức năng. 
+    *   **Ứng dụng**: 
+        *   Đánh giá tại thời điểm nhập viện và sau khi ghép tế bào (hoặc can thiệp khác) để định lượng sự cải thiện chức năng theo thời gian.
+        *   Lập kế hoạch phục hồi chức năng cá nhân hóa.
+        *   Đánh giá hiệu quả của các liệu pháp điều trị và phục hồi chức năng.
+    *   **Cách tính điểm**: Đánh giá 10 hoạt động cơ bản (ăn uống, tắm rửa, vệ sinh cá nhân, mặc quần áo, đại tiện, tiểu tiện, sử dụng nhà vệ sinh, di chuyển từ giường/ghế, đi lại, lên/xuống cầu thang). Tổng điểm từ 0 (phụ thuộc hoàn toàn) đến 100 (độc lập hoàn toàn).
+*   **National Institute of Health Stroke Scale (NIHSS): Đánh giá Mức độ Nặng của Đột quỵ**
+    *   **Ý nghĩa**: NIHSS là một thang điểm đánh giá thần kinh nhanh chóng và đáng tin cậy, được thiết kế đặc biệt để định lượng các triệu chứng và mức độ nặng của đột quỵ. Đây là công cụ quan trọng trong quyết định điều trị tái tưới máu (ví dụ: tiêu sợi huyết) và theo dõi diễn biến bệnh. 
+    *   **Ứng dụng**: 
+        *   Đánh giá tình trạng thần kinh của bệnh nhân đột quỵ tại thời điểm nhập viện, trước khi ghép tế bào hoặc truyền tế bào. 
+        *   Theo dõi sự thay đổi của tình trạng thần kinh sau can thiệp ở các mốc thời gian cụ thể (1, 3, 7, 30 và 60 ngày) để đánh giá hiệu quả điều trị và tiên lượng.
+        *   Giúp bác sĩ lâm sàng và nghiên cứu viên chuẩn hóa việc đánh giá và so sánh kết quả điều trị.
+    *   **Cách tính điểm**: Đánh giá nhiều khía cạnh chức năng thần kinh như mức độ ý thức, thị trường, vận nhãn, liệt mặt, vận động tứ chi, mất điều hòa, cảm giác, ngôn ngữ, và rối loạn phát âm. Tổng điểm từ 0 (không có dấu hiệu đột quỵ) đến 42 (mức độ nặng nhất).
+**Lời khuyên cho các bạn**: Hãy thực hành sử dụng các thang điểm này thường xuyên trên lâm sàng. Việc ghi nhận và diễn giải chính xác giúp chúng ta không chỉ theo dõi sát sao bệnh nhân mà còn cung cấp dữ liệu khách quan cho hồ sơ bệnh án, phục vụ cho việc mã hóa bệnh theo ICD-10 một cách chính xác, góp phần vào quản lý bệnh án và nghiên cứu khoa học hiệu quả hơn.</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Sổ tay Lâm sàng Các Thang điểm Đánh giá Thần kinh và Chức năng</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn chi tiết về cấu trúc, cách thực hiện và diễn giải các thang điểm đánh giá thần kinh và chức năng phổ biến như GCS, Barthel Index, và NIHSS, rất cần thiết cho việc chuẩn hóa quy trình đánh giá bệnh nhân trong lâm sàng và nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Ứng dụng Các Thang điểm Đánh giá trong Chẩn đoán và Theo dõi Bệnh Thần kinh</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào việc nâng cao kỹ năng thực hành cho bác sĩ và sinh viên y khoa trong việc lựa chọn, áp dụng và diễn giải các thang điểm lâm sàng quan trọng. Học viên sẽ được trang bị kiến thức chuyên sâu để tối ưu hóa việc theo dõi diễn biến và đánh giá hiệu quả điều trị cho bệnh nhân mắc các bệnh lý thần kinh và sau ghép tế bào.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ đào tạo và phát triển năng lực chuyên môn cho các bác sĩ trẻ, sinh viên y khoa bằng cách cung cấp thông tin chính xác và khuyến nghị dựa trên chuẩn y khoa quốc tế.</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Trong lĩnh vực ghép tế bào gốc, làm thế nào để các bác sĩ trẻ và nghiên cứu viên có thể đánh giá chất lượng tế bào gốc trước khi cấy ghép, và tại sao việc này lại mang ý nghĩa sống còn đối với sự an toàn và hiệu quả điều trị cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Các bạn thân mến, việc đánh giá chất lượng tế bào gốc trước khi cấy ghép là một bước cực kỳ quan trọng, quyết định trực tiếp đến sự an toàn của bệnh nhân và thành công của liệu pháp. Một sai sót trong khâu này có thể dẫn đến nhiễm trùng, phản ứng miễn dịch không mong muốn hoặc thất bại điều trị. Dưới đây là các tiêu chí và phương pháp đánh giá chủ chốt mà các bạn cần nắm vững:
+1.  **Tiêu chí Tế bào Ghép (Graft Cell Criteria):**
+    *   **Nồng độ nội độc tố (Endotoxin concentration &lt; 5.0 EU/mL):** Nội độc tố là lipopolysaccharide (LPS) từ thành tế bào vi khuẩn Gram âm, có thể gây ra phản ứng viêm toàn thân nghiêm trọng, sốc nhiễm độc. Việc kiểm tra nồng độ nội độc tố là bắt buộc để đảm bảo an toàn cho bệnh nhân.
+    *   **Âm tính với nhuộm Gram và các vi sinh vật khác:** Đảm bảo không có sự hiện diện của vi khuẩn (cả Gram dương và Gram âm), nấm hoặc các mầm bệnh khác trong mẫu tế bào. Đây là tiêu chuẩn cơ bản để phòng ngừa nhiễm trùng huyết sau ghép.
+    *   **Tỷ lệ tế bào sống (Ratio of living cells &gt; 90%):** Tế bào sống là yếu tố quyết định khả năng tích hợp, biệt hóa và chức năng của tế bào ghép. Tỷ lệ tế bào sống cao cho thấy quá trình thu thập, xử lý và bảo quản tế bào được thực hiện tốt.
+    *   **Âm tính với mycoplasma:** Mycoplasma là một loại vi khuẩn nhỏ không có thành tế bào, thường gây nhiễm bẩn âm thầm trong nuôi cấy tế bào, làm thay đổi đặc tính tế bào và ảnh hưởng đến kết quả điều trị. Phát hiện và loại trừ mycoplasma là rất cần thiết.
+    *   **Khả năng tạo cụm CFU-F (CFU-F clusters) và phân tích dòng tế bào (Cell flow analysis):** Đây là hai phương pháp đánh giá chức năng và đặc tính của tế bào gốc trung mô.
+2.  **Đánh giá Đơn vị Hình thành Khuẩn lạc – Fibroblast (CFU-F):**
+    *   **Mục đích:** Thử nghiệm sinh học tế bào này dùng để đánh giá khả năng tạo cụm (colony-forming ability) của tế bào gốc trung mô (MSC), một đặc tính quan trọng của tế bào gốc. Khả năng này phản ánh tiềm năng tự làm mới và biệt hóa của MSC.
+    *   **Quy trình:** Tế bào được nuôi cấy trong bình T-flask với mật độ xác định (ví dụ: 3x10^4 tế bào/cm^2) ở điều kiện tối ưu (37°C, 5% CO2, 95% độ ẩm). Sau 10-14 ngày, các cụm tế bào được nhuộm Giemsa và đếm. Một cụm CFU-F được định nghĩa là một cụm có đường kính khoảng 1-8mm với hơn 50 tế bào.
+    *   **Tầm quan trọng:** Đảm bảo tế bào được cấy ghép có khả năng 'bám rễ' và phát triển trong cơ thể bệnh nhân.
+3.  **Phân tích Tế bào bằng Dòng chảy (Flow Cytometry):**
+    *   **Mục đích:** Đánh giá chất lượng và định danh tế bào dựa trên các dấu ấn bề mặt (surface markers) bằng máy FACS Canto II.
+    *   **Ứng dụng:**
+        *   **Đối với tế bào đơn nhân (Mononuclear cells) sau chọc hút tủy xương:** Nhuộm với kháng thể đơn dòng CD34 và CD45. CD34 là dấu ấn của tế bào gốc tạo máu, trong khi CD45 là dấu ấn chung của tế bào tạo máu.
+        *   **Đối với tế bào gốc trung mô (Mesenchymal Stem Cells - MSCs) sau nuôi cấy:** Nhuộm với kháng thể đơn dòng CD45 (âm tính), CD73, CD90 và CD105 (dương tính). Các dấu ấn dương tính (CD73, CD90, CD105) khẳng định tính chất MSC, trong khi CD45 âm tính loại trừ tế bào tạo máu.
+    *   **Tầm quan trọng:** Đảm bảo tế bào ghép có đúng 'bản chất' mong muốn và đạt độ tinh khiết cần thiết, tránh cấy ghép nhầm loại tế bào hoặc tế bào không đạt tiêu chuẩn.
+Việc tuân thủ nghiêm ngặt các tiêu chí và phương pháp đánh giá này không chỉ là yêu cầu khoa học mà còn là trách nhiệm đạo đức của người thầy thuốc. Hãy luôn đặt an toàn và lợi ích của bệnh nhân lên hàng đầu, thực hiện kiểm soát chất lượng một cách tỉ mỉ và chính xác.</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Thực hành Tốt (GMP) trong Sản xuất Tế bào Gốc cho Ứng dụng Lâm sàng</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn quốc tế về quy trình sản xuất, kiểm soát chất lượng và thử nghiệm tế bào gốc để đảm bảo an toàn, hiệu quả và tính nhất quán của sản phẩm tế bào dùng trong điều trị lâm sàng. Đây là tài liệu tham khảo không thể thiếu cho các nhà khoa học và bác sĩ làm việc trong lĩnh vực này.</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Kiểm soát Chất lượng và Định danh Tế bào Gốc cho Ứng dụng Y học Tái tạo</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ trang bị cho học viên những kiến thức và kỹ năng thực hành tiên tiến nhất trong việc đánh giá chất lượng tế bào gốc. Nội dung bao gồm các phương pháp thử nghiệm sinh học (CFU-F), phân tích dấu ấn bề mặt bằng dòng chảy (Flow Cytometry), và các xét nghiệm vi sinh vật học để đảm bảo sản phẩm tế bào đạt tiêu chuẩn an toàn và hiệu quả lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, đóng vai trò trợ lý học thuật chuyên ngành, cung cấp kiến thức thực hành và lý thuyết chuyên sâu về y học tái tạo cho sinh viên y khoa và bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Là một nhà nghiên cứu hoặc bác sĩ lâm sàng quan tâm đến liệu pháp tế bào gốc, xin vui lòng hướng dẫn cách đánh giá tiềm năng biệt hóa của tế bào gốc trung mô (MSCs) thành các dòng tế bào mỡ, xương, sụn, và các yếu tố kỹ thuật cần lưu ý trong quá trình nuôi cấy và phân tích kết quả.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Để đánh giá tiềm năng biệt hóa của tế bào gốc trung mô (MSCs) thành các dòng tế bào mỡ (adipogenic), xương (osteogenic) và sụn (chondrogenic), các bạn cần thực hiện các thí nghiệm biệt hóa in vitro dưới điều kiện nuôi cấy chuyên biệt. Đây là một bước kiểm tra quan trọng để xác nhận đặc tính đa tiềm năng của MSCs. Dưới đây là các bước và lưu ý quan trọng:
+**1. Đánh giá Tiềm năng Biệt hóa MSCs:**
+*   **Nguyên tắc chung:** MSCs được nuôi cấy trong môi trường nuôi cấy cơ bản đến khi đạt độ hợp nhất (confluence) nhất định (thường là 80%), sau đó được chuyển sang môi trường biệt hóa chuyên biệt cho từng dòng tế bào.
+*   **Thời gian nuôi cấy:** Thường từ 3 đến 4 tuần, với việc thay môi trường biệt hóa mỗi 3 ngày để đảm bảo cung cấp đủ dưỡng chất và loại bỏ chất thải.
+    *   **Biệt hóa thành Dòng tế bào Mỡ (Adipogenic Differentiation):**
+        *   **Môi trường:** Sử dụng môi trường biệt hóa mỡ (Adipogenesis differentiation medium), thường chứa các yếu tố như Insulin, IBMX (isobutylmethylxanthine), Dexamethasone và Rosiglitazone để thúc đẩy tích lũy lipid trong tế bào.
+        *   **Phân tích:** Sau thời gian nuôi cấy, các giọt lipid hình thành trong tế bào được phân tích bằng **nhuộm Oil Red O**. Giọt lipid sẽ bắt màu đỏ cam đặc trưng.
+    *   **Biệt hóa thành Dòng tế bào Xương (Osteogenic Differentiation):**
+        *   **Môi trường:** Sử dụng môi trường biệt hóa xương (Osteogenesis differentiation medium), thường chứa β-glycerophosphate, ascorbic acid-2-phosphate và dexamethasone để kích thích tạo ma trận ngoại bào và lắng đọng calci.
+        *   **Phân tích:** Sau thời gian nuôi cấy, sự lắng đọng calci (biểu hiện của quá trình hình thành xương) được phân tích bằng **nhuộm Alizarin Red S**. Các lắng đọng calci sẽ bắt màu đỏ cam.
+    *   **Biệt hóa thành Dòng tế bào Sụn (Chondrogenic Differentiation):**
+        *   **Môi trường:** Môi trường biệt hóa sụn thường chứa TGF-β (Transforming Growth Factor-beta), dexamethasone và ascorbic acid-2-phosphate, thường được nuôi cấy trong dạng pellet (viên tế bào nén) thay vì đơn lớp để mô phỏng môi trường 3D của sụn.
+        *   **Phân tích:** Sự hình thành ma trận sụn, đặc biệt là proteoglycan, được đánh giá bằng **nhuộm Alcian Blue** hoặc **Safranin O**. Các chất này sẽ bắt màu xanh lam hoặc đỏ, tương ứng với thành phần sụn.
+**2. Yếu tố Kỹ thuật cần lưu ý trong Nuôi cấy:**
+*   **Điều kiện nuôi cấy chuẩn:** Các thí nghiệm nên được thực hiện trong tủ ấm CO2 ở 37°C, 5% CO2 và độ ẩm 95% để duy trì pH và môi trường ổn định cho tế bào.
+*   **Tính lặp lại:** Các thí nghiệm biệt hóa nên được tiến hành ít nhất ba lần (như đoạn văn đã nêu) để đảm bảo tính xác thực và độ tin cậy của kết quả.
+*   **Kiểm soát:** Luôn có nhóm tế bào đối chứng (control group) được nuôi cấy trong môi trường cơ bản (không có yếu tố biệt hóa) để so sánh và khẳng định sự biệt hóa.
+*   **Sử dụng hóa chất và vật tư chất lượng cao:** Ví dụ, môi trường biệt hóa từ các nhà cung cấp uy tín như Miltenyi Biotec đảm bảo tính ổn định và hiệu quả.
+Việc thực hiện các assay này một cách cẩn thận và chính xác là nền tảng để đánh giá đúng tiềm năng của MSCs, từ đó giúp chúng ta lựa chọn nguồn tế bào phù hợp cho các nghiên cứu tiếp theo hoặc ứng dụng lâm sàng, tuân thủ các nguyên tắc y khoa dựa trên bằng chứng.</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Nuôi cấy và Biệt hóa Tế bào Gốc Trung mô: Hướng dẫn Chi tiết</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Cuốn sách này là một tài liệu toàn diện, cung cấp kiến thức nền tảng và các quy trình chi tiết (step-by-step protocols) về nuôi cấy, nhân rộng và biệt hóa tế bào gốc trung mô trong môi trường in vitro, rất hữu ích cho sinh viên và nhà nghiên cứu trong lĩnh vực y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Các Phương pháp Tiên tiến trong Nuôi cấy và Điều khiển Biệt hóa Tế bào Gốc</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các kỹ thuật hiện đại và tối ưu hóa quy trình trong nuôi cấy và điều khiển biệt hóa tế bào gốc thành các dòng tế bào chức năng. Học viên sẽ được cập nhật những tiến bộ mới nhất và thực hành các phương pháp phân tích, đánh giá tiềm năng biệt hóa, giúp nâng cao năng lực nghiên cứu và ứng dụng lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, tập trung vào việc hướng dẫn bác sĩ trẻ và sinh viên y khoa về đánh giá mức độ nặng đột quỵ.</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Làm thế nào để đánh giá mức độ nặng của đột quỵ một cách chuẩn xác trên lâm sàng và tầm quan trọng của việc sử dụng các thang điểm đánh giá tiêu chuẩn như thế nào?</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc đánh giá mức độ nặng của đột quỵ là một bước thiết yếu trong quản lý bệnh nhân đột quỵ cấp, ảnh hưởng trực tiếp đến quyết định điều trị, tiên lượng và kế hoạch phục hồi chức năng. Để thực hiện điều này một cách chuẩn xác và khoa học, các bác sĩ và sinh viên y khoa cần lưu ý những điểm sau:
+*   **Sử dụng thang điểm lâm sàng tiêu chuẩn**: Trong thực hành lâm sàng, thang điểm Đột quỵ của Viện Sức khỏe Quốc gia (NIHSS – National Institutes of Health Stroke Scale) là công cụ được sử dụng rộng rãi và đáng tin cậy nhất. Mặc dù tài liệu của chúng ta đề cập đến một thang điểm với các mức độ từ nhẹ (1-4 điểm) đến nặng (21-42 điểm), nguyên tắc cơ bản vẫn là lượng hóa các dấu hiệu thần kinh thiếu sót. NIHSS đánh giá các yếu tố như mức độ ý thức, cử động mắt, thị trường, liệt mặt, vận động tứ chi, mất điều hòa, cảm giác, ngôn ngữ và khả năng bỏ bê.
+    *   **Giải thích các mức độ theo NIHSS (ví dụ)**:
+        *   **0 điểm**: Không có triệu chứng đột quỵ.
+        *   **1-4 điểm**: Đột quỵ nhẹ.
+        *   **5-15 điểm**: Đột quỵ trung bình.
+        *   **16-20 điểm**: Đột quỵ trung bình đến nặng.
+        *   **Trên 20 điểm**: Đột quỵ nặng.
+*   **Tầm quan trọng của thang điểm tiêu chuẩn**:
+    *   **Đánh giá khách quan**: Giúp chuẩn hóa việc đánh giá giữa các bác sĩ khác nhau, giảm thiểu sự chủ quan.
+    *   **Hướng dẫn điều trị**: Điểm NIHSS là yếu tố quan trọng trong việc quyết định liệu pháp tái tưới máu (tiêu sợi huyết đường tĩnh mạch hoặc lấy huyết khối cơ học).
+    *   **Tiên lượng**: Giúp dự đoán kết quả chức năng và nhu cầu phục hồi chức năng của bệnh nhân.
+    *   **Nghiên cứu khoa học**: Đảm bảo tính nhất quán trong các nghiên cứu lâm sàng.
+*   **Thực hành và Đào tạo**: Sinh viên và bác sĩ trẻ cần được huấn luyện kỹ lưỡng về cách áp dụng NIHSS, thực hành trên bệnh nhân giả định và thực tế dưới sự giám sát của chuyên gia. Việc đạt được chứng nhận NIHSS là một yêu cầu quan trọng ở nhiều cơ sở y tế.
+*   **Theo dõi và đánh giá định kỳ**: Mức độ nặng của đột quỵ có thể thay đổi nhanh chóng, đặc biệt trong giai đoạn cấp. Cần đánh giá lại theo định kỳ (ví dụ: mỗi 15 phút, 1 giờ, 6 giờ tùy theo tình trạng bệnh nhân và phác đồ điều trị) để phát hiện sớm các biến đổi, từ đó điều chỉnh kế hoạch xử trí kịp thời.</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành lâm sàng đột quỵ cấp (AHA/ASA Guidelines for the Early Management of Patients with Acute Ischemic Stroke)</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các khuyến nghị toàn diện dựa trên bằng chứng về chẩn đoán, đánh giá và điều trị đột quỵ thiếu máu não cấp, bao gồm chi tiết về các thang điểm đánh giá lâm sàng như NIHSS. Rất cần thiết cho việc học tập và thực hành của bác sĩ thần kinh và cấp cứu.</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Khóa học nâng cao về đánh giá và điều trị đột quỵ cấp (Advanced Acute Stroke Management and NIHSS Certification)</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức chuyên sâu về sinh lý bệnh, chẩn đoán hình ảnh, các liệu pháp tái tưới máu và đặc biệt là kỹ năng thực hành sử dụng thang điểm NIHSS. Khóa học được thiết kế để chuẩn bị cho các bác sĩ tham gia vào quy trình điều trị đột quỵ cấp, giúp nâng cao năng lực lâm sàng và đạt được chứng nhận cần thiết.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng, tập trung vào việc diễn giải các chỉ số xét nghiệm huyết học và viêm trong quá trình theo dõi bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Trong quá trình theo dõi hàng ngày bệnh nhân đột quỵ, hoặc bất kỳ bệnh lý cấp tính nào, những chỉ số huyết học và viêm nào cần được giám sát chặt chẽ, và ý nghĩa lâm sàng của từng chỉ số là gì để đưa ra quyết định điều trị?</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, việc theo dõi các chỉ số huyết học và viêm hàng ngày là vô cùng quan trọng trong quản lý bệnh nhân nội trú, đặc biệt là các bệnh nhân đột quỵ hoặc mắc bệnh lý cấp tính. Chúng giúp chúng ta phát hiện sớm các biến chứng, đánh giá tình trạng viêm nhiễm, và điều chỉnh phác đồ điều trị kịp thời. Dưới đây là ý nghĩa lâm sàng của các chỉ số mà tài liệu đã đề cập:
+| Chỉ số | Ý nghĩa lâm sàng | Gợi ý cho bác sĩ/sinh viên |
+|---|---|---|
+| **Erythrocyte (Hồng cầu)** | Số lượng hồng cầu và các chỉ số liên quan (Hemoglobin, Hematocrit) phản ánh khả năng vận chuyển oxy của máu. Giảm hồng cầu/hemoglobin (thiếu máu) có thể làm trầm trọng thêm tình trạng thiếu oxy não ở bệnh nhân đột quỵ, hoặc chỉ điểm mất máu tiềm ẩn. | Luôn theo dõi để đảm bảo tưới máu não đầy đủ. Nếu giảm, cần tìm nguyên nhân và cân nhắc truyền máu nếu cần thiết theo ngưỡng chỉ định. |
+| **Leukocyte (Bạch cầu)** | Tăng bạch cầu thường gợi ý tình trạng nhiễm trùng hoặc phản ứng viêm toàn thân. Giảm bạch cầu có thể do ức chế tủy xương hoặc nhiễm trùng nặng. | Tăng cao bất thường cần tìm ổ nhiễm trùng (viêm phổi, nhiễm trùng tiểu...). Giảm quá mức cần xem xét nguyên nhân và nguy cơ suy giảm miễn dịch. |
+| **Hemoglobin concentration (Nồng độ Hemoglobin)** | Nồng độ hemoglobin trực tiếp liên quan đến khả năng vận chuyển oxy. Nồng độ thấp (thiếu máu) làm giảm cung cấp oxy đến não, có thể làm nặng thêm tổn thương thiếu máu cục bộ. | Đánh giá tình trạng thiếu máu. Đối với bệnh nhân đột quỵ, mục tiêu hemoglobin thường được giữ ở mức tối ưu để đảm bảo oxy hóa não. |
+| **IL-6 (Interleukin-6)** | Một cytokine tiền viêm chính, nồng độ tăng cao trong huyết thanh cho thấy phản ứng viêm cấp tính và mức độ nghiêm trọng của tổn thương, thường tăng sau đột quỵ. | Nồng độ IL-6 tăng cao dai dẳng có thể liên quan đến diễn biến bệnh nặng hơn, nguy cơ biến chứng viêm, hoặc nhiễm trùng tiềm ẩn. |
+| **IL-10 (Interleukin-10)** | Một cytokine kháng viêm, thường tăng lên để điều hòa phản ứng viêm quá mức. Nó có vai trò bảo vệ thần kinh sau đột quỵ. | Tăng IL-10 có thể là dấu hiệu của cơ chế tự bảo vệ của cơ thể, nhưng cần đánh giá cùng với các chỉ số khác để có cái nhìn toàn diện về cân bằng viêm. |
+| **CRP (C-Reactive Protein)** | Một protein pha cấp, tăng nhanh chóng và đáng kể trong các tình trạng viêm cấp tính, nhiễm trùng, hoặc hoại tử mô. | CRP là chỉ điểm viêm không đặc hiệu nhưng rất nhạy. Nồng độ CRP tăng cao có thể báo hiệu nhiễm trùng (như viêm phổi liên quan đến thở máy), hoặc một phản ứng viêm toàn thân sau đột quỵ. |
+| **Respiratory index (Chỉ số hô hấp)** | Tài liệu không cụ thể, nhưng có thể bao gồm SpO2, tần số thở, khí máu động mạch (PaO2, PaCO2), hoặc các chỉ số về chức năng phổi. Phản ánh mức độ cung cấp oxy và thải CO2, quan trọng cho việc đánh giá mức độ hồi phục và nguy cơ biến chứng hô hấp. | Cần theo dõi sát để đảm bảo oxy hóa máu và thông khí đầy đủ, đặc biệt ở bệnh nhân đột quỵ có rối loạn nuốt hoặc ý thức giảm. |
+**Lời khuyên thực hành**:
+*   Hãy luôn liên hệ các chỉ số xét nghiệm với tình trạng lâm sàng của bệnh nhân. Một chỉ số bất thường không đứng một mình mà phải được đặt trong bối cảnh tổng thể.
+*   Học cách theo dõi xu hướng thay đổi của các chỉ số qua các ngày, không chỉ là giá trị tại một thời điểm.
+*   Thảo luận với các bác sĩ cấp trên khi có các chỉ số đáng ngại để cùng đưa ra quyết định điều trị phù hợp.</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành lâm sàng về các chỉ số viêm và huyết học trong bệnh lý cấp tính</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Tài liệu này trình bày chi tiết về sinh lý bệnh, ý nghĩa lâm sàng và cách diễn giải các chỉ số xét nghiệm huyết học, sinh hóa và viêm thường gặp trong quản lý bệnh nhân cấp cứu và hồi sức tích cực, rất hữu ích cho bác sĩ nội khoa, cấp cứu và hồi sức.</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Khóa học diễn giải xét nghiệm trong thực hành lâm sàng và quản lý bệnh nhân</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu này hướng dẫn cách đọc, phân tích và diễn giải các kết quả xét nghiệm thường quy và chuyên biệt, giúp bác sĩ và sinh viên y khoa đưa ra các quyết định lâm sàng chính xác hơn dựa trên bằng chứng khoa học và hiểu biết sâu sắc về sinh lý bệnh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn chuyên sâu về các kỹ thuật y học tiên tiến, đặc biệt là kiểm soát chất lượng trong liệu pháp tế bào gốc.</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh liệu pháp tế bào gốc đang phát triển mạnh mẽ, những tiêu chí kiểm soát chất lượng nào là cốt yếu đối với các sản phẩm tế bào gốc trung mô (MSC) trước khi cấy ghép, và làm thế nào để hiểu các dấu ấn bề mặt tế bào như CD34, CD73, CD90, CD105 thông qua kỹ thuật Flow Cytometry?</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Kính gửi các đồng nghiệp và sinh viên y khoa, liệu pháp tế bào gốc, đặc biệt là sử dụng Tế bào gốc trung mô (MSC), đang mở ra nhiều hứa hẹn trong điều trị các bệnh lý phức tạp. Tuy nhiên, để đảm bảo an toàn và hiệu quả tối đa cho bệnh nhân, việc kiểm soát chất lượng sản phẩm tế bào gốc trước khi cấy ghép là vô cùng nghiêm ngặt và đòi hỏi sự hiểu biết sâu sắc về sinh học tế bào và các kỹ thuật phân tích.
+**Các tiêu chí kiểm soát chất lượng cốt yếu cho MSC trước khi cấy ghép**:
+1.  **Tính an toàn (Safety)**:
+    *   **Vô trùng**: Sản phẩm phải tuyệt đối không chứa vi khuẩn, nấm, mycoplasma. Các xét nghiệm nuôi cấy và PCR là bắt buộc.
+    *   **Không có tế bào khối u**: Đảm bảo không có sự nhiễm bẩn của các tế bào có khả năng hình thành khối u.
+    *   **Không có phản ứng miễn dịch không mong muốn**: Đặc biệt quan trọng đối với cấy ghép dị ghép (allogeneic).
+2.  **Đặc tính tế bào (Cell Characterization)**: Đây là phần quan trọng nhất, được thực hiện chủ yếu bằng kỹ thuật Flow Cytometry (FACS).
+    *   **Định danh MSC**: MSC phải thể hiện các dấu ấn bề mặt dương tính và âm tính đặc trưng theo tiêu chuẩn của Hiệp hội Quốc tế về Liệu pháp Tế bào và Gen (ISCT).
+        *   **CD73, CD90, CD105**: Các dấu ấn này phải dương tính mạnh (&gt;95% hoặc &gt;98% như trong tài liệu) trên MSC. Chúng là các protein bề mặt đặc trưng cho tế bào gốc trung mô, đóng vai trò trong sự bám dính, truyền tín hiệu và chức năng của tế bào.
+        *   **CD34, CD45, CD11b, CD19, HLA-DR**: Các dấu ấn này phải âm tính (&lt;2% hoặc &lt;5%) trên MSC.
+            *   **CD34**: Đây là một dấu ấn đặc trưng của tế bào gốc tạo máu và tế bào nội mô. Sự hiện diện của CD34 dương tính trong chế phẩm mononuclear cell (tế bào đơn nhân) ban đầu là cần thiết, cho thấy nguồn gốc của các tế bào tạo máu. Tuy nhiên, đối với sản phẩm MSC đã được tinh chế, CD34 phải là âm tính, khẳng định không có sự nhiễm bẩn của tế bào gốc tạo máu.
+            *   **CD45**: Dấu ấn của các tế bào dòng bạch cầu.
+            *   **CD11b, CD19**: Dấu ấn của các tế bào miễn dịch khác (đại thực bào/granulocyte và tế bào B).
+            *   **HLA-DR**: Dấu ấn phức hợp hòa hợp mô chính lớp II, thường hiện diện trên các tế bào trình diện kháng nguyên.
+    *   **Khả năng biệt hóa (Multilineage Differentiation)**: MSC phải có khả năng biệt hóa thành ít nhất ba dòng tế bào khác nhau (mỡ, xương, sụn – như Figure 1 đã đề cập: adipogenic, osteogenic, and chondrogenic lineages) dưới các điều kiện nuôi cấy phù hợp. Đây là minh chứng cho tiềm năng đa năng của MSC.
+    *   **Khả năng tạo khuẩn lạc sợi (CFU-F - Colony-Forming Unit Fibroblast)**: Đánh giá khả năng tăng sinh và tạo cụm của tế bào, một chỉ số quan trọng về tính sống và tiềm năng của MSC.
+3.  **Tính khả thi (Viability) và Số lượng (Potency)**:
+    *   Số lượng tế bào sống phải đạt ngưỡng quy định để đảm bảo hiệu quả điều trị.
+    *   Tính khả thi (viability) của tế bào sau khi xử lý và trước khi cấy ghép phải cao (ví dụ: &gt;80-90%).
+**Ứng dụng Flow Cytometry (FACS) trong kiểm soát chất lượng**:
+Flow Cytometry là kỹ thuật vàng để định lượng các dấu ấn bề mặt tế bào. Bằng cách sử dụng các kháng thể gắn huỳnh quang đặc hiệu với từng dấu ấn (ví dụ: kháng thể anti-CD73 gắn với chất huỳnh quang), máy FACS có thể đếm và phân tích hàng ngàn tế bào trong một mẫu, cung cấp thông tin chính xác về tỷ lệ phần trăm tế bào dương tính với một dấu ấn nhất định. Việc thành thạo kỹ thuật này và diễn giải kết quả là kỹ năng thiết yếu cho bất kỳ ai làm việc trong lĩnh vực liệu pháp tế bào.
+**Lời khuyên cho bác sĩ và sinh viên**:
+*   Hiểu rõ các tiêu chuẩn ISCT cho MSC là nền tảng để đánh giá chất lượng sản phẩm tế bào gốc.
+*   Luôn yêu cầu và xem xét kỹ lưỡng báo cáo kiểm soát chất lượng của sản phẩm tế bào gốc trước khi sử dụng lâm sàng.
+*   Tiếp tục học hỏi về các công nghệ phân tích tế bào tiên tiến và ý nghĩa của chúng trong y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Tiêu chuẩn Quốc tế về Xác định Tế bào gốc Trung mô của ISCT (Minimal Criteria for Defining Multipotent Mesenchymal Stromal Cells by the International Society for Cell &amp; Gene Therapy)</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Tài liệu này là một cột mốc quan trọng, thiết lập các tiêu chuẩn tối thiểu để xác định MSCs, bao gồm các dấu ấn bề mặt đặc trưng và khả năng biệt hóa. Đây là tài liệu bắt buộc phải đọc cho các nhà nghiên cứu và lâm sàng trong lĩnh vực tế bào gốc.</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về Liệu pháp Tế bào Gốc và Y học Tái tạo (Advanced Course in Stem Cell Therapy and Regenerative Medicine)</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Khóa học này bao gồm các khía cạnh từ cơ bản đến nâng cao của liệu pháp tế bào gốc, tập trung vào sinh học MSC, quy trình sản xuất, kiểm soát chất lượng, các ứng dụng lâm sàng hiện tại và tương lai, cũng như các quy định pháp lý. Rất phù hợp cho bác sĩ và nhà khoa học muốn chuyên sâu về lĩnh vực này.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Dựa trên dữ liệu nghiên cứu về TBI, làm thế nào để chẩn đoán và phân loại chấn thương sọ não nặng (Severe TBI) theo tiêu chuẩn ICD-10, và những bước đánh giá ban đầu nào là cần thiết cho bác sĩ trẻ tại khoa cấp cứu?</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Chào bạn, một bác sĩ trẻ hoặc sinh viên y khoa! Việc chẩn đoán và phân loại chấn thương sọ não nặng (Severe TBI) là bước tối quan trọng trong cấp cứu. Dựa trên dữ liệu nghiên cứu và các hướng dẫn y khoa, đây là những điểm bạn cần lưu ý:
+**1. Chẩn đoán và Phân loại TBI nặng:**
+*   **Tiêu chuẩn GCS:** Chấn thương sọ não nặng được định nghĩa khi điểm Glasgow Coma Scale (GCS) nằm trong khoảng **3-8 điểm** sau khi hồi sức ban đầu và loại trừ các yếu tố gây nhiễu (như ngộ độc, hạ đường huyết). GCS đánh giá 3 yếu tố: Mở mắt (Eye opening), Đáp ứng lời nói (Verbal response) và Đáp ứng vận động (Motor response). Cần thực hành chấm điểm GCS thường xuyên để đảm bảo chính xác.
+*   **ICD-10:** Theo chuẩn ICD-10 của Bộ Y tế Việt Nam, TBI nặng thường được mã hóa trong nhóm S06 (Chấn thương nội sọ). Cụ thể, khi xác định được tổn thương, bạn sẽ dùng mã chi tiết hơn:
+    *   **S06.5:** Chảy máu dưới màng cứng do chấn thương (Traumatic subdural haemorrhage - SDH).
+    *   **S06.4:** Chảy máu ngoài màng cứng do chấn thương (Traumatic epidural haemorrhage - EDH).
+    *   Nếu chưa xác định được tổn thương cụ thể nhưng có TBI nặng, có thể dùng **S06.9** (Chấn thương nội sọ, không xác định) kèm mã mức độ nặng. Việc mã hóa chính xác giúp theo dõi bệnh và thống kê y tế hiệu quả.
+**2. Đánh giá ban đầu tại khoa cấp cứu:**
+Một bác sĩ trẻ cần tuân thủ nghiêm ngặt nguyên tắc ABCDE trong cấp cứu chấn thương:
+*   **A (Airway - Đường thở) và Cột sống cổ:** Đảm bảo đường thở thông thoáng, kiểm soát cột sống cổ. Nếu bệnh nhân bất tỉnh, đặt nội khí quản sớm là một can thiệp cứu sống.
+*   **B (Breathing - Hô hấp):** Đánh giá nhịp thở, tần số, độ sâu. Hỗ trợ hô hấp nếu cần (thở oxy, thở máy).
+*   **C (Circulation - Tuần hoàn):** Kiểm soát chảy máu, thiết lập đường truyền tĩnh mạch lớn, bù dịch, duy trì huyết áp tâm thu &gt; 90 mmHg để đảm bảo tưới máu não.
+*   **D (Disability - Đánh giá thần kinh):** Chấm GCS, đánh giá đồng tử (kích thước, phản xạ ánh sáng) và các dấu hiệu thần kinh khu trú. Đánh giá nhanh tình trạng chấn thương sọ não nặng qua GCS 3-8.
+*   **E (Exposure - Bộc lộ và Môi trường):** Cởi bỏ quần áo để tìm kiếm các tổn thương khác, giữ ấm cho bệnh nhân.
+*   **Chẩn đoán hình ảnh khẩn cấp:** Chụp cắt lớp vi tính sọ não (CT scan sọ não) là ưu tiên hàng đầu để xác định loại tổn thương (SDH, EDH, dập não, phù não...). Việc thực hành thuần thục các bước này không chỉ cứu sống bệnh nhân mà còn tạo nền tảng vững chắc cho quá trình điều trị tiếp theo.</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Nghiên cứu nhắc đến các đặc điểm bệnh lý như SDH và EDH ở bệnh nhân TBI. Xin hướng dẫn cách phân biệt, xử trí ban đầu, và tầm quan trọng của việc theo dõi các chỉ số GCS, NIHSS, BI trong quá trình điều trị cho bệnh nhân chấn thương sọ não?</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Xin chào đồng nghiệp trẻ! Việc nắm vững các đặc điểm của tổn thương nội sọ như SDH và EDH, cùng với việc theo dõi các thang điểm lâm sàng, là chìa khóa để quản lý bệnh nhân TBI hiệu quả. Dưới đây là hướng dẫn chi tiết:
+**1. Phân biệt SDH và EDH trên chẩn đoán hình ảnh (CT scan sọ não):**
+Việc phân biệt SDH (Subdural Hemorrhage) và EDH (Epidural Hemorrhage) rất quan trọng vì chúng có cơ chế chấn thương, biểu hiện lâm sàng và chiến lược điều trị khác nhau. Một bác sĩ trẻ cần chú ý các đặc điểm sau:
+| Đặc điểm           | Chảy máu ngoài màng cứng (EDH)                   | Chảy máu dưới màng cứng (SDH)                       |
+| :----------------- | :----------------------------------------------- | :-------------------------------------------------- |
+| **Vị trí**         | Giữa xương sọ và màng cứng (dura mater)         | Giữa màng cứng và màng nhện (arachnoid mater)       |
+| **Hình ảnh CT**    | **Hình thấu kính lồi (lenticular/biconvex)**, thường giới hạn bởi các đường khâu sọ. | **Hình liềm (crescent-shaped)**, lan rộng theo bề mặt não, vượt qua đường khâu sọ. |
+| **Cơ chế**         | Thường do tổn thương động mạch màng não giữa (middle meningeal artery) do chấn thương vùng thái dương. | Thường do tổn thương tĩnh mạch cầu nối (bridging veins) khi não bị trượt so với hộp sọ. |
+| **Khoảng tỉnh**    | Có thể có "khoảng tỉnh" (lucid interval) sau chấn thương, rồi đột ngột xấu đi. | Ít gặp hơn, thường diễn biến nặng dần.               |
+| **Tiên lượng**     | Tốt hơn nếu được phẫu thuật cấp cứu kịp thời (do thường là một khối máu tụ riêng biệt). | Thường phức tạp hơn, có thể kèm dập não, phù não. Tiên lượng xấu hơn nếu cấp tính. |
+**2. Tầm quan trọng của việc theo dõi GCS, NIHSS, BI:**
+Các thang điểm này cung cấp cái nhìn toàn diện về tình trạng thần kinh và chức năng của bệnh nhân, giúp bác sĩ:
+*   **Glasgow Coma Scale (GCS):**
+    *   **Mục đích:** Đánh giá mức độ ý thức. Là chỉ số quan trọng nhất để phân loại mức độ nặng của TBI và theo dõi diễn tiến cấp tính. Bất kỳ sự giảm điểm GCS nào đều là dấu hiệu báo động cần can thiệp khẩn cấp.
+    *   **Ứng dụng:** Dùng để ra quyết định phẫu thuật, đặt nội khí quản, tiên lượng ngắn hạn.
+*   **NIHSS (National Institutes of Health Stroke Scale):**
+    *   **Mục đích:** Mặc dù ban đầu được thiết kế cho đột quỵ, NIHSS có thể hữu ích trong TBI để đánh giá các khiếm khuyết thần kinh khu trú (liệt vận động, cảm giác, ngôn ngữ, nhìn...).
+    *   **Ứng dụng:** Giúp theo dõi sự thay đổi của các chức năng thần kinh cụ thể, phát hiện các tổn thương thứ phát hoặc các biến chứng như co giật, phù não khu trú.
+*   **Barthel Index (BI):**
+    *   **Mục đích:** Đánh giá mức độ độc lập của bệnh nhân trong các hoạt động sinh hoạt hàng ngày (ADL - Activities of Daily Living) như ăn uống, tắm rửa, đi lại. Chỉ số này rất quan trọng trong giai đoạn phục hồi chức năng.
+    *   **Ứng dụng:** Cung cấp thông tin về khả năng tự chăm sóc, lập kế hoạch phục hồi chức năng dài hạn và tiên lượng chất lượng cuộc sống sau xuất viện. Như dữ liệu nghiên cứu cho thấy, việc theo dõi BI ở các ngày 30 và 60 giúp đánh giá sự cải thiện về chức năng.
+Việc theo dõi liên tục và chính xác các thang điểm này giúp bạn đưa ra các quyết định lâm sàng kịp thời, điều chỉnh kế hoạch điều trị và tiên lượng cho bệnh nhân TBI một cách hiệu quả nhất.</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Các bệnh nhân trong nghiên cứu được điều trị theo hướng dẫn chuẩn hóa cho TBI nặng tại Bệnh viện Trung ương Huế. Xin tư vấn về các nguyên tắc cốt lõi trong quản lý TBI nặng, vai trò của phục hồi chức năng, và cách tiếp cận đa chuyên khoa để cải thiện chất lượng cuộc sống cho bệnh nhân sau chấn thương, đặc biệt từ góc nhìn của một bác sĩ trẻ?</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Thật tuyệt vời khi bạn quan tâm đến việc tối ưu hóa quản lý TBI nặng! Việc tuân thủ các hướng dẫn chuẩn hóa là nền tảng, và một bác sĩ trẻ cần hiểu sâu sắc các nguyên tắc sau:
+**1. Nguyên tắc cốt lõi trong quản lý TBI nặng:**
+*   **Ngăn ngừa tổn thương não thứ phát:** Đây là mục tiêu hàng đầu. Tổn thương thứ phát xảy ra do thiếu oxy, hạ huyết áp, sốt, co giật, tăng áp lực nội sọ (ICP) sau chấn thương ban đầu. Việc duy trì huyết áp tâm thu &gt; 90 mmHg, PaO2 &gt; 60 mmHg, PaCO2 trong giới hạn bình thường, kiểm soát nhiệt độ và đường huyết là cực kỳ quan trọng.
+*   **Kiểm soát áp lực nội sọ (ICP):** Tăng ICP là nguyên nhân phổ biến gây tử vong và di chứng. Các biện pháp bao gồm nâng đầu giường, an thần, giảm đau, dùng thuốc lợi tiểu thẩm thấu (Mannitol, NaCl ưu trương), thở máy kiểm soát PEEP, dẫn lưu dịch não tủy, và trong một số trường hợp, phẫu thuật giải áp sọ.
+*   **Chỉ định phẫu thuật kịp thời:** Các khối máu tụ nội sọ có hiệu ứng chèn ép (như EDH, SDH cấp tính lớn) cần được phẫu thuật dẫn lưu khẩn cấp để giải phóng chèn ép và giảm ICP. Khả năng đọc CT scan và đưa ra quyết định nhanh chóng là kỹ năng sống còn.
+*   **Hồi sức tích cực toàn diện:** Bệnh nhân TBI nặng thường cần hồi sức tích cực bao gồm hỗ trợ hô hấp, tuần hoàn, dinh dưỡng, kiểm soát điện giải và phòng ngừa biến chứng (viêm phổi, loét dạ dày, huyết khối tĩnh mạch sâu).
+**2. Tiếp cận đa chuyên khoa để tối ưu hóa kết quả:**
+Chấn thương sọ não nặng không chỉ là vấn đề của một chuyên khoa. Một đội ngũ đa chuyên khoa là thiết yếu để đạt được kết quả tốt nhất:
+*   **Phẫu thuật thần kinh (Neurosurgeon):** Đánh giá và thực hiện các can thiệp phẫu thuật khi cần thiết.
+*   **Hồi sức cấp cứu/Hồi sức thần kinh (Intensivist/Neuro-intensivist):** Quản lý toàn diện bệnh nhân tại ICU, kiểm soát ICP, hỗ trợ chức năng sống, ngăn ngừa biến chứng.
+*   **Bác sĩ thần kinh (Neurologist):** Theo dõi diễn biến thần kinh, chẩn đoán và điều trị các biến chứng thần kinh (co giật, rối loạn vận động).
+*   **Bác sĩ Phục hồi chức năng (Rehabilitation Specialist):** Bắt đầu can thiệp phục hồi chức năng sớm nhất có thể (vận động, nhận thức, ngôn ngữ) ngay khi tình trạng bệnh nhân ổn định. Dữ liệu BI trong nghiên cứu nhấn mạnh tầm quan trọng của việc theo dõi dài hạn và phục hồi chức năng.
+*   **Dược sĩ lâm sàng (Clinical Pharmacist):** Tối ưu hóa phác đồ thuốc, tương tác thuốc và liều lượng.
+*   **Chuyên gia dinh dưỡng (Nutritionist):** Đảm bảo dinh dưỡng đầy đủ cho quá trình hồi phục của não bộ và cơ thể.
+*   **Bác sĩ tâm lý/Tâm thần (Psychologist/Psychiatrist):** Hỗ trợ bệnh nhân và gia đình vượt qua các thách thức về tâm lý và cảm xúc sau chấn thương.
+Để trở thành một bác sĩ giỏi trong lĩnh vực này, bạn cần không ngừng học hỏi, tham gia các buổi giao ban đa chuyên khoa, và luôn đặt mục tiêu cải thiện chất lượng cuộc sống cho bệnh nhân lên hàng đầu.</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt trong đánh giá và quản lý bệnh lý thần kinh.</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, làm thế nào để đánh giá tiên lượng thần kinh và động cơ ở bệnh nhân sau chấn thương, đặc biệt khi cân nhắc các phương pháp điều trị mới như liệu pháp tế bào gốc trung mô (MSC)?</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ và sinh viên y khoa tương lai,
+Việc đánh giá tiên lượng thần kinh và động cơ ở bệnh nhân sau chấn thương là một trong những kỹ năng lâm sàng cốt lõi. Trong bối cảnh các liệu pháp mới như MSC đang được nghiên cứu, việc nắm vững các công cụ đánh giá chuẩn mực càng trở nên quan trọng.
+**1. Các thang điểm đánh giá chính:**
+*   **Thang điểm Glasgow Coma Scale (GCS):** Đây là thang điểm cơ bản và quan trọng nhất để đánh giá mức độ ý thức ở bệnh nhân chấn thương sọ não. GCS bao gồm ba thành phần: mở mắt (E), đáp ứng lời nói (V) và đáp ứng vận động (M). Điểm tối đa là 15 (tỉnh táo hoàn toàn) và tối thiểu là 3 (hôn mê sâu).
+    *   **Ứng dụng lâm sàng:** Theo dõi sự thay đổi điểm GCS giúp đánh giá nhanh tình trạng bệnh nhân, phát hiện sớm các dấu hiệu xấu đi và hướng dẫn quyết định can thiệp.
+*   **Thang điểm National Institutes of Health Stroke Scale (NIHSS):** Mặc dù ban đầu được thiết kế cho đột quỵ, NIHSS rất hữu ích để đánh giá mức độ thiếu sót thần kinh chi tiết, bao gồm ý thức, thị trường, liệt mặt, vận động tay chân, mất điều hòa, cảm giác và ngôn ngữ.
+    *   **Ứng dụng lâm sàng:** Điểm NIHSS cao phản ánh mức độ tổn thương nặng hơn. Việc theo dõi NIHSS giúp định lượng mức độ cải thiện hoặc xấu đi của các chức năng thần kinh cụ thể.
+*   **Thang điểm Barthel Index (BI):** Thang điểm này tập trung vào khả năng thực hiện các hoạt động sinh hoạt hàng ngày (ADL) như ăn uống, tắm rửa, đi vệ sinh, di chuyển, v.v. Nó đánh giá mức độ độc lập về chức năng vận động.
+    *   **Ứng dụng lâm sàng:** BI rất quan trọng trong đánh giá hiệu quả phục hồi chức năng và tiên lượng khả năng tự chăm sóc của bệnh nhân lâu dài.
+**2. Phân tích kết quả và tiên lượng:**
+*   **So sánh với baseline:** Luôn so sánh các chỉ số GCS, NIHSS, BI sau điều trị với giá trị trước điều trị hoặc khi nhập viện. Mức độ cải thiện về điểm số (ví dụ: GCS tăng, NIHSS giảm, BI tăng) cho thấy hiệu quả của can thiệp.
+*   **Tiên lượng dựa trên nhóm điều trị:** Như nghiên cứu đã chỉ ra, nhóm được điều trị MSC có xu hướng cải thiện đáng kể hơn về chức năng thần kinh và vận động so với nhóm đối chứng. Điều này gợi ý một vai trò tiềm năng của MSC trong việc thúc đẩy phục hồi.
+*   **Các trường hợp đặc biệt:** Lưu ý các trường hợp cải thiện nhanh chóng (ví dụ: GCS và NIHSS cải thiện chỉ sau 1 ngày) hoặc cải thiện ấn tượng từ tình trạng ban đầu rất nặng, vì chúng có thể cung cấp cái nhìn sâu sắc về đáp ứng cá nhân với điều trị. Ngược lại, những bệnh nhân có điểm GCS/NIHSS thấp và không có dấu hiệu cải thiện cần được theo dõi sát sao và cân nhắc các can thiệp hỗ trợ tối ưu.
+**3. Khuyến nghị thực hành:**
+*   **Đánh giá định kỳ:** Thực hiện các đánh giá thần kinh định kỳ theo phác đồ, đảm bảo tính nhất quán và khách quan.
+*   **Hồ sơ chi tiết:** Ghi chép đầy đủ các điểm số và sự thay đổi để theo dõi quá trình tiến triển của bệnh nhân.
+*   **Phối hợp đa chuyên khoa:** Làm việc chặt chẽ với các chuyên gia phục hồi chức năng, điều dưỡng và các bác sĩ chuyên khoa khác để có cái nhìn toàn diện về quá trình hồi phục của bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành lâm sàng về đánh giá chấn thương sọ não và đột quỵ theo ICD-10.</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp các tiêu chuẩn đánh giá và phân loại chấn thương sọ não (S06) và đột quỵ (I60-I69) dựa trên ICD-10, giúp chuẩn hóa việc chẩn đoán và theo dõi lâm sàng, đặc biệt hữu ích cho các bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Cập nhật các thang điểm đánh giá thần kinh và ứng dụng trong lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào việc làm chủ các thang điểm GCS, NIHSS, BI và các thang điểm liên quan khác, với các tình huống lâm sàng thực tế và thảo luận về cách áp dụng chúng để theo dõi và tiên lượng bệnh nhân thần kinh. Phù hợp cho bác sĩ nội khoa, cấp cứu, hồi sức và phục hồi chức năng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn chuyên sâu về các dấu ấn sinh học và cơ chế điều trị trong y học tái tạo dựa trên chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Chuyên gia có thể phân tích vai trò của các cytokine viêm (IL-6, IL-10, CRP, TNF-α) trong chấn thương và cơ chế điều hòa của liệu pháp tế bào gốc trung mô (MSC) đối với các dấu ấn này như thế nào không?</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Kính gửi các đồng nghiệp và sinh viên,
+Hiểu biết về đáp ứng viêm và cách các liệu pháp mới điều hòa nó là chìa khóa trong quản lý bệnh nhân chấn thương, đặc biệt là chấn thương não. Các cytokine viêm đóng vai trò trung tâm trong quá trình này.
+**1. Vai trò của các cytokine viêm trong chấn thương:**
+*   **IL-6 (Interleukin-6):** Là một cytokine tiền viêm mạnh mẽ, thường tăng cao trong phản ứng pha cấp sau chấn thương hoặc nhiễm trùng. IL-6 kích hoạt phản ứng miễn dịch và viêm, góp phần vào tổn thương mô nếu kéo dài.
+*   **IL-10 (Interleukin-10):** Ngược lại với IL-6, IL-10 là một cytokine kháng viêm chủ yếu. Nó ức chế sản xuất các cytokine tiền viêm và điều hòa phản ứng miễn dịch, giúp giảm tổn thương do viêm quá mức.
+*   **CRP (C-Reactive Protein):** Một protein pha cấp do gan sản xuất, tăng lên nhanh chóng sau phản ứng viêm cấp tính. CRP là một chỉ dấu nhạy cảm của viêm và tổn thương mô.
+*   **TNF-α (Tumor Necrosis Factor-alpha):** Một cytokine tiền viêm quan trọng khác, tham gia vào khởi phát và duy trì phản ứng viêm. Mức độ cao của TNF-α có thể gây ra tổn thương mô và góp phần vào suy chức năng đa cơ quan.
+Trong nhóm đối chứng của nghiên cứu, sự tăng cao đáng kể của IL-6, IL-10, CRP và TNF-α sau chấn thương là một minh chứng rõ ràng cho phản ứng viêm toàn thân và tại chỗ. Sự tăng của IL-10 ban đầu có thể là một nỗ lực của cơ thể để tự điều hòa phản ứng viêm.
+**2. Cơ chế điều hòa của liệu pháp MSC:**
+Liệu pháp tế bào gốc trung mô (MSC) được biết đến với khả năng điều hòa miễn dịch và chống viêm mạnh mẽ. Dữ liệu từ nghiên cứu cho thấy rõ ràng tác dụng này:
+*   **Giảm cytokine tiền viêm (IL-6, CRP, TNF-α):** MSC làm giảm đáng kể nồng độ của IL-6, CRP và TNF-α. Điều này cho thấy MSC có khả năng ức chế các con đường viêm, giảm thiểu tổn thương mô do viêm gây ra. Cơ chế có thể liên quan đến khả năng của MSC tiết ra các yếu tố điều hòa miễn dịch và tương tác với các tế bào miễn dịch khác.
+*   **Tăng và sau đó giảm IL-10:** Sự tăng IL-10 sau 3 ngày điều trị MSC có thể là một phần trong cơ chế điều hòa miễn dịch của MSC, thúc đẩy môi trường kháng viêm. Sau đó, khi tình trạng viêm được kiểm soát tốt hơn, nồng độ IL-10 cũng giảm dần, phản ánh sự trở lại trạng thái cân bằng nội môi. Điều này cho thấy MSC không chỉ đơn thuần ức chế viêm mà còn có thể điều chỉnh phản ứng miễn dịch một cách linh hoạt.
+*   **Hiệu quả kéo dài:** Việc giảm nồng độ các dấu ấn viêm duy trì đến 2 tháng sau chấn thương, và giảm đáng kể hơn nhiều so với nhóm đối chứng, nhấn mạnh khả năng điều hòa miễn dịch bền vững của MSC.
+**3. Ý nghĩa lâm sàng cho bác sĩ và sinh viên:**
+*   **Theo dõi dấu ấn sinh học:** Trong thực hành lâm sàng, việc theo dõi các dấu ấn viêm như CRP, IL-6 có thể giúp đánh giá mức độ nghiêm trọng của chấn thương và hiệu quả của các liệu pháp điều trị chống viêm.
+*   **Hiểu về cơ chế:** Nắm vững cơ chế điều hòa miễn dịch của MSC giúp chúng ta hiểu rõ hơn về tiềm năng của liệu pháp này trong các bệnh lý viêm và tự miễn, không chỉ là chấn thương.
+*   **Thận trọng trong ứng dụng:** Mặc dù kết quả hứa hẹn, liệu pháp MSC vẫn đang trong giai đoạn nghiên cứu và cần thêm các thử nghiệm lâm sàng lớn hơn để xác nhận hiệu quả và an toàn trước khi ứng dụng rộng rãi.
+Việc phân tích các dấu ấn sinh học này không chỉ giúp đánh giá kết quả mà còn mở ra hướng nghiên cứu về các cơ chế bệnh sinh và đích tác dụng của các liệu pháp điều trị.</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>ICD-10: Các mã bệnh liên quan đến phản ứng viêm và chấn thương.</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Hướng dẫn phân loại các bệnh lý liên quan đến phản ứng viêm hệ thống (R59, R60, T79.3) và các loại chấn thương (S00-T98) theo ICD-10, hỗ trợ mã hóa chẩn đoán chính xác trong bối cảnh nghiên cứu và lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Miễn dịch học lâm sàng và liệu pháp tế bào trong quản lý chấn thương.</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Khóa học nâng cao về miễn dịch học, tập trung vào vai trò của cytokine trong phản ứng viêm cấp và mãn tính. Khóa học cũng sẽ đi sâu vào các liệu pháp điều hòa miễn dịch, bao gồm liệu pháp tế bào gốc trung mô, từ cơ chế đến các ứng dụng lâm sàng tiềm năng. Dành cho các bác sĩ chuyên khoa miễn dịch, hồi sức, thần kinh và nghiên cứu sinh.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng về tiên lượng, các biến chứng và đạo đức trong quản lý bệnh nhân nặng theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Khi quản lý bệnh nhân nặng sau chấn thương, bác sĩ cần chú ý những gì về tiên lượng tử vong và các yếu tố ảnh hưởng, đặc biệt khi so sánh giữa các phương pháp điều trị khác nhau như đã thấy trong nghiên cứu?</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Chào các bạn đồng nghiệp và các em sinh viên,
+Quản lý bệnh nhân nặng sau chấn thương luôn là một thách thức lớn trong y khoa. Tiên lượng tử vong là một chỉ số quan trọng, không chỉ phản ánh mức độ nghiêm trọng của bệnh mà còn là thước đo hiệu quả của các can thiệp điều trị. Dựa trên nghiên cứu này, chúng ta có thể rút ra một số bài học quý giá:
+**1. Tiên lượng tử vong giữa các nhóm điều trị:**
+*   **Nhóm MSC:** Nghiên cứu ghi nhận 1 bệnh nhân tử vong sau hơn 1 tháng điều trị MSC. Điều này cho thấy mặc dù có những cải thiện đáng kể về chức năng thần kinh và viêm, nhưng bệnh nhân nặng vẫn đối mặt với nguy cơ tử vong, cần phải đánh giá kỹ lưỡng các biến chứng tiềm ẩn.
+*   **Nhóm đối chứng:** Ngược lại, nhóm đối chứng có tới 3 bệnh nhân tử vong trong thời gian ngắn hơn (sau 3, 7, 30 ngày) mà không được điều trị MSC. Điều này nhấn mạnh mức độ nghiêm trọng của chấn thương nếu không có can thiệp điều trị hiệu quả hoặc trong những trường hợp tổn thương quá nặng.
+**2. Các yếu tố cần chú ý trong tiên lượng và quản lý bệnh nhân nặng:**
+*   **Mức độ nặng ban đầu:** Các bệnh nhân có chỉ số GCS và NIHSS ban đầu rất thấp (ví dụ: GCS 6/NIHSS 31) là những trường hợp cực kỳ nặng, có nguy cơ tử vong cao. Tuy nhiên, như nghiên cứu chỉ ra, một số trường hợp vẫn có thể cải thiện đáng kể với liệu pháp phù hợp.
+*   **Theo dõi sát sao các chỉ số sống còn:** Bên cạnh GCS, NIHSS, BI, cần theo dõi liên tục các thông số huyết động, hô hấp, chức năng các cơ quan khác để phát hiện sớm các biến chứng như suy hô hấp, sốc, nhiễm trùng.
+*   **Các biến chứng đặc biệt:**
+    *   **Biến chứng thần kinh:** Phù não, tăng áp lực nội sọ, co giật, xuất huyết thứ phát.
+    *   **Biến chứng hô hấp:** Viêm phổi bệnh viện, ARDS.
+    *   **Biến chứng huyết động:** Rối loạn nhịp tim, suy tim, huyết khối tĩnh mạch sâu.
+*   **Thời gian tử vong:** Thời điểm tử vong có thể cung cấp manh mối về nguyên nhân. Tử vong sớm (vài ngày) thường liên quan đến tổn thương thần kinh ban đầu quá nặng hoặc các biến chứng cấp tính. Tử vong muộn hơn (vài tuần đến vài tháng) có thể do các biến chứng thứ phát như nhiễm trùng, suy đa tạng hoặc suy kiệt.
+**3. Khuyến nghị thực hành và đạo đức:**
+*   **Đánh giá toàn diện:** Không chỉ dựa vào các thang điểm thần kinh, mà cần kết hợp với các xét nghiệm cận lâm sàng (hình ảnh học, xét nghiệm máu) và đánh giá tổng thể tình trạng bệnh nhân để đưa ra tiên lượng chính xác.
+*   **Quản lý kỳ vọng:** Cần trung thực và minh bạch khi trao đổi với gia đình bệnh nhân về tiên lượng, các nguy cơ và lợi ích của các phương pháp điều trị, bao gồm cả các liệu pháp mới đang thử nghiệm.
+*   **Quyết định điều trị:** Với những bệnh nhân có tiên lượng rất xấu, việc thảo luận về giới hạn điều trị và chăm sóc giảm nhẹ là cần thiết, đảm bảo tôn trọng quyền tự quyết của bệnh nhân và gia đình.
+*   **Học hỏi từ mọi trường hợp:** Ngay cả những trường hợp tử vong cũng cung cấp bài học quý giá về cách nhận diện sớm các dấu hiệu nguy hiểm, cải thiện chiến lược điều trị và chăm sóc.
+**Bảng so sánh kết cục tử vong giữa hai nhóm:**
+| Đặc điểm           | Nhóm MSC (Điều trị) | Nhóm Đối Chứng (Không điều trị MSC) |
+| :----------------- | :------------------ | :---------------------------------- |
+| Số bệnh nhân tử vong | 1                   | 3                                   |
+| Thời điểm tử vong  | &gt; 1 tháng           | 3 ngày, 7 ngày, 30 ngày             |
+| Biến động GCS/NIHSS | Cải thiện sau 1 ngày hoặc sau 2 tháng ở một số BN nặng | GCS/NIHSS báo động (6/25; 8/31), không cải thiện, tử vong sau vài ngày |
+| Kết luận sơ bộ     | Liệu pháp MSC có thể cải thiện tiên lượng sống còn và chức năng thần kinh, giảm tỷ lệ tử vong sớm so với nhóm không được điều trị | Tiên lượng xấu hơn rõ rệt, tỷ lệ tử vong sớm cao hơn |
+Việc theo dõi sát sao và phân tích chi tiết từng trường hợp sẽ giúp chúng ta ngày càng nâng cao năng lực quản lý bệnh nhân nặng.</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>ICD-10: Mã hóa các nguyên nhân tử vong và biến chứng liên quan đến chấn thương.</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chi tiết về cách mã hóa nguyên nhân tử vong (R95-R99) và các biến chứng sau chấn thương (T80-T88) theo chuẩn ICD-10, cung cấp kiến thức cần thiết cho việc thống kê y tế và nghiên cứu dịch tễ học, đặc biệt cho các bác sĩ quản lý hồ sơ và nghiên cứu viên.</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Đạo đức y học và ra quyết định lâm sàng trong chăm sóc bệnh nhân hồi sức tích cực.</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về các khía cạnh đạo đức trong việc ra quyết định điều trị, giới hạn điều trị, và chăm sóc giảm nhẹ cho bệnh nhân nặng. Khóa học sẽ bao gồm các tình huống lâm sàng thực tế và thảo luận về cách giao tiếp hiệu quả với gia đình bệnh nhân. Dành cho tất cả các bác sĩ lâm sàng, đặc biệt là bác sĩ hồi sức, cấp cứu và chuyên gia y tế công cộng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, với vai trò là một bác sĩ trẻ hoặc sinh viên y khoa, em nên tiếp cận và sử dụng các tạp chí y khoa như 'Vietnam Medical Journal' như thế nào để cập nhật kiến thức và nâng cao trình độ chuyên môn?</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc tiếp cận và sử dụng hiệu quả các tạp chí y khoa là một kỹ năng thiết yếu đối với bất kỳ bác sĩ trẻ hay sinh viên y khoa nào muốn duy trì sự cập nhật và phát triển chuyên môn. Dưới đây là những hướng dẫn cụ thể:
+*   **Hiểu rõ mục tiêu của tạp chí:** 'Vietnam Medical Journal' (Tạp chí Y học Việt Nam) thường đăng tải các nghiên cứu gốc, báo cáo ca lâm sàng, tổng quan, và các bài bình luận chuyên sâu về nhiều chuyên khoa y học, tập trung vào bối cảnh y tế Việt Nam. Đây là nguồn thông tin quý giá về các bệnh lý phổ biến, phương pháp điều trị, và kết quả nghiên cứu trong nước.
+*   **Lập kế hoạch đọc định kỳ:** Hãy dành thời gian cố định mỗi tuần hoặc tháng để duyệt qua các số mới. Không cần đọc hết tất cả các bài, mà hãy chọn lọc những bài phù hợp với lĩnh vực bạn đang quan tâm hoặc thực hành.
+*   **Kỹ năng đọc và đánh giá phê bình:**
+    *   **Đọc tóm tắt (Abstract) trước:** Để nắm bắt ý chính, mục tiêu, phương pháp, kết quả và kết luận của nghiên cứu. Điều này giúp bạn quyết định có nên đọc toàn văn hay không.
+    *   **Đọc phần Giới thiệu và Thảo luận:** Phần giới thiệu giúp bạn hiểu bối cảnh vấn đề, trong khi phần thảo luận giúp bạn hiểu ý nghĩa của kết quả và những hạn chế của nghiên cứu.
+    *   **Phân tích phương pháp:** Đánh giá tính khoa học và độ tin cậy của nghiên cứu (ví dụ: cỡ mẫu, thiết kế nghiên cứu, phương pháp thống kê).
+    *   **Tìm kiếm ý nghĩa lâm sàng:** Tự hỏi bài viết này có ý nghĩa gì đối với bệnh nhân của bạn? Nó có thay đổi cách bạn chẩn đoán hay điều trị không? Có thể áp dụng kết quả này trong môi trường của bạn không?
+*   **Kết nối thông tin:** Luôn cố gắng liên hệ thông tin mới đọc được với kiến thức ICD-10 mà bạn đã học. Ví dụ, khi đọc về một bệnh lý mới, hãy tra cứu mã ICD-10 tương ứng và các tiêu chí chẩn đoán theo chuẩn quốc tế để có cái nhìn toàn diện.
+*   **Thảo luận với đồng nghiệp và mentor:** Chia sẻ những gì bạn đọc được với các bác sĩ có kinh nghiệm hơn hoặc đồng nghiệp. Thảo luận sẽ giúp bạn củng cố kiến thức, nhận được góc nhìn đa chiều và hiểu rõ hơn về tính ứng dụng trong thực tế lâm sàng.</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Làm thế nào để các bác sĩ trẻ và sinh viên y khoa duy trì việc học hỏi liên tục và cập nhật các hướng dẫn lâm sàng mới nhất, đặc biệt khi dựa vào các nguồn như tạp chí y khoa và ICD-10?</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Để duy trì việc học hỏi liên tục và cập nhật các hướng dẫn lâm sàng mới nhất, đặc biệt là khi các bạn tiếp cận với các nguồn tài liệu phong phú như 'Vietnam Medical Journal' và hệ thống phân loại bệnh ICD-10, các bác sĩ trẻ và sinh viên y khoa cần áp dụng một số chiến lược hiệu quả:
+*   **Xây dựng thói quen đọc tài liệu khoa học định kỳ:** Dành thời gian nhất định mỗi tuần để đọc các tạp chí y khoa uy tín, bao gồm cả các ấn phẩm quốc tế và trong nước như 'Vietnam Medical Journal'. Tập trung vào các bài báo nghiên cứu gốc, tổng quan hệ thống, và các hướng dẫn lâm sàng mới.
+*   **Học cách đánh giá phê bình:** Không chỉ đọc, mà còn phải biết đánh giá chất lượng và độ tin cậy của thông tin. Hãy đặt câu hỏi về phương pháp nghiên cứu, cỡ mẫu, tính khách quan của tác giả và khả năng áp dụng vào bối cảnh lâm sàng của mình.
+*   **Tham gia các khóa đào tạo y khoa liên tục (CME):** Đây là một kênh chính thức để cập nhật kiến thức và kỹ năng. Chọn các khóa học phù hợp với chuyên ngành hoặc lĩnh vực bạn muốn phát triển, đặc biệt là những khóa học về cập nhật ICD-10 hoặc các phác đồ điều trị mới.
+*   **Sử dụng ICD-10 như một công cụ học tập:** Ngoài việc mã hóa bệnh, ICD-10 còn là một hệ thống phân loại giúp bạn hiểu rõ hơn về các nhóm bệnh, triệu chứng và quy trình. Thường xuyên tra cứu và tìm hiểu sâu hơn về các mã liên quan đến các trường hợp lâm sàng bạn gặp.
+*   **Tham gia cộng đồng y khoa và các buổi sinh hoạt khoa học:** Thảo luận với đồng nghiệp, bác sĩ có kinh nghiệm hơn, tham gia các hội thảo, hội nghị. Đây là cơ hội tuyệt vời để chia sẻ kiến thức, kinh nghiệm và nhận phản hồi.
+Dưới đây là một số ví dụ về nguồn tài liệu và hoạt động bạn có thể tham khảo:
+| Loại Nguồn Tài liệu/Hoạt động | Ví dụ Cụ thể | Giá trị Học tập |
+| :------------------------------ | :---------------------------------- | :------------------------------------------------------------------------------------------------------------------- |
+| **Tạp chí Y khoa**              | Vietnam Medical Journal, The Lancet | Cập nhật nghiên cứu mới, tổng quan, báo cáo ca lâm sàng. |
+| **Hướng dẫn Lâm sàng**          | Hướng dẫn chẩn đoán và điều trị của Bộ Y tế, WHO | Tiêu chuẩn hóa quy trình, phác đồ điều trị dựa trên bằng chứng. |
+| **Hệ thống Phân loại**          | ICD-10 | Hiểu rõ phân loại bệnh, chuẩn hóa mã hóa y tế, phục vụ nghiên cứu và thống kê. |
+| **Khóa học CME/Webinar**        | Các khóa CME trực tuyến về chuyên ngành, hội thảo cập nhật ICD-10 | Cung cấp kiến thức chuyên sâu, cấp chứng chỉ, tương tác với chuyên gia. |
+| **Thảo luận Lâm sàng**          | Buổi giao ban, hội chẩn liên chuyên khoa | Học hỏi từ kinh nghiệm thực tế, phát triển kỹ năng tư duy phản biện. |
+Việc kết hợp đa dạng các phương pháp trên sẽ giúp bạn xây dựng một nền tảng kiến thức vững chắc và luôn sẵn sàng thích nghi với những tiến bộ không ngừng của y học.</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Khi đọc các bài viết trong một tạp chí y khoa tổng quát như 'Vietnam Medical Journal', làm thế nào để em có thể chọn lọc thông tin hữu ích và tích hợp chúng vào thực hành lâm sàng hằng ngày một cách hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Để chọn lọc thông tin hữu ích và tích hợp chúng vào thực hành lâm sàng từ một tạp chí y khoa tổng quát, các bác sĩ trẻ và sinh viên y khoa cần có một quy trình tư duy và hành động có hệ thống. Dưới đây là các bước bạn có thể áp dụng:
+*   **Xác định mục tiêu học tập và nhu cầu lâm sàng của bản thân:** Trước khi đọc, hãy tự hỏi bạn đang tìm kiếm điều gì? Bạn đang gặp khó khăn trong chẩn đoán, điều trị bệnh nào, hay muốn cập nhật về một chủ đề cụ thể? Việc có mục tiêu rõ ràng giúp bạn dễ dàng lọc bỏ những bài viết không liên quan.
+*   **Đánh giá sự phù hợp của bài viết:**
+    *   **Tính liên quan đến chuyên ngành/lĩnh vực bạn quan tâm:** Một tạp chí tổng quát có thể có nhiều bài về các chuyên khoa khác nhau. Hãy tập trung vào những bài có nội dung gần với thực hành của bạn.
+    *   **Tính mới và tính thời sự:** Các bài nghiên cứu mới, đặc biệt là các hướng dẫn cập nhật, thường có giá trị cao hơn trong việc thay đổi thực hành lâm sàng.
+    *   **Uy tín của tác giả và tạp chí:** Mặc dù 'Vietnam Medical Journal' là một tạp chí uy tín, việc đánh giá chất lượng của từng bài viết vẫn là cần thiết.
+*   **Chắt lọc thông tin cốt lõi:** Sau khi đọc toàn văn, hãy tóm tắt những điểm chính: câu hỏi nghiên cứu, phương pháp chính, kết quả nổi bật và kết luận. Ghi lại các con số, khuyến nghị hoặc phác đồ cụ thể.
+*   **Đánh giá khả năng áp dụng vào thực tiễn:**
+    *   **Bệnh cảnh lâm sàng:** Kết quả nghiên cứu có phù hợp với đặc điểm bệnh nhân, dịch tễ học và nguồn lực tại cơ sở y tế của bạn không?
+    *   **Tương thích với hướng dẫn hiện hành:** Liệu thông tin mới có mâu thuẫn hay bổ sung cho các hướng dẫn điều trị của Bộ Y tế hoặc WHO không? Hãy luôn ưu tiên các hướng dẫn chính thống, được xác thực.
+*   **Thử nghiệm và đánh giá:**
+    *   **Trao đổi với mentor hoặc đồng nghiệp:** Trước khi áp dụng một thay đổi lớn, hãy thảo luận với các bác sĩ có kinh nghiệm để nhận được lời khuyên.
+    *   **Áp dụng có chọn lọc:** Bắt đầu với việc áp dụng thông tin mới vào một số trường hợp lâm sàng cụ thể và theo dõi kết quả. Đừng vội vàng thay đổi toàn bộ quy trình nếu chưa có đủ bằng chứng và kinh nghiệm.
+    *   **Ghi nhận kinh nghiệm:** Theo dõi hiệu quả của việc áp dụng thông tin mới. Điều này giúp bạn học hỏi từ chính kinh nghiệm của mình và điều chỉnh cho phù hợp hơn trong tương lai.</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Tạp chí Y học TP. Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Tạp chí khoa học chuyên ngành y tế hàng đầu khu vực phía Nam, cung cấp các nghiên cứu chuyên sâu, cập nhật thông tin y học đa dạng, là tài liệu tham khảo quan trọng cho bác sĩ, giảng viên và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Khóa học Phát triển Kỹ năng Phản biện Khoa học và Ứng dụng Bằng chứng Y học</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung rèn luyện tư duy phản biện cho các bác sĩ và sinh viên, giúp họ có khả năng đánh giá một cách khoa học các bài báo y tế, từ đó đưa ra các quyết định lâm sàng dựa trên bằng chứng một cách tự tin và hiệu quả, tối ưu hóa việc học từ các tạp chí chuyên ngành.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao kiến thức cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ đang nghiên cứu về chấn thương sọ não, tôi cần hiểu rõ về vai trò của sản phẩm gốc tự do trong cơ chế bệnh sinh. Dựa trên dữ liệu, làm thế nào để phân tích và ứng dụng thông tin về sự gia tăng sản phẩm gốc tự do ở bệnh nhân chấn thương sọ não (TBI) vào thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc hiểu rõ về sản phẩm gốc tự do là rất quan trọng trong cơ chế bệnh sinh của chấn thương sọ não (TBI). Dưới đây là cách bạn có thể phân tích và ứng dụng thông tin này:
+*   **Hiểu về vai trò của gốc tự do:** Gốc tự do là các phân tử không ổn định có thể gây tổn thương tế bào thông qua quá trình stress oxy hóa. Trong TBI, chấn thương ban đầu và các quá trình thứ phát (ví dụ: thiếu máu cục bộ, viêm) dẫn đến sự sản xuất quá mức các gốc tự do, gây tổn thương thêm cho tế bào thần kinh, mạch máu và hàng rào máu não.
+*   **Phân tích dữ liệu nghiên cứu:** Nghiên cứu đã chỉ ra sự gia tăng đáng kể sản phẩm gốc tự do trong bạch cầu ở nhóm đối chứng so với nhóm điều trị tế bào gốc trung mô (MSC) ở tất cả các thời điểm đánh giá sau TBI. Cụ thể, mức độ tăng gấp nhiều lần (ví dụ: 1.4 đến 2.79 lần từ 6 giờ đến 2 tháng sau chấn thương) cho thấy mức độ tổn thương oxy hóa cao trong TBI, đặc biệt khi không có sự can thiệp của MSC.
+*   **Ý nghĩa lâm sàng và hướng dẫn thực hành:**
+    *   **Nhận diện dấu hiệu stress oxy hóa:** Mặc dù việc đo trực tiếp gốc tự do trong lâm sàng còn hạn chế, nhưng sự hiểu biết này giúp chúng ta nhận ra vai trò của stress oxy hóa trong tổn thương thần kinh sau TBI. Bác sĩ cần cảnh giác với các dấu hiệu tổn thương thứ phát có thể liên quan đến stress oxy hóa.
+    *   **Tiềm năng điều trị:** Sự khác biệt giữa nhóm đối chứng và nhóm MSC gợi ý rằng MSC có thể có tác dụng bảo vệ thông qua cơ chế giảm stress oxy hóa. Đây là một hướng đi đầy hứa hẹn cho các liệu pháp trong tương lai. Tuy nhiên, hiện tại, các liệu pháp chống oxy hóa đặc hiệu cần được nghiên cứu thêm trong các thử nghiệm lâm sàng quy mô lớn.
+    *   **Quản lý tổng thể:** Trong khi chờ đợi các liệu pháp đặc hiệu, việc tối ưu hóa quản lý chăm sóc tích cực, duy trì ổn định huyết động, hô hấp và kiểm soát các yếu tố thứ phát (như sốt, co giật) là cực kỳ quan trọng để giảm thiểu tổn thương não, bao gồm cả tổn thương do gốc tự do.
+    *   **Nghiên cứu và phát triển:** Đối với các bác sĩ trẻ và sinh viên, đây là một lĩnh vực rộng lớn để tiếp tục nghiên cứu, tìm kiếm các biomarker (dấu ấn sinh học) của stress oxy hóa và phát triển các chiến lược can thiệp mới nhằm cải thiện kết cục cho bệnh nhân TBI.</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Cơ chế bệnh sinh chấn thương sọ não và vai trò của stress oxy hóa</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn toàn diện về các cơ chế sinh lý bệnh học liên quan đến chấn thương sọ não, đặc biệt tập trung vào vai trò của gốc tự do và stress oxy hóa trong tổn thương thần kinh. Rất hữu ích cho sinh viên và bác sĩ muốn đào sâu kiến thức nền tảng.</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Cập nhật kiến thức về sinh lý bệnh học TBI và tiềm năng điều trị</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Khóa học CME này sẽ thảo luận chi tiết về các cơ chế tổn thương thần kinh sau TBI, bao gồm stress oxy hóa, viêm và quá trình chết tế bào theo chương trình. Khóa học cũng cập nhật các hướng nghiên cứu mới và tiềm năng ứng dụng lâm sàng các liệu pháp bảo vệ thần kinh, giúp bác sĩ nắm bắt xu hướng điều trị hiện đại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao kiến thức cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Khi đọc kết quả chụp MRI sọ não của bệnh nhân chấn thương sọ não sau điều trị, một bác sĩ trẻ cần chú ý những điểm quan trọng nào để đánh giá hiệu quả điều trị và tiên lượng cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Việc đọc kết quả MRI sọ não sau điều trị cho bệnh nhân chấn thương sọ não (TBI) đòi hỏi sự chú ý đến nhiều chi tiết quan trọng để đánh giá hiệu quả can thiệp và tiên lượng. Dưới đây là các điểm mấu chốt mà một bác sĩ trẻ cần lưu ý:
+*   **Đánh giá cấu trúc đường giữa:** Đây là một trong những chỉ số quan trọng nhất. Sự dịch chuyển đường giữa (midline shift) từ 7mm trở lại bình thường là một dấu hiệu tích cực, cho thấy áp lực nội sọ đã được kiểm soát và phù não đã giảm. Bạn cần so sánh với hình ảnh trước điều trị và các mốc thời gian sau điều trị (1, 2, 6 tháng).
+*   **Thay đổi thể tích nội sọ và dịch não tủy (CSF):** Sự không thay đổi đáng kể về thể tích nội sọ và CSF là một dấu hiệu tốt, cho thấy không có tình trạng giãn não thất do ứ nước hoặc teo não nghiêm trọng sau chấn thương, vốn là các biến chứng thường gặp.
+*   **Bảo tồn cấu trúc não:** Đánh giá tổng thể xem có bằng chứng về việc bảo tồn cấu trúc não, giảm tổn thương nhu mô não hay không. Cụ thể, cần xem xét các tổn thương dập não, tụ máu, hoặc phù não còn tồn tại hay đã cải thiện.
+*   **Đánh giá các tổn thương thứ phát:** Kiểm tra các tổn thương thứ phát như thiếu máu cục bộ, nhồi máu não mới, hoặc các vùng hoại tử có thể xuất hiện sau chấn thương.
+*   **So sánh đa phương thức:** Dù văn bản chỉ đề cập MRI, trong thực hành lâm sàng, thường sẽ có cả CT sọ não lúc nhập viện. Việc so sánh kết quả CT ban đầu với MRI sau đó giúp có cái nhìn toàn diện về quá trình diễn biến của tổn thương.
+*   **Sử dụng các chuỗi xung MRI phù hợp:** Các chuỗi xung như Axial T1W, T2W, FLAIR, Sagittal T1W là tiêu chuẩn để khảo sát tổn thương. Không tiêm thuốc cản quang từ tính (magnetic resist drugs) trong trường hợp này có thể do tập trung vào các thay đổi cấu trúc nhu mô hơn là tổn thương mạch máu hoặc u.
+Để hỗ trợ bạn trong việc đọc phim MRI, hãy tham khảo bảng các điểm cần chú ý sau:
+| Tiêu chí đánh giá               | Bình thường/Cải thiện                                  | Bất thường/Cần quan tâm                                     | Ý nghĩa lâm sàng                                                          |
+| :----------------------------- | :---------------------------------------------------- | :--------------------------------------------------------- | :----------------------------------------------------------------------- |
+| **Dịch chuyển đường giữa**      | Trở về bình thường (ví dụ: từ 7mm về &lt; 5mm)             | Vẫn còn dịch chuyển &gt; 5mm                                  | Mức độ kiểm soát áp lực nội sọ, phù não và khối choán chỗ                  |
+| **Thể tích nội sọ**             | Không thay đổi đáng kể so với trước                     | Giảm thể tích (teo não), tăng thể tích (ứ nước, phù nặng) | Tiên lượng lâu dài về chức năng nhận thức, biến chứng sau TBI             |
+| **Dịch não tủy (CSF)**          | Không thay đổi đáng kể                                 | Tăng/giảm bất thường (ví dụ: giãn não thất, rỗng tủy)     | Biến chứng giãn não thất, hoặc rối loạn tuần hoàn CSF                    |
+| **Cấu trúc nhu mô não**         | Bảo tồn, giảm phù, giảm kích thước tổn thương dập não | Tổn thương mới, tổn thương cũ không cải thiện, hoại tử   | Mức độ phục hồi mô não, khả năng di chứng                               |
+| **Tổn thương mạch máu/tủy sống** | Không phát hiện                                        | Phình mạch, hẹp mạch, tổn thương tủy sống đồng thời       | Biến chứng mạch máu, tổn thương phụ liên quan TBI                         |</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Hướng dẫn đọc và phân tích MRI sọ não trong chấn thương</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một hướng dẫn chi tiết về cách đọc và phân tích hình ảnh MRI sọ não ở bệnh nhân chấn thương, đặc biệt hữu ích cho việc nhận diện các dấu hiệu lâm sàng quan trọng và đánh giá kết quả điều trị.</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>MRI trong chấn thương sọ não: Từ chẩn đoán đến theo dõi điều trị</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các kỹ thuật MRI tiên tiến trong chẩn thương sọ não (TBI), cách diễn giải hình ảnh từ các chuỗi xung khác nhau, và cách sử dụng MRI để theo dõi sự tiến triển của bệnh và đánh giá hiệu quả của các phương pháp điều trị, bao gồm cả các liệu pháp mới.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao kiến thức cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Dựa trên kết quả nghiên cứu về điều trị chấn thương sọ não (TBI) bằng tế bào gốc trung mô tự thân, một bác sĩ hoặc sinh viên y khoa cần hiểu những điểm cốt lõi nào về phương pháp này và các yếu tố cần cân nhắc khi đánh giá một liệu pháp mới?</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Kết quả nghiên cứu về việc sử dụng tế bào gốc trung mô tự thân (autologous mesenchymal stem cells - MSCs) trong điều trị TBI cho thấy những tín hiệu tích cực so với các phương pháp thông thường, đặc biệt là bệnh nhân cấy ghép cho thấy phản ứng tích cực sau 1 tuần. Dưới đây là những điểm cốt lõi và các yếu tố cần cân nhắc:
+*   **Hiểu về Tế bào gốc trung mô (MSCs):** MSCs là các tế bào đa năng có khả năng biệt hóa thành nhiều loại tế bào khác nhau và quan trọng hơn là có khả năng điều hòa miễn dịch, chống viêm, tiết ra các yếu tố tăng trưởng và thần kinh bảo vệ. Việc sử dụng tế bào tự thân (autologous) giúp giảm thiểu nguy cơ thải ghép hoặc phản ứng miễn dịch.
+*   **Cơ chế tác dụng tiềm năng trong TBI:**
+    *   **Bảo vệ thần kinh:** Tiết ra các yếu tố nuôi dưỡng thần kinh, giảm chết tế bào thần kinh.
+    *   **Điều hòa miễn dịch và chống viêm:** Giảm phản ứng viêm quá mức sau chấn thương, vốn là nguyên nhân gây tổn thương thứ phát.
+    *   **Thúc đẩy tái tạo:** Khuyến khích sự hình thành mạch máu mới và sửa chữa mô tổn thương.
+    *   **Giảm stress oxy hóa:** Như đã thấy trong đoạn văn, MSCs có thể giúp giảm sản phẩm gốc tự do.
+*   **Đánh giá kết quả ban đầu:** Nghiên cứu cho thấy 'kết quả dương tính' và 'phản ứng tích cực sau 1 tuần' là những tín hiệu đáng khích lệ. Điều này gợi ý một tác động nhanh chóng và có lợi. Tuy nhiên, bạn cần hiểu rằng đây là 'nghiên cứu lâm sàng hiện tại của chúng tôi' (our present clinical research), nghĩa là có thể đây là một nghiên cứu ban đầu hoặc giai đoạn sớm. Để một liệu pháp được chấp nhận rộng rãi, cần có thêm các thử nghiệm lâm sàng ngẫu nhiên có đối chứng, quy mô lớn, với thời gian theo dõi dài hơn.
+*   **Yếu tố cần cân nhắc khi đánh giá liệu pháp mới:**
+    *   **Tính an toàn:** Liệu pháp có gây ra tác dụng phụ nghiêm trọng không? MSCs tự thân thường an toàn hơn nhưng vẫn cần đánh giá kỹ lưỡng.
+    *   **Hiệu quả lâu dài:** Các cải thiện ban đầu có được duy trì về lâu dài không? Ví dụ, nghiên cứu đề cập đến kết quả MRI sau 6 tháng, điều này là quan trọng.
+    *   **Thiết kế nghiên cứu:** Liệu có nhóm đối chứng phù hợp không? Kết quả có ý nghĩa thống kê không (như P&lt;0.05, P&lt;0.01 đã nêu trong phần gốc tự do)?
+    *   **Tiêu chuẩn lựa chọn bệnh nhân:** Những bệnh nhân nào có khả năng hưởng lợi nhiều nhất? Việc 'xây dựng mối tương quan về liều cấy ghép tế bào' cho thấy sự chú ý đến việc tối ưu hóa liệu trình điều trị.
+    *   **Khả năng ứng dụng rộng rãi:** Chi phí, tính khả thi trong việc thu thập và cấy ghép MSCs trên quy mô lớn.
+Đối với bác sĩ và sinh viên, việc tiếp cận các liệu pháp mới như MSCs cần có cái nhìn khoa học, phê phán. Bạn cần luôn cập nhật các hướng dẫn lâm sàng mới nhất và các bằng chứng y học đáng tin cậy để đưa ra quyết định điều trị tối ưu cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Hướng dẫn ứng dụng tế bào gốc trong y học tái tạo</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một cái nhìn tổng quan về các nguyên tắc, ứng dụng và thách thức của liệu pháp tế bào gốc trong y học tái tạo, bao gồm các cân nhắc về an toàn và hiệu quả, đặc biệt trong các bệnh lý thần kinh.</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Liệu pháp tế bào gốc trong chấn thương sọ não: Từ nghiên cứu đến lâm sàng</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các tiến bộ mới nhất trong liệu pháp tế bào gốc cho TBI, bao gồm cơ chế hoạt động, kết quả từ các thử nghiệm lâm sàng, và các yếu tố cần thiết để chuyển giao công nghệ từ nghiên cứu sang ứng dụng lâm sàng, giúp các chuyên gia y tế đánh giá và áp dụng kiến thức một cách hợp lý.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Dựa trên nghiên cứu, sinh viên y khoa và bác sĩ trẻ cần hiểu rõ những điểm cốt lõi nào về tính an toàn và hiệu quả của liệu pháp tế bào gốc trung mô (MSC) trong điều trị chấn thương sọ não (TBI) nặng?</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Chào các em và các đồng nghiệp trẻ, khi tìm hiểu về các phương pháp điều trị tiên tiến như liệu pháp tế bào gốc trung mô (MSC) trong chấn thương sọ não (TBI) nặng, chúng ta cần nắm vững cả khía cạnh an toàn và hiệu quả để có cái nhìn toàn diện và ứng dụng đúng đắn vào thực hành lâm sàng. 
+**1. Về tính an toàn của liệu pháp MSC:**
+   *   **Không có tác dụng phụ đáng kể:** Nghiên cứu cho thấy liệu pháp MSC được dung nạp tốt. Điều quan trọng là không ghi nhận các biến cố nghiêm trọng như thuyên tắc huyết khối tĩnh mạch, hình thành khối u, nhiễm trùng nội sọ hay nhiễm trùng toàn thân ở bất kỳ bệnh nhân nào sau khi cấy ghép.
+   *   **Theo dõi chặt chẽ:** Mặc dù an toàn, việc theo dõi định kỳ sau điều trị là cực kỳ cần thiết để phát hiện sớm bất kỳ biến chứng tiềm ẩn nào, đặc biệt là thông qua các xét nghiệm hình ảnh như MRI để đảm bảo không có tổn thương mới hoặc khối u phát triển.
+**2. Về hiệu quả lâm sàng của liệu pháp MSC:**
+   *   **Phục hồi chức năng thần kinh nhanh chóng:** Các chỉ số lâm sàng như thang điểm Glasgow Coma Scale (GCS), National Institutes of Health Stroke Scale (NIHSS) và Barthel Index (BI) cho thấy sự cải thiện đáng kể về chức năng thần kinh chỉ sau 3-7 ngày điều trị MSC, phản ánh sự phục hồi nhanh chóng về sức khỏe, chức năng vận động và ý thức.
+   *   **Giảm phản ứng viêm hệ thống:** Liệu pháp MSC đã được chứng minh là làm giảm nồng độ các dấu ấn viêm trong huyết tương như IL-6, TNF-α, CRP và bạch cầu. Điều này cho thấy MSC có khả năng điều hòa phản ứng viêm quá mức sau TBI, một yếu tố quan trọng gây tổn thương thứ phát và đa cơ quan.
+   *   **Cải thiện chất lượng sống:** Mặc dù cần thận trọng với khả năng hồi phục tự nhiên, các nghiên cứu (như của Cox et al. và Tian et al.) cũng chỉ ra rằng một tỷ lệ đáng kể bệnh nhân (đặc biệt là với tình trạng thực vật dai dẳng hoặc rối loạn vận động) có sự cải thiện rõ rệt về ý thức và chức năng vận động sau điều trị MSC.
+Việc hiểu rõ những điểm này giúp chúng ta không chỉ áp dụng liệu pháp một cách có trách nhiệm mà còn biết cách giải thích thông tin cho bệnh nhân và gia đình một cách khoa học và đáng tin cậy.</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị Chấn thương sọ não (TBI) theo Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các phác đồ chẩn đoán, phân loại (theo ICD-10) và nguyên tắc điều trị TBI toàn diện, bao gồm các phương pháp điều trị tiên tiến và chăm sóc phục hồi chức năng, giúp bác sĩ lâm sàng cập nhật kiến thức và áp dụng hiệu quả vào thực hành. Nó là nền tảng vững chắc để hiểu các can thiệp mới như liệu pháp MSC.</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Cập nhật liệu pháp tế bào gốc trong thần kinh học và chấn thương sọ não</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các tiến bộ mới nhất trong ứng dụng tế bào gốc, đặc biệt là tế bào gốc trung mô (MSC), trong điều trị các bệnh lý thần kinh và TBI. Khóa học sẽ bao gồm cơ chế tác dụng, bằng chứng lâm sàng, các hướng dẫn thực hành và cân nhắc đạo đức, giúp học viên nâng cao kỹ năng lâm sàng và hiểu biết về nghiên cứu trong lĩnh vực này.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Khi đánh giá hiệu quả của liệu pháp tế bào gốc trung mô (MSC) ở bệnh nhân chấn thương sọ não (TBI), các bác sĩ cần lưu ý những chỉ số lâm sàng và dấu ấn sinh học nào? Đồng thời, làm thế nào để diễn giải kết quả một cách thận trọng?</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Các bác sĩ trẻ và sinh viên y khoa thân mến, việc đánh giá hiệu quả điều trị trong TBI đòi hỏi một cách tiếp cận đa chiều, kết hợp các chỉ số lâm sàng và cận lâm sàng. Đặc biệt với các liệu pháp mới như MSC, sự thận trọng trong diễn giải kết quả là vô cùng quan trọng.
+**1. Các chỉ số lâm sàng cần theo dõi:**
+   *   **Glasgow Coma Scale (GCS):** Đánh giá mức độ ý thức của bệnh nhân. Sự cải thiện về điểm GCS cho thấy phục hồi về ý thức. Trong nghiên cứu, GCS của nhóm MSC đã cải thiện đáng kể sau 3-7 ngày.
+   *   **National Institutes of Health Stroke Scale (NIHSS):** Mặc dù chủ yếu dùng cho đột quỵ, NIHSS cũng có thể được áp dụng để đánh giá các khiếm khuyết thần kinh cục bộ như chức năng vận động, cảm giác, ngôn ngữ, và sự tỉnh táo ở bệnh nhân TBI. Sự cải thiện điểm NIHSS phản ánh sự phục hồi chức năng thần kinh.
+   *   **Barthel Index (BI):** Đánh giá mức độ độc lập của bệnh nhân trong các hoạt động sinh hoạt hàng ngày (ADL). Điểm BI cao hơn cho thấy khả năng tự chăm sóc và vận động được cải thiện, điều này rất quan trọng trong phục hồi chức năng TBI.
+   *   **Chức năng vận động và nhận thức:** Cần theo dõi sự cải thiện về khả năng vận động (ví dụ: ở bệnh nhân rối loạn vận động) và các chức năng nhận thức khác.
+**2. Dấu ấn sinh học và cận lâm sàng:**
+   *   **Chỉ số viêm:** Theo dõi mức độ giảm của các cytokine tiền viêm (IL-6, TNF-α, CRP) và số lượng bạch cầu. Việc giảm các chỉ số này cho thấy liệu pháp MSC có tác dụng điều hòa phản ứng viêm hệ thống.
+   *   **Hình ảnh học (MRI):** Đánh giá định kỳ bằng MRI giúp phát hiện bất kỳ tổn thương mới nào, sự phát triển khối u, hoặc những thay đổi tích cực trong phục hồi cấu trúc não. Trong nghiên cứu, MRI cho thấy không có tổn thương mới hay khối u.
+**3. Diễn giải kết quả một cách thận trọng:**
+   *   **Khả năng phục hồi tự nhiên:** Chúng ta phải luôn nhớ rằng một mức độ phục hồi lâm sàng nhất định có thể xảy ra tự nhiên ở đa số bệnh nhân sau TBI, ngay cả khi không có can thiệp điều trị đặc biệt. Do đó, cần có nhóm đối chứng để so sánh hiệu quả của liệu pháp MSC.
+   *   **Cỡ mẫu nhỏ và thời gian theo dõi:** Các nghiên cứu ban đầu thường có cỡ mẫu nhỏ và thời gian theo dõi hạn chế. Điều này đòi hỏi chúng ta không nên đưa ra kết luận quá vội vàng và cần thêm các nghiên cứu quy mô lớn hơn, đa trung tâm với thời gian theo dõi dài hơn.
+   *   **Biến đổi cá thể:** Hiệu quả điều trị có thể khác nhau tùy thuộc vào từng bệnh nhân, mức độ nghiêm trọng của TBI, độ tuổi và các yếu tố đồng mắc khác. 
+Dưới đây là một bảng so sánh tóm tắt một số điểm khác biệt giữa nhóm điều trị MSC và nhóm đối chứng theo nghiên cứu đã nêu:
+| Chỉ số/Đặc điểm               | Nhóm điều trị MSC                                      | Nhóm đối chứng (Control)                                     |
+| :---------------------------- | :----------------------------------------------------- | :----------------------------------------------------------- |
+| **Hồi phục ý thức/vận động**  | GCS, NIHSS cải thiện đáng kể sau 3-7 ngày             | Cải thiện không đáng kể, chủ yếu vào cuối giai đoạn theo dõi |
+| **Triệu chứng kéo dài**      | Phục hồi nhanh, ít than phiền đau đầu kéo dài           | Thường than phiền đau đầu trong nhiều tuần sau chấn thương   |
+| **Tác dụng phụ**              | Không có tác dụng phụ đáng kể (VTE, khối u, nhiễm trùng) | Không áp dụng (không có can thiệp)                            |
+| **Chỉ số viêm (IL-6, TNF-α, CRP)** | Giảm đáng kể nồng độ trong huyết tương               | Thường duy trì ở mức cao hoặc giảm chậm                       |
+| **Tổn thương mới trên MRI**   | Không có tổn thương mới hoặc khối u phát triển         | Không đề cập cụ thể, nhưng thường liên quan đến quá trình hồi phục tự nhiên |
+Việc phân tích kỹ lưỡng các chỉ số này giúp chúng ta đánh giá đúng giá trị của liệu pháp MSC và đặt nó vào bối cảnh lâm sàng tổng thể.</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Giáo trình Thần kinh học lâm sàng: Chẩn đoán và quản lý bệnh lý</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Giáo trình này là tài liệu cốt lõi cho sinh viên và bác sĩ y khoa, cung cấp kiến thức sâu rộng về các bệnh lý thần kinh, bao gồm chấn thương sọ não (TBI), các phương pháp chẩn đoán hình ảnh và đánh giá lâm sàng thần kinh (GCS, NIHSS), giúp nắm vững nền tảng để thực hành hiệu quả và diễn giải các chỉ số đánh giá một cách chính xác.</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Kỹ năng đánh giá lâm sàng thần kinh và diễn giải hình ảnh học (MRI/CT) trong chấn thương sọ não</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Khóa học CME này trang bị cho bác sĩ và sinh viên y khoa các kỹ năng cần thiết để đánh giá chính xác tình trạng thần kinh của bệnh nhân TBI thông qua các thang điểm tiêu chuẩn (GCS, NIHSS, BI) và diễn giải kết quả hình ảnh học (MRI, CT). Khóa học cũng nhấn mạnh tầm quan trọng của việc theo dõi dấu ấn sinh học và đưa ra quyết định điều trị tối ưu dựa trên bằng chứng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Liệu pháp tế bào gốc trung mô (MSC) ảnh hưởng như thế nào đến phản ứng viêm sau chấn thương sọ não (TBI) và những bài học kinh nghiệm nào có thể rút ra từ các nghiên cứu khác để định hướng thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và đồng nghiệp thân mến, hiểu rõ cơ chế tác động của liệu pháp MSC, đặc biệt là ảnh hưởng của nó lên phản ứng viêm sau TBI, là chìa khóa để khai thác tối đa tiềm năng của phương pháp này. Đồng thời, việc tổng hợp kiến thức từ các nghiên cứu khác sẽ củng cố cơ sở khoa học cho thực hành lâm sàng.
+**1. Ảnh hưởng của MSC đến phản ứng viêm sau TBI:**
+   *   **Giảm các dấu ấn viêm:** Nghiên cứu đã chứng minh rằng việc cấy ghép MSC làm giảm đáng kể nồng độ các chất trung gian gây viêm như IL-6 (Interleukin-6), TNF-α (Tumor Necrosis Factor-alpha), CRP (C-Reactive Protein) và số lượng bạch cầu trong huyết tương của bệnh nhân TBI. Đây là những chỉ dấu quan trọng cho thấy phản ứng viêm hệ thống đã được kiểm soát.
+   *   **Điều hòa miễn dịch:** Phản ứng viêm sau TBI có thể dẫn đến tổn thương đa cơ quan hoặc thậm chí tử vong. MSC hoạt động như một chất điều hòa miễn dịch mạnh mẽ. Chúng không chỉ giảm sản xuất các tế bào miễn dịch mà còn tăng cường hoạt động của tế bào lympho bằng cách tăng cường sản xuất interferon trong cơ thể. Điều này cho thấy MSC có khả năng điều chỉnh một cách tinh vi tương tác giữa tế bào gốc và các phản ứng miễn dịch bắt nguồn từ TBI.
+   *   **Ngăn ngừa tổn thương thứ phát:** Bằng cách kiểm soát phản ứng viêm, MSC giúp hạn chế sự xâm nhập của các chất trung gian gây viêm vào vị trí tổn thương, từ đó giảm thiểu tổn thương thứ phát cho mô não và các cơ quan khác.
+**2. Bài học kinh nghiệm từ các nghiên cứu khác:**
+   *   **Nghiên cứu của Cox et al.:** Nghiên cứu trên 10 trẻ em bị TBI nặng (GCS 5-8) được ghép MSC cho thấy 7/10 trẻ có cải thiện tích cực về GCS. Điều này củng cố bằng chứng về tiềm năng của MSC ngay cả ở đối tượng bệnh nhân nhi, tuy nhiên cũng chỉ ra rằng không phải tất cả bệnh nhân đều đáp ứng đồng đều.
+   *   **Nghiên cứu của Tian et al.:** Nghiên cứu trên người lớn (97 bệnh nhân) với tình trạng thực vật dai dẳng (24 bệnh nhân) và rối loạn vận động (73 bệnh nhân) đã nhận liệu pháp tế bào gốc trung mô tủy xương tự thân. Kết quả rất đáng khích lệ: 39.2% bệnh nhân cải thiện chức năng não, 45.8% bệnh nhân thực vật dai dẳng cải thiện ý thức, và 37.0% bệnh nhân rối loạn vận động cải thiện chức năng vận động. Nghiên cứu này cho thấy tiềm năng của MSC trong việc cải thiện các di chứng nặng nề của TBI, không chỉ ở giai đoạn cấp tính mà còn ở giai đoạn mạn tính.
+   *   **Quan trọng của nghiên cứu so sánh:** Các nghiên cứu này, cùng với nghiên cứu đang được phân tích, đều nhấn mạnh tầm quan trọng của việc có nhóm đối chứng và cỡ mẫu đủ lớn để đưa ra kết luận có giá trị thống kê. Việc so sánh kết quả giữa các nghiên cứu giúp chúng ta hiểu rõ hơn về tính nhất quán của hiệu quả liệu pháp MSC và xác định các yếu tố tiên lượng đáp ứng.
+Nhìn chung, liệu pháp MSC hứa hẹn một hướng đi mới trong điều trị TBI, không chỉ thông qua khả năng tái tạo mà còn qua khả năng điều hòa miễn dịch và chống viêm, giảm thiểu những biến chứng lâu dài. Tuy nhiên, cần tiếp tục nghiên cứu sâu rộng để chuẩn hóa quy trình và xác định chính xác đối tượng bệnh nhân hưởng lợi nhiều nhất.</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Nghiên cứu về cơ chế bệnh sinh và điều trị phản ứng viêm trong chấn thương sọ não</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Tài liệu này đi sâu vào cơ chế phân tử của phản ứng viêm sau TBI và các chiến lược điều trị nhằm kiểm soát quá trình này, bao gồm cả vai trò của tế bào gốc. Nó cung cấp kiến thức nền tảng quan trọng cho việc hiểu và áp dụng các liệu pháp điều biến miễn dịch như tế bào gốc, đồng thời là nguồn tham khảo cho các nghiên cứu tiếp theo.</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Phương pháp nghiên cứu lâm sàng và phân tích tổng hợp trong y học dựa trên bằng chứng</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Khóa học CME này sẽ trang bị cho các bác sĩ và nhà nghiên cứu y khoa các kỹ năng cần thiết để thiết kế, thực hiện và đánh giá các nghiên cứu lâm sàng một cách khoa học. Học viên sẽ học cách phân tích và diễn giải kết quả từ các nghiên cứu khác, bao gồm cả phân tích tổng hợp, để đưa ra bằng chứng y học đáng tin cậy và áp dụng vào thực hành lâm sàng một cách hợp lý và hiệu quả, đặc biệt trong việc đánh giá các liệu pháp mới.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Làm thế nào để liệu pháp tế bào gốc trung mô (MSC) giúp giảm viêm và cải thiện tiên lượng ở bệnh nhân chấn thương sọ não (TBI), và bác sĩ lâm sàng cần lưu ý gì khi xem xét phương pháp này?</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Kính gửi các bác sĩ trẻ và sinh viên y khoa,
+Liệu pháp tế bào gốc trung mô (MSC) đang mở ra một hướng nghiên cứu đầy hứa hẹn trong điều trị chấn thương sọ não (TBI), đặc biệt là trong việc kiểm soát phản ứng viêm. Dưới đây là những điểm cốt lõi các bạn cần nắm vững:
+*   **Cơ chế tác động của MSC trong TBI:**
+    *   **Điều hòa miễn dịch và chống viêm:** MSC có khả năng tiết ra các yếu tố hòa tan như cytokine kháng viêm (ví dụ: IL-10, TGF-β) và chemokine, đồng thời tương tác trực tiếp với các tế bào miễn dịch (như đại thực bào, tế bào T) để ức chế phản ứng viêm quá mức. Điều này giúp giảm nồng độ các yếu tố gây viêm trong huyết thanh và tại vị trí tổn thương não.
+    *   **Bảo vệ thần kinh:** Ngoài tác dụng chống viêm, MSC còn tiết ra các yếu tố tăng trưởng thần kinh (neurotrophic factors) và yếu tố mạch máu (angiogenic factors), giúp bảo vệ tế bào thần kinh, thúc đẩy quá trình tái tạo mạch máu và hình thành các kết nối thần kinh mới, từ đó cải thiện chức năng thần kinh và hạn chế các biến chứng kéo dài.
+    *   **Ức chế quá trình chết theo chương trình (apoptosis):** MSC có khả năng giảm thiểu sự chết của tế bào thần kinh sau chấn thương, góp phần bảo tồn mô não.
+*   **Lưu ý lâm sàng khi đánh giá liệu pháp MSC:**
+    *   **Nguồn gốc và loại tế bào:** MSC có thể được phân lập từ nhiều nguồn (tủy xương, mô mỡ, dây rốn...). Hiệu quả và đặc tính của chúng có thể khác nhau tùy thuộc vào nguồn gốc.
+    *   **Thời điểm và đường dùng:** Thời điểm can thiệp (giai đoạn cấp tính, bán cấp hay mạn tính) và đường dùng (tiêm tĩnh mạch, tiêm nội sọ, tiêm tủy sống) đều ảnh hưởng đến hiệu quả điều trị. Các nghiên cứu hiện tại gợi ý rằng can thiệp sớm có thể mang lại lợi ích lớn hơn.
+    *   **Tiêu chuẩn lựa chọn bệnh nhân:** Liệu pháp này thường được xem xét cho các trường hợp TBI nặng hoặc có nguy cơ biến chứng cao. Tuy nhiên, vẫn cần nghiên cứu sâu hơn để xác định nhóm bệnh nhân lý tưởng.
+    *   **Giám sát và đánh giá:** Cần theo dõi chặt chẽ các chỉ số viêm (như CRP, Procalcitonin) và tình trạng lâm sàng của bệnh nhân để đánh giá đáp ứng điều trị. Các biến chứng tiềm ẩn cần được phát hiện sớm.
+    *   **Bằng chứng khoa học và hướng dẫn:** Hiện tại, liệu pháp MSC cho TBI vẫn chủ yếu nằm trong các nghiên cứu lâm sàng. Các bác sĩ cần cập nhật các hướng dẫn lâm sàng mới nhất và tuân thủ các quy định của Bộ Y tế Việt Nam (tham khảo ICD-10 cho chẩn đoán S06.x - Chấn thương nội sọ và các mã liên quan đến biến chứng viêm R65.x).
+Việc hiểu rõ cơ chế và các yếu tố liên quan sẽ giúp các bạn đưa ra quyết định lâm sàng sáng suốt, đồng thời đóng góp vào sự phát triển của y học tái tạo.</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Với vai trò là một bác sĩ lâm sàng trẻ, tôi nên tiếp cận việc theo dõi và quản lý phản ứng viêm toàn thân ở bệnh nhân chấn thương hệ thần kinh trung ương (CNS) như thế nào, và những công cụ chẩn đoán nào là phù hợp nhất?</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Các bạn đồng nghiệp thân mến,
+Phản ứng viêm đóng vai trò then chốt trong bệnh sinh tổn thương hệ thần kinh trung ương (CNS), không chỉ là một phản ứng cục bộ mà còn có thể lan rộng thành phản ứng viêm toàn thân (SIRS), ảnh hưởng nghiêm trọng đến tiên lượng bệnh nhân. Việc theo dõi và quản lý hiệu quả là vô cùng quan trọng. Dưới đây là cách tiếp cận mà các bạn nên cân nhắc:
+**1. Hiểu rõ về vai trò của viêm trong tổn thương CNS:**
+*   Phản ứng viêm ban đầu là cơ chế bảo vệ, nhưng nếu kéo dài hoặc quá mức, nó có thể dẫn đến tổn thương thứ phát cho não, gây phù não, tăng áp lực nội sọ và chết tế bào thần kinh.
+*   Hội chứng đáp ứng viêm toàn thân (SIRS) có thể phát triển do chấn thương nặng, nhiễm trùng hoặc các biến chứng khác, làm nặng thêm tình trạng tổn thương não và gây suy đa cơ quan.
+**2. Các công cụ theo dõi và chẩn đoán:**
+Để giám sát chặt chẽ tình trạng viêm, các bạn cần kết hợp theo dõi lâm sàng và cận lâm sàng:
+| Công cụ giám sát        | Mục đích / Ý nghĩa lâm sàng                                                                 | Giá trị tham chiếu / Lưu ý                                          |
+| :---------------------- | :------------------------------------------------------------------------------------------ | :------------------------------------------------------------------- |
+| **Dấu hiệu lâm sàng**   |                                                                                             |                                                                      |
+| Nhiệt độ cơ thể         | Sốt là dấu hiệu phổ biến của viêm hoặc nhiễm trùng.                                       | Sốt (&gt;38°C) hoặc hạ thân nhiệt (&lt;36°C)                               |
+| Nhịp tim                | Nhịp tim nhanh (tachycardia) thường đi kèm với phản ứng viêm.                              | &gt;90 nhịp/phút (không liên quan đến thuốc/bệnh lý khác)              |
+| Nhịp thở                | Thở nhanh (tachypnea) có thể là dấu hiệu suy hô hấp hoặc đáp ứng viêm.                     | &gt;20 lần/phút                                                        |
+| Tình trạng ý thức       | Mất định hướng, lú lẫn, hôn mê có thể là dấu hiệu suy giảm chức năng não do viêm/nhiễm trùng. | Glasgow Coma Scale (GCS) thay đổi so với ban đầu                     |
+| **Chỉ số cận lâm sàng** |                                                                                             |                                                                      |
+| Công thức máu           | Tăng hoặc giảm bạch cầu (Leukocytosis/Leukopenia) là dấu hiệu của viêm/nhiễm trùng.      | Bạch cầu &gt;12,000/mm³ hoặc &lt;4,000/mm³                               |
+| Protein phản ứng C (CRP) | Chỉ điểm viêm không đặc hiệu, tăng nhanh trong các tình trạng viêm cấp.                   | &gt;10 mg/L (tăng đáng kể trong viêm)                                  |
+| Procalcitonin (PCT)     | Chỉ điểm viêm có độ nhạy và đặc hiệu cao hơn CRP trong việc phát hiện nhiễm khuẩn nặng và sepsis. | &gt;0.5 ng/mL (có thể tăng trong nhiễm khuẩn nặng, sepsis)             |
+| Interleukin-6 (IL-6)    | Một cytokine tiền viêm, có thể tăng sớm sau chấn thương và liên quan đến mức độ tổn thương. | Thường dùng trong nghiên cứu, không thường quy lâm sàng.           |
+**3. Nguyên tắc quản lý phản ứng viêm:**
+*   **Nhận diện sớm:** Luôn cảnh giác với các dấu hiệu của SIRS và nhiễm trùng. Sử dụng ICD-10 để mã hóa các chẩn đoán liên quan (ví dụ: S06.x cho chấn thương sọ não, R65.x cho SIRS).
+*   **Điều trị nguyên nhân:** Nếu có nhiễm trùng, cần điều trị bằng kháng sinh phù hợp. Nếu viêm không do nhiễm trùng, cần xem xét các biện pháp hỗ trợ và điều hòa miễn dịch.
+*   **Hỗ trợ chức năng sống:** Đảm bảo oxy hóa đầy đủ, huyết động ổn định, kiểm soát đường huyết.
+*   **Kiểm soát nhiệt độ:** Hạ sốt tích cực khi cần thiết, nhưng cũng cần tránh hạ thân nhiệt quá mức.
+*   **Cân nhắc liệu pháp chống viêm:** Việc sử dụng corticosteroid hoặc các thuốc chống viêm khác trong TBI vẫn còn nhiều tranh cãi và cần được cân nhắc kỹ lưỡng, dựa trên bằng chứng và hướng dẫn lâm sàng hiện hành.
+Việc tích hợp các kiến thức về sinh lý bệnh, giám sát lâm sàng và cận lâm sàng sẽ giúp các bạn đưa ra quyết định quản lý hiệu quả, giảm thiểu biến chứng và cải thiện tiên lượng cho bệnh nhân chấn thương CNS.</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Những chiến lược chính nào để hạn chế các biến chứng kéo dài và cải thiện chất lượng cuộc sống lâu dài cho bệnh nhân sau khi xuất viện vì chấn thương sọ não (TBI), đặc biệt từ góc độ phục hồi chức năng?</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thưa các bác sĩ trẻ và sinh viên y khoa,
+Việc chăm sóc bệnh nhân chấn thương sọ não (TBI) không kết thúc khi bệnh nhân xuất viện. Giai đoạn sau xuất viện, đặc biệt là phục hồi chức năng và quản lý biến chứng lâu dài, đóng vai trò cực kỳ quan trọng trong việc cải thiện chất lượng cuộc sống của bệnh nhân. Dưới đây là các chiến lược cốt lõi mà các bạn cần lưu ý:
+*   **1. Phục hồi chức năng đa chuyên khoa liên tục:**
+    *   **Phục hồi chức năng thể chất:** Vật lý trị liệu để cải thiện sức mạnh, thăng bằng, phối hợp vận động và khả năng di chuyển. Đảm bảo bệnh nhân có thể thực hiện các hoạt động sinh hoạt hàng ngày (ADLs).
+    *   **Phục hồi chức năng nhận thức:** Liệu pháp nhận thức (cognitive therapy) giúp cải thiện trí nhớ, sự chú ý, chức năng điều hành và khả năng giải quyết vấn đề. Đây là yếu tố then chốt giúp bệnh nhân tái hòa nhập xã hội và nghề nghiệp.
+    *   **Phục hồi chức năng ngôn ngữ:** Trị liệu ngôn ngữ cho các vấn đề về nói, hiểu, nuốt (nếu có).
+    *   **Hoạt động trị liệu:** Giúp bệnh nhân thích nghi với môi trường sống và làm việc, tái học các kỹ năng cần thiết cho cuộc sống độc lập.
+*   **2. Hỗ trợ tâm lý và xã hội:**
+    *   **Sàng lọc và quản lý rối loạn tâm thần:** TBI thường đi kèm với trầm cảm, lo âu, rối loạn căng thẳng sau chấn thương (PTSD) hoặc thay đổi tính cách (ICD-10 F07.x). Cần sàng lọc định kỳ và cung cấp hỗ trợ tâm lý, tư vấn, hoặc điều trị dược lý khi cần thiết.
+    *   **Giáo dục bệnh nhân và gia đình:** Cung cấp thông tin rõ ràng về các thách thức dự kiến, cách đối phó và nguồn lực hỗ trợ có sẵn. Gia đình đóng vai trò quan trọng trong quá trình phục hồi.
+    *   **Tái hòa nhập cộng đồng và phục hồi nghề nghiệp:** Hỗ trợ bệnh nhân trở lại trường học, công việc hoặc tìm kiếm các hoạt động xã hội phù hợp để giảm thiểu sự cô lập và cải thiện chất lượng cuộc sống.
+*   **3. Giám sát và quản lý biến chứng muộn:**
+    *   **Động kinh sau chấn thương:** Theo dõi các dấu hiệu động kinh và quản lý bằng thuốc chống động kinh khi cần thiết.
+    *   **Não úng thủy:** Một số bệnh nhân có thể phát triển não úng thủy áp lực bình thường hoặc áp lực cao, cần được chẩn đoán và điều trị kịp thời (ví dụ: đặt shunt).
+    *   **Rối loạn nội tiết:** TBI có thể gây tổn thương tuyến yên, dẫn đến suy giảm chức năng tuyến yên (ví dụ: thiếu hormone tăng trưởng, suy tuyến giáp thứ phát). Cần sàng lọc và điều trị hormone thay thế.
+    *   **Đau mạn tính và đau đầu:** Quản lý đau hiệu quả bằng các phương pháp dược lý và không dược lý.
+*   **4. Lập kế hoạch chăm sóc cá nhân hóa:**
+    *   Mỗi bệnh nhân TBI là một trường hợp độc đáo với các nhu cầu khác nhau. Việc lập kế hoạch chăm sóc phải được cá nhân hóa, dựa trên mức độ tổn thương, độ tuổi, các bệnh lý nền và mục tiêu của bệnh nhân.
+    *   Đảm bảo sự phối hợp giữa các chuyên khoa: thần kinh, phục hồi chức năng, tâm thần, nội tiết và bác sĩ gia đình.
+Việc nắm vững các chiến lược này sẽ giúp các bạn không chỉ điều trị cấp tính mà còn đồng hành cùng bệnh nhân trong hành trình phục hồi lâu dài, giúp họ đạt được chất lượng cuộc sống tốt nhất có thể. Đừng quên tham khảo các mã ICD-10 cho các di chứng lâu dài như F07.x (Rối loạn nhân cách và hành vi do tổn thương não) hoặc các mã liên quan đến di chứng thần kinh và thể chất khác (ví dụ: I69.x cho di chứng bệnh mạch máu não, có thể dùng trong một số bối cảnh nếu không có mã trực tiếp hơn cho TBI).
+</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên và bác sĩ trẻ trong việc nâng cao kiến thức và kỹ năng lâm sàng dựa trên bằng chứng khoa học và chuẩn ICD-10 của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Chào Chatbot, tôi là sinh viên y khoa năm cuối. Em muốn tìm hiểu sâu hơn về mối liên hệ giữa các bệnh nha chu và kết quả thai kỳ bất lợi ở phụ nữ mang thai. Xin Chatbot hãy giải thích rõ về cơ chế bệnh sinh và cách chúng ta, với tư cách là bác sĩ, cần lưu ý đến những chẩn đoán này theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng và thể hiện sự quan tâm sâu sắc đến sức khỏe tổng thể của bệnh nhân mang thai. Mối liên hệ giữa bệnh nha chu (Periodontal Diseases - PD) và các kết quả thai kỳ bất lợi (Adverse Pregnancy Outcomes - APOs) là một lĩnh vực được nghiên cứu rộng rãi và ngày càng được khẳng định. Là một bác sĩ trẻ, việc hiểu rõ cơ chế và cách tiếp cận chẩn đoán theo ICD-10 sẽ giúp bạn cung cấp dịch vụ chăm sóc toàn diện hơn.
+**1. Các bệnh nha chu chính và ảnh hưởng:**
+*   **Viêm nha chu (Periodontitis - K05.3):** Là tình trạng viêm nhiễm nặng hơn của lợi, ảnh hưởng đến các mô nâng đỡ răng (xương ổ răng, dây chằng nha chu). Nếu không được điều trị, có thể dẫn đến mất răng. Ở phụ nữ mang thai, viêm nha chu có thể trầm trọng hơn do thay đổi nội tiết tố.
+*   **Viêm lợi (Gingivitis - K05.1):** Là tình trạng viêm của lợi, thường do mảng bám vi khuẩn. Đây là giai đoạn sớm của bệnh nha chu và hoàn toàn có thể hồi phục khi vệ sinh răng miệng tốt. Phụ nữ mang thai rất dễ bị viêm lợi thai kỳ do nồng độ estrogen và progesterone tăng cao.
+*   **Tụt lợi (Gum Recession):** Mặc dù không có mã ICD-10 riêng biệt cho tụt lợi đơn thuần như một bệnh lý chính gây ra APOs, nó thường là hậu quả của viêm nha chu hoặc chấn thương. Tụt lợi làm lộ chân răng, tăng nguy cơ sâu răng và ê buốt.
+**2. Cơ chế bệnh sinh liên quan đến kết quả thai kỳ bất lợi:**
+Các nghiên cứu gần đây đã củng cố giả thuyết ban đầu rằng bệnh nha chu làm tăng nguy cơ APOs thông qua hai cơ chế chính:
+*   **Mầm bệnh nha chu (Periodontal Pathogens):** Các vi khuẩn gây bệnh trong khoang miệng có thể xâm nhập vào hệ tuần hoàn và đi qua nhau thai. Tại đây, chúng có thể gây nhiễm trùng, tổn thương mô và kích hoạt phản ứng viêm ở thai nhi.
+*   **Chất trung gian gây viêm (Elevated Levels of Inflammatory Mediators):** Khi có viêm nha chu, cơ thể sản xuất nhiều chất trung gian gây viêm như prostaglandin và cytokine. Những chất này cũng có thể đi qua nhau thai và gây ra phản ứng viêm toàn thân ở thai phụ và thai nhi, dẫn đến:
+    *   **Sẩy thai (Miscarriage - O03.x):** Đặc biệt là sẩy thai tự nhiên.
+    *   **Sinh non (Preterm Birth - O60.x):** Được định nghĩa là sinh trước 37 tuần thai kỳ. Viêm nha chu có thể kích hoạt quá trình chuyển dạ sớm.
+    *   **Vỡ ối non (Premature Rupture of Membranes - O42.x):** Là tình trạng màng ối vỡ trước khi chuyển dạ, làm tăng nguy cơ nhiễm trùng và sinh non.
+**3. Hướng dẫn cho bác sĩ trẻ:**
+*   **Sàng lọc và chẩn đoán sớm:** Luôn hỏi về lịch sử nha khoa và kiểm tra nhanh tình trạng răng miệng của bệnh nhân mang thai. Hợp tác chặt chẽ với nha sĩ là chìa khóa. Nếu phát hiện các dấu hiệu viêm lợi hoặc nha chu, cần chuyển bệnh nhân đến chuyên khoa răng hàm mặt ngay lập tức.
+*   **Tư vấn bệnh nhân:** Giải thích rõ ràng cho thai phụ về mối liên hệ này để họ chủ động hơn trong việc chăm sóc răng miệng và tìm kiếm sự hỗ trợ nha khoa.
+*   **Ghi chép hồ sơ y tế:** Khi chẩn đoán, hãy sử dụng mã ICD-10 chính xác để đảm bảo tính nhất quán trong hồ sơ bệnh án và tạo điều kiện thuận lợi cho việc nghiên cứu và quản lý y tế cộng đồng. Ví dụ, nếu bạn chẩn đoán viêm lợi thai kỳ, mã ICD-10 sẽ là K05.11 (Viêm lợi cấp tính) hoặc K05.10 (Viêm lợi mạn tính), kết hợp với mã liên quan đến thai kỳ như O99.3 (Các bệnh của răng miệng và cấu trúc nâng đỡ trong thai nghén, sinh đẻ và thời kỳ hậu sản).
+*   **Cập nhật kiến thức:** Thường xuyên tham gia các khóa học CME và đọc các tài liệu khoa học mới nhất về sức khỏe răng miệng thai kỳ để luôn cung cấp thông tin và điều trị dựa trên bằng chứng.</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đồng thời hướng dẫn sinh viên y khoa và bác sĩ nâng cao kiến thức chuyên môn.</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Sau khi đọc bài tổng quan về nước súc miệng và thai kỳ, tôi thấy kết quả có vẻ mâu thuẫn. Với tư cách là một bác sĩ trẻ, tôi nên tiếp cận và tư vấn cho bệnh nhân mang thai về việc sử dụng nước súc miệng để cải thiện sức khỏe răng miệng như thế nào, dựa trên bằng chứng khoa học hiện có?</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Đây là một câu hỏi rất thực tế và quan trọng trong thực hành lâm sàng, đặc biệt khi đối mặt với bằng chứng khoa học có vẻ mâu thuẫn. Là một bác sĩ trẻ, việc tiếp cận vấn đề này đòi hỏi sự hiểu biết về y học thực chứng (Evidence-Based Medicine - EBM) và khả năng tư vấn bệnh nhân một cách thận trọng.
+**1. Phân tích kết quả từ bài tổng quan:**
+Bài tổng quan mà bạn đọc đã chỉ ra một điểm cốt lõi: 'the result of mouthwash on pregnant women's reproductive outcomes is controversial.' Tuy nhiên, nó cũng nêu bật một số kết quả tích cực từ hai nghiên cứu được chọn:
+*   Một nghiên cứu cho thấy giảm tỷ lệ sinh non (ít hơn 37 tuần).
+*   Một nghiên cứu khác chỉ ra giảm tỷ lệ vỡ ối non.
+*   Cả hai nghiên cứu đều đồng ý về sự cải thiện sức khỏe nha chu ở phụ nữ mang thai.
+**2. Hướng tiếp cận và tư vấn cho bệnh nhân mang thai:**
+Khi đối mặt với bằng chứng như vậy, bạn cần thực hiện theo các bước sau:
+*   **Đánh giá tổng thể tình trạng bệnh nhân:** Trước hết, đánh giá tình trạng sức khỏe răng miệng của thai phụ. Họ có bị viêm lợi, viêm nha chu hay không? Mức độ nghiêm trọng đến đâu?
+*   **Ưu tiên các biện pháp cơ bản:** Luôn nhấn mạnh tầm quan trọng của các biện pháp vệ sinh răng miệng cơ bản và đã được chứng minh hiệu quả, bao gồm:
+    *   Chải răng đúng cách ít nhất hai lần mỗi ngày với kem đánh răng chứa fluoride.
+    *   Sử dụng chỉ nha khoa hàng ngày.
+    *   Thăm khám nha sĩ định kỳ (ít nhất 1 lần trong thai kỳ).
+*   **Vai trò của nước súc miệng:**
+    *   **Nước súc miệng không phải là giải pháp thay thế:** Hãy làm rõ rằng nước súc miệng không thể thay thế cho việc chải răng và dùng chỉ nha khoa.
+    *   **Tác dụng hỗ trợ:** Có thể xem xét nước súc miệng như một biện pháp hỗ trợ, đặc biệt nếu bệnh nhân có tình trạng viêm lợi hoặc nha chu nhẹ đến trung bình, hoặc trong quá trình 'khử trùng toàn bộ khoang miệng' (full mouth disinfection) như bài báo đã đề cập.
+    *   **Loại nước súc miệng:** Nên ưu tiên các loại nước súc miệng được khuyến nghị bởi chuyên gia y tế hoặc nha khoa, thường là loại không chứa cồn, có chứa chlorhexidine (trong trường hợp điều trị viêm nha chu theo chỉ định) hoặc fluoride (để ngăn ngừa sâu răng).
+*   **Giải thích về sự 'mâu thuẫn':** Giải thích cho bệnh nhân rằng mặc dù có những bằng chứng ban đầu tích cực, nhưng vẫn cần nhiều nghiên cứu lớn hơn, có kiểm soát và ngẫu nhiên (randomized clinical trials) với cỡ mẫu lớn hơn và thời gian theo dõi đầy đủ để khẳng định chắc chắn mối quan hệ này. Điều này thể hiện sự thận trọng khoa học của bạn.
+*   **Tham vấn đa chuyên khoa:** Nếu có bất kỳ lo ngại nào về sức khỏe răng miệng hoặc thai kỳ, luôn khuyến khích bệnh nhân tham vấn nha sĩ và bác sĩ sản khoa. Sự phối hợp giữa các chuyên khoa là tối ưu cho thai phụ.
+**3. Ví dụ về tư vấn (có thể dùng bảng để tóm tắt):**
+| Vấn đề                                 | Lời khuyên cho thai phụ                                                                    | Lý do                                                                                                |
+| :------------------------------------- | :---------------------------------------------------------------------------------------- | :--------------------------------------------------------------------------------------------------- |
+| **Sức khỏe nha chu kém**               | Thăm khám nha sĩ ngay, chải răng và dùng chỉ nha khoa đúng cách.                         | Ngăn ngừa viêm nha chu, giảm nguy cơ sinh non, vỡ ối non.                                             |
+| **Sử dụng nước súc miệng**            | Có thể sử dụng như biện pháp hỗ trợ, theo khuyến nghị của nha sĩ. Tránh loại có cồn.   | Hỗ trợ giảm mảng bám, viêm lợi. Cần thêm nghiên cứu để khẳng định lợi ích lên kết quả thai kỳ. |
+| **Quan ngại về kết quả thai kỳ bất lợi** | Duy trì thai kỳ khỏe mạnh bằng cách chăm sóc răng miệng tốt, dinh dưỡng, khám thai định kỳ. | Giảm thiểu rủi ro từ viêm nha chu và các yếu tố khác.                                                |
+**Lời khuyên cho bạn:** Luôn cập nhật kiến thức về y học thực chứng và khả năng phân tích phê bình các nghiên cứu. Đây là kỹ năng vô cùng quan trọng đối với mọi bác sĩ.</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp hướng dẫn lâm sàng và tài liệu học thuật dựa trên chuẩn ICD-10, hỗ trợ bác sĩ và sinh viên y khoa trong học tập và thực hành.</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Bài báo đề cập đến nhiều phương pháp điều trị bệnh nha chu không phẫu thuật. Với vai trò là một bác sĩ trẻ hoặc sinh viên y khoa, tôi cần hiểu rõ về các phương pháp này như thế nào và đâu là tài liệu học tập phù hợp để nắm vững kiến thức, đặc biệt trong bối cảnh điều trị cho thai phụ?</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Hiểu rõ các phương pháp điều trị bệnh nha chu không phẫu thuật là rất cần thiết, đặc biệt khi bạn cần tư vấn hoặc phối hợp điều trị cho những bệnh nhân đặc biệt như thai phụ. Sự nhạy cảm và thận trọng trong lựa chọn phương pháp là yếu tố then chốt. Dưới đây là cách bạn nên tiếp cận:
+**1. Các phương pháp điều trị nha chu không phẫu thuật:**
+*   **Chải răng và dùng chỉ nha khoa (Brushing and Flossing):** Đây là nền tảng của mọi điều trị nha chu. Với thai phụ, cần hướng dẫn kỹ thuật chải răng nhẹ nhàng, hiệu quả và sử dụng chỉ nha khoa đúng cách để loại bỏ mảng bám và thức ăn thừa, giảm thiểu viêm lợi thai kỳ.
+*   **Rửa dưới và trên lợi (Sub and Supra-gingival Irrigation):** Sử dụng các dung dịch sát khuẩn (ví dụ: Chlorhexidine) để rửa sạch các túi nha chu và bề mặt răng trên lợi. Phương pháp này giúp giảm số lượng vi khuẩn và viêm nhiễm. Đối với thai phụ, cần cân nhắc nồng độ và loại dung dịch để đảm bảo an toàn.
+*   **Kháng sinh trị liệu (Antibiotherapeutics):** Có thể được chỉ định trong các trường hợp viêm nha chu nặng hoặc có ổ nhiễm trùng. Tuy nhiên, việc sử dụng kháng sinh ở thai phụ cần hết sức thận trọng, chỉ khi thật sự cần thiết và phải lựa chọn loại kháng sinh an toàn cho thai nhi (ví dụ: nhóm Penicillin, Cephalosporin). Luôn tuân thủ phác đồ của Bộ Y tế và tư vấn với bác sĩ sản khoa.
+*   **Cạo vôi răng và làm nhẵn bề mặt chân răng (Scaling and Root Planning - SRP):** Đây là một quy trình chuyên sâu do nha sĩ thực hiện để loại bỏ mảng bám, cao răng (vôi răng) trên và dưới đường viền lợi, sau đó làm nhẵn bề mặt chân răng để ngăn chặn vi khuẩn bám trở lại. Đây là 'tiêu chuẩn vàng' trong điều trị nha chu không phẫu thuật. Quy trình này hoàn toàn an toàn và được khuyến nghị cho thai phụ khi cần thiết.
+*   **Khử trùng toàn bộ khoang miệng (Full Mouth Disinfection):** Là một chiến lược điều trị tích cực, bao gồm SRP và sử dụng các dung dịch sát khuẩn cho toàn bộ khoang miệng trong một thời gian ngắn. Bài báo nhắc đến 'quá trình khử trùng toàn bộ khoang miệng liên quan đến nhiều lần súc miệng'. Phương pháp này nhằm giảm thiểu tái nhiễm chéo vi khuẩn từ các vị trí chưa được điều trị.
+**2. Hướng dẫn học tập và nâng cao chuyên môn:**
+*   **Tài liệu tham khảo cơ bản:**
+    *   **Giáo trình Nha chu học:** (Ví dụ: 'Clinical Periodontology' của Carranza, 'Periodontology and Implantology' của Lindhe &amp; Lang) – Đây là những 'kinh thánh' để nắm vững sinh lý, bệnh lý và điều trị nha chu.
+    *   **Hướng dẫn quốc gia về chăm sóc sức khỏe răng miệng cho phụ nữ mang thai:** (Tìm kiếm các hướng dẫn từ Bộ Y tế hoặc Hội Răng Hàm Mặt Việt Nam) – Nguồn thông tin này cung cấp các phác đồ và khuyến nghị cụ thể phù hợp với bối cảnh y tế Việt Nam.
+    *   **Sách về Dược lý học trong thai kỳ:** (Ví dụ: 'Drugs in Pregnancy and Lactation' của Briggs) – Để hiểu rõ về an toàn của các loại thuốc, đặc biệt là kháng sinh và thuốc tê, khi sử dụng cho thai phụ.
+*   **Khóa học CME (Continuing Medical Education) phù hợp:**
+    *   **Quản lý bệnh nha chu trong thai kỳ:** Các khóa học chuyên đề này sẽ đi sâu vào những thay đổi sinh lý trong thai kỳ ảnh hưởng đến nha chu, cách chẩn đoán và điều trị an toàn, hiệu quả cho thai phụ.
+    *   **Nha khoa dự phòng và vệ sinh răng miệng:** Nâng cao kỹ năng hướng dẫn bệnh nhân về các biện pháp vệ sinh răng miệng cá nhân và các sản phẩm hỗ trợ.
+    *   **Khóa học về y học thực chứng:** Giúp bạn đánh giá khách quan các nghiên cứu khoa học, từ đó đưa ra quyết định lâm sàng tốt nhất khi đối mặt với các bằng chứng có vẻ mâu thuẫn.
+*   **Thực hành lâm sàng:** Quan sát và tham gia trực tiếp vào các quy trình cạo vôi răng, SRP dưới sự giám sát của các nha sĩ có kinh nghiệm. Thực hành tư vấn bệnh nhân về vệ sinh răng miệng và các lựa chọn điều trị an toàn.
+Việc kết hợp kiến thức lý thuyết vững chắc từ giáo trình và tài liệu chính thống, cùng với các khóa học CME chuyên sâu và kinh nghiệm lâm sàng sẽ giúp bạn trở thành một bác sĩ giỏi, có khả năng chăm sóc toàn diện cho bệnh nhân, đặc biệt là nhóm đối tượng nhạy cảm như thai phụ.</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đồng thời hướng dẫn các bác sĩ trẻ và sinh viên y khoa về thực hành y học dựa trên bằng chứng.</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, chúng em nên hiểu thế nào về hiệu quả và sự an toàn của nước súc miệng chứa CPC đối với phụ nữ mang thai, đặc biệt là khi đánh giá các kết cục thai kỳ? Làm thế nào để các bác sĩ trẻ như chúng em tiếp cận và đánh giá bằng chứng y khoa về vấn đề này một cách khách quan?</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Chào các em, đây là một câu hỏi rất quan trọng trong thực hành lâm sàng, đặc biệt khi tư vấn cho đối tượng nhạy cảm như phụ nữ mang thai.  
+**1. Hiệu quả và An toàn của nước súc miệng CPC trong thai kỳ:**  
+*   **Kiểm soát vi khuẩn:** Các nghiên cứu ban đầu, như đoạn văn đã đề cập, cho thấy nước súc miệng CPC có thể hiệu quả hơn việc chỉ chải răng và dùng chỉ nha khoa trong việc kiểm soát lượng vi khuẩn trong khoang miệng. Điều này có ý nghĩa trong việc giảm nguy cơ các bệnh lý nha chu.  
+*   **Tính kinh tế và sẵn có:** Ưu điểm của nước súc miệng là dễ tiếp cận, chi phí hợp lý và tương đối an toàn cho phụ nữ mang thai khi sử dụng các sản phẩm không chứa cồn.  
+*   **Kết cục thai kỳ:** Tuy nhiên, điểm mấu chốt là **liệu nó có cải thiện sức khỏe nha chu và các kết cục thai kỳ hay không vẫn còn là một dấu hỏi lớn**. Đoạn văn nhấn mạnh rằng chưa có tổng quan hệ thống nào được thực hiện để đánh giá toàn diện vấn đề này. Điều này đòi hỏi chúng ta phải hết sức thận trọng khi đưa ra khuyến nghị lâm sàng.  
+**2. Tiếp cận và đánh giá bằng chứng y khoa khách quan:**  
+Để trở thành một bác sĩ giỏi, việc đánh giá bằng chứng y khoa là kỹ năng không thể thiếu. Đối với vấn đề này, các em cần:  
+*   **Tìm kiếm Tổng quan Hệ thống (Systematic Reviews):** Đây là loại hình nghiên cứu cung cấp bằng chứng có giá trị cao nhất vì nó tổng hợp và phân tích dữ liệu từ nhiều nghiên cứu riêng lẻ. Nếu chưa có tổng quan hệ thống, nghĩa là bằng chứng chưa đủ mạnh để đưa ra kết luận chắc chắn.  
+*   **Đánh giá phê bình nghiên cứu:** Khi đọc các bài báo, hãy luôn đặt câu hỏi về:  
+    *   **Thiết kế nghiên cứu:** Đây có phải là thử nghiệm lâm sàng ngẫu nhiên có đối chứng (RCT) không? Hay chỉ là nghiên cứu quan sát, báo cáo ca lâm sàng? (Đoạn văn cũng loại trừ các loại hình nghiên cứu này vì độ tin cậy thấp hơn).  
+    *   **Cỡ mẫu:** Số lượng đối tượng nghiên cứu có đủ lớn để rút ra kết luận không?  
+    *   **Phương pháp:** Cách thức thu thập và phân tích dữ liệu có khoa học không?  
+    *   **Xung đột lợi ích:** Nguồn tài trợ nghiên cứu có thể ảnh hưởng đến kết quả không?  
+*   **Tham khảo các Hướng dẫn Thực hành Lâm sàng:** Các tổ chức y tế uy tín (WHO, Bộ Y tế, các hiệp hội chuyên ngành) thường có các hướng dẫn dựa trên bằng chứng tổng hợp.  
+**Tóm lại:** Hiện tại, chúng ta có thể khuyến khích phụ nữ mang thai sử dụng nước súc miệng CPC không cồn như một phần bổ sung cho vệ sinh răng miệng hàng ngày để kiểm soát vi khuẩn, nhưng cần nhấn mạnh rằng bằng chứng về cải thiện trực tiếp sức khỏe nha chu và kết cục thai kỳ còn hạn chế. Luôn ưu tiên vệ sinh răng miệng cơ bản tốt và thăm khám nha sĩ định kỳ.</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, chuyên sâu về phương pháp nghiên cứu khoa học và tổng quan hệ thống, hỗ trợ sinh viên y khoa và bác sĩ trẻ trong việc thiết kế và thực hiện các nghiên cứu khoa học chất lượng cao.</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Trong quá trình xây dựng một tổng quan hệ thống (Systematic Review) về tác động của nước súc miệng CPC đến sức khỏe răng miệng thai kỳ, những tiêu chí lựa chọn đối tượng và chiến lược tìm kiếm thông tin nào là cần thiết để đảm bảo tính khách quan và khoa học của nghiên cứu, và các loại bệnh lý răng miệng phổ biến trong thai kỳ theo ICD-10 là gì?</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Các em thân mến, việc thiết kế một tổng quan hệ thống chặt chẽ là chìa khóa để tạo ra bằng chứng đáng tin cậy. Dựa trên đoạn văn và kiến thức chuyên môn, các em cần lưu ý những điểm sau:
+**1. Tiêu chí lựa chọn đối tượng (Eligibility Criteria):**
+Để đảm bảo tính đồng nhất và chất lượng của các nghiên cứu được đưa vào, cần thiết lập các tiêu chí rõ ràng:
+*   **Loại hình nghiên cứu:** Chỉ chấp nhận các thử nghiệm lâm sàng (Clinical trials) vì đây là loại hình cung cấp bằng chứng mạnh mẽ nhất về mối quan hệ nhân quả. Các nghiên cứu tổng quan khác, báo cáo ca lâm sàng, chuỗi ca bệnh, nghiên cứu bệnh chứng thường bị loại trừ vì độ tin cậy thấp hơn trong việc đánh giá hiệu quả can thiệp.
+*   **Đối tượng nghiên cứu:** Phải là phụ nữ mang thai (pregnant woman), đảm bảo tính chuyên biệt cho nhóm đối tượng quan tâm.
+*   **Can thiệp:** Sử dụng nước súc miệng không cồn, có chứa CPC. Điều này giúp tập trung vào một loại can thiệp cụ thể và tránh các yếu tố gây nhiễu từ cồn hoặc các hoạt chất khác.
+*   **Ngôn ngữ và Thời gian xuất bản:** Giới hạn ngôn ngữ (ví dụ: tiếng Anh) và khoảng thời gian xuất bản (ví dụ: từ 2009 đến nay) giúp kiểm soát số lượng bài báo và đảm bảo tính cập nhật của thông tin.
+**2. Chiến lược tìm kiếm thông tin (Search Strategy):**
+Một chiến lược tìm kiếm toàn diện và có hệ thống là cực kỳ quan trọng để tránh bỏ sót các nghiên cứu phù hợp. Các em cần:
+*   **Sử dụng cơ sở dữ liệu chuyên ngành:** Ví dụ như Pubmed (ncbi.nlm.nih.gov/pubmed) là một thư viện y khoa hàng đầu.
+*   **Kết hợp từ khóa MeSH (Medical Subject Headings) và từ khóa tiêu đề/tóm tắt:**
+    *   **Can thiệp:** (Mouthwash[MeSH Terms]) OR Mouth rinse[MeSH Terms]) OR Disinfection solution[Title])
+    *   **Kết cục:** (Pregnancy outcomes[Title]) OR Preterm birth[MeSH Terms]) OR low birth weight[MeSH Terms])
+*   **Giới hạn thời gian:** Giới hạn tìm kiếm trong một khung thời gian cụ thể (ví dụ: 10 năm trước ngày tìm kiếm) để đảm bảo thông tin cập nhật.
+*   **Thực hiện độc lập:** Hai tác giả tìm kiếm độc lập và giải quyết các bất đồng bởi tác giả thứ ba để giảm thiểu sai lệch.
+**3. Các bệnh lý răng miệng phổ biến trong thai kỳ và mã ICD-10 liên quan:**
+Phụ nữ mang thai có những thay đổi nội tiết tố khiến họ dễ mắc các bệnh lý răng miệng hơn. Dưới đây là một số tình trạng phổ biến mà các em cần biết để chẩn đoán và quản lý lâm sàng:
+| Tên bệnh lý răng miệng | Mô tả lâm sàng chung | Mã ICD-10 (Ví dụ) |
+| :------------------- | :------------------------------------------------------------------------------------------------- | :------------------------------ |
+| **Viêm lợi thai kỳ** | Lợi sưng đỏ, dễ chảy máu, đặc biệt ở tam cá nguyệt thứ ba do thay đổi hormone. | K05.1 (Viêm lợi mạn tính) + O99.3 (Bệnh khác ở khoang miệng và hệ tiêu hóa làm phức tạp thai kỳ) |
+| **Viêm nha chu** | Mất bám dính, túi nha chu sâu, tiêu xương ổ răng, có thể nặng hơn trong thai kỳ. | K05.3 (Viêm nha chu mạn tính) + O99.3 |
+| **U hạt sinh mủ thai kỳ** | (Pregnancy tumor) Khối u lành tính, đỏ, mềm, dễ chảy máu, thường xuất hiện ở lợi. | K06.8 (Các rối loạn khác của lợi và bờ xương ổ răng không răng) hoặc L98.0 (U hạt sinh mủ) + O99.3 |
+| **Sâu răng** | Tăng nguy cơ sâu răng do thay đổi thói quen ăn uống, ợ nóng và vệ sinh răng miệng kém. | K02.9 (Sâu răng không đặc hiệu) |
+Việc hiểu rõ các tiêu chí này không chỉ giúp các em trong nghiên cứu mà còn trong việc đánh giá tài liệu khoa học để áp dụng vào thực hành lâm sàng hàng ngày, đảm bảo quyết định của mình luôn dựa trên bằng chứng mạnh mẽ nhất.</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, tập trung vào an toàn người bệnh trong thai kỳ và tư vấn lâm sàng dựa trên bằng chứng, hướng dẫn bác sĩ trẻ và sinh viên y khoa về các khuyến nghị chăm sóc sức khỏe.</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Với vai trò là một bác sĩ trẻ hoặc sinh viên y khoa, chúng ta cần lưu ý những thay đổi nào về sức khỏe răng miệng ở phụ nữ mang thai và làm thế nào để tư vấn họ phòng tránh các tác dụng không mong muốn từ sản phẩm chăm sóc răng miệng? Ngoài ra, cần cảnh giác với các loại hình nghiên cứu nào khi tìm kiếm bằng chứng y khoa để đưa ra khuyến nghị lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Kính chào các em, việc chăm sóc sức khỏe răng miệng cho phụ nữ mang thai đòi hỏi sự hiểu biết sâu sắc và tư vấn cẩn trọng. Các em cần nắm vững những điểm sau:
+**1. Các thay đổi về sức khỏe răng miệng thường gặp ở phụ nữ mang thai:**
+*   **Viêm lợi thai kỳ (Gingivitis):** Đây là tình trạng phổ biến nhất, thường xuất hiện hoặc nặng lên do sự thay đổi nội tiết tố. Đỉnh điểm của mức độ nghiêm trọng thường được thấy trong tam cá nguyệt thứ ba. Biểu hiện là lợi sưng đỏ, dễ chảy máu khi chải răng hoặc dùng chỉ nha khoa. (Mã ICD-10 liên quan: K05.1 - Viêm lợi mạn tính, thường đi kèm với O99.3 - Bệnh khác ở khoang miệng và hệ tiêu hóa làm phức tạp thai kỳ).
+*   **Mất bám dính (Attachment loss):** Sự gia tăng mất bám dính có thể là dấu hiệu của nhiễm trùng nha chu đang hoạt động, có thể bị đẩy nhanh hơn trong thai kỳ. Điều này nếu không được kiểm soát có thể dẫn đến viêm nha chu (K05.3 - Viêm nha chu mạn tính).
+*   **Các tác động khác:** Thay đổi môi trường miệng trong thai kỳ có thể có những ảnh hưởng tạm thời hoặc vĩnh viễn đến sức khỏe răng miệng. Đáng mừng là hầu hết các tác động này đều có thể tránh được bằng cách thực hành vệ sinh răng miệng tốt.
+**2. Cách tư vấn phòng tránh tác dụng không mong muốn của sản phẩm chăm sóc răng miệng:**
+Khi tư vấn cho phụ nữ mang thai, các em cần nhấn mạnh:
+*   **Ưu tiên vệ sinh răng miệng cơ bản:** Chải răng hai lần một ngày với kem đánh răng chứa fluoride và dùng chỉ nha khoa hàng ngày là nền tảng quan trọng nhất.
+*   **Sử dụng nước súc miệng không cồn:** Như đã đề cập trong đoạn văn, sản phẩm chăm sóc răng miệng, đặc biệt là nước súc miệng, cần được lựa chọn cẩn thận. Luôn khuyến nghị nước súc miệng không chứa cồn (no alcohol) để tránh các tác động tiêu cực tiềm ẩn. Nước súc miệng chứa CPC (Cetylpyridinium chloride) đã được chứng minh là an toàn cho phụ nữ mang thai.
+*   **Thăm khám nha sĩ định kỳ:** Phụ nữ mang thai nên được khám răng miệng thường xuyên (ít nhất một lần trong thai kỳ) để phát hiện sớm và điều trị các vấn đề. Các thủ thuật nha khoa cần thiết thường an toàn trong suốt thai kỳ.
+*   **Cảnh báo về tác dụng không mong muốn:** Mặc dù nước súc miệng CPC không cồn được coi là an toàn, nhưng cần lưu ý rằng bất kỳ sản phẩm nào cũng có thể có 'tác dụng không mong muốn' đối với sức khỏe người tiêu dùng, đặc biệt là phụ nữ mang thai, nếu không được sử dụng đúng cách hoặc nếu có thành phần không phù hợp.
+**3. Cảnh giác với các loại hình nghiên cứu khi tìm kiếm bằng chứng y khoa:**
+Để đưa ra khuyến nghị lâm sàng đáng tin cậy, các em cần học cách phân loại và đánh giá các loại hình nghiên cứu. Các loại hình nghiên cứu sau đây thường bị loại trừ khỏi các tổng quan hệ thống chất lượng cao vì chúng cung cấp bằng chứng với độ tin cậy thấp hơn về hiệu quả can thiệp:
+*   **Review study (Nghiên cứu tổng quan):** Bản thân nó là một tổng hợp, nhưng nếu không phải tổng quan hệ thống hoặc phân tích gộp có phương pháp luận rõ ràng, nó có thể mang tính chủ quan.
+*   **Case series (Chuỗi ca bệnh) và Case report (Báo cáo ca lâm sàng):** Các nghiên cứu này chỉ mô tả một hoặc một vài trường hợp cụ thể, không đủ để khái quát hóa hoặc chứng minh mối quan hệ nhân quả.
+*   **Case-control study (Nghiên cứu bệnh chứng):** Mặc dù hữu ích trong việc tìm kiếm yếu tố nguy cơ, nhưng dễ bị sai lệch và không thể thiết lập mối quan hệ nhân quả mạnh mẽ như thử nghiệm lâm sàng.
+*   **Letters to the editor (Thư gửi biên tập):** Thường là các ý kiến cá nhân, bình luận hoặc dữ liệu sơ bộ, không trải qua quy trình đánh giá ngang hàng nghiêm ngặt của một bài báo khoa học chính thức.
+Việc hiểu rõ 'kim tự tháp bằng chứng' và biết đâu là bằng chứng mạnh mẽ sẽ giúp các em đưa ra quyết định lâm sàng chính xác và an toàn nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn về phương pháp nghiên cứu và phân tích kết quả.</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Khi đọc các nghiên cứu lâm sàng về dự phòng sinh non, đặc biệt là các can thiệp mới như sử dụng nước súc miệng, làm thế nào để sinh viên y khoa và bác sĩ trẻ có thể đánh giá tính hiệu quả và áp dụng kết quả một cách thận trọng vào thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Để đánh giá tính hiệu quả và áp dụng kết quả từ các nghiên cứu lâm sàng, đặc biệt với những can thiệp mới như nước súc miệng trong thai kỳ, sinh viên y khoa và bác sĩ trẻ cần thực hiện các bước phân tích quan trọng sau:
+*   **Phân tích thiết kế nghiên cứu:**
+    *   Nghiên cứu của H Jiang et al. (2016) là thử nghiệm lâm sàng đối chứng ngẫu nhiên (RCT), được coi là tiêu chuẩn vàng về bằng chứng. Thiết kế này giúp giảm thiểu sai lệch và tăng độ tin cậy của kết quả.
+    *   Nghiên cứu của Marjorie Jeffcoat et al. (2011) là thử nghiệm đối chứng mù đơn, có mức độ bằng chứng thấp hơn một chút so với RCT nhưng vẫn có giá trị. Hiểu rõ loại thiết kế giúp đánh giá độ tin cậy của kết quả.
+*   **Đối tượng nghiên cứu và tiêu chí sinh non:**
+    *   Cả hai nghiên cứu đều tập trung vào phụ nữ mang thai dưới 20 tuần tuổi thai, đây là điểm chung quan trọng trong quần thể được nghiên cứu.
+    *   Điểm khác biệt quan trọng là định nghĩa sinh non (Preterm Birth - PTB): Nghiên cứu của Jiang et al. định nghĩa PTB &lt; 37 tuần, trong khi Jeffcoat et al. định nghĩa PTB &lt; 35 tuần. Sự khác biệt này ảnh hưởng đáng kể đến tỷ lệ sinh non được báo cáo và khả năng so sánh trực tiếp. Bác sĩ cần lưu ý điều này khi so sánh các nghiên cứu khác nhau và khi áp dụng các mã ICD-10 liên quan (ví dụ, O60.x cho sinh non, với các phân loại phụ về tuổi thai).
+*   **Diễn giải kết quả thống kê:**
+    *   Nghiên cứu của Jiang et al. cho thấy tỷ lệ sinh non ở nhóm can thiệp là 3.7% so với 2.4% ở nhóm đối chứng, với Tỷ suất chênh (OR) = 1.59 (0.51–4.92) và p-value = 0.43. Giá trị p &gt; 0.05 cho thấy sự khác biệt này không có ý nghĩa thống kê, tức là không đủ bằng chứng để khẳng định can thiệp có tác dụng giảm tỷ lệ sinh non trong nghiên cứu này. Tuy nhiên, nghiên cứu này lại báo cáo sự cải thiện sức khỏe nha chu và giảm tỷ lệ vỡ ối non, đây là những kết quả lâm sàng quan trọng khác.
+    *   Nghiên cứu của Jeffcoat et al. cho thấy tỷ lệ sinh non giảm rõ rệt ở nhóm can thiệp (5.60%) so với nhóm đối chứng (21.90%), với Tỷ suất nguy cơ tương đối (RR) = 0.26 (0.096-0.7). Khoảng tin cậy không chứa 1 và p-value (ngụ ý từ RR và khoảng tin cậy) cho thấy can thiệp này có ý nghĩa thống kê trong việc giảm tỷ lệ sinh non, đặc biệt trong quần thể nguy cơ cao (như được ngụ ý từ cân nặng sơ sinh thấp hơn đáng kể ở nhóm đối chứng).
+*   **Áp dụng lâm sàng:** Mặc dù một nghiên cứu không cho thấy ý nghĩa thống kê về giảm PTB, nhưng việc cải thiện sức khỏe nha chu vẫn là một mục tiêu quan trọng trong chăm sóc thai kỳ (ICD-10 K05-K06 cho các bệnh lý nha chu). Kết quả từ nghiên cứu của Jeffcoat gợi ý tiềm năng của nước súc miệng không cồn đối với nhóm nguy cơ cao. Bác sĩ cần cân nhắc tổng thể bằng chứng, bối cảnh lâm sàng của bệnh nhân và các khuyến cáo hiện hành để đưa ra quyết định phù hợp. Việc tư vấn vệ sinh răng miệng tốt là một phần thiết yếu của chăm sóc tiền sản toàn diện, phù hợp với các khuyến nghị về sức khỏe bà mẹ và trẻ em theo chuẩn Bộ Y tế Việt Nam (ICD-10 Z34.x cho giám sát thai kỳ thường quy và Z36.x cho sàng lọc tiền sản).</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, định hướng về quản lý các yếu tố nguy cơ và chiến lược phòng ngừa sinh non.</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Dựa trên các nghiên cứu về mối liên hệ tiềm năng giữa vệ sinh răng miệng và sinh non, sinh viên y khoa và bác sĩ sản khoa cần lưu ý những điểm gì trong việc tư vấn và quản lý thai phụ để giảm thiểu nguy cơ sinh non, tuân thủ theo các hướng dẫn lâm sàng của Bộ Y tế Việt Nam?</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Mặc dù mối liên hệ trực tiếp và mạnh mẽ giữa việc sử dụng nước súc miệng kháng khuẩn và giảm tỷ lệ sinh non cần thêm nhiều nghiên cứu củng cố, nhưng các bác sĩ và sinh viên y khoa vẫn cần lưu ý các điểm sau trong tư vấn và quản lý thai phụ, tuân thủ các hướng dẫn lâm sàng chung về chăm sóc thai kỳ của Bộ Y tế Việt Nam:
+*   **Tầm quan trọng của Sức khỏe Nha chu:** Nghiên cứu của H Jiang et al. đã chỉ ra sự cải thiện sức khỏe nha chu và giảm tỷ lệ vỡ ối non. Sức khỏe răng miệng kém, đặc biệt là viêm nha chu (ICD-10 K05), được biết là một yếu tố nguy cơ cho các biến chứng thai kỳ như sinh non, tiền sản giật và thai chậm tăng trưởng. Viêm nha chu là một tình trạng viêm mãn tính có thể dẫn đến phản ứng viêm toàn thân, ảnh hưởng đến tử cung và bánh rau.
+*   **Khuyến nghị Vệ sinh Răng miệng cho Thai phụ:**
+    *   **Kiểm tra nha khoa định kỳ:** Tất cả thai phụ nên được khuyến khích đi khám nha khoa định kỳ và điều trị các vấn đề răng miệng (nếu có) trước hoặc trong thai kỳ, tốt nhất là vào quý hai của thai kỳ. Việc này nên được tích hợp vào gói chăm sóc tiền sản (ICD-10 Z34.x).
+    *   **Chăm sóc răng miệng hàng ngày:** Hướng dẫn thai phụ duy trì thói quen vệ sinh răng miệng tốt bao gồm chải răng hai lần mỗi ngày bằng kem đánh răng có fluoride và dùng chỉ nha khoa.
+    *   **Sử dụng nước súc miệng phù hợp:** Nếu cần thiết, có thể khuyến nghị sử dụng nước súc miệng không cồn có chứa chất kháng khuẩn (như chlorhexidine nồng độ thấp hoặc cetylpyridinium chloride), đặc biệt cho những thai phụ có nguy cơ viêm nha chu. Cồn trong nước súc miệng có thể gây khô miệng và không được khuyến khích.
+*   **Tiếp cận toàn diện trong Dự phòng Sinh non (ICD-10 O60):** Vệ sinh răng miệng chỉ là một phần của chiến lược dự phòng sinh non toàn diện. Các yếu tố nguy cơ khác cần được tầm soát và quản lý chặt chẽ theo hướng dẫn của Bộ Y tế Việt Nam, bao gồm:
+    *   Tiền sử sinh non.
+    *   Nhiễm trùng đường tiết niệu hoặc các nhiễm trùng khác (ICD-10 O23.x).
+    *   Cổ tử cung ngắn.
+    *   Dinh dưỡng kém.
+    *   Hút thuốc, uống rượu và sử dụng chất gây nghiện.
+    *   Các bệnh lý mãn tính của mẹ.
+*   **Tư vấn và giáo dục:** Bác sĩ cần dành thời gian tư vấn cho thai phụ về tầm quan trọng của việc chăm sóc sức khỏe toàn diện trong thai kỳ, bao gồm cả sức khỏe răng miệng, để nâng cao nhận thức và tuân thủ các biện pháp phòng ngừa.</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ diễn giải dữ liệu nghiên cứu và áp dụng vào các đối tượng bệnh nhân cụ thể.</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Khi phân tích dữ liệu chi tiết từ các nghiên cứu về sinh non, đặc biệt là các thông số như cân nặng sơ sinh và tuổi thai trung bình, sinh viên y khoa và bác sĩ cần rút ra những bài học gì để hiểu sâu hơn về mức độ nghiêm trọng của sinh non và điều chỉnh các can thiệp phù hợp cho từng quần thể bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Việc phân tích các thông số chi tiết như cân nặng sơ sinh (ICD-10 P07.x) và tuổi thai trung bình (ICD-10 O60.x) giữa các nhóm can thiệp và đối chứng là cực kỳ quan trọng để hiểu rõ hơn về mức độ ảnh hưởng của can thiệp và bối cảnh của quần thể nghiên cứu. Dưới đây là những điểm cần lưu ý:
+*   **Sự khác biệt về quần thể nghiên cứu:**
+    *   Nghiên cứu của H Jiang et al. cho thấy cân nặng sơ sinh và tuổi thai trung bình của cả hai nhóm (can thiệp và đối chứng) đều khá cao (khoảng 3200-3300g và 39.5 tuần). Tỷ lệ sinh non ở nhóm đối chứng cũng tương đối thấp (2.4%). Điều này cho thấy đây có thể là một quần thể có nguy cơ sinh non thấp hơn, nơi việc giảm thêm tỷ lệ sinh non trở nên khó khăn hơn.
+    *   Ngược lại, nghiên cứu của Marjorie Jeffcoat et al. cho thấy cân nặng sơ sinh và tuổi thai trung bình ở nhóm đối chứng thấp hơn đáng kể (2625.30g và 36.8 tuần), cùng với tỷ lệ sinh non rất cao (21.90%). Điều này gợi ý đây là một quần thể có nguy cơ cao hơn nhiều đối với sinh non.
+*   **Ảnh hưởng của can thiệp trên quần thể khác nhau:** Can thiệp bằng nước súc miệng kháng khuẩn cho thấy hiệu quả rõ rệt (giảm tỷ lệ sinh non từ 21.9% xuống 5.6%) trong quần thể nguy cơ cao của nghiên cứu Jeffcoat et al., nhưng không có ý nghĩa thống kê trong việc giảm tỷ lệ sinh non trong quần thể có nguy cơ thấp hơn của Jiang et al. Điều này nhấn mạnh rằng một can thiệp có thể hiệu quả hơn hoặc chỉ có ý nghĩa lâm sàng trong những quần thể bệnh nhân có nguy cơ cao.
+*   **Định nghĩa sinh non và ý nghĩa lâm sàng:** Sự khác biệt trong định nghĩa PTB (&lt;37 tuần so với &lt;35 tuần) cũng rất quan trọng. Sinh non dưới 35 tuần (ví dụ: PTB &lt; 35 tuần trong nghiên cứu Jeffcoat) thường đi kèm với nguy cơ biến chứng sơ sinh và tử vong cao hơn đáng kể so với sinh non ở tuần 35-36. Do đó, việc can thiệp để ngăn chặn sinh non cực non (PTB &lt; 35 tuần) có giá trị lâm sàng lớn hơn và cần được ưu tiên.
+*   **Bài học cho thực hành:**
+    *   **Cá thể hóa điều trị:** Không phải mọi can thiệp đều phù hợp hoặc hiệu quả như nhau cho mọi thai phụ. Việc xác định thai phụ có nguy cơ cao (dựa trên tiền sử, các yếu tố nguy cơ và kết quả thăm khám lâm sàng) là bước then chốt để áp dụng các biện pháp dự phòng hiệu quả.
+    *   **Đánh giá tổng thể dữ liệu:** Không chỉ nhìn vào P-value hay RR, mà còn cần xem xét các thông số khác như cân nặng sơ sinh, tuổi thai, và đặc điểm quần thể để có cái nhìn toàn diện về hiệu quả thực sự và khả năng áp dụng của can thiệp.
+    *   **Mã hóa ICD-10:** Khi chẩn đoán sinh non (O60) hoặc các tình trạng liên quan đến cân nặng sơ sinh thấp (P07), cần ghi rõ tuổi thai và cân nặng để phản ánh đúng mức độ nghiêm trọng và hỗ trợ thống kê y tế cũng như lập kế hoạch chăm sóc phù hợp.
+Để minh họa rõ hơn, hãy xem lại bảng so sánh dữ liệu cụ thể từ đoạn văn:
+| Thông số                   | Nghiên cứu H Jiang et al. (1) | Nghiên cứu Marjorie Jeffcoat et al. (2) |
+| :------------------------- | :--------------------------: | :----------------------------------: |
+| **Cân nặng sơ sinh (g)**   |                              |                                      |
+| Nhóm Can thiệp             |       3265.85 ± 437.89       |          3100.96 ± 112.89          |
+| Nhóm Đối chứng             |       3300.05 ± 442.55       |           2625.30 ± 62.75          |
+| **Tuổi thai (tuần)**       |                              |                                      |
+| Nhóm Can thiệp             |        39.54 ± 1.52          |            38.4 ± 0.52             |
+| Nhóm Đối chứng             |        39.54 ± 1.28          |            36.8 ± 0.29             |
+| **Tỷ lệ sinh non (%)**     |                              |                                      |
+| Nhóm Can thiệp             |            3.7%              |                5.60%               |
+| Nhóm Đối chứng             |            2.4%              |               21.90%               |
+Phân tích bảng này cho thấy sự khác biệt rõ rệt về đặc điểm quần thể và hiệu quả của can thiệp giữa hai nghiên cứu, cung cấp cái nhìn sâu sắc cho việc ra quyết định lâm sàng.</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Một nghiên cứu gần đây cho thấy tỷ lệ sinh non ở nhóm can thiệp thấp hơn đáng kể so với nhóm đối chứng, trong khi một nghiên cứu khác lại có kết quả ngược lại nhưng độ tin cậy thấp. Là một bác sĩ trẻ, tôi nên giải thích ý nghĩa của những phát hiện này và cách chúng ta nên tiếp cận các kết quả nghiên cứu mâu thuẫn trong thực hành lâm sàng như thế nào?</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Khi đối mặt với các kết quả nghiên cứu mâu thuẫn, đặc biệt trong lĩnh vực thai sản (liên quan đến các mã ICD-10 như O47.x cho chuyển dạ giả/chuyển dạ sinh non), điều quan trọng là phải có một cách tiếp cận có hệ thống để đánh giá và ứng dụng: 
+*   **Phân tích độ tin cậy của nghiên cứu:**
+    *   **P-value và Khoảng tin cậy (OR):** Nghiên cứu (1) có tỷ lệ sinh non cao hơn ở nhóm can thiệp (3.7% so với 2.4%) nhưng với OR là 1.59 (0.51 – 4.92) và P = 0.43. Một P-value lớn hơn 0.05 thường cho thấy sự khác biệt không có ý nghĩa thống kê. Khoảng tin cậy của OR (0.51 – 4.92) bao gồm 1, điều này cũng chỉ ra rằng hiệu quả can thiệp không rõ ràng và có thể không khác biệt so với nhóm đối chứng. Điều này giải thích tại sao nghiên cứu (1) có độ tin cậy thấp.
+    *   Ngược lại, nghiên cứu (2) cho thấy tỷ lệ sinh non ở nhóm can thiệp thấp hơn đáng kể (5.6% so với 21.6%), ngụ ý một hiệu quả rõ rệt của can thiệp. Mặc dù không có P-value hay OR cụ thể cho sinh non trong đoạn văn, việc mô tả là 'dramatically lower' cho thấy một sự khác biệt có ý nghĩa lâm sàng và có thể cả thống kê.
+*   **Đánh giá sự khác biệt về phương pháp:** Sự mâu thuẫn có thể xuất phát từ nhiều yếu tố: kích thước mẫu, dân số nghiên cứu, thiết kế nghiên cứu (RCT, cohort...), loại hình can thiệp, thời gian theo dõi, và cách đo lường kết cục. Là bác sĩ trẻ, bạn cần luôn đặt câu hỏi về những yếu tố này khi đọc một bài báo.
+*   **Ứng dụng lâm sàng (ICD-10 O47.x – Chuyển dạ giả/Chuyển dạ sinh non):**
+    *   Trong thực hành lâm sàng, chúng ta nên ưu tiên các nghiên cứu có độ tin cậy cao, cỡ mẫu lớn, thiết kế chặt chẽ (ví dụ: thử nghiệm lâm sàng ngẫu nhiên có đối chứng) và kết quả có ý nghĩa thống kê lẫn lâm sàng.
+    *   Nếu một can thiệp cho thấy hiệu quả rõ ràng và đáng tin cậy trong nhiều nghiên cứu (như nghiên cứu 2 về giảm tỷ lệ sinh non), chúng ta có thể cân nhắc áp dụng. Tuy nhiên, nếu kết quả mâu thuẫn và độ tin cậy thấp (như nghiên cứu 1), việc áp dụng cần rất thận trọng hoặc chờ đợi thêm bằng chứng.
+    *   **Luôn nhớ:** Quyết định lâm sàng không chỉ dựa vào một nghiên cứu mà còn kết hợp nhiều bằng chứng, kinh nghiệm lâm sàng, và sở thích của bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Nguyên lý Y học Thực chứng trong Sản khoa: Đánh giá và Ứng dụng Bằng chứng</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn chuyên sâu về cách đánh giá phê bình các nghiên cứu lâm sàng trong lĩnh vực sản khoa, giúp bác sĩ và sinh viên y khoa hiểu rõ về độ tin cậy của bằng chứng và cách ứng dụng chúng vào các tình huống lâm sàng cụ thể, đặc biệt là trong quản lý các biến cố thai kỳ như sinh non (ICD-10: O47.x).</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Cập nhật Chẩn đoán và Quản lý Sinh non (ICD-10 O47.x): Phân tích Bằng chứng Mới</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các phác đồ chẩn đoán, dự phòng và quản lý sinh non (ICD-10: O47.x) dựa trên bằng chứng khoa học mới nhất. Học viên sẽ được hướng dẫn cách phân tích các nghiên cứu lâm sàng về sinh non, đánh giá tính ứng dụng của các can thiệp mới và cập nhật các khuyến nghị từ Bộ Y tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Trong quản lý viêm nha chu (ICD-10: K05.3x), bài báo thảo luận về hiệu quả của Cetylpyridinium chloride (CPC) và Chlorhexidine (CHX) như các thành phần nước súc miệng. Bác sĩ có thể phân tích sâu hơn về cơ chế hoạt động, chỉ định, và cách lựa chọn giữa hai loại nước súc miệng này trong các tình huống lâm sàng khác nhau không?</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc lựa chọn nước súc miệng phù hợp là một phần quan trọng trong phác đồ điều trị viêm nha chu (ICD-10: K05.3x), đặc biệt khi kết hợp với liệu pháp cơ học. Dưới đây là phân tích về CPC và Chlorhexidine:
+*   **Cetylpyridinium Chloride (CPC):**
+    *   **Cơ chế hoạt động:** CPC là một hợp chất amoni bậc bốn, có khả năng phá vỡ màng tế bào của vi khuẩn, gây rò rỉ các thành phần nội bào và làm chết vi khuẩn. Nó có tác dụng diệt khuẩn và kìm khuẩn phổ rộng đối với nhiều loại vi khuẩn gram dương và gram âm, cũng như một số nấm.
+    *   **Chỉ định:** CPC hiệu quả trong việc kháng khuẩn và giảm viêm nha chu mức độ nặng. Đặc biệt khi kết hợp với NaF, nó còn cho thấy hiệu quả vượt trội hơn NaF đơn thuần trong việc chống mảng bám và viêm nướu. Phù hợp cho những bệnh nhân cần duy trì vệ sinh răng miệng hàng ngày, giảm mảng bám và viêm nướu, đặc biệt là những người không thể sử dụng CHX do tác dụng phụ hoặc cần một giải pháp lâu dài hơn.
+    *   **Đặc điểm:** Thường được tìm thấy trong các loại nước súc miệng không cồn. Kết quả từ các nghiên cứu và tổng quan hệ thống đã khẳng định hiệu quả chống mảng bám và viêm nướu của CPC.
+*   **Chlorhexidine (CHX):**
+    *   **Cơ chế hoạt động:** CHX là một chất kháng khuẩn bisbiguanide. Nó bám dính vào bề mặt răng và niêm mạc miệng, sau đó giải phóng từ từ để có tác dụng kháng khuẩn kéo dài. CHX có tính diệt khuẩn và kìm khuẩn mạnh mẽ, phá vỡ cấu trúc màng tế bào vi khuẩn và ức chế sự hình thành mảng bám.
+    *   **Chỉ định:** CHX là tiêu chuẩn vàng để kiểm soát mảng bám trên nướu (supragingival plaque). Nó được khuyến nghị sử dụng ở nồng độ từ 0.12% đến 0.2%. Các nghiên cứu cho thấy CHX cải thiện đáng kể các chỉ số nha chu như chỉ số chảy máu, độ sâu túi thăm dò (Probing Depth – PD), và mức độ bám dính lâm sàng (Clinical Attachment Level – CAL), cả khi dùng đơn lẻ hoặc bổ trợ. Rất hiệu quả sau các thủ thuật nha chu như cạo vôi răng (scaling) để giảm mức độ vi khuẩn.
+    *   **Đặc điểm:** Mặc dù rất hiệu quả, CHX có thể gây một số tác dụng phụ như nhuộm màu răng tạm thời, thay đổi vị giác và kích ứng niêm mạc nếu sử dụng lâu dài. Do đó, thường được chỉ định trong thời gian ngắn hoặc theo đợt.
+**Cách lựa chọn trong thực hành lâm sàng:**
+| Tiêu chí Lựa chọn   | Cetylpyridinium Chloride (CPC)                                 | Chlorhexidine (CHX)                                        |
+| :----------------- | :------------------------------------------------------------- | :--------------------------------------------------------- |
+| **Hiệu quả**       | Kháng khuẩn, giảm viêm nha chu, chống mảng bám và viêm nướu.   | Tiêu chuẩn vàng kiểm soát mảng bám, cải thiện PD, CAL.      |
+| **Tác dụng phụ**   | Ít tác dụng phụ hơn, phù hợp sử dụng lâu dài.                  | Có thể gây nhuộm màu răng, thay đổi vị giác, kích ứng.      |
+| **Thời gian dùng** | Thích hợp cho duy trì vệ sinh hàng ngày, sử dụng lâu dài.       | Thường dùng ngắn hạn, sau các thủ thuật nha chu, hoặc đợt cấp. |
+| **Chỉ định chính**  | Bệnh nhân cần giải pháp duy trì, không dung nạp CHX.           | Kiểm soát mảng bám cấp tính, sau phẫu thuật, viêm nha chu nặng. |
+| **Nồng độ khuyến nghị** | Không có nồng độ tiêu chuẩn, tùy sản phẩm.                   | 0.12% - 0.2%                                               |
+Với vai trò bác sĩ, bạn cần đánh giá tình trạng nha chu của bệnh nhân (dựa trên các yếu tố như chỉ số chảy máu, túi nha chu, mức độ mảng bám), xem xét lịch sử y tế, và thảo luận về ưu nhược điểm của từng loại nước súc miệng để đưa ra lựa chọn tối ưu nhất. Luôn nhớ rằng nước súc miệng chỉ là liệu pháp bổ trợ, liệu pháp cơ học vẫn là nền tảng trong điều trị viêm nha chu.</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Phác đồ Điều trị Viêm Nha Chu (ICD-10: K05.3x) của Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Tài liệu này là phác đồ chuẩn của Bộ Y tế Việt Nam về chẩn đoán và điều trị viêm nha chu (ICD-10: K05.3x). Nó cung cấp các hướng dẫn chi tiết về các liệu pháp cơ học, hóa học và bổ trợ, bao gồm vai trò và cách sử dụng các loại nước súc miệng chứa CPC và Chlorhexidine, giúp bác sĩ lâm sàng có cái nhìn toàn diện.</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>CME: Quản lý Toàn diện Bệnh Nha Chu và Vai trò của Thuốc Súc Miệng Kháng Khuẩn</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức chuyên sâu về quản lý toàn diện bệnh nha chu (ICD-10: K05.3x), từ chẩn đoán đến các phương pháp điều trị tiên tiến. Học viên sẽ được tìm hiểu sâu về cơ chế hoạt động, chỉ định, chống chỉ định và cách lựa chọn các loại nước súc miệng kháng khuẩn như CPC và Chlorhexidine trong các tình huống lâm sàng khác nhau, nhằm tối ưu hóa hiệu quả điều trị cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Bài báo thảo luận về hiệu quả của nước súc miệng trong viêm nha chu và so sánh các kết cục thai kỳ. Là một sinh viên y khoa sắp ra trường, em nên làm thế nào để đánh giá tính ứng dụng của các kết quả nghiên cứu này vào thực hành lâm sàng, đặc biệt khi các nghiên cứu có sự khác biệt về phương pháp và kết quả?</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Là một sinh viên y khoa sắp ra trường, việc trang bị kỹ năng đánh giá và ứng dụng nghiên cứu là vô cùng thiết yếu. Đây là nền tảng của Y học Thực chứng (Evidence-Based Medicine – EBM). Khi đọc các bài báo như đoạn văn này, bạn cần thực hiện các bước sau để đánh giá tính ứng dụng:
+*   **1. Đánh giá chất lượng nghiên cứu:**
+    *   **Thiết kế nghiên cứu:** Nghiên cứu là gì? Thử nghiệm lâm sàng ngẫu nhiên có đối chứng (RCT) có bằng chứng mạnh nhất. Nghiên cứu quan sát (cohort, case-control) yếu hơn. Meta-analysis và systematic review tổng hợp bằng chứng từ nhiều RCT là loại bằng chứng cao nhất. Ví dụ, bài báo đề cập đến meta-analysis về CHX, đây là loại bằng chứng mạnh.
+    *   **Kích thước mẫu và Đối tượng nghiên cứu:** Kích thước mẫu đủ lớn sẽ tăng cường độ tin cậy. Dân số nghiên cứu có phù hợp với đối tượng bệnh nhân bạn sẽ gặp trong lâm sàng không? (ví dụ: phụ nữ mang thai có nguy cơ sinh non, bệnh nhân viêm nha chu).
+    *   **Phương pháp đo lường và Can thiệp:** Các yếu tố được đo lường (cân nặng sơ sinh, tuổi thai, tỷ lệ sinh non, chỉ số nha chu) có được đo lường khách quan và chính xác không? Can thiệp có được mô tả rõ ràng để có thể tái tạo không (ví dụ: loại nước súc miệng, nồng độ, tần suất)?
+*   **2. Phân tích kết quả và ý nghĩa thống kê:**
+    *   **P-value:** Một P-value &lt; 0.05 thường được coi là có ý nghĩa thống kê, cho thấy kết quả ít có khả năng xảy ra do ngẫu nhiên. Tuy nhiên, P-value không nói lên mức độ quan trọng lâm sàng.
+    *   **Khoảng tin cậy (Confidence Interval - CI):** Khoảng tin cậy cho biết độ chính xác của ước tính hiệu quả. Nếu CI của OR hoặc RR bao gồm 1, thì sự khác biệt không có ý nghĩa thống kê (như trường hợp OR 1.59 (0.51 – 4.92) cho sinh non trong nghiên cứu 1).
+    *   **Ý nghĩa lâm sàng:** Ngay cả khi có ý nghĩa thống kê, sự khác biệt đó có đủ lớn để tạo ra sự thay đổi có ý nghĩa trên lâm sàng không? Ví dụ, tăng 500g cân nặng sơ sinh là một kết quả có ý nghĩa lâm sàng đáng kể.
+*   **3. Đánh giá tính nhất quán và khả năng tổng quát hóa:**
+    *   **Sự nhất quán giữa các nghiên cứu:** Nếu nhiều nghiên cứu với phương pháp khác nhau đều cho cùng một kết quả, bằng chứng càng mạnh. Khi có kết quả mâu thuẫn, bạn cần tìm hiểu nguyên nhân (sự khác biệt về dân số, can thiệp, thiết kế...).
+    *   **Khả năng tổng quát hóa (Generalizability):** Kết quả nghiên cứu có thể áp dụng cho dân số bệnh nhân mà bạn sẽ điều trị không? (ví dụ: kết quả từ một nghiên cứu ở Mỹ có thể áp dụng cho bệnh nhân Việt Nam không?).
+*   **4. Áp dụng vào thực hành lâm sàng (Clinical Decision Making):**
+    *   Kết hợp bằng chứng tốt nhất hiện có với kinh nghiệm lâm sàng của bạn (khi bạn có) và giá trị, mong muốn của bệnh nhân. Đối với các tình trạng bệnh lý như Viêm nha chu (ICD-10: K05.3x), việc điều trị cần cá thể hóa, cân nhắc loại nước súc miệng, tần suất và thời gian sử dụng dựa trên bằng chứng và đặc điểm bệnh nhân.
+Việc thực hành đánh giá phê bình này sẽ giúp bạn trở thành một bác sĩ có tư duy khoa học và đưa ra quyết định lâm sàng sáng suốt hơn.</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Giáo trình Phương pháp Nghiên cứu Khoa học trong Y học</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Cuốn giáo trình này là tài liệu cơ bản và thiết yếu cho sinh viên y khoa, bác sĩ trẻ để hiểu rõ về các loại hình nghiên cứu, phương pháp thống kê, và cách đánh giá chất lượng của các bài báo khoa học. Nó giúp nâng cao năng lực đọc và hiểu các bằng chứng y học để áp dụng vào thực tiễn.</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>CME: Phân tích Thống kê và Đánh giá Phê bình Bằng chứng Lâm sàng</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Khóa học này được thiết kế để trang bị cho các bác sĩ và sinh viên y khoa những kỹ năng nâng cao trong việc phân tích thống kê và đánh giá phê bình các nghiên cứu lâm sàng. Học viên sẽ học cách xác định các hạn chế của nghiên cứu, diễn giải P-value và khoảng tin cậy, từ đó đưa ra các quyết định lâm sàng có bằng chứng và đáng tin cậy. Khóa học cũng cung cấp kiến thức về ICD-10 để mã hóa chính xác các chẩn đoán.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Đối với bệnh nhân mang thai mắc bệnh nha chu, làm thế nào để bác sĩ nha khoa và bác sĩ sản phụ khoa phối hợp trong việc tư vấn và lựa chọn nước súc miệng an toàn, hiệu quả, dựa trên các bằng chứng khoa học hiện có?</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Chào các bạn bác sĩ trẻ và sinh viên y khoa! Đây là một câu hỏi rất thực tiễn và quan trọng, đòi hỏi sự phối hợp liên chuyên khoa. Dựa trên các nghiên cứu, chúng ta có thể rút ra những khuyến nghị sau:
+*   **Thảo luận liên chuyên khoa:** Bác sĩ nha khoa và bác sĩ sản phụ khoa cần phối hợp chặt chẽ. Khi phát hiện bệnh nha chu ở phụ nữ mang thai (ví dụ: chẩn đoán theo ICD-10 K05.30 - Bệnh nha chu mãn tính không đặc hiệu, hoặc K05.10 - Viêm lợi cấp tính), bác sĩ nha khoa cần thông báo và tham khảo ý kiến bác sĩ sản khoa về tình trạng tổng thể của thai phụ.
+*   **Ưu tiên an toàn:** Các nghiên cứu chỉ ra rằng có sự lo ngại về tác động tiêu cực của các hóa chất kháng khuẩn như Chlorhexidine (CHX), Cetylpyridinium Chloride (CPC) hoặc Hydrogen Peroxide (H2O2) trong thai kỳ. Do đó, cần ưu tiên các loại nước súc miệng không chứa cồn (alcohol-free).
+*   **Lựa chọn nước súc miệng:**
+    *   **Nước súc miệng không cồn chứa CPCs:** Bài viết gợi ý có thể xem xét loại này để phòng ngừa bệnh nha chu và các biến chứng sản khoa bất lợi (APOs), nhưng cần tiếp cận thận trọng và đánh giá cá thể.
+    *   **Nước súc miệng thảo dược:** Triphala, Propolis, tinh dầu trà, tinh dầu sinh học, tinh dầu bạc hà... đã cho thấy tiềm năng giảm viêm lợi và cải thiện tình trạng nha chu. Đây có thể là lựa chọn thay thế an toàn hơn trong thai kỳ. Tuy nhiên, cần lưu ý về nguồn gốc và chất lượng sản phẩm.
+*   **Tư vấn bệnh nhân:**
+    *   Giải thích rõ ràng về mối liên hệ giữa bệnh nha chu và các biến chứng thai kỳ (ví dụ: PTB).
+    *   Hướng dẫn vệ sinh răng miệng đúng cách (đánh răng, dùng chỉ nha khoa) là nền tảng. Nước súc miệng chỉ là liệu pháp hỗ trợ.
+    *   Nhấn mạnh rằng hiệu quả của nước súc miệng đối với cân nặng của trẻ sơ sinh hoặc tỷ lệ sinh non vẫn chưa rõ ràng, cần thêm nghiên cứu.
+*   **Theo dõi và đánh giá:** Thực hiện tái khám định kỳ để đánh giá tình trạng nha chu và hiệu quả của liệu pháp.
+Các bạn cần nhớ rằng, những giả định này cần được xem xét một cách thận trọng và các nghiên cứu sâu hơn về mối liên hệ giữa việc sử dụng nước súc miệng và kết quả thai kỳ là cần thiết.</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Chẩn đoán và Điều trị Bệnh nha chu (K05.3) của Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn chẩn đoán, phân loại (theo ICD-10) và phác đồ điều trị chi tiết cho các dạng bệnh nha chu, bao gồm cả các khuyến nghị đặc biệt cho nhóm bệnh nhân có yếu tố nguy cơ như phụ nữ mang thai. Đây là tài liệu rất cần thiết cho các bác sĩ nha khoa và sinh viên thực hành lâm sàng để đảm bảo thực hành y tế chuẩn mực và an toàn.</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Quản lý Sức khỏe Răng miệng Toàn diện cho Phụ nữ mang thai</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các kiến thức cập nhật về bệnh nha chu và các vấn đề răng miệng khác trong thai kỳ, mối liên hệ với các biến chứng sản khoa. Khóa học sẽ thảo luận về các phác đồ điều trị an toàn, lựa chọn thuốc và vật liệu, cũng như cách tư vấn hiệu quả cho bệnh nhân. Các bạn sẽ học cách áp dụng ICD-10 vào chẩn đoán và lập kế hoạch điều trị, nâng cao năng lực lâm sàng trong quản lý nhóm đối tượng đặc biệt này.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Xin giải thích chi tiết về ba cơ chế chính liên kết bệnh nha chu với các biến chứng thai kỳ bất lợi (APOs) và tầm quan trọng của việc hiểu các hạn chế nghiên cứu trong việc áp dụng bằng chứng vào thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Các bạn thân mến, việc nắm rõ cơ chế bệnh sinh là chìa khóa để hiểu sâu sắc hơn về mối liên hệ giữa các bệnh lý và đưa ra quyết định lâm sàng chính xác. Mối liên hệ giữa bệnh nha chu (PD - mã ICD-10 K05.x) và các biến chứng thai kỳ bất lợi (APOs - mã ICD-10 O00-O9A) đã được chứng minh thông qua ba cơ chế chính:
+1.  **Cơ chế Vi khuẩn (Bacterial Mechanism):** Vi khuẩn gây bệnh nha chu (như *Porphyromonas gingivalis, Tannerella forsythia*) từ túi nha chu có thể xâm nhập vào dòng máu. Từ đây, chúng di chuyển đến nhau thai và nước ối, gây viêm nhiễm trực tiếp hoặc gián tiếp, kích hoạt phản ứng viêm tại chỗ trong tử cung. Vi khuẩn và các sản phẩm của chúng (ví dụ: nội độc tố) có thể gây tổn thương mô và khởi phát quá trình sinh non.
+2.  **Cơ chế Viêm toàn thân (Systemic Inflammation):** Bệnh nha chu là một ổ nhiễm trùng mãn tính, gây ra phản ứng viêm kéo dài. Các cytokine tiền viêm (như IL-1β, IL-6, TNF-α) và prostaglandin (như PGE2) được giải phóng từ các mô nha chu bị viêm sẽ đi vào hệ tuần hoàn. Các chất trung gian hóa học này có thể gây ra co thắt tử cung, giãn nở cổ tử cung và vỡ màng ối sớm, dẫn đến chuyển dạ sớm và sinh non (mã ICD-10 O42.x, O60.x).
+3.  **Cơ chế Phản ứng Tự miễn (Autoimmune Reaction):** Trong một số trường hợp, sự hiện diện của vi khuẩn nha chu có thể kích hoạt phản ứng tự miễn dịch, nơi hệ thống miễn dịch của cơ thể tấn công nhầm vào các mô của chính nó. Mặc dù ít được nghiên cứu hơn hai cơ chế trên, nhưng cơ chế này có thể góp phần vào các biến chứng thai kỳ thông qua các phản ứng miễn dịch phức tạp.
+**Tầm quan trọng của việc hiểu Hạn chế Nghiên cứu (Strengths and Limitations):**
+Là một bác sĩ y khoa, việc đánh giá bằng chứng là tối quan trọng để áp dụng y học thực chứng. Các nghiên cứu, dù có giá trị, đều có những hạn chế nhất định:
+*   **Mức độ bằng chứng:** Bài viết nhấn mạnh các thử nghiệm lâm sàng đối chứng có mức độ bằng chứng cao. Tuy nhiên, các bạn cần phân biệt các loại nghiên cứu và mức độ tin cậy của chúng. Ví dụ, một thử nghiệm lâm sàng ngẫu nhiên có đối chứng mù đôi luôn cung cấp bằng chứng mạnh hơn một nghiên cứu quan sát.
+*   **Thiên vị (Bias):** Ví dụ trong bài, nghiên cứu [9] có sự khác biệt đáng kể về điểm nha chu và tỷ lệ bệnh nha chu nặng ngay từ ban đầu giữa hai nhóm, điều này tạo ra nguy cơ thiên vị lựa chọn. Thiên vị có thể làm sai lệch kết quả và dẫn đến kết luận không chính xác. Các bạn cần luôn tìm hiểu xem liệu các nhóm nghiên cứu có được phân bổ ngẫu nhiên và đồng nhất ở thời điểm ban đầu hay không.
+*   **Thiếu dữ liệu:** Sự thiếu hụt dữ liệu về tương tác giữa nước súc miệng và kết quả thai kỳ là một hạn chế lớn, cần được bổ sung bằng các nghiên cứu sâu hơn.
+*   **Áp dụng lâm sàng:** Ngay cả khi một liệu pháp cho thấy lợi ích trong một nghiên cứu, việc áp dụng nó vào thực hành lâm sàng cần thận trọng, đặc biệt khi có các yếu tố phức tạp và nhạy cảm như thai kỳ.
+Để tổng kết, hãy xem xét bảng sau về các cơ chế:
+| Cơ chế              | Mô tả                                                                                                  | Ảnh hưởng đến thai kỳ                                                                                                                              |
+| :----------------- | :----------------------------------------------------------------------------------------------------- | :------------------------------------------------------------------------------------------------------------------------------------------------- |
+| Vi khuẩn           | Vi khuẩn nha chu di chuyển vào máu, đến nhau thai/nước ối.                                            | Gây viêm nhiễm trực tiếp, kích hoạt chuyển dạ sớm, vỡ ối non.                                                                                    |
+| Viêm toàn thân     | Các cytokine và prostaglandin tiền viêm từ ổ viêm nha chu đi vào tuần hoàn.                           | Kích thích co thắt tử cung, giãn nở cổ tử cung, vỡ màng ối sớm (ví dụ: dẫn đến sinh non O42.x, O60.x).                                            |
+| Tự miễn            | Hệ thống miễn dịch phản ứng quá mức với vi khuẩn nha chu, tấn công mô cơ thể.                         | Góp phần vào các biến chứng thông qua các phản ứng miễn dịch phức tạp, có thể ảnh hưởng đến sự phát triển của thai nhi và duy trì thai kỳ. |
+Việc thấu hiểu những cơ chế này và khả năng tồn tại của các hạn chế trong nghiên cứu sẽ giúp các bạn đưa ra những quyết định lâm sàng khách quan và đáng tin cậy hơn, đồng thời biết khi nào cần tìm kiếm thêm bằng chứng để nâng cao chất lượng chăm sóc bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>ICD-10-CM: Phân loại bệnh nha chu và các biến chứng sản khoa</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn chi tiết về cách mã hóa bệnh nha chu (K05.x) và các biến chứng liên quan đến thai kỳ (O00-O9A) theo ICD-10-CM. Việc sử dụng mã hóa chính xác giúp thống kê bệnh tật, nghiên cứu dịch tễ học và tối ưu hóa quản lý hồ sơ bệnh án, là nền tảng cho y học thực chứng.</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Phân tích phê bình nghiên cứu khoa học và Y học thực chứng (EBM)</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ trang bị cho các bạn kỹ năng phân tích, đánh giá các nghiên cứu khoa học một cách độc lập, nhận diện các yếu tố gây nhiễu, thiên vị và đánh giá mức độ bằng chứng. Đặc biệt, khóa học sẽ giúp các bạn áp dụng y học thực chứng vào việc đưa ra quyết định lâm sàng hàng ngày, tối ưu hóa lợi ích và an toàn cho bệnh nhân dựa trên bằng chứng khoa học vững chắc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Dựa trên các nghiên cứu về nước súc miệng thảo dược và các tác nhân khác, liệu chúng ta có thể khuyến nghị sử dụng chúng rộng rãi trong phòng ngừa và điều trị bệnh nha chu, đặc biệt ở phụ nữ mang thai? Cần lưu ý gì cho các nghiên cứu trong tương lai?</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Chào các đồng nghiệp và sinh viên y khoa! Từ các nghiên cứu được trình bày, chúng ta thấy một bức tranh đa dạng về tiềm năng của các loại nước súc miệng khác nhau.
+**1. Tổng quan về các tác nhân nước súc miệng:**
+*   **Nước súc miệng Triphala:** Được coi là y học cổ truyền ở Ấn Độ, nghiên cứu của Pradeep et al. (2016) cho thấy Triphala có khả năng giảm viêm và cải thiện viêm lợi (Gingivitis, mã ICD-10 K05.10). Đây là một tín hiệu tích cực cho các lựa chọn tự nhiên, đặc biệt khi cân nhắc tác dụng phụ của các hóa chất tổng hợp.
+*   **Nước súc miệng Propolis:** Nghiên cứu của Santiago et al. (2017) đã chứng minh Propolis (chế phẩm từ ong) là một liệu pháp tiềm năng để giảm mảng bám và viêm lợi. Thử nghiệm trên cả in vivo và in vitro củng cố tiềm năng của nó như một lựa chọn thay thế hoặc bổ trợ.
+*   **Các tác nhân thảo dược khác:** Tinh dầu trà, tinh dầu sinh học, tinh dầu bạc hà cũng cho thấy kết quả tương tự trong việc cải thiện tình trạng nha chu. Điều này mở ra hướng phát triển các sản phẩm chăm sóc răng miệng tự nhiên.
+**2. Khuyến nghị và lưu ý cho thực hành lâm sàng:**
+*   **Tiềm năng lớn:** Các sản phẩm nước súc miệng thảo dược cho thấy tiềm năng đáng kể như một liệu pháp bổ trợ trong việc cải thiện tình trạng nha chu và giảm viêm lợi. Chúng có thể được cân nhắc cho các bệnh nhân có mong muốn sử dụng sản phẩm tự nhiên hoặc khi các liệu pháp hóa học có chống chỉ định.
+*   **Cẩn trọng với phụ nữ mang thai:** Mặc dù tiềm năng, bài viết đặc biệt nhấn mạnh sự lo ngại về tác dụng phụ của các hóa chất kháng khuẩn như CHX, CPC, H2O2 đối với thai nhi. Do đó, các bác sĩ cần rất cẩn trọng khi khuyến nghị cho phụ nữ mang thai. Luôn ưu tiên sự an toàn của mẹ và bé.
+*   **Sử dụng nước súc miệng không cồn:** Như đã đề cập, nếu sử dụng, nên chọn loại không cồn và cân nhắc các sản phẩm có thành phần được chứng minh là an toàn và có bằng chứng khoa học rõ ràng về hiệu quả trong thai kỳ.
+*   **Không thay thế vệ sinh cơ bản:** Nước súc miệng không bao giờ thay thế được việc chải răng đúng cách và dùng chỉ nha khoa. Đây vẫn là nền tảng của vệ sinh răng miệng và kiểm soát mảng bám.
+**3. Hướng đi cho các nghiên cứu tương lai:**
+*   **Hiệu quả trên kết quả thai kỳ:** Mặc dù nước súc miệng cải thiện tình trạng nha chu, bài viết nêu rõ 'mouthwash doesn't have a clear effect on the birth weight of infants and PTB rates.' và 'it is unclear whether these benefits of mouthwash effect on pregnancy outcomes.' Điều này có nghĩa là chúng ta cần các nghiên cứu sâu hơn, với cỡ mẫu lớn hơn và thiết kế chặt chẽ hơn (ví dụ: thử nghiệm lâm sàng ngẫu nhiên có đối chứng), tập trung vào mối liên hệ trực tiếp giữa việc sử dụng nước súc miệng và các chỉ số sức khỏe thai kỳ (ví dụ: cân nặng sơ sinh, tỷ lệ sinh non – mã ICD-10 O47.x). Các nghiên cứu này cần đánh giá rõ ràng tác động của các loại nước súc miệng cụ thể.
+*   **An toàn dài hạn:** Cần đánh giá tác dụng phụ tiềm ẩn của các thành phần trong nước súc miệng khi sử dụng dài hạn trong thai kỳ, bao gồm cả các sản phẩm thảo dược.
+*   **Cá thể hóa liệu pháp:** Nghiên cứu nên tập trung vào việc xác định nhóm phụ nữ mang thai nào sẽ hưởng lợi nhiều nhất từ liệu pháp nước súc miệng và liệu pháp nào là phù hợp nhất cho từng trường hợp cụ thể, dựa trên tình trạng nha chu, sức khỏe tổng thể và các yếu tố nguy cơ khác.
+Tóm lại, trong khi các sản phẩm thảo dược cho thấy nhiều hứa hẹn, chúng ta vẫn cần tiếp cận chúng với tinh thần khoa học nghiêm túc và khuyến nghị dựa trên bằng chứng rõ ràng, đặc biệt trong nhóm đối tượng nhạy cảm như phụ nữ mang thai. Các bạn hãy luôn cập nhật kiến thức và tham gia vào các nghiên cứu để đóng góp vào sự phát triển của y học.</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Dược liệu học nha khoa: Ứng dụng và tiềm năng của các chất kháng khuẩn tự nhiên</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một cái nhìn tổng quan về các hoạt chất sinh học từ thiên nhiên (như Triphala, Propolis, tinh dầu) có tiềm năng trong điều trị và phòng ngừa các bệnh răng miệng. Nó thảo luận về cơ chế tác dụng, bằng chứng khoa học hiện có và hướng phát triển cho các sản phẩm nha khoa tương lai, rất hữu ích cho những ai muốn tìm hiểu sâu về các liệu pháp tự nhiên.</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Phát triển và Thử nghiệm lâm sàng các sản phẩm chăm sóc răng miệng mới</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Khóa học này dành cho các nhà nghiên cứu, bác sĩ và chuyên gia công nghiệp quan tâm đến quá trình phát triển, thử nghiệm lâm sàng và quy định pháp lý cho các sản phẩm chăm sóc răng miệng, đặc biệt là các sản phẩm mới và tự nhiên. Khóa học sẽ bao gồm cả thiết kế nghiên cứu, phân tích dữ liệu và các cân nhắc đạo đức, giúp học viên hiểu rõ hơn về quy trình đưa một sản phẩm mới ra thị trường và đánh giá hiệu quả của nó.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Mối liên hệ giữa bệnh nha chu và các biến chứng thai kỳ bất lợi là gì, và làm thế nào các bác sĩ sản khoa cũng như nha khoa có thể phối hợp quản lý hiệu quả vấn đề này?</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Kính chào các bác sĩ và sinh viên y khoa tương lai,
+Bệnh nha chu và các biến chứng thai kỳ bất lợi (APOs) là một mối liên hệ quan trọng mà chúng ta cần đặc biệt chú ý trong thực hành lâm sàng. Các nghiên cứu đã chỉ ra mối liên hệ chặt chẽ giữa tình trạng viêm nhiễm nha chu và các biến chứng như sinh non, nhẹ cân khi sinh (ref 4), cũng như tiền sản giật (ref 14) và các APOs nói chung (ref 3, 5, 13).
+**Cơ chế bệnh sinh chính:**
+*   **Viêm nhiễm toàn thân:** Vi khuẩn và các sản phẩm viêm từ túi nha chu có thể xâm nhập vào hệ tuần hoàn, gây ra phản ứng viêm toàn thân. Điều này có thể ảnh hưởng đến nhau thai và các quá trình sinh lý liên quan đến thai kỳ.
+*   **Chất trung gian gây viêm:** Các cytokine tiền viêm như TNF-α, IL-1β, IL-6 và prostaglandin E2 (PGE2) được sản xuất tại chỗ viêm nha chu có thể đi vào máu và tác động đến tử cung, gây co thắt tử cung sớm hoặc khởi phát quá trình sinh non.
+*   **Protein phản ứng C (CRP):** Mức độ CRP cao, một chỉ dấu viêm toàn thân, đã được chứng minh có liên quan đến mức độ nghiêm trọng của bệnh nha chu và nguy cơ tiền sản giật (ref 14).
+**Hướng dẫn thực hành lâm sàng cho bác sĩ trẻ:**
+1.  **Sàng lọc toàn diện:** Trong quá trình khám thai định kỳ, bác sĩ sản khoa cần hỏi về tình trạng sức khỏe răng miệng của thai phụ và khuyến khích họ thăm khám nha khoa. Ngược lại, nha sĩ cần luôn hỏi về tình trạng mang thai khi tiếp nhận bệnh nhân nữ trong độ tuổi sinh sản.
+2.  **Phối hợp liên chuyên khoa:** Đây là chìa khóa. Các bác sĩ sản khoa và nha khoa cần có một kênh giao tiếp hiệu quả để trao đổi thông tin về tình trạng bệnh nhân, kế hoạch điều trị và theo dõi. Ví dụ, nha sĩ có thể thông báo cho bác sĩ sản khoa về mức độ nghiêm trọng của bệnh nha chu và khuyến nghị điều trị, trong khi bác sĩ sản khoa có thể cung cấp thông tin về tình trạng thai kỳ và các yếu tố nguy cơ khác.
+3.  **Tư vấn và giáo dục bệnh nhân:**
+    *   Giải thích rõ ràng về mối liên hệ giữa sức khỏe răng miệng và thai kỳ.
+    *   Hướng dẫn vệ sinh răng miệng đúng cách (đánh răng, dùng chỉ nha khoa).
+    *   Khuyến khích thăm khám nha khoa định kỳ trước và trong thai kỳ.
+4.  **Điều trị kịp thời và an toàn:** Các liệu pháp điều trị nha chu không phẫu thuật như cạo vôi răng và xử lý mặt gốc răng thường an toàn và hiệu quả trong thai kỳ. Cần cân nhắc kỹ lưỡng các phương pháp điều trị phức tạp hơn và phối hợp với bác sĩ sản khoa.
+5.  **Theo dõi sau điều trị:** Đảm bảo bệnh nhân tuân thủ các hướng dẫn vệ sinh răng miệng và tái khám định kỳ để duy trì sức khỏe nha chu.
+Việc hiểu rõ và phối hợp quản lý chặt chẽ sẽ giúp chúng ta cải thiện đáng kể kết cục thai kỳ cho sản phụ và thai nhi.</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr"/>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Bệnh nha chu và các biến chứng thai kỳ bất lợi: Tổng quan hệ thống và phân tích gộp.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một cái nhìn tổng thể về các bằng chứng khoa học hiện có, đánh giá mối liên hệ và cơ chế bệnh sinh giữa bệnh nha chu và các biến chứng bất lợi trong thai kỳ, hỗ trợ đưa ra quyết định lâm sàng dựa trên bằng chứng.</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Quản lý sức khỏe răng miệng toàn diện cho phụ nữ mang thai.</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Khóa học CME này được thiết kế để trang bị cho các bác sĩ sản khoa, nha khoa và sinh viên y khoa kiến thức chuyên sâu về tầm soát, chẩn đoán, điều trị và phòng ngừa bệnh nha chu ở phụ nữ mang thai, với trọng tâm là cải thiện kết cục thai kỳ. Khóa học sẽ bao gồm các ca lâm sàng, hướng dẫn thực hành và thảo luận về các phác đồ điều trị an toàn và hiệu quả.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Trong quản lý sức khỏe răng miệng cho phụ nữ mang thai, các loại nước súc miệng nào được khuyến nghị hoặc chống chỉ định, và bác sĩ nên tư vấn như thế nào?</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Thưa các đồng nghiệp và sinh viên y khoa,
+Việc lựa chọn nước súc miệng cho phụ nữ mang thai là một vấn đề cần được xem xét cẩn trọng, nhằm đảm bảo an toàn cho cả mẹ và bé, đồng thời đạt hiệu quả trong việc duy trì vệ sinh răng miệng. Dựa trên các bằng chứng từ đoạn văn, chúng ta có thể rút ra một số điểm chính:
+**Các loại nước súc miệng và khuyến nghị:**
+1.  **Nước súc miệng kháng khuẩn không cồn:**
+    *   **Bằng chứng:** Nghiên cứu đã chỉ ra rằng việc sử dụng nước súc miệng kháng khuẩn không cồn có thể liên quan đến việc giảm tỷ lệ sinh non ở nhóm phụ nữ có nguy cơ cao (ref 10).
+    *   **Tư vấn:** Đây là lựa chọn ưu tiên. Các bác sĩ nên khuyến khích thai phụ sử dụng các sản phẩm không chứa cồn để tránh các tác động tiêu cực tiềm ẩn của cồn, đặc biệt là trong thai kỳ. Các sản phẩm này giúp kiểm soát vi khuẩn trong khoang miệng mà không gây kích ứng hay lo ngại về việc hấp thu toàn thân của cồn.
+2.  **Nước súc miệng thảo dược (ví dụ: Triphala, Propolis):**
+    *   **Bằng chứng:** Các nghiên cứu đã thử nghiệm hiệu quả của nước súc miệng Triphala trong điều trị viêm nướu (ref 11) và nước súc miệng chứa propolis trong kiểm soát vi sinh vật và mảng bám răng (ref 12). Kết quả ban đầu cho thấy tiềm năng tốt.
+    *   **Tư vấn:** Đây có thể là các lựa chọn thay thế hấp dẫn cho những bệnh nhân muốn tránh hóa chất hoặc có phản ứng với các thành phần khác. Tuy nhiên, cần lưu ý về nguồn gốc sản phẩm, chất lượng và bằng chứng khoa học rõ ràng hơn về độ an toàn tuyệt đối trong thai kỳ trước khi khuyến nghị rộng rãi. Luôn tư vấn bệnh nhân thảo luận với bác sĩ sản khoa trước khi sử dụng bất kỳ sản phẩm thảo dược nào.
+3.  **Nước súc miệng sát khuẩn nói chung:**
+    *   **Bằng chứng:** Một nghiên cứu từ Trung Quốc đã xem xét việc sử dụng nước súc miệng sát khuẩn trong thai kỳ và kết cục thai nghén (ref 9).
+    *   **Tư vấn:** Mặc dù một số loại nước súc miệng sát khuẩn có thể hữu ích, cần cẩn trọng và chọn lọc. Các sản phẩm chứa thành phần như chlorhexidine thường được coi là an toàn khi sử dụng đúng liều lượng, nhưng vẫn cần sự giám sát. Luôn ưu tiên các sản phẩm không cồn.
+**Bảng tóm tắt khuyến nghị nước súc miệng cho thai phụ**
+| Loại Nước Súc Miệng         | Bằng chứng lâm sàng (ref) | Khuyến nghị cho Thai phụ                                  | Lưu ý quan trọng                                                |
+| :-------------------------- | :------------------------ | :-------------------------------------------------------- | :-------------------------------------------------------------- |
+| Kháng khuẩn không cồn       | Giảm sinh non (10)        | **Ưu tiên khuyến nghị.** Giúp kiểm soát mảng bám, vi khuẩn. | Đọc kỹ thành phần, tránh cồn.                                   |
+| Thảo dược (Triphala, Propolis) | Giảm viêm nướu (11), kiểm soát mảng bám (12) | **Cân nhắc thay thế.** Có thể hiệu quả với ít tác dụng phụ. | Tham khảo ý kiến bác sĩ sản khoa. Đảm bảo nguồn gốc, chất lượng. |
+| Sát khuẩn chứa cồn          | (Không khuyến nghị rõ)    | **Tránh sử dụng.**                                        | Cồn có thể có nguy cơ tiềm ẩn cho thai nhi.                    |
+**Lời khuyên chung cho bác sĩ:**
+*   Luôn bắt đầu bằng việc hướng dẫn vệ sinh răng miệng cơ bản (đánh răng, dùng chỉ nha khoa) là quan trọng nhất.
+*   Nước súc miệng chỉ là liệu pháp bổ trợ, không thay thế cho đánh răng và dùng chỉ nha khoa.
+*   Trong mọi trường hợp, hãy thảo luận với thai phụ và bác sĩ sản khoa về lựa chọn sản phẩm phù hợp nhất, đặc biệt nếu bệnh nhân có tiền sử dị ứng hoặc các bệnh lý toàn thân khác.</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr"/>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Hiệu quả và An toàn của các loại nước súc miệng trong quản lý nha chu thai kỳ.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng hợp các nghiên cứu về hiệu quả và tính an toàn của các loại nước súc miệng khác nhau (kháng khuẩn, thảo dược, không cồn) đối với sức khỏe răng miệng của phụ nữ mang thai và các kết cục thai kỳ.</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Vệ sinh răng miệng và lựa chọn vật tư y tế trong thai kỳ.</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức chuyên sâu về các phương pháp vệ sinh răng miệng tối ưu cho phụ nữ mang thai, bao gồm hướng dẫn lựa chọn bàn chải, kem đánh răng và đặc biệt là các loại nước súc miệng an toàn và hiệu quả, giúp bác sĩ tư vấn chính xác cho bệnh nhân và nâng cao chất lượng chăm sóc sản khoa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ hoặc sinh viên y khoa, tôi nên tiếp cận và đánh giá các nghiên cứu về mối liên hệ giữa sức khỏe răng miệng và thai kỳ như thế nào để áp dụng vào thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Chào các bạn sinh viên y khoa và bác sĩ trẻ,
+Việc tiếp cận và đánh giá các nghiên cứu khoa học là một kỹ năng thiết yếu để áp dụng y học thực chứng vào thực hành lâm sàng, đặc biệt trong một lĩnh vực đa ngành như sức khỏe răng miệng và thai kỳ. Dưới đây là một số bước và lời khuyên:
+**1. Hiểu rõ các loại hình nghiên cứu:**
+*   **Nghiên cứu cắt ngang (Cross-sectional study):** (ví dụ: ref 2, 15, 17) Chỉ cung cấp thông tin về mối liên hệ tại một thời điểm nhất định, không chứng minh được quan hệ nhân quả. Ví dụ, 'đánh giá sự di động của răng trong thai kỳ' (ref 15) hoặc 'tình trạng nha chu của một nhóm phụ nữ mang thai' (ref 17).
+*   **Tổng quan hệ thống và phân tích gộp (Systematic review and Meta-analysis):** (ví dụ: ref 4, 13) Đây là cấp độ bằng chứng cao nhất, tổng hợp và phân tích dữ liệu từ nhiều nghiên cứu độc lập để đưa ra kết luận tổng quát hơn. 'Mối quan hệ giữa bệnh nha chu và nhẹ cân sinh non: tổng quan hệ thống' (ref 4) là một ví dụ điển hình.
+*   **Thử nghiệm lâm sàng ngẫu nhiên có đối chứng (Randomized Controlled Clinical Trial - RCT):** (ví dụ: ref 9, 11) Cung cấp bằng chứng mạnh mẽ nhất về quan hệ nhân quả. 'Sử dụng nước súc miệng sát khuẩn trong thai kỳ và kết cục thai nghén: thử nghiệm lâm sàng ngẫu nhiên có đối chứng' (ref 9) là một ví dụ tuyệt vời.
+**2. Đánh giá chất lượng nghiên cứu:**
+*   **Nguồn gốc tạp chí:** Các tạp chí y khoa uy tín (ví dụ: J Periodontol, Am J Obstet Gynecol) thường có quy trình bình duyệt nghiêm ngặt.
+*   **Phương pháp luận:** Đọc kỹ phần phương pháp để hiểu cách nghiên cứu được thiết kế, cỡ mẫu, cách thu thập và phân tích dữ liệu. Một phương pháp luận yếu sẽ làm giảm giá trị của kết quả.
+*   **Xung đột lợi ích:** Kiểm tra xem tác giả hoặc tổ chức có bất kỳ xung đột lợi ích nào có thể ảnh hưởng đến kết quả không.
+**3. Áp dụng vào thực hành lâm sàng:**
+*   **Tổng hợp bằng chứng:** Không chỉ dựa vào một nghiên cứu đơn lẻ. Hãy tìm kiếm các tổng quan hệ thống hoặc hướng dẫn lâm sàng dựa trên bằng chứng đã được công bố.
+*   **Tư duy phê phán:** Luôn đặt câu hỏi về tính phù hợp của kết quả nghiên cứu với bệnh nhân cụ thể của bạn (ví dụ: nghiên cứu ở Trung Quốc có áp dụng được cho bệnh nhân ở Việt Nam không?).
+*   **Cân bằng với kinh nghiệm lâm sàng:** Kết hợp bằng chứng tốt nhất hiện có với kinh nghiệm lâm sàng của bạn và sở thích, giá trị của bệnh nhân.
+**Ví dụ thực tế:**
+Khi đọc về 'sử dụng nước súc miệng kháng khuẩn không cồn làm giảm tỷ lệ sinh non' (ref 10), bạn cần tự hỏi:
+*   Nghiên cứu này được thực hiện trên đối tượng nào? (Dân số nguy cơ cao).
+*   Kết quả có ý nghĩa thống kê và lâm sàng không?
+*   Sản phẩm cụ thể nào được sử dụng? Có sẵn và phù hợp với bệnh nhân của tôi không?
+**Lời khuyên:**
+Hãy bắt đầu bằng việc đọc các tổng quan hệ thống và hướng dẫn lâm sàng trước, sau đó đi sâu vào các RCT có liên quan. Tham gia các buổi bình duyệt tạp chí (journal club) tại bệnh viện hoặc trường học để rèn luyện kỹ năng đọc và phân tích nghiên cứu. Y học luôn phát triển, và việc học hỏi liên tục là không thể thiếu.</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr"/>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Từ nghiên cứu đến lâm sàng: Áp dụng Y học thực chứng trong chăm sóc nha khoa thai kỳ.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Cuốn sách hướng dẫn bác sĩ và sinh viên y khoa cách đọc, hiểu và phê bình các nghiên cứu khoa học, đặc biệt trong lĩnh vực nha khoa và sản khoa, để đưa ra các quyết định lâm sàng dựa trên bằng chứng tốt nhất.</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Đánh giá chất lượng nghiên cứu và ứng dụng Y học thực chứng trong điều trị lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ hướng dẫn học viên cách đánh giá một cách có hệ thống các bài báo khoa học, từ việc nhận diện các loại hình nghiên cứu đến phân tích độ tin cậy và giá trị của bằng chứng. Đặc biệt, khóa học sẽ tập trung vào cách chuyển đổi các bằng chứng khoa học thành các khuyến nghị thực hành lâm sàng có giá trị, giúp bác sĩ tự tin hơn trong việc đưa ra quyết định điều trị.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, giúp các bác sĩ trẻ và sinh viên y khoa nắm vững kiến thức và kinh nghiệm thực hành.</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Dựa trên bài viết, một bác sĩ nội trú cần hiểu rõ vai trò và chỉ định của Afatinib trong điều trị ung thư phổi tế bào vảy giai đoạn tiến triển tại Việt Nam như thế nào, đặc biệt khi đã thất bại với các liệu pháp trước đó?</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc nắm vững chỉ định và vai trò của các thuốc điều trị đích là vô cùng quan trọng trong y học hiện đại, đặc biệt với ung thư phổi. Đối với Afatinib trong điều trị ung thư phổi tế bào vảy (SCC) giai đoạn tiến triển, bạn cần lưu ý các điểm sau:
+*   **Vị trí trong phác đồ điều trị:** Afatinib được FDA chấp thuận từ năm 2013 và tại Việt Nam từ năm 2019, là một lựa chọn điều trị **bước hai** (second-line therapy).
+*   **Đối tượng bệnh nhân:** Thuốc này được chỉ định cho những bệnh nhân mắc ung thư phổi không tế bào nhỏ (NSCLC) loại tế bào vảy, giai đoạn tiến triển tại chỗ hoặc di căn, **sau khi đã thất bại với các liệu pháp hóa trị chứa platinum hoặc liệu pháp miễn dịch trước đó**.
+*   **Cơ chế tác dụng:** Afatinib là một thuốc ức chế tyrosine kinase (TKI) không thuận nghịch của thụ thể yếu tố tăng trưởng biểu bì (EGFR) thuộc họ ERBB. Mặc dù EGFR đột biến thường gặp hơn trong ung thư phổi biểu mô tuyến, Afatinib vẫn cho thấy hiệu quả trên một số bệnh nhân SCC phổi, đặc biệt khi các lựa chọn khác đã cạn kiệt.
+*   **Lợi ích lâm sàng:** Như bài báo mô tả, các trường hợp lâm sàng được điều trị bằng Afatinib sau thất bại với platinum hoặc liệu pháp miễn dịch đã cho thấy sự cải thiện cả về lâm sàng và hình ảnh học. Điều này nhấn mạnh tầm quan trọng của việc theo dõi chặt chẽ đáp ứng điều trị.
+*   **ICD-10:** Khi chẩn đoán và theo dõi bệnh nhân ung thư phổi tế bào vảy, chúng ta sẽ sử dụng mã ICD-10 cho ung thư phổi (ví dụ, C34.9 cho u ác tính phổi không xác định, hoặc các mã C34.0-C34.8 tùy theo vị trí giải phẫu), kết hợp với mã phụ cho mô học (ví dụ, M8070/3 cho Carcinoma tế bào vảy) để đảm bảo thông tin bệnh án đầy đủ và chính xác theo tiêu chuẩn quốc tế và Bộ Y tế Việt Nam. Điều này giúp đồng bộ hóa dữ liệu và quản lý bệnh án hiệu quả.
+**Lời khuyên:** Hãy luôn đánh giá kỹ lưỡng tiền sử điều trị, tình trạng lâm sàng, và kết quả giải phẫu bệnh của bệnh nhân trước khi quyết định phác đồ điều trị. Tham khảo các hướng dẫn lâm sàng mới nhất của Bộ Y tế Việt Nam và các tổ chức quốc tế là điều cần thiết.</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, giúp các bác sĩ trẻ và sinh viên y khoa nắm vững kiến thức và kinh nghiệm thực hành.</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Bài viết nhấn mạnh ung thư phổi tế bào vảy là loại phổ biến thứ hai trong NSCLC. Là một sinh viên y khoa, em cần tập trung vào những khía cạnh nào của giải phẫu bệnh lý và chẩn đoán mô bệnh học để phân biệt chính xác các phân loại NSCLC, đặc biệt khi xem xét phân loại ICD-10?</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Việc hiểu rõ về giải phẫu bệnh và mô bệnh học là nền tảng vững chắc cho mọi bác sĩ lâm sàng, đặc biệt trong lĩnh vực ung thư. Để phân biệt chính xác các phân loại ung thư phổi không tế bào nhỏ (NSCLC) và ứng dụng trong phân loại ICD-10, bạn cần tập trung vào các điểm sau:
+1.  **Tầm quan trọng của sinh thiết và giải phẫu bệnh:**
+    *   Chẩn đoán mô bệnh học là tiêu chuẩn vàng để xác định loại NSCLC (tế bào vảy, biểu mô tuyến, tế bào lớn...). Không có chẩn đoán mô bệnh học chính xác, việc điều trị đích và hóa trị đặc hiệu sẽ không thể thực hiện được.
+    *   Các phương pháp lấy bệnh phẩm bao gồm sinh thiết xuyên thành ngực, sinh thiết phế quản qua nội soi, chọc hút kim nhỏ (FNA), hoặc sinh thiết hạch.
+2.  **Đặc điểm mô học chính:**
+    *   **Ung thư phổi tế bào vảy (SCC):** Thường có các đặc điểm như cầu sừng (keratin pearls), cầu nối gian bào (intercellular bridges), và các tế bào lớn, đa diện với bào tương eosinophilic rõ rệt. Thường liên quan đến tiền sử hút thuốc lá nặng và vị trí trung tâm trong phổi. Trong ICD-10, các mã mô học cho ung thư biểu mô tế bào vảy thường bắt đầu bằng M8070/3.
+    *   **Ung thư biểu mô tuyến (Adenocarcinoma):** Đây là loại NSCLC phổ biến nhất, thường xuất phát từ các tuyến bài tiết nhầy, có thể thấy cấu trúc tuyến rõ ràng hoặc dạng nhú, tiểu phế quản-phế nang. Thường liên quan đến người không hút thuốc hoặc hút thuốc ít, vị trí ngoại vi. Trong ICD-10, các mã mô học cho ung thư biểu mô tuyến thường bắt đầu bằng M8140/3.
+3.  **Hóa mô miễn dịch (Immunohistochemistry - IHC):**
+    *   Đây là công cụ cực kỳ hữu ích để phân biệt các loại NSCLC khi hình thái học truyền thống không đủ rõ ràng. Các kháng thể thường dùng:
+        *   **SCC:** Dương tính với p40, p63, CK5/6.
+        *   **Adenocarcinoma:** Dương tính với TTF-1, Napsin A.
+4.  **Phân loại ICD-10:**
+    *   ICD-10 không chỉ yêu cầu mã hóa vị trí giải phẫu của khối u (ví dụ, C34.1 cho thùy trên phổi, C34.3 cho thùy dưới phổi) mà còn yêu cầu mã hóa loại mô học cụ thể (từ mã M trong phân loại bệnh lý khối u).
+    *   Việc mã hóa chính xác giúp theo dõi dịch tễ học, hiệu quả điều trị, và thống kê y tế. Sai sót trong mã hóa có thể dẫn đến sai lệch dữ liệu và ảnh hưởng đến quản lý bệnh nhân.
+**Bảng so sánh cơ bản Ung thư Phổi Tế bào Vảy và Ung thư Biểu mô Tuyến:**
+| Đặc điểm                 | Ung thư Phổi Tế bào Vảy (SCC)               | Ung thư Biểu mô Tuyến (Adenocarcinoma)         |
+| :----------------------- | :------------------------------------------- | :--------------------------------------------- |
+| **Tần suất**             | Thứ hai phổ biến nhất trong NSCLC             | Phổ biến nhất trong NSCLC                      |
+| **Liên quan hút thuốc**  | Liên quan chặt chẽ, thường nặng              | Ít hoặc không liên quan                        |
+| **Vị trí**               | Trung tâm, gần phế quản lớn                  | Ngoại vi, xa phế quản lớn                      |
+| **Đặc điểm mô học**      | Cầu sừng, cầu nối gian bào, tế bào lớn       | Cấu trúc tuyến, dạng nhú, sản xuất chất nhầy   |
+| **Dấu ấn IHC**           | p40 (+), p63 (+), CK5/6 (+)                  | TTF-1 (+), Napsin A (+)                        |
+| **Đột biến gen phổ biến**| Thường ít đột biến đích điều trị             | EGFR, ALK, ROS1, KRAS, BRAF, MET...             |
+| **Mã ICD-10 (M-code)**   | M8070/3                                      | M8140/3                                        |
+**Lời khuyên:** Hãy dành thời gian thực hành đọc lam giải phẫu bệnh, tham gia các buổi hội chẩn đa chuyên khoa và luôn cập nhật kiến thức về hóa mô miễn dịch cũng như các dấu ấn sinh học phân tử mới. Đây là những kỹ năng không thể thiếu để bạn trở thành một bác sĩ giỏi.</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, giúp các bác sĩ trẻ và sinh viên y khoa nắm vững kiến thức và kinh nghiệm thực hành.</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Bài viết đề cập Afatinib là một lựa chọn điều trị bước hai và nhắc đến các tác nhân mới nổi. Với vai trò là bác sĩ nội trú, làm thế nào để chúng ta tiếp cận với sự phát triển không ngừng của các phương pháp điều trị ung thư phổi tế bào vảy giai đoạn tiến triển, bao gồm cả liệu pháp truyền thống và các liệu pháp mới như ức chế điểm kiểm soát miễn dịch?</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Sự phát triển nhanh chóng của y học ung thư đòi hỏi chúng ta phải không ngừng cập nhật kiến thức. Đối với ung thư phổi tế bào vảy (SCC) giai đoạn tiến triển, việc tiếp cận các phương pháp điều trị cần một chiến lược toàn diện, bao gồm cả liệu pháp truyền thống và hiện đại. Dưới đây là cách bạn có thể tiếp cận:
+1.  **Nắm vững phác đồ điều trị tiêu chuẩn (Standard of Care):**
+    *   **Điều trị bước một (First-line):** Hóa trị bộ đôi chứa Platinum (ví dụ: Cisplatin hoặc Carboplatin kết hợp với Paclitaxel, Gemcitabine, hoặc Docetaxel) vẫn là nền tảng. Gần đây, việc bổ sung liệu pháp miễn dịch vào phác đồ bước một đã trở thành một lựa chọn quan trọng cho nhiều bệnh nhân.
+    *   **Điều trị bước hai (Second-line):** Sau khi thất bại với hóa trị platinum, các lựa chọn truyền thống bao gồm Docetaxel hoặc Erlotinib (một TKI EGFR). Afatinib (như bài báo đề cập) là một TKI EGFR khác được chỉ định cho SCC phổi sau thất bại với platinum hoặc miễn dịch. Các thuốc ức chế điểm kiểm soát miễn dịch như Pembrolizumab, Nivolumab, Atezolizumab cũng đã được chứng minh hiệu quả ở bước hai hoặc các bước sau.
+2.  **Hiểu về vai trò của Liệu pháp Miễn dịch (Immune Checkpoint Inhibitors - ICIs):**
+    *   Pembrolizumab, Atezolizumab, Nivolumab là các ICIs được nhắc đến trong bài viết và đã cách mạng hóa điều trị ung thư phổi. Chúng hoạt động bằng cách giải phóng 'phanh' của hệ miễn dịch, cho phép các tế bào T tấn công tế bào ung thư.
+    *   Việc lựa chọn ICI thường dựa trên biểu hiện PD-L1 của khối u. Bệnh nhân có PD-L1 dương tính cao thường có đáp ứng tốt hơn.
+3.  **Tầm quan trọng của xét nghiệm dấu ấn sinh học:**
+    *   Mặc dù SCC phổi ít có các đột biến đích điều trị như EGFR hoặc ALK so với ung thư biểu mô tuyến, việc xét nghiệm toàn diện các dấu ấn sinh học (bao gồm PD-L1, và có thể cả TMB – Tumor Mutational Burden) vẫn là cần thiết để xác định các lựa chọn điều trị phù hợp nhất.
+4.  **Cá thể hóa điều trị:**
+    *   Mỗi bệnh nhân là duy nhất. Quyết định điều trị phải dựa trên tình trạng tổng thể của bệnh nhân (performance status), các bệnh lý kèm theo, nguyện vọng của bệnh nhân, và đặc điểm sinh học của khối u.
+    *   Tham gia các buổi hội chẩn đa chuyên khoa (tumor board) là cách tuyệt vời để học hỏi kinh nghiệm từ các chuyên gia khác nhau (ung thư nội khoa, xạ trị, phẫu thuật, giải phẫu bệnh).
+5.  **Luôn cập nhật kiến thức:**
+    *   Đọc các tạp chí y khoa uy tín (như Vietnam Medical Journal, Journal of Clinical Oncology, NEJM), tham dự các hội nghị khoa học, và tham gia các khóa đào tạo y khoa liên tục (CME) là không thể thiếu. Các hướng dẫn lâm sàng của Bộ Y tế Việt Nam, NCCN, ESMO là tài liệu tham khảo cốt lõi.
+**Lời khuyên:** Hãy xây dựng thói quen đọc và phân tích các nghiên cứu lâm sàng, đặc biệt là các nghiên cứu pha 3. Điều này không chỉ giúp bạn cập nhật kiến thức mà còn rèn luyện tư duy phản biện, từ đó áp dụng tốt nhất vào thực hành lâm sàng cho bệnh nhân của mình.</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr"/>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các bằng chứng y học đáng tin cậy, giúp sinh viên và bác sĩ trẻ nâng cao kiến thức chuyên môn.</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Dựa vào thông tin về Afatinib và bệnh lý ung thư biểu mô vảy phổi, các bác sĩ trẻ cần hiểu cơ chế và bằng chứng phân tử nào để cân nhắc sử dụng Afatinib trong điều trị?</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Chào các bạn sinh viên và bác sĩ trẻ, việc hiểu rõ cơ chế tác dụng của thuốc là nền tảng vững chắc cho mọi quyết định lâm sàng. Với Afatinib trong điều trị ung thư biểu mô vảy phổi (SCC), các bạn cần nắm vững những điểm sau:
+*   **Afatinib là gì?** Đây là một chất ức chế Tyrosine kinase (TKI) không thuận nghịch, có khả năng gắn kết và ức chế tín hiệu từ tất cả các đồng nhị phân và dị nhị phân của các thành viên trong họ ERBB. Điều này bao gồm EGFR (ErbB1), HER2 (ErbB2), và ErbB4. Bằng cách tác động lên các con đường tín hiệu nội bào liên quan, Afatinib kiểm soát sự tăng sinh và tồn tại của tế bào ung thư.
+*   **Tại sao lại quan trọng trong SCC phổi?** Các bằng chứng phân tử mạnh mẽ cho thấy EGFR và các thụ thể khác trong họ ErbB như Her2, ErbB3 và ErbB4 có liên quan đến sinh bệnh học của SCC phổi. Mặc dù đột biến EGFR ít gặp, nhưng khoảng 60-80% bệnh nhân SCC phổi có biểu hiện quá mức (overexpression) hoặc khuếch đại gen EGFR. Hơn nữa, các thành viên khác của họ ERBB như HER2 và HER3 cũng thường xuyên bị khuếch đại (lần lượt 20% và 30% trường hợp).
+*   **Ứng dụng lâm sàng:** Với cơ chế tác động rộng và tỷ lệ cao các bất thường gen trong họ ERBB ở SCC phổi, Afatinib được giả thuyết là sẽ hiệu quả trong phân nhóm bệnh nhân này. Điều này giúp giải thích lý do tại sao Afatinib đã được chấp thuận trong điều trị bước hai cho ung thư biểu mô vảy phổi. Khi cân nhắc điều trị, các bạn cần đánh giá tình trạng bệnh nhân, tiền sử điều trị trước đó và đặc điểm mô bệnh học để đưa ra quyết định phù hợp nhất.</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị ung thư phổi không tế bào nhỏ của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các phác đồ và hướng dẫn lâm sàng chi tiết, bao gồm các khuyến nghị về liệu pháp nhắm trúng đích cho ung thư phổi không tế bào nhỏ (NSCLC) theo chuẩn Việt Nam và quốc tế, rất hữu ích cho việc học tập và thực hành y khoa, đặc biệt cho các bác sĩ trẻ và sinh viên.</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Cập nhật các liệu pháp nhắm trúng đích trong điều trị ung thư phổi.</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ đi sâu vào cơ chế tác dụng, chỉ định, chống chỉ định, liều lượng và quản lý tác dụng phụ của các liệu pháp nhắm trúng đích mới nhất trong ung thư phổi, giúp bác sĩ cập nhật kiến thức và kỹ năng lâm sàng để tối ưu hóa điều trị cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ tư vấn và cung cấp kiến thức lâm sàng cho bác sĩ trẻ và sinh viên y khoa về quản lý bệnh nhân ung thư, đảm bảo tuân thủ các phác đồ chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Trường hợp lâm sàng số 1 đã chứng kiến sự thất bại của hóa trị liệu ban đầu. Trong tình huống này, những yếu tố nào cần được đánh giá để đưa ra quyết định chuyển sang liệu pháp Afatinib làm liệu pháp bước hai?</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Trong thực hành lâm sàng, việc chuyển đổi liệu pháp là một quyết định quan trọng, đặc biệt khi liệu pháp ban đầu thất bại. Với trường hợp 1, các bạn cần xem xét những điểm sau khi quyết định chuyển sang Afatinib:
+1.  **Đánh giá diễn biến bệnh (Disease Progression):** Bệnh nhân được xác nhận bệnh tiến triển ('the disease has been confirmed to progress due to the appearance of new soft tissue lesions and enlarging inguinal area lesions') sau chỉ một chu kỳ hóa trị Paclitaxel-Carboplatin. Đây là tiêu chí chính để ngưng liệu pháp hiện tại và xem xét liệu pháp kế tiếp. Các bạn cần dựa vào tiêu chuẩn RECIST (Response Evaluation Criteria in Solid Tumors) để đánh giá khách quan.
+2.  **Tình trạng thể trạng bệnh nhân (ECOG performance status):** Mặc dù bài viết không nêu rõ ECOG ban đầu khi bệnh tiến triển, nhưng bệnh nhân có 'pain as a result of progress'. Việc đánh giá lại ECOG là cần thiết. Nếu bệnh nhân còn đủ điều kiện, liệu pháp thứ hai có thể được xem xét. Sau 2 tháng điều trị Afatinib, ECOG của bệnh nhân cải thiện đáng kể về 0, cho thấy bệnh nhân dung nạp tốt và đáp ứng tích cực, một kết quả rất tốt.
+3.  **Đặc điểm mô bệnh học (Histology):** Bệnh nhân được chẩn đoán ung thư biểu mô vảy (squamous cell carcinoma). Đây là yếu tố quan trọng vì Afatinib đã được phê duyệt cho điều trị bước hai trong SCC phổi, dựa trên cơ sở khoa học về sự liên quan của họ ERBB trong sinh bệnh học SCC.
+4.  **Bệnh đồng mắc và tiền sử (Comorbidities and history):** Bệnh nhân có tiền sử hút thuốc lá lâu năm nhưng không có bệnh đồng mắc. Điều này ảnh hưởng đến khả năng dung nạp các liệu pháp và cần được cân nhắc. May mắn là bệnh nhân đáp ứng tốt với Afatinib.
+5.  **Mục tiêu điều trị:** Với ung thư giai đoạn tiến xa (cT2N3M1), mục tiêu điều trị thường là kéo dài thời gian sống còn, kiểm soát triệu chứng và cải thiện chất lượng cuộc sống. Khi liệu pháp đầu tay thất bại, việc chuyển sang một liệu pháp có cơ chế tác dụng khác và tiềm năng hiệu quả là cần thiết.
+Dưới đây là một ví dụ về tiến trình điều trị và các tiêu chí:
+| Giai đoạn điều trị | Tiêu chí/Tình trạng Bệnh nhân                                | Quyết định Liệu pháp             | Kết quả                                                                                                                                                                                                                                                                                               |
+| :----------------- | :----------------------------------------------------------- | :------------------------------- | :---------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- |
+| Liệu pháp bước 1   | Ung thư phổi SCC giai đoạn tiến xa (cT2N3M1), ECOG ban đầu có thể chưa rõ, có đau do tiến triển. | Hóa trị Paclitaxel-Carboplatin   | Bệnh tiến triển nhanh sau 1 chu kỳ, xuất hiện tổn thương mới (như mô mềm, hạch bẹn), đau tăng.                                                                                                                                                                                                   |
+| Liệu pháp bước 2   | Bệnh tiến triển trên nền SCC phổi, tình trạng chung cho phép điều trị tiếp.   | Chuyển sang Afatinib làm liệu pháp bước hai | Cải thiện lâm sàng rõ rệt: không còn đau, ECOG 0 (tình trạng thể trạng rất tốt), giảm kích thước đáng kể của khối u phổi và tổn thương di căn tuyến thượng thận (gần 50% giảm), hạch bẹn tiếp tục thu nhỏ. Bệnh nhân khỏe mạnh, trong tình trạng tốt sau 4 tháng. |
+Việc đánh giá toàn diện giúp các bạn đưa ra quyết định điều trị tối ưu nhất cho bệnh nhân, luôn dựa trên bằng chứng và tình trạng cụ thể của từng cá thể.</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Thực hành lâm sàng trong điều trị Ung thư phổi không tế bào nhỏ giai đoạn tiến xa (NCCN Guidelines).</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Tài liệu này là hướng dẫn thực hành lâm sàng tiêu chuẩn quốc tế, cung cấp các phác đồ điều trị chi tiết, bao gồm các khuyến nghị cho liệu pháp bước hai và bước ba trong ung thư phổi không tế bào bào nhỏ (NSCLC) dựa trên các bằng chứng khoa học mới nhất, rất quan trọng cho việc ra quyết định lâm sàng cho bác sĩ.</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Quản lý và ra quyết định điều trị ung thư phổi giai đoạn tiến xa.</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các chiến lược quản lý bệnh nhân ung thư phổi giai đoạn tiến xa, bao gồm việc lựa chọn liệu pháp ban đầu, đánh giá đáp ứng, xử trí thất bại điều trị và chuyển đổi phác đồ, nhằm nâng cao năng lực ra quyết định lâm sàng cho các bác sĩ trong bối cảnh thực hành hiện đại.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên y khoa và bác sĩ trẻ trong việc học tập và thực hành lâm sàng chuyên sâu về phân loại giai đoạn và theo dõi bệnh ung thư theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Trong trường hợp 1 của bệnh nhân ung thư biểu mô vảy phổi, việc chẩn đoán 'left bronchial cancer cT2N3M1' có ý nghĩa gì và làm thế nào để theo dõi đáp ứng điều trị một cách hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Để trở thành một bác sĩ giỏi, việc hiểu rõ phân loại giai đoạn bệnh và cách theo dõi đáp ứng điều trị là cực kỳ quan trọng. Hãy cùng phân tích trường hợp 1:
+*   **Ý nghĩa của phân loại giai đoạn cT2N3M1:**
+    *   **cT2:** Cho thấy khối u nguyên phát (primary tumor) có kích thước lớn hơn 3cm nhưng không quá 5cm, hoặc có các đặc điểm xâm lấn nhất định (ví dụ: liên quan đến phế quản chính cách carina trên 2cm, xâm lấn màng phổi tạng, gây xẹp phổi/viêm phổi tắc nghẽn lan đến rốn phổi). Trong trường hợp này, khối u phổi trái dưới có đường kính 4.3 x 4.9 cm, phù hợp với T2.
+    *   **N3:** Chỉ ra có di căn hạch vùng mở rộng. Theo phân loại AJCC (American Joint Committee on Cancer) cho ung thư phổi, N3 bao gồm các hạch trung thất đối bên, hạch rốn phổi đối bên, hoặc hạch thượng đòn/hạch bậc thang ở một hoặc cả hai bên. Bệnh nhân có 'some mediastinal lymph nodes in the same side' (thuộc N2) và 'left axillary lymph nodes'. Mặc dù hạch nách thường được coi là di căn xa (M1a hoặc M1b) trong ung thư phổi, nhưng nếu chúng được xếp vào N3 theo ngữ cảnh của chẩn đoán 'cT2N3M1' trong bài viết, điều này ngụ ý một mức độ lan rộng hạch vùng rất đáng kể và phức tạp, đòi hỏi xác định rõ hơn vị trí giải phẫu và kết quả giải phẫu bệnh để phân loại chính xác theo hướng dẫn hiện hành.
+    *   **M1:** Chỉ ra có di căn xa (distant metastasis). Trong trường hợp này, bệnh nhân có 'enlarged left adrenal gland 4.8 x 3.8 cm in size', đây là một vị trí di căn xa. Điều này xác nhận bệnh đã ở giai đoạn IV (Giai đoạn di căn).
+*   **Theo dõi đáp ứng điều trị hiệu quả:**
+    *   **Lâm sàng:** Đánh giá các triệu chứng của bệnh nhân. Trong trường hợp này, 'no longer had pain, ECOG status index was 0'. Sự cải thiện triệu chứng và tình trạng thể trạng là dấu hiệu rất quan trọng của đáp ứng, đồng thời cũng phản ánh chất lượng cuộc sống của bệnh nhân. Các bạn cần ghi nhận chi tiết các thay đổi này trong hồ sơ bệnh án.
+    *   **Hình ảnh học (CT scan):** CT ngực được sử dụng để đánh giá kích thước khối u phổi ('significant reduction in the size of the left lung tumor, achieving a partial response'). CT ổ bụng/ngực cũng đánh giá các vị trí di căn ('Metastases of the left adrenal gland decreased in size to 1.7 x 2.7 cm (nearly 50% reduction)'). Tiêu chuẩn RECIST (Response Evaluation Criteria in Solid Tumors) thường được sử dụng để định lượng đáp ứng (đáp ứng một phần, đáp ứng hoàn toàn, bệnh ổn định, bệnh tiến triển). Việc đo lường chính xác các tổn thương mục tiêu là rất quan trọng.
+    *   **Dấu ấn ung thư (Tumor markers):** Mặc dù không được đề cập trong đoạn văn, trong một số loại ung thư (ví dụ SCC có thể có SCC-Ag), dấu ấn ung thư có thể được sử dụng để hỗ trợ theo dõi đáp ứng, tuy nhiên không phải là tiêu chí độc lập mà cần kết hợp với lâm sàng và hình ảnh học.
+    *   **Đánh giá tổng thể:** Sự kết hợp giữa cải thiện lâm sàng và đáp ứng hình ảnh học là bằng chứng mạnh mẽ cho hiệu quả của liệu pháp. 'patient is healthy, in good condition, the inguinal lymph nodes continue to shrink. He has no cough, no chest pain and no dyspnea' là những dấu hiệu lâm sàng tuyệt vời của đáp ứng kéo dài và kiểm soát bệnh.</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Phân loại giai đoạn Ung thư theo AJCC (American Joint Committee on Cancer) Phiên bản 8.</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn chi tiết về hệ thống phân loại TNM (U, Hạch, Di căn) cho tất cả các loại ung thư, là cơ sở để sinh viên và bác sĩ đánh giá chính xác mức độ lan rộng của bệnh và tiên lượng. Nắm vững AJCC là kỹ năng cốt lõi trong ung thư học, cần được học hỏi và áp dụng nhất quán.</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Đánh giá đáp ứng điều trị và phân loại giai đoạn trong Ung thư phổi.</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ hướng dẫn chi tiết cách áp dụng hệ thống phân loại TNM, cách sử dụng tiêu chuẩn RECIST để đánh giá đáp ứng điều trị qua hình ảnh học, và các phương pháp theo dõi bệnh nhân ung thư phổi, giúp bác sĩ lâm sàng nâng cao kỹ năng chẩn đoán và quản lý bệnh, đặc biệt là trong các trường hợp phức tạp.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generate_dataset/SVYKHOA_dataset_guide.xlsx
+++ b/generate_dataset/SVYKHOA_dataset_guide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I311"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15941,6 +15941,9851 @@
         </is>
       </c>
     </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt trong các ca ung thư gan nguyên phát.</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh điều trị ung thư tế bào gan (HCC - Mã ICD-10: C22.0) bằng phẫu thuật cắt gan sau nút động mạch gan (TACE) trước mổ, sinh viên y khoa và bác sĩ trẻ cần lưu ý những tiêu chuẩn chọn bệnh nhân nào để đảm bảo kết quả tốt nhất và giảm thiểu biến chứng?</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Để đảm bảo kết quả điều trị tối ưu cho bệnh nhân ung thư tế bào gan (HCC) được nút động mạch gan (TACE) trước phẫu thuật cắt gan, các bác sĩ trẻ cần đặc biệt chú trọng vào việc sàng lọc và đánh giá bệnh nhân một cách toàn diện. Dưới đây là những tiêu chí quan trọng các bạn cần lưu ý:
+*   **Chẩn đoán xác định:**
+    *   Bệnh nhân phải có kết quả sinh thiết (biopsy) hoặc các tiêu chuẩn chẩn đoán hình ảnh đặc trưng (ví dụ: CT scan động mạch-tĩnh mạch, MRI) để khẳng định là ung thư tế bào gan nguyên phát (Primary Hepatocellular Carcinoma – ICD-10: C22.0).
+    *   Việc này là nền tảng để tránh nhầm lẫn với các khối u gan thứ phát hoặc lành tính, đảm bảo phương pháp điều trị phù hợp.
+*   **Chức năng gan:**
+    *   **Trước mổ:** Chức năng gan phải nằm trong giới hạn bình thường hoặc chỉ suy giảm nhẹ.
+    *   **Phân loại Child-Pugh:** Đây là một công cụ đánh giá quan trọng về mức độ xơ gan và dự trữ chức năng gan. Nghiên cứu đã chỉ ra rằng:
+        *   **Child-Pugh A:** Thường là chỉ định tốt cho cả cắt gan lớn và nhỏ, cho thấy gan có khả năng phục hồi tốt sau phẫu thuật.
+        *   **Child-Pugh B:** Có thể chấp nhận đối với trường hợp cắt gan nhỏ. Tuy nhiên, cần đánh giá rất cẩn thận vì nguy cơ suy gan sau mổ tăng lên. Cắt gan lớn ở nhóm này thường là chống chỉ định tương đối.
+        *   **Child-Pugh C:** Thường là chống chỉ định cho phẫu thuật cắt gan do nguy cơ suy gan và tử vong rất cao.
+    *   **Thể tích gan còn lại:** Đối với các trường hợp cắt gan lớn, thể tích gan còn lại ước tính sau mổ phải đủ để duy trì chức năng sống. Cần sử dụng các phương pháp đo thể tích gan chính xác trước mổ.
+*   **Tình trạng chung và các bệnh lý nền:**
+    *   Đánh giá kỹ các tiền sử bệnh lý như viêm gan B (ICD-10: B18.1), viêm gan C (ICD-10: B18.2) và nghiện rượu, vì chúng là các yếu tố nguy cơ chính gây xơ gan và tái phát HCC.
+    *   Đảm bảo bệnh nhân đủ sức khỏe tổng thể để chịu đựng một cuộc đại phẫu.
+*   **Vai trò của nút ĐMG trước mổ:**
+    *   TACE được thực hiện trước mổ với mục đích làm giảm kích thước khối u, gây hoại tử u, hoặc kiểm soát u trước phẫu thuật, từ đó có thể cải thiện khả năng cắt bỏ hoàn toàn và giảm tái phát.
+    *   Mặc dù nghiên cứu cho thấy 1 lần TACE hay nhiều lần TACE không có sự khác biệt thống kê về tỉ lệ tái phát, nhưng quyết định số lần và thời điểm TACE cần dựa trên đánh giá cá thể hóa của từng bệnh nhân và đáp ứng của khối u.
+Việc tuân thủ chặt chẽ các tiêu chuẩn này không chỉ giúp tối ưu hóa kết quả điều trị mà còn là bài học quan trọng về y đức và sự an toàn cho bệnh nhân trong thực hành lâm sàng của các bạn.</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr"/>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn đánh giá và cải thiện kết quả sau phẫu thuật trong ung thư gan.</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Dựa trên kết quả nghiên cứu về ung thư tế bào gan được nút động mạch gan trước mổ cắt gan, sinh viên và bác sĩ trẻ cần rút ra những bài học gì về các yếu tố dự báo tái phát và cách quản lý sau mổ để tối ưu hóa tiên lượng bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Để tối ưu hóa tiên lượng và quản lý hiệu quả bệnh nhân ung thư tế bào gan (HCC) sau phẫu thuật cắt gan, đặc biệt là những trường hợp đã được nút động mạch gan (TACE) trước mổ, các bác sĩ trẻ cần hiểu rõ các yếu tố dự báo tái phát và chiến lược theo dõi sau mổ. Dưới đây là những bài học quan trọng:
+*   **Tỉ lệ hoại tử khối u sau TACE là một yếu tố tiên lượng mạnh mẽ:**
+    *   Nghiên cứu chỉ ra rằng **hoại tử u đạt 100%** là một chỉ dấu cực kỳ tích cực, không có trường hợp nào tái phát trong nhóm này. Điều này có ý nghĩa thống kê rõ rệt (p&lt;0.05). Ngược lại, những bệnh nhân có tỉ lệ hoại tử u dưới 100% có tỉ lệ tái phát cao hơn đáng kể.
+    *   Điều này nhấn mạnh tầm quan trọng của việc đánh giá hiệu quả TACE trước mổ. Nếu TACE có thể đạt được hoại tử u hoàn toàn, tiên lượng sau mổ sẽ tốt hơn rất nhiều. Các bác sĩ cần cố gắng tối ưu hóa kỹ thuật TACE và cân nhắc các phương pháp phối hợp để đạt được mục tiêu này.
+    **Bảng 3.3. Tỉ lệ hoại tử khối u và tái phát sau mổ**
+    | Tỉ lệ hoại tử u | Có tái phát (n) | Không tái phát (n) | Tổng (n) | Tỉ lệ có tái phát (%) | p-value |
+    |:---------------:|:---------------:|:------------------:|:--------:|:--------------------:|:-------:|
+    | &lt;100%           | 12              | 24                 | 36       | 33.3%                | 0.044   |
+    | 100%            | 0               | 10                 | 10       | 0%                   |         |
+    | &lt;70%            | 5               | 15                 | 20       | 25%                  | 0.883   |
+    | &gt;70%            | 7               | 19                 | 26       | 26.9%                |         |
+*   **Số lần nút ĐMG và tỉ lệ tái phát:**
+    *   Trong nghiên cứu này, không có sự khác biệt có ý nghĩa thống kê giữa nhóm được nút động mạch gan 1 lần và nhóm nút nhiều hơn 1 lần về tỉ lệ tái phát sau mổ (p=0.725). Điều này cho thấy việc thực hiện TACE nhiều lần không nhất thiết cải thiện thêm kết quả tái phát, nhưng cần lưu ý đây là kết quả từ một nghiên cứu cụ thể và có thể khác tùy vào từng bệnh cảnh lâm sàng.
+*   **Mức độ cắt gan và tái phát:**
+    *   Nghiên cứu cũng không tìm thấy sự khác biệt có ý nghĩa thống kê giữa cắt gan lớn và cắt gan nhỏ về tỉ lệ tái phát sau mổ (p=0.243). Điều này gợi ý rằng mức độ cắt gan không phải là yếu tố tiên lượng tái phát độc lập trong bối cảnh này, và quyết định cắt gan cần dựa trên kích thước, vị trí khối u và chức năng gan dự trữ.
+*   **Quản lý sau mổ để tối ưu hóa tiên lượng:**
+    *   **Theo dõi định kỳ chặt chẽ:** Bệnh nhân HCC (ICD-10: C22.0) sau phẫu thuật cần được theo dõi định kỳ với các xét nghiệm marker ung thư (như AFP) và chẩn đoán hình ảnh (siêu âm, CT, MRI) để phát hiện sớm bất kỳ dấu hiệu tái phát nào. Việc phát hiện sớm giúp có thể can thiệp kịp thời bằng các phương pháp điều trị tái phát như TACE lặp lại, đốt sóng cao tần (RFA), hoặc phẫu thuật lại.
+    *   **Kiểm soát các yếu tố nguy cơ:** Tiếp tục quản lý tốt các yếu tố nguy cơ tiềm ẩn như viêm gan B (ICD-10: B18.1), viêm gan C (ICD-10: B18.2) và tránh rượu bia để giảm thiểu nguy cơ tái phát và tiến triển bệnh gan.
+    *   **Tư vấn bệnh nhân:** Giáo dục bệnh nhân về tầm quan trọng của việc tuân thủ lịch hẹn tái khám và nhận biết các dấu hiệu cảnh báo để họ chủ động trong quá trình quản lý bệnh của mình.
+Bằng cách nắm vững các yếu tố này, các bác sĩ trẻ có thể đưa ra quyết định lâm sàng sáng suốt hơn và cải thiện đáng kể chất lượng cuộc sống và thời gian sống cho bệnh nhân HCC.</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr"/>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, giúp các bác sĩ trẻ nhận diện và quản lý biến chứng sau phẫu thuật gan.</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Kết quả gần sau mổ cắt gan cho bệnh nhân ung thư tế bào gan cho thấy những biến chứng nào thường gặp và có sự khác biệt nào giữa cắt gan lớn và cắt gan nhỏ? Bác sĩ trẻ cần chuẩn bị và quản lý các biến chứng này như thế nào?</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Việc hiểu rõ và sẵn sàng quản lý các biến chứng sau phẫu thuật cắt gan là vô cùng quan trọng đối với các bác sĩ trẻ. Dựa trên kết quả nghiên cứu, chúng ta có thể rút ra những bài học quý giá về các biến chứng thường gặp và cách tiếp cận lâm sàng:
+**1. Tỉ lệ và loại biến chứng thường gặp:**
+*   **Tỉ lệ biến chứng chung:** Nghiên cứu ghi nhận tỉ lệ biến chứng sau mổ là 10.9%. Điều này cho thấy phẫu thuật cắt gan, dù đã có TACE trước đó, vẫn tiềm ẩn nhiều rủi ro và đòi hỏi sự theo dõi sát sao.
+*   **Các loại biến chứng chính:**
+    *   **Tràn dịch màng phổi (ICD-10: J90):** Là biến chứng gặp chủ yếu (8.7% tổng số BN, và 14.3% ở nhóm cắt gan lớn). Tràn dịch màng phổi thường do phản ứng viêm, rò dịch từ mặt cắt gan, hoặc suy giảm chức năng gan sau mổ. Các bác sĩ cần theo dõi dấu hiệu hô hấp, chụp X-quang phổi định kỳ và có thể cần chọc hút dịch màng phổi nếu có triệu chứng hoặc ảnh hưởng hô hấp.
+    *   **Suy gan sau mổ (ICD-10: K72.0 - Suy gan cấp và bán cấp):** Xuất hiện ở 2.2% số bệnh nhân. Đây là một biến chứng nghiêm trọng, đặc biệt nguy hiểm nếu thể tích gan còn lại không đủ hoặc chức năng gan trước mổ đã suy giảm (ví dụ: Child-Pugh B). Cần theo dõi chặt chẽ các chỉ số xét nghiệm chức năng gan (bilirubin, INR, albumin) và có biện pháp hỗ trợ gan kịp thời.
+    *   **Suy thận cấp sau mổ (ICD-10: N17):** Cũng chiếm 2.2%. Thường liên quan đến tình trạng sốc, mất máu, sử dụng thuốc độc thận hoặc hội chứng gan thận. Cần theo dõi chức năng thận (creatinine, Ure, lượng nước tiểu) và duy trì đủ thể tích tuần hoàn.
+*   **Các biến chứng không ghi nhận:** Đáng mừng là nghiên cứu không ghi nhận trường hợp nào rò mật hay áp xe tồn dư sau mổ, và đặc biệt là không có tử vong sau mổ (0%). Điều này cho thấy sự tiến bộ trong kỹ thuật phẫu thuật và quản lý bệnh nhân.
+**2. Sự khác biệt giữa cắt gan lớn và cắt gan nhỏ:**
+*   **Cắt gan lớn:** Có tỉ lệ biến chứng cao hơn (14.3%) so với cắt gan nhỏ (5.6%). Đặc biệt, tràn dịch màng phổi gặp chủ yếu ở nhóm cắt gan lớn (14.3%). Điều này là hợp lý vì cắt gan lớn gây ra sang chấn lớn hơn, mất máu nhiều hơn và giảm thể tích gan dự trữ lớn hơn, tăng nguy cơ suy gan và các biến chứng khác.
+*   **Cắt gan nhỏ:** Có tỉ lệ biến chứng thấp hơn. Điều này nhấn mạnh tầm quan trọng của việc đánh giá tiền phẫu kỹ lưỡng và chỉ định cắt gan phù hợp với tình trạng chức năng gan của bệnh nhân.
+**3. Cách bác sĩ trẻ chuẩn bị và quản lý biến chứng:**
+*   **Đánh giá tiền phẫu toàn diện:** Luôn đánh giá kỹ chức năng gan (Child-Pugh), thể tích gan còn lại dự kiến, và các bệnh lý nền để tiên lượng nguy cơ biến chứng.
+*   **Theo dõi sát sao sau mổ:** Trong những ngày đầu sau mổ, cần theo dõi liên tục các dấu hiệu sinh tồn, lượng nước tiểu, dịch dẫn lưu, các chỉ số chức năng gan và thận. Bất kỳ thay đổi bất thường nào cũng cần được đánh giá và xử lý kịp thời.
+*   **Dự phòng biến chứng:**
+    *   **Tràn dịch màng phổi:** Đảm bảo dẫn lưu tốt, kiểm soát đau hiệu quả để bệnh nhân có thể hô hấp sâu, tập vật lý trị liệu hô hấp sớm.
+    *   **Suy gan/thận:** Truyền dịch hợp lý, tránh các thuốc độc cho gan/thận, điều chỉnh liều thuốc theo chức năng gan/thận.
+*   **Phối hợp đa chuyên khoa:** Không ngần ngại tham vấn các bác sĩ chuyên khoa khác như hồi sức tích cực, chuyên gia gan mật, thận học khi gặp các biến chứng phức tạp. Đây là bài học quan trọng về làm việc nhóm trong y khoa.
+Việc trang bị kiến thức vững chắc và kỹ năng quản lý biến chứng sẽ giúp các bạn tự tin hơn trong thực hành lâm sàng và mang lại kết quả tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr"/>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên và bác sĩ trẻ tìm hiểu sâu về các biến chứng sau phẫu thuật cắt gan, giúp họ chuẩn bị tốt hơn cho thực hành lâm sàng và nâng cao chất lượng chăm sóc bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ, tôi cần đặc biệt lưu ý những biến chứng nào sau phẫu thuật cắt gan và làm thế nào để tôi có thể chủ động phòng ngừa, phát hiện sớm và quản lý chúng hiệu quả theo các khuyến nghị lâm sàng hiện hành?</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc nắm vững các biến chứng sau phẫu thuật cắt gan là cực kỳ quan trọng đối với bác sĩ lâm sàng, đặc biệt trong các ca phẫu thuật lớn. Dựa trên các nghiên cứu và kinh nghiệm thực tiễn, bạn cần lưu ý những điểm sau để tối ưu hóa kết quả điều trị và an toàn cho bệnh nhân:
+**1. Các biến chứng thường gặp cần đặc biệt chú ý:**
+*   **Rò mật:** Đây là một trong những biến chứng nghiêm trọng và khá phổ biến (ví dụ: một số nghiên cứu ghi nhận tỉ lệ 4 trường hợp rò mật trong 46 bệnh nhân), đặc biệt sau cắt gan lớn. Rò mật có thể dẫn đến áp xe, viêm phúc mạc mật và nhiễm trùng huyết. Bạn cần chú ý đến dịch dẫn lưu có màu mật, tăng lượng dịch bất thường hoặc các dấu hiệu nhiễm trùng toàn thân.
+*   **Áp xe tồn dư:** Thường hình thành do dịch rò (mật, máu) hoặc mô hoại tử bị nhiễm trùng. Các triệu chứng bao gồm sốt, đau bụng, tăng bạch cầu. Chẩn đoán thường dựa vào siêu âm hoặc CT scan.
+*   **Chảy máu:** Có thể là chảy máu tức thì hoặc muộn. Cần theo dõi sát các dấu hiệu sinh tồn, công thức máu và dịch dẫn lưu.
+*   **Suy gan cấp:** Đặc biệt ở những bệnh nhân có dự trữ gan kém hoặc cắt gan quá lớn. Theo dõi chức năng gan, tình trạng đông máu và các dấu hiệu của bệnh não gan.
+*   **Nhiễm trùng:** Ngoài áp xe, có thể là nhiễm trùng vết mổ, viêm phổi hoặc nhiễm trùng đường tiết tiết niệu.
+*   **Tử vong:** Tỷ lệ tử vong sau mổ cắt gan có thể tăng lên đáng kể ở những trường hợp có biến chứng nặng hoặc phải mổ lại. Tỉ lệ tử vong chung có thể lên tới 15,2% (theo nghiên cứu trong đoạn văn).
+**2. Chiến lược phòng ngừa và quản lý hiệu quả:**
+*   **Đánh giá tiền phẫu kỹ lưỡng:** Đánh giá chức năng gan (Child-Pugh, MELD score), thể tích gan còn lại dự kiến (FLR) để đảm bảo gan còn lại đủ chức năng và dự trữ. Điều này giúp giảm thiểu nguy cơ suy gan sau mổ.
+*   **Kỹ thuật phẫu thuật tối ưu:** Áp dụng các kỹ thuật cầm máu chính xác, kỹ thuật cắt gan ít xâm lấn (nếu phù hợp), kiểm soát chặt chẽ các ống mật nhỏ để giảm thiểu rò mật. Học hỏi từ các phẫu thuật viên giàu kinh nghiệm về các chi tiết kỹ thuật tinh tế.
+*   **Sử dụng dẫn lưu hợp lý:** Đặt dẫn lưu phù hợp để theo dõi dịch, nhưng cũng cần cân nhắc thời điểm rút dẫn lưu để tránh nhiễm trùng ngược dòng. Cần có phán đoán lâm sàng dựa trên lượng và tính chất dịch.
+*   **Theo dõi hậu phẫu sát sao và chủ động:**
+    *   **Dấu hiệu sinh tồn:** Theo dõi thường xuyên để phát hiện sớm sốc, nhiễm trùng.
+    *   **Dịch dẫn lưu:** Màu sắc, số lượng, nồng độ bilirubin trong dịch dẫn lưu là chỉ số quan trọng để phát hiện rò mật.
+    *   **Xét nghiệm:** Công thức máu, chức năng gan, các chỉ số viêm (CRP, procalcitonin) giúp đánh giá tình trạng nhiễm trùng và chức năng gan.
+    *   **Chẩn đoán hình ảnh:** Siêu âm, CT scan có thể giúp phát hiện sớm áp xe, tụ dịch, rò mật. Đừng ngần ngại yêu cầu chẩn đoán hình ảnh nếu có nghi ngờ lâm sàng.
+*   **Xử trí biến chứng kịp thời và phù hợp:**
+    *   **Rò mật:** Tùy mức độ, có thể điều trị bảo tồn (dẫn lưu), nội soi mật tụy ngược dòng (ERCP) đặt stent, hoặc can thiệp phẫu thuật. Quyết định cần được đưa ra sau khi hội chẩn.
+    *   **Áp xe:** Chọc hút dẫn lưu dưới hướng dẫn hình ảnh hoặc phẫu thuật. Nuôi cấy dịch mủ để tìm vi khuẩn và kháng sinh đồ.
+    *   **Chảy máu:** Truyền máu, can thiệp mạch (nếu phù hợp), hoặc phẫu thuật lại. Luôn sẵn sàng cho tình huống khẩn cấp.
+**Lời khuyên cho bạn:** Luôn học hỏi kinh nghiệm từ các đàn anh, thảo luận các ca lâm sàng phức tạp trong hội chẩn đa chuyên khoa và tham gia các khóa học chuyên sâu về phẫu thuật gan mật để nâng cao kiến thức và kỹ năng. Việc áp dụng y học bằng chứng và không ngừng cập nhật kiến thức là chìa khóa để trở thành một bác sĩ giỏi.</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr"/>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, giúp sinh viên và bác sĩ trẻ nắm vững kiến thức về tái phát ung thư biểu mô tế bào gan (UTTBG) sau mổ và các yếu tố tiên lượng, giúp đưa ra quyết định lâm sàng và tư vấn bệnh nhân một cách khoa học và đáng tin cậy.</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Sau phẫu thuật cắt gan điều trị ung thư biểu mô tế bào gan, những yếu tố nào ảnh hưởng đến nguy cơ tái phát sớm và tiên lượng bệnh nhân? Vai trò của nút ĐMG trước mổ trong việc kiểm soát tái phát như thế nào và chúng ta cần giải thích điều này cho bệnh nhân ra sao?</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, việc hiểu rõ các yếu tố ảnh hưởng đến tái phát UTTBG sau phẫu thuật là chìa khóa để quản lý bệnh nhân hiệu quả và cung cấp thông tin tiên lượng chính xác. Dưới đây là những điểm cốt lõi bạn cần nắm vững:
+**1. Các yếu tố độc lập ảnh hưởng đến tiên lượng tái phát sớm UTTBG:**
+Theo Yumoto và cộng sự, cũng như các nghiên cứu khác, các yếu tố sau đây đóng vai trò quan trọng:
+*   **Nhân vệ tinh (Satellite nodules):** Sự hiện diện của các nhân ung thư nhỏ nằm gần khối u chính, thường không được phát hiện trong quá trình phẫu thuật ban đầu. Dữ liệu cho thấy 39,5% BN có nhân vệ tinh khi phân tích giải phẫu bệnh, đây là dấu hiệu của bệnh tiến triển và là nguyên nhân chủ yếu của tái phát sớm.
+*   **Di căn vi thể hoặc tế bào ung thư rời ra trong phẫu thuật:** Các tế bào ung thư có thể phát tán trong quá trình phẫu thuật, dẫn đến tái phát tại chỗ hoặc di căn xa sau này. 20% BN có nhiều tổn thương tìm thấy trong quá trình phẫu thuật, cho thấy nguy cơ này.
+*   **Mức độ xơ gan:** Xơ gan nặng ảnh hưởng đến khả năng tái tạo của gan, tăng nguy cơ tái phát và làm suy giảm chức năng gan sau mổ, ảnh hưởng đến khả năng dung nạp các phương pháp điều trị bổ trợ.
+*   **Kích thước và số lượng tổn thương:** Khối u lớn (&gt;5cm) hoặc nhiều tổn thương thường liên quan đến giai đoạn bệnh tiến triển hơn, nguy cơ xâm lấn mạch máu và tái phát cao hơn. 9,5% số BN có nhiều tổn thương tìm thấy trước khi phẫu thuật.
+*   **Xâm lấn mạch máu (Vascular invasion) và huyết khối trong khối u:** Đây là những yếu tố tiên lượng cực kỳ quan trọng, cho thấy khả năng di căn xa và tái phát cục bộ cao.
+**2. Vai trò của Nút ĐMG (TACE) trước mổ trong quản lý tái phát:**
+*   **Mục tiêu của Nút ĐMG (TACE) trước mổ:** TACE được sử dụng để làm giảm kích thước khối u, hoại tử khối u, hoặc kiểm soát u trước phẫu thuật để tăng khả năng cắt bỏ hoàn toàn. Việc sử dụng dầu i-ốt (Lipiodol) giúp đánh dấu khối u, hỗ trợ phẫu thuật viên đánh giá ranh giới và khả năng cắt bỏ, thậm chí làm một số nhân không còn nhìn thấy trên hình ảnh.
+*   **Ảnh hưởng đến tỷ lệ tái phát:** Mặc dù TACE trước mổ được chấp nhận rộng rãi, các nghiên cứu về ảnh hưởng trực tiếp của nó đến tỷ lệ tái phát còn nhiều tranh cãi. Nghiên cứu tổng hợp của Yanming Zhou trên 3210 bệnh nhân cho thấy tỷ lệ tái phát sau phẫu thuật ở nhóm Nút ĐMG trước mổ là 61% và nhóm không Nút ĐMG trước mổ là 58,4%, không có sự khác biệt có ý nghĩa thống kê về tỷ lệ tái phát chung cũng như tỷ lệ di căn xa hoặc di căn trong gan.
+*   **Tuy nhiên, TACE trước mổ vẫn có giá trị:** Nút ĐMG trước mổ có thể cải thiện tiên lượng sống còn không bệnh ở những bệnh nhân có khối u kích thước lớn hoặc những trường hợp không thể cắt bỏ được trong giai đoạn đầu, bằng cách biến một khối u không cắt được thành có thể cắt được. Đây là lợi ích quan trọng nhất.
+**3. Cách tư vấn cho bệnh nhân:**
+*   Bạn cần giải thích rõ ràng, bằng ngôn ngữ dễ hiểu, về các yếu tố nguy cơ tái phát và tiên lượng của bệnh nhân dựa trên đặc điểm khối u (kích thước, số lượng, có nhân vệ tinh), tình trạng gan (xơ gan) và kết quả giải phẫu bệnh.
+*   Nhấn mạnh tầm quan trọng của việc theo dõi định kỳ sau mổ (siêu âm, AFP, CT/MRI) để phát hiện sớm tái phát. Đây là trách nhiệm của cả bác sĩ và bệnh nhân.
+*   Thảo luận về các lựa chọn điều trị bổ trợ nếu có tái phát (phẫu thuật lại, TACE, RFA, liệu pháp đích, miễn dịch), hoặc các liệu pháp hệ thống nếu bệnh tiến triển.
+*   Luôn nhấn mạnh rằng mỗi trường hợp là khác nhau và kế hoạch điều trị được cá thể hóa cho từng bệnh nhân dựa trên bằng chứng khoa học mới nhất.
+Việc hợp tác chặt chẽ trong một hội đồng u bướu (multidisciplinary tumor board) là cần thiết để đưa ra quyết định tối ưu cho từng bệnh nhân, đảm bảo họ nhận được sự chăm sóc toàn diện và hiệu quả nhất.</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr"/>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và hướng dẫn chi tiết về vai trò của nút động mạch gan (ĐMG) trước mổ và ảnh hưởng của nó đến thời gian sống thêm của bệnh nhân ung thư biểu mô tế bào gan (UTTBG), giúp các bác sĩ trẻ đưa ra quyết định điều trị dựa trên bằng chứng.</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Vai trò của nút ĐMG trước phẫu thuật cắt gan trong điều trị ung thư biểu mô tế bào gan được đánh giá như thế nào đối với thời gian sống thêm của bệnh nhân? Những yếu tố nào liên quan đến tiên lượng sống và làm thế nào để tôi có thể áp dụng kiến thức này vào thực hành lâm sàng một cách hợp lý?</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc đánh giá vai trò của nút ĐMG (TACE) trước phẫu thuật trong UTTBG và ảnh hưởng của nó đến thời gian sống thêm là một chủ đề phức tạp với nhiều nghiên cứu khác nhau, đôi khi đưa ra những kết quả trái ngược. Để hiểu rõ hơn và áp dụng vào thực hành lâm sàng, bạn cần xem xét các điểm sau:
+**1. Ảnh hưởng của Nút ĐMG trước mổ đến thời gian sống thêm:**
+*   **Cải thiện sống còn không bệnh:** Hiện nay, hầu hết các tác giả đồng ý rằng TACE trước phẫu thuật có thể cải thiện tỷ lệ sống còn không bệnh (disease-free survival) của bệnh nhân có khối u kích thước lớn và đặc biệt là những trường hợp không thể cắt bỏ được trong giai đoạn đầu. Mục tiêu là thu nhỏ khối u, hoại tử khối u, và giảm nguy cơ tái phát tại chỗ, từ đó kéo dài thời gian sống còn.
+*   **Tranh cãi đối với khối u nhỏ:** Tuy nhiên, hiệu quả của TACE trước mổ đến thời gian sống không bệnh ở những trường hợp khối u nhỏ, có thể cắt bỏ ngay từ đầu, vẫn còn là vấn đề tranh cãi giữa các chuyên gia.
+*   **Số lần Nút ĐMG:** Nghiên cứu của Zhang đã chứng minh rằng các bệnh nhân có TACE trước phẫu thuật có thời gian sống không bệnh tật tốt hơn so với những trường hợp không TACE. Hơn nữa, những bệnh nhân có TACE trước phẫu thuật hơn hai lần cho kết quả tốt hơn so với những người chỉ TACE một lần, gợi ý rằng đa lần TACE có thể làm giảm tái phát tại chỗ và tăng tỷ lệ sống không bệnh cũng như tỷ lệ sống thêm toàn bộ.
+*   **Khác biệt trong nghiên cứu:** Đáng chú ý, trong nghiên cứu của chúng tôi, khi chia số lần BN được nút ĐMG trước mổ thành nhóm 1 lần và trên 1 lần, không thấy có sự khác biệt có ý nghĩa thống kê về thời gian sống thêm và xác suất sống thêm (p&gt;0.05). Điều này cho thấy cần có thêm các nghiên cứu lớn và mạnh mẽ hơn để kết luận chính xác về lợi ích của đa lần TACE.
+*   **Tỷ lệ sống thêm trung bình (Median Survival):** Tỷ lệ sống thêm 1 năm, 2 năm và 3 năm sau mổ của nghiên cứu được trích dẫn lần lượt là 88,6%, 85,9% và 80,9%. Tuy nhiên, Lee (2009) báo cáo thời gian sống trung bình của nhóm không TACE là 60 tháng và có TACE là 51 tháng – những con số này cần được giải thích trong bối cảnh cụ thể của từng nghiên cứu (loại bệnh nhân, giai đoạn bệnh, kỹ thuật TACE, v.v.).
+**2. Các yếu tố liên quan đến tiên lượng sống sau mổ:**
+Nghiên cứu của Zhang đã chỉ ra các yếu tố sau có liên quan đến tiên lượng bệnh nhân sau phẫu thuật cắt gan:
+| Yếu tố tiên lượng      | Mô tả/Ý nghĩa lâm sàng                                                                                                                              |
+| :-------------------- | :-------------------------------------------------------------------------------------------------------------------------------------------------- |
+| **Số tổn thương**     | Nhiều tổn thương thường chỉ ra giai đoạn bệnh tiến triển, nguy cơ tái phát và di căn cao hơn, ảnh hưởng xấu đến thời gian sống thêm.               |
+| **Số lần Nút ĐMG trước mổ** | Một số nghiên cứu gợi ý nhiều lần TACE có thể cải thiện kết quả sống còn không bệnh, nhưng cần cân nhắc lợi ích/nguy cơ.                             |
+| **Hiệu quả của Nút ĐMG** | Mức độ hoại tử khối u sau TACE (đánh giá bằng hình ảnh học) là yếu tố quan trọng, cho thấy khả năng kiểm soát bệnh tại chỗ.                              |
+| **Huyết khối trong khối u** | Dấu hiệu của xâm lấn mạch máu, liên quan đến tiên lượng xấu, nguy cơ di căn và tái phát cao, làm giảm thời gian sống.                               |
+| **Kích thước khối u** | Khối u lớn thường liên quan đến giai đoạn tiến triển, khả năng cắt bỏ không hoàn toàn và nguy cơ tái phát cao hơn, ảnh hưởng xấu đến tiên lượng.  |
+| **Nhân vệ tinh**      | Chỉ điểm bệnh tiến triển vi thể, tăng nguy cơ tái phát tại chỗ và di căn, làm giảm đáng kể thời gian sống thêm.                                       |
+| **Sự xâm lấn mạch máu** | Yếu tố tiên lượng độc lập quan trọng nhất, liên quan đến nguy cơ tái phát và di căn rất cao, tiên lượng sống rất kém.                                  |
+| **AFP sau mổ**        | Nồng độ AFP tăng cao sau mổ có thể là dấu hiệu của bệnh còn sót hoặc tái phát sớm, cần theo dõi chặt chẽ.                                          |
+**3. Áp dụng vào thực hành lâm sàng:**
+*   **Cá thể hóa điều trị:** Luôn đánh giá từng trường hợp cụ thể. TACE trước mổ không phải là lựa chọn cho tất cả bệnh nhân. Quyết định cần dựa trên kích thước, số lượng khối u, chức năng gan, và các yếu tố tiên lượng khác.
+*   **Đánh giá lợi ích-nguy cơ:** Cân nhắc lợi ích của việc giảm kích thước khối u hoặc hoại tử khối u so với nguy cơ của thủ thuật TACE (biến chứng, suy gan cấp) và thời gian chờ phẫu thuật.
+*   **Hội chẩn đa chuyên khoa:** Thảo luận trong hội đồng u bướu (hepatobiliary tumor board) là điều cần thiết để đưa ra quyết định điều trị tối ưu nhất, bao gồm cả TACE trước mổ, đặc biệt là trong các trường hợp phức tạp hoặc có khối u lớn.
+*   **Theo dõi sát sao:** Dù có hay không TACE trước mổ, việc theo dõi định kỳ sau phẫu thuật (siêu âm, AFP, CT/MRI) là bắt buộc để phát hiện sớm tái phát và kịp thời can thiệp, từ đó cải thiện thời gian sống thêm cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 về quản lý ung thư biểu mô tế bào gan.</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, xin vui lòng phân tích các yếu tố tiên lượng và kết quả sống thêm sau phẫu thuật cắt gan ở bệnh nhân ung thư biểu mô tế bào gan, đặc biệt là sự khác biệt giữa nhóm cắt gan đơn thuần và nhóm có nút động mạch gan (ĐMG) trước mổ? Sinh viên y khoa và bác sĩ trẻ cần lưu ý gì để cải thiện kết quả này?</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc phân tích kết quả sống thêm sau phẫu thuật cắt gan cho bệnh nhân ung thư biểu mô tế bào gan (HCC) là rất quan trọng để đánh giá hiệu quả điều trị và định hướng chiến lược quản lý bệnh nhân. Dựa trên dữ liệu cung cấp:
+**1. Phân tích kết quả sống thêm giữa hai nhóm:**
+- **Thời gian sống không bệnh trung bình:** Nhóm nút ĐMG (TACE) trước mổ (41 tháng) có thời gian sống không bệnh trung bình dài hơn so với nhóm cắt gan đơn thuần (36 tháng). Điều này gợi ý TACE có thể đóng vai trò trong việc kiểm soát vi di căn hoặc khối u nhỏ không nhìn thấy được, kéo dài thời gian tái phát.
+- **Tỷ lệ sống thêm toàn bộ 1-3-5 năm sau mổ:**
+    - Nhóm cắt gan đơn thuần: 89%, 73%, và 59%.
+    - Nhóm nút ĐMG trước mổ: 81%, 57%, và 47%.
+    *Nhận định:* Dữ liệu cho thấy tỷ lệ sống thêm toàn bộ của nhóm cắt gan đơn thuần cao hơn. Tuy nhiên, cần hiểu rằng chỉ định TACE trước mổ thường dành cho các trường hợp phức tạp hơn (khối u lớn hơn, đa ổ, hoặc dự trữ gan kém) nhằm 'downstage' hoặc kiểm soát bệnh trước khi phẫu thuật. Điều này có thể ảnh hưởng đến kết quả sống thêm toàn bộ. Giá trị P=0.025 cho thấy sự khác biệt có ý nghĩa thống kê, đòi hỏi các bác sĩ lâm sàng phải cân nhắc kỹ lưỡng chỉ định TACE.
+- **Tỷ lệ sống không bệnh 1-3-5 năm sau mổ:**
+    - Nhóm cắt gan đơn thuần: 66%, 44%, và 32%.
+    - Nhóm nút ĐMG trước mổ: 60%, 49%, và 40%.
+    *Nhận định:* Tỷ lệ sống không bệnh của nhóm TACE trước mổ thấp hơn ở năm thứ 1 nhưng lại cao hơn ở năm thứ 3 và 5. Điều này có thể phản ánh khả năng của TACE trong việc kiểm soát tốt hơn các ổ tái phát muộn, hoặc do đặc điểm ban đầu của nhóm bệnh nhân được chọn.
+**2. Hướng dẫn cho sinh viên y khoa và bác sĩ trẻ để cải thiện kết quả:**
+- **Đánh giá toàn diện trước mổ:** Các bạn cần luôn đánh giá chức năng gan (Child-Pugh, MELD score), kích thước và số lượng khối u, tình trạng mạch máu. Việc cân nhắc chỉ định TACE trước mổ cần dựa trên tiêu chí nghiêm ngặt, thường là để 'downstage' khối u, kiểm soát các khối u đa ổ nhỏ hoặc khi có yếu tố nguy cơ tái phát cao. ICD-10 mã hóa Ung thư biểu mô tế bào gan là C22.0.
+- **Quản lý viêm gan virus:** Tỷ lệ viêm gan virus B rất cao (91,3%) trong nghiên cứu cho thấy đây là yếu tố nguy cơ chính ở Việt Nam. Việc sàng lọc, điều trị và kiểm soát virus B trước và sau mổ là cực kỳ quan trọng để giảm nguy cơ tái phát, suy gan và cải thiện chức năng gan còn lại. (ICD-10 mã hóa Viêm gan B mạn tính là B18.1).
+- **Theo dõi sát sao sau mổ:** Tái phát là vấn đề lớn (26,1%), và suy gan sau mổ chiếm 2,2% số ca tử vong. Cần xây dựng phác đồ theo dõi định kỳ bằng AFP, siêu âm, CT/MRI để phát hiện sớm tái phát hoặc các biến chứng khác. Giáo dục bệnh nhân về tầm quan trọng của việc tái khám và tuân thủ điều trị sau mổ.
+- **Nắm vững kỹ thuật phẫu thuật và quản lý biến chứng:** Kỹ thuật cắt gan chính xác, bảo tồn tối đa nhu mô gan lành và xử trí tốt các biến chứng (như tràn dịch màng phổi 8,7%) là chìa khóa. Các bạn cần trau dồi kỹ năng phẫu thuật, giải phẫu gan và quản lý cầm máu, cũng như kỹ năng nhận diện và xử trí sớm các biến chứng hậu phẫu.
+- **Thảo luận đa chuyên khoa:** Đối với những trường hợp phức tạp, hãy chủ động hội chẩn với các chuyên gia ung bướu, can thiệp điện quang và nội khoa gan mật để đưa ra quyết định điều trị tối ưu nhất, cá thể hóa cho từng bệnh nhân.
+Việc kết hợp chặt chẽ giữa phẫu thuật viên, bác sĩ nội khoa, can thiệp, và đội ngũ chăm sóc hậu phẫu sẽ mang lại kết quả tốt nhất cho bệnh nhân HCC.</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị Ung thư biểu mô tế bào gan (HCC) của Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn chẩn đoán, phân loại giai đoạn và phác đồ điều trị chi tiết cho HCC tại Việt Nam, bao gồm cả chỉ định phẫu thuật và các phương pháp hỗ trợ (như TACE). Rất quan trọng cho việc định hướng lâm sàng và đảm bảo tuân thủ các hướng dẫn quốc gia.</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Cập nhật các phương pháp điều trị Ung thư biểu mô tế bào gan tiên tiến</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các tiến bộ mới nhất trong điều trị HCC, bao gồm phẫu thuật, nút mạch động mạch gan (TACE), đốt sóng cao tần (RFA), và các liệu pháp toàn thân (thuốc đích, miễn dịch). Hữu ích để các bác sĩ cập nhật kiến thức và kỹ năng thực hành, đặc biệt trong việc đánh giá và lựa chọn phương pháp điều trị tối ưu theo từng trường hợp cụ thể.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hướng dẫn các bác sĩ trẻ và sinh viên về dịch tễ học, các yếu tố nguy cơ và quản lý biến chứng sau phẫu thuật gan theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Ngoài các yếu tố về phương pháp điều trị, chuyên gia có thể cho biết các đặc điểm dịch tễ học của nhóm bệnh nhân ung thư biểu mô tế bào gan trong nghiên cứu, và các biến chứng thường gặp sau mổ là gì? Bác sĩ trẻ cần chuẩn bị và quản lý các yếu tố này như thế nào?</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Kính chào các bạn, việc hiểu rõ đặc điểm dịch tễ học và các biến chứng sau phẫu thuật là cực kỳ quan trọng để các bạn bác sĩ trẻ có thể dự phòng, chẩn đoán sớm và xử trí hiệu quả, từ đó nâng cao chất lượng chăm sóc bệnh nhân ung thư biểu mô tế bào gan (HCC).
+**1. Đặc điểm dịch tễ học và yếu tố nguy cơ của bệnh nhân HCC:**
+- **Tuổi trung bình:** 48,8 tuổi, hay gặp nhất ở độ tuổi 50-60 tuổi. Điều này cho thấy HCC thường xuất hiện ở độ tuổi trung niên, khi bệnh nhân vẫn còn sức lao động, đặt ra thách thức về phục hồi chức năng và chất lượng cuộc sống.
+- **Giới tính:** Nam giới chiếm ưu thế rõ rệt (80,4%). Đây là đặc điểm phổ biến của HCC trên toàn cầu, thường liên quan đến các yếu tố nguy cơ như viêm gan virus mạn tính, sử dụng rượu bia.
+- **Viêm gan virus B:** Tỷ lệ viêm gan virus B trong nghiên cứu rất cao, lên đến 91,3%. Điều này khẳng định viêm gan virus B là nguyên nhân hàng đầu gây HCC tại Việt Nam. Bác sĩ trẻ cần lưu ý tầm soát và quản lý viêm gan B mạn tính (ICD-10: B18.1) là yếu tố then chốt trong phòng ngừa và điều trị HCC.
+**2. Các biến chứng thường gặp sau mổ:**
+- **Tỷ lệ biến chứng sau mổ thấp (10,9%):** Đây là một con số đáng khích lệ, phản ánh kỹ thuật phẫu thuật và chăm sóc hậu phẫu tốt.
+- **Biến chứng chủ yếu:** Tràn dịch màng phổi (8,7%). Đây là biến chứng phổ biến sau phẫu thuật gan do kích thích cơ hoành, dịch tiết hoặc viêm dưới hoành. Mã ICD-10 cho tràn dịch màng phổi không do nhiễm trùng là J90.
+- **Tỷ lệ tái phát sau mổ:** 26,1%. Tái phát là nguyên nhân chính gây tử vong sau mổ. Mã ICD-10 cho tái phát khối u là Z85.0 (lịch sử cá nhân về u ác tính gan).
+- **Tỷ lệ tử vong:** 15,2% (chết do tái phát sau mổ 13%, chết do suy gan sau mổ 2,2%). Suy gan sau mổ (ICD-10: K72.9) là một biến chứng nghiêm trọng và thường liên quan đến chức năng gan dự trữ kém hoặc cắt gan quá mức.
+**3. Chuẩn bị và quản lý cho bác sĩ trẻ:**
+- **Đánh giá nguy cơ trước mổ:** Chủ động tìm kiếm tiền sử viêm gan virus B, rượu, xơ gan. Đánh giá kỹ chức năng gan trước mổ bằng các thang điểm Child-Pugh, MELD để tiên lượng khả năng suy gan sau mổ.
+- **Dự phòng và xử trí tràn dịch màng phổi:**
+    - Trong mổ: Đặt dẫn lưu màng phổi nếu có tổn thương màng phổi hoặc nguy cơ cao.
+    - Sau mổ: Theo dõi sát các dấu hiệu khó thở, SpO2 giảm. Chụp X-quang ngực thẳng định kỳ. Xử trí bằng chọc hút dịch màng phổi hoặc đặt dẫn lưu nếu cần.
+- **Theo dõi tái phát:** Xây dựng kế hoạch theo dõi chặt chẽ sau mổ với các xét nghiệm và chẩn đoán hình ảnh định kỳ (siêu âm, CT/MRI, AFP). Giáo dục bệnh nhân về dấu hiệu tái phát và tầm quan trọng của việc tái khám.
+- **Quản lý suy gan sau mổ:** Chuẩn bị sẵn sàng các biện pháp hỗ trợ chức năng gan, dinh dưỡng hợp lý, và xử trí các biến chứng của suy gan. Nhận diện sớm các dấu hiệu suy gan cấp tính.
+**Bảng tóm tắt các yếu tố và cách quản lý:**
+| Yếu tố Dịch tễ/Biến chứng | ICD-10 liên quan   | Hướng dẫn quản lý cho Bác sĩ trẻ                                                                |
+| :------------------------ | :----------------- | :-------------------------------------------------------------------------------------------- |
+| Viêm gan virus B (HBV)    | B18.1              | Tầm soát, điều trị kháng virus trước và sau mổ, theo dõi định kỳ để giảm nguy cơ HCC.          |
+| Tuổi, Giới tính           | Không cụ thể        | Nhận diện nhóm nguy cơ cao để tư vấn sàng lọc sớm.                                            |
+| Tràn dịch màng phổi       | J90                | Theo dõi khó thở, SpO2. X-quang, chọc hút/dẫn lưu màng phổi khi cần.                           |
+| Tái phát sau mổ           | Z85.0 (lịch sử u ác) | Kế hoạch theo dõi định kỳ (AFP, SA, CT/MRI) để phát hiện sớm và can thiệp kịp thời.              |
+| Suy gan sau mổ            | K72.9              | Đánh giá chức năng gan trước mổ. Hỗ trợ dinh dưỡng, nhận diện sớm, xử trí biến chứng suy gan. |
+Các bạn cần luôn có sự phối hợp đa chuyên khoa để quản lý toàn diện cho bệnh nhân HCC.</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Sổ tay lâm sàng về bệnh viêm gan virus B và Ung thư gan</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức cơ bản và nâng cao về viêm gan virus B, mối liên hệ với HCC, các biện pháp phòng ngừa, sàng lọc và quản lý. Là tài liệu nền tảng cho việc hiểu rõ căn nguyên bệnh, đặc biệt trong bối cảnh dịch tễ của Việt Nam.</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Quản lý biến chứng sau phẫu thuật gan mật nâng cao</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ đào tạo chuyên sâu về nhận diện sớm, chẩn đoán và xử trí các biến chứng thường gặp sau phẫu thuật gan mật, bao gồm tràn dịch màng phổi, suy gan cấp, nhiễm trùng đường mật, rò mật và xuất huyết. Nâng cao năng lực cho bác sĩ trong chăm sóc hậu phẫu và các tình huống cấp cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, tư vấn và hướng dẫn về chẩn đoán, chỉ định phẫu thuật và quản lý bệnh nhân chấn thương ngực theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Chuyên gia có thể phân tích đặc điểm lâm sàng và chỉ định phẫu thuật kết hợp xương sườn bằng nẹp vít trong điều trị chấn thương ngực? Bác sĩ trẻ cần lưu ý những điểm nào trong đánh giá và quản lý bệnh nhân chấn thương ngực để đưa ra quyết định can thiệp phù hợp?</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Chào các bạn, chấn thương ngực là một cấp cứu ngoại khoa thường gặp và việc đánh giá, quản lý chính xác là rất quan trọng để tránh các biến chứng nghiêm trọng. Phẫu thuật kết hợp xương sườn bằng nẹp vít là một tiến bộ đáng kể trong điều trị chấn thương ngực có gãy xương sườn.
+**1. Đặc điểm lâm sàng của bệnh nhân chấn thương ngực:**
+- **Độ tuổi và giới tính:** Trong nghiên cứu, độ tuổi trung bình là 48,09 ± 13,45 tuổi; nam giới chiếm đa số (61,4%). Điều này phù hợp với đặc điểm các tai nạn có nguy cơ cao gây chấn thương ngực.
+- **Nguyên nhân chính:** Tai nạn giao thông (TNGT) chiếm tỷ lệ cao nhất (77,3%). Các bạn cần luôn có mindset về đa chấn thương khi tiếp cận bệnh nhân TNGT.
+- **Triệu chứng và dấu hiệu:**
+    - Đau ngực: Xuất hiện ở 95,5% bệnh nhân, là triệu chứng nổi bật nhất và thường rất dữ dội.
+    - Suy hô hấp: 59,1% bệnh nhân cần thở oxy hỗ trợ, 6,8% cần đặt ống nội khí quản. Đây là những dấu hiệu cảnh báo mức độ nặng của chấn thương.
+    - Giảm rì rào phế nang bên tổn thương: Gặp ở 97,7% bệnh nhân, gợi ý tràn khí/tràn máu màng phổi hoặc xẹp phổi. Mã ICD-10 cho tràn khí màng phổi là J93.9, tràn máu màng phổi là S27.1.
+    - Mảng sườn di động (Flail chest): 25% trường hợp. Đây là chỉ định quan trọng cho phẫu thuật cố định xương sườn để cải thiện cơ học hô hấp. Mã ICD-10 cho mảng sườn di động là S22.5.
+- **Tổn thương xương sườn:** Số xương sườn gãy trung bình trên X-quang là 6,27 ± 2,86 và trên cắt lớp vi tính (CLVT) là 8,23 ± 3,82. CLVT có độ nhạy cao hơn trong phát hiện gãy xương sườn và các tổn thương kèm theo. Mã ICD-10 cho gãy xương sườn là S22.4.
+- **Tràn máu màng phổi:** Gặp ở 31,8% bệnh nhân. Mã ICD-10 cho tràn máu màng phổi là S27.1.
+**2. Chỉ định phẫu thuật kết hợp xương sườn bằng nẹp vít:**
+Phẫu thuật thường được chỉ định trong các trường hợp sau để cải thiện chức năng hô hấp, giảm đau và rút ngắn thời gian nằm viện:
+- Mảng sườn di động (Flail chest), đặc biệt khi gây suy hô hấp nặng hoặc thông khí cơ học kéo dài.
+- Gãy nhiều xương sườn (thường từ 3 xương sườn trở lên) kèm di lệch nhiều, gây đau dữ dội không đáp ứng với giảm đau nội khoa, cản trở hô hấp và ho khạc đờm.
+- Gãy xương sườn gây chèn ép hoặc tổn thương trực tiếp các cấu trúc quan trọng khác trong lồng ngực (ví dụ: phổi, mạch máu lớn).
+- Biến dạng thành ngực nghiêm trọng hoặc gãy xương sườn không liền gây đau mạn tính.
+- Bệnh nhân cần cai máy thở khó khăn do đau hoặc mất vững thành ngực.
+**3. Lưu ý cho bác sĩ trẻ trong đánh giá và quản lý:**
+- **Tiếp cận ban đầu (ATLS):** Luôn tuân thủ nguyên tắc ABCDE trong cấp cứu chấn thương. Ổn định đường thở, hô hấp, tuần hoàn là ưu tiên hàng đầu, sau đó mới đánh giá các tổn thương khác.
+- **Đánh giá hình ảnh học:** X-quang ngực thẳng ban đầu nhanh chóng, nhưng CLVT lồng ngực là tiêu chuẩn vàng để đánh giá chính xác số lượng, vị trí, mức độ gãy xương, tổn thương nhu mô phổi (dập phổi), màng phổi (tràn khí, tràn máu) và các tổn thương nội tạng khác trong lồng ngực. Không bỏ qua siêu âm FAST (Focused Assessment with Sonography for Trauma) trong đánh giá ban đầu.
+- **Quản lý đau:** Đau là yếu tố cản trở hô hấp chính. Áp dụng đa phương thức giảm đau (thuốc giảm đau mạnh, phong bế thần kinh liên sườn tại chỗ hoặc ngoài màng cứng) để giúp bệnh nhân thở sâu, ho khạc đờm hiệu quả, phòng ngừa viêm phổi.
+- **Đánh giá chức năng hô hấp:** Theo dõi sát sao tình trạng suy hô hấp, khí máu động mạch, và nhu cầu oxy. Can thiệp hô hấp sớm nếu cần (thở máy không xâm lấn hoặc xâm lấn).
+- **Hội chẩn chuyên khoa:** Khi có chỉ định phẫu thuật, mảng sườn di động, hoặc các tổn thương kèm theo phức tạp (ví dụ: tổn thương mạch máu lớn, tim), cần hội chẩn sớm với bác sĩ phẫu thuật lồng ngực, phẫu thuật mạch máu, hoặc chuyên khoa hồi sức để đưa ra quyết định can thiệp tối ưu và kịp thời.</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Phác đồ chẩn đoán và điều trị chấn thương ngực của Bệnh viện Hữu nghị Việt Đức</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Tài liệu này trình bày chi tiết quy trình tiếp cận, chẩn đoán, phân loại và các phương pháp điều trị chấn thương ngực, bao gồm cả chỉ định phẫu thuật kết hợp xương sườn tại một trong những trung tâm hàng đầu về ngoại khoa tại Việt Nam. Đây là tài liệu rất hữu ích cho việc chuẩn hóa quy trình lâm sàng và quản lý bệnh nhân chấn thương ngực.</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Kỹ thuật phẫu thuật kết hợp xương sườn bằng nẹp vít và quản lý đa chấn thương lồng ngực</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp kiến thức lý thuyết và thực hành chuyên sâu về các kỹ thuật phẫu thuật cố định xương sườn, quản lý đau sau mổ, và các nguyên tắc điều trị toàn diện đối với bệnh nhân đa chấn thương có tổn thương lồng ngực. Giúp bác sĩ nâng cao kỹ năng phẫu thuật, xử trí cấp cứu và chăm sóc hậu phẫu, đặc biệt chú trọng đến việc phối hợp đa chuyên khoa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, xin giải thích về đặc điểm lâm sàng, cơ chế chấn thương và các yếu tố chỉ định phẫu thuật cho gãy kín hai mắt cá chân, đặc biệt là những trường hợp cần mổ mở kết hợp xương bên trong như nghiên cứu đã nêu?</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Thưa các bác sĩ trẻ và sinh viên y khoa, gãy kín hai mắt cá chân (theo ICD-10 được mã hóa là S82.84- cho gãy hai mắt cá chân kín) là một tổn thương phức tạp đòi hỏi sự hiểu biết sâu sắc để đưa ra quyết định điều trị tối ưu. Chúng ta hãy cùng phân tích:
+*   **Đặc điểm lâm sàng và định nghĩa:**
+    *   Gãy hai mắt cá chân là tình trạng gãy đồng thời mắt cá trong (medial malleolus) và mắt cá ngoài (lateral malleolus). Đây là một dạng gãy xương phạm khớp, có nghĩa là đường gãy đi vào bề mặt khớp cổ chân, ảnh hưởng trực tiếp đến sự toàn vẹn và chức năng của khớp.
+    *   Nghiên cứu cho thấy thể gãy kiểu B theo phân loại Danis-Weber chiếm đa số (56.8%), điều này ngụ ý rằng gãy mắt cá ngoài thường là gãy chéo dưới mộng chày mác hoặc ở mức mộng chày mác, thường liên quan đến tổn thương dây chằng hoặc mất vững khớp chày mác dưới.
+*   **Cơ chế chấn thương thường gặp:**
+    *   Cơ chế chính là lực xoắn vặn hoặc xoay kết hợp với các lực chấn thương khác tác động lên cổ chân. Ví dụ, lật cổ chân mạnh ra ngoài hoặc vào trong có thể gây ra những tổn thương này.
+    *   Lực tác động không chỉ gây gãy xương mà còn làm tổn thương các dây chằng quanh khớp cổ chân, dẫn đến tình trạng mất vững khớp.
+*   **Yếu tố chỉ định phẫu thuật mổ mở nắn chỉnh diện gãy và kết hợp xương bên trong (ORIF):**
+    *   **Gãy xương mất vững và di lệch:** Đây là chỉ định hàng đầu. Hầu hết các trường hợp gãy hai mắt cá chân đều mất vững và di lệch rõ rệt, không thể nắn chỉnh kín và duy trì được. Sự di lệch này có thể bao gồm di lệch của các mảnh xương gãy và/hoặc sự mất liên kết của mộng chày mác (70.5% trong nghiên cứu).
+    *   **Tổn thương phạm khớp:** Vì là gãy xương phạm khớp, mục tiêu là phải phục hồi giải phẫu hoàn hảo mặt khớp. Bất kỳ sự di lệch nào của mặt khớp, dù nhỏ, cũng làm tăng nguy cơ thoái hóa khớp sau chấn thương.
+    *   **Tổn thương mộng chày mác:** Nếu có tổn thương gây mất vững khớp chày mác dưới, phẫu thuật là cần thiết để phục hồi sự vững chắc của cấu trúc này, đảm bảo phân bố lực đồng đều qua khớp cổ chân.
+*   **Lời khuyên cho các bạn:** Khi tiếp cận một bệnh nhân gãy mắt cá chân, không chỉ dừng lại ở việc đọc phim X-quang thường quy. Hãy luôn chú ý đến phim X-quang mộng chày mác (mortise view) để đánh giá sự toàn vẹn của mộng chày mác và các dây chằng. Quyết định phẫu thuật phải dựa trên sự đánh giá kỹ lưỡng về mức độ tổn thương, tính chất mất vững và khả năng phục hồi chức năng của bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>ICD-10: Phân loại quốc tế bệnh tật - Chương XIX: Chấn thương, ngộ độc và một số hậu quả khác của nguyên nhân bên ngoài</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thức của Bộ Y tế Việt Nam về phân loại bệnh tật theo ICD-10, giúp bác sĩ mã hóa chính xác các chẩn đoán về chấn thương, bao gồm gãy xương mắt cá chân (ví dụ S82.84 cho gãy hai mắt cá chân kín).</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Chẩn đoán hình ảnh trong chấn thương xương khớp: Từ X-quang đến MRI</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về ứng dụng và diễn giải các kỹ thuật chẩn đoán hình ảnh (X-quang, CT, MRI) trong chấn thương chỉnh hình, giúp nâng cao khả năng nhận diện và đánh giá chính xác mức độ tổn thương gãy xương, đặc biệt là các gãy xương phạm khớp như cổ chân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Sau phẫu thuật điều trị gãy kín hai mắt cá chân bằng phương pháp mổ mở nắn chỉnh và kết hợp xương bên trong, những tiêu chí nào cần được đánh giá để xác định kết quả nắn chỉnh giải phẫu, liền xương và phục hồi chức năng? Kết quả như thế nào là đạt chuẩn?</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Thưa các bạn đồng nghiệp trẻ, việc đánh giá kết quả sau phẫu thuật gãy kín hai mắt cá chân (S82.84-) là cực kỳ quan trọng để đảm bảo bệnh nhân có được chức năng tốt nhất và giảm thiểu biến chứng. Chúng ta cần xem xét ba khía cạnh chính:
+1.  **Kết quả nắn chỉnh giải phẫu trên X-quang:**
+    *   **Công cụ đánh giá:** Phim X-quang cổ chân thẳng nghiêng tiêu chuẩn và đặc biệt là phim X-quang mộng chày mác. Đây là những công cụ cơ bản và thiết yếu để đánh giá vị trí của các mảnh gãy và sự toàn vẹn của khớp chày mác dưới.
+    *   **Tiêu chuẩn đạt chuẩn:**
+        *   **Nắn chỉnh hoàn hảo (Perfect anatomical reduction):** Các mặt khớp phải được phục hồi hoàn toàn, không còn di lệch, khoảng khớp chày mác dưới phải cân đối và không mở rộng. Nghiên cứu cho thấy 41.7% bệnh nhân đạt được tiêu chuẩn này.
+        *   **Mục tiêu:** Giảm thiểu nguy cơ thoái hóa khớp sau chấn thương. Ngay cả khi 58.3% bệnh nhân có ít nhất 1 tiêu chuẩn chưa đạt về giải phẫu, mục tiêu của phẫu thuật vẫn là đạt được sự tương đồng giải phẫu cao nhất có thể để tối ưu hóa kết quả chức năng lâu dài.
+2.  **Đánh giá liền xương:**
+    *   **Thời điểm đánh giá:** Ít nhất 6 tháng sau mổ là thời điểm thích hợp để đánh giá liền xương đầy đủ.
+    *   **Tiêu chuẩn đạt chuẩn:** Dựa trên phim X-quang, dấu hiệu liền xương bao gồm sự hình thành callus vững chắc, mất đường gãy rõ ràng, và sự liên tục của vỏ xương. Trong nghiên cứu, tất cả các bệnh nhân đều liền xương sau 6 tháng (100%), đây là một kết quả lý tưởng và là chỉ dấu quan trọng cho sự thành công của phẫu thuật.
+3.  **Đánh giá chức năng cổ bàn chân:**
+    *   **Thang điểm AOFAS (American Orthopaedic Foot &amp; Ankle Society):** Đây là một thang điểm chức năng được sử dụng rộng rãi, đánh giá các khía cạnh như đau, chức năng (khả năng đi lại, thực hiện hoạt động hàng ngày) và sự liên kết giải phẫu.
+    *   **Giải thích thang điểm AOFAS và kết quả đạt chuẩn:**
+| Điểm AOFAS | Đánh giá | Ý nghĩa lâm sàng | Tỷ lệ trong nghiên cứu (tham khảo) |
+| :--------- | :------- | :--------------------------------------------------------------------------------------------------- | :-------------------------------- | 
+| 90-100     | Rất tốt  | Phục hồi gần như hoàn toàn, ít đau hoặc không đau, chức năng vận động linh hoạt.                  | 95.5% (cùng với mức Tốt) |
+| 75-89      | Tốt      | Phục hồi đáng kể, đau nhẹ không ảnh hưởng nhiều, chức năng vận động tương đối tốt.                 |                                   |
+| 50-74      | Trung bình | Có đau, chức năng vận động hạn chế một phần, ảnh hưởng đến hoạt động hàng ngày.                 | 4.5% |
+| &lt;50        | Kém      | Đau nhiều, chức năng vận động kém, ảnh hưởng lớn đến chất lượng cuộc sống và cần can thiệp thêm. | 0% |
+    *   **Lời khuyên:** Đừng bao giờ bỏ qua yếu tố lâm sàng. Hãy lắng nghe bệnh nhân, đánh giá tầm vận động khớp, dáng đi, và mức độ đau của họ, kết hợp với các kết quả cận lâm sàng để đưa ra cái nhìn toàn diện nhất về hiệu quả điều trị. Sự hài lòng của bệnh nhân và khả năng quay trở lại hoạt động thường ngày là thước đo cuối cùng của thành công.</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Thang điểm AOFAS trong đánh giá chức năng cổ chân và bàn chân</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Tài liệu chi tiết về cách tính toán và diễn giải thang điểm AOFAS, một công cụ chuẩn để đánh giá khách quan kết quả chức năng sau các phẫu thuật chấn thương và bệnh lý liên quan đến cổ chân và bàn chân, giúp bác sĩ thống nhất cách lượng giá.</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Kỹ năng đánh giá chức năng khớp và lập kế hoạch phục hồi chức năng</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào phát triển kỹ năng lâm sàng trong việc đánh giá tầm vận động khớp, sức mạnh cơ, và ứng dụng các thang điểm chức năng chuẩn hóa. Đồng thời, khóa học hướng dẫn lập kế hoạch phục hồi chức năng cá thể hóa, tối ưu hóa kết quả cho bệnh nhân chấn thương chỉnh hình.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Gãy kín hai mắt cá chân điều trị bằng mổ mở nắn chỉnh và kết hợp xương bên trong có thể gặp những biến chứng và di chứng nào, đặc biệt là thoái hóa khớp cổ chân như đã đề cập trong nghiên cứu? Làm thế nào để phòng ngừa và quản lý các biến chứng này?</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Thưa các bác sĩ và sinh viên y khoa, mặc dù phẫu thuật mổ mở nắn chỉnh diện gãy và kết hợp xương bên trong (ORIF) là phương pháp hiệu quả cho gãy kín hai mắt cá chân (ICD-10: S82.84-), các biến chứng và di chứng vẫn có thể xảy ra. Chúng ta cần chủ động nhận diện và quản lý chúng để tối ưu hóa kết quả lâu dài cho bệnh nhân.
+**1. Các biến chứng và di chứng thường gặp:**
+*   **Thoái hóa khớp cổ chân sau chấn thương:** Đây là di chứng quan trọng nhất và thường gặp nhất, được đề cập trong nghiên cứu (11.4% bệnh nhân). Đây là một quá trình tiến triển và có thể ảnh hưởng nghiêm trọng đến chất lượng cuộc sống.
+    *   **Nguyên nhân chính:** Thường do nắn chỉnh giải phẫu không hoàn hảo của mặt khớp, tổn thương sụn khớp ban đầu trong quá trình chấn thương, hoặc sự mất vững còn lại của khớp chày mác dưới. Ngay cả khi nắn chỉnh tốt, tổn thương sụn khớp vi thể không thể nhìn thấy bằng mắt thường cũng có thể là khởi nguồn của thoái hóa.
+    *   **Biểu hiện:** Đau kéo dài, sưng nề khớp, hạn chế tầm vận động, cứng khớp, và có thể nghe thấy tiếng kêu lạo xạo khi vận động.
+*   **Nhiễm trùng:** Là nguy cơ của bất kỳ cuộc phẫu thuật nào, đặc biệt khi có đặt vật liệu kết hợp xương. Có thể là nhiễm trùng nông hoặc sâu, cần can thiệp kháng sinh hoặc phẫu thuật làm sạch.
+*   **Chậm liền xương hoặc không liền xương:** Hiếm gặp nếu phẫu thuật nắn chỉnh tốt và cố định vững, nhưng có thể xảy ra ở bệnh nhân có yếu tố nguy cơ (ví dụ: hút thuốc, bệnh tiểu đường, dinh dưỡng kém).
+*   **Biến chứng thần kinh mạch máu:** Tổn thương các mạch máu hoặc dây thần kinh xung quanh do chấn thương ban đầu hoặc trong quá trình phẫu thuật.
+*   **Biến chứng liên quan vật liệu kết hợp xương:** Lỏng lẻo, gãy vật liệu, kích ứng mô mềm, hoặc đau do vật liệu, có thể cần phẫu thuật lấy bỏ.
+*   **Teo cơ, cứng khớp:** Do bất động kéo dài hoặc quá trình phục hồi chức năng không đầy đủ hoặc không tuân thủ.
+**2. Phòng ngừa và quản lý các biến chứng:**
+*   **1. Nắn chỉnh giải phẫu hoàn hảo:** Đây là yếu tố tiên quyết để ngăn ngừa thoái hóa khớp. Bất kỳ sự di lệch nào, dù nhỏ, của mặt khớp hoặc mộng chày mác cũng cần được chỉnh sửa tối đa trong phẫu thuật. Sử dụng phim X-quang tăng sáng (C-arm) trong mổ để kiểm tra liên tục và đạt được sự chính xác cao nhất.
+*   **2. Cố định vững chắc:** Đảm bảo hệ thống kết hợp xương đủ vững để cho phép tập vận động sớm, nhưng vẫn bảo vệ vùng gãy đang lành. Vật liệu kết hợp xương cần phù hợp với cơ địa và tổn thương của bệnh nhân.
+*   **3. Phục hồi chức năng sớm và bài bản:** Đây là chìa khóa để đạt được chức năng tốt và ngăn ngừa cứng khớp, teo cơ, cũng như kích thích quá trình liền xương và duy trì sự toàn vẹn của sụn khớp.
+    *   **Giai đoạn sớm:** Tập vận động thụ động và chủ động nhẹ nhàng, không chịu tải trọng.
+    *   **Giai đoạn tiếp theo:** Tăng dần cường độ chịu tải và các bài tập tăng cường sức mạnh, thăng bằng dưới sự hướng dẫn của chuyên viên vật lý trị liệu.
+*   **4. Theo dõi sát sao:**
+    *   **Lâm sàng:** Đánh giá định kỳ về đau, sưng, tầm vận động và khả năng chịu tải của bệnh nhân.
+    *   **Cận lâm sàng:** X-quang định kỳ để kiểm tra vị trí vật liệu, tình trạng liền xương và phát hiện sớm các dấu hiệu thoái hóa khớp.
+*   **5. Quản lý thoái hóa khớp:** Nếu thoái hóa khớp cổ chân xuất hiện, có thể cần các biện pháp điều trị bảo tồn (thuốc giảm đau, vật lý trị liệu, tiêm nội khớp) hoặc phẫu thuật (nội soi làm sạch khớp, cắt xương chỉnh trục, hoặc thậm chí là thay khớp cổ chân trong những trường hợp nặng và ảnh hưởng nhiều đến chất lượng cuộc sống).
+**Lời khuyên cho việc học tập:** Hãy luôn đặt câu hỏi về "tại sao" một biến chứng xảy ra và "làm thế nào" để ngăn chặn nó. Kiến thức vững chắc về giải phẫu, cơ chế chấn thương, sinh lý liền xương và nguyên tắc phục hồi chức năng sẽ là chìa khóa để bạn trở thành một bác sĩ giỏi.</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Phác đồ phục hồi chức năng sau phẫu thuật gãy xương cổ chân</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Tài liệu hướng dẫn chi tiết về các giai đoạn và bài tập vật lý trị liệu phục hồi chức năng sau phẫu thuật gãy xương cổ chân, nhấn mạnh tầm quan trọng của việc cá thể hóa phác đồ cho từng bệnh nhân nhằm tối ưu hóa kết quả và phòng ngừa biến chứng.</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Kiểm soát đau và quản lý biến chứng trong chấn thương chỉnh hình</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Khóa học này trang bị cho bác sĩ kiến thức và kỹ năng về nhận diện, đánh giá và quản lý các biến chứng thường gặp sau phẫu thuật chấn thương chỉnh hình, bao gồm các chiến lược kiểm soát đau hiệu quả và dài hạn, cũng như các tiếp cận đa chuyên khoa để xử lý các di chứng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về chấn thương chỉnh hình và mã hóa ICD-10, cung cấp thông tin và tư vấn lâm sàng dựa trên các tiêu chuẩn quốc tế và Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi tiếp cận một trường hợp gãy kín hai mắt cá chân, chúng tôi cần tiến hành đánh giá lâm sàng và hình ảnh như thế nào để đạt được chẩn đoán chính xác và phân loại phù hợp, đặc biệt là theo hệ thống Danis-Weber và mã hóa ICD-10?</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, việc chẩn đoán gãy kín hai mắt cá chân đòi hỏi một quy trình đánh giá toàn diện và có hệ thống. Dưới đây là những điểm cốt lõi mà các bạn cần nắm vững:
+*   **Cơ chế chấn thương và triệu chứng lâm sàng**: Luôn bắt đầu bằng việc khai thác kỹ cơ chế chấn thương. Gãy mắt cá thường do lực xoắn vặn hoặc lật cổ chân. Các triệu chứng điển hình bao gồm đau cấp tính, sưng nề, biến dạng và mất khả năng chịu lực lên chi thể. Hãy thăm khám cẩn thận để đánh giá tình trạng da, mạch máu, thần kinh, loại trừ các tổn thương phức tạp hơn hoặc gãy hở.
+*   **Chẩn đoán hình ảnh**: 
+    *   **X-quang tiêu chuẩn**: Luôn bao gồm ba tư thế: thẳng (AP), nghiêng (lateral) và mộng chày mác (mortise view). Tư thế mộng chày mác rất quan trọng để đánh giá khoảng khớp chày sên và khớp chày mác dưới. Phim X-quang giúp xác định vị trí, mức độ di lệch, và hình thái gãy.
+    *   **Đánh giá trên phim X-quang**: Hãy chú ý đến đường gãy của cả mắt cá trong (tibia) và mắt cá ngoài (fibula). Đánh giá sự toàn vẹn của khớp chày sên và đặc biệt là hệ thống dây chằng chày mác dưới (syndesmosis).
+*   **Phân loại theo Danis-Weber**: Phân loại này rất hữu ích để định hướng điều trị và tiên lượng. Nó dựa trên vị trí đường gãy xương mác so với khớp chày mác dưới:
+    *   **Loại A (dưới khớp)**: Gãy xương mác dưới mức syndesmosis. Thường ổn định, ít khi kèm tổn thương syndesmosis.
+    *   **Loại B (ngang khớp)**: Gãy xương mác ngang mức syndesmosis, phổ biến nhất. Có thể kèm tổn thương syndesmosis, đòi hỏi đánh giá kỹ hơn.
+    *   **Loại C (trên khớp)**: Gãy xương mác trên mức syndesmosis. Luôn kèm tổn thương syndesmosis và thường là gãy không vững.
+*   **Mã hóa ICD-10**: Đối với gãy kín hai mắt cá chân, mã ICD-10 chính xác mà các bạn cần sử dụng là **S82.81 - Gãy hai mắt cá chân**. Việc mã hóa đúng không chỉ quan trọng cho mục đích thống kê y tế mà còn giúp đảm bảo thanh toán bảo hiểm và theo dõi bệnh án chuẩn xác.
+Việc thành thạo các bước này sẽ giúp các bạn đưa ra quyết định điều trị đúng đắn và hiệu quả cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Sổ tay Chẩn đoán và Phân loại Gãy Xương Mắt Cá Chân: Từ Lâm Sàng đến ICD-10</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn toàn diện cho bác sĩ và sinh viên y khoa về các bước chẩn đoán gãy xương mắt cá chân, bao gồm thăm khám lâm sàng, diễn giải hình ảnh X-quang, ứng dụng phân loại Danis-Weber, và mã hóa chính xác theo ICD-10 (đặc biệt S82.81) để chuẩn hóa quy trình làm việc và nâng cao chất lượng điều trị.</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Chẩn đoán Hình ảnh và Phân loại Gãy Mắt Cá Chân trong Thực hành Lâm sàng</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các kỹ năng thực hành trong chẩn đoán hình ảnh gãy mắt cá chân, từ việc đọc phim X-quang cơ bản đến phân tích các dấu hiệu tinh tế của tổn thương syndesmosis. Khóa học sẽ hướng dẫn chi tiết cách áp dụng phân loại Danis-Weber và mã hóa ICD-10 (S82.81) một cách chính xác, giúp các bác sĩ tự tin hơn trong chẩn đoán và lập kế hoạch điều trị ban đầu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về phẫu thuật chấn thương và đánh giá kết quả, hỗ trợ tư vấn kỹ thuật phẫu thuật và quản lý hậu phẫu dựa trên các tiêu chuẩn lâm sàng và hình ảnh.</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Sau khi thực hiện phẫu thuật kết xương bên trong cho gãy kín hai mắt cá chân, các tiêu chí nào cần được áp dụng để đánh giá một cách khách quan về chất lượng nắn chỉnh đạt giải phẫu và chức năng cổ bàn chân? Thang điểm AOFAS được diễn giải như thế nào trong bối cảnh này?</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Để đảm bảo kết quả tối ưu sau phẫu thuật gãy kín hai mắt cá chân, việc đánh giá chất lượng nắn chỉnh và chức năng hậu phẫu là vô cùng quan trọng. Các bạn cần chú ý đến:
+*   **Mục tiêu nắn chỉnh giải phẫu**: Mục tiêu chính của phẫu thuật là đạt được nắn chỉnh giải phẫu, tái tạo lại cấu trúc bình thường của khớp cổ chân. Điều này là nền tảng để phục hồi chức năng và giảm nguy cơ thoái hóa khớp sau này.
+*   **Đánh giá chất lượng nắn chỉnh trên X-quang**: Sau mổ, chúng ta cần chụp X-quang cổ chân thẳng, nghiêng tiêu chuẩn và phim mộng chày mác để đánh giá. Theo tiêu chí của Sara Suedes và cộng sự, nắn chỉnh đạt giải phẫu khi đáp ứng đủ 4 tiêu chí sau:
+    *   **(1) Góc sên cẳng chân (Talocrural angle - TCA)**: Nằm trong khoảng 75-86 độ. Đây là chỉ số đánh giá độ nghiêng của mặt sên so với trục xương chày.
+    *   **(2) Khoảng cách xương sên - mắt cá trong (Medial clear space - MCS)**: Nhỏ hơn hoặc bằng 4 mm (≤ 4 mm). Khoảng này đánh giá độ rộng của khe khớp giữa xương sên và mắt cá trong.
+    *   **(3) Khoảng chồng lấn giữa xương chày và xương mác (Tibiofibular overlap - TFO)**: Lớn hơn 6mm trên phim thẳng (&gt; 6mm) hoặc lớn hơn 1 mm trên phim mộng chày mác (&gt; 1 mm). Chỉ số này đánh giá sự chồng lấn bình thường của xương chày và xương mác, cho thấy sự toàn vẹn của syndesmosis.
+    *   **(4) Khoảng sáng giữa xương chày và xương mác (Tibiofibular clear space - TFCS)**: Nhỏ hơn 6 mm trên cả phim thẳng và phim mộng chày mác (&lt; 6 mm). Khoảng này đánh giá độ rộng của khe giữa xương chày và xương mác, một chỉ số quan trọng khác của syndesmosis.
+*   **Đánh giá chức năng cổ bàn chân theo thang điểm AOFAS (American Orthopaedic Foot and Ankle Society)**: Đây là một công cụ đánh giá chức năng được quốc tế công nhận, bao gồm các tiêu chí về:
+    *   **Đau (Pain)**: Mức độ đau mà bệnh nhân trải nghiệm.
+    *   **Chức năng (Function)**: Khả năng đi lại, hoạt động hàng ngày, sử dụng các dụng cụ hỗ trợ.
+    *   **Khớp vận động và liên kết (Alignment)**: Biên độ vận động khớp và độ thẳng trục của cổ chân.
+Việc theo dõi định kỳ (ít nhất 6 tháng sau mổ) bằng cả lâm sàng và X-quang giúp đánh giá quá trình liền xương, nguy cơ thoái hóa khớp và tối ưu hóa chương trình phục hồi chức năng cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Đánh giá Lâm sàng và Hình ảnh sau Phẫu thuật Gãy Mắt Cá Chân</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Tài liệu này là một nguồn tham khảo thiết yếu cho bác sĩ phẫu thuật chỉnh hình và sinh viên y khoa, trình bày chi tiết các tiêu chí đánh giá chất lượng nắn chỉnh trên X-quang (TCA, MCS, TFO, TFCS) và cách áp dụng thang điểm AOFAS để đánh giá chức năng cổ bàn chân hậu phẫu, từ đó đưa ra các chiến lược phục hồi chức năng hiệu quả.</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Phục hồi chức năng và Đánh giá kết quả lâu dài sau Phẫu thuật Gãy Mắt Cá Chân</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp kiến thức chuyên sâu về quản lý bệnh nhân sau phẫu thuật gãy mắt cá chân, bao gồm các bài tập vật lý trị liệu, hướng dẫn sử dụng thang điểm AOFAS để theo dõi tiến trình hồi phục chức năng, và cách nhận diện, quản lý các biến chứng sớm và muộn. Khóa học sẽ trang bị cho bạn kỹ năng cần thiết để tối ưu hóa kết quả điều trị và chất lượng cuộc sống cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về phương pháp nghiên cứu, y học thực chứng và phân tích dữ liệu lâm sàng, hỗ trợ xây dựng đề cương nghiên cứu và diễn giải kết quả.</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Khi thiết kế một nghiên cứu về gãy kín hai mắt cá chân, chúng tôi cần xác định đối tượng nghiên cứu và phương pháp thu thập dữ liệu như thế nào để đảm bảo tính khoa học và giá trị của kết quả? Các đặc điểm chung nào của bệnh nhân cần được phân tích và trình bày?</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Các đồng nghiệp tương lai và hiện tại, việc xây dựng một nghiên cứu lâm sàng đòi hỏi sự chặt chẽ từ khâu thiết kế. Đối với nghiên cứu về gãy kín hai mắt cá chân, các bạn cần lưu ý những điểm sau:
+*   **Thiết kế nghiên cứu và cỡ mẫu**:
+    *   **Thiết kế**: Nên ưu tiên các thiết kế phù hợp với mục tiêu. Ví dụ, trong bài nghiên cứu này sử dụng 'mô tả cắt ngang một loạt ca bệnh' là phù hợp để mô tả đặc điểm và kết quả ban đầu của một nhóm bệnh nhân cụ thể.
+    *   **Cỡ mẫu và chọn mẫu**: Việc chọn 'cỡ mẫu tất cả' (toàn bộ bệnh nhân trong thời gian nghiên cứu đáp ứng tiêu chuẩn) và 'chọn mẫu thuận tiện' là phương pháp thực tế trong nhiều nghiên cứu lâm sàng đơn trung tâm. Tuy nhiên, cần nhận thức rằng điều này có thể ảnh hưởng đến khả năng khái quát hóa kết quả.
+*   **Tiêu chuẩn lựa chọn và loại trừ**: Đây là hai yếu tố cực kỳ quan trọng để đảm bảo tính đồng nhất của nhóm nghiên cứu và giảm thiểu các yếu tố nhiễu.
+    *   **Tiêu chuẩn lựa chọn**: Cần cụ thể và khách quan. Ví dụ trong bài này: 'Bệnh nhân trên 18 tuổi', 'chẩn đoán gãy kín đơn thuần hai mắt cá chân do chấn thương', 'được phẫu thuật mở ổ gãy và kết xương bên trong', và 'có đầy đủ hồ sơ, đồng ý tham gia'. Điều này giúp tập trung vào nhóm bệnh nhân cụ thể cần nghiên cứu.
+    *   **Tiêu chuẩn loại trừ**: Giúp loại bỏ các trường hợp có thể làm sai lệch kết quả hoặc gây khó khăn trong việc đánh giá. Ví dụ: 'gãy do bệnh lý', 'chi thể dị tật', hoặc 'bệnh thần kinh/mạch máu chi dưới mạn tính' - những yếu tố này có thể ảnh hưởng đến kết quả điều trị và đánh giá chức năng.
+*   **Thu thập dữ liệu và các chỉ số nghiên cứu**:
+    *   **Nguồn dữ liệu**: Kết hợp khai thác hồ sơ bệnh án, hỏi bệnh, khám lâm sàng và hình ảnh X-quang trước/sau mổ.
+    *   **Chỉ số nghiên cứu**: Cần xác định rõ ràng các biến số để thu thập. Đối với gãy mắt cá chân, các bạn nên thu thập:
+        *   **Đặc điểm lâm sàng và X-quang**: Tuổi, giới, chân bị gãy, nguyên nhân chấn thương, hình thái gãy (và phân loại như Danis-Weber).
+        *   **Kết quả điều trị**: Chất lượng nắn chỉnh, kết quả liền xương, chức năng cổ bàn chân (theo AOFAS) và các biến chứng.
+*   **Kết quả ban đầu và diễn giải**:
+    Dưới đây là một bảng tóm tắt đặc điểm chung của nhóm nghiên cứu, giúp chúng ta có cái nhìn tổng quan về đối tượng:
+    | Đặc điểm | Phân loại | Số BN | Tỷ lệ % |
+    | :----------------------- | :--------------------- | :---- | :------ |
+    | Tuổi | &lt; 20 tuổi | 3 | 6,8 |
+    | | 20 – 60 tuổi | 31 | 70,5 |
+    | | &gt; 60 tuổi | 10 | 22,7 |
+    | Giới | Nam | 21 | 47,7 |
+    | | Nữ | 23 | 52,3 |
+    | Phân loại gãy 2 mắt cá theo Danis -Weber | A | 8 | 18,2 |
+    | | B | 25 | 56,8 |
+    | | C | 11 | 25,0 |
+    | Doãng mộng chày mác | Có | 31 | 70,5 |
+    | | Không | 13 | 29,5 |
+    | Thời gian từ khi tai nạn đến khi phẫu thuật | &lt; 24 giờ | 5 | 11,4 |
+    | | 1 – 3 ngày | 34 | 77,2 |
+    | | 4 – 7 ngày | 4 | 9,1 |
+    | | &gt; 7 ngày | 1 | 2,3 |
+    Việc phân tích các đặc điểm này giúp chúng ta hiểu rõ hơn về bệnh lý, dịch tễ học và các yếu tố liên quan đến ca bệnh, từ đó có thể cải thiện thực hành lâm sàng và định hướng cho các nghiên cứu tiếp theo.</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Phương pháp Nghiên cứu Khoa học trong Y học Lâm sàng: Thiết kế và Thu thập Dữ liệu</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>Tài liệu này là cẩm nang cho các nhà nghiên cứu y học, hướng dẫn chi tiết về các loại hình thiết kế nghiên cứu (đặc biệt là nghiên cứu mô tả cắt ngang), cách xây dựng tiêu chuẩn lựa chọn/loại trừ bệnh nhân, phương pháp thu thập và quản lý dữ liệu lâm sàng, cũng như cách trình bày đặc điểm ban đầu của nhóm nghiên cứu để đảm bảo tính khách quan và khoa học.</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Thống kê Y sinh và Phân tích Dữ liệu Lâm sàng cho Bác sĩ</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Khóa học CME này trang bị cho bác sĩ và sinh viên y khoa những kiến thức và kỹ năng cần thiết để phân tích dữ liệu lâm sàng. Bạn sẽ học cách sử dụng phần mềm thống kê (như SPSS), diễn giải các biến số phân loại và liên tục, và trình bày kết quả nghiên cứu một cách rõ ràng và khoa học, giúp bạn tự tin hơn trong việc đọc, hiểu và thực hiện nghiên cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên các bằng chứng khoa học và chuẩn ICD-10, đặc biệt trong lĩnh vực chấn thương chỉnh hình.</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Thưa thầy/cô, xin giải thích về đặc điểm dịch tễ và các phân loại gãy hai mắt cá (bimalleolar fracture), đặc biệt là phân loại Weber, và ý nghĩa của chúng trong thực hành lâm sàng đối với các bác sĩ trẻ?</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Chào các em! Khi tiếp cận một trường hợp gãy hai mắt cá, việc nắm vững đặc điểm dịch tễ và phân loại là cực kỳ quan trọng để định hướng chẩn đoán, tiên lượng và kế hoạch điều trị. Đây là những điểm cốt lõi các em cần lưu ý:
+*   **Đặc điểm dịch tễ học:**
+    *   **Đối tượng:** Gãy hai mắt cá thường gặp ở lứa tuổi lao động (20-60 tuổi), chiếm tỷ lệ cao trong nghiên cứu của chúng ta (70,5%). Điều này nhấn mạnh tầm quan trọng của việc phục hồi chức năng để bệnh nhân sớm trở lại công việc.
+    *   **Giới tính:** Tỷ lệ nam và nữ tương đối ngang nhau, cho thấy đây là chấn thương không có sự phân biệt rõ ràng về giới tính.
+    *   **Độ tuổi trung bình:** Khoảng 46,6 tuổi, nhưng có thể gặp ở cả người trẻ (từ 16 tuổi) và người lớn tuổi (đến 80 tuổi). Ở người lớn tuổi, cần chú ý đến chất lượng xương và các bệnh lý nền đi kèm.
+*   **Phân loại gãy hai mắt cá theo Weber:**
+    Phân loại Weber (hay Danis-Weber) là công cụ cơ bản để đánh giá gãy xương mắt cá và xác định tính ổn định của khớp cổ chân, từ đó quyết định phương pháp điều trị. Các em cần ghi nhớ:
+    *   **Weber type A (18,2%):** Gãy xương mác dưới mức mộng chày mác. Thường là tổn thương ổn định, dây chằng chày mác nguyên vẹn. Điều trị có thể bảo tồn (bó bột) nếu khớp ổn định.
+    *   **Weber type B (56,8%):** Gãy xương mác ngang mức mộng chày mác. Đây là loại phổ biến nhất trong nghiên cứu của chúng ta. Có thể có tổn thương một phần hoặc toàn bộ dây chằng chày mác. Mức độ ổn định thay đổi, thường cần phẫu thuật để nắn chỉnh và kết hợp xương.
+    *   **Weber type C (25%):** Gãy xương mác trên mức mộng chày mác. Luôn kèm theo tổn thương dây chằng chày mác và thường là mất vững mộng chày mác. Đây là loại gãy không ổn định và gần như luôn cần phẫu thuật để phục hồi giải phẫu và ổn định khớp.
+*   **Ý nghĩa lâm sàng cho bác sĩ trẻ:**
+    *   **Đánh giá ban đầu:** Phân loại Weber giúp các em nhanh chóng đánh giá mức độ nghiêm trọng và sự ổn định của khớp cổ chân ngay từ khi đọc phim X-quang.
+    *   **Quyết định điều trị:** Với gãy Weber C hoặc gãy Weber B có mất vững, chỉ định phẫu thuật thường rõ ràng. Với Weber A hoặc Weber B ổn định, có thể xem xét điều trị bảo tồn nhưng cần theo dõi sát sao.
+    *   **Tiên lượng:** Gãy Weber type C thường có tiên lượng nặng hơn do tổn thương dây chằng chày mác đáng kể, dễ dẫn đến mất vững khớp và thoái hóa khớp cổ chân về sau nếu không được xử lý đúng cách.
+    *   **Tổn thương mộng chày mác:** Nghiên cứu của chúng ta ghi nhận tỷ lệ tổn thương mộng chày mác khá cao (70,5%). Các em cần luôn cảnh giác và đánh giá kỹ lưỡng mộng chày mác ở tất cả các trường hợp gãy mắt cá, không chỉ riêng Weber C, vì đây là yếu tố quan trọng quyết định sự ổn định của khớp.
+Việc hiểu rõ các đặc điểm này sẽ giúp các em tự tin hơn trong việc đưa ra quyết định lâm sàng chính xác, từ đó mang lại kết quả điều trị tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa Chấn thương chỉnh hình: Gãy xương vùng cổ chân.</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp kiến thức nền tảng và chuyên sâu về chấn thương gãy xương vùng cổ chân, bao gồm cơ chế chấn thương, phân loại, chẩn đoán và nguyên tắc điều trị theo các phân loại quốc tế như Weber, giúp sinh viên và bác sĩ trẻ xây dựng cơ sở vững chắc.</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Webinar: Cập nhật các phương pháp chẩn đoán và điều trị gãy mắt cá chân.</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Khóa học trực tuyến này tập trung vào các tiến bộ mới trong chẩn đoán hình ảnh và kỹ thuật phẫu thuật gãy mắt cá chân, bao gồm thảo luận chuyên sâu về các trường hợp khó và các biến chứng thường gặp, giúp bác sĩ lâm sàng nâng cao kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, đóng vai trò là trợ lý học thuật, cung cấp hướng dẫn chuyên môn và tài liệu tham khảo cho các bác sĩ và sinh viên y khoa về các kỹ thuật phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Làm thế nào để đánh giá và đảm bảo phục hồi giải phẫu hoàn hảo của khớp cổ chân sau phẫu thuật gãy hai mắt cá? Điều gì khiến việc phục hồi hình thể xương tốt nhưng vẫn chưa chắc đã phục hồi hoàn toàn quan hệ giải phẫu của khớp cổ chân?</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Các em thân mến, phục hồi giải phẫu hoàn hảo sau phẫu thuật gãy hai mắt cá là mục tiêu tối thượng để đảm bảo chức năng lâu dài của khớp. Tuy nhiên, đây là một thách thức không hề nhỏ. Dưới đây là những điểm chính các em cần lưu ý:
+*   **Mục tiêu của nắn chỉnh giải phẫu:**
+    *   Phục hồi chiều dài và trục xương mác.
+    *   Đảm bảo toàn vẹn vòng mộng chày mác (syndesmosis).
+    *   Nắn chỉnh diện khớp chày mác đúng giải phẫu.
+    *   Ổn định mắt cá trong và mắt cá sau (nếu có).
+*   **Thách thức trong đánh giá phục hồi giải phẫu:**
+    *   **Đánh giá trên X-quang:** Ngay cả khi hình ảnh X-quang cho thấy xương đã được nắn chỉnh tốt, điều đó chưa chắc phản ánh đầy đủ mối quan hệ giải phẫu tinh tế của khớp cổ chân. Các tiêu chuẩn khắt khe hơn cần được áp dụng. Nghiên cứu của Sara Suedes và cộng sự đã đề xuất bộ 4 tiêu chuẩn để đánh giá phục hồi giải phẫu, đây là một ví dụ điển hình về sự kỹ lưỡng cần thiết:
+| Tiêu chuẩn giải phẫu chưa đạt | Tỷ lệ (%) (Nghiên cứu của Sara Suedes) | Tỷ lệ (%) (Nghiên cứu của chúng tôi) |
+| :----------------------------- | :--------------------------------------- | :------------------------------------ |
+| 0 tiêu chuẩn (hoàn hảo)       | 27,7                                     | 47,7                                  |
+| 1 tiêu chuẩn chưa đạt          | 36,1                                     | 27,3                                  |
+| 2 tiêu chuẩn chưa đạt          | 24,1                                     | 15,9                                  |
+| 3 tiêu chuẩn chưa đạt          | 10,8                                     | 6,8                                   |
+| 4 tiêu chuẩn chưa đạt          | 1,2                                      | 2,3                                   |
+    *   **Tổn thương mô mềm:** Đây là yếu tố then chốt mà nhiều bác sĩ trẻ thường bỏ qua. Dù xương mắt cá được nắn chỉnh hoàn hảo, các tổn thương dây chằng (như dây chằng chày sên trước, dây chằng chày mác) và bao khớp vẫn có thể tồn tại. Chính những tổn thương này sẽ làm mất đi mối quan hệ giải phẫu bình thường vốn có của khớp cổ chân, dẫn đến mất vững vi mô hoặc đại thể, cuối cùng ảnh hưởng đến chức năng và gây thoái hóa khớp sớm.
+*   **Lời khuyên cho các bác sĩ trẻ:**
+    *   **Nắn chỉnh không chỉ xương:** Luôn nhớ rằng khớp cổ chân là một cấu trúc phức tạp bao gồm xương và mô mềm. Mục tiêu của phẫu thuật không chỉ là phục hồi hình thái xương mà còn là tái tạo sự ổn định của dây chằng và bao khớp.
+    *   **Đánh giá toàn diện:** Ngoài X-quang thường quy, hãy cân nhắc sử dụng CT scan hoặc MRI trong các trường hợp nghi ngờ để đánh giá chính xác hơn các tổn thương mô mềm và mối quan hệ khớp.
+    *   **Kỹ thuật mổ:** Học hỏi và áp dụng các kỹ thuật phẫu thuật hiện đại nhằm giảm thiểu tổn thương mô mềm thêm, đồng thời kiểm tra và sửa chữa tổn thương dây chằng nếu cần thiết.
+    *   **Giáo dục bệnh nhân:** Giải thích rõ ràng cho bệnh nhân về tầm quan trọng của việc tuân thủ phục hồi chức năng sau mổ để tối ưu hóa kết quả lâm sàng.
+Việc phục hồi giải phẫu xương là điều kiện tiên quyết, nhưng phục hồi hoàn hảo mối quan hệ giải phẫu của khớp cổ chân đòi hỏi sự chú ý đến cả những tổn thương mô mềm đi kèm. Hãy luôn đặt mục tiêu này lên hàng đầu trong thực hành lâm sàng của các em!</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Atlas Phẫu thuật Chấn thương Chỉnh hình: Kỹ thuật kết hợp xương gãy cổ chân.</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các hướng dẫn chi tiết từng bước bằng hình ảnh về các kỹ thuật phẫu thuật kết hợp xương trong điều trị gãy cổ chân, bao gồm các thủ thuật để đánh giá và phục hồi dây chằng, giúp các bác sĩ phẫu thuật nắm vững quy trình và tối ưu hóa kết quả.</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Hội thảo chuyên đề: Phục hồi giải phẫu và ổn định mộng chày mác trong gãy cổ chân.</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các phương pháp đánh giá chính xác mức độ tổn thương mộng chày mác và các kỹ thuật phẫu thuật tiên tiến để phục hồi ổn định, bao gồm các bài giảng lý thuyết và thực hành trên mô hình, giúp bác sĩ nâng cao kỹ năng thực hành và cải thiện kết quả lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, giúp bác sĩ và sinh viên y khoa hiểu sâu về các phương pháp đánh giá kết quả điều trị và theo dõi bệnh nhân sau phẫu thuật chấn thương.</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Thầy/cô có thể hướng dẫn về cách đánh giá kết quả X-quang và chức năng sau phẫu thuật gãy hai mắt cá (sử dụng thang điểm AOFAS), cũng như ý nghĩa của chúng trong việc tiên lượng và chăm sóc bệnh nhân lâu dài không ạ?</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Chắc chắn rồi các em! Đánh giá kết quả sau phẫu thuật là bước không thể thiếu để xác định hiệu quả điều trị, tiên lượng bệnh nhân và điều chỉnh chiến lược chăm sóc. Đối với gãy hai mắt cá, chúng ta cần tập trung vào cả kết quả hình ảnh và chức năng:
+*   **Đánh giá X-quang sau mổ ít nhất 6 tháng:**
+    *   **Liền xương (Bone union):** Đây là tiêu chí cơ bản nhất. Trong nghiên cứu của chúng ta, 100% bệnh nhân đạt liền xương sau 6 tháng. Điều này cho thấy phẫu thuật đã thành công trong việc ổn định và tạo điều kiện cho quá trình lành xương. Các em cần kiểm tra dấu hiệu callus hình thành, mất đường gãy trên phim X-quang.
+    *   **Thoái hóa cổ chân (Ankle osteoarthritis):** 11,4% bệnh nhân có thoái hóa cổ chân sau 6 tháng. Đây là một biến chứng quan trọng cần theo dõi. Thoái hóa thường biểu hiện bằng hẹp khe khớp, đặc xương dưới sụn, gai xương. Các em cần giải thích cho bệnh nhân về nguy cơ này và tầm quan trọng của việc giữ gìn khớp, tránh các hoạt động nặng quá mức sau phẫu thuật.
+    *   **Ý nghĩa:** Liền xương là điều kiện tiên quyết. Thoái hóa khớp là biến chứng lâu dài, liên quan đến chất lượng nắn chỉnh giải phẫu ban đầu, tổn thương sụn khớp và các yếu tố cơ sinh học khác. Việc phát hiện sớm giúp can thiệp giảm đau, giảm chậm tiến triển thoái hóa và xem xét các phương pháp điều trị bổ trợ.
+*   **Đánh giá chức năng cổ bàn chân sau mổ ít nhất 6 tháng theo thang điểm AOFAS:**
+    Thang điểm AOFAS (American Orthopaedic Foot and Ankle Society) là một công cụ đánh giá chức năng khách quan và phổ biến. Thang điểm này bao gồm các tiêu chí về đau, chức năng (đi lại, hoạt động hàng ngày) và sự cân bằng/dáng đi. Các em cần biết cách sử dụng và giải thích kết quả:
+    *   **Tốt (91-100 điểm):** 45,5% bệnh nhân trong nghiên cứu đạt kết quả này. Điều này cho thấy bệnh nhân có ít hoặc không đau, chức năng gần như bình thường, có thể tham gia các hoạt động hàng ngày và thể thao mức độ nhẹ.
+    *   **Khá (76-90 điểm):** 50,0% bệnh nhân. Bệnh nhân có thể có đau nhẹ, một số hạn chế trong hoạt động mạnh hoặc kéo dài, nhưng vẫn thực hiện tốt các hoạt động cơ bản.
+    *   **Trung bình (50-75 điểm):** 4,5% bệnh nhân. Bệnh nhân thường có đau mức độ vừa, hạn chế đáng kể trong các hoạt động, có thể cần hỗ trợ khi đi lại.
+    *   **Kém (&lt;50 điểm):** 0% bệnh nhân trong nghiên cứu của chúng ta. Kết quả này cho thấy không có trường hợp nào quá tệ. Tuy nhiên, nếu gặp trong thực tế, các em cần xem xét lại toàn bộ quá trình điều trị và phục hồi chức năng.
+    *   **Giá trị trung bình ± Độ lệch chuẩn (Min-Max):** 91,5±6,4 (72-100). Con số này cho thấy kết quả chung của nhóm nghiên cứu rất tốt, với điểm trung bình nằm trong ngưỡng 'Tốt' và độ biến thiên không quá lớn.
+*   **Ý nghĩa trong tiên lượng và chăm sóc bệnh nhân lâu dài:**
+    *   **Phản ánh chất lượng cuộc sống:** Điểm AOFAS trực tiếp phản ánh chất lượng cuộc sống và khả năng hoạt động của bệnh nhân sau chấn thương.
+    *   **Phục hồi chức năng:** Kết quả AOFAS giúp các em đánh giá hiệu quả của chương trình phục hồi chức năng và điều chỉnh nếu cần thiết. Bệnh nhân đạt điểm thấp hơn mong đợi có thể cần thêm các bài tập vật lý trị liệu chuyên sâu hoặc can thiệp khác.
+    *   **Tiên lượng dài hạn:** Bệnh nhân với điểm AOFAS thấp hoặc có dấu hiệu thoái hóa sớm trên X-quang cần được theo dõi sát sao hơn, vì họ có nguy cơ cao hơn gặp các vấn đề về khớp cổ chân trong tương lai, có thể cần đến các phẫu thuật bổ sung.
+Khi chăm sóc bệnh nhân sau chấn thương cổ chân, hãy luôn kết hợp đánh giá hình ảnh và chức năng để có cái nhìn toàn diện và đưa ra kế hoạch quản lý tối ưu nhất.</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Hướng dẫn sử dụng và diễn giải thang điểm AOFAS trong chấn thương chỉnh hình.</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn chi tiết về cách tính điểm, diễn giải ý nghĩa lâm sàng của thang điểm AOFAS và các biến thể của nó, là công cụ không thể thiếu cho các bác sĩ và nhà nghiên cứu trong việc đánh giá kết quả điều trị các bệnh lý cổ bàn chân.</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu: Phục hồi chức năng toàn diện sau chấn thương khớp cổ chân.</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Khóa học này trang bị cho học viên kiến thức về các nguyên tắc phục hồi chức năng, các bài tập chuyên biệt, và cách quản lý biến chứng sau phẫu thuật khớp cổ chân, giúp tối ưu hóa kết quả chức năng và sự trở lại hoạt động của bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, định hướng phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Dựa trên kết quả nghiên cứu về điều trị bảo tồn gãy kín đầu trên xương cánh tay, những yếu tố nào cần được các bác sĩ trẻ và sinh viên y khoa đặc biệt lưu ý khi ra quyết định điều trị và tư vấn bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Chào các bạn bác sĩ trẻ và sinh viên y khoa! Khi tiếp cận một trường hợp gãy kín đầu trên xương cánh tay và cân nhắc điều trị bảo tồn, các bạn cần đặc biệt chú ý những điểm sau để đưa ra quyết định lâm sàng tối ưu và tư vấn hiệu quả cho người bệnh:
+*   **Đánh giá mức độ di lệch của gãy xương:** Đây là yếu tố then chốt. Nghiên cứu cho thấy điều trị bảo tồn mang lại kết quả tích cực, đặc biệt với các bệnh nhân gãy xương ít di lệch. Các bạn cần phân tích kỹ hình ảnh X-quang (và có thể cả CT nếu cần) để xác định chính xác kiểu gãy và mức độ di lệch (góc gập góc, di lệch xoay, chồng ngắn) theo các phân loại chuẩn (ví dụ: Neer). Gãy không di lệch hoặc di lệch tối thiểu thường là chỉ định tốt cho điều trị bảo tồn.
+*   **Tình trạng tổng thể và tuổi của bệnh nhân:** Bệnh nhân lớn tuổi, đặc biệt là những người có nguy cơ phẫu thuật cao do bệnh lý nền, thường là đối tượng ưu tiên cho điều trị bảo tồn. Nghiên cứu cũng chỉ ra rằng phương pháp này hiệu quả ở người lớn tuổi. Tuy nhiên, đừng quên đánh giá chức năng khớp vai trước chấn thương và kỳ vọng của bệnh nhân.
+*   **Tiềm năng liền xương:** Mặc dù nghiên cứu ghi nhận 68,4% đạt mức độ liền xương trung bình và không có trường hợp liền xương kém, các bạn vẫn cần theo dõi sát sao quá trình liền xương. Thang điểm RUSH là một công cụ hữu ích để đánh giá khách quan. Hãy giải thích rõ cho bệnh nhân về thời gian liền xương dự kiến và các dấu hiệu cần chú ý.
+*   **Kết quả chức năng khớp vai:** Mục tiêu cuối cùng là phục hồi chức năng tốt nhất. Nghiên cứu cho thấy 89,5% bệnh nhân đạt kết quả tốt đến rất tốt về chức năng khớp vai và 80,7% không còn đau. Điều này nhấn mạnh tầm quan trọng của vật lý trị liệu và phục hồi chức năng ngay sau giai đoạn bất động. Hướng dẫn bệnh nhân tập luyện đúng cách và kiên trì là cực kỳ quan trọng.
+*   **Giáo dục bệnh nhân:** Hãy dành thời gian giải thích cặn kẽ về quá trình điều trị bảo tồn, bao gồm thời gian bất động, các bài tập vật lý trị liệu, những dấu hiệu biến chứng cần tái khám ngay (ví dụ: đau tăng, sưng nề, tê bì). Sự tuân thủ của bệnh nhân là yếu tố quyết định thành công của phương pháp này.
+Việc hiểu rõ những yếu tố này sẽ giúp các bạn tự tin hơn trong việc quản lý các trường hợp gãy đầu trên xương cánh tay và mang lại kết quả tốt nhất cho người bệnh.</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Phác đồ chẩn đoán và điều trị gãy đầu trên xương cánh tay của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Tài liệu hướng dẫn chi tiết về chẩn đoán, phân loại (theo Neer, AO), chỉ định điều trị bảo tồn và phẫu thuật cho gãy đầu trên xương cánh tay, bao gồm cả các tiêu chí đánh giá kết quả, giúp sinh viên và bác sĩ trẻ nắm vững kiến thức nền tảng và quy trình thực hành chuẩn.</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Quản lý Gãy Xương Vùng Vai và Cánh Tay: Từ Lý Thuyết Đến Thực Hành Lâm Sàng.</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp kiến thức chuyên sâu về cơ chế chấn thương, các kỹ thuật chẩn đoán hình ảnh (X-quang, CT, MRI), nguyên tắc điều trị bảo tồn và phẫu thuật cho gãy xương vùng vai, đặc biệt là gãy đầu trên xương cánh tay. Khóa học bao gồm các buổi thảo luận ca lâm sàng, thực hành kỹ năng đánh giá và lên kế hoạch điều trị, rất hữu ích cho các bác sĩ trẻ chuyên ngành chấn thương chỉnh hình.</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ phân loại bệnh theo ICD-10, cung cấp kiến thức lâm sàng chuyên sâu và định hướng học tập cho bác sĩ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Khi ghi nhận trường hợp 'gãy đầu trên xương cánh tay' trong hồ sơ bệnh án, các bác sĩ trẻ cần mã hóa theo ICD-10 như thế nào để đảm bảo tính chính xác và đầy đủ thông tin y tế?</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Các bạn bác sĩ trẻ thân mến, việc mã hóa bệnh tật theo ICD-10 là một kỹ năng y tế quan trọng, đảm bảo tính chính xác và khoa học của hồ sơ bệnh án, đồng thời phục vụ cho công tác thống kê y tế và quản lý bệnh viện. Đối với 'gãy đầu trên xương cánh tay' (Proximal humeral fracture), các bạn cần tuân thủ các bước sau:
+1.  **Xác định mã chính:** Mã cơ bản cho gãy đầu trên xương cánh tay là **S42.2 – Fracture of upper end of humerus** (Gãy đầu trên xương cánh tay).
+2.  **Mã hóa bên bị tổn thương (laterality):** ICD-10 yêu cầu chỉ rõ bên bị tổn thương. Hãy sử dụng các mã phụ sau:
+    *   **S42.20 – Fracture of unspecified upper end of humerus:** Gãy đầu trên xương cánh tay không rõ bên (chỉ dùng khi không xác định được bên, hạn chế sử dụng).
+    *   **S42.21 – Fracture of upper end of right humerus:** Gãy đầu trên xương cánh tay phải.
+    *   **S42.22 – Fracture of upper end of left humerus:** Gãy đầu trên xương cánh tay trái.
+3.  **Mã hóa tình trạng hở/kín (open/closed):** Đoạn văn nghiên cứu tập trung vào 'gãy kín' (closed fracture). Tuy nhiên, trong thực hành lâm sàng, các bạn cần phân biệt:
+    *   **S42.2_ _ A – initial encounter for closed fracture:** Gãy kín, lần đầu khám.
+    *   **S42.2_ _ B – initial encounter for open fracture:** Gãy hở, lần đầu khám.
+4.  **Mã hóa lần khám (encounter):** Đây là một yếu tố quan trọng trong ICD-10:
+    *   **A – initial encounter:** Lần đầu khám cho chấn thương này (dùng cho cả khi điều trị ban đầu hoặc tiếp tục điều trị).
+    *   **D – subsequent encounter:** Lần khám tiếp theo trong quá trình hồi phục sau khi đã được điều trị ban đầu (ví dụ: tái khám, thay băng, vật lý trị liệu).
+    *   **S – sequela:** Di chứng của chấn thương.
+**Ví dụ minh họa:**
+Nếu một bệnh nhân nam 65 tuổi bị gãy kín đầu trên xương cánh tay trái do ngã, và đây là lần đầu tiên anh ấy đến bệnh viện để điều trị, mã ICD-10 đầy đủ sẽ là **S42.22XA**.
+Việc mã hóa chính xác không chỉ giúp hồ sơ bệnh án của bạn rõ ràng, mà còn rất quan trọng cho các nghiên cứu dịch tễ học, quản lý nguồn lực y tế và thanh toán bảo hiểm. Hãy luôn tham khảo phiên bản ICD-10 mới nhất và các hướng dẫn mã hóa của Bộ Y tế để đảm bảo tuân thủ.</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Mã hóa Bệnh tật và Thủ thuật theo ICD-10, Phiên bản Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thức của Bộ Y tế Việt Nam cung cấp hướng dẫn chi tiết về cách mã hóa tất cả các bệnh lý, chấn thương và thủ thuật theo phân loại quốc tế ICD-10. Đây là cẩm nang không thể thiếu giúp sinh viên và bác sĩ thực hành mã hóa chính xác, đảm bảo tính pháp lý và khoa học của hồ sơ bệnh án, cũng như hỗ trợ công tác thống kê y tế.</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Thực hành Mã hóa Bệnh tật và Chấn thương theo ICD-10 cho Bác sĩ lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành này được thiết kế để trang bị cho các bác sĩ lâm sàng, đặc biệt là bác sĩ trẻ, kỹ năng mã hóa chính xác các bệnh lý và chấn thương theo ICD-10. Khóa học tập trung vào các trường hợp lâm sàng thực tế, giúp học viên hiểu rõ các quy tắc mã hóa phức tạp, tránh sai sót và tối ưu hóa việc ghi chép thông tin y tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, tư vấn phương pháp nghiên cứu, phân tích kết quả lâm sàng và định hướng phát triển chuyên môn cho sinh viên y khoa và bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Để đánh giá hiệu quả điều trị gãy xương một cách khách quan và khoa học, nghiên cứu đã sử dụng thang điểm RUSH và điểm Constant. Các bác sĩ trẻ và sinh viên y khoa cần hiểu rõ về các thang điểm này như thế nào và tầm quan trọng của chúng trong thực hành lâm sàng và nghiên cứu khoa học?</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên y khoa và bác sĩ trẻ thân mến, việc sử dụng các thang điểm đánh giá khách quan là nền tảng để so sánh kết quả điều trị, cải thiện chất lượng chăm sóc và thực hiện nghiên cứu khoa học có giá trị. Trong nghiên cứu về gãy đầu trên xương cánh tay này, thang điểm RUSH và điểm Constant là hai công cụ cực kỳ quan trọng:
+1.  **Thang điểm RUSH (Radiographic Union Score for Humeral Fractures):**
+    *   **Mục đích:** Thang điểm RUSH được dùng để đánh giá mức độ liền xương trên X-quang. Đây là một công cụ bán định lượng, cho phép các bác sĩ đưa ra đánh giá khách quan hơn về quá trình liền xương so với việc chỉ đánh giá bằng mắt thường.
+    *   **Cấu trúc:** Thang điểm này thường xem xét 4 vỏ xương (vỏ ngoài, vỏ trong, vỏ trước, vỏ sau) và đánh giá mức độ hình thành callus ở mỗi vỏ. Mỗi vỏ được chấm điểm từ 0-3 điểm (0: không có callus; 1: có callus nhẹ; 2: callus trung bình; 3: callus vững chắc). Tổng điểm tối đa là 12.
+    *   **Ý nghĩa:** Trong nghiên cứu này, điểm RUSH được phân loại thành tốt (9-12 điểm), trung bình (6-8 điểm) và kém (&lt;6 điểm). Điều này giúp chuẩn hóa việc đánh giá liền xương, đặc biệt khi so sánh giữa các bệnh nhân hoặc các nghiên cứu khác nhau. Nó cung cấp một cách đáng tin cậy để theo dõi tiến trình liền xương và xác định khi nào bệnh nhân có thể chịu tải hoặc phục hồi chức năng cường độ cao.
+    *   **Áp dụng:** Khi theo dõi bệnh nhân gãy xương, các bạn cần chụp X-quang định kỳ và áp dụng thang điểm RUSH để đánh giá khách quan. Hãy nhớ rằng sự liền xương sinh học không phải lúc nào cũng tương đồng hoàn toàn với phục hồi chức năng lâm sàng.
+2.  **Điểm Constant (Constant-Murley Score):**
+    *   **Mục đích:** Điểm Constant là một thang điểm đánh giá chức năng khớp vai toàn diện, được sử dụng rộng rãi trong chấn thương chỉnh hình để lượng giá kết quả điều trị các bệnh lý vùng vai.
+    *   **Cấu trúc:** Thang điểm này bao gồm 4 tiêu chí chính với tổng điểm tối đa là 100 điểm:
+        *   **Đau (Pain):** 15 điểm (0 = đau nặng; 15 = không đau).
+        *   **Hoạt động sống hàng ngày (Activities of Daily Living - ADL):** 20 điểm (dựa trên mức độ ảnh hưởng đến các hoạt động như ngủ, làm việc, giải trí).
+        *   **Tầm vận động khớp (Range of Motion - ROM):** 40 điểm (đánh giá các động tác gập, dạng, xoay trong, xoay ngoài).
+        *   **Sức mạnh (Strength):** 25 điểm (đo bằng dynamometer hoặc đánh giá tương đối).
+    *   **Ý nghĩa:** Trong nghiên cứu, 89,5% bệnh nhân đạt kết quả tốt và rất tốt, với 80,7% không còn đau. Điều này cho thấy điều trị bảo tồn mang lại hiệu quả cao về mặt chức năng. Điểm Constant giúp đánh giá không chỉ mức độ đau mà còn khả năng hoạt động của bệnh nhân, là một chỉ số quan trọng về chất lượng cuộc sống sau chấn thương.
+    *   **Áp dụng:** Sau điều trị gãy xương vùng vai, việc sử dụng điểm Constant trong các lần tái khám giúp các bạn theo dõi sự cải thiện chức năng theo thời gian, điều chỉnh kế hoạch phục hồi chức năng và đánh giá hiệu quả tổng thể của phương pháp điều trị.
+**Tóm tắt về các thang điểm đánh giá:**
+| Thang điểm       | Mục đích chính                | Phạm vi điểm        | Ý nghĩa trong nghiên cứu | Áp dụng lâm sàng cho bác sĩ trẻ                                   |
+| :--------------- | :---------------------------- | :------------------ | :---------------------- | :--------------------------------------------------------------- |
+| **RUSH Score**   | Đánh giá mức độ liền xương      | 0 - 12 điểm         | Chuẩn hóa đánh giá liền xương | Theo dõi tiến trình liền xương trên X-quang, quyết định chịu tải. |
+| **Constant Score** | Đánh giá chức năng khớp vai toàn diện | 0 - 100 điểm        | Đánh giá hiệu quả phục hồi chức năng, giảm đau | Theo dõi sự cải thiện chức năng, điều chỉnh phục hồi chức năng.   |
+Việc thành thạo các thang điểm này sẽ giúp các bạn không chỉ trở thành những bác sĩ lâm sàng giỏi mà còn là những nhà nghiên cứu tiềm năng, đóng góp vào sự phát triển của y học.</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Các Thang điểm Đánh giá Chức năng Khớp Vai và Liền Xương trong Chấn thương Chỉnh hình.</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Tuyển tập các thang điểm đánh giá lâm sàng và chức năng phổ biến trong chuyên ngành chấn thương chỉnh hình, bao gồm RUSH Score và Constant Score. Tài liệu này giải thích chi tiết cấu trúc, cách tính điểm, và ý nghĩa lâm sàng của từng thang điểm, giúp sinh viên và bác sĩ hiểu rõ cách lựa chọn và áp dụng các công cụ đánh giá một cách hiệu quả trong nghiên cứu và thực hành y khoa.</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Phương pháp Nghiên cứu Khoa học Y học và Đánh giá Lâm sàng Khách quan.</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Khóa học này trang bị kiến thức về thiết kế nghiên cứu khoa học, thu thập và phân tích dữ liệu trong y học. Đặc biệt, khóa học tập trung vào các phương pháp đánh giá kết quả lâm sàng khách quan, bao gồm việc sử dụng và diễn giải các thang điểm chức năng và hình ảnh học. Đây là khóa học thiết yếu cho các bác sĩ và sinh viên y khoa muốn tham gia nghiên cứu và nâng cao năng lực đánh giá lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và kiến thức y khoa cập nhật.</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi chẩn đoán gãy kín hai mắt cá chân, chúng tôi cần lưu ý những phân loại nào và các tiêu chuẩn đánh giá trên X-quang ra sao để đưa ra chỉ định điều trị phù hợp theo chuẩn Bộ Y tế?</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Để chẩn đoán và lập kế hoạch điều trị gãy kín hai mắt cá chân một cách chính xác, các em sinh viên và bác sĩ trẻ cần chú ý các điểm sau:
+*   **Phân loại gãy xương**: Việc phân loại giúp định hình mức độ tổn thương và hướng điều trị.
+    *   Trong đoạn văn, nghiên cứu đã chỉ ra rằng tổn thương hai mắt cá kiểu B theo phân loại Danis - Weber chiếm đa số (56,8%). Đây là phân loại dựa trên vị trí đường gãy của xương mác so với mộng chày mác. Gãy kiểu B thường là gãy vát xiên hoặc gãy xoắn ngang mức mộng chày mác, thường gây tổn thương dây chằng mộng chày mác hoặc làm mất vững khớp.
+    *   **Lời khuyên**: Các em cần nắm vững các phân loại phổ biến như Danis-Weber, AO để đánh giá chính xác độ vững của khớp cổ chân và lựa chọn chiến lược phẫu thuật phù hợp.
+*   **Tiêu chuẩn đánh giá trên X-quang**: Phim X-quang là công cụ chẩn đoán hình ảnh cơ bản nhưng cực kỳ quan trọng.
+    *   Sử dụng phim X-quang cổ chân thẳng, nghiêng tiêu chuẩn và đặc biệt là phim X-quang mộng chày mác (mortise view).
+    *   **Phim mộng chày mác** có giá trị đặc biệt trong việc đánh giá sự toàn vẹn của khớp chày mác dưới và khoảng cách mộng chày mác. Trong nghiên cứu, tổn thương mộng chày mác chiếm 70,5%, cho thấy tầm quan trọng của việc đánh giá kỹ lưỡng vùng này.
+    *   **Các điểm cần đánh giá**: Khoảng cách mộng chày mác (tibiofibular clear space), khoảng cách chồng chéo chày mác (tibiofibular overlap), khe khớp cổ chân. Bất kỳ sự giãn rộng nào cũng gợi ý tổn thương dây chằng và mất vững khớp.
+    *   **Sau mổ**: Đánh giá kết quả nắn chỉnh diện gãy trên X-quang là bắt buộc. Nghiên cứu ghi nhận 41,7% bệnh nhân được nắn chỉnh hoàn hảo về giải phẫu, nhưng 58,3% có ít nhất 1 tiêu chuẩn chưa đạt. Điều này nhấn mạnh sự cần thiết của kỹ thuật nắn chỉnh chính xác để đạt được kết quả tối ưu và giảm nguy cơ thoái hóa khớp sau này.
+*   **Mã hóa ICD-10**: Theo chuẩn ICD-10 của Bộ Y tế Việt Nam, gãy kín hai mắt cá chân thường được mã hóa trong nhóm S82 (Gãy xương cẳng chân, bao gồm cả mắt cá chân). Cụ thể, gãy hai mắt cá chân có thể được mã hóa là **S82.84_** (Gãy hai mắt cá chân). Ký tự tiếp theo sẽ chỉ định bên (trái, phải) và ký tự thứ 6, 7 sẽ chỉ định tình trạng gãy (ví dụ: A cho lần tiếp xúc đầu tiên với điều trị, D cho điều trị tiếp theo sau khi đã liền xương). Việc hiểu rõ mã ICD-10 giúp chuẩn hóa việc ghi nhận bệnh án, thống kê dịch tễ và thanh toán bảo hiểm y tế một cách chính xác.</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và kiến thức y khoa cập nhật.</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Phẫu thuật mổ mở nắn chỉnh và kết hợp xương bên trong (ORIF) là phương pháp chính cho gãy kín hai mắt cá chân. Vậy chuyên gia có thể giải thích chi tiết về chỉ định, nguyên tắc và cách đánh giá kết quả để chúng tôi có thể thực hành hiệu quả hơn?</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Phẫu thuật mổ mở nắn chỉnh diện gãy và kết hợp xương bên trong (ORIF) là tiêu chuẩn vàng trong điều trị gãy kín hai mắt cá chân di lệch. Để thực hành hiệu quả, các em cần hiểu rõ những điểm cốt lõi sau:
+*   **Chỉ định phẫu thuật**: Hầu hết các trường hợp gãy hai mắt cá chân đều là gãy không vững và có di lệch, ảnh hưởng đến giải phẫu mặt khớp, do đó cần phẫu thuật. Mục tiêu là phục hồi giải phẫu khớp cổ chân để tránh biến chứng thoái hóa khớp về sau.
+*   **Nguyên tắc phẫu thuật**: Các nguyên tắc cơ bản cần tuân thủ bao gồm:
+    *   **Nắn chỉnh giải phẫu hoàn hảo**: Điều này đòi hỏi đưa các mảnh gãy về đúng vị trí giải phẫu, đặc biệt là tái tạo lại mặt khớp chày mác dưới và khớp cổ chân. Nghiên cứu cho thấy chỉ 41,7% bệnh nhân đạt nắn chỉnh hoàn hảo, cho thấy đây là một thách thức lớn.
+    *   **Kết hợp xương vững chắc**: Sử dụng các phương tiện kết hợp xương phù hợp (nẹp vít, đinh Kirschner...) để giữ vững mảnh gãy sau nắn chỉnh, cho phép vận động sớm và liền xương.
+    *   **Phục hồi mộng chày mác**: Do 70,5% bệnh nhân trong nghiên cứu có tổn thương mộng chày mác, việc đánh giá và phục hồi sự toàn vẹn của mộng chày mác là cực kỳ quan trọng để đảm bảo sự vững chắc của khớp cổ chân.
+*   **Đánh giá kết quả phẫu thuật**: Cần theo dõi cả trên X-quang và chức năng lâm sàng.
+    *   **Trên X-quang**: Đánh giá ngay sau mổ và định kỳ để kiểm tra sự ổn định của nắn chỉnh và quá trình liền xương (nghiên cứu: 100% bệnh nhân liền xương sau 6 tháng).
+    *   **Chức năng cổ bàn chân**: Sử dụng các thang điểm đánh giá chức năng khách quan. Thang điểm AOFAS (American Orthopaedic Foot and Ankle Society) là một công cụ phổ biến và đáng tin cậy. Nghiên cứu ghi nhận điểm AOFAS trung bình là 91,5 ± 6,4, với 95,5% bệnh nhân đạt mức tốt và khá, cho thấy hiệu quả cao của phẫu thuật.
+*   **Biến chứng**: Cần nhận diện và quản lý sớm. Thoái hóa khớp cổ chân được ghi nhận ở 11,4% bệnh nhân trong nghiên cứu, là một biến chứng muộn có thể ảnh hưởng đến chất lượng cuộc sống của bệnh nhân.
+Dưới đây là bảng tóm tắt một số kết quả chính từ nghiên cứu, giúp các em hình dung rõ hơn về các tiêu chí đánh giá và ý nghĩa lâm sàng:
+| Tiêu chí đánh giá         | Kết quả (N=44)                            | Ý nghĩa lâm sàng                                                                                                   |
+| :------------------------ | :---------------------------------------- | :----------------------------------------------------------------------------------------------------------------- |
+| Tuổi trung bình           | 46,6 ± 17,6 tuổi                          | Cần xem xét yếu tố tuổi để tư vấn và thiết lập phác đồ phục hồi chức năng cá nhân hóa.                             |
+| Phân loại Danis-Weber   | Kiểu B chiếm 56,8%                       | Phân loại phổ biến nhất, yêu cầu nắn chỉnh cẩn trọng để bảo toàn cấu trúc và chức năng khớp.                       |
+| Tổn thương mộng chày mác  | Chiếm 70,5%                               | Tổn thương mấu chốt, cần được phục hồi chính xác để tránh mất vững khớp và thoái hóa sớm.                           |
+| Nắn chỉnh trên X-quang   | Hoàn hảo về giải phẫu: 41,7%              | Mục tiêu chính của phẫu thuật. 58,3% không hoàn hảo là một thách thức, đòi hỏi nâng cao kỹ năng phẫu thuật.        |
+| Liền xương                 | 100% sau 6 tháng                         | Thể hiện hiệu quả tốt của phương pháp trong việc thúc đẩy quá trình liền xương.                                    |
+| Thoái hóa khớp cổ chân    | 11,4% (5 bệnh nhân)                       | Biến chứng lâu dài cần theo dõi và quản lý. Có thể liên quan đến chất lượng nắn chỉnh ban đầu hoặc tổn thương sụn. |
+| Điểm AOFAS trung bình     | 91,5 ± 6,4 (95,5% tốt và khá)             | Chỉ số chức năng tốt, phản ánh sự phục hồi đáng kể của bệnh nhân sau phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr"/>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và kiến thức y khoa cập nhật.</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Sau phẫu thuật gãy kín hai mắt cá chân, việc phục hồi chức năng và theo dõi dài hạn có vai trò như thế nào trong việc đạt được kết quả điều trị tốt nhất và phòng ngừa biến chứng? Xin chuyên gia cho lời khuyên cụ thể.</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Sau phẫu thuật mổ mở nắn chỉnh và kết hợp xương bên trong (ORIF) cho gãy kín hai mắt cá chân, việc phục hồi chức năng và theo dõi dài hạn đóng vai trò quyết định đến kết quả cuối cùng và chất lượng cuộc sống của bệnh nhân. Đây là những khía cạnh mà các bác sĩ trẻ cần đặc biệt chú trọng:
+*   **Phục hồi chức năng (PHCN) toàn diện**: PHCN cần được lên kế hoạch cá nhân hóa và bắt đầu sớm, ngay sau khi tình trạng lâm sàng cho phép.
+    *   **Giai đoạn đầu (bất động/bảo vệ)**: Tập trung kiểm soát đau, phù nề, duy trì khối cơ bằng các bài tập thụ động nhẹ nhàng cho các khớp lân cận (ngón chân, gối, háng) và các bài tập đẳng trường cho cơ vùng cẳng chân mà không gây ảnh hưởng đến vùng gãy.
+    *   **Giai đoạn vận động sớm**: Sau khi vết mổ ổn định và có dấu hiệu liền xương ban đầu, bắt đầu tập vận động chủ động nhẹ nhàng cho khớp cổ chân để phục hồi biên độ vận động. Tránh các động tác gây lực xoắn mạnh lên khớp.
+    *   **Giai đoạn chịu lực và tăng cường sức mạnh**: Khi liền xương vững chắc (thường sau 6-8 tuần), bắt đầu tập chịu lực dần dần, tập đi và tăng cường sức mạnh các nhóm cơ quanh khớp cổ chân. Mục tiêu là phục hồi hoàn toàn chức năng vận động và thăng bằng.
+    *   **Lời khuyên**: Các em cần phối hợp chặt chẽ với chuyên gia vật lý trị liệu để xây dựng và điều chỉnh phác đồ PHCN phù hợp với từng bệnh nhân, đảm bảo an toàn và hiệu quả tối đa.
+*   **Theo dõi dài hạn và quản lý biến chứng**: Kết quả phẫu thuật không chỉ là liền xương mà còn là chức năng lâu dài của khớp.
+    *   **Đánh giá chức năng định kỳ**: Sử dụng thang điểm AOFAS hoặc các công cụ khác để đánh giá chức năng cổ bàn chân ít nhất sau 6 tháng, 1 năm và 2 năm sau mổ. Điều này giúp phát hiện sớm các vấn đề và can thiệp kịp thời. Trong nghiên cứu, 95,5% bệnh nhân đạt mức tốt và khá sau 6 tháng, nhưng vẫn cần theo dõi để duy trì kết quả này.
+    *   **Phát hiện và quản lý thoái hóa khớp**: Nghiên cứu chỉ ra 11,4% bệnh nhân có biểu hiện thoái hóa khớp cổ chân sau mổ. Đây là một biến chứng quan trọng, đặc biệt đối với gãy xương phạm khớp. Các yếu tố nguy cơ bao gồm nắn chỉnh giải phẫu không hoàn hảo ban đầu, tổn thương sụn khớp phối hợp hoặc quá trình phục hồi chức năng không đúng cách.
+    *   **Giáo dục bệnh nhân**: Hướng dẫn bệnh nhân về các dấu hiệu cảnh báo của biến chứng (đau kéo dài, sưng tấy, hạn chế vận động tăng dần), tầm quan trọng của việc duy trì tập luyện và lối sống lành mạnh để bảo vệ khớp. Điều này giúp bệnh nhân chủ động hơn trong việc quản lý sức khỏe của mình.
+    *   **Lời khuyên**: Các em cần nhớ rằng mục tiêu cuối cùng không chỉ là liền xương mà còn là tái tạo chức năng tối đa và giảm thiểu biến chứng lâu dài. Một chiến lược theo dõi và quản lý chặt chẽ sẽ giúp bệnh nhân đạt được kết quả điều trị bền vững nhất.</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt trong lĩnh vực chấn thương chỉnh hình, giúp các bác sĩ trẻ và sinh viên y khoa nâng cao kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi tiếp cận một bệnh nhân nghi ngờ gãy kín hai mắt cá chân, chúng em cần lưu ý những tiêu chuẩn chẩn đoán và lựa chọn bệnh nhân nào để đảm bảo điều trị phẫu thuật hiệu quả, cũng như những trường hợp nào cần loại trừ? Xin vui lòng liên hệ đến phân loại ICD-10.</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Chào các em, việc chẩn đoán chính xác và lựa chọn bệnh nhân phù hợp là bước cực kỳ quan trọng đối với gãy kín hai mắt cá chân để đạt được kết quả điều trị tốt nhất. Đây là những điểm các em cần lưu ý:
+**1. Chẩn đoán gãy kín hai mắt cá chân:**
+*   **Cơ chế chấn thương:** Thường do xoắn vặn, ngã, hoặc lực tác động trực tiếp vào cổ chân. Việc khai thác kỹ cơ chế giúp định hướng chẩn đoán ban đầu.
+*   **Triệu chứng lâm sàng:** Bệnh nhân sẽ có đau dữ dội, sưng nề, biến dạng rõ rệt vùng cổ chân, mất chức năng vận động. Các em cần thăm khám kỹ các điểm đau chói tại mắt cá trong và mắt cá ngoài, kiểm tra tình trạng da và các dấu hiệu thần kinh mạch máu chi dưới.
+*   **Hình ảnh X-quang:** Đây là phương tiện chẩn đoán xác định. Các em cần chụp ít nhất 3 tư thế: thẳng, nghiêng chuẩn và mộng chày mác (mortise view). Trên phim X-quang, cần đánh giá rõ vị trí đường gãy ở cả mắt cá trong và mắt cá ngoài, mức độ di lệch, tình trạng khớp chày sên và mộng chày mác.
+**2. Tiêu chuẩn lựa chọn bệnh nhân cho phẫu thuật (dựa trên nghiên cứu này và thực hành lâm sàng):**
+*   **Tuổi:** Bệnh nhân trên 18 tuổi. Đây là nhóm tuổi mà xương đã trưởng thành, cấu trúc xương vững chắc, đáp ứng tốt với phẫu thuật.
+*   **Loại gãy:** Gãy kín đơn thuần hai mắt cá chân do chấn thương. Gãy kín giúp giảm nguy cơ nhiễm trùng so với gãy hở.
+*   **Phương pháp điều trị:** Bệnh nhân được điều trị bằng phẫu thuật mở ổ gãy và kết xương bên trong cả mắt cá trong và mắt cá ngoài, có sự hỗ trợ của màn tăng sáng. Điều này đảm bảo nắn chỉnh chính xác và cố định vững chắc.
+*   **Hồ sơ đầy đủ:** Bệnh án, phim chụp trước và sau mổ, theo dõi đầy đủ. Điều này cần thiết cho việc đánh giá kết quả và nghiên cứu.
+*   **Đồng ý tham gia:** Bệnh nhân và gia đình phải đồng ý tham gia quá trình điều trị và nghiên cứu.
+**3. Tiêu chuẩn loại trừ bệnh nhân:**
+*   **Gãy do bệnh lý:** Ví dụ, gãy xương do u xương, loãng xương nặng, hoặc các bệnh lý chuyển hóa ảnh hưởng đến chất lượng xương. Những trường hợp này cần phương pháp điều trị và quản lý riêng biệt.
+*   **Chi thể dị tật:** Cấu trúc giải phẫu bất thường có thể làm phức tạp quá trình phẫu thuật và ảnh hưởng đến kết quả.
+*   **Bệnh thần kinh hoặc mạch máu chi dưới mạn tính:** Các bệnh lý như đái tháo đường biến chứng thần kinh/mạch máu, bệnh động mạch ngoại biên nặng có thể làm chậm quá trình lành vết thương, tăng nguy cơ nhiễm trùng và các biến chứng khác.
+**4. Liên hệ với ICD-10:**
+Việc chẩn đoán chính xác gãy kín hai mắt cá chân cần được mã hóa theo ICD-10 để phục vụ mục đích thống kê, bảo hiểm y tế và nghiên cứu. Đối với gãy xương cổ chân, các em sẽ tìm trong chương S82 - Gãy xương cẳng chân, kể cả cổ chân. Gãy hai mắt cá chân thường được mã hóa bằng các mã chi tiết hơn trong S82.8, ví dụ:
+*   **S82.84-:** Gãy xương mắt cá chân nhiều vị trí (trường hợp gãy hai mắt cá).
+*   **S82.3-:** Gãy xương đầu dưới xương chày (ví dụ: gãy mắt cá trong).
+*   **S82.4-:** Gãy xương đầu dưới xương mác (ví dụ: gãy mắt cá ngoài).
+Việc mã hóa đúng ICD-10 giúp chuẩn hóa dữ liệu, đảm bảo tính khoa học và đáng tin cậy trong hồ sơ bệnh án, đồng thời hỗ trợ quản lý y tế cộng đồng. Chúc các em học tốt!</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị gãy xương vùng cổ chân theo Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn chẩn đoán lâm sàng và cận lâm sàng, cùng với các hướng dẫn điều trị chi tiết cho các loại gãy xương cổ chân, bao gồm gãy hai mắt cá, giúp sinh viên và bác sĩ lâm sàng có cái nhìn toàn diện và áp dụng vào thực hành. Đặc biệt nhấn mạnh tầm quan trọng của phân loại ICD-10 trong việc ghi nhận bệnh án.</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Quản lý gãy xương cổ chân: Từ chẩn đoán đến phục hồi chức năng và mã hóa ICD-10</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các phương pháp chẩn đoán hình ảnh tiên tiến, kỹ thuật phẫu thuật hiện đại (kết hợp xương bên trong), quản lý biến chứng và chương trình phục hồi chức năng toàn diện cho bệnh nhân gãy xương cổ chân. Khóa học cũng sẽ đi sâu vào hướng dẫn mã hóa ICD-10 cho các dạng gãy xương cổ chân, giúp học viên chuẩn hóa hồ sơ bệnh án.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ đào tạo và nâng cao năng lực lâm sàng cho bác sĩ và sinh viên thông qua việc diễn giải các tiêu chuẩn đánh giá kết quả điều trị và chức năng.</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Sau phẫu thuật gãy hai mắt cá chân, làm thế nào để chúng em đánh giá kết quả nắn chỉnh đạt giải phẫu một cách khách quan trên X-quang, và vai trò của thang điểm AOFAS trong việc đánh giá chức năng sau này là gì? Các tiêu chí này có ý nghĩa gì trong việc tiên lượng kết quả điều trị lâu dài?</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Các em thân mến, sau phẫu thuật gãy hai mắt cá chân, việc đánh giá kết quả nắn chỉnh giải phẫu và chức năng là cực kỳ quan trọng để đảm bảo bệnh nhân có thể phục hồi tốt nhất. Đây là những điểm cốt lõi:
+**1. Đánh giá kết quả nắn chỉnh giải phẫu trên X-quang:**
+Mục tiêu chính của phẫu thuật là đạt được nắn chỉnh giải phẫu hoàn hảo nhằm khôi phục lại mối quan hệ bình thường giữa các xương vùng cổ chân, đặc biệt là sự ổn định của mộng chày mác. Các em sẽ sử dụng phim chụp X-quang cổ chân thẳng, nghiêng tiêu chuẩn và phim mộng chày mác sau mổ để đánh giá. Theo tiêu chuẩn của Sara Suedes và cộng sự, nắn chỉnh được coi là đạt giải phẫu khi có đủ 4 tiêu chí sau:
+| Tiêu chí                     | Khoảng đo đạt giải phẫu | Ý nghĩa lâm sàng                                           |
+| :--------------------------- | :---------------------- | :--------------------------------------------------------- |
+| **Góc sên cẳng chân (TCA)**  | 75-86 độ                | Đánh giá sự cân đối và vị trí của xương sên trong mộng chày mác, ảnh hưởng đến phân bố lực khớp. |
+| **Khoảng cách xương sên - mắt cá trong (MCS)** | ≤ 4 mm                  | Đánh giá khoảng trống ở phía trong khớp chày sên, phản ánh sự di lệch của xương sên và mắt cá trong. |
+| **Khoảng chồng lấn giữa xương chày và xương mác (TFO)** | &gt; 6mm (phim thẳng) hoặc &gt; 1mm (phim mộng chày mác) | Đánh giá sự chồng chéo giữa xương chày và xương mác, thể hiện sự ổn định của khớp chày mác dưới. |
+| **Khoảng sáng giữa xương chày và xương mác (TFCS)** | &lt; 6 mm (phim thẳng và mộng chày mác) | Đánh giá khoảng cách giữa xương chày và xương mác, chỉ số quan trọng cho sự toàn vẹn của khớp chày mác dưới. |
+Những tiêu chí này giúp các em đánh giá được mức độ phục hồi giải phẫu của khớp cổ chân, đặc biệt là sự toàn vẹn của mộng chày mác – yếu tố then chốt quyết định chức năng lâu dài của cổ chân.
+**2. Vai trò của thang điểm AOFAS trong đánh giá chức năng:**
+Thang điểm AOFAS (American Orthopaedic Foot &amp; Ankle Society score) là một công cụ đánh giá chức năng cổ bàn chân được sử dụng rộng rãi, đánh giá các yếu tố như:
+*   **Đau (Pain):** Mức độ đau mà bệnh nhân trải nghiệm.
+*   **Chức năng (Function):** Khả năng đi lại, hoạt động hàng ngày, sử dụng giày dép, mức độ khó khăn khi đi trên địa hình không bằng phẳng.
+*   **Sự thẳng hàng (Alignment):** Đánh giá các biến dạng còn lại của cổ chân. 
+**Ý nghĩa của AOFAS:**
+*   Giúp lượng hóa kết quả chức năng chủ quan của bệnh nhân một cách khách quan.
+*   Là một chỉ số quan trọng để so sánh kết quả điều trị giữa các phương pháp, các nghiên cứu và theo dõi sự tiến triển của bệnh nhân theo thời gian.
+*   Điểm AOFAS càng cao cho thấy chức năng cổ bàn chân càng tốt.
+**3. Ý nghĩa trong tiên lượng kết quả điều trị lâu dài:**
+*   **Nắn chỉnh giải phẫu tối ưu:** Nếu các tiêu chí X-quang đạt chuẩn, đặc biệt là sự phục hồi toàn vẹn của mộng chày mác, khả năng phát triển thoái hóa khớp chày sên thứ phát sẽ thấp hơn đáng kể. Điều này mang lại tiên lượng chức năng tốt hơn về lâu dài.
+*   **Chức năng ban đầu tốt:** Điểm AOFAS cao ở giai đoạn đầu và giữa sau phẫu thuật thường là dấu hiệu của sự phục hồi chức năng hiệu quả, giảm thiểu nguy cơ đau mạn tính và hạn chế vận động sau này.
+Nghiên cứu này cũng đã đánh giá liền xương và thoái hóa cổ chân sau mổ ít nhất 6 tháng, cho thấy việc theo dõi lâu dài là cần thiết để có cái nhìn toàn diện về hiệu quả điều trị. Các em cần ghi nhớ rằng, việc kết hợp đánh giá giải phẫu và chức năng sẽ cung cấp bức tranh đầy đủ nhất về hiệu quả điều trị và chất lượng cuộc sống của bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Phẫu thuật gãy xương mắt cá chân: Kỹ thuật và tiêu chuẩn đánh giá kết quả</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Sách chuyên khảo này trình bày sâu về các kỹ thuật phẫu thuật kết hợp xương bên trong cho gãy mắt cá chân, các tiêu chuẩn đánh giá kết quả phẫu thuật theo X-quang và lâm sàng (bao gồm AOFAS), và quản lý các biến chứng, rất hữu ích cho các phẫu thuật viên chỉnh hình và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Cập nhật các kỹ thuật nắn chỉnh và kết hợp xương vùng cổ chân và tiêu chí đánh giá tiên lượng</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào các tiến bộ trong kỹ thuật phẫu thuật, bao gồm sử dụng màn tăng sáng, các phương pháp kết hợp xương hiện đại và các tiêu chuẩn đánh giá kết quả nắn chỉnh tối ưu (như Sara Suedes) nhằm cải thiện chức năng và giảm thiểu biến chứng. Khóa học cũng sẽ hướng dẫn sử dụng thang điểm AOFAS và cách diễn giải các yếu tố tiên lượng dài hạn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên và bác sĩ trẻ trong việc phân tích nghiên cứu và ứng dụng dữ liệu lâm sàng để đưa ra quyết định điều trị dựa trên bằng chứng.</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Nghiên cứu này cung cấp cái nhìn về đặc điểm lâm sàng của nhóm bệnh nhân gãy hai mắt cá chân. Dựa trên dữ liệu, xin chuyên gia phân tích các đặc điểm chung của bệnh nhân, phân loại gãy xương theo Danis-Weber, và thời gian từ khi chấn thương đến khi phẫu thuật. Đồng thời, chuyên gia có thể thảo luận về ý nghĩa của những đặc điểm này trong việc lập kế hoạch điều trị và tiên lượng kết quả?</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Các em cần hiểu rằng việc phân tích đặc điểm chung của nhóm bệnh nhân giúp chúng ta có cái nhìn tổng quan về "chân dung" của những người mắc bệnh, từ đó có thể áp dụng vào thực hành lâm sàng và các nghiên cứu sau này. Dựa vào Bảng 1 của nghiên cứu, chúng ta có thể rút ra một số điểm quan trọng:
+**1. Đặc điểm chung của nhóm nghiên cứu (n=44):**
+*   **Tuổi:** Phần lớn bệnh nhân nằm trong độ tuổi 20-60 (70.5%), điều này phản ánh rằng gãy mắt cá chân thường xảy ra ở nhóm tuổi lao động, những người có hoạt động thể chất cao. Mặc dù vậy, cũng có một tỷ lệ đáng kể bệnh nhân trên 60 tuổi (22.7%), nhóm tuổi này có thể có chất lượng xương kém hơn (loãng xương), cần lưu ý trong quá trình phẫu thuật và hậu phẫu.
+*   **Giới:** Tỷ lệ nam và nữ khá tương đồng (nam 47.7%, nữ 52.3%), cho thấy gãy mắt cá chân không có sự ưu thế rõ rệt về giới tính.
+**2. Phân loại gãy 2 mắt cá theo Danis-Weber:**
+*   **Weber B (56.8%):** Chiếm tỷ lệ cao nhất. Đây là loại gãy xương mác ở mức khớp chày mác dưới, thường đi kèm tổn thương dây chằng delta hoặc gãy mắt cá trong. Gãy Weber B thường không ổn định và cần phẫu thuật.
+*   **Weber C (25.0%):** Chiếm tỷ lệ đáng kể. Gãy xương mác ở trên mức khớp chày mác dưới, luôn kèm theo tổn thương phức hợp dây chằng mộng chày mác và thường không ổn định, đòi hỏi cố định syndesmosis.
+*   **Weber A (18.2%):** Chiếm tỷ lệ thấp nhất. Gãy xương mác dưới mức khớp chày mác dưới, thường ổn định và có thể điều trị bảo tồn nếu không kèm tổn thương mắt cá trong hoặc syndesmosis.
+**Ý nghĩa:** Phân loại Danis-Weber là nền tảng để quyết định phương pháp điều trị. Các gãy Weber B và C thường yêu cầu phẫu thuật để khôi phục giải phẫu và ổn định khớp chày mác dưới, đặc biệt là khi có doãng mộng chày mác (70.5% trong nghiên cứu này).
+**3. Doãng mộng chày mác:**
+*   Tỷ lệ doãng mộng chày mác rất cao (70.5%), điều này nhấn mạnh tầm quan trọng của việc đánh giá và cố định syndesmosis trong phẫu thuật gãy hai mắt cá chân, đặc biệt là trong các trường hợp gãy Weber B và C.
+**4. Thời gian từ khi tai nạn đến khi phẫu thuật:**
+*   Phần lớn bệnh nhân được phẫu thuật trong vòng 1-3 ngày (77.2%). Điều này cho thấy xu hướng can thiệp sớm. Phẫu thuật sớm giúp nắn chỉnh dễ dàng hơn, giảm phù nề và nguy cơ cứng khớp sau này.
+*   Một tỷ lệ nhỏ bệnh nhân được phẫu thuật sau 4-7 ngày hoặc hơn 7 ngày. Các trường hợp này có thể do tình trạng sưng nề nhiều, tổn thương da hoặc các yếu tố bệnh kèm khác cần ổn định trước phẫu thuật.
+**Ý nghĩa trong lập kế hoạch điều trị và tiên lượng:**
+*   **Phân loại Weber** trực tiếp ảnh hưởng đến kỹ thuật phẫu thuật (ví dụ: cần cố định syndesmosis hay không).
+*   **Tuổi bệnh nhân và chất lượng xương** sẽ ảnh hưởng đến loại dụng cụ kết hợp xương và quá trình liền xương.
+*   **Tình trạng doãng mộng chày mác** khẳng định sự cần thiết phải cố định syndesmosis để đảm bảo sự ổn định dài hạn của khớp cổ chân và tránh thoái hóa khớp.
+*   **Thời gian phẫu thuật** có thể ảnh hưởng đến kết quả mềm mại mô mềm, nguy cơ nhiễm trùng và thời gian nằm viện. Can thiệp quá sớm khi sưng nề nhiều có thể tăng nguy cơ biến chứng về da, trong khi trì hoãn quá lâu có thể làm tăng khó khăn trong nắn chỉnh và hình thành xơ hóa.
+Hiểu rõ những đặc điểm này sẽ giúp các em đưa ra quyết định lâm sàng tối ưu, tư vấn cho bệnh nhân một cách chính xác và dự đoán được kết quả điều trị.</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Dịch tễ học, cơ chế chấn thương và phân loại gãy xương mắt cá chân</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng hợp các nghiên cứu về dịch tễ học, cơ chế chấn thương, đặc điểm lâm sàng và các hệ thống phân loại gãy xương mắt cá chân (như Danis-Weber), giúp bác sĩ hiểu rõ hơn về bối cảnh bệnh lý và các yếu tố ảnh hưởng đến quyết định điều trị.</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Phân tích và diễn giải kết quả nghiên cứu lâm sàng trong chấn thương chỉnh hình</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Khóa học này hướng dẫn các bác sĩ trẻ cách đọc hiểu, phân tích các số liệu thống kê trong nghiên cứu lâm sàng, đặc biệt là cách diễn giải các đặc điểm bệnh nhân (tuổi, giới, loại gãy, thời gian phẫu thuật) và kết quả điều trị, từ đó đưa ra quyết định lâm sàng dựa trên bằng chứng và cải thiện kỹ năng nghiên cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt về chấn thương chỉnh hình chi dưới cho bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi tiếp cận một trường hợp gãy hai mắt cá, làm thế nào để phân loại chính xác và xác định thời điểm phẫu thuật tối ưu, đặc biệt khi có tổn thương mộng chày mác? Mã ICD-10 cho loại gãy này là gì?</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng trong thực hành lâm sàng. Gãy hai mắt cá là một tổn thương phức tạp yêu cầu đánh giá kỹ lưỡng để đưa ra kế hoạch điều trị hiệu quả nhất. Dưới đây là các bước tiếp cận và lưu ý dành cho các bác sĩ trẻ và sinh viên y khoa:
+*   **Phân loại Gãy hai mắt cá (ICD-10: S82.84 - Gãy hai mắt cá của xương cẳng chân dưới)**:
+    *   **Phân loại Weber**: Đây là hệ thống phân loại phổ biến nhất dựa trên vị trí đường gãy của xương mác liên quan đến mộng chày mác (syndesmosis):
+        *   **Weber type A**: Đường gãy xương mác nằm dưới mộng chày mác. Thường ổn định, ít khi có tổn thương mộng chày mác. Điều trị có thể bảo tồn hoặc phẫu thuật tùy thuộc vào mức độ di lệch.
+        *   **Weber type B**: Đường gãy xương mác ngang mức mộng chày mác. Đây là loại thường gặp nhất (như nghiên cứu của chúng ta ghi nhận 56,8%). Mức độ ổn định thay đổi, có thể có hoặc không có tổn thương mộng chày mác. Cần đánh giá kỹ sự ổn định của mộng chày mác.
+        *   **Weber type C**: Đường gãy xương mác nằm trên mộng chày mác. Luôn không ổn định và gần như chắc chắn có tổn thương mộng chày mác đi kèm. Thường yêu cầu phẫu thuật.
+    *   **Tổn thương mộng chày mác**: Nghiên cứu chỉ ra tỷ lệ tổn thương mộng chày mác rất cao (70,5%). Đây là yếu tố quyết định sự ổn định của khớp cổ chân. Luôn nghi ngờ và đánh giá sự toàn vẹn của mộng chày mác bằng phim X-quang chuyên biệt (stress view), siêu âm hoặc MRI nếu cần.
+*   **Xác định thời điểm phẫu thuật tối ưu**:
+    *   **Ưu tiên phẫu thuật sớm (trong vòng 3 ngày)**: Như nghiên cứu đã chỉ ra, 88,6% bệnh nhân được mổ trong 3 ngày đầu. Đây là lý tưởng khi tình trạng phần mềm cho phép (không sưng nề, phỏng nước, bầm dập nặng). Phẫu thuật sớm giúp phục hồi giải phẫu tốt hơn và giảm nguy cơ biến chứng.
+    *   **Phẫu thuật muộn hơn**: Chỉ định khi:
+        *   Bệnh nhân có tổn thương phối hợp cần ưu tiên điều trị ổn định trước.
+        *   Phần mềm vùng cổ chân sưng nề nhiều, có phỏng nước, bầm dập nặng. Trong trường hợp này, cần gác cao chân, chườm lạnh, dùng thuốc giảm sưng nề và đợi phần mềm ổn định (dấu hiệu nhăn da) rồi mới phẫu thuật để tránh biến chứng nhiễm trùng, hoại tử vạt da.
+        *   Cá biệt các trường hợp điều trị ban đầu sai cách (ví dụ bó thuốc nam) khiến bệnh nhân đến viện muộn, phần mềm đã có biến đổi hoặc có biến chứng loạn dưỡng.
+Việc đánh giá kỹ lưỡng tình trạng gãy xương, đặc biệt là phân loại Weber và mức độ tổn thương mộng chày mác, cùng với tình trạng phần mềm, sẽ giúp bạn đưa ra quyết định thời điểm phẫu thuật phù hợp nhất, đảm bảo kết quả tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Sách giáo trình Chấn thương chỉnh hình chi dưới - Đại học Y Hà Nội</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Tài liệu cơ bản cung cấp kiến thức nền tảng về giải phẫu, sinh lý, bệnh lý và nguyên tắc điều trị các chấn thương xương khớp chi dưới, rất hữu ích cho sinh viên y khoa và bác sĩ mới ra trường.</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Phẫu thuật gãy cổ chân phức tạp và kỹ thuật kết hợp xương</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về các phương pháp phẫu thuật hiện đại cho gãy cổ chân, bao gồm kỹ thuật kết hợp xương, xử lý tổn thương mộng chày mác, và quản lý các trường hợp khó, giúp nâng cao kỹ năng thực hành lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, đóng vai trò trợ lý học thuật, tư vấn các phương pháp đánh giá và cải thiện kết quả điều trị trong chấn thương chỉnh hình cho bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Làm thế nào để đánh giá một cách toàn diện và khách quan kết quả phục hồi giải phẫu và chức năng sau phẫu thuật gãy hai mắt cá, nhằm tối ưu hóa tiên lượng và giảm thiểu biến chứng lâu dài?</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Để đánh giá toàn diện kết quả sau phẫu thuật gãy hai mắt cá, bạn cần kết hợp cả tiêu chí giải phẫu (dựa trên hình ảnh học) và tiêu chí chức năng (dựa trên thang điểm và thăm khám lâm sàng). Điều này cực kỳ quan trọng để đảm bảo phục hồi tối ưu và phát hiện sớm các vấn đề tiềm ẩn.
+*   **Đánh giá phục hồi giải phẫu (qua X-quang)**:
+    *   Nghiên cứu của chúng ta sử dụng bộ 4 tiêu chuẩn của Sara Suedes và cộng sự, đây là một cách tiếp cận khắt khe. Các tiêu chuẩn này thường bao gồm:
+        *   Phục hồi chiều dài và độ xoay của xương mác.
+        *   Phục hồi mộng chày mác (đảm bảo khoảng cách chày mác rõ, độ chồng chéo chày mác bình thường).
+        *   Sự vững chắc của khớp chày sên (talus) trong mắt cá (ankle mortise).
+        *   Không còn di lệch xương hoặc hở khớp.
+    *   **Lưu ý**: Ngay cả khi xương được phục hồi tốt, mối quan hệ giải phẫu của khớp cổ chân có thể chưa hoàn hảo do tổn thương dây chằng và bao khớp. Tuy nhiên, phục hồi giải phẫu xương là **điều kiện tiên quyết**.
+    *   **Kết quả X-quang sau 6 tháng**: Như bảng dưới đây, cho thấy sự liền xương (bone union) là 100%, nhưng thoái hóa cổ chân vẫn xuất hiện ở 11,4% bệnh nhân. Điều này nhấn mạnh rằng dù xương đã liền, các yếu tố khác vẫn có thể dẫn đến thoái hóa khớp.
+| Tiêu chí đánh giá X-quang | Số BN | Tỷ lệ % |
+| :---------------------- | :---- | :------ |
+| Liền xương               | 44    | 100     |
+| Thoái hóa cổ chân         | 5     | 11,4    |
+*   **Đánh giá chức năng cổ bàn chân (Thang điểm AOFAS)**:
+    *   Thang điểm AOFAS (American Orthopaedic Foot &amp; Ankle Society) là công cụ được quốc tế công nhận để đánh giá chức năng của cổ chân và bàn chân. Điểm càng cao càng thể hiện chức năng tốt.
+    *   **Phân loại kết quả**: Nghiên cứu đã phân loại như sau:
+        *   **Tốt**: 91-100 điểm (45,5% bệnh nhân).
+        *   **Khá**: 76-90 điểm (50,0% bệnh nhân).
+        *   **Trung bình**: 50-75 điểm (4,5% bệnh nhân).
+        *   **Kém**: &lt; 50 điểm (0% bệnh nhân).
+    *   Điểm trung bình AOFAS của nghiên cứu là 91,5±6,4 (Min-Max: 72-100), cho thấy hầu hết bệnh nhân đạt được kết quả chức năng tốt hoặc khá.
+**Lời khuyên cho bác sĩ và sinh viên:**
+1.  **Chụp X-quang kiểm tra định kỳ**: Đánh giá không chỉ sự liền xương mà còn là sự cân đối của khớp, các dấu hiệu sớm của thoái hóa khớp (ví dụ: hẹp khe khớp, gai xương).
+2.  **Sử dụng thang điểm chức năng chuẩn hóa**: Luôn áp dụng các thang điểm như AOFAS trong quá trình theo dõi bệnh nhân. Điều này giúp định lượng hóa kết quả, so sánh với các nghiên cứu khác và theo dõi tiến triển của từng bệnh nhân.
+3.  **Tập trung vào phục hồi chức năng**: Dù kết quả giải phẫu tốt, việc tập vật lý trị liệu, phục hồi chức năng sau mổ là tối quan trọng để đạt được kết quả chức năng tối đa và giảm nguy cơ thoái hóa khớp về lâu dài. Hãy giáo dục bệnh nhân về tầm quan trọng của việc tuân thủ phác đồ phục hồi chức năng.
+4.  **Lưu ý đến tổn thương phần mềm**: Nhớ rằng tổn thương dây chằng và bao khớp đóng vai trò quan trọng trong sự ổn định và chức năng của khớp cổ chân, ngay cả khi xương đã được nắn chỉnh tốt. Theo dõi các triệu chứng của sự không ổn định hoặc đau kéo dài liên quan đến phần mềm.</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị gãy xương cổ chân của Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thức cung cấp các tiêu chuẩn chẩn đoán, phác đồ điều trị và hướng dẫn theo dõi bệnh nhân gãy xương cổ chân, bao gồm các tiêu chí đánh giá kết quả theo chuẩn quốc gia.</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Cập nhật kỹ thuật kết hợp xương và phục hồi chức năng sau gãy cổ chân</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào các phương pháp kết hợp xương tiên tiến và chiến lược phục hồi chức năng tích cực, toàn diện sau phẫu thuật gãy cổ chân, giúp bác sĩ tối ưu hóa kết quả và giảm thiểu biến chứng cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ bác sĩ và sinh viên y khoa trong việc lý giải tiên lượng, quản lý biến chứng và tư vấn bệnh nhân sau chấn thương chỉnh hình.</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã chỉ ra rằng gãy hai mắt cá là một tổn thương khó và việc phục hồi mối quan hệ giải phẫu hoàn hảo không đơn giản. Vậy, các biến chứng lâu dài nào có thể xảy ra và làm thế nào để giảm thiểu chúng?</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Đúng như nghiên cứu đã nêu, gãy hai mắt cá là một tổn thương phức tạp, và ngay cả với phẫu thuật, việc phục hồi hoàn hảo giải phẫu khớp cổ chân vẫn là một thách thức. Điều này dẫn đến nguy cơ cao mắc các biến chứng lâu dài nếu không được quản lý đúng cách. Các bác sĩ và sinh viên y khoa cần lưu ý các điểm sau:
+*   **Các biến chứng lâu dài thường gặp (ICD-10 liên quan)**:
+    *   **Thoái hóa khớp cổ chân sau chấn thương (Post-traumatic osteoarthritis - ICD-10: M19.90, M19.07 - thoái hóa khớp cổ chân)**: Đây là biến chứng phổ biến nhất, như nghiên cứu đã ghi nhận 11,4% bệnh nhân bị thoái hóa cổ chân sau 6 tháng. Nguyên nhân chính là do phục hồi giải phẫu không hoàn hảo, tổn thương sụn khớp ban đầu, hoặc di lệch nhỏ còn sót lại. Sự không ổn định hoặc mất cân đối của khớp, ngay cả ở mức độ vi mô, cũng có thể dẫn đến thoái hóa.
+    *   **Khớp giả (Non-union - ICD-10: T93.2 - Di chứng gãy xương)**: Xương không liền sau thời gian dự kiến. Mặc dù nghiên cứu của chúng ta ghi nhận 100% liền xương, đây vẫn là một biến chứng tiềm tàng cần lưu ý.
+    *   **Khớp lệch (Malunion - ICD-10: T93.2 - Di chứng gãy xương)**: Xương liền nhưng ở tư thế giải phẫu không chính xác (ví dụ: xoay, gập góc). Khớp lệch có thể dẫn đến thay đổi cơ sinh học của khớp, gây đau, hạn chế vận động và tăng tốc độ thoái hóa khớp.
+    *   **Đau mạn tính**: Có thể do viêm khớp, tổn thương dây thần kinh, hoặc do các vấn đề liên quan đến phần mềm và bao khớp.
+    *   **Hạn chế vận động khớp**: Do sẹo, cứng khớp, hoặc thay đổi cấu trúc xương.
+*   **Cách giảm thiểu biến chứng lâu dài và quản lý hiệu quả**:
+    1.  **Phục hồi giải phẫu tối đa**: Mặc dù khó đạt được hoàn hảo, mục tiêu của phẫu thuật luôn là phục hồi giải phẫu xương gần như nguyên vẹn nhất. Điều này bao gồm căn chỉnh trục xương, chiều dài, độ xoay và quan trọng nhất là phục hồi hoàn toàn mộng chày mác. Đây là 'điều kiện tiên quyết' cho một kết quả lâu dài tốt.
+    2.  **Đánh giá kỹ lưỡng tổn thương phần mềm**: Luôn nhớ rằng bên cạnh xương, dây chằng và bao khớp cũng đóng vai trò then chốt. Tổn thương những cấu trúc này có thể làm mất đi mối quan hệ giải phẫu bình thường. Trong một số trường hợp, cần xem xét sửa chữa các dây chằng bị tổn thương đáng kể.
+    3.  **Chương trình phục hồi chức năng tích cực**: Bắt đầu sớm và duy trì đúng phác đồ. Tập vật lý trị liệu giúp phục hồi biên độ vận động, sức mạnh cơ bắp và sự ổn định của khớp, từ đó giảm nguy cơ cứng khớp và thoái hóa sớm.
+    4.  **Theo dõi lâm sàng và X-quang định kỳ**: Sau phẫu thuật, bệnh nhân cần được tái khám định kỳ để đánh giá sự liền xương, phục hồi chức năng và phát hiện sớm các dấu hiệu thoái hóa khớp hoặc các biến chứng khác. Giáo dục bệnh nhân về các dấu hiệu cần chú ý.
+    5.  **Tư vấn bệnh nhân**: Giải thích rõ ràng về bản chất của tổn thương gãy hai mắt cá, quá trình điều trị, tiên lượng và các biến chứng có thể xảy ra. Hướng dẫn bệnh nhân về lối sống, hoạt động thể chất và việc tuân thủ các chỉ định y tế để bảo vệ khớp cổ chân về lâu dài.
+Bằng cách thực hiện các bước trên một cách cẩn thận và toàn diện, bạn có thể giúp bệnh nhân có được kết quả tốt nhất và đối phó hiệu quả với các biến chứng tiềm tàng.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Tạp chí Chấn thương chỉnh hình quốc tế (International Journal of Orthopedic Trauma)</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Nơi tổng hợp các nghiên cứu lâm sàng và kỹ thuật mới nhất trong lĩnh vực chấn thương chỉnh hình toàn cầu, giúp cập nhật kiến thức về các phương pháp điều trị và quản lý biến chứng gãy xương.</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Quản lý di chứng sau chấn thương khớp: Từ phục hồi chức năng đến phẫu thuật sửa chữa</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức toàn diện về các di chứng sau chấn thương khớp, bao gồm chẩn đoán, các lựa chọn điều trị (từ vật lý trị liệu bảo tồn đến phẫu thuật chỉnh hình phức tạp) và cách tư vấn bệnh nhân để cải thiện chất lượng cuộc sống.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh điều trị gãy xương hai mắt cá, sinh viên y khoa và bác sĩ trẻ cần lưu ý điều gì về nguy cơ thoái hóa khớp cổ chân sau chấn thương và cách tiếp cận để giảm thiểu biến chứng này?</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên y khoa và bác sĩ trẻ thân mến, khi xử lý các trường hợp gãy xương hai mắt cá chân, việc nhận thức và chủ động phòng ngừa thoái hóa khớp cổ chân (Post-Traumatic Osteoarthritis - PTOA) là vô cùng quan trọng. Nghiên cứu chỉ ra rằng, ngay cả sau phẫu thuật, tỷ lệ bệnh nhân bị thoái hóa khớp vẫn khá cao (11.4% trong nghiên cứu này) và thường xảy ra sớm. Điều này nhấn mạnh tầm quan trọng của các yếu tố sau:
+*   **Nắn chỉnh giải phẫu hoàn hảo:** Đây là nguyên tắc vàng. Gãy xương phạm khớp như gãy hai mắt cá đòi hỏi phải nắn chỉnh bề mặt khớp về vị trí giải phẫu gần như hoàn hảo. Nếu có sai lệch dù nhỏ, đặc biệt là các tiêu chuẩn giải phẫu không đạt (như trường hợp 5 bệnh nhân trong bài có 2-4 tiêu chuẩn giải phẫu không đạt và đều bị thoái hóa khớp), sẽ làm tăng áp lực không đều lên sụn khớp và đẩy nhanh quá trình thoái hóa. Điều này đặc biệt liên quan đến mã ICD-10 cho thoái hóa khớp thứ phát, ví dụ M19.17 (thoái hóa khớp sau chấn thương khác, vùng cổ chân và bàn chân).
+*   **Cố định vững chắc:** Sau nắn chỉnh, việc cố định xương phải đủ vững để cho phép vận động sớm và phòng tránh di lệch thứ phát, đồng thời đảm bảo liền xương tốt. Vùng mắt cá là xương xốp, dễ liền, nhưng sự vững chắc của kết hợp xương là yếu tố then chốt để duy trì nắn chỉnh và phân bố lực sinh lý.
+*   **Phục hồi chức năng sớm và hợp lý:** Hướng dẫn bệnh nhân thực hiện các bài tập vật lý trị liệu sớm, phù hợp để duy trì biên độ vận động khớp và sức mạnh cơ bắp xung quanh là cần thiết. Tuy nhiên, phải đảm bảo không gây quá tải cho khớp đang trong quá trình lành thương.
+*   **Theo dõi dài hạn:** Thoái hóa khớp có thể tiến triển âm thầm. Do đó, cần có kế hoạch theo dõi bệnh nhân định kỳ trong thời gian dài (ít nhất 12 tháng, nhưng khuyến nghị lâu hơn) để phát hiện sớm các dấu hiệu thoái hóa và can thiệp kịp thời.
+Tóm lại, để giảm thiểu nguy cơ thoái hóa khớp cổ chân sau gãy xương hai mắt cá, các bạn cần tập trung vào kỹ thuật phẫu thuật tỉ mỉ, đảm bảo nắn chỉnh giải phẫu chính xác và cố định vững chắc, kết hợp với chiến lược phục hồi chức năng chu đáo và theo dõi sát sao.</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Skeletal Trauma, 6th Edition, Chapter 66: Malleolar Fractures and Soft Tissue Injuries of the Ankle</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức chuyên sâu về chấn thương xương và mô mềm vùng mắt cá chân, bao gồm cơ chế, phân loại, kỹ thuật phẫu thuật và quản lý biến chứng như thoái hóa khớp sau chấn thương. Đây là nguồn tham khảo thiết yếu cho bác sĩ phẫu thuật chấn thương chỉnh hình và sinh viên muốn tìm hiểu sâu về chủ đề này.</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Phẫu thuật kết hợp xương gãy mắt cá chân: Cập nhật kỹ thuật và quản lý biến chứng</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các kỹ thuật phẫu thuật hiện đại trong điều trị gãy xương mắt cá chân, đặc biệt là gãy hai mắt cá, giúp nâng cao kỹ năng nắn chỉnh giải phẫu và kết hợp xương, từ đó giảm thiểu nguy cơ thoái hóa khớp sau chấn thương. Bao gồm thảo luận ca lâm sàng, các phương pháp mới nhất và cập nhật hướng dẫn điều trị để tối ưu hóa kết quả lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Thang điểm AOFAS được sử dụng như thế nào để đánh giá kết quả chức năng sau phẫu thuật gãy xương hai mắt cá, và những yếu tố nào ảnh hưởng đến điểm số này, đặc biệt đối với bác sĩ trẻ và sinh viên y khoa?</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Chào các bạn đồng nghiệp trẻ, việc đánh giá kết quả sau phẫu thuật là một phần không thể thiếu trong thực hành lâm sàng và nghiên cứu khoa học. Đối với gãy xương cổ chân, **Thang điểm AOFAS (American Orthopaedic Foot and Ankle Society Score)** là một công cụ được công nhận rộng rãi để lượng giá chức năng của khớp cổ chân và bàn chân.
+**1. AOFAS đánh giá những gì?**
+Thang điểm AOFAS cho cổ chân và bàn chân sau (hindfoot-ankle) bao gồm tổng cộng 100 điểm, được chia thành các phần chính:
+*   **Đau (Pain):** 40 điểm (Mức độ đau của bệnh nhân)
+*   **Chức năng (Function):** 50 điểm (Bao gồm khả năng đi lại, khoảng cách đi bộ, dạng đi, hoạt động hàng ngày và khả năng vận động của khớp).
+*   **Độ thẳng hàng (Alignment):** 10 điểm (Đánh giá sự thẳng trục của khớp).
+**2. Ứng dụng trong thực hành:**
+Việc sử dụng AOFAS giúp chúng ta có một cái nhìn khách quan và định lượng về mức độ hồi phục của bệnh nhân. Như trong đoạn văn, nghiên cứu của chúng tôi đạt điểm trung bình là 91.5 ± 6.4 điểm, với 95.5% kết quả tốt và khá. Các nghiên cứu khác cũng cho thấy kết quả tương đồng, khẳng định hiệu quả cao của phẫu thuật.
+Để giúp các bạn sinh viên y khoa và bác sĩ trẻ hình dung rõ hơn, dưới đây là bảng so sánh kết quả AOFAS từ nghiên cứu của chúng tôi và các nghiên cứu khác được trích dẫn trong bài:
+| Nghiên cứu | Số lượng BN | Điểm AOFAS Trung bình | Tỷ lệ Tốt/Khá (%)
+| :---------- | :----------: | :--------------------: | :---------------: |
+| Nghiên cứu của chúng tôi | 44 | 91.5 ± 6.4 | 95.5 |
+| Karande và cộng sự (Ấn Độ) | 36 | Không rõ | 86.2 (Tốt và Rất tốt) |
+| Nguyễn Điện Thành Hiệp (BV 108) | 34 | 91.79 | 94.1 (Tốt và Khá) |
+| Phan Văn Hậu (BV Đại học Y Hà Nội) | 40 | 92.8 ± 6.5 | 95 (Tốt và Rất tốt) |
+**3. Các yếu tố ảnh hưởng đến điểm AOFAS:**
+*   **Chất lượng nắn chỉnh giải phẫu:** Nắn chỉnh càng chính xác, bề mặt khớp càng phẳng, điểm AOFAS càng cao. Các trường hợp "tiêu chuẩn giải phẫu không đạt" thường liên quan trực tiếp đến kết quả chức năng kém hơn và nguy cơ thoái hóa khớp cao hơn.
+*   **Sự vững chắc của kết hợp xương:** Giúp duy trì nắn chỉnh và cho phép phục hồi chức năng sớm.
+*   **Tình trạng mô mềm:** Chấn thương mô mềm nghiêm trọng có thể làm chậm quá trình lành thương và ảnh hưởng đến kết quả cuối cùng.
+*   **Chương trình phục hồi chức năng:** Phục hồi chức năng đúng cách, kiên trì sẽ tối đa hóa khả năng hồi phục chức năng của bệnh nhân.
+*   **Biến chứng:** Các biến chứng như nhiễm trùng, không liền xương (dù hiếm ở vùng mắt cá như bài báo đề cập), hoặc thoái hóa khớp cổ chân (ICD-10: M19.17) sẽ làm giảm đáng kể điểm AOFAS.
+*   **Yếu tố bệnh nhân:** Tuổi tác, bệnh nền, sự tuân thủ điều trị của bệnh nhân cũng ảnh hưởng đến kết quả.
+Việc hiểu rõ cách sử dụng và các yếu tố ảnh hưởng đến AOFAS giúp các bạn không chỉ đánh giá bệnh nhân chính xác hơn mà còn định hướng cho các chiến lược điều trị và phục hồi chức năng cá nhân hóa, nhằm đạt được kết quả tốt nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Outcomes after unstable fractures of the ankle: what's new? A systematic review.</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Tổng quan hệ thống này cung cấp cái nhìn toàn diện về các kết quả sau chấn thương mắt cá chân không vững, bao gồm các phương pháp đánh giá chức năng như thang điểm AOFAS, giúp bác sĩ hiểu rõ hơn về tiêu chuẩn và kết quả điều trị hiện tại, cũng như các yếu tố mới ảnh hưởng đến tiên lượng.</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Thang đo kết quả lâm sàng trong phẫu thuật chấn thương chỉnh hình chi dưới</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ hướng dẫn cách áp dụng và diễn giải các thang đo kết quả chức năng phổ biến như AOFAS trong phẫu thuật chấn thương chỉnh hình chi dưới. Giúp bác sĩ chuẩn hóa việc đánh giá và theo dõi bệnh nhân, từ đó cải thiện chất lượng nghiên cứu và thực hành lâm sàng, đặc biệt trong việc chuẩn bị báo cáo khoa học và đánh giá hiệu quả can thiệp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Phẫu thuật mở nắn chỉnh ổ gãy và kết hợp xương bên trong (ORIF) được xem là phương pháp tối ưu cho gãy kín hai mắt cá chân di lệch và mất vững. Sinh viên và bác sĩ trẻ cần nắm vững những chỉ định và nguyên tắc quan trọng nào khi lựa chọn và thực hiện phương pháp này?</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ cần hiểu rõ rằng phẫu thuật mở nắn chỉnh ổ gãy và kết hợp xương bên trong (Open Reduction Internal Fixation - ORIF) đã được khẳng định là phương pháp tối ưu cho gãy kín hai mắt cá chân có di lệch và mất vững. Đây không chỉ là một kết luận từ nghiên cứu mà còn là tiêu chuẩn thực hành lâm sàng hiện nay, lý giải cho việc chỉ định phẫu thuật ngày càng mở rộng và điều trị bảo tồn ngày càng thu hẹp.
+**1. Chỉ định quan trọng cho ORIF trong gãy xương hai mắt cá chân (ICD-10: S82.8):**
+*   **Gãy di lệch:** Bất kỳ loại gãy hai mắt cá chân nào có di lệch đáng kể (trên 2mm) của diện khớp hoặc trục xương.
+*   **Mất vững khớp cổ chân:** Đây là yếu tố then chốt. Ngay cả khi di lệch có vẻ tối thiểu, nếu khớp cổ chân mất vững (ví dụ, do tổn thương dây chằng delta kèm theo gãy mắt cá ngoài), ORIF là cần thiết để tái tạo sự ổn định.
+*   **Không đạt nắn chỉnh kín:** Nếu nắn chỉnh kín thất bại trong việc đạt được sự sắp xếp giải phẫu chấp nhận được.
+*   **Gãy xương hở:** Mặc dù bài viết tập trung vào gãy kín, nhưng gãy hở luôn là chỉ định cấp cứu cho ORIF để kiểm soát nhiễm trùng và nắn chỉnh.
+**2. Nguyên tắc quan trọng khi thực hiện ORIF:**
+*   **Lập kế hoạch trước mổ kỹ lưỡng:**
+    *   **Đánh giá hình ảnh:** Chụp X-quang nhiều tư thế, có thể cần CT scan để đánh giá chi tiết mức độ gãy, di lệch diện khớp, và tổn thương sụn. Điều này giúp xác định mã ICD-10 chính xác cho loại gãy xương (ví dụ: S82.5 Gãy mắt cá trong, S82.6 Gãy mắt cá ngoài).
+    *   **Đánh giá mô mềm:** Tình trạng sưng nề, phồng rộp da cần được kiểm soát trước khi mổ để giảm thiểu nguy cơ biến chứng.
+*   **Kỹ thuật phẫu thuật tỉ mỉ:**
+    *   **Đường mổ thích hợp:** Đảm bảo bộc lộ tốt ổ gãy mà không làm tổn thương thêm mô mềm.
+    *   **Nắn chỉnh giải phẫu chính xác:** Đây là bước quan trọng nhất. Phải tái tạo lại diện khớp và trục xương về trạng thái giải phẫu ban đầu càng gần càng tốt. Sai lệch dù nhỏ cũng có thể dẫn đến thoái hóa khớp sớm.
+    *   **Cố định vững chắc:** Sử dụng các phương tiện kết hợp xương phù hợp (nẹp vít, đinh, chỉ thép) để đạt được sự vững chắc tuyệt đối, cho phép vận động sớm.
+    *   **Bảo tồn mô mềm:** Hạn chế tối đa bóc tách, tránh làm tổn thương nguồn cấp máu cho xương.
+*   **Quản lý sau mổ toàn diện:**
+    *   **Chăm sóc vết mổ:** Kiểm soát nhiễm trùng.
+    *   **Phục hồi chức năng:** Bắt đầu sớm với các bài tập vận động thụ động, sau đó tăng dần lên vận động chủ động và chịu lực theo phác đồ cụ thể của từng loại gãy và phương tiện kết hợp xương.
+Với vai trò là một bác sĩ trẻ, việc nắm vững những nguyên tắc này không chỉ giúp bạn thực hiện phẫu thuật thành công mà còn đảm bảo kết quả chức năng lâu dài tốt nhất cho bệnh nhân, phòng tránh các biến chứng như thoái hóa khớp cổ chân (M19.17) mà bài viết đã nhấn mạnh.</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Bimalleolar Ankle Fractures</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp tổng quan toàn diện về gãy xương hai mắt cá chân, từ phân loại, cơ chế chấn thương, đến các phương pháp chẩn đoán và điều trị (bao gồm ORIF). Đây là nguồn tham khảo cơ bản giúp sinh viên và bác sĩ trẻ nắm vững kiến thức nền tảng về chủ đề này, đặc biệt về chỉ định và kỹ thuật phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Kỹ thuật kết hợp xương nâng cao trong điều trị gãy xương chi dưới</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu này trang bị kiến thức và kỹ năng về các kỹ thuật kết hợp xương nâng cao, bao gồm lựa chọn vật liệu, nguyên tắc sinh cơ học và xử lý các tình huống phức tạp trong phẫu thuật gãy xương chi dưới, đặc biệt là các gãy phạm khớp như gãy hai mắt cá. Khóa học sẽ giúp học viên tự tin hơn trong việc đưa ra quyết định lâm sàng và thực hiện phẫu thuật.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, nghiên cứu này cho thấy kết quả điều trị bảo tồn gãy kín đầu trên xương cánh tay khá tích cực. Vậy, khi nào thì chúng ta nên ưu tiên điều trị bảo tồn và những yếu tố nào cần cân nhắc để đạt được kết quả tốt nhất, đặc biệt đối với các bác sĩ trẻ mới vào nghề?</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng trong thực hành lâm sàng, đặc biệt với các bác sĩ trẻ khi đứng trước một ca gãy đầu trên xương cánh tay (ICD-10: S42.2). Kết quả của nghiên cứu tại Bệnh viện Hữu Nghị Việt Đức đã củng cố vai trò của điều trị bảo tồn.
+Để quyết định ưu tiên điều trị bảo tồn, các bạn cần cân nhắc kỹ lưỡng các yếu tố sau:
+*   **Phân loại gãy xương và mức độ di lệch:**
+    *   **Gãy xương ít di lệch (Minimally displaced fractures):** Đây là nhóm bệnh nhân lý tưởng cho điều trị bảo tồn. Mức độ di lệch thường được đánh giá bằng phân loại Neer hoặc AO, với các tiêu chí cụ thể về góc gập, xoay và chồng khớp. Các bạn cần phải đọc và nắm vững các tiêu chuẩn này.
+    *   **Gãy không di lệch:** Chắc chắn là chỉ định bảo tồn.
+*   **Tình trạng tổng thể của người bệnh:**
+    *   **Tuổi tác và mức độ hoạt động:** Nghiên cứu chỉ ra kết quả tích cực ở người lớn tuổi. Ở bệnh nhân cao tuổi, đặc biệt là có bệnh nền đi kèm, điều trị phẫu thuật có thể tiềm ẩn nhiều rủi ro hơn. Mục tiêu của điều trị bảo tồn ở nhóm này thường là giảm đau và duy trì chức năng cơ bản.
+    *   **Các bệnh lý kèm theo:** Bệnh nhân có nguy cơ cao khi phẫu thuật (tim mạch, hô hấp nặng, tiểu đường không kiểm soát tốt) thường được ưu tiên điều trị bảo tồn.
+*   **Cơ chế chấn thương:** Chấn thương năng lượng thấp thường gây ra các loại gãy ổn định hơn, thích hợp cho bảo tồn.
+*   **Khả năng hợp tác của bệnh nhân:** Bệnh nhân cần tuân thủ chế độ bất động, tập phục hồi chức năng sau đó.
+**Kinh nghiệm rút ra từ nghiên cứu:**
+Nghiên cứu này cho thấy 68,4% bệnh nhân đạt mức độ liền xương trung bình và 89,5% đạt chức năng khớp vai tốt đến rất tốt, đặc biệt ở bệnh nhân gãy ít di lệch và người lớn tuổi. Điều này nhấn mạnh rằng điều trị bảo tồn hoàn toàn có thể mang lại kết quả chức năng chấp nhận được nếu bệnh nhân được lựa chọn đúng và theo dõi sát sao.
+**Lời khuyên cho các bác sĩ trẻ:**
+1.  **Chẩn đoán chính xác:** Luôn bắt đầu bằng việc đánh giá kỹ lưỡng phim X-quang (ít nhất 2 bình diện), đôi khi cần CT scan để đánh giá chi tiết mức độ di lệch và tổn thương kèm theo.
+2.  **Đánh giá toàn diện bệnh nhân:** Không chỉ nhìn vào xương gãy mà phải đánh giá tổng thể sức khỏe bệnh nhân, các bệnh lý nền, và kỳ vọng của họ.
+3.  **Thảo luận với bệnh nhân/gia đình:** Giải thích rõ ràng về phương pháp điều trị, thời gian phục hồi, các biến chứng tiềm ẩn của cả điều trị bảo tồn và phẫu thuật.
+4.  **Tuân thủ phác đồ:** Áp dụng các phác đồ bất động và phục hồi chức năng chuẩn.
+5.  **Theo dõi sát sao:** Tái khám định kỳ để đánh giá mức độ liền xương (sử dụng thang điểm RUSH) và chức năng khớp vai (thang điểm Constant), điều chỉnh kế hoạch nếu cần.
+Việc nắm vững các tiêu chí này sẽ giúp các bạn tự tin hơn trong việc đưa ra quyết định lâm sàng tối ưu cho từng bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Phác đồ chẩn đoán và điều trị gãy đầu trên xương cánh tay (ICD-10: S42.2) của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp hướng dẫn chi tiết về phân loại, chẩn đoán, và các lựa chọn điều trị cho gãy đầu trên xương cánh tay, bao gồm cả điều trị bảo tồn và phẫu thuật, giúp các bác sĩ trẻ và sinh viên y khoa xây dựng nền tảng kiến thức vững chắc theo chuẩn quốc gia.</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Quản lý gãy xương chi trên: Từ lý thuyết đến thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các chiến lược quản lý gãy xương chi trên, bao gồm gãy đầu trên xương cánh tay, với các bài giảng chuyên sâu về chỉ định điều trị bảo tồn và phẫu thuật, kỹ thuật bất động, và các chương trình phục hồi chức năng hiệu quả, hướng dẫn thực hành cho các bác sĩ trẻ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Nghiên cứu chỉ ra rằng bệnh nhân cao tuổi và nữ giới chiếm tỷ lệ đáng kể trong nhóm gãy đầu trên xương cánh tay. Chuyên gia có thể giải thích vì sao nhóm đối tượng này lại dễ bị tổn thương hơn và những đặc điểm này ảnh hưởng như thế nào đến chiến lược điều trị và phục hồi chức năng của chúng ta?</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Đây là một nhận xét rất sắc bén từ dữ liệu nghiên cứu, và nó phản ánh đúng thực trạng lâm sàng của gãy đầu trên xương cánh tay (ICD-10: S42.2).
+**1. Vì sao người cao tuổi và nữ giới dễ bị tổn thương hơn?**
+*   **Loãng xương:** Đây là yếu tố nguy cơ hàng đầu, đặc biệt ở người cao tuổi và phụ nữ sau mãn kinh. Loãng xương làm giảm mật độ xương, khiến xương trở nên giòn và dễ gãy ngay cả với chấn thương năng lượng thấp (như ngã thông thường). Phụ nữ sau mãn kinh mất estrogen, một hormone có vai trò bảo vệ xương, đẩy nhanh quá trình loãng xương.
+*   **Cơ chế té ngã:** Người cao tuổi thường có nguy cơ té ngã cao hơn do các yếu tố như giảm thị lực, suy giảm thăng bằng, yếu cơ, các bệnh lý thần kinh hoặc tim mạch (ví dụ: tụt huyết áp tư thế). Gãy đầu trên xương cánh tay thường xảy ra khi té ngã và chống tay xuống đất.
+*   **Tỷ lệ Nữ giới cao:** Nghiên cứu cho thấy nữ giới chiếm 71,93% trong nhóm nghiên cứu, cao hơn đáng kể so với nam giới (28,07%). Điều này phù hợp với dịch tễ học chung của loãng xương và gãy xương do loãng xương, nơi phụ nữ có nguy cơ cao hơn nam giới.
+**2. Ảnh hưởng đến chiến lược điều trị và phục hồi chức năng:**
+Việc nhận biết các đặc điểm dịch tễ này là cực kỳ quan trọng đối với các bác sĩ trẻ, vì nó định hình cách chúng ta tiếp cận bệnh nhân:
+*   **Đánh giá toàn diện:** Đối với bệnh nhân cao tuổi, đặc biệt là nữ giới, chúng ta không chỉ điều trị gãy xương mà còn phải đánh giá và quản lý các yếu tố nguy cơ kèm theo như loãng xương, nguy cơ té ngã.
+    *   **Quản lý loãng xương:** Xem xét bổ sung canxi, vitamin D, và thuốc chống loãng xương (nếu cần) để phòng ngừa gãy xương tái phát.
+    *   **Phục hồi chức năng:** Chương trình phục hồi chức năng cần cá nhân hóa, chú trọng vào cải thiện thăng bằng, sức mạnh cơ bắp và môi trường sống an toàn để giảm nguy cơ té ngã.
+*   **Ưu tiên điều trị bảo tồn:** Như nghiên cứu đã chỉ ra, điều trị bảo tồn thường cho kết quả tích cực ở người lớn tuổi, đặc biệt là các trường hợp gãy ít di lệch. Điều này giúp tránh được các nguy cơ liên quan đến phẫu thuật ở nhóm bệnh nhân có nhiều bệnh nền.
+*   **Tâm lý và xã hội:** Người cao tuổi có thể gặp khó khăn hơn trong việc thích nghi với bất động và phục hồi chức năng. Các bạn cần phải kiên nhẫn, hỗ trợ tâm lý và huy động sự giúp đỡ từ gia đình.
+*   **Theo dõi lâu dài:** Do nguy cơ tái gãy và các vấn đề liên quan đến loãng xương, việc theo dõi định kỳ là cần thiết.
+**Tóm tắt đặc điểm bệnh nhân trong nghiên cứu:**
+| Đặc điểm         | Tỷ lệ (%) | Nhận xét ảnh hưởng đến điều trị                       |
+| :--------------- | :-------- | :---------------------------------------------------- |
+| Nữ giới          | 71,93     | Nguy cơ loãng xương cao, cần quản lý loãng xương.    |
+| Nam giới         | 28,07     | Có thể liên quan đến chấn thương năng lượng cao hơn. |
+| Hưu trí (Tuổi cao) | 54,4      | Ưu tiên điều trị bảo tồn, phục hồi chức năng toàn diện. |
+| Tuổi trung bình  | 65,87     | Nhấn mạnh yếu tố lão hóa và bệnh nền.                |
+Hiểu rõ những đặc điểm này sẽ giúp các bạn đưa ra quyết định điều trị và tư vấn phục hồi chức năng một cách toàn diện và hiệu quả hơn cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị loãng xương của Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn chẩn đoán, phương pháp dự phòng và các lựa chọn điều trị loãng xương, một yếu tố nguy cơ chính gây gãy xương ở người cao tuổi, đặc biệt là phụ nữ, rất hữu ích cho các bác sĩ trong việc quản lý bệnh nhân gãy xương.</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Chăm sóc chấn thương chỉnh hình ở người cao tuổi.</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp kiến thức chuyên sâu về đặc điểm sinh lý, bệnh lý của người cao tuổi trong bối cảnh chấn thương chỉnh hình, bao gồm các phương pháp điều trị, quản lý biến chứng và phục hồi chức năng đặc thù cho nhóm đối tượng này, giúp nâng cao năng lực cho các bác sĩ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã sử dụng thang điểm RUSH và thang điểm Constant để đánh giá kết quả. Chuyên gia có thể giải thích chi tiết hơn về cách sử dụng và ý nghĩa của các thang điểm này trong việc theo dõi tiến trình liền xương và phục hồi chức năng khớp vai đối với gãy đầu trên xương cánh tay không?</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Việc sử dụng các thang điểm đánh giá khách quan là cốt lõi trong nghiên cứu khoa học và cũng là một công cụ lâm sàng không thể thiếu, đặc biệt trong chuyên ngành chỉnh hình. Nghiên cứu này đã dùng thang điểm RUSH và Constant, đây là hai công cụ rất phổ biến và hữu ích.
+**1. Thang điểm RUSH (Radiographic Union Score for Humeral Fractures):**
+*   **Mục đích:** Đánh giá mức độ liền xương trên phim X-quang đối với gãy xương cánh tay, bao gồm gãy đầu trên xương cánh tay (ICD-10: S42.2).
+*   **Cách sử dụng:** Thang điểm RUSH đánh giá 4 vùng vỏ xương (cortex) của xương gãy (trước, sau, trong, ngoài) trên hai mặt phẳng (thường là thẳng và nghiêng). Mỗi vùng được chấm điểm từ 0 đến 3 dựa trên mức độ hình thành xương callus và sự liên tục của vỏ xương:
+    *   0 điểm: Không có callus.
+    *   1 điểm: Callus hình thành nhưng không nối liền vỏ xương.
+    *   2 điểm: Callus nối liền vỏ xương, nhưng không hoàn toàn (chưa lấp đầy hoàn toàn khe gãy).
+    *   3 điểm: Callus lấp đầy hoàn toàn và có sự tạo xương vỏ liên tục.
+*   **Ý nghĩa:**
+    *   Tổng điểm tối đa là 12 (4 vùng x 3 điểm).
+    *   Nghiên cứu phân loại: Tốt (9-12 điểm), Trung bình (6-8 điểm), Kém (&lt;6 điểm).
+    *   Điểm RUSH giúp bác sĩ, đặc biệt là các bạn sinh viên và bác sĩ trẻ, theo dõi khách quan tiến trình liền xương. Nó cung cấp một cái nhìn định lượng, giảm tính chủ quan so với việc chỉ nhìn phim X-quang thông thường.
+    *   Việc theo dõi RUSH định kỳ giúp phát hiện sớm các trường hợp chậm liền hoặc không liền xương, từ đó có thể điều chỉnh kế hoạch điều trị kịp thời.
+**2. Thang điểm Constant (Constant-Murley Score):**
+*   **Mục đích:** Đánh giá chức năng tổng thể của khớp vai, bao gồm mức độ đau, hoạt động hàng ngày, tầm vận động và sức mạnh. Đây là một trong những thang điểm đánh giá chức năng khớp vai được sử dụng rộng rãi nhất trên thế giới.
+*   **Cách sử dụng:** Thang điểm Constant có tổng điểm tối đa 100, được chia thành 4 phần chính:
+    *   **Đau (Pain):** 15 điểm (0-15 điểm, từ đau nặng đến không đau).
+    *   **Hoạt động hàng ngày (Activities of Daily Living - ADL):** 20 điểm (dựa trên mức độ ảnh hưởng đến các hoạt động như ngủ, làm việc, giải trí).
+    *   **Tầm vận động (Range of Motion - ROM):** 40 điểm (đánh giá gấp, dang, xoay ngoài, xoay trong).
+    *   **Sức mạnh (Strength):** 25 điểm (đo bằng dynamometer, hoặc đánh giá chủ quan).
+*   **Ý nghĩa:**
+    *   Điểm Constant cung cấp một cái nhìn toàn diện về kết quả chức năng của khớp vai sau chấn thương hoặc phẫu thuật.
+    *   Nghiên cứu này đã sử dụng nó để đánh giá mức độ phục hồi chức năng và thấy rằng 89,5% bệnh nhân đạt kết quả tốt và rất tốt, với 80,7% không còn đau. Điều này cho thấy điều trị bảo tồn có thể mang lại chất lượng cuộc sống tốt cho bệnh nhân.
+    *   Đối với các bác sĩ, việc áp dụng thang điểm Constant giúp theo dõi hiệu quả của các can thiệp phục hồi chức năng và so sánh kết quả giữa các phương pháp điều trị hoặc giữa các nghiên cứu khác nhau.
+**Lời khuyên cho các bác sĩ trẻ và sinh viên y khoa:**
+*   **Học cách sử dụng chuẩn:** Đảm bảo các bạn hiểu rõ cách tính điểm và tiêu chí cho từng phần của thang điểm. Thực hành trên lâm sàng với các bác sĩ có kinh nghiệm.
+*   **Ứng dụng trong theo dõi:** Sử dụng các thang điểm này không chỉ trong nghiên cứu mà còn trong theo dõi bệnh nhân hàng ngày để có cái nhìn khách quan về tiến trình hồi phục và điều chỉnh kế hoạch điều trị nếu cần.
+*   **Tầm quan trọng của việc ghi chép:** Ghi chép điểm số một cách cẩn thận giúp theo dõi sự thay đổi theo thời gian và đánh giá hiệu quả điều trị.</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Sổ tay đánh giá kết quả lâm sàng trong chấn thương chỉnh hình.</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Tài liệu này tập hợp và hướng dẫn chi tiết về các thang điểm đánh giá lâm sàng phổ biến như RUSH và Constant, giúp các bác sĩ hiểu rõ cách sử dụng, ý nghĩa và ứng dụng trong nghiên cứu cũng như thực hành lâm sàng hằng ngày, đảm bảo việc đánh giá kết quả điều trị một cách khách quan.</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Kỹ năng đánh giá chức năng và kết quả điều trị trong phục hồi chức năng chỉnh hình.</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Khóa học CME này trang bị cho người học những kỹ năng cần thiết để đánh giá toàn diện chức năng vận động và kết quả điều trị ở bệnh nhân chỉnh hình, bao gồm việc áp dụng các thang điểm chuẩn hóa như RUSH và Constant, nhằm tối ưu hóa kế hoạch điều trị và phục hồi chức năng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr"/>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận bệnh nhân nghi ngờ gãy phức hợp gò má cung tiếp do tai nạn giao thông, sinh viên và bác sĩ trẻ cần chú ý những triệu chứng lâm sàng nào để chẩn đoán sơ bộ và làm gì để không bỏ sót các tổn thương phối hợp?</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng trong thực hành lâm sàng. Khi đối mặt với một trường hợp nghi ngờ gãy phức hợp gò má cung tiếp (GMCT), đặc biệt là do tai nạn giao thông, việc đánh giá toàn diện là chìa khóa để chẩn đoán chính xác và xử trí kịp thời các tổn thương phối hợp nguy hiểm.
+**1. Các triệu chứng lâm sàng cần chú ý (Dựa trên nghiên cứu tại Bệnh viện Việt Đức):**
+*   **Đau chói tại điểm gãy (92,8%):** Luôn hỏi bệnh nhân về vị trí đau và mức độ đau. Đây là dấu hiệu thường gặp nhất.
+*   **Sưng nề phần mềm (91,8%):** Quan sát và sờ nắn vùng mặt bị chấn thương. Sưng nề có thể che lấp các dấu hiệu khác.
+*   **Bầm tím quanh hốc mắt (90,8%):** Còn gọi là dấu hiệu "kính râm" (raccoon eyes) nếu bầm tím lan rộng hai bên. Dấu hiệu này gợi ý chấn thương vùng mặt giữa và có thể liên quan đến nền sọ.
+*   **Gián đoạn xương (82,6%):** Khám kỹ bằng cách sờ nắn dọc theo bờ xương gò má, cung tiếp. Cảm nhận gián đoạn hoặc lạo xạo xương có thể cung cấp bằng chứng trực tiếp về gãy xương.
+*   **Lõm bẹt gò má (69,5%):** So sánh hai bên khuôn mặt để phát hiện sự biến dạng. Bệnh nhân có thể tự nhận thấy hoặc người nhà phát hiện.
+**2. Làm gì để không bỏ sót các tổn thương phối hợp:**
+*   **Đánh giá toàn thân theo quy trình ATLS (Advanced Trauma Life Support):** Luôn ưu tiên đánh giá đường thở, hô hấp, tuần hoàn, thần kinh và bộc lộ toàn thân để tìm kiếm các tổn thương đe dọa tính mạng trước.
+*   **Khai thác tiền sử kỹ lưỡng:** Hỏi về cơ chế chấn thương (ví dụ: đập mặt vào vô lăng, ngã đập mặt), tình trạng bất tỉnh, các triệu chứng khác ngoài vùng mặt (đau đầu, đau ngực, khó thở, yếu liệt chi...). 
+*   **Khám lâm sàng toàn diện:**
+    *   **Thần kinh:** Đánh giá tri giác (Glasgow Coma Scale - GCS), đồng tử, dấu hiệu thần kinh khu trú để sớm phát hiện Chấn thương sọ não (TBI), vì tỷ lệ phối hợp lên tới 36,1%.
+    *   **Mắt:** Đánh giá thị lực, vận nhãn, song thị. Gãy GMCT có thể ảnh hưởng đến hốc mắt và gây tổn thương mắt.
+    *   **Hàm mặt:** Ngoài các dấu hiệu trên, kiểm tra khớp cắn, vận động hàm dưới, cảm giác vùng mặt (nhánh thần kinh dưới ổ mắt).
+    *   **Vết thương vùng mặt (57,7%):** Đánh giá mức độ, độ sâu, có dị vật hay không để xử lý kịp thời.
+    *   **Xương hàm trên (36,1%):** Sờ nắn và kiểm tra độ vững của xương hàm trên.
+    *   **Xoang (93,1%):** Bệnh nhân có thể có chảy máu mũi hoặc dấu hiệu viêm xoang sau chấn thương.
+    *   **Các cơ quan khác:** Kiểm tra kỹ Chấn thương chi (24,3%), ngực (6,9%), bụng (2,3%), cột sống (1,6%). Không được bỏ qua các tổn thương này chỉ vì tập trung vào vùng mặt.
+*   **Chỉ định cận lâm sàng hợp lý:** Chụp CT scanner vùng mặt là tiêu chuẩn vàng (100% trong nghiên cứu) để đánh giá gãy GMCT và các tổn thương phối hợp vùng mặt. Tùy theo tình trạng và các nghi ngờ lâm sàng, có thể cần thêm CT sọ não, X-quang cột sống, ngực, siêu âm bụng...</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị chấn thương hàm mặt của Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các phác đồ và hướng dẫn chi tiết về chẩn đoán, phân loại và xử trí các loại chấn thương hàm mặt thường gặp tại Việt Nam, bao gồm gãy phức hợp gò má cung tiếp, giúp sinh viên và bác sĩ trẻ nắm vững kiến thức cơ bản và nâng cao.</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Khóa học "Quản lý cấp cứu đa chấn thương và chấn thương hàm mặt"</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào tiếp cận toàn diện bệnh nhân đa chấn thương, đặc biệt là các trường hợp có chấn thương hàm mặt. Nội dung bao gồm đánh giá ban đầu theo ATLS, chẩn đoán hình ảnh, nguyên tắc xử trí cấp cứu và lập kế hoạch điều trị dứt điểm, rất phù hợp cho bác sĩ trẻ và sinh viên y khoa muốn nâng cao kỹ năng lâm sàng trong môi trường cấp cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr"/>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Khi xem phim CT scanner của bệnh nhân gãy phức hợp gò má cung tiếp, sinh viên và bác sĩ cần tập trung vào những đặc điểm nào và làm thế nào để phân loại gãy xương một cách chính xác theo Knight – North, đồng thời phát hiện các tổn thương phối hợp liên quan đến xoang?</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Chào các bạn, việc đọc phim CT scanner là một kỹ năng thiết yếu trong chẩn đoán chấn thương hàm mặt. Đối với gãy phức hợp gò má cung tiếp (GMCT), CT scanner cung cấp thông tin chi tiết về xương và các cấu trúc lân cận.
+**1. Các đặc điểm cần tập trung khi đọc phim CT scanner:**
+*   **Hình thái xương gò má:** Quan sát toàn bộ thân xương gò má, cung tiếp, mỏm trán xương gò má, mỏm thái dương xương gò má, mỏm ổ mắt xương gò má. Tìm kiếm các đường gãy, di lệch, mảnh xương rời.
+*   **Thành ổ mắt:** Đặc biệt chú ý thành dưới và thành ngoài ổ mắt, vì gãy GMCT thường liên quan đến sàn ổ mắt (blow-out fracture).
+*   **Xoang hàm trên (Maxillary sinus):** Gần 93,1% trường hợp có tổn thương xoang. Tìm kiếm dấu hiệu vỡ thành xoang, chảy máu trong xoang (mức dịch khí), hoặc dày niêm mạc xoang.
+*   **Khớp thái dương hàm:** Đảm bảo không có tổn thương khớp hoặc sự di lệch ảnh hưởng đến khớp cắn.
+*   **Vùng khớp nối:** Kiểm tra các khớp nối quan trọng như khớp gò má – trán, gò má – thái dương, gò má – hàm trên.
+**2. Phân loại gãy xương GMCT theo Knight – North:**
+Hệ thống phân loại Knight – North là một công cụ hữu ích để mô tả và định hướng điều trị, dựa trên mức độ di lệch và xoay của thân xương gò má. Đây là các loại gãy xương theo nghiên cứu tại Bệnh viện Việt Đức:
+| Loại Gãy (Knight – North)           | Tỷ lệ (%) (Nghiên cứu Việt Đức) | Đặc điểm chính cần nhận diện trên CT |
+| :---------------------------------- | :------------------------------ | :---------------------------------- |
+| Gãy xương cung tiếp đơn thuần       | 3,9                             | Chỉ gãy cung tiếp, thân xương gò má ổn định. |
+| Gãy xương GMCT không di lệch        | 2,3                             | Có đường gãy nhưng các mảnh xương vẫn ở vị trí giải phẫu. |
+| Gãy thân xương gò má không xoay     | 29,2                            | Thân xương gò má gãy nhưng không có sự xoay đáng kể. |
+| Gãy thân xương gò má xoay ra ngoài  | 23,6                            | Thân xương gò má bị xoay ra phía ngoài. |
+| Gãy thân xương gò má xoay vào trong | 28,5                            | Thân xương gò má bị xoay vào phía trong. |
+| Gãy xương GMCT phức tạp             | 12,5                            | Nhiều mảnh gãy, di lệch nặng, liên quan nhiều cấu trúc. |
+Để phân loại chính xác, cần xem xét trên nhiều mặt cắt (axial, coronal, sagittal) và hình ảnh 3D tái tạo nếu có. Đánh giá cẩn thận hướng di lệch và xoay của thân xương gò má so với vị trí giải phẫu bình thường.
+**3. Phát hiện tổn thương phối hợp liên quan đến xoang:**
+*   **Mức dịch khí (Fluid-air level):** Đây là dấu hiệu cổ điển của máu hoặc dịch trong xoang do vỡ thành xoang.
+*   **Dày niêm mạc xoang:** Có thể là phản ứng viêm do chấn thương hoặc nhiễm trùng thứ phát.
+*   **Vỡ thành xoang:** Quan sát các đường vỡ trên thành trước, thành sau, thành trong, thành ngoài của xoang hàm trên.
+*   **Tổn thương xương vách ngăn mũi:** Liên quan đến sự lan rộng của chấn thương.
+Việc luyện tập đọc phim thường xuyên với các trường hợp lâm sàng đa dạng và thảo luận với các bác sĩ chẩn đoán hình ảnh giàu kinh nghiệm sẽ giúp các bạn nâng cao kỹ năng này.</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Atlas Giải phẫu X-quang Đầu mặt cổ</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Cuốn atlas này cung cấp hình ảnh giải phẫu chi tiết của vùng đầu mặt cổ trên các phương tiện chẩn đoán hình ảnh như X-quang, CT, MRI, là tài liệu vô cùng quý giá giúp sinh viên và bác sĩ nhận diện các cấu trúc bình thường và bệnh lý, đặc biệt là các loại gãy xương vùng hàm mặt.</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Hội thảo chuyên đề "Chẩn đoán hình ảnh trong chấn thương hàm mặt"</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Hội thảo này cung cấp cái nhìn sâu sắc về các phương pháp chẩn đoán hình ảnh hiện đại (CT, Cone Beam CT) trong đánh giá chấn thương hàm mặt, bao gồm kỹ thuật chụp, đọc và phân tích hình ảnh các loại gãy xương, từ đó giúp bác sĩ đưa ra quyết định điều trị chính xác và hiệu quả.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr"/>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Dựa trên các đặc điểm dịch tễ và lâm sàng của gãy phức hợp gò má cung tiếp được nêu trong bài viết, bác sĩ và sinh viên y khoa cần lưu ý những nguyên tắc quản lý ban đầu nào và làm thế nào để tư vấn phòng ngừa hiệu quả cho cộng đồng?</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Đây là một câu hỏi rất thực tế, không chỉ liên quan đến điều trị mà còn đến y tế công cộng. Hiểu rõ đặc điểm dịch tễ giúp chúng ta không chỉ điều trị mà còn phòng ngừa hiệu quả.
+**1. Nguyên tắc quản lý ban đầu đối với bệnh nhân gãy phức hợp gò má cung tiếp:**
+*   **Ưu tiên cấp cứu theo ATLS:**
+    *   **Đường thở (Airway):** Đảm bảo đường thở thông thoáng, đặc biệt nếu có chấn thương vùng mặt nặng, chảy máu, sưng nề hoặc tổn thương hàm dưới, hàm trên. Có thể cần đặt nội khí quản sớm.
+    *   **Hô hấp (Breathing):** Đánh giá và xử trí các tổn thương ngực phối hợp (6,9%).
+    *   **Tuần hoàn (Circulation):** Kiểm soát chảy máu, bù dịch nếu có sốc.
+    *   **Thần kinh (Disability):** Đánh giá nhanh tình trạng thần kinh (GCS, đồng tử) để phát hiện Chấn thương sọ não (36,1%) – một trong những tổn thương phối hợp nguy hiểm nhất.
+    *   **Bộc lộ (Exposure):** Bộc lộ toàn thân để tìm các tổn thương khác (chấn thương chi 24,3%, chấn thương bụng 2,3%, cột sống 1,6%).
+*   **Kiểm soát đau:** Giảm đau bằng thuốc giảm đau phù hợp, giúp bệnh nhân thoải mái và dễ hợp tác hơn.
+*   **Cầm máu và vệ sinh vết thương:** Nếu có vết thương vùng mặt (57,7%), cần cầm máu ban đầu và làm sạch vết thương để tránh nhiễm trùng.
+*   **Cố định tạm thời (nếu cần):** Đối với gãy xương hàm mặt, đôi khi cần cố định tạm thời để giảm đau và ngăn ngừa di lệch thêm.
+*   **Chẩn đoán hình ảnh:** Sau khi bệnh nhân ổn định, chụp CT scanner vùng mặt là bắt buộc (100% trong nghiên cứu) để xác định chính xác vị trí, mức độ gãy và các tổn thương phối hợp.
+*   **Hội chẩn chuyên khoa:** Phối hợp với các chuyên khoa khác như Phẫu thuật Hàm Mặt, Chấn thương chỉnh hình, Ngoại thần kinh, Mắt, Tai Mũi Họng tùy thuộc vào các tổn thương phối hợp.
+**2. Tư vấn phòng ngừa hiệu quả cho cộng đồng (Dựa trên dịch tễ học):**
+*   **Nhận diện đối tượng nguy cơ:** Nam giới trẻ tuổi (16-30 tuổi) là đối tượng chủ yếu, nguyên nhân hàng đầu là tai nạn giao thông (94,8%).
+*   **Tập trung vào an toàn giao thông:**
+    *   **Tuyên truyền và giáo dục:** Nâng cao ý thức tuân thủ luật giao thông, nguy cơ của việc lái xe khi say rượu bia. Tai nạn giao thông do lạm dụng rượu bia là nguyên nhân chính.
+    *   **Sử dụng phương tiện bảo hộ:** Luôn đội mũ bảo hiểm chất lượng khi đi xe máy, thắt dây an toàn khi đi ô tô.
+    *   **Cải thiện hạ tầng giao thông:** Góp phần giảm thiểu tai nạn.
+*   **Giảm thiểu lạm dụng rượu bia:** Tổ chức các chiến dịch truyền thông về tác hại của rượu bia và lái xe.
+*   **Chương trình giáo dục về chấn thương:** Các buổi nói chuyện tại trường học, khu dân cư về phòng ngừa chấn thương nói chung và chấn thương hàm mặt nói riêng.
+*   **Vai trò của y tế cơ sở:** Cán bộ y tế cơ sở có thể là những người đầu tiên tiếp cận và truyền tải thông tin phòng ngừa đến cộng đồng.
+Việc tích hợp kiến thức lâm sàng và y tế công cộng sẽ giúp các bạn trở thành những bác sĩ không chỉ giỏi điều trị mà còn có trách nhiệm với sức khỏe cộng đồng.</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Quy trình xử trí chấn thương vùng mặt theo ICD-10</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp mã hóa ICD-10 cho các loại chấn thương vùng mặt, bao gồm gãy gò má, cùng với các nguyên tắc xử trí cấp cứu và phẫu thuật, giúp bác sĩ thực hiện đúng quy trình chuyên môn và chuẩn hóa hồ sơ bệnh án.</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Khóa học "Phòng ngừa chấn thương và an toàn giao thông"</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>Khóa học này trang bị cho cán bộ y tế kiến thức về dịch tễ học chấn thương, các yếu tố nguy cơ và chiến lược phòng ngừa hiệu quả, đặc biệt tập trung vào an toàn giao thông và giảm thiểu tai nạn do rượu bia. Đây là khóa học thiết yếu cho những ai quan tâm đến y tế công cộng và vai trò phòng ngừa của người thầy thuốc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, xin hãy giải thích về gãy phức hợp gò má – cung tiếp, các dấu hiệu lâm sàng và phương pháp chẩn đoán ban đầu để tôi có thể tiếp cận bệnh nhân một cách hiệu quả nhất?</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Chào bạn, gãy phức hợp gò má – cung tiếp (GMCT) là một trong những loại chấn thương vùng mặt phổ biến nhất, chiếm tỷ lệ cao trên 40% so với các gãy xương vùng mặt khác. Để tiếp cận bệnh nhân một cách hiệu quả, bạn cần nắm vững các đặc điểm sau:
+*   **Giới thiệu về Gãy Phức Hợp Gò Má – Cung Tiếp (GMCT)**:
+    *   Đây là chấn thương có thể gây ảnh hưởng nghiêm trọng đến chức năng và thẩm mỹ khuôn mặt. Nghiên cứu tại Bệnh viện Việt Đức (2021-2022) chỉ ra rằng tai nạn giao thông là nguyên nhân hàng đầu (94,8%), và nhóm tuổi từ 16-30 chiếm tỷ lệ cao nhất (60,7%).
+    *   Đối với việc mã hóa ICD-10, gãy xương gò má và xương hàm trên thường được phân loại trong nhóm **S02.4 - Fracture of zygoma and maxilla**. Trong trường hợp đa chấn thương, bạn cần mã hóa từng chấn thương riêng biệt theo nguyên tắc mã hóa đa chấn thương.
+*   **Đặc điểm lâm sàng quan trọng cần nhận biết**: Khi thăm khám, hãy tập trung vào các dấu hiệu sau:
+    *   **Sưng nề phần mềm (91,8%) và Đau chói tại điểm gãy (92,8%)**: Đây là hai dấu hiệu gần như luôn hiện diện. Cần hỏi kỹ bệnh nhân về cơ chế chấn thương và vị trí đau cụ thể.
+    *   **Bầm tím quanh mắt (90,8%)**: Thường được gọi là dấu hiệu "raccoon eyes" (mắt gấu trúc), gợi ý chấn thương vùng hốc mắt và xương gò má. Đây là dấu hiệu cần được lưu ý đặc biệt, đôi khi có thể che lấp các tổn thương mắt nghiêm trọng hơn.
+    *   **Mất liên tục bờ dưới ổ mắt (82,6%)**: Dấu hiệu này đòi hỏi thăm khám cẩn thận bằng cách sờ nắn nhẹ nhàng dọc theo bờ xương ổ mắt để phát hiện các vị trí mất liên tục hoặc bậc thang xương. Điều này có thể gợi ý gãy xương sàn ổ mắt.
+    *   **Lõm bẹt gò má (69,5%)**: Quan sát đối xứng hai bên mặt là rất quan trọng. Dấu hiệu này cho thấy sự di lệch đáng kể của khối gò má, gây mất đối xứng khuôn mặt.
+    *   Các dấu hiệu ít gặp hơn như hạn chế há miệng (do chèn ép cơ cắn hoặc gãy lan vào khớp thái dương hàm), chảy máu mũi (chấn thương xoang hàm), và các vết thương phần mềm phối hợp cũng cần được đánh giá kỹ lưỡng để không bỏ sót tổn thương.
+*   **Chẩn đoán hình ảnh ban đầu**: 
+    *   **X-quang**: Đây là phương pháp chẩn đoán ban đầu quan trọng. Các tư thế X-quang như Blondeau (Waters view), Hirtz (submentovertex view), hoặc Towne's view có thể cung cấp cái nhìn tổng thể về sự di lệch của gò má và cung tiếp. Tuy nhiên, độ nhạy và độ đặc hiệu của X-quang thường không cao bằng CT.
+    *   **CT scan (Cắt lớp vi tính)**: Trong thực hành lâm sàng hiện đại, đặc biệt với chấn thương vùng mặt phức tạp, CT scan (cắt lát axial, coronal, sagittal) là tiêu chuẩn vàng để đánh giá chi tiết mức độ gãy, di lệch, tổn thương phần mềm và các xoang liên quan. CT scan còn giúp đánh giá các tổn thương hốc mắt, sàn ổ mắt, và các gãy xương phối hợp một cách chính xác nhất.
+**Lời khuyên cho bác sĩ trẻ**: Luôn tiếp cận bệnh nhân chấn thương theo nguyên tắc ABCDE (Airway, Breathing, Circulation, Disability, Exposure) của hồi sức chấn thương trước khi tập trung vào các chấn thương cụ thể. Một đánh giá toàn diện, không bỏ sót tổn thương là chìa khóa để đảm bảo an toàn cho bệnh nhân và lập kế hoạch điều trị chính xác.</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Bài Giảng Phẫu Thuật Hàm Mặt: Chấn Thương Vùng Mặt và Gãy Xương Gò Má</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức nền tảng về giải phẫu, sinh lý bệnh, cơ chế chấn thương, phân loại và nguyên tắc điều trị các loại gãy xương vùng mặt, đặc biệt là gãy phức hợp gò má - cung tiếp. Rất hữu ích cho sinh viên y khoa và bác sĩ trẻ trong việc hệ thống hóa kiến thức và chuẩn bị cho các ca lâm sàng thực tế.</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Cập Nhật Chẩn Đoán và Xử Trí Gãy Xương Vùng Mặt</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các phương pháp chẩn đoán hình ảnh tiên tiến, kỹ thuật phẫu thuật hiện đại và quản lý biến chứng trong điều trị gãy xương vùng mặt. Khóa học sẽ trang bị kiến thức chuyên sâu và kinh nghiệm thực tế, giúp nâng cao kỹ năng lâm sàng cho bác sĩ phẫu thuật hàm mặt trong việc quản lý các trường hợp phức tạp theo chuẩn quốc tế và Bộ Y tế Việt Nam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Chuyên gia có thể giải thích chi tiết về phân loại gãy xương gò má – cung tiếp theo Knight – North và các tổn thương vùng mặt thường đi kèm không? Điều này giúp tôi trong việc lập kế hoạch điều trị toàn diện cho bệnh nhân đa chấn thương.</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Để lập kế hoạch điều trị toàn diện cho bệnh nhân gãy phức hợp gò má – cung tiếp (GMCT), đặc biệt là trong bối cảnh đa chấn thương, việc hiểu rõ phân loại gãy xương và các tổn thương phối hợp là vô cùng quan trọng. 
+*   **Phân loại gãy xương gò má – cung tiếp theo Knight – North**:
+    Hệ thống phân loại này giúp mô tả mức độ và kiểu di lệch của khối gò má, từ đó định hướng cho kế hoạch điều trị. Dựa trên nghiên cứu tại Bệnh viện Việt Đức, chúng ta có thể thấy sự phân bố các loại gãy như sau:
+    | Phân loại Gãy Xương theo Knight – North | Tỷ lệ (%) | Mô tả lâm sàng/ý nghĩa | Mã ICD-10 (gợi ý) |
+    | :------------------------------------- | :-------- | :-------------------- | :--------------- |
+    | Gãy cung tiếp đơn thuần                | 3,9%      | Chỉ liên quan đến cung tiếp, thường ít di lệch. | S02.40 |
+    | Gãy xương gò má cung tiếp không di lệch | 2,3%      | Gãy nhưng các mảnh xương vẫn giữ nguyên vị trí, thường điều trị bảo tồn. | S02.41 |
+    | Gãy thân xương gò má không xoay        | 29,2%     | Phổ biến nhất, thân xương gò má gãy không xoay đáng kể. | S02.42 |
+    | Gãy thân xương gò má xoay ra ngoài     | 23,6%     | Thân xương gò má gãy và xoay ra phía ngoài. | S02.43 |
+    | Gãy thân xương gò má xoay vào trong     | 28,5%     | Thân xương gò má gãy và xoay vào phía trong, có thể ảnh hưởng đến hốc mắt. | S02.44 |
+    | Gãy xương gò má cung tiếp phức tạp     | 12,5%     | Nhiều đường gãy, di lệch nặng, mảnh rời, đòi hỏi phẫu thuật phức tạp. | S02.45 |
+    *Lưu ý: Các mã ICD-10 trên là gợi ý dựa trên đặc điểm gãy. Việc mã hóa chính xác cần dựa vào tài liệu ICD-10 phiên bản hiện hành và thông tin chi tiết trong bệnh án.* 
+*   **Các tổn thương vùng mặt phối hợp thường gặp**:
+    Khi tiếp cận bệnh nhân gãy GMCT, đặc biệt là trong bối cảnh đa chấn thương, việc tìm kiếm các tổn thương phối hợp là vô cùng quan trọng để đảm bảo không bỏ sót và lập kế hoạch điều trị toàn diện. Nghiên cứu cho thấy:
+    *   **Tổn thương xoang (93,1%)**: Rất phổ biến, thường là xoang hàm. Có thể gây chảy máu mũi, tắc nghẽn dẫn lưu xoang, và có nguy cơ nhiễm trùng xoang cấp hoặc mạn tính. Mã hóa ICD-10 cho chấn thương xoang thường nằm trong các mã liên quan đến gãy xương vùng mặt (ví dụ: S02.2 cho gãy xương hàm trên có thể bao gồm tổn thương xoang hàm).
+    *   **Vết thương vùng mặt (57,7%)**: Cần đánh giá kỹ lưỡng về độ sâu, mức độ nhiễm bẩn, tổn thương các cấu trúc bên dưới (thần kinh, mạch máu, ống tuyến nước bọt). Làm sạch, xử lý và đóng vết thương đúng cách là cần thiết để tránh nhiễm trùng và cải thiện kết quả thẩm mỹ. Mã ICD-10: S01 (Vết thương hở ở đầu).
+    *   **Gãy xương hàm trên (36,1%) và Gãy xương hàm dưới (19%)**: Đây là những gãy xương quan trọng, có thể ảnh hưởng đến khớp cắn, chức năng ăn nhai và thẩm mỹ. Cần được chẩn đoán và xử lý phù hợp. Mã hóa ICD-10: **S02.2** cho gãy xương hàm trên và **S02.6** cho gãy xương hàm dưới.
+    *   **Gãy xương chính mũi (24,3%)**: Ảnh hưởng đến thẩm mỹ khuôn mặt và chức năng hô hấp (tắc nghẽn đường mũi). Mã ICD-10: S02.20 (Fracture of nasal bones).
+    *   **Chấn thương mắt (10,5%)**: Tuy không quá phổ biến nhưng rất nghiêm trọng, có thể gây giảm thị lực hoặc mù lòa vĩnh viễn. Cần thăm khám bởi chuyên khoa mắt ngay lập tức để đánh giá tổn thương nhãn cầu, dây thần kinh thị giác hoặc các cấu trúc quanh mắt. Mã hóa ICD-10: **S05** (Chấn thương mắt và hốc mắt).
+    *   **Tổn thương thần kinh VII (1,0%)**: Dù hiếm gặp, tổn thương dây thần kinh mặt có thể gây liệt mặt, ảnh hưởng nghiêm trọng đến chức năng biểu cảm và thẩm mỹ. Cần đánh giá chức năng thần kinh mặt kỹ lưỡng. Mã hóa ICD-10: **S04.5** (Chấn thương thần kinh mặt).
+**Lời khuyên cho bác sĩ trẻ**: Luôn duy trì một tư duy hệ thống khi khám bệnh nhân chấn thương. Đừng chỉ tập trung vào một tổn thương mà bỏ sót các tổn thương phối hợp. Sự phối hợp đa chuyên khoa (phẫu thuật hàm mặt, mắt, tai mũi họng, thần kinh, hồi sức cấp cứu) là thiết yếu để đạt được kết quả điều trị tối ưu và giảm thiểu biến chứng lâu dài cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Maxillofacial Trauma and Esthetic Facial Reconstruction</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Cuốn sách chuyên khảo này cung cấp cái nhìn toàn diện về phân loại, chẩn đoán hình ảnh và các kỹ thuật phẫu thuật hiện đại trong tái tạo khuôn mặt sau chấn thương, đặc biệt hữu ích cho các ca gãy phức hợp và đa chấn thương. Đây là tài liệu quý giá để trau dồi kiến thức chuyên sâu về quản lý chấn thương hàm mặt.</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Phân Tích Chẩn Đoán Hình Ảnh Trong Chấn Thương Hàm Mặt</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Khóa học CME này đào tạo sâu về cách đọc và phân tích các phim X-quang, CT scan, MRI trong chẩn đoán các loại gãy xương hàm mặt và các tổn thương mềm kèm theo. Khóa học sẽ giúp bác sĩ nâng cao khả năng phát hiện và đánh giá tổn thương chính xác, từ đó đưa ra quyết định điều trị phù hợp và kịp thời, tối ưu hóa kết quả lâm sàng cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Đối với bệnh nhân đa chấn thương có kèm gãy phức hợp gò má – cung tiếp, việc xác định thời điểm phẫu thuật là một thách thức lớn. Chuyên gia có thể chia sẻ các yếu tố cần cân nhắc và cách ra quyết định lâm sàng trong tình huống này không?</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Việc xác định thời điểm phẫu thuật gãy phức hợp gò má – cung tiếp (GMCT) trên bệnh nhân đa chấn thương thực sự là một thách thức lớn đối với y học hiện đại. Để ra quyết định lâm sàng một cách đúng đắn, bạn cần cân nhắc nhiều yếu tố:
+*   **Thách thức trong xác định thời điểm phẫu thuật**:
+    *   Nguyên tắc cơ bản trong quản lý đa chấn thương là ưu tiên ổn định toàn thân của bệnh nhân trước khi xử lý các chấn thương không đe dọa tính mạng. Gãy xương hàm mặt, mặc dù quan trọng, thường được xếp vào nhóm "chấn thương thứ yếu" hoặc "chấn thương trì hoãn" nếu không trực tiếp đe dọa đường thở hoặc gây chảy máu ồ ạt không kiểm soát.
+*   **Các yếu tố cần cân nhắc chính**: Quyết định can thiệp sớm hay trì hoãn tùy thuộc vào:
+    1.  **Mức độ nghiêm trọng của các chấn thương phối hợp**: Bệnh nhân có chấn thương sọ não nặng, chấn thương ngực, bụng hoặc các chấn thương xương lớn khác gây mất máu nhiều cần được ưu tiên xử trí trước. Việc đảm bảo bệnh nhân ổn định về huyết động (huyết áp, mạch, tình trạng sốc) là điều kiện tiên quyết trước khi cân nhắc phẫu thuật. Luôn đảm bảo đường thở an toàn là ưu tiên hàng đầu, đặc biệt nếu có các tổn thương hàm mặt phối hợp gây phù nề nặng.
+    2.  **Trang thiết bị y tế**: Bệnh viện cần có đủ trang thiết bị phẫu thuật hàm mặt chuyên dụng (dụng cụ nắn chỉnh, cố định nẹp vít, thiết bị chẩn đoán hình ảnh trong mổ) và quan trọng hơn là đội ngũ gây mê hồi sức có kinh nghiệm trong các ca phẫu thuật kéo dài và quản lý bệnh nhân đa chấn thương.
+    3.  **Trình độ và kinh nghiệm của phẫu thuật viên**: Phẫu thuật viên cần có đủ kinh nghiệm trong xử trí gãy xương vùng mặt phức tạp và khả năng đánh giá tổng thể tình trạng của bệnh nhân đa chấn thương để đưa ra quyết định phù hợp nhất.
+*   **Hướng dẫn ra quyết định lâm sàng**: 
+    *   **Giai đoạn cấp tính (Damage Control Resuscitation/Surgery)**: Trong những giờ đầu tiên, ưu tiên hàng đầu là kiểm soát tổn thương đe dọa tính mạng và ổn định sinh hiệu của bệnh nhân. Các gãy xương hàm mặt thường được trì hoãn. Mục tiêu là cứu sống bệnh nhân, không phải khắc phục hoàn toàn tất cả các tổn thương cùng một lúc.
+    *   **Giai đoạn bán cấp tính (48-72 giờ)**: Nếu bệnh nhân đã ổn định về mặt toàn thân, đây có thể là thời điểm thích hợp để can thiệp các gãy xương hàm mặt. Phẫu thuật sớm trong giai đoạn này giúp phục hồi giải phẫu tốt hơn, giảm phù nề, và có thể giảm nguy cơ nhiễm trùng. Tuy nhiên, mỗi ca bệnh cần được đánh giá lại toàn bộ tình trạng bệnh nhân một cách kỹ lưỡng.
+    *   **Giai đoạn trì hoãn (sau 7-10 ngày)**: Trong trường hợp bệnh nhân không ổn định hoặc có các chấn thương nặng khác cần thời gian hồi phục, phẫu thuật gãy xương hàm mặt có thể được trì hoãn. Tuy nhiên, việc trì hoãn quá lâu (quá 2 tuần) có thể gây khó khăn trong nắn chỉnh do quá trình liền xương sớm, phù nề và xơ hóa mô mềm, dẫn đến kết quả thẩm mỹ và chức năng không tối ưu.
+*   **Vai trò của ICD-10**: Trong bối cảnh đa chấn thương, việc mã hóa ICD-10 sẽ giúp ghi nhận đầy đủ các chấn thương, mức độ nặng và các can thiệp liên quan. Các mã trong nhóm **T00-T07** (Multiple injuries) sẽ được sử dụng để chỉ định đa chấn thương, kèm theo các mã cụ thể cho từng vị trí gãy xương như **S02.4** cho gãy gò má – cung tiếp và các mã liên quan đến tổn thương các cơ quan khác (ví dụ, **S06** cho chấn thương nội sọ, **S22** cho gãy xương sườn). Việc mã hóa chính xác là cần thiết cho thống kê, nghiên cứu và quản lý y tế, giúp đánh giá hiệu quả điều trị và chi phí.
+**Lời khuyên cho bác sĩ trẻ**: Luôn tham vấn ý kiến từ các chuyên khoa khác (Hồi sức cấp cứu, Ngoại thần kinh, Ngoại lồng ngực, Ngoại bụng) khi quản lý bệnh nhân đa chấn thương. Đánh giá kỹ lưỡng lợi ích và rủi ro của việc can thiệp sớm so với trì hoãn. Đảm bảo bệnh nhân và gia đình được thông tin đầy đủ về kế hoạch điều trị, các giai đoạn và các nguy cơ có thể xảy ra để họ cùng tham gia vào quá trình ra quyết định.</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Textbook of Trauma and Emergency Surgery</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Tài liệu này là nguồn tham khảo quan trọng về nguyên tắc quản lý chấn thương đa phức tạp, bao gồm cả đánh giá ban đầu, hồi sức, và quyết định thời điểm can thiệp phẫu thuật cho các loại chấn thương khác nhau. Cuốn sách cung cấp cái nhìn toàn diện và dựa trên bằng chứng khoa học về cấp cứu chấn thương.</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Quản Lý Đa Chấn Thương Toàn Diện: Từ Cấp Cứu Đến Phục Hồi</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp các kiến thức và kỹ năng cần thiết để quản lý toàn diện bệnh nhân đa chấn thương, từ đánh giá ban đầu tại phòng cấp cứu, hồi sức tích cực, cho đến các quyết định phẫu thuật và chăm sóc hậu phẫu. Khóa học đặc biệt chú trọng vào việc phối hợp đa chuyên khoa và các chiến lược ra quyết định trong các tình huống lâm sàng phức tạp, giúp nâng cao năng lực cho các bác sĩ làm việc trong lĩnh vực cấp cứu và chấn thương.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên bằng chứng về đặc điểm dịch tễ học và nguyên nhân gãy xương vùng mặt, đặc biệt là gãy phức hợp gò má cung tiếp (GMCT), theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Dựa trên các nghiên cứu về gãy xương phức hợp gò má cung tiếp (GMCT), bác sĩ trẻ cần lưu ý điều gì về đặc điểm dịch tễ học và nguyên nhân để tăng cường cảnh giác lâm sàng và quản lý bệnh nhân hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Kính chào các bác sĩ trẻ và sinh viên y khoa, việc nắm vững đặc điểm dịch tễ học và nguyên nhân gây gãy GMCT là nền tảng quan trọng để nâng cao cảnh giác lâm sàng và đưa ra quyết định chẩn đoán, điều trị kịp thời. Dưới đây là những điểm cần ghi nhớ:
+*   **Đặc điểm giới tính:** Nghiên cứu cho thấy nam giới chiếm tỷ lệ áp đảo (khoảng 87,2%) so với nữ giới. Điều này có thể lý giải bởi nam giới thường tham gia vào các hoạt động có nguy cơ cao hơn, bao gồm việc sử dụng rượu bia khi tham gia giao thông. Khi tiếp cận bệnh nhân nam bị chấn thương vùng mặt, đặc biệt sau tai nạn, hãy luôn có độ nghi ngờ cao về khả năng gãy GMCT.
+*   **Đặc điểm tuổi:** Nhóm tuổi trẻ (16-30 tuổi) có tỷ lệ gãy GMCT cao nhất, chiếm khoảng 60,7%. Điều này cho thấy đây là nhóm đối tượng năng động, thường xuyên tham gia giao thông và các hoạt động xã hội. Khi thăm khám, hãy đặc biệt chú ý đến nhóm tuổi này và thu thập tiền sử chi tiết về cơ chế chấn thương.
+*   **Nguyên nhân gây tai nạn:** Tai nạn giao thông là nguyên nhân hàng đầu gây gãy phức hợp GMCT, chiếm tỷ lệ rất cao (94,8%). Đây là một thông tin cực kỳ quan trọng trong khai thác bệnh sử. Luôn hỏi rõ về cơ chế tai nạn, tốc độ va chạm, vị trí va đập trên khuôn mặt. Các bác sĩ cần tư vấn thêm về an toàn giao thông, đội mũ bảo hiểm và không sử dụng rượu bia khi lái xe cho bệnh nhân và người nhà, đây cũng là một phần của y tế dự phòng.
+**Tóm lại**, khi một bệnh nhân nam trẻ tuổi nhập viện vì chấn thương vùng mặt sau tai nạn giao thông, các bạn cần có một cái nhìn tổng thể và nghi ngờ cao về gãy GMCT. Việc này không chỉ giúp chẩn đoán sớm mà còn định hướng các bước kiểm tra cận lâm sàng phù hợp, tránh bỏ sót tổn thương. Đồng thời, tư vấn cho bệnh nhân về các yếu tố nguy cơ là một phần trách nhiệm của người thầy thuốc.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Cơ chế chấn thương và Dịch tễ học gãy xương vùng mặt</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn tổng quan về các cơ chế chấn thương thường gặp dẫn đến gãy xương vùng mặt, các yếu tố dịch tễ học ảnh hưởng đến tỷ lệ mắc, giúp bác sĩ và sinh viên y khoa hiểu rõ hơn về bối cảnh lâm sàng của các chấn thương này.</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Tiếp cận và Xử trí ban đầu Chấn thương Hàm Mặt</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào đánh giá ban đầu, chẩn đoán nhanh và các bước xử trí cấp cứu cho bệnh nhân chấn thương hàm mặt. Giúp nâng cao kỹ năng lâm sàng cho bác sĩ trẻ trong môi trường cấp cứu, đặc biệt chú trọng vào việc nhận diện các loại gãy xương phổ biến như gãy GMCT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên y khoa và bác sĩ trẻ hiểu sâu về đặc điểm lâm sàng và chẩn đoán hình ảnh gãy phức hợp gò má cung tiếp (GMCT) theo các tiêu chuẩn chẩn đoán hiện hành.</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận một bệnh nhân nghi ngờ gãy xương phức hợp gò má cung tiếp (GMCT), sinh viên y khoa và bác sĩ trẻ cần chú ý những dấu hiệu lâm sàng nào và phương pháp chẩn đoán hình ảnh nào là 'tiêu chuẩn vàng' để đưa ra đánh giá chính xác?</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Chào các bạn sinh viên và bác sĩ trẻ, việc chẩn đoán chính xác gãy phức hợp gò má cung tiếp (GMCT) đòi hỏi sự kết hợp giữa thăm khám lâm sàng kỹ lưỡng và lựa chọn phương pháp chẩn đoán hình ảnh phù hợp. Dưới đây là những hướng dẫn cơ bản:
+1.  **Đặc điểm lâm sàng quan trọng:**
+    *   **Đau chói tại điểm gãy:** Bệnh nhân thường kêu đau dữ dội khi chạm vào vùng gò má bị tổn thương.
+    *   **Mất liên tục bờ dưới ổ mắt:** Cần sờ nắn nhẹ nhàng bờ xương ổ mắt để phát hiện sự biến dạng hoặc bậc thang xương.
+    *   **Bầm tím quanh hốc mắt (Periorbital ecchymosis):** Dấu hiệu này thường xuất hiện sớm và gợi ý chấn thương vùng mặt, đặc biệt là xương gò má và ổ mắt.
+    *   **Sưng nề phần mềm:** Vùng gò má và các mô mềm xung quanh có thể sưng to đáng kể, làm thay đổi hình dạng khuôn mặt.
+    *   **Lõm bẹt gò má:** Trong một số trường hợp, đặc biệt là gãy di lệch nhiều, có thể quan sát thấy sự lõm vào của vùng gò má bị tổn thương so với bên đối diện.
+    *   **Các dấu hiệu ít gặp hơn:** Hạn chế há miệng (do chèn ép cơ cắn hoặc sai khớp thái dương hàm), chảy máu mũi, và vết thương phần mềm.
+    *Lời khuyên lâm sàng*: Hãy luôn so sánh hai bên khuôn mặt để phát hiện sự bất đối xứng. Thực hiện khám mắt kỹ lưỡng (thị lực, vận nhãn, song thị) vì gãy GMCT có thể ảnh hưởng đến hốc mắt.
+2.  **Chẩn đoán hình ảnh - Tiêu chuẩn vàng:**
+    *   **Phim CT scanner:** Đây được xem là 'tiêu chuẩn vàng' trong chẩn đoán gãy xương vùng mặt, bao gồm gãy GMCT. CT scanner có độ nhạy, độ đặc hiệu và độ phân giải cao hơn nhiều so với X-quang thường quy hoặc phim Panorama. Đặc biệt, với các lát cắt mỏng (0.625 - 1 mm) trên các mặt phẳng axial, coronal, sagittal và khả năng dựng hình 3D, CT scanner cho phép đánh giá chi tiết vị trí, mức độ di lệch, và các tổn thương phối hợp. Các bạn cần học cách đọc và phân tích hình ảnh CT để xác định chính xác các thành phần của phức hợp gò má bị gãy (thân xương, cung tiếp, thành ổ mắt, thành xoang hàm).
+    *Lời khuyên về phân loại*: Việc phân loại gãy xương GMCT theo Knight-North cũng rất quan trọng để định hướng điều trị. Dưới đây là phân loại thường gặp:
+| Loại gãy theo Knight-North        | Tỷ lệ (%) (Nghiên cứu) | Tỷ lệ (%) (Trương Mạnh Dũng) | Tỷ lệ (%) (Nguyễn Xuân Thực) |
+| :------------------------------ | :--------------------: | :--------------------------: | :-------------------------: |
+| Gãy cung tiếp đơn thuần         |          3.9           |             4.9              |            7.8              |
+| Gãy không di lệch               |          2.3           |             3.6              |            12.5             |
+| Gãy thân xương không xoay       |          29.2          |             30.2             |            28.1             |
+| Gãy thân xương xoay ra ngoài    |          23.6          |             16.2             |            23.4             |
+| Gãy thân xương xoay vào trong   |          28.5          |             19.6             |            9.4              |
+| Gãy phức tạp                    |          12.5          |              -               |            18.8             |
+Việc hiểu rõ các dấu hiệu lâm sàng và lựa chọn phương pháp chẩn đoán hình ảnh tối ưu là chìa khóa để quản lý hiệu quả bệnh nhân gãy GMCT. Hãy luôn rèn luyện kỹ năng quan sát, sờ nắn và phân tích hình ảnh để trở thành một bác sĩ giỏi.</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán hình ảnh trong chấn thương hàm mặt</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Tài liệu chuyên sâu về các kỹ thuật chẩn đoán hình ảnh (X-quang, CT scan, MRI) được sử dụng trong chấn thương hàm mặt, với hướng dẫn chi tiết về cách đọc và diễn giải hình ảnh, đặc biệt nhấn mạnh vai trò của CT scan trong gãy xương vùng mặt.</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Thực hành lâm sàng: Đánh giá và chẩn đoán gãy xương sọ mặt</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp kiến thức thực hành về cách đánh giá bệnh nhân chấn thương sọ mặt, từ thăm khám lâm sàng đến phân tích hình ảnh CT scan. Giúp bác sĩ củng cố kỹ năng chẩn đoán, nhận diện các loại gãy xương và tổn thương phối hợp, chuẩn bị tốt cho các ca phẫu thuật.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa cung cấp thông tin chuyên sâu và khuyến nghị thực hành cho bác sĩ về các tổn thương phối hợp thường gặp trong gãy xương gò má, nhằm nâng cao khả năng quản lý toàn diện bệnh nhân đa chấn thương.</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Khi xử trí bệnh nhân gãy xương gò má cung tiếp, bác sĩ cấp cứu và phẫu thuật viên cần đặc biệt lưu ý những tổn thương phối hợp nào, cả về xương vùng mặt lẫn các cơ quan khác, để tránh bỏ sót chẩn đoán và quản lý bệnh nhân hiệu quả theo chuẩn ICD-10?</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Các bác sĩ thân mến, gãy xương gò má cung tiếp (GMCT) thường không đơn độc mà đi kèm với nhiều tổn thương khác, cả ở vùng mặt và các cơ quan xa. Việc nhận diện và xử trí kịp thời các tổn thương phối hợp là yếu tố then chốt để cứu sống và phục hồi chức năng cho bệnh nhân. Dưới đây là những điểm cốt lõi các bạn cần lưu ý:
+1.  **Tổn thương xương vùng mặt phối hợp:**
+    *   **Gãy xương hàm trên (36,1%) và xương hàm dưới (19%):** Do cấu trúc giải phẫu gần kề và cơ chế chấn thương thường tác động lực lớn, gãy xương GMCT rất dễ đi kèm gãy xương hàm trên hoặc xương hàm dưới. Điều này đặc biệt quan trọng khi đánh giá khớp cắn của bệnh nhân. ICD-10 có các mã riêng cho từng loại gãy xương này, ví dụ S02.4x cho gãy xương gò má và ổ mắt, S02.6x cho gãy xương hàm dưới.
+    *   **Tổn thương xoang (93,1%):** Gãy xương GMCT gần như luôn kèm theo vỡ xoang hàm do thành xoang mỏng và liền kề với xương gò má. Luôn kiểm tra tình trạng xoang trên phim CT scan để phát hiện dịch xoang (máu), khí trong xoang hoặc vỡ thành xoang. Điều này có thể gây ra viêm xoang cấp hoặc mãn tính sau này.
+    *   **Gãy xương chính mũi (24,3%):** Tỷ lệ này cũng đáng kể, đòi hỏi phải kiểm tra mũi xem có chảy máu, biến dạng, hay các vấn đề về đường thở không.
+    *Lời khuyên lâm sàng*: Khi đã xác định gãy GMCT, không bao giờ dừng lại ở đó. Hãy luôn đánh giá toàn diện các xương khác trong khối sọ mặt để không bỏ sót các tổn thương phức tạp.
+2.  **Tổn thương cơ quan khác phối hợp:**
+    *   **Chấn thương sọ não (CSN) (36,1%):** Đây là tổn thương phối hợp nguy hiểm nhất và thường gặp nhất. Mọi bệnh nhân gãy GMCT, đặc biệt là do tai nạn giao thông, cần được đánh giá CSN cẩn thận (thang điểm Glasgow, đồng tử, triệu chứng thần kinh khu trú). Chẩn đoán CSN theo ICD-10 bao gồm S06.x (chấn thương nội sọ).
+    *   **Chấn thương chi (24,3%):** Tỷ lệ này cho thấy cơ chế đa chấn thương là phổ biến. Luôn thăm khám kỹ lưỡng toàn thân, tìm kiếm các dấu hiệu gãy xương chi, trật khớp, tổn thương phần mềm.
+    *   **Chấn thương ngực (6,9%) và Chấn thương bụng (2,3%):** Mặc dù tỷ lệ thấp hơn, không thể bỏ qua các chấn thương ngực (ví dụ, gãy xương sườn, tràn khí/máu màng phổi) và chấn thương bụng (tổn thương tạng đặc/rỗng). Các bạn cần thực hiện khám lâm sàng đầy đủ và các thăm dò cận lâm sàng (X-quang ngực, siêu âm bụng FAST) khi có chỉ định.
+    *   **Chấn thương cột sống (1,6%):** Tuy hiếm gặp nhưng cực kỳ nghiêm trọng. Luôn giữ bất động cột sống cổ cho đến khi loại trừ tổn thương, đặc biệt trong các trường hợp đa chấn thương hoặc cơ chế chấn thương có nguy cơ cao.
+**Kết luận**, việc quản lý bệnh nhân gãy GMCT là một quá trình toàn diện, yêu cầu các bác sĩ phải có tư duy đa chuyên khoa, không chỉ tập trung vào vùng mặt mà còn phải đánh giá và loại trừ các tổn thương nghiêm trọng ở các cơ quan khác. Điều này giúp tối ưu hóa kết quả điều trị và giảm thiểu biến chứng cho bệnh nhân. ICD-10 cung cấp các mã chẩn đoán chi tiết cho từng loại tổn thương, giúp chuẩn hóa việc ghi nhận và thống kê y tế.</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành cấp cứu chấn thương đa tạng</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các phác đồ và hướng dẫn chi tiết về cách tiếp cận, đánh giá và xử trí bệnh nhân đa chấn thương, từ chấn thương sọ não đến chấn thương bụng, chi và cột sống. Rất hữu ích cho bác sĩ cấp cứu và phẫu thuật viên.</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Quản lý toàn diện bệnh nhân đa chấn thương: Từ cấp cứu đến phục hồi</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Khóa học CME này trang bị kiến thức và kỹ năng cho bác sĩ trong việc quản lý bệnh nhân đa chấn thương phức tạp. Bao gồm các chủ đề về hồi sức ban đầu, chẩn đoán hình ảnh, phẫu thuật khẩn cấp và các chiến lược phục hồi chức năng, giúp bác sĩ có cái nhìn tổng thể và phương pháp điều trị hiệu quả.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận một bệnh nhân nghi ngờ gãy xương gò má - cung tiếp (GMCT) do tai nạn giao thông, một bác sĩ trẻ cần lưu ý những đặc điểm dịch tễ học nào và cách thức đánh giá ban đầu để không bỏ sót các tổn thương phối hợp?</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Để trở thành một bác sĩ lâm sàng giỏi, việc nắm vững dịch tễ học và có phương pháp tiếp cận ban đầu hệ thống là vô cùng quan trọng, đặc biệt với các chấn thương phức tạp như gãy xương GMCT (Mã ICD-10: S02.4). Các bạn cần ghi nhớ:
+*   **Đặc điểm dịch tễ học nổi bật:** Dữ liệu cho thấy gãy xương GMCT chủ yếu gặp ở nam giới (chiếm 87,2%), trong độ tuổi trẻ (16-30 tuổi, chiếm 60,7%). Nguyên nhân hàng đầu, chiếm áp đảo, là tai nạn giao thông (94,8%). Thông tin này giúp bạn có cái nhìn tổng quan về đối tượng nguy cơ cao, định hướng hỏi bệnh sử và khai thác cơ chế chấn thương.
+*   **Đánh giá ban đầu toàn diện (Primary Survey &amp; Secondary Survey):**
+    *   **Primary Survey (Khảo sát ban đầu):** Luôn tuân thủ nguyên tắc ABCDE (Airway, Breathing, Circulation, Disability, Exposure) để đảm bảo các chức năng sống. Chấn thương hàm mặt thường kèm theo tổn thương đường thở, chảy máu nhiều hoặc chấn thương sọ não, cần ưu tiên xử lý cấp cứu để ổn định bệnh nhân.
+    *   **Secondary Survey (Khảo sát thứ cấp):** Sau khi đã ổn định các chức năng sống, tiến hành khám toàn diện và chi tiết. Tập trung vào vùng mặt, đánh giá:
+        *   **Cơ chế chấn thương:** Hỏi kỹ về loại hình tai nạn, lực tác động, hướng va chạm. Tai nạn giao thông thường gây ra chấn thương với lực lớn, dễ dẫn đến đa chấn thương.
+        *   **Khám lâm sàng:** Quan sát biến dạng, sưng nề, bầm tím. Sờ nắn cẩn thận các bờ xương gò má, cung tiếp, ổ mắt để tìm điểm đau chói, mất liên tục xương.
+        *   **Đánh giá các cơ quan lân cận:** Do GMCT và xương hàm trên có liên quan mật thiết, tạo nên cấu trúc tầng mặt giữa, nên các tổn thương phối hợp rất thường gặp (ví dụ: gãy xương hàm trên, chấn thương sọ não). Đừng bao giờ chỉ tập trung vào một vùng tổn thương mà bỏ quên các hệ thống khác.
+**Lời khuyên cho các bạn:** Việc liên tục cập nhật kiến thức dịch tễ sẽ giúp các bạn nâng cao cảnh giác lâm sàng, định hướng chẩn đoán sớm và quản lý hiệu quả hơn các trường hợp chấn thương hàm mặt phức tạp. Hãy coi mỗi ca bệnh là một cơ hội học hỏi quý giá!</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Chấn thương hàm mặt: Đại cương và Nguyên tắc xử trí.</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Tài liệu cơ bản cung cấp kiến thức tổng quan về chấn thương hàm mặt, bao gồm dịch tễ học, phân loại, chẩn đoán và nguyên tắc điều trị, rất cần thiết cho sinh viên y khoa và bác sĩ mới ra trường.</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Khóa học Cấp cứu ban đầu trong Đa chấn thương hàm mặt.</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Cung cấp kiến thức và kỹ năng thực hành về đánh giá, ổn định và xử trí ban đầu các trường hợp chấn thương hàm mặt phức tạp trong bối cảnh đa chấn thương, đặc biệt nhấn mạnh các trường hợp do tai nạn giao thông. Khóa học giúp học viên trang bị các phản xạ lâm sàng nhanh nhạy và chính xác.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr"/>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Đối với bệnh nhân gãy xương gò má - cung tiếp, các triệu chứng lâm sàng thường gặp là gì và vai trò của CT scanner trong chẩn đoán xác định cũng như đánh giá mức độ tổn thương phối hợp?</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ lâm sàng, việc nhận diện chính xác các dấu hiệu và triệu chứng của gãy xương GMCT (Mã ICD-10: S02.4) là bước đầu tiên để đưa ra chẩn đoán và xử trí kịp thời. Sau đây là những điểm cần lưu ý:
+*   **Triệu chứng lâm sàng thường gặp:**
+    *   **Đau chói tại điểm gãy:** Là dấu hiệu cơ bản nhất, bệnh nhân thường chỉ chính xác vị trí đau khi sờ nắn nhẹ nhàng.
+    *   **Mất liên tục bờ dưới ổ mắt:** Khi sờ nắn nhẹ nhàng dọc theo bờ dưới ổ mắt, bạn có thể cảm nhận được một 'nấc' hoặc khoảng trống không liên tục, đây là dấu hiệu quan trọng cho thấy gãy xương lan đến bờ ổ mắt (mã ICD-10 S02.3, nếu gãy xương ổ mắt đơn thuần hoặc phối hợp).
+    *   **Bầm tím quanh hốc mắt (Periorbital ecchymosis):** Do chảy máu dưới da và mô mềm quanh mắt, thường xuất hiện sớm sau chấn thương.
+    *   **Sưng nề phần mềm:** Tình trạng viêm và phù nề do chấn thương gây ra, có thể che lấp các dấu hiệu biến dạng xương.
+    *   **Lõm bẹt gò má:** Đây là dấu hiệu của sự di lệch xương gò má, khiến khuôn mặt mất đối xứng, có thể khó nhận thấy ngay nếu sưng nề nhiều.
+    *   Các dấu hiệu khác có thể bao gồm tê bì vùng má do tổn thương thần kinh dưới ổ mắt, nhìn đôi (diplopia) do tổn thương sàn ổ mắt hoặc cơ vận nhãn, hoặc há miệng hạn chế do kẹt mỏm vẹt xương hàm dưới.
+*   **Vai trò của CT scanner trong chẩn đoán:**
+    CT scanner (Computed Tomography) là tiêu chuẩn vàng trong chẩn đoán gãy xương GMCT, giúp phát hiện đầy đủ các tổn thương mà phim X-quang thường quy có thể bỏ sót. Các bạn nên sử dụng CT scanner để:
+    | Mục đích đánh giá                           | Lợi ích của CT scanner                                                                                                       |
+    | :------------------------------------------ | :---------------------------------------------------------------------------------------------------------------------------- |
+    | **Xác định vị trí và đường gãy:**           | Hình ảnh 3D chi tiết giúp xác định chính xác các đường gãy, mức độ di lệch của phức hợp gò má, cung tiếp, và các thành phần khác. |
+    | **Đánh giá tổn thương phối hợp vùng mặt:**  | Phát hiện gãy xương hàm trên (chiếm 26,9% - 36,1%), tổn thương xoang (93,1%), vết thương vùng mặt (57,7%) và các xương hàm mặt khác. |
+    | **Đánh giá tổn thương ổ mắt:**              | Quan trọng để phát hiện gãy sàn ổ mắt, kẹt cơ vận nhãn, tổn thương nhãn cầu, giúp phòng ngừa các biến chứng thị lực.             |
+    | **Đánh giá mức độ đa chấn thương:**         | CT sọ não có thể được thực hiện đồng thời để đánh giá chấn thương sọ não (chiếm 36,1%), giúp lập kế hoạch điều trị toàn diện.   |
+Việc đọc và phân tích kỹ lưỡng phim CT scanner không chỉ giúp chẩn đoán chính xác mà còn định hướng chiến lược phẫu thuật hiệu quả, tối ưu hóa kết quả điều trị cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Phân tích hình ảnh CT scan trong chấn thương hàm mặt.</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Sách chuyên khảo hướng dẫn chi tiết cách đọc và phân tích hình ảnh CT scan các loại gãy xương vùng mặt, đặc biệt là gãy xương GMCT, giúp bác sĩ lâm sàng đưa ra chẩn đoán chính xác và kế hoạch điều trị hiệu quả. Đây là tài liệu không thể thiếu cho các bạn muốn nâng cao kỹ năng chẩn đoán hình ảnh.</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Chẩn đoán hình ảnh trong chấn thương hàm mặt và sọ não.</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào việc cải thiện kỹ năng diễn giải phim X-quang, CT scan và MRI đối với các tổn thương phức tạp vùng sọ mặt, bao gồm cả các tổn thương xương, phần mềm và não bộ, rất hữu ích cho các bác sĩ chẩn đoán hình ảnh và lâm sàng muốn nâng cao chuyên môn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr"/>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Ngoài tổn thương xương gò má - cung tiếp đơn thuần, bác sĩ cần đặc biệt chú ý đến những tổn thương phối hợp nào ở vùng mặt và các cơ quan khác để đảm bảo quản lý toàn diện cho bệnh nhân đa chấn thương?</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận bệnh nhân gãy xương gò má - cung tiếp, các bạn phải luôn tư duy theo hướng toàn diện, vì chấn thương này hiếm khi đơn thuần, đặc biệt trong bối cảnh đa chấn thương do tai nạn giao thông. Việc bỏ sót các tổn thương phối hợp có thể gây ra hậu quả nghiêm trọng. Dưới đây là những điểm cốt yếu cần chú ý:
+*   **Tổn thương phối hợp vùng mặt:**
+    *   **Tổn thương xoang (93,1%):** Đặc biệt là xoang hàm, thường xuyên bị ảnh hưởng do vị trí giải phẫu gần kề. Cần đánh giá bằng CT để xem mức độ tràn máu xoang, gãy thành xoang.
+    *   **Vết thương vùng mặt (57,7%):** Bao gồm vết rách da, niêm mạc. Cần được làm sạch, khâu cầm máu và xử lý phù hợp để tránh nhiễm trùng và cải thiện thẩm mỹ.
+    *   **Gãy xương hàm trên (36,1%):** Phối hợp phổ biến do cấu trúc liên quan chặt chẽ. Cần tìm các dấu hiệu của gãy Le Fort.
+    *   **Gãy xương hàm dưới (9,8%):** Dù tỷ lệ thấp hơn gãy xương hàm trên nhưng vẫn cần kiểm tra cẩn thận khớp cắn, cử động hàm.
+    *   **Tổn thương ổ mắt:** Gãy sàn hoặc thành bên ổ mắt gây kẹt cơ, tổn thương dây thần kinh thị giác. Điều này liên quan trực tiếp đến thị lực của bệnh nhân và cần được đánh giá kỹ lưỡng (Mã ICD-10 S05.x cho chấn thương mắt).
+*   **Tổn thương phối hợp các cơ quan khác (Đa chấn thương):** Tỷ lệ phối hợp khá cao do cơ chế chấn thương lực mạnh. Các bạn phải luôn cảnh giác:
+    *   **Chấn thương sọ não (36,1%):** Biểu hiện từ nhẹ đến nặng. Cần đánh giá tri giác, đồng tử, dấu hiệu thần kinh khu trú (Mã ICD-10: S06.x tùy loại).
+    *   **Chấn thương chi (24,3%):** Gãy xương chi, tổn thương phần mềm.
+    *   **Chấn thương ngực (6,9%):** Gãy xương sườn, tràn khí/tràn máu màng phổi.
+    *   **Chấn thương bụng (2,3%):** Tổn thương các tạng đặc (gan, lách) hoặc tạng rỗng. 
+    *   **Chấn thương cột sống (1,6%):** Luôn cần nghi ngờ và bất động cột sống cổ cho đến khi loại trừ tổn thương.
+Việc quản lý những bệnh nhân này đòi hỏi một **phương pháp tiếp cận đa chuyên khoa**, với sự phối hợp chặt chẽ giữa phẫu thuật viên hàm mặt, bác sĩ cấp cứu, hồi sức, phẫu thuật thần kinh, chẩn đoán hình ảnh, và các chuyên khoa liên quan khác. Hãy rèn luyện kỹ năng làm việc nhóm và tham khảo ý kiến chuyên gia để đảm bảo bệnh nhân nhận được chăm sóc tốt nhất. Ngay cả những thông tin tưởng chừng không liên quan như “u xơ tử cung kích thước lớn” ở một bệnh nhân nữ lớn tuổi, dù không liên quan trực tiếp đến chấn thương hàm mặt, cũng nhắc nhở chúng ta về tầm quan trọng của việc thu thập tiền sử bệnh án toàn diện và cá thể hóa việc chăm sóc bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị Đa chấn thương của Bộ Y tế.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Tài liệu chuẩn quốc gia cung cấp phác đồ xử trí đa chấn thương, giúp bác sĩ nắm vững các bước đánh giá, hồi sức và điều trị các tổn thương phối hợp, đảm bảo an toàn và hiệu quả cho bệnh nhân. Đây là cẩm nang thiết yếu cho mọi bác sĩ lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Quản lý Đa chấn thương: Từ cấp cứu đến phục hồi chức năng.</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về quản lý toàn diện bệnh nhân đa chấn thương, từ giai đoạn cấp cứu ban đầu, phẫu thuật, chăm sóc hậu phẫu đến phục hồi chức năng, giúp nâng cao năng lực cho các bác sĩ làm việc tại các khoa cấp cứu, chấn thương chỉnh hình và hồi sức tích cực. Khóa học cũng nhấn mạnh vai trò phối hợp liên chuyên khoa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, giúp bác sĩ và sinh viên y khoa nâng cao kỹ năng chẩn đoán và quản lý bệnh nhân chấn thương hàm mặt.</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi tiếp cận một bệnh nhân nghi ngờ gãy phức hợp gò má cung tiếp, chúng tôi cần chú ý đến những dấu hiệu lâm sàng nào và các phương tiện chẩn đoán hình ảnh nào là thiết yếu để đưa ra chẩn đoán chính xác theo chuẩn y khoa?</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng trong thực hành lâm sàng. Để chẩn đoán chính xác gãy phức hợp gò má cung tiếp (GMCT), việc đánh giá lâm sàng kỹ lưỡng kết hợp với chẩn đoán hình ảnh là không thể thiếu, và đây là những điểm cốt lõi bạn cần nắm vững:
+*   **Về dấu hiệu lâm sàng, bạn cần đặc biệt chú ý:**
+    *   **Đau chói tại điểm gãy:** Đây là dấu hiệu thường gặp nhất, chiếm tới 92,8% số ca trong nghiên cứu. Hãy dùng ngón tay ấn nhẹ dọc theo bờ xương gò má và cung tiếp để xác định điểm đau tối đa. Sự tinh tế trong khám lâm sàng sẽ giúp bạn xác định vị trí tổn thương ban đầu.
+    *   **Sưng nề phần mềm:** Gần như luôn xuất hiện (91,8%). Quan sát sự thay đổi đối xứng của khuôn mặt để phát hiện sớm. Vùng sưng nề có thể lan rộng, che lấp các mốc giải phẫu.
+    *   **Bầm tím quanh hốc mắt (Periorbital ecchymosis):** Rất phổ biến (90,8%). Đây là dấu hiệu cho thấy có tổn thương mạch máu nhỏ và tụ máu dưới da vùng quanh mắt. Bạn cần phân biệt với bầm tím do chấn thương trực tiếp vùng mắt.
+    *   **Gián đoạn xương (Bone disruption):** Sờ nắn nhẹ nhàng có thể phát hiện sự mất liên tục của bờ xương, chiếm 82,6%. So sánh với bên đối diện để phát hiện sự bất thường.
+    *   **Lõm bẹt gò má (Concave cheekbones):** Dấu hiệu này (69,5%) gợi ý xương gò má đã bị di lệch đáng kể, thường là gãy thân xương gò má xoay vào trong. Đánh giá thị giác từ phía trên đầu bệnh nhân hoặc nhìn nghiêng thường giúp phát hiện rõ nhất.
+    *   **Các dấu hiệu khác có thể gặp:** Song thị (nhìn đôi) nếu có tổn thương sàn ổ mắt, tê bì vùng dưới ổ mắt do tổn thương thần kinh dưới ổ mắt, hoặc hạn chế vận động hàm dưới nếu mảnh gãy chèn ép vào mỏm vẹt xương hàm dưới hoặc cung tiếp.
+*   **Về chẩn đoán hình ảnh:**
+    *   **CT scanner:** Đây là phương tiện chẩn đoán hình ảnh VÀNG và là tiêu chuẩn để đánh giá gãy phức hợp GMCT, được sử dụng 100% trong nghiên cứu. CT scanner cho phép bạn đánh giá chi tiết mức độ gãy, đường gãy, sự di lệch của các mảnh xương, tổn thương các cấu trúc lân cận như thành xoang, ổ mắt. Bạn cần yêu cầu các lát cắt axial, coronal, sagittal và tái tạo 3D nếu cần để có cái nhìn toàn diện nhất về tổn thương.
+    *   **Phim X-quang thường quy:** Mặc dù ít được sử dụng đơn độc hiện nay do hạn chế trong việc đánh giá các tổn thương phức tạp và di lệch nhỏ, nhưng các phim X-quang chuyên biệt như Blondeau (Waters view), Towne's view có thể cung cấp thông tin ban đầu. Tuy nhiên, không nên dựa hoàn toàn vào X-quang thường quy cho chẩn đoán xác định.
+**Tóm lại:** Luôn bắt đầu bằng khám lâm sàng tỉ mỉ, sau đó chỉ định CT scanner để xác định chẩn đoán, phân loại gãy xương và đánh giá các tổn thương phối hợp. Khi mã hóa bệnh án, các bạn cần lưu ý đến các mã ICD-10 liên quan đến gãy xương gò má, ví dụ như **S02.40 - Gãy xương gò má, không xác định rõ**, hoặc các mã chi tiết hơn như **S02.45 - Gãy xương gò má kèm theo gãy sàn ổ mắt** tùy thuộc vào kết quả chẩn đoán hình ảnh cụ thể để đảm bảo tuân thủ chuẩn y tế và tính chính xác trong hồ sơ bệnh án. Việc này sẽ giúp bạn đưa ra kế hoạch điều trị hiệu quả và chính xác nhất.</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Chẩn đoán và Điều trị Gãy Xương Hàm Mặt - Sách giáo trình Y khoa</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>Tài liệu cơ bản cung cấp kiến thức toàn diện về chẩn đoán, phân loại và các phương pháp điều trị gãy xương vùng hàm mặt, bao gồm cả gãy phức hợp gò má cung tiếp, rất hữu ích cho sinh viên và bác sĩ trẻ để xây dựng nền tảng vững chắc.</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Khóa học Chẩn đoán Hình ảnh nâng cao trong Chấn thương Hàm Mặt</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về cách đọc và phân tích các phim X-quang, CT scanner, và MRI trong chấn thương hàm mặt, giúp nâng cao kỹ năng chẩn đoán chính xác và đưa ra quyết định lâm sàng cho các trường hợp phức tạp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ bác sĩ và sinh viên y khoa trong việc hiểu sâu về bệnh học, dịch tễ và phân loại các chấn thương hàm mặt theo chuẩn Bộ Y tế Việt Nam và quốc tế.</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Dựa trên các nghiên cứu dịch tễ, gãy phức hợp gò má cung tiếp thường gặp ở đối tượng nào, nguyên nhân chủ yếu là gì, và sinh viên y khoa cần hiểu rõ phân loại gãy xương này như thế nào để phục vụ cho việc học tập và thực hành lâm sàng sau này?</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Về dịch tễ và nguyên nhân gãy phức hợp gò má cung tiếp (GMCT), nghiên cứu đã chỉ ra những đặc điểm khá rõ ràng mà các bạn sinh viên và bác sĩ trẻ cần nắm vững để có cái nhìn tổng quan về bệnh lý này và định hướng tư vấn phòng ngừa:
+*   **Đối tượng mắc bệnh:** Gãy xương GMCT chủ yếu gặp ở nam giới trẻ tuổi, thường trong độ tuổi từ 16 – 30 tuổi. Cụ thể, tuổi trung bình trong nghiên cứu là 30,5 ± 11,6 tuổi, với tỷ lệ nam/nữ = 6,8. Điều này cho thấy nhóm nam giới trẻ có nguy cơ cao hơn, có thể liên quan đến các hoạt động xã hội, nghề nghiệp hoặc hành vi mang tính rủi ro cao hơn.
+*   **Nguyên nhân chính:** Tai nạn giao thông chiếm tỷ lệ áp đảo, với 94,8% các trường hợp. Đây là con số đáng báo động, nhấn mạnh tầm quan trọng của việc giáo dục về an toàn giao thông, việc tuân thủ luật giao thông và sử dụng các biện pháp bảo hộ (như đội mũ bảo hiểm chất lượng) khi tham gia giao thông. Các nguyên nhân khác như tai nạn sinh hoạt, tai nạn lao động hoặc ẩu đả cũng có thể gây ra nhưng với tỷ lệ thấp hơn nhiều.
+**Về phân loại gãy xương GMCT theo Knight – North:** Việc hiểu rõ phân loại này là cực kỳ quan trọng, nó không chỉ giúp bạn mô tả chính xác tổn thương trên lâm sàng và hình ảnh mà còn định hướng cho việc lựa chọn phương pháp điều trị phù hợp. Đây là bảng phân loại các loại gãy xương GMCT theo Knight – North dựa trên dữ liệu nghiên cứu, mà các bạn cần ghi nhớ:
+| Loại Gãy Xương GMCT theo Knight – North | Tỷ lệ (%) | Đặc điểm lâm sàng/X-quang điển hình |
+| :-------------------------------------- | :-------- | :---------------------------------- |
+| Gãy xương cung tiếp đơn thuần          | 3,9%      | Chỉ ảnh hưởng đến cung tiếp, ít di lệch hoặc chỉ gãy lún, thường gây lõm nhẹ vùng thái dương, ít ảnh hưởng chức năng. |
+| Gãy xương GMCT không di lệch           | 2,3%      | Xương gò má bị rạn hoặc gãy nhưng các mảnh xương vẫn giữ vị trí giải phẫu bình thường hoặc rất ít di lệch, thường không cần phẫu thuật. |
+| Gãy thân xương gò má không xoay        | 29,2%     | Thân xương gò má gãy nhưng không có sự xoay trục đáng kể của khối xương, thường gây đau và sưng. |
+| Gãy thân xương gò má xoay ra ngoài     | 23,6%     | Thân xương gò má bị gãy và xoay ra phía ngoài, có thể gây biến dạng khuôn mặt, thường dễ nhìn thấy bằng mắt thường. |
+| Gãy thân xương gò má xoay vào trong    | 28,5%     | Thân xương gò má bị gãy và xoay vào phía trong, thường gây lõm bẹt gò má rõ rệt, ảnh hưởng lớn đến thẩm mỹ và có thể chèn ép các cấu trúc lân cận. |
+| Gãy xương GMCT phức tạp                | 12,5%     | Gãy nhiều mảnh, kèm tổn thương nhiều cấu trúc lân cận (như sàn ổ mắt, thành xoang) hoặc kết hợp nhiều loại gãy trên, đòi hỏi phẫu thuật phức tạp. |
+Việc nắm vững phân loại này giúp bạn hình dung được mức độ nặng nhẹ của tổn thương, tiên lượng và lập kế hoạch phẫu thuật (nếu cần). Ví dụ, gãy thân xương gò má xoay vào trong thường cần phẫu thuật nắn chỉnh và cố định để phục hồi thẩm mỹ và chức năng, trong khi gãy không di lệch có thể được điều trị bảo tồn. Luôn liên hệ giữa phân loại trên phim CT và biểu hiện lâm sàng bạn quan sát được để củng cố kiến thức và đưa ra quyết định lâm sàng chính xác.</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị chấn thương hàm mặt - Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thống của Bộ Y tế Việt Nam, cung cấp các phác đồ và hướng dẫn chi tiết về chẩn đoán và điều trị các loại gãy xương hàm mặt, bao gồm cả gãy gò má, rất cần thiết cho mọi bác sĩ hành nghề và sinh viên y khoa để đảm bảo thực hành theo chuẩn quốc gia.</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Phân loại và Nguyên tắc điều trị Gãy xương Gò má: Từ cơ bản đến nâng cao</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào việc đào tạo sâu về các hệ thống phân loại gãy xương gò má phổ biến như Knight-North, cùng với các nguyên tắc cơ bản và nâng cao trong điều trị phẫu thuật và bảo tồn, giúp bác sĩ cập nhật kiến thức và kỹ năng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp kiến thức toàn diện về quản lý bệnh nhân chấn thương đa phức tạp, đặc biệt trong các trường hợp gãy xương hàm mặt có tổn thương phối hợp theo hướng dẫn của Bộ Y tế và ICD-10.</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Bên cạnh tổn thương xương gò má, những bệnh nhân gãy phức hợp gò má cung tiếp thường có các tổn thương phối hợp nào khác, và việc quản lý những tổn thương này cần được tiếp cận ra sao để đảm bảo an toàn và hiệu quả điều trị tối ưu cho người bệnh?</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Đây là một câu hỏi rất thực tế và quan trọng trong xử lý bệnh nhân chấn thương, đặc biệt là các trường hợp đa chấn thương. Gãy phức hợp gò má cung tiếp (GMCT) hiếm khi là tổn thương đơn độc, mà thường đi kèm với các chấn thương khác, cả tại vùng mặt và các cơ quan khác. Việc nhận diện và quản lý kịp thời các tổn thương phối hợp là chìa khóa để đảm bảo kết quả điều trị tốt nhất và tránh biến chứng nguy hiểm. Các bạn cần tiếp cận bệnh nhân một cách toàn diện:
+*   **Các tổn thương phối hợp vùng mặt thường gặp:**
+    *   **Tổn thương xoang:** Chiếm tỷ lệ rất cao (93,1%). Đặc biệt là xoang hàm và các xoang cạnh mũi. Bạn cần đánh giá mức độ tràn máu xoang, tổn thương niêm mạc xoang và nguy cơ viêm xoang do chấn thương. Sử dụng ICD-10, các tổn thương xoang có thể được mã hóa dưới nhóm S05 (Tổn thương mắt và hốc mắt) hoặc S07 (Tổn thương do dập nát đầu) tùy thuộc vào chi tiết.
+    *   **Vết thương vùng mặt:** Chiếm 57,7%. Bao gồm các vết rách da, phần mềm. Cần đánh giá kỹ lưỡng để loại trừ tổn thương các cấu trúc quan trọng như ống Stenon, thần kinh mặt, mạch máu lớn. Vết thương cần được làm sạch, cắt lọc và khâu phục hồi sớm để đảm bảo thẩm mỹ và chức năng.
+    *   **Gãy xương hàm trên:** Chiếm 36,1%. Thường là gãy Le Fort I, II hoặc III. Việc gãy xương hàm trên phối hợp làm tăng mức độ phức tạp của chấn thương hàm mặt, đòi hỏi kỹ thuật phẫu thuật phức tạp hơn và có thể ảnh hưởng đến khớp cắn.
+*   **Các tổn thương cơ quan khác phối hợp:**
+    *   **Chấn thương sọ não (CTSN):** Chiếm tỷ lệ cao nhất (36,1%) trong số các tổn thương cơ quan khác. Điều này đặc biệt nguy hiểm và cần được ưu tiên hàng đầu trong cấp cứu. Luôn đánh giá tình trạng tri giác (Glasgow Coma Scale), dấu hiệu thần kinh khu trú và chỉ định CT sọ não khẩn cấp (ICD-10 cho CTSN bắt đầu từ S06).
+    *   **Chấn thương chi:** Chiếm 24,3%. Có thể là gãy xương chi, trật khớp hoặc các tổn thương mô mềm. Cần kiểm tra toàn thân bệnh nhân để không bỏ sót, đặc biệt khi bệnh nhân có nhiều vết thương.
+    *   **Chấn thương ngực:** 6,9%. Có thể là tràn khí/tràn máu màng phổi, gãy xương sườn. Cần khám lâm sàng lồng ngực và chụp X-quang ngực thẳng để đánh giá (ICD-10 cho chấn thương ngực bắt đầu từ S20-S29).
+    *   **Chấn thương bụng:** 2,3%. Có thể là tổn thương tạng đặc (gan, lách) hoặc rỗng. Đánh giá bằng khám lâm sàng, siêu âm FAST và CT bụng nếu cần (ICD-10 cho chấn thương bụng bắt đầu từ S30-S39).
+    *   **Chấn thương cột sống:** 1,6%. Cần đánh giá cẩn thận, đặc biệt ở bệnh nhân chấn thương đa phức tạp, có thể cần chụp X-quang hoặc CT cột sống để loại trừ tổn thương (ICD-10 cho chấn thương cột sống bắt đầu từ S12, S22, S32).
+**Nguyên tắc quản lý:**
+*   **Tiếp cận đa chuyên khoa:** Luôn phối hợp chặt chẽ với các chuyên khoa liên quan như Ngoại thần kinh (cho CTSN), Chấn thương chỉnh hình (cho chấn thương chi), Ngoại tổng quát (cho chấn thương ngực, bụng) và Hồi sức cấp cứu để đảm bảo điều trị toàn diện.
+*   **Ưu tiên điều trị:** Thực hiện theo nguyên tắc cấp cứu chấn thương (ABCDE), ưu tiên xử lý các tổn thương đe dọa tính mạng trước (ví dụ: CTSN nặng, sốc chấn thương) trước khi tập trung vào các tổn thương vùng mặt.
+*   **Đánh giá toàn diện:** Không bao giờ chỉ tập trung vào một tổn thương duy nhất. Thực hiện khám toàn thân và các xét nghiệm, chẩn đoán hình ảnh cần thiết để không bỏ sót các tổn thương phối hợp.
+*   **Giao tiếp hiệu quả:** Đảm bảo thông tin được trao đổi rõ ràng giữa các chuyên khoa để có kế hoạch điều trị thống nhất và tối ưu cho bệnh nhân, đồng thời giảm thiểu các biến chứng do không đồng bộ trong điều trị.</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Phác đồ Cấp cứu Chấn thương Đa phức tạp (ATLS) - Advanced Trauma Life Support</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Tài liệu chuẩn mực quốc tế về tiếp cận và xử trí ban đầu bệnh nhân chấn thương đa phức tạp, giúp bác sĩ thiết lập ưu tiên và quản lý hiệu quả các trường hợp khẩn cấp, là tài liệu 'gối đầu giường' cho mọi bác sĩ cấp cứu.</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Khóa học Quản lý Chấn thương Đa chấn thương: Từ lý thuyết đến thực hành lâm sàng</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành chuyên sâu về việc áp dụng các nguyên tắc ATLS trong quản lý bệnh nhân đa chấn thương, tập trung vào việc đánh giá nhanh, hồi sức và điều trị các tổn thương phức tạp trong môi trường cấp cứu, rất phù hợp cho bác sĩ trẻ và bác sĩ chuyên khoa cấp cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng, hướng dẫn thực hành dựa trên kiến thức y khoa chuẩn và ICD-10.</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, xin vui lòng cho biết về đặc điểm lâm sàng và các phương pháp chẩn đoán ban đầu đối với gãy phức hợp gò má – cung tiếp để tôi có thể tiếp cận bệnh nhân một cách hiệu quả nhất, đặc biệt khi có đa chấn thương?</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc tiếp cận bệnh nhân gãy phức hợp gò má – cung tiếp (GMCT), đặc biệt trong bối cảnh đa chấn thương, đòi hỏi sự phối hợp giữa đánh giá tổng thể và chi tiết vùng mặt. Dưới đây là những điểm cốt lõi bạn cần nắm vững:
+*   **Đánh giá ban đầu (Primary Survey):** Luôn tuân thủ các nguyên tắc của ATLS (Advanced Trauma Life Support) như ABCDE. Đảm bảo đường thở, hô hấp, tuần hoàn ổn định trước khi tập trung vào chấn thương vùng mặt.
+*   **Đặc điểm lâm sàng thường gặp:**
+    *   **Sưng nề phần mềm:** Đây là dấu hiệu gần như luôn có (theo nghiên cứu là 91,8%), thường lan rộng quanh vùng gò má và ổ mắt.
+    *   **Đau chói tại điểm gãy:** Bệnh nhân thường chỉ ra vị trí đau rõ rệt khi sờ nắn (92,8%).
+    *   **Bầm tím quanh mắt (Periorbital Ecchymosis):** Thường do chảy máu từ ổ gãy vào các mô mềm quanh mắt (90,8%).
+    *   **Mất liên tục bờ dưới ổ mắt (Step-off Deformity of Infraorbital Rim):** Đây là dấu hiệu quan trọng khi sờ nắn dọc bờ dưới ổ mắt, cảm giác có bậc thang hoặc khuyết (82,6%).
+    *   **Lõm bẹt gò má:** Quan sát thấy vùng gò má bị mất độ nhô, lõm vào trong (69,5%).
+    *   **Các dấu hiệu khác:** Hạn chế há miệng (do chèn ép cơ thái dương hoặc gãy xương cung tiếp cản trở), chảy máu mũi (nếu có tổn thương xoang hàm), kèm vết thương phần mềm vùng mặt.
+*   **Chẩn đoán hình ảnh:**
+    *   **X-quang:** Là phương tiện ban đầu. Các tư thế thường dùng là Waters, Caldwell và chếch cung tiếp (Jugal Arch view). Nên chụp ở nhiều góc độ để đánh giá toàn diện. Nghiên cứu cho thấy tỷ lệ gãy xương bên phải (45,2%) và bên trái (44,3%) gần tương đương, với 10,5% là gãy hai bên.
+    *   **Chụp cắt lớp vi tính (CT Scan):** Đây là tiêu chuẩn vàng, đặc biệt quan trọng trong đa chấn thương hoặc khi nghi ngờ tổn thương phức tạp. CT giúp đánh giá chi tiết mức độ di lệch, tình trạng xoang, tổn thương ổ mắt, và các xương mặt khác. Chụp CT 3D tái tạo giúp phẫu thuật viên hình dung rõ hơn cấu trúc giải phẫu và lập kế hoạch phẫu thuật.
+**Lời khuyên cho bạn:**
+1.  **Hệ thống hóa:** Luôn tiếp cận bệnh nhân chấn thương theo một trình tự đã học (ví dụ: ATLS) để không bỏ sót các tổn thương đe dọa tính mạng.
+2.  **Kỹ năng thăm khám:** Rèn luyện kỹ năng nhìn, sờ, nghe. Đặc biệt kỹ năng sờ nắn để phát hiện dấu hiệu mất liên tục xương gò má, bờ ổ mắt.
+3.  **Học hỏi kinh nghiệm:** Tham gia các buổi giao ban lâm sàng, theo dõi các ca phẫu thuật gãy xương vùng mặt để trực tiếp quan sát và học hỏi từ các chuyên gia. Luôn so sánh kết quả lâm sàng với hình ảnh chẩn đoán để có cái nhìn toàn diện.
+Việc ghi nhận chính xác các đặc điểm lâm sàng và hình ảnh là nền tảng để bạn đưa ra chẩn đoán chính xác và lập kế hoạch điều trị hiệu quả. Đối với gãy phức hợp gò má cung tiếp, bạn có thể tham khảo mã ICD-10 S02.4x (Fracture of zygoma and maxilla, 'x' cho biết chi tiết vị trí và bên tổn thương).</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Chẩn Đoán và Điều Trị Gãy Xương Gò Má Cung Tiếp</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức toàn diện về chẩn đoán lâm sàng, cận lâm sàng, và các phương pháp điều trị cho gãy xương phức hợp gò má cung tiếp, giúp sinh viên y khoa và bác sĩ trẻ nắm vững kiến thức cơ bản và nâng cao.</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Cập Nhật Chẩn Đoán và Xử Trí Chấn Thương Hàm Mặt: Từ Lâm Sàng Đến Phẫu Thuật</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các phương pháp chẩn đoán và điều trị hiện đại cho các chấn thương hàm mặt, bao gồm gãy phức hợp gò má cung tiếp. Nó cung cấp các ca lâm sàng thực tế và thảo luận về các kỹ thuật phẫu thuật tiên tiến, hỗ trợ bác sĩ nâng cao kỹ năng thực hành và quản lý bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng, hướng dẫn thực hành dựa trên kiến thức y khoa chuẩn và ICD-10.</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Chào chuyên gia, tôi muốn tìm hiểu sâu hơn về phân loại gãy xương gò má – cung tiếp theo Knight – North và các tổn thương vùng mặt phối hợp thường gặp để tôi có thể đưa ra đánh giá toàn diện hơn cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Việc hiểu rõ phân loại gãy xương và các tổn thương phối hợp là rất quan trọng để đưa ra kế hoạch điều trị tối ưu. Hãy cùng đi vào chi tiết:
+**1. Phân loại gãy xương gò má – cung tiếp theo Knight – North:**
+Đây là một trong những hệ thống phân loại kinh điển và được sử dụng rộng rãi, giúp mô tả mức độ và đặc điểm di lệch của xương gò má, từ đó định hướng phương pháp điều trị. Dưới đây là tóm tắt các nhóm chính theo nghiên cứu được cung cấp:
+| Phân loại Knight – North           | Tỷ lệ (%) | Đặc điểm lâm sàng / X-quang                                      |
+| :--------------------------------- | :-------- | :--------------------------------------------------------------- |
+| Gãy cung tiếp đơn thuần            | 3,9%      | Gãy chỉ giới hạn ở cung tiếp xương gò má, thường do lực tác động trực tiếp từ bên cạnh. Ít ảnh hưởng đến chức năng ổ mắt. |
+| Gãy xương gò má cung tiếp không di lệch | 2,3%      | Đường gãy rõ ràng nhưng các mảnh xương không bị dịch chuyển đáng kể. Có thể chỉ cần điều trị bảo tồn hoặc nắn chỉnh tối thiểu. |
+| Gãy thân xương gò má không xoay     | 29,2%     | Phần thân xương gò má bị gãy nhưng không có sự xoay trục đáng kể. Là loại thường gặp nhất theo nghiên cứu. |
+| Gãy thân xương gò má xoay ra ngoài  | 23,6%     | Thân xương gò má xoay ra phía ngoài, có thể làm mở rộng khoảng cách giữa gò má và xương thái dương. |
+| Gãy thân xương gò má xoay vào trong | 28,5%     | Thân xương gò má xoay vào phía trong, có nguy cơ chèn ép khoang ổ mắt hoặc gây lõm bẹt vùng gò má. |
+| Gãy xương gò má cung tiếp phức tạp | 12,5%     | Bao gồm nhiều đường gãy, mảnh xương vỡ nhiều, di lệch nặng hoặc liên quan đến các cấu trúc xung quanh như sàn ổ mắt, thành xoang. |
+**Nhận xét:** Nghiên cứu tại Bệnh viện Việt Đức cho thấy, gãy thân xương gò má không xoay chiếm tỷ lệ cao nhất (29,2%), trong khi gãy cung tiếp đơn thuần và gãy không di lệch có tỷ lệ thấp hơn. Gãy phức tạp cũng chiếm một tỷ lệ đáng kể (12,5%), đòi hỏi phẫu thuật viên có kinh nghiệm.
+**2. Các tổn thương vùng mặt phối hợp:**
+Trong bối cảnh chấn thương nặng, đặc biệt là đa chấn thương do tai nạn giao thông (chiếm 94,8% trong nghiên cứu), việc tìm kiếm các tổn thương phối hợp là cực kỳ quan trọng:
+*   **Tổn thương xoang (93,1%):** Là loại tổn thương phối hợp thường gặp nhất. Gãy GMCT thường liên quan đến xoang hàm, có thể gây chảy máu xoang, viêm xoang do ứ đọng, hoặc rò dịch não tủy nếu gãy lan đến nền sọ. Mã ICD-10 cho tổn thương xoang có thể là S02.3xx (Fracture of floor of orbit, which often involves the sinus) hoặc S07.x (Crushing injury of head) nếu kèm chấn thương sọ não.
+*   **Vết thương vùng mặt (57,7%):** Các vết rách da, niêm mạc do va đập, cần được xử lý cẩn thận để tránh nhiễm trùng và đảm bảo thẩm mỹ.
+*   **Gãy xương hàm trên (36,1%):** Gãy Le Fort loại II hoặc III thường kèm theo gãy gò má, cần được chẩn đoán và xử lý đồng thời. Mã ICD-10 S02.4x.
+*   **Gãy xương chính mũi (24,3%):** Thường do lực tác động trực tiếp vào vùng mũi, có thể gây biến dạng mũi và ảnh hưởng đường thở. Mã ICD-10 S02.2x.
+*   **Gãy xương hàm dưới (19%):** Một chấn thương hàm mặt phổ biến, cần đánh giá cẩn thận khớp thái dương hàm và tình trạng cắn khớp. Mã ICD-10 S02.6x.
+*   **Chấn thương mắt (10,5%):** Bao gồm chấn thương nhãn cầu, kẹt cơ vận nhãn, tổn thương dây thần kinh thị giác. Cần thăm khám mắt kỹ lưỡng để loại trừ các biến chứng nguy hiểm. Mã ICD-10 S05.x.
+*   **Tổn thương thần kinh VII (mặt) (1,0%):** Mặc dù ít gặp nhưng cần kiểm tra chức năng thần kinh mặt để phát hiện sớm và xử lý kịp thời, tránh biến chứng liệt mặt vĩnh viễn.
+**Lời khuyên cho bạn:**
+1.  **Thăm khám toàn diện:** Đừng chỉ tập trung vào vị trí gãy chính mà hãy đánh giá kỹ lưỡng toàn bộ vùng mặt và sọ não để phát hiện các tổn thương phối hợp. Đây là điều đặc biệt quan trọng trong đa chấn thương.
+2.  **Sử dụng chẩn đoán hình ảnh:** Luôn tận dụng CT scan để có cái nhìn chi tiết về các đường gãy, mảnh xương và tình trạng các cấu trúc lân cận.
+3.  **Hội chẩn đa chuyên khoa:** Trong trường hợp có nhiều tổn thương phối hợp (như chấn thương mắt, sọ não), đừng ngần ngại hội chẩn với các chuyên khoa liên quan (mắt, thần kinh, tai mũi họng) để đảm bảo bệnh nhân được quản lý toàn diện và tối ưu.
+Nắm vững những kiến thức này sẽ giúp bạn trở thành một bác sĩ giỏi trong việc chẩn đoán và xử trí các chấn thương hàm mặt phức tạp.</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Phân Loại Gãy Xương Vùng Mặt và Quản Lý Đa Chấn Thương</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>Tài liệu này đi sâu vào các hệ thống phân loại gãy xương vùng mặt phổ biến như Knight-North, phân tích các tổn thương phối hợp và hướng dẫn tiếp cận toàn diện cho bệnh nhân đa chấn thương. Rất hữu ích cho bác sĩ phẫu thuật hàm mặt.</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Chẩn Đoán Hình Ảnh Nâng Cao Trong Chấn Thương Hàm Mặt</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào việc diễn giải các hình ảnh X-quang, CT scan và MRI trong chấn thương hàm mặt, giúp bác sĩ nắm vững cách phát hiện các loại gãy xương, di lệch và tổn thương phối hợp, đặc biệt hữu ích cho việc lập kế hoạch phẫu thuật và hậu phẫu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng, hướng dẫn thực hành dựa trên kiến thức y khoa chuẩn và ICD-10.</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Trong trường hợp bệnh nhân đa chấn thương có kèm gãy phức hợp gò má – cung tiếp, tôi nên ưu tiên những yếu tố nào khi quyết định thời điểm phẫu thuật và quản lý tổng thể để đạt hiệu quả điều trị cao nhất?</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Quyết định thời điểm phẫu thuật cho bệnh nhân gãy phức hợp gò má – cung tiếp (GMCT) trong bối cảnh đa chấn thương là một thách thức lớn, đòi hỏi sự cân nhắc kỹ lưỡng. Đây là những yếu tố bạn cần ưu tiên và xem xét:
+*   **1. Đánh giá mức độ ưu tiên của chấn thương:**
+    *   **Ổn định toàn thân là trên hết:** Nguyên tắc hàng đầu là đảm bảo tính mạng bệnh nhân. Các chấn thương đe dọa tính mạng (chấn thương sọ não nặng, chấn thương ngực, bụng, cột sống, mất máu nặng) luôn phải được xử lý cấp cứu trước tiên.
+    *   **Gãy GMCT là chấn thương không cấp cứu đe dọa tính mạng:** Trong đa số trường hợp, gãy GMCT không trực tiếp đe dọa tính mạng, do đó việc can thiệp thường được trì hoãn đến khi bệnh nhân ổn định. Thời điểm 'vàng' để phẫu thuật xương mặt thường trong vòng 7-14 ngày sau chấn thương, khi tình trạng sưng nề giảm bớt nhưng xương chưa bị can dính.
+*   **2. Các yếu tố ảnh hưởng đến quyết định thời điểm phẫu thuật:**
+    *   **Mức độ nghiêm trọng của các chấn thương khác:** Nếu bệnh nhân có chấn thương sọ não nặng, chấn thương cột sống không ổn định, hoặc tình trạng sốc, phẫu thuật gãy GMCT phải trì hoãn. Mục tiêu là phục hồi chức năng toàn thân trước.
+    *   **Tình trạng sức khỏe chung của bệnh nhân:** Bao gồm các bệnh lý nền, khả năng chịu đựng cuộc phẫu thuật, và các chỉ số xét nghiệm (ví dụ: đông máu, huyết học).
+    *   **Trang thiết bị và nguồn lực:** Đảm bảo phòng mổ có đủ trang thiết bị cần thiết (máy gây mê, kính hiển vi, dụng cụ phẫu thuật vi phẫu, vật liệu cố định xương) và đội ngũ nhân lực (gây mê, phẫu thuật viên, điều dưỡng) có kinh nghiệm.
+    *   **Trình độ và kinh nghiệm của phẫu thuật viên:** Phẫu thuật viên có kinh nghiệm sẽ đưa ra quyết định chính xác hơn về thời điểm và phương pháp can thiệp, đặc biệt với các trường hợp gãy phức tạp.
+*   **3. Quản lý tổng thể bệnh nhân đa chấn thương:**
+    *   **Đội ngũ đa chuyên khoa:** Việc quản lý bệnh nhân đa chấn thương đòi hỏi sự phối hợp chặt chẽ giữa nhiều chuyên khoa (cấp cứu, ngoại thần kinh, ngoại bụng, chấn thương chỉnh hình, hàm mặt, mắt...). Luôn hội chẩn và thống nhất kế hoạch điều trị.
+    *   **Theo dõi sát sao:** Theo dõi các dấu hiệu sinh tồn, tri giác, và các biến chứng tiềm ẩn (ví dụ: hội chứng chèn ép khoang ổ mắt, tổn thương mạch máu) trong suốt quá trình chờ phẫu thuật.
+    *   **Kiểm soát nhiễm trùng:** Các vết thương phần mềm vùng mặt cần được làm sạch, cắt lọc và khâu kín đúng lúc để tránh nhiễm trùng. Sử dụng kháng sinh dự phòng nếu cần.
+    *   **Dinh dưỡng và phục hồi chức năng:** Đảm bảo dinh dưỡng đầy đủ và bắt đầu các biện pháp phục hồi chức năng sớm nhất có thể để rút ngắn thời gian hồi phục.
+**Lời khuyên cho bạn:**
+*   **Đọc và nắm vững ICD-10:** Để mã hóa đúng các chấn thương, ví dụ, gãy xương gò má (S02.4), đa chấn thương (T07), chấn thương sọ não (S06.x), giúp việc hồ sơ bệnh án và thống kê y tế chính xác hơn.
+*   **Thực hành ra quyết định:** Tham gia các buổi giao ban lâm sàng, đặt câu hỏi về các tình huống khó để học hỏi cách các bác sĩ có kinh nghiệm ra quyết định trong những trường hợp phức tạp.
+*   **Cập nhật kiến thức:** Y học luôn phát triển. Tham gia các khóa học CME và đọc các tài liệu khoa học mới nhất về chấn thương hàm mặt và quản lý đa chấn thương để nâng cao chuyên môn.
+Việc kết hợp kiến thức y khoa, kinh nghiệm lâm sàng và khả năng làm việc nhóm sẽ giúp bạn quản lý bệnh nhân đa chấn thương có gãy GMCT một cách hiệu quả và an toàn nhất.</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Hướng Dẫn Xử Trí Chấn Thương Đa Hệ Thống Và Chấn Thương Hàm Mặt</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn chi tiết về quy trình đánh giá, phân loại mức độ ưu tiên và quản lý toàn diện bệnh nhân đa chấn thương, đặc biệt chú trọng đến các tổn thương vùng mặt và thời điểm can thiệp.</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Khóa Học Quản Lý Cấp Cứu Chấn Thương (ATLS®) và Chấn Thương Hàm Mặt</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Khóa học này bao gồm các nguyên tắc cốt lõi của ATLS để ổn định bệnh nhân đa chấn thương, sau đó đi sâu vào chẩn đoán và lập kế hoạch điều trị cho chấn thương hàm mặt, bao gồm cả gãy GMCT. Khóa học giúp bác sĩ phát triển tư duy lâm sàng và kỹ năng thực hành trong môi trường cấp cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt trong lĩnh vực chấn thương hàm mặt nhằm hỗ trợ bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, dựa trên dữ liệu nghiên cứu, em cần lưu ý những đặc điểm dịch tễ học và các tổn thương phối hợp thường gặp nào khi tiếp cận một bệnh nhân gãy xương phức hợp gò má cung tiếp (GMCT) để có thể chẩn đoán và xử trí toàn diện, đặc biệt là với sinh viên y khoa và bác sĩ trẻ mới vào nghề?</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận bệnh nhân gãy xương phức hợp gò má cung tiếp (GMCT), việc nắm vững đặc điểm dịch tễ học và các tổn thương phối hợp là cực kỳ quan trọng để đảm bảo chẩn đoán và xử trí toàn diện. Đối với sinh viên y khoa và bác sĩ trẻ, hãy ghi nhớ những điểm sau:
+1.  **Đặc điểm dịch tễ học nổi bật:**
+    *   **Giới tính:** Nam giới chiếm tỷ lệ áp đảo (nghiên cứu này là 87,2%, gấp 6,8 lần so với nữ giới). Điều này có thể liên quan đến việc nam giới tham gia các hoạt động mạo hiểm hơn, đặc biệt là việc sử dụng rượu bia khi tham gia giao thông.
+    *   **Độ tuổi:** Nhóm tuổi trẻ từ 16-30 tuổi chiếm tỷ lệ cao nhất (60,7%). Đây là nhóm tuổi có nhiều hoạt động xã hội, lao động và tham gia giao thông.
+    *   **Nguyên nhân:** Tai nạn giao thông là nguyên nhân hàng đầu gây gãy phức hợp GMCT (94,8% trong nghiên cứu này). Đây là điểm cần đặc biệt chú ý khi khai thác bệnh sử.
+    *   **Bài học cho bác sĩ trẻ:** Luôn nghĩ đến gãy GMCT ở nam giới trẻ tuổi có tiền sử tai nạn giao thông. Việc khai thác kỹ cơ chế chấn thương giúp định hướng chẩn đoán ban đầu rất hiệu quả.
+2.  **Các tổn thương phối hợp cần lưu ý (theo thứ tự tỷ lệ phổ biến):**
+    *   **Tổn thương xương phối hợp:**
+        *   Gãy GMCT đơn thuần: 54,1%
+        *   Kết hợp gãy xương hàm trên: 26,9%
+        *   Kết hợp gãy xương hàm dưới: 9,8%
+        *   Kết hợp gãy cả xương hàm trên + hàm dưới: 9,2%
+        *   **Lời khuyên:** Đừng chỉ tập trung vào xương gò má. Luôn đánh giá toàn bộ xương vùng mặt, đặc biệt là xương hàm trên và hàm dưới, vì chúng thường có thể bị tổn thương đồng thời. Việc bỏ sót các tổn thương phối hợp có thể dẫn đến kết quả điều trị không tối ưu.
+    *   **Tổn thương cơ quan khác:**
+        *   **Chấn thương sọ não (CTSN):** Chiếm tỷ lệ cao nhất (36,1%). Đây là tổn thương đặc biệt nguy hiểm, cần được ưu tiên chẩn đoán và xử trí sớm.
+        *   **Chấn thương chi:** 24,3%
+        *   **Chấn thương ngực:** 6,9%
+        *   **Chấn thương bụng:** 2,3%
+        *   **Chấn thương cột sống:** 1,6%
+        *   **Bài học lâm sàng:** Một bệnh nhân có chấn thương vùng mặt do tai nạn giao thông cần được khám toàn diện từ đầu đến chân. Đừng bao giờ bỏ qua khả năng có đa chấn thương, đặc biệt là chấn thương sọ não. Kỹ năng khám nhanh, sàng lọc các tổn thương nguy hiểm là tối quan trọng trong phòng cấp cứu. Mã ICD-10 cho gãy xương gò má là S02.4, và nếu có kèm chấn thương sọ não, bạn sẽ cần các mã liên quan đến S06 để phản ánh đầy đủ tình trạng bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên và bác sĩ trẻ trong việc nâng cao kỹ năng chẩn đoán và thực hành lâm sàng theo các tiêu chuẩn quốc tế và Bộ Y tế.</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Khi nghi ngờ một bệnh nhân bị gãy xương phức hợp gò má cung tiếp, những dấu hiệu lâm sàng nào cần được ưu tiên đánh giá và phương pháp chẩn đoán hình ảnh nào là 'tiêu chuẩn vàng' mà các bác sĩ trẻ cần thành thạo để đưa ra chẩn đoán chính xác?</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Để chẩn đoán chính xác gãy xương phức hợp gò má cung tiếp (GMCT), sinh viên y khoa và bác sĩ trẻ cần thành thạo việc nhận diện các dấu hiệu lâm sàng và lựa chọn phương pháp chẩn đoán hình ảnh phù hợp. Dưới đây là những điểm cốt lõi:
+**1. Các dấu hiệu lâm sàng ưu tiên cần đánh giá:**
+Khi khám một bệnh nhân nghi ngờ gãy GMCT, một đánh giá có hệ thống là cần thiết. Các dấu hiệu thường gặp nhất bao gồm:
+*   **Đau chói tại điểm gãy:** Đây là dấu hiệu cơ bản, thường rõ ràng khi sờ nắn.
+*   **Mất liên tục bờ dưới ổ mắt (step-off):** Cảm giác xương bị lệch hoặc lõm xuống khi sờ nắn dọc bờ xương ổ mắt.
+*   **Bầm tím quanh hốc mắt (Periorbital ecchymosis):** Hay còn gọi là 'mắt gấu trúc' (raccoon eyes), do máu tụ dưới da quanh mắt. Đây là dấu hiệu rất gợi ý chấn thương vùng mặt.
+*   **Sưng nề phần mềm:** Vùng gò má sưng to do phù nề và tụ máu.
+*   **Lõm bẹt gò má:** Vùng gò má có thể bị lõm vào, đặc biệt dễ nhận thấy khi so sánh hai bên mặt.
+*   **Hạn chế há miệng:** Do mảnh xương gãy chèn ép vào cơ thái dương hoặc khớp thái dương hàm.
+*   **Chảy máu mũi (Epistaxis):** Nếu có tổn thương thành xoang hàm hoặc sàn ổ mắt.
+*   **Tê bì vùng mặt:** Do tổn thương dây thần kinh dưới ổ mắt (nhánh của dây V2).
+**2. Phương pháp chẩn đoán hình ảnh 'tiêu chuẩn vàng':**
+*   **CT scanner (Computed Tomography):** Đây là phương pháp chẩn đoán hình ảnh được coi là tiêu chuẩn vàng trong chẩn đoán gãy xương vùng mặt. Lý do là:
+    *   **Độ nhạy, độ đặc hiệu và độ phân giải cao:** Cho phép nhìn rõ các đường gãy nhỏ, di lệch và các mảnh xương vỡ.
+    *   **Lát cắt mỏng (0.625 - 1 mm):** Cung cấp hình ảnh chi tiết, không bỏ sót tổn thương.
+    *   **Các lát cắt đa chiều:** Hình ảnh trên axial, coronal, sagittal giúp đánh giá toàn diện gãy xương và các cấu trúc lân cận.
+    *   **Dựng hình 3D:** Giúp phẫu thuật viên hình dung rõ ràng hơn về hình thái gãy xương, mức độ di lệch và lập kế hoạch phẫu thuật hiệu quả. Đặc biệt hữu ích trong các trường hợp gãy phức tạp.
+*   **Khuyến nghị cho bác sĩ trẻ:** Thành thạo việc chỉ định và đọc phim CT scanner vùng mặt là kỹ năng bắt buộc. Hãy luôn yêu cầu các lát cắt đầy đủ và dựng hình 3D khi nghi ngờ gãy phức hợp GMCT để có cái nhìn tổng quan nhất về tổn thương. Nắm vững giải phẫu học trên phim CT sẽ giúp bạn xác định chính xác vị trí gãy xương, từ đó mã hóa theo ICD-10 chính xác hơn (ví dụ: S02.40 cho gãy gò má không xác định, S02.41 cho xương gò má hoặc cung tiếp, S02.42 cho gãy sàn ổ mắt do gò má, v.v.).</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, giúp bác sĩ và sinh viên y khoa phân loại tổn thương, hiểu cơ chế bệnh sinh và lựa chọn phương pháp điều trị phù hợp theo chuẩn ICD-10 và các khuyến nghị lâm sàng.</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Em muốn hiểu rõ hơn về phân loại gãy xương phức hợp gò má cung tiếp theo Knight-North và tầm quan trọng của việc đánh giá các tổn thương phối hợp vùng mặt, đặc biệt là xoang. Xin chuyên gia hướng dẫn cách áp dụng kiến thức này trong thực hành lâm sàng và những điểm cần lưu ý?</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Việc hiểu và áp dụng phân loại gãy xương, đặc biệt là gãy phức hợp gò má cung tiếp (GMCT) theo Knight-North, cùng với đánh giá các tổn thương phối hợp vùng mặt, là kiến thức nền tảng giúp bác sĩ trẻ lập kế hoạch điều trị tối ưu. Hãy cùng đi sâu vào những khía cạnh này:
+**1. Phân loại gãy xương GMCT theo Knight-North và ứng dụng lâm sàng:**
+Phân loại Knight-North giúp mô tả hình thái gãy xương GMCT dựa trên mức độ di lệch và vị trí tổn thương. Việc nắm vững phân loại này giúp bạn:
+*   **Đánh giá mức độ tổn thương:** Từ gãy đơn thuần đến phức tạp.
+*   **Dự đoán cơ chế chấn thương:** Hình thái gãy xương phản ánh lực và hướng tác động của chấn thương.
+*   **Lập kế hoạch phẫu thuật:** Mỗi loại gãy có thể đòi hỏi phương pháp tiếp cận và kỹ thuật cố định khác nhau.
+*   **Trao đổi thông tin:** Giúp các bác sĩ lâm sàng và phẫu thuật viên dễ dàng thống nhất về tình trạng bệnh nhân.
+**Bảng phân loại gãy xương GMCT theo Knight-North (Tỷ lệ trong nghiên cứu):**
+| Loại Gãy Xương GMCT theo Knight-North | Mô tả                                         | Tỷ lệ (%) trong nghiên cứu | Ý nghĩa lâm sàng cho bác sĩ trẻ                  |
+| :----------------------------------- | :-------------------------------------------- | :------------------------- | :--------------------------------------------- |
+| Gãy xương cung tiếp đơn thuần       | Chỉ gãy cung tiếp gò má                        | 3,9%                       | Thường ít di lệch, có thể điều trị bảo tồn hoặc phẫu thuật tối thiểu nếu có ảnh hưởng thẩm mỹ/chức năng. |
+| Gãy xương GMCT không di lệch         | Thân xương gò má gãy nhưng không di lệch đáng kể | 2,3%                       | Cần đánh giá kỹ di lệch nhỏ và tổn thương sàn ổ mắt. Có thể điều trị bảo tồn nếu không có biến chứng. |
+| Gãy thân xương gò má không xoay      | Thân xương gò má gãy nhưng không bị xoay trục   | 29,2%                      | Cần nắn chỉnh và cố định để phục hồi thể tích ổ mắt và cung gò má. |
+| Gãy thân xương gò má xoay ra ngoài   | Thân xương gò má gãy và xoay ra phía ngoài      | 23,6%                      | Yêu cầu nắn chỉnh xoay và cố định vững chắc. Cần chú ý phục hồi vùng khớp thái dương gò má. |
+| Gãy thân xương gò má xoay vào trong  | Thân xương gò má gãy và xoay vào phía trong     | 28,5%                      | Nguy cơ chèn ép khoang ổ mắt, ảnh hưởng chức năng. Cần nắn chỉnh và cố định. |
+| Gãy xương GMCT phức tạp             | Nhiều mảnh vỡ, di lệch nghiêm trọng, liên quan nhiều xương | 12,5%                      | Thách thức trong phẫu thuật, đòi hỏi kinh nghiệm và kỹ thuật tái tạo phức tạp. |
+**Bài học cho bác sĩ trẻ:** Hãy sử dụng phân loại Knight-North như một công cụ tư duy để hệ thống hóa thông tin gãy xương. Khi đọc phim CT, hãy cố gắng xác định loại gãy theo phân loại này để định hướng thảo luận với đồng nghiệp và lập kế hoạch phẫu thuật. Mã ICD-10 cho gãy xương gò má (S02.4) có thể cần được bổ sung bằng các mã chi tiết hơn về các xương mặt khác nếu có phối hợp.
+**2. Tầm quan trọng của việc đánh giá các tổn thương phối hợp vùng mặt, đặc biệt là xoang:**
+*   **Tỷ lệ tổn thương xoang hàm cao:** Nghiên cứu cho thấy tỷ lệ tổn thương xoang (đặc biệt là xoang hàm) là rất lớn (93,1%). Điều này là do cấu trúc xoang hàm nằm gần và liền kề với xương gò má, và các thành xoang tương đối mỏng, dễ bị vỡ khi có lực chấn thương.
+*   **Các tổn thương phối hợp khác:** Xương hàm trên (36,1%), xương chính mũi (24,3%), xương hàm dưới (19%).
+*   **Ứng dụng lâm sàng và điểm cần lưu ý:**
+    *   **Khám toàn diện:** Không bao giờ chỉ tập trung vào điểm gãy chính. Luôn khám và đánh giá tất cả các xương vùng mặt (sờ nắn, kiểm tra dấu hiệu bầm tím, sưng nề, biến dạng, khớp cắn, vận động nhãn cầu, cảm giác vùng mặt).
+    *   **Chẩn đoán hình ảnh:** Khi đọc phim CT, cần chú ý kỹ các thành của xoang hàm, xoang sàng, xoang trán để tìm kiếm dấu hiệu vỡ, tụ khí hoặc dịch (máu) trong xoang. Vỡ xoang hàm thường đi kèm với gãy xương gò má, và có thể dẫn đến nhiễm trùng xoang hoặc các biến chứng khác nếu không được quản lý đúng cách.
+    *   **Kế hoạch điều trị:** Kế hoạch phẫu thuật cần tính đến việc nắn chỉnh và cố định không chỉ gãy xương gò má mà còn cả các tổn thương phối hợp như xương hàm trên, hàm dưới, và đặc biệt là kiểm soát tình trạng xoang. Ví dụ, việc nắn chỉnh sàn ổ mắt bị vỡ do gãy GMCT có thể cần thiết để tránh lồi mắt hoặc song thị. Điều trị tổn thương xoang có thể bao gồm dẫn lưu, sử dụng kháng sinh để phòng ngừa nhiễm trùng.
+    *   **Mã ICD-10:** Gãy xương gò má (S02.4) thường được kết hợp với các mã khác như S02.8 (Gãy xương sọ hoặc mặt khác) để mô tả đầy đủ các tổn thương phối hợp vùng mặt.</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các phác đồ điều trị cập nhật, hướng dẫn bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, xin vui lòng giải thích về đặc điểm bệnh học của Ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC) và các điểm cần lưu ý khi chẩn đoán bệnh lý này ở giai đoạn muộn, di căn theo chuẩn ICD-10?</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Chào bạn, với vai trò là một bác sĩ chuyên khoa, tôi sẽ hướng dẫn bạn cách tiếp cận Ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC) một cách toàn diện, đặc biệt trong bối cảnh chẩn đoán và mã hóa theo ICD-10.
+**1. Đặc điểm bệnh học của LCNEC:**
+*   **Vị trí hiếm gặp và độ ác tính cao**: LCNEC là một dạng ung thư phổi tương đối hiếm gặp, chiếm khoảng 3% tổng số khối u ác tính tại phổi và khoảng 15% trong số các u thần kinh nội tiết biểu hiện tại phổi. Đây là một loại ung thư thần kinh nội tiết độ ác tính cao, có đặc điểm tế bào khối u kém biệt hóa và tiên lượng xấu.
+*   **Đặc điểm tế bào học**: Mặc dù được xếp vào nhóm ung thư thần kinh nội tiết độ ác tính cao cùng với ung thư phổi tế bào nhỏ (SCLC), LCNEC có đặc điểm hình thái tế bào khác với SCLC nhưng vẫn giữ các đặc điểm của tế bào thần kinh nội tiết (như sự biểu hiện của các dấu ấn thần kinh nội tiết trên hóa mô miễn dịch).
+*   **Tiên lượng**: Bệnh có tiên lượng rất xấu, đặc biệt ở giai đoạn muộn. Tỷ lệ sống thêm 5 năm giảm dần theo giai đoạn, và ở giai đoạn IV thường là 0%.
+**2. Các điểm cần lưu ý khi chẩn đoán LCNEC giai đoạn muộn, di căn:**
+Để chẩn đoán chính xác LCNEC, đặc biệt ở giai đoạn muộn và di căn, bạn cần thực hiện một quy trình chẩn đoán đa phương thức:
+*   **Lâm sàng**: Đánh giá tổng trạng bệnh nhân (ECOG performance status), các triệu chứng liên quan đến u nguyên phát (ho, khó thở, đau ngực) và các triệu chứng của di căn (đau xương, triệu chứng thần kinh...). Bệnh nhân thường đến khám khi đã có di căn xa.
+*   **Cận lâm sàng**: 
+    *   **Chẩn đoán hình ảnh**: Chụp cắt lớp vi tính (CT scan) ngực-bụng có tiêm thuốc cản quang, có thể kết hợp với PET/CT để đánh giá mức độ lan rộng của u nguyên phát và phát hiện các vị trí di căn (hạch, gan, xương, não...). Nghiên cứu chỉ ra rằng di căn nhiều cơ quan và di căn hạch N2 là phổ biến.
+    *   **Mô bệnh học**: Đây là tiêu chuẩn vàng. Cần lấy mẫu mô (sinh thiết u phổi, hạch di căn hoặc vị trí di căn khác) để làm xét nghiệm giải phẫu bệnh. Trên tiêu bản, cần tìm thấy các đặc điểm tế bào lớn, biệt hóa kém, và có các đặc điểm của tế bào thần kinh nội tiết.
+    *   **Hóa mô miễn dịch (IHC)**: Xác nhận bản chất thần kinh nội tiết bằng cách nhuộm các dấu ấn như Chromogranin A, Synaptophysin, CD56, TTF-1. Điều này rất quan trọng để phân biệt LCNEC với các loại ung thư phổi không tế bào nhỏ (NSCLC) khác hoặc SCLC.
+**3. Mã hóa theo ICD-10:**
+*   Khi mã hóa LCNEC theo ICD-10, bạn sẽ bắt đầu với mã cho **Khối u ác tính của phế quản hoặc phổi** là **C34.-** (với dấu chấm để chỉ định vị trí cụ thể như C34.1 cho thùy trên, C34.3 cho thùy dưới, v.v.).
+*   Để chi tiết hóa loại mô học, ICD-10 thường kết hợp với mã hóa mô học (ICD-O-3). Mặc dù ICD-10 không có mã riêng cho 'LCNEC' ở cấp độ 4 chữ số, nhưng trên các báo cáo giải phẫu bệnh, bạn sẽ thấy mã mô học **8013/3** cho 'Carcinôm thần kinh nội tiết tế bào lớn' (Large Cell Neuroendocrine Carcinoma, NOS). Khi tư vấn cho mã hóa viên, bạn cần cung cấp đầy đủ thông tin về vị trí và loại mô học cụ thể này để đảm bảo dữ liệu y tế được chính xác, phục vụ cho thống kê và nghiên cứu bệnh học về sau. Việc này giúp nắm bắt đúng bản chất bệnh lý, phân biệt với các loại ung thư phổi khác để có kế hoạch điều trị và theo dõi phù hợp.</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các phác đồ điều trị cập nhật, hướng dẫn bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Em là một bác sĩ nội trú. Dựa trên nghiên cứu này, chuyên gia có thể phân tích sâu hơn về phác đồ Etoposide/Cisplatin trong điều trị Ung thư phổi thần kinh nội tiết tế bào lớn tái phát, di căn, và các yếu tố tiên lượng nào cần được chú ý khi áp dụng phác đồ này?</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Với vai trò là một bác sĩ nội trú, việc nắm vững các phác đồ điều trị và các yếu tố tiên lượng là vô cùng quan trọng. Dưới đây là phân tích chi tiết về phác đồ Etoposide/Cisplatin và các yếu tố liên quan trong điều trị LCNEC tái phát, di căn:
+**1. Phân tích phác đồ Etoposide/Cisplatin:**
+*   **Cơ sở khoa học**: Nghiên cứu này khẳng định việc áp dụng phác đồ Cisplatin/Etoposide cho LCNEC giai đoạn muộn, tái phát, di căn, tương tự như ung thư phổi tế bào nhỏ (SCLC). Điều này dựa trên sự tương đồng về đặc điểm thần kinh nội tiết và độ ác tính cao giữa hai loại ung thư này. Etoposide là một chất ức chế topoisomerase II, trong khi Cisplatin là một tác nhân alkyl hóa, cả hai đều có tác dụng gây độc tế bào mạnh.
+*   **Hiệu quả trên lâm sàng**: Kết quả nghiên cứu cho thấy:
+    *   **Tỷ lệ kiểm soát bệnh (DCR)**: Đạt 69,7%. Điều này có nghĩa là gần 70% bệnh nhân có thể đạt được đáp ứng hoàn toàn, đáp ứng một phần hoặc bệnh ổn định.
+    *   **Tỷ lệ đáp ứng toàn bộ (ORR)**: Đạt 42,4%. Đây là tỷ lệ bệnh nhân có đáp ứng hoàn toàn hoặc đáp ứng một phần với điều trị. Mặc dù có vẻ khiêm tốn so với một số loại ung thư khác, nhưng với LCNEC giai đoạn tái phát/di căn, đây là một kết quả đáng khích lệ.
+*   **Khả năng dung nạp**: Các nghiên cứu khác (như Yamazaki và cộng sự) đã chỉ ra rằng phác đồ này có khả năng dung nạp tốt, tương tự như trên nhóm bệnh nhân SCLC. Tuy nhiên, bạn vẫn cần quản lý chặt chẽ các tác dụng phụ thường gặp.
+**2. Các yếu tố tiên lượng cần chú ý khi áp dụng phác đồ:**
+Khi đánh giá bệnh nhân và dự đoán hiệu quả điều trị bằng Etoposide/Cisplatin, bạn cần đặc biệt quan tâm đến các yếu tố tiên lượng được rút ra từ nghiên cứu và kinh nghiệm lâm sàng:
+| Yếu tố tiên lượng               | Mô tả và ý nghĩa                                                                                             | Giá trị trong nghiên cứu này                      |
+| :------------------------------- | :---------------------------------------------------------------------------------------------------------- | :------------------------------------------------ | 
+| **Tình trạng toàn thân (ECOG PS)** | Đánh giá khả năng hoạt động hàng ngày của bệnh nhân. ECOG PS thấp (0-1) cho thấy bệnh nhân có khả năng dung nạp hóa trị tốt hơn và tiên lượng tốt hơn. | 54,5% bệnh nhân có ECOG 1                         |
+| **Di căn nhiều cơ quan**         | Bệnh nhân có di căn đến nhiều vị trí khác nhau thường có gánh nặng khối u lớn và tiên lượng xấu hơn.       | Chiếm tỷ lệ cao 81,8% số bệnh nhân                 |
+| **Di căn hạch N2**               | Di căn hạch nhóm N2 (hạch trung thất cùng bên hoặc dưới carina) cho thấy bệnh đã lan rộng và tiên lượng kém. | 19 bệnh nhân có tình trạng di căn hạch nhóm N2  |
+| **Giai đoạn T (kích thước u nguyên phát)** | U nguyên phát có kích thước lớn (T3, T4) thường liên quan đến bệnh nặng hơn và tiên lượng xấu hơn.     | Trên 50% số bệnh nhân có u ở giai đoạn T3 hoặc T4 |
+| **Tuổi trung bình**             | Mặc dù không phải là yếu tố tiên lượng độc lập, tuổi cao có thể liên quan đến nhiều bệnh nền và giảm khả năng dung nạp hóa trị. | Tuổi trung bình 62 (35-69 tuổi)                  |
+| **Tỷ lệ nam/nữ**                | Tỷ lệ nam giới cao hơn đáng kể (7,26/1) cho thấy sự phân bố giới tính đặc trưng, có thể liên quan đến các yếu tố nguy cơ. | Tỉ lệ nam/nữ là 7,26/1                            |
+**3. Thực hành cho bác sĩ nội trú:**
+*   **Đánh giá kỹ lưỡng**: Luôn đánh giá kỹ tình trạng tổng thể của bệnh nhân (ECOG PS), các bệnh nền, chức năng thận và gan trước khi bắt đầu phác đồ Cisplatin/Etoposide. Đặc biệt chú ý đến chức năng thận vì Cisplatin có nguy cơ gây độc thận.
+*   **Quản lý tác dụng phụ**: Chuẩn bị sẵn sàng các biện pháp hỗ trợ để quản lý các tác dụng phụ thường gặp như buồn nôn, nôn (dùng thuốc chống nôn mạnh), suy tủy (theo dõi công thức máu, truyền máu/tiểu cầu nếu cần, sử dụng G-CSF), mệt mỏi.
+*   **Theo dõi đáp ứng**: Đánh giá định kỳ đáp ứng điều trị bằng hình ảnh học và các chỉ số lâm sàng để điều chỉnh phác đồ nếu cần. Giải thích rõ ràng cho bệnh nhân và người nhà về mục tiêu điều trị và các tác dụng phụ có thể xảy ra.</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các phác đồ điều trị cập nhật, hướng dẫn bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Là một sinh viên y khoa sắp ra trường, em thấy Ung thư phổi thần kinh nội tiết tế bào lớn có tiên lượng rất xấu. Chuyên gia có thể tư vấn những thách thức lâm sàng chính và hướng tiếp cận để cải thiện kết quả điều trị cho bệnh nhân LCNEC di căn, tái phát, đặc biệt là trong bối cảnh thực hành tại Việt Nam?</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Với tư cách là một sinh viên y khoa sắp ra trường, việc bạn nhận thức được tính chất nghiêm trọng của Ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC) là rất quan trọng. Đây thực sự là một bệnh lý có tiên lượng khắc nghiệt, đặc biệt ở giai đoạn muộn. Tôi sẽ chia sẻ những thách thức lâm sàng chính và các hướng tiếp cận để bạn có thể áp dụng trong thực hành y khoa của mình, đặc biệt tại Việt Nam.
+**1. Những thách thức lâm sàng chính đối với LCNEC tái phát, di căn:**
+*   **Độ hiếm và chẩn đoán khó khăn**: LCNEC là bệnh hiếm, thường bị chẩn đoán nhầm với các loại ung thư phổi khác (như ung thư biểu mô tuyến hoặc ung thư tế bào nhỏ) nếu không có đủ xét nghiệm hóa mô miễn dịch. Điều này có thể dẫn đến chậm trễ hoặc sai lệch trong điều trị ban đầu.
+*   **Tính chất hung hãn của bệnh**: Bệnh thường tiến triển nhanh, có xu hướng di căn sớm và rộng rãi tới nhiều cơ quan. Khi bệnh đã ở giai đoạn tái phát hoặc di căn, gánh nặng khối u thường lớn, khó kiểm soát.
+*   **Tiên lượng xấu**: Như bạn đã biết, tỷ lệ sống thêm 5 năm rất thấp, đặc biệt ở giai đoạn IV (0%). Điều này đặt ra áp lực lớn cho cả bệnh nhân, gia đình và đội ngũ y tế.
+*   **Hạn chế về phác đồ điều trị**: Hiện tại, phác đồ hóa trị dựa trên Platinum/Etoposide là phác đồ tiêu chuẩn cho LCNEC giai đoạn muộn, do sự tương đồng với SCLC. Tuy nhiên, hiệu quả duy trì đáp ứng thường không kéo dài, và các lựa chọn điều trị sau thất bại phác đồ đầu tay còn hạn chế.
+*   **Quản lý tác dụng phụ và chất lượng sống**: Hóa trị liệu thường đi kèm với nhiều tác dụng phụ nghiêm trọng, ảnh hưởng đáng kể đến chất lượng sống của bệnh nhân. Việc cân bằng giữa hiệu quả điều trị và quản lý tác dụng phụ là một thách thức.
+**2. Hướng tiếp cận để cải thiện kết quả điều trị trong bối cảnh thực hành tại Việt Nam:**
+Để trở thành một bác sĩ giỏi trong lĩnh vực này, bạn cần phát triển tư duy lâm sàng toàn diện và luôn cập nhật kiến thức:
+*   **a. Nâng cao năng lực chẩn đoán và phân loại bệnh:**
+    *   **Thực hành sinh thiết và giải phẫu bệnh chất lượng cao**: Đảm bảo các mẫu sinh thiết đủ chất lượng và được gửi đến các phòng xét nghiệm có khả năng thực hiện hóa mô miễn dịch đầy đủ để xác định chính xác bản chất thần kinh nội tiết. Điều này đòi hỏi sự hợp tác chặt chẽ với các bác sĩ giải phẫu bệnh.
+    *   **Hiểu rõ các tiêu chí chẩn đoán**: Nắm vững các tiêu chí chẩn đoán LCNEC theo phân loại của WHO, bao gồm cả hình thái học tế bào và các dấu ấn hóa mô miễn dịch.
+*   **b. Tiếp cận điều trị đa mô thức và cá thể hóa:**
+    *   **Tham gia hội chẩn đa chuyên khoa (Tumor Board)**: Đây là một kinh nghiệm quý giá. Hãy học cách trình bày ca bệnh, lắng nghe ý kiến từ các chuyên gia khác (phẫu thuật viên, xạ trị, chẩn đoán hình ảnh, giải phẫu bệnh, chăm sóc giảm nhẹ) để đưa ra quyết định điều trị tối ưu cho từng bệnh nhân. Việc này rất quan trọng trong môi trường bệnh viện ở Việt Nam, nơi nguồn lực có thể còn hạn chế.
+    *   **Cân nhắc các phác đồ mới (nếu có)**: Luôn cập nhật thông tin về các nghiên cứu mới, các liệu pháp nhắm trúng đích hoặc liệu pháp miễn dịch đang được thử nghiệm hoặc đã được chấp thuận cho LCNEC, dù hiện tại còn ít. Mặc dù bài viết không đề cập, nhưng đây là hướng phát triển của ung thư học hiện đại.
+*   **c. Chú trọng chăm sóc hỗ trợ và giảm nhẹ:**
+    *   **Quản lý triệu chứng toàn diện**: Do tiên lượng xấu, việc quản lý triệu chứng đau, khó thở, chán ăn, mệt mỏi... là cực kỳ quan trọng để duy trì chất lượng sống cho bệnh nhân. Hãy học hỏi và áp dụng các nguyên tắc của y học giảm nhẹ từ sớm trong quá trình điều trị.
+    *   **Hỗ trợ tâm lý xã hội**: Bệnh nhân và gia đình đối mặt với nhiều áp lực. Bạn cần có kỹ năng giao tiếp tốt, đồng cảm và cung cấp thông tin rõ ràng, trung thực về bệnh tình và lựa chọn điều trị.
+*   **d. Không ngừng học hỏi và nghiên cứu:**
+    *   **Đọc và phân tích các bài báo khoa học**: Như bài báo bạn vừa đọc, đây là cách tốt để cập nhật kiến thức, hiểu rõ hơn về tình hình thực tế và hiệu quả điều trị tại các bệnh viện lớn trong nước. Hãy tập đặt câu hỏi và phân tích phê bình các kết quả nghiên cứu.
+    *   **Tham gia các hội nghị, khóa học CME**: Đây là cơ hội để bạn gặp gỡ các chuyên gia, trao đổi kinh nghiệm và tiếp cận các tiến bộ mới trong điều trị ung thư phổi nói chung và LCNEC nói riêng. Tại Việt Nam, có nhiều hội thảo về ung thư được tổ chức thường xuyên.
+Nhớ rằng, y học là một hành trình học hỏi không ngừng. Với một bệnh phức tạp như LCNEC, sự tỉ mỉ trong chẩn đoán, sự toàn diện trong điều trị và lòng nhân ái với bệnh nhân sẽ là kim chỉ nam cho bạn.</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Chào chuyên gia, tôi là sinh viên y khoa năm cuối. Em muốn tìm hiểu sâu hơn về cách chẩn đoán và phân loại giai đoạn ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC) dựa trên các tiêu chuẩn quốc tế và Việt Nam. Làm thế nào để áp dụng chuẩn đoán này vào thực hành lâm sàng một cách chính xác, đặc biệt là khi đối chiếu với các tài liệu nghiên cứu như bài viết này?</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng đối với các bác sĩ trẻ và sinh viên y khoa khi tiếp cận các bệnh lý ung thư phức tạp như LCNEC. Việc chẩn đoán và phân loại giai đoạn chính xác là nền tảng cho mọi quyết định điều trị.
+**Hướng dẫn áp dụng trong thực hành lâm sàng:**
+*   **Tiêu chuẩn mô bệnh học (Pathology):** Luôn tuân thủ phân loại của Tổ chức Y tế Thế giới (WHO). Bài viết này đã sử dụng **WHO 2016**, đó là tiêu chuẩn vàng. Điều này có nghĩa là, khi bạn nhận được kết quả giải phẫu bệnh, cần đảm bảo rằng bác sĩ giải phẫu bệnh đã sử dụng các tiêu chí của WHO để xác định LCNEC, bao gồm đặc điểm tế bào thần kinh nội tiết và kích thước tế bào lớn. Hãy chủ động trao đổi với đồng nghiệp giải phẫu bệnh để đảm bảo sự thống nhất trong chẩn đoán.
+*   **Phân loại giai đoạn (Staging):** Đối với ung thư phổi, hệ thống phân loại TNM của **AJCC (American Joint Committee on Cancer)** là tiêu chuẩn toàn cầu. Nghiên cứu này sử dụng **AJCC 2017 (phiên bản 8)** cho giai đoạn tái phát hoặc di căn. Việc này đòi hỏi bạn phải thành thạo việc đọc và diễn giải các kết quả chẩn đoán hình ảnh (CT, MRI, PET/CT) và sinh thiết hạch, sinh thiết các vị trí di căn để xác định chính xác giai đoạn T (u nguyên phát), N (hạch vùng) và M (di căn xa). Giai đoạn IV (như trong nghiên cứu) thường ám chỉ có di căn xa.
+*   **Mã hóa theo ICD-10:** Để quản lý hồ sơ bệnh án và thống kê y tế theo Bộ Y tế Việt Nam, bạn cần mã hóa bệnh lý này. Ung thư phổi ác tính nói chung được mã hóa theo **ICD-10 là C34.-** (tùy thuộc vào vị trí cụ thể trong phổi). Đối với LCNEC, đây là một dạng ung thư phổi thần kinh nội tiết. Trong mã hóa mô bệnh học (ICD-O-3), nó thường được xác định là **M8013/3** (Carcinoma, large cell neuroendocrine). Khi ghi hồ sơ, bạn nên ghi rõ chẩn đoán đầy đủ: "Ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC), giai đoạn IV, theo phân loại WHO 2016 và AJCC 2017, mã ICD-10 C34._, M8013/3".
+*   **Tầm quan trọng của dữ liệu nghiên cứu:** Khi đọc các nghiên cứu như thế này, hãy chú ý đến các tiêu chuẩn chẩn đoán và phân loại mà nghiên cứu áp dụng. Điều này giúp bạn đánh giá tính phù hợp và khả năng áp dụng kết quả nghiên cứu vào thực hành lâm sàng của mình, cũng như hiểu rõ hơn về đặc điểm quần thể bệnh nhân được nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Chẩn đoán và Điều trị Ung thư Phổi của Bộ Y tế Việt Nam phiên bản mới nhất.</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng hợp các khuyến nghị về chẩn đoán, phân loại giai đoạn và phác đồ điều trị ung thư phổi tại Việt Nam, bao gồm cả các loại mô bệnh học đặc biệt như LCNEC, giúp bác sĩ nắm vững các quy định và thực hành theo chuẩn mực quốc gia.</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Cập nhật Phân loại và Phân giai đoạn Ung thư Phổi theo WHO và AJCC: Tiếp cận Thực hành Lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức chuyên sâu về các tiêu chuẩn chẩn đoán mô bệnh học (WHO 2016/2021) và phân loại giai đoạn TNM (AJCC 8th edition) cho ung thư phổi, bao gồm LCNEC. Các trường hợp lâm sàng sẽ được thảo luận để học viên có thể áp dụng kiến thức một cách hiệu quả trong việc đọc kết quả và đưa ra quyết định điều trị ban đầu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Chuyên gia có thể giải thích chi tiết về phác đồ Etoposide-Cisplatin được sử dụng trong nghiên cứu này cho LCNEC giai đoạn IV? Đồng thời, những tiêu chuẩn lựa chọn và loại trừ bệnh nhân nào là quan trọng nhất mà các bác sĩ trẻ cần ghi nhớ để đảm bảo an toàn và hiệu quả điều trị?</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Tuyệt vời, việc hiểu rõ phác đồ điều trị và cách chọn lọc bệnh nhân là cực kỳ quan trọng để đảm bảo an toàn và tối ưu hóa hiệu quả điều trị hóa chất. 
+**1. Phác đồ Etoposide-Cisplatin:**
+Phác đồ này được xem là một trong những lựa chọn tiêu chuẩn cho các khối u thần kinh nội tiết có độ ác tính cao, bao gồm cả ung thư phổi tế bào nhỏ (SCLC) và LCNEC.
+*   **Cisplatin:** Là một thuốc hóa trị thuộc nhóm platin, hoạt động bằng cách tạo liên kết chéo với DNA, gây tổn thương DNA và dẫn đến chết tế bào ung thư. Liều dùng trong nghiên cứu là **80mg/m² da, tiêm tĩnh mạch vào ngày 1 của chu kỳ.**
+*   **Etoposide:** Là một chất ức chế topoisomerase II, gây đứt gãy DNA và cản trở quá trình phân chia tế bào. Liều dùng trong nghiên cứu là **100mg/m² da, tiêm tĩnh mạch vào các ngày 1-3 của chu kỳ.**
+*   **Chu kỳ:** Phác đồ được lặp lại **mỗi 3 tuần**. Điều này cho phép cơ thể bệnh nhân có thời gian phục hồi sau tác dụng phụ của hóa chất.
+**2. Tiêu chuẩn lựa chọn bệnh nhân (Inclusion Criteria):**
+Đây là những yếu tố mà các bác sĩ lâm sàng phải đánh giá cẩn thận trước khi bắt đầu điều trị để đảm bảo bệnh nhân đủ khả năng chịu đựng phác đồ.
+*   **Chẩn đoán xác định LCNEC giai đoạn IV:** Cần dựa trên mô bệnh học (WHO 2016) và phân loại giai đoạn (AJCC 2017) như đã nói. Đây là yếu tố tiên quyết.
+*   **Ít nhất 3 chu kỳ Etoposide-Cisplatin:** Đây là tiêu chuẩn của nghiên cứu, cho thấy bệnh nhân đã nhận được một lượng điều trị đủ để đánh giá đáp ứng. Trong thực tế lâm sàng, số chu kỳ sẽ tùy thuộc vào đáp ứng và độc tính.
+*   **Tổn thương có thể đánh giá được bằng CĐHA (MRI, CT):** Rất quan trọng để theo dõi hiệu quả điều trị.
+*   **Chưa điều trị hóa chất trước đó cho giai đoạn muộn:** Đảm bảo tính đồng nhất của nhóm nghiên cứu và tránh các yếu tố nhiễu từ các phác đồ trước đó.
+*   **Tuổi &gt;18 tuổi:** Đảm bảo bệnh nhân đủ khả năng đồng thuận và phù hợp với phác đồ người lớn.
+*   **Chỉ số toàn trạng (PS = Performance Status) = 0,1 (theo ECOG):** Đây là yếu tố cực kỳ quan trọng. PS 0 hoặc 1 cho thấy bệnh nhân có sức khỏe tốt, hoạt động bình thường hoặc chỉ bị giới hạn nhẹ, có khả năng dung nạp hóa trị. Bệnh nhân có PS cao hơn (2, 3, 4) thường không đủ điều kiện cho hóa trị liệu mạnh như thế này.
+*   **Chức năng gan thận, tủy xương trong giới hạn cho phép:** Đây là yêu cầu bắt buộc để đảm bảo an toàn. Hóa chất chuyển hóa và thải trừ qua gan/thận, và gây độc tủy xương. Các chỉ số như Bạch cầu (BC) ≥ 4 (G/l); tiểu cầu (TC) ≥ 100 (G/l); HST ≥ 100 (g/l); AST, ALT ≤ 2 lần giới hạn bình thường; bilirubin toàn phần ≤ 1,5 lần giới hạn bình thường; creatinin ≤ 1,5 lần giới hạn bình thường là các ngưỡng an toàn.
+**3. Tiêu chuẩn loại trừ bệnh nhân (Exclusion Criteria):**
+Các tiêu chuẩn này giúp sàng lọc những bệnh nhân có nguy cơ cao gặp biến chứng nghiêm trọng hoặc không phù hợp với nghiên cứu.
+*   **Chống chỉ định với thuốc (suy gan, suy thận nặng, dị ứng):** Rõ ràng, không thể sử dụng hóa chất nếu bệnh nhân có chống chỉ định.
+*   **Di căn não chưa kiểm soát ổn định:** Di căn não có thể gây ra các triệu chứng thần kinh nghiêm trọng và cần được điều trị đặc hiệu trước (ví dụ: xạ trị) để ổn định.
+*   **Mắc ung thư thứ hai:** Điều này sẽ làm phức tạp việc đánh giá hiệu quả điều trị và tiên lượng.
+*   **Bệnh nhân từ chối hợp tác hoặc không thể theo dõi:** Yếu tố đạo đức và khả năng hoàn thành nghiên cứu/điều trị.
+**Lời khuyên cho bác sĩ trẻ:** Luôn luôn đọc kỹ và tuân thủ các hướng dẫn lâm sàng về tiêu chuẩn lựa chọn và loại trừ bệnh nhân. Đừng ngần ngại tham khảo ý kiến của các chuyên gia ung bướu có kinh nghiệm khi có bất kỳ nghi ngờ nào về việc liệu bệnh nhân có phù hợp với một phác đồ hóa trị cụ thể hay không. Việc đánh giá kỹ lưỡng trước điều trị là chìa khóa để đạt được kết quả tốt và giảm thiểu rủi ro.</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Điều trị Ung thư Phổi Thần kinh Nội tiết Tế bào Lớn (LCNEC) của NCCN (National Comprehensive Cancer Network).</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các khuyến nghị lâm sàng dựa trên bằng chứng về phác đồ điều trị, lựa chọn bệnh nhân, quản lý tác dụng phụ và theo dõi bệnh nhân LCNEC, là nguồn thông tin cập nhật và đáng tin cậy cho việc ra quyết định lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Quản lý Bệnh nhân Ung thư Phổi giai đoạn IV: Lựa chọn Phác đồ Hóa trị và Đánh giá Sức khỏe Tổng quát.</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Khóa học này đi sâu vào cách đánh giá chỉ số toàn trạng (ECOG PS), chức năng cơ quan và các yếu tố tiên lượng khác để lựa chọn phác đồ hóa trị phù hợp cho bệnh nhân ung thư phổi giai đoạn muộn. Đồng thời, khóa học cũng sẽ thảo luận về các phác đồ hóa trị cụ thể như Etoposide-Cisplatin, cách quản lý các tác dụng phụ và các chiến lược điều trị hỗ trợ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Với vai trò là một bác sĩ trẻ hoặc sinh viên y khoa, làm thế nào để em có thể phân tích và hiểu được ý nghĩa lâm sàng từ các đặc điểm đối tượng nghiên cứu như tuổi, giới tính, tình trạng toàn thân (ECOG PS) và giai đoạn bệnh của nhóm bệnh nhân LCNEC trong bài viết này? Những thông tin này giúp chúng ta cải thiện việc chăm sóc bệnh nhân như thế nào?</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Phân tích đặc điểm đối tượng nghiên cứu là một kỹ năng thiết yếu giúp các bạn hiểu rõ hơn về bệnh lý, tiên lượng và cách điều chỉnh phương pháp tiếp cận bệnh nhân. Đây là cách bạn có thể diễn giải và áp dụng thông tin từ bảng kết quả:
+**1. Phân tích các đặc điểm đối tượng nghiên cứu và ý nghĩa lâm sàng:**
+| Đặc điểm           | Số bệnh nhân | Tỉ lệ %   | Nhận xét và Ý nghĩa lâm sàng                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                 |
+| :----------------- | :----------- | :-------- | :--------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- |
+| **Nhóm tuổi**      |              |           | **Tuổi trung bình: 62.0 ± 10.7 (35-69 tuổi).** Cho thấy LCNEC thường gặp ở người lớn tuổi, đây là một yếu tố cần cân nhắc về sức khỏe tổng thể và khả năng dung nạp hóa trị. Bệnh nhân lớn tuổi có thể có nhiều bệnh nền, đòi hỏi sự giám sát chặt chẽ hơn và điều chỉnh liều lượng nếu cần.                                                                                                                                                                                                                                                                                                                                                                                                                      |
+| &lt; 65               | 20           | 60.6      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| ≥ 65               | 13           | 39.4      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| **Giới**           |              |           | **Nam chiếm 87.9%, Nữ chiếm 12.1%.** Tỷ lệ nam giới mắc bệnh cao vượt trội cho thấy có thể có mối liên hệ với các yếu tố nguy cơ phổ biến ở nam giới (ví dụ: hút thuốc lá), hoặc đặc điểm sinh học của bệnh. Điều này giúp bạn nhận biết được nhóm đối tượng có nguy cơ cao cần tầm soát và tư vấn kỹ hơn.                                                                                                                                                                                                                                                                                                                                                                                                         |
+| Nam                | 29           | 87.9      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| Nữ                 | 4            | 12.1      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| **Toàn trạng (ECOG)** |              |           | **ECOG 1 chiếm 54.5%, ECOG 0 chiếm 45.5%.** Việc phần lớn bệnh nhân có ECOG 0 hoặc 1 là điều kiện tiên quyết để họ có thể nhận phác đồ hóa trị mạnh như Etoposide-Cisplatin. Điều này khẳng định tầm quan trọng của việc đánh giá PS trước điều trị. Bệnh nhân có tình trạng toàn thân tốt hơn thường có khả năng dung nạp hóa trị tốt hơn và tiên lượng cũng có thể tốt hơn.                                                                                                                                                                                                                                                                                                                        |
+| 0                  | 15           | 45.5      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| 1                  | 18           | 54.5      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| **Giai đoạn u (T)** |              |           | Cho thấy sự đa dạng về kích thước và mức độ xâm lấn của u nguyên phát trong nhóm bệnh nhân giai đoạn IV.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    |
+| T1                 | 5            | 15.2      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| T2                 | 10           | 30.3      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| T3                 | 9            | 27.3      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| T4                 | 9            | 27.3      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| **Giai đoạn hạch (N)** |              |           | **N2 chiếm 57.6%.** Tỷ lệ di căn hạch vùng trung thất cao (N2) là đặc điểm phổ biến của ung thư phổi tiến triển và là yếu tố tiên lượng quan trọng. Điều này cho thấy tầm quan trọng của việc đánh giá hạch trung thất trong chẩn đoán và phân giai đoạn.                                                                                                                                                                                                                                                                                                                                                                                                                                                   |
+| N0                 | 4            | 12.1      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| N1                 | 1            | 3.0       |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+| N2                 | 19           | 57.6      |                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            |
+**2. Cải thiện việc chăm sóc bệnh nhân dựa trên những thông tin này:**
+*   **Nắm bắt quần thể bệnh nhân điển hình:** Bạn sẽ hình dung được 'chân dung' bệnh nhân LCNEC giai đoạn IV thường gặp: nam giới, khoảng 60 tuổi, có tình trạng toàn thân tương đối tốt nhưng bệnh đã di căn và thường có di căn hạch trung thất. Điều này giúp bạn có cái nhìn thực tế khi tiếp cận bệnh nhân mới.
+*   **Đánh giá tiên lượng và tư vấn:** Các đặc điểm như giới tính, tuổi tác và đặc biệt là tình trạng toàn thân (ECOG PS) có ảnh hưởng lớn đến khả năng đáp ứng và tiên lượng. Bạn có thể sử dụng thông tin này để tư vấn cho bệnh nhân và gia đình về kỳ vọng điều trị, cũng như lên kế hoạch chăm sóc hỗ trợ phù hợp.
+*   **Tối ưu hóa quá trình tầm soát và chẩn đoán:** Với tỷ lệ nam giới cao, các chiến dịch y tế cộng đồng hoặc tư vấn lâm sàng có thể tập trung vào nhóm nguy cơ này. Đồng thời, việc đánh giá kỹ lưỡng hạch trung thất là không thể bỏ qua.
+*   **Tham gia vào các nghiên cứu:** Khi đọc các kết quả như thế này, bạn sẽ nhận ra tầm quan trọng của việc ghi nhận thông tin lâm sàng chi tiết. Khi tham gia vào các nghiên cứu hoặc tự thực hiện các báo cáo ca lâm sàng, hãy đảm bảo bạn thu thập đầy đủ các dữ liệu về đặc điểm đối tượng để có thể rút ra những kết luận có giá trị.
+Việc hiểu sâu sắc các đặc điểm này không chỉ giúp bạn giải thích kết quả nghiên cứu mà còn là nền tảng để bạn phát triển tư duy lâm sàng, đưa ra quyết định điều trị cá thể hóa và đóng góp vào việc cải thiện chất lượng chăm sóc sức khỏe toàn diện.</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Sách giáo trình 'Dịch tễ học Ung thư và Yếu tố Nguy cơ' của Trường Đại học Y Hà Nội.</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức nền tảng về dịch tễ học của các loại ung thư, bao gồm cả ung thư phổi, giúp người học hiểu rõ về phân bố bệnh, các yếu tố nguy cơ và cách thu thập, phân tích dữ liệu dịch tễ học trong lâm sàng và nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Phân tích Thống kê Y học và Ứng dụng trong Nghiên cứu Lâm sàng.</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ hướng dẫn các bác sĩ và sinh viên y khoa cách phân tích và diễn giải các dữ liệu thống kê mô tả (như trung bình, độ lệch chuẩn, tỷ lệ phần trăm) và thống kê suy luận trong các nghiên cứu lâm sàng. Học viên sẽ được trang bị kỹ năng đánh giá các đặc điểm quần thể bệnh nhân, hiểu ý nghĩa lâm sàng của chúng và áp dụng vào việc ra quyết định dựa trên bằng chứng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và kiến thức y khoa chuyên sâu.</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận một bệnh nhân nghi ngờ ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC) tái phát di căn, đặc biệt với tỉ lệ di căn lan rộng cao như nghiên cứu đã nêu, các bác sĩ trẻ và sinh viên y khoa cần thực hiện những bước đánh giá lâm sàng và cận lâm sàng nào để đảm bảo chẩn đoán và phân giai đoạn chính xác theo tiêu chuẩn y khoa quốc tế?</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ trẻ và sinh viên y khoa, việc đánh giá toàn diện bệnh nhân LCNEC tái phát di căn là vô cùng quan trọng để lập kế hoạch điều trị tối ưu. Dựa trên dữ liệu nghiên cứu và thực hành lâm sàng, các bạn cần lưu ý những điểm sau:
+*   **Thăm khám lâm sàng chi tiết:**
+    *   **Bệnh sử:** Khai thác kỹ tiền sử bệnh, các triệu chứng hiện tại (ho, khó thở, đau ngực, sụt cân, yếu mệt), thời gian khởi phát, các điều trị đã trải qua và đáp ứng. Hỏi về các triệu chứng gợi ý di căn (đau xương, đau đầu, thay đổi thị lực, co giật, vàng da...).
+    *   **Khám thực thể:** Tập trung vào hệ hô hấp, tim mạch, thần kinh, hệ vận động (khám hạch, gan, lách, các vị trí đau xương). Đánh giá tổng trạng, chỉ số ECOG performance status để lượng giá khả năng chịu đựng điều trị.
+*   **Cận lâm sàng chẩn đoán và phân giai đoạn:**
+    *   **Chẩn đoán mô bệnh học:** Đây là tiêu chuẩn vàng. Cần sinh thiết khối u nguyên phát hoặc vị trí di căn để xác định loại mô học (LCNEC) và các dấu ấn miễn dịch cần thiết (ví dụ: Chromogranin A, Synaptophysin, CD56, Ki-67). Kết quả mô bệnh học chính xác là nền tảng cho việc phân loại bệnh theo ICD-O và sau đó là mã hóa ICD-10 (ví dụ: C34.9 cho ung thư phổi không xác định vị trí, với các phân loại chi tiết hơn cho u thần kinh nội tiết).
+    *   **Chẩn đoán hình ảnh toàn thân:**
+        *   **CT scan ngực-bụng-chậu:** Đánh giá khối u nguyên phát, hạch vùng và các vị trí di căn xa phổ biến (gan, tuyến thượng thận).
+        *   **MRI sọ não:** Bắt buộc thực hiện ở bệnh nhân ung thư phổi tế bào nhỏ và LCNEC giai đoạn lan tràn do tỉ lệ di căn não cao, ngay cả khi không có triệu chứng thần kinh.
+        *   **PET-CT (Positron Emission Tomography – Computed Tomography):** Có giá trị cao trong việc phát hiện di căn xa tiềm ẩn, đặc biệt ở xương và các hạch ngoại vi, giúp đánh giá mức độ lan tràn của bệnh một cách toàn diện hơn.
+    *   **Xét nghiệm máu:** Công thức máu, chức năng gan thận, điện giải, LDH, dấu ấn ung thư (nếu có giá trị tiên lượng).
+*   **Phân giai đoạn (TNM Staging):**
+    *   Sau khi có đủ dữ liệu từ mô bệnh học và hình ảnh, hãy sử dụng hệ thống TNM (Tumor, Node, Metastasis) của UICC/AJCC để phân giai đoạn chính xác. Nghiên cứu chỉ ra rằng phần lớn bệnh nhân LCNEC đến viện đã có di căn nhiều cơ quan (81,8%) và di căn hạch mức độ N2-N3 (trên 80%), với khối u nguyên phát thường ở giai đoạn T3-T4. Điều này nhấn mạnh tầm quan trọng của việc đánh giá di căn toàn diện ngay từ đầu.
+    *   Việc hiểu rõ từng thành phần T, N, M sẽ giúp bạn xác định giai đoạn lâm sàng (cTNM) và sau này là giai đoạn bệnh lý (pTNM) nếu có phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị Ung thư phổi – Bộ Y tế Việt Nam (phiên bản mới nhất)</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các khuyến nghị lâm sàng cập nhật về chẩn đoán, phân giai đoạn và điều trị ung thư phổi tại Việt Nam, bao gồm LCNEC, phù hợp với các chuẩn mực quốc tế và hỗ trợ mã hóa theo ICD-10.</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Cập nhật Phân loại và Phân giai đoạn Ung thư phổi theo TNM và WHO</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các tiêu chuẩn phân loại mô bệnh học và phân giai đoạn lâm sàng/bệnh lý mới nhất cho ung thư phổi, giúp các bác sĩ hiểu sâu hơn về ý nghĩa tiên lượng và hướng dẫn điều trị của từng giai đoạn bệnh, bao gồm các dạng hiếm như LCNEC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và kiến thức y khoa chuyên sâu.</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Đối với các bác sĩ ung bướu lâm sàng và sinh viên đang theo học chuyên ngành, khi xem xét phác đồ Cisplatin-Etoposide (EP) cho bệnh nhân ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC) giai đoạn di căn, cần phân tích và giải thích kết quả đáp ứng điều trị như thế nào cho bệnh nhân, và những yếu tố nào ảnh hưởng đến quyết định chọn lựa phác đồ?</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Các bạn thân mến, việc hiểu rõ các kết quả đáp ứng điều trị và những yếu tố ảnh hưởng là cốt lõi để tư vấn chính xác và đưa ra quyết định lâm sàng tốt nhất. Dưới đây là phân tích và hướng dẫn cho các bạn:
+*   **Phân tích kết quả đáp ứng điều trị phác đồ Cisplatin-Etoposide (EP):**
+    Nghiên cứu của chúng ta cho thấy kết quả điều trị với phác đồ EP trên 33 bệnh nhân LCNEC tái phát di căn như sau:
+    | Đáp ứng (RECIST v1.1) | Số bệnh nhân | Tỉ lệ (%) |
+    | :-------------------- | :---------- | :-------- |
+    | Hoàn toàn (CR)        | 1           | 3.0       |
+    | Một phần (PR)         | 13          | 39.4      |
+    | Bệnh ổn định (SD)     | 9           | 27.3      |
+    | Bệnh tiến triển (PD)  | 10          | 30.3      |
+    | **Tổng**              | **33**      | **100**   |
+    Từ bảng này, chúng ta có thể rút ra:
+    *   **Tỉ lệ đáp ứng toàn bộ (Overall Response Rate - ORR):** Là tổng của đáp ứng hoàn toàn (CR) và đáp ứng một phần (PR), đạt **42.4%** trong nghiên cứu này. Đây là một chỉ số quan trọng cho thấy mức độ thu nhỏ khối u dưới tác động của hóa trị.
+    *   **Tỉ lệ kiểm soát bệnh (Disease Control Rate - DCR):** Là tổng của CR, PR và SD, đạt **69.7%**. DCR thể hiện khả năng kiểm soát sự phát triển của bệnh, bao gồm cả việc thu nhỏ khối u và duy trì ổn định kích thước khối u.
+*   **So sánh và Giải thích:**
+    *   Tỷ lệ đáp ứng 42.4% trong nghiên cứu này được ghi nhận là thấp hơn so với một số nghiên cứu khác (ví dụ, 50% với Cisplatin-duet khác, 45.76% trong nghiên cứu của Zhengxing Wang với EP, hoặc thậm chí 59.1% - 64.2% với EP ở các nhóm bệnh nhân khác).
+    *   **Lý do cho sự khác biệt:** Nghiên cứu của chúng ta có cỡ mẫu nhỏ và quan trọng hơn, phần lớn bệnh nhân đến viện khi bệnh đã ở giai đoạn lan tràn, di căn nhiều cơ quan (81.8%), và tình trạng hạch N2-N3 nặng. Tình trạng bệnh tiến triển nặng khi khởi trị là một yếu tố tiên lượng xấu, có thể làm giảm tỉ lệ đáp ứng.
+    *   **Cisplatin-Irinotecan so với Cisplatin-Etoposide:** Một số nghiên cứu gợi ý rằng phác đồ Cisplatin-Irinotecan có vẻ mang lại tỉ lệ đáp ứng cao hơn (46.7%) và DCR cao hơn (80%) so với EP trong nghiên cứu này, tuy nhiên cần xem xét cỡ mẫu và đặc điểm bệnh nhân.
+*   **Các yếu tố hướng dẫn quyết định chọn lựa phác đồ:**
+    *   **Loại mô bệnh học chính xác:** Cần khẳng định LCNEC, có thể nhầm lẫn với ung thư phổi tế bào nhỏ (SCLC) hoặc các loại ung thư phổi không tế bào nhỏ (NSCLC) khác. Việc chẩn đoán chính xác là cơ sở cho mã hóa ICD-10 đúng.
+    *   **Giai đoạn bệnh:** Di căn lan tràn có ảnh hưởng lớn đến lựa chọn và mục tiêu điều trị.
+    *   **Tổng trạng bệnh nhân (Performance Status - ECOG/KPS):** Bệnh nhân có tổng trạng tốt thường dung nạp hóa trị tốt hơn và có khả năng đáp ứng cao hơn.
+    *   **Bệnh lý nền và chức năng cơ quan:** Cần đánh giá chức năng thận, gan, tủy xương trước khi sử dụng Cisplatin và Etoposide vì độc tính của thuốc.
+    *   **Kinh nghiệm của cơ sở y tế:** Khả năng quản lý tác dụng phụ và theo dõi bệnh nhân.
+    *   **Tùy chọn của bệnh nhân:** Sau khi giải thích rõ ràng về lợi ích, nguy cơ và kỳ vọng điều trị, bệnh nhân cần tham gia vào quyết định.
+*   **Lời khuyên:** Hãy luôn cập nhật các hướng dẫn điều trị quốc gia và quốc tế (ví dụ: NCCN Guidelines, ESMO Guidelines) để có cái nhìn tổng thể và áp dụng phù hợp với từng trường hợp lâm sàng cụ thể.</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>NCCN Guidelines for Neuroendocrine Tumors of the Lung (Small Cell and Large Cell)</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Bộ hướng dẫn lâm sàng toàn diện này từ NCCN cung cấp các khuyến nghị dựa trên bằng chứng cho chẩn đoán, phân giai đoạn và điều trị LCNEC, bao gồm các phác đồ hóa trị chuẩn và quản lý tác dụng phụ, hỗ trợ áp dụng ICD-10 trong thực hành.</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Tiến bộ trong Điều trị Ung thư phổi tế bào nhỏ và ung thư phổi thần kinh nội tiết tế bào lớn giai đoạn tiến triển</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ đi sâu vào các phác đồ điều trị hiện tại và mới nổi cho LCNEC, bao gồm hóa trị, liệu pháp miễn dịch và liệu pháp đích, giúp bác sĩ cập nhật kiến thức để tối ưu hóa kết quả điều trị cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và kiến thức y khoa chuyên sâu.</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Một bác sĩ nội trú hoặc nghiên cứu sinh chuyên ngành ung thư cần lưu ý những đặc điểm quan trọng nào về bệnh nhân và bệnh lý (được nhấn mạnh trong nghiên cứu này) để có thể tư vấn hiệu quả cho bệnh nhân LCNEC tái phát di căn về tiên lượng và kỳ vọng điều trị, đồng thời cải thiện chất lượng chăm sóc?</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Chào các bạn, việc tư vấn tiên lượng và kỳ vọng điều trị cho bệnh nhân LCNEC tái phát di căn đòi hỏi sự hiểu biết sâu sắc về các yếu tố ảnh hưởng, đặc biệt là những điểm nổi bật từ nghiên cứu này. Đây là những điều cần ghi nhớ:
+*   **Đặc điểm dịch tễ học và lâm sàng quan trọng:**
+    *   **Tuổi:** Tuổi trung bình của nhóm nghiên cứu là 62 (dao động từ 35-69 tuổi), với phần lớn bệnh nhân dưới 65 tuổi (60,6%). Mặc dù tuổi tác không phải là yếu tố tiên lượng độc lập mạnh mẽ, nhưng bệnh nhân lớn tuổi hơn có thể có bệnh nền phức tạp hơn hoặc khả năng chịu đựng điều trị thấp hơn.
+    *   **Giới tính:** Nam giới chiếm tỉ lệ áp đảo (87,9%, tỉ lệ nam/nữ là 7,26/1). Điều này tương đồng với nhiều nghiên cứu về ung thư phổi, cho thấy nam giới có nguy cơ mắc bệnh cao hơn, thường liên quan đến các yếu tố nguy cơ như hút thuốc lá.
+    *   **Giai đoạn bệnh khi chẩn đoán:**
+        *   **Di căn nhiều cơ quan:** Đây là điểm cực kỳ quan trọng, chiếm tỉ lệ rất cao (81,8%) trong nghiên cứu. Bệnh nhân có di căn nhiều cơ quan thường có tiên lượng xấu hơn đáng kể so với di căn một cơ quan (18,2%). Mức độ lan tràn của bệnh là yếu tố quyết định tiên lượng hàng đầu và có ảnh hưởng trực tiếp đến mã hóa ICD-10 về giai đoạn bệnh.
+        *   **Tình trạng hạch:** Hơn 80% bệnh nhân có di căn hạch ở mức độ N2-N3 (nhóm N3 chiếm 27,3%). Di căn hạch vùng rộng (N2) hoặc di căn hạch đối bên/xa (N3) đều cho thấy bệnh đã tiến triển và ảnh hưởng tiêu cực đến tiên lượng.
+        *   **Kích thước khối u nguyên phát:** Trên 50% số bệnh nhân có khối u ở giai đoạn T3 hoặc T4 (thường đường kính trên 5cm hoặc có xâm lấn cấu trúc lân cận). Kích thước u lớn và xâm lấn cũng là một yếu tố tiên lượng không thuận lợi.
+*   **Ý nghĩa thực hành lâm sàng và tư vấn:**
+    *   **Xác định tiên lượng:** Các đặc điểm trên (đặc biệt là di căn nhiều cơ quan, N2-N3, T3-T4) cho thấy đây là một nhóm bệnh nhân có tiên lượng tương đối dè dặt. Việc tư vấn cần trung thực nhưng tế nhị, giúp bệnh nhân và gia đình hiểu rõ về tình trạng bệnh, mức độ khó khăn của điều trị và các mục tiêu điều trị thực tế (kiểm soát bệnh, kéo dài sự sống, cải thiện chất lượng cuộc sống).
+    *   **Tầm quan trọng của đánh giá toàn diện:** Dữ liệu này tái khẳng định tầm quan trọng của việc đánh giá di căn toàn thân kỹ lưỡng ngay từ đầu, bao gồm cả các vị trí di căn tiềm ẩn, để đảm bảo phân loại ICD-10 chính xác nhất.
+    *   **Quản lý kỳ vọng:** Với tỉ lệ đáp ứng toàn bộ (ORR) là 42.4% và tỉ lệ kiểm soát bệnh (DCR) là 69.7%, bệnh nhân cần được thông báo rằng hóa trị có thể giúp kiểm soát bệnh nhưng hiếm khi chữa khỏi hoàn toàn ở giai đoạn di căn.
+    *   **Chăm sóc đa chuyên khoa:** Để tối ưu hóa kết quả, cần có sự phối hợp chặt chẽ giữa các chuyên khoa ung bướu nội, xạ trị, ngoại khoa, chẩn đoán hình ảnh và chăm sóc giảm nhẹ.
+    *   **Hỗ trợ tâm lý xã hội:** Với bệnh lý nặng và tiên lượng khó khăn, bệnh nhân và gia đình thường cần sự hỗ trợ tâm lý rất lớn.
+*   **Để nâng cao kinh nghiệm:** Hãy tham gia các buổi hội chẩn đa chuyên khoa, đọc các báo cáo ca lâm sàng, và thảo luận với các bác sĩ giàu kinh nghiệm để học hỏi cách họ tiếp cận và quản lý các trường hợp phức tạp như thế này.</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Atlas giải phẫu bệnh Ung thư phổi và các khối u thần kinh nội tiết</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hình ảnh chi tiết và mô tả về các đặc điểm giải phẫu bệnh của ung thư phổi, bao gồm LCNEC, giúp bác sĩ hiểu rõ hơn về cơ sở sinh học và phân loại của bệnh, hỗ trợ chẩn đoán chính xác theo ICD-O và ICD-10.</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Chăm sóc giảm nhẹ và Hỗ trợ tâm lý cho bệnh nhân ung thư giai đoạn cuối</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>Khóa học này trang bị cho các bác sĩ những kiến thức và kỹ năng cần thiết để cung cấp chăm sóc giảm nhẹ toàn diện, quản lý triệu chứng và hỗ trợ tâm lý hiệu quả cho bệnh nhân ung thư giai đoạn tiến triển, giúp cải thiện chất lượng cuộc sống cho họ và gia đình.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các phác đồ điều trị tiên tiến, nhằm hỗ trợ bác sĩ trẻ và sinh viên y khoa nâng cao năng lực thực hành.</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, tôi là một bác sĩ nội trú đang tìm hiểu sâu về điều trị đau dây thần kinh V nguyên phát. Dựa trên nghiên cứu về tiêm phong bế thần kinh V bằng cồn tuyệt đối liều thấp, chuyên gia có thể hướng dẫn chi tiết về cách tiếp cận chẩn đoán (bao gồm cả phân loại ICD-10), kỹ thuật tiêm, và đặc biệt là cách quản lý các biến chứng như viêm giác mạc và yếu cơ cắn để đảm bảo an toàn tối đa cho bệnh nhân không?</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Chào bạn, rất vui khi bạn quan tâm đến một lĩnh vực đầy thách thức nhưng cũng rất nhân văn này. Đau dây thần kinh V nguyên phát (hay còn gọi là Trigeminal Neuralgia - TN) là một tình trạng đau mạn tính cần được chẩn đoán và điều trị chính xác.
+**1. Chẩn đoán và phân loại ICD-10**:
+Để chẩn đoán TN, chúng ta cần dựa vào các tiêu chuẩn lâm sàng đặc trưng (cơn đau kịch phát, kiểu giật điện, giới hạn ở vùng chi phối của thần kinh V, thường do kích thích điểm cò súng). Đừng quên loại trừ các nguyên nhân thứ phát bằng cận lâm sàng (MRI sọ não để tìm chèn ép mạch máu hoặc tổn thương khác). Theo ICD-10, đau dây thần kinh V nguyên phát được mã hóa là **G50.0**.
+**2. Kỹ thuật tiêm phong bế thần kinh V bằng cồn tuyệt đối liều thấp**:
+Đây là một lựa chọn điều trị hiệu quả khi các liệu pháp nội khoa không đáp ứng. Kỹ thuật này đòi hỏi sự tỉ mỉ và kinh nghiệm:
+*   **Vị trí tiêm**: Thường nhắm vào hạch Gasser hoặc các nhánh ngoại vi của thần kinh V. Việc định vị chính xác dưới hướng dẫn hình ảnh (ví dụ: C-arm, CT) là bắt buộc để đảm bảo an toàn và hiệu quả.
+*   **Liều lượng cồn**: Nghiên cứu chỉ ra rằng liều thấp (ví dụ 0,3 ml) có thể mang lại hiệu quả tốt và giảm nguy cơ biến chứng. Tuy nhiên, việc điều chỉnh liều cần cá thể hóa dựa trên đáp ứng của bệnh nhân và kinh nghiệm lâm sàng của bạn.
+*   **Thực hiện**: Tiêm chậm, quan sát phản ứng của bệnh nhân. Theo dõi sát trong và sau tiêm.
+**3. Quản lý biến chứng**:
+Các biến chứng là điều chúng ta phải dự liệu và có kế hoạch xử trí. Nghiên cứu đã đề cập các biến chứng thường gặp:
+| Biến chứng           | Liều 0,3 ml (%) | Liều &gt; 0,3 ml (%) | Hướng dẫn quản lý                                                                                                                                                                                                                                                             |
+|----------------------|-----------------|-------------------|----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------|
+| Mất cảm giác/Tê bì mặt | 87              | 87,5              | Giải thích rõ cho bệnh nhân trước thủ thuật. Thường tự giới hạn. Đảm bảo bệnh nhân nhận biết để tránh tự gây tổn thương.                                                                                                                                                   |
+| Viêm giác mạc        | 12,5            | 13,3              | **Rất quan trọng!** Bệnh nhân cần được hướng dẫn bảo vệ mắt, sử dụng nước mắt nhân tạo, tránh dụi mắt. Nếu có dấu hiệu viêm, cần hội chẩn nhãn khoa ngay lập tức. Theo dõi sát khả năng đóng mi để tránh khô và loét giác mạc.                                          |
+| Yếu cơ cắn           | 23,3            | 25                | Thường do ảnh hưởng đến nhánh vận động của dây V. Giải thích cho bệnh nhân, động viên tập vận động hàm. Thường hồi phục dần, nhưng cần theo dõi chức năng nhai.                                                                                                            |
+**Lời khuyên từ chuyên gia**: Hãy luôn giải thích cặn kẽ cho bệnh nhân về lợi ích, nguy cơ và các biến chứng có thể xảy ra. Sự hợp tác của bệnh nhân trong việc theo dõi và chăm sóc sau thủ thuật là chìa khóa thành công. Đừng ngần ngại hội chẩn với các chuyên khoa khác khi cần.</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị đau dây thần kinh V nguyên phát (G50.0) theo Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn chẩn đoán lâm sàng và cận lâm sàng chi tiết, phân loại theo ICD-10 (G50.0), cùng với phác đồ điều trị nội khoa và các phương pháp can thiệp (bao gồm tiêm phong bế, phẫu thuật) được Bộ Y tế Việt Nam ban hành, là cẩm nang thiết yếu cho mọi bác sĩ thực hành.</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Quản lý đau mạn tính: Kỹ thuật phong bế thần kinh và xử trí biến chứng</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu này trang bị cho học viên kiến thức và kỹ năng thực hành về các kỹ thuật phong bế thần kinh trong điều trị đau mạn tính, đặc biệt chú trọng vào an toàn người bệnh, nhận diện sớm và xử trí hiệu quả các biến chứng tiềm ẩn. Nội dung bao gồm cả thực hành trên mô hình và tình huống lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin lâm sàng và hướng dẫn học thuật về các bệnh lý ung thư, đặc biệt là các dạng ung thư phổi phức tạp, giúp bác sĩ và sinh viên y khoa cập nhật kiến thức chuyên ngành.</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Tôi là một bác sĩ trẻ đang làm việc tại khoa ung bướu. Tôi rất quan tâm đến các khối u thần kinh nội tiết phổi. Chuyên gia có thể làm rõ hơn về sự khác biệt giữa ung thư phổi tế bào lớn thần kinh nội tiết (LCNEC) và carcinoid không điển hình (atypical carcinoid), đồng thời đưa ra những lời khuyên về việc lựa chọn phác đồ hóa trị cho LCNEC dựa trên bằng chứng hiện tại không?</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất hay và quan trọng trong thực hành ung bướu. Việc hiểu rõ sự khác biệt giữa các subtype khối u thần kinh nội tiết phổi là chìa khóa để đưa ra quyết định điều trị chính xác.
+**1. Phân biệt LCNEC và Carcinoid không điển hình**:
+Cả LCNEC và carcinoid không điển hình đều thuộc nhóm khối u thần kinh nội tiết phổi, nhưng có sinh học và tiên lượng khác nhau đáng kể:
+*   **Carcinoid không điển hình (Atypical Carcinoid)**: Là khối u có mức độ ác tính trung bình, tiên lượng tốt hơn LCNEC. Về mặt mô bệnh học, chúng có số lượng phân bào từ 2-10/2mm2 và/hoặc hoại tử khu trú nhưng không rộng. Dù ác tính hơn carcinoid điển hình, chúng vẫn là khối u có độ biệt hóa tương đối tốt.
+*   **Ung thư phổi tế bào lớn thần kinh nội tiết (Large Cell Neuroendocrine Carcinoma - LCNEC)**: Đây là một dạng ung thư phổi có độ ác tính cao, được xếp vào nhóm ung thư phổi không tế bào nhỏ (NSCLC) nhưng lại có nhiều đặc điểm lâm sàng và sinh học tương đồng với ung thư phổi tế bào nhỏ (SCLC). Tiêu chuẩn mô bệnh học bao gồm: tế bào lớn, nhân quái dị, hoạt động phân bào rất cao (&gt;10/2mm2), hoại tử rộng, và biểu hiện các dấu ấn thần kinh nội tiết trên hóa mô miễn dịch. Đây là một thách thức lớn trong chẩn đoán và điều trị do độ ác tính cao và xu hướng di căn sớm. Về mặt phân loại ICD-10, các trường hợp LCNEC thường được mã hóa là **C34.x** (U ác tính của phế quản và phổi) kèm theo mô tả giải phẫu bệnh chi tiết.
+**2. Lựa chọn phác đồ hóa trị cho LCNEC**:
+Các nghiên cứu lâm sàng đã cung cấp bằng chứng quan trọng cho các phác đồ hóa trị nền tảng cisplatin-based cho LCNEC:
+*   **Phác đồ Cisplatin kết hợp Etoposide**: Đây là phác đồ được ưu tiên và có hiệu quả tương tự như trong điều trị SCLC giai đoạn rộng, như đã được nghiên cứu trong thử nghiệm pha III của Lara PN, Jr và cộng sự (2009) so sánh với irinotecan/cisplatin. Nghiên cứu của Le Treut J. và cộng sự (2013) cũng đã chứng minh hiệu quả của cisplatin-etoposide cho LCNEC giai đoạn tiến triển.
+*   **Phác đồ Cisplatin kết hợp Irinotecan**: Một lựa chọn khác cũng đã được nghiên cứu và cho thấy phản ứng lâm sàng tốt. Nghiên cứu đa trung tâm pha II của Niho S. và cộng sự (2013) đã khẳng định vai trò của phác đồ này.
+**Lời khuyên để cải thiện thực hành**:
+1.  **Chẩn đoán chính xác**: Luôn yêu cầu báo cáo mô bệnh học và hóa mô miễn dịch chi tiết. Đôi khi, việc phân biệt LCNEC với SCLC hoặc các dạng NSCLC khác cần sự phối hợp chặt chẽ giữa nhà lâm sàng và nhà giải phẫu bệnh.
+2.  **Hội chẩn đa chuyên khoa**: Đối với các trường hợp phức tạp như LCNEC, việc hội chẩn với các chuyên gia ung bướu, phẫu thuật lồng ngực, xạ trị, giải phẫu bệnh là vô cùng cần thiết để đưa ra kế hoạch điều trị tối ưu nhất.
+3.  **Cập nhật kiến thức**: Lĩnh vực ung thư phát triển rất nhanh. Hãy thường xuyên đọc các tài liệu nghiên cứu mới, tham gia các hội nghị khoa học và khóa học CME để cập nhật phác đồ và các liệu pháp mới.</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Phân loại Khối u thần kinh nội tiết phổi (Neuroendocrine Tumors of the Lung) theo WHO 2021</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Tài liệu này là nguồn tham khảo tiêu chuẩn vàng, cung cấp các tiêu chí mô bệnh học, hóa mô miễn dịch chi tiết và cập nhật nhất để phân loại chính xác các khối u thần kinh nội tiết phổi, bao gồm carcinoid điển hình, carcinoid không điển hình, LCNEC và SCLC. Rất cần thiết cho các bác sĩ giải phẫu bệnh và ung bướu lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Tiến bộ trong điều trị ung thư phổi tế bào lớn thần kinh nội tiết và các khối u thần kinh nội tiết khác</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các cập nhật mới nhất về sinh học phân tử, chẩn đoán phân biệt, và các chiến lược điều trị đa phương thức cho LCNEC và các khối u thần kinh nội tiết khác, bao gồm liệu pháp hóa trị, xạ trị, phẫu thuật, và các liệu pháp nhắm trúng đích/miễn dịch mới. Khóa học được thiết kế để nâng cao kiến thức chuyên sâu và kỹ năng ra quyết định lâm sàng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, đóng vai trò trợ lý học thuật, giúp sinh viên y khoa và bác sĩ trẻ phát triển kỹ năng đọc và đánh giá các nghiên cứu khoa học, từ đó nâng cao năng lực ứng dụng y học bằng chứng.</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Là một sinh viên y khoa đang bắt đầu nghiên cứu khoa học, tôi thường cảm thấy choáng ngợp trước lượng tài liệu y văn khổng lồ. Chuyên gia có thể hướng dẫn tôi cách tiếp cận một bài báo khoa học, đặc biệt là các thử nghiệm lâm sàng (pha II, pha III) như những tài liệu tham khảo đã nêu, để tôi có thể đánh giá một cách có hệ thống về độ tin cậy và giá trị ứng dụng lâm sàng của chúng không?</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Chào bạn, cảm giác đó là rất tự nhiên khi bạn mới bắt đầu hành trình nghiên cứu khoa học. Để phát triển kỹ năng đánh giá tài liệu, bạn cần một phương pháp tiếp cận có hệ thống.
+**1. Bắt đầu với câu hỏi rõ ràng**:
+*   **Mô hình PICO**: Luôn định hình câu hỏi nghiên cứu của bạn theo format PICO (Patient/Population - Đối tượng bệnh nhân; Intervention - Can thiệp; Comparison - So sánh; Outcome - Kết cục). Điều này sẽ giúp bạn tập trung vào các yếu tố chính của bài báo.
+**2. Cách đọc và đánh giá một thử nghiệm lâm sàng (Clinical Trial)**:
+*   **Tóm tắt và Giới thiệu**: Đọc tóm tắt để nắm ý chính, sau đó đọc phần giới thiệu để hiểu bối cảnh và mục tiêu nghiên cứu.
+*   **Phương pháp (Methodology)**: Đây là phần quan trọng nhất. Hãy tự hỏi:
+    *   **Thiết kế nghiên cứu**: Đây là thử nghiệm lâm sàng pha mấy (pha I, II, III)? Thử nghiệm pha III (như của Lara PN, Jr và cộng sự, 2009) là loại có giá trị bằng chứng cao nhất để so sánh hiệu quả của các phương pháp điều trị. Nghiên cứu bạn đang xem xét có phải là tiến cứu, hồi cứu, hay thử nghiệm ngẫu nhiên có đối chứng?
+    *   **Đối tượng nghiên cứu**: Tiêu chuẩn chọn/loại trừ bệnh nhân như thế nào? Cỡ mẫu có đủ lớn không? (Ví dụ: nghiên cứu về đau dây V có 38 người bệnh, đây là cỡ mẫu nhỏ hơn các thử nghiệm pha III về ung thư).
+    *   **Can thiệp và Đối chứng**: Phương pháp điều trị được thực hiện như thế nào ở nhóm can thiệp và nhóm đối chứng? Có được chuẩn hóa không?
+    *   **Kết cục chính và phụ**: Các kết cục được đo lường là gì? Có khách quan không?
+    *   **Thống kê**: Phương pháp thống kê có phù hợp với dữ liệu không? Bạn có hiểu ý nghĩa của P-value, khoảng tin cậy (CI) và cỡ hiệu ứng (effect size) không?
+*   **Kết quả (Results)**: Đọc kỹ các bảng biểu, đồ thị và phần mô tả kết quả. Liệu kết quả có nhất quán với mục tiêu nghiên cứu không?
+*   **Thảo luận (Discussion)**: Phần này phân tích ý nghĩa của kết quả, so sánh với các nghiên cứu trước đây, và nêu ra các hạn chế của nghiên cứu.
+**3. Giá trị ứng dụng lâm sàng và ICD-10**:
+*   Khi đánh giá, hãy luôn suy nghĩ: Kết quả này có ý nghĩa gì đối với bệnh nhân của tôi? Phương pháp điều trị này có thể được áp dụng trong bối cảnh lâm sàng của tôi không?
+*   Kiểm tra xem các bệnh lý hoặc can thiệp có liên quan đến phân loại ICD-10 không. Ví dụ, việc xác định chính xác LCNEC (phân loại C34 theo ICD-10 cho ung thư phổi) hoặc đau dây thần kinh V (G50.0) sẽ ảnh hưởng đến quyết định điều trị dựa trên các bằng chứng như trong tài liệu bạn đang đọc.
+**Lời khuyên từ chuyên gia**: Hãy luôn đọc toàn văn bài báo, không chỉ tóm tắt. Học cách phê bình khoa học các bài báo để nhận diện điểm mạnh và điểm yếu, từ đó phát triển khả năng tư duy lâm sàng sắc bén. Bạn cũng nên bắt đầu từ những bài báo gốc của các nghiên cứu pha III lớn để hiểu cách thức triển khai. Sau đó, thực hành đánh giá phê bình bằng cách sử dụng các công cụ như phiếu kiểm soát chất lượng (checklist) cho RCTs (ví dụ: CONSORT) hoặc các nghiên cứu quan sát (ví dụ: STROBE). Điều này sẽ rèn luyện tư duy phản biện và khả năng áp dụng y học bằng chứng vào thực hành lâm sàng của bạn.</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Y học bằng chứng: Từ lý thuyết đến thực hành lâm sàng</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>Cuốn sách cung cấp kiến thức nền tảng về y học bằng chứng, hướng dẫn chi tiết cách tìm kiếm, đánh giá phê bình và áp dụng các bằng chứng khoa học vào quyết định lâm sàng hàng ngày, là tài liệu không thể thiếu cho mọi bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Kỹ năng đánh giá phê bình bài báo khoa học và thiết kế nghiên cứu lâm sàng</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>Khóa học này được thiết kế để phát triển kỹ năng đọc và phân tích các bài báo khoa học một cách chuyên sâu, bao gồm cả thiết kế nghiên cứu (RCTs, nghiên cứu đoàn hệ, bệnh chứng), phân tích thống kê và đánh giá độ tin cậy của bằng chứng. Đồng thời, hướng dẫn cách thiết kế một nghiên cứu lâm sàng có giá trị.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các phác đồ chuẩn.</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi tiếp cận một bệnh nhân nghi ngờ ung thư phổi, đặc biệt là loại hiếm gặp như ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC), chúng em cần lưu ý những đặc điểm lâm sàng và cận lâm sàng nào để chẩn đoán chính xác và phân biệt với các loại ung thư phổi khác?</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Chào các bạn sinh viên y khoa và bác sĩ trẻ, việc chẩn đoán ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC) đòi hỏi sự nhạy bén vì đây là một loại ung thư phổi hiếm gặp, chỉ chiếm khoảng 3% tổng số u ác tính tại phổi. Tuy nhiên, LCNEC có độ ác tính cao và tiên lượng xấu, nên chẩn đoán sớm và chính xác là cực kỳ quan trọng.
+**1. Đặc điểm Lâm sàng cần lưu ý:**
+*   **Triệu chứng chung**: Tương tự như các loại ung thư phổi khác, bệnh nhân thường có ho kéo dài, đau ngực, khó thở, sụt cân không rõ nguyên nhân, và mệt mỏi. Các bạn cần khai thác kỹ tiền sử hút thuốc lá, tiếp xúc hóa chất độc hại, và tiền sử gia đình.
+*   **Dấu hiệu di căn sớm**: Do đặc tính ác tính cao, LCNEC có xu hướng di căn sớm. Các bạn cần chủ động tìm kiếm các dấu hiệu di căn xa ngay từ lần khám ban đầu, ví dụ như đau xương (di căn xương), thay đổi tri giác (di căn não), hoặc vàng da (di căn gan). Nghiên cứu của Đỗ Hùng Kiên và cộng sự đã chỉ ra rằng 81.8% bệnh nhân trong nghiên cứu có di căn nhiều cơ quan.
+**2. Đặc điểm Cận lâm sàng quan trọng:**
+*   **Hình ảnh học**:
+    *   **X-quang phổi**: Có thể phát hiện khối u phổi, thường là khối lớn, ở vị trí trung tâm hoặc ngoại vi.
+    *   **CT scan ngực (có tiêm thuốc cản quang)**: Đây là phương pháp chính để đánh giá khối u nguyên phát, tình trạng hạch trung thất (hạch N2), và di căn trong phổi. Hơn 50% bệnh nhân trong nghiên cứu có u ở giai đoạn T3 hoặc T4, gợi ý kích thước u lớn hoặc xâm lấn.
+    *   **PET/CT**: Rất hữu ích để đánh giá mức độ lan rộng toàn thân của bệnh, đặc biệt là các ổ di căn xa mà các phương pháp khác có thể bỏ sót.
+*   **Mô bệnh học**: Là tiêu chuẩn vàng để chẩn đoán xác định.
+    *   **Sinh thiết u**: Bắt buộc phải thực hiện để có chẩn đoán mô bệnh học. Các bạn cần lưu ý đặc điểm tế bào khối u có độ ác tính cao, kém biệt hóa, nhưng vẫn giữ các đặc điểm của tế bào thần kinh nội tiết (giúp phân biệt với ung thư phổi tế bào nhỏ).
+    *   **Hóa mô miễn dịch (IHC)**: Sử dụng các dấu ấn thần kinh nội tiết (ví dụ: Chromogranin A, Synaptophysin, CD56) để xác định bản chất thần kinh nội tiết của khối u.
+**3. Mã hóa ICD-10:**
+Đối với ung thư phổi thần kinh nội tiết tế bào lớn, mã ICD-10 cơ bản sẽ nằm trong nhóm **C34.-** (U ác tính của phế quản và phổi). Các mã chi tiết hơn sẽ được xác định dựa trên vị trí cụ thể trong phổi và kết quả mô bệnh học. Ví dụ, C34.9 (U ác tính của phế quản hoặc phổi, không xác định) có thể được sử dụng ban đầu, và cần bổ sung mã mô học khi có kết quả sinh thiết để đạt được độ chính xác cao nhất.
+**Lời khuyên**: Các bạn hãy luôn tiếp cận một cách toàn diện, không bỏ qua các triệu chứng nhỏ và tận dụng tối đa các phương tiện cận lâm sàng để đưa ra chẩn đoán chính xác nhất, đặc biệt với các bệnh lý hiếm gặp và tiên lượng nặng như LCNEC.</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị ung thư phổi Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp các tiêu chuẩn chẩn đoán, phân loại và phác đồ điều trị cập nhật cho các loại ung thư phổi phổ biến và hiếm gặp tại Việt Nam, bao gồm LCNEC, giúp người dùng học tập và tra cứu.</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>CME: Cập nhật chẩn đoán mô bệnh học ung thư phổi và vai trò của hóa mô miễn dịch</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về các kỹ thuật chẩn đoán mô bệnh học tiên tiến, cách đọc và phân tích kết quả hóa mô miễn dịch trong chẩn đoán phân loại ung thư phổi, đặc biệt nhấn mạnh các thể hiếm gặp như LCNEC, giúp bác sĩ nâng cao kiến thức chuyên môn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các phác đồ chuẩn.</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Đối với bệnh nhân ung thư phổi thần kinh nội tiết tế bào lớn giai đoạn tái phát, di căn, chúng em nên cân nhắc phác đồ điều trị nào và đánh giá hiệu quả ra sao? Tiên lượng của bệnh nhân trong trường hợp này như thế nào?</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Các bạn bác sĩ trẻ thân mến, việc điều trị ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC) giai đoạn tái phát, di căn là một thách thức lớn. Dưới đây là những điểm cốt lõi các bạn cần nắm vững:
+**1. Chiến lược điều trị chính:**
+*   **Phác đồ Etoposide/Cisplatin**: Nghiên cứu của Đỗ Hùng Kiên và cộng sự đã khẳng định hiệu quả của phác đồ này trong điều trị LCNEC tái phát/di căn. Theo khuyến cáo quốc tế và kinh nghiệm lâm sàng, LCNEC giai đoạn muộn thường được điều trị tương tự như ung thư phổi tế bào nhỏ (SCLC) do cả hai đều là ung thư thần kinh nội tiết độ ác tính cao. Etoposide/Cisplatin là một phác đồ hóa trị liệu chuẩn cho SCLC.
+*   **Cơ chế tác dụng**: Các bạn cần hiểu rõ cơ chế để tối ưu hóa điều trị và quản lý tác dụng phụ:
+    *   **Cisplatin**: Là một tác nhân kiềm hóa DNA, tạo liên kết chéo trong DNA, ức chế quá trình sao chép và phiên mã, từ đó gây chết tế bào ung thư.
+    *   **Etoposide**: Là một chất ức chế Topoisomerase II, gây đứt gãy DNA và ngăn chặn quá trình phân chia tế bào.
+*   **Lưu ý khi chỉ định và quản lý**: 
+    *   **Tình trạng toàn trạng (ECOG)**: Luôn đánh giá kỹ lưỡng chỉ số ECOG của bệnh nhân. Trong nghiên cứu, 54.5% bệnh nhân có ECOG 1, cho thấy khả năng dung nạp hóa chất tốt. Tuy nhiên, với bệnh nhân có ECOG cao hơn, cần cân nhắc điều chỉnh liều lượng và dự phòng độc tính.
+    *   **Chức năng cơ quan**: Cần kiểm tra định kỳ chức năng thận, gan, và tủy xương trước và trong quá trình điều trị để điều chỉnh liều nếu cần, nhằm giảm thiểu tác dụng phụ.
+    *   **Tác dụng phụ phổ biến**: Các bạn cần tư vấn kỹ cho bệnh nhân về các tác dụng phụ có thể gặp (như buồn nôn, nôn, rụng tóc, ức chế tủy xương, độc tính thận, độc tính thần kinh do Cisplatin) và hướng dẫn cách xử trí.
+**2. Đánh giá hiệu quả điều trị:**
+*   **Tỷ lệ kiểm soát bệnh (Disease Control Rate - DCR)**: Nghiên cứu ghi nhận DCR là 69.7%. DCR bao gồm các trường hợp đạt đáp ứng hoàn toàn (CR), đáp ứng một phần (PR), và bệnh ổn định (SD). Đây là một chỉ số quan trọng cho thấy phác đồ có khả năng kiểm soát sự tiến triển của bệnh.
+*   **Tỷ lệ đáp ứng toàn bộ (Overall Response Rate - ORR)**: Nghiên cứu ghi nhận ORR là 42.4%. ORR chỉ bao gồm CR và PR, là một chỉ số mạnh hơn, cho thấy tỷ lệ bệnh nhân có khối u giảm kích thước đáng kể hoặc biến mất.
+*   **Tiêu chuẩn đánh giá**: Thông thường, tiêu chuẩn RECIST (Response Evaluation Criteria in Solid Tumors) được sử dụng để đánh giá đáp ứng điều trị trên hình ảnh học (CT scan, MRI) một cách khách quan.
+**3. Tiên lượng của LCNEC giai đoạn tái phát/di căn:**
+*   **Tiên lượng xấu**: LCNEC giai đoạn muộn có tiên lượng rất xấu. Nghiên cứu của Travis và cộng sự đã chỉ ra rằng tỷ lệ sống thêm 5 năm ở giai đoạn IV là 0%.
+*   **Vai trò của hóa trị**: Mặc dù khó đạt được khỏi bệnh hoàn toàn, việc điều trị hóa chất như Etoposide/Cisplatin giúp kéo dài thời gian sống thêm, cải thiện chất lượng cuộc sống và kiểm soát triệu chứng cho bệnh nhân.
+**Lời khuyên**: Các bạn cần theo dõi sát sao bệnh nhân trong suốt quá trình điều trị hóa chất, không chỉ về hiệu quả mà còn về các tác dụng phụ. Luôn phối hợp với các chuyên khoa khác (dinh dưỡng, tâm lý, giảm nhẹ) để hỗ trợ bệnh nhân một cách toàn diện nhất.</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Phác đồ điều trị ung thư phổi tế bào nhỏ và ung thư phổi thần kinh nội tiết tế bào lớn</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Tài liệu chuyên sâu về các phác đồ hóa trị, xạ trị và các phương pháp điều trị đích mới nhất cho ung thư phổi tế bào nhỏ và LCNEC, bao gồm chi tiết liều lượng, cách dùng và quản lý tác dụng phụ, giúp bác sĩ nắm vững phương án điều trị.</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>CME: Quản lý tác dụng phụ hóa trị liệu trong điều trị ung thư phổi</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp kiến thức và kỹ năng thực hành về nhận diện, phòng ngừa và xử trí các tác dụng phụ phổ biến và nghiêm trọng của hóa trị liệu, giúp bác sĩ nâng cao chất lượng chăm sóc và an toàn cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 và các phác đồ chuẩn.</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Là những người làm nghiên cứu hoặc chuẩn bị làm nghiên cứu, chúng em có thể học hỏi gì từ nghiên cứu về ung thư phổi thần kinh nội tiết tế bào lớn này về mặt phương pháp nghiên cứu và những hướng nghiên cứu tiếp theo để nâng cao hiệu quả điều trị?</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ có niềm đam mê nghiên cứu khoa học, việc học hỏi từ các công bố là điều tối quan trọng. Nghiên cứu về ung thư phổi thần kinh nội tiết tế bào lớn của Đỗ Hùng Kiên và cộng sự cung cấp nhiều bài học quý giá về phương pháp luận và gợi mở hướng đi cho tương lai.
+**1. Phân tích phương pháp nghiên cứu:**
+*   **Loại hình nghiên cứu**: Đây là một “nghiên cứu mô tả cắt ngang hồi cứu” trên 33 bệnh nhân. Loại hình này thường được lựa chọn khi nghiên cứu các bệnh lý hiếm gặp hoặc khi muốn đánh giá kết quả ban đầu của một can thiệp trong một khoảng thời gian cụ thể.
+*   **Điểm mạnh của nghiên cứu hồi cứu**: 
+    *   **Thuận tiện và tiết kiệm**: Dữ liệu được thu thập từ hồ sơ bệnh án có sẵn, giúp tiết kiệm thời gian và chi phí.
+    *   **Cung cấp cái nhìn ban đầu**: Rất hữu ích để có được cái nhìn tổng quan về đặc điểm bệnh nhân và hiệu quả điều trị sơ bộ.
+    *   **Giá trị ứng dụng tại địa phương**: Kết quả cho thấy hiệu quả của phác đồ tại Bệnh viện K, có thể dùng làm căn cứ tham khảo cho các cơ sở y tế khác tại Việt Nam.
+*   **Hạn chế và bài học cho các nghiên cứu tương lai (điều cần khắc phục)**:
+    *   **Thiếu nhóm chứng**: Không có nhóm so sánh, do đó khó có thể khẳng định phác đồ Cisplatin/Etoposide ưu việt hơn các phác đồ khác hoặc không điều trị.
+    *   **Số lượng mẫu nhỏ (n=33)**: Kết quả có thể không mang tính đại diện cho toàn bộ quần thể bệnh nhân LCNEC.
+    *   **Chỉ mang tính “mô tả”**: Nghiên cứu này chưa đi sâu vào phân tích các yếu tố ảnh hưởng đến đáp ứng điều trị hoặc tiên lượng dài hạn.
+    *   **Tính chất hồi cứu**: Dễ gặp phải tình trạng thiếu sót dữ liệu hoặc sai lệch thông tin trong hồ sơ bệnh án.
+**2. Hướng nghiên cứu tiếp theo để nâng cao hiệu quả điều trị:**
+Các bạn có thể cân nhắc các hướng sau để đóng góp vào lĩnh vực này:
+*   **Nghiên cứu đoàn hệ tiến cứu hoặc thử nghiệm lâm sàng ngẫu nhiên có đối chứng (RCT)**: Để so sánh phác đồ Etoposide/Cisplatin với các phác đồ khác hoặc các phác đồ chuẩn (nếu có) trên quy mô lớn hơn, nhằm cung cấp bằng chứng có giá trị cao hơn về hiệu quả.
+*   **Nghiên cứu các yếu tố tiên lượng và dự đoán đáp ứng**: Phân tích sâu hơn các đặc điểm lâm sàng, cận lâm sàng (như chỉ số ECOG, mức độ di căn, tình trạng đột biến gen) ảnh hưởng đến tỷ lệ đáp ứng và thời gian sống thêm. Điều này giúp cá thể hóa điều trị.
+*   **Nghiên cứu về liệu pháp nhắm trúng đích và miễn dịch**: Khám phá các mục tiêu phân tử mới trong LCNEC để phát triển các phương pháp điều trị hiệu quả hơn, đặc biệt khi hóa trị không đạt hiệu quả hoặc có độc tính cao.
+*   **Nghiên cứu chất lượng cuộc sống**: Đánh giá tác động của điều trị lên chất lượng cuộc sống của bệnh nhân, một khía cạnh ngày càng quan trọng trong chăm sóc ung thư toàn diện.
+**Bảng tóm tắt so sánh ưu nhược điểm các loại hình nghiên cứu**:
+| Loại hình nghiên cứu             | Ưu điểm điển hình                             | Nhược điểm điển hình                        | Phù hợp khi                                 |
+|:---------------------------------|:--------------------------------------------|:-------------------------------------------|:--------------------------------------------|
+| **Mô tả cắt ngang hồi cứu**      | Nhanh, rẻ, phù hợp bệnh hiếm                 | Thiếu nhóm chứng, mẫu nhỏ, sai lệch dữ liệu | Đánh giá ban đầu, bệnh lý hiếm gặp           |
+| **Đoàn hệ tiến cứu**             | Xác định yếu tố nguy cơ, đánh giá kết quả dài hạn | Tốn kém, thời gian dài, dễ mất theo dõi     | Xác định mối quan hệ nguyên nhân-kết quả       |
+| **Thử nghiệm lâm sàng ngẫu nhiên có đối chứng (RCT)** | Bằng chứng mạnh nhất về hiệu quả can thiệp   | Đắt đỏ, phức tạp, vấn đề đạo đức           | So sánh hiệu quả các can thiệp điều trị      |
+**Lời khuyên cho các nhà nghiên cứu trẻ**: Hãy bắt đầu từ những nghiên cứu nhỏ nhưng có ý nghĩa tại cơ sở của mình, sau đó mở rộng hợp tác để thực hiện các nghiên cứu lớn hơn. Luôn trau dồi kiến thức về phương pháp nghiên cứu để thiết kế các đề tài khoa học chặt chẽ, đáng tin cậy và có khả năng đóng góp vào y học.</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thiết kế và thực hiện nghiên cứu khoa học trong y học</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>Sách chuyên khảo cung cấp kiến thức nền tảng và nâng cao về phương pháp luận nghiên cứu khoa học, từ cách đặt câu hỏi nghiên cứu, chọn mẫu, thu thập, phân tích dữ liệu đến viết báo cáo khoa học, là tài liệu cần thiết cho mọi nhà nghiên cứu y khoa.</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>CME: Phương pháp nghiên cứu khoa học lâm sàng và phân tích thống kê</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Khóa học trang bị cho bác sĩ và sinh viên y khoa kiến thức về thiết kế nghiên cứu, xử lý số liệu bằng phần mềm thống kê chuyên dụng và diễn giải kết quả, giúp nâng cao năng lực thực hiện và đánh giá các nghiên cứu khoa học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ trẻ và sinh viên y khoa nâng cao kiến thức.</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Đối với bệnh ung thư phổi thần kinh nội tiết tế bào lớn giai đoạn IV, các bác sĩ trẻ cần chú ý những tiêu chuẩn chẩn đoán và phân loại giai đoạn nào để đảm bảo tính chính xác và đồng bộ trong thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Chào các em và các bạn đồng nghiệp trẻ, khi tiếp cận một ca ung thư phổi thần kinh nội tiết tế bào lớn giai đoạn IV, việc chẩn đoán và phân loại giai đoạn chính xác là cực kỳ quan trọng, nó định hướng toàn bộ quá trình điều trị. Các em cần ghi nhớ những điểm sau:
+*   **Chẩn đoán mô bệnh học:** Luôn dựa vào kết quả mô bệnh học theo phân loại của Tổ chức Y tế Thế giới (WHO) 2016. Đây là tiêu chuẩn vàng để xác định subtype cụ thể của ung thư phổi. Với ung thư thần kinh nội tiết tế bào lớn (Large Cell Neuroendocrine Carcinoma - LCNEC), đây là một thể hiếm gặp, đòi hỏi chuyên gia giải phẫu bệnh có kinh nghiệm. Mã ICD-O (International Classification of Diseases for Oncology) sẽ được sử dụng để mã hóa loại mô học này, và mã ICD-10 (ví dụ C34.9 cho u ác tính của phế quản hoặc phổi) sẽ được dùng để mã hóa vị trí và tính chất ác tính.
+*   **Phân giai đoạn bệnh:** Cần tuân thủ phân loại AJCC 2017 (American Joint Committee on Cancer). Đối với giai đoạn IV, điều này có nghĩa là bệnh đã có di căn xa (M1a, M1b hoặc M1c). Việc xác định chính xác vị trí và số lượng di căn là tối quan trọng, thường thông qua các phương tiện chẩn đoán hình ảnh như CT ngực-bụng, MRI sọ não, và PET/CT.
+*   **Đánh giá tổng thể:** Mặc dù không phải tiêu chuẩn chẩn đoán trực tiếp, nhưng việc đánh giá tình trạng toàn thân (ECOG PS - Eastern Cooperative Oncology Group Performance Status) là cần thiết để xác định khả năng chịu đựng điều trị của bệnh nhân. Với giai đoạn IV, bệnh nhân thường có PS từ 0-2 để đủ điều kiện cho hóa trị toàn thân.
+Nhớ rằng, sự phối hợp chặt chẽ giữa các chuyên khoa giải phẫu bệnh, chẩn đoán hình ảnh và ung bướu lâm sàng là chìa khóa để đưa ra chẩn đoán và phân giai đoạn tối ưu nhất.</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Phân loại Ung thư Phổi của Tổ chức Y tế Thế giới (WHO) 2021 và Hệ thống Phân loại Giai đoạn AJCC Phiên bản 8</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn chẩn đoán mô bệnh học và phân loại giai đoạn ung thư phổi toàn diện, bao gồm cả các thể ung thư thần kinh nội tiết, là cẩm nang thiết yếu cho bác sĩ giải phẫu bệnh và ung bướu lâm sàng để đảm bảo tính chính xác và thống nhất trong chẩn đoán.</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Cập nhật Chẩn đoán và Phân loại Giai đoạn Ung thư Phổi theo Tiêu chuẩn Quốc tế</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu dành cho bác sĩ ung bướu, giải phẫu bệnh và chẩn đoán hình ảnh, tập trung vào việc áp dụng các tiêu chuẩn WHO và AJCC mới nhất để chẩn đoán và phân loại giai đoạn ung thư phổi, đặc biệt nhấn mạnh vào các thách thức trong chẩn đoán các subtype hiếm gặp và ung thư giai đoạn muộn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ trẻ và sinh viên y khoa nâng cao kiến thức.</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Khi điều trị ung thư phổi thần kinh nội tiết tế bào lớn giai đoạn IV bằng phác đồ Etoposide-Cisplatin, bác sĩ cần xem xét những tiêu chuẩn lựa chọn và loại trừ bệnh nhân nào? Phác đồ này được thực hiện ra sao?</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Các bác sĩ trẻ thân mến, việc lựa chọn bệnh nhân phù hợp cho phác đồ hóa trị là một nghệ thuật và khoa học. Với phác đồ Etoposide-Cisplatin cho ung thư phổi thần kinh nội tiết tế bào lớn giai đoạn IV, các em cần tuân thủ nghiêm ngặt các tiêu chuẩn sau để tối ưu hóa hiệu quả và giảm thiểu rủi ro:
+**1. Tiêu chuẩn lựa chọn bệnh nhân (Áp dụng cho nghiên cứu tương tự và thực hành):**
+*   **Chẩn đoán xác định:** Ung thư phổi thần kinh nội tiết tế bào lớn (LCNEC) giai đoạn IV, được xác nhận bằng mô bệnh học theo WHO 2016 và phân giai đoạn theo AJCC 2017.
+*   **Tình trạng toàn thân (ECOG PS):** Bệnh nhân thường có PS = 0 hoặc 1. Điều này đảm bảo bệnh nhân đủ sức khỏe để chịu đựng hóa trị tích cực. Bệnh nhân có PS cao hơn (≥2) thường không phù hợp với phác đồ này do nguy cơ độc tính cao.
+*   **Chưa điều trị hóa chất trước đó:** Với giai đoạn muộn, bệnh nhân chưa từng điều trị hóa chất trước đây. Điều này quan trọng để đánh giá hiệu quả thực sự của phác đồ và tránh độc tính chồng chéo.
+*   **Chức năng cơ quan ổn định:**
+    *   **Gan thận:** AST, ALT ≤ 2 lần giới hạn bình thường; Bilirubin toàn phần ≤ 1,5 lần giới hạn bình thường; Creatinin ≤ 1,5 lần giới hạn bình thường. Điều này đảm bảo khả năng chuyển hóa và thải trừ thuốc, giảm nguy cơ suy gan, suy thận do hóa chất.
+    *   **Tủy xương:** Bạch cầu (BC) ≥ 4 G/l; Tiểu cầu (TC) ≥ 100 G/l; HST ≥ 100 g/l. Hóa trị gây ức chế tủy, nên cần có chức năng tủy ban đầu tốt để tránh các biến chứng như nhiễm trùng, chảy máu, thiếu máu nặng.
+*   **Tuổi:** &gt;18 tuổi. Không giới hạn giới tính.
+*   **Tổn thương có thể đánh giá:** Có ít nhất một tổn thương có thể đo được bằng chẩn đoán hình ảnh (MRI, CT) để theo dõi đáp ứng điều trị.
+*   **Hồ sơ đầy đủ:** Đảm bảo có đầy đủ thông tin để theo dõi và đánh giá.
+**2. Tiêu chuẩn loại trừ bệnh nhân:**
+*   **Chống chỉ định thuốc:** Suy gan, suy thận nặng (vượt quá giới hạn cho phép), hoặc dị ứng với các thành phần của Etoposide hoặc Cisplatin.
+*   **Di căn não chưa kiểm soát:** Di căn não không ổn định tiềm ẩn nguy cơ cao biến chứng thần kinh khi dùng hóa chất.
+*   **Ung thư thứ hai:** Có bệnh ung thư khác kèm theo sẽ làm phức tạp việc đánh giá hiệu quả và quản lý độc tính.
+*   **Từ chối hợp tác/không theo dõi được:** Đảm bảo bệnh nhân tuân thủ điều trị và có khả năng theo dõi liên tục.
+**3. Phác đồ điều trị Etoposide-Cisplatin:**
+Phác đồ này thường được thực hiện theo chu kỳ 3 tuần, với liều lượng tiêu chuẩn như sau:
+| Thuốc       | Liều lượng            | Đường dùng | Ngày    |
+| :---------- | :-------------------- | :--------- | :------ |
+| Cisplatin   | 80mg/m² da           | Tĩnh mạch  | Ngày 1  |
+| Etoposide   | 100mg/m² da          | Tĩnh mạch  | Ngày 1-3 |
+Lưu ý, các em phải giám sát chặt chẽ các tác dụng phụ của hóa chất (buồn nôn, nôn, ức chế tủy, độc thận, độc thần kinh...) và có kế hoạch hỗ trợ, dự phòng phù hợp. Việc theo dõi chức năng tủy xương, gan thận định kỳ trước mỗi chu kỳ là bắt buộc để đảm bảo an toàn cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Chẩn đoán và Điều trị Ung thư Phổi của Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thức của Bộ Y tế Việt Nam, cung cấp các hướng dẫn chi tiết về chẩn đoán, phân loại giai đoạn và các phác đồ điều trị chuẩn cho ung thư phổi, bao gồm cả các thể ung thư thần kinh nội tiết, là nguồn tham khảo quan trọng cho mọi bác sĩ ung bướu thực hành tại Việt Nam.</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Quản lý Điều trị Ung thư Phổi Giai đoạn Muộn: Các Phác đồ Hóa trị và Chăm sóc Hỗ trợ</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ đi sâu vào các phác đồ hóa trị cho ung thư phổi giai đoạn tiến triển, bao gồm Etoposide-Cisplatin, các loại thuốc mục tiêu và miễn dịch. Khóa học cũng cung cấp kiến thức về quản lý tác dụng phụ, chăm sóc giảm nhẹ và các chiến lược nâng cao chất lượng cuộc sống cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ các bác sĩ trẻ và sinh viên y khoa nâng cao kiến thức.</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Trong một nghiên cứu hồi cứu về điều trị ung thư phổi như đoạn văn trên, các bác sĩ trẻ hoặc nghiên cứu viên cần lưu ý những khía cạnh nào về phương pháp nghiên cứu và đạo đức để đảm bảo chất lượng và tính khoa học của công trình?</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Các em và các bạn đồng nghiệp đang có ý định tham gia nghiên cứu khoa học, đặc biệt là nghiên cứu hồi cứu, cần hết sức chú ý đến phương pháp luận và đạo đức nghiên cứu. Đây là nền tảng để công trình của chúng ta có giá trị và được công nhận:
+*   **Loại hình nghiên cứu:** Đoạn văn mô tả 'Nghiên cứu mô tả cắt ngang hồi cứu'. Các em cần hiểu rõ ưu và nhược điểm của loại hình này. Ưu điểm là có thể thu thập dữ liệu từ hồ sơ bệnh án đã có, tiết kiệm thời gian và chi phí. Tuy nhiên, nhược điểm là không thể chứng minh quan hệ nhân quả mạnh mẽ, dễ bị sai lệch chọn mẫu hoặc thiếu thông tin cần thiết do dữ liệu được thu thập cho mục đích lâm sàng chứ không phải nghiên cứu.
+*   **Đối tượng và cỡ mẫu:** Việc xác định rõ tiêu chuẩn lựa chọn và loại trừ bệnh nhân là cực kỳ quan trọng để đảm bảo tính đồng nhất của nhóm nghiên cứu và khả năng khái quát hóa kết quả. Trong nghiên cứu này, cỡ mẫu 33 bệnh nhân là 'cỡ mẫu thuận tiện', điều này có thể ảnh hưởng đến tính đại diện và sức mạnh thống kê của kết quả. Các em cần hiểu rằng cỡ mẫu càng lớn và được chọn ngẫu nhiên càng tốt.
+*   **Biến số nghiên cứu:** Cần xác định rõ các biến số lâm sàng, cận lâm sàng, kết quả điều trị (đáp ứng khách quan, thời gian sống bệnh không tiến triển, thời gian sống thêm toàn bộ) cần thu thập. Việc này đòi hỏi sự tỉ mỉ và thống nhất trong cách định nghĩa và đo lường các biến số.
+*   **Xử lý số liệu:** Việc sử dụng phần mềm thống kê như SPSS 22.0 là đúng chuẩn. Tuy nhiên, quan trọng hơn là người nghiên cứu phải có kiến thức về thống kê y học để chọn đúng phương pháp phân tích (thống kê mô tả: trung bình, độ lệch chuẩn, tỉ lệ phần trăm) và diễn giải kết quả một cách chính xác.
+*   **Đạo đức nghiên cứu:** Đây là yếu tố sống còn! Các em cần đảm bảo:
+    *   **Tự nguyện tham gia:** Dù là nghiên cứu hồi cứu, việc thông báo và xin chấp thuận (có thể là chấp thuận gián tiếp qua hội đồng đạo đức) vẫn cần được xem xét.
+    *   **Bảo mật thông tin:** Việc mã hóa dữ liệu cá nhân là bắt buộc. Thông tin về bệnh tật và cá nhân bệnh nhân phải được bảo mật tuyệt đối. Trong bối cảnh ICD-10, việc mã hóa bệnh giúp chuẩn hóa dữ liệu nhưng không thay thế cho việc bảo vệ thông tin nhận dạng cá nhân.
+    *   **Lợi ích bệnh nhân:** Nghiên cứu phải hướng tới mục tiêu nâng cao chất lượng điều trị, không gây hại cho bệnh nhân. Việc giải thích rõ ràng về các lựa chọn điều trị, ưu nhược điểm và rủi ro cho bệnh nhân là trách nhiệm đạo đức cao cả của người bác sĩ, ngay cả khi bệnh nhân chỉ tham gia vào phần thu thập dữ liệu hồi cứu.</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Hướng dẫn Quốc gia về Đạo đức trong Nghiên cứu Y sinh học của Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>Tài liệu này là kim chỉ nam cho mọi nghiên cứu viên y khoa tại Việt Nam, quy định rõ ràng các nguyên tắc và quy trình đạo đức cần tuân thủ trong mọi loại hình nghiên cứu, từ thiết kế đến công bố, đặc biệt nhấn mạnh bảo vệ quyền lợi và thông tin của người bệnh.</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Phương pháp Nghiên cứu Khoa học và Đạo đức Y học cho Bác sĩ và Nghiên cứu viên trẻ</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức nền tảng về thiết kế nghiên cứu, thu thập và phân tích dữ liệu, diễn giải kết quả thống kê, cùng với các nguyên tắc đạo đức cốt lõi trong nghiên cứu y học. Đặc biệt hữu ích cho các bác sĩ trẻ và sinh viên y khoa muốn bắt đầu con đường nghiên cứu khoa học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao năng lực cho bác sĩ trẻ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Từ dữ liệu về đặc điểm lâm sàng và cận lâm sàng của bệnh nhân trong nghiên cứu, sinh viên y khoa và bác sĩ trẻ cần lưu ý những điểm gì về tình trạng di căn và giai đoạn khối u khi tiếp cận bệnh nhân ung thư phổi thần kinh nội tiết tế bào lớn (UTPTBNTCL) để định hướng tiên lượng và chiến lược điều trị ban đầu?</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Các em sinh viên và bác sĩ trẻ thân mến, việc nắm bắt các đặc điểm lâm sàng và cận lâm sàng ngay từ đầu là cực kỳ quan trọng để đánh giá tiên lượng và định hình chiến lược điều trị cho bệnh nhân UTPTBNTCL. Dựa trên nghiên cứu này, chúng ta có những bài học sâu sắc sau:
+*   **Tình trạng di căn lan rộng khi chẩn đoán**: Nghiên cứu chỉ rõ rằng một tỷ lệ lớn (81,8%) bệnh nhân đã đến viện trong tình trạng di căn nhiều cơ quan. Điều này nhấn mạnh tầm quan trọng của:
+    *   **Chẩn đoán sớm và sàng lọc tích cực**: Luôn giữ cảnh giác cao độ với các triệu chứng hô hấp không đặc hiệu ở nhóm đối tượng có nguy cơ cao (ví dụ: người hút thuốc, tiền sử gia đình). Việc chẩn đoán và xác định giai đoạn bệnh kịp thời có thể thay đổi đáng kể cục diện điều trị.
+    *   **Đánh giá toàn diện và chính xác**: Khi tiếp nhận bệnh nhân nghi ngờ UTPTBNTCL, các em cần thực hiện đầy đủ các phương pháp chẩn đoán hình ảnh và xét nghiệm sinh học (ví dụ: PET/CT, MRI sọ não, xạ hình xương) để xác định chính xác mức độ di căn. Việc này giúp phân loại giai đoạn bệnh một cách chuẩn xác theo hệ thống TNM. Mã **ICD-10 C34.9** (Ung thư phổi không đặc hiệu) thường được sử dụng ban đầu, nhưng cần bổ sung thêm các mã phụ cho loại tế bào và các vị trí di căn cụ thể (ví dụ: C78.0 cho di căn thứ phát ở phổi, C79.3 cho di căn não).
+*   **Tình trạng di căn hạch và kích thước khối u tại chỗ**: Hơn 80% bệnh nhân có di căn hạch nhóm N2-N3 và trên 50% có khối u ở giai đoạn T3-T4. Điều này có ý nghĩa rất lớn:
+    *   **Ý nghĩa tiên lượng**: Các chỉ số N2-N3 (di căn hạch vùng) và T3-T4 (khối u lớn, xâm lấn hoặc có nốt vệ tinh) đều là các yếu tố tiên lượng xấu, cho thấy bệnh đã tiến triển tại chỗ hoặc vùng, liên quan chặt chẽ đến nguy cơ tái phát cao và giảm thời gian sống thêm.
+    *   **Thách thức trong quản lý**: Với tình trạng bệnh lan tràn như vậy ngay từ đầu, các phác đồ điều trị thường phức tạp hơn và cần sự phối hợp đa chuyên khoa (phẫu thuật, hóa trị, xạ trị, điều trị đích, liệu pháp miễn dịch) để tối ưu hóa hiệu quả và quản lý các tác dụng phụ.
+Kết luận, việc thấu hiểu sâu sắc các đặc điểm bệnh lý khi bệnh nhân được chẩn đoán là nền tảng để các em có thể đưa ra tiên lượng thực tế, tư vấn cho bệnh nhân và gia đình về các lựa chọn điều trị, đồng thời tham gia vào quá trình ra quyết định lâm sàng một cách khoa học và có trách nhiệm.</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr"/>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao năng lực cho bác sĩ trẻ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã trình bày tỉ lệ đáp ứng điều trị của phác đồ Cisplatin-Etoposide theo RECIST v1.1. Sinh viên y khoa và bác sĩ trẻ cần phân tích các kết quả này như thế nào, đồng thời xem xét những yếu tố nào khi so sánh hiệu quả của phác đồ này với các nghiên cứu khác để đưa ra nhận định lâm sàng chính xác?</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Khi phân tích các kết quả đáp ứng điều trị, các em cần rèn luyện tư duy phản biện và đánh giá một cách toàn diện, đặc biệt là khi so sánh với các nghiên cứu khác. Đây là kỹ năng cốt lõi của một bác sĩ lâm sàng:
+**1. Hiểu rõ các chỉ số đáp ứng theo RECIST v1.1:**
+*   **Đáp ứng hoàn toàn (CR)**: 3,0% - Khối u biến mất hoàn toàn.
+*   **Đáp ứng một phần (PR)**: 39,4% - Kích thước khối u đích giảm đáng kể.
+*   **Bệnh ổn định (SD)**: 27,3% - Không co nhỏ đáng kể cũng không tiến triển rõ rệt.
+*   **Bệnh tiến triển (PD)**: 30,3% - Khối u tiếp tục phát triển hoặc xuất hiện tổn thương mới.
+*   **Tỷ lệ đáp ứng toàn bộ (Overall Response Rate - ORR)** = CR + PR = 42,4%. Đây là chỉ số quan trọng cho thấy tỷ lệ bệnh nhân có khối u co nhỏ đáng kể, là mục tiêu trực tiếp của hóa trị.
+*   **Tỷ lệ kiểm soát bệnh (Disease Control Rate - DCR)** = CR + PR + SD = 69,7%. Chỉ số này rộng hơn, bao gồm cả những bệnh nhân có bệnh ổn định, cho thấy khả năng kiểm soát sự phát triển của khối u.
+**2. Đánh giá hiệu quả của phác đồ Cisplatin-Etoposide:**
+Với ORR là 42,4% và DCR là 69,7%, phác đồ này cho thấy hiệu quả nhất định trong việc kiểm soát UTPTBNTCL giai đoạn tái phát di căn. Đây là một phác đồ hóa trị kinh điển và vẫn được xem là nền tảng cho nhiều loại ung thư phổi thần kinh nội tiết.
+**3. Các yếu tố cần xem xét khi so sánh với các nghiên cứu khác:**
+Nghiên cứu này ghi nhận ORR 42,4%, có vẻ thấp hơn so với một số nghiên cứu khác (ví dụ: 50% trong nghiên cứu của Igawa, 46,7% với Cisplatin-Irinotecan). Các em cần phân tích sâu hơn để hiểu tại sao:
+*   **Cỡ mẫu**: Nghiên cứu này chỉ trên 33 bệnh nhân, là một cỡ mẫu tương đối nhỏ. Các nghiên cứu với cỡ mẫu lớn hơn thường cung cấp dữ liệu có độ tin cậy thống kê cao hơn và ít bị ảnh hưởng bởi các yếu tố ngẫu nhiên.
+*   **Đặc điểm quần thể bệnh nhân**: Yếu tố then chốt được đề cập là "phần lớn bệnh nhân đến viện khi bệnh đã lan tràn". Bệnh nhân ở giai đoạn muộn hơn, di căn rộng hơn (phù hợp với **ICD-10 C34.9** với mã di căn) thường có đáp ứng điều trị kém hơn, bất kể phác đồ.
+*   **Phác đồ điều trị và bối cảnh sử dụng**: Sự khác biệt giữa Cisplatin-Etoposide và Cisplatin-Irinotecan có thể ảnh hưởng đến hiệu quả. Ngoài ra, các yếu tố như dòng điều trị (bước 1, bước 2), các điều trị trước đó cũng cần được xem xét.
+*   **Tiêu chuẩn tuyển chọn**: Các tiêu chí đưa bệnh nhân vào nghiên cứu (ví dụ: tình trạng thể trạng ECOG, các bệnh lý nền đi kèm) có thể khác nhau giữa các nghiên cứu, dẫn đến sự khác biệt về kết quả.
+**4. Bài học lâm sàng:**
+*   **Cá thể hóa điều trị**: Không có một phác đồ "tốt nhất" cho mọi bệnh nhân. Cần cân nhắc tổng thể tình trạng bệnh nhân, giai đoạn bệnh, các bệnh lý nền và mục tiêu điều trị để đưa ra lựa chọn tối ưu.
+*   **Thành thạo tiêu chuẩn RECIST v1.1**: Đây là công cụ chuẩn để đánh giá khách quan đáp ứng điều trị. Các em cần hiểu rõ cách đo lường tổn thương đích và không đích, cũng như cách xác định CR, PR, SD, PD.
+*   **Tư duy phê bình y văn**: Luôn đọc y văn với cái nhìn khách quan, nhận diện các điểm mạnh và hạn chế của từng nghiên cứu để áp dụng kiến thức một cách hợp lý vào thực hành.
+**Bảng 3.4: Tỉ lệ đáp ứng của phác đồ theo RECIST v1.1**
+| Đáp ứng         | Số bệnh nhân | Tỉ lệ % |
+| :-------------- | :----------- | :------ |
+| Hoàn toàn       | 1            | 3,0     |
+| Một phần        | 13           | 39,4    |
+| Bệnh ổn định    | 9            | 27,3    |
+| Bệnh tiến triển | 10           | 30,3    |
+| **Tổng**        | **33**       | **100** |</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành lâm sàng về tiêu chuẩn đánh giá đáp ứng khối u đặc (RECIST) phiên bản 1.1</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp thông tin chi tiết về cách áp dụng RECIST v1.1 để đánh giá khách quan đáp ứng của khối u với điều trị trong các thử nghiệm lâm sàng và thực hành hàng ngày. Hiểu rõ RECIST là nền tảng để bác sĩ trẻ có thể theo dõi hiệu quả điều trị và đưa ra quyết định lâm sàng chính xác cho các bệnh ung thư, bao gồm cả ung thư phổi thần kinh nội tiết (phù hợp với mã ICD-10 C34.9 và các mã morphologic liên quan).</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Phương pháp luận nghiên cứu lâm sàng và đánh giá kết quả điều trị trong ung thư</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ trang bị cho bác sĩ trẻ kiến thức về thiết kế nghiên cứu, nguyên lý thống kê y học và cách diễn giải các chỉ số kết quả điều trị quan trọng (ORR, DCR, PFS, OS). Đây là kỹ năng cần thiết để các em có thể đọc hiểu y văn chuyên sâu, tham gia nghiên cứu và áp dụng bằng chứng y học vào thực hành lâm sàng một cách hiệu quả.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao năng lực cho bác sĩ trẻ, sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Dựa trên phần bàn luận và kết luận của nghiên cứu, những bài học quan trọng nào về quản lý ung thư phổi thần kinh nội tiết tế bào lớn giai đoạn di căn có thể rút ra cho bác sĩ trẻ và sinh viên y khoa, đặc biệt là trong việc nhận thức các thách thức và cải thiện kỹ năng lâm sàng cũng như nghiên cứu?</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Các em thân mến, phần bàn luận và kết luận của bất kỳ nghiên cứu nào cũng là nơi chứa đựng những giá trị thực tiễn và bài học quý báu, định hình tư duy và hành động của chúng ta. Với nghiên cứu này, các em cần khắc cốt ghi tâm những điểm sau để không ngừng nâng cao kỹ năng lâm sàng và tư duy nghiên cứu của mình:
+*   **Nhận thức sâu sắc về bệnh lý và thách thức lâm sàng**: 
+    *   **Giai đoạn muộn là đặc điểm phổ biến**: Điểm nổi bật nhất là đa số bệnh nhân (81,8%) được chẩn đoán khi bệnh đã ở giai đoạn di căn nhiều cơ quan. Điều này phản ánh tính chất diễn tiến thầm lặng và nhanh chóng của UTPTBNTCL (mã **ICD-10 C34.9**, cần phối hợp với mã bệnh học và mã di căn). Các em cần nhận thức đây là thách thức lớn trong điều trị, đòi hỏi sự chủ động trong sàng lọc và chẩn đoán sớm.
+    *   **Đặc điểm dịch tễ quan trọng**: Nghiên cứu chỉ ra nhóm tuổi dưới 65 (60,6%) và tỷ lệ nam giới vượt trội (7,26/1) là những đặc điểm dịch tễ cần ghi nhớ. Thông tin này giúp các em có cái nhìn toàn diện hơn về nhóm bệnh nhân cần được theo dõi sát sao, từ đó định hướng tư vấn và sàng lọc hiệu quả hơn trong cộng đồng.
+*   **Thách thức trong hiệu quả điều trị và tầm quan trọng của cá thể hóa**: 
+    *   **Giới hạn của phác đồ nền tảng**: Mặc dù phác đồ Cisplatin-Etoposide là một phác đồ hóa trị nền tảng, tỷ lệ đáp ứng của nó trong nghiên cứu này còn khiêm tốn (42,4%) và có thể thấp hơn so với các nghiên cứu khác. Điều này không phủ nhận giá trị của phác đồ, mà chỉ ra rằng bối cảnh lâm sàng cụ thể (ví dụ: giai đoạn bệnh muộn) có thể ảnh hưởng đến kết quả.
+    *   **Cần cá thể hóa điều trị**: Sự khác biệt trong tỷ lệ đáp ứng giữa các nghiên cứu và giữa các phác đồ gợi ý rằng việc cá thể hóa điều trị là vô cùng quan trọng. Các em cần cân nhắc toàn diện về thể trạng bệnh nhân, giai đoạn bệnh, tình trạng đột biến gene (nếu có), và các lựa chọn điều trị khác như điều trị đích hoặc liệu pháp miễn dịch để đưa ra phác đồ tối ưu nhất cho từng cá thể.
+*   **Phát triển kỹ năng nghiên cứu và tư duy phê bình y văn**:
+    *   **Cỡ mẫu ảnh hưởng đến độ tin cậy**: Nghiên cứu này có cỡ mẫu nhỏ (33 bệnh nhân). Đây là một hạn chế quan trọng mà chính các tác giả đã chỉ ra. Các em cần hiểu rằng cỡ mẫu nhỏ có thể làm giảm độ tin cậy thống kê và khả năng khái quát hóa kết quả cho toàn bộ quần thể bệnh nhân.
+    *   **Đọc và so sánh nghiên cứu một cách phê phán**: Khi so sánh kết quả giữa các nghiên cứu, đừng bao giờ chỉ nhìn vào con số. Hãy đào sâu tìm hiểu về đặc điểm quần thể bệnh nhân, tiêu chuẩn tuyển chọn, giai đoạn bệnh, phác đồ điều trị chi tiết và cỡ mẫu. Điều này giúp các em có cái nhìn khách quan và tránh đưa ra những kết luận vội vàng.
+    *   **Sự cần thiết của nghiên cứu liên tục**: Để cải thiện tiên lượng cho bệnh nhân ung thư nói chung và UTPTBNTCL nói riêng, chúng ta cần liên tục thực hiện các nghiên cứu chất lượng cao, với cỡ mẫu lớn hơn và thiết kế chặt chẽ hơn, đặc biệt là các thử nghiệm lâm sàng đa trung tâm, để tìm ra những phương pháp điều trị hiệu quả hơn.</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Đối với một sinh viên y khoa hoặc bác sĩ trẻ mới tiếp cận lâm sàng, làm thế nào để chẩn đoán chính xác đau dây thần kinh V nguyên phát và những phương pháp điều trị khởi đầu nào cần được xem xét trước khi can thiệp xâm lấn?</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc chẩn đoán đau dây thần kinh V nguyên phát (hay còn gọi là đau dây thần kinh sinh ba tự phát) đòi hỏi sự tỉ mỉ và hiểu biết rõ về các tiêu chuẩn lâm sàng. Theo ICD-10, đau dây thần kinh V nguyên phát được mã hóa là **G50.0**. Để chẩn đoán chính xác, các bạn cần: 
+*   **Thăm khám lâm sàng chi tiết:**
+    *   **Khai thác bệnh sử:** Hỏi kỹ về tính chất cơn đau (đột ngột, dữ dội, như điện giật, nhói), vị trí đau (thường khu trú một bên mặt, theo phân bố của một hoặc nhiều nhánh dây V), yếu tố khởi phát (như ăn, nói, đánh răng, sờ nhẹ mặt), tần suất và thời gian mỗi cơn đau.
+    *   **Khám thần kinh:** Tìm kiếm các dấu hiệu khách quan như rối loạn cảm giác (tê bì), yếu cơ cắn (mặc dù hiếm gặp trong thể nguyên phát), hoặc các dấu hiệu gợi ý nguyên nhân thứ phát (ví dụ: khối u, tổn thương mạch máu chèn ép).
+*   **Tiêu chuẩn chẩn đoán (thường dựa trên tiêu chuẩn của Hiệp hội Đau mặt Quốc tế IASP/ICHD-3):**
+    *   Cơn đau mặt kịch phát, đột ngột, dữ dội, như điện giật, thường kéo dài vài giây đến 2 phút.
+    *   Đau khu trú theo phân bố của một hoặc nhiều nhánh dây V (V1, V2, V3).
+    *   Được kích hoạt bởi các kích thích nhẹ (điểm cò súng – trigger zone).
+    *   Không có các dấu hiệu thần kinh khách quan khác ngoài đau.
+    *   Không giải thích được bằng một chẩn đoán khác.
+*   **Cận lâm sàng:** Chụp MRI sọ não có thể được chỉ định để loại trừ các nguyên nhân thứ phát (chèn ép mạch máu, u, xơ cứng rải rác).
+**Về các phương pháp điều trị khởi đầu trước can thiệp xâm lấn, bạn cần tập trung vào điều trị nội khoa:**
+*   **Thuốc chống co giật:** Carbamazepine là thuốc lựa chọn hàng đầu, có hiệu quả cao. Liều dùng cần được điều chỉnh từ thấp đến cao để đạt hiệu quả và giảm tác dụng phụ. Oxcarbazepine là một lựa chọn khác có thể dung nạp tốt hơn.
+*   **Các thuốc khác:** Baclofen, Gabapentin, Pregabalin cũng có thể được xem xét, đặc biệt khi Carbamazepine không hiệu quả hoặc bệnh nhân không dung nạp.
+*   **Phối hợp thuốc:** Trong một số trường hợp, cần phối hợp nhiều loại thuốc để kiểm soát đau.
+*   **Quản lý yếu tố khởi phát:** Hướng dẫn bệnh nhân tránh các yếu tố kích hoạt cơn đau (ví dụ: tránh thức ăn quá lạnh/nóng, dùng bàn chải mềm).
+Việc điều trị nội khoa cần được duy trì và đánh giá định kỳ. Chỉ khi thất bại với điều trị nội khoa tối ưu hoặc bệnh nhân có tác dụng phụ không dung nạp, các phương pháp can thiệp xâm lấn (như phong bế thần kinh, phẫu thuật giải ép vi mạch) mới được đặt ra.</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Sổ tay chẩn đoán và điều trị đau dây thần kinh V theo ICD-10.</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Hướng dẫn toàn diện về chẩn đoán phân biệt, tiêu chuẩn ICD-10 cho đau dây thần kinh V nguyên phát (G50.0), và các phương pháp điều trị nội khoa ban đầu. Tài liệu này cung cấp các phác đồ điều trị cập nhật và các khuyến nghị dựa trên bằng chứng, rất hữu ích cho sinh viên y khoa và bác sĩ trẻ để nắm vững kiến thức cơ bản.</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Quản lý Đau Dây Thần Kinh V: Từ Chẩn Đoán đến Các Kỹ Thuật Can Thiệp Tối Thiểu.</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu trang bị kiến thức và kỹ năng thực hành lâm sàng trong chẩn đoán, đánh giá mức độ đau và lựa chọn phương pháp điều trị tối ưu cho bệnh nhân đau dây thần kinh V, bao gồm cả các can thiệp tối thiểu như phong bế thần kinh. Khóa học sẽ giúp các bạn tự tin hơn trong việc tiếp cận và quản lý bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Dựa trên kết quả nghiên cứu về tiêm phong bế thần kinh V bằng cồn tuyệt đối liều thấp, một bác sĩ trẻ cần lưu ý những điểm gì về hiệu quả và biến chứng tiềm tàng của phương pháp này, đặc biệt khi tư vấn cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Dựa trên nghiên cứu tại Bệnh viện Đại học Y Hà Nội về tiêm phong bế thần kinh V bằng cồn tuyệt đối liều thấp, phương pháp này cho thấy hiệu quả đáng kể trong điều trị đau dây thần kinh V nguyên phát. Tuy nhiên, với tư cách là một bác sĩ trẻ, các bạn cần hiểu rõ cả về lợi ích và rủi ro để tư vấn đầy đủ và chính xác cho bệnh nhân:
+*   **Về hiệu quả điều trị:**
+    *   **Giảm đau rõ rệt:** Nghiên cứu chỉ ra rằng 24/38 bệnh nhân cải thiện mức độ đau nhẹ hoặc không đau sau can thiệp, với thang điểm VAS từ trung bình/nặng giảm đáng kể. Điều này cho thấy khả năng giảm đau cấp tính rất tốt.
+    *   **Thời gian không tái phát tương đối dài:** 30/38 bệnh nhân (100% trong số những người ban đầu hết đau hoàn toàn) không trải qua cơn đau tái phát trong ít nhất một năm đầu. Tuy nhiên, tỷ lệ tái phát tăng theo thời gian, với 6,7% sau 12 tháng và 17,2% sau trên 12 tháng (mức BNI-PS IV) và 3,4% (BNI-PS V) sau trên 12 tháng. Điều này cần được giải thích rõ cho bệnh nhân về khả năng tái phát trong tương lai.
+    *   **Liều dùng:** Nghiên cứu sử dụng liều 0,3 ml và liều lớn hơn 0,3 ml. Cần cân nhắc liều tối ưu để đạt hiệu quả cao nhất với biến chứng thấp nhất.
+*   **Về biến chứng tiềm tàng:** Mặc dù không có biến chứng nghiêm trọng nào được báo cáo, các biến chứng dưới đây là phổ biến và cần được bệnh nhân biết trước:
+| Biến chứng                          | Liều 0,3 ml | Liều &gt; 0,3 ml | Lưu ý lâm sàng                                                                                                                                                                                             |
+| :---------------------------------- | :---------: | :-----------: | :--------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- |
+| Mất cảm giác/tê bì theo nhánh V     | 87%         | 87,5%         | Đây là biến chứng rất thường gặp, cần giải thích rõ là có thể kéo dài, ảnh hưởng đến chất lượng sống (ví dụ: ăn uống, vệ sinh mặt).                                                                          |
+| Viêm giác mạc                       | 12,5%       | 13,3%         | Thường xảy ra nếu nhánh V1 bị ảnh hưởng (mất cảm giác giác mạc), yêu cầu bệnh nhân được hướng dẫn bảo vệ mắt cẩn thận sau thủ thuật (ví dụ: dùng nước mắt nhân tạo, đeo kính bảo hộ). |
+| Yếu cơ cắn                          | 23,3%       | 25%           | Có thể ảnh hưởng đến chức năng nhai, thường tự phục hồi nhưng cần theo dõi.                                                                                                                                |
+*   **Tư vấn cho bệnh nhân:**
+    *   **Giải thích rõ ràng:** Cần giải thích cụ thể về cơ chế hoạt động, tỷ lệ thành công, thời gian giảm đau dự kiến và đặc biệt là các biến chứng có thể xảy ra.
+    *   **Quản lý kỳ vọng:** Nhấn mạnh rằng đây là một phương pháp giảm đau hiệu quả nhưng không phải là 'chữa khỏi' hoàn toàn và có khả năng tái phát.
+    *   **Theo dõi sau can thiệp:** Hướng dẫn bệnh nhân cách tự theo dõi các biến chứng (đặc biệt là mắt) và liên hệ ngay với y tế nếu có bất kỳ dấu hiệu bất thường nào.
+Việc nắm vững các thông tin này giúp các bạn trở thành những bác sĩ đáng tin cậy và có trách nhiệm trong việc chăm sóc bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Hướng dẫn thực hành kỹ thuật tiêm phong bế thần kinh trong điều trị đau.</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Tài liệu chi tiết về chỉ định, chống chỉ định, kỹ thuật thực hiện tiêm phong bế thần kinh V, và quản lý biến chứng khi thực hiện các thủ thuật phong bế thần kinh bằng cồn tuyệt đối. Rất phù hợp cho việc học và thực hành tại bệnh viện.</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Kỹ thuật can thiệp giảm đau: Phong bế thần kinh V và các phương pháp khác.</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>Chương trình đào tạo thực hành tập trung vào các kỹ thuật phong bế thần kinh vùng mặt và các kỹ thuật giảm đau can thiệp khác. Khóa học sẽ giúp các bạn bác sĩ và sinh viên y khoa nắm vững quy trình, luyện tập kỹ năng thực hành và quản lý rủi ro trong điều trị đau dây thần kinh V, đảm bảo an toàn và hiệu quả cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Làm thế nào để đánh giá hiệu quả điều trị đau dây thần kinh V bằng các thang điểm như VAS và BNI-PS một cách khoa học, và khi nào bác sĩ nên cân nhắc các phương pháp điều trị khác dựa trên bằng chứng lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Việc đánh giá hiệu quả điều trị đau một cách khách quan là vô cùng quan trọng để điều chỉnh phác đồ và tối ưu hóa kết quả cho bệnh nhân. Các thang điểm như VAS và BNI-PS là công cụ không thể thiếu trong thực hành lâm sàng:
+*   **Thang điểm đánh giá đau trực quan (VAS - Visual Analogue Scale):**
+    *   **Cách sử dụng:** Bệnh nhân tự đánh dấu mức độ đau của mình trên một đường thẳng có chiều dài 10cm, từ 'không đau' (0) đến 'đau dữ dội nhất có thể tưởng tượng' (10).
+    *   **Ý nghĩa:** Cung cấp một đánh giá nhanh chóng và chủ quan về cường độ đau hiện tại của bệnh nhân. Rất hữu ích để theo dõi sự thay đổi mức độ đau trước và sau điều trị trong thời gian ngắn.
+    *   **Ứng dụng cho sinh viên/bác sĩ trẻ:** Hãy luôn yêu cầu bệnh nhân đánh giá VAS trước và sau mỗi can thiệp hoặc điều chỉnh thuốc để có dữ liệu khách quan, đồng thời sử dụng các mức độ để phân loại (nhẹ, trung bình, nặng) và trao đổi với đồng nghiệp.
+*   **Thang điểm đau của Viện Thần kinh học Barrow (BNI-PS - Barrow Neurological Institute Pain Scale):**
+    *   **Cách sử dụng:** Đây là một thang điểm định tính hơn, phân loại mức độ đau thành 6 cấp độ (I đến V và Va).
+        *   I: Không đau.
+        *   II: Đau nhưng không cần thuốc.
+        *   III: Đau, kiểm soát bằng thuốc.
+        *   IV: Đau, không kiểm soát tốt bằng thuốc.
+        *   V: Đau không kiểm soát được, cần can thiệp.
+        *   Va: Tê bì nhưng không đau. (Mặc dù nghiên cứu trong đoạn văn không nhắc đến Va, nhưng đây là một phần của thang điểm BNI-PS đầy đủ, thể hiện kết quả mất cảm giác sau điều trị).
+    *   **Ý nghĩa:** Đánh giá không chỉ cường độ đau mà còn mức độ ảnh hưởng của đau đến chất lượng sống và sự cần thiết của thuốc. Rất hữu ích để theo dõi lâu dài và quyết định về các bước điều trị tiếp theo.
+    *   **Ứng dụng cho sinh viên/bác sĩ trẻ:** BNI-PS giúp các bạn nhận diện khi nào đau của bệnh nhân trở nên khó kiểm soát bằng các phương pháp hiện tại (mức IV, V), báo hiệu cần phải xem xét các phương pháp điều trị mạnh hơn hoặc các can thiệp xâm lấn.
+**Khi nào nên cân nhắc các phương pháp điều trị khác dựa trên bằng chứng lâm sàng?**
+Các bạn cần tiếp cận việc ra quyết định điều trị dựa trên nguyên tắc Y học Thực chứng (Evidence-Based Medicine - EBM). Điều này có nghĩa là kết hợp kinh nghiệm lâm sàng, giá trị của bệnh nhân và bằng chứng khoa học tốt nhất hiện có.
+*   **Thất bại điều trị nội khoa:** Khi bệnh nhân không đáp ứng đầy đủ với các loại thuốc tối ưu (liều đủ, thời gian đủ) hoặc gặp phải tác dụng phụ không dung nạp, đặc biệt nếu VAS vẫn cao hoặc BNI-PS ở mức IV-V.
+*   **Tái phát đau sớm/nhiều lần:** Sau các can thiệp ban đầu như tiêm phong bế, nếu đau tái phát nhanh chóng hoặc tái phát nhiều lần, cần xem xét các phương pháp khác như cắt hạch Gasser bằng sóng cao tần (Radiofrequency Ablation), phẫu thuật giải ép vi mạch (Microvascular Decompression - MVD) hoặc xạ phẫu (Gamma Knife Radiosurgery).
+*   **Đánh giá lại nguyên nhân:** Trong trường hợp không điển hình hoặc thất bại điều trị, luôn cần xem xét lại chẩn đoán ban đầu và có thể cần chụp MRI lại để loại trừ các nguyên nhân thứ phát mới xuất hiện hoặc bị bỏ sót.
+*   **Tham khảo tài liệu và nghiên cứu:** Hãy luôn cập nhật các hướng dẫn lâm sàng quốc tế và các nghiên cứu mới (như các tài liệu tham khảo trong đoạn văn về u thần kinh nội tiết phổi cũng cho thấy tầm quan trọng của việc tham khảo y văn để cập nhật phác đồ điều trị, ví dụ các nghiên cứu về irinotecan/cisplatin hay etoposide/cisplatin trong ung thư phổi). Điều này giúp bạn đưa ra lựa chọn điều trị tối ưu nhất cho từng bệnh nhân cụ thể.</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Hướng dẫn sử dụng thang điểm đánh giá đau VAS và BNI-PS trong lâm sàng và nghiên cứu.</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Tài liệu chuyên sâu giải thích cách áp dụng và diễn giải các thang điểm VAS và BNI-PS để đánh giá mức độ đau và theo dõi hiệu quả điều trị. Bao gồm ví dụ minh họa và hướng dẫn chi tiết cách ghi nhận và phân tích dữ liệu, rất quan trọng cho các nghiên cứu và thực hành lâm sàng chính xác.</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Phân tích và Ứng dụng Bằng Chứng Y Học (EBM) trong Quản lý Đau Mạn tính.</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>Khóa học trang bị kỹ năng tìm kiếm, đánh giá và áp dụng các bằng chứng khoa học mới nhất từ các nghiên cứu lâm sàng vào thực hành điều trị đau mạn tính, bao gồm đau dây thần kinh V. Giúp bác sĩ đưa ra quyết định điều trị có căn cứ, cập nhật kiến thức chuyên môn và nâng cao chất lượng chăm sóc bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, nhằm hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Băng huyết sau sinh (BHSS) nặng được định nghĩa như thế nào và đâu là các nguyên nhân chính cần lưu ý, đặc biệt khi cân nhắc các phương pháp điều trị không phẫu thuật?</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Chào các em sinh viên và bác sĩ trẻ, việc nắm vững định nghĩa và nguyên nhân của băng huyết sau sinh (BHSS) nặng là vô cùng quan trọng để có thể đưa ra quyết định lâm sàng kịp thời và chính xác.
+**1. Định nghĩa BHSS nặng:**
+Theo Bộ Y tế Việt Nam và Tổ chức Y tế Thế giới (WHO), băng huyết sau sinh được định nghĩa là mất máu từ 500ml trở lên trong vòng 24 giờ đầu sau sinh. Tuy nhiên, BHSS **nặng** thường được xác định khi:
+*   **Mất máu từ 1000 ml trở lên** hoặc
+*   Mất máu gây ra các dấu hiệu sốc (tụt huyết áp, tăng nhịp tim, tái nhợt, thiểu niệu) hoặc cần truyền máu. 
+Nghiên cứu tại Bệnh viện Từ Dũ cũng sử dụng tiêu chí **máu mất ≥1000 ml** để xác định BHSS nặng, đây là một ngưỡng quan trọng cần ghi nhớ để đánh giá mức độ nghiêm trọng và quyết định xử trí cấp cứu.
+**2. Các nguyên nhân chính của BHSS nặng:**
+Trong thực hành lâm sàng, chúng ta thường nhớ đến '4 T' để phân loại các nguyên nhân gây BHSS, giúp hệ thống hóa chẩn đoán và điều trị:
+*   **Tone (Đờ tử cung):** Đây là nguyên nhân phổ biến nhất, chiếm khoảng 70-80% các trường hợp BHSS. Như trong nghiên cứu, **toàn bộ 7 ca phẫu thuật cắt tử cung cấp cứu đều có đờ tử cung là một trong các nguyên nhân chính**. Điều này nhấn mạnh tầm quan trọng của việc dự phòng và xử trí đờ tử cung bằng thuốc tăng co tử cung (Oxytocin, Misoprostol, Methylergometrine).
+*   **Trauma (Tổn thương đường sinh dục):** Các vết rách âm đạo, cổ tử cung, hoặc vỡ tử cung. Nghiên cứu cũng ghi nhận tổn thương đường sinh dục là nguyên nhân đi kèm ở một số trường hợp.
+*   **Tissue (Sót nhau, sót màng):** Phần nhau thai hoặc màng còn sót lại trong tử cung có thể cản trở sự co hồi của tử cung, gây chảy máu.
+*   **Thrombin (Rối loạn đông máu):** Các bệnh lý đông máu bẩm sinh, mắc phải (ví dụ: tiền sản giật nặng, hội chứng HELLP, nhiễm trùng huyết, thuyên tắc ối) có thể gây ra rối loạn đông máu toàn thân, làm trầm trọng thêm tình trạng chảy máu. Nghiên cứu cũng chỉ ra rằng **rối loạn đông máu là một nguyên nhân đi kèm** ở một số ca.
+**3. Nguyên tắc khi điều trị không phẫu thuật thất bại:**
+Khi đối mặt với BHSS nặng, các điều trị không phẫu thuật (như xoa bóp tử cung, dùng thuốc co hồi tử cung, đặt bóng chèn lòng tử cung) cần được ưu tiên hàng đầu và thực hiện một cách khẩn trương. Tuy nhiên, các em cần nhận diện sớm dấu hiệu thất bại của các phương pháp này để nhanh chóng chuyển sang các biện pháp can thiệp xâm lấn hơn, bao gồm phẫu thuật. Quyết định phẫu thuật cắt tử cung cấp cứu không phải là thất bại, mà là một hành động cứu sống người bệnh khi các phương pháp khác đã không còn hiệu quả. Sự phối hợp giữa bác sĩ sản khoa, gây mê hồi sức và ngân hàng máu là tối quan trọng.</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và xử trí băng huyết sau sinh của Bộ Y tế Việt Nam (phiên bản cập nhật)</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các hướng dẫn chi tiết về chẩn đoán, phân loại và phác đồ điều trị băng huyết sau sinh theo tiêu chuẩn quốc gia, rất cần thiết cho việc học tập và thực hành lâm sàng của bác sĩ sản khoa.</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Cập nhật Phác đồ Quản lý Băng huyết sau sinh và Kỹ năng xử trí Đờ tử cung</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các phác đồ mới nhất trong quản lý BHSS, bao gồm cả kỹ năng thực hành xử trí đờ tử cung, sử dụng thuốc và các thủ thuật cầm máu không phẫu thuật, giúp bác sĩ nâng cao năng lực ứng phó với cấp cứu sản khoa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, nhằm hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh băng huyết sau sinh nặng, khi nào nên cân nhắc phẫu thuật cắt tử cung cấp cứu và những yếu tố lâm sàng nào cần được đánh giá trước khi đưa ra quyết định quan trọng này?</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Các bạn thân mến, quyết định phẫu thuật cắt tử cung cấp cứu do băng huyết sau sinh nặng là một trong những quyết định khó khăn và mang tính sống còn trong sản khoa. Việc ra quyết định cần dựa trên sự đánh giá toàn diện và kịp thời.
+**1. Khi nào nên cân nhắc phẫu thuật cắt tử cung cấp cứu?**
+Như nghiên cứu đã chỉ ra, phẫu thuật cắt tử cung cấp cứu được tiến hành **'sau khi các điều trị không phẫu thuật thất bại'**. Điều này có nghĩa là mọi nỗ lực bảo tồn tử cung như:
+*   Xoa bóp tử cung mạnh và liên tục.
+*   Sử dụng thuốc tăng co tử cung liều cao và phối hợp.
+*   Loại bỏ các nguyên nhân khác (sót nhau, khâu vết rách).
+*   Đặt bóng chèn lòng tử cung (như Bakri balloon) – được thực hiện ở 5/7 ca trong nghiên cứu.
+*   Thắt động mạch tử cung hoặc động mạch cổ tử cung (6/7 ca thắt động mạch cổ tử cung, 1/7 ca thắt động mạch tử cung trong nghiên cứu).
+*   Thắt động mạch hạ vị (1/7 ca trong nghiên cứu).
+...đều không đạt hiệu quả trong việc kiểm soát chảy máu. Thời gian ra quyết định là tối quan trọng; định nghĩa 'cắt tử cung trong vòng 24 giờ sau sanh' cho thấy sự khẩn cấp của tình huống.
+**2. Các yếu tố lâm sàng cần đánh giá:**
+Khi đứng trước một ca BHSS nặng, các em cần nhanh chóng đánh giá các yếu tố sau để đưa ra quyết định phẫu thuật:
+*   **Tình trạng huyết động của sản phụ:** Đây là yếu tố hàng đầu. Nếu sản phụ có dấu hiệu sốc, cần hồi sức tích cực song song với việc tìm nguyên nhân và xử trí.
+*   **Lượng máu mất và tốc độ mất máu:** Theo dõi sát sao lượng máu mất và đánh giá nhanh chóng. Việc máu mất nhanh dù đã can thiệp cho thấy cần phẫu thuật.
+*   **Đáp ứng với điều trị bảo tồn:** Đánh giá hiệu quả của các phương pháp cầm máu ban đầu. Nếu không thấy cải thiện sau một khoảng thời gian ngắn (ví dụ 15-30 phút), cần chuyển hướng.
+*   **Nguyên nhân gây BHSS:** Xác định nguyên nhân chính. Nếu là đờ tử cung nặng không đáp ứng thuốc, hoặc tổn thương đường sinh dục phức tạp khó kiểm soát bằng phẫu thuật bảo tồn, hoặc rối loạn đông máu trầm trọng, thì việc cắt tử cung có thể là giải pháp cuối cùng.
+*   **Mong muốn có con của sản phụ:** Mặc dù trong tình huống cấp cứu đe dọa tính mạng, cứu sống sản phụ là ưu tiên hàng đầu, nhưng đây vẫn là một yếu tố cần cân nhắc nếu có thể, và cần thảo luận nhanh chóng với gia đình nếu tình trạng cho phép.
+**3. Một số đặc điểm của các trường hợp cần cắt tử cung cấp cứu trong nghiên cứu:**
+Nghiên cứu tại Bệnh viện Từ Dũ đã ghi nhận một số đặc điểm lâm sàng của 7 trường hợp BHSS nặng cần cắt tử cung cấp cứu. Việc xem xét các đặc điểm này giúp chúng ta có cái nhìn tổng quan hơn về nhóm bệnh nhân này, dù mỗi ca lâm sàng đều là duy nhất. Các bạn có thể tham khảo bảng tóm tắt dưới đây:
+| Đặc điểm                                | Giá trị/Nhận xét từ 7 ca | Ghi chú                                   |
+| :-------------------------------------- | :---------------------- | :--------------------------------------- |
+| Tuổi thai phụ                           | 28 - 42 tuổi            | Đa dạng, không tập trung vào nhóm quá trẻ hay quá lớn. |
+| Tiền căn BHSS                           | Không ghi nhận           | Cho thấy BHSS nặng có thể xảy ra ở người không có tiền sử. |
+| Tiền căn mổ lấy thai / U xơ tử cung    | Không ghi nhận           | Loại trừ một số yếu tố nguy cơ quen thuộc. |
+| Tiền sản giật nặng/Hội chứng HELLP      | Không ghi nhận           | Cho thấy các nguyên nhân khác chiếm ưu thế. |
+| Đờ tử cung                              | **100% các ca**         | Nguyên nhân chủ yếu, cần được xử trí tích cực ban đầu. |
+| Tổn thương đường sinh dục               | Ghi nhận ở một số ca    | Cần kiểm tra kỹ đường sinh dục sau sinh. |
+| Rối loạn đông máu                       | Ghi nhận ở một số ca    | Cần xét nghiệm đông máu và bù yếu tố đông máu nếu cần. |
+| Tổng lượng máu mất                      | 1400 ml - 3700 ml       | Mức độ mất máu rất đáng kể, cho thấy sự nghiêm trọng. |
+Việc hiểu rõ các yếu tố này giúp các em nâng cao khả năng đánh giá và ra quyết định trong những tình huống cấp bách, hướng tới mục tiêu cuối cùng là cứu sống người mẹ.</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Phẫu thuật cấp cứu trong sản khoa: Chỉ định, Kỹ thuật và Quản lý biến chứng</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp kiến thức chuyên sâu về các chỉ định, kỹ thuật phẫu thuật cấp cứu trong sản khoa, đặc biệt là cắt tử cung cấp cứu, và cách quản lý các biến chứng có thể xảy ra, là tài liệu tham khảo quý giá cho bác sĩ phẫu thuật sản khoa.</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Workshop Kỹ năng Phẫu thuật Cấp cứu trong Sản khoa: Cắt tử cung và Thắt mạch máu</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành chuyên sâu này bao gồm các buổi huấn luyện kỹ năng phẫu thuật trên mô hình và xác, tập trung vào kỹ thuật cắt tử cung cấp cứu và các phương pháp thắt mạch máu tử cung, giúp bác sĩ sản khoa tự tin hơn trong phòng mổ cấp cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, nhằm hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Nghiên cứu tại Bệnh viện Từ Dũ không ghi nhận trường hợp tử vong nào sau phẫu thuật cắt tử cung cấp cứu do BHSS nặng. Bài học rút ra từ kết quả này là gì và làm thế nào để bác sĩ trẻ có thể nâng cao năng lực ứng phó với các tình huống cấp cứu sản khoa để đạt được kết quả tương tự?</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Kết quả không có trường hợp tử vong nào trong 7 ca phẫu thuật cắt tử cung cấp cứu do BHSS nặng tại Bệnh viện Từ Dũ là một tín hiệu rất đáng mừng và là minh chứng cho hiệu quả của một hệ thống quản lý cấp cứu sản khoa tốt. Đây là những bài học quan trọng mà các em có thể rút ra và áp dụng vào thực hành lâm sàng của mình:
+**1. Bài học rút ra từ kết quả tích cực:**
+*   **Hệ thống phản ứng nhanh và phối hợp đa chuyên khoa:** Việc không có ca tử vong cho thấy một chuỗi phản ứng kịp thời từ nhận diện, hồi sức, can thiệp không phẫu thuật đến quyết định phẫu thuật. Điều này đòi hỏi sự phối hợp nhịp nhàng giữa bác sĩ sản khoa, bác sĩ gây mê hồi sức, ngân hàng máu và phòng mổ.
+*   **Đánh giá và ra quyết định chính xác, kịp thời:** Khả năng nhận diện sớm BHSS nặng, đánh giá hiệu quả của các phương pháp điều trị bảo tồn và đưa ra quyết định chuyển sang phẫu thuật cắt tử cung vào đúng thời điểm là yếu tố then chốt. Việc trì hoãn có thể dẫn đến hậu quả nghiêm trọng.
+*   **Năng lực phẫu thuật của đội ngũ y tế:** Kỹ năng phẫu thuật vững vàng của ê-kíp mổ là điều kiện tiên quyết để thực hiện thành công một ca cắt tử cung cấp cứu trong điều kiện bệnh nhân có huyết động không ổn định.
+*   **Sẵn có các nguồn lực hỗ trợ:** Sự sẵn có của máu và các chế phẩm máu, trang thiết bị hồi sức và phẫu thuật hiện đại đóng vai trò quan trọng trong việc hỗ trợ can thiệp cấp cứu.
+**2. Nâng cao năng lực ứng phó với cấp cứu sản khoa cho bác sĩ trẻ:**
+Để đạt được kết quả tương tự và tự tin hơn trong xử lý BHSS nặng, các em cần:
+*   **Nắm vững lý thuyết và phác đồ:**
+    *   **Học tập có hệ thống:** Đọc và hiểu sâu các Hướng dẫn quốc gia và quốc tế về quản lý BHSS (ví dụ: ACOG, RCOG, WHO). Nắm chắc '4 T' và các yếu tố nguy cơ.
+    *   **Hiểu rõ các loại thuốc:** Tác dụng, liều lượng và chống chỉ định của các thuốc co hồi tử cung (Oxytocin, Misoprostol, Methylergometrine, Carbetocin).
+*   **Thực hành và rèn luyện kỹ năng:**
+    *   **Tham gia các buổi lâm sàng:** Chủ động theo dõi các ca BHSS, học hỏi cách chẩn đoán và xử trí từ các bác sĩ có kinh nghiệm.
+    *   **Thực hành trên mô hình (Simulation):** Tham gia các khóa tập huấn, workshop thực hành các kỹ thuật cầm máu không phẫu thuật (xoa bóp tử cung, đặt bóng chèn) và kỹ năng phẫu thuật trên mô hình.
+    *   **Rèn luyện kỹ năng ra quyết định:** Tham gia các buổi thảo luận tình huống lâm sàng (case study), phân tích các tình huống cấp cứu để nâng cao khả năng tư duy và ra quyết định nhanh chóng dưới áp lực.
+*   **Phát triển tư duy làm việc nhóm:**
+    *   **Phối hợp hiệu quả:** Học cách giao tiếp rõ ràng và làm việc hiệu quả với các thành viên khác trong ê-kíp (gây mê, điều dưỡng, kỹ thuật viên phòng mổ).
+    *   **Diễn tập tình huống (Drills):** Tham gia các buổi diễn tập cấp cứu sản khoa định kỳ tại bệnh viện để làm quen với quy trình và vai trò của từng cá nhân.
+*   **Đọc và phân tích nghiên cứu:** Như nghiên cứu tại Từ Dũ, việc đọc các báo cáo ca lâm sàng, loạt ca giúp các em hiểu sâu hơn về diễn biến bệnh, hiệu quả can thiệp và các yếu tố liên quan trong thực tế lâm sàng. Đây là cách học hỏi kinh nghiệm gián tiếp vô cùng giá trị.
+Bằng sự nỗ lực học hỏi và rèn luyện không ngừng, các em sẽ từng bước xây dựng năng lực vững chắc để trở thành những bác sĩ sản khoa giỏi, cứu sống nhiều sản phụ trong những tình huống nguy kịch.</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Quản lý Hồi sức Sản khoa và Đội phản ứng nhanh trong Cấp cứu Sản khoa</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp kiến thức về quản lý hồi sức cho sản phụ bị mất máu cấp, cách xây dựng và vận hành đội phản ứng nhanh trong cấp cứu sản khoa, bao gồm vai trò và trách nhiệm của từng thành viên, giúp tối ưu hóa kết quả lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Khóa học Kỹ năng Hồi sức cấp cứu Sản khoa nâng cao (ALS-OB)</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Khóa học CME này cung cấp kiến thức và kỹ năng chuyên sâu về hồi sức cấp cứu trong sản khoa, bao gồm quản lý đường thở, tuần hoàn, chống sốc, và các tình huống cấp cứu đặc biệt khác, giúp bác sĩ nắm vững các nguyên tắc và thực hành hồi sức chuẩn quốc tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt trong các tình huống cấp cứu sản khoa.</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ sản khoa trẻ, làm thế nào để tôi có thể nhận diện sớm và đánh giá toàn diện các yếu tố nguy cơ của băng huyết sau sinh nặng (BHSS) do đờ tử cung, cũng như chiến lược xử lý ban đầu hiệu quả nhất?</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc nhận diện sớm và quản lý BHSS là tối quan trọng trong sản khoa. Đối với đờ tử cung, nguyên nhân hàng đầu gây BHSS, bạn cần tập trung vào các điểm sau:
+*   **Nhận diện yếu tố nguy cơ (dựa trên tiền sử và quá trình chuyển dạ):**
+    *   **Tiền sử sản khoa:** Từng có BHSS nặng trong lần sinh trước là yếu tố nguy cơ mạnh nhất. Ngoài ra, tiền sử đa sản (từ 4 con trở lên) và tuổi mẹ &lt;20 hoặc &gt;35 tuổi cũng cần được lưu ý.
+    *   **Tình trạng sức khỏe thai phụ:**
+        *   Sử dụng thuốc chống đông máu.
+        *   Thiếu máu lúc nhập viện (tăng nguy cơ giảm dung nạp mất máu).
+        *   Tiền sản giật nặng hoặc hội chứng HELLP.
+        *   U xơ tử cung (làm giảm khả năng co hồi tử cung).
+        *   Đa thai, thai to.
+        *   Có thai do hỗ trợ sinh sản.
+    *   **Trong quá trình chuyển dạ:**
+        *   Chuyển dạ kéo dài, rặn không hiệu quả.
+        *   Sử dụng Oxytocin để khởi phát hoặc tăng co chuyển dạ (có thể làm giảm độ nhạy thụ thể Oxytocin, gây đờ tử cung).
+        *   Nhau bám thấp hoặc nhau cài răng lược (mặc dù chủ yếu gây BHSS do sót nhau/tổn thương, nhưng có thể đi kèm đờ tử cung).
+*   **Đánh giá ban đầu và xử lý cấp cứu:**
+    *   **Ngay lập tức:** Thiết lập 2 đường truyền tĩnh mạch lớn (cỡ nòng 18G), lấy máu xét nghiệm khẩn cấp (công thức máu, đông máu cơ bản, nhóm máu, cross-match).
+    *   **Đánh giá mức độ mất máu:** Lượng máu mất và tốc độ mất máu là chỉ số quan trọng để quyết định can thiệp. Mất từ 500ml sau sinh thường hoặc 1000ml sau mổ lấy thai được coi là BHSS. Mất máu &gt;1500ml thường đòi hỏi can thiệp xâm lấn.
+    *   **Can thiệp ban đầu cho đờ tử cung:**
+        *   Xoa bóp tử cung đáy vị liên tục và mạnh mẽ qua thành bụng.
+        *   Sử dụng thuốc co hồi tử cung (Oxytocin truyền tĩnh mạch, Misoprostol đặt trực tràng, Ergometrine/Methylergometrine tiêm bắp).
+        *   Kiểm tra tử cung và âm đạo loại trừ các nguyên nhân khác (sót nhau, rách đường sinh dục).
+Việc chủ động sàng lọc nguy cơ và phản ứng nhanh, đúng phác đồ là chìa khóa để cứu sống bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Hướng dẫn quốc gia về các dịch vụ chăm sóc sức khỏe sinh sản - Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các hướng dẫn toàn diện về chăm sóc sức khỏe sinh sản, bao gồm các phác đồ chuẩn của Bộ Y tế Việt Nam về chẩn đoán, phòng ngừa và xử trí băng huyết sau sinh, là cẩm nang thiết yếu cho mọi bác sĩ sản khoa.</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Cập nhật kiến thức và kỹ năng xử trí cấp cứu sản khoa</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào các tình huống cấp cứu thường gặp trong sản khoa, đặc biệt là BHSS, giúp các bác sĩ trẻ củng cố kiến thức lý thuyết, rèn luyện kỹ năng thực hành thông qua các ca lâm sàng giả định và thảo luận chuyên sâu với các chuyên gia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo chuyên sâu về kỹ thuật can thiệp sản khoa.</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Trong quản lý băng huyết sau sinh (BHSS) nặng do đờ tử cung, khi các biện pháp điều trị bảo tồn thất bại, những kỹ thuật can thiệp xâm lấn như thắt động mạch hạ vị và khâu ép tử cung B-Lynch được chỉ định và thực hiện như thế nào? Bác sĩ trẻ cần lưu ý gì để thực hiện an toàn và hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, khi đối mặt với BHSS nặng do đờ tử cung không đáp ứng với điều trị nội khoa, việc chuyển sang can thiệp xâm lấn là bắt buộc. Hai kỹ thuật quan trọng các bạn cần nắm vững là thắt động mạch hạ vị và khâu ép tử cung (ví dụ B-Lynch).
+**1. Thắt động mạch hạ vị (Internal Iliac Artery Ligation):**
+*   **Mục đích:** Giảm lưu lượng máu đến tử cung khoảng 50-85% mà không làm hoại tử tử cung hay cản trở chức năng sinh sản sau này.
+*   **Chỉ định:**
+    *   BHSS nặng không đáp ứng với các biện pháp nội khoa và xoa bóp tử cung.
+    *   Mong muốn bảo tồn tử cung và khả năng sinh sản của bệnh nhân.
+    *   Trường hợp có chảy máu từ các tổn thương rộng ở tử cung, cổ tử cung, âm đạo mà không thể khâu cầm máu trực tiếp.
+*   **Lưu ý cho bác sĩ trẻ:**
+    *   Đây là kỹ thuật ngoại khoa nâng cao, đòi hỏi phẫu thuật viên phải có kinh nghiệm và quen thuộc với giải phẫu vùng chậu.
+    *   Phẫu trường có thể chảy máu nhiều, thời gian hạn chế. Cần thao tác nhanh, chính xác.
+    *   Nguy cơ cao tổn thương các mạch máu và cấu trúc kế cận (niệu quản, tĩnh mạch chậu ngoài), do đó cần bóc tách cẩn thận và nhận diện chính xác các mốc giải phẫu.
+    *   Việc tham gia phụ mổ và học hỏi từ các phẫu thuật viên giàu kinh nghiệm là rất quan trọng.
+**2. Khâu ép tử cung (Uterine Compression Suture), điển hình là kỹ thuật B-Lynch:**
+*   **Mục đích:** Ép toàn bộ tử cung lại, ngăn không cho lòng tử cung giãn ra và ứ đầy máu, giúp cầm máu cơ học.
+*   **Chỉ định:**
+    *   BHSS do đờ tử cung không đáp ứng với các biện pháp nội khoa, đặc biệt trong mổ lấy thai khi tử cung không co hồi.
+    *   Bệnh nhân mong muốn bảo tồn tử cung và khả năng sinh sản.
+*   **Lưu ý cho bác sĩ trẻ:**
+    *   Kỹ thuật B-Lynch tương đối đơn giản hơn so với thắt động mạch hạ vị, nhưng vẫn cần thực hành để quen với cách đặt mũi khâu dọc theo trục dài của tử cung.
+    *   Đảm bảo mũi khâu đủ chặt để ép tử cung nhưng không làm tổn thương nghiêm trọng mô tử cung.
+    *   Kỹ thuật này rất hiệu quả trong các trường hợp đờ tử cung thuần túy.
+    *   Cần theo dõi sát tử cung sau mổ để đảm bảo hiệu quả cầm máu và tránh các biến chứng muộn.
+**Bảng so sánh nhanh hai kỹ thuật:**
+| Đặc điểm         | Thắt động mạch hạ vị                                     | Khâu ép tử cung (B-Lynch)                                  |
+| :--------------- | :------------------------------------------------------- | :--------------------------------------------------------- |
+| **Mục tiêu**     | Giảm lưu lượng máu đến tử cung                           | Ép cơ học tử cung, kích thích co hồi                       |
+| **Mức độ xâm lấn**| Ngoại khoa nâng cao, bóc tách vùng chậu phức tạp        | Ngoại khoa trung bình, đặt mũi khâu trực tiếp vào tử cung  |
+| **Yêu cầu kinh nghiệm**| Rất cao, hiểu rõ giải phẫu vùng chậu                   | Trung bình, cần thực hành                                 |
+| **Bảo tồn sinh sản**| Có                                                       | Có                                                         |
+| **Hiệu quả cầm máu**| Giảm tưới máu, tạo điều kiện cho đông máu              | Cầm máu cơ học tức thì                                    |
+| **Nguy cơ**      | Tổn thương mạch máu/niệu quản kế cận                     | Hoại tử tử cung (hiếm nếu đúng kỹ thuật), thiếu máu cục bộ |
+| **Ứng dụng**     | BHSS không đáp ứng nội khoa, nhiều vị trí chảy máu       | BHSS do đờ tử cung trong mổ lấy thai hoặc sau sinh thường |
+Hãy luôn nhớ rằng, việc lựa chọn kỹ thuật phụ thuộc vào tình trạng bệnh nhân, nguyên nhân BHSS, kinh nghiệm của phẫu thuật viên và trang thiết bị y tế sẵn có.</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Atlas Phẫu thuật Sản Phụ khoa: Các kỹ thuật cầm máu trong sản khoa</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Cuốn atlas này minh họa chi tiết từng bước các kỹ thuật phẫu thuật cầm máu trong sản khoa, bao gồm thắt mạch và khâu ép tử cung, với hình ảnh rõ nét và chú thích cụ thể, là tài liệu vô cùng hữu ích cho việc học tập và tham khảo kỹ thuật.</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Khóa học CME: Thực hành phẫu thuật nội soi và mổ mở trong sản khoa cấp cứu</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp cơ hội thực hành trên mô hình và xác, giúp bác sĩ làm quen và thành thạo các kỹ thuật phẫu thuật phức tạp như thắt động mạch hạ vị, khâu ép tử cung, cũng như các kỹ thuật mổ mở khác trong bối cảnh cấp cứu sản khoa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, định hướng phát triển chuyên môn cho các bác sĩ sản khoa.</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ sản khoa, tôi cần hiểu rõ vai trò của Oxytocin trong khởi phát chuyển dạ và tăng co, cũng như những lưu ý quan trọng về quản lý tổng thể cho bệnh nhân băng huyết sau sinh (BHSS) nặng do đờ tử cung, để áp dụng hiệu quả và an toàn trong thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Bạn thân mến, việc quản lý BHSS đòi hỏi một cách tiếp cận toàn diện, trong đó việc hiểu rõ vai trò và hạn chế của Oxytocin là rất cần thiết.
+**1. Vai trò của Oxytocin trong khởi phát và tăng co chuyển dạ:**
+*   **Cơ chế:** Oxytocin là một hormone gây co bóp tử cung mạnh, được sử dụng rộng rãi để khởi phát chuyển dạ, tăng cường co bóp tử cung trong quá trình chuyển dạ và dự phòng, điều trị đờ tử cung sau sinh.
+*   **Mối liên hệ với BHSS:** Như đoạn văn đã đề cập, việc khởi phát chuyển dạ hoặc tăng co bằng Oxytocin có thể liên quan đến giảm độ nhạy của thụ thể Oxytocin ở cơ tử cung, dẫn đến nguy cơ đờ tử cung và BHSS. Mặc dù mối liên hệ này vẫn đang được tranh luận và chưa được khẳng định rõ ràng là yếu tố nguy cơ độc lập, nhưng các bạn cần lưu ý:
+    *   **Theo dõi sát:** Khi sử dụng Oxytocin, cần theo dõi sát tần số, cường độ co bóp tử cung và đáp ứng của tử cung.
+    *   **Liều lượng và thời gian:** Sử dụng theo phác đồ chuẩn, tránh dùng quá liều hoặc kéo dài không cần thiết, đặc biệt ở những trường hợp có các yếu tố nguy cơ khác của đờ tử cung.
+**2. Quản lý tổng thể bệnh nhân BHSS nặng do đờ tử cung:**
+Việc quản lý không chỉ dừng lại ở cầm máu tại chỗ mà còn là một quá trình cấp cứu đa chuyên ngành:
+*   **Đánh giá liên tục:** Theo dõi các dấu hiệu sinh tồn (mạch, huyết áp, nhịp thở), lượng máu mất ước tính (cân gạc, hút), tình trạng tri giác của bệnh nhân. Đánh giá lại hiệu quả của các can thiệp thường xuyên.
+*   **Hồi sức tích cực:**
+    *   Duy trì đường truyền tĩnh mạch lớn và truyền dịch chống sốc (dung dịch điện giải đẳng trương, keo).
+    *   Truyền máu và các chế phẩm máu kịp thời (hồng cầu khối, huyết tương tươi đông lạnh, tiểu cầu, tủa lạnh) theo phác đồ truyền máu lớn. Luôn chuẩn bị sẵn máu dự trữ.
+    *   Đảm bảo đường thở thông thoáng và hỗ trợ hô hấp nếu cần.
+*   **Can thiệp song song:** Trong khi hồi sức, cần tiến hành các biện pháp cầm máu đồng thời: xoa bóp tử cung, dùng thuốc co hồi tử cung, và chuẩn bị cho các can thiệp xâm lấn (nếu cần).
+*   **Phối hợp đa chuyên khoa:** Cần sự phối hợp nhịp nhàng giữa sản khoa, gây mê hồi sức, huyết học và ngân hàng máu.
+*   **Quản lý sau cấp cứu:** Sau khi cầm máu thành công, bệnh nhân cần được theo dõi sát sao về tình trạng chảy máu lại, thiếu máu, nhiễm trùng và chức năng các cơ quan. Cần tư vấn về dinh dưỡng, bổ sung sắt và kế hoạch hóa gia đình phù hợp.
+*   **Học hỏi kinh nghiệm:** Mỗi ca BHSS là một bài học quý giá. Sau mỗi trường hợp, hãy cùng đồng nghiệp phân tích, rút kinh nghiệm về các quyết định, kỹ thuật đã thực hiện để không ngừng nâng cao năng lực ứng phó.
+Việc nắm vững kiến thức, rèn luyện kỹ năng và tinh thần làm việc nhóm là chìa khóa để xử trí thành công các trường hợp BHSS nặng.</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>WHO Guidelines for the Management of Postpartum Hemorrhage</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Hướng dẫn của Tổ chức Y tế Thế giới cung cấp các khuyến nghị dựa trên bằng chứng toàn cầu về phòng ngừa và quản lý BHSS, là tài liệu tham khảo quốc tế quan trọng để so sánh và áp dụng vào thực hành lâm sàng tại Việt Nam.</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Khóa học CME trực tuyến: Các vấn đề chuyên sâu về dược lý sản khoa và hồi sức sản phụ</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ đi sâu vào cơ chế tác dụng, chỉ định, chống chỉ định và liều lượng của các thuốc trong sản khoa, đặc biệt là thuốc co hồi tử cung, cùng với các nguyên tắc hồi sức sản phụ bị sốc do mất máu, giúp bác sĩ tối ưu hóa việc sử dụng thuốc và quản lý tổng thể.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 về các biến chứng sản khoa, đặc biệt là băng huyết sau sinh nặng.</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Trong trường hợp băng huyết sau sinh (BHSS) nặng không đáp ứng với các biện pháp điều trị ban đầu, khi nào bác sĩ trẻ cần cân nhắc chỉ định cắt tử cung cấp cứu và những điểm nào cần lưu ý để giảm thiểu biến chứng cho sản phụ?</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Kính chào các bác sĩ trẻ và sinh viên y khoa, trong bối cảnh lâm sàng phức tạp của băng huyết sau sinh (BHSS) nặng, việc đưa ra quyết định cắt tử cung cấp cứu là một thách thức lớn. Đây là một phương pháp điều trị quan trọng và thường là lựa chọn cuối cùng khi các biện pháp ít xâm lấn hơn đã thất bại. Để đưa ra quyết định đúng đắn và an toàn, các bạn cần lưu ý những điểm sau:
+**1. Chỉ định Cắt Tử Cung Cấp Cứu:**
+*   **Thất bại với các biện pháp điều trị ban đầu:** Sau khi đã áp dụng đầy đủ và tối ưu các thuốc co hồi tử cung (Oxytocin, Misoprostol, Ergotamin, Duratocin, Endoprost) và cầm máu (Transamic), cùng các biện pháp cơ học như đặt bóng chèn lòng tử cung hoặc nắn bóp tử cung, mà tình trạng chảy máu vẫn không kiểm soát được.
+*   **BHSS nặng liên quan đến các nguyên nhân đặc biệt:** Đặc biệt khi BHSS nặng có liên quan đến nhau bong non (gây tử cung Couvelaire) hoặc vỡ tử cung không thể sửa chữa được bằng các kỹ thuật khâu cầm máu.
+*   **Mất máu lượng lớn và dấu hiệu sốc:** Bệnh nhân tiếp tục mất máu nhanh chóng, có dấu hiệu sốc giảm thể tích (tụt huyết áp, mạch nhanh, tái nhợt) và không đáp ứng với hồi sức tích cực.
+**2. Các Lưu Ý Quan Trọng Để Giảm Thiểu Biến Chứng:**
+*   **Đánh giá nhanh chóng và chính xác:** Khả năng đánh giá tình trạng bệnh nhân, xác định nguyên nhân BHSS và mức độ nặng để quyết định thời điểm can thiệp là yếu tố then chốt. Đừng chần chừ khi đã có chỉ định rõ ràng.
+*   **Hồi sức tích cực song song:** Luôn đảm bảo hồi sức tuần hoàn đầy đủ (truyền dịch, truyền máu, các chế phẩm máu) trong suốt quá trình chuẩn bị và thực hiện phẫu thuật.
+*   **Kỹ thuật phẫu thuật:**
+    *   **Cắt tử cung toàn phần hay bán phần:** Mặc dù cắt tử cung bán phần có thể nhanh hơn và ít tổn thương cơ quan lân cận hơn, nhưng cần cân nhắc nguy cơ chảy máu tiếp diễn từ vùng cổ tử cung. Quyết định phụ thuộc vào kinh nghiệm của phẫu thuật viên và tình trạng lâm sàng cụ thể của bệnh nhân.
+    *   **Phòng ngừa tổn thương cơ quan lân cận:** Khi tiến hành phẫu thuật cắt tử cung cấp cứu, nguy cơ tổn thương bàng quang, niệu quản là rất cao do tình trạng phù nề, xung huyết và thay đổi giải phẫu do chảy máu. Các bạn cần hết sức cẩn trọng, nhận diện các cấu trúc giải phẫu quan trọng.
+*   **Quản lý sau phẫu thuật:** Theo dõi sát các dấu hiệu sinh tồn, lượng máu mất, tình trạng co hồi tử cung (nếu cắt bán phần), và các biến chứng tiềm ẩn như nhiễm trùng, xuất huyết sau mổ, tổn thương các cơ quan tiết niệu.
+*   **Làm việc nhóm hiệu quả:** Đây là ca phẫu thuật cần sự phối hợp nhịp nhàng của nhiều chuyên khoa: sản khoa, gây mê hồi sức, ngân hàng máu. Kỹ năng giao tiếp và làm việc nhóm là cực kỳ quan trọng.
+Việc thuần thục các kỹ năng này không chỉ giúp cứu sống sản phụ mà còn góp phần giảm gánh nặng bệnh tật do BHSS. Hãy luôn trau dồi kiến thức và kinh nghiệm lâm sàng để đưa ra những quyết định y khoa chính xác và kịp thời.</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và xử trí băng huyết sau sinh (BHSS) theo Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các phác đồ chuẩn hóa theo Bộ Y tế Việt Nam về chẩn đoán, phòng ngừa và xử trí BHSS, bao gồm các biện pháp can thiệp từ ít xâm lấn đến phẫu thuật cấp cứu. Đây là tài liệu 'gối đầu giường' cho các bác sĩ và sinh viên y khoa chuyên ngành sản phụ khoa để nâng cao năng lực lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Quản lý và Xử trí Băng Huyết Sau Sinh Nặng: Tiếp cận Đa chuyên khoa</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các chiến lược quản lý BHSS nặng, bao gồm cập nhật về thuốc cầm máu, kỹ thuật cầm máu ít xâm lấn, chỉ định và thực hành cắt tử cung cấp cứu, cũng như quản lý các biến chứng. Khóa học giúp nâng cao năng lực lâm sàng cho các bác sĩ sản khoa, gây mê hồi sức và là cơ hội tuyệt vời để học hỏi kinh nghiệm từ các chuyên gia hàng đầu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 về các phương pháp cầm máu trong sản khoa.</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Trước khi tiến hành cắt tử cung cấp cứu cho bệnh nhân băng huyết sau sinh (BHSS) nặng, các bác sĩ trẻ cần xem xét những phương pháp điều trị ít xâm lấn nào và đánh giá hiệu quả của chúng ra sao để đưa ra quyết định leo thang điều trị kịp thời?</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Chào các bạn đồng nghiệp, trước khi đi đến quyết định cắt tử cung cấp cứu – một can thiệp lớn trong băng huyết sau sinh (BHSS) nặng, chúng ta có một 'cửa sổ' cơ hội để áp dụng các phương pháp điều trị ít xâm lấn hơn. Việc hiểu rõ và thành thạo các biện pháp này, cũng như khả năng đánh giá hiệu quả của chúng, là cực kỳ quan trọng để bảo tồn tử cung cho sản phụ khi có thể.
+**1. Các Biện Pháp Điều Trị Ít Xâm Lấn Ban Đầu:**
+*   **Thuốc hỗ trợ co hồi tử cung (Uterotonics):** Đây là tuyến phòng thủ đầu tiên. Các bạn cần nắm vững liều lượng, đường dùng và chống chỉ định của các loại thuốc như Oxytocin, Misoprostol, Ergotamin, Duratocin, Endoprost. Luôn đảm bảo đã sử dụng đúng phác đồ và tối ưu liều lượng.
+*   **Thuốc cầm máu toàn thân (Hemostatics):** Ví dụ như Transamic (Tranexamic acid), có tác dụng ức chế phân hủy cục máu đông, giúp ổn định khối máu đông. Nên được sử dụng sớm trong phác đồ xử trí BHSS.
+*   **Đặt bóng chèn lòng tử cung (Uterine balloon tamponade):** Đây là một kỹ thuật hiệu quả cho BHSS do đờ tử cung. Bóng chèn tạo áp lực lên thành tử cung, giúp ép các mạch máu bị chảy. Hiệu quả cần được đánh giá trong vòng 15-30 phút sau khi đặt. Nếu chảy máu giảm rõ rệt, có thể tiếp tục theo dõi. Nếu không, cần cân nhắc các biện pháp tiếp theo.
+**2. Đánh giá hiệu quả và Quyết định leo thang điều trị:**
+Việc đánh giá hiệu quả của các biện pháp ít xâm lấn đòi hỏi sự theo dõi sát sao các chỉ số lâm sàng. Nếu chảy máu không giảm hoặc tiếp tục tăng lên, và tình trạng huyết động của bệnh nhân xấu đi, đó là lúc chúng ta cần nhanh chóng leo thang điều trị. Sự chậm trễ có thể đe dọa tính mạng bệnh nhân.
+**Bảng tóm tắt các biện pháp can thiệp ít xâm lấn và đánh giá ban đầu:**
+| Phương pháp Can thiệp           | Mục tiêu Chính                               | Tỉ lệ thành công (tham khảo) | Cách đánh giá hiệu quả ban đầu            |
+| :----------------------------- | :------------------------------------------- | :-------------------------- | :--------------------------------------- |
+| **Thuốc co hồi tử cung**       | Co hồi tử cung, ép mạch máu               | Cao (với đờ tử cung nhẹ)    | Lượng máu chảy giảm, tử cung co hồi chắc |
+| **Thuốc cầm máu (Transamic)**  | Ổn định cục máu đông                         | Hỗ trợ                     | Lượng máu chảy giảm, không có dấu hiệu chảy máu mới |
+| **Đặt bóng chèn lòng tử cung** | Tạo áp lực cơ học cầm máu                   | 80-90% (đờ tử cung)         | Giảm đáng kể lượng máu chảy trong 15-30 phút |
+| **Tắc động mạch chọn lọc**      | Bít tắc mạch máu đang chảy                  | 90-100% (tổn thương mạch)   | Dừng chảy máu hoặc giảm đáng kể           |
+**Tắc động mạch chọn lọc (Selective arterial embolization):** Đây là một phương pháp can thiệp ít xâm lấn, thường được chỉ định trong những trường hợp BHSS bệnh nhân tương đối ổn định và do các tổn thương mạch máu cụ thể như tổn thương đường sinh dục hoặc đờ tử cung không đáp ứng với các biện pháp khác. Mặc dù tỉ lệ thành công cao (90% cho tổn thương đường sinh dục, 100% cho đờ tử cung theo tài liệu tham khảo [8]), nhưng hiện tại không phải bệnh viện nào cũng có thể áp dụng ngay lập tức (ví dụ, Bệnh viện Từ Dũ chưa áp dụng vào phác đồ điều trị BHSS theo đoạn văn).
+**Kết luận:** Nắm vững phác đồ, đánh giá liên tục và khả năng ra quyết định nhanh chóng là chìa khóa. Luôn nhớ rằng mục tiêu cao nhất là cứu sống bệnh nhân và bảo tồn tử cung nếu có thể, nhưng không được trì hoãn phẫu thuật cấp cứu khi đã có chỉ định rõ ràng.</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Phác đồ điều trị băng huyết sau sinh theo Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>Phác đồ này là tài liệu chính thống hướng dẫn chi tiết các bước xử trí BHSS, từ các biện pháp ban đầu đến các can thiệp phức tạp hơn, giúp bác sĩ đưa ra quyết định lâm sàng chính xác và kịp thời. Rất cần thiết cho việc học tập và thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Kỹ thuật Cầm Máu Sản Khoa và Can Thiệp Ít Xâm Lấn</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về các kỹ thuật cầm máu trong sản khoa, bao gồm đặt bóng chèn lòng tử cung, thắt động mạch tử cung, và kỹ thuật tắc mạch chọn lọc. Khóa học cung cấp kiến thức thực hành quan trọng để giảm thiểu sự cần thiết của phẫu thuật lớn và tối ưu hóa kết quả cho bệnh nhân BHSS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn chuyên sâu về phẫu thuật tạo hình và tái tạo theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Đối với phẫu thuật tạo hình tai nhỏ bẩm sinh (microtia), chuyên gia có thể chia sẻ về các phương pháp chính, ưu nhược điểm của vật liệu sử dụng và những yếu tố quan trọng cần cân nhắc để đạt được kết quả thẩm mỹ tối ưu, đặc biệt là với kỹ thuật nội soi hỗ trợ?</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Thưa các bác sĩ và sinh viên y khoa, phẫu thuật tạo hình tai nhỏ bẩm sinh (microtia) là một lĩnh vực đầy thách thức nhưng cũng mang lại những kết quả đáng kinh ngạc trong việc cải thiện chất lượng cuộc sống cho bệnh nhân. Đây là một ca phẫu thuật đòi hỏi sự tỉ mỉ, kỹ năng cao và kiến thức sâu rộng về giải phẫu cũng như thẩm mỹ.
+**1. Các Phương Pháp và Vật liệu Chính:**
+*   **Sụn sườn tự thân (Autologous rib cartilage):** Đây là phương pháp truyền thống và vẫn được ưa chuộng. Sụn được lấy từ xương sườn của chính bệnh nhân để tạo khung tai. Ưu điểm là vật liệu tự thân, ít gây phản ứng đào thải, và có thể mang lại kết quả lâu dài. Nhược điểm là cần thêm một phẫu thuật để lấy sụn sườn, gây đau tại vị trí lấy sụn và có thể có biến chứng như tràn khí màng phổi, cũng như đòi hỏi kỹ năng điêu khắc sụn rất cao từ phẫu thuật viên.
+*   **Khung sụn nhân tạo (Alloplastic implant - ví dụ: Medpor):** Medpor (Polyethylene Implant) là một vật liệu tổng hợp đã được chứng minh an toàn và hiệu quả. Ưu điểm là không cần lấy sụn sườn tự thân, giảm đau cho bệnh nhân và có thể thực hiện sớm hơn. Nhược điểm là nguy cơ nhiễm trùng và lộ khung sụn có thể cao hơn so với sụn tự thân, đòi hỏi phải được che phủ kỹ lưỡng bằng vạt cân có mạch nuôi tốt.
+**2. Kỹ Thuật Nội Soi Hỗ Trợ:**
+Trong phương pháp tạo hình tai nhỏ sớm, một thì bằng khung sụn nhân tạo Medpor và sụn sườn tự thân tại Hà Nội, kỹ thuật nội soi đã được áp dụng để bóc tách vạt cân thái dương đỉnh (Superficial Temporal Fascia - STF) chỉ với một lỗ duy nhất. Đây là một tiến bộ đáng kể, mang lại nhiều lợi ích:
+*   **Giảm xâm lấn:** Chỉ với một vết mổ nhỏ, giúp giảm thiểu tổn thương mô mềm và để lại sẹo ít hơn.
+*   **Tăng tỉ lệ thành công:** Việc bóc tách vạt cân dưới sự hỗ trợ của nội soi giúp phẫu thuật viên kiểm soát tốt hơn, giảm thiểu tổn thương mạch máu và thần kinh, đảm bảo vạt cân được bóc tách đủ rộng và dày để che phủ khung sụn một cách tối ưu, từ đó giảm nguy cơ lộ khung sụn và nhiễm trùng.
+*   **Giảm biến chứng:** Kỹ thuật nội soi giúp giảm chảy máu, phù nề và thời gian hồi phục sau mổ.
+**3. Yếu tố quan trọng để đạt được kết quả thẩm mỹ tối ưu:**
+*   **Đánh giá tiền phẫu toàn diện:** Bao gồm kiểm tra thính lực để có phương án điều trị hỗ trợ nghe phối hợp, đánh giá kỹ lưỡng vùng da và mô mềm quanh tai, cũng như tình trạng sức khỏe tổng thể của bệnh nhân.
+*   **Kỹ năng phẫu thuật viên:** Tạo hình tai đòi hỏi phẫu thuật viên phải có con mắt thẩm mỹ tinh tế và kỹ năng điêu khắc, tạo hình tuyệt vời để tạo ra một vành tai có hình dáng tự nhiên, đối xứng và hài hòa với khuôn mặt.
+*   **Tư vấn và kỳ vọng của bệnh nhân:** Thảo luận rõ ràng với bệnh nhân và gia đình về quy trình phẫu thuật, kết quả mong đợi, các biến chứng tiềm ẩn và kế hoạch chăm sóc hậu phẫu là rất quan trọng để đạt được sự hài lòng cao.
+*   **Chăm sóc hậu phẫu:** Theo dõi sát sao tình trạng sưng nề, nhiễm trùng và đảm bảo quá trình lành vết thương diễn ra tốt đẹp.
+Việc kết hợp kỹ thuật nội soi đã mang đến những lựa chọn tối ưu trong điều trị dị tật và khuyết hổng vùng tai, giúp bệnh nhân đạt được kết quả thẩm mỹ và mức độ hài lòng cao.</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Tạo hình vành tai: Các kỹ thuật hiện đại và vật liệu mới</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng quan về các phương pháp tạo hình vành tai, từ sử dụng sụn sườn tự thân đến khung sụn nhân tạo (Medpor), giúp bác sĩ phẫu thuật nắm vững nguyên lý và ứng dụng các kỹ thuật tiên tiến trong tái tạo khuyết vành tai. Đây là một nguồn tài liệu tham khảo quý giá cho những ai muốn nâng cao kỹ năng phẫu thuật tạo hình.</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Phẫu thuật Tạo hình Vành tai Bẩm sinh và Chấn thương: Cập nhật kỹ thuật</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp cái nhìn toàn diện về các kỹ thuật phẫu thuật tạo hình tai, bao gồm các phương pháp tiên tiến như sử dụng nội soi, quản lý biến chứng, và tối ưu hóa kết quả thẩm mỹ cho các trường hợp khuyết vành tai bẩm sinh hoặc do chấn thương. Khóa học là cơ hội tuyệt vời để các bác sĩ phẫu thuật nâng cao kiến thức chuyên môn và học hỏi kinh nghiệm thực tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr"/>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, làm thế nào để chẩn đoán băng huyết sau sinh nguyên phát trên lâm sàng và những bước xử trí ban đầu nào là quan trọng nhất mà một bác sĩ trẻ cần nắm vững?</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng đối với bất kỳ bác sĩ nào làm việc trong lĩnh vực sản khoa. Băng huyết sau sinh (BHSS) nguyên phát là một cấp cứu sản khoa, và việc chẩn đoán sớm cùng xử trí kịp thời có thể cứu sống sản phụ.
+**1. Chẩn đoán Băng huyết sau sinh nguyên phát (ICD-10: O72.1):**
+*   **Định nghĩa:** BHSS nguyên phát được chẩn đoán khi có mất máu từ 500 ml trở lên trong vòng 24 giờ đầu sau sinh (đối với sinh ngã âm đạo) hoặc từ 1000 ml trở lên sau mổ lấy thai.
+*   **Dấu hiệu nhận biết:** Các bác sĩ trẻ cần cảnh giác với các dấu hiệu sau:
+    *   Chảy máu âm đạo nhiều, máu đỏ tươi hoặc có cục máu đông lớn.
+    *   Sản phụ có dấu hiệu mất máu: da xanh xao, niêm mạc nhợt, vã mồ hôi, tim đập nhanh, huyết áp tụt (dấu hiệu muộn).
+    *   Tử cung mềm nhão, không co hồi tốt sau khi sổ thai hoặc sau khi bóc rau (nguyên nhân thường gặp nhất).
+    *   Đo lượng máu mất khách quan: sử dụng túi hứng máu dưới mông, cân gạc thấm máu (1g máu = 1ml). Đây là phương pháp chính xác hơn so với ước lượng bằng mắt thường.
+**2. Các bước xử trí ban đầu quan trọng (Nguyên tắc '4T'):**
+Khi đối mặt với một trường hợp BHSS, các bạn cần hành động nhanh chóng và phối hợp:
+*   **T1: Tone (Trương lực tử cung):** Đây là nguyên nhân hàng đầu (khoảng 70-80%).
+    *   **Thực hành:** Xoa bóp tử cung đáy, dùng thuốc co hồi tử cung (Oxytocin truyền tĩnh mạch, Misoprostol ngậm dưới lưỡi/đặt trực tràng, Methylergometrine tiêm bắp). Kiểm tra xem tử cung đã co chắc hay chưa.
+*   **T2: Trauma (Chấn thương đường sinh dục):**
+    *   **Thực hành:** Kiểm tra kỹ đường sinh dục (âm đạo, cổ tử cung, tầng sinh môn) xem có vết rách, tụ máu không. Tiến hành khâu cầm máu các vết rách nếu có. Lưu ý kiểm tra túi cùng âm đạo.
+*   **T3: Tissue (Sót rau hoặc màng rau):**
+    *   **Thực hành:** Kiểm tra bánh rau, màng rau xem có bị thiếu sót hay không. Nếu nghi ngờ sót rau, tiến hành kiểm soát tử cung (lấy rau nhân tạo) hoặc nạo buồng tử cung (cần thận trọng).
+*   **T4: Thrombin (Rối loạn đông máu):** Là nguyên nhân ít gặp hơn nhưng nguy hiểm.
+    *   **Thực hành:** Nếu đã loại trừ 3 nguyên nhân trên mà máu vẫn chảy, cần nghĩ đến rối loạn đông máu. Lấy máu làm xét nghiệm đông máu khẩn cấp (PT, aPTT, Fibrinogen, tiểu cầu). Đồng thời, bù dịch, truyền máu và các chế phẩm máu (huyết tương tươi đông lạnh, khối tiểu cầu, tủa lạnh) theo chỉ định.
+**Lưu ý quan trọng cho bác sĩ trẻ:**
+*   **Gọi hỗ trợ sớm:** Đừng ngần ngại gọi cấp trên, đồng nghiệp, hoặc đội ngũ hồi sức khi nghi ngờ BHSS nặng. Làm việc nhóm là yếu tố then chốt.
+*   **Thiết lập đường truyền tĩnh mạch lớn:** Ít nhất 2 đường truyền tĩnh mạch cỡ lớn (kim 18G) để bù dịch, truyền máu. Bù dịch điện giải đẳng trương nhanh chóng.
+*   **Theo dõi sát:** Đo dấu hiệu sinh tồn, lượng máu mất, lượng nước tiểu mỗi 15-30 phút. Đánh giá tình trạng toàn thân của sản phụ liên tục.</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr"/>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Trong bối cảnh băng huyết sau sinh nặng không đáp ứng điều trị ban đầu, khi nào thì phẫu thuật cắt tử cung cấp cứu được xem xét là lựa chọn cuối cùng để cứu sống sản phụ, và bác sĩ cần lưu ý những chỉ định cụ thể nào?</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Đối với băng huyết sau sinh (BHSS) nặng, đặc biệt là những trường hợp không đáp ứng với các biện pháp điều trị nội khoa và bảo tồn, phẫu thuật cắt tử cung cấp cứu là một quyết định khó khăn nhưng mang tính chất cứu mạng. Việc hiểu rõ chỉ định và thời điểm can thiệp là tối quan trọng.
+**1. Định nghĩa BHSS nặng:**
+Trong y văn, BHSS nặng có nhiều định nghĩa, thường bao gồm:
+*   Mất máu ≥ 1000 ml, ≥ 1500 ml, hoặc &gt; 2000 ml.
+*   Sản phụ có dấu hiệu sốc giảm thể tích (tụt huyết áp, mạch nhanh, thiểu niệu).
+*   Cần truyền máu và các chế phẩm máu.
+*   Cần can thiệp phẫu thuật để cầm máu.
+**2. Chỉ định cắt tử cung cấp cứu (ICD-10: O72.1 kèm theo mã thủ thuật):**
+Cắt tử cung cấp cứu được xem xét khi tất cả các biện pháp điều trị bảo tồn (nội khoa và ngoại khoa) đã thất bại trong việc kiểm soát chảy máu. Các chỉ định chính bao gồm:
+*   **Đờ tử cung nặng, không hồi phục:** Đây là nguyên nhân phổ biến nhất. Sau khi đã dùng các thuốc co hồi tử cung tối đa, xoa bóp tử cung, chèn bóng tử cung, thắt động mạch tử cung hoặc động mạch hạ vị, mà tử cung vẫn mềm nhão và chảy máu ồ ạt.
+*   **Rau cài răng lược (Placenta Accreta/Increta/Percreta) đã được chẩn đoán hoặc nghi ngờ cao:** Đặc biệt là những trường hợp xâm lấn sâu, không thể bóc tách rau mà không gây chảy máu không kiểm soát.
+*   **Chấn thương tử cung nghiêm trọng:** Bao gồm vỡ tử cung lan rộng, không thể khâu phục hồi hoặc khâu phục hồi nhưng không cầm máu được.
+*   **Rối loạn đông máu toàn thân nặng nề và không đáp ứng:** Khi các biện pháp điều chỉnh đông máu và truyền chế phẩm máu không thể kiểm soát tình trạng chảy máu từ tử cung.
+**3. Bảng so sánh các phương pháp điều trị bảo tồn và can thiệp cuối cùng:**
+| Phương pháp điều trị           | Mục đích                                 | Khi nào thất bại / Chỉ định tiếp theo                                                    |
+|:-------------------------------|:-----------------------------------------|:-----------------------------------------------------------------------------------------|
+| **Nội khoa**                    | Co hồi tử cung, cầm máu                  | Chảy máu tiếp tục, tử cung nhão                                                         |
+|   - Xoa bóp tử cung           | Kích thích co bóp                        | Không hiệu quả, đờ tử cung tiếp diễn                                                    |
+|   - Thuốc co hồi tử cung       | Tăng cường co bóp (Oxytocin, Misoprostol)| Chảy máu vẫn dai dẳng, tử cung không đáp ứng                                           |
+| **Ngoại khoa bảo tồn**         | Cầm máu, giữ lại tử cung                 | Chảy máu không kiểm soát dù đã can thiệp, huyết động không ổn định                       |
+|   - Khâu cầm máu các vết rách   | Xử lý chấn thương đường sinh dục         | Vết rách sâu, phức tạp, không cầm máu được                                              |
+|   - Kiểm soát tử cung          | Lấy sót rau, màng rau                   | Sót rau cài răng lược, không thể bóc tách an toàn                                       |
+|   - Chèn bóng tử cung (Bakri)   | Chèn ép cơ học để cầm máu                 | Chảy máu tiếp tục, bóng không hiệu quả, vỡ tử cung không thể chứa bóng                    |
+|   - Khâu B-Lynch              | Nén ép cơ học tử cung                     | Khâu không hiệu quả, chảy máu tiếp diễn                                                  |
+|   - Thắt động mạch tử cung/hạ vị| Giảm lưu lượng máu đến tử cung           | Không hiệu quả, chảy máu từ nguồn khác, hoặc thiếu hụt kinh nghiệm của phẫu thuật viên |
+| **Cắt tử cung cấp cứu**        | Cứu sống mẹ (lựa chọn cuối cùng)        | Tất cả các biện pháp trên thất bại, tình trạng sản phụ nguy kịch, chảy máu không ngừng |
+**Lời khuyên cho bác sĩ trẻ:**
+*   **Ra quyết định nhanh chóng nhưng có cơ sở:** Quyết định cắt tử cung cần dựa trên đánh giá lâm sàng liên tục, kết quả các xét nghiệm (nếu có thể), và sự thảo luận với ê-kíp giàu kinh nghiệm.
+*   **Trao đổi với gia đình:** Giải thích rõ ràng về tình trạng nguy kịch của sản phụ và sự cần thiết của phẫu thuật cắt tử cung để cứu mạng, cũng như những hậu quả (mất khả năng sinh sản).
+*   **Chuẩn bị đầy đủ:** Đảm bảo có đủ máu và các chế phẩm máu, chuẩn bị phòng mổ và ê-kíp phẫu thuật có kinh nghiệm sẵn sàng.</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr"/>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Băng huyết sau sinh nặng có thể dẫn đến những biến chứng cấp tính nguy hiểm nào cho sản phụ, và sinh viên y khoa cần hiểu rõ điều gì về kết cục của các trường hợp phải cắt tử cung cấp cứu để cứu mạng mẹ?</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Băng huyết sau sinh (BHSS) nặng là một trong những nguyên nhân hàng đầu gây tử vong mẹ trên toàn thế giới và tại Việt Nam. Nó không chỉ đe dọa trực tiếp đến tính mạng mà còn có thể để lại nhiều biến chứng cấp tính và lâu dài. Việc nhận thức rõ điều này là cực kỳ quan trọng cho sinh viên và bác sĩ trẻ.
+**1. Các biến chứng cấp tính nguy hiểm của BHSS nặng:**
+Khi mất một lượng máu lớn và nhanh chóng, cơ thể sản phụ sẽ trải qua một loạt các phản ứng sinh lý và bệnh lý nghiêm trọng:
+*   **Sốc giảm thể tích (Hypovolemic Shock) (ICD-10: O75.1):** Đây là biến chứng trực tiếp và nguy hiểm nhất, do mất máu quá nhanh làm giảm lượng máu lưu thông, gây thiếu oxy và dưỡng chất cho các cơ quan vital. Nếu không được bù dịch và truyền máu kịp thời, có thể dẫn đến tử vong.
+*   **Rối loạn đông máu (Coagulopathy) (ICD-10: O72.3):** Mất máu nhiều tiêu thụ các yếu tố đông máu, đặc biệt khi có kèm theo các yếu tố như tiền sản giật nặng, nhiễm trùng. Điều này tạo thành một vòng luẩn quẩn: chảy máu gây rối loạn đông máu, rối loạn đông máu lại làm tăng chảy máu.
+*   **Suy đa tạng (Multi-organ Failure):** Thiếu máu và thiếu oxy kéo dài có thể gây tổn thương nghiêm trọng cho các cơ quan:
+    *   **Suy thận cấp (Acute Kidney Injury) (ICD-10: N17.9):** Do giảm tưới máu thận.
+    *   **Suy gan (Liver Failure) (ICD-10: K72.9):** Do giảm tưới máu gan.
+    *   **Suy hô hấp cấp tính (Acute Respiratory Distress Syndrome - ARDS) (ICD-10: J80):** Một số trường hợp nặng có thể diễn biến thành ARDS.
+    *   **Hội chứng Sheehan (Sheehan's Syndrome) (ICD-10: E23.0):** Một biến chứng hiếm gặp nhưng nghiêm trọng, do hoại tử tuyến yên sau sinh bởi thiếu máu cục bộ kéo dài, dẫn đến suy tuyến yên mạn tính.
+*   **Nhiễm trùng:** Tăng nguy cơ nhiễm trùng do phẫu thuật, truyền máu, hoặc suy giảm miễn dịch.
+**2. Kết cục của các trường hợp phải cắt tử cung cấp cứu:**
+Theo nghiên cứu từ Bệnh viện Từ Dũ và thực tiễn lâm sàng, mặc dù là một can thiệp lớn, phẫu thuật cắt tử cung cấp cứu thường mang lại kết quả tích cực trong việc cứu sống sản phụ khi các phương pháp khác đã thất bại. Nghiên cứu cũng chỉ ra rằng: 
+*   **Cứu sống mẹ:** Toàn bộ 7 trường hợp trong nghiên cứu đã được điều trị cứu mạng thành công sau phẫu thuật cắt tử cung cấp cứu. Đây là minh chứng cho thấy giá trị của can thiệp này như một biện pháp cuối cùng để đảm bảo sự sống cho sản phụ.
+*   **Tác động lâu dài:** Mặc dù cứu sống được mẹ, việc cắt tử cung sẽ làm mất khả năng sinh sản của sản phụ. Điều này đòi hỏi các bác sĩ cần có sự tư vấn tâm lý và hỗ trợ phù hợp cho bệnh nhân và gia đình sau phẫu thuật.
+*   **Phục hồi sau phẫu thuật:** Sản phụ cần thời gian phục hồi sau một ca phẫu thuật lớn và một biến cố nguy hiểm. Chăm sóc hậu phẫu tích cực, bao gồm bù máu, điều chỉnh điện giải, và phòng ngừa nhiễm trùng là rất quan trọng.
+**Lời khuyên cho sinh viên y khoa:**
+*   Hiểu rõ tầm quan trọng của việc nhận diện sớm và xử trí ban đầu BHSS. Mỗi phút giây đều quý giá.
+*   Nắm vững các nguyên nhân gây BHSS và các biện pháp bảo tồn trước khi cân nhắc đến cắt tử cung.
+*   Luôn chuẩn bị tâm lý cho những tình huống cấp cứu nghiêm trọng và biết cách làm việc trong đội nhóm, kêu gọi sự hỗ trợ từ các chuyên gia giàu kinh nghiệm.</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr"/>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Dựa trên nghiên cứu này, làm thế nào một bác sĩ trẻ hoặc sinh viên y khoa nên tiếp cận chẩn đoán và quản lý ban đầu băng huyết sau sinh nặng (BHSS nặng) ngả âm đạo, đặc biệt khi cân nhắc chuyển từ các biện pháp bảo tồn sang phẫu thuật cắt tử cung cấp cứu?</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ trẻ và sinh viên y khoa,
+Việc tiếp cận chẩn đoán và quản lý BHSS nặng là một kỹ năng lâm sàng tối quan trọng. Dựa trên nghiên cứu này và các hướng dẫn y khoa chính thống, đây là những bước các bạn cần nắm vững:
+1.  **Nhận diện sớm và Đánh giá nhanh (Initial Assessment &amp; Early Recognition):**
+    *   **Định nghĩa:** BHSS nặng được định nghĩa là mất máu từ 1000 ml trở lên trong vòng 24 giờ sau sinh, như nghiên cứu đã chỉ ra. Luôn chủ động ước tính lượng máu mất và không đợi đến khi tình trạng sốc đã rõ ràng.
+    *   **Dấu hiệu sinh tồn:** Theo dõi sát mạch, huyết áp, tần số thở, SpO2. Một sự thay đổi nhỏ cũng có thể là dấu hiệu sớm của sốc. Đảm bảo bệnh nhân có ít nhất hai đường truyền tĩnh mạch lớn (cỡ nòng 14G hoặc 16G).
+    *   **Mã ICD-10:** Đối với BHSS, các mã liên quan thường là O72.0 (Băng huyết thì ba), O72.1 (Băng huyết sau sinh tức thì khác), O72.2 (Băng huyết sau sinh muộn và thứ phát). Việc mã hóa chính xác giúp theo dõi dịch tễ học và chất lượng điều trị.
+2.  **Xác định nguyên nhân (Identify the 4 T's):**
+    Nghiên cứu nhấn mạnh **đờ tử cung** là nguyên nhân chính trong tất cả các trường hợp cần cắt tử cung cấp cứu. Tuy nhiên, các bạn luôn phải nhớ 4 nguyên nhân chính (4T) gây BHSS và tìm kiếm chúng một cách có hệ thống:
+    *   **Tone (Đờ tử cung):** Là nguyên nhân phổ biến nhất. Thực hiện xoa bóp tử cung, sử dụng thuốc tăng co tử cung (Oxytocin là lựa chọn hàng đầu, có thể kết hợp Misoprostol, Methylergometrine, Carboprost).
+    *   **Tissue (Sót mô):** Kiểm tra kỹ nhau, màng. Có thể phải nạo buồng tử cung bằng tay hoặc bằng dụng cụ.
+    *   **Trauma (Chấn thương):** Khám kỹ đường sinh dục dưới (âm hộ, âm đạo, cổ tử cung), đặc biệt là các vết rách tầng sinh môn (nghiên cứu ghi nhận độ 2 ở các trường hợp này). Cầm máu bằng khâu phục hồi.
+    *   **Thrombin (Rối loạn đông máu):** Lấy máu xét nghiệm đông máu khẩn cấp. Truyền các chế phẩm máu phù hợp (hồng cầu lắng, huyết tương tươi đông lạnh, tiểu cầu, tủa lạnh).
+3.  **Quản lý không phẫu thuật nâng cao (Advanced Non-Surgical Management):**
+    Khi các biện pháp ban đầu thất bại, cân nhắc:
+    *   **Chèn bóng tử cung (Uterine Balloon Tamponade):** Nghiên cứu này ghi nhận 5/7 trường hợp được đặt bóng chèn. Đây là một phương pháp hiệu quả và ít xâm lấn, thường dùng bóng Bakri. Kỹ thuật này nên được thành thạo.
+    *   **Thắt động mạch tử cung hoặc động mạch cổ tử cung:** Có thể cân nhắc trong một số trường hợp, nhưng thường yêu cầu kỹ năng phẫu thuật. Nghiên cứu ghi nhận 6/7 trường hợp thắt động mạch cổ tử cung.
+4.  **Chuyển sang phẫu thuật cắt tử cung cấp cứu (Emergency Hysterectomy):**
+    *   **Chỉ định:** Như nghiên cứu đã chỉ ra, phẫu thuật cắt tử cung cấp cứu là lựa chọn cuối cùng khi các điều trị không phẫu thuật thất bại và tính mạng bệnh nhân bị đe dọa. Thời điểm tiến hành là trong vòng 24 giờ sau sinh.
+    *   **Mục tiêu:** Cứu sống người mẹ. Trong nghiên cứu này, tất cả 7 ca đều được điều trị thành công, không có tử vong, cho thấy vai trò quyết định của can thiệp này.
+    *   **Kỹ năng:** Yêu cầu phẫu thuật viên có kinh nghiệm, thực hiện nhanh chóng và chính xác.
+**Lời khuyên quan trọng:**
+*   **Làm việc nhóm:** Luôn huy động đội ngũ hỗ trợ (gây mê hồi sức, ngân hàng máu) càng sớm càng tốt.
+*   **Thực hành mô phỏng:** Tham gia các buổi tập huấn mô phỏng để rèn luyện phản ứng nhanh và phối hợp nhóm trong tình huống khẩn cấp.
+*   **Cập nhật kiến thức:** Luôn theo dõi các phác đồ và hướng dẫn mới nhất từ Bộ Y tế và các tổ chức chuyên môn quốc tế.
+Việc hiểu rõ và thực hành theo một quy trình chuẩn hóa là chìa khóa để cứu sống bệnh nhân BHSS nặng.</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Dựa trên đặc điểm bệnh nhân trong nghiên cứu, một sinh viên y khoa nên chú ý đến những yếu tố tiền sử và đặc điểm thai kỳ nào để dự đoán và chuẩn bị quản lý các trường hợp băng huyết sau sinh nặng, ngay cả khi không có các yếu tố nguy cơ cổ điển?</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Các em sinh viên y khoa thân mến,
+Nghiên cứu này cung cấp cái nhìn sâu sắc về những trường hợp BHSS nặng cần cắt tử cung cấp cứu, và một điểm đáng lưu ý là nhiều bệnh nhân không hề có các yếu tố nguy cơ cổ điển. Điều này dạy chúng ta một bài học quan trọng: **BHSS nặng có thể xảy ra ở bất kỳ sản phụ nào.**
+Tuy nhiên, việc xem xét các đặc điểm được ghi nhận trong nghiên cứu vẫn giúp chúng ta nâng cao cảnh giác và hiểu biết về bối cảnh lâm sàng:
+*   **Độ tuổi thai phụ:** Trong nghiên cứu, tuổi các thai phụ dao động từ 28-42 tuổi. Đây là nhóm tuổi sinh sản khá rộng và không có sự tập trung vào các trường hợp quá trẻ hay quá lớn tuổi, cho thấy nguy cơ không chỉ giới hạn ở các cực của độ tuổi sinh sản.
+*   **Tiền căn sản phụ khoa:** Điều bất ngờ là tất cả các ca đều không có tiền căn BHSS, truyền máu, mổ lấy thai, sử dụng thuốc kháng đông, u xơ tử cung, hay tiền sản giật nặng/hội chứng HELLP. Điều này củng cố quan điểm rằng BHSS nặng có thể xảy ra ngay cả khi không có các yếu tố nguy cơ rõ ràng trong tiền sử. Đây là một lời nhắc nhở quan trọng về sự thận trọng và không được chủ quan.
+*   **Đặc điểm thai kỳ lần này:** Toàn bộ các trường hợp đều là đơn thai, thai tự nhiên. Điều này khác với quan niệm thông thường rằng đa thai hoặc thai kỳ nhân tạo có thể làm tăng nguy cơ.
+*   **Đặc điểm cuộc sinh:**
+    *   Cân nặng thai nhi: Từ 2900 gram đến 3900 gram, cho thấy thai nhi có cân nặng trung bình đến lớn. **Thai to** là một yếu tố nguy cơ tiềm ẩn gây đờ tử cung do tử cung bị căng giãn quá mức. Mã ICD-10 cho đẻ thai to là O66.2.
+    *   Khởi phát chuyển dạ: Một số ca được khởi phát chuyển dạ bằng sonde Foley, số khác là tự nhiên. Việc khởi phát chuyển dạ không loại trừ nguy cơ BHSS.
+    *   Tăng co bằng Oxytocin: Ba ca được tăng co bằng Oxytocin. Việc sử dụng Oxytocin không phải lúc nào cũng ngăn ngừa được đờ tử cung, đôi khi tử cung có thể bị "chai" với Oxytocin nếu sử dụng quá lâu hoặc liều không phù hợp.
+    *   Phương pháp sinh: Bao gồm sinh thường và sinh forceps. Hai trường hợp sinh forceps (một do tim thai chậm, một do thai phụ rặn không chuyển) cần đặc biệt chú ý đến nguy cơ chấn thương đường sinh dục (Trauma) và đờ tử cung do chuyển dạ kéo dài hoặc can thiệp.
+    *   Cắt tầng sinh môn: 5/7 trường hợp có cắt tầng sinh môn, và các vết rách tầng sinh môn độ 2 cũng được ghi nhận. Chấn thương đường sinh dục là một nguyên nhân gây BHSS cần được kiểm soát tốt.
+**Lời khuyên cho sinh viên y khoa:**
+*   **Luôn cảnh giác:** Đừng bao giờ hạ thấp cảnh giác về BHSS chỉ vì bệnh nhân không có yếu tố nguy cơ rõ ràng trong tiền sử. Hãy luôn chuẩn bị cho tình huống xấu nhất.
+*   **Học hỏi từ "ngoại lệ":** Những trường hợp này là minh chứng sống cho thấy y học không phải lúc nào cũng tuân theo quy tắc sách vở một cách tuyệt đối. Hãy học hỏi từ những trường hợp này để mở rộng tư duy lâm sàng.
+*   **Thực hành quản lý chủ động:** Bất kể yếu tố nguy cơ, việc quản lý chủ động thì ba, theo dõi sát sau sinh và sẵn sàng can thiệp là điều bắt buộc trong mọi cuộc sinh.
+*   **ICD-10:** Hiểu các mã liên quan không chỉ giúp thống kê mà còn giúp các bạn nhận diện các bệnh lý và tình trạng liên quan đến BHSS, ví dụ: O72.0 (Băng huyết thì ba), O72.1 (Băng huyết sau sinh tức thì khác), O72.2 (Băng huyết sau sinh muộn), và các mã cho chấn thương đường sinh dục (O70.x).
+Việc hiểu sâu sắc những dữ liệu này sẽ giúp các bạn trở thành những bác sĩ lâm sàng có tư duy phản biện và hành động nhanh chóng trong các tình huống khẩn cấp.</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Dựa trên các can thiệp được thực hiện cho những trường hợp BHSS nặng cần cắt tử cung cấp cứu, một bác sĩ sản khoa nên phân tích dữ liệu này như thế nào để cải thiện chiến lược quản lý và đưa ra quyết định lâm sàng hiệu quả hơn?</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Kính gửi các bác sĩ sản khoa và những nhà lâm sàng tương lai,
+Phân tích dữ liệu về các can thiệp trong nghiên cứu này cung cấp những hiểu biết quý báu để cải thiện chiến lược quản lý BHSS nặng. Đây là cách chúng ta nên suy nghĩ:
+1.  **Thứ tự ưu tiên các can thiệp:**
+    *   Nghiên cứu chỉ rõ các trường hợp phẫu thuật cắt tử cung cấp cứu được thực hiện "sau khi các điều trị không phẫu thuật thất bại". Điều này củng cố nguyên tắc vàng: **luôn ưu tiên các biện pháp ít xâm lấn hơn trước.** Các bác sĩ cần thành thạo và áp dụng kịp thời các biện pháp ban đầu (xoa bóp tử cung, thuốc tăng co, kiểm tra 4T).
+    *   **Đặt bóng chèn lòng tử cung:** 5/7 trường hợp đã được tiến hành đặt bóng chèn. Đây là một can thiệp cơ học hiệu quả, ít xâm lấn và có thể thực hiện nhanh chóng. Việc thành thạo kỹ thuật đặt bóng Bakri hoặc các loại bóng chèn tử cung khác là cần thiết cho mọi bác sĩ sản khoa. Mã ICD-10 liên quan đến đặt bóng cầm máu sau sinh có thể được xem xét dưới các mã thủ thuật như 68.29 (Các thủ thuật khác trên tử cung) hoặc 96.09 (Đặt dụng cụ khác).
+    *   **Thắt động mạch tử cung/cổ tử cung:** 6/7 trường hợp được thắt động mạch cổ tử cung và 1 trường hợp thắt động mạch tử cung. Thắt động mạch cổ tử cung ít phức tạp hơn thắt động mạch hạ vị và có thể là bước tiếp theo khi bóng chèn thất bại. Việc chỉ có 1 trường hợp thắt động mạch tử cung và 1 trường hợp thắt động mạch hạ vị cho thấy đây là những can thiệp sâu hơn, được dành cho những trường hợp khó khăn nhất, khi các can thiệp trước đó không đủ kiểm soát máu chảy. Mã ICD-10 cho thắt động mạch thường là 38.8 (Thắt mạch máu khác).
+2.  **Định lượng máu mất:**
+    *   Nghiên cứu chi tiết lượng máu mất sau sinh, trước mổ, trong mổ và tổng lượng máu mất. Điều này cực kỳ quan trọng. Việc định lượng máu mất một cách chính xác giúp đưa ra quyết định truyền máu và can thiệp kịp thời. Phạm vi máu mất rất lớn (từ 1400 ml đến 3700 ml), cho thấy mức độ nghiêm trọng và tốc độ diễn tiến của tình trạng này.
+    *   **Bảng 2. Đặc điểm trong BHSS nặng của các trường hợp phẫu thuật cắt tử cung cấp cứu**
+| Bệnh nhân | Phân độ rách tầng sinh môn | Nguyên nhân BHSS nặng         | Máu mất sau sinh (ml) | Máu mất trước mổ (ml) | Máu mất trong mổ (ml) | Tổng lượng máu mất (ml) | Thắt động mạch cổ tử cung | Đặt bóng chèn lòng tử cung | Thắt động mạch tử cung | Thắt động mạch hạ vị |
+| :-------- | :------------------------ | :---------------------------- | :-------------------- | :-------------------- | :-------------------- | :---------------------- | :------------------------ | :-------------------------- | :--------------------- | :----------------- |
+| 1         | 2                         | Đờ tử cung + Rối loạn đông máu | 400                   | 3100                  | 200                   | 3700                    | Có                        | Có                          | Không                  | Không              |
+| 2         | 2                         | Đờ tử cung + Rối loạn đông máu | 100                   | 900                   | 400                   | 1400                    | Có                        | Có                          | Có                     | Không              |
+| 3         | 2                         | Đờ tử cung                    | 200                   | 1900                  | 300                   | 2400                    | Có                        | Có                          | Không                  | Không              |
+3.  **Tầm quan trọng của đờ tử cung và các nguyên nhân đi kèm:**
+    *   Việc "toàn bộ các ca đều có đờ tử cung là 1 trong các nguyên nhân" là một điểm mấu chốt. Điều này nhắc nhở chúng ta về tầm quan trọng của việc phòng ngừa và điều trị đờ tử cung ngay từ đầu. Mã ICD-10 cho đờ tử cung là một phần của O72.0 hoặc O72.1 tùy thuộc vào thời điểm.
+    *   Các nguyên nhân đi kèm như tổn thương đường sinh dục và rối loạn đông máu cũng cần được xử trí đồng thời và nhanh chóng. Kiểm tra kỹ tầng sinh môn và âm đạo để tìm vết rách (ICD-10 O70.x cho rách tầng sinh môn) và chuẩn bị các chế phẩm máu cho rối loạn đông máu (ICD-10 D68.x).
+4.  **Kết quả điều trị:**
+    *   "Toàn bộ các ca đều được điều trị thành công sau phẫu thuật cắt tử cung cấp cứu, không ghi nhận có trường hợp nào tử vong." Đây là một tín hiệu rất tích cực, cho thấy khi được chẩn đoán và can thiệp kịp thời, kể cả những trường hợp nặng nhất cũng có thể có kết cục tốt. Điều này củng cố niềm tin vào phác đồ quản lý hiện tại.
+**Để cải thiện và học hỏi kinh nghiệm, các bạn nên:**
+*   **Xây dựng phác đồ chuẩn:** Đảm bảo khoa/bệnh viện có phác đồ quản lý BHSS rõ ràng, từng bước và dễ tiếp cận cho toàn bộ nhân viên y tế.
+*   **Thực hành ra quyết định:** Sử dụng các ca lâm sàng (như nghiên cứu này) để thực hành quá trình ra quyết định: khi nào nên chuyển từ thuốc sang bóng chèn, khi nào cân nhắc thắt động mạch, và khi nào là lúc cho cắt tử cung.
+*   **Kỹ năng phẫu thuật:** Đối với bác sĩ trẻ, cần tích cực học hỏi và thực hành các kỹ năng phẫu thuật cầm máu trong sản khoa, bao gồm thắt các động mạch tử cung, hạ vị và kỹ thuật cắt tử cung cấp cứu. Đây là những kỹ năng cứu mạng.
+*   **Phản hồi và Cải tiến:** Sau mỗi ca BHSS nặng, cần có buổi họp giao ban để phân tích, rút kinh nghiệm, từ đó điều chỉnh và cải thiện quy trình làm việc.
+Việc hiểu sâu sắc từng chi tiết trong nghiên cứu này sẽ trang bị cho bạn những kiến thức và kỹ năng cần thiết để trở thành một nhà lâm sàng tự tin và hiệu quả trong quản lý các cấp cứu sản khoa.</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Xin chuyên gia hướng dẫn cách nhận diện và quản lý các yếu tố nguy cơ chính của đờ tử cung gây băng huyết sau sinh nặng (BHSS), đặc biệt trong bối cảnh sử dụng oxytocin và các trường hợp mẹ lớn tuổi.</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc nhận diện và quản lý sớm đờ tử cung là then chốt để ngăn ngừa băng huyết sau sinh nặng (BHSS) – một cấp cứu sản khoa (ICD-10: O72.1). Dưới đây là những điểm quan trọng mà các bác sĩ trẻ và sinh viên y khoa cần lưu ý:
+*   **Đờ tử cung (Uterine Atony)**: Đây là nguyên nhân hàng đầu của BHSS. Hãy luôn cảnh giác với khả năng này nếu tử cung không co hồi tốt sau sinh. Đảm bảo theo dõi sát sao sự co hồi tử cung sau khi rau sổ.
+*   **Yếu tố nguy cơ liên quan đến Oxytocin**: Mặc dù oxytocin thường được dùng để khởi phát chuyển dạ hoặc tăng co, có giả thuyết cho rằng việc sử dụng này có thể làm giảm độ nhạy cảm của thụ thể oxytocin, dẫn đến đờ tử cung. Nghiên cứu của chúng ta cũng ghi nhận có 3/7 ca được chỉ định oxytocin tăng co trong chuyển dạ.
+    *   **Lời khuyên**: Cần theo dõi chặt chẽ co hồi tử cung ở những sản phụ được chỉ định oxytocin, không lạm dụng hoặc dùng quá liều. Đánh giá hiệu quả và đáp ứng của tử cung với oxytocin định kỳ, cân nhắc giảm liều hoặc ngừng nếu tử cung co tốt và nguy cơ đờ tử cung tăng.
+*   **Tuổi mẹ cao (&gt;35 tuổi)**: Nghiên cứu cho thấy phụ nữ lớn tuổi có nguy cơ BHSS cao hơn, với 4/7 ca trong nghiên cứu có tuổi &gt;35. Các yếu tố liên quan bao gồm:
+    *   Tăng nguy cơ mắc tiền sản giật nặng/hội chứng HELLP.
+    *   Nhau bám thấp/nhau cài răng lược.
+    *   Rặn không tốt, kéo dài chuyển dạ hoặc phải hỗ trợ sinh.
+    *   Cơ chế phân tử: Sự giảm biểu hiện của các gen quy định truyền tín hiệu và đáp ứng của oxytocin ở cơ tử cung được coi là cơ chế sinh học dẫn đến tăng nguy cơ BHSS nặng.
+    *   **Lời khuyên**: Đối với sản phụ &gt;35 tuổi, cần có kế hoạch quản lý thai kỳ và chuyển dạ chặt chẽ hơn, đánh giá nguy cơ toàn diện và chuẩn bị sẵn sàng cho các tình huống cấp cứu BHSS từ sớm. Tư vấn sản phụ về các dấu hiệu cần chú ý.
+*   **Các yếu tố nguy cơ khác cần khai thác tiền sử**: Theo Lill Trine Nyflot và Stones, các yếu tố như tiền sử BHSS nặng, sử dụng thuốc chống đông, thiếu máu lúc nhập viện, u xơ tử cung, đa thai, đa sản (từ 4 con trở lên) và có thai do hỗ trợ sinh sản đều có thể làm tăng nguy cơ.
+    *   **Thực hành**: Luôn thực hiện một bệnh án kỹ lưỡng, khai thác đầy đủ tiền sử để đánh giá nguy cơ ngay từ khi sản phụ nhập viện và có kế hoạch dự phòng phù hợp. Chuẩn bị các phương án xử trí từ trước.
+**Tóm lại**, sự kết hợp giữa kinh nghiệm lâm sàng, hiểu biết sâu sắc về sinh lý bệnh và khả năng nhận diện sớm các yếu tố nguy cơ sẽ giúp chúng ta chủ động hơn trong việc quản lý và xử trí BHSS, giảm thiểu biến chứng cho sản phụ. Hãy luôn nhớ rằng sự chuẩn bị tốt nhất là sự phòng ngừa hiệu quả nhất.</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Khi các biện pháp bảo tồn thất bại trong điều trị băng huyết sau sinh nặng, các kỹ thuật can thiệp xâm lấn nào nên được xem xét? Xin chuyên gia phân tích chi tiết về thắt động mạch hạ vị và khâu ép tử cung B-Lynch, kèm theo lưu ý thực hành cho bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Chào bạn, khi các biện pháp điều trị bảo tồn (như xoa bóp tử cung, dùng thuốc tăng co, truyền dịch) không kiểm soát được băng huyết sau sinh nặng (BHSS), việc chuyển sang các can thiệp xâm lấn là bắt buộc để cứu sống sản phụ (ICD-10: O72.1, O72.2). Dưới đây là phân tích về hai kỹ thuật quan trọng mà các bác sĩ trẻ cần nắm vững:
+*   **Thắt động mạch hạ vị (Internal Iliac Artery Ligation)**:
+    *   **Mục đích**: Giảm lưu lượng máu đến tử cung bằng cách thắt các động mạch chậu trong (hạ vị), từ đó giảm chảy máu và cho phép tử cung có thời gian co hồi. Nghiên cứu của chúng ta ghi nhận có 1 ca đã thực hiện kỹ thuật này.
+    *   **Yêu cầu kỹ thuật**: Đây là một kỹ thuật ngoại khoa nâng cao.
+        *   Đòi hỏi phẫu thuật viên phải có kinh nghiệm, hiểu biết sâu sắc về giải phẫu vùng chậu phức tạp.
+        *   Thực hiện trong điều kiện thời gian ngắn, phẫu trường có thể chảy máu rất nhiều.
+        *   Nguy cơ cao tổn thương các mạch máu và cấu trúc kế cận (niệu quản, tĩnh mạch chậu) nếu không cẩn trọng.
+    *   **Lợi ích**: Bảo tồn chức năng sinh sản trong tương lai, giúp sản phụ vẫn có thể mang thai.
+    *   **Lưu ý cho bác sĩ trẻ**: Kỹ thuật này không nên được thực hiện bởi người chưa có kinh nghiệm. Cần được đào tạo bài bản và thực hành dưới sự giám sát của phẫu thuật viên cấp cao. Luôn chuẩn bị trước khi vào phòng mổ (đánh giá tình trạng bệnh nhân, dự trù máu, ekip hỗ trợ) và cân nhắc yếu tố thời gian là vàng.
+*   **Khâu ép tử cung B-Lynch (B-Lynch Uterine Compression Suture)**:
+    *   **Mục đích**: Là một phương pháp khâu ép trực tiếp tử cung để ngăn không cho tử cung giãn ra và bị ứ đầy máu. Nghiên cứu của chúng ta không ghi nhận ca nào sử dụng kỹ thuật này, nhưng nó là một lựa chọn quan trọng trong thực hành lâm sàng.
+    *   **Kỹ thuật**: Sử dụng 2 mũi khâu dọc theo trục dài của tử cung, thường xuyên qua lòng tử cung, ép chặt tử cung để cầm máu.
+    *   **Hiệu quả**: Đã có nhiều nghiên cứu báo cáo thành công trong việc cầm máu BHSS, đặc biệt trong các trường hợp cần bảo tồn tử cung (ví dụ, ở bệnh nhân nhau cài răng lược sau mổ lấy thai tại Bệnh viện Từ Dũ).
+    *   **Lưu ý cho bác sĩ trẻ**: Đây là kỹ thuật tương đối dễ tiếp cận hơn thắt động mạch hạ vị nhưng vẫn cần sự chính xác. Cần nắm vững kỹ thuật khâu để đảm bảo hiệu quả cầm máu và tránh biến chứng (ví dụ, thiếu máu cục bộ tử cung do khâu quá chặt). Thực hành trên mô hình hoặc dưới sự hướng dẫn là rất quan trọng.
+**Bảng so sánh sơ bộ hai kỹ thuật:**
+| Đặc điểm         | Thắt Động mạch Hạ vị                                    | Khâu Ép Tử cung B-Lynch                              |
+| :--------------- | :------------------------------------------------------ | :--------------------------------------------------- |
+| **Mức độ phức tạp** | Nâng cao, đòi hỏi kinh nghiệm sâu                        | Trung bình, dễ tiếp cận hơn cho bác sĩ có kinh nghiệm |
+| **Giải phẫu**     | Bóc tách vùng chậu phức tạp                            | Tập trung vào tử cung                               |
+| **Nguy cơ**      | Tổn thương mạch máu/cấu trúc kế cận (niệu quản)         | Thiếu máu cục bộ tử cung (nếu khâu quá chặt)          |
+| **Bảo tồn sinh sản** | Có                                                      | Có                                                   |
+| **Cơ chế**       | Giảm lưu lượng máu tổng thể đến tử cung                 | Ép cơ học trực tiếp tử cung để cầm máu                 |
+| **Chỉ định phổ biến** | BHSS do đờ tử cung, chấn thương, rối loạn đông máu | Đờ tử cung, nhau cài răng lược, vị trí chảy máu lan tỏa |
+Quyết định lựa chọn kỹ thuật nào phụ thuộc vào nguyên nhân gây BHSS, mức độ chảy máu, kinh nghiệm của phẫu thuật viên, và nguồn lực của cơ sở y tế. Luôn ưu tiên phối hợp đội ngũ và đánh giá nhanh chóng để đưa ra quyết định kịp thời và chính xác nhất.</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ hoặc sinh viên y khoa, tôi cần chuẩn bị tâm thế và kiến thức như thế nào để đối phó hiệu quả với các trường hợp băng huyết sau sinh nặng, đặc biệt khi cần đưa ra quyết định can thiệp xâm lấn như cắt tử cung cấp cứu, và làm thế nào để liên tục nâng cao chuyên môn trong lĩnh vực này?</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Chào bạn, đối mặt với băng huyết sau sinh nặng (BHSS – ICD-10: O72) là một thử thách lớn và là một trong những nguyên nhân gây tử vong mẹ hàng đầu. Với sự chuẩn bị kỹ lưỡng, bạn hoàn toàn có thể ứng phó hiệu quả. Dưới đây là những hướng dẫn quan trọng:
+1.  **Hiểu rõ Phác đồ và Nguyên nhân**: 
+    *   Nắm vững các nguyên nhân gây BHSS (được tóm tắt bằng 4T: **Tone** – đờ tử cung, **Trauma** – chấn thương đường sinh dục, **Tissue** – sót nhau/màng, **Thrombin** – rối loạn đông máu). Đờ tử cung là nguyên nhân phổ biến nhất, như đã thấy trong nghiên cứu của chúng ta. 
+    *   Thuộc lòng phác đồ xử trí BHSS của Bộ Y tế Việt Nam, bao gồm các bước từ điều trị bảo tồn đến can thiệp xâm lấn, và biết rõ thời điểm chuyển bước.
+2.  **Đánh giá Nhanh chóng và Chính xác**: 
+    *   **Lượng máu mất**: Đây là yếu tố then chốt để đánh giá mức độ nghiêm trọng. Đo lường và ước tính lượng máu mất là cực kỳ quan trọng (nghiên cứu của chúng tôi ghi nhận các ca mất máu từ 1400ml đến 3700ml). Tốc độ mất máu cũng quan trọng không kém để đánh giá động lực của chảy máu.
+    *   **Tình trạng tổng thể của sản phụ**: Đánh giá nhanh các dấu hiệu sinh tồn, tri giác, mức độ sốc để có quyết định cấp cứu kịp thời. Luôn nhớ 'time is uterus, uterus is life'.
+3.  **Quyết định Can thiệp Xâm lấn và Cắt tử cung**: 
+    *   Khi các biện pháp bảo tồn thất bại, hoặc tình trạng sản phụ diễn biến quá nhanh, việc cân nhắc can thiệp xâm lấn như thắt mạch, khâu ép tử cung hay thậm chí cắt tử cung cấp cứu (ICD-10: Z90.7 – Thiếu tử cung do phẫu thuật) là cần thiết để cứu sống bệnh nhân. 
+    *   **Cắt tử cung cấp cứu**: Đây là quyết định khó khăn nhất, thường được đưa ra khi mọi nỗ lực khác không hiệu quả và tính mạng sản phụ bị đe dọa trực tiếp. Tỷ lệ cắt tử cung trong BHSS nặng có thể cao (như trong nghiên cứu là 3.9% ở nhóm BHSS nặng), điều này cho thấy tầm quan trọng của việc nhận biết sớm và can thiệp quyết liệt, không chần chừ. 
+    *   **Lời khuyên**: Quyết định này không nên đơn độc. Luôn tham khảo ý kiến bác sĩ cấp trên, hội chẩn nhanh với ê-kíp để đảm bảo quyết định tối ưu và được hỗ trợ đầy đủ. Sự phối hợp đa chuyên khoa (sản, hồi sức, huyết học) là rất cần thiết.
+4.  **Tầm quan trọng của Đào tạo và Kinh nghiệm**: 
+    *   **Học hỏi từ Y văn**: Luôn cập nhật các nghiên cứu mới, phác đồ điều trị từ các tạp chí uy tín (ví dụ: Tạp chí Y học Việt Nam, các tạp chí sản khoa quốc tế). 
+    *   **Tham gia CME và hội thảo**: Đây là cách tuyệt vời để nâng cao kiến thức, học hỏi kinh nghiệm từ các chuyên gia, và trau dồi kỹ năng thực hành. 
+    *   **Thực hành mô phỏng**: Tham gia các khóa đào tạo tình huống giả định để làm quen với áp lực và các bước xử trí trong cấp cứu BHSS. 
+    *   **Phân tích ca lâm sàng**: Sau mỗi ca BHSS, dù thành công hay thất bại, hãy cùng ê-kíp phân tích, rút kinh nghiệm để cải thiện cho lần sau. Việc này giúp xây dựng kinh nghiệm thực tế quý báu.
+**Nhớ rằng, việc quản lý BHSS là một cuộc chạy đua với thời gian. Sự bình tĩnh, kiến thức vững chắc, kỹ năng thực hành tốt và khả năng ra quyết định nhanh chóng là những yếu tố quyết định sự thành công.**</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Thưa bác sĩ, trong quản lý xuất huyết sau sinh (BHSS) nặng, khi nào chúng ta cần xem xét đến phương án cắt tử cung cấp cứu, và những lưu ý quan trọng nào dành cho các bác sĩ trẻ khi thực hiện quyết định này?</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Chào em, đây là một câu hỏi rất quan trọng trong thực hành sản khoa, đặc biệt với BHSS nặng, một trong những nguyên nhân hàng đầu gây tử vong mẹ. Việc quyết định cắt tử cung cấp cứu đòi hỏi sự cân nhắc kỹ lưỡng và nhanh chóng.
+**1. Chỉ định cắt tử cung cấp cứu:**
+   *   Khi các biện pháp điều trị ít xâm lấn ban đầu (như dùng thuốc co hồi tử cung: Oxytocin, Misoprostol, Ergotamin, Duratocin, Endoprost; các kỹ thuật chèn ép như đặt bóng chèn lòng tử cung; hoặc thắt động mạch tử cung/hạ vị) đã thất bại.
+   *   BHSS nặng có liên quan đến các tình trạng nguy hiểm như nhau bong non hoặc vỡ tử cung, nơi mà nguồn chảy máu không thể kiểm soát được bằng các phương pháp khác.
+   *   Tình trạng lâm sàng của bệnh nhân diễn tiến xấu nhanh chóng, đe dọa tính mạng.
+**2. Các bước tiếp cận cho bác sĩ trẻ:**
+   *   **Đánh giá nhanh và chính xác:** Luôn luôn ưu tiên đánh giá tình trạng huyết động của bệnh nhân. BHSS được mã hóa theo ICD-10 là O72.x (ví dụ O72.0: xuất huyết sau sổ rau, O72.1: xuất huyết do duy trì rau/màng, O72.2: xuất huyết sau sinh muộn). Việc xác định nguyên nhân (ví dụ: đờ tử cung O62.2, chấn thương đường sinh dục O71.x, vỡ tử cung O71.1) là tối quan trọng để đưa ra quyết định.
+   *   **Tối ưu hóa các biện pháp ban đầu:** Trước khi nghĩ đến cắt tử cung, hãy đảm bảo rằng các thuốc co hồi tử cung đã được sử dụng đúng liều, đúng cách, và các kỹ thuật cầm máu cơ học (như xoa bóp tử cung, đặt bóng chèn) đã được thử nhưng không hiệu quả.
+   *   **Hội chẩn khẩn cấp:** Đừng ngần ngại hội chẩn với các bác sĩ cấp trên, bác sĩ chuyên khoa sâu hơn ngay khi có dấu hiệu bất thường. Đây không phải là dấu hiệu của sự yếu kém mà là hành động chuyên nghiệp để đảm bảo an toàn cho bệnh nhân.
+   *   **Lưu ý khi phẫu thuật:**
+      *   **Cắt tử cung toàn phần hay bán phần?** Gần đây, cắt tử cung bán phần có thể được gợi ý trong BHSS vì kỹ thuật nhanh hơn và ít biến chứng tổn thương cơ quan lân cận hơn. Tuy nhiên, em cần nhớ rằng chảy máu ở vùng cổ tử cung vẫn có thể tiếp diễn, do đó cần đánh giá kỹ lưỡng nguồn chảy máu.
+      *   **Biến chứng tiềm tàng:** Cần lường trước và chuẩn bị cho các biến chứng có thể xảy ra trong và sau phẫu thuật, bao gồm tổn thương bàng quang (ICD-10: N32.x), niệu quản (ICD-10: N28.x), nhiễm trùng (ICD-10: O86.x), xuất huyết thêm (ICD-10: T81.0), và nguy cơ tử vong mẹ.
+   *   **Giao tiếp với gia đình:** Thông báo rõ ràng về tình trạng nguy kịch, các phương án điều trị và nguy cơ tiềm tàng cho gia đình bệnh nhân để có sự đồng thuận và hợp tác.
+Việc cắt tử cung cấp cứu là một quyết định khó khăn nhưng có thể là cứu cánh duy nhất trong BHSS nặng không đáp ứng điều trị ban đầu. Em cần trang bị kiến thức vững chắc và kỹ năng ra quyết định nhanh, chính xác.</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Hướng dẫn quốc gia về các dịch vụ chăm sóc sức khỏe sinh sản - Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các phác đồ và hướng dẫn lâm sàng chi tiết về chẩn đoán, xử trí các tai biến sản khoa, bao gồm xuất huyết sau sinh, theo chuẩn của Bộ Y tế Việt Nam, rất hữu ích cho sinh viên và bác sĩ thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Quản lý cấp cứu xuất huyết sau sinh và các kỹ thuật phẫu thuật bảo tồn tử cung</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ đi sâu vào các chiến lược phòng ngừa, chẩn đoán sớm và quản lý tích cực BHSS, từ các biện pháp ít xâm lấn đến chỉ định và kỹ thuật cắt tử cung cấp cứu. Khóa học cũng sẽ cập nhật các phương pháp bảo tồn tử cung và thảo luận về các ca lâm sàng phức tạp để nâng cao năng lực ra quyết định và kỹ năng thực hành cho bác sĩ sản khoa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Thưa bác sĩ, phương pháp tắc động mạch chọn lọc có vai trò như thế nào trong điều trị xuất huyết sau sinh (BHSS), và các bác sĩ cần lưu ý gì khi cân nhắc chỉ định phương pháp này?</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Các em thân mến, tắc động mạch chọn lọc là một kỹ thuật can thiệp ít xâm lấn đầy hứa hẹn trong điều trị BHSS, đặc biệt trong những trường hợp mà bệnh nhân tương đối ổn định về huyết động. Đây là một phương án quan trọng trong chiến lược điều trị đa phương thức.
+**1. Vai trò và Chỉ định:**
+   *   **Là một biện pháp ít xâm lấn:** Tắc động mạch chọn lọc (Selective Arterial Embolization - SAE) là kỹ thuật điện quang can thiệp, đưa vật liệu gây tắc vào các động mạch cấp máu cho vùng chảy máu (thường là động mạch tử cung hoặc các nhánh của động mạch hạ vị), giúp cầm máu nhanh chóng.
+   *   **Chỉ định:** Phương pháp này chủ yếu được chỉ định cho những trường hợp BHSS mà bệnh nhân tương đối ổn định, không có dấu hiệu sốc nặng. Các chỉ định sản khoa chính được báo cáo bao gồm:
+      *   **Tổn thương đường sinh dục:** Với tỉ lệ thành công lên tới 90% [8].
+      *   **Đờ tử cung:** Sau khi các thuốc co hồi tử cung không hiệu quả, tỉ lệ thành công có thể đạt 100% [8].
+   *   **Ưu điểm:** Giúp bảo tồn tử cung, duy trì khả năng sinh sản của bệnh nhân, tránh được các biến chứng của phẫu thuật cắt tử cung.
+**2. Lưu ý cho bác sĩ khi cân nhắc chỉ định:**
+   *   **Tình trạng bệnh nhân:** SAE chỉ phù hợp với bệnh nhân có huyết động tương đối ổn định. Với BHSS nặng, tiến triển nhanh và không ổn định, ưu tiên hàng đầu vẫn là các biện pháp cầm máu nhanh chóng, bao gồm phẫu thuật.
+   *   **Sự sẵn có của kỹ thuật:** Như đoạn văn đã đề cập, không phải tất cả các bệnh viện đều đã áp dụng phương pháp này vào phác đồ điều trị BHSS (ví dụ Bệnh viện Từ Dũ hiện chưa áp dụng). Do đó, các em cần biết về nguồn lực và khả năng của cơ sở y tế mình đang làm việc.
+   *   **Phối hợp đa chuyên khoa:** Việc thực hiện SAE đòi hỏi sự phối hợp chặt chẽ giữa bác sĩ sản khoa và bác sĩ điện quang can thiệp. Việc chẩn đoán chính xác nguồn chảy máu (ví dụ bằng chụp mạch) là rất quan trọng.
+   *   **Biến chứng:** Mặc dù ít xâm lấn, SAE vẫn có thể có biến chứng như tổn thương mạch máu, tắc mạch không mong muốn, nhiễm trùng, hoặc tái phát chảy máu. Việc theo dõi sát sau can thiệp là cần thiết.
+**3. Tổng quan về các phương pháp can thiệp BHSS:**
+| Phương pháp                       | Chỉ định chính                                   | Mức độ xâm lấn | Hiệu quả cầm máu | Lưu ý cho BS trẻ                                              |
+|:-----------------------------------|:------------------------------------------------|:---------------|:-----------------|:-------------------------------------------------------------|
+| **Thuốc co hồi tử cung**         | Đờ tử cung (nguyên nhân phổ biến nhất)          | Thấp           | Cao (ban đầu)    | Sử dụng phác đồ chuẩn, đánh giá đáp ứng nhanh chóng.       |
+| **Xoa bóp tử cung**               | Đờ tử cung                                      | Thấp           | Khá             | Thực hiện đúng kỹ thuật, liên tục.                         |
+| **Bóng chèn lòng tử cung**       | Đờ tử cung, chảy máu do chấn thương/phẫu thuật | Trung bình     | Cao             | Đặt đúng vị trí, theo dõi áp lực và lượng chảy máu.        |
+| **Thắt động mạch tử cung/hạ vị** | Khi thuốc và các biện pháp khác thất bại        | Cao            | Cao             | Kỹ thuật phẫu thuật, yêu cầu kinh nghiệm.                  |
+| **Tắc động mạch chọn lọc (SAE)**  | Bệnh nhân ổn định, nguồn chảy rõ ràng           | Trung bình     | Cao             | Yêu cầu phối hợp chuyên khoa, không phải nơi nào cũng có.   |
+| **Cắt tử cung cấp cứu**           | Thất bại mọi biện pháp, tình trạng nguy kịch  | Rất cao        | Rất cao         | Quyết định cuối cùng, cần sự đồng thuận và kinh nghiệm.     |
+Việc nắm vững các phương pháp này giúp các em có thể đưa ra quyết định lâm sàng tối ưu, phù hợp với từng bệnh cảnh cụ thể của bệnh nhân bị BHSS (ICD-10: O72.x).</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Cập nhật về can thiệp điện quang trong xuất huyết sau sinh</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Bài báo tổng quan này trình bày chi tiết về chỉ định, kỹ thuật, hiệu quả và biến chứng của tắc động mạch chọn lọc trong BHSS, là tài liệu tham khảo quý giá để hiểu sâu hơn về vai trò của điện quang can thiệp trong sản khoa.</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Kỹ thuật điện quang can thiệp trong sản khoa và cấp cứu sản phụ khoa</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ cung cấp kiến thức toàn diện về các kỹ thuật điện quang can thiệp hiện đại, bao gồm tắc động mạch tử cung, trong quản lý các tai biến sản khoa như BHSS. Sinh viên và bác sĩ sẽ được học về chỉ định, chống chỉ định, quy trình thực hiện, và quản lý biến chứng, giúp nâng cao kỹ năng xử trí các tình huống cấp cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Thưa bác sĩ, với một sinh viên y khoa quan tâm đến phẫu thuật tạo hình, bác sĩ có thể giới thiệu về các kỹ thuật tạo hình tai nhỏ bẩm sinh hiện đại, đặc biệt là việc sử dụng khung sụn nhân tạo và sụn tự thân, cùng với những tiến bộ như nội soi hỗ trợ?</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Chào các em, tạo hình tai nhỏ bẩm sinh (Microtia, mã ICD-10: Q17.2) là một lĩnh vực đầy thách thức nhưng cũng vô cùng ý nghĩa trong phẫu thuật tạo hình. Việc tái tạo một cấu trúc phức tạp như vành tai, với hình thể 3 chiều đặc biệt, đòi hỏi sự tinh tế và kỹ thuật cao. Hiện tại có hai phương pháp chính được sử dụng phổ biến:
+**1. Tạo hình bằng khung sụn nhân tạo (Medpor Ear/Polyethylene Implant):**
+   *   **Ưu điểm:** Kỹ thuật này sử dụng vật liệu tổng hợp polyethylene xốp (Medpor) để tạo khung sụn tai. Ưu điểm nổi bật là có thể thực hiện sớm hơn (ví dụ, một số trường hợp từ 3-4 tuổi) và chỉ cần một thì phẫu thuật duy nhất. Kết quả thẩm mỹ thường rất tốt ngay sau phẫu thuật do khung sụn đã có hình dạng sẵn.
+   *   **Kỹ thuật:** Khung sụn nhân tạo được đặt dưới một vạt cân thái dương đỉnh (temporoparietal fascia flap) có mạch máu nuôi dưỡng, sau đó được che phủ bằng da. Việc bóc tách vạt cân này, như đề cập trong đoạn văn, có thể được thực hiện bằng kỹ thuật nội soi chỉ với 1 lỗ duy nhất, giúp giảm xâm lấn và biến chứng cho bệnh nhân.
+   *   **Lưu ý:** Mặc dù kết quả nhanh chóng và thẩm mỹ, vật liệu nhân tạo luôn tiềm ẩn nguy cơ nhiễm trùng hoặc lộ khung sụn, đòi hỏi chăm sóc hậu phẫu cẩn thận.
+**2. Tạo hình bằng sụn sườn tự thân:**
+   *   **Ưu điểm:** Đây là kỹ thuật truyền thống, sử dụng sụn sườn của chính bệnh nhân để tạo hình khung tai. Ưu điểm lớn nhất là vật liệu tự thân, giảm thiểu nguy cơ thải ghép hoặc nhiễm trùng. Kết quả lâu dài rất bền vững.
+   *   **Kỹ thuật:** Thường yêu cầu nhiều thì phẫu thuật (2-3 thì) và cần đợi đến khi sụn sườn đủ lớn để lấy (thường sau 6-7 tuổi). Việc lấy sụn và điêu khắc thành hình dạng tai đòi hỏi kỹ năng điêu khắc sụn rất cao từ phẫu thuật viên.
+   *   **Lưu ý:** Có thể gây đau và để lại sẹo ở vùng ngực, và thời gian phẫu thuật kéo dài hơn.
+**3. Vai trò của nội soi hỗ trợ:**
+   *   Kỹ thuật nội soi đã mang lại tiến bộ đáng kể, đặc biệt trong việc bóc tách vạt cân thái dương đỉnh. Với chỉ một lỗ nhỏ, phẫu thuật viên có thể bóc tách vạt rộng rãi, đảm bảo mạch máu nuôi dưỡng tốt cho khung sụn, đồng thời giảm thiểu tổn thương mô mềm xung quanh, giúp giảm sưng nề và thời gian hồi phục.
+**4. Các yếu tố cần lưu ý để đạt kết quả tối ưu cho sinh viên:**
+   *   **Giải phẫu học:** Nắm vững giải phẫu tai và vùng lân cận là điều kiện tiên quyết.
+   *   **Đánh giá thính lực:** Trước mổ, bệnh nhân cần được kiểm tra thính lực để có phương án điều trị hỗ trợ nghe phối hợp (nếu cần, ví dụ đặt máy trợ thính xương).
+   *   **Kỹ năng phẫu thuật:** Cần rèn luyện kỹ năng bóc tách, điêu khắc sụn (nếu chọn sụn tự thân) và khâu tạo hình tỉ mỉ.
+   *   **Hiểu về vật liệu:** Nắm rõ ưu nhược điểm của Medpor và sụn tự thân để lựa chọn phương pháp phù hợp với từng bệnh nhân.
+   *   **Tâm lý bệnh nhân và gia đình:** Kết quả thẩm mỹ và sự hài lòng của người bệnh là mục tiêu cuối cùng. Việc tư vấn kỹ lưỡng, đặt kỳ vọng hợp lý và hỗ trợ tâm lý là rất quan trọng. Các kỹ thuật này đã mang đến những lựa chọn tối ưu trong điều trị dị tật và khuyết hổng vùng tai, mang lại niềm vui cho bệnh nhân và gia đình.
+Để trở thành một phẫu thuật viên tạo hình giỏi, các em cần không ngừng học hỏi, tham gia các khóa đào tạo chuyên sâu và thực hành dưới sự hướng dẫn của những người thầy giàu kinh nghiệm.</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Phẫu thuật tạo hình tai bẩm sinh: So sánh kỹ thuật Medpor và sụn sườn tự thân</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp một cái nhìn chuyên sâu về hai phương pháp tạo hình tai phổ biến nhất, phân tích ưu nhược điểm, chỉ định và kết quả lâm sàng, giúp sinh viên và bác sĩ có cái nhìn toàn diện để lựa chọn phương pháp điều trị phù hợp.</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Hội thảo chuyên đề: Kỹ thuật tiên tiến trong tạo hình và tái tạo vành tai</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các kỹ thuật phẫu thuật hiện đại trong tạo hình tai, bao gồm việc sử dụng vật liệu nhân tạo Medpor, sụn tự thân, và ứng dụng nội soi. Học viên sẽ được cập nhật kiến thức, xem xét các ca lâm sàng phức tạp và thảo luận về các chiến lược tối ưu hóa kết quả thẩm mỹ và chức năng, phù hợp cho bác sĩ phẫu thuật tạo hình và sinh viên có định hướng chuyên ngành.</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao kiến thức cho bác sĩ và sinh viên y khoa trong lĩnh vực đột quỵ não.</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, với vai trò là một bác sĩ nội trú hoặc sinh viên y khoa, em cần hiểu rõ những điểm cốt lõi nào khi tiếp cận chẩn đoán hình ảnh một bệnh nhân nhồi máu não cấp tuần hoàn trước để xác định chỉ định can thiệp kịp thời? Và làm thế nào để liên hệ với mã ICD-10?</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Chào em, đây là một câu hỏi rất quan trọng trong thực hành lâm sàng đột quỵ cấp, vì 'thời gian là não bộ' (time is brain). Khi tiếp cận hình ảnh học một bệnh nhân nhồi máu não cấp tuần hoàn trước, các em cần chú ý những điểm sau để đưa ra quyết định can thiệp kịp thời và chính xác: 
+*   **Xác định sớm tổn thương và loại trừ xuất huyết:**
+    *   **CT sọ não không tiêm thuốc (NCCT):** Luôn là thăm dò đầu tay và nhanh nhất. Mục tiêu chính là loại trừ xuất huyết não (chống chỉ định tuyệt đối của tiêu sợi huyết). Hãy tìm các dấu hiệu nhồi máu sớm như mất ranh giới chất xám-chất trắng, xóa mờ rãnh vỏ não, hoặc dấu hiệu tăng đậm độ động mạch (hyperdense MCA sign) cho thấy huyết khối. Các em cần học cách sử dụng thang điểm ASPECTS (Alberta Stroke Program Early CT Score) để định lượng mức độ tổn thương sớm, vì điểm ASPECTS thấp (&lt;6) có thể cho thấy vùng lõi nhồi máu lớn, ảnh hưởng đến kết quả can thiệp.
+    *   **CT mạch máu não (CTA):** Cực kỳ quan trọng để xác định vị trí tắc mạch lớn (LVO) trong tuần hoàn trước (ví dụ: động mạch cảnh trong, động mạch não giữa đoạn M1, M2 như nghiên cứu đã chỉ ra). Việc phát hiện tắc mạch lớn là chỉ định chính cho lấy huyết khối cơ học.
+    *   **CT tưới máu não (CTP):** Đánh giá vùng lõi nhồi máu (infarct core) và vùng tranh tối tranh sáng (penumbra). Điều này đặc biệt hữu ích cho các trường hợp đến muộn (ngoài cửa sổ 6 giờ) để xác định bệnh nhân còn có thể hưởng lợi từ tái thông hay không, dựa trên tiêu chí DAWN và DEFUSE-3.
+    *   **Cộng hưởng từ (MRI):** Dù không phải lúc nào cũng sẵn có khẩn cấp, MRI Diffusion-Weighted Imaging (DWI) là tiêu chuẩn vàng để xác định vùng nhồi máu cấp rất sớm, còn PWI (perfusion-weighted imaging) tương tự CTP, đánh giá vùng penumbra.
+*   **Liên hệ với ICD-10 để mã hóa chẩn đoán:**
+    *   **I63.x: Nhồi máu não (Cerebral infarction):** Đây là nhóm mã chính cho chẩn đoán nhồi máu não. Việc mã hóa chính xác vị trí tắc mạch là rất quan trọng.
+        *   **I63.0:** Nhồi máu não do huyết khối động mạch tiền não.
+        *   **I63.1:** Nhồi máu não do tắc động mạch tiền não.
+        *   **I63.3:** Nhồi máu não do tắc/huyết khối động mạch não trước.
+        *   **I63.4:** Nhồi máu não do tắc/huyết khối động mạch não giữa (phổ biến nhất như nghiên cứu). 
+        *   **I63.5:** Nhồi máu não do tắc/huyết khối động mạch não sau.
+    Việc mã hóa chính xác không chỉ quan trọng cho hồ sơ bệnh án mà còn cho thống kê dịch tễ học, nghiên cứu và quản lý chất lượng. Hãy luôn đảm bảo thông tin lâm sàng và hình ảnh phù hợp với mã ICD-10 mà em chọn, để thể hiện đúng bản chất bệnh lý của bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và xử trí đột quỵ não cấp của Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Tài liệu chính thống này cung cấp các khuyến nghị lâm sàng về chẩn đoán và điều trị đột quỵ não cấp tại Việt Nam, bao gồm các tiêu chuẩn hình ảnh học và chỉ định can thiệp. Đây là cẩm nang thiết yếu cho mọi bác sĩ và sinh viên y khoa để nắm vững quy trình xử trí đột quỵ cấp.</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Cập nhật chẩn đoán hình ảnh trong đột quỵ não cấp: Từ cơ bản đến nâng cao</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu này sẽ trang bị cho học viên kiến thức toàn diện về ứng dụng MSCT, CTA, CTP và MRI trong chẩn đoán sớm và đánh giá toàn diện nhồi máu não cấp. Các bài giảng sẽ tập trung vào cách đọc và diễn giải các dấu hiệu hình ảnh quan trọng, cùng với các tình huống lâm sàng thực tế, giúp tối ưu hóa quá trình ra quyết định lâm sàng và chuẩn bị cho các can thiệp tái tưới máu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao kiến thức cho bác sĩ và sinh viên y khoa trong lĩnh vực đột quỵ não.</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Nghiên cứu đã đề cập đến lấy huyết khối cơ học không dùng thuốc tiêu sợi huyết. Với vai trò là một bác sĩ trẻ, khi nào tôi nên ưu tiên lấy huyết khối cơ học thay vì dùng thuốc tiêu sợi huyết đường tĩnh mạch cho bệnh nhân nhồi máu não cấp và những yếu tố nào cần cân nhắc để đưa ra quyết định điều trị tối ưu nhất theo ICD-10?</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Đây là một câu hỏi then chốt trong quản lý đột quỵ cấp, đòi hỏi sự hiểu biết sâu sắc về chỉ định và chống chỉ định của từng phương pháp để đưa ra quyết định điều trị tối ưu. Nghiên cứu đã nhấn mạnh hiệu quả của lấy huyết khối cơ học, đặc biệt trong các trường hợp tắc mạch lớn tuần hoàn trước. 
+Dưới đây là các yếu tố chính mà các em cần cân nhắc khi quyết định phương pháp điều trị:
+*   **Loại tắc nghẽn mạch máu:**
+    *   **Tiêu sợi huyết tĩnh mạch (IV tPA):** Hiệu quả tốt với tắc mạch nhỏ và trung bình. Tuy nhiên, như nghiên cứu chỉ ra, tỷ lệ tái thông không cao đối với tắc mạch lớn (LVO) và có nguy cơ tái tắc.
+    *   **Lấy huyết khối cơ học (MT):** Đây là lựa chọn ưu tiên cho các trường hợp tắc mạch lớn ở tuần hoàn trước (ví dụ: động mạch cảnh trong, M1, M2 động mạch não giữa) do tỷ lệ tái thông cao hơn và hiệu quả lâm sàng tốt hơn.
+*   **Cửa sổ thời gian điều trị:**
+    *   **IV tPA:** Chỉ được áp dụng trong vòng 4.5 giờ từ khi khởi phát triệu chứng.
+    *   **MT:** Cửa sổ thời gian rộng hơn đáng kể:
+        *   Trong vòng 6 giờ: Được khuyến cáo mạnh mẽ cho LVO tuần hoàn trước.
+        *   Mở rộng đến 16-24 giờ: Cho các bệnh nhân chọn lọc dựa trên tiêu chí hình ảnh học (ví dụ: mismatch trên CTP hoặc MRI) theo các nghiên cứu DAWN và DEFUSE-3. Điều này cho phép điều trị cho nhiều bệnh nhân đến muộn hơn.
+*   **Chống chỉ định của IV tPA:** Một số bệnh nhân có chống chỉ định với IV tPA (ví dụ: tiền sử xuất huyết não, phẫu thuật lớn gần đây, INR cao, số lượng tiểu cầu thấp) nhưng vẫn có thể là ứng viên cho MT nếu có tắc mạch lớn.
+*   **Đánh giá hình ảnh học:** Cần CTA để xác định LVO và CTP/MRI để đánh giá vùng lõi nhồi máu và penumbra, đặc biệt quan trọng trong cửa sổ thời gian mở rộng cho MT.
+Để giúp các em dễ hình dung, đây là bảng so sánh nhanh:
+| Tiêu chí                  | Tiêu sợi huyết tĩnh mạch (IV tPA)                                    | Lấy huyết khối cơ học (MT)                                         |
+| :------------------------ | :------------------------------------------------------------------- | :----------------------------------------------------------------- |
+| **Loại tắc mạch ưu tiên** | Tắc mạch nhỏ đến trung bình                                          | Tắc mạch lớn (LVO) tuần hoàn trước                                  |
+| **Cửa sổ thời gian**     | Trong vòng 4.5 giờ                                                   | Trong vòng 6 giờ; mở rộng đến 16-24 giờ cho bệnh nhân chọn lọc     |
+| **Cơ chế hoạt động**      | Phân hủy cục máu đông bằng thuốc                                      | Loại bỏ cục máu đông bằng dụng cụ cơ học qua đường động mạch       |
+| **Hiệu quả tái thông**    | Trung bình, thấp với LVO                                             | Cao, đặc biệt với LVO                                              |
+| **Nguy cơ chính**         | Chảy máu nội sọ, phù mạch                                            | Chảy máu nội sọ, thủng mạch, co thắt mạch, huyết khối xa          |
+| **ICD-10 (thủ thuật)**     | Mã nhóm X23.x (Thủ thuật trên mạch máu) hoặc Z51.x (Yếu tố ảnh hưởng tình trạng sức khỏe...) | Mã nhóm X23.x (Thủ thuật trên mạch máu), cụ thể là 39.79 (Thủ thuật khác trên mạch máu não và cổ) | 
+**Lưu ý về ICD-10:** Luôn luôn mã hóa chẩn đoán nhồi máu não cấp (I63.x) cùng với mã thủ thuật tương ứng. Ví dụ, cho lấy huyết khối cơ học, em có thể sử dụng mã thủ thuật 39.79 (Thủ thuật khác trên mạch máu não và cổ) hoặc các mã cụ thể hơn nếu có sẵn trong ICD-10-CM/PCS cho can thiệp nội mạch.
+Quyết định điều trị phải được cá thể hóa, dựa trên đánh giá lâm sàng, hình ảnh học, thời gian khởi phát và các yếu tố nguy cơ của bệnh nhân. Phối hợp chặt chẽ với chuyên gia thần kinh học và điện quang can thiệp là chìa khóa để đạt được kết quả tốt nhất.</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>ACUTE ISCHEMIC STROKE: 2019 GUIDELINE FOR EARLY MANAGEMENT OF PATIENTS (AHA/ASA)</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Khuyến nghị toàn diện từ Hiệp hội Tim mạch Hoa Kỳ/Hiệp hội Đột quỵ Hoa Kỳ, cung cấp bằng chứng và hướng dẫn cụ thể về chỉ định, chống chỉ định, và quy trình thực hiện tiêu sợi huyết và lấy huyết khối cơ học trong đột quỵ thiếu máu não cấp. Đây là tài liệu tham khảo vàng cho mọi bác sĩ trong việc ra quyết định điều trị đột quỵ.</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Quản lý đột quỵ thiếu máu não cấp: Từ chẩn đoán đến can thiệp tái tưới máu</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>Khóa học đào tạo liên tục này sẽ bao gồm toàn bộ phổ bệnh của đột quỵ thiếu máu não cấp, từ các bước chẩn đoán ban đầu, lựa chọn phương pháp điều trị (tiêu sợi huyết, lấy huyết khối cơ học) đến quản lý sau can thiệp, dựa trên các bằng chứng mới nhất và hướng dẫn quốc tế. Khóa học đặc biệt chú trọng vào việc ra quyết định lâm sàng trong các tình huống phức tạp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và nâng cao kiến thức cho bác sĩ và sinh viên y khoa trong lĩnh vực đột quỵ não.</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Sau khi bệnh nhân nhồi máu não cấp được lấy huyết khối cơ học thành công, như nghiên cứu đã chỉ ra 'hồi phục lâm sàng sau 3 tháng tốt', tôi cần theo dõi và quản lý bệnh nhân như thế nào để đảm bảo kết quả phục hồi tối ưu và phòng ngừa tái phát theo ICD-10?</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Rất tốt, việc phục hồi sau can thiệp là một phần quan trọng không kém so với bản thân thủ thuật. 'Hồi phục lâm sàng sau 3 tháng tốt' là một tín hiệu đáng mừng, nhưng để duy trì và tối ưu hóa kết quả này, các em cần chú ý đến một chiến lược quản lý toàn diện bao gồm cả giai đoạn cấp, phục hồi chức năng và phòng ngừa tái phát:
+1.  **Theo dõi sát sao giai đoạn cấp tính sau can thiệp:**
+    *   **Chức năng thần kinh:** Đánh giá thường xuyên bằng thang điểm NIHSS để phát hiện sớm bất kỳ sự suy giảm nào, vốn cần được điều tra ngay lập tức (ví dụ: tái tắc mạch, xuất huyết sau tái tưới máu).
+    *   **Huyết áp:** Kiểm soát huyết áp chặt chẽ theo mục tiêu khuyến cáo để tránh xuất huyết sau tái tưới máu hoặc tình trạng thiếu máu cục bộ thứ phát.
+    *   **Biến chứng:** Tìm kiếm và xử trí các biến chứng có thể xảy ra như phù não, co giật, nhiễm trùng (ví dụ: viêm phổi hít, nhiễm trùng tiết niệu), huyết khối tĩnh mạch sâu/thuyên tắc phổi (DVT/PE).
+    *   **Đường huyết và thân nhiệt:** Duy trì ổn định đường huyết và thân nhiệt để tối ưu hóa quá trình phục hồi của tế bào não.
+2.  **Phục hồi chức năng sớm và liên tục:**
+    *   **Đánh giá đa chuyên khoa:** Sớm mời các chuyên gia vật lý trị liệu, hoạt động trị liệu, ngôn ngữ trị liệu, tâm lý trị liệu để đánh giá và lập kế hoạch phục hồi chức năng cá thể hóa. Bắt đầu phục hồi chức năng càng sớm càng tốt (thường trong vòng 24-48 giờ sau khi ổn định). 
+    *   **Mục tiêu:** Giúp bệnh nhân lấy lại tối đa các chức năng bị mất, cải thiện khả năng tự chăm sóc, di chuyển, giao tiếp và tái hòa nhập cộng đồng.
+    *   **Liên quan đến ICD-10:** Mã hóa các di chứng thần kinh (ví dụ: G46.x cho hội chứng mạch máu não cụ thể, G81.x cho liệt) và mã thủ thuật phục hồi chức năng (ví dụ: Z50.x cho chăm sóc liên quan đến phục hồi chức năng) sẽ phản ánh gánh nặng bệnh tật và các can thiệp được thực hiện.
+3.  **Kiểm soát yếu tố nguy cơ và phòng ngừa tái phát:** Đây là trụ cột cho sự hồi phục lâu dài.
+    *   **Huyết áp:** Duy trì huyết áp mục tiêu theo khuyến cáo (&lt;130/80 mmHg). 
+    *   **Rối loạn lipid máu:** Sử dụng statin liều cao để giảm cholesterol, bất kể mức lipid ban đầu.
+    *   **Đái tháo đường:** Kiểm soát đường huyết chặt chẽ (HbA1c &lt; 7%).
+    *   **Rung nhĩ:** Dùng thuốc chống đông máu nếu có chỉ định.
+    *   **Thay đổi lối sống:** Tư vấn bệnh nhân bỏ thuốc lá, hạn chế rượu bia, chế độ ăn lành mạnh (như DASH), tập thể dục đều đặn.
+    *   **Thuốc chống kết tập tiểu cầu:** Aspirin, Clopidogrel hoặc phối hợp theo chỉ định của bác sĩ.
+4.  **Đánh giá kết quả lâu dài:** Sử dụng thang điểm Modified Rankin Scale (mRS) ở 3 tháng, 6 tháng, 12 tháng để đánh giá mức độ tàn tật và chất lượng cuộc sống của bệnh nhân, như nghiên cứu đã làm để chứng minh hiệu quả của phương pháp.
+5.  **Mã hóa ICD-10 cho theo dõi và di chứng:**
+    *   **I69.x: Di chứng của bệnh mạch máu não (Sequelae of cerebrovascular disease):** Khi bệnh nhân đã qua giai đoạn cấp, các di chứng sẽ được mã hóa tại đây. Ví dụ: liệt nửa người (I69.35), rối loạn ngôn ngữ (I69.32).
+    *   **Z86.73: Tiền sử nhồi máu não (Personal history of transient ischemic attack (TIA) and cerebral infarction):** Quan trọng cho việc theo dõi lâu dài và phòng ngừa tái phát.
+Nhớ rằng, đột quỵ là một hành trình dài. Vai trò của chúng ta không chỉ dừng lại ở việc cứu sống mà còn là giúp bệnh nhân lấy lại cuộc sống chất lượng nhất có thể thông qua quản lý toàn diện và liên tục.</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>WHO Guidelines for Stroke Management and Rehabilitation (2016)</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Tài liệu toàn cầu này cung cấp cái nhìn tổng quan và chi tiết về các khía cạnh quản lý đột quỵ, từ điều trị cấp tính đến phục hồi chức năng và phòng ngừa thứ phát. Đây là nguồn tham khảo đáng tin cậy để xây dựng kế hoạch chăm sóc toàn diện và cá thể hóa cho bệnh nhân sau đột quỵ.</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Phục hồi chức năng và quản lý lâu dài bệnh nhân đột quỵ sau can thiệp</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các phương pháp phục hồi chức năng hiện đại, chiến lược kiểm soát yếu tố nguy cơ để phòng ngừa tái phát, và quản lý các biến chứng lâu dài của đột quỵ. Khóa học sẽ trang bị cho các bác sĩ kiến thức và kỹ năng cần thiết để tối ưu hóa chất lượng cuộc sống cho bệnh nhân sau can thiệp lấy huyết khối.</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10 về chẩn đoán và tiêu chuẩn lựa chọn bệnh nhân nhồi máu não cấp.</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi tiếp cận một bệnh nhân nghi ngờ nhồi máu não cấp, làm thế nào để em xác định bệnh nhân đủ điều kiện cho can thiệp lấy huyết khối cơ học, đặc biệt là trong bối cảnh không dùng thuốc tiêu sợi huyết? Cần chú ý những tiêu chuẩn chẩn đoán hình ảnh nào?</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Chào em, đây là một câu hỏi rất quan trọng trong thực hành lâm sàng đột quỵ cấp. Việc nắm vững tiêu chuẩn lựa chọn và loại trừ bệnh nhân cho can thiệp lấy huyết khối cơ học là chìa khóa để đảm bảo an toàn và hiệu quả điều trị.
+**Để xác định bệnh nhân đủ điều kiện, em cần tuân thủ các bước sau:**
+1.  **Chẩn đoán xác định nhồi máu não cấp:**
+    *   **Lâm sàng:** Bệnh nhân tuổi từ 18 trở lên, có các dấu hiệu thiếu sót thần kinh rõ ràng, được định lượng bằng bảng điểm NIHSS (National Institutes of Health Stroke Scale). Điểm NIHSS cao thường gợi ý tắc mạch lớn.
+    *   **Chẩn đoán hình ảnh:** Đây là bước quyết định. Bệnh nhân phải có bằng chứng tắc động mạch lớn ở tuần hoàn trước. Các phương tiện chẩn đoán hình ảnh cần thiết là:
+        *   **CLVT (Computed Tomography) hoặc CHT (Magnetic Resonance Imaging) sọ não/mạch não:** Để xác định vị trí tắc mạch và loại trừ chảy máu não.
+        *   **PWI (Perfusion-weighted imaging) và CTP (CT Perfusion):** Rất quan trọng cho những bệnh nhân đến muộn (sau 6 giờ) để đánh giá vùng tranh tối tranh sáng (penumbra) – vùng mô não có thể hồi phục được. Việc này giúp mở rộng cửa sổ điều trị.
+2.  **Đánh giá thời gian cửa sổ:**
+    *   **Trước 4.5 giờ:** Nếu bệnh nhân có chống chỉ định với thuốc tiêu sợi huyết (như tiền sử xuất huyết não, phẫu thuật lớn gần đây, huyết áp không kiểm soát được), họ có thể được cân nhắc lấy huyết khối cơ học.
+    *   **4.5 đến 6 giờ:** Đây là cửa sổ truyền thống cho một số trường hợp.
+    *   **6 đến 16 giờ (và thậm chí đến 24 giờ):** Đây là những cửa sổ mở rộng dựa trên các tiêu chuẩn của nghiên cứu DAWN và DEFUSE-3. Để áp dụng tiêu chuẩn này, bắt buộc phải có hình ảnh tưới máu (PWI, CTP) để xác định sự không tương xứng giữa vùng nhồi máu lõi và vùng thiếu máu não.
+3.  **Loại trừ các chống chỉ định:**
+    *   **Không thấy tắc động mạch:** Nếu CLVT/CHT mạch máu hoặc DSA không thấy tắc mạch, rõ ràng không thể can thiệp lấy huyết khối.
+    *   **Tắc mạch không thể tiếp cận:** Động mạch gấp khúc quá mức hoặc cấu trúc giải phẫu bất thường có thể cản trở việc đưa dụng cụ.
+    *   **Chảy máu não:** Bất kỳ bằng chứng chảy máu não nào trên CLVT hoặc CHT là chống chỉ định tuyệt đối.
+    *   **Các bệnh lý nền nặng:** Chấn thương sọ não nặng, nhồi máu cơ tim hoặc phẫu thuật sọ não trong 3 tháng gần đây.
+    *   **Huyết áp không kiểm soát:** Huyết áp tâm trương &gt;185mmHg hoặc tâm thu &gt;105mmHg không đáp ứng với thuốc hạ áp (như labetalol hoặc nicardipine). Đây là yếu tố nguy cơ chảy máu cao.
+    *   **Đã dùng thuốc tiêu sợi huyết:** Nếu đã dùng, cần cân nhắc kỹ lợi ích/nguy cơ của việc lấy huyết khối bổ sung.
+**Lời khuyên:** Luôn luôn tham khảo hướng dẫn chẩn đoán và điều trị đột quỵ của Bộ Y tế Việt Nam hoặc các hiệp hội đột quỵ quốc tế để có thông tin cập nhật nhất. Việc trao đổi với các chuyên gia có kinh nghiệm cũng vô cùng giá trị.</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị đột quỵ thiếu máu não cấp của Bộ Y tế Việt Nam</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp các tiêu chuẩn chẩn đoán, phân loại (theo ICD-10 như I63.x cho nhồi máu não), phác đồ điều trị, và tiêu chuẩn lựa chọn/loại trừ bệnh nhân cho các phương pháp điều trị đột quỵ thiếu máu não cấp, bao gồm cả tiêu sợi huyết và lấy huyết khối cơ học. Hữu ích cho việc chuẩn hóa quy trình lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Khóa học "Cập nhật chẩn đoán và can thiệp đột quỵ cấp theo DAWN và DEFUSE-3"</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về các tiêu chuẩn chẩn đoán hình ảnh tưới máu (perfusion imaging) để mở rộng cửa sổ điều trị cho bệnh nhân nhồi máu não cấp bằng lấy huyết khối cơ học, bao gồm cả kỹ thuật đọc PWI/CTP và ứng dụng lâm sàng các nghiên cứu DAWN và DEFUSE-3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn về tối ưu hóa thời gian can thiệp trong điều trị nhồi máu não cấp theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Chuyên gia có thể cho em biết ý nghĩa của các mốc thời gian trong điều trị nhồi máu não cấp bằng lấy huyết khối cơ học không? Làm thế nào để chúng ta cải thiện thời gian từ khi bệnh nhân nhập viện đến khi tái thông mạch máu, đặc biệt là ở Việt Nam?</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Chào em, "thời gian là não" (time is brain) là câu nói cốt lõi trong điều trị đột quỵ cấp. Mỗi phút trôi qua, hàng triệu tế bào não có thể bị tổn thương vĩnh viễn. Việc nắm rõ và tối ưu hóa các mốc thời gian là vô cùng quan trọng đối với mỗi bác sĩ đột quỵ.
+**Ý nghĩa các mốc thời gian trong lấy huyết khối cơ học:**
+*   **Khởi phát - Vào viện:** Thời gian trung bình trong nghiên cứu là 323.15 phút (khoảng 5.4 giờ). Mục tiêu lý tưởng là &lt;60 phút, nhưng thực tế thường khó đạt được do yếu tố nhận biết triệu chứng và vận chuyển. Việc rút ngắn thời gian này phụ thuộc vào nhận thức cộng đồng về dấu hiệu đột quỵ (FAST: Face drooping, Arm weakness, Speech difficulty, Time to call emergency) và hệ thống cấp cứu tiền viện.
+*   **Vào viện - Chụp chẩn đoán:** Thời gian trung bình 43.22 phút. Mục tiêu "Door-to-CT" lý tưởng là &lt;20-25 phút. Mỗi phút trôi qua là sự trì hoãn trong việc xác định chẩn đoán và kế hoạch điều trị.
+*   **Vào viện - Can thiệp (Door-to-Groin puncture):** Thời gian trung bình 134.72 phút. Mục tiêu lý tưởng &lt;90 phút. Đây là thời gian từ khi bệnh nhân vào viện đến khi dụng cụ can thiệp tiếp cận được động mạch đùi.
+*   **Khởi phát - Can thiệp / Khởi phát - Tái thông:** Thời gian trung bình lần lượt là 457.86 phút và 533.52 phút. Đây là hai mốc thời gian toàn diện nhất, cho biết tổng thời gian từ khi bệnh nhân xuất hiện triệu chứng đến khi bắt đầu can thiệp hoặc đạt được tái thông mạch máu. Càng ngắn càng tốt để tối đa hóa lượng mô não được cứu.
+**Làm thế nào để cải thiện thời gian này trong bối cảnh Việt Nam?**
+1.  **Nâng cao nhận thức cộng đồng:** Các chiến dịch giáo dục về dấu hiệu đột quỵ và tầm quan trọng của việc gọi cấp cứu ngay lập tức.
+2.  **Tối ưu hóa hệ thống cấp cứu tiền viện:** Đảm bảo xe cấp cứu trang bị đầy đủ, nhân viên được huấn luyện để nhận diện nhanh và vận chuyển ưu tiên bệnh nhân đột quỵ đến trung tâm đột quỵ.
+3.  **Xây dựng "Alert Code Stroke" tại bệnh viện:**
+    *   Khi bệnh nhân nghi ngờ đột quỵ đến, toàn bộ đội ngũ (tiếp đón, điều dưỡng, bác sĩ cấp cứu, bác sĩ chẩn đoán hình ảnh, bác sĩ thần kinh, bác sĩ can thiệp) phải được kích hoạt đồng thời.
+    *   Ưu tiên tuyệt đối cho bệnh nhân đột quỵ trong việc làm xét nghiệm, chụp chiếu và di chuyển giữa các khoa.
+    *   **Quy trình khép kín:** Chụp CT/CTA ngay tại khoa cấp cứu nếu có thể, hoặc di chuyển đến phòng chụp nhanh chóng. Bác sĩ can thiệp và kỹ thuật viên sẵn sàng ngay lập tức.
+4.  **Huấn luyện liên tục cho đội ngũ y tế:**
+    *   Đảm bảo tất cả nhân viên y tế từ cấp cứu đến can thiệp đều nắm rõ phác đồ và vai trò của mình.
+    *   Thực hành các kịch bản cấp cứu đột quỵ định kỳ để làm quen với áp lực thời gian.
+5.  **Cải tiến cơ sở vật chất và công nghệ:** Trang bị máy móc hiện đại, hệ thống PACS để truyền tải hình ảnh nhanh chóng, và các ống hút lõi lớn như ACE 64, ACE 68 đã được nghiên cứu để tối ưu hóa hiệu quả can thiệp.
+"Time is brain" không chỉ là khẩu hiệu mà là kim chỉ nam cho mọi hành động của chúng ta.</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Phác đồ cấp cứu và xử trí đột quỵ thiếu máu não cấp của Bệnh viện Bạch Mai</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Tài liệu chi tiết về quy trình khép kín "Code Stroke" tại một trong những trung tâm đột quỵ hàng đầu Việt Nam, bao gồm các mốc thời gian mục tiêu, vai trò của từng bộ phận và cách phối hợp để tối ưu hóa thời gian vàng.</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Khóa đào tạo "Quản lý Đột quỵ cấp: Tối ưu hóa chuỗi cấp cứu từ tiền viện đến tái thông mạch máu"</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>Khóa học nhằm trang bị kiến thức và kỹ năng thực hành cho bác sĩ và điều dưỡng về việc tổ chức và vận hành hệ thống cấp cứu đột quỵ hiệu quả, tập trung vào việc rút ngắn thời gian "door-to-needle" và "door-to-groin" thông qua các chiến lược quản lý quy trình và phối hợp đa chuyên khoa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn về đặc điểm dịch tễ, kỹ thuật can thiệp và hướng nghiên cứu trong điều trị nhồi máu não cấp theo chuẩn ICD-10.</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Từ kết quả nghiên cứu này, em nhận thấy độ tuổi trung bình của bệnh nhân khá cao. Chuyên gia có thể phân tích thêm về ý nghĩa của đặc điểm dịch tễ này trong điều trị? Ngoài ra, nghiên cứu nhắc đến các ống hút lõi lớn (ACE 64, ACE 68), chuyên gia có thể giải thích về vai trò và lựa chọn thiết bị này không?</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Đây là một câu hỏi rất hay, đi sâu vào cả đặc điểm bệnh học và khía cạnh kỹ thuật.
+**1. Ý nghĩa của đặc điểm tuổi bệnh nhân (tuổi trung bình 67.41, &gt;60 tuổi chiếm 77.08%):**
+Việc nhóm tuổi từ 60 trở lên chiếm tỷ lệ cao trong nghiên cứu này phản ánh đúng đặc điểm dịch tễ của nhồi máu não cấp. Đột quỵ là bệnh của tuổi già, và các yếu tố nguy cơ như tăng huyết áp, đái tháo đường, rối loạn lipid máu, rung nhĩ thường tích lũy theo tuổi.
+*   **Đối với lâm sàng, đặc điểm này có một số ý nghĩa quan trọng:**
+    *   **Bệnh nền:** Bệnh nhân lớn tuổi thường có nhiều bệnh lý nền kèm theo, cần được quản lý chặt chẽ trước, trong và sau can thiệp. Điều này đòi hỏi sự phối hợp đa chuyên khoa (tim mạch, nội tiết...).
+    *   **Dự trữ não kém:** Người lớn tuổi có thể có dự trữ não thấp hơn, khiến họ dễ bị tổn thương hơn với cùng một mức độ thiếu máu. Việc bảo vệ mô não còn lại càng trở nên cấp thiết.
+    *   **Nguy cơ biến chứng:** Nguy cơ biến chứng trong và sau can thiệp (ví dụ: chảy máu, phù não, nhiễm trùng) có thể cao hơn ở người lớn tuổi do sức khỏe tổng thể yếu hơn.
+    *   **Hồi phục chức năng:** Quá trình hồi phục chức năng sau đột quỵ có thể chậm hơn và ít hoàn toàn hơn ở nhóm bệnh nhân này, đòi hỏi chiến lược phục hồi chức năng cá thể hóa và tích cực.
+**2. Vai trò và lựa chọn ống hút lõi lớn (ACE 64, ACE 68):**
+Các ống hút lõi lớn như ACE 64 và ACE 68 (ACE là từ viết tắt của Access Catheter for Endovascular) là một tiến bộ quan trọng trong kỹ thuật lấy huyết khối cơ học bằng phương pháp hút trực tiếp (aspiration thrombectomy).
+*   **Nguyên lý hoạt động:** Thay vì dùng stent retriever để kẹp và kéo huyết khối ra, các ống hút này được đưa trực tiếp đến vị trí huyết khối. Sau đó, một lực hút chân không mạnh được tạo ra để hút huyết khối vào lòng ống và rút ra.
+*   **Ưu điểm:**
+    *   **Tốc độ:** Thường cho phép tái thông nhanh hơn, giảm thời gian can thiệp.
+    *   **Tỷ lệ tái thông cao:** Đặc biệt hiệu quả với các huyết khối mềm, mới hình thành.
+    *   **An toàn:** Có thể ít gây tổn thương nội mạc mạch máu hơn so với một số kỹ thuật stent retriever cũ.
+    *   **Linh hoạt:** Có thể sử dụng độc lập hoặc kết hợp với stent retriever trong kỹ thuật "Solumbra" (stent retriever + aspiration) để tăng hiệu quả.
+*   **Lựa chọn thiết bị:** Việc lựa chọn ống hút lõi lớn nào (ví dụ: ACE 64 vs ACE 68) phụ thuộc vào đường kính mạch máu bị tắc (ví dụ, động mạch não giữa M1 thường lớn hơn M2), kích thước và đặc điểm của huyết khối, cũng như kinh nghiệm của phẫu thuật viên. Ống ACE 68 có đường kính trong lớn hơn ACE 64, cho phép lực hút mạnh hơn và hút được các cục huyết khối lớn hơn.
+*   **Để nâng cao kỹ năng:** Các bác sĩ cần được đào tạo chuyên sâu về kỹ thuật can thiệp mạch não, bao gồm việc lựa chọn thiết bị phù hợp, kỹ thuật đưa ống và tạo lực hút tối ưu, cũng như xử lý các biến chứng có thể xảy ra.
+**Để cải thiện việc học hỏi và thực hành:**
+| Chỉ số | Ý nghĩa lâm sàng | Mục tiêu cải thiện |
+| :------------------------- | :------------------------------------------------------------------------------------------------------------------------------------------- | :------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- |
+| Tuổi trung bình cao (&gt;60)  | Phản ánh dịch tễ bệnh, cần chú ý bệnh nền, dự trữ não kém, nguy cơ biến chứng cao, hồi phục chậm. | Quản lý tốt yếu tố nguy cơ đột quỵ ở người cao tuổi, tối ưu hóa chăm sóc trước và sau can thiệp, cá thể hóa phục hồi chức năng. |
+| Sử dụng ACE 64, ACE 68 | Thiết bị hút huyết khối hiệu quả, tái thông nhanh. | Nắm vững chỉ định, kỹ thuật sử dụng, lựa chọn kích cỡ ống phù hợp với đường kính mạch, kết hợp các kỹ thuật khác (Solumbra) khi cần. |
+*   **Nghiên cứu tài liệu:** Đọc các nghiên cứu mới về kỹ thuật lấy huyết khối, đặc biệt là so sánh hiệu quả và an toàn giữa các thiết bị khác nhau.
+*   **Tham gia workshop/hands-on training:** Các khóa học thực hành trên mô hình hoặc xác ướp giúp làm quen với các thiết bị và kỹ thuật.
+*   **Học hỏi từ chuyên gia:** Tham gia các ca can thiệp cùng các bác sĩ có kinh nghiệm để học hỏi trực tiếp.</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Sổ tay kỹ thuật can thiệp mạch não trong đột quỵ cấp</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Tài liệu chuyên sâu mô tả chi tiết các kỹ thuật can thiệp mạch máu não, bao gồm nguyên lý hoạt động, chỉ định, chống chỉ định, các bước thực hiện, lựa chọn thiết bị (như các loại ống hút, stent retriever) và cách xử lý các tình huống khó khăn/biến chứng trong quá trình lấy huyết khối cơ học.</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Hội thảo chuyên đề "Cập nhật các kỹ thuật và thiết bị can thiệp mạch máu não mới nhất"</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>Hội thảo thường niên giới thiệu các thiết bị can thiệp mạch máu não tiên tiến, các kỹ thuật mới, đồng thời chia sẻ kinh nghiệm lâm sàng từ các chuyên gia hàng đầu trong lĩnh vực đột quỵ can thiệp, giúp bác sĩ cập nhật kiến thức và kỹ năng thực hành.</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt trong chẩn đoán hình ảnh và cấp cứu đột quỵ.</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận bệnh nhân nhồi máu não tối cấp, các dấu hiệu hình ảnh quan trọng nào trên CLVT và CHT mà bác sĩ trẻ cần chú ý để chẩn đoán sớm và đưa ra quyết định can thiệp kịp thời? Xin giải thích ý nghĩa lâm sàng của từng dấu hiệu và mã ICD-10 liên quan.</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc nhận diện sớm các dấu hiệu hình ảnh trên Cắt lớp vi tính (CLVT) và Cộng hưởng từ (CHT) là cực kỳ quan trọng trong quản lý nhồi máu não tối cấp (ICD-10: I63.x). Đối với bác sĩ trẻ, việc nắm vững những dấu hiệu này sẽ giúp bạn đưa ra quyết định lâm sàng nhanh chóng và chính xác. Dưới đây là những điểm cần lưu ý:
+**Trên CLVT (được thực hiện ở 92 bệnh nhân trong nghiên cứu):**
+*   **Giảm tỷ trọng hạch nền (65,22%):** Đây là một trong những dấu hiệu sớm của nhồi máu, cho thấy vùng não bị thiếu máu cục bộ đã bắt đầu phù nề tế bào, dẫn đến giảm mật độ. Khi thấy dấu hiệu này, bạn cần nghĩ đến nhồi máu não cấp tính.
+*   **Xóa dải băng thùy đảo (50%):** Vỏ não thùy đảo là một trong những vùng nhạy cảm nhất với thiếu máu cục bộ. Dấu hiệu này chỉ ra sự phù nề và mất ranh giới giữa chất xám và chất trắng sớm ở vùng thùy đảo.
+*   **Tăng tỷ trọng huyết khối (Dấu hiệu động mạch dày đặc - Hyperdense artery sign, 55,43%):** Đây là dấu hiệu trực tiếp của huyết khối tắc mạch máu lớn (thường là động mạch não giữa, động mạch cảnh trong). Việc nhìn thấy dấu hiệu này là một chỉ điểm quan trọng cho can thiệp nội mạch.
+*   **Xóa rãnh cuộn não (33,70%):** Do phù nề, các rãnh cuộn não trở nên nông hơn hoặc biến mất. Dấu hiệu này cho thấy sự lan rộng của vùng nhồi máu.
+*   **Mất ranh giới trắng-xám (44,57%):** Sự khác biệt về mật độ giữa chất trắng và chất xám bị giảm hoặc mất đi, cho thấy tổn thương nhu mô não đáng kể.
+**Trên CHT (được thực hiện ở 4 bệnh nhân trong nghiên cứu, thường dùng để chẩn đoán khi CLVT chưa rõ ràng hoặc đánh giá thêm):**
+*   **Tăng tín hiệu trên Diffusion (DWI - 100%):** Đây là dấu hiệu nhạy nhất và sớm nhất của nhồi máu não cấp, xuất hiện chỉ trong vài phút sau khởi phát. Dấu hiệu này cho thấy sự hạn chế khuếch tán của nước trong các tế bào thiếu oxy, biểu hiện của phù nề tế bào. Mọi bác sĩ cần nhớ DWI là 'tiêu chuẩn vàng' để xác định vùng nhồi máu cấp.
+*   **Tăng tín hiệu nhu mô não trên FLAIR (100%):** Dấu hiệu này thường xuất hiện muộn hơn DWI, sau khoảng 4-6 giờ. Tuy nhiên, nếu thấy tăng tín hiệu trên FLAIR kết hợp với tăng tín hiệu trên DWI, nó có thể giúp ước tính thời gian khởi phát (DWI-FLAIR mismatch) và mở rộng cửa sổ điều trị.
+*   **Tăng tín hiệu mạch máu trên FLAIR (20%):** Dấu hiệu này ít gặp hơn nhưng có thể gợi ý tình trạng tắc mạch máu.
+**Lời khuyên cho bác sĩ trẻ:**
+1.  **Thực hành đọc hình ảnh:** Dành thời gian xem các ca lâm sàng thực tế, tập trung vào việc nhận diện các dấu hiệu trên CLVT và CHT. Sử dụng các tài nguyên trực tuyến, sách giáo khoa chẩn đoán hình ảnh thần kinh.
+2.  **Học hỏi từ chuyên gia:** Đừng ngần ngại hỏi ý kiến các bác sĩ chẩn đoán hình ảnh hoặc bác sĩ thần kinh giàu kinh nghiệm về các trường hợp khó.
+3.  **Tích hợp lâm sàng:** Luôn kết hợp thông tin hình ảnh với bệnh sử, triệu chứng lâm sàng và thời gian khởi phát để đưa ra chẩn đoán và kế hoạch điều trị toàn diện.
+4.  **Hiểu ICD-10:** Với nhồi máu não, mã chính thường là I63.x, trong đó .0 đến .9 biểu thị vị trí và loại tắc mạch. Việc hiểu rõ mã hóa giúp bạn ghi nhận chính xác tình trạng bệnh và phục vụ mục đích thống kê, nghiên cứu.
+Việc làm chủ các kỹ năng này sẽ giúp bạn trở thành một bác sĩ tự tin và hiệu quả trong cấp cứu đột quỵ.</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr"/>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ tư vấn và hướng dẫn về các phương pháp can thiệp mạch máu não và đánh giá hiệu quả điều trị dựa trên ICD-10 và chuẩn mực y khoa.</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Dựa trên dữ liệu nghiên cứu, bác sĩ trẻ nên lưu ý điều gì về các phương pháp tái thông mạch máu (hút huyết khối, stent kéo huyết khối, kết hợp) và cách đánh giá hiệu quả lâm sàng sau can thiệp ở bệnh nhân nhồi máu não tối cấp? Bạn có thể so sánh hiệu quả của các phương pháp này không?</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc lựa chọn phương pháp can thiệp nội mạch phù hợp và đánh giá hiệu quả sau can thiệp là yếu tố then chốt quyết định tiên lượng bệnh nhân nhồi máu não tối cấp (ICD-10: I63.x). Dữ liệu từ nghiên cứu cung cấp những thông tin quan trọng mà các bác sĩ trẻ cần nắm vững:
+**Các phương pháp can thiệp và hiệu quả tái thông (TICI 2b-3):**
+| Phương pháp điều trị | Số trường hợp (n) | Tỷ lệ tái thông tốt (TICI 2b-3) | Tỷ lệ tái thông kém/không (TICI 0-2a) |
+| :------------------- | :---------------- | :------------------------------ | :------------------------------------ |
+| Hút huyết khối đơn thuần | 28                | 14/28 (50%)                     | 14/28 (50%)                           |
+| Stent kéo huyết khối   | 10                | 9/10 (90%)                      | 1/10 (10%)                            |
+| Kết hợp hút - stent kéo | 68                | 53/68 (77,94%)                  | 15/68 (22,06%)                        |
+**Nhận xét và lời khuyên cho bác sĩ trẻ:**
+1.  **Hiệu quả tái thông:**
+    *   **Stent kéo huyết khối** cho thấy tỷ lệ tái thông tốt cao nhất (90%) trong nghiên cứu này, gợi ý đây là một phương pháp rất hiệu quả. Điều này có thể do khả năng bám dính và lấy huyết khối tốt hơn của stent kéo.
+    *   **Kết hợp hút - stent kéo** cũng mang lại tỷ lệ tái thông tốt đáng kể (77,94%). Đây là phương pháp phổ biến và thường được cân nhắc trong các trường hợp huyết khối lớn hoặc phức tạp.
+    *   **Hút huyết khối đơn thuần** có tỷ lệ tái thông tốt thấp nhất (50%). Mặc dù vẫn là một lựa chọn, nhưng có thể cần được cân nhắc cẩn thận hơn hoặc kết hợp với các kỹ thuật khác nếu tái thông ban đầu không đạt.
+2.  **Đánh giá mức độ tái thông bằng thang điểm TICI:**
+    *   **TICI 2b-3 (Tái thông tốt):** Nghiên cứu ghi nhận 76/96 trường hợp (79,17%) đạt TICI 2b-3, trong đó 44 trường hợp (45,83%) tái thông hoàn toàn (TICI 3). Mức độ tái thông càng cao thì tiên lượng lâm sàng càng tốt.
+    *   **TICI 0-2a (Tái thông kém hoặc không):** Khoảng 20,83% trường hợp thuộc nhóm này, cho thấy cần phải xem xét lại các yếu tố ảnh hưởng đến kỹ thuật hoặc chọn lựa bệnh nhân.
+**Đánh giá hiệu quả hồi phục lâm sàng sau 3 tháng bằng thang điểm mRS (modified Rankin Scale):**
+*   **Hồi phục lâm sàng tốt (mRS 0-2):** 46/96 trường hợp (47,92%). Mục tiêu của mọi can thiệp là đạt được kết quả này, cho phép bệnh nhân có thể tự lập trong sinh hoạt hàng ngày.
+*   **Hồi phục kém (mRS 3-5):** 42/96 trường hợp (43,75%). Bệnh nhân cần sự hỗ trợ đáng kể trong sinh hoạt.
+*   **Tử vong (mRS 6):** 8/96 trường hợp (8,33%). Mặc dù tỷ lệ tử vong đã giảm đáng kể nhờ can thiệp, đây vẫn là một biến cố nghiêm trọng.
+**Lời khuyên cho bác sĩ trẻ:**
+1.  **Thực hành kỹ thuật:** Nếu có cơ hội, hãy tham gia các khóa huấn luyện thực hành về can thiệp nội mạch để làm quen với các kỹ thuật hút huyết khối và sử dụng stent kéo. Hiểu rõ ưu nhược điểm của từng phương pháp.
+2.  **Đánh giá ca lâm sàng:** Sau mỗi ca can thiệp, hãy đánh giá lại mức độ tái thông (TICI) và liên hệ với kết quả lâm sàng sau đó (mRS). Điều này giúp bạn rút kinh nghiệm và cải thiện kỹ năng.
+3.  **Học hỏi liên tục:** Lĩnh vực can thiệp nội mạch đột quỵ đang phát triển rất nhanh. Luôn cập nhật các hướng dẫn mới nhất và nghiên cứu lâm sàng để áp dụng vào thực hành.
+4.  **Quản lý toàn diện:** Nhớ rằng can thiệp nội mạch chỉ là một phần của quá trình điều trị. Việc quản lý sau can thiệp, phục hồi chức năng và phòng ngừa tái phát cũng cực kỳ quan trọng để đạt được kết quả lâm sàng tốt nhất.</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr"/>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, nhấn mạnh quản lý thời gian vàng trong đột quỵ nhồi máu não và tối ưu hóa quy trình.</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Trong quản lý nhồi máu não tối cấp, tầm quan trọng của 'thời gian vàng' được thể hiện qua các chỉ số thời gian nào và làm thế nào để tối ưu hóa quy trình từ khởi phát triệu chứng đến tái thông mạch máu? Hãy đưa ra các khuyến nghị cụ thể cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Chào bạn, trong điều trị nhồi máu não tối cấp (ICD-10: I63.x), 'thời gian vàng' (time is brain) là một khái niệm tối quan trọng. Mỗi phút chậm trễ có thể làm mất đi hàng triệu neuron thần kinh, ảnh hưởng nghiêm trọng đến kết cục của bệnh nhân. Dữ liệu từ nghiên cứu này đã chỉ rõ các chỉ số thời gian quan trọng:
+*   **Thời gian từ khi khởi phát đến khi can thiệp mạch máu:** Trung bình 457,86 ± 291,26 phút (khoảng 7,6 giờ). Thời gian này cần được rút ngắn tối đa để bệnh nhân có cơ hội tốt nhất được hưởng lợi từ can thiệp.
+*   **Thời gian từ khi khởi phát đến khi tái thông (TICI 2b-3):** Trung bình 533,52 ± 248,17 phút (khoảng 8,9 giờ), sớm nhất là 120 phút (2 giờ), muộn nhất là 1995 phút (33,25 giờ). Mục tiêu là đạt tái thông càng sớm càng tốt, lý tưởng là trong vòng 6 giờ, hoặc có thể mở rộng đến 24 giờ với các tiêu chí lựa chọn bệnh nhân chặt chẽ dựa trên chẩn đoán hình ảnh.
+*   **Thời gian từ khi nhập viện đến khi can thiệp mạch máu:** Trung bình 134,72 ± 138,84 phút (khoảng 2,2 giờ). Đây là chỉ số quan trọng để đánh giá hiệu quả tổ chức của bệnh viện, còn được gọi là 'door-to-puncture time' (thời gian từ khi vào viện đến khi chọc mạch).
+*   **Thời gian can thiệp mạch máu:** Trung bình 55,66 ± 38,93 phút. Thời gian này phản ánh kỹ năng và kinh nghiệm của ekip can thiệp.
+*   **Thời gian tái thông mạch máu (TICI 2b-3):** Trung bình 38,87 ± 29,79 phút. Đây là thời gian thực tế để đạt được dòng chảy máu trở lại sau khi bắt đầu can thiệp.
+**Làm thế nào để tối ưu hóa quy trình từ khởi phát triệu chứng đến tái thông mạch máu?**
+Để rút ngắn các 'thời gian vàng' này, cần có sự phối hợp đồng bộ và hiệu quả trên toàn bộ chuỗi cứu sống bệnh nhân đột quỵ:
+1.  **Giai đoạn trước bệnh viện:**
+    *   **Nhận diện sớm:** Đào tạo cộng đồng và nhân viên y tế cơ sở về các dấu hiệu đột quỵ (FAST: Face drooping, Arm weakness, Speech difficulty, Time to call 115) để người dân gọi cấp cứu kịp thời.
+    *   **Vận chuyển nhanh:** Hệ thống xe cấp cứu ưu tiên vận chuyển bệnh nhân đột quỵ đến trung tâm đột quỵ chuyên sâu (stroke center) gần nhất.
+    *   **Thông báo trước:** Xe cấp cứu cần thông báo trước cho bệnh viện về trường hợp đột quỵ sắp đến để đội ngũ cấp cứu chuẩn bị sẵn sàng.
+2.  **Giai đoạn tại bệnh viện:**
+    *   **Phân loại ưu tiên:** Bệnh nhân đột quỵ cần được ưu tiên hàng đầu tại phòng cấp cứu (triaging).
+    *   **Quy trình khẩn cấp:** Thiết lập và tuân thủ các quy trình cấp cứu đột quỵ (stroke code/stroke alert) để đẩy nhanh quá trình đánh giá lâm sàng, xét nghiệm và chẩn đoán hình ảnh.
+    *   **Chẩn đoán hình ảnh nhanh:** CLVT hoặc CHT cần được thực hiện ngay lập tức sau khi bệnh nhân đến, với các bác sĩ chẩn đoán hình ảnh sẵn sàng đọc kết quả.
+    *   **Đội ngũ can thiệp sẵn sàng:** Đội ngũ bác sĩ can thiệp, kỹ thuật viên cần luôn trong trạng thái sẵn sàng để tiến hành thủ thuật ngay khi có chỉ định.
+    *   **Phối hợp liên chuyên khoa:** Sự phối hợp chặt chẽ giữa cấp cứu, thần kinh, chẩn đoán hình ảnh, can thiệp nội mạch và hồi sức là yếu tố then chốt.
+**Khuyến nghị cụ thể cho bác sĩ trẻ và sinh viên y khoa:**
+*   **Hiểu rõ phác đồ:** Nắm vững phác đồ xử trí đột quỵ cấp của Bộ Y tế và bệnh viện bạn đang công tác. Điều này bao gồm tiêu chuẩn chỉ định và chống chỉ định của tiêu sợi huyết đường tĩnh mạch và can thiệp nội mạch.
+*   **Tham gia các buổi báo cáo ca lâm sàng:** Học hỏi từ các trường hợp thực tế về việc tối ưu hóa thời gian và những khó khăn thường gặp.
+*   **Thực hành kỹ năng giao tiếp:** Học cách truyền đạt thông tin khẩn cấp một cách rõ ràng và hiệu quả cho các thành viên khác trong đội ngũ và người nhà bệnh nhân.
+*   **Tập trung vào 'door-to-puncture time':** Trong vai trò của mình, hãy luôn nghĩ cách để rút ngắn thời gian từ khi bệnh nhân vào viện đến khi được can thiệp. Điều này có thể bao gồm việc chuẩn bị hồ sơ nhanh, lấy mẫu xét nghiệm song song với chụp chiếu, và di chuyển bệnh nhân hiệu quả.
+*   **Học hỏi từ các trung tâm đột quỵ:** Tham khảo mô hình hoạt động của các trung tâm đột quỵ hàng đầu để hiểu rõ hơn về cách họ tối ưu hóa quy trình và đạt được kết quả tốt nhất.
+Việc cải thiện các chỉ số thời gian này không chỉ là một mục tiêu kỹ thuật mà còn là trách nhiệm đạo đức của mỗi nhân viên y tế trong việc cứu sống và giảm thiểu tàn phế cho bệnh nhân đột quỵ.</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Làm thế nào để một bác sĩ trẻ có thể đánh giá và lựa chọn phương pháp can thiệp lấy huyết khối tối ưu cho bệnh nhân nhồi máu não cấp, dựa trên hiệu quả lâm sàng và bằng chứng hiện có?</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ trẻ, việc lựa chọn phương pháp can thiệp lấy huyết khối trong nhồi máu não cấp là một quyết định lâm sàng quan trọng, đòi hỏi sự hiểu biết sâu sắc về kỹ thuật và bằng chứng khoa học. Dựa trên nghiên cứu được trích dẫn:
+*   **Hiệu quả của hút huyết khối đơn thuần:** Nghiên cứu cho thấy nhóm sử dụng dụng cụ hút huyết khối đơn thuần có tỷ lệ hồi phục lâm sàng tốt (mRS≤2) là 77,78%, cao hơn đáng kể so với nhóm kết hợp hút và stent (36,84%). Điều này gợi ý rằng đối với một số trường hợp chọn lọc, hút huyết khối đơn thuần có thể mang lại kết quả rất khả quan. Các em cần tìm hiểu kỹ về đặc điểm giải phẫu mạch máu và vị trí huyết khối để đánh giá khả năng áp dụng phương pháp này.
+*   **Tiêu chí đánh giá hồi phục lâm sàng:** Chỉ số mRS (modified Rankin Scale) là công cụ chuẩn để đánh giá mức độ tàn tật sau đột quỵ. mRS≤2 được coi là hồi phục lâm sàng tốt, nghĩa là bệnh nhân có thể tự sinh hoạt mà không cần trợ giúp hoặc có triệu chứng nhẹ. Mục tiêu của mọi can thiệp là đạt được mRS tốt nhất cho bệnh nhân.
+*   **Phối hợp với bằng chứng khác:** Mặc dù nghiên cứu này chỉ ra ưu thế của hút huyết khối đơn thuần trong một số khía cạnh, các em cần tham khảo thêm các nghiên cứu quốc tế lớn khác như PROMISE, Aquilla S Turk để có cái nhìn tổng thể. Đôi khi, sự kết hợp các kỹ thuật hoặc sử dụng stent kéo huyết khối sẽ tối ưu cho các trường hợp huyết khối cứng, dính hoặc vị trí khó tiếp cận.
+*   **Thực hành và kinh nghiệm:** Quyết định cuối cùng cần dựa trên kinh nghiệm của đội ngũ can thiệp, trang thiết bị sẵn có và đặc điểm riêng của từng bệnh nhân. Các em cần tích cực học hỏi từ các chuyên gia giàu kinh nghiệm và tham gia vào các ca lâm sàng để rèn luyện kỹ năng.</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị đột quỵ não cấp của Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các khuyến nghị lâm sàng chi tiết và cập nhật nhất về quản lý đột quỵ nhồi máu cấp tại Việt Nam, bao gồm chỉ định và kỹ thuật can thiệp nội mạch, giúp bác sĩ nắm vững quy trình điều trị theo chuẩn quốc gia.</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Kỹ thuật can thiệp nội mạch trong điều trị đột quỵ nhồi máu não cấp</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào các phương pháp can thiệp nội mạch hiện đại như hút huyết khối đơn thuần và kéo stent, so sánh hiệu quả và chỉ định của từng kỹ thuật. Khóa học sẽ giúp bác sĩ nâng cao kỹ năng thực hành và ra quyết định lâm sàng trong các tình huống thực tế.</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Đối với một sinh viên y khoa, những dấu hiệu hình ảnh quan trọng nào cần nhận biết trên MSCT và MRI để chẩn đoán nhồi máu não cấp tuần hoàn trước một cách chính xác?</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Chào các em sinh viên y khoa, việc nắm vững các dấu hiệu hình ảnh sớm của nhồi máu não là vô cùng quan trọng để chẩn đoán và điều trị kịp thời. Khi đọc phim MSCT và MRI, các em cần chú ý những điểm sau:
+*   **Trên MSCT (trước tiêm thuốc cản quang):**
+    *   **Dấu hiệu nhồi máu sớm (early infarct signs):** Nghiên cứu này ghi nhận 95,65% trường hợp có dấu hiệu thay đổi sớm trên phim chụp trước tiêm. Các dấu hiệu cụ thể cần nhận biết bao gồm:
+        *   **Giảm tỷ trọng hạch nền (65,22%):** Đây là một dấu hiệu sớm cho thấy phù tế bào.
+        *   **Xóa dải băng thùy đảo (insular ribbon sign) (50%):** Mất đi ranh giới rõ ràng của vỏ não vùng thùy đảo.
+        *   **Xóa rãnh cuộn não (sulcal effacement) (33,7%):** Các rãnh não trở nên nông hơn do phù nề.
+        *   **Dấu hiệu tăng tỷ trọng của động mạch não giữa (hyperdense MCA sign) (55,43%):** Dấu hiệu trực tiếp của cục huyết khối trong lòng động mạch.
+    *   **Vị trí tắc mạch:** Nghiên cứu chỉ ra tỷ lệ tắc động mạch cảnh trong (36,46%), động mạch não giữa đoạn M1 (63,54%) và M2 (14,58%). Các em cần biết cách định vị các động mạch này trên phim để xác định vị trí tắc chính xác.
+*   **Trên MRI (đặc biệt là xung DWI và FLAIR):**
+    *   **Xung khuếch tán (DWI - Diffusion-Weighted Imaging):** 100% bệnh nhân có biểu hiện tăng tín hiệu vùng nhu mô não tổn thương trên xung DWI. Đây là dấu hiệu nhạy nhất và sớm nhất để phát hiện nhồi máu cấp.
+    *   **Xung FLAIR (Fluid-Attenuated Inversion Recovery):** 100% vùng nhu mô tổn thương tăng tín hiệu trên xung FLAIR, và 20% có dấu hiệu tăng tín hiệu tại vị trí động mạch tắc. Xung FLAIR giúp phân biệt nhồi máu cấp với tổn thương cũ và đánh giá thời gian khởi phát.
+Các em hãy dành thời gian thực hành đọc phim thật nhiều, kết hợp với kiến thức giải phẫu và sinh lý bệnh, để có thể đưa ra chẩn đoán nhanh chóng và chính xác, góp phần vào thành công của quá trình điều trị.</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Chẩn đoán hình ảnh thần kinh: Các bệnh lý đột quỵ</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Cuốn sách này đi sâu vào các kỹ thuật chẩn đoán hình ảnh tiên tiến cho đột quỵ, đặc biệt là MSCT và MRI, giúp bác sĩ lâm sàng và chẩn đoán hình ảnh hiểu rõ các dấu hiệu sớm, vị trí tắc mạch và phân biệt các loại đột quỵ.</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Đọc và diễn giải hình ảnh CT/MRI trong đột quỵ não cấp</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành chuyên sâu về phân tích hình ảnh CT và MRI trong đột quỵ cấp, cung cấp các ca lâm sàng thực tế và hướng dẫn đọc phim theo chuẩn quốc tế. Khóa học này rất hữu ích cho bác sĩ chẩn đoán hình ảnh, bác sĩ cấp cứu và sinh viên y khoa muốn nâng cao kỹ năng đọc phim.</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Tại sao việc rút ngắn các khoảng thời gian trong chuỗi điều trị đột quỵ nhồi máu não cấp lại quan trọng, và sinh viên y khoa cần hiểu về tiên lượng lâm sàng qua mRS và tỷ lệ tử vong như thế nào để tư vấn bệnh nhân và người nhà?</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Chào các em sinh viên y khoa, trong điều trị đột quỵ nhồi máu não, câu nói 'Thời gian là não' (Time is brain) không chỉ là một khẩu hiệu mà là nguyên tắc sống còn. Việc rút ngắn mọi khoảng thời gian từ khi khởi phát triệu chứng đến khi tái thông mạch máu là cực kỳ quan trọng vì:
+*   **Giảm thiểu tổn thương não:** Mỗi phút trôi qua, hàng triệu tế bào não có thể bị hoại tử do thiếu máu. Can thiệp càng sớm, khả năng cứu vãn vùng não thiếu máu (penumbra) càng cao, từ đó cải thiện tiên lượng chức năng cho bệnh nhân.
+*   **Các mốc thời gian quan trọng trong nghiên cứu này và ý nghĩa lâm sàng:**
+    *   **Thời gian khởi phát đến nhập viện:** Trung bình 323,15 ± 206,74 phút. Đây là khoảng thời gian bệnh nhân và gia đình thường mất để nhận biết triệu chứng và đưa bệnh nhân đến bệnh viện. Việc giáo dục cộng đồng về các dấu hiệu đột quỵ (như FAST: Face drooping, Arm weakness, Speech difficulty, Time to call 115) là rất cần thiết để rút ngắn mốc này.
+    *   **Thời gian nhập viện đến can thiệp:** Trung bình 134,72 ± 138,84 phút. Khoảng thời gian này phụ thuộc vào tốc độ đánh giá, chẩn đoán hình ảnh, xét nghiệm và chuẩn bị can thiệp của đội ngũ y tế. Các quy trình cấp cứu đột quỵ cần được chuẩn hóa để tối ưu hóa mốc thời gian này.
+    *   **Thời gian tái thông mạch máu:** Trung bình 38,87 ± 29,79 phút. Đây là thời gian thực hiện kỹ thuật can thiệp. Kỹ năng của kíp can thiệp đóng vai trò then chốt.
+*   **Hiểu về tiên lượng lâm sàng qua mRS và tỷ lệ tử vong:**
+    Các em cần hiểu rằng chỉ số mRS (modified Rankin Scale) là thước đo chuẩn để đánh giá mức độ tàn tật và độc lập của bệnh nhân sau đột quỵ.
+    *   **mRS 0-2:** Được coi là hồi phục lâm sàng tốt, bệnh nhân có thể sống độc lập. Nghiên cứu này ghi nhận tỷ lệ hồi phục tốt là 47,92%. Mặc dù thấp hơn một số nghiên cứu quốc tế, đây vẫn là một kết quả đáng khích lệ trong bối cảnh lâm sàng thực tế.
+    *   **mRS 3-5:** Là hồi phục kém hoặc phụ thuộc nhiều.
+    *   **mRS 6:** Tức là bệnh nhân tử vong. Tỷ lệ tử vong trong nghiên cứu là 8,33%.
+    Khi tư vấn cho bệnh nhân và người nhà, các em cần giải thích rõ ràng về khả năng hồi phục, các yếu tố ảnh hưởng và tầm quan trọng của việc tuân thủ điều trị, phục hồi chức năng sau đó. Việc cung cấp thông tin chính xác, khoa học và đáng tin cậy sẽ giúp họ đưa ra quyết định phù hợp và có sự chuẩn bị tâm lý tốt nhất.
+**Kết quả lâm sàng tổng quát (mRS) của nghiên cứu:**
+| Chỉ số mRS | Mức độ hồi phục | Số lượng bệnh nhân (n=96) | Tỷ lệ (%) |
+| :--------- | :--------------- | :----------------------- | :-------- |
+| 0-2        | Hồi phục tốt     | 46                       | 47,92     |
+| 3-5        | Hồi phục kém     | 42                       | 43,75     |
+| 6          | Tử vong          | 8                        | 8,33      |
+Thông tin này giúp các em có cái nhìn tổng quan về kết cục của bệnh nhân đột quỵ được can thiệp lấy huyết khối.</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>ICD-10: Phân loại bệnh tật quốc tế - Chương IX: Các bệnh của hệ tuần hoàn (I00-I99)</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Đây là tài liệu chuẩn quốc tế của Tổ chức Y tế Thế giới (WHO) về phân loại bệnh tật. Việc nắm vững các mã ICD-10 liên quan đến đột quỵ (ví dụ: I63 cho nhồi máu não) giúp chuẩn hóa việc ghi chép hồ sơ bệnh án, nghiên cứu và thống kê y tế.</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Quản lý thời gian vàng trong điều trị đột quỵ nhồi máu não cấp</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>Khóa học này tập trung vào tối ưu hóa các quy trình cấp cứu đột quỵ, từ nhận diện sớm đến vận chuyển, chẩn đoán và can thiệp nhanh chóng. Khóa học cung cấp các chiến lược thực hành để rút ngắn các mốc thời gian quan trọng, nhằm nâng cao tỷ lệ hồi phục và giảm tỷ lệ tử vong cho bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn bác sĩ trẻ và sinh viên y khoa về thực hành chuyên môn.</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, làm thế nào để chẩn đoán nhồi máu não cấp do tắc mạch lớn tuần hoàn trước một cách hiệu quả, đặc biệt là với các phương pháp hình ảnh được đề cập trong nghiên cứu?</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, việc chẩn đoán chính xác và kịp thời nhồi máu não cấp do tắc mạch lớn tuần hoàn trước là bước then chốt quyết định kết quả điều trị. Dựa trên nghiên cứu này và thực hành lâm sàng, các bạn cần lưu ý:
+*   **Thăm khám lâm sàng nhanh chóng**: Đánh giá nhanh tình trạng thần kinh (sử dụng thang điểm NIHSS), xác định thời gian khởi phát triệu chứng để đưa ra quyết định điều trị kịp thời.
+*   **Vai trò của hình ảnh học**:
+    *   **Cắt lớp vi tính đa dãy (MSCT)**: Đây là phương pháp chẩn đoán ban đầu được ưu tiên hàng đầu tại hầu hết các cơ sở y tế do tính sẵn có và tốc độ.
+        *   **MSCT sọ não không tiêm thuốc**: Giúp loại trừ chảy máu não. Cần tìm các dấu hiệu nhồi máu sớm như mất ranh giới chất xám - chất trắng, dấu hiệu động mạch não giữa tăng đậm độ (hyperdense MCA sign), hoặc phù não khu trú. Nghiên cứu cho thấy 95,65% trường hợp quan sát thấy dấu hiệu nhồi máu sớm trên MSCT.
+        *   **MSCT mạch máu não (CTA)**: Cực kỳ quan trọng để xác định vị trí tắc mạch lớn. Nghiên cứu chỉ ra các vị trí tắc mạch thường gặp nhất là động mạch não giữa đoạn M1 (63,54%), sau đó là động mạch cảnh trong (36,64%) và động mạch não giữa đoạn M2 (14,58%). Việc xác định vị trí tắc chính xác giúp định hướng phương pháp lấy huyết khối.
+        *   **MSCT tưới máu não (CTP)**: Giúp đánh giá vùng lõi nhồi máu (infarct core) và vùng tranh tối tranh sáng (penumbra), từ đó quyết định xem bệnh nhân còn cơ hội điều trị tái tưới máu hay không, đặc biệt trong cửa sổ điều trị mở rộng.
+    *   **Cộng hưởng từ (CHT - MRI)**: Mặc dù mất nhiều thời gian hơn, MRI, đặc biệt là chuỗi xung DWI (Diffusion-Weighted Imaging), là tiêu chuẩn vàng để phát hiện nhồi máu não cấp và phân biệt với các tổn thương cũ. MRI cũng cung cấp thông tin chi tiết hơn về vùng tranh tối tranh sáng và mức độ phù não.
+*   **ICD-10**: Đối với nhồi máu não cấp, mã ICD-10 thường nằm trong nhóm **I63.x**. Ví dụ: I63.3 (Nhồi máu não do huyết khối động mạch não) hoặc I63.4 (Nhồi máu não do tắc mạch động mạch não). Việc mã hóa chính xác giúp theo dõi dịch tễ và quản lý bệnh lý.
+Hãy nhớ rằng, tốc độ là yếu tố sống còn. Quy trình chẩn đoán cần được thực hiện nhanh nhất có thể để bệnh nhân có cơ hội tốt nhất để phục hồi.</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị đột quỵ não cấp của Bộ Y tế</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các khuyến nghị và quy trình chuẩn về chẩn đoán và điều trị đột quỵ não cấp tại Việt Nam, bao gồm chi tiết về các phương pháp hình ảnh học.</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu: Hình ảnh học thần kinh trong chẩn đoán đột quỵ cấp</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>Khóa học này sẽ đi sâu vào kỹ thuật đọc và phân tích hình ảnh MSCT và MRI trong chẩn đoán nhồi máu não cấp, đặc biệt là tắc mạch lớn, giúp các bác sĩ nâng cao kỹ năng lâm sàng và ra quyết định.</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn bác sĩ trẻ và sinh viên y khoa về thực hành chuyên môn.</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Để điều trị nhồi máu não cấp do tắc mạch lớn tuần hoàn trước, chuyên gia có thể giải thích chi tiết về hai phương pháp chính là tiêu sợi huyết tĩnh mạch và lấy huyết khối cơ học, cùng với các yếu tố cần cân nhắc khi lựa chọn phương pháp không dùng thuốc tiêu sợi huyết?</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Chào các đồng nghiệp trẻ, đây là một câu hỏi rất quan trọng trong quản lý đột quỵ cấp. Việc hiểu rõ hai phương pháp điều trị chính là chìa khóa để cứu sống và giảm thiểu tàn phế cho bệnh nhân.
+**1. Điều trị tiêu sợi huyết tĩnh mạch (IV Thrombolysis)**:
+*   **Nguyên lý**: Sử dụng thuốc Alteplase (rtPA) tiêm tĩnh mạch để làm tan cục máu đông.
+*   **Chỉ định**: Dành cho bệnh nhân nhập viện sớm trong "cửa sổ vàng" 4,5 giờ đầu tiên tính từ lúc khởi phát triệu chứng.
+*   **Hạn chế**: Theo nghiên cứu, tỷ lệ tái thông không cao, đặc biệt với các trường hợp tắc mạch lớn, và có nguy cơ tái tắc mạch sau điều trị.
+*   **ICD-10 liên quan**: Điều trị này có thể áp dụng cho bệnh nhân có mã I63.x.
+**2. Điều trị lấy huyết khối cơ học (Mechanical Thrombectomy - EVT)**:
+*   **Nguyên lý**: Sử dụng các dụng cụ chuyên biệt (thường là stent retriever hoặc kỹ thuật hút trực tiếp ADAPT) đưa qua đường động mạch để lấy cục huyết khối ra khỏi lòng mạch.
+*   **Chỉ định**:
+    *   Bệnh nhân đến trong cửa sổ 4,5 giờ đầu nhưng có chống chỉ định với tiêu sợi huyết tĩnh mạch.
+    *   Bệnh nhân đến sau 4,5 giờ đến 6 giờ (ngoài cửa sổ điều trị của thuốc tiêu sợi huyết).
+    *   Bệnh nhân đến sau 6 giờ với cửa sổ điều trị mở rộng được khuyến cáo đến 16 giờ và 24 giờ cho bệnh nhân phù hợp với tiêu chuẩn DAWN và DEFUSE-3. Điều này yêu cầu đánh giá hình ảnh tưới máu não kỹ lưỡng để xác định vùng tranh tối tranh sáng.
+    *   Bệnh nhân không đáp ứng với tiêu sợi huyết tĩnh mạch (tắc mạch lớn tái phát hoặc không tái thông).
+*   **Ưu điểm**: Nghiên cứu đã chứng minh phương pháp này có tỷ lệ tái thông cao và hồi phục lâm sàng sau 3 tháng tốt, đặc biệt hiệu quả với tắc mạch lớn tuần hoàn trước mà không cần dùng thuốc tiêu sợi huyết.
+**Khi nào cân nhắc không dùng thuốc tiêu sợi huyết trước lấy huyết khối cơ học?**
+Nghiên cứu bạn đọc tập trung vào nhóm bệnh nhân "không dùng thuốc tiêu sợi huyết" trước lấy huyết khối cơ học. Các tình huống này bao gồm:
+*   **Chống chỉ định tuyệt đối với tiêu sợi huyết**: Ví dụ, tiền sử chảy máu nội sọ, phẫu thuật lớn gần đây, INR cao, số lượng tiểu cầu thấp, huyết áp không kiểm soát.
+*   **Đến muộn ngoài cửa sổ 4,5 giờ**: Đây là chỉ định rõ ràng cho lấy huyết khối cơ học dựa trên hình ảnh học (CTP/MRI).
+*   **Nghi ngờ tắc mạch lớn ngay từ đầu**: Một số trung tâm có thể ưu tiên chuyển thẳng sang lấy huyết khối cơ học nếu nghi ngờ cao tắc mạch lớn và thời gian là yếu tố then chốt, hoặc khi có các bằng chứng từ hình ảnh học ban đầu chỉ ra một cục huyết khối lớn khó tan bằng thuốc.
+*   **Tiêu chuẩn DAWN và DEFUSE-3**: Đây là các tiêu chuẩn hình ảnh học nâng cao giúp mở rộng cửa sổ điều trị cho lấy huyết khối cơ học lên đến 16 hoặc 24 giờ dựa trên sự chênh lệch giữa vùng lõi nhồi máu và vùng tranh tối tranh sáng.
+Việc ra quyết định luôn cần sự phối hợp đa chuyên khoa giữa bác sĩ cấp cứu, bác sĩ thần kinh, bác sĩ chẩn đoán hình ảnh và bác sĩ can thiệp nội mạch, đảm bảo quy trình nhanh chóng và chính xác cho từng bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Các hướng dẫn quốc tế về đột quỵ cấp (AHA/ASA Guidelines for Acute Ischemic Stroke)</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Tập hợp các hướng dẫn lâm sàng cập nhật nhất từ Hiệp hội Tim mạch Hoa Kỳ và Hiệp hội Đột quỵ Hoa Kỳ, bao gồm các khuyến nghị chi tiết về tiêu sợi huyết và lấy huyết khối cơ học.</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Quản lý đột quỵ cấp: Từ chẩn đoán đến can thiệp</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>Khóa học toàn diện này sẽ cung cấp kiến thức và kỹ năng cần thiết để chẩn đoán, đánh giá và quản lý đột quỵ cấp, với sự tập trung vào các chiến lược điều trị tái tưới máu tiên tiến.</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hướng dẫn bác sĩ trẻ và sinh viên y khoa về thực hành chuyên môn.</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Nghiên cứu nhấn mạnh hiệu quả tốt của lấy huyết khối cơ học. Vậy, để đảm bảo kết quả tối ưu cho bệnh nhân nhồi máu não cấp do tắc mạch lớn, các bác sĩ trẻ cần lưu ý những tiêu chí lựa chọn bệnh nhân nào và những yếu tố nào ảnh hưởng đến sự phục hồi lâm sàng sau thủ thuật?</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Các bạn cần hiểu rằng, mặc dù lấy huyết khối cơ học (EVT) là một phương pháp rất hiệu quả, nhưng việc lựa chọn bệnh nhân đúng đắn là chìa khóa để đạt được kết quả lâm sàng tốt nhất. Đây là những điểm các bạn cần đặc biệt chú ý:
+**1. Tiêu chí lựa chọn bệnh nhân cho Lấy Huyết Khối Cơ Học (EVT)**:
+*   **Chẩn đoán nhồi máu não cấp**: Mã ICD-10 **I63.x**.
+*   **Tắc mạch lớn tuần hoàn trước**: Như đã nêu trong nghiên cứu (động mạch não giữa M1/M2, động mạch cảnh trong). Xác định bằng CTA hoặc MRA.
+*   **Thời gian từ khởi phát triệu chứng**:
+    *   Trong vòng 6 giờ: Bệnh nhân có thể được chỉ định EVT mà không cần hình ảnh tưới máu phức tạp (nếu không có chống chỉ định).
+    *   Từ 6 đến 24 giờ: Yêu cầu hình ảnh tưới máu não (CTP hoặc MRI Perfusion) để xác định vùng lõi nhồi máu nhỏ và vùng tranh tối tranh sáng lớn (phù hợp với tiêu chuẩn DAWN hoặc DEFUSE-3).
+*   **Thang điểm NIHSS**: Thường là NIHSS ≥ 6 điểm (mức độ nặng đến trung bình).
+*   **Thang điểm ASPECTS (Alberta Stroke Program Early CT Score)**: Đánh giá mức độ tổn thương nhu mô não sớm trên CT không thuốc. ASPECTS cao (≥ 6) cho thấy vùng lõi nhồi máu nhỏ, có lợi hơn.
+*   **Không có chảy máu nội sọ** trên hình ảnh CT ban đầu.
+*   **Tuổi**: Mặc dù tuổi tác không phải là chống chỉ định tuyệt đối, nhưng cần cân nhắc kỹ hơn ở bệnh nhân rất cao tuổi hoặc có nhiều bệnh nền.
+*   **Chống chỉ định của tiêu sợi huyết tĩnh mạch** (nếu bệnh nhân đến trong cửa sổ 4.5h và có tắc mạch lớn) hoặc **thất bại của tiêu sợi huyết tĩnh mạch**.
+**2. Các yếu tố ảnh hưởng đến sự phục hồi lâm sàng sau EVT**:
+Nghiên cứu của Bệnh viện Bạch Mai cho thấy tỷ lệ tái thông cao và hồi phục lâm sàng sau 3 tháng tốt. Các yếu tố chính tác động đến kết quả bao gồm:
+*   **Thời gian tái tưới máu (Door-to-recanalization time)**: Thời gian càng ngắn, kết quả càng tốt. "Time is brain" – mỗi phút trôi qua là hàng triệu tế bào não chết đi.
+*   **Mức độ tái thông mạch máu**: Đánh giá bằng thang điểm TICI (Thrombolysis in Cerebral Infarction). TICI 2b-3 (tái thông hoàn toàn hoặc gần hoàn toàn) liên quan chặt chẽ với kết quả lâm sàng tốt.
+*   **Kích thước vùng lõi nhồi máu ban đầu**: Vùng lõi nhỏ (ASPECTS cao) có tiên lượng tốt hơn.
+*   **Tuổi và bệnh lý nền của bệnh nhân**: Bệnh nhân trẻ hơn, ít bệnh lý nền thường có khả năng phục hồi tốt hơn.
+*   **Biến chứng thủ thuật**: Như chảy máu nội sọ do thủ thuật, vỡ mạch máu, tắc mạch xa.
+*   **Chăm sóc sau can thiệp**: Điều trị hỗ trợ, kiểm soát huyết áp, đường huyết, nhiệt độ, và đặc biệt là phục hồi chức năng sớm và tích cực.
+**So sánh yếu tố quyết định điều trị và kết quả dự kiến:**
+| Tiêu chí | Tiêu sợi huyết tĩnh mạch (IV Thrombolysis) | Lấy huyết khối cơ học (EVT) |
+| :------ | :--------------------------------------- | :-------------------------- |
+| **Mã ICD-10 chính** | I63.x | I63.x |
+| **Loại tắc mạch** | Thường hiệu quả với tắc mạch nhỏ/vừa, ít hiệu quả với tắc mạch lớn | **Hiệu quả cao với tắc mạch lớn (ví dụ: MCA M1, ICA)** |
+| **Cửa sổ thời gian** | 0 - 4.5 giờ | 0 - 6 giờ (rộng rãi); 6 - 24 giờ (có hình ảnh học phù hợp) |
+| **Cần hình ảnh phụ trợ** | CT sọ não (loại trừ chảy máu) | CT sọ não, CTA/MRA (xác định vị trí tắc, LVO); CTP/MRI Perfusion (cửa sổ mở rộng) |
+| **Tỷ lệ tái thông** | Thấp hơn với LVO | **Cao hơn, đặc biệt với LVO** |
+| **Hồi phục lâm sàng** | Tốt nếu tái thông hoàn toàn, nhưng nguy cơ tái tắc | **Tốt và bền vững hơn nếu tái thông thành công và sớm** |
+Để nâng cao năng lực, các bạn cần thường xuyên tham gia các buổi hội thảo, theo dõi các nghiên cứu mới và thực hành dưới sự hướng dẫn của các chuyên gia giàu kinh nghiệm. Luôn đặt lợi ích và sự an toàn của bệnh nhân lên hàng đầu!</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa Thần kinh học lâm sàng</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Cung cấp kiến thức nền tảng về bệnh lý nhồi máu não, sinh lý bệnh, các phương pháp chẩn đoán và nguyên tắc điều trị, là tài liệu không thể thiếu cho sinh viên và bác sĩ trẻ.</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Hội thảo chuyên đề: Tối ưu hóa lựa chọn bệnh nhân và kết quả sau lấy huyết khối cơ học</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>Hội thảo này tập trung vào các trường hợp lâm sàng phức tạp, thảo luận về cách tối ưu hóa quy trình từ lúc bệnh nhân nhập viện đến khi ra viện để cải thiện kết quả phục hồi chức năng sau lấy huyết khối cơ học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi nào chúng tôi nên cân nhắc thực hiện can thiệp lấy huyết khối cơ học (mechanical thrombectomy) cho bệnh nhân nhồi máu não cấp tính, đặc biệt là những trường hợp không dùng thuốc tiêu sợi huyết? Có những tiêu chuẩn lựa chọn và loại trừ nào chúng tôi cần lưu ý trong thực hành lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng trong quản lý nhồi máu não cấp. Việc lựa chọn bệnh nhân cho can thiệp lấy huyết khối cơ học đòi hỏi sự hiểu biết sâu sắc về các tiêu chuẩn được chứng minh qua các thử nghiệm lâm sàng lớn. Các bác sĩ, đặc biệt là các bạn sinh viên và bác sĩ trẻ, cần nắm vững những điểm sau:
+**I. Tiêu chuẩn lựa chọn bệnh nhân:**
+1.  **Tuổi và Chẩn đoán:** Bệnh nhân từ 18 tuổi trở lên, được chẩn đoán xác định nhồi máu não cấp tính với các dấu hiệu thiếu sót thần kinh rõ ràng, định lượng bằng bảng điểm NIHSS (National Institutes of Health Stroke Scale). Đây là công cụ không thể thiếu để đánh giá mức độ nặng của đột quỵ. ICD-10 mã hóa nhồi máu não cấp là I63.9 (Nhồi máu não không xác định rõ), hoặc chi tiết hơn tùy theo vị trí tắc.
+2.  **Bằng chứng tắc động mạch lớn:** Phải có bằng chứng tắc động mạch lớn tuần hoàn trước, được xác định bằng chụp CLVT mạch máu (CTA) hoặc CHT sọ/mạch não (MRA). Việc xác định vị trí và kích thước cục huyết khối là tối quan trọng.
+3.  **Cửa sổ thời gian can thiệp:**
+    *   **&lt; 4.5 giờ:** Bệnh nhân đến sớm nhưng có chống chỉ định với thuốc tiêu sợi huyết (ví dụ: tiền sử xuất huyết não, phẫu thuật lớn gần đây, INR cao...). Can thiệp cơ học là lựa chọn hàng đầu.
+    *   **4.5 giờ đến 6 giờ:** Đây là cửa sổ 'vàng' truyền thống cho nhiều trường hợp sau khi xem xét các chống chỉ định.
+    *   **6 giờ đến 16 giờ:** Bệnh nhân phù hợp với các tiêu chuẩn của nghiên cứu DAWN và DEFUSE-3 (ví dụ: còn vùng tranh tối tranh sáng lớn trên PWI/CTP). Điều này mở rộng cơ hội cho nhiều bệnh nhân.
+    *   **6 giờ đến 24 giờ:** Bệnh nhân phù hợp với tiêu chuẩn của nghiên cứu DAWN, thường dựa trên sự không phù hợp giữa lâm sàng nặng và thể tích nhồi máu lõi nhỏ trên hình ảnh.
+4.  **Chẩn đoán hình ảnh mở rộng (PWI/CTP):** Đối với bệnh nhân đến sau 6 giờ, việc chụp PWI (Perfusion Weighted Imaging) hoặc CTP (CT Perfusion) là bắt buộc để đánh giá vùng tranh tối tranh sáng (penumbra) và thể tích lõi nhồi máu, giúp xác định xem còn mô não có thể cứu được hay không.
+5.  **Đồng ý điều trị:** Luôn cần sự đồng thuận của gia đình và/hoặc bệnh nhân cho việc điều trị can thiệp.
+**II. Tiêu chuẩn loại trừ bệnh nhân:**
+Các tiêu chuẩn này giúp đảm bảo an toàn và hiệu quả điều trị, tránh các biến chứng:
+*   **Không rõ thời gian khởi phát hoặc không phù hợp tiêu chuẩn hình ảnh/lâm sàng:** Nếu bệnh nhân đến muộn mà không có bằng chứng rõ ràng về vùng tranh tối tranh sáng hoặc không thỏa mãn tiêu chuẩn DAWN/DEFUSE-3.
+*   **Không tắc động mạch lớn:** CLVT/CHT mạch máu hoặc DSA không thấy hình ảnh tắc động mạch não. Không có tắc thì không có gì để lấy.
+*   **Không thể tiếp cận vị trí tắc:** Động mạch quá gấp khúc, dị dạng gây khó khăn hoặc không thể đưa dụng cụ lên được.
+*   **Chảy máu não:** Có bằng chứng chảy máu trên hình ảnh CLVT hoặc CHT. Đây là chống chỉ định tuyệt đối vì can thiệp có thể làm nặng thêm tình trạng chảy máu.
+*   **Các bệnh lý nền nặng:** Chấn thương sọ não nặng, nhồi máu cơ tim hoặc phẫu thuật sọ não trong 3 tháng gần đây. Những tình trạng này tăng nguy cơ biến chứng.
+*   **Huyết áp không kiểm soát:** Huyết áp tâm thu &gt;185mmHg hoặc tâm trương &gt;105mmHg không đáp ứng với thuốc hạ áp (ví dụ: labetalol, nicardipin). Huyết áp cao không kiểm soát làm tăng nguy cơ xuất huyết chuyển dạng.
+*   **Đã dùng thuốc tiêu sợi huyết:** Nếu bệnh nhân đã được dùng thuốc tiêu sợi huyết đường tĩnh mạch, cần cân nhắc kỹ nguy cơ và lợi ích của việc can thiệp cơ học phối hợp, đặc biệt nếu không có tái thông hiệu quả.
+*   **Không thể theo dõi sau điều trị:** Bệnh nhân không tái khám hoặc không đủ thời gian theo dõi, hoặc mất dữ liệu.
+Việc tuân thủ nghiêm ngặt các tiêu chuẩn này là chìa khóa để đạt được kết quả tốt nhất cho bệnh nhân và tránh các tai biến không đáng có.</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị đột quỵ cấp của Bộ Y tế Việt Nam (phiên bản mới nhất)</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các hướng dẫn chi tiết, cập nhật về chẩn đoán và điều trị đột quỵ cấp, bao gồm chỉ định và chống chỉ định của lấy huyết khối cơ học, giúp bác sĩ lâm sàng đưa ra quyết định chính xác dựa trên bằng chứng khoa học và phù hợp với thực tiễn tại Việt Nam.</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu: Quản lý cấp cứu và Can thiệp nội mạch trong đột quỵ nhồi máu não cấp</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp kiến thức toàn diện về sinh lý bệnh, chẩn đoán, đánh giá hình ảnh và kỹ thuật can thiệp lấy huyết khối cơ học. Các buổi thực hành mô phỏng và phân tích ca lâm sàng giúp học viên nâng cao kỹ năng ra quyết định và thực hiện thủ thuật an toàn, hiệu quả. Phù hợp cho bác sĩ thần kinh, bác sĩ hồi sức cấp cứu và bác sĩ chẩn đoán hình ảnh can thiệp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Đối với bệnh nhân nhồi máu não cấp, ý nghĩa của các mốc thời gian khác nhau (ví dụ: &lt;4.5h, 4.5-6h, 6-16h, 6-24h) trong việc quyết định phương pháp điều trị lấy huyết khối cơ học là gì? Chúng tôi cần sử dụng những kỹ thuật chẩn đoán hình ảnh nào để đánh giá bệnh nhân trong các cửa sổ thời gian này?</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Các mốc thời gian trong điều trị nhồi máu não cấp là yếu tố then chốt, bởi vì "thời gian là não" (time is brain). Mỗi mốc thời gian yêu cầu một chiến lược chẩn đoán và điều trị riêng biệt, đặc biệt quan trọng đối với các bác sĩ đang trong giai đoạn đào tạo và thực hành. Hãy cùng xem xét:
+**I. Ý nghĩa của các cửa sổ thời gian:**
+*   **Dưới 4.5 giờ:** Đây là cửa sổ vàng cho điều trị tiêu sợi huyết đường tĩnh mạch (IV tPA). Nếu bệnh nhân có chống chỉ định với IV tPA nhưng có tắc động mạch lớn, hoặc sau khi IV tPA thất bại/có bằng chứng tắc động mạch lớn tái phát, can thiệp lấy huyết khối cơ học cần được cân nhắc khẩn cấp.
+*   **Từ 4.5 giờ đến 6 giờ:** Trong khoảng thời gian này, can thiệp lấy huyết khối cơ học vẫn là chỉ định mạnh mẽ cho tắc động mạch lớn, đặc biệt khi có bằng chứng hiệu quả trên hình ảnh học và ít chống chỉ định. Đây vẫn là một cửa sổ tương đối sớm, cho phép cứu được lượng lớn mô não.
+*   **Từ 6 giờ đến 16 giờ và 6 giờ đến 24 giờ:** Đây là các cửa sổ thời gian mở rộng nhờ các nghiên cứu như DAWN và DEFUSE-3. Sự ra đời của các tiêu chuẩn này đã cách mạng hóa điều trị đột quỵ, cho phép can thiệp ở những bệnh nhân có triệu chứng khởi phát muộn hơn, miễn là có bằng chứng trên hình ảnh về sự không phù hợp giữa mức độ thiếu sót thần kinh và thể tích nhồi máu lõi (tức là còn vùng tranh tối tranh sáng đáng kể).
+**II. Kỹ thuật chẩn đoán hình ảnh cần sử dụng:**
+Chẩn đoán hình ảnh đóng vai trò quyết định trong việc đánh giá bệnh nhân đột quỵ cấp, giúp xác định loại đột quỵ, vị trí tắc nghẽn, và đặc biệt là đánh giá mô não có thể cứu được.
+| Kỹ thuật hình ảnh | Mục đích chính                                                                     | Ứng dụng trong các cửa sổ thời gian        |
+| :----------------- | :--------------------------------------------------------------------------------- | :----------------------------------------- |
+| **CLVT (CT Scan)** | Loại trừ xuất huyết não, phát hiện sớm dấu hiệu nhồi máu (ví dụ: mất rãnh vỏ não, tăng đậm độ động mạch), thang điểm ASPECTS. | Tất cả các cửa sổ, đặc biệt khẩn cấp trong những phút đầu tiên. |
+| **CLVT mạch máu (CTA)** | Xác định vị trí và mức độ tắc nghẽn động mạch lớn (tuần hoàn trước/sau).         | Tất cả các cửa sổ, đặc biệt quan trọng để chỉ định lấy huyết khối. |
+| **CLVT tưới máu não (CTP)** | Đánh giá lưu lượng máu não, thể tích lõi nhồi máu (core infarct) và vùng tranh tối tranh sáng (penumbra). | Cửa sổ mở rộng (6-16h, 6-24h), khi cần đánh giá khả năng cứu vãn mô não. |
+| **CHT sọ (MRI Brain)** | Nhạy cảm hơn CLVT trong phát hiện sớm tổn thương nhồi máu (diffusion-weighted imaging - DWI), loại trừ các tổn thương khác. | Tất cả các cửa sổ, đặc biệt hữu ích trong đột quỵ thức giấc hoặc không rõ thời điểm khởi phát. |
+| **CHT mạch não (MRA)** | Tương tự CTA, nhưng không sử dụng tia X và thường chi tiết hơn cho các mạch máu nhỏ. | Tất cả các cửa sổ, đặc biệt trong trường hợp có dị ứng thuốc cản quang hoặc cần đánh giá chi tiết hơn. |
+| **PWI (Perfusion-weighted Imaging) trên CHT** | Tương tự CTP, đánh giá core và penumbra, cung cấp thông tin sinh lý học về tưới máu. | Cửa sổ mở rộng (6-16h, 6-24h), là tiêu chuẩn vàng để xác định vùng tranh tối tranh sáng. |
+**Lời khuyên cho các bạn:** Việc nắm vững các chỉ định và diễn giải hình ảnh là cực kỳ quan trọng. Luôn hội chẩn với chuyên gia chẩn đoán hình ảnh và bác sĩ can thiệp để đưa ra quyết định tối ưu. Ghi nhớ rằng ngay cả khi bệnh nhân đến muộn, nếu hình ảnh cho thấy còn vùng não có thể cứu được, can thiệp vẫn có thể mang lại lợi ích đáng kể.</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Cẩm nang chẩn đoán hình ảnh trong đột quỵ cấp</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Tài liệu này tổng hợp các kỹ thuật chẩn đoán hình ảnh hiện đại (CT, MRI, CTP, PWI) và cách diễn giải chúng trong bối cảnh đột quỵ nhồi máu não cấp. Nó nhấn mạnh vai trò của hình ảnh trong việc đưa ra quyết định điều trị, đặc biệt là trong các cửa sổ thời gian mở rộng.</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Webinar chuyên đề: Cập nhật các tiêu chuẩn hình ảnh học trong quyết định can thiệp đột quỵ (DAWN &amp; DEFUSE-3)</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>Webinar này tập trung vào việc phân tích các tiêu chuẩn hình ảnh học từ các nghiên cứu DAWN và DEFUSE-3, giúp bác sĩ hiểu rõ cách áp dụng chúng trong thực hành lâm sàng để lựa chọn bệnh nhân cho can thiệp lấy huyết khối cơ học trong cửa sổ thời gian mở rộng, tối ưu hóa kết quả điều trị và giảm thiểu biến chứng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Dựa trên dữ liệu nghiên cứu về nhồi máu não cấp và lấy huyết khối cơ học, chuyên gia có thể chỉ ra những điểm quan trọng về đặc điểm bệnh nhân, thời gian can thiệp và những yếu tố chúng tôi cần cải thiện trong thực hành lâm sàng để tối ưu hóa kết quả điều trị không?</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Dựa trên các dữ liệu được trình bày và kinh nghiệm lâm sàng, tôi có thể chỉ ra một số điểm then chốt mà các bác sĩ trẻ và sinh viên y khoa cần chú ý để cải thiện thực hành và tối ưu hóa kết quả điều trị cho bệnh nhân nhồi máu não cấp, đặc biệt là những ca can thiệp lấy huyết khối cơ học:
+**I. Đặc điểm chung của đối tượng nghiên cứu và ý nghĩa lâm sàng:**
+*   **Tuổi trung bình và phân bố:** Nghiên cứu chỉ ra tuổi trung bình là 67,41 ± 11,15, với đa số bệnh nhân (77,08%) trên 60 tuổi. Điều này khẳng định đột quỵ nhồi máu não là bệnh lý của người lớn tuổi. Khi tiếp cận bệnh nhân cao tuổi, chúng ta cần đặc biệt quan tâm đến các bệnh lý nền đi kèm (ví dụ: tăng huyết áp, đái tháo đường, rung nhĩ – các yếu tố nguy cơ chính của đột quỵ), và đánh giá cẩn thận nguy cơ/lợi ích của can thiệp.
+    *   *Lời khuyên:* Luôn thu thập bệnh sử đầy đủ, đặc biệt là các yếu tố nguy cơ tim mạch. Tư vấn cho người thân về mức độ nghiêm trọng và khả năng phục hồi ở người cao tuổi có thể khác biệt.
+**II. Đặc điểm về thời gian nhập viện, chẩn đoán và can thiệp:**
+Các số liệu về thời gian là những chỉ số quan trọng phản ánh hiệu quả của hệ thống cấp cứu đột quỵ:
+*   **Thời gian Khởi phát - Vào viện (Trung bình 323,15 ± 206,74 phút, hay 119.5 ± 84.5 phút theo nhận xét):** Dù có những trường hợp '0 phút' (khởi phát tại bệnh viện) nhưng con số trung bình này cho thấy một lượng đáng kể bệnh nhân đến viện muộn. Điều này nhấn mạnh tầm quan trọng của việc giáo dục cộng đồng về dấu hiệu đột quỵ (FAST: Face drooping, Arm weakness, Speech difficulty, Time to call 115) và sự cần thiết của hệ thống vận chuyển cấp cứu nhanh chóng.
+    *   *Cải thiện:* Phát triển các chiến dịch truyền thông cộng đồng; tối ưu hóa hệ thống cấp cứu trước bệnh viện để giảm thời gian vận chuyển.
+*   **Thời gian Vào viện - Chụp chẩn đoán (Trung bình 43,22 ± 110,70 phút):** Mặc dù có những ca chụp rất nhanh (3 phút), nhưng độ lệch chuẩn lớn cho thấy sự biến động đáng kể. Mục tiêu là phải rút ngắn thời gian này xuống mức tối thiểu (dưới 20 phút) để đảm bảo 'door-to-needle' và 'door-to-puncture' nhanh nhất có thể.
+    *   *Cải thiện:* Xây dựng quy trình báo động đột quỵ (stroke code) khẩn cấp tại bệnh viện, đào tạo đội ngũ cấp cứu, chẩn đoán hình ảnh và can thiệp để làm việc nhịp nhàng, phối hợp hiệu quả.
+*   **Thời gian Vào viện - Can thiệp (Trung bình 134,72 ± 138,84 phút):** Con số này thể hiện hiệu quả của toàn bộ quy trình cấp cứu đột quỵ trong bệnh viện. Mục tiêu lý tưởng là 'door-to-puncture' dưới 60 phút. Việc rút ngắn thời gian này trực tiếp cải thiện tỷ lệ tái thông và kết cục lâm sàng.
+    *   *Cải thiện:* Thường xuyên rà soát và tối ưu hóa quy trình (PDCA: Plan-Do-Check-Act), trang bị đầy đủ cơ sở vật chất và nhân lực. Thực hiện các buổi diễn tập 'code stroke' định kỳ.
+**III. Khoảng trống nghiên cứu và cơ hội học hỏi:**
+*   **Thiếu nghiên cứu tổng kết trong nước về lấy huyết khối không tiêu sợi huyết:** Đây là một khoảng trống quan trọng. Các bạn sinh viên, bác sĩ trẻ có thể tham gia vào các dự án nghiên cứu hồi cứu hoặc tiến cứu để thu thập dữ liệu về hiệu quả thực tế của can thiệp này tại Việt Nam. Việc này không chỉ cung cấp bằng chứng cho y học nước nhà mà còn nâng cao kỹ năng nghiên cứu khoa học.
+    *   *Cơ hội học hỏi:* Tham gia xây dựng cơ sở dữ liệu đột quỵ, học cách thiết kế nghiên cứu, thu thập và phân tích dữ liệu, viết báo cáo khoa học. Điều này rất cần thiết cho sự phát triển chuyên môn và hệ thống y tế.</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Quản lý đột quỵ: Từ cấp cứu tiền viện đến tái thông mạch máu</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Tài liệu này mô tả toàn bộ chuỗi hoạt động trong quản lý đột quỵ cấp, từ nhận diện triệu chứng ở cộng đồng, vận chuyển khẩn cấp, đến các quy trình chẩn đoán và điều trị tại bệnh viện (bao gồm tiêu sợi huyết và lấy huyết khối cơ học). Nó cung cấp cái nhìn tổng thể về cách tối ưu hóa từng bước để cải thiện kết quả cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Khóa học: Phát triển kỹ năng nghiên cứu khoa học trong y học lâm sàng</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>Khóa học này được thiết kế để trang bị cho các bác sĩ và nhà nghiên cứu trẻ những kiến thức và kỹ năng cần thiết để thiết kế, thực hiện, phân tích và công bố các nghiên cứu lâm sàng. Nội dung bao gồm phương pháp nghiên cứu, đạo đức y học, phân tích thống kê và viết báo khoa học, đặc biệt hữu ích cho việc giải quyết các khoảng trống nghiên cứu trong lĩnh vực đột quỵ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và hướng dẫn lâm sàng dựa trên ICD-10 và các tiêu chuẩn y khoa hiện hành, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ trẻ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Là một sinh viên y khoa năm cuối, em muốn tìm hiểu sâu hơn về các dấu hiệu hình ảnh trên CLVT và CHT giúp chẩn đoán nhồi máu não tối cấp. Thầy/cô có thể giải thích chi tiết ý nghĩa lâm sàng của từng dấu hiệu và cách áp dụng chúng trong thực hành không ạ?</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Chào em, câu hỏi của em rất quan trọng vì việc nhận diện sớm các dấu hiệu nhồi máu não tối cấp trên hình ảnh là chìa khóa để can thiệp kịp thời và cải thiện tiên lượng cho bệnh nhân. Dưới đây là phân tích các dấu hiệu chính và ý nghĩa của chúng:
+**1. Trên Chụp Cắt Lớp Vi Tính (CLVT) sọ não không tiêm thuốc:**
+CLVT là phương tiện chẩn đoán hình ảnh đầu tay trong cấp cứu đột quỵ vì tính sẵn có và nhanh chóng. Các dấu hiệu sớm của nhồi máu não tối cấp trên CLVT bao gồm:
+*   **Giảm tỷ trọng hạch nền (65,22% trong nghiên cứu):** Dấu hiệu này chỉ ra phù não sớm và hoại tử tế bào tại các cấu trúc sâu của não như nhân bèo, nhân đuôi. Khi thấy dấu hiệu này, cần nghĩ ngay đến nhồi máu não và xác định khu vực tổn thương.
+*   **Xóa dải băng thùy đảo (50%):** Dải băng thùy đảo (insular ribbon) rất nhạy cảm với thiếu máu cục bộ. Khi thiếu máu, phù nề làm mất ranh giới rõ nét của dải băng này. Đây là dấu hiệu sớm nhưng tinh tế, đòi hỏi kinh nghiệm để nhận diện.
+*   **Tăng tỷ trọng huyết khối (hyperdense vessel sign) (55,43%):** Dấu hiệu này chỉ ra sự hiện diện của huyết khối trong lòng một động mạch não lớn, thường là động mạch não giữa (MCA). Nhận diện được dấu hiệu này rất quan trọng vì nó gợi ý vị trí tắc mạch và là bằng chứng trực tiếp của nguyên nhân nhồi máu.
+*   **Mất ranh giới chất trắng – chất xám (44,57%):** Do phù nề và hoại tử tế bào, sự phân biệt rõ ràng giữa chất trắng và chất xám trong nhu mô não bị mờ đi. Dấu hiệu này cho thấy tổn thương đã lan rộng hơn.
+*   **Xóa rãnh cuộn não (33,7%):** Phù não làm các rãnh cuộn não bị lấp đầy, trở nên nông hoặc biến mất. Đây cũng là một dấu hiệu của phù não lan tỏa.
+**Hướng dẫn thực hành:**
+*   **Thận trọng và chi tiết:** Luôn đọc phim CLVT với sự tập trung cao độ, tìm kiếm các dấu hiệu tinh tế nhất, đặc biệt là tăng tỷ trọng huyết khối và xóa dải băng thùy đảo.
+*   **Sử dụng thang điểm ASPECTS:** Để đánh giá mức độ tổn thương sớm và dự đoán vùng nhồi máu, hãy sử dụng thang điểm ASPECTS (Alberta Stroke Program Early CT Score). Thang điểm này giúp định lượng tổn thương thiếu máu cục bộ sớm trên CLVT và rất hữu ích trong việc đưa ra quyết định điều trị, đặc biệt là can thiệp nội mạch.
+**2. Trên Chụp Cộng Hưởng Từ (CHT) sọ não:**
+CHT, đặc biệt là chuỗi xung Diffusion-weighted Imaging (DWI), có độ nhạy và độ đặc hiệu cao hơn CLVT trong việc phát hiện nhồi máu não sớm nhất, thậm chí trong vòng vài phút sau khi khởi phát triệu chứng.
+*   **Tăng tín hiệu trên DWI (100% trong nghiên cứu):** Dấu hiệu này là 'tiêu chuẩn vàng' để chẩn đoán nhồi máu não tối cấp, phản ánh sự hạn chế khuếch tán của nước do phù tế bào độc hại (cytotoxic edema) khi tế bào thiếu oxy. Bất kỳ sự tăng tín hiệu nào trên DWI đều cần được xem xét cẩn thận.
+*   **Tăng tín hiệu nhu mô não trên FLAIR (100%):** Dấu hiệu này trên FLAIR thường xuất hiện muộn hơn DWI, cho thấy vùng phù não đã lan rộng và có thể gợi ý thời gian khởi phát (DWI-FLAIR mismatch).
+*   **Tăng tín hiệu mạch máu trên FLAIR (20%):** Dấu hiệu này, còn gọi là 'FLAIR vascular hyperintensity' (FVH), có thể do dòng chảy chậm trong mạch máu bị tắc nghẽn hoặc do huyết khối giàu protein. Nó có thể gợi ý tắc mạch và nguy cơ xuất huyết.
+**Lời khuyên cho sinh viên và bác sĩ trẻ:**
+*   **Nắm vững sinh lý bệnh:** Hiểu rõ cơ chế thiếu máu cục bộ và phù não giúp giải thích các dấu hiệu hình ảnh.
+*   **Thực hành đọc phim:** Đọc càng nhiều phim CLVT và CHT của bệnh nhân đột quỵ càng tốt, đối chiếu với lâm sàng và kết quả theo dõi. Tham gia các buổi hội chẩn hình ảnh với các chuyên gia điện quang.
+*   **ICD-10:** Các chẩn đoán nhồi máu não sẽ được mã hóa theo ICD-10, ví dụ: I63.0 (Nhồi máu não do huyết khối động mạch não trước), I63.1 (Nhồi máu não do huyết khối động mạch não giữa), v.v. Việc nắm vững các mã này giúp bạn hiểu rõ hơn về phân loại và thống kê bệnh.</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị đột quỵ não cấp tính</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Tài liệu này do Bộ Y tế Việt Nam ban hành, cung cấp phác đồ chuẩn mực về chẩn đoán, điều trị nội khoa và can thiệp đối với đột quỵ não, bao gồm cả tiêu chuẩn hình ảnh và chỉ định lâm sàng, rất cần thiết cho bác sĩ và sinh viên y khoa để chuẩn hóa quy trình thực hành.</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về hình ảnh học thần kinh trong đột quỵ cấp</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các kỹ thuật hình ảnh tiên tiến (CLVT đa pha, CHT khuếch tán/tưới máu) và cách diễn giải các dấu hiệu sớm, giúp bác sĩ lâm sàng và chẩn đoán hình ảnh nâng cao khả năng phát hiện và đánh giá nhồi máu não tối cấp, từ đó đưa ra quyết định điều trị tối ưu dựa trên bằng chứng khoa học.</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và hướng dẫn lâm sàng dựa trên ICD-10 và các tiêu chuẩn y khoa hiện hành, hỗ trợ đào tạo và phát triển chuyên môn.</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Tôi là một bác sĩ nội trú đang học về can thiệp nội mạch trong đột quỵ cấp. Tôi thấy nghiên cứu này đề cập đến các phương pháp can thiệp khác nhau và tỷ lệ tái thông, cũng như kết quả lâm sàng. Vậy, dựa trên dữ liệu này, làm thế nào để tôi có thể hiểu rõ hơn về hiệu quả của từng phương pháp và những yếu tố cần cân nhắc khi lựa chọn điều trị cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Câu hỏi của em rất hay và đi thẳng vào trọng tâm của việc thực hành y học bằng chứng. Khi nhìn vào dữ liệu về hiệu quả can thiệp và kết quả lâm sàng, chúng ta cần phân tích sâu để rút ra bài học và áp dụng vào quyết định điều trị.
+**Phân tích hiệu quả các phương pháp tái thông mạch máu:**
+| Phương pháp điều trị           | Tổng số trường hợp (n) | Tái thông tốt (TICI 2b-3) | Tỷ lệ (%) |
+| :---------------------------- | :-------------------- | :----------------------- | :-------- |
+| Hút huyết khối đơn thuần      | 28                    | 14                       | 50%       |
+| Stent kéo huyết khối           | 10                    | 9                        | 90%       |
+| Kết hợp hút - stent kéo huyết khối | 68                    | 53                       | 77.94%    |
+**Nhận định và lời khuyên:**
+*   **Ưu điểm của Stent kéo huyết khối:** Trong nghiên cứu này, phương pháp Stent kéo huyết khối đơn thuần đạt tỷ lệ tái thông tốt cao nhất (90%). Điều này cho thấy Stent retriever là một công cụ cực kỳ hiệu quả trong việc loại bỏ huyết khối lớn, đặc biệt là ở các mạch máu lớn.
+    *   **Lời khuyên:** Stent retriever thường được ưu tiên khi tắc mạch lớn, huyết khối có cấu trúc chắc, hoặc khi phương pháp hút không thành công. Sinh viên và bác sĩ trẻ cần nắm vững kỹ thuật này và hiểu rõ các loại stent khác nhau, ưu nhược điểm của chúng.
+*   **Vai trò của phương pháp kết hợp:** Phương pháp kết hợp giữa hút và stent kéo huyết khối cũng cho tỷ lệ tái thông rất tốt (77,94%) và là phương pháp được sử dụng nhiều nhất trong nghiên cứu (68/96 trường hợp). Sự kết hợp này tận dụng ưu điểm của cả hai kỹ thuật: hút để giảm gánh nặng huyết khối và stent để bắt giữ/kéo huyết khối còn lại.
+    *   **Lời khuyên:** Phương pháp kết hợp có thể là lựa chọn tối ưu trong nhiều trường hợp, đặc biệt khi huyết khối lớn, phức tạp hoặc khi một phương pháp đơn độc không đạt hiệu quả mong muốn. Học cách phối hợp linh hoạt các kỹ thuật là rất quan trọng.
+*   **Hút huyết khối đơn thuần:** Tỷ lệ tái thông tốt 50% trong nghiên cứu này thấp hơn so với stent kéo hoặc kết hợp. Tuy nhiên, điều này không có nghĩa là phương pháp này kém hiệu quả hoàn toàn. Hút huyết khối thường hiệu quả hơn với huyết khối mềm, mới hình thành, hoặc ở các mạch máu nhỏ hơn.
+    *   **Lời khuyên:** Cần cân nhắc lựa chọn phương pháp dựa trên đặc điểm huyết khối (kích thước, vị trí, độ cứng), giải phẫu mạch máu và kinh nghiệm của người thực hiện. Phương pháp hút có thể là một lựa chọn ban đầu tốt trong một số trường hợp, đặc biệt là khi muốn giảm thiểu thời gian can thiệp.
+**Đánh giá hiệu quả hồi phục lâm sàng sau 3 tháng (theo mRS):**
+*   Kết quả nghiên cứu cho thấy 47,92% bệnh nhân có hồi phục lâm sàng tốt (mRS 0-2), 43,75% hồi phục kém (mRS 3-5) và 8,33% tử vong.
+*   **Ý nghĩa:** Tỷ lệ hồi phục tốt dưới 50% cho thấy đột quỵ nhồi máu não tối cấp là một bệnh lý nghiêm trọng với tiên lượng còn nhiều thách thức, dù đã được can thiệp. Kết quả này phản ánh tầm quan trọng của 'thời gian vàng' và việc lựa chọn phương pháp điều trị tối ưu.
+    *   **Lời khuyên:** Không chỉ dừng lại ở tái thông mạch máu, bác sĩ cần chú trọng đến quản lý hậu can thiệp, phục hồi chức năng và kiểm soát các yếu tố nguy cơ để tối đa hóa kết quả lâm sàng dài hạn cho bệnh nhân. Đánh giá mRS sau 3 tháng là một chỉ số quan trọng để lượng giá toàn diện hiệu quả điều trị.
+**Các yếu tố cần cân nhắc khi lựa chọn điều trị:**
+*   **Thời gian khởi phát:** "Thời gian là não". Cần can thiệp càng sớm càng tốt.
+*   **Vị trí và kích thước huyết khối:** Ảnh hưởng trực tiếp đến lựa chọn dụng cụ và kỹ thuật.
+*   **Tình trạng mạch máu nền:** Hẹp mạch, vôi hóa... có thể làm phức tạp quá trình can thiệp.
+*   **Chỉ số ASPECTs:** Đánh giá vùng lõi nhồi máu để tránh can thiệp vào vùng não đã tổn thương không hồi phục.
+*   **Kinh nghiệm của phẫu thuật viên:** Cần đánh giá thực tế năng lực và trang thiết bị của đơn vị can thiệp.
+**ICD-10:** Sau can thiệp, bệnh nhân có thể được mã hóa theo ICD-10 cho các biến chứng hoặc di chứng, ví dụ: G81 (Liệt nửa người), I69 (Di chứng của bệnh mạch máu não).</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Sách giáo khoa 'Đột quỵ não: Từ lý thuyết đến thực hành'</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Cuốn sách này cung cấp kiến thức toàn diện về sinh lý bệnh, chẩn đoán, và quản lý đột quỵ, bao gồm các phương pháp can thiệp nội mạch hiện đại, giúp sinh viên và bác sĩ có cái nhìn tổng quan và sâu sắc, đồng thời là nền tảng vững chắc cho việc thực hành lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Kỹ thuật can thiệp nội mạch trong điều trị đột quỵ thiếu máu não cấp</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các kỹ thuật thực hành về hút huyết khối, stent kéo huyết khối, và các chiến lược kết hợp, bao gồm các ca lâm sàng phức tạp và quản lý biến chứng. Khóa học được thiết kế để nâng cao kỹ năng thực hành cho các bác sĩ can thiệp, giúp họ tự tin và hiệu quả hơn trong phòng DSA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ bác sĩ và sinh viên y khoa trong học tập và thực hành, hướng dẫn cách cải thiện quy trình và áp dụng kiến thức chuẩn.</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Tôi đang học về quản lý đột quỵ cấp. Nghiên cứu này cung cấp nhiều số liệu về thời gian can thiệp. Tôi nên hiểu các mốc thời gian này như thế nào trong thực hành lâm sàng và làm sao để cải thiện 'thời gian cửa-kim' hoặc 'thời gian cửa-bẹn' ở đơn vị của mình? Đồng thời, tôi muốn biết cách áp dụng ICD-10 vào việc mã hóa bệnh lý này.</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Chào bạn, câu hỏi của bạn chạm đến một trong những khía cạnh quan trọng nhất trong điều trị đột quỵ cấp: quản lý thời gian. Trong đột quỵ, mỗi phút trôi qua đều có ý nghĩa sống còn đối với tế bào não. 'Thời gian là não' không chỉ là khẩu hiệu mà là nguyên tắc chỉ đạo mọi hành động cấp cứu.
+**1. Ý nghĩa các mốc thời gian trong thực hành lâm sàng:**
+Nghiên cứu của bạn cung cấp các số liệu quan trọng về thời gian can thiệp:
+*   **Thời gian từ khi khởi phát đến khi can thiệp:** Trung bình 457,86 ± 291,26 phút. Đây là khoảng thời gian từ khi triệu chứng đột quỵ đầu tiên xuất hiện đến khi bắt đầu thủ thuật can thiệp. Mục tiêu lý tưởng là đưa con số này xuống càng thấp càng tốt.
+*   **Thời gian từ khi vào viện đến khi can thiệp (Door-to-puncture time):** Trung bình 134,72 ± 138,84 phút (sớm nhất 30 phút, muộn nhất 1125 phút). Đây là chỉ số quan trọng phản ánh hiệu quả của hệ thống cấp cứu nội viện và là mục tiêu then chốt để cải thiện.
+*   **Thời gian từ khi khởi phát đến khi tái thông (Onset-to-recanalization time):** Trung bình 533,52 ± 248,17 phút (sớm nhất 120 phút, muộn nhất 1995 phút). Đây là chỉ số cuối cùng cho biết bệnh nhân mất bao lâu để đạt được dòng máu lưu thông trở lại.
+*   **Thời gian can thiệp mạch máu:** Trung bình 55,66 ± 38,93 phút.
+*   **Thời gian tái thông mạch máu (TICI 2b-3):** Trung bình 38,87 ± 29,79 phút.
+**Làm thế nào để cải thiện các mốc thời gian vàng:**
+Để rút ngắn các mốc thời gian này, đòi hỏi một hệ thống cấp cứu đột quỵ được tổ chức chặt chẽ và phối hợp nhịp nhàng giữa nhiều chuyên khoa. Dưới đây là các khuyến nghị:
+*   **Nâng cao nhận thức cộng đồng:**
+    *   **Hướng dẫn:** Giáo dục người dân về các dấu hiệu đột quỵ (FAST - Face drooping, Arm weakness, Speech difficulty, Time to call emergency) và tầm quan trọng của việc gọi cấp cứu ngay lập tức. Điều này giúp giảm "thời gian từ khi khởi phát đến khi gọi cấp cứu".
+    *   **Tài liệu tham khảo:** Các chiến dịch truyền thông của Bộ Y tế, WHO về đột quỵ.
+*   **Tối ưu hóa hệ thống cấp cứu tiền viện:**
+    *   **Hướng dẫn:** Hệ thống cấp cứu 115 cần được huấn luyện để nhận diện nhanh chóng các trường hợp đột quỵ, vận chuyển bệnh nhân đến bệnh viện có khả năng can thiệp nội mạch thay vì bệnh viện gần nhất nhưng không có khả năng.
+    *   **Thực hành:** Sử dụng các thang điểm tiền viện (ví dụ: RACE, LAMS) để nhanh chóng đánh giá khả năng tắc mạch lớn.
+*   **Chuẩn hóa quy trình cấp cứu nội viện ("Door-to-Needle" và "Door-to-Groin"):**
+    *   **Quy trình khẩn cấp:** Bệnh nhân đột quỵ cần được ưu tiên tuyệt đối: đưa thẳng đến phòng CT/MRI, bác sĩ chuyên khoa đột quỵ khám ban đầu ngay tại đó.
+    *   **Đội ngũ sẵn sàng:** Đội ngũ cấp cứu, chẩn đoán hình ảnh, thần kinh, can thiệp nội mạch cần được kích hoạt ngay khi bệnh nhân đến viện.
+    *   **Thông tin đồng bộ:** Sử dụng hệ thống PACS, EMR để chia sẻ thông tin hình ảnh và lâm sàng nhanh chóng giữa các khoa.
+    *   **Huấn luyện:** Thực hiện các buổi huấn luyện định kỳ, diễn tập quy trình cấp cứu đột quỵ để phát hiện và khắc phục các điểm nghẽn.
+    *   **Kiểm tra và cải tiến:** Thường xuyên kiểm tra và đánh giá các chỉ số thời gian, tìm ra điểm nghẽn và cải tiến quy trình. Ví dụ: Nếu "Door-to-puncture time" cao, hãy xem xét các bước như đăng ký hành chính, lấy máu xét nghiệm, vận chuyển bệnh nhân giữa các phòng ban.
+*   **Tăng cường kỹ năng can thiệp:**
+    *   **Hướng dẫn:** Đối với bác sĩ can thiệp, việc tối ưu hóa thời gian thực hiện thủ thuật (ví dụ: thời gian can thiệp mạch máu, thời gian tái thông) đòi hỏi kỹ năng tốt, kinh nghiệm và trang thiết bị hiện đại.
+    *   **Học hỏi:** Tham gia các khóa học nâng cao, hội thảo, thực hành trên mô hình hoặc quan sát các ca can thiệp từ các chuyên gia.
+**2. Áp dụng ICD-10 trong mã hóa bệnh lý nhồi máu não:**
+Bộ Y tế Việt Nam sử dụng ICD-10 để mã hóa bệnh tật. Đối với nhồi máu não, bạn sẽ thường gặp các mã thuộc nhóm I63 (Nhồi máu não). Việc mã hóa chính xác là cực kỳ quan trọng cho thống kê, nghiên cứu, quản lý bệnh án và thanh toán bảo hiểm y tế.
+*   **I63.0:** Nhồi máu não do huyết khối động mạch tiền não (ví dụ: tắc động mạch cảnh trong).
+*   **I63.1:** Nhồi máu não do huyết khối động mạch não giữa (ví dụ: tắc đoạn M1, M2 như trong nghiên cứu).
+*   **I63.2:** Nhồi máu não do huyết khối động mạch sau não.
+*   **I63.3:** Nhồi máu não do huyết khối các động mạch não khác.
+*   **I63.4:** Nhồi máu não do tắc mạch các động mạch tiền não.
+*   **I63.5:** Nhồi máu não do tắc mạch các động mạch não khác.
+*   **I63.6:** Nhồi máu não do huyết khối tĩnh mạch não không sinh mủ.
+*   **I63.8:** Nhồi máu não khác.
+*   **I63.9:** Nhồi máu não không xác định.
+**Lời khuyên:** Hãy luôn ghi nhận rõ ràng vị trí tắc mạch, nguyên nhân (huyết khối, tắc mạch từ xa) và vùng não bị ảnh hưởng để chọn mã ICD-10 chính xác nhất. Tham khảo "Bảng phân loại quốc tế bệnh tật và vấn đề sức khỏe có liên quan - ICD-10" do Bộ Y tế ban hành.</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Hướng dẫn xây dựng và vận hành đơn vị đột quỵ</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các tiêu chuẩn về cơ sở vật chất, nhân lực, quy trình hoạt động của một đơn vị đột quỵ hiệu quả. Đây là tài liệu thiết yếu giúp các bệnh viện cải thiện 'thời gian cửa-kim' và 'thời gian cửa-bẹn', tối ưu hóa quy trình cấp cứu đột quỵ theo các chuẩn mực quốc tế và của Bộ Y tế.</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Quản lý chất lượng và cải tiến quy trình trong cấp cứu đột quỵ</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>Khóa học CME này dành cho các nhà quản lý y tế và bác sĩ lâm sàng, tập trung vào phương pháp đo lường, phân tích và cải thiện các chỉ số chất lượng trong cấp cứu đột quỵ, đặc biệt là các mốc thời gian then chốt. Khóa học giúp nâng cao hiệu quả điều trị và kết quả cho bệnh nhân thông qua việc áp dụng các công cụ quản lý chất lượng tiên tiến.</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Dựa trên nghiên cứu này, anh/chị hãy phân tích hiệu quả của các phương pháp lấy huyết khối trong điều trị nhồi máu não cấp tuần hoàn trước và những yếu tố cần cân nhắc khi lựa chọn kỹ thuật cho bệnh nhân, đặc biệt với các bác sĩ trẻ cần nắm vững?</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ trẻ và sinh viên y khoa, việc nắm vững hiệu quả của các phương pháp lấy huyết khối là vô cùng quan trọng trong thực hành lâm sàng đột quỵ cấp. Từ nghiên cứu này, chúng ta có thể rút ra những điểm chính sau:
+**1. So sánh hiệu quả các phương pháp can thiệp:**
+   - Nghiên cứu chỉ ra rằng nhóm điều trị can thiệp sử dụng **dụng cụ hút huyết khối đơn thuần** có tỷ lệ hồi phục lâm sàng tốt (mRS ≤ 2) cao hơn đáng kể (77,78%) so với nhóm sử dụng **stent kéo huyết khối kết hợp** (36,84%). Sự khác biệt này có ý nghĩa thống kê (p &lt; 0,001). Đây là một nhận xét quan trọng, gợi ý về ưu thế của phương pháp hút huyết khối đơn thuần trong một số trường hợp nhất định.
+   - Tuy nhiên, khi nhìn vào tỷ lệ tái thông tốt (TICI 2b-3) của phương pháp hút huyết khối đơn thuần là 50%, thấp hơn so với các nghiên cứu lớn khác như PROMISE (70,6%) và Aquilla S Turk (78%). Điều này có thể do đặc điểm bệnh nhân, kỹ thuật viên, hoặc tiêu chuẩn đánh giá. Tỷ lệ tái thông chung cho cả hai phương pháp là 79,17%, cho thấy tổng thể hiệu quả tái thông là khá tốt.
+**2. Kết quả lâm sàng tổng thể:**
+   - Tỷ lệ bệnh nhân hồi phục lâm sàng tốt (mRS 0-2) là 47,92%, thấp hơn nghiên cứu PROMISE (61%). Tỷ lệ tử vong (mRS 6) là 8,33%. Đây là những con số quan trọng để đánh giá hiệu quả tổng thể của trung tâm nghiên cứu so với mặt bằng chung quốc tế.
+**3. Hướng dẫn cho bác sĩ trẻ khi lựa chọn kỹ thuật:**
+   - **Đánh giá vị trí và đặc điểm huyết khối:** Nghiên cứu chỉ ra vị trí tắc mạch chủ yếu là động mạch não giữa đoạn M1 (63,54%), tiếp đến là động mạch cảnh trong (36,64%). Với tắc mạch lớn, kỹ thuật lấy huyết khối cơ học là ưu tiên hàng đầu. 
+   - **Kinh nghiệm cá nhân và trang thiết bị:** Hiệu quả của một phương pháp còn phụ thuộc vào kinh nghiệm của người thực hiện và sự sẵn có của trang thiết bị. Trong bối cảnh nghiên cứu này, hút huyết khối đơn thuần cho thấy kết quả lâm sàng tốt hơn, đây có thể là một lựa chọn ban đầu đáng cân nhắc nếu điều kiện cho phép và kỹ thuật viên có kinh nghiệm.
+   - **Tiêu chuẩn tái thông:** Mục tiêu luôn là đạt được tái thông TICI 2b-3. Sau mỗi lần can thiệp, cần đánh giá kỹ lưỡng mức độ tái thông để quyết định liệu có cần thêm lượt kéo hoặc chuyển sang kỹ thuật khác.
+   - **Cá thể hóa điều trị:** Mỗi bệnh nhân là một trường hợp riêng biệt. Quyết định lựa chọn phương pháp cần dựa trên nhiều yếu tố: thời gian khởi phát, vị trí và độ dài huyết khối, tình trạng mạch máu nền, nguy cơ biến chứng, và kinh nghiệm của đội ngũ can thiệp. Việc thảo luận liên chuyên khoa (thần kinh, chẩn đoán hình ảnh, can thiệp nội mạch) là không thể thiếu.
+Đây là bảng tổng hợp mức độ hồi phục lâm sàng và phương pháp can thiệp từ nghiên cứu:
+| Phương pháp điều trị | mRS≤2 (n, %) | mRS&gt;2 (n, %) | p value |
+|-----------------------|--------------|--------------|---------|
+| Hút HK đơn thuần      | 14 (77.78%)  | 4 (22.22%)   | &lt; 0.001 |
+| Kết hợp hút - stent    | 28 (36.84%)  | 48 (63.16%)  |         |
+Việc thường xuyên cập nhật kiến thức, tham gia các khóa huấn luyện thực hành và trao đổi kinh nghiệm với đồng nghiệp là chìa khóa để cải thiện kỹ năng và kết quả điều trị cho bệnh nhân đột quỵ.</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị đột quỵ thiếu máu não cấp của Bộ Y tế Việt Nam (phiên bản mới nhất)</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các khuyến nghị lâm sàng cập nhật về chẩn đoán, phân loại (theo ICD-10), và quản lý đột quỵ thiếu máu não cấp tại Việt Nam, bao gồm chỉ định và kỹ thuật can thiệp lấy huyết khối cơ học, giúp bác sĩ nắm vững các tiêu chuẩn và quy trình thực hành chuẩn.</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Cập nhật các kỹ thuật can thiệp lấy huyết khối trong đột quỵ cấp và quản lý sau can thiệp</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các tiến bộ mới nhất trong kỹ thuật lấy huyết khối cơ học (hút và stent kéo), quản lý biến chứng, và tối ưu hóa kết quả lâm sàng cho bệnh nhân đột quỵ thiếu máu não. Khóa học cũng bao gồm các phiên thực hành trên mô hình và thảo luận ca lâm sàng thực tế, phù hợp cho bác sĩ chuyên khoa thần kinh và can thiệp mạch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ, em cần lưu ý những đặc điểm hình ảnh nào trên MSCT và CHT để chẩn đoán sớm và chính xác nhồi máu não cấp tuần hoàn trước, đặc biệt là các dấu hiệu gợi ý vị trí tắc mạch lớn, theo kết quả nghiên cứu?</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Kính gửi các bác sĩ trẻ, khả năng đọc và diễn giải hình ảnh học trong đột quỵ cấp là một kỹ năng nền tảng và cực kỳ quan trọng. Nghiên cứu này cung cấp nhiều thông tin giá trị về các dấu hiệu hình ảnh cần lưu ý:
+**1. Trên MSCT (Computed Tomography) sọ não:**
+   - **Dấu hiệu nhồi máu sớm (Early Infarct Signs):** Nghiên cứu ghi nhận 95,65% các trường hợp chụp MSCT trước tiêm có dấu hiệu thay đổi sớm. Các dấu hiệu này cần được tìm kiếm kỹ lưỡng:
+     - **Giảm tỷ trọng hạch nền (65,22%):** Dấu hiệu này chỉ ra sự phù nề và thiếu máu cục bộ sớm ở các nhân xám sâu.
+     - **Xóa dải băng thùy đảo (50%):** Mất đi ranh giới rõ ràng của vỏ não vùng thùy đảo, một dấu hiệu nhạy cảm của nhồi máu não giữa.
+     - **Xóa rãnh cuộn não (33,7%):** Mất đi các rãnh vỏ não bình thường do phù nề mô não.
+     - **Dấu hiệu tăng tỷ trọng của động mạch não giữa (Dense MCA Sign) (55,43%):** Đây là một dấu hiệu trực tiếp của cục huyết khối trong lòng động mạch não giữa, rất quan trọng để xác định vị trí tắc mạch lớn. Dấu hiệu này cảnh báo về tắc mạch lớn và cần can thiệp nhanh chóng.
+**2. Trên CHT (Chụp Cộng hưởng từ - MRI) sọ não:**
+   - **Tăng tín hiệu vùng nhu mô não tổn thương trên xung khuếch tán (DWI) (100%):** DWI là xung nhạy nhất để phát hiện nhồi máu não cấp tính, thường xuất hiện trong vòng vài phút đến vài giờ sau khởi phát. Mọi trường hợp nhồi máu cấp đều có biểu hiện này.
+   - **Tăng tín hiệu vùng nhu mô tổn thương trên xung FLAIR (100%):** Mặc dù FLAIR thường dùng để phân biệt nhồi máu cấp với cũ, nhưng việc thấy tăng tín hiệu trên FLAIR trong nhồi máu cấp (đặc biệt sau 4-6 giờ) cũng có ý nghĩa quan trọng trong xác định cửa sổ điều trị.
+   - **Dấu hiệu tăng tín hiệu của vị trí động mạch tắc trên xung FLAIR (FLAIR Hot Vessel Sign) (20%):** Dấu hiệu này, tuy tỷ lệ thấp hơn trong nghiên cứu này, là một chỉ điểm đặc hiệu cho cục huyết khối giàu protein trong lòng mạch, gợi ý tắc mạch lớn và tiên lượng nặng, cần can thiệp khẩn cấp. Mặc dù không phải lúc nào cũng thấy, nhưng khi có, đây là một dấu hiệu rất mạnh.
+**3. Ý nghĩa thực hành:**
+   - **Tốc độ:** Trong đột quỵ, 'thời gian là não'. Việc nhận diện nhanh chóng các dấu hiệu trên MSCT và MRI là chìa khóa để đưa ra quyết định can thiệp kịp thời.
+   - **Kết hợp hình ảnh lâm sàng:** Luôn đối chiếu kết quả hình ảnh với lâm sàng bệnh nhân. Không nên chỉ dựa vào một dấu hiệu đơn lẻ.
+   - **Phân biệt và loại trừ:** Cần phân biệt nhồi máu với các bệnh lý khác có biểu hiện tương tự trên hình ảnh (ví dụ: u não, viêm não, xuất huyết não cũ).
+   - **Tham khảo ý kiến chuyên gia:** Đối với các ca phức tạp hoặc khi không chắc chắn, đừng ngần ngại tham khảo ý kiến của bác sĩ chẩn đoán hình ảnh chuyên sâu về thần kinh hoặc các đồng nghiệp giàu kinh nghiệm hơn.
+Việc thành thạo các dấu hiệu hình ảnh này không chỉ giúp chẩn đoán chính xác mà còn định hướng chiến lược điều trị và cải thiện tiên lượng cho bệnh nhân đột quỵ.</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Sổ tay Hình ảnh học thần kinh trong Đột quỵ cấp và các bệnh lý mạch máu não</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>Cuốn sổ tay này cung cấp hướng dẫn chi tiết và minh họa phong phú về đọc và diễn giải các hình ảnh MSCT, MRI (bao gồm DWI, FLAIR, MRA, CTA) trong các trường hợp đột quỵ thiếu máu não cấp và các bệnh lý mạch máu não khác, giúp bác sĩ lâm sàng và chẩn đoán hình ảnh nhận diện các dấu hiệu quan trọng để đưa ra chẩn đoán và quyết định điều trị chính xác.</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Hình ảnh học nâng cao trong chẩn đoán và phân loại đột quỵ thiếu máu não</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức chuyên sâu về các phương pháp hình ảnh tiên tiến như CT perfusion, MRI DWI/FLAIR, SWI, MRA, CTA và ứng dụng chúng trong việc đánh giá mức độ tổn thương, xác định vùng tranh tối tranh sáng (penumbra), và chỉ định điều trị cho bệnh nhân đột quỵ. Khóa học bao gồm các buổi đọc ca lâm sàng và thảo luận với các chuyên gia hàng đầu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Nghiên cứu chỉ ra thời gian từ khởi phát triệu chứng đến can thiệp tại cơ sở của chúng ta còn dài hơn so với nhiều nghiên cứu khác. Anh/chị có thể cho lời khuyên về cách tối ưu hóa quy trình cấp cứu đột quỵ để giảm thiểu 'thời gian vàng' và cải thiện tiên lượng bệnh nhân, đặc biệt cho các bác sĩ trẻ mới vào nghề?</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Kính gửi các bác sĩ trẻ, vấn đề về 'thời gian vàng' trong đột quỵ là một trong những thách thức lớn nhất trong thực hành lâm sàng. Nghiên cứu này đã chỉ ra rõ ràng rằng thời gian từ khởi phát triệu chứng đến nhập viện trung bình (323,15 ± 206,74 phút) và từ nhập viện đến can thiệp (134,72 ± 138,84 phút) của chúng ta còn cao hơn nhiều so với các nghiên cứu khác (Vũ Đăng Lưu, PROMISE, Phạm Nguyên Bình). Điều này trực tiếp ảnh hưởng đến tỷ lệ hồi phục lâm sàng tốt (mRS 0-2) chỉ đạt 47,92%, thấp hơn so với PROMISE (61%).
+Để cải thiện tình hình này, các bạn cần tập trung vào việc tối ưu hóa quy trình cấp cứu đột quỵ theo các hướng sau:
+**1. Giai đoạn tiền viện (Pre-hospital):**
+   - **Nâng cao nhận thức cộng đồng:** Tích cực tham gia các chương trình giáo dục sức khỏe cộng đồng về các dấu hiệu đột quỵ (FAST: Face drooping, Arm weakness, Speech difficulty, Time to call 911/115) để bệnh nhân và người nhà nhận diện sớm và gọi cấp cứu ngay lập tức.
+   - **Hệ thống cấp cứu 115 hiệu quả:** Đảm bảo hệ thống cấp cứu có thể phản ứng nhanh, vận chuyển bệnh nhân đến bệnh viện có khả năng điều trị đột quỵ trong thời gian ngắn nhất.
+   - **Thông báo trước cho bệnh viện:** Đội ngũ cấp cứu cần thông báo trước cho bệnh viện về trường hợp đột quỵ tiềm năng để bệnh viện có thể kích hoạt đội đột quỵ và chuẩn bị sẵn sàng.
+**2. Giai đoạn trong bệnh viện (In-hospital - 'Door-to-Needle/Groin'):**
+   - **Kích hoạt mã đột quỵ (Stroke Code):** Ngay khi bệnh nhân đột quỵ nhập viện, cần kích hoạt 'mã đột quỵ' để toàn bộ đội ngũ (tiếp đón, điều dưỡng, bác sĩ thần kinh, chẩn đoán hình ảnh, can thiệp nội mạch) vào vị trí sẵn sàng.
+   - **Quy trình thăm khám và đánh giá nhanh:**
+     - **Đánh giá ban đầu:** Sử dụng các thang điểm nhanh (NIHSS) ngay tại phòng cấp cứu.
+     - **Chụp chiếu hình ảnh khẩn cấp:** Đảm bảo bệnh nhân được ưu tiên chụp MSCT sọ não không tiêm thuốc cản quang hoặc MRI sọ não (nếu có chỉ định) ngay lập tức. Đây là bước then chốt để loại trừ xuất huyết và xác định tắc mạch lớn.
+     - **Phân tích hình ảnh nhanh:** Bác sĩ chẩn đoán hình ảnh cần đọc phim khẩn và báo cáo ngay cho bác sĩ lâm sàng và can thiệp. Các dấu hiệu nhồi máu sớm trên MSCT và vị trí tắc mạch cần được nhận diện chính xác.
+   - **Quyết định điều trị khẩn trương:** Dựa trên lâm sàng và hình ảnh, quyết định có tiêm thuốc tiêu sợi huyết tĩnh mạch (IV tPA) và/hoặc can thiệp lấy huyết khối cơ học (mechanical thrombectomy) cần được đưa ra nhanh chóng, tuân thủ các cửa sổ thời gian điều trị được Bộ Y tế khuyến cáo (ví dụ: &lt;4.5 giờ cho IV tPA, &lt;6-24 giờ cho can thiệp mạch).
+   - **Chuẩn bị can thiệp nhanh:** Nếu có chỉ định can thiệp, đội ngũ can thiệp cần sẵn sàng phòng can thiệp, dụng cụ, và bệnh nhân được chuẩn bị nhanh nhất.
+**3. Cải thiện phối hợp đa chuyên khoa:**
+   - **Hội chẩn liên tục:** Bác sĩ thần kinh, chẩn đoán hình ảnh và can thiệp nội mạch cần phối hợp chặt chẽ, trao đổi thông tin liên tục để đưa ra quyết định tối ưu.
+   - **Đào tạo và diễn tập:** Thực hiện các buổi đào tạo định kỳ, diễn tập quy trình cấp cứu đột quỵ để nâng cao kỹ năng và sự phối hợp của toàn bộ đội ngũ.
+**4. Phân tích và cải tiến liên tục (Quality Improvement):**
+   - **Theo dõi chỉ số thời gian:** Luôn ghi nhận và phân tích các chỉ số thời gian (door-to-CT, CT-to-groin, door-to-recanalization) để tìm ra điểm nghẽn và cải tiến quy trình.
+   - **Học hỏi từ các trung tâm lớn:** Thường xuyên cập nhật các hướng dẫn quốc tế (AHA/ASA) và kinh nghiệm từ các trung tâm đột quỵ hàng đầu để áp dụng vào thực tiễn.
+Việc tối ưu hóa 'thời gian vàng' không chỉ là trách nhiệm của một cá nhân mà là nỗ lực của cả hệ thống. Với tư cách là bác sĩ trẻ, các bạn cần chủ động học hỏi, đóng góp ý kiến và thực hành theo các quy trình chuẩn để cùng nhau nâng cao chất lượng điều trị đột quỵ.</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Quy trình cấp cứu đột quỵ: Từ 'cửa' đến 'kim' và 'ống thông' - Hướng dẫn thực hành tốt</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>Tài liệu này trình bày chi tiết các quy trình chuẩn hóa và các phương pháp thực hành tốt nhất để giảm thiểu thời gian xử lý bệnh nhân đột quỵ cấp, từ lúc tiếp nhận bệnh nhân tại cấp cứu đến khi tiêm thuốc tiêu sợi huyết hoặc thực hiện can thiệp lấy huyết khối cơ học, nhằm tối ưu hóa kết quả điều trị và giảm thiểu di chứng.</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Quản lý thời gian vàng trong đột quỵ cấp: Nâng cao hiệu quả quy trình và kết cục lâm sàng</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các chiến lược cải tiến chất lượng và an toàn trong quy trình cấp cứu đột quỵ, bao gồm tối ưu hóa logistics, giao tiếp đội nhóm đa chuyên khoa, và áp dụng công nghệ để rút ngắn thời gian điều trị. Khóa học sẽ trang bị cho người học những công cụ và kiến thức cần thiết để đánh giá và cải thiện hiệu suất của trung tâm đột quỵ của mình.</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Xin chào, tôi là một sinh viên y khoa đang tìm hiểu về phẫu thuật ung thư dạ dày. Theo nghiên cứu này, phương pháp Uncut Roux-Y có những ưu điểm nào so với các kỹ thuật phục hồi lưu thông tiêu hóa truyền thống như Billroth II, và tại sao nó lại được khuyến nghị?</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Sinh viên thân mến, câu hỏi của em rất hay và đi thẳng vào trọng tâm của một tiến bộ quan trọng trong phẫu thuật ung thư dạ dày. Khi cân nhắc các phương pháp phục hồi lưu thông tiêu hóa sau cắt dạ dày, việc hiểu rõ ưu nhược điểm của từng kỹ thuật là cực kỳ cần thiết để đảm bảo chất lượng sống tốt nhất cho bệnh nhân.
+Phương pháp Uncut Roux-Y đã chứng minh được nhiều ưu điểm nổi bật so với Billroth II, đặc biệt trong việc giảm thiểu các biến chứng hậu phẫu ảnh hưởng đến bệnh nhân:
+*   **Khắc phục các di chứng của Billroth II:**
+    *   **Hội chứng quai đến (Afferent Loop Syndrome):** Đây là một biến chứng thường gặp ở Billroth II do tắc nghẽn quai ruột đến, gây ứ đọng dịch mật, tụy, và thức ăn, dẫn đến đau bụng, buồn nôn, nôn mửa. Uncut Roux-Y với thiết kế quai ruột hình chữ Y không chia cắt giúp loại bỏ quai đến, từ đó giảm đáng kể nguy cơ này.
+    *   **Viêm niêm mạc dạ dày (Gastritis) hoặc ung thư mỏm cắt do trào ngược dịch mật:** Trong Billroth II, dịch mật và dịch tụy có thể trào ngược lên mỏm dạ dày còn lại, gây viêm mãn tính, loét, và tiềm ẩn nguy cơ ung thư mỏm cắt. Uncut Roux-Y tạo ra một "đoạn tránh" dài hơn cho dịch mật, ngăn chặn hiệu quả tình trạng trào ngược này, bảo vệ niêm mạc dạ dày và giảm nguy cơ ung thư thứ phát.
+    *   **Hội chứng Dumping:** Mặc dù không trực tiếp giải quyết hoàn toàn, nhưng Uncut Roux-Y giúp kiểm soát dòng chảy thức ăn xuống ruột non tốt hơn Billroth II, từ đó có thể làm giảm mức độ nghiêm trọng của hội chứng Dumping.
+*   **Ưu điểm của Uncut Roux-Y so với Roux-en-Y cổ điển:**
+    *   **Giữ tính liên tục của ruột non:** Khác với Roux-en-Y truyền thống yêu cầu cắt rời đoạn ruột non, Uncut Roux-Y giữ nguyên sự liên tục của ruột non, giảm thiểu nguy cơ mất dẫn truyền thần kinh tại đoạn ruột và có thể giảm hội chứng ứ đọng Roux. Điều này giúp duy trì chức năng tiêu hóa sinh lý tốt hơn.
+    *   **Kỹ thuật ít phức tạp hơn:** Mặc dù Roux-en-Y nói chung phức tạp hơn Billroth II, Uncut Roux-Y lại đơn giản hóa một số bước so với Roux-en-Y kinh điển (do không cắt rời ruột non), có thể giảm thời gian phẫu thuật và nguy cơ biến chứng liên quan đến miệng nối.
+**Lời khuyên cho em:** Khi đứng trước lựa chọn phương pháp phẫu thuật, bác sĩ cần cân nhắc kỹ lưỡng tình trạng bệnh lý của từng bệnh nhân, kinh nghiệm của phẫu thuật viên, và các bằng chứng khoa học mới nhất. Phương pháp Uncut Roux-Y, với các ưu điểm đã được chứng minh, đang ngày càng trở thành một lựa chọn ưu việt trong phục hồi lưu thông tiêu hóa sau cắt dạ dày đoạn thấp, góp phần nâng cao chất lượng sống cho bệnh nhân. Em nên tiếp tục nghiên cứu sâu về giải phẫu, sinh lý bệnh của từng phương pháp để có cái nhìn toàn diện hơn nhé.</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Hướng dẫn phẫu thuật ung thư dạ dày - Các phương pháp phục hồi lưu thông tiêu hóa.</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp cái nhìn tổng quan và chi tiết về các kỹ thuật tái tạo đường tiêu hóa sau cắt dạ dày, bao gồm Billroth I, Billroth II, Roux-en-Y và Uncut Roux-Y, giúp sinh viên và bác sĩ nắm vững nguyên lý và chỉ định lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Phẫu thuật nội soi điều trị ung thư dạ dày: Kỹ thuật và quản lý biến chứng.</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>Khóa học CME này tập trung vào các kỹ thuật phẫu thuật nội soi tiên tiến trong điều trị ung thư dạ dày, bao gồm các phương pháp phục hồi lưu thông tiêu hóa cải tiến như Uncut Roux-Y, đồng thời trang bị kiến thức về nhận biết và xử trí các biến chứng tiềm tàng, nâng cao kỹ năng lâm sàng cho phẫu thuật viên.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ nội trú, tôi quan tâm đến dịch tễ học ung thư dạ dày tại Việt Nam và cách áp dụng mã ICD-10 cho chẩn đoán này. Nghiên cứu có đề cập đến tình hình chung của bệnh. Xin chatbot giải thích chi tiết hơn và cách mã hóa chuẩn?</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Chào bạn, một câu hỏi rất thực tế và quan trọng cho các bác sĩ nội trú như bạn! Hiểu rõ dịch tễ học giúp chúng ta nhận diện mức độ nghiêm trọng của bệnh trong cộng đồng, còn việc mã hóa ICD-10 chính xác là nền tảng cho thống kê, nghiên cứu và quản lý y tế.
+**1. Dịch tễ học ung thư dạ dày tại Việt Nam:**
+Dựa trên thông tin từ bài viết và kiến thức y khoa chung, ung thư dạ dày là một gánh nặng bệnh tật đáng kể ở Việt Nam và trên thế giới.
+*   **Toàn cầu:** Đứng hàng thứ 5 trong các ca ung thư mắc mới và hàng thứ 3 trong các ca tử vong do ung thư ở cả hai giới.
+*   **Tại Việt Nam:**
+    *   Là loại ung thư khá phổ biến.
+    *   Đứng thứ hai sau ung thư phổi ở nam giới.
+    *   Đứng thứ ba sau ung thư vú và cổ tử cung ở nữ giới.
+    *   Chiếm khoảng 13,5% trong tổng số các bệnh ung thư.
+Những số liệu này cho thấy ung thư dạ dày là một trong những loại ung thư hàng đầu, đòi hỏi sự quan tâm đặc biệt trong dự phòng, sàng lọc và điều trị.
+**2. Mã hóa ICD-10 cho ung thư dạ dày:**
+Khi chẩn đoán ung thư dạ dày, việc sử dụng mã ICD-10 chuẩn xác là bắt buộc. Mã ICD-10 cho ung thư dạ dày thuộc chương II: "U tân sinh (C00-D48)".
+*   **C16: U tân sinh ác tính của dạ dày (Malignant neoplasm of stomach)**. Đây là mã chung cho ung thư dạ dày.
+*   **Phân loại chi tiết theo vị trí:**
+    *   C16.0: U tân sinh ác tính của tâm vị (Cardia)
+    *   C16.1: U tân sinh ác tính của đáy vị (Fundus of stomach)
+    *   C16.2: U tân sinh ác tính của thân vị (Body of stomach)
+    *   C16.3: U tân sinh ác tính của hang vị môn vị (Pyloric antrum)
+    *   C16.4: U tân sinh ác tính của môn vị (Pylorus)
+    *   C16.5: U tân sinh ác tính của bờ cong nhỏ, không xác định (Lesser curvature, unspecified)
+    *   C16.6: U tân sinh ác tính của bờ cong lớn, không xác định (Greater curvature, unspecified)
+    *   C16.8: U tân sinh ác tính của dạ dày, tổn thương chồng lấp (Overlapping lesion of stomach) - Dùng khi khối u lan ra nhiều phần của dạ dày và không thể xác định vị trí chính.
+    *   C16.9: U tân sinh ác tính của dạ dày, không xác định (Stomach, unspecified) - Chỉ dùng khi không có thông tin chi tiết về vị trí.
+**Lời khuyên cho bạn:**
+*   **Thực hành mã hóa:** Khi ghi chép hồ sơ bệnh án, bạn cần đảm bảo chẩn đoán vị trí ung thư dạ dày càng chi tiết càng tốt để có thể chọn mã ICD-10 phù hợp nhất (ví dụ: ung thư dạ dày 1/3 dưới thường liên quan đến hang vị môn vị - C16.3).
+*   **Kiểm tra thường xuyên:** Các quy định về mã hóa ICD-10 có thể có những hướng dẫn cụ thể từ Bộ Y tế hoặc cơ quan quản lý bảo hiểm y tế. Hãy luôn cập nhật các phiên bản mới nhất và tài liệu hướng dẫn.
+*   **Tầm quan trọng:** Việc mã hóa chính xác không chỉ giúp thống kê mà còn ảnh hưởng đến việc thanh toán bảo hiểm, phân tích kết quả điều trị và các nghiên cứu khoa học sau này.</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Phân loại bệnh tật quốc tế ICD-10 (International Statistical Classification of Diseases and Related Health Problems, 10th Revision).</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Tài liệu tham khảo chính thức về các mã ICD-10, cung cấp hướng dẫn chi tiết về cách mã hóa các bệnh lý, bao gồm cả các u tân sinh ác tính của hệ tiêu hóa, cần thiết cho mọi bác sĩ để đảm bảo tính nhất quán trong chẩn đoán và thống kê y tế.</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Chẩn đoán và quản lý ung thư dạ dày theo giai đoạn.</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức toàn diện về chẩn đoán sớm, phân loại giai đoạn (TNM) và các phương pháp điều trị ung thư dạ dày, từ phẫu thuật đến hóa trị, xạ trị. Đặc biệt chú trọng việc áp dụng ICD-10 và các phác đồ điều trị cập nhật, giúp bác sĩ lâm sàng tối ưu hóa quy trình chăm sóc bệnh nhân.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ đào tạo và phát triển chuyên môn cho bác sĩ và sinh viên y khoa.</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Là một bác sĩ trẻ, tôi muốn tìm hiểu kỹ hơn về các biến chứng có thể xảy ra sau phẫu thuật ung thư dạ dày, đặc biệt là các biến chứng sớm. Nghiên cứu này có đề cập đến một số biến chứng sau mổ. Tôi nên chú ý những gì trong quá trình theo dõi bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Chào bạn, một câu hỏi rất quan trọng và thực tế trong quản lý bệnh nhân hậu phẫu ung thư dạ dày! Phẫu thuật, đặc biệt là phẫu thuật lớn như cắt dạ dày, luôn tiềm ẩn nguy cơ biến chứng. Với vai trò là bác sĩ trẻ, việc bạn nắm vững các biến chứng có thể xảy ra và cách theo dõi, xử trí là cực kỳ cần thiết để đảm bảo an toàn và kết quả điều trị tốt nhất cho bệnh nhân.
+Nghiên cứu về Uncut Roux-Y tại Bệnh viện K cho thấy kết quả sớm khá tích cực khi không ghi nhận các biến chứng như chảy máu sau mổ, rò miệng nối, hay hẹp miệng nối. Tuy nhiên, điều này không có nghĩa là chúng ta có thể lơ là. Đây là những biến chứng cấp tính và nguy hiểm nhất mà bất kỳ phẫu thuật viên nào cũng cần đặc biệt cảnh giác.
+**1. Các biến chứng sớm cần theo dõi sát sao sau phẫu thuật cắt dạ dày:**
+*   **Chảy máu sau mổ:**
+    *   **Biểu hiện:** Nôn ra máu tươi hoặc máu đen, đi ngoài phân đen, sụt Hb nhanh, da niêm nhợt nhạt, mạch nhanh, huyết áp tụt.
+    *   **Quản lý:** Theo dõi dấu hiệu sinh tồn, xét nghiệm công thức máu, truyền máu/dịch nếu cần, nội soi cầm máu hoặc phẫu thuật lại nếu chảy máu nặng.
+*   **Rò miệng nối:**
+    *   **Biểu hiện:** Đau bụng dữ dội, sốt, nhiễm trùng phúc mạc, dịch dẫn lưu bất thường (có dịch tiêu hóa, dịch đục). Đây là biến chứng rất nguy hiểm, có thể dẫn đến sốc nhiễm trùng.
+    *   **Quản lý:** Chụp CLVT có cản quang uống, đặt dẫn lưu, kháng sinh phổ rộng, nuôi dưỡng hỗ trợ, phẫu thuật lại nếu rò lớn hoặc không kiểm soát được.
+*   **Hẹp miệng nối:**
+    *   **Biểu hiện:** Thường xuất hiện muộn hơn một chút (vài tuần đến vài tháng), nhưng đôi khi cũng có thể là sớm. Bệnh nhân khó nuốt, nôn ói sau ăn, sụt cân.
+    *   **Quản lý:** Nội soi nong miệng nối, đặt stent.
+*   **Nhiễm trùng vết mổ:** Sốt, sưng nóng đỏ đau vết mổ, có mủ.
+*   **Các biến chứng chung khác:** Viêm phổi, thuyên tắc mạch (huyết khối tĩnh mạch sâu, thuyên tắc phổi), suy thận cấp.
+**2. Các biến chứng muộn (và một số đã được đề cập với phương pháp khác):**
+Mặc dù Uncut Roux-Y được thiết kế để giảm thiểu, bạn vẫn cần biết về chúng.
+*   **Hội chứng Dumping:** Xảy ra do thức ăn xuống ruột non quá nhanh.
+*   **Trào ngược dịch mật:** Dịch mật từ ruột trào ngược lên mỏm dạ dày hoặc thực quản.
+*   **Hội chứng quai đến:** Đau bụng, buồn nôn, nôn mửa dịch mật sau ăn (chủ yếu ở Billroth II).
+*   **Viêm loét miệng nối.**
+*   **Suy dinh dưỡng, thiếu vitamin B12:** Do mất khả năng hấp thụ hoặc giảm diện tích hấp thụ.
+**3. Bảng tóm tắt các dấu hiệu cảnh báo và theo dõi:**
+| Biến chứng tiềm tàng | Dấu hiệu lâm sàng cần chú ý           | Các bước theo dõi/can thiệp ban đầu           |
+| :------------------ | :------------------------------------ | :-------------------------------------------- |
+| Chảy máu sau mổ     | Nôn ra máu, phân đen, tụt HA, mạch nhanh, thiếu máu | Theo dõi sát dấu hiệu sinh tồn, công thức máu, cầm máu nội soi/phẫu thuật |
+| Rò miệng nối        | Đau bụng dữ dội, sốt, nhiễm trùng, dịch dẫn lưu bất thường | CLVT, kháng sinh, dẫn lưu, phẫu thuật (nếu cần) |
+| Hẹp miệng nối       | Khó nuốt, nôn ói sau ăn, sụt cân       | Nội soi, nong, đặt stent                       |
+| Nhiễm trùng vết mổ  | Đau, sưng, đỏ, nóng, có mủ tại vết mổ | Khám vết mổ, kháng sinh, rạch dẫn lưu (nếu cần) |
+| Hội chứng Dumping   | Đánh trống ngực, vã mồ hôi, tiêu chảy sau ăn | Điều chỉnh chế độ ăn, thuốc hỗ trợ             |
+**Lời khuyên cho bác sĩ trẻ:**
+*   **Thăm khám lâm sàng:** Thường xuyên thăm khám bệnh nhân, đánh giá các triệu chứng chủ quan, khách quan, đặc biệt là các dấu hiệu sinh tồn và dịch dẫn lưu.
+*   **Cận lâm sàng:** Theo dõi các chỉ số xét nghiệm (công thức máu, điện giải đồ, protein, CRP) và các chẩn đoán hình ảnh khi có nghi ngờ (X-quang, siêu âm, CLVT).
+*   **Giáo dục bệnh nhân:** Hướng dẫn bệnh nhân nhận biết các dấu hiệu bất thường để báo cáo kịp thời.
+*   **Học hỏi kinh nghiệm:** Đừng ngần ngại thảo luận với các bác sĩ đàn anh, chị có kinh nghiệm để được hướng dẫn xử lý các tình huống phức tạp.</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Quản lý biến chứng sau phẫu thuật dạ dày - Hướng dẫn lâm sàng.</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp các phác đồ chi tiết về chẩn đoán, phòng ngừa và xử trí các biến chứng sớm và muộn sau phẫu thuật cắt dạ dày, là cẩm nang thiết yếu cho các bác sĩ lâm sàng và phẫu thuật viên.</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>Cập nhật xử trí biến chứng trong phẫu thuật tiêu hóa trên.</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>Khóa học CME chuyên sâu này tập trung vào các tình huống lâm sàng phức tạp và các phương pháp xử trí biến chứng hiệu quả nhất trong phẫu thuật tiêu hóa trên, bao gồm các ca khó về rò miệng nối, chảy máu, hoặc hẹp, giúp bác sĩ nâng cao năng lực ứng phó với các thách thức hậu phẫu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Làm thế nào để tiếp cận chẩn đoán và phân giai đoạn ung thư dạ dày ở bệnh nhân, và những đặc điểm lâm sàng nào cần chú ý, đặc biệt là đối với bác sĩ trẻ?</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Chào các bác sĩ trẻ và sinh viên y khoa!
+Tiếp cận chẩn đoán và phân giai đoạn ung thư dạ dày là một quy trình đa bước đòi hỏi sự tỉ mỉ và phối hợp giữa các chuyên khoa. Dưới đây là các bước quan trọng cần lưu ý để đảm bảo chẩn đoán chính xác và lập kế hoạch điều trị hiệu quả:
+*   **1. Tiếp cận lâm sàng ban đầu:**
+    *   **Khai thác bệnh sử:** Luôn hỏi kỹ về các triệu chứng như đau thượng vị dai dẳng, chán ăn, sụt cân không rõ nguyên nhân, nuốt nghẹn, nôn ra máu hoặc đi cầu phân đen. Nghiên cứu của Bệnh viện K cũng chỉ ra đau bụng thượng vị, chán ăn, sụt cân là những triệu chứng thường gặp nhất, trong đó đau bụng thượng vị chiếm tỷ lệ cao nhất.
+    *   **Thăm khám thực thể:** Tìm kiếm các dấu hiệu gợi ý di căn xa như hạch cổ (hạch Virchow), dấu hiệu Sister Mary Joseph ở rốn, gan to (do di căn), hoặc khối u sờ thấy ở thượng vị. Tuy nhiên, giai đoạn sớm thường không có dấu hiệu thực thể rõ ràng.
+*   **2. Chẩn đoán hình ảnh và nội soi:**
+    *   **Nội soi dạ dày tá tràng và sinh thiết:** Đây là tiêu chuẩn vàng để chẩn đoán xác định. Cần thực hiện sinh thiết ở nhiều vị trí, đặc biệt là rìa tổn thương và đáy ổ loét. Kỹ thuật nội soi dải tần hẹp (NBI) hoặc phóng đại có thể giúp đánh giá tổn thương tốt hơn.
+    *   **CT scan ngực-bụng-chậu:** Cần thiết để đánh giá mức độ xâm lấn của khối u (T), tình trạng hạch vùng (N) và tìm kiếm di căn xa (M) đến các cơ quan như gan, phổi, phúc mạc. Nghiên cứu đã chỉ ra sự phân bố giai đoạn u, hạch và di căn xa là rất quan trọng.
+    *   **PET/CT (nếu có thể):** Có thể hữu ích trong một số trường hợp để phát hiện di căn xa tiềm ẩn, đặc biệt khi nghi ngờ.
+*   **3. Phân giai đoạn theo TNM và ICD-10:**
+    *   **Hệ thống TNM (AJCC/UICC):** Đây là hệ thống phân loại chuẩn quốc tế và là cơ sở để đưa ra quyết định điều trị. Các bạn cần đánh giá kỹ:
+        *   **T (Tumor):** Mức độ xâm lấn của khối u vào thành dạ dày và các cơ quan lân cận. Nghiên cứu ghi nhận tỷ lệ T3 và T4 đáng kể.
+        *   **N (Node):** Tình trạng di căn hạch vùng. Đây là một yếu tố tiên lượng rất quan trọng và thường được đánh giá qua CT scan trước mổ và sau đó là giải phẫu bệnh của hạch vét được trong phẫu thuật.
+        *   **M (Metastasis):** Sự hiện diện của di căn xa. Nghiên cứu cũng cho thấy tỷ lệ di căn hạch vùng cao (N+).
+    *   **Mã ICD-10:** Đối với ung thư dạ dày, các bác sĩ sẽ sử dụng mã từ **C16** (U ác tính của dạ dày). Cụ thể hơn:
+        *   **C16.0:** U ác tính của phần tim dạ dày.
+        *   **C16.1:** U ác tính của vùng đáy dạ dày.
+        *   **C16.2:** U ác tính của thân dạ dày.
+        *   **C16.3:** U ác tính của vùng hang vị (ung thư dạ dày 1/3 dưới như trong nghiên cứu).
+        *   **C16.4:** U ác tính của môn vị.
+        *   **C16.5:** U ác tính của bờ cong nhỏ, không xác định vùng.
+        *   **C16.6:** U ác tính của bờ cong lớn, không xác định vùng.
+        *   **C16.8:** U ác tính của dạ dày có tổn thương lan rộng (overlaps lesion).
+        *   **C16.9:** U ác tính của dạ dày, không xác định.
+*   **4. Đặc điểm bệnh nhân từ nghiên cứu:** Nghiên cứu cho thấy bệnh nhân ung thư dạ dày 1/3 dưới thường gặp ở độ tuổi 50-70, với tỷ lệ nam giới cao hơn nữ giới (2.6/1). Giai đoạn III chiếm tỷ lệ cao nhất (41.4%), sau đó là giai đoạn II (38.8%), cho thấy phần lớn bệnh nhân được chẩn đoán khi bệnh đã tiến triển. Kích thước u phổ biến nhất là 3-5 cm. Những thông tin này giúp chúng ta có cái nhìn tổng quan về quần thể bệnh nhân cần điều trị.</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị ung thư dạ dày (ICD-10 C16) của Bộ Y tế.</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Tài liệu này cung cấp hướng dẫn toàn diện về chẩn đoán, phân giai đoạn, và phác đồ điều trị ung thư dạ dày theo Bộ Y tế Việt Nam và các tiêu chuẩn quốc tế, bao gồm cả mã ICD-10 liên quan và các khuyến nghị lâm sàng. Đây là nguồn tham khảo chính thống và cần thiết cho mọi bác sĩ lâm sàng.</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Khóa học chuyên sâu về Ung thư dạ dày: Từ chẩn đoán đến quản lý điều trị.</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>Khóa học này trang bị kiến thức chuyên sâu về dịch tễ học, các phương pháp chẩn đoán hình ảnh và nội soi tiên tiến, kỹ thuật sinh thiết, phân loại mô bệnh học và hệ thống phân giai đoạn TNM cho ung thư dạ dày. Khóa học được thiết kế để giúp học viên nâng cao năng lực lâm sàng, đưa ra quyết định điều trị tối ưu và cập nhật các tiến bộ mới nhất trong lĩnh vực ung thư tiêu hóa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Khi thực hiện phẫu thuật cắt dạ dày xa và phục hồi lưu thông tiêu hóa bằng phương pháp uncut Roux, một bác sĩ phẫu thuật trẻ cần lưu ý những nguyên tắc và kỹ thuật nào để tối ưu hóa kết quả lâm sàng?</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Kính gửi các đồng nghiệp trẻ,
+Phẫu thuật cắt dạ dày xa triệt căn với tái tạo lưu thông bằng phương pháp uncut Roux là một kỹ thuật quan trọng trong điều trị ung thư dạ dày 1/3 dưới. Để đạt được kết quả lâm sàng tối ưu, các bạn cần nắm vững những nguyên tắc và kỹ thuật sau:
+*   **1. Nguyên tắc phẫu thuật triệt căn (R0 resection):**
+    *   **Cắt bỏ khối u đủ rộng:** Đảm bảo đủ diện cắt an toàn (margin âm tính) cả về phía thực quản và tá tràng. Mục tiêu là loại bỏ hoàn toàn tổ chức ung thư. Đây là yếu tố tiên quyết cho tiên lượng bệnh nhân, và việc đánh giá chính xác vị trí, kích thước u (như u 3-5 cm trong nghiên cứu) sẽ giúp xác định ranh giới cắt phù hợp.
+    *   **Nạo vét hạch triệt để (D2 lymphadenectomy):** Việc nạo vét hạch đúng mức độ (D2 theo khuyến cáo của Bộ Y tế và các hiệp hội quốc tế) là cực kỳ quan trọng để đánh giá chính xác giai đoạn bệnh, loại bỏ hạch di căn và cải thiện thời gian sống cho bệnh nhân. Nghiên cứu cũng nhấn mạnh tầm quan trọng của số lượng hạch vét được (thường yêu cầu &gt;15 hạch).
+*   **2. Kỹ thuật uncut Roux trong tái tạo lưu thông:**
+    *   **Ưu điểm của Roux-en-Y:** Đây là phương pháp phổ biến để tái tạo lưu thông sau cắt dạ dày bán phần hoặc toàn bộ. Nó tạo ra một quai ruột dẫn lưu dịch mật tụy và một quai ruột khác để thức ăn đi xuống, ngăn ngừa hiệu quả trào ngược dịch mật vào thực quản hay dạ dày còn lại – một biến chứng thường gặp ở Billroth II.
+    *   **Sự khác biệt của uncut Roux:** Trong phương pháp uncut Roux, quai jejunum được sử dụng để nối với phần dạ dày còn lại (hoặc thực quản nếu là cắt toàn bộ). Điểm khác biệt chính là quai jejunum distal đó không bị cắt rời hoàn toàn mà chỉ rạch một phần thành ruột (phía chống mạc treo) để tạo miệng nối bên với quai jejunum gần vị trí nối với dạ dày. Mục tiêu chính là giảm nguy cơ tắc ruột cơ năng ở quai Roux và các hội chứng sau cắt dạ dày như hội chứng quai đến (afferent loop syndrome) hay hội chứng Dumping do sự di chuyển thức ăn mượt mà hơn.
+    *   **Kỹ thuật thực hiện:** Cần đảm bảo miệng nối không bị căng, không xoắn vặn và đủ rộng để tránh hẹp sau này. Việc sử dụng stapler hoặc khâu tay đều cần độ chính xác cao để tránh rò miệng nối.
+*   **3. Các điểm cần lưu ý trong quá trình phẫu thuật:**
+    *   **Kiểm soát chảy máu:** Đảm bảo cầm máu tốt trong suốt quá trình phẫu thuật để giảm thiểu mất máu. Nghiên cứu đã đề cập đến lượng máu mất trung bình, điều này trực tiếp ảnh hưởng đến quá trình hồi phục của bệnh nhân.
+    *   **Bảo toàn các cấu trúc quan trọng:** Thận trọng với tụy, lách và các mạch máu lớn xung quanh để tránh tổn thương không mong muốn, có thể dẫn đến các biến chứng như viêm tụy cấp, rò tụy hoặc chảy máu nặng.
+    *   **Kiểm tra tính toàn vẹn miệng nối:** Trước khi đóng bụng, luôn kiểm tra kỹ miệng nối có bị rò rỉ không, có thể bằng test methylene blue hoặc bơm khí qua ống thông dạ dày. Đây là bước quan trọng để phòng ngừa rò miệng nối, một biến chứng nghiêm trọng đã được đề cập trong nghiên cứu.
+*   **4. So sánh các phương pháp tái tạo lưu thông:**
+| Phương pháp tái tạo | Ưu điểm chính                                                     | Nhược điểm tiềm năng                                | Mục tiêu chính                                 |
+| :----------------- | :---------------------------------------------------------------- | :------------------------------------------------- | :--------------------------------------------- |
+| Billroth I         | Đơn giản, sinh lý hơn, ít hội chứng Dumping                       | Nguy cơ hẹp miệng nối, trào ngược dịch mật (ít hơn BII) | Nối dạ dày với tá tràng                         |
+| Billroth II        | Kỹ thuật dễ thực hiện, ít căng miệng nối                          | Trào ngược dịch mật, viêm dạ dày do trào ngược     | Nối dạ dày với quai jejunum tận                 |
+| Roux-en-Y (conventional) | Giảm trào ngược dịch mật, viêm dạ dày do trào ngược; kiểm soát Dumping tốt | Nguy cơ hẹp miệng nối, hội chứng quai Roux         | Ngăn trào ngược dịch mật lên dạ dày/thực quản |
+| Uncut Roux         | Giảm hội chứng quai Roux, ít tắc ruột cơ năng ở quai Roux        | Yêu cầu kỹ thuật cao hơn, thời gian phẫu thuật có thể dài hơn | Giảm biến chứng của Roux-en-Y conventional     |
+Việc lựa chọn phương pháp tái tạo phụ thuộc vào tình trạng bệnh nhân, kích thước dạ dày còn lại và kinh nghiệm của phẫu thuật viên. Luôn đặt sự an toàn, chất lượng cuộc sống lâu dài và kết quả ung thư học của bệnh nhân lên hàng đầu.</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Sổ tay phẫu thuật ung thư dạ dày: Kỹ thuật cắt dạ dày và tái tạo lưu thông.</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Cuốn sổ tay này trình bày chi tiết các kỹ thuật phẫu thuật cắt dạ dày triệt căn, bao gồm các phương pháp tái tạo lưu thông tiêu hóa như Billroth I, Billroth II, và Roux-en-Y (cả conventional và uncut Roux), với minh họa và hướng dẫn từng bước. Tài liệu giúp bạn hiểu sâu hơn về cơ sở lý thuyết và thực hành của từng kỹ thuật, từ đó nâng cao kỹ năng phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>Phẫu thuật nội soi và phẫu thuật mở ung thư dạ dày: Cập nhật kỹ thuật.</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>Khóa học thực hành này tập trung vào các kỹ thuật phẫu thuật cắt dạ dày triệt căn, bao gồm phẫu thuật nội soi và mở, kỹ thuật vét hạch D2, và các phương pháp tái tạo lưu thông tiêu hóa tiên tiến như uncut Roux. Học viên sẽ được cập nhật các nguyên tắc an toàn phẫu thuật, quản lý biến chứng, và thực hành qua các case lâm sàng phức tạp, giúp củng cố kiến thức và kỹ năng thực hành chuyên sâu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10.</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Sau phẫu thuật cắt dạ dày vì ung thư, những biến chứng sớm nào thường gặp nhất, và một bác sĩ cần làm gì để phát hiện và quản lý chúng hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Các bác sĩ và sinh viên thân mến,
+Sau phẫu thuật cắt dạ dày triệt căn, việc nhận biết sớm và quản lý hiệu quả các biến chứng là yếu tố then chốt để đảm bảo sự hồi phục của bệnh nhân và cải thiện tiên lượng. Dựa trên nghiên cứu của Bệnh viện K và kinh nghiệm lâm sàng, dưới đây là những biến chứng sớm thường gặp và cách tiếp cận quản lý:
+*   **1. Rò miệng nối (Anastomotic Leakage) - Mã ICD-10: T81.3:**
+    *   **Dấu hiệu nhận biết:** Sốt cao kéo dài không rõ nguyên nhân, đau bụng dữ dội không giảm sau giảm đau thông thường, bụng chướng, cứng, có dấu hiệu viêm phúc mạc, dịch dẫn lưu từ ống dẫn lưu bụng có màu sắc bất thường (dịch tiêu hóa, dịch mật, dịch đục). Đây là biến chứng nghiêm trọng nhất và cần được phát hiện sớm.
+    *   **Phát hiện:** Theo dõi sát dịch dẫn lưu (số lượng, màu sắc, tính chất), chỉ số viêm (Bạch cầu, CRP). Chụp CT bụng có cản quang uống/tiêm là phương pháp hiệu quả nhất để xác định vị trí và mức độ rò. Nghiên cứu cũng đã ghi nhận tỷ lệ rò miệng nối là một trong các biến chứng sớm.
+    *   **Quản lý:** Tùy thuộc vào mức độ rò. Có thể điều trị bảo tồn (kháng sinh phổ rộng, dẫn lưu ổ rò, nuôi dưỡng tĩnh mạch hoàn toàn, đặt stent qua nội soi nếu phù hợp) hoặc can thiệp phẫu thuật khẩn cấp để sửa chữa rò, rửa ổ bụng, hoặc tạo hậu môn nhân tạo.
+*   **2. Chảy máu (Hemorrhage) - Mã ICD-10: K91.8 (Biến chứng khác của thủ thuật tiêu hóa) hoặc T81.0 (Chảy máu do thủ thuật):**
+    *   **Dấu hiệu nhận biết:** Huyết động không ổn định (tụt huyết áp, mạch nhanh, dấu hiệu sốc), giảm hemoglobin cấp tính, nôn ra máu tươi hoặc dịch giống bã cà phê, đi cầu phân đen hoặc máu đỏ tươi qua hậu môn. Chảy máu có thể từ miệng nối, từ các mạch máu bị tổn thương trong quá trình phẫu thuật hoặc từ vết mổ.
+    *   **Phát hiện:** Theo dõi sát các chỉ số sinh tồn, công thức máu. Nội soi dạ dày cấp cứu có thể giúp xác định vị trí và nguyên nhân chảy máu.
+    *   **Quản lý:** Hồi sức tích cực (truyền máu, truyền dịch), sử dụng thuốc cầm máu (nhóm ức chế bơm proton liều cao). Nếu chảy máu không kiểm soát được, cần can thiệp nội soi (kẹp clip, tiêm epinephrine) hoặc phẫu thuật cấp cứu để cầm máu.
+*   **3. Nhiễm trùng vết mổ (Surgical Site Infection - SSI) - Mã ICD-10: T81.4:**
+    *   **Dấu hiệu nhận biết:** Sốt, sưng, nóng, đỏ, đau tại vết mổ, có dịch tiết mủ. Có thể kèm theo tăng bạch cầu và CRP.
+    *   **Phát hiện:** Thăm khám vết mổ thường xuyên, cấy dịch mủ nếu có để xác định vi khuẩn và kháng sinh đồ.
+    *   **Quản lý:** Kháng sinh phù hợp dựa trên kinh nghiệm hoặc kháng sinh đồ, chăm sóc vết mổ (thay băng, rửa vết thương), mở vết mổ và dẫn lưu nếu có áp xe khu trú.
+*   **4. Hẹp miệng nối (Anastomotic Stenosis) - Mã ICD-10: K91.8:**
+    *   **Dấu hiệu nhận biết:** Thường xuất hiện muộn hơn (vài tuần đến vài tháng) nhưng có thể biểu hiện sớm bằng khó nuốt, nôn ói dai dẳng sau ăn, sụt cân. Nghiên cứu cũng liệt kê hẹp miệng nối là một biến chứng sớm (dù tỷ lệ thấp hơn rò, chảy máu).
+    *   **Phát hiện:** Chụp X-quang có uống cản quang (gastrografin) hoặc nội soi dạ dày để đánh giá mức độ hẹp và chiều dài đoạn hẹp.
+    *   **Quản lý:** Nội soi nong rộng miệng nối bằng bóng hoặc đặt stent. Trong trường hợp nặng và không đáp ứng với điều trị nội soi, có thể cần phẫu thuật chỉnh sửa hoặc tạo miệng nối mới.
+**Lời khuyên cho các bác sĩ:**
+*   **Theo dõi sát sao:** Luôn duy trì theo dõi các dấu hiệu sinh tồn, lượng và tính chất dịch dẫn lưu, tình trạng bụng và các triệu chứng lâm sàng của bệnh nhân trong những ngày đầu và tuần đầu sau mổ. Bất kỳ thay đổi nhỏ nào cũng cần được đánh giá nghiêm túc và kịp thời.
+*   **Phối hợp đa chuyên khoa:** Phối hợp chặt chẽ với các chuyên khoa khác như gây mê hồi sức, dinh dưỡng lâm sàng, và nội soi tiêu hóa để quản lý toàn diện bệnh nhân.
+*   **Dinh dưỡng sớm:** Đảm bảo dinh dưỡng đầy đủ cho bệnh nhân, có thể qua đường tĩnh mạch hoàn toàn hoặc đường ruột sớm (ống thông nuôi dưỡng jejunum) nếu an toàn, để thúc đẩy quá trình lành vết thương và phục hồi tổng thể.
+Việc hiểu rõ, nhận diện sớm và sẵn sàng đối phó với các biến chứng này sẽ giúp các bạn nâng cao chất lượng chăm sóc và cải thiện kết quả điều trị cho bệnh nhân ung thư dạ dày sau phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr"/>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Hướng dẫn quản lý biến chứng sau phẫu thuật tiêu hóa trên (ICD-10 liên quan).</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Tập tài liệu này cung cấp kiến thức sâu rộng về các biến chứng thường gặp sau phẫu thuật dạ dày, thực quản, và tá tràng, bao gồm dấu hiệu nhận biết, phương pháp chẩn đoán, và chiến lược xử trí theo từng biến chứng cụ thể, kèm theo mã ICD-10 tương ứng. Đây là nguồn tham khảo thiết yếu cho các bác sĩ làm việc tại khoa ngoại tiêu hóa và hồi sức tích cực.</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>Chăm sóc hậu phẫu chuyên sâu và quản lý biến chứng trong phẫu thuật tiêu hóa.</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>Khóa học này cung cấp kiến thức và kỹ năng cần thiết để chăm sóc bệnh nhân trong giai đoạn hậu phẫu, đặc biệt chú trọng vào nhận biết sớm và xử trí các biến chứng nghiêm trọng như rò miệng nối, xuất huyết, nhiễm trùng, và tắc ruột. Học viên sẽ được trang bị các phác đồ xử trí chuẩn, nâng cao khả năng phản ứng nhanh và hiệu quả của bác sĩ lâm sàng, cũng như các biện pháp phòng ngừa biến chứng hiệu quả.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng về chẩn đoán sớm và phân loại giai đoạn ung thư dạ dày dựa trên ICD-10 và các khuyến nghị y tế chính thống, giúp các bác sĩ trẻ và sinh viên y khoa nâng cao kỹ năng thực hành.</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, làm thế nào để chúng em có thể nâng cao khả năng phát hiện sớm ung thư dạ dày, đặc biệt là ở giai đoạn T1, và ý nghĩa của việc này trong thực hành lâm sàng đối với tiên lượng bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc phát hiện sớm ung thư dạ dày, đặc biệt ở giai đoạn T1, là vô cùng quan trọng và mang ý nghĩa sống còn đối với tiên lượng của bệnh nhân. Theo nghiên cứu, những bệnh nhân ở giai đoạn T1 có thể được điều trị khỏi hoàn toàn chỉ bằng phẫu thuật đơn thuần với tiên lượng sống rất cao. Để nâng cao khả năng này trong thực hành lâm sàng, các bạn cần chú ý đến các điểm sau:
+*   **Khai thác bệnh sử kỹ lưỡng:**
+    *   Luôn cảnh giác với các triệu chứng tiêu hóa trên dai dẳng hoặc bất thường như đau thượng vị (epigastric pain), đầy bụng sau ăn (post-prandial fullness), trào ngược (reflux), buồn nôn, sụt cân không rõ nguyên nhân. Mặc dù các triệu chứng này không đặc hiệu, nhưng sự kết hợp và kéo dài của chúng cần được xem xét nghiêm túc, đặc biệt ở bệnh nhân trên 40 tuổi hoặc có tiền sử gia đình.
+    *   Lưu ý các yếu tố nguy cơ như nhiễm Helicobacter pylori, tiền sử viêm teo niêm mạc dạ dày, dị sản ruột, hoặc polyp dạ dày.
+*   **Thăm khám lâm sàng toàn diện:** Đánh giá tình trạng chung của bệnh nhân, tìm các dấu hiệu thiếu máu, sụt cân, hoặc các hạch ngoại vi.
+*   **Sử dụng hiệu quả các phương pháp cận lâm sàng:**
+    *   **Nội soi dạ dày tá tràng:** Đây là tiêu chuẩn vàng. Hãy luôn tỉ mỉ quan sát toàn bộ niêm mạc, đặc biệt là những vùng nghi ngờ nhỏ nhất. Chú ý đến những thay đổi màu sắc, độ lồi lõm, hoặc loét không điển hình.
+    *   **Sinh thiết:** Khi nội soi phát hiện tổn thương nghi ngờ, cần sinh thiết đa vị trí và đúng kỹ thuật để có mẫu bệnh phẩm đủ tiêu chuẩn chẩn đoán mô bệnh học.
+    *   **Chẩn đoán hình ảnh:** Siêu âm nội soi, CT scan ngực-bụng-chậu giúp đánh giá độ xâm lấn của khối u (giai đoạn T), tình trạng hạch vùng (N) và di căn xa (M) sau khi có chẩn đoán xác định.
+*   **Hiểu rõ về phân loại giai đoạn (TNM) theo ICD-O và ICD-10:**
+    *   Giai đoạn T1: Khối u chỉ giới hạn ở lớp niêm mạc hoặc dưới niêm mạc. Đây là giai đoạn có tiên lượng tốt nhất.
+    *   Giai đoạn T4: Khối u xâm lấn qua lớp thanh mạc hoặc xâm lấn trực tiếp vào các cơ quan lân cận. Giai đoạn này thường có tiên lượng xấu hơn.
+    *   Tỷ lệ di căn hạch (29.3% trong nghiên cứu) là một yếu tố tiên lượng quan trọng, cần được đánh giá kỹ lưỡng trong quá trình chẩn đoán và phẫu thuật.
+Việc hiểu rõ ý nghĩa của từng triệu chứng, kết hợp với kỹ năng lâm sàng và cận lâm sàng sẽ giúp các bạn phát hiện bệnh sớm, từ đó mang lại cơ hội điều trị khỏi bệnh cao nhất cho bệnh nhân.</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Hướng dẫn chẩn đoán và điều trị ung thư dạ dày của Bộ Y tế Việt Nam (phiên bản cập nhật).</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Tài liệu cung cấp các phác đồ chuẩn hóa về chẩn đoán, phân loại giai đoạn (bao gồm T1, T4 và di căn hạch theo TNM), và phương pháp điều trị ung thư dạ dày tại Việt Nam, cập nhật theo các tiêu chuẩn quốc tế và phân loại ICD-10, giúp bác sĩ lâm sàng có cơ sở vững chắc để thực hành.</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>Cập nhật kiến thức về tầm soát và phát hiện sớm ung thư dạ dày.</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr"/>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào các phương pháp tầm soát hiệu quả, kỹ thuật nội soi tiên tiến trong phát hiện tổn thương nhỏ, tiêu chuẩn sinh thiết và giải phẫu bệnh, giúp bác sĩ lâm sàng nâng cao khả năng nhận diện sớm các trường hợp ung thư dạ dày, đặc biệt ở giai đoạn T1. Khóa học bao gồm các buổi thảo luận ca lâm sàng, hướng dẫn mã hóa bệnh lý theo ICD-10 và cập nhật về chiến lược tầm soát cho các nhóm nguy cơ cao.</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, hỗ trợ sinh viên và bác sĩ trẻ tìm hiểu về các phương pháp phẫu thuật, theo dõi và quản lý biến chứng sau phẫu thuật cắt dạ dày, giúp tối ưu hóa kết quả điều trị cho bệnh nhân ung thư dạ dày.</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Khi thực hiện phẫu thuật cắt dạ dày cho bệnh nhân ung thư, chúng em cần lưu ý những biến chứng nào trong và sau mổ, và làm thế nào để quản lý chúng hiệu quả nhằm đảm bảo an toàn tối đa cho bệnh nhân?</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Kính chào các bạn, trong phẫu thuật cắt dạ dày điều trị ung thư, việc nhận biết và quản lý biến chứng là một kỹ năng thiết yếu mà mỗi bác sĩ ngoại khoa cần nắm vững để đảm bảo an toàn và tiên lượng tốt cho bệnh nhân. Mặc dù nghiên cứu của chúng tôi trên 58 bệnh nhân không ghi nhận trường hợp tai biến biến chứng nặng, và chỉ có 3 trường hợp nhiễm trùng vết mổ được điều trị nội khoa ổn định, các bạn vẫn cần chuẩn bị tâm thế và kiến thức về các biến chứng tiềm ẩn khác.
+Các biến chứng có thể xảy ra trong và sau phẫu thuật cắt dạ dày bao gồm:
+*   **Trong mổ:** Các tai biến như chảy máu cấp tính, tổn thương các cơ quan lân cận (tụy, lách, thực quản, đường mật). Việc kiểm soát chảy máu tốt và nhận diện, xử trí nhanh chóng các tổn thương là tối quan trọng.
+*   **Sau mổ sớm (trong 30 ngày):**
+    *   **Chảy máu sau mổ:** Có thể từ miệng nối hoặc từ diện cắt. Cần theo dõi sát dịch dẫn lưu, dấu hiệu sinh tồn, công thức máu.
+    *   **Rò miệng nối:** Là một biến chứng nghiêm trọng, đòi hỏi sự can thiệp kịp thời. Các dấu hiệu gồm sốt, đau bụng dữ dội, dịch dẫn lưu đục, tăng bạch cầu. Việc chẩn đoán sớm bằng CT scan với thuốc cản quang hoặc nội soi là cần thiết.
+    *   **Hẹp miệng nối:** Thường xảy ra muộn hơn, gây khó nuốt, nôn ói sau ăn, sụt cân. Có thể điều trị bằng nong qua nội soi.
+    *   **Nhiễm trùng vết mổ:** Như đã đề cập trong nghiên cứu, đây là biến chứng thường gặp nhất nhưng thường nhẹ và có thể điều trị nội khoa hiệu quả. Cần vệ sinh vết mổ đúng cách và sử dụng kháng sinh khi có chỉ định.
+*   **Sau mổ muộn:** Hội chứng dumping, thiếu máu do thiếu sắt hoặc vitamin B12, trào ngược mật-dạ dày, loét miệng nối.
+**Quản lý biến chứng hiệu quả:**
+1.  **Theo dõi sát:** Quan trọng nhất là theo dõi liên tục các dấu hiệu sinh tồn, lượng dịch dẫn lưu, tình trạng vết mổ, và các triệu chứng lâm sàng của bệnh nhân trong những ngày đầu sau mổ.
+2.  **Chẩn đoán sớm:** Khi nghi ngờ biến chứng, không ngần ngại thực hiện các xét nghiệm cận lâm sàng như công thức máu, CRP, X-quang, CT scan bụng để xác định chẩn đoán.
+3.  **Xử trí kịp thời:** Tùy thuộc vào loại và mức độ nặng của biến chứng, có thể điều trị nội khoa (kháng sinh, nuôi dưỡng tĩnh mạch, điều trị triệu chứng) hoặc phẫu thuật lại.
+4.  **Phòng ngừa:** Kỹ thuật phẫu thuật chuẩn xác, cầm máu tốt, đảm bảo vô trùng, và chăm sóc hậu phẫu chu đáo là những yếu tố then chốt để giảm thiểu nguy cơ biến chứng.
+Để các bạn dễ hình dung, dưới đây là bảng tổng hợp các biến chứng thường gặp và cách quản lý cơ bản:
+| Biến chứng thường gặp | Mô tả ngắn gọn (Theo dõi) | Quản lý ban đầu (ICD-10 liên quan) |
+|---|---|---|
+| **Chảy máu miệng nối** | Xuất hiện máu đỏ tươi/đen qua sonde dạ dày, đại tiện phân đen, thiếu máu (Hct giảm). | Truyền máu, nội soi cầm máu cấp cứu, hoặc phẫu thuật lại khi cần thiết (mã T81.0, K91.8 theo ICD-10). |
+| **Rò miệng nối** | Sốt cao, đau bụng dữ dội, bụng chướng, dịch dẫn lưu đục hoặc có dịch tiêu hóa, tăng bạch cầu, CRP tăng. | Dẫn lưu dịch rò, kháng sinh phổ rộng, nuôi dưỡng tĩnh mạch hoàn toàn (TPN), đôi khi phẫu thuật lại (mã T81.3, K91.8 theo ICD-10). |
+| **Hẹp miệng nối** | Khó nuốt, nôn ói sau ăn kéo dài, sụt cân. Thường xảy ra sau vài tuần đến vài tháng. | Nong miệng nối qua nội soi nhiều lần. Hiếm khi cần phẫu thuật chỉnh hình (mã K91.8 theo ICD-10). |
+| **Nhiễm trùng vết mổ** | Sưng, nóng, đỏ, đau tại vết mổ, có dịch mủ. | Vệ sinh vết mổ, kháng sinh theo kháng sinh đồ, rạch và dẫn lưu ổ mủ nếu có (mã T81.4 theo ICD-10). |
+Việc ghi nhận và mã hóa các biến chứng này theo ICD-10 là rất quan trọng cho việc theo dõi, thống kê và nghiên cứu khoa học.</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Phẫu thuật cắt dạ dày trong điều trị ung thư: Kỹ thuật và quản lý biến chứng (Sách giáo trình chuyên khoa).</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Tập hợp các bài báo khoa học và hướng dẫn thực hành lâm sàng chi tiết về các kỹ thuật phẫu thuật cắt dạ dày (ví dụ: Uncut Roux-en-Y reconstruction), nhận diện sớm và xử trí các biến chứng trong và sau mổ, bao gồm chảy máu, rò miệng nối và hẹp miệng nối, giúp nâng cao an toàn cho bệnh nhân và phù hợp với tiêu chuẩn ICD-10 cho các biến chứng sau phẫu thuật.</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>Quản lý biến chứng sau phẫu thuật ung thư đường tiêu hóa trên.</t>
+        </is>
+      </c>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>Khóa học cung cấp kiến thức chuyên sâu về nhận diện, chẩn đoán và xử trí các biến chứng thường gặp và hiếm gặp sau phẫu thuật cắt dạ dày và các phẫu thuật ung thư đường tiêu hóa trên khác. Các chủ đề bao gồm chảy máu, rò miệng nối, hẹp miệng nối, nhiễm trùng vết mổ, và rối loạn dinh dưỡng sau mổ. Khóa học nhấn mạnh vai trò của mã hóa biến chứng theo ICD-10, giúp bác sĩ lâm sàng tối ưu hóa kết quả điều trị và nâng cao kinh nghiệm thực hành.</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, giúp bác sĩ và sinh viên y khoa hiểu sâu hơn về phân loại mô bệnh học, các yếu tố tiên lượng trong ung thư dạ dày, cũng như ảnh hưởng của phẫu thuật đến dinh dưỡng và cách cải thiện chất lượng cuộc sống sau mổ dựa trên kiến thức ICD-10.</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, với các kết quả mô bệnh học ung thư dạ dày như kém biệt hóa hay biệt hóa vừa, chúng em nên hiểu và giải thích ý nghĩa tiên lượng như thế nào cho bệnh nhân? Đồng thời, làm thế nào để cải thiện tình trạng dinh dưỡng lâu dài sau phẫu thuật cắt dạ dày?</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Chào bạn, việc hiểu rõ kết quả mô bệnh học và các yếu tố tiên lượng là nền tảng để tư vấn cho bệnh nhân và lựa chọn phác đồ điều trị phù hợp. Đồng thời, quản lý dinh dưỡng sau phẫu thuật cắt dạ dày cũng đóng vai trò then chốt trong việc cải thiện chất lượng cuộc sống và tiên lượng lâu dài.
+**1. Ý nghĩa của thể mô bệnh học và các yếu tố tiên lượng:**
+*   **Thể kém biệt hóa (Poorly Differentiated):** Chiếm tỷ lệ cao nhất (43.1% trong nghiên cứu). Điều này có nghĩa là các tế bào ung thư không còn giữ được nhiều đặc điểm của tế bào dạ dày bình thường, phát triển nhanh, có xu hướng xâm lấn mạnh hơn và di căn sớm hơn. Tiên lượng của thể kém biệt hóa thường kém hơn so với các thể biệt hóa cao hơn.
+*   **Thể biệt hóa vừa (Moderately Differentiated):** Chiếm tỷ lệ 39.7%. Các tế bào ung thư còn giữ được một phần cấu trúc của tế bào bình thường, mức độ ác tính trung gian giữa kém biệt hóa và biệt hóa tốt.
+*   **Các yếu tố tiên lượng khác:**
+    *   **Giai đoạn bệnh:** Giai đoạn T1 (36.2% bệnh nhân trong nghiên cứu) có tiên lượng rất tốt, có thể khỏi bệnh hoàn toàn bằng phẫu thuật. Trong khi đó, giai đoạn T4 (41.1% bệnh nhân) thường liên quan đến xâm lấn sâu và tiên lượng kém hơn.
+    *   **Di căn hạch:** Tỷ lệ di căn hạch 29.3% trong nghiên cứu là một chỉ số quan trọng, cho thấy bệnh có khả năng di căn xa hơn và ảnh hưởng đáng kể đến tiên lượng.
+Khi giải thích cho bệnh nhân, các bạn cần dùng ngôn ngữ đơn giản, dễ hiểu, đồng thời thể hiện sự đồng cảm và cung cấp thông tin một cách chân thực nhưng không gây hoang mang. Nhấn mạnh rằng tiên lượng phụ thuộc vào nhiều yếu tố tổng hợp chứ không chỉ riêng mô bệnh học.
+**2. Cải thiện tình trạng dinh dưỡng lâu dài sau phẫu thuật cắt dạ dày:**
+Phẫu thuật cắt dạ dày ảnh hưởng lớn đến quá trình tiêu hóa và hấp thu dinh dưỡng. Nghiên cứu của chúng ta ghi nhận tình trạng tăng cân sau 12 tháng lên đến 97.4%, và hơn 50% bệnh nhân phục hồi tốt các triệu chứng như đau thượng vị, trào ngược. Tuy nhiên, việc quản lý dinh dưỡng vẫn cần được chú trọng để duy trì kết quả này:
+*   **Chế độ ăn:**
+    *   **Ăn nhiều bữa nhỏ:** Thay vì 3 bữa chính, bệnh nhân nên ăn 5-6 bữa nhỏ/ngày để tránh hội chứng dumping và giúp hấp thu tốt hơn.
+    *   **Ăn chậm, nhai kỹ:** Giúp thức ăn được nghiền nhỏ, giảm gánh nặng cho hệ tiêu hóa còn lại.
+    *   **Hạn chế chất lỏng trong bữa ăn:** Uống nước giữa các bữa ăn, tránh uống cùng lúc với thức ăn để không làm loãng dịch vị và tăng thể tích dạ dày còn lại.
+    *   **Tránh thức ăn quá ngọt, nhiều đường:** Đặc biệt trong giai đoạn đầu, để ngăn ngừa hội chứng dumping.
+    *   **Tăng cường protein và chất béo lành mạnh:** Giúp duy trì cân nặng và năng lượng.
+*   **Bổ sung vi chất:**
+    *   **Vitamin B12:** Do thiếu yếu tố nội tại sau cắt dạ dày, cần bổ sung Vitamin B12 định kỳ bằng đường tiêm hoặc uống liều cao.
+    *   **Sắt:** Theo dõi và bổ sung sắt khi có dấu hiệu thiếu máu. Mã hóa theo ICD-10 (D50.x).
+    *   **Calci và Vitamin D:** Để phòng ngừa loãng xương, đặc biệt ở người lớn tuổi.
+*   **Theo dõi định kỳ:** Đánh giá tình trạng dinh dưỡng, cân nặng, xét nghiệm máu (hồng cầu, ferritin, vitamin B12) định kỳ để điều chỉnh chế độ ăn và bổ sung kịp thời. Việc ghi nhận các tình trạng thiếu hụt dinh dưỡng theo ICD-10 giúp theo dõi hiệu quả và lập kế hoạch can thiệp.</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Mô bệnh học ung thư dạ dày và các yếu tố tiên lượng (Sách giáo khoa giải phẫu bệnh).</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Tài liệu chuyên sâu về phân loại mô bệnh học của ung thư dạ dày (ví dụ: phân loại Lauren, WHO), ý nghĩa lâm sàng của các thể biệt hóa (kém biệt hóa, biệt hóa vừa) đối với tiên lượng và lựa chọn điều trị, cùng với các yếu tố tiên lượng khác như giai đoạn T và tình trạng di căn hạch. Tài liệu cũng đề cập đến cách mã hóa chính xác theo ICD-10 cho từng loại mô bệnh học và giai đoạn.</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>Dinh dưỡng lâm sàng cho bệnh nhân sau phẫu thuật ung thư dạ dày.</t>
+        </is>
+      </c>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>Khóa học tập trung vào đánh giá tình trạng dinh dưỡng, lập kế hoạch can thiệp dinh dưỡng cá thể hóa (đặc biệt là quản lý tăng cân, phòng ngừa hội chứng dumping và bù đắp thiếu hụt vitamin, khoáng chất) và theo dõi lâu dài cho bệnh nhân sau cắt dạ dày. Nắm vững các chiến lược dinh dưỡng giúp cải thiện chất lượng cuộc sống và tiên lượng bệnh, với hướng dẫn chi tiết về mã hóa các tình trạng thiếu hụt dinh dưỡng theo ICD-10 để phục vụ cho việc quản lý bệnh án và nghiên cứu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt hướng dẫn bác sĩ trẻ và sinh viên y khoa về các phương pháp phẫu thuật tiêu hóa.</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Thưa chuyên gia, khi nào thì nên cân nhắc phương pháp tái tạo lưu thông tiêu hóa kiểu Uncut Roux-en-Y sau phẫu thuật cắt dạ dày do ung thư 1/3 dưới, và những ưu điểm nổi bật của nó là gì so với các phương pháp khác?</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Chào bạn, đây là một câu hỏi rất quan trọng đối với các bác sĩ trẻ và sinh viên y khoa khi tiếp cận phẫu thuật ung thư dạ dày. Phương pháp tái tạo lưu thông tiêu hóa kiểu Uncut Roux-en-Y (hay còn gọi là Roux-en-Y không cắt) sau phẫu thuật cắt dạ dày 1/3 dưới là một lựa chọn tối ưu trong nhiều trường hợp, đặc biệt khi mục tiêu là giảm thiểu các biến chứng trào ngược.
+**Chỉ định cân nhắc:**
+*   **Ung thư dạ dày 1/3 dưới:** Đây là chỉ định chính được nhắc đến trong nghiên cứu, sau khi đã cắt bỏ phần dạ dày bị bệnh.
+*   **Bệnh nhân có nguy cơ cao bị viêm dạ dày trào ngược:** Những bệnh nhân này sẽ được hưởng lợi đáng kể từ cơ chế ngăn chặn trào ngược của phương pháp này.
+*   **Khi muốn tối ưu hóa tình trạng dinh dưỡng hậu phẫu:** Mặc dù cần thêm nghiên cứu lớn hơn, nhưng dữ liệu ban đầu cho thấy phương pháp này giúp cải thiện khả năng giữ và tăng cân của bệnh nhân.
+**Ưu điểm nổi bật của Uncut Roux-en-Y:**
+Phương pháp này kết hợp miệng nối dạ dày hỗng tràng theo kiểu Bilroth II và miệng nối Braun, với một đoạn hỗng tràng giữa hai miệng nối được ngăn lại bằng băng đạn chỉ đóng ghim mà không cắt. Cơ chế độc đáo này mang lại nhiều lợi ích:
+*   **Ngăn chặn trào ngược dịch mật và dịch tụy:** Điều này giúp giảm đáng kể tỉ lệ viêm dạ dày trào ngược và viêm thực quản trào ngược, vốn là những biến chứng thường gặp và gây khó chịu cho bệnh nhân.
+*   **Duy trì tính liên tục của dẫn truyền nhu động ruột:** Việc không cắt đoạn ruột giúp bảo tồn nhu động sinh lý từ tá tràng, đẩy dịch tiêu hóa đi theo chiều tự nhiên, làm giảm nguy cơ ứ đọng.
+*   **Giảm hội chứng ứ đọng Roux:** Các nghiên cứu, bao gồm phân tích gộp của Sun trên 891 bệnh nhân, đã chứng minh rằng Uncut Roux-en-Y giảm đáng kể hội chứng này.
+*   **Giảm thời gian phẫu thuật:** Điều này có thể giúp giảm nguy cơ biến chứng trong mổ và thời gian hồi phục.
+*   **Cải thiện tình trạng dinh dưỡng:** Bệnh nhân có xu hướng giữ và tăng cân tốt hơn sau mổ, một yếu tố quan trọng trong quá trình hồi phục và chất lượng sống.
+Đối với các bác sĩ trẻ, việc nắm vững cơ chế và chỉ định của Uncut Roux-en-Y là rất quan trọng để đưa ra lựa chọn phẫu thuật phù hợp nhất cho từng bệnh nhân, đồng thời giảm thiểu các biến chứng và cải thiện chất lượng cuộc sống sau mổ.</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
+      <c r="I448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt hướng dẫn bác sĩ trẻ và sinh viên y khoa về quản lý bệnh nhân sau phẫu thuật tiêu hóa.</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Sau phẫu thuật cắt dạ dày và tái tạo Uncut Roux-en-Y, các bác sĩ trẻ cần lưu ý những biến chứng gì và làm thế nào để theo dõi tình trạng dinh dưỡng của bệnh nhân một cách hiệu quả?</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Các bạn sinh viên và bác sĩ trẻ thân mến, việc theo dõi và quản lý bệnh nhân sau phẫu thuật cắt dạ dày và tái tạo Uncut Roux-en-Y là một khía cạnh quan trọng để đảm bảo sự hồi phục toàn diện và chất lượng sống cho người bệnh.
+**1. Các biến chứng cần lưu ý:**
+Mặc dù Uncut Roux-en-Y được đánh giá là an toàn và khả thi với tỉ lệ biến chứng trong và sau mổ thấp (nghiên cứu cho thấy 100% bệnh nhân không gặp biến chứng), nhưng các bạn vẫn cần cảnh giác với những vấn đề sau:
+*   **Viêm dạ dày trào ngược:** Mặc dù tỉ lệ giảm đáng kể, nhưng vẫn có thể xảy ra. Nghiên cứu chỉ ra tỉ lệ viêm dạ dày là 31,1% ở thời điểm 6 tháng và 21,6% ở thời điểm 1 năm. Các bạn cần giải thích rõ cho bệnh nhân về các triệu chứng như ợ nóng, đau thượng vị, buồn nôn sau ăn, và hướng dẫn họ về chế độ ăn uống, sinh hoạt phù hợp.
+*   **Hội chứng ứ đọng Roux:** Dù gần như không gặp, nhưng các bạn cần hiểu về nó. Đây là tình trạng thức ăn hoặc dịch tiêu hóa bị ứ đọng ở quai ruột dẫn lưu do rối loạn vận động. Triệu chứng có thể bao gồm buồn nôn, nôn, đau bụng sau ăn.
+*   **Biến chứng phẫu thuật chung:** Bao gồm nhiễm trùng vết mổ, chảy máu, rò miệng nối. Các bạn cần theo dõi sát các dấu hiệu sinh tồn, tình trạng bụng và vết mổ của bệnh nhân trong những ngày đầu sau mổ.
+**2. Theo dõi và cải thiện tình trạng dinh dưỡng:**
+Phương pháp Uncut Roux-en-Y được ghi nhận giúp cải thiện tình trạng dinh dưỡng. Tuy nhiên, việc theo dõi chặt chẽ là điều cần thiết.
+*   **Đánh giá định kỳ:** Theo dõi cân nặng, chỉ số BMI, và các chỉ số xét nghiệm liên quan đến dinh dưỡng (protein máu, albumin, prealbumin, hemoglobin, vitamin B12, sắt) ở các mốc thời gian cụ thể (ví dụ: 1 tháng, 3 tháng, 6 tháng, 1 năm sau mổ).
+*   **Tư vấn dinh dưỡng chuyên sâu:** Hướng dẫn bệnh nhân về chế độ ăn uống sau cắt dạ dày: ăn nhiều bữa nhỏ, thức ăn mềm, dễ tiêu hóa, tránh đồ ăn cay nóng, nhiều dầu mỡ. Bổ sung vitamin và khoáng chất nếu cần thiết.
+*   **Phát hiện và xử lý suy dinh dưỡng:** Nếu bệnh nhân có dấu hiệu suy dinh dưỡng (sụt cân, thiếu máu, các chỉ số dinh dưỡng thấp), cần can thiệp sớm bằng cách điều chỉnh chế độ ăn, bổ sung dinh dưỡng đường uống hoặc cân nhắc dinh dưỡng tĩnh mạch trong một số trường hợp.
+Dưới đây là một bảng tóm tắt về tỉ lệ viêm dạ dày theo nghiên cứu:
+| Thời điểm sau mổ | Tỉ lệ viêm dạ dày |
+| :--------------- | :---------------: |
+| 6 tháng          | 31,1%             |
+| 1 năm            | 21,6%             |
+Việc theo dõi toàn diện và chủ động sẽ giúp bệnh nhân vượt qua giai đoạn hậu phẫu một cách thuận lợi nhất.</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, đặc biệt hướng dẫn bác sĩ trẻ và sinh viên y khoa về chẩn đoán và điều trị chấn thương chỉnh hình.</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Khi tiếp cận một bệnh nhân bị gãy ổ cối, đặc biệt trong bối cảnh đa chấn thương, các bác sĩ trẻ cần có những nguyên tắc đánh giá và xử trí ban đầu nào để đảm bảo kết quả tốt nhất?</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Chào các bạn, gãy ổ cối là một tổn thương nghiêm trọng, thường gặp ở bệnh nhân đa chấn thương do tai nạn giao thông hoặc ngã từ độ cao. Đối với các bác sĩ trẻ, việc đánh giá và xử trí ban đầu đúng đắn là cực kỳ quan trọng để cứu sống bệnh nhân và tối ưu hóa kết quả chức năng.
+**Các nguyên tắc đánh giá và xử trí ban đầu:**
+1.  **Tiếp cận theo ATLS (Advanced Trauma Life Support):**
+    *   Luôn ưu tiên đánh giá và xử trí các tình trạng đe dọa tính mạng theo thứ tự A (Airway), B (Breathing), C (Circulation), D (Disability), E (Exposure). Gãy ổ cối thường đi kèm với chấn thương nặng khác, vì vậy cần loại trừ các tổn thương nội tạng, chảy máu lớn trước khi tập trung vào ổ cối.
+    *   Kiểm soát chảy máu: Gãy ổ cối có thể gây mất máu đáng kể do tổn thương mạch máu vùng chậu. Cần đánh giá tình trạng huyết động và hồi sức dịch kịp thời.
+    *   Đánh giá thần kinh: Đảm bảo không có tổn thương thần kinh đi kèm, đặc biệt là thần kinh tọa.
+2.  **Đánh giá chấn thương chỉnh hình ban đầu:**
+    *   **Hỏi bệnh sử:** Nắm rõ cơ chế chấn thương (ví dụ: tai nạn giao thông 68,7% theo nghiên cứu), hướng lực tác động.
+    *   **Khám lâm sàng:**
+        *   **Kiểm tra tình trạng chi:** Biến dạng, sưng nề, bầm tím vùng háng, mông.
+        *   **Đánh giá chức năng:** Khả năng vận động của khớp háng (rất hạn chế hoặc không thể vận động do đau).
+        *   **Kiểm tra mạch và thần kinh ngoại biên:** Đảm bảo không có tổn thương mạch máu hoặc thần kinh ở chi dưới (đặc biệt thần kinh tọa).
+    *   **Chẩn đoán hình ảnh:**
+        *   **X-quang khung chậu thẳng (AP view):** Là phim cơ bản.
+        *   **X-quang chếch Judet (Obturator oblique và Iliac oblique):** Cung cấp cái nhìn 3D về cấu trúc xương ổ cối, giúp xác định đường gãy và di lệch.
+        *   **Chụp cắt lớp vi tính (CT scan) khung chậu:** Đây là tiêu chuẩn vàng để đánh giá gãy ổ cối, cung cấp thông tin chi tiết về mức độ di lệch, mảnh gãy, tổn thương khớp và các tổn thương kèm theo. Việc này vô cùng quan trọng để lên kế hoạch phẫu thuật.
+3.  **Xử trí ban đầu:**
+    *   **Giảm đau:** Sử dụng thuốc giảm đau mạnh.
+    *   **Bất động:** Cố định tạm thời chi dưới bằng nẹp hoặc kéo liên tục để giảm đau và ngăn ngừa tổn thương thêm.
+    *   **Hội chẩn:** Gãy ổ cối là tổn thương phức tạp, yêu cầu hội chẩn sớm với bác sĩ chấn thương chỉnh hình có kinh nghiệm để quyết định phương pháp điều trị cuối cùng (bảo tồn hay phẫu thuật).
+Việc nắm vững các bước này giúp các bạn không bỏ sót các tổn thương quan trọng và đặt nền tảng cho một kết quả điều trị thành công, như việc đánh giá kết quả lâm sàng dựa trên thang điểm Majeed và liền xương dựa trên X-quang sau mổ đã được nhắc đến.</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr"/>
+      <c r="H450" t="inlineStr"/>
+      <c r="I450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Chatbot y khoa chuyên về y khoa, cung cấp thông tin và tư vấn lâm sàng dựa trên ICD-10, hỗ trợ bác sĩ trẻ và sinh viên y khoa nâng cao kiến thức chuyên môn.</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Các bác sĩ trẻ cần hiểu rõ những ưu điểm chính của phương pháp Uncut Roux-Y trong phẫu thuật 